--- a/data/02_intermediate/cleaned_Faf_Larage_songs.xlsx
+++ b/data/02_intermediate/cleaned_Faf_Larage_songs.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Accusé, levez-vous, Monsieur Socrate bip dit Mac Tyer Né à Aubervilliers, le 23 avril 79 Votre casier judiciaire porte mention de deux condamnations Vol à main armée et séquestration Vous êtes renvoyé d'vant la Cour d'Assises Pour tentative dassassinat sur Monsieur Mac Kregor né à Saint-Denis Lors de linstruction vous avez nié les faits Expliquez-vous aujourdhui sur ce qui vous est reproché Bon Madame la juge, jai rien dautre à vous dire Cette histoire me dépasse, faut m'croire Ce soir-là, cest pas moi qu'est mal agi, jnai pas tiré Faites une requête à lI.G.S pour enquêter sur l O.P.J Monsieur, arrêtez dinduire en erreur les enquêteurs Olah, attendez Oui, des questions Monsieur le procureur ? Madame la présidente Allons nous laisser laccusé remettre en question le travail fait par les inspecteurs ? You might also like Surtout pas, je demande le premier témoin de laffaire Donc faites entrer à la barre, Monsieur le commissaire Il devait être 22h30 quand lappel radio nous a signalé Une agression à main armée au 80 rue de lImpasse On était pas très loin parce quon était sur c'gars depuis 9 mois déjà Pour des trafics de stup' on attendait juste Le flagrant délit, un truc croquant à se mettre sous la dent On avaient rien d'sérieux Madame la présidente Très bien, procureur des questions ? Non, bon Maître, cest à vous, des questions ? Monsieur le commissaire, vos états de service sont impressionnants Vous ne comptez plus les arrestations, seulement Une affaire fait tâche dans votre dossier Accusation de corruption que lI.G.S fini par classer 6 mois à filer mon client ? Vous l'dites vous-même aucun résultat, rien à se mettre sous la dent Peut-être que comme mon client lindique Il a mis fin à ses anciennes activités illicites Mais ça à rien à voir là, de quoi vous m'parlez ? Cest mon procès quon traite ou quoi ? Jvois pas pourquoi on secoue mon passé On est venus comme je vous lai dit moi et mon collègue Après avoir enfoncé la porte et ce qui sest passé est écrit dans mon rapport Eh Monsieur le commissaire veuillez garder votre calme, éviter tout écart Jvous rappelle vous êtes à la barre Faites entrer monsieur Mac Kregor, témoin dans cette affaire Cest à vous, s'il vous plaît, veuillez être clair Madame la présidente pour être franc, ça fait une heure que je suis assis dans le box Jécoute les conneries de lautre flicaillon qui veut me faire passer pour un tox C'soir-là, j'me rappelle pas trop des faits, juste que cétait pas drôle Et que cest pas So' qui ma tiré dessus pour notre accro' Quelle éloquence Monsieur Mac Kregor Mais nous ne sommes pas au théâtre et à la barre faut être fiable Et le prochain témoin naccuse pas, il donne des faits Donc faites-le appeler pour qu'il puisse témoigner C'putain d'quartier a plus dâme, ils sont tous atteints, ça pue l'drame Jsuis pas c'trou du cul d'concierge planqué derrière un judas Loin dêtre vierge mon casier porte le poids d'mes erreurs Comme ce gosse écrasé, des pleurs, du sang sur son bermuda Jai payé ma dette, j'roule droit, la taule ma rassasié Jétais cool avec ma môme quand jai vu larme et sa tête Un brasier dans ses yeux, jimagine la suite Ça pète dans tous les sens, ça sent la poudre, les substances illicites Et en parlant de substance, êtes-vous toujours alcoolique ? Désolé, ma dernière cuite, cétait en 98 Cet enfoiré nous a frôlé moi et la p'tite, il pissait la rage Oh vous êtes dans un tribunal, surveillez votre langage Un nouveau témoin devrait intervenir A la barre s'il vous plaît, je demande Bachir Écoutez, moi jai tout vu, jai tout entendu Je vous dis tout, pas dmalentendu, ces keufs sont des ripoux Au départ de lhistoire, jétais chez Mac Kregor Pépère, il était tard et dun coup ça frappe fort Mon pote sagite, sexcite, hésite à aller voir Puis me suggère de me glisser dans larmoire Elle entrouvert, lui a ouvert Le man est insolent, violent et muni d'un revolver Mon compère sexplique, essaye de le calmer Mais très vite le jeune homme a commencé à semporter Puis soudain la porte claque, les policiers débarquent Un keuf braque, il a le trac, les nerfs craquent un coup part Lhomme se tient la tête, regrette ce quil vient de faire Mac Tyer reste de fer et mon pote est par terre Attendez, attendez, un coup part Vous lavez vu, vous lavez entendu, et tout ça du placard ? Eh je lai vu et entendu comme je vous vois Comme jai vu ce policier prendre le brolique à Mac Tyer Je lai vu et entendu parler à petite voix Parler de balistique et comploter pendant des heures embrouille générale Merci Bon nous allons poursuivre et passer aux réquisitions À la barre Monsieur le procureur, cest à vous Mesdames et Messieurs les jurés nous avons là une affaire simple Une histoire de ghetto de plus qui vire au drame Et aujourdhui à la barre, la routine sinstalle, que dire de plus ? Un soir il devient fou, il sort avec une arme Et un témoin la vu, vous lavez entendu À nen pas douter vous y avez cru, laccusé a été reconnu Le témoin était là avec son enfant Lorsquil croisa laccusé armé d un revolver menaçant Criant de venger la victime, peu d'temps avant le crime Devant un père et sa fille, peu d'temps avant le crime Mais laccusé ne sarrête pas la Le commissaire vous la dit sous serment, il a tiré Avec sa rage mortelle, il a tiré Laccusé avait fermement lintention de tuer Il est coupable Mesdames et Messieurs les jurés Laisser cette bombe à retardement dans les rues serait insensé Et ne vous laissez pas abuser Les témoins de la défense sont tous du même quartier Ils jouent à larme à feu, drogue et jen passe Cest pourquoi leurs récits ne sont pas digne de foi Et noubliez pas laccusé est multi récidiviste Agressif, un délinquant qui joue avec la justice Afin de savoir vos enfants en toute sécurité Cet homme se doit dêtre enfermé Madame la présidente, je requière une peine De 8 ans demprisonnement et laisse la parole à la défense Liberté, égalité, fraternité, Messieurs les jurés Pourquoi personne ny croit plus dans nos cités ? L'égalité des chances une utopie Car on ne mène pas la même vie du 16ème à Saint-Denis Il faut lavouer naccentuons pas les injustices Au nom d'la fraternité, refusons dêtre complice De lassassinat dune liberté Le tout cest dadmettre quun homme peut changer Notre société ignore-t-elle le pardon ? Peut-on condamner sur de simples présomptions ? Notre police nest pas infaillible Dans cette affaire il me parait clair quil y a de la bavure dans lair Alors qui va ton condamner Le vrai coupable, ou ce noir au lourd passé ? Le dernier témoin est formel Le crime na pas de couleur ni dorigine, vous êtes informés Merci Maître, maintenant passons à laccusé Si celui-ci a quelque chose à ajouter Sachez quaprès nous délibérerons Monsieur Socrate bip nous vous écoutons Faites preuve dindulgence, le commissaire vous a menti T'en a gros sur le cur quand tu n'éduques pas ta fille Madame la présidente, javais 16 ans quand jai morflé Quand je surfais sur des vagues où des frères se sont noyés Jai la musique pour évacuer ma rage de vivre Cest ma psychanalyse, celle qui manalyse quand je vais mal Mme la juge je suis juste un bon coupable Un repris de justice au casier redoutable Madame, les rafales naccouchent que des cadavres Aux dires du procureur, j'suis trop menaçant pour quon me relâche Jsuis innocent Messieurs les jurés, s'il vous plaît, soyez clément À cause de mon lourd passif, vous oubliez que les hommes changent délibérations Monsieur Socrate bip, après délibération Pour tentative de meurtre avec préméditation Sur la personne de Monsieur Mac Kregor, tout a été prouvé Vous êtes reconnu coupable à lunanimité La cour vous a condamné à la peine de 5 ans de prison ferme Sachez que vous avez 10 jours pour faire appel Mais, mais quest-ce tu m'racontes là ? Mais putain, là jétais en train de men sortir Mais va te faire foutre, cest quoi cette justice de merde ? Mais, mais fais quelque chose le baveux là Mais mais quest-ce quil y a ?2</t>
+          <t>Accusé, levez-vous, Monsieur Socrate bip dit Mac Tyer Né à Aubervilliers, le 23 avril 79 Votre casier judiciaire porte mention de deux condamnations Vol à main armée et séquestration Vous êtes renvoyé d'vant la Cour d'Assises Pour tentative dassassinat sur Monsieur Mac Kregor né à Saint-Denis Lors de linstruction vous avez nié les faits Expliquez-vous aujourdhui sur ce qui vous est reproché Bon Madame la juge, jai rien dautre à vous dire Cette histoire me dépasse, faut m'croire Ce soir-là, cest pas moi qu'est mal agi, jnai pas tiré Faites une requête à lI.G.S pour enquêter sur l O.P.J Monsieur, arrêtez dinduire en erreur les enquêteurs Olah, attendez Oui, des questions Monsieur le procureur ? Madame la présidente Allons nous laisser laccusé remettre en question le travail fait par les inspecteurs ? Surtout pas, je demande le premier témoin de laffaire Donc faites entrer à la barre, Monsieur le commissaire Il devait être 22h30 quand lappel radio nous a signalé Une agression à main armée au 80 rue de lImpasse On était pas très loin parce quon était sur c'gars depuis 9 mois déjà Pour des trafics de stup' on attendait juste Le flagrant délit, un truc croquant à se mettre sous la dent On avaient rien d'sérieux Madame la présidente Très bien, procureur des questions ? Non, bon Maître, cest à vous, des questions ? Monsieur le commissaire, vos états de service sont impressionnants Vous ne comptez plus les arrestations, seulement Une affaire fait tâche dans votre dossier Accusation de corruption que lI.G.S fini par classer 6 mois à filer mon client ? Vous l'dites vous-même aucun résultat, rien à se mettre sous la dent Peut-être que comme mon client lindique Il a mis fin à ses anciennes activités illicites Mais ça à rien à voir là, de quoi vous m'parlez ? Cest mon procès quon traite ou quoi ? Jvois pas pourquoi on secoue mon passé On est venus comme je vous lai dit moi et mon collègue Après avoir enfoncé la porte et ce qui sest passé est écrit dans mon rapport Eh Monsieur le commissaire veuillez garder votre calme, éviter tout écart Jvous rappelle vous êtes à la barre Faites entrer monsieur Mac Kregor, témoin dans cette affaire Cest à vous, s'il vous plaît, veuillez être clair Madame la présidente pour être franc, ça fait une heure que je suis assis dans le box Jécoute les conneries de lautre flicaillon qui veut me faire passer pour un tox C'soir-là, j'me rappelle pas trop des faits, juste que cétait pas drôle Et que cest pas So' qui ma tiré dessus pour notre accro' Quelle éloquence Monsieur Mac Kregor Mais nous ne sommes pas au théâtre et à la barre faut être fiable Et le prochain témoin naccuse pas, il donne des faits Donc faites-le appeler pour qu'il puisse témoigner C'putain d'quartier a plus dâme, ils sont tous atteints, ça pue l'drame Jsuis pas c'trou du cul d'concierge planqué derrière un judas Loin dêtre vierge mon casier porte le poids d'mes erreurs Comme ce gosse écrasé, des pleurs, du sang sur son bermuda Jai payé ma dette, j'roule droit, la taule ma rassasié Jétais cool avec ma môme quand jai vu larme et sa tête Un brasier dans ses yeux, jimagine la suite Ça pète dans tous les sens, ça sent la poudre, les substances illicites Et en parlant de substance, êtes-vous toujours alcoolique ? Désolé, ma dernière cuite, cétait en 98 Cet enfoiré nous a frôlé moi et la p'tite, il pissait la rage Oh vous êtes dans un tribunal, surveillez votre langage Un nouveau témoin devrait intervenir A la barre s'il vous plaît, je demande Bachir Écoutez, moi jai tout vu, jai tout entendu Je vous dis tout, pas dmalentendu, ces keufs sont des ripoux Au départ de lhistoire, jétais chez Mac Kregor Pépère, il était tard et dun coup ça frappe fort Mon pote sagite, sexcite, hésite à aller voir Puis me suggère de me glisser dans larmoire Elle entrouvert, lui a ouvert Le man est insolent, violent et muni d'un revolver Mon compère sexplique, essaye de le calmer Mais très vite le jeune homme a commencé à semporter Puis soudain la porte claque, les policiers débarquent Un keuf braque, il a le trac, les nerfs craquent un coup part Lhomme se tient la tête, regrette ce quil vient de faire Mac Tyer reste de fer et mon pote est par terre Attendez, attendez, un coup part Vous lavez vu, vous lavez entendu, et tout ça du placard ? Eh je lai vu et entendu comme je vous vois Comme jai vu ce policier prendre le brolique à Mac Tyer Je lai vu et entendu parler à petite voix Parler de balistique et comploter pendant des heures embrouille générale Merci Bon nous allons poursuivre et passer aux réquisitions À la barre Monsieur le procureur, cest à vous Mesdames et Messieurs les jurés nous avons là une affaire simple Une histoire de ghetto de plus qui vire au drame Et aujourdhui à la barre, la routine sinstalle, que dire de plus ? Un soir il devient fou, il sort avec une arme Et un témoin la vu, vous lavez entendu À nen pas douter vous y avez cru, laccusé a été reconnu Le témoin était là avec son enfant Lorsquil croisa laccusé armé d un revolver menaçant Criant de venger la victime, peu d'temps avant le crime Devant un père et sa fille, peu d'temps avant le crime Mais laccusé ne sarrête pas la Le commissaire vous la dit sous serment, il a tiré Avec sa rage mortelle, il a tiré Laccusé avait fermement lintention de tuer Il est coupable Mesdames et Messieurs les jurés Laisser cette bombe à retardement dans les rues serait insensé Et ne vous laissez pas abuser Les témoins de la défense sont tous du même quartier Ils jouent à larme à feu, drogue et jen passe Cest pourquoi leurs récits ne sont pas digne de foi Et noubliez pas laccusé est multi récidiviste Agressif, un délinquant qui joue avec la justice Afin de savoir vos enfants en toute sécurité Cet homme se doit dêtre enfermé Madame la présidente, je requière une peine De 8 ans demprisonnement et laisse la parole à la défense Liberté, égalité, fraternité, Messieurs les jurés Pourquoi personne ny croit plus dans nos cités ? L'égalité des chances une utopie Car on ne mène pas la même vie du 16ème à Saint-Denis Il faut lavouer naccentuons pas les injustices Au nom d'la fraternité, refusons dêtre complice De lassassinat dune liberté Le tout cest dadmettre quun homme peut changer Notre société ignore-t-elle le pardon ? Peut-on condamner sur de simples présomptions ? Notre police nest pas infaillible Dans cette affaire il me parait clair quil y a de la bavure dans lair Alors qui va ton condamner Le vrai coupable, ou ce noir au lourd passé ? Le dernier témoin est formel Le crime na pas de couleur ni dorigine, vous êtes informés Merci Maître, maintenant passons à laccusé Si celui-ci a quelque chose à ajouter Sachez quaprès nous délibérerons Monsieur Socrate bip nous vous écoutons Faites preuve dindulgence, le commissaire vous a menti T'en a gros sur le cur quand tu n'éduques pas ta fille Madame la présidente, javais 16 ans quand jai morflé Quand je surfais sur des vagues où des frères se sont noyés Jai la musique pour évacuer ma rage de vivre Cest ma psychanalyse, celle qui manalyse quand je vais mal Mme la juge je suis juste un bon coupable Un repris de justice au casier redoutable Madame, les rafales naccouchent que des cadavres Aux dires du procureur, j'suis trop menaçant pour quon me relâche Jsuis innocent Messieurs les jurés, s'il vous plaît, soyez clément À cause de mon lourd passif, vous oubliez que les hommes changent délibérations Monsieur Socrate bip, après délibération Pour tentative de meurtre avec préméditation Sur la personne de Monsieur Mac Kregor, tout a été prouvé Vous êtes reconnu coupable à lunanimité La cour vous a condamné à la peine de 5 ans de prison ferme Sachez que vous avez 10 jours pour faire appel Mais, mais quest-ce tu m'racontes là ? Mais putain, là jétais en train de men sortir Mais va te faire foutre, cest quoi cette justice de merde ? Mais, mais fais quelque chose le baveux là Mais mais quest-ce quil y a ?2</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>À chaque choix on parie contre le sort Pas l'choix faut y'aller Dis-leur que j'ai pas l'temps On fait des plans pour s'en sortir J'ai pas l'temps Mon esprit glisse ailleurs À chaque nuit qui nous poursuit l'ombre vient effleurer nos songes et La lutte garde en éveil alors je fonce et Mon ciel est ouvert et mes pieds trop enracinés Ma route est longue et trop de carrefours me font hésiter Mon temps imparti, mon esprit glisse ailleurs Au gré du vent, mes chances en quête de récepteurs Dans la poussière, un écho Et qui pourrait y croire si c'n'est moi à travers mes barreaux J'ai pas le temps J'ai pas le temps Mon esprit glisse ailleurs Pas le choix faut y'aller J'ai pas le temps J'ai pas le temps Pour le fuir J'fais de mon mieux Le meilleur On fait des plans pour s'en sortir You might also like Écoute ! Aussi loin que la lumière semble s'éteindre Seule une étincelle au fond de moi peut l'atteindre Au bout si ma foi les gens ressent et les limites Mon but devenir libre me dicte ma ligne de conduite Les dés sont jetés, rien n'est joué Même le sort retient son souffle piégé dans un sablier J'ai décidé de ne pas être prisonnier J'n'ai que ma vie à offrir si jamais j'échouais Pas le choix faut y'aller Même si dans mon horizon les visages semblent trop résignés J'dois le faire, mon but sans bruit ni adieu J'ai brisé mes peurs et pour ma peine dis-leur que... J'ai pas le temps J'ai pas le temps Mon esprit glisse ailleurs Pas le choix faut y'aller J'ai pas le temps J'ai pas le temps Pour le fuir J'fais de mon mieux Le meilleur On fait des plans pour s'en sortir Écoute écoute, écoute Ouais, à chaque choix on parie contre le sort Ouais, et si les jeux sont faits, y'aura pas de remords Ho, laissez la roue tourner, j'apprends à vivre Yeah, à être libre, rester lucide Yeah, non ! Je n'ai rien à perdre Fixe mes règles, dans mon univers Ho, et à chaque bouffée d'air, quoi ? J'opère, comme si c'était la dernière Il n'y aura pas de rédemption à venir La volonté la clé de la réussite Si je dois exceller, tout donner, prendre c'que j'peux Si le monde m'appartient restez pas au milieu Et si le sort est contre moi c'est tant pis On fait des plans pour s'en sortir Écoute Pas l'choix faut y'aller J'ai pas le temps J'ai pas le temps Mon esprit glisse ailleurs Pas le choix faut y'aller J'ai pas le temps J'ai pas le temps Pour le fuir J'fais de mon mieux Le meilleur On fait des plans pour s'en sortir</t>
+          <t>À chaque choix on parie contre le sort Pas l'choix faut y'aller Dis-leur que j'ai pas l'temps On fait des plans pour s'en sortir J'ai pas l'temps Mon esprit glisse ailleurs À chaque nuit qui nous poursuit l'ombre vient effleurer nos songes et La lutte garde en éveil alors je fonce et Mon ciel est ouvert et mes pieds trop enracinés Ma route est longue et trop de carrefours me font hésiter Mon temps imparti, mon esprit glisse ailleurs Au gré du vent, mes chances en quête de récepteurs Dans la poussière, un écho Et qui pourrait y croire si c'n'est moi à travers mes barreaux J'ai pas le temps J'ai pas le temps Mon esprit glisse ailleurs Pas le choix faut y'aller J'ai pas le temps J'ai pas le temps Pour le fuir J'fais de mon mieux Le meilleur On fait des plans pour s'en sortir Écoute ! Aussi loin que la lumière semble s'éteindre Seule une étincelle au fond de moi peut l'atteindre Au bout si ma foi les gens ressent et les limites Mon but devenir libre me dicte ma ligne de conduite Les dés sont jetés, rien n'est joué Même le sort retient son souffle piégé dans un sablier J'ai décidé de ne pas être prisonnier J'n'ai que ma vie à offrir si jamais j'échouais Pas le choix faut y'aller Même si dans mon horizon les visages semblent trop résignés J'dois le faire, mon but sans bruit ni adieu J'ai brisé mes peurs et pour ma peine dis-leur que... J'ai pas le temps J'ai pas le temps Mon esprit glisse ailleurs Pas le choix faut y'aller J'ai pas le temps J'ai pas le temps Pour le fuir J'fais de mon mieux Le meilleur On fait des plans pour s'en sortir Écoute écoute, écoute Ouais, à chaque choix on parie contre le sort Ouais, et si les jeux sont faits, y'aura pas de remords Ho, laissez la roue tourner, j'apprends à vivre Yeah, à être libre, rester lucide Yeah, non ! Je n'ai rien à perdre Fixe mes règles, dans mon univers Ho, et à chaque bouffée d'air, quoi ? J'opère, comme si c'était la dernière Il n'y aura pas de rédemption à venir La volonté la clé de la réussite Si je dois exceller, tout donner, prendre c'que j'peux Si le monde m'appartient restez pas au milieu Et si le sort est contre moi c'est tant pis On fait des plans pour s'en sortir Écoute Pas l'choix faut y'aller J'ai pas le temps J'ai pas le temps Mon esprit glisse ailleurs Pas le choix faut y'aller J'ai pas le temps J'ai pas le temps Pour le fuir J'fais de mon mieux Le meilleur On fait des plans pour s'en sortir</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Le Parc et le Panier roulent avec le Shit Squad Don't Sleep roule avec le Shit Squad Le 3e il et la FF roulent avec le Shit Squad Donne du bang, hé ! Je tombe dans la guette sans zigzaguer Aux aguets, débonze et bien gai Je suis délégué du Shit Squad, amigo bingo Si tu tiens jusqu'à la fin du gong Nous sommes tous des James Bond Du Shit sous les ongles Skunk au gong, ça laisse KO Comme un coup du fusil à pompe Et direct, on va haut... Rat-man né Batman ami de Boss One Et marié à la Marie-Jeanne Luciano, réalise ton vu Si tu veux, enfume-toi la vie, mon vieux Un peu de Marseillaise, et tu perds les cheveux Shit Squad, Tonton et ses neveux pour les nerveux Bienvenue dans Haschich City morveux J'échange mes sticks seulement contre une femme Style Néfertiti Fais fumer la FF, Tonton j'ai fini You might also like T'as pris ton paquet et ta femme avec toi Marijuana bien roulée que tu tiens entre tes doigts Quoi, l'atmosphère s'enfume Fume le Shit Squad et pas de frime sur ça La boumba si ça te dit Prends ce choco de maxi, comme si Une armada de fumeurs de gandja se disputent le contrat Eh, batty boy, tu veux rouler avec le Squad Ce n'est pas un fan-club de Ease Mais un putain de Shit Squad Roulé entre deux feuilles de Rizla Croix Original bad boy pour l'esquisse, fils Pas de paix en soirée avec les DJ, fais tourner Tu veux toucher nos phases, vas-y, mets le prix Je t'assure, c'est de la bombe Elle monte comme des bambous Le S ! Squad tient le bon bout Toujours dans les bons coups En tout cas, on s'adonne pas à la para Ici-bas, on décompresse comme on peut La THC nous conduit tout droit aux septièmes cieux Yo, pète ton joint de canna, à l'écoute des canailles Sat rime pour tout défoncer comme la bouddha Thaï Fume dans un studio ou dans un coffee-shop Ambiance Hip Hop, à voir les yeux de mes potes Pour eux, je finis en freestyle Je lâche un fonky style, la FF, tous M'Ghetta au shit M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana Si gandja il y a chez toi, gringo Elle sautera au nom du Père du Fils et du Sentenza Amen Je serai sec si tu n'es pas chaud Prépare un bon space-gaspacho Pour tous les sales muchachos de ma clique Le Squad, escouade rascale Et Tonton Pedro, Pascal Tu prendras bien un spatial Verre de mescal un poquito Débarque avec un kilo pour les mythos Lâché, donne, No te muevas, cabróncito! In situ, bratou kakou chez vous, y'a plus de sous Attention le ladre prépare un mauvais coup Un larcin, un truc de merde, un encas Nada, tu connais Sentenza Qui donc fait péter la banca ? Quand je te chope, quand je te bloque Voilà les troupes de choc Le Shit Squad de retour pour un smoke-tour Armé de stocks lourds Plat de jour space-cake, calumets Mèches allumées, atmosphère embrumée FF, fais fumer A fond défoncé à la sensi C'est ça qui m'incite Don Choa, Hannibal Smith, agence du Shit Arrivage de choix Ici on est à Marseille, mon frère Sortis tout droit du conteneur Le produit qui te met à l'envers Tu flaires les joints Mieux que les chiens de la douane volante Fumes des mixtures à base boulettes brûlantes Herbes collantes Production Tonton Pedro, le gros bonnet Tu connais l'effet Je roule avec le Shit Squad et ses doigts de fée, bébé Faf Larage, fils, ne fume pas Pedro, n'en déplaise, fume les cigarettes, le tabac à sec Et là je suis bien, mec Mes potos fument pour moi Circuit lindo thaï skunk cesse devant moi Eh, connard, j'ai pas à te dire ce qu'il faut faire Pour entrer dans la partie Fils, tu m'as bien compris Tu crois qu'il y a des vapeurs, représente l'odeur Premiers symptômes qui font sur moi Speed, des lors j'suis d'humeur On pourrait croire que j'intègre le Squad Quand je conte mes histoires de fêtes Ici à la Stormbringa Ce que je dis, fils, ça veut rien dire Mais sous l'emprise du Shit... Le Squad, c'est un hit M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Oh la gravité a frappé M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Yeah, je suis défoncé A coup de bambous Au sud, y'a du nouveau, fils Le Squad refait surface, noyé dans le masse Avec ses potos du micro, des mégots, amigo Des barreaux, il en faut pour subvenir à nos besoins Du matin au soir, plein On a cuvé comme du bon vin Le bon khéné en fait vilain Veut niquer notre business Que la guine l'a perdu Tu fuse, gus si on te frappe Comme un guerrier Hashashin Frappé après un joint, tu charase Colle tes oreilles devant tes baffles Tu rêves pas, gringo L'examen, c'est devenu l'impasse Sans cesse, représente notre emblème L'herbe épaisse, femme du Rat La princesse pour l'honneur des troupes rebelles Pour la fumette et les belles f... Daddy Mamadi, sur le mic, ça c'est acquis Fais tourner l'herbe cosmique Pour que la famille mette la panique Un bandeau-pro avec tous les machos chauds Et c'est parti pour le show FF, freestyle pour représenter avec un joint d'gandja Tu ne peux pas lutter Fumes, fumes, fumes avant que la vie ne te fume Aujourd'hui j'assume avec le Shit Squad Kif-Kif Production, association banguée Pour des fins de soirées, très fatigué J'envoie ziguer les télés Pour tous les frères avec qui j'ai calciné des bambous Du Secteur au Café Julien Les neveux ne craignent plus rien Accrochés sur la locale comme des morts de faim Shonga m'attend demain, ouais Tu reconnais la voix du Padre, sorti du trece Sur le mic, usé par le pollen et la sensi Toujours d'attaque avec le Shit Squad Mec, reste sur tes gardes En attendant lyricalement que l'on bombarde Balance nos cocktails de ferié néné Si tu cherches la khemia Y'a que chez nous que tu pourras la trouver J'fais pas de topo Je suis plein de popo Demandes à mes potes C'est un 16 S mec que j'ai sous le capot Je pose toujours à mes répèts sans oublier mon matos Un stylo, un micro, mon chocos Et vatos portos C'est comme ça que j'aime bosser Je suis pas du genre à caler ou taper des blocages Et vas-y, cesses de ricaner Ouais, mon big, Jo Popo représente pour le 3e oeil Mc j't'effrite dans mon deux-feuilles Je regarde mes potes, drôlement débonze Tous guidés par le hachich comme par erreur Haza plein de mimiques, ils sont chics Regarde-moi droit dans les yeux, khô T'y arrives pas, quel minable, ce gros Dis-moi, c'est du shit que tu fumes? Ou des pilules que tu gobes ? Combien de gosses en voulant se la jouer grands se sont perdus Je te l'avais dit de rester dans la sensi En soirée bad boy, pompe un joint Reste cool comme ton pote, l'ami, Ali, allez ha ! Je ne fume pas Mais préfère voir des gens down avec le Shit Squad Qu'être à Toxland à la CameSquadra A croire que c'est un championnat Où c'est le plus bête qui l'emportera Avant d'appuyer sur play, t'aurais dû faire un petit A la santé du Squad, Jo Popo, Luciano, Pedro Mon z'ami, c'est la vie C'est la vie qui veut ça N.I.K, N.I.K M'Ghetta au shit</t>
+          <t>Le Parc et le Panier roulent avec le Shit Squad Don't Sleep roule avec le Shit Squad Le 3e il et la FF roulent avec le Shit Squad Donne du bang, hé ! Je tombe dans la guette sans zigzaguer Aux aguets, débonze et bien gai Je suis délégué du Shit Squad, amigo bingo Si tu tiens jusqu'à la fin du gong Nous sommes tous des James Bond Du Shit sous les ongles Skunk au gong, ça laisse KO Comme un coup du fusil à pompe Et direct, on va haut... Rat-man né Batman ami de Boss One Et marié à la Marie-Jeanne Luciano, réalise ton vu Si tu veux, enfume-toi la vie, mon vieux Un peu de Marseillaise, et tu perds les cheveux Shit Squad, Tonton et ses neveux pour les nerveux Bienvenue dans Haschich City morveux J'échange mes sticks seulement contre une femme Style Néfertiti Fais fumer la FF, Tonton j'ai fini T'as pris ton paquet et ta femme avec toi Marijuana bien roulée que tu tiens entre tes doigts Quoi, l'atmosphère s'enfume Fume le Shit Squad et pas de frime sur ça La boumba si ça te dit Prends ce choco de maxi, comme si Une armada de fumeurs de gandja se disputent le contrat Eh, batty boy, tu veux rouler avec le Squad Ce n'est pas un fan-club de Ease Mais un putain de Shit Squad Roulé entre deux feuilles de Rizla Croix Original bad boy pour l'esquisse, fils Pas de paix en soirée avec les DJ, fais tourner Tu veux toucher nos phases, vas-y, mets le prix Je t'assure, c'est de la bombe Elle monte comme des bambous Le S ! Squad tient le bon bout Toujours dans les bons coups En tout cas, on s'adonne pas à la para Ici-bas, on décompresse comme on peut La THC nous conduit tout droit aux septièmes cieux Yo, pète ton joint de canna, à l'écoute des canailles Sat rime pour tout défoncer comme la bouddha Thaï Fume dans un studio ou dans un coffee-shop Ambiance Hip Hop, à voir les yeux de mes potes Pour eux, je finis en freestyle Je lâche un fonky style, la FF, tous M'Ghetta au shit M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana M'Ghetta au shit Allez goute-moi ça mon fils M'Ghetta au shit Parfume l'air comme la marijuana Si gandja il y a chez toi, gringo Elle sautera au nom du Père du Fils et du Sentenza Amen Je serai sec si tu n'es pas chaud Prépare un bon space-gaspacho Pour tous les sales muchachos de ma clique Le Squad, escouade rascale Et Tonton Pedro, Pascal Tu prendras bien un spatial Verre de mescal un poquito Débarque avec un kilo pour les mythos Lâché, donne, No te muevas, cabróncito! In situ, bratou kakou chez vous, y'a plus de sous Attention le ladre prépare un mauvais coup Un larcin, un truc de merde, un encas Nada, tu connais Sentenza Qui donc fait péter la banca ? Quand je te chope, quand je te bloque Voilà les troupes de choc Le Shit Squad de retour pour un smoke-tour Armé de stocks lourds Plat de jour space-cake, calumets Mèches allumées, atmosphère embrumée FF, fais fumer A fond défoncé à la sensi C'est ça qui m'incite Don Choa, Hannibal Smith, agence du Shit Arrivage de choix Ici on est à Marseille, mon frère Sortis tout droit du conteneur Le produit qui te met à l'envers Tu flaires les joints Mieux que les chiens de la douane volante Fumes des mixtures à base boulettes brûlantes Herbes collantes Production Tonton Pedro, le gros bonnet Tu connais l'effet Je roule avec le Shit Squad et ses doigts de fée, bébé Faf Larage, fils, ne fume pas Pedro, n'en déplaise, fume les cigarettes, le tabac à sec Et là je suis bien, mec Mes potos fument pour moi Circuit lindo thaï skunk cesse devant moi Eh, connard, j'ai pas à te dire ce qu'il faut faire Pour entrer dans la partie Fils, tu m'as bien compris Tu crois qu'il y a des vapeurs, représente l'odeur Premiers symptômes qui font sur moi Speed, des lors j'suis d'humeur On pourrait croire que j'intègre le Squad Quand je conte mes histoires de fêtes Ici à la Stormbringa Ce que je dis, fils, ça veut rien dire Mais sous l'emprise du Shit... Le Squad, c'est un hit M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Oh la gravité a frappé M'Ghetta au shit Drink a little pastis, smoke a lot of trees M'Ghetta au shit Yeah, je suis défoncé A coup de bambous Au sud, y'a du nouveau, fils Le Squad refait surface, noyé dans le masse Avec ses potos du micro, des mégots, amigo Des barreaux, il en faut pour subvenir à nos besoins Du matin au soir, plein On a cuvé comme du bon vin Le bon khéné en fait vilain Veut niquer notre business Que la guine l'a perdu Tu fuse, gus si on te frappe Comme un guerrier Hashashin Frappé après un joint, tu charase Colle tes oreilles devant tes baffles Tu rêves pas, gringo L'examen, c'est devenu l'impasse Sans cesse, représente notre emblème L'herbe épaisse, femme du Rat La princesse pour l'honneur des troupes rebelles Pour la fumette et les belles f... Daddy Mamadi, sur le mic, ça c'est acquis Fais tourner l'herbe cosmique Pour que la famille mette la panique Un bandeau-pro avec tous les machos chauds Et c'est parti pour le show FF, freestyle pour représenter avec un joint d'gandja Tu ne peux pas lutter Fumes, fumes, fumes avant que la vie ne te fume Aujourd'hui j'assume avec le Shit Squad Kif-Kif Production, association banguée Pour des fins de soirées, très fatigué J'envoie ziguer les télés Pour tous les frères avec qui j'ai calciné des bambous Du Secteur au Café Julien Les neveux ne craignent plus rien Accrochés sur la locale comme des morts de faim Shonga m'attend demain, ouais Tu reconnais la voix du Padre, sorti du trece Sur le mic, usé par le pollen et la sensi Toujours d'attaque avec le Shit Squad Mec, reste sur tes gardes En attendant lyricalement que l'on bombarde Balance nos cocktails de ferié néné Si tu cherches la khemia Y'a que chez nous que tu pourras la trouver J'fais pas de topo Je suis plein de popo Demandes à mes potes C'est un 16 S mec que j'ai sous le capot Je pose toujours à mes répèts sans oublier mon matos Un stylo, un micro, mon chocos Et vatos portos C'est comme ça que j'aime bosser Je suis pas du genre à caler ou taper des blocages Et vas-y, cesses de ricaner Ouais, mon big, Jo Popo représente pour le 3e oeil Mc j't'effrite dans mon deux-feuilles Je regarde mes potes, drôlement débonze Tous guidés par le hachich comme par erreur Haza plein de mimiques, ils sont chics Regarde-moi droit dans les yeux, khô T'y arrives pas, quel minable, ce gros Dis-moi, c'est du shit que tu fumes? Ou des pilules que tu gobes ? Combien de gosses en voulant se la jouer grands se sont perdus Je te l'avais dit de rester dans la sensi En soirée bad boy, pompe un joint Reste cool comme ton pote, l'ami, Ali, allez ha ! Je ne fume pas Mais préfère voir des gens down avec le Shit Squad Qu'être à Toxland à la CameSquadra A croire que c'est un championnat Où c'est le plus bête qui l'emportera Avant d'appuyer sur play, t'aurais dû faire un petit A la santé du Squad, Jo Popo, Luciano, Pedro Mon z'ami, c'est la vie C'est la vie qui veut ça N.I.K, N.I.K M'Ghetta au shit</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>En 2003, dans les faubourgs de Montmartre Une histoire d'amour, une tragédie, un destin brisé Ça aurait pu être le fabuleux destin d'Amélie Poulain Mais c'n'est que le fabuleux désastre de la vie de Marcel Murat Salut Gomez, c'est moi Marcel, ton plus grand fan Et j't'écris de la part de mon cousin Stan J'habite en province, c'est bien loin Mais je suis tes actions, tes chansons, tes refrains J'ai toujours voulu être flic, mais ils disent que j'louche Et ils ont enrôlé une femme et Mouss Diouf En attendant on s'amuse chez nous à la campagne, on a un château C'est privé, on chasse la bécasse et le négro On est des pros, et t'es mon modèle, mon héros De toi j'ai peint un tableau, en uniforme, t'es trop beau J'tai envoyé ça et des paupiettes Et j'ai ma femme qui comprend pas la passion qu'j'ai pour toi, mec, elle s'inquiète Mais bon, moi j'suis pas une fiotte La dernière fois qu'elle a parlé sur toi J'l'ai un quart d'heure au fond des chiottes Avec mon gamin Alain on a bien ri Vas-y P'pa, plus de javel Ça c'est bien mon p'tit Gomez je t'invite chez nous à un barbecue magistral Réponds-moi vite Marcel, ton plus grand fan You might also like Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Salut Marcel, ici Gomez, comment vas-tu ? J'réponds à ta lettre, et quand j'l'ai lu, j'étais sur l'cul Au fait, y a du blé à s'faire dans les champs quand t'es connu Et à La Poste, y a pas moyen d'détourner des RMI J'ai reçu tes paupiettes dégueulasses J'm'inquiète pour ta femme, c'que t'apelles tes parties d'chasse Tu sais franchement, ton tableau est ressemblant, ouais mais L'uniforme allemand et la croix gammée un peu gênant Lescaut, c'est qu'une série noire pour TF1 Le type de trucs qui te harcèle le cerveau Un peu comme Fan de l'samedi matin T'as d'la chance toi, j'ai toujours rêvé d'avoir un fils Pour qu'il écoule mon vieux stock de cannabis J'm'en fous d'là où tu vis Garde ta campagne et tes vaches folles L'odeur du fumier, c'est comme les chiottes, c'est jamais drôle En plus tu louches, au royaume des borgnes, Jean-Marie est roi Donc ne m'écris plus, Gomez, oublie-moi Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Gomez, j'ai reçu ta lettre, et ça l'fait pas J'ai frappé ma femme, mon fils, et ça l'fait toujours pas J'comprend pas ton humour sur la campagne et le foin Chez moi ça craint, j'ai pas d'amis Si tu m'lâches, c'est la fin J'peux pas t'oublier, j'comprends, t'as plein d'problèmes À Paname, les HLM, les Arabes, le système Dis-moi, les immigrés, j'en ai jamais vu en vrai Est-ce qu'ils parlent comme nous ? Est-ce qu'ils mangent comme nous ? Tavarez, c'est un noir, alors il est pas comme nous ? Et le nouveau Dubois, j'espère qu'il est blanc comme nous Et désolé pour les paupiettes, t'avais raison pour les chiottes Et pour punir ma femme, ouais y'a rien de mieux que les clopes Aussi, j'tenvoie du foie gras, j'compte venir chez toi Je serai pas gênant, j'sais qu't'as des problèmes Réponds-moi J'ai aucun problème, t'es qu'un pauvre mec fini Un bouseux de seconde zone qui m'envoie du foie gras pourri Un fan comme toi, non merci Et si, Marcel, tu montes à Paris Moi, j't'assure, c'est la bavure garantie Tes propos sur les immigrés m'navrent Oui Tavarez est fier d'être noir Et Dubois n'est pas un Scandinave T'es prévenu, y'a pas un bouseux qui fasse long feu Gomez, un homme nerveux, et en plus, qui t'en veux PS La mort ou la prison En d'autres termes, quatre murs, ou quatre planches Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Finalement, t'es pas celui que j'croyais T'as drôlement changé depuis ta célébrité Le rap, c'est pour les voyous, les dégénérés et je l'sais Gomez, t'es qu'un drogué, Gomez, t'es qu'un PD Tu feras jamais d'argent dans ma poche, mec, tu m'as déçu Tes planches, ça veut dire quoi, la prison ? Quoi ? C'est toi le corrompu Vendu, j'suis dans ma voiture à toute allure J'ai pris une biture, écrasé une vache, un renard et une vielle pute J'arrive à Paris Tu seras pas tranquille, moi en vie En ville, tu bois aussi, j'te l'dis J'étais ton plus grand fan, ton meilleur ami On aurait pu chasser ensemble Je t'aurai volontiers prêté mon fusil Mais j'm'en fous, tu m'as trahi Et j'enregistre cette cassette de la part de Marcel, mec, ton pire ennemi Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Est-ce que Monsieur Murat est arrivé à bon port Pour retrouver son bien-aimé ? Ça, c'est une autre histoire Gomez, j'aurai ta peau!!!</t>
+          <t>En 2003, dans les faubourgs de Montmartre Une histoire d'amour, une tragédie, un destin brisé Ça aurait pu être le fabuleux destin d'Amélie Poulain Mais c'n'est que le fabuleux désastre de la vie de Marcel Murat Salut Gomez, c'est moi Marcel, ton plus grand fan Et j't'écris de la part de mon cousin Stan J'habite en province, c'est bien loin Mais je suis tes actions, tes chansons, tes refrains J'ai toujours voulu être flic, mais ils disent que j'louche Et ils ont enrôlé une femme et Mouss Diouf En attendant on s'amuse chez nous à la campagne, on a un château C'est privé, on chasse la bécasse et le négro On est des pros, et t'es mon modèle, mon héros De toi j'ai peint un tableau, en uniforme, t'es trop beau J'tai envoyé ça et des paupiettes Et j'ai ma femme qui comprend pas la passion qu'j'ai pour toi, mec, elle s'inquiète Mais bon, moi j'suis pas une fiotte La dernière fois qu'elle a parlé sur toi J'l'ai un quart d'heure au fond des chiottes Avec mon gamin Alain on a bien ri Vas-y P'pa, plus de javel Ça c'est bien mon p'tit Gomez je t'invite chez nous à un barbecue magistral Réponds-moi vite Marcel, ton plus grand fan Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Salut Marcel, ici Gomez, comment vas-tu ? J'réponds à ta lettre, et quand j'l'ai lu, j'étais sur l'cul Au fait, y a du blé à s'faire dans les champs quand t'es connu Et à La Poste, y a pas moyen d'détourner des RMI J'ai reçu tes paupiettes dégueulasses J'm'inquiète pour ta femme, c'que t'apelles tes parties d'chasse Tu sais franchement, ton tableau est ressemblant, ouais mais L'uniforme allemand et la croix gammée un peu gênant Lescaut, c'est qu'une série noire pour TF1 Le type de trucs qui te harcèle le cerveau Un peu comme Fan de l'samedi matin T'as d'la chance toi, j'ai toujours rêvé d'avoir un fils Pour qu'il écoule mon vieux stock de cannabis J'm'en fous d'là où tu vis Garde ta campagne et tes vaches folles L'odeur du fumier, c'est comme les chiottes, c'est jamais drôle En plus tu louches, au royaume des borgnes, Jean-Marie est roi Donc ne m'écris plus, Gomez, oublie-moi Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Gomez, j'ai reçu ta lettre, et ça l'fait pas J'ai frappé ma femme, mon fils, et ça l'fait toujours pas J'comprend pas ton humour sur la campagne et le foin Chez moi ça craint, j'ai pas d'amis Si tu m'lâches, c'est la fin J'peux pas t'oublier, j'comprends, t'as plein d'problèmes À Paname, les HLM, les Arabes, le système Dis-moi, les immigrés, j'en ai jamais vu en vrai Est-ce qu'ils parlent comme nous ? Est-ce qu'ils mangent comme nous ? Tavarez, c'est un noir, alors il est pas comme nous ? Et le nouveau Dubois, j'espère qu'il est blanc comme nous Et désolé pour les paupiettes, t'avais raison pour les chiottes Et pour punir ma femme, ouais y'a rien de mieux que les clopes Aussi, j'tenvoie du foie gras, j'compte venir chez toi Je serai pas gênant, j'sais qu't'as des problèmes Réponds-moi J'ai aucun problème, t'es qu'un pauvre mec fini Un bouseux de seconde zone qui m'envoie du foie gras pourri Un fan comme toi, non merci Et si, Marcel, tu montes à Paris Moi, j't'assure, c'est la bavure garantie Tes propos sur les immigrés m'navrent Oui Tavarez est fier d'être noir Et Dubois n'est pas un Scandinave T'es prévenu, y'a pas un bouseux qui fasse long feu Gomez, un homme nerveux, et en plus, qui t'en veux PS La mort ou la prison En d'autres termes, quatre murs, ou quatre planches Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Finalement, t'es pas celui que j'croyais T'as drôlement changé depuis ta célébrité Le rap, c'est pour les voyous, les dégénérés et je l'sais Gomez, t'es qu'un drogué, Gomez, t'es qu'un PD Tu feras jamais d'argent dans ma poche, mec, tu m'as déçu Tes planches, ça veut dire quoi, la prison ? Quoi ? C'est toi le corrompu Vendu, j'suis dans ma voiture à toute allure J'ai pris une biture, écrasé une vache, un renard et une vielle pute J'arrive à Paris Tu seras pas tranquille, moi en vie En ville, tu bois aussi, j'te l'dis J'étais ton plus grand fan, ton meilleur ami On aurait pu chasser ensemble Je t'aurai volontiers prêté mon fusil Mais j'm'en fous, tu m'as trahi Et j'enregistre cette cassette de la part de Marcel, mec, ton pire ennemi Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Est-ce que Monsieur Murat est arrivé à bon port Pour retrouver son bien-aimé ? Ça, c'est une autre histoire Gomez, j'aurai ta peau!!!</t>
         </is>
       </c>
     </row>
@@ -531,7 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Come on man First we get the cash Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume J'assume d'être chaud, un pow possédé ce son Soul Swing, Marseille, je le place d'entrée Les types qui ont un problème avec ça peuvent crever Les flipes, les mauviettes, fils j'en n'ai rien à carrer Je fais c'qu'il faut, faut pas l'oublier, tu le sais Néanmoins j'ai pas beaucoup d'efforts à fournir La fournaise sur scène, témoin le public Quand j'me la joue ziz' ça passe pas j'en ai rien à foutre Mais c'est d'l'art, Faf Larage moi et ma saga Plus long que Dallas, des emmerdes, des crasses mais je suis encore là Pour un show, viens nous Voir là si t'as le temps Néglige pas les cotons-tiges si tu veux un son clean Que le funk reste funk, que le rap reste vrai Le vrai hip hop n'amasse pas de blé Ainsi des groupes fusent, tous pour la tune J'en veux à personne tant qu'on fait la différence Les tendances ne m'atteignent pas, je suis à l'heure East Coast Et fait le compromis avec les Bouches-du-Rhône Ça finira par payer, on fera les comptes dans quelques années Fils, mes disques continueront de tourner, ouais You might also like Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume Attaquer les Fnac et les Mégastore de France Les bacs, les disquaires de mon expérience Soul Swing, des types, la frime égo-trip De la Gangst-shit de hip-hop fanatics 96, le groupe se saigne, se gère lui-même, s'endurcit depuis tant XXX Billes, école, je rigole, comment les choses évoluent Pas une merde en radio nous vaut ma place dans la rue Ecoute-moi et capte mon job comme il est Ne lui met pas de forme, laisse-le dans sa norme Revoit l'histoire du rap ici quand tu parles de moi Fait tourner ma sauce que j'XXX pour toi Et tu le sais, forcer les portes qui s'ouvrent mal Ferme la bouche à ceux qui n'y croyaient pas, qui s'avalent Mes chèques, mes ventes, si il faut j'déballe Pour un spécial coulisse de Soul Swing dans Capital Vas-y crédite, si moi j'débite, sors les sous Reste un ami et nos morceaux tu les joues dans les bonnes radios et les méchantes soirées Ouais fait tourner que je fasse mon blé x2 Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume J'aimais entamer un taxe après une relaxation Mais à présent je prend les devants, garant de mon propre nom Épaulé par mon poto Def avec qui il faut compter Si il te viens l'idée d'affronter Soul Swing, gaffe j'ai K-Rhyme Le Roi de l'autre côté plus rebel et Majestic Mes DJ, tu vois on est plein de pitié Si tu souhaites être épargner, exaucer ton vu me coute On te traitera comme Slick Rick like a prostitute Désormais, fini de plaisanter Tu connais la qualité et ça n'va pas changer Les mecs veulent des nouveaux morceaux, je donne des nouveaux morceaux Et fait un hold up sur toutes les émissions radio Hip-hop sûr et si tu discutes, vois qui est le mac en place Et acceptes que je fasse ma tune, faut pas faire chier quand je place mon blé Mon blé c'est ma voix, ma tech et mes productions, du bon son selon mon humeur Fais tourner l'instru DJ n'hésite pas Scratch par-ci par-là que le beat ne s'arrête pas XXX 96, XXX Freestyle XXX quand je stoppe ma phrase, les pédales tendent de faire de même Mon rap est XXX, faire danser, réfléchir sur des textes qui tiennent à cur et à mon portefeuilles Fais tourner DJ l'instru que je fasse ma tune Faire du XXX pour continuer Le rap dans le son, suis mon job comme un exercice C'est taffé , ça traine depuis trop de temps De temps en temps, j'ai laissé faire, XXX je représente Écoute de voir comment en auto-prod je rends Je me XXX l'argent pour d'autres projets plus grands Autant de hargne que mon équipe, je XXX Le sud dans l'esprit, mon crew ne fait qu'un Les vieux briscards de Marseille de remettent à l'heure Et tu pleures ta mère quand tu penses qu'hier je me lâchais sur RapLine M6 bon pour l'époque Depuis 88 on gonfle le stock, c'est le XXX dans les têtes La consécration dans la mienne Marseille on connait l'histoire, c'est la même Que celles de tout les bad boys du rap en France Et pour que ça commence par le début, l'acharnement en fait traduit ça frappe cette fois Une fois, une seule, pour se retomber du EP Lache ta tune que je fasse la mienne, mon gars, ouais fais tourner que je la fasse mon vié Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume</t>
+          <t>Come on man First we get the cash Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume J'assume d'être chaud, un pow possédé ce son Soul Swing, Marseille, je le place d'entrée Les types qui ont un problème avec ça peuvent crever Les flipes, les mauviettes, fils j'en n'ai rien à carrer Je fais c'qu'il faut, faut pas l'oublier, tu le sais Néanmoins j'ai pas beaucoup d'efforts à fournir La fournaise sur scène, témoin le public Quand j'me la joue ziz' ça passe pas j'en ai rien à foutre Mais c'est d'l'art, Faf Larage moi et ma saga Plus long que Dallas, des emmerdes, des crasses mais je suis encore là Pour un show, viens nous Voir là si t'as le temps Néglige pas les cotons-tiges si tu veux un son clean Que le funk reste funk, que le rap reste vrai Le vrai hip hop n'amasse pas de blé Ainsi des groupes fusent, tous pour la tune J'en veux à personne tant qu'on fait la différence Les tendances ne m'atteignent pas, je suis à l'heure East Coast Et fait le compromis avec les Bouches-du-Rhône Ça finira par payer, on fera les comptes dans quelques années Fils, mes disques continueront de tourner, ouais Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume Attaquer les Fnac et les Mégastore de France Les bacs, les disquaires de mon expérience Soul Swing, des types, la frime égo-trip De la Gangst-shit de hip-hop fanatics 96, le groupe se saigne, se gère lui-même, s'endurcit depuis tant XXX Billes, école, je rigole, comment les choses évoluent Pas une merde en radio nous vaut ma place dans la rue Ecoute-moi et capte mon job comme il est Ne lui met pas de forme, laisse-le dans sa norme Revoit l'histoire du rap ici quand tu parles de moi Fait tourner ma sauce que j'XXX pour toi Et tu le sais, forcer les portes qui s'ouvrent mal Ferme la bouche à ceux qui n'y croyaient pas, qui s'avalent Mes chèques, mes ventes, si il faut j'déballe Pour un spécial coulisse de Soul Swing dans Capital Vas-y crédite, si moi j'débite, sors les sous Reste un ami et nos morceaux tu les joues dans les bonnes radios et les méchantes soirées Ouais fait tourner que je fasse mon blé x2 Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume J'aimais entamer un taxe après une relaxation Mais à présent je prend les devants, garant de mon propre nom Épaulé par mon poto Def avec qui il faut compter Si il te viens l'idée d'affronter Soul Swing, gaffe j'ai K-Rhyme Le Roi de l'autre côté plus rebel et Majestic Mes DJ, tu vois on est plein de pitié Si tu souhaites être épargner, exaucer ton vu me coute On te traitera comme Slick Rick like a prostitute Désormais, fini de plaisanter Tu connais la qualité et ça n'va pas changer Les mecs veulent des nouveaux morceaux, je donne des nouveaux morceaux Et fait un hold up sur toutes les émissions radio Hip-hop sûr et si tu discutes, vois qui est le mac en place Et acceptes que je fasse ma tune, faut pas faire chier quand je place mon blé Mon blé c'est ma voix, ma tech et mes productions, du bon son selon mon humeur Fais tourner l'instru DJ n'hésite pas Scratch par-ci par-là que le beat ne s'arrête pas XXX 96, XXX Freestyle XXX quand je stoppe ma phrase, les pédales tendent de faire de même Mon rap est XXX, faire danser, réfléchir sur des textes qui tiennent à cur et à mon portefeuilles Fais tourner DJ l'instru que je fasse ma tune Faire du XXX pour continuer Le rap dans le son, suis mon job comme un exercice C'est taffé , ça traine depuis trop de temps De temps en temps, j'ai laissé faire, XXX je représente Écoute de voir comment en auto-prod je rends Je me XXX l'argent pour d'autres projets plus grands Autant de hargne que mon équipe, je XXX Le sud dans l'esprit, mon crew ne fait qu'un Les vieux briscards de Marseille de remettent à l'heure Et tu pleures ta mère quand tu penses qu'hier je me lâchais sur RapLine M6 bon pour l'époque Depuis 88 on gonfle le stock, c'est le XXX dans les têtes La consécration dans la mienne Marseille on connait l'histoire, c'est la même Que celles de tout les bad boys du rap en France Et pour que ça commence par le début, l'acharnement en fait traduit ça frappe cette fois Une fois, une seule, pour se retomber du EP Lache ta tune que je fasse la mienne, mon gars, ouais fais tourner que je la fasse mon vié Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume</t>
         </is>
       </c>
     </row>
@@ -548,7 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Ni trop balèze ni trop mince, j'étais qu'un p'tit con J'étais jamais sorti de Paname, j'pensais que y'avait pas de tess en province Sur le corner, on me regarde du genre T'es qui toi ? À part des textes ou te faire jouir, je sais rien faire de mes dix doigts Du shit j'ai écoulé. Les poulets veulent désamorcer tous mes plans Dehors j'me défoulais, des parents divorçaient comme tous les blancs Malgré ma couleur, on m'a dit De dos, face au mur Entouré d'putes comme Hugh Hefner ou Dodo la saumur Pour la mille-fa, j'aurai pu te massacrer Chocolatine ou pain au chocolat ? ça raillave pendant le mois sacré Face aux lois répressives, l'argent fait peut-être pas le bonheur En attendant ça baise et j'peux tenir deux mois sans lessive Le drug store a remplacé les farces et attrapes Tellement de garde d'av' il faut que j'achète des chaussures à scratch Du sud au nord, t'entends les douilles qui tombent, c'est XXX C'est pas la couleur des couilles qui compte, c'est leur taille Le plus dur est derrière moi donc à chaque fois que je sors du taga J'me dis que c'est la dernière fois comme à chaque fois que je sors du tabac Ici on t'apprend l'humilité, fume des gros zdeh les week-end Sur les murs y avait de l'humidité, pas des posters d'Eminem Mes galériens n'ont pas l'hygiène rigide Entre les chaudasses de la couronne et les parisiennes frigides La guerre à la baraque, cherche un semblant d'espoir à lextérieur Non, j'vais pas te faire le cliché du blanc qu'est noir à l'intérieur Le seul contrôleur de mes sens, ramène la tise, la nourriture Petit zoneur de naissance, on fout l'bordel chez les che-ri Pas connu l'bonheur et l'aisance produit parisien pur et dur J'kiff l'odeur de l'essence et j'me bouche le nez chez l'fleuriste Décrocher du parvis, c'est l'but entre vandale et sales histoires Le crochet qui part vite comme un billet d'vingt balles un samedi soir Tous les sourires s'inversent il fait plus rire Debbouze Tou-bab, j'ai jamais trouvé ma place donc j'vais mourir debout You might also like Si peu d'différence pour un trajet de train si cher Paname-Toulouse, y a un fossé entre Jaurès et Saint-Michel J'me dis qu'j'ai trouvé ma place ici mais j'en suis pas encore sûr Morsure, pas d'aboiement. Noir blanc, nord sud Ville rose ou ville Lumière, des jolis noms pour des bâtiments gris Y a pas qu'la nuit qu'tout peut partir en vrille On s'isole, on vide nos verres. Tu veux savoir ou j'ai grandis ? Entouré d'caïmans, tout est quasiment dit Le marchand d'sable bicrave des tonnes de shit pour qu'on s'endorme vite P'tit provincial, pour moi la Tour Eiffel n'est qu'une énorme bite J'dégomme les flics dans GTA pour me venger de leurs contrôles Et j'me dis que s'ils étaient là, j'leur ferais manger la console Tu veux du rap ? Change pas la piste. Du R'n'B, pas d'ça chez nous J'viens d'là où on trouve ça chelou quand l'ascenseur sent pas la pisse Là où ça deal et devant Lidl, mal habile et mal habillé Mama disait qu'ça cafouillait à la C.A.F. et que l'sablier s'aplatit C'est à la place XXX m'a analysé Et mis la Mona Lisa à la cave Bave de pitbull sur le sol, des p'tits XXX sous le hall Ou des zoul' sous le soleil ou sommeil pendant les heures de colle Ici les mômes rêvent pas de gondoles de Venise Aussi grillé qu'du rouge à lèvre sur ton col de chemise Et nique sa grammaire la prof de grand-mère qu'est-ce que vous croivez ? Un dictionnaire ça peut peser, ça fait pas l'poids de la 3G On dit qu'c'est merdique, les mères flippent des perquis' Mais persistent et pèrefils se perdent vite Les merdes qu'ils te prescrivent te laissent libre Mais est-ce vivre ? Et est-ce l'hiver ? C'est pas trop net on fête le 31 au pied des boites aux lettres Tu veux savoir pourquoi on boit trop mec ? Pour trouver des réponses ou pour oublier tout c'qu'on croire connaître Pour être honnête, on aime aussi la fiesta Un peu te-bê quand, hébété, on traite de pute des filles extra Et si j'ai pas le cur à rire dans les trois quarts de mes chansons C'est qu'la joie ne dure qu'un temps et je sais comment les gens sont Je sais comment les gens font quand ils te prennent pour un pestiféré Peut-être que j'm'y ferai au lieu de rêver de vous éviscérer J'ai connu la campagne, la cité, le centre-ville En vrai c'est partout la même tant que t'as pas une thune Et les jeunes sous champagne, excités se sentent vivre Moi j'serais déjà mort si j'avais pas une plume Si peu d'différence pour un trajet de train si cher Paname-Toulouse, y a un fossé entre Jaurès et Saint-Michel J'me dis qu'j'ai trouvé ma place ici mais j'en suis pas encore sûr Morsure, pas d'aboiement. Noir blanc, nord sud Ville rose ou ville Lumière, des jolis noms pour des bâtiments gris Y a pas qu'la nuit qu'tout peut partir en vrille On s'isole, on vide nos verres. Tu veux savoir ou j'ai grandis ? Entouré d'caïmans, tout est quasiment dit</t>
+          <t>Ni trop balèze ni trop mince, j'étais qu'un p'tit con J'étais jamais sorti de Paname, j'pensais que y'avait pas de tess en province Sur le corner, on me regarde du genre T'es qui toi ? À part des textes ou te faire jouir, je sais rien faire de mes dix doigts Du shit j'ai écoulé. Les poulets veulent désamorcer tous mes plans Dehors j'me défoulais, des parents divorçaient comme tous les blancs Malgré ma couleur, on m'a dit De dos, face au mur Entouré d'putes comme Hugh Hefner ou Dodo la saumur Pour la mille-fa, j'aurai pu te massacrer Chocolatine ou pain au chocolat ? ça raillave pendant le mois sacré Face aux lois répressives, l'argent fait peut-être pas le bonheur En attendant ça baise et j'peux tenir deux mois sans lessive Le drug store a remplacé les farces et attrapes Tellement de garde d'av' il faut que j'achète des chaussures à scratch Du sud au nord, t'entends les douilles qui tombent, c'est XXX C'est pas la couleur des couilles qui compte, c'est leur taille Le plus dur est derrière moi donc à chaque fois que je sors du taga J'me dis que c'est la dernière fois comme à chaque fois que je sors du tabac Ici on t'apprend l'humilité, fume des gros zdeh les week-end Sur les murs y avait de l'humidité, pas des posters d'Eminem Mes galériens n'ont pas l'hygiène rigide Entre les chaudasses de la couronne et les parisiennes frigides La guerre à la baraque, cherche un semblant d'espoir à lextérieur Non, j'vais pas te faire le cliché du blanc qu'est noir à l'intérieur Le seul contrôleur de mes sens, ramène la tise, la nourriture Petit zoneur de naissance, on fout l'bordel chez les che-ri Pas connu l'bonheur et l'aisance produit parisien pur et dur J'kiff l'odeur de l'essence et j'me bouche le nez chez l'fleuriste Décrocher du parvis, c'est l'but entre vandale et sales histoires Le crochet qui part vite comme un billet d'vingt balles un samedi soir Tous les sourires s'inversent il fait plus rire Debbouze Tou-bab, j'ai jamais trouvé ma place donc j'vais mourir debout Si peu d'différence pour un trajet de train si cher Paname-Toulouse, y a un fossé entre Jaurès et Saint-Michel J'me dis qu'j'ai trouvé ma place ici mais j'en suis pas encore sûr Morsure, pas d'aboiement. Noir blanc, nord sud Ville rose ou ville Lumière, des jolis noms pour des bâtiments gris Y a pas qu'la nuit qu'tout peut partir en vrille On s'isole, on vide nos verres. Tu veux savoir ou j'ai grandis ? Entouré d'caïmans, tout est quasiment dit Le marchand d'sable bicrave des tonnes de shit pour qu'on s'endorme vite P'tit provincial, pour moi la Tour Eiffel n'est qu'une énorme bite J'dégomme les flics dans GTA pour me venger de leurs contrôles Et j'me dis que s'ils étaient là, j'leur ferais manger la console Tu veux du rap ? Change pas la piste. Du R'n'B, pas d'ça chez nous J'viens d'là où on trouve ça chelou quand l'ascenseur sent pas la pisse Là où ça deal et devant Lidl, mal habile et mal habillé Mama disait qu'ça cafouillait à la C.A.F. et que l'sablier s'aplatit C'est à la place XXX m'a analysé Et mis la Mona Lisa à la cave Bave de pitbull sur le sol, des p'tits XXX sous le hall Ou des zoul' sous le soleil ou sommeil pendant les heures de colle Ici les mômes rêvent pas de gondoles de Venise Aussi grillé qu'du rouge à lèvre sur ton col de chemise Et nique sa grammaire la prof de grand-mère qu'est-ce que vous croivez ? Un dictionnaire ça peut peser, ça fait pas l'poids de la 3G On dit qu'c'est merdique, les mères flippent des perquis' Mais persistent et pèrefils se perdent vite Les merdes qu'ils te prescrivent te laissent libre Mais est-ce vivre ? Et est-ce l'hiver ? C'est pas trop net on fête le 31 au pied des boites aux lettres Tu veux savoir pourquoi on boit trop mec ? Pour trouver des réponses ou pour oublier tout c'qu'on croire connaître Pour être honnête, on aime aussi la fiesta Un peu te-bê quand, hébété, on traite de pute des filles extra Et si j'ai pas le cur à rire dans les trois quarts de mes chansons C'est qu'la joie ne dure qu'un temps et je sais comment les gens sont Je sais comment les gens font quand ils te prennent pour un pestiféré Peut-être que j'm'y ferai au lieu de rêver de vous éviscérer J'ai connu la campagne, la cité, le centre-ville En vrai c'est partout la même tant que t'as pas une thune Et les jeunes sous champagne, excités se sentent vivre Moi j'serais déjà mort si j'avais pas une plume Si peu d'différence pour un trajet de train si cher Paname-Toulouse, y a un fossé entre Jaurès et Saint-Michel J'me dis qu'j'ai trouvé ma place ici mais j'en suis pas encore sûr Morsure, pas d'aboiement. Noir blanc, nord sud Ville rose ou ville Lumière, des jolis noms pour des bâtiments gris Y a pas qu'la nuit qu'tout peut partir en vrille On s'isole, on vide nos verres. Tu veux savoir ou j'ai grandis ? Entouré d'caïmans, tout est quasiment dit</t>
         </is>
       </c>
     </row>
@@ -565,7 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Celle qui m'a senti naître Et m'a vu grandir centimètre par centimètre M'a toujours dit Rien n'sert d'avoir des projets sans t'y mettre Ma destination, un voyage, peu importe où le sentier mène Leur liberté n'est qu'un mirage, les caméras des sentinelles Et j'en ai lu des livres, j'en avais des idées pourtant Mais, voter, c'est décider de qui va décider pour toi Et y a plus d'aventures, les zones sont quadrillées Même les professeurs ne sont plus bons qu'à trier Alors faudra me dire quel espoir d'avenir Pour un gamin qui part dans le bâtiment en quatrième ? Dis-moi que fait l'école à part te dompter ? Ils te diront que j'suis naïf quand je parle de bonté J'aime accompagner ceux d'mon clan qui graffent, certains titubent encore À cause des matraques en titane des brigades anti-tag J'fais du son pour plusieurs raisons la première, c'est rendre les frérots fiers C'est comme un sérum, mes pas résonnent dans le réseau ferroviaire Graver des skeuds, faire groover son corps et graffer Sensible à la beauté, même nos checks sont chorégraphiés Yo, toi avec ton petit boule d'actrice Viens par ici tirer sur ma Big Buddah Cheese Laissons de côté les sujets qui nous attristent Sur ma baguette enchantée j'ai besoin d'un bisou magique À chaque porte de Paris j'ai une concubine Ça va d'la blonde stupide à la ronde pudique Des meufs compulsives qui veulent qu'on s'unisse Elles savent que moi et la rue on a rompu vite Je connais une meuf coquine vers Porte Dauphine Elle tape dans les drogues dures et boit de la codéine Quant à la cocaïne, elle croit que c'est comestible Une blondinette zombifiée pour qui j'ai pas trop d'estime À lopposée je connais une beurette à Porte de Clichy Elle a des formes, qu'est-ce qu'elle est bonne Mais peu importe le physique Avec elle je me tape des barres et on bédave des lattes J'ai déjà essayé mais pas moyen que je lui écarte les pattes À Porte d'Auteuil, j'vais te présenter une portugaise Mordue de sexe, sans faire aucun effort, tu baises J'dois me faire discret, j'ai la dégaine d'un dealer de me-seu Elle habite une loge de gardienne d'un immeuble de vieux You might also like Ramène pas ton grain d'sel, il nous manque pas d'grain Quand t'entends qu'ça grince, c'est que j'baise avec ta princesse J'les entend tous, ils font crari ils sont pleins d'règles Mais ils vont trahir de leur plein gré Sur mes cicatrices, pas d'pansements J'me méfie des pensées, bah, ouais, les gens mentent Un penchant pour le gent-gent, mon fric j'fais que l'dépenser Plein d'rêves, on veut tous faire des dingueries Pour tout niquer y a qu'un siècle, S-Crew On prend les mêmes et on recommence L'histoire a commencé dans l'quinzième Des films d'horreur et des romans, on n'a jamais d'remord On fait que des effondrements, revient arc-en-ciel La date de ton bum-al, personne se demande quand c'est Toujours corsé, le pe-Ra part en couille, man J'écoute des trucs à l'ancienne Chaque jour de l'honneur comme un samouraï Peut-être qu'un beau jour ça m'aura J'ai pas besoin d'sa morale, on fera plus rien quand ça mourra Pour ça qu'faut faire que des sans faute, jamais dans l'faux Il m'en faut pas beaucoup pour sortir mes dents d'fauve Ici, dans l'quinze, quand on appuie, ça fait pas d'bruit derrière J'suis venu au monde la nuit mais c'était pas la nuit dernière L'intelligence bat des records, on lit à travers l'regard Au Blackbird on record, on fait apparaitre le cash Quand j'étais p'tit, on m'chantait Mamadou avait mal aux dents Maintenant qu'j'suis grand Ces mêmes personnes me sucent le gland Et puis fuck, maintenant j'brûle des scènes Avec mes potes pénards, on fuck le Code pénal Envoie la drogue, pétard à la bouche que j'bute ces chiennes Car j'suis un résident des villes les plus médiatisées Où les présidents débiles dépensent des méga-budgets Dans des élections stériles, fuck ça j'préfère la zik, lope-sa J'déverse ma iv' dans l'Rap, en récitant mes titres Tu sauras d'où j'viens, BKO Dar-es-Salam Si mes salauds passent à l'acte C'est pour éviter l'génocide des shaolins, Dharamsala De toute façon, j'sais qu'les kisdés comptent bien Nous encercler, enfermer loin d'ces dîners mondains C'est dans l'chantier qu'on doit taffer Mais pour mes frères ce n'est pas assez File-nous 10 000 au moins, pour mes Miguel de Pigwalle Ça fait désordre, on est tous mis dans l'même sac Séparés par des distances immenses, il m'semble que personne veut d'ça Ma tête est proche de l'épicentre, allez On veut pas stagner les pieds dans l'plat J'en ai ma claque de rester devant l'palier Des rêves de caisses avec des jantes Claquer quelques liasses en sappes à l'aide des ventes Ça laisse rêveur, paraît qu'des gens s'achètent des guns Fallait s'détendre, s'défendre, les anges veillent mais Seuls tes proches pleurent tes cendres avec des fleurs J'ai peur face à tout ça, j'suis pas à la bourre J'effleure de peu l'erreur qui m'rendra coupable et par à-coups J'fais gaffe à tout mais le doute frappe J'peux canner partout en un coup d'schlass J'coupe cash le problème à la source J'marche au milieu d'une allée de chênes Loin de tout c'merdier, je cherche à m'évader bien plus loin qu'les Deux-Sèvres Quelques sauts périlleux, j'passerai peut-être Par des périodes compliquées, on s'y fait J'compte rimer, histoire de ramener le pèze Des gars ont triché, moi, j'me laisse pas aller J'en ai déjà assez de faire gaffe aux coups vicieux Il s'dit qu'on oublie mieux avec un sachet de cess', assez de ça J'vais taffer ce texte, j'applique c'que mes darons disaient Compte pas bâcler le reste, j'braverai le cap, c'est c'que les rois visent opprimé?, je souhaite vivre la vie qu'j'ai choisie Une fois ivre, la s'pointer, j'me crois libre Après deux verres quand tu passes tes vacances au Croisic La réalité fait passer vos coups d'gueule pour des caprices Ancré dans la matrice, branchez casque-écouteurs A quoi ça sert d'avoir le dernier Mac et l'Google Glass ? Et quoi sert de faire du cash si c'est pour l'claquer tout seul ? La rime est impecc' sauf quand j'fume On a pris des pincettes, mis des lingettes propres dans l'stud Et c'est parti quand j'remplis les unes après les autres les pages blanches Cours sur des pots d'échappement comme Gary Cooper J'me méfie des coups d'cur factices, des mirages Rêve en plus grand qu'sur ton écran couleur tactile Retina Frère, y a qu'un coup de Jack qui m'réhydrate On n'a pas d'kit médical pour nos douleurs, que d'la frappe J'ai l'impression d'être tombé direct dans le creux d'la vague Les gens se trouvent le temps d'être anti-systèmes entre deux achats J'refuse de faire les trois huit et trimer sans une pause Putain, dites-moi en quoi suis-je différent du lot ? J'voudrais glisser dans une autre dimension, fuir les bancs du vivre Pour l'amour du risque, le gout du fruit défendu Mais c'est la crise, c'est tendu, faut du pognon Remettre les pendules à l'heure Ma tête c'est l'incubateur d'idées via les gens qu'il rencontre On bronze au soleil, l'argent blanchit dans l'ombre, les dents longues Lâche-moi sur la banquise en slip, tu m'retrouves aux Antilles en tongs Désinvolte jusque dans la façon d'traiter l'thème Ça glisse, j'ai graissé l'mécanisme, laisse faire les vrais artistes Des millions d'peines pour si peu d'euros Tout jeune, rêve de billets, finir millionnaire Même si j'y laisse ma tête, et briller n'est pas ma quête en fait Trouvé mes terres, en faire du blé Avoir son plan d'secours est la priorité en vrai Ma peau vaut cher, même fauché j'ai tout donné au rap Maintenant ça taffe et veut une carrière honorable Crois-moi, c'est des pétasses qui bouffent avec le buzz Et baisent avec le succès Maintenant ce beat elles viennent sucer sur Ma prose est pure et bien influencée, certes Tu veux du bon pe-ra ? Bah venez me ché-cher Frère, nous la relève, quoi ? T'es fou ou quoi ? J'me lêve, fonce tout droit, utilise les wacks comme défouloir Oz débarque, pose, t'initie, kho, veut baiser le pera Se vider la vessie juste après les laisser, j'dis que je vais les élever Mais comme un père ivrogne noyé dans l'Jack Pote, fiotte, fait pas le fou si t'as la frousse au fond Sous mandat de dépôt pour un smic, fous tellement le seum Que je pourrais faire 48 heures pour un stick, fils Stique-my, j'écoute pas ce qu'ils m'dictent, sont pas crédibles Tout pour le prestige, quoi ? J'préfère rester dans les vestiaires clean J'ai beau être un poète charismatique mon cur qu'a t-il à dire ? Dis-moi, tu me trouves naze comme Gad Elmaleh ou l'gars d'Illmatic ? J'respecte pas un fan car il m'astique mais plutôt parce qu'il veut me faire briller Unique, il n'y a pas de deuxième moi sauf février J'ai pas d'gun mon courage mesure plus d'neuf millimètres Déjà petit je voulais faire le bien et j'étais fière quand un reuf m'imitait La vie est comme une meuf militaire parfois elle m'donne Envie de faire l'amour, parfois de faire la guerre Mais je pense bien que ce soir je vais la ken Zizi dans son trou pour me la taper sans tiep' Et ouais t'as bien entendu à terme je compte briser la terre entière Et je suis voué comme Nekfeu à faire des billets en crachant le fuego han ! J'rappe mieux que toi mais j'ai pas l'aspect d'Rohff J'ai les flows, j'ai les rimes et j'ai les tasses-pé love Qui après vingt selfies ne pensent pas avoir eu assez de tofs Feu est dans les bacs bsahtek, mazel tov Venez lui masser le zob ! T'es pas un G non, non, t'as un passé soft SI tu veux reprendre du poil de la bête bah viens me raser le torse Caballero a.k.a. plat sans cochon A.k.a. j'finis toujours trop vite c'qu'il y a dans l'pochon J'vais pas devenir moins vrai, j'vais pas devenir moins frais J'vais pas devenir aimable pour fumer sur ton joint d'herbe J'ai pas besoin d'ça, j'ai juste besoin d'un coin vert Voir un psy ? Pour quoi faire ? J'connais déjà mes points faibles Comme boire du café ou mater ma gazola nue C'est ma pétasse, ma gasolina Suffit d'un morceau de disco pour le faire à la bonne allure On baisera jusqu'aux douleurs abdominales Elle dit qu'mon caleçon cache un missile skeud Et que j'aurai toujours c'beau sourire et cette magnifique gueule Même si je finis seul, hyperactif sans coco ni sizzurp J'perds plus mon temps devant la télé Depuis l'époque des Minikeums À dix ans, j'trouvais déjà la vie soûlante J'vais trop vite pour ce monde J'ai comme l'impression d'marcher après un tapis roulant On n'est surement pas faits d'la même fibre Elvis avait la même force, j'aurais dû naître à Memphis J'suis pire qu'le THC quelques taffes et t'es HS Ils ont voulu nous griller mais électrique était la chaise Du C4 dans la tête mes neurones t'explosent D6 est plastifié, je t'achève en une pose Depuis l'époque des cassettes, pute, tournées en boucle dans les caisses De merde et d'luxe, où les fumées de purs pètent On cachait la dope dans des paquets d'Tuc J'avais un paquet d'sucreries Mais les crackers se cassent, seringue de vie d'pute Amateurs de hasch, serein, j'bute la weed pure J'te dis qu'on nous pousse à la misère et la misère nous pousse Akhi, air et tousse, la nuit, les keufs nous secouent à coups de gaz gratuits J'remarque qu'la camisole et les camisolés qui aiment ignorer les coups d'fil Décroche au filon d'cesse, fils, on l'sait Tu squattes la Maison Blanche de Pendant qu's'déhance sur ma queue des Beyoncé J'adore per-cho dans les mariages, surtout la fiancée Ouais, c'est D6 le barge, négro tendancieux J'fais tomber toutes les cougars le temps d'un pas d'dance, vieux Sais-tu c'que c'est d'se sentir transparent comme un Sans-abri dans les transports en commun ? Regarde les dettes africaines Quand t'as la dalle on t'offre que dalle L'État fait que trafiquer, toi, tu fais gaffe au taf que t'as J'ai envie d'chanter pour mes amis Qui taffaient la nuit au stud en habits d'chantier Pourquoi se plaindre vu qu'on est bernés, comprends-tu ? La vérité sera dans le dernier compte-rendu J'étais pauvre dans le passé donc c'est moi qui rince tout Une beauté derrière, j'me fais masser torse nu sur un scoot J'aime inverser les rôles lui faire des plats dans la cuisine Pendant qu'elle fait des plats dans la piscine Tu comprendrais c'que j'ressens s't'habitais mon département J'rêve d'une piscine qui me ressemble, habituée aux débordements Joue pas les so-per, merde, le monde est à nous, frère C'est pas qu'des foutaises ni des bootlegs écrits sur une chaise J'essaie d'transmettre au mieux mes pensées, faut pas qu'j'me perdre Mais dans ce monde de taré mieux vaut être préparé pour la guerre J'ai passé des années à voyager sur cette sphère Sans mes amis et ma mif', j'serai déjà six pieds sous terre Frérot, j'pèse mes mots, plus rien à perdre On veut tous rouler en Escalade, Range Rover, rien à faire On rentre aux heures les plus obscures, quand est-ce qu'on cessera, frère ? Mais qu'est-ce tu veux ? Depuis tout p'tit c'est comme ça S'en sortent que ceux qui veulent, depuis la Guerre du feu T'étonne pas, enlève ton masque, ton pote passe à la barre god damn Trois piges de ferme, ils l'ont coffre pour quelques plaques Retire le voile, il faut qu'tu barres avant d'ber-tom pour quelques plaques, my nigga Tu minimises les prises de risque Ça kick les beats de pistes pour que nos gosses deviennent des fils de riches L'ambiance est punk, vas-y, roule un blunt Ecoute la Grünt, c'est comme ça qu'ça s'passe On est dans l'futur comme Trunks Eff Gee, vas-y, balance ça mon soss, yeah yeah Pas l'temps d'bouder car personne n'arrête le chrono Overbooké comme en pleine période de promo Si tu vises le gros lot, sois bon dans ton biz et l'biz C'est d'faire la bise à des fils de qui ne voit qu'en toi qu'un prototype Quand t'as mille contraintes, contraint d'niquer tous les pronostics Pas d'petits contrats, j'vais devenir celui qu'on craint Demande à Nekfeu, impossible qu'on craque On va chercher c'biff et j'te l'dis, un jour, il tombera 21 chutes, 22 fois debout Si t'as pas d'pote de toujours, peut-être que t'es une pute Comme ta meuf on peut l'acheter puis la jeter Beaucoup vivent la vie HD puis l'HP Par chance, vous nous négligez, c'est c'qui vous rend cheums Le temps c'est de l'argent donc les pauvres mourront jeunes A chacun sa réalité, la mienne c'est Zik, meuf, 19, au cas où tu veux y habiter J'rappe ma iv, j'ai trop trainé dans ces ruelles Tout en bas d'l'affiche, j'faisais qu'errer dans des tunnels Mes gavas ont la be-bar de salafiste et le regard de Kahdafi Envoie deux grammes de cannabis et mon peu-Ra t'euthanasie Nan, ne me tape pas la bise, repère l'hypocrisie à des kilomètres J'ai pas bu depuis trois jours mais j'rends positif l'éthylomètre J't'explique tout c'que j'crache est brulant Le swerv d'une eclipse tu deviens aveugle en l'étudiant J'ai plus l'temps pour ces tass, trouve mes phases cute Nique la presse Rap, ils connaissent rien sortis du top 20 iTunes J'leur dédie ma levrette la plus bestiale Bientôt, j'irai baiser tout l'rap français comme les putes d'Espagne Le flow d'un Tech N9ne, j'rafale tous ces bâtards Saute à pieds joints sur leurs cadavres jusqu'à c'qu'ils soient Assez plats pour passer sous les portes J'aime pas ta gueule, j'fais pas du tout d'effort J'suis soulé fort et j'compte vous l'faire payer à toi et tous tes potes Leurs morceaux sont tellement plats qu'on peut les faxer Mes rimes sont tellement riches qu'on peut les taxer Fuck ton crew, sale pédale, ça bouge ap T'es tout naze, écoute, ça fait breh ! Rien qu'on fait des classiques, S-Crew, le nom d'mon gang Y a que dans l'ombre qu'on tranche pour pas finir aux assises Souvent dans un camouflage vert kaki L'ambiance est pourave, y a des toux grasses ça vi-ser d'la weed Ici, tu perds ta vie, on t'nique ta mère à six Une bonne paire de Nike Air dans la tête, c'est facile Le leust est entouré donc on fait ça à notre manière Bientôt le L est en tournée donc prenez garde à vos arrières Bitch ! Et toi, dis moi pourquoi tu causes On est au Festival de Cannes, toi, tu traînes à la Foire du Trône On fout la merde, on fout la merde, yeah On fout la merde, on fout la merde, yeah On fout la merde, on vous la met On fait l'effet d'un tsunami On vient vous la mettre sans stress, ça fout la merde comme 113 Dreads ou boule à zed, roule la zeb et sers un grand verre On partouze avec des trentenaires mleh, vie de trader Un verre de Jäger et nos goûts d'haleine te transpercent Ça vient du bled ou bien des bas-fonds de la jungle urbaine Tiens-tu tête ? Face à l'escadron, tu n'as rien pu faire Des insurgés qui foncent tête basse quand ça s'bat On aime pas quand ça parle, grosse baffe dans ta face Technique KGB, bébé, pour caresser ta carte CB Faut pas rêver, bébé, tu vas apprécier d'être à mes pieds Y a des sous à s'faire, la plupart des filles sont séduites par le mal Fous la merde comme Samy Naceri au Festival de Cannes Double G majuscule, toutes les bitches sont cambrées Pour mes généreux généraux, dans la suite, on gère les entrées Soulève donc ta p'tite jupe, allons nous allonger ensemble Allongés ensemble, on refera l'futur Loin des yeux, près du cul fais couler le bain to the OG's, elle voulait me Tu voulais t'faire pousser les seins, espèce de pute à frange J'ai trop d'pain sur la planche, p't-être que j'vais te fourrer demain Pour l'instant, j'chille avec mes gars certains On ride dans toutes les villes, on n'cesse de se mettre bien Puis skier en Suisse, avant l'concert d'faire l'plein On baisera la fille et la nièce de Guerlain Laisse-moi décompresser, la vie d'un jeune entrepreneur est complexe Entre les embrouilles 'vec la justice et les embrouilles 'vec mon ex Et les embrouilles 'vec mon fournisseur, les embrouilles pour des samples Je suis dans un monde étourdissant, tu peux tout remonter, tout redescendre J'redescendrai plus jamais, mon ex m'a dit J't'en prie, ne t'en va pas Vingt-quatre piges à peine, je travaille déjà plus que ton papa Ah j'ai bafouillé, j'viens pour tout cafouiller J'vais bafouer ces faux rappeurs C'est comme ça qu'ça s'passe, on n'a pas peur Dans la vapeur, on rappe C'est comme ça qu'ça s'passe, j'suis un galérien, un rameur Ouais, fuck ces rats morts, j'viens faire mon rapport mec C'est comme ça qu'ça s'passe, j'suis chaos comme Mormeck Mais j'fais les bails avec tous mes potes qui détaillent Rien à foutre on braille, on crache des flammes Là c'est pour le projet du reuf Comment t'expliquer il a sorti ça, c'était deuss Comme si c'était mon neuf que j'braque sur ta ce-fa Rien à foutre, toujours dans les temps j'me le-ca Pas besoin du casque, je roule mon pète Fais belek si on pète ta miss dans la partie, ça va être sa fête Laisse bét' mes grecs sont de-spee Boum, qui va lâcher la suite ? En impro, on vient lâcher quelques rimes Un ffe-spli, à qui de kicker ça ? J'peux kicker ça, mec, c'est propre de ouf Black and yellow comme les 'locks de Doum's C'est comme ça qu'ça se passe, tu vois, je t'apporte la douce J'fais le truc, on est bien plus que douze, c'est comme ça, mon couz' Yeah, on fait les bails ensemble On laisse les faux en sang ou en cendres C'est comme ça qu'ça se passe dans le centre Dans le sud dans le nord, fuck les porcs Mec, c'est comme ça qu'ça s'passe quand je pose smoove sur la prod Ouh, c'est comme ça, tu l'ouvres, on baise même ta pouf' Posé sur un pouf, fuck la chnouf Ils vont boire la tasse car il faudra nager pour percer ma carapace Jarrive au bal masqué armé de mes paragraphes Blague à part, à la base, jkiffais pas la bagarre Mais tas pas lchoix à Paname, tas la poisse si tes pas à la page Rien à foutre ! Jmarche à visage découvert Et jme ferais ta fille pendant que ta femme videra mes poubelles Tas dit voir une explosion mais cétait quune flamme Toi,ton masque de fer qutu tes fait greffé sur le crâne Ça fait partie du décor comme du rouge à lèvres sur une Bouche pulpeuse et si un jour jpue lbuzz, j'habitue mes proches Car la canicule est proche, remballe ton blablabla contractuel Ton attitude est moche, cest une mascarade, on ma dupé De la droiture avant l'cash, quand la vie t'rend muet Mon nom sur une vitre embuée avant l'crash de la voiture C'est comme ça qu'j'vois le Rap une écriture insignifiante Avant qu'on parte, le dernier cri d'une jeunesse édifiante Personne t'explique la vie, c'est un chemin introspectif L'unique défi, schéma atroce, une ligne de fuite pour perspective d'avenir Nos vies sont crades donc on défonce notre crâne Et plus j'connais la musique, plus j'aime les fausses notes Le seum que j'ai pourrait remplir des containers T'es comme moi si t'es prêt à tout péter dès qu'on t'énerve La violence n'est qu'un hameçon Mais y a l'passé qu'aucun n'assume Des hommes traités comme des canassons Coupant des cannes à sucre J'ai toujours été un petit révolté T'es comme moi si t'es prêt à tout péter J'esquive avec classe les avis négatifs Ça t'force à faire en sorte d'éviter mon passage, mec De toute façon t'es mort dans la cinématique d'une hépatite Abritée par des hommes dans un salon de massage gay Instable, l'acide est v'la corrosif Au fond vous devez avoir quelque chose à faire valoir On rêve d'asseoir nos derch' dans l'observatoire d'astronomie Ça pête comme une ogive dans un stade de foot Pendant un match au sommet Infâme, j'démarre au quart de tour, gare au gorille Comme l'a dit Brassens, à deux ou à cinq j'ai l'moral au beau fixe Pas trop de sottises dans mes textes, j'vais pas m'justifier Mes idées valent tes gestes, on laisse ton équipe en détresse Plus d'pitié, j'te la mets dans l'jeu de l'année, genre GTA V Jeune camé, allez, il t'reste à jeter ta seringue Je veux clamer ce rap simple un peu partout via les ondes J'vais pas m'plaindre, on tient l'vrai rap, mes gars ont bien raison Mes gars ont bien raison Mes gars ont bien raison Mes gars ont bien raison Mes gars ont bien raison Mes gars ont chopé Feu, mes gars ont bien raison Mes gars ont chopé Feu, ouais, mes gars ont bien raison Mes gars ont chopé Feu, ouais, mes gars ont bien raison Mes gars ont chopé Feu, ouais, mes gars ont bien raison Oui, j'écris des sacrées rimes, c'est mon métier Et ça m'rassure quand la dernière cloche me menace J'n'ai pas d'plan B, si un jour ça s'termine Heureusement, l'inspiration est plus grande Que les poches de The Mask Moi aussi j'aime les belles femmes, la bonne bouffe Le soleil et la relaxation, quitte à redescendre sur Terre Comme qu'un crash d'avion Ouais, avec mes frères des cavernes Où qu'on aille on sait s'mettre à l'aise On trouvera l'G.I.L.D.A.S si ton herbe est balaise La défonce possède un charme secret Voilà pourquoi Morgan et Jack se mêlent A mes dépenses chaque semaine Ça m'aide à m'assoupir, je sais qu'j'm'invente un conte Mais j'ai tendance à m'sentir dans un monde où on n'peut pas mourir J'fais qu'avancer mon heure en vivant comme un déraisonné Mais j'suis sur répondeur quand la Faucheuse veut m'téléphoner J'ai des projets, j'y pense d'un air songeur Car j'risque de rester fauché si je laisse parler mon cur J'suis pas imbécile, je sais qu'j'ai plein d'mérite à r'vendre Indécis, pour gagner j'dois m'investir intelligemment Un génie, j'attends d'avoir de l'or en poche Ça sert à rien d'faire d'l'argent après sa mort comme Van Gogh Mais paraît qu'ils ont retrouvé d'la salive d'alien dans mes mollards Ils ont peur que j'me propage comme le virus Ebola Mais j'me pète au large, bédo sous la pergola Décollage spirituel, bientôt j'me teins les cheveux comme Legolas J'suis pas terrien même si mes racines partent d'Italie Mais j'vous aime tous quand même donc essuyez vos larmes J'ai la rime facile, dommage que l'rap soit devenu Une pratique has-been comme le cannibalisme à Miami Violence, alcool, sexe et blueberry J'raconte toujours les mêmes choses mais j'ai des nouvelles rimes Suffit qu'ma folie intérieure parle Pour devenir majestueux et briller comme un Seigneur , Pal Comme un Seigneur , Pal Comme un Seigneur , Pal Comme un Seigneur , Pal Feu est dans les bacs, mes gars ont bien raison ! Mes gars ont chopé Feu, mes gars ont bien raison ! Mes gars ont chopé Feu, mes gars ont bien raison ! Mes gars ont chopé Feu, mes gars ont bien raison ! Mes gars ont chopé Feu Est-ce que tes gars ont chopé Feu ? Y a aucun trac, j'me livre, j'apporte ce qu'ils veulent tous Pourtant certains me répètent Vous vous démerdez mal Je veux dire, c'est pas que jentends pas leurs histoires A dormir debout, c'est juste que je me demandais Quand est-ce que je pourrai faire des blagues de riche ? Plongeon demi-vrille dans la piscine de billets Un jet qui signe le ciel avec le nom de la femme que je kiffe Un whisky doux dans le living room Mystic blue dans le phillies ou le chillum à la Sitting Bull En attendant qu'ça pète, on accentue nos skills On marche en duo, Fixpen, sans accent utopique Alors on fume jusqu'à voir des flamands fluos Rime comme des savants, mais ça ne nous à pas rendu nos biffs Putain ! J'en ai rien à cirer de savoir briller, crier plus fort Naviguer parmi les stars, les kids épilés du torse C'est vrai que c'est malsain quand j'crache je trouve que rien n'est bon J'vais pas m'plaindre, on tient l'vrai rap, mes gars ont bien raison Mes gars ont chopé Feu, mes gars ont bien raison ! Mes gars ont chopé Feu, mes gars ont bien raison ! Est-ce que tes gars ont chopé Feu ? Oui, mes gars ont bien raison ! Est-ce que tes gars ont chopé Feu ? Mes gars ont bien raison Venin est craché par une pute, mon chemin est tracé J'm'étais vu en place, depuis compris qu'on vivait pour une liasse Ta tass' me gratte, j'ai d'quoi vous mettre bien Efficace ma came, décolle la rétine de Pocahontas, naze C'est sur du Nas que moi j'm'endors fils Nique tes berceuses, j'finirai à côté d'ceux qui persistent Nique un percing, on sort un gun pour trouer l'corps et dissimuler les preuves T'sais qu'la vie c'est dure comme relation entre père et fils Vers ici ça vend la mort, près d'ceux qui voient le jour Pour se remplir les fouilles et faire l'amour à toutes ces putes plein d'vices Sortir ma bite là où ça sent la pisse, c'est pas mon style Préfère écouler l'shit avec l'équipe Bende Mafia sera légendaire Nique ?, on veut fumer tout l'livre avec de l'herbe En l'air sont leurs mains, braquer ces wacks avec ma prose OZ débarque, pose, les met k.o. et j'ose Dire qu'j'suis meilleur qu'eux, le flow est new-yorkais Chez nous le chef d'orchestre est dirigé par ce putain d'bizz Et ça commence par un mal-être, perçant comme une arbalète On sait que le monde il est pas net et je remet ça tout comme Danette Le monde arrive à son déclin, oui c'est finit lapogée Dans la rive on s'est noyé, on a beaucoup trop pataugé Les darons savent plus quoi faire à part mettre des tartes aux jeunes Et les reufs savent plus quoi faire à part écarter les jambes Les gens parlent de moi au passé comme si j'étais une légende J'ai décidé de ves-qui les cons, pour rester intelligent Est-ce que tu sens monter ma peine, yo ? Et si j'arrive pas à monter la pente, mon pote C'est que lascendeur est tombé en panne 23 ans passés, le 24ème que j'entame Elle est bien loin l'époque, mon frère, où j'avais peur des gendarmes A force de trop fumer, j'compte même plus d'pilon que j'crame Et le mic en guise d'uzi, ah bah nan, j'changerai pas d'arme Et le mic dans ma peau, inscrit dans mon épiderme Au rap, je resterai toujours fidèle J'continuerai de décrire tout ce qui m'sidère Car ces six dernières années, jamais cessé de rapper Toujours une feuille un stylo pour pouvoir gratter Un thème large, un maximum d'ouverture J'ai passé l'âge où on me disait bah, kritch t'es trop immature Pire qu'un j'sais pas c'que t'as dans ta tête Finir d'écrire des textes avec des tas de ratures Aujourd'hui j'arrive avec un travail propre J'm'envole de mes propres ailes A force de trop rapper, bah c'est sûr que je me déshydrate Et quand j'vois les problèmes du monde J'me dis que les miens n'sont pas si graves Avant d'commencer c'son, j'avais un thème Un truc sombre sur la vendetta dans la tête D'un jeune qui a la vingtaine Puis j'ai fumé un joint d'jaune avec untel Ou p't-être un joint d'zeb suivi d'un fond d'teille Et j'ai zappé, sa mère, faudrait qu'j'arrête cette merde avant d'dead On est seuls, c'qui fait qu'on est tristes Le mauvais il, ça l'fait kiffer qu'on s'détruise Dis-toi qu't'as tout pour toi, c'est important Quand est-ce qu'on va s'unir ? Il faut un temps pour tout,on forme un tout pourtant Faut qu'on soit formatés par l'système,ils disent Ça m'fait flipper comme la montée d'l'antisémitisme On va en boîte, on s'fait chier Alors on fout l'zbeul, on finit dans les fichiers des colboks Comportement à l'école bof On s'bute à Call of en buvant des alcools forts Et les filles, je ne sais pas c'qu'elles veulent Mais je m'en fiche tant que j'enfile des baskets neuves Mais dès qu'j'ai mis la paire, ça y est, elle est plus neuve Problème épineux,dans ce shop y aura p't-être une mieux On est continuellement frustrés consommer pour s'consoler J'm'amuse jamais dans les soirées mais j'continue d'm'incruster C'est pas bénéfique, les voisins débarquent avec La ferme intention de dire La ferme, attention, j'appelle les flics ! Je compte même plus les moments d'absence Je t'aime ça compte plus, les mots n'ont pas d'sens J'agrippe un Scud pendant qu'mon groupuscule Graille une crêpe au stud' Face à Dieu, mes têtes lisses et crépues Scrutent le même crépuscule J'fume un gros pur, chaque fin marque le début d'un autre truc J'entreprends quitte à connaître des putains d'grosses chutes Trop de MC's mythos, moi, j'suis déçu de limposture Quand ils rappent, c'est comme s'ils étaient vêtus d'un costume Eff Gee come back, wavy comme Max Ouais,j'suis comme aç, j'attire les bitchs comme Axe Et j'te l'dis direct, j'viens des bas-fonds, je m'y mets à fond Celui qui m'affronte, c'est celui qui perd Viens nous exhiber tes seins On est dans l'pêché mais nos curs sont purs J'te jure, c'est dur de résister mais j'tiens Seigneur, aie pitié des miens Laisse-nous esquiver ce destin On fait pas des 1000 et des 100 En vendant des 10 et des 20 Tu mets des coups d'épée dans l'eau, l'affreux, on s'propage Prépare tes adieux, on fout le feu comme des Ghostriders Il faut que toutes les mains se lèvent haut Rimes façon West Coast, Gangsta à la Death Row Fuck les ennemis, miskine, ils se croient peut-être drôles Ca cartonne comme au rallye, on cartonne même sans khaliss Mes alliés se rallient, mental de patron On ne dit pas pardon, y a que comme ça que tu seras libre Si j'tombe à Fleury, c'est qu'y a un beau million à prendre Ou qu'y a une tombe à fleurir, les tes-trai vont prendre des pralines J'ai pas vu d'boulot tendre, faut prendre pas l'9ar9ob Ils ont la boule au ventre, on a des abdos Y a des bâtons dans les roues mais on roule en char d'assaut Quand j'rappe, c'est comme quand j'dégueule tout dans l'lavabo J'avais plus de kush que de cours dans l'sac à dos Je sais faire des sous mais t'es fou j'en parle pas trop Avec les zouz, c'est bisous et champagne gratos T'as la chair de poule quand j'te touche et que j'embrasse ta peau J'te fourre sans la bague au doigt, pas d'chantage d'ado Mais j'te fais pas l'amour si ton boule sent pas la rose Moi, j'arpente Paname tête haute et spliff en bouche Mais si y a des internautes, je file en douce J'ai rendez-vous, faut que j'prenne le trom' Dedans, y a des centaines de clones Qui confondent la guerre pour le trône et les petites embrouilles L'autorité j'la tolère pas, et quand ma mère me gronde Comme un tonnerre, c'est contre un mur que ma colère passe Parce que j'm'en veux de lui avoir répondu Mon vieux, parfois j'me dis que, sans la foi, j'me serais pendu Mon voeu le plus cher, c'est de plus voir le sang répandu Mais l'homme est sur la mauvaise pente, la lame qui sort est pointue J'aime pas les filles aigries mais j'ai trompé ma go J'me suis fait ller-gri, faut assumer si elle crie Marre de ce ciel gris et ce climat sombre Cette routine qui m'assomme, ces faces grimaçantes Ces cris malsains qui retentissent dans le noir Parmi ceux qui se repentissent sans le croire J'm'en passerais volontiers J'devrais taffer, j'ai pas assez d'volonté J'rêve plus d'un job honnête, j'veux danser la javanaise Me mettre à l'aise sous cuisine japonaise que mes ninjas connaissent Et, ma jeunesse, j'aimerais tellement qu'elle réussisse J'veux rendre fière ma mère avant qu'le Paradis nous réunisse J'me souviens plus trop des trucs que j'ai tté-gra Donc, le mic, j'le prends, là, c'est comme si j'l'avais qué-bra C'est comme ça qu'ça s'passe, il manque Bazz et Mekra Il manque encore d'autres têtes et, ouais, j'en place une pour mes gars Yeah, c'est comme ça, Bizi dans la plaza Si si si, c'est la razia, c'est comme ça qu'ça s'passe Faut pas m'faire ce petit sourire narquois J'vais pas me prendre de petit zef par toi Tu vas kicker ça car tu vas kicker sale C'est comme ça qu'je, mec, lève toutes mes idées noires Fais le truc pour Vitry, fais le truc littéraire Relie tes rêves, fais le truc comme Guitry A la limite du coma les galères me prennent la tête C'est pas</t>
+          <t>Celle qui m'a senti naître Et m'a vu grandir centimètre par centimètre M'a toujours dit Rien n'sert d'avoir des projets sans t'y mettre Ma destination, un voyage, peu importe où le sentier mène Leur liberté n'est qu'un mirage, les caméras des sentinelles Et j'en ai lu des livres, j'en avais des idées pourtant Mais, voter, c'est décider de qui va décider pour toi Et y a plus d'aventures, les zones sont quadrillées Même les professeurs ne sont plus bons qu'à trier Alors faudra me dire quel espoir d'avenir Pour un gamin qui part dans le bâtiment en quatrième ? Dis-moi que fait l'école à part te dompter ? Ils te diront que j'suis naïf quand je parle de bonté J'aime accompagner ceux d'mon clan qui graffent, certains titubent encore À cause des matraques en titane des brigades anti-tag J'fais du son pour plusieurs raisons la première, c'est rendre les frérots fiers C'est comme un sérum, mes pas résonnent dans le réseau ferroviaire Graver des skeuds, faire groover son corps et graffer Sensible à la beauté, même nos checks sont chorégraphiés Yo, toi avec ton petit boule d'actrice Viens par ici tirer sur ma Big Buddah Cheese Laissons de côté les sujets qui nous attristent Sur ma baguette enchantée j'ai besoin d'un bisou magique À chaque porte de Paris j'ai une concubine Ça va d'la blonde stupide à la ronde pudique Des meufs compulsives qui veulent qu'on s'unisse Elles savent que moi et la rue on a rompu vite Je connais une meuf coquine vers Porte Dauphine Elle tape dans les drogues dures et boit de la codéine Quant à la cocaïne, elle croit que c'est comestible Une blondinette zombifiée pour qui j'ai pas trop d'estime À lopposée je connais une beurette à Porte de Clichy Elle a des formes, qu'est-ce qu'elle est bonne Mais peu importe le physique Avec elle je me tape des barres et on bédave des lattes J'ai déjà essayé mais pas moyen que je lui écarte les pattes À Porte d'Auteuil, j'vais te présenter une portugaise Mordue de sexe, sans faire aucun effort, tu baises J'dois me faire discret, j'ai la dégaine d'un dealer de me-seu Elle habite une loge de gardienne d'un immeuble de vieux Ramène pas ton grain d'sel, il nous manque pas d'grain Quand t'entends qu'ça grince, c'est que j'baise avec ta princesse J'les entend tous, ils font crari ils sont pleins d'règles Mais ils vont trahir de leur plein gré Sur mes cicatrices, pas d'pansements J'me méfie des pensées, bah, ouais, les gens mentent Un penchant pour le gent-gent, mon fric j'fais que l'dépenser Plein d'rêves, on veut tous faire des dingueries Pour tout niquer y a qu'un siècle, S-Crew On prend les mêmes et on recommence L'histoire a commencé dans l'quinzième Des films d'horreur et des romans, on n'a jamais d'remord On fait que des effondrements, revient arc-en-ciel La date de ton bum-al, personne se demande quand c'est Toujours corsé, le pe-Ra part en couille, man J'écoute des trucs à l'ancienne Chaque jour de l'honneur comme un samouraï Peut-être qu'un beau jour ça m'aura J'ai pas besoin d'sa morale, on fera plus rien quand ça mourra Pour ça qu'faut faire que des sans faute, jamais dans l'faux Il m'en faut pas beaucoup pour sortir mes dents d'fauve Ici, dans l'quinze, quand on appuie, ça fait pas d'bruit derrière J'suis venu au monde la nuit mais c'était pas la nuit dernière L'intelligence bat des records, on lit à travers l'regard Au Blackbird on record, on fait apparaitre le cash Quand j'étais p'tit, on m'chantait Mamadou avait mal aux dents Maintenant qu'j'suis grand Ces mêmes personnes me sucent le gland Et puis fuck, maintenant j'brûle des scènes Avec mes potes pénards, on fuck le Code pénal Envoie la drogue, pétard à la bouche que j'bute ces chiennes Car j'suis un résident des villes les plus médiatisées Où les présidents débiles dépensent des méga-budgets Dans des élections stériles, fuck ça j'préfère la zik, lope-sa J'déverse ma iv' dans l'Rap, en récitant mes titres Tu sauras d'où j'viens, BKO Dar-es-Salam Si mes salauds passent à l'acte C'est pour éviter l'génocide des shaolins, Dharamsala De toute façon, j'sais qu'les kisdés comptent bien Nous encercler, enfermer loin d'ces dîners mondains C'est dans l'chantier qu'on doit taffer Mais pour mes frères ce n'est pas assez File-nous 10 000 au moins, pour mes Miguel de Pigwalle Ça fait désordre, on est tous mis dans l'même sac Séparés par des distances immenses, il m'semble que personne veut d'ça Ma tête est proche de l'épicentre, allez On veut pas stagner les pieds dans l'plat J'en ai ma claque de rester devant l'palier Des rêves de caisses avec des jantes Claquer quelques liasses en sappes à l'aide des ventes Ça laisse rêveur, paraît qu'des gens s'achètent des guns Fallait s'détendre, s'défendre, les anges veillent mais Seuls tes proches pleurent tes cendres avec des fleurs J'ai peur face à tout ça, j'suis pas à la bourre J'effleure de peu l'erreur qui m'rendra coupable et par à-coups J'fais gaffe à tout mais le doute frappe J'peux canner partout en un coup d'schlass J'coupe cash le problème à la source J'marche au milieu d'une allée de chênes Loin de tout c'merdier, je cherche à m'évader bien plus loin qu'les Deux-Sèvres Quelques sauts périlleux, j'passerai peut-être Par des périodes compliquées, on s'y fait J'compte rimer, histoire de ramener le pèze Des gars ont triché, moi, j'me laisse pas aller J'en ai déjà assez de faire gaffe aux coups vicieux Il s'dit qu'on oublie mieux avec un sachet de cess', assez de ça J'vais taffer ce texte, j'applique c'que mes darons disaient Compte pas bâcler le reste, j'braverai le cap, c'est c'que les rois visent opprimé?, je souhaite vivre la vie qu'j'ai choisie Une fois ivre, la s'pointer, j'me crois libre Après deux verres quand tu passes tes vacances au Croisic La réalité fait passer vos coups d'gueule pour des caprices Ancré dans la matrice, branchez casque-écouteurs A quoi ça sert d'avoir le dernier Mac et l'Google Glass ? Et quoi sert de faire du cash si c'est pour l'claquer tout seul ? La rime est impecc' sauf quand j'fume On a pris des pincettes, mis des lingettes propres dans l'stud Et c'est parti quand j'remplis les unes après les autres les pages blanches Cours sur des pots d'échappement comme Gary Cooper J'me méfie des coups d'cur factices, des mirages Rêve en plus grand qu'sur ton écran couleur tactile Retina Frère, y a qu'un coup de Jack qui m'réhydrate On n'a pas d'kit médical pour nos douleurs, que d'la frappe J'ai l'impression d'être tombé direct dans le creux d'la vague Les gens se trouvent le temps d'être anti-systèmes entre deux achats J'refuse de faire les trois huit et trimer sans une pause Putain, dites-moi en quoi suis-je différent du lot ? J'voudrais glisser dans une autre dimension, fuir les bancs du vivre Pour l'amour du risque, le gout du fruit défendu Mais c'est la crise, c'est tendu, faut du pognon Remettre les pendules à l'heure Ma tête c'est l'incubateur d'idées via les gens qu'il rencontre On bronze au soleil, l'argent blanchit dans l'ombre, les dents longues Lâche-moi sur la banquise en slip, tu m'retrouves aux Antilles en tongs Désinvolte jusque dans la façon d'traiter l'thème Ça glisse, j'ai graissé l'mécanisme, laisse faire les vrais artistes Des millions d'peines pour si peu d'euros Tout jeune, rêve de billets, finir millionnaire Même si j'y laisse ma tête, et briller n'est pas ma quête en fait Trouvé mes terres, en faire du blé Avoir son plan d'secours est la priorité en vrai Ma peau vaut cher, même fauché j'ai tout donné au rap Maintenant ça taffe et veut une carrière honorable Crois-moi, c'est des pétasses qui bouffent avec le buzz Et baisent avec le succès Maintenant ce beat elles viennent sucer sur Ma prose est pure et bien influencée, certes Tu veux du bon pe-ra ? Bah venez me ché-cher Frère, nous la relève, quoi ? T'es fou ou quoi ? J'me lêve, fonce tout droit, utilise les wacks comme défouloir Oz débarque, pose, t'initie, kho, veut baiser le pera Se vider la vessie juste après les laisser, j'dis que je vais les élever Mais comme un père ivrogne noyé dans l'Jack Pote, fiotte, fait pas le fou si t'as la frousse au fond Sous mandat de dépôt pour un smic, fous tellement le seum Que je pourrais faire 48 heures pour un stick, fils Stique-my, j'écoute pas ce qu'ils m'dictent, sont pas crédibles Tout pour le prestige, quoi ? J'préfère rester dans les vestiaires clean J'ai beau être un poète charismatique mon cur qu'a t-il à dire ? Dis-moi, tu me trouves naze comme Gad Elmaleh ou l'gars d'Illmatic ? J'respecte pas un fan car il m'astique mais plutôt parce qu'il veut me faire briller Unique, il n'y a pas de deuxième moi sauf février J'ai pas d'gun mon courage mesure plus d'neuf millimètres Déjà petit je voulais faire le bien et j'étais fière quand un reuf m'imitait La vie est comme une meuf militaire parfois elle m'donne Envie de faire l'amour, parfois de faire la guerre Mais je pense bien que ce soir je vais la ken Zizi dans son trou pour me la taper sans tiep' Et ouais t'as bien entendu à terme je compte briser la terre entière Et je suis voué comme Nekfeu à faire des billets en crachant le fuego han ! J'rappe mieux que toi mais j'ai pas l'aspect d'Rohff J'ai les flows, j'ai les rimes et j'ai les tasses-pé love Qui après vingt selfies ne pensent pas avoir eu assez de tofs Feu est dans les bacs bsahtek, mazel tov Venez lui masser le zob ! T'es pas un G non, non, t'as un passé soft SI tu veux reprendre du poil de la bête bah viens me raser le torse Caballero a.k.a. plat sans cochon A.k.a. j'finis toujours trop vite c'qu'il y a dans l'pochon J'vais pas devenir moins vrai, j'vais pas devenir moins frais J'vais pas devenir aimable pour fumer sur ton joint d'herbe J'ai pas besoin d'ça, j'ai juste besoin d'un coin vert Voir un psy ? Pour quoi faire ? J'connais déjà mes points faibles Comme boire du café ou mater ma gazola nue C'est ma pétasse, ma gasolina Suffit d'un morceau de disco pour le faire à la bonne allure On baisera jusqu'aux douleurs abdominales Elle dit qu'mon caleçon cache un missile skeud Et que j'aurai toujours c'beau sourire et cette magnifique gueule Même si je finis seul, hyperactif sans coco ni sizzurp J'perds plus mon temps devant la télé Depuis l'époque des Minikeums À dix ans, j'trouvais déjà la vie soûlante J'vais trop vite pour ce monde J'ai comme l'impression d'marcher après un tapis roulant On n'est surement pas faits d'la même fibre Elvis avait la même force, j'aurais dû naître à Memphis J'suis pire qu'le THC quelques taffes et t'es HS Ils ont voulu nous griller mais électrique était la chaise Du C4 dans la tête mes neurones t'explosent D6 est plastifié, je t'achève en une pose Depuis l'époque des cassettes, pute, tournées en boucle dans les caisses De merde et d'luxe, où les fumées de purs pètent On cachait la dope dans des paquets d'Tuc J'avais un paquet d'sucreries Mais les crackers se cassent, seringue de vie d'pute Amateurs de hasch, serein, j'bute la weed pure J'te dis qu'on nous pousse à la misère et la misère nous pousse Akhi, air et tousse, la nuit, les keufs nous secouent à coups de gaz gratuits J'remarque qu'la camisole et les camisolés qui aiment ignorer les coups d'fil Décroche au filon d'cesse, fils, on l'sait Tu squattes la Maison Blanche de Pendant qu's'déhance sur ma queue des Beyoncé J'adore per-cho dans les mariages, surtout la fiancée Ouais, c'est D6 le barge, négro tendancieux J'fais tomber toutes les cougars le temps d'un pas d'dance, vieux Sais-tu c'que c'est d'se sentir transparent comme un Sans-abri dans les transports en commun ? Regarde les dettes africaines Quand t'as la dalle on t'offre que dalle L'État fait que trafiquer, toi, tu fais gaffe au taf que t'as J'ai envie d'chanter pour mes amis Qui taffaient la nuit au stud en habits d'chantier Pourquoi se plaindre vu qu'on est bernés, comprends-tu ? La vérité sera dans le dernier compte-rendu J'étais pauvre dans le passé donc c'est moi qui rince tout Une beauté derrière, j'me fais masser torse nu sur un scoot J'aime inverser les rôles lui faire des plats dans la cuisine Pendant qu'elle fait des plats dans la piscine Tu comprendrais c'que j'ressens s't'habitais mon département J'rêve d'une piscine qui me ressemble, habituée aux débordements Joue pas les so-per, merde, le monde est à nous, frère C'est pas qu'des foutaises ni des bootlegs écrits sur une chaise J'essaie d'transmettre au mieux mes pensées, faut pas qu'j'me perdre Mais dans ce monde de taré mieux vaut être préparé pour la guerre J'ai passé des années à voyager sur cette sphère Sans mes amis et ma mif', j'serai déjà six pieds sous terre Frérot, j'pèse mes mots, plus rien à perdre On veut tous rouler en Escalade, Range Rover, rien à faire On rentre aux heures les plus obscures, quand est-ce qu'on cessera, frère ? Mais qu'est-ce tu veux ? Depuis tout p'tit c'est comme ça S'en sortent que ceux qui veulent, depuis la Guerre du feu T'étonne pas, enlève ton masque, ton pote passe à la barre god damn Trois piges de ferme, ils l'ont coffre pour quelques plaques Retire le voile, il faut qu'tu barres avant d'ber-tom pour quelques plaques, my nigga Tu minimises les prises de risque Ça kick les beats de pistes pour que nos gosses deviennent des fils de riches L'ambiance est punk, vas-y, roule un blunt Ecoute la Grünt, c'est comme ça qu'ça s'passe On est dans l'futur comme Trunks Eff Gee, vas-y, balance ça mon soss, yeah yeah Pas l'temps d'bouder car personne n'arrête le chrono Overbooké comme en pleine période de promo Si tu vises le gros lot, sois bon dans ton biz et l'biz C'est d'faire la bise à des fils de qui ne voit qu'en toi qu'un prototype Quand t'as mille contraintes, contraint d'niquer tous les pronostics Pas d'petits contrats, j'vais devenir celui qu'on craint Demande à Nekfeu, impossible qu'on craque On va chercher c'biff et j'te l'dis, un jour, il tombera 21 chutes, 22 fois debout Si t'as pas d'pote de toujours, peut-être que t'es une pute Comme ta meuf on peut l'acheter puis la jeter Beaucoup vivent la vie HD puis l'HP Par chance, vous nous négligez, c'est c'qui vous rend cheums Le temps c'est de l'argent donc les pauvres mourront jeunes A chacun sa réalité, la mienne c'est Zik, meuf, 19, au cas où tu veux y habiter J'rappe ma iv, j'ai trop trainé dans ces ruelles Tout en bas d'l'affiche, j'faisais qu'errer dans des tunnels Mes gavas ont la be-bar de salafiste et le regard de Kahdafi Envoie deux grammes de cannabis et mon peu-Ra t'euthanasie Nan, ne me tape pas la bise, repère l'hypocrisie à des kilomètres J'ai pas bu depuis trois jours mais j'rends positif l'éthylomètre J't'explique tout c'que j'crache est brulant Le swerv d'une eclipse tu deviens aveugle en l'étudiant J'ai plus l'temps pour ces tass, trouve mes phases cute Nique la presse Rap, ils connaissent rien sortis du top 20 iTunes J'leur dédie ma levrette la plus bestiale Bientôt, j'irai baiser tout l'rap français comme les putes d'Espagne Le flow d'un Tech N9ne, j'rafale tous ces bâtards Saute à pieds joints sur leurs cadavres jusqu'à c'qu'ils soient Assez plats pour passer sous les portes J'aime pas ta gueule, j'fais pas du tout d'effort J'suis soulé fort et j'compte vous l'faire payer à toi et tous tes potes Leurs morceaux sont tellement plats qu'on peut les faxer Mes rimes sont tellement riches qu'on peut les taxer Fuck ton crew, sale pédale, ça bouge ap T'es tout naze, écoute, ça fait breh ! Rien qu'on fait des classiques, S-Crew, le nom d'mon gang Y a que dans l'ombre qu'on tranche pour pas finir aux assises Souvent dans un camouflage vert kaki L'ambiance est pourave, y a des toux grasses ça vi-ser d'la weed Ici, tu perds ta vie, on t'nique ta mère à six Une bonne paire de Nike Air dans la tête, c'est facile Le leust est entouré donc on fait ça à notre manière Bientôt le L est en tournée donc prenez garde à vos arrières Bitch ! Et toi, dis moi pourquoi tu causes On est au Festival de Cannes, toi, tu traînes à la Foire du Trône On fout la merde, on fout la merde, yeah On fout la merde, on fout la merde, yeah On fout la merde, on vous la met On fait l'effet d'un tsunami On vient vous la mettre sans stress, ça fout la merde comme 113 Dreads ou boule à zed, roule la zeb et sers un grand verre On partouze avec des trentenaires mleh, vie de trader Un verre de Jäger et nos goûts d'haleine te transpercent Ça vient du bled ou bien des bas-fonds de la jungle urbaine Tiens-tu tête ? Face à l'escadron, tu n'as rien pu faire Des insurgés qui foncent tête basse quand ça s'bat On aime pas quand ça parle, grosse baffe dans ta face Technique KGB, bébé, pour caresser ta carte CB Faut pas rêver, bébé, tu vas apprécier d'être à mes pieds Y a des sous à s'faire, la plupart des filles sont séduites par le mal Fous la merde comme Samy Naceri au Festival de Cannes Double G majuscule, toutes les bitches sont cambrées Pour mes généreux généraux, dans la suite, on gère les entrées Soulève donc ta p'tite jupe, allons nous allonger ensemble Allongés ensemble, on refera l'futur Loin des yeux, près du cul fais couler le bain to the OG's, elle voulait me Tu voulais t'faire pousser les seins, espèce de pute à frange J'ai trop d'pain sur la planche, p't-être que j'vais te fourrer demain Pour l'instant, j'chille avec mes gars certains On ride dans toutes les villes, on n'cesse de se mettre bien Puis skier en Suisse, avant l'concert d'faire l'plein On baisera la fille et la nièce de Guerlain Laisse-moi décompresser, la vie d'un jeune entrepreneur est complexe Entre les embrouilles 'vec la justice et les embrouilles 'vec mon ex Et les embrouilles 'vec mon fournisseur, les embrouilles pour des samples Je suis dans un monde étourdissant, tu peux tout remonter, tout redescendre J'redescendrai plus jamais, mon ex m'a dit J't'en prie, ne t'en va pas Vingt-quatre piges à peine, je travaille déjà plus que ton papa Ah j'ai bafouillé, j'viens pour tout cafouiller J'vais bafouer ces faux rappeurs C'est comme ça qu'ça s'passe, on n'a pas peur Dans la vapeur, on rappe C'est comme ça qu'ça s'passe, j'suis un galérien, un rameur Ouais, fuck ces rats morts, j'viens faire mon rapport mec C'est comme ça qu'ça s'passe, j'suis chaos comme Mormeck Mais j'fais les bails avec tous mes potes qui détaillent Rien à foutre on braille, on crache des flammes Là c'est pour le projet du reuf Comment t'expliquer il a sorti ça, c'était deuss Comme si c'était mon neuf que j'braque sur ta ce-fa Rien à foutre, toujours dans les temps j'me le-ca Pas besoin du casque, je roule mon pète Fais belek si on pète ta miss dans la partie, ça va être sa fête Laisse bét' mes grecs sont de-spee Boum, qui va lâcher la suite ? En impro, on vient lâcher quelques rimes Un ffe-spli, à qui de kicker ça ? J'peux kicker ça, mec, c'est propre de ouf Black and yellow comme les 'locks de Doum's C'est comme ça qu'ça se passe, tu vois, je t'apporte la douce J'fais le truc, on est bien plus que douze, c'est comme ça, mon couz' Yeah, on fait les bails ensemble On laisse les faux en sang ou en cendres C'est comme ça qu'ça se passe dans le centre Dans le sud dans le nord, fuck les porcs Mec, c'est comme ça qu'ça s'passe quand je pose smoove sur la prod Ouh, c'est comme ça, tu l'ouvres, on baise même ta pouf' Posé sur un pouf, fuck la chnouf Ils vont boire la tasse car il faudra nager pour percer ma carapace Jarrive au bal masqué armé de mes paragraphes Blague à part, à la base, jkiffais pas la bagarre Mais tas pas lchoix à Paname, tas la poisse si tes pas à la page Rien à foutre ! Jmarche à visage découvert Et jme ferais ta fille pendant que ta femme videra mes poubelles Tas dit voir une explosion mais cétait quune flamme Toi,ton masque de fer qutu tes fait greffé sur le crâne Ça fait partie du décor comme du rouge à lèvres sur une Bouche pulpeuse et si un jour jpue lbuzz, j'habitue mes proches Car la canicule est proche, remballe ton blablabla contractuel Ton attitude est moche, cest une mascarade, on ma dupé De la droiture avant l'cash, quand la vie t'rend muet Mon nom sur une vitre embuée avant l'crash de la voiture C'est comme ça qu'j'vois le Rap une écriture insignifiante Avant qu'on parte, le dernier cri d'une jeunesse édifiante Personne t'explique la vie, c'est un chemin introspectif L'unique défi, schéma atroce, une ligne de fuite pour perspective d'avenir Nos vies sont crades donc on défonce notre crâne Et plus j'connais la musique, plus j'aime les fausses notes Le seum que j'ai pourrait remplir des containers T'es comme moi si t'es prêt à tout péter dès qu'on t'énerve La violence n'est qu'un hameçon Mais y a l'passé qu'aucun n'assume Des hommes traités comme des canassons Coupant des cannes à sucre J'ai toujours été un petit révolté T'es comme moi si t'es prêt à tout péter J'esquive avec classe les avis négatifs Ça t'force à faire en sorte d'éviter mon passage, mec De toute façon t'es mort dans la cinématique d'une hépatite Abritée par des hommes dans un salon de massage gay Instable, l'acide est v'la corrosif Au fond vous devez avoir quelque chose à faire valoir On rêve d'asseoir nos derch' dans l'observatoire d'astronomie Ça pête comme une ogive dans un stade de foot Pendant un match au sommet Infâme, j'démarre au quart de tour, gare au gorille Comme l'a dit Brassens, à deux ou à cinq j'ai l'moral au beau fixe Pas trop de sottises dans mes textes, j'vais pas m'justifier Mes idées valent tes gestes, on laisse ton équipe en détresse Plus d'pitié, j'te la mets dans l'jeu de l'année, genre GTA V Jeune camé, allez, il t'reste à jeter ta seringue Je veux clamer ce rap simple un peu partout via les ondes J'vais pas m'plaindre, on tient l'vrai rap, mes gars ont bien raison Mes gars ont bien raison Mes gars ont bien raison Mes gars ont bien raison Mes gars ont bien raison Mes gars ont chopé Feu, mes gars ont bien raison Mes gars ont chopé Feu, ouais, mes gars ont bien raison Mes gars ont chopé Feu, ouais, mes gars ont bien raison Mes gars ont chopé Feu, ouais, mes gars ont bien raison Oui, j'écris des sacrées rimes, c'est mon métier Et ça m'rassure quand la dernière cloche me menace J'n'ai pas d'plan B, si un jour ça s'termine Heureusement, l'inspiration est plus grande Que les poches de The Mask Moi aussi j'aime les belles femmes, la bonne bouffe Le soleil et la relaxation, quitte à redescendre sur Terre Comme qu'un crash d'avion Ouais, avec mes frères des cavernes Où qu'on aille on sait s'mettre à l'aise On trouvera l'G.I.L.D.A.S si ton herbe est balaise La défonce possède un charme secret Voilà pourquoi Morgan et Jack se mêlent A mes dépenses chaque semaine Ça m'aide à m'assoupir, je sais qu'j'm'invente un conte Mais j'ai tendance à m'sentir dans un monde où on n'peut pas mourir J'fais qu'avancer mon heure en vivant comme un déraisonné Mais j'suis sur répondeur quand la Faucheuse veut m'téléphoner J'ai des projets, j'y pense d'un air songeur Car j'risque de rester fauché si je laisse parler mon cur J'suis pas imbécile, je sais qu'j'ai plein d'mérite à r'vendre Indécis, pour gagner j'dois m'investir intelligemment Un génie, j'attends d'avoir de l'or en poche Ça sert à rien d'faire d'l'argent après sa mort comme Van Gogh Mais paraît qu'ils ont retrouvé d'la salive d'alien dans mes mollards Ils ont peur que j'me propage comme le virus Ebola Mais j'me pète au large, bédo sous la pergola Décollage spirituel, bientôt j'me teins les cheveux comme Legolas J'suis pas terrien même si mes racines partent d'Italie Mais j'vous aime tous quand même donc essuyez vos larmes J'ai la rime facile, dommage que l'rap soit devenu Une pratique has-been comme le cannibalisme à Miami Violence, alcool, sexe et blueberry J'raconte toujours les mêmes choses mais j'ai des nouvelles rimes Suffit qu'ma folie intérieure parle Pour devenir majestueux et briller comme un Seigneur , Pal Comme un Seigneur , Pal Comme un Seigneur , Pal Comme un Seigneur , Pal Feu est dans les bacs, mes gars ont bien raison ! Mes gars ont chopé Feu, mes gars ont bien raison ! Mes gars ont chopé Feu, mes gars ont bien raison ! Mes gars ont chopé Feu, mes gars ont bien raison ! Mes gars ont chopé Feu Est-ce que tes gars ont chopé Feu ? Y a aucun trac, j'me livre, j'apporte ce qu'ils veulent tous Pourtant certains me répètent Vous vous démerdez mal Je veux dire, c'est pas que jentends pas leurs histoires A dormir debout, c'est juste que je me demandais Quand est-ce que je pourrai faire des blagues de riche ? Plongeon demi-vrille dans la piscine de billets Un jet qui signe le ciel avec le nom de la femme que je kiffe Un whisky doux dans le living room Mystic blue dans le phillies ou le chillum à la Sitting Bull En attendant qu'ça pète, on accentue nos skills On marche en duo, Fixpen, sans accent utopique Alors on fume jusqu'à voir des flamands fluos Rime comme des savants, mais ça ne nous à pas rendu nos biffs Putain ! J'en ai rien à cirer de savoir briller, crier plus fort Naviguer parmi les stars, les kids épilés du torse C'est vrai que c'est malsain quand j'crache je trouve que rien n'est bon J'vais pas m'plaindre, on tient l'vrai rap, mes gars ont bien raison Mes gars ont chopé Feu, mes gars ont bien raison ! Mes gars ont chopé Feu, mes gars ont bien raison ! Est-ce que tes gars ont chopé Feu ? Oui, mes gars ont bien raison ! Est-ce que tes gars ont chopé Feu ? Mes gars ont bien raison Venin est craché par une pute, mon chemin est tracé J'm'étais vu en place, depuis compris qu'on vivait pour une liasse Ta tass' me gratte, j'ai d'quoi vous mettre bien Efficace ma came, décolle la rétine de Pocahontas, naze C'est sur du Nas que moi j'm'endors fils Nique tes berceuses, j'finirai à côté d'ceux qui persistent Nique un percing, on sort un gun pour trouer l'corps et dissimuler les preuves T'sais qu'la vie c'est dure comme relation entre père et fils Vers ici ça vend la mort, près d'ceux qui voient le jour Pour se remplir les fouilles et faire l'amour à toutes ces putes plein d'vices Sortir ma bite là où ça sent la pisse, c'est pas mon style Préfère écouler l'shit avec l'équipe Bende Mafia sera légendaire Nique ?, on veut fumer tout l'livre avec de l'herbe En l'air sont leurs mains, braquer ces wacks avec ma prose OZ débarque, pose, les met k.o. et j'ose Dire qu'j'suis meilleur qu'eux, le flow est new-yorkais Chez nous le chef d'orchestre est dirigé par ce putain d'bizz Et ça commence par un mal-être, perçant comme une arbalète On sait que le monde il est pas net et je remet ça tout comme Danette Le monde arrive à son déclin, oui c'est finit lapogée Dans la rive on s'est noyé, on a beaucoup trop pataugé Les darons savent plus quoi faire à part mettre des tartes aux jeunes Et les reufs savent plus quoi faire à part écarter les jambes Les gens parlent de moi au passé comme si j'étais une légende J'ai décidé de ves-qui les cons, pour rester intelligent Est-ce que tu sens monter ma peine, yo ? Et si j'arrive pas à monter la pente, mon pote C'est que lascendeur est tombé en panne 23 ans passés, le 24ème que j'entame Elle est bien loin l'époque, mon frère, où j'avais peur des gendarmes A force de trop fumer, j'compte même plus d'pilon que j'crame Et le mic en guise d'uzi, ah bah nan, j'changerai pas d'arme Et le mic dans ma peau, inscrit dans mon épiderme Au rap, je resterai toujours fidèle J'continuerai de décrire tout ce qui m'sidère Car ces six dernières années, jamais cessé de rapper Toujours une feuille un stylo pour pouvoir gratter Un thème large, un maximum d'ouverture J'ai passé l'âge où on me disait bah, kritch t'es trop immature Pire qu'un j'sais pas c'que t'as dans ta tête Finir d'écrire des textes avec des tas de ratures Aujourd'hui j'arrive avec un travail propre J'm'envole de mes propres ailes A force de trop rapper, bah c'est sûr que je me déshydrate Et quand j'vois les problèmes du monde J'me dis que les miens n'sont pas si graves Avant d'commencer c'son, j'avais un thème Un truc sombre sur la vendetta dans la tête D'un jeune qui a la vingtaine Puis j'ai fumé un joint d'jaune avec untel Ou p't-être un joint d'zeb suivi d'un fond d'teille Et j'ai zappé, sa mère, faudrait qu'j'arrête cette merde avant d'dead On est seuls, c'qui fait qu'on est tristes Le mauvais il, ça l'fait kiffer qu'on s'détruise Dis-toi qu't'as tout pour toi, c'est important Quand est-ce qu'on va s'unir ? Il faut un temps pour tout,on forme un tout pourtant Faut qu'on soit formatés par l'système,ils disent Ça m'fait flipper comme la montée d'l'antisémitisme On va en boîte, on s'fait chier Alors on fout l'zbeul, on finit dans les fichiers des colboks Comportement à l'école bof On s'bute à Call of en buvant des alcools forts Et les filles, je ne sais pas c'qu'elles veulent Mais je m'en fiche tant que j'enfile des baskets neuves Mais dès qu'j'ai mis la paire, ça y est, elle est plus neuve Problème épineux,dans ce shop y aura p't-être une mieux On est continuellement frustrés consommer pour s'consoler J'm'amuse jamais dans les soirées mais j'continue d'm'incruster C'est pas bénéfique, les voisins débarquent avec La ferme intention de dire La ferme, attention, j'appelle les flics ! Je compte même plus les moments d'absence Je t'aime ça compte plus, les mots n'ont pas d'sens J'agrippe un Scud pendant qu'mon groupuscule Graille une crêpe au stud' Face à Dieu, mes têtes lisses et crépues Scrutent le même crépuscule J'fume un gros pur, chaque fin marque le début d'un autre truc J'entreprends quitte à connaître des putains d'grosses chutes Trop de MC's mythos, moi, j'suis déçu de limposture Quand ils rappent, c'est comme s'ils étaient vêtus d'un costume Eff Gee come back, wavy comme Max Ouais,j'suis comme aç, j'attire les bitchs comme Axe Et j'te l'dis direct, j'viens des bas-fonds, je m'y mets à fond Celui qui m'affronte, c'est celui qui perd Viens nous exhiber tes seins On est dans l'pêché mais nos curs sont purs J'te jure, c'est dur de résister mais j'tiens Seigneur, aie pitié des miens Laisse-nous esquiver ce destin On fait pas des 1000 et des 100 En vendant des 10 et des 20 Tu mets des coups d'épée dans l'eau, l'affreux, on s'propage Prépare tes adieux, on fout le feu comme des Ghostriders Il faut que toutes les mains se lèvent haut Rimes façon West Coast, Gangsta à la Death Row Fuck les ennemis, miskine, ils se croient peut-être drôles Ca cartonne comme au rallye, on cartonne même sans khaliss Mes alliés se rallient, mental de patron On ne dit pas pardon, y a que comme ça que tu seras libre Si j'tombe à Fleury, c'est qu'y a un beau million à prendre Ou qu'y a une tombe à fleurir, les tes-trai vont prendre des pralines J'ai pas vu d'boulot tendre, faut prendre pas l'9ar9ob Ils ont la boule au ventre, on a des abdos Y a des bâtons dans les roues mais on roule en char d'assaut Quand j'rappe, c'est comme quand j'dégueule tout dans l'lavabo J'avais plus de kush que de cours dans l'sac à dos Je sais faire des sous mais t'es fou j'en parle pas trop Avec les zouz, c'est bisous et champagne gratos T'as la chair de poule quand j'te touche et que j'embrasse ta peau J'te fourre sans la bague au doigt, pas d'chantage d'ado Mais j'te fais pas l'amour si ton boule sent pas la rose Moi, j'arpente Paname tête haute et spliff en bouche Mais si y a des internautes, je file en douce J'ai rendez-vous, faut que j'prenne le trom' Dedans, y a des centaines de clones Qui confondent la guerre pour le trône et les petites embrouilles L'autorité j'la tolère pas, et quand ma mère me gronde Comme un tonnerre, c'est contre un mur que ma colère passe Parce que j'm'en veux de lui avoir répondu Mon vieux, parfois j'me dis que, sans la foi, j'me serais pendu Mon voeu le plus cher, c'est de plus voir le sang répandu Mais l'homme est sur la mauvaise pente, la lame qui sort est pointue J'aime pas les filles aigries mais j'ai trompé ma go J'me suis fait ller-gri, faut assumer si elle crie Marre de ce ciel gris et ce climat sombre Cette routine qui m'assomme, ces faces grimaçantes Ces cris malsains qui retentissent dans le noir Parmi ceux qui se repentissent sans le croire J'm'en passerais volontiers J'devrais taffer, j'ai pas assez d'volonté J'rêve plus d'un job honnête, j'veux danser la javanaise Me mettre à l'aise sous cuisine japonaise que mes ninjas connaissent Et, ma jeunesse, j'aimerais tellement qu'elle réussisse J'veux rendre fière ma mère avant qu'le Paradis nous réunisse J'me souviens plus trop des trucs que j'ai tté-gra Donc, le mic, j'le prends, là, c'est comme si j'l'avais qué-bra C'est comme ça qu'ça s'passe, il manque Bazz et Mekra Il manque encore d'autres têtes et, ouais, j'en place une pour mes gars Yeah, c'est comme ça, Bizi dans la plaza Si si si, c'est la razia, c'est comme ça qu'ça s'passe Faut pas m'faire ce petit sourire narquois J'vais pas me prendre de petit zef par toi Tu vas kicker ça car tu vas kicker sale C'est comme ça qu'je, mec, lève toutes mes idées noires Fais le truc pour Vitry, fais le truc littéraire Relie tes rêves, fais le truc comme Guitry A la limite du coma les galères me prennent la tête C'est pas la fête et j'me rép</t>
         </is>
       </c>
     </row>
@@ -599,7 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Aucun visage ne me regarde Et sur les quelques pièces que je glane A la sortie des magasins, après loffice Le côté face aussi me donne le profil Le soleil tombe avec les degrés Depuis ce matin je marche, mais là mes pieds sont las, il faudrait que je pense à me poser Que je me trouve un porche ou un coin tranquille, bien abrité A lécart des regards, la tolérance est souvent mal imitée Parfois jaimerais être invisible tout comme ces fantômes Ne pas voir ces yeux, qui ne me regardent pas comme on regarde un homme Bonjour madame, nayez pas peur, non, je ne suis pas dangereux Je vous tiens la porte cest tout, cest pas à votre sac que jen veux Cest quun bonjour , ça ne vous coutera pas 1 Allez fouillez votre cur, y'a peut-être encore quelques merci Je vous jure cest pas de ma faute si tout le pays part en vrille Je suis là par manque de chance, la vie a ses sombres héros Comme une ombre au tableau, je croise des routes sans jamais laisser de trace Sil vous plait, voyez moi, une fois avant que le vieux ne mefface Je sais cest dur car vous me percevez comme un peut-être Alors cest presque par instinct que vous tournez la tête Cest vrai je dors là, où vos chiens ont leur chiottes Je gêne les amoureux qui sur les bancs, le soir se bécotent Et si le vent parfois me force à squatter vos entrées Noubliez pas, même les vaincus ont droit au respect Et si le dédain était armé, je serais mort 1000 fois Comme ceux quon trouve le matin gelés et morts de froid Mais là cest pire ma présence ne choque même plus Le temps défile et doucement je deviens une simple habitude On ne me voit plus, je suis transparent, une habitude Les regards glissent, sur mes affaires entassées sur ce trottoir vide Cest tout ce qui me reste, mon testament On ne me voit plus, je suis une silhouette Une ombre sans utilité Comme disent hommes et femmes pleins de futilités Je ne suis quune habitude, ou aucun pas ne sarrête On vit lhiver gelés par la honte Le froid et lété, lindifférence des passants nous fait de lombre Sur un trottoir, un banc on dérange, chacun sa croix Une pièce, de leau courante, un trésor quon ne trouve pas Le soir on marche en petits groupes, livrés à nous-mêmes Rien qui nous retient ici, ni maison, ni repères Nos souvenirs, nos joies dans des sacs poubelles On brave le quotidien et voit nos espoirs à la baisse On fuit la loi et lordre qui nous chassent parce quon na plus de sous Ils ont saisi ma dignité avec mes biens un jour Depuis je vous regarde, faire semblant de ne pas me voir et ça me marque Plus que le temps à tuer sur le goudron une tache dans ce parc Vos non dits qui en disent long me rattrapent Et parmi nous beaucoup se résignent face au mépris, ils signent Pour une idylle avec une bouteille vide On ne juge pas, on a tous une histoire, je ne vous le souhaite pas Je pourrais être vous, vous pourriez être moi Alors je rêve devant les vitrines, tant pis si cest pour de faux Je sais que la rue ne fait pas de cadeau Jessaie dêtre fort même dans le caniveau Je ne suis quune statue de chair parmi vous Et à la fin jaurai joué mon rôle jusquau bout Mais les spectateurs mont fait défaut On ne me voit plus, je suis transparent, une habitude Les regards glissent, sur mes affaires entassées sur ce trottoir vide Cest tout ce qui me reste, mon testament On ne me voit plus, je suis une silhouette Une ombre sans utilité Comme disent hommes et femmes pleins de futilités Je ne suis quune habitude, ou aucun pas ne sarrête On ne me voit plusYou might also like</t>
+          <t>Aucun visage ne me regarde Et sur les quelques pièces que je glane A la sortie des magasins, après loffice Le côté face aussi me donne le profil Le soleil tombe avec les degrés Depuis ce matin je marche, mais là mes pieds sont las, il faudrait que je pense à me poser Que je me trouve un porche ou un coin tranquille, bien abrité A lécart des regards, la tolérance est souvent mal imitée Parfois jaimerais être invisible tout comme ces fantômes Ne pas voir ces yeux, qui ne me regardent pas comme on regarde un homme Bonjour madame, nayez pas peur, non, je ne suis pas dangereux Je vous tiens la porte cest tout, cest pas à votre sac que jen veux Cest quun bonjour , ça ne vous coutera pas 1 Allez fouillez votre cur, y'a peut-être encore quelques merci Je vous jure cest pas de ma faute si tout le pays part en vrille Je suis là par manque de chance, la vie a ses sombres héros Comme une ombre au tableau, je croise des routes sans jamais laisser de trace Sil vous plait, voyez moi, une fois avant que le vieux ne mefface Je sais cest dur car vous me percevez comme un peut-être Alors cest presque par instinct que vous tournez la tête Cest vrai je dors là, où vos chiens ont leur chiottes Je gêne les amoureux qui sur les bancs, le soir se bécotent Et si le vent parfois me force à squatter vos entrées Noubliez pas, même les vaincus ont droit au respect Et si le dédain était armé, je serais mort 1000 fois Comme ceux quon trouve le matin gelés et morts de froid Mais là cest pire ma présence ne choque même plus Le temps défile et doucement je deviens une simple habitude On ne me voit plus, je suis transparent, une habitude Les regards glissent, sur mes affaires entassées sur ce trottoir vide Cest tout ce qui me reste, mon testament On ne me voit plus, je suis une silhouette Une ombre sans utilité Comme disent hommes et femmes pleins de futilités Je ne suis quune habitude, ou aucun pas ne sarrête On vit lhiver gelés par la honte Le froid et lété, lindifférence des passants nous fait de lombre Sur un trottoir, un banc on dérange, chacun sa croix Une pièce, de leau courante, un trésor quon ne trouve pas Le soir on marche en petits groupes, livrés à nous-mêmes Rien qui nous retient ici, ni maison, ni repères Nos souvenirs, nos joies dans des sacs poubelles On brave le quotidien et voit nos espoirs à la baisse On fuit la loi et lordre qui nous chassent parce quon na plus de sous Ils ont saisi ma dignité avec mes biens un jour Depuis je vous regarde, faire semblant de ne pas me voir et ça me marque Plus que le temps à tuer sur le goudron une tache dans ce parc Vos non dits qui en disent long me rattrapent Et parmi nous beaucoup se résignent face au mépris, ils signent Pour une idylle avec une bouteille vide On ne juge pas, on a tous une histoire, je ne vous le souhaite pas Je pourrais être vous, vous pourriez être moi Alors je rêve devant les vitrines, tant pis si cest pour de faux Je sais que la rue ne fait pas de cadeau Jessaie dêtre fort même dans le caniveau Je ne suis quune statue de chair parmi vous Et à la fin jaurai joué mon rôle jusquau bout Mais les spectateurs mont fait défaut On ne me voit plus, je suis transparent, une habitude Les regards glissent, sur mes affaires entassées sur ce trottoir vide Cest tout ce qui me reste, mon testament On ne me voit plus, je suis une silhouette Une ombre sans utilité Comme disent hommes et femmes pleins de futilités Je ne suis quune habitude, ou aucun pas ne sarrête On ne me voit plus</t>
         </is>
       </c>
     </row>
@@ -616,7 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle est grave, mec Mais sérieux, tout l'monde en a marre, mec Elle se comporte comme le pire des mecs Elle s'la pète, elle met des coups d'tête et des balayettes En Stan Smith et 501 serré Elle traîne la jambe, façon Keyser Sauze t'es fou ! Elle pisse debout en chantant Le crime paye Et ses dents en or, on croit qu'elle va nous bouffer Elle dort avec ses pitt' et ses rott' Dans la cuisine, elle organise des combats de coqs Elle est fons-dé, fais gaffe à son Crew, le lady Unit Gilets par-balle et tatoo Pire que les Crips et les Bloods, elles ont toujours les boules C'est pas les Pussicat Dolls, elles, elles te coupent les couilles Aïe ! C'est chaud ! Et l'autre jour, on m'a volé mon blouson J'dis pas qu'c'est elle, mais putain, j'ai des soupçons You might also like Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Quand elle traîne avec nous, c'est glauque, attends, la meuf elle a un Glock Elle a braqué un boucher pour une entrecôte C'est l'autre jour, quand on a fait les courses On l'a retrouvée torchée au rayon bière, à Carrefour Je sais pas pourquoi tu la kiff, elle est pas sexy Quand on sort, elle tape des mecs pour de la sensi Pour faire un barbecue, elle a brûlé ma 106 Oh ! Pour s'excuser, elle m'a taxé ma montre suisse On peut pas mater la télé chez toi Y en a que pour Scarface et pour Tony Montana Tu veux la guerre ? Non ! Y en a marre de la guerre ! Elle nous fait peur, tu piges, quand elle est là, on se chie d'ssus Les mecs se sont mis au karaté, au jujitsu Tu la croises dans la rue, au mieux elle te vomit d'ssus Et t'as vu tout ses bijoux en affaire J'en ai offert à ma mère, c'est pas de l'or c'est du fer Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Je vais pas parler dans son dos, c'est pas mon genre Chaque fois qu'elle croise un agent, à la clé, un jugement Ses roues arrières, son GSXR et son holster Traînent des commissaires sur le goudron, derrière Ahhh ! Le quartier est désert quand elle a ses règles Hier, elle a pé-cho ton cousin sur la poubelle Oh, c'est pas vrai ! Elle deal devant les maternelles c'est abusé Elle est même maudite par lÉternel Ouah ! D'ailleurs, j'suis sûr qu'elle est impliquée dans la mort de 2Pac Quand elle se lève, on dirait Tyson sous crack Et les mecs, elle leur fout la main au cul Oh Si tu lui plait, c'est mort, elle te casse le c Pas d'respect, elle est comme ça Ta meuf, c'est une caille-ra et elle nous kiff pas Et dis lui tout, j'men fou, on est à bout Demain, je me casse au Pérou Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est trop une caille-ra Ohohoh.. Ta meuf, c'est trop une caille-ra Ohohoh..1</t>
+          <t>Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle est grave, mec Mais sérieux, tout l'monde en a marre, mec Elle se comporte comme le pire des mecs Elle s'la pète, elle met des coups d'tête et des balayettes En Stan Smith et 501 serré Elle traîne la jambe, façon Keyser Sauze t'es fou ! Elle pisse debout en chantant Le crime paye Et ses dents en or, on croit qu'elle va nous bouffer Elle dort avec ses pitt' et ses rott' Dans la cuisine, elle organise des combats de coqs Elle est fons-dé, fais gaffe à son Crew, le lady Unit Gilets par-balle et tatoo Pire que les Crips et les Bloods, elles ont toujours les boules C'est pas les Pussicat Dolls, elles, elles te coupent les couilles Aïe ! C'est chaud ! Et l'autre jour, on m'a volé mon blouson J'dis pas qu'c'est elle, mais putain, j'ai des soupçons Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Quand elle traîne avec nous, c'est glauque, attends, la meuf elle a un Glock Elle a braqué un boucher pour une entrecôte C'est l'autre jour, quand on a fait les courses On l'a retrouvée torchée au rayon bière, à Carrefour Je sais pas pourquoi tu la kiff, elle est pas sexy Quand on sort, elle tape des mecs pour de la sensi Pour faire un barbecue, elle a brûlé ma 106 Oh ! Pour s'excuser, elle m'a taxé ma montre suisse On peut pas mater la télé chez toi Y en a que pour Scarface et pour Tony Montana Tu veux la guerre ? Non ! Y en a marre de la guerre ! Elle nous fait peur, tu piges, quand elle est là, on se chie d'ssus Les mecs se sont mis au karaté, au jujitsu Tu la croises dans la rue, au mieux elle te vomit d'ssus Et t'as vu tout ses bijoux en affaire J'en ai offert à ma mère, c'est pas de l'or c'est du fer Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Je vais pas parler dans son dos, c'est pas mon genre Chaque fois qu'elle croise un agent, à la clé, un jugement Ses roues arrières, son GSXR et son holster Traînent des commissaires sur le goudron, derrière Ahhh ! Le quartier est désert quand elle a ses règles Hier, elle a pé-cho ton cousin sur la poubelle Oh, c'est pas vrai ! Elle deal devant les maternelles c'est abusé Elle est même maudite par lÉternel Ouah ! D'ailleurs, j'suis sûr qu'elle est impliquée dans la mort de 2Pac Quand elle se lève, on dirait Tyson sous crack Et les mecs, elle leur fout la main au cul Oh Si tu lui plait, c'est mort, elle te casse le c Pas d'respect, elle est comme ça Ta meuf, c'est une caille-ra et elle nous kiff pas Et dis lui tout, j'men fou, on est à bout Demain, je me casse au Pérou Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est trop une caille-ra Ohohoh.. Ta meuf, c'est trop une caille-ra Ohohoh..1</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Narcos Yah J'descends pas du singe mais du A45 A45 Et le bras est long comme la première peine du sin-c' grr, pah J'descends pas du singe mais du A45 A45 L'argent n'fait pas l'bonheur mais en avoir, ça reste quand même plus simple eh, c'est vrai ou pas ? Des gants en croco' cachent les mains d'un sauvage sauvage, sauvage, sauvage Ca-capuche dans l'auto, très sombre personnage Yuri Des gants en croco' cachent les mains d'un sauvage gang Capuche dans l'auto, très sombre personnage C'est pas avec une pute que tu vas m'appâter pour me faire nan, nan C'est pas n'importe quelle cruche avec un ul-c qui a les compétences pour me plaire ah J'ai deux-trois contacts sûrs pour l'jour où j'aurais b'soin d'me refaire J'ai deux-trois contacts sûrs pour l'jour où j'aurais b'soin d'mener une guerre pah, pah, pah, pah C'est le dernier Doss' dans la voiture ouvreuse dernier Doss', dernier Doss' Rajoute une pièce car la qualité est coûteuse Tu te questionnes sur qui sont ces bêtes fougueuses Qui sont-ils vraiment ? Qui sont-ils vraiment ? Huh, nous on s'questionne sur ta sexualité douteuse You might also like M'parle pas, j'suis dans ma trice-ma, n'te prononce pas sur c'que tu maîtrises pas ta gueule C'est qu'j'ai pas assez charbonné s'il m'reste de la place dans mon coffre pour les kichtas hey Chasser gibier, nourrir mille-fa nourrir mille-fa Rien à branler d'jouer à Fifa, yah J'descends pas du singe mais du A45 A45 Et le bras est long comme la première peine du sin-c' grr, pah J'descends pas du singe mais du A45 A45 L'argent n'fait pas l'bonheur mais en avoir, ça reste quand même plus simple eh, c'est vrai ou pas ? Des gants en croco' cachent les mains d'un sauvage sauvage, sauvage, sauvage Ca-capuche dans l'auto, très sombre personnage Yuri Des gants en croco' cachent les mains d'un sauvage gang Capuche dans l'auto, très sombre personnage Yah, j'suis dans la boutique, j'choisis mes articles en faisant am stram gram plouf, plouf Suivant l'exemple des barons d'la came, on s'est construit gramme par gramme Est-ce qu'au hasard, on s'connaît dis-moi ? J'sais pas, tu m'as toisé quand j'venais j'sais pas Perso', j'ai un peu d'mal à t'remettre hein, a-t-on un 'blème de go' ou d'monnaie ? Nouvelle gestu, nouvelle degz, on les cherche même plus à sauver le binks fwish, fwish Texte crû pour faire bouger le teh J'vante mes victoires breh, mais j'assume mes déboires eh J'rappais d'jà mais j'allais bon-char sur du Boulogne Boy et du Rimes et Gloires J'fais dans la mélo', dans l'médicinal, faut cinq-six zéros après la décimale J'roule SO.L.O, y a que ça qui m'aille, fuck la race humaine, vive le règne animal, ey Il faudrait que j'me fasse opérer du cur hein, que j'songe à arrêter de rapper cette pute de rue, c'est réducteur, yah J'descends pas du singe mais du A45 A45 Et le bras est long comme la première peine du sin-c' grr, pah J'descends pas du singe mais du A45 A45 L'argent n'fait pas l'bonheur mais en avoir, ça reste quand même plus simple eh, c'est vrai ou pas ? Des gants en croco' cachent les mains d'un sauvage sauvage, sauvage, sauvage Ca-capuche dans l'auto, très sombre personnage Yuri Des gants en croco' cachent les mains d'un sauvage gang Capuche dans l'auto, très sombre personnage</t>
+          <t>Narcos Yah J'descends pas du singe mais du A45 A45 Et le bras est long comme la première peine du sin-c' grr, pah J'descends pas du singe mais du A45 A45 L'argent n'fait pas l'bonheur mais en avoir, ça reste quand même plus simple eh, c'est vrai ou pas ? Des gants en croco' cachent les mains d'un sauvage sauvage, sauvage, sauvage Ca-capuche dans l'auto, très sombre personnage Yuri Des gants en croco' cachent les mains d'un sauvage gang Capuche dans l'auto, très sombre personnage C'est pas avec une pute que tu vas m'appâter pour me faire nan, nan C'est pas n'importe quelle cruche avec un ul-c qui a les compétences pour me plaire ah J'ai deux-trois contacts sûrs pour l'jour où j'aurais b'soin d'me refaire J'ai deux-trois contacts sûrs pour l'jour où j'aurais b'soin d'mener une guerre pah, pah, pah, pah C'est le dernier Doss' dans la voiture ouvreuse dernier Doss', dernier Doss' Rajoute une pièce car la qualité est coûteuse Tu te questionnes sur qui sont ces bêtes fougueuses Qui sont-ils vraiment ? Qui sont-ils vraiment ? Huh, nous on s'questionne sur ta sexualité douteuse M'parle pas, j'suis dans ma trice-ma, n'te prononce pas sur c'que tu maîtrises pas ta gueule C'est qu'j'ai pas assez charbonné s'il m'reste de la place dans mon coffre pour les kichtas hey Chasser gibier, nourrir mille-fa nourrir mille-fa Rien à branler d'jouer à Fifa, yah J'descends pas du singe mais du A45 A45 Et le bras est long comme la première peine du sin-c' grr, pah J'descends pas du singe mais du A45 A45 L'argent n'fait pas l'bonheur mais en avoir, ça reste quand même plus simple eh, c'est vrai ou pas ? Des gants en croco' cachent les mains d'un sauvage sauvage, sauvage, sauvage Ca-capuche dans l'auto, très sombre personnage Yuri Des gants en croco' cachent les mains d'un sauvage gang Capuche dans l'auto, très sombre personnage Yah, j'suis dans la boutique, j'choisis mes articles en faisant am stram gram plouf, plouf Suivant l'exemple des barons d'la came, on s'est construit gramme par gramme Est-ce qu'au hasard, on s'connaît dis-moi ? J'sais pas, tu m'as toisé quand j'venais j'sais pas Perso', j'ai un peu d'mal à t'remettre hein, a-t-on un 'blème de go' ou d'monnaie ? Nouvelle gestu, nouvelle degz, on les cherche même plus à sauver le binks fwish, fwish Texte crû pour faire bouger le teh J'vante mes victoires breh, mais j'assume mes déboires eh J'rappais d'jà mais j'allais bon-char sur du Boulogne Boy et du Rimes et Gloires J'fais dans la mélo', dans l'médicinal, faut cinq-six zéros après la décimale J'roule SO.L.O, y a que ça qui m'aille, fuck la race humaine, vive le règne animal, ey Il faudrait que j'me fasse opérer du cur hein, que j'songe à arrêter de rapper cette pute de rue, c'est réducteur, yah J'descends pas du singe mais du A45 A45 Et le bras est long comme la première peine du sin-c' grr, pah J'descends pas du singe mais du A45 A45 L'argent n'fait pas l'bonheur mais en avoir, ça reste quand même plus simple eh, c'est vrai ou pas ? Des gants en croco' cachent les mains d'un sauvage sauvage, sauvage, sauvage Ca-capuche dans l'auto, très sombre personnage Yuri Des gants en croco' cachent les mains d'un sauvage gang Capuche dans l'auto, très sombre personnage</t>
         </is>
       </c>
     </row>
@@ -650,7 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ooh! T'inquiète, c'est Cut Killer HH pour Faf Larage Hey écoute ça, back in the days à l'ancienne J'ai commencé en 80 Et en 81 - 2 - 3 - 4 le rap m'a accroché Tellement qu'en 2007 je kill Encore des mics sur des beats qui déchirent N'essaie même pas de venir test quand c'est Faf qui officie Mc depuis 85, 87 devant un public Tu connais le gimmick yo sur le mic yo C'était en 80 au tout début du rap yo Y avait surtout le breakdance et chacun commençait à s'y mettre On échappait pas à la vague yo C'était le début y avait tout à faire On prenait nos problèmes, les mettait en rimes et ça le faisait Loin de moi l'idée de me la jouer, de faire l'ancien C'est juste quelques souvenirs anciens D'un gamin devant sa radio, j'essaye de capter Quelques nouveautés sur les émissions de funk bébé Paraît qu'il y a un nouveau son à New York City R.A.P. on va en entendre parler J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais You might also like Y a eu Beatstreet, Breakstreet Dans le cinéma ça file Say what ? À l'époque on n'espérait pas faire de la tune Mais juste avoir le style Y avait pas internet mais garanti ça dansait sur tous les sites Hip Hop l'émission après Starsky chut c'est parti De Bambataa à Run-DMC La claque du premier album de Public Enemy J'ai pété les plombs devant le Big Daddy Le Kool G, du Biz Markie trop d'albums fils Trop de flows dans ma feuille et mon stylo J'voulais faire partie des pros du micro c'était chaud On disait le rap ça durera pas C'est juste bon pour les blacks, on n'en veut pas Trop d'Noirs et d'Arabes dans le paysage On avait trouvé une culture mec c'est ça On va l'dire comme ça à l'ancienne Détermination fallait qu'on s'y tienne On était quoi au Vieux Port au début une trentaine? Dédicace à la old school de Marseille J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais J'te parle d'un gosse qui rêvait de micro et pas d'or Quand tout le monde disait c'est fini la mode Fallait aimer le hip-hop et au-delà fallait croire en quelque chose Sinon on finissait paumé dans la zone On était là avec nos Adidas, B. Boy Stance À parler vinyles semaines et week-ends Comment c'était important les habits J'te parlerai pas d'embrouilles là j'en ai pas envie J'te ramène des good vibes sur ma musique Avant les concerts, les groupies et le fric Les scratchs de DST sur RockIt The Message et Rapper's Delight Fixaient déjà les courants du rap Y a eu la vague des samples de James Brown Et moi je cherchais ma place dans le hip-hop On avait peu d'infos à la radio Ça mixait le funk et les Kurtis Blow Les DJ's, les anciens ont filé le micro Y avait les premiers raps sociaux Y a eu les premiers raps ghettos La variét' nous regardait de haut Y avait déjà la chasse aux faux Avant les premières sessions de studio J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais Oooh wee! T'inquiète, Cut Killa Killa H-H Pour my man Faf Larage Ooh! On lâche pas l'affaire, hey! Hey Faf, t'inquiète, t'inquiète, toi-même-tu-sais!</t>
+          <t>Ooh! T'inquiète, c'est Cut Killer HH pour Faf Larage Hey écoute ça, back in the days à l'ancienne J'ai commencé en 80 Et en 81 - 2 - 3 - 4 le rap m'a accroché Tellement qu'en 2007 je kill Encore des mics sur des beats qui déchirent N'essaie même pas de venir test quand c'est Faf qui officie Mc depuis 85, 87 devant un public Tu connais le gimmick yo sur le mic yo C'était en 80 au tout début du rap yo Y avait surtout le breakdance et chacun commençait à s'y mettre On échappait pas à la vague yo C'était le début y avait tout à faire On prenait nos problèmes, les mettait en rimes et ça le faisait Loin de moi l'idée de me la jouer, de faire l'ancien C'est juste quelques souvenirs anciens D'un gamin devant sa radio, j'essaye de capter Quelques nouveautés sur les émissions de funk bébé Paraît qu'il y a un nouveau son à New York City R.A.P. on va en entendre parler J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais Y a eu Beatstreet, Breakstreet Dans le cinéma ça file Say what ? À l'époque on n'espérait pas faire de la tune Mais juste avoir le style Y avait pas internet mais garanti ça dansait sur tous les sites Hip Hop l'émission après Starsky chut c'est parti De Bambataa à Run-DMC La claque du premier album de Public Enemy J'ai pété les plombs devant le Big Daddy Le Kool G, du Biz Markie trop d'albums fils Trop de flows dans ma feuille et mon stylo J'voulais faire partie des pros du micro c'était chaud On disait le rap ça durera pas C'est juste bon pour les blacks, on n'en veut pas Trop d'Noirs et d'Arabes dans le paysage On avait trouvé une culture mec c'est ça On va l'dire comme ça à l'ancienne Détermination fallait qu'on s'y tienne On était quoi au Vieux Port au début une trentaine? Dédicace à la old school de Marseille J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais J'te parle d'un gosse qui rêvait de micro et pas d'or Quand tout le monde disait c'est fini la mode Fallait aimer le hip-hop et au-delà fallait croire en quelque chose Sinon on finissait paumé dans la zone On était là avec nos Adidas, B. Boy Stance À parler vinyles semaines et week-ends Comment c'était important les habits J'te parlerai pas d'embrouilles là j'en ai pas envie J'te ramène des good vibes sur ma musique Avant les concerts, les groupies et le fric Les scratchs de DST sur RockIt The Message et Rapper's Delight Fixaient déjà les courants du rap Y a eu la vague des samples de James Brown Et moi je cherchais ma place dans le hip-hop On avait peu d'infos à la radio Ça mixait le funk et les Kurtis Blow Les DJ's, les anciens ont filé le micro Y avait les premiers raps sociaux Y a eu les premiers raps ghettos La variét' nous regardait de haut Y avait déjà la chasse aux faux Avant les premières sessions de studio J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais Oooh wee! T'inquiète, Cut Killa Killa H-H Pour my man Faf Larage Ooh! On lâche pas l'affaire, hey! Hey Faf, t'inquiète, t'inquiète, toi-même-tu-sais!</t>
         </is>
       </c>
     </row>
@@ -667,7 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pour certains c'étaient des potes, et pour d'autres des p'tits d'la cité Mais seulement un sur trois a survécu dans l'électricité Ça a été une réalité dure à accepter Le 27 octobre, Zyed et Bouna nous ont quittés Dix-sept ans et quinze ans, eh, trop jeunes pour partir Trop jeunes pour dire à tout l'monde On se reverra qu'en dehors de cette terre Vu qu'on est tous des hommes, on passera tous, tôt ou tard, par la mort mes frères Quand des mômes fuient la police par peur jusqu'à perdre la vie On doit s'poser des questions, moi j'suis juste un mec qui donne son avis J'suis là pour, on a tous vu au moins une fois les civils Déraper comme des barges dans la cour On s'comprend plus, de là tout part Quand même nos ministres désignent les gosses innocents coupables Aujourd'hui j'frémis parce que j'ai trois enfants Et garde ce dernier vers, car je sais c'que sentent les parents Mon Dieu, j'pense à Zyed et son accent blédard Son sourire gentil, et son pull à capuche Tim noir Toujours serviable et jamais en colère On l'appelait Lance-Pierres, il avait une force d'homme frère J'pense à Bouna, toujours avec Harouna Tout l'temps au Chêne Pointu, pourtant il habitait la PAMA Respect aux familles Traoré et Benna Le ghetto est en pleurs, j'en perds mes mots, Allah y rahmou You might also like On veut savoir ce qu'il s'est passé On veut nous cacher la vérité Toute une communauté sous haute tension Deux vies gâchées sans explication Une famille perd son enfant Impossible d'oublier, même avec le temps Bouna, Zyed, paix à vos âmes, paix à vos âmes Oh, paix à vos âmes, oh yeah Sur ce son, on rappe, on dédie cette zik à Bouna et Zyed Non j'ai du mal à croire J'ai du mal à voir ton blaze Bouna, gravé sur du marbre Tu t'en rappelles, chaque soir des bêtes de darka sur une rocade Histoire d'être capital, t'avais une tête de plus que moi Amateur de moto, danseur de XXX À fond dans les govas et les gos, de jour en jour je deviens fou Dans ma tête, de bons moment en boucle Demande à tous, depuis qu't'es parti je ris mais y a plus goût à rire Tu manques à la famille À chaque yer-pri, je prie que Dieu vous ouvre les portes du Paradis Sur ce, j'ai les nerfs, B2G, courageux, parole de frère Hier, j'ai croisé l'émotion, elle touchait le fond J'ai croisé des jeunes et j'ai croisé des mères, donc j'ai croisé le monde J'ai croisé les doigts, crois-moi j'ai prié ma sur J'ai pris ma feuille, j'ai pris mon cur et puis j'ai crié ma peur L'amour est fiable et tu l'sais, la guerre est bad Elle et lui vous êtes Bouna, toi et moi, on est Zyed On est des anges, on est des grands, on est les enfants qui dérangent Avec le cur en sang, on chante pour tous ceux qui nous manquent Nous sommes épuisés par les pleurs, à peine quinze ans, à fleur de vie Bouna, ça fait drôle de plus t'voir en roue arrière sur ton vélo Boucle d'oreille, sapé goss'bo J'ai lancé des projectiles pour vous venger Mais rien n'vous a réveillé, Zyed, où est passée ta tête Qui nous écoutait l'soir à la fenêtre du premier étage ? Parlais pas trop, trop sage Tristesse, dépit, faiblesse nous ont envahis La France est en deuil, le ghetto pleure deux des siens La colère dans les yeux, deux enfants sont morts pour rien Une pensée pour eux, lions nos deux mains Que Dieu leur ouvre la porte des cieux et qu'ça n'arrive plus demain Y a des écoles qui brûlent et des voitures s'embrasent OK brûlons-la mais pas l'histoire de base Bouna et Zyed, deux enfants morts avant l'âge Rien qu'd'y penser, moi ça m'fout la rage, hmm Hommage à mes deux potos, qui sont partis trop tôt Quand j'regarde leurs photos, un frisson me monte au dos On n'vous verra plus en mode peace à la cité Ça fera bizarre mais c'est une triste réalité Zyed et Bouna, malheureusement, nous ont quittés Qu'ils demeurent au Paradis pour l'éternité En attendant j'ai perdu deux d'mes res-frè Si c'était à refaire, ce couplet ben je l'referais À mes potes, Zyed et Bouna Reposez en paix Allah y rahmou Pensée pour Muhittin Ma présence n'a rien d'honorable, elle est juste normale J'serai toujours auprès des miens tant qu'ils auront mal C'que j'vois dans le studio, c'est beau, c'est grand Les miens se sont unis mais pas dans l'autodestruction Parce que les miens ont une force qu'il sont les seuls à ignorer J'attends l'jour où ils vont s'lever, s'élever dans le respect Que Dieu fasse miséricorde à nos frères Zyed et Bouna Faut voir comment respecter leur mémoire Pour Bouna et Zyed Je prends ma plume en versant quelques larmes Partageant la douleur La souffrance des familles qui les pleurent Comprendre ce qu'il s'est passé Exposer la vérité au grand jour Que ce fardeau soit moins lourd, oh yeah Bouna et Zyed restent dans nos curs à tout jamais C'est pour nos minots que j'retranscris mes larmes du bout d'mon stylo Pourquoi dans nos trous à rats, s'en sortent qu'une mino' J'tire le signal d'alarme avant d'en venir aux armes Paix à vos âmes et à vos XXX Morts pour rien, c'est l'slogan qui fera p't-être réagir ceux qui siègent à l'Assemblée Nous on s'est rassemblés pour rendre hommage à nos morts C'est à eux qu'on a dédié l'ceau-mor Traoré et Benna, c'est à vous qu'on a dédié l'ceau-mor Le cur serré devant ma feuille blanche La main tremblante, mal au crâne de voir qu'on nous écoute que quand les coins crament Toujours la même, c'est la merde, ainsi d'suite On veut fuir la misère à chaque course-poursuite Que Dieu donne la force aux familles en deuil À leurs proches pour surmonter cette dure épreuve Dites à Nicolas que malheureusement, derrière les voitures qui brûlent C'est la détresse des quartiers qui hurle J'lève la main en l'air à la mémoire de nos p'tits frères J'lève la main en l'air pour leurs pères et pour leurs mères J'parle avec le cur au nom d'une jeunesse en détresse Vas-y cours petit, cours, pour fuir la tristesse Qu'Allah leur pardonne d'avoir provoqué un drame Aujourd'hui j'appelle au calme, il faudrait éteindre les flammes L'âme est touchée mais le corps se relèvera Je demande aux miens de ne jamais baisser les bras Mourir d'sa belle mort est la chose la plus belle au monde Mais l'destin en a voulu autrement, quelle chose immonde Fin d'une vie humaine et des plaisirs éphémères d'la vie Nos curs pleurent de désespoir et la haine nous envahit Enivrés d'tristesse, leur non-présence nous blesse sans cesse L'ciel a voulu qu'ils décèdent, guettent dans l'au-delà mais laisse Une pensée à ces hommes qui n'vivent plus qu'dans nos mémoires Quelques temps d'silence à leurs personnes XXX La disparition de deux êtres innocents et honnêtes A provoqué beaucoup de rivières de larmes sur les pommettes Adolescents laissant derrière leur dos Des centaines de pleurs, des curs blessés et c'est en s'en- Traidant, en se serrant les coudes Que l'on peut rester forts quand la mort fait escale chez nous Salam à vous, tenez le coup, uvrez dans l'bien Difficile pour une famille d'avancer avec un membre en moins J'commence en faisant deux mesures de silence pour les enfances perdues En guise d'insulte pour tous les esprits tordus ... Sa mère! J'ai les nerfs de voir nos pères en larmes J'ai les nerfs de voir mes frères s'noyer dans l'drame Et lors d'un banal contrôle dans nos halls on a le rôle d'un animal pour la Gaule De vandales pour les héritiers d'De Gaulle XXX La France pays de rencontres XXX XXX La douleur parle, nous on perd des frères C'est juste un appel au calme dans cette époque de merde Paix à la famille, laissez-la faire son deuil J'verse une goutte sur l'sol et vers l'ciel j'jette un il Ça fait mal quand quelqu'un part mais c'est Dieu qui décide On s'retrouvera plus tard, sur la route sur laquelle on s'destine Morts pour rien, pour vous on a beaucoup d'estime Que Dieu vous garde, OK, reposez en paix À nos frères morts violemment, aux plus jeunes qui prouvent qu'on peut réussir brillamment Le plus important, l'dîn, on veut tous partir dignement Rattraper nos péchés, à part les drames, rien pour nous unir C'est c'qui nous manque, combien passeront la barre des trente Vies courtes mais intenses, profite des tiens, porte avec honneur toutes nos valeurs Décharger les mamas du poids d'nos malheurs Dramatique pour les familles blessées dans l'âme Résister pour exister, wesh les p'tits frères, faut éviter l'haram Y a trop d'souffrances au cur des abysses dans les quartiers d'France Alerte maximum pour les mômes, état d'urgence J'porte des fleurs pour les morts, faut qu'on y pense Et qu'on sème de l'espoir pour le futur Même si la poisse rend l'quotidien trop dur, même si les pleurs parlent quand des gosses partent N'oublions pas qu'les anges ne meurent pas C'est juste quelques mots en votre mémoire Votre histoire gravée sur le marbre, un hommage pour dire qu'y en a marre Un hommage à Benna, Traoré Deux p'tits frangins Allah y rahmou, qui sont partis haja Morts pour rien, là où vous êtes Inch'Allah vous êtes bien Beau temps, mauvais temps, vous étiez toujours contents J'ai du mal à réaliser qu'le temps nous a séparés Le mal qu'ils nous ont fait, ils pourront jamais le réparer XXX, Traoré Quelle époque nous vivons, quelle époque C'est pour XXX Quelle époque nous vivons, perdre sa vie sans raison Sans explication, la banlieue pleure à l'unisson Mais quelle époque nous vivons? On veut savoir le pourquoi du comment Dialogue de sourds, on nous répond en nous insultant Mais quelle époque nous vivons? Trop p'tits pour partir d'nos rangs Pas assez d'mots pour apaiser les parents Mais quelle époque nous vivons? D'autres agissent en cassant Manière douce, nous on transforme notre rage en chanson J'connais l'respect, pas celui qui sort d'la bouche des autres Celui qu'on m'a appris depuis tout gosse mais on est tous des hommes Ça m'désole et on s'demande que faire face à tout c'désordre Et pour s'faire entendre, faut qu'la voix d'mes couz' résonne Plus rien n'est sûr quand y a l'sheitan et ses miss qui zonent Mais qu'ils ont, à croire que ça leur plaît d'voir une enfance qui XXX Pendant qu'les best pigeonnent, j'vois le reste qui chôme Nous on est jeunes, plein d'avenir et c'est toute ma tristesse qui somme Dites-moi comment régler les problèmes en supprimant les solutions Ce système a trop sous-estimé sa population L'oppression a une faille, nous a enlevé deux de nos frères C'est les larmes aux yeux que l'on pratique notre prière 93, volcan en éruption, banlieue poudrière On n'éteint pas notre flamme, c'est jusqu'à la mort qu'on sera solidaire Tremblay en hommage, ma ville crame, lâchez les Canadair Y a rien à dire, dors avant d'partir en guerre Histoire triste, j'suis pas là pour m'faire d'la pub Les chtars guidés par Ibliss frère, ici ça devient rude Perdre deux d'nos proches pendant l'ramdam Une pensée hardcore pour les rents-pa qui pleurent l'âme I.S.L.A.M., ma source vitale Apprendre la mauvaise nouvelle d'un mort, mon frère, ça on l'vit tous mal J'accepte plus l'mektoub, les soucis ressurgissent Combien d'enfants avec une tombe avant qu'la France agisse Respect aux familles, aux amis, aux manifestants Existants, restant résistants Et exigeant, détestant les forces, les testant Et quel ordre? C'est l'désordre qui est présent Fort déplaisant, unis dans tous les sens Munis d'encre ou d'essence personne n'est perso Ou hésitant, devant c't accident attristant A cité ta cité s'assistant Tata nzambé XXX bongo XXX Benna, Traoré Ouais, c'est du meurtre, qu'c'est l'humeur vraie tumeur En attendant, s'rassemblant dans la lueur, truc flambant XXX tata na bisso Dynam, ouais ouais ouais ouais, hein C'est trop hard d'être morts pour rien ghetto hardcore cousin XXX com si cété ti moun a mwen Ka ressenti douleur là tout au fond a chair mwen Lé pa imaginé sa k'arrivé des frew mwen Des jeunes XXX morts XXX pour rien Allez XXX maman Traoré Famille Benna XXX j'en ai oublié Tou lé -XXX toujou là, pas la France XXX sa An juste ka espérer XXX Le mal au moment qu'tu ressens parce que t'es blessé par le mal qui ronge Tu tombes dans la dépression parce que les événements pour toi sont étranges Pour tous mes frères qui sont victimes d'avoir perdu un être cher Parce que le fruit d'un amour fraternel vient de disparaître J'ai reflété un mal de vivre parce que mes nerfs sont devenus ivres Parce que les gens ne m'épargnent pas, j'ai dû survivre Un petit sourire levé vers l'ciel, une éclaircie, l'soleil Ça prouve qu'on doit sécher nos larmes parce que nos âmes sont éternelles Dur d'clamer la paix alors qu'la liste ne fait qu's'allonger Ça m'enrage que nos vies s'embrasent pendant qu'Arnaud rêve à la vie d'Pete Sampras Les meilleurs s'en vont toujours les premiers, c'est pas d'leur faute Les prolos s'lavent les mains dans l'sang des nôtres Arrête de foutre le feu chez nos daronnes, déjà qu'elles sont mal logées Au fond, ça n'arrangera rien, tu sais Pense à nos martyrs et rappelle-toi qu'avant d'partir Il te faudra chérir la mif, qu'on arrête de courir car tu peux mourir vite Même un daron du bled fier ne peut retenir ses larmes Face à des mères accablées comme celles de Bouna et Zyed L'insomnie s'empare des familles du défunt Mais des fois, il n'y a pas de douleur que le sommeil sache vaincre Hache de guerre à gauche frolo pour un effort de paix C'est l'9-3 qui pleure quand Clichy-sous-Bois est en deuil J'ai de la peine car le décès de certains me reviennent en tête Les frères, laissez-vous bercer par la tristesse Sauvons les deux âmes Comment résister, honorer son charme Zyed et Bouna Nous restons sans voix Quelle choc de ne plus vous revoir Sur mon visage ne cessent de couler les larmes Que Dieu vous garde pour l'éternité J'ai l'cur brisé, car j'ai souvent rêvé d'un monde meilleur Que la guérilla urbaine et d'enterrer deux frères Traoré Benna, que Dieu vous pardonne Que Dieu vous ouvre les portes du Paradis Que la tension se calme ici-bas J'suis un frère parmi tant d'autres J'voulais faire passer un message de paix Mon phrasé porte le deuil On vient d'perdre deux âmes fraîches, deux anges On vient encore d'perdre deux p'tits frères On leur rend hommage le cur noyé dans nos larmes Nos plumes portent nos peines et les blessures de nos âmes Les cris sincères, ouala j'ai mal La douleur est intense et même le silence pleure Pas là pour condamner l'coupable, Dieu l'fera Lui-même Et qu'la paix soit avec la famille d'ces deux lumières Deux gouttes qui débordent le vase, écoute Le mal se disperse, les man se disent prêts à agir et à serrer les coudes Les poings en l'air et même sur les I Quand on est solidaire, qu'on attise la flamme et à deux morts on l'dédie Trop d'sirènes, pompiers flics et ambulances Qu'on allume un cierge au lieu d'ces ambiances brûlantes La délinquance n'est pas une profession dans la street Qu'ils arrêtent leurs étiquettes et d'nous classer dans leurs putain d'statistiques 271005, c'est la fin d'une vie, les larmes d'une mère Le calvaire d'un père et l'combat d'un grand frère Une sur perdue qui voit son frère partir au plus jeune âge Une mort incomprise et toute une tess qui prend la rage Un événement qui prend une tournure grave, des nuits d'émeute Avec une seule idée en tête, faut qu'y en ait un qui crève On veut la vérité pour Zyed et Bouna Une forte pensée pour les familles, Traoré Benna Crois-moi, j'ai eu froid dans le dos En entendant les commentaires de politiques au lendemain du drame Quand la loi et l'ordre font peur à des gosses et que le pire se passe Le respect, c'était de faire profil bas Il nous faut des responsables, ça doit pas toujours marcher dans un sens Parce que c'qu'il s'est passé n'a pas d'sens Mes pensées vont aux familles, alors rest in peace Mon Dieu, entends nos prières, c'est pas juste c'qui arrive Deux frères partent, des curs fanent, la violence pour morphine, frère Mon cur saigne, mon cur parle, mon cur aime, mon cur bat Aussi vite que l'approche de la vérité, donc militer Pour la même cause, même veine, même combat Familles Traoré et Benna Beaucoup d'force et beaucoup d'chance pour la suite frères, pour tous les miens On a les mains réanimées par les armes Ensanglantées mais vite lavées par les larmes, paix à leurs âmes Nettoyer les gouttes et lâche même des gouttes et Les frères sont dégoûtés, les parents sont alarmés Morts pour rien, seul l'avenir nous l'dira Ou en tirer une leçon les jours à venir on verra Pour l'heure, une prière pour les p'tits frères Une pensée à leurs parents en espérant d'meilleurs moments Né d'une mort, l'espoir vit, restons forts Clichy-sous-Bois Montfermeil présentent leur reconnaissance Des adolescents parés Pour cette oppression incessante, donc une vie de tarés Grandir sous l'enseigne Montfermeil Clichy Mon cur saigne, tu sais, tant de gâchis Re-fré, réfléchis, deux vies ont fléchi Ils ont dit qu'on agissait par haine Plus rien ne sert de défendre une vie déjà vaine Mais allez dire ça aux mères Que leurs fils méritait une vie éphémère XXX Parce qu'on nous a traités d'vauriens J'dédicace aux gosses morts pour rien Seule la violence du désespoir dégage cette odeur de peur Quand un jeune des ghettos meurt, je pleure De colère, c'est ça qui fait brûler les voitures Saoulé d'devoir enterrer les nôtres, vois-tu Français, écoute pas leurs putain d'histoires Si on agit ainsi c'est par la force du désespoir Comme à Clichy quand la mort t'électrocute Et combien d'raisons justifie leur mort? Aucune Le ghetto parle, le ghetto chante, le ghetto pleure Des larmes de peine C'est triste à dire, qu'il faille le pire Pour qu'on écoute nos curs qui saignent Mes pensées vont vers les familles Benna et Traoré, yeah Le ghetto pleure ces deux adolescents Un message de paix dans toute cette effervescence J'parle au nom du 7-7 Mes amitié pour les familles des défunts, c'est pour ces jeunes qu'on s'mobilise Une prose contre une rose Hommage à Bouna et Zyed, nos banlieues pleurent L'onde de choc retentit, j'crie ma douleur Un requiem pour ceux qu'on aime Nos HLM sont en berne, trop d'pertes et d'chrysanthèmes J'veux pas finir dans les bras du système Électrocuté ou cané, alors j'tire la sonnette d'alerte La mort ne donne jamais de rendez-vous Les khos, levez vos index dès que vous savez qu'elle va venir à vous J'avoue, ça fait si mal d'voir partir des p'tits et des fillettes De voir que de drames, la vie est ainsi faite Qu'Allah fasse miséricodre à Bouna et à Zyed Ils voudraient nous étouffer pour mieux nous avaler comme le ferait un boa La tasse ils veulent nous faire boire Paix à nos morts, d'ici à Clichy-sous-Bois Ils sont morts, ma voix gèle, j'suis rouge, tout est pêle-mêle J'vous connaissais pas mais au fond vous êtes une partie d'moi Moi j'pleure, rien que j'pleure C'est dur, la France a peur, comprenez notre émotion Trop d'nos frères à terre, deux ouais, ils étaient deux Pour le troisième, j'remercie Dieu Hein, sois fort Muhittin J't'assure, sois fort C'est pour nos deux p'tits frères, rest in peace Que j'lance d'ici, d'Évry-Courcouronnes à Clichy Si si, à prendre les jeunes pour des imbéciles C'est la douleur du ghetto qui se transforme en missile Et la banlieue ne veut plus lécher la vitrine Elle est brisée, et c'est la vérité que l'on vise La rue a mal, mais pas que depuis hier Et aujourd'hui les pierres ont remplacé les prières Hommage aux familles blessées Agressées dans leur chair, Seigneur dissipe leur gêne et le poids de leur détresse Chéris nos p'tits frères partis jeunes Pendant ce saint mois d'jeûne On en a marre de cette animosité qui règne, nous divise et nous trahit Mitraillés dans cette lutte perpétuelle qu'est la quête de notre salut Bouna et Zyed, dans nos mémoires à jamais gravés Pour Bouna, Zyed, j'ai l'cur qui palpite J'ai mal quand sans état d'âme, on prend l'âme À deux d'mes frères, RR, j'ai la rage Quand les larmes ressortent sur un drame Dans l'9-3 c'est ça, c'est cette situation qu'j'condamne J'rends hommage aux familles, j'prends mon briquet, j'allume la flamme Pour qu'tu voies d'en-haut ma tristesse pendant la salate J'fais une dou3a pour qu'tu partes en paix, refré Négro, on était en exode Mais j'pense qu'ils veulent nous voir visés, nos phases macabres et nos XXX XXX faut canaliser Gardez la foi mais faut que j'aie ce condé parce que nos vies sont jeu d'l'oie Prie pour pas tomber sur la case d'un colt Une mauvaise phrase comme nos refrés jouent à Liberté ou Volt On sait comment ça finit Un clash, une course-poursuite, un crash, la suite, un putain d'incendie Deux âmes partent, un mot d'provoc' et la France crame Sarko en tête des sondages, man, à qui profite le scandale? Malaise perceptible, chômage trafic et vente d'armes Tout l'monde s'affole parce que notre rap c'est pas du France Gall Anti flics et gendarmes, politique, chantage Contrôle où les képis semblent avoir dix ans d'âge Les deuils tournent dans les p'tites villes et grands axes Comme toute tragédie, l'histoire est triste et la fin semblable J'comprends pas pourquoi la vie est si dure, man Comment ça se fait, on peut perdre sa vie bêtement Combien de temps ils vont faire pleurer nos mamans Combien de temps ils vont nous marcher sur les pieds, man Traoré et Benna ne méritaient pas ça Mouille avec la peur au ventre pour une histoire de balles Y en a marre d'être mal catalogués Le ghetto pleure c'est la rue cette réalité Cause conséquence, voilà l'revers d'la médaille Les chèques d'assurance nous ramèneront pas les deux p'tits frères die 27105, Zyed, Bouna rendent leur âme Parole de grand, personne n'oubliera cette date, ce drame Maximum respect, pensée pour leurs milles-fa Leurs proches amis pour qui ça doit vraiment pas être cile-fa Perdre un être cher aussi jeune, c'est trop dar J'pose huit roses en leur mémoire, car trop tard C'est envers mes frères que je m'adresse car cette histoire m'attriste et blesse Mon cur saigne mais seule l'encre de ma plume se verse C'est d'la haine que tu peux lire dans mes yeux Mais c'est avec le cur serré qu'j'écris, un regard vers les cieux Allah! On m'a dit d'calmer donc j'garde la rage en moi Parce qu'un Black reste un Black, même vénère il reste une proie J'ai mal mais remplace mon arme par des larmes Car les flammes qu'il peut ne feront jamais revenir vos âmes Il n'y a pas pire enfer que d'penser qu'le Paradis n'existe pas En c'moment-même, les esprits des défunts nous hantent Ambiance de paix car j'ai le mal de guerre De quartier en quartier ça brûle parce que ce sont nos frères On va laisser les rancunes en route Apporter des gerbes de fleurs aux textes pour apaiser les têtes Chaque jour, des bougies s'allument et s'éteignent Bouna et Zyed, de leurs lueurs on s'imprègne Tout arrive par ici On envisage le pire Tous en état de crise Bouna, Zyed, martyrs La violence contre l'innocence Les héros n'existent plus depuis longtemps Ils ont bafoué votre enfance Gardez-nous une place, on vient dans peu de temps Oh, tous les quartiers ont les larmes aux yeux Trop de larmes pouvant éteindre le feu qui leur traversait l'corps En traversant mon cur, mon sentiment fut renversé Par un poids-lourd immatriculé par la mort L'amour et la mort, des extrêmes qui s'kiffent à mort Zyed, Bouna, destins liés par des câbles Si mon cur aurait eu des yeux, tu l'aurais vu saigner Benna,Traoré, Allah y rahmou, Sefyu Coupés dans leur élan, trop tôt ces jeunes sont die Deux familles, toute une génération en deuil, ma gueule Ç'aurait pu être un d'tes frelons, un d'mes frelons L'idée fait froid dans l'dos alors qu'j'suis pas tant qu'ça un frileux Vu qu'j'fais partie des cibles, il est donc impossible Qu'j'y sois insensible, des familles pleurent Bouna, Zyed, partez en paix vers l'ciel Nous on continue l'combat, qu'vous soyez pas morts dans l'zef C'est avec peine et haine que j'prends c'putain d'micro Car au-devant d'la scène, t'as la mort d'mes deux frelos À qui j'dédie c'morceau pendant ce temps d'fléau Ça vient du cur khey, j't'assure qu'c'est pas du mytho En bref, malgré ma froideur, sur c'beat j'ouvre mon cur Pour rejoindre les deux familles dans leur propre douleur Et quoi qu'il arrive, pour nous, vous êtes toujours là À jamais gravés dans nos curs, Zyed et Bouna J'remplace l'alcool par de l'eau céleste, le bédo par une datte On s'connaît pas mais c'est pour Bouna et Zyed À c'que j'vois, vous aviez des potes et des gens qui vous aiment Depuis votre mort, les jeunes ont déployé leurs ailes J'ai le cur noué, Bellahi je le jure c'est vrai À nous tous, ça peut tous nous arriver J'envoie des dou3as pour vos familles, vos larmes inondent toutes nos villes Et votre mort résonne dans toutes nos vies J'peux pas camoufler ma peine, j'peux pas camoufler ma haine Hémorragie interne, j'me porte bien mais l'cur saigne Une flamme subsiste pour Bouna et Zyed Siaka, Biggie, Montfermeil Clichy Maillot, Silly, Sur-Marne-Neuilly Sachez qu'le 9-3 côté Est ne vous oublie La Tunisie, la Mauritanie aussi, ces lignes vous sont dédiées À vous et vos familles, pour vous, j'garderai bonne mine, promis Ma plume se plie, les mots sont trop lourds Des actes injustifiés qui emmènent des conséquences trop lourdes Conscients que le temps passe, de nos esprits rien ne s'efface Mes frères, je vous embrasse, nos vies s'éteignent, les frères j'vous rends hommage Le remède c'est qu'on s'entraide Tu sais pour qui on plaide, il était une fois Bouna et Zyed Partis trop tôt, Allah y rahmou, message de paix en votre mémoire Vos noms sont gravés à jamais dans notre histoire Mort subite que nous n'oublieront jamais reste gravée dans nos mémoires On peut pas s'en débarrasser comme le reflet d'un miroir Accrochés à la réalité, mes reufs s'en sortiront Triste destinée, pour réussir prêts à se prosterner Consternés par la tournure des choses Mourir, ou lutter tous pour nos familles et disparus Korozeef, message du cur Ceci nous rappelle que toute âme revient au Créateur Ouais J'ai le cur qui saigne Tant de compassion s'imprègne Au-dedans de moi, des choses me font perdre la foi De voir des jeunes s'en aller aussi souvent que ça Je compatis, c'est si triste La justice grise, nos ciels sans couleurs Un venin de couleuvre Déjà trop dans nos vies, détruit nos frères et surs Ils nous brutalisent, la justice couvre La presse se rend complice et personne ne l'ouvre La pensée réactionnaire connaît des joies intenses Quelles sont les premières victimes en proie à la violence? Ceux qui ravalent leurs mots jusqu'à vomir des pierres Ceux qu'on réprime dans le sang comme en temps de guerre Bouna et Zyed, juste jeunes et envie de vivre Qui n'en demeurent pas moins des exemples à suivre Bouna, en entendant ton nom ou en voyant ta photo Des milliers de flashbacks me remontent au cerveau Je t'avais appris à nager Je me rappelle ce jour-là, t'as failli te noyer Je t'ai côtoyé depuis ta tendre enfance Je me rappelle de toi, m'étant décroché avec la plus grande aisance La BDS a shooté votre crew Mais avec le temps cette équipe s'est dissoute Biggie, Kahi, mon p'tit frère est parti Que Allah lui ouvre les portes du paradis Encore des anges qui partent trop tôt dans l'ghetto Et la tristesse fait couler l'encre de mon stylo C'est avec la main sur l'cur que j'lâche mes mots J'ai d'la rage, j'ai d'la haine, j'ai d'la peine et j'n'arrêterai pas s'il faut Ça a toujours été nous contre eux On est rien dans c'bas monde, que Dieu vous garde Nous on restera sur nos gardes C'est dans les cieux que vos frères et surs vous regardent, Zyed et Bouna Une mesure de silence Pour nos frères Bouna, Zyed auxquels on pense À l'heure actuelle, vos noms sont gravés dans nos têtes Que vos âmes reposent en paix, c'est tout c'qu'on souhaite La main sur l'cur, la mille-fa plongée dans la douleur Triste sort, la mort est venue frapper à leur porte de bonne heure Sous nos bonnets on a d'la peine Comme tu l'sais, dans nos quartiers, seule la mort règne et les curs saignent Encore deux d'nos p'tits partis, ça suffit Pour Bouna, Zyed avec qui j'avais pas encore d'affinités C'qui n'empêche pas d'témoigner ma solidarité Militer afin d'limiter, les saignements d'nos curs déjà irrités D'une tristesse profonde, on est tous héritiers Une larme tombe, mais peut-on les éviter J'ai un frère du même âge, voilà la vérité À vous et vos familles, j'rends hommage avec sincérité J'viens rendre hommage, Mister Daï De Neuilly-sur-Marne à Clichy, j'vous épargne mes analyses car l'résultat sera l'même Ça m'fait mal, j'ai d'la peine, alors ma haine j'la canalise Rien ne pourra faire qu'ils nous reviennent, j'en ai les membres qui s'paralysent Le poing gauche serré, la tête baissée, la main droite sur l'cur J'en place une pour la famille qui auront toujours ce mal au cur J'm'exprime en leur mémoire parce qu'ils manqueront jamais à l'appel Que leur flamme s'éteigne en paix, que leurs âmes reposent en paix Une couronne de fleurs pour Zyed et Bouna Ça fait mal au cur, on ne peut que supporter leur mille-fa Difficile de consoler après la mort Sur la tombe d'un proche, c'est tellement dur de rester fort Obligé de contenir ma pensée Par respect pour leur mémoire, donc je vais me contrôler La vérité n'est jamais facile à dire Attendons de la savoir, pour l'instant calmons les tirs D'abord mes condoléances aux frères, aux surs, aux rent-p's Aux amis qui étaient si chers au cur de Zyed et Bouna Pour lesquels je cace-dédi ce rap, même si j'les connaissais as-p Mec, je suis à-l, ouais, à cent pour cent avec eux, avec mon cur et mon âme Pour que ce genre d'événement ne se perpétue as-p On tue les jeunes dans nos tiers-quar, tis-gra Faudrait qu'ça cesse parce qu'on commence à en avoir vraiment marre J'ai le cur en sang, j'ai du mal à caresser J'ai des sentiments bloqués XXX des petits frères sont die Pour m'en remettre faut plus qu'une douille, khey Je suis banlieusard, blesse pas les mêmes même si l'envie de mitraille Graille, y a cette envie de tout fumer Mais au fond ça sert à rien maintenant comme notre quartier est cramé Pour les madres, poto, fais preuve de respect Tout se paie, que leurs âmes reposent en paix Dur d'en parler sans offenser vu qu'la douleur est encore vive Ce rap est une prière pour nos deux frères partis trop vite Que Dieu les garde, que Dieu protège leurs familles Que Dieu leur donne d'la force et du courage pour affronter la vie Paix à leurs amis, soyez gardiens d'leur souvenir D'leurs visages, d'leurs sourires, sachez qu'on est tous avec vous Même si c'est l'mektoub, on s'demande quand même XXX C'est pour Zyed et Bouna, Allah y Rahmo XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de nos enfants XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de vos enfants Dans l'ghetto, on a perdu l'sourire, on n'arrive même plus à rire On a vu des frères partir et plus jamais revenir La haine, la rage, la tristesse dans nos yeux, ça m'fait tellement réfléchir Mais qui accuser, Dieu l'a voulu Il crée des trucs, comment puis-je Avoir la haine envers mon Créateur, c'est cru J'n'arrive même plus à fermer les yeux Les souvenirs du passé n'cessent de me hanter Ça m'fait bizarre d'ressasser le passé J'rends hommage à ces p'tits partis trop tôt, partis pour rien Une pensée aux familles c'est 15-24 soutien Un départ prématuré, ils sont privés de c'monde pourri On est blessés à jamais, que leurs esprits reposent en paix C'est dommage, surtout à leur âge Et j'me demande encore pourquoi on n'est pas tous devenus sages Mais l'seul message, c'est qu'y a encore des parents Qui ont perdu leurs enfants, et ça tirons-en un enseignement La vie est bien trop courte pour qu'on s'fasse la guerre La vie est bien trop courte, profitons d'nos frères S'mobiliser, c'est bien, changer les choses c'est mieux Instant d'paix en espérant qu'on vivra tous vieux Quoi qu'il arrive, on doit rendre des comptes Pose pas la question pourquoi, on y passe tous Qu'la vie soit longue ou XXX Mais la mémoire elle reste, comme quand on s'pose Y a la dignité d'deux êtres qui s'impose Quelques mesures pour la mesure du monde immonde Où on traîne nos corps en attendant la suite Que vos noms soient jamais oubliés Bouna, Zyed, c'est nous pour vous à jamais Demande du calme, ne transformons pas notre deuil en drame Laissons couler nos larmes, demande la paix face aux armes Mais t'es un fou, renoi c'est nos p'tits frères qui sont partis pour rien Toujours nos mères qui pleurent, toujours cette putain de haine au cur Cesse tes rancurs, on a l'devoir de calmer la rage Avec un grand cur, nous sommes unis pour faire un hommage Ça sera toujours les mêmes personnes qui y laisseront des plumes Notre quartier fume, il faudra bien que quelqu'un l'assume Qu'on s'le dise, y aura pas d'paix sans l'mot respect Zyed et Bouna, que vos âmes reposent en paix Négro c'est l'deuil, coupe le moteur de l'YZ Mon stylo pleure d'l'acide au nom d'Bouna et Zyed Tristesse et rage, jeunesse arrachée par la Faucheuse La mort n'attend personne et on confie son âme à Dieu Saluer la République, y a pas moyen Tout c'que j'ai retenu d'la Marseillaise,</t>
+          <t>Pour certains c'étaient des potes, et pour d'autres des p'tits d'la cité Mais seulement un sur trois a survécu dans l'électricité Ça a été une réalité dure à accepter Le 27 octobre, Zyed et Bouna nous ont quittés Dix-sept ans et quinze ans, eh, trop jeunes pour partir Trop jeunes pour dire à tout l'monde On se reverra qu'en dehors de cette terre Vu qu'on est tous des hommes, on passera tous, tôt ou tard, par la mort mes frères Quand des mômes fuient la police par peur jusqu'à perdre la vie On doit s'poser des questions, moi j'suis juste un mec qui donne son avis J'suis là pour, on a tous vu au moins une fois les civils Déraper comme des barges dans la cour On s'comprend plus, de là tout part Quand même nos ministres désignent les gosses innocents coupables Aujourd'hui j'frémis parce que j'ai trois enfants Et garde ce dernier vers, car je sais c'que sentent les parents Mon Dieu, j'pense à Zyed et son accent blédard Son sourire gentil, et son pull à capuche Tim noir Toujours serviable et jamais en colère On l'appelait Lance-Pierres, il avait une force d'homme frère J'pense à Bouna, toujours avec Harouna Tout l'temps au Chêne Pointu, pourtant il habitait la PAMA Respect aux familles Traoré et Benna Le ghetto est en pleurs, j'en perds mes mots, Allah y rahmou On veut savoir ce qu'il s'est passé On veut nous cacher la vérité Toute une communauté sous haute tension Deux vies gâchées sans explication Une famille perd son enfant Impossible d'oublier, même avec le temps Bouna, Zyed, paix à vos âmes, paix à vos âmes Oh, paix à vos âmes, oh yeah Sur ce son, on rappe, on dédie cette zik à Bouna et Zyed Non j'ai du mal à croire J'ai du mal à voir ton blaze Bouna, gravé sur du marbre Tu t'en rappelles, chaque soir des bêtes de darka sur une rocade Histoire d'être capital, t'avais une tête de plus que moi Amateur de moto, danseur de XXX À fond dans les govas et les gos, de jour en jour je deviens fou Dans ma tête, de bons moment en boucle Demande à tous, depuis qu't'es parti je ris mais y a plus goût à rire Tu manques à la famille À chaque yer-pri, je prie que Dieu vous ouvre les portes du Paradis Sur ce, j'ai les nerfs, B2G, courageux, parole de frère Hier, j'ai croisé l'émotion, elle touchait le fond J'ai croisé des jeunes et j'ai croisé des mères, donc j'ai croisé le monde J'ai croisé les doigts, crois-moi j'ai prié ma sur J'ai pris ma feuille, j'ai pris mon cur et puis j'ai crié ma peur L'amour est fiable et tu l'sais, la guerre est bad Elle et lui vous êtes Bouna, toi et moi, on est Zyed On est des anges, on est des grands, on est les enfants qui dérangent Avec le cur en sang, on chante pour tous ceux qui nous manquent Nous sommes épuisés par les pleurs, à peine quinze ans, à fleur de vie Bouna, ça fait drôle de plus t'voir en roue arrière sur ton vélo Boucle d'oreille, sapé goss'bo J'ai lancé des projectiles pour vous venger Mais rien n'vous a réveillé, Zyed, où est passée ta tête Qui nous écoutait l'soir à la fenêtre du premier étage ? Parlais pas trop, trop sage Tristesse, dépit, faiblesse nous ont envahis La France est en deuil, le ghetto pleure deux des siens La colère dans les yeux, deux enfants sont morts pour rien Une pensée pour eux, lions nos deux mains Que Dieu leur ouvre la porte des cieux et qu'ça n'arrive plus demain Y a des écoles qui brûlent et des voitures s'embrasent OK brûlons-la mais pas l'histoire de base Bouna et Zyed, deux enfants morts avant l'âge Rien qu'd'y penser, moi ça m'fout la rage, hmm Hommage à mes deux potos, qui sont partis trop tôt Quand j'regarde leurs photos, un frisson me monte au dos On n'vous verra plus en mode peace à la cité Ça fera bizarre mais c'est une triste réalité Zyed et Bouna, malheureusement, nous ont quittés Qu'ils demeurent au Paradis pour l'éternité En attendant j'ai perdu deux d'mes res-frè Si c'était à refaire, ce couplet ben je l'referais À mes potes, Zyed et Bouna Reposez en paix Allah y rahmou Pensée pour Muhittin Ma présence n'a rien d'honorable, elle est juste normale J'serai toujours auprès des miens tant qu'ils auront mal C'que j'vois dans le studio, c'est beau, c'est grand Les miens se sont unis mais pas dans l'autodestruction Parce que les miens ont une force qu'il sont les seuls à ignorer J'attends l'jour où ils vont s'lever, s'élever dans le respect Que Dieu fasse miséricorde à nos frères Zyed et Bouna Faut voir comment respecter leur mémoire Pour Bouna et Zyed Je prends ma plume en versant quelques larmes Partageant la douleur La souffrance des familles qui les pleurent Comprendre ce qu'il s'est passé Exposer la vérité au grand jour Que ce fardeau soit moins lourd, oh yeah Bouna et Zyed restent dans nos curs à tout jamais C'est pour nos minots que j'retranscris mes larmes du bout d'mon stylo Pourquoi dans nos trous à rats, s'en sortent qu'une mino' J'tire le signal d'alarme avant d'en venir aux armes Paix à vos âmes et à vos XXX Morts pour rien, c'est l'slogan qui fera p't-être réagir ceux qui siègent à l'Assemblée Nous on s'est rassemblés pour rendre hommage à nos morts C'est à eux qu'on a dédié l'ceau-mor Traoré et Benna, c'est à vous qu'on a dédié l'ceau-mor Le cur serré devant ma feuille blanche La main tremblante, mal au crâne de voir qu'on nous écoute que quand les coins crament Toujours la même, c'est la merde, ainsi d'suite On veut fuir la misère à chaque course-poursuite Que Dieu donne la force aux familles en deuil À leurs proches pour surmonter cette dure épreuve Dites à Nicolas que malheureusement, derrière les voitures qui brûlent C'est la détresse des quartiers qui hurle J'lève la main en l'air à la mémoire de nos p'tits frères J'lève la main en l'air pour leurs pères et pour leurs mères J'parle avec le cur au nom d'une jeunesse en détresse Vas-y cours petit, cours, pour fuir la tristesse Qu'Allah leur pardonne d'avoir provoqué un drame Aujourd'hui j'appelle au calme, il faudrait éteindre les flammes L'âme est touchée mais le corps se relèvera Je demande aux miens de ne jamais baisser les bras Mourir d'sa belle mort est la chose la plus belle au monde Mais l'destin en a voulu autrement, quelle chose immonde Fin d'une vie humaine et des plaisirs éphémères d'la vie Nos curs pleurent de désespoir et la haine nous envahit Enivrés d'tristesse, leur non-présence nous blesse sans cesse L'ciel a voulu qu'ils décèdent, guettent dans l'au-delà mais laisse Une pensée à ces hommes qui n'vivent plus qu'dans nos mémoires Quelques temps d'silence à leurs personnes XXX La disparition de deux êtres innocents et honnêtes A provoqué beaucoup de rivières de larmes sur les pommettes Adolescents laissant derrière leur dos Des centaines de pleurs, des curs blessés et c'est en s'en- Traidant, en se serrant les coudes Que l'on peut rester forts quand la mort fait escale chez nous Salam à vous, tenez le coup, uvrez dans l'bien Difficile pour une famille d'avancer avec un membre en moins J'commence en faisant deux mesures de silence pour les enfances perdues En guise d'insulte pour tous les esprits tordus ... Sa mère! J'ai les nerfs de voir nos pères en larmes J'ai les nerfs de voir mes frères s'noyer dans l'drame Et lors d'un banal contrôle dans nos halls on a le rôle d'un animal pour la Gaule De vandales pour les héritiers d'De Gaulle XXX La France pays de rencontres XXX XXX La douleur parle, nous on perd des frères C'est juste un appel au calme dans cette époque de merde Paix à la famille, laissez-la faire son deuil J'verse une goutte sur l'sol et vers l'ciel j'jette un il Ça fait mal quand quelqu'un part mais c'est Dieu qui décide On s'retrouvera plus tard, sur la route sur laquelle on s'destine Morts pour rien, pour vous on a beaucoup d'estime Que Dieu vous garde, OK, reposez en paix À nos frères morts violemment, aux plus jeunes qui prouvent qu'on peut réussir brillamment Le plus important, l'dîn, on veut tous partir dignement Rattraper nos péchés, à part les drames, rien pour nous unir C'est c'qui nous manque, combien passeront la barre des trente Vies courtes mais intenses, profite des tiens, porte avec honneur toutes nos valeurs Décharger les mamas du poids d'nos malheurs Dramatique pour les familles blessées dans l'âme Résister pour exister, wesh les p'tits frères, faut éviter l'haram Y a trop d'souffrances au cur des abysses dans les quartiers d'France Alerte maximum pour les mômes, état d'urgence J'porte des fleurs pour les morts, faut qu'on y pense Et qu'on sème de l'espoir pour le futur Même si la poisse rend l'quotidien trop dur, même si les pleurs parlent quand des gosses partent N'oublions pas qu'les anges ne meurent pas C'est juste quelques mots en votre mémoire Votre histoire gravée sur le marbre, un hommage pour dire qu'y en a marre Un hommage à Benna, Traoré Deux p'tits frangins Allah y rahmou, qui sont partis haja Morts pour rien, là où vous êtes Inch'Allah vous êtes bien Beau temps, mauvais temps, vous étiez toujours contents J'ai du mal à réaliser qu'le temps nous a séparés Le mal qu'ils nous ont fait, ils pourront jamais le réparer XXX, Traoré Quelle époque nous vivons, quelle époque C'est pour XXX Quelle époque nous vivons, perdre sa vie sans raison Sans explication, la banlieue pleure à l'unisson Mais quelle époque nous vivons? On veut savoir le pourquoi du comment Dialogue de sourds, on nous répond en nous insultant Mais quelle époque nous vivons? Trop p'tits pour partir d'nos rangs Pas assez d'mots pour apaiser les parents Mais quelle époque nous vivons? D'autres agissent en cassant Manière douce, nous on transforme notre rage en chanson J'connais l'respect, pas celui qui sort d'la bouche des autres Celui qu'on m'a appris depuis tout gosse mais on est tous des hommes Ça m'désole et on s'demande que faire face à tout c'désordre Et pour s'faire entendre, faut qu'la voix d'mes couz' résonne Plus rien n'est sûr quand y a l'sheitan et ses miss qui zonent Mais qu'ils ont, à croire que ça leur plaît d'voir une enfance qui XXX Pendant qu'les best pigeonnent, j'vois le reste qui chôme Nous on est jeunes, plein d'avenir et c'est toute ma tristesse qui somme Dites-moi comment régler les problèmes en supprimant les solutions Ce système a trop sous-estimé sa population L'oppression a une faille, nous a enlevé deux de nos frères C'est les larmes aux yeux que l'on pratique notre prière 93, volcan en éruption, banlieue poudrière On n'éteint pas notre flamme, c'est jusqu'à la mort qu'on sera solidaire Tremblay en hommage, ma ville crame, lâchez les Canadair Y a rien à dire, dors avant d'partir en guerre Histoire triste, j'suis pas là pour m'faire d'la pub Les chtars guidés par Ibliss frère, ici ça devient rude Perdre deux d'nos proches pendant l'ramdam Une pensée hardcore pour les rents-pa qui pleurent l'âme I.S.L.A.M., ma source vitale Apprendre la mauvaise nouvelle d'un mort, mon frère, ça on l'vit tous mal J'accepte plus l'mektoub, les soucis ressurgissent Combien d'enfants avec une tombe avant qu'la France agisse Respect aux familles, aux amis, aux manifestants Existants, restant résistants Et exigeant, détestant les forces, les testant Et quel ordre? C'est l'désordre qui est présent Fort déplaisant, unis dans tous les sens Munis d'encre ou d'essence personne n'est perso Ou hésitant, devant c't accident attristant A cité ta cité s'assistant Tata nzambé XXX bongo XXX Benna, Traoré Ouais, c'est du meurtre, qu'c'est l'humeur vraie tumeur En attendant, s'rassemblant dans la lueur, truc flambant XXX tata na bisso Dynam, ouais ouais ouais ouais, hein C'est trop hard d'être morts pour rien ghetto hardcore cousin XXX com si cété ti moun a mwen Ka ressenti douleur là tout au fond a chair mwen Lé pa imaginé sa k'arrivé des frew mwen Des jeunes XXX morts XXX pour rien Allez XXX maman Traoré Famille Benna XXX j'en ai oublié Tou lé -XXX toujou là, pas la France XXX sa An juste ka espérer XXX Le mal au moment qu'tu ressens parce que t'es blessé par le mal qui ronge Tu tombes dans la dépression parce que les événements pour toi sont étranges Pour tous mes frères qui sont victimes d'avoir perdu un être cher Parce que le fruit d'un amour fraternel vient de disparaître J'ai reflété un mal de vivre parce que mes nerfs sont devenus ivres Parce que les gens ne m'épargnent pas, j'ai dû survivre Un petit sourire levé vers l'ciel, une éclaircie, l'soleil Ça prouve qu'on doit sécher nos larmes parce que nos âmes sont éternelles Dur d'clamer la paix alors qu'la liste ne fait qu's'allonger Ça m'enrage que nos vies s'embrasent pendant qu'Arnaud rêve à la vie d'Pete Sampras Les meilleurs s'en vont toujours les premiers, c'est pas d'leur faute Les prolos s'lavent les mains dans l'sang des nôtres Arrête de foutre le feu chez nos daronnes, déjà qu'elles sont mal logées Au fond, ça n'arrangera rien, tu sais Pense à nos martyrs et rappelle-toi qu'avant d'partir Il te faudra chérir la mif, qu'on arrête de courir car tu peux mourir vite Même un daron du bled fier ne peut retenir ses larmes Face à des mères accablées comme celles de Bouna et Zyed L'insomnie s'empare des familles du défunt Mais des fois, il n'y a pas de douleur que le sommeil sache vaincre Hache de guerre à gauche frolo pour un effort de paix C'est l'9-3 qui pleure quand Clichy-sous-Bois est en deuil J'ai de la peine car le décès de certains me reviennent en tête Les frères, laissez-vous bercer par la tristesse Sauvons les deux âmes Comment résister, honorer son charme Zyed et Bouna Nous restons sans voix Quelle choc de ne plus vous revoir Sur mon visage ne cessent de couler les larmes Que Dieu vous garde pour l'éternité J'ai l'cur brisé, car j'ai souvent rêvé d'un monde meilleur Que la guérilla urbaine et d'enterrer deux frères Traoré Benna, que Dieu vous pardonne Que Dieu vous ouvre les portes du Paradis Que la tension se calme ici-bas J'suis un frère parmi tant d'autres J'voulais faire passer un message de paix Mon phrasé porte le deuil On vient d'perdre deux âmes fraîches, deux anges On vient encore d'perdre deux p'tits frères On leur rend hommage le cur noyé dans nos larmes Nos plumes portent nos peines et les blessures de nos âmes Les cris sincères, ouala j'ai mal La douleur est intense et même le silence pleure Pas là pour condamner l'coupable, Dieu l'fera Lui-même Et qu'la paix soit avec la famille d'ces deux lumières Deux gouttes qui débordent le vase, écoute Le mal se disperse, les man se disent prêts à agir et à serrer les coudes Les poings en l'air et même sur les I Quand on est solidaire, qu'on attise la flamme et à deux morts on l'dédie Trop d'sirènes, pompiers flics et ambulances Qu'on allume un cierge au lieu d'ces ambiances brûlantes La délinquance n'est pas une profession dans la street Qu'ils arrêtent leurs étiquettes et d'nous classer dans leurs putain d'statistiques 271005, c'est la fin d'une vie, les larmes d'une mère Le calvaire d'un père et l'combat d'un grand frère Une sur perdue qui voit son frère partir au plus jeune âge Une mort incomprise et toute une tess qui prend la rage Un événement qui prend une tournure grave, des nuits d'émeute Avec une seule idée en tête, faut qu'y en ait un qui crève On veut la vérité pour Zyed et Bouna Une forte pensée pour les familles, Traoré Benna Crois-moi, j'ai eu froid dans le dos En entendant les commentaires de politiques au lendemain du drame Quand la loi et l'ordre font peur à des gosses et que le pire se passe Le respect, c'était de faire profil bas Il nous faut des responsables, ça doit pas toujours marcher dans un sens Parce que c'qu'il s'est passé n'a pas d'sens Mes pensées vont aux familles, alors rest in peace Mon Dieu, entends nos prières, c'est pas juste c'qui arrive Deux frères partent, des curs fanent, la violence pour morphine, frère Mon cur saigne, mon cur parle, mon cur aime, mon cur bat Aussi vite que l'approche de la vérité, donc militer Pour la même cause, même veine, même combat Familles Traoré et Benna Beaucoup d'force et beaucoup d'chance pour la suite frères, pour tous les miens On a les mains réanimées par les armes Ensanglantées mais vite lavées par les larmes, paix à leurs âmes Nettoyer les gouttes et lâche même des gouttes et Les frères sont dégoûtés, les parents sont alarmés Morts pour rien, seul l'avenir nous l'dira Ou en tirer une leçon les jours à venir on verra Pour l'heure, une prière pour les p'tits frères Une pensée à leurs parents en espérant d'meilleurs moments Né d'une mort, l'espoir vit, restons forts Clichy-sous-Bois Montfermeil présentent leur reconnaissance Des adolescents parés Pour cette oppression incessante, donc une vie de tarés Grandir sous l'enseigne Montfermeil Clichy Mon cur saigne, tu sais, tant de gâchis Re-fré, réfléchis, deux vies ont fléchi Ils ont dit qu'on agissait par haine Plus rien ne sert de défendre une vie déjà vaine Mais allez dire ça aux mères Que leurs fils méritait une vie éphémère XXX Parce qu'on nous a traités d'vauriens J'dédicace aux gosses morts pour rien Seule la violence du désespoir dégage cette odeur de peur Quand un jeune des ghettos meurt, je pleure De colère, c'est ça qui fait brûler les voitures Saoulé d'devoir enterrer les nôtres, vois-tu Français, écoute pas leurs putain d'histoires Si on agit ainsi c'est par la force du désespoir Comme à Clichy quand la mort t'électrocute Et combien d'raisons justifie leur mort? Aucune Le ghetto parle, le ghetto chante, le ghetto pleure Des larmes de peine C'est triste à dire, qu'il faille le pire Pour qu'on écoute nos curs qui saignent Mes pensées vont vers les familles Benna et Traoré, yeah Le ghetto pleure ces deux adolescents Un message de paix dans toute cette effervescence J'parle au nom du 7-7 Mes amitié pour les familles des défunts, c'est pour ces jeunes qu'on s'mobilise Une prose contre une rose Hommage à Bouna et Zyed, nos banlieues pleurent L'onde de choc retentit, j'crie ma douleur Un requiem pour ceux qu'on aime Nos HLM sont en berne, trop d'pertes et d'chrysanthèmes J'veux pas finir dans les bras du système Électrocuté ou cané, alors j'tire la sonnette d'alerte La mort ne donne jamais de rendez-vous Les khos, levez vos index dès que vous savez qu'elle va venir à vous J'avoue, ça fait si mal d'voir partir des p'tits et des fillettes De voir que de drames, la vie est ainsi faite Qu'Allah fasse miséricodre à Bouna et à Zyed Ils voudraient nous étouffer pour mieux nous avaler comme le ferait un boa La tasse ils veulent nous faire boire Paix à nos morts, d'ici à Clichy-sous-Bois Ils sont morts, ma voix gèle, j'suis rouge, tout est pêle-mêle J'vous connaissais pas mais au fond vous êtes une partie d'moi Moi j'pleure, rien que j'pleure C'est dur, la France a peur, comprenez notre émotion Trop d'nos frères à terre, deux ouais, ils étaient deux Pour le troisième, j'remercie Dieu Hein, sois fort Muhittin J't'assure, sois fort C'est pour nos deux p'tits frères, rest in peace Que j'lance d'ici, d'Évry-Courcouronnes à Clichy Si si, à prendre les jeunes pour des imbéciles C'est la douleur du ghetto qui se transforme en missile Et la banlieue ne veut plus lécher la vitrine Elle est brisée, et c'est la vérité que l'on vise La rue a mal, mais pas que depuis hier Et aujourd'hui les pierres ont remplacé les prières Hommage aux familles blessées Agressées dans leur chair, Seigneur dissipe leur gêne et le poids de leur détresse Chéris nos p'tits frères partis jeunes Pendant ce saint mois d'jeûne On en a marre de cette animosité qui règne, nous divise et nous trahit Mitraillés dans cette lutte perpétuelle qu'est la quête de notre salut Bouna et Zyed, dans nos mémoires à jamais gravés Pour Bouna, Zyed, j'ai l'cur qui palpite J'ai mal quand sans état d'âme, on prend l'âme À deux d'mes frères, RR, j'ai la rage Quand les larmes ressortent sur un drame Dans l'9-3 c'est ça, c'est cette situation qu'j'condamne J'rends hommage aux familles, j'prends mon briquet, j'allume la flamme Pour qu'tu voies d'en-haut ma tristesse pendant la salate J'fais une dou3a pour qu'tu partes en paix, refré Négro, on était en exode Mais j'pense qu'ils veulent nous voir visés, nos phases macabres et nos XXX XXX faut canaliser Gardez la foi mais faut que j'aie ce condé parce que nos vies sont jeu d'l'oie Prie pour pas tomber sur la case d'un colt Une mauvaise phrase comme nos refrés jouent à Liberté ou Volt On sait comment ça finit Un clash, une course-poursuite, un crash, la suite, un putain d'incendie Deux âmes partent, un mot d'provoc' et la France crame Sarko en tête des sondages, man, à qui profite le scandale? Malaise perceptible, chômage trafic et vente d'armes Tout l'monde s'affole parce que notre rap c'est pas du France Gall Anti flics et gendarmes, politique, chantage Contrôle où les képis semblent avoir dix ans d'âge Les deuils tournent dans les p'tites villes et grands axes Comme toute tragédie, l'histoire est triste et la fin semblable J'comprends pas pourquoi la vie est si dure, man Comment ça se fait, on peut perdre sa vie bêtement Combien de temps ils vont faire pleurer nos mamans Combien de temps ils vont nous marcher sur les pieds, man Traoré et Benna ne méritaient pas ça Mouille avec la peur au ventre pour une histoire de balles Y en a marre d'être mal catalogués Le ghetto pleure c'est la rue cette réalité Cause conséquence, voilà l'revers d'la médaille Les chèques d'assurance nous ramèneront pas les deux p'tits frères die 27105, Zyed, Bouna rendent leur âme Parole de grand, personne n'oubliera cette date, ce drame Maximum respect, pensée pour leurs milles-fa Leurs proches amis pour qui ça doit vraiment pas être cile-fa Perdre un être cher aussi jeune, c'est trop dar J'pose huit roses en leur mémoire, car trop tard C'est envers mes frères que je m'adresse car cette histoire m'attriste et blesse Mon cur saigne mais seule l'encre de ma plume se verse C'est d'la haine que tu peux lire dans mes yeux Mais c'est avec le cur serré qu'j'écris, un regard vers les cieux Allah! On m'a dit d'calmer donc j'garde la rage en moi Parce qu'un Black reste un Black, même vénère il reste une proie J'ai mal mais remplace mon arme par des larmes Car les flammes qu'il peut ne feront jamais revenir vos âmes Il n'y a pas pire enfer que d'penser qu'le Paradis n'existe pas En c'moment-même, les esprits des défunts nous hantent Ambiance de paix car j'ai le mal de guerre De quartier en quartier ça brûle parce que ce sont nos frères On va laisser les rancunes en route Apporter des gerbes de fleurs aux textes pour apaiser les têtes Chaque jour, des bougies s'allument et s'éteignent Bouna et Zyed, de leurs lueurs on s'imprègne Tout arrive par ici On envisage le pire Tous en état de crise Bouna, Zyed, martyrs La violence contre l'innocence Les héros n'existent plus depuis longtemps Ils ont bafoué votre enfance Gardez-nous une place, on vient dans peu de temps Oh, tous les quartiers ont les larmes aux yeux Trop de larmes pouvant éteindre le feu qui leur traversait l'corps En traversant mon cur, mon sentiment fut renversé Par un poids-lourd immatriculé par la mort L'amour et la mort, des extrêmes qui s'kiffent à mort Zyed, Bouna, destins liés par des câbles Si mon cur aurait eu des yeux, tu l'aurais vu saigner Benna,Traoré, Allah y rahmou, Sefyu Coupés dans leur élan, trop tôt ces jeunes sont die Deux familles, toute une génération en deuil, ma gueule Ç'aurait pu être un d'tes frelons, un d'mes frelons L'idée fait froid dans l'dos alors qu'j'suis pas tant qu'ça un frileux Vu qu'j'fais partie des cibles, il est donc impossible Qu'j'y sois insensible, des familles pleurent Bouna, Zyed, partez en paix vers l'ciel Nous on continue l'combat, qu'vous soyez pas morts dans l'zef C'est avec peine et haine que j'prends c'putain d'micro Car au-devant d'la scène, t'as la mort d'mes deux frelos À qui j'dédie c'morceau pendant ce temps d'fléau Ça vient du cur khey, j't'assure qu'c'est pas du mytho En bref, malgré ma froideur, sur c'beat j'ouvre mon cur Pour rejoindre les deux familles dans leur propre douleur Et quoi qu'il arrive, pour nous, vous êtes toujours là À jamais gravés dans nos curs, Zyed et Bouna J'remplace l'alcool par de l'eau céleste, le bédo par une datte On s'connaît pas mais c'est pour Bouna et Zyed À c'que j'vois, vous aviez des potes et des gens qui vous aiment Depuis votre mort, les jeunes ont déployé leurs ailes J'ai le cur noué, Bellahi je le jure c'est vrai À nous tous, ça peut tous nous arriver J'envoie des dou3as pour vos familles, vos larmes inondent toutes nos villes Et votre mort résonne dans toutes nos vies J'peux pas camoufler ma peine, j'peux pas camoufler ma haine Hémorragie interne, j'me porte bien mais l'cur saigne Une flamme subsiste pour Bouna et Zyed Siaka, Biggie, Montfermeil Clichy Maillot, Silly, Sur-Marne-Neuilly Sachez qu'le 9-3 côté Est ne vous oublie La Tunisie, la Mauritanie aussi, ces lignes vous sont dédiées À vous et vos familles, pour vous, j'garderai bonne mine, promis Ma plume se plie, les mots sont trop lourds Des actes injustifiés qui emmènent des conséquences trop lourdes Conscients que le temps passe, de nos esprits rien ne s'efface Mes frères, je vous embrasse, nos vies s'éteignent, les frères j'vous rends hommage Le remède c'est qu'on s'entraide Tu sais pour qui on plaide, il était une fois Bouna et Zyed Partis trop tôt, Allah y rahmou, message de paix en votre mémoire Vos noms sont gravés à jamais dans notre histoire Mort subite que nous n'oublieront jamais reste gravée dans nos mémoires On peut pas s'en débarrasser comme le reflet d'un miroir Accrochés à la réalité, mes reufs s'en sortiront Triste destinée, pour réussir prêts à se prosterner Consternés par la tournure des choses Mourir, ou lutter tous pour nos familles et disparus Korozeef, message du cur Ceci nous rappelle que toute âme revient au Créateur Ouais J'ai le cur qui saigne Tant de compassion s'imprègne Au-dedans de moi, des choses me font perdre la foi De voir des jeunes s'en aller aussi souvent que ça Je compatis, c'est si triste La justice grise, nos ciels sans couleurs Un venin de couleuvre Déjà trop dans nos vies, détruit nos frères et surs Ils nous brutalisent, la justice couvre La presse se rend complice et personne ne l'ouvre La pensée réactionnaire connaît des joies intenses Quelles sont les premières victimes en proie à la violence? Ceux qui ravalent leurs mots jusqu'à vomir des pierres Ceux qu'on réprime dans le sang comme en temps de guerre Bouna et Zyed, juste jeunes et envie de vivre Qui n'en demeurent pas moins des exemples à suivre Bouna, en entendant ton nom ou en voyant ta photo Des milliers de flashbacks me remontent au cerveau Je t'avais appris à nager Je me rappelle ce jour-là, t'as failli te noyer Je t'ai côtoyé depuis ta tendre enfance Je me rappelle de toi, m'étant décroché avec la plus grande aisance La BDS a shooté votre crew Mais avec le temps cette équipe s'est dissoute Biggie, Kahi, mon p'tit frère est parti Que Allah lui ouvre les portes du paradis Encore des anges qui partent trop tôt dans l'ghetto Et la tristesse fait couler l'encre de mon stylo C'est avec la main sur l'cur que j'lâche mes mots J'ai d'la rage, j'ai d'la haine, j'ai d'la peine et j'n'arrêterai pas s'il faut Ça a toujours été nous contre eux On est rien dans c'bas monde, que Dieu vous garde Nous on restera sur nos gardes C'est dans les cieux que vos frères et surs vous regardent, Zyed et Bouna Une mesure de silence Pour nos frères Bouna, Zyed auxquels on pense À l'heure actuelle, vos noms sont gravés dans nos têtes Que vos âmes reposent en paix, c'est tout c'qu'on souhaite La main sur l'cur, la mille-fa plongée dans la douleur Triste sort, la mort est venue frapper à leur porte de bonne heure Sous nos bonnets on a d'la peine Comme tu l'sais, dans nos quartiers, seule la mort règne et les curs saignent Encore deux d'nos p'tits partis, ça suffit Pour Bouna, Zyed avec qui j'avais pas encore d'affinités C'qui n'empêche pas d'témoigner ma solidarité Militer afin d'limiter, les saignements d'nos curs déjà irrités D'une tristesse profonde, on est tous héritiers Une larme tombe, mais peut-on les éviter J'ai un frère du même âge, voilà la vérité À vous et vos familles, j'rends hommage avec sincérité J'viens rendre hommage, Mister Daï De Neuilly-sur-Marne à Clichy, j'vous épargne mes analyses car l'résultat sera l'même Ça m'fait mal, j'ai d'la peine, alors ma haine j'la canalise Rien ne pourra faire qu'ils nous reviennent, j'en ai les membres qui s'paralysent Le poing gauche serré, la tête baissée, la main droite sur l'cur J'en place une pour la famille qui auront toujours ce mal au cur J'm'exprime en leur mémoire parce qu'ils manqueront jamais à l'appel Que leur flamme s'éteigne en paix, que leurs âmes reposent en paix Une couronne de fleurs pour Zyed et Bouna Ça fait mal au cur, on ne peut que supporter leur mille-fa Difficile de consoler après la mort Sur la tombe d'un proche, c'est tellement dur de rester fort Obligé de contenir ma pensée Par respect pour leur mémoire, donc je vais me contrôler La vérité n'est jamais facile à dire Attendons de la savoir, pour l'instant calmons les tirs D'abord mes condoléances aux frères, aux surs, aux rent-p's Aux amis qui étaient si chers au cur de Zyed et Bouna Pour lesquels je cace-dédi ce rap, même si j'les connaissais as-p Mec, je suis à-l, ouais, à cent pour cent avec eux, avec mon cur et mon âme Pour que ce genre d'événement ne se perpétue as-p On tue les jeunes dans nos tiers-quar, tis-gra Faudrait qu'ça cesse parce qu'on commence à en avoir vraiment marre J'ai le cur en sang, j'ai du mal à caresser J'ai des sentiments bloqués XXX des petits frères sont die Pour m'en remettre faut plus qu'une douille, khey Je suis banlieusard, blesse pas les mêmes même si l'envie de mitraille Graille, y a cette envie de tout fumer Mais au fond ça sert à rien maintenant comme notre quartier est cramé Pour les madres, poto, fais preuve de respect Tout se paie, que leurs âmes reposent en paix Dur d'en parler sans offenser vu qu'la douleur est encore vive Ce rap est une prière pour nos deux frères partis trop vite Que Dieu les garde, que Dieu protège leurs familles Que Dieu leur donne d'la force et du courage pour affronter la vie Paix à leurs amis, soyez gardiens d'leur souvenir D'leurs visages, d'leurs sourires, sachez qu'on est tous avec vous Même si c'est l'mektoub, on s'demande quand même XXX C'est pour Zyed et Bouna, Allah y Rahmo XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de nos enfants XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de vos enfants Dans l'ghetto, on a perdu l'sourire, on n'arrive même plus à rire On a vu des frères partir et plus jamais revenir La haine, la rage, la tristesse dans nos yeux, ça m'fait tellement réfléchir Mais qui accuser, Dieu l'a voulu Il crée des trucs, comment puis-je Avoir la haine envers mon Créateur, c'est cru J'n'arrive même plus à fermer les yeux Les souvenirs du passé n'cessent de me hanter Ça m'fait bizarre d'ressasser le passé J'rends hommage à ces p'tits partis trop tôt, partis pour rien Une pensée aux familles c'est 15-24 soutien Un départ prématuré, ils sont privés de c'monde pourri On est blessés à jamais, que leurs esprits reposent en paix C'est dommage, surtout à leur âge Et j'me demande encore pourquoi on n'est pas tous devenus sages Mais l'seul message, c'est qu'y a encore des parents Qui ont perdu leurs enfants, et ça tirons-en un enseignement La vie est bien trop courte pour qu'on s'fasse la guerre La vie est bien trop courte, profitons d'nos frères S'mobiliser, c'est bien, changer les choses c'est mieux Instant d'paix en espérant qu'on vivra tous vieux Quoi qu'il arrive, on doit rendre des comptes Pose pas la question pourquoi, on y passe tous Qu'la vie soit longue ou XXX Mais la mémoire elle reste, comme quand on s'pose Y a la dignité d'deux êtres qui s'impose Quelques mesures pour la mesure du monde immonde Où on traîne nos corps en attendant la suite Que vos noms soient jamais oubliés Bouna, Zyed, c'est nous pour vous à jamais Demande du calme, ne transformons pas notre deuil en drame Laissons couler nos larmes, demande la paix face aux armes Mais t'es un fou, renoi c'est nos p'tits frères qui sont partis pour rien Toujours nos mères qui pleurent, toujours cette putain de haine au cur Cesse tes rancurs, on a l'devoir de calmer la rage Avec un grand cur, nous sommes unis pour faire un hommage Ça sera toujours les mêmes personnes qui y laisseront des plumes Notre quartier fume, il faudra bien que quelqu'un l'assume Qu'on s'le dise, y aura pas d'paix sans l'mot respect Zyed et Bouna, que vos âmes reposent en paix Négro c'est l'deuil, coupe le moteur de l'YZ Mon stylo pleure d'l'acide au nom d'Bouna et Zyed Tristesse et rage, jeunesse arrachée par la Faucheuse La mort n'attend personne et on confie son âme à Dieu Saluer la République, y a pas moyen Tout c'que j'ai retenu d'la Marseillaise, c'est aux armes, ci</t>
         </is>
       </c>
     </row>
@@ -684,7 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fils, ignore la voix, le duc, tu sais Mais cest pas moi, qui parle Hip-Hop, mixe, si on y reste, ça suffit Cesser, on nous supplie sur ta vie, on oublie Dédicace de Mars Génération des fils de zoufris On fout le feu, rien à foutre, la loose cest pour ceux Qui crachent dans la soupe et qui pensent comme eux Holocauste, fils, tu le sais cest pas si loin Des bouseux et des vieux haineux en veulent à nos racines Voient nos destins au bout dune corde juste pour la forme Si cest pas ton cas, enculé regarde pour qui tu votes Plus de négligence, ni de chance Quand vient lheure au bal de la souffrance Personne nespère une dernière danse Rue sombre, les murs tombent La grande faucheuse fait ses rondes et on espère ne pas la croiser Mais sil le faut, faire un bout de chemin à ses côtés Soit, et si on plie, on smange, on ne se relève pas Dieu nous regarde alors, Mc, justifie ta tâche Mars, on représente le Sud, on dit c'qui s'passe Ici, on a la musique pour nous, le feeling et les larmes La fierté et la rage comme dans nos rimes on vide nos armes La violence s'entend dans l'accent Marseille mon clan Cest pourquoi on représente les nôtres Mon peuple maudit, pour mon école et ma vie You might also like La ville est notre quartier, sans relâche arpenté Charpentés, comme une belle femme, les rues sont vidées Cité impossible à dompter, difficile déviter Lentité révoltée, poches vides, cur gonflé Les idées reçues, les clichés persistent et Pas mal de gars décidés veulent résister, suis la piste épicée Ya pas à dire cest live de Mars et ça le fait Eh, faut pas fuir, je viens de commencer Je ferai ce quil faut pour que la flamme crame, poto Quitte à monter au créneau, un bon cocktail molo' À lancienne frérot, essuie ta sueur mon garde-cur Même sous les clameurs on commet pas derreurs On focalise sur les labeurs, peur de rien, et dites-leur bien Quon marche quavec des mecs droits comme leur conscience Ça fout la trouille, hein ? Pourtant ma ville garde le sourire Endurcis, certains on compris Les autres sappuient sur un mur et soupirent Tant pis, cest la vie Cest ce quon écrit Sil faut le crier, faudra pas nous prier On représente ce quon est, fils et ça va pas sarrêter ici Les double dragons visent haut pour la lune noire Shurikn, Faf Larage, pour le C.O, dans l'lard La violence s'entend dans l'accent Marseille mon clan Cest pourquoi on représente les nôtres Mon peuple maudit, pour mon école et ma vie1</t>
+          <t>Fils, ignore la voix, le duc, tu sais Mais cest pas moi, qui parle Hip-Hop, mixe, si on y reste, ça suffit Cesser, on nous supplie sur ta vie, on oublie Dédicace de Mars Génération des fils de zoufris On fout le feu, rien à foutre, la loose cest pour ceux Qui crachent dans la soupe et qui pensent comme eux Holocauste, fils, tu le sais cest pas si loin Des bouseux et des vieux haineux en veulent à nos racines Voient nos destins au bout dune corde juste pour la forme Si cest pas ton cas, enculé regarde pour qui tu votes Plus de négligence, ni de chance Quand vient lheure au bal de la souffrance Personne nespère une dernière danse Rue sombre, les murs tombent La grande faucheuse fait ses rondes et on espère ne pas la croiser Mais sil le faut, faire un bout de chemin à ses côtés Soit, et si on plie, on smange, on ne se relève pas Dieu nous regarde alors, Mc, justifie ta tâche Mars, on représente le Sud, on dit c'qui s'passe Ici, on a la musique pour nous, le feeling et les larmes La fierté et la rage comme dans nos rimes on vide nos armes La violence s'entend dans l'accent Marseille mon clan Cest pourquoi on représente les nôtres Mon peuple maudit, pour mon école et ma vie La ville est notre quartier, sans relâche arpenté Charpentés, comme une belle femme, les rues sont vidées Cité impossible à dompter, difficile déviter Lentité révoltée, poches vides, cur gonflé Les idées reçues, les clichés persistent et Pas mal de gars décidés veulent résister, suis la piste épicée Ya pas à dire cest live de Mars et ça le fait Eh, faut pas fuir, je viens de commencer Je ferai ce quil faut pour que la flamme crame, poto Quitte à monter au créneau, un bon cocktail molo' À lancienne frérot, essuie ta sueur mon garde-cur Même sous les clameurs on commet pas derreurs On focalise sur les labeurs, peur de rien, et dites-leur bien Quon marche quavec des mecs droits comme leur conscience Ça fout la trouille, hein ? Pourtant ma ville garde le sourire Endurcis, certains on compris Les autres sappuient sur un mur et soupirent Tant pis, cest la vie Cest ce quon écrit Sil faut le crier, faudra pas nous prier On représente ce quon est, fils et ça va pas sarrêter ici Les double dragons visent haut pour la lune noire Shurikn, Faf Larage, pour le C.O, dans l'lard La violence s'entend dans l'accent Marseille mon clan Cest pourquoi on représente les nôtres Mon peuple maudit, pour mon école et ma vie1</t>
         </is>
       </c>
     </row>
@@ -701,7 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Voici venir l'âge béni A cet instant précis, il y a Un vieil homme froid sur un lit d'hôpital Un enfant qui voit l'jour dans une chambre rose pâle Un mec qui braque, une balle qui fuse Une bombe qu'explose, une mère qui prie Une foule qui danse, une musique qui balance Un mur qui tombe, des cris qui répondent Un homme seul, assis sur un trottoir Un autre, bourré, qui dort sur un comptoir Une femme devant une glace, plein d'bleus et d'ecchymoses Une autre vêtue d'blanc, heureuse, qui pose Des tours en banlieue à la face des bourges Des mômes de toutes races qui jouent dans une cour Des caves qui couvrent les talents d'demain Sportifs qui gagnent, un rap qui réveille Des comptes en banque pleins, des gens qui circulent Un psychopathe qui veut l'pouvoir, manipule Des déchets toxiques qui s'accumulent, un chien qui hurle Une décision nulle, une vie qui bascule Une fête quelque part, un anniversaire Un couple qui s'aime sans s'soucier du reste You might also like A cet instant précis, il y a aussi Une famille qui s'fait expulser d'chez elle Un huissier véreux, des coups qui s'perdent Un flic pourri, un ami qui trahit Des nuits d'insomnie, un stylo qui écrit Un reporter qui sévit en pleine guerre civile Un paparazzi caché derrière une piscine Une bonne nouvelle, un projet qui aboutit Une rencontre, des potes qui délirent Un dossier explosif qui dort dans un tiroir Un magistrat qui ferme les yeux, un au revoir Des costards autour d'une table qui révisent le monde Des vies en jeu, des sous qui tombent Un sourire, un avenir qui s'dessine Une mauvaise nouvelle, un dernier soupir Un père de famille qui se tue à la tâche pour les siens Un chômeur qui n'sait plus où est l'bien Une ville qui sommeille, des vices qui s'réveillent Une plaie qui saigne, des situations qui craignent Une nouvelle adresse dans un bidonville Des tas d'gens qui s'foutent pas mal de c'que j'dis Un écran qui diffuse des conneries Un discours haineux que l'on applaudit Des ateliers d'couture qui tournent 24 heures sur 24 Une révolution technologique se prépare Un scientifique qui cherche un antidote Un espoir, un rêve, un cauchemar Un fléau qui menace, des fanatiques qui brassent Une cause juste qui vaut l'coup qu'on en parle Un vieil homme froid sur un lit d'hôpital Un enfant qui voit l'jour, un ange qui passe</t>
+          <t>Voici venir l'âge béni A cet instant précis, il y a Un vieil homme froid sur un lit d'hôpital Un enfant qui voit l'jour dans une chambre rose pâle Un mec qui braque, une balle qui fuse Une bombe qu'explose, une mère qui prie Une foule qui danse, une musique qui balance Un mur qui tombe, des cris qui répondent Un homme seul, assis sur un trottoir Un autre, bourré, qui dort sur un comptoir Une femme devant une glace, plein d'bleus et d'ecchymoses Une autre vêtue d'blanc, heureuse, qui pose Des tours en banlieue à la face des bourges Des mômes de toutes races qui jouent dans une cour Des caves qui couvrent les talents d'demain Sportifs qui gagnent, un rap qui réveille Des comptes en banque pleins, des gens qui circulent Un psychopathe qui veut l'pouvoir, manipule Des déchets toxiques qui s'accumulent, un chien qui hurle Une décision nulle, une vie qui bascule Une fête quelque part, un anniversaire Un couple qui s'aime sans s'soucier du reste A cet instant précis, il y a aussi Une famille qui s'fait expulser d'chez elle Un huissier véreux, des coups qui s'perdent Un flic pourri, un ami qui trahit Des nuits d'insomnie, un stylo qui écrit Un reporter qui sévit en pleine guerre civile Un paparazzi caché derrière une piscine Une bonne nouvelle, un projet qui aboutit Une rencontre, des potes qui délirent Un dossier explosif qui dort dans un tiroir Un magistrat qui ferme les yeux, un au revoir Des costards autour d'une table qui révisent le monde Des vies en jeu, des sous qui tombent Un sourire, un avenir qui s'dessine Une mauvaise nouvelle, un dernier soupir Un père de famille qui se tue à la tâche pour les siens Un chômeur qui n'sait plus où est l'bien Une ville qui sommeille, des vices qui s'réveillent Une plaie qui saigne, des situations qui craignent Une nouvelle adresse dans un bidonville Des tas d'gens qui s'foutent pas mal de c'que j'dis Un écran qui diffuse des conneries Un discours haineux que l'on applaudit Des ateliers d'couture qui tournent 24 heures sur 24 Une révolution technologique se prépare Un scientifique qui cherche un antidote Un espoir, un rêve, un cauchemar Un fléau qui menace, des fanatiques qui brassent Une cause juste qui vaut l'coup qu'on en parle Un vieil homme froid sur un lit d'hôpital Un enfant qui voit l'jour, un ange qui passe</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Oui, et une fois terminé Jetez-les, coup de pieds, deux taqués et balayez-les Le saviez-vous, quoi ? Avant qu'on les éclate Ils étaient in, maintenant ils sont out C'est pas possible, j'y crois pas, oh non Ils ont récidivé leurs soirées d'usine à 10000 cons C'est l'an 2000 hun ! Paraît-il l'alibi, j'ai l'ouïe trop fragile, l'heure précoce attise Mon envie d'agripper une tunique à planter, une psyché à clouer Un travelo à poncer, j'avoue avoir été choqué Ils croient se métamorphoser, travelos, rébus ils puent Achevez-les Ils sont si chétifs, taillés dans un Twix Où ont-ils été acheter leurs costumes à Super Fenix? Ils ont 2 de tension, l'autre face de la médaille Il y a plus de laser dans les rave party que dans Le Retour Du Jedi Qui sait peut-être sous l'effet des strobos J'ai voulu voir des humains, je n'ai vu que des robots Leurs femmes sont des mutants, des mochetés gonflées Avec leurs pantalons de iz tacheté Un coup TU leur dissocies le psycho du soma en clair Et ils défrisent le coma You might also like So check it, check it out, D-E-F L'autre bout de l'observation mets le holà Chtebeuh ! Sur les méga transes Haroun Tazieff Du cosmos et de l'extrême, tu en veux, tu en as Je te mets le feu que tu sois kitch, rap ou grunge À coups de pied quand tu danses et te brises comme du Crunch Hé les céphalopodes un air teubé ? On ne me la fait pas ! Oh mais non mais non allez c'est bon see ya Alors quoi on fait bande à part Moi ça m'éclate quand j'entends ces bozos appeler ça de l'art Je sais pas, essaye autre chose Fais du jazz, fais un buf sur les bords de la seine avec ton pote Jack Mais s'il te plaît laisse tomber le rap Tu veux faire une autre musique mais tu t'en fous T'as ton sax', allez soit gentil, ramasse tes cheveux Et va jouer, et puis cesse de pleurnicher ou je vais t'achever Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Les producteurs cherchent de nouveaux artistes talentueux Et trouvent leur bonheur au beau milieu des merdeux Les recrutent le nez farci de morvelle Sur les bancs de la maternelle Le show bizz tape dans la crèche, fort Ils vont sûrement décerner le Blédina d'or Quinze, onze, quatre ans, de plus en plus de minots Très bientôt un ftus au micro Micro, comme la taille du cerveau de certaines Qui pour un sourire te dédaignent et se prennent pour des reines Alors que leurs mecs les traitent comme des merdes, des chèvres Et à ce jeu elles perdent À tous les coups parce que je ne danse pas le zouk Pour les flatter je suis un plouc nartezemouk De nos jours les blacks c'est le trip Mais seulement pour faire les danses ou les churs dans les clips Ou les plateaux, une touche exotique dans le show C'est plus dance, plus ché-bran ! Oui, mais gros plan sur le blond et la blonde au micro, Ok Ce producteur est à secouer Et tous ceux qu'on a cités Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Ceci dit, écoutez moi bien On dira que le Soul Swing ne fout rien I-A-M leur donne encore un sacré coup de main Mais je suis large pour tout ça Et si je reste enfoui, qu'est c'que tu veux On ne fait pas toujours ce qu'on veut Achevez-le, achevez-le Qui ??? Le bozzo qui croit que je me la coule, me tourne les pouces Et que ça marche pour moi, il se trompe J'ai fait mes comptes et rien ne va Et on m'arnaque et que celui qui m'a roulé Surveille son cul, je rejoue Tout ce que j'ai en 93 my man goddamn cest le retour de Shurik'n On note une recrudescence de pillage de greniers Planquez les fringues du papinou Toutos Foungios a débarqué À coup de lèche vitrine au Secours Populaire Gavroche est de retour c'est pas la faute à Voltaire Moins de matières que de vice, système économique J'ouvre les placards et je lâche la mite Pas de ronds à claquer dans le savon et le dentifrice Achevez-les avant que la Croix Rouge ne roule en Limousine Elle est partie S'il y a un fait qui me saoule et m'époustoufle C'est bien la mode des chanteurs et chanteuses qui s'essoufflent À l'agonie, je parie qu'ils en chient en studio Augmente les effets, monte les niveaux sur le micro Ils se la jouent avec une putain qu'étouffe Des mots qui ne pèsent pas et ne déformeraient pas un pouf Quand on n'a pas de voix, on se tait On s'abstient de nous les briser avec des chansons de laid Moi, tu vois, c'est des textes et de l'émotion Danielle Gilbert, Guy Lux, ah c'qu'ils puent Leurs faces collent à mon cul comme la colle Uhu Avaient-ils prévu que j'allais les descendre Nostradamus lui avait prédit que je Mettrais ces vilains à l'amende Après un bon sommeil, je me réveille Qui j'entends, Madame Soleil J'vais t'toucher la vieille ! Méfie-toi de ceux qui voient le tiercé dans les astres Achève-les, balance-les par le ballast Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les</t>
+          <t>Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Oui, et une fois terminé Jetez-les, coup de pieds, deux taqués et balayez-les Le saviez-vous, quoi ? Avant qu'on les éclate Ils étaient in, maintenant ils sont out C'est pas possible, j'y crois pas, oh non Ils ont récidivé leurs soirées d'usine à 10000 cons C'est l'an 2000 hun ! Paraît-il l'alibi, j'ai l'ouïe trop fragile, l'heure précoce attise Mon envie d'agripper une tunique à planter, une psyché à clouer Un travelo à poncer, j'avoue avoir été choqué Ils croient se métamorphoser, travelos, rébus ils puent Achevez-les Ils sont si chétifs, taillés dans un Twix Où ont-ils été acheter leurs costumes à Super Fenix? Ils ont 2 de tension, l'autre face de la médaille Il y a plus de laser dans les rave party que dans Le Retour Du Jedi Qui sait peut-être sous l'effet des strobos J'ai voulu voir des humains, je n'ai vu que des robots Leurs femmes sont des mutants, des mochetés gonflées Avec leurs pantalons de iz tacheté Un coup TU leur dissocies le psycho du soma en clair Et ils défrisent le coma So check it, check it out, D-E-F L'autre bout de l'observation mets le holà Chtebeuh ! Sur les méga transes Haroun Tazieff Du cosmos et de l'extrême, tu en veux, tu en as Je te mets le feu que tu sois kitch, rap ou grunge À coups de pied quand tu danses et te brises comme du Crunch Hé les céphalopodes un air teubé ? On ne me la fait pas ! Oh mais non mais non allez c'est bon see ya Alors quoi on fait bande à part Moi ça m'éclate quand j'entends ces bozos appeler ça de l'art Je sais pas, essaye autre chose Fais du jazz, fais un buf sur les bords de la seine avec ton pote Jack Mais s'il te plaît laisse tomber le rap Tu veux faire une autre musique mais tu t'en fous T'as ton sax', allez soit gentil, ramasse tes cheveux Et va jouer, et puis cesse de pleurnicher ou je vais t'achever Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Les producteurs cherchent de nouveaux artistes talentueux Et trouvent leur bonheur au beau milieu des merdeux Les recrutent le nez farci de morvelle Sur les bancs de la maternelle Le show bizz tape dans la crèche, fort Ils vont sûrement décerner le Blédina d'or Quinze, onze, quatre ans, de plus en plus de minots Très bientôt un ftus au micro Micro, comme la taille du cerveau de certaines Qui pour un sourire te dédaignent et se prennent pour des reines Alors que leurs mecs les traitent comme des merdes, des chèvres Et à ce jeu elles perdent À tous les coups parce que je ne danse pas le zouk Pour les flatter je suis un plouc nartezemouk De nos jours les blacks c'est le trip Mais seulement pour faire les danses ou les churs dans les clips Ou les plateaux, une touche exotique dans le show C'est plus dance, plus ché-bran ! Oui, mais gros plan sur le blond et la blonde au micro, Ok Ce producteur est à secouer Et tous ceux qu'on a cités Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Ceci dit, écoutez moi bien On dira que le Soul Swing ne fout rien I-A-M leur donne encore un sacré coup de main Mais je suis large pour tout ça Et si je reste enfoui, qu'est c'que tu veux On ne fait pas toujours ce qu'on veut Achevez-le, achevez-le Qui ??? Le bozzo qui croit que je me la coule, me tourne les pouces Et que ça marche pour moi, il se trompe J'ai fait mes comptes et rien ne va Et on m'arnaque et que celui qui m'a roulé Surveille son cul, je rejoue Tout ce que j'ai en 93 my man goddamn cest le retour de Shurik'n On note une recrudescence de pillage de greniers Planquez les fringues du papinou Toutos Foungios a débarqué À coup de lèche vitrine au Secours Populaire Gavroche est de retour c'est pas la faute à Voltaire Moins de matières que de vice, système économique J'ouvre les placards et je lâche la mite Pas de ronds à claquer dans le savon et le dentifrice Achevez-les avant que la Croix Rouge ne roule en Limousine Elle est partie S'il y a un fait qui me saoule et m'époustoufle C'est bien la mode des chanteurs et chanteuses qui s'essoufflent À l'agonie, je parie qu'ils en chient en studio Augmente les effets, monte les niveaux sur le micro Ils se la jouent avec une putain qu'étouffe Des mots qui ne pèsent pas et ne déformeraient pas un pouf Quand on n'a pas de voix, on se tait On s'abstient de nous les briser avec des chansons de laid Moi, tu vois, c'est des textes et de l'émotion Danielle Gilbert, Guy Lux, ah c'qu'ils puent Leurs faces collent à mon cul comme la colle Uhu Avaient-ils prévu que j'allais les descendre Nostradamus lui avait prédit que je Mettrais ces vilains à l'amende Après un bon sommeil, je me réveille Qui j'entends, Madame Soleil J'vais t'toucher la vieille ! Méfie-toi de ceux qui voient le tiercé dans les astres Achève-les, balance-les par le ballast Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ah an, ahan... One Shot Disiz la Peste Quinto Bête de Duo Conquerir la terre x2 La réussite de la connaissance, c'est ce qui abîme tout les crews Co-Coincidence, mon rap grandit quand j'y pense Con-Conquerir la terre Ra-ra-ra-rassembler les légions S'te plait met plus de mayonnaise dans mon sandwich, mec Fais pas l'radin parce que p't'être qu'un jour j's'rais riche, mec J'suis l'inconnu du rap français Je suis le plus chim mais j'm'en bats les couilles Ma chérie quand j'rappe, même ton keum qu'a pas de chatte mouille Foute à barge c'est ma couille, Rimeurs à Gages c'est mon groupe One Shot c'est mon crew, Chéri coco c'est mon coup RER D, 402 P.L.C Evry Si tu veux m'clash, fais pas ton blair, viens ici Si tu kiffes Disiz, tu connais mon maxi C'est de la bête de bombe, t'es en érection sur Taxi Autant pour moi, pour cette intro pleine d'egotrip, fallait qu'j'me lache Avec l'album Ace du 9 et de Nuttea, tu peux te T.H.E., T.H.F Fais pas le chaud, j'suis plein de fraîcheur Bête de clash, Disiz la Peste, j'suis le challenger Ce putain de challenge frérot, c'est une vrai cure de vitamine De réussir, faire que le bien, garder ce que la vie t'ammène Et le plus grand des chen d'essayer de toucher les gens Sans faire la pute par le fait qu'on touche de l'argent C'est ma cause Faf, c'est la mienne aussi Avec minutie, j'm'initie dans l'esprit du MC qui s'initie S'initie un texte passé insignifiant Dans la forme c'est qu'un freestyle, dans le fond c'est plein de sens J'ai qu'un challenge dans ma vie c'est de la reussir Avec plein d'amour, une famille et dieu, je pourrais mourrir You might also like x2 Disiz et Vasquez, deux banlieusards hors normes, à ce qu'on dit Y'a un soucis quand tu Ter-ma le fond La forme du coup, les normes, t'imagines Ce putain de challenge frérot, c'est une vrai cure de vitamine J'attend pas de signal, l'amour du métier m'appelle encore Et le but premier si tu me connais pas c'est la recherche et tenir l'effort Est-ce du neuf mec, c'est pas pour rien, crois-moi Tiens dans ta tête, où que tu sois t'auras des nouvelles dans les six mois Eh la Peste, je suis vraiment fiers d'équipe C'est du tout frais keum, Eh comme ça moi un album Quel trip ! Et quel putain de flip' à l'idée de flair Mais je pas le faire et qu'après c'est la guerre Et ce que je fais, c'est fait exprès clair Eh ouais, y'a des moments comme ça Où pris par surprise, l'enthousiasme déborde sur la hantise Halleluya Exploitons nos matières grises, même fira Je reste lucide pour pas bacler mes divers chantiers Entier quitte à morphler, j'envisage pas de facilité Dans ce qui est depuis un temps, ma principale activité Tu comprend faut pas faire chier un rappeur qui a faim Plus tu l'snobe quand il vient, plus la conquête ira loin Pendant que tu crois que c'est la fin Ce putain de mec en chien se maintient et reviens sur ta gueule Tôt ou tard, c'est pas c'qui l'retiens de faire des dommages Boxer ce bordel à volonté, j'ai éviter les voies scolaires de garage Pas sans flippé, tu croyais pas que j'allais rater l'occaz' De représenter un Ace du 9 et un Rimeur à Gage A la conquête x2 L'indifférence de pourri s'payent Se croire au dessus pareil, bon ! on evitera de jouer au con Parce que justement nous on sait que tout se paye Aujourd'hui, on est là avec un peu de métier dans l'sac Et l'envie de se trouver une bonne place Pour pas bé-ton le jour où ils secouerons le sac Attention, je vais dire des gros mots J'sais que suis grossier, parfois fantasque Disiz, flow fantastique, pas besoin de masse Sale pute, j'rappe pas pour que t'astique ma heute Fais pas le sophistiquer, plutôt caustique mec Plutôt qu'on s'tâte, mec, j'te nique au mic Et puis constate vite, mâte que la Peste est d'attaque Tu vois ce qu'on veut dire On est donc un putain de produit sur lequel on se doit d'investir Faire tout le tour C'est pas vraiment le pire La route me fait prendre la largeur, bien plus rageur Laisse du neuf, remet les pages à l'heure Sur ce track de Ralph , rafale de oufs, c'est le beat qui fait tout Mon flow t'étouffe J'pars à la conquête avec Quinto Malheureux qui m'teste Rimes primaires mais efficace, c'est celles de Disiz la Peste Disiz-ze, evites les rimes bizarres Aiguise, bise, brise, jette ton flow comme le blizzard J'maintiens le bras d'honneur au monopole J'maintiens le soutien sans fin aux tontons de la vieille école Et aux tontons de la nouvelle aussi Du simple travailleur au M.C A nous plaindre de jeunes bleus saint qui luttent pour leurs vies Maintenant j'suis bon des femmes, préfèrent la bande F.M Quand presse co, pijal puis d'M.P, tu vois ma bande est ferme Disiz, c'est ça la guerre Tu veux qu'on s'enterrent Envie d'une carrière, j'cultive le savoir faire, fous la De-mer Il est subversif le vers, tu trouve Pour ta programation de groove Ah, si tu savais c'qu'on couve Et ça n'est pas encore assez, j'trouve</t>
+          <t>Ah an, ahan... One Shot Disiz la Peste Quinto Bête de Duo Conquerir la terre x2 La réussite de la connaissance, c'est ce qui abîme tout les crews Co-Coincidence, mon rap grandit quand j'y pense Con-Conquerir la terre Ra-ra-ra-rassembler les légions S'te plait met plus de mayonnaise dans mon sandwich, mec Fais pas l'radin parce que p't'être qu'un jour j's'rais riche, mec J'suis l'inconnu du rap français Je suis le plus chim mais j'm'en bats les couilles Ma chérie quand j'rappe, même ton keum qu'a pas de chatte mouille Foute à barge c'est ma couille, Rimeurs à Gages c'est mon groupe One Shot c'est mon crew, Chéri coco c'est mon coup RER D, 402 P.L.C Evry Si tu veux m'clash, fais pas ton blair, viens ici Si tu kiffes Disiz, tu connais mon maxi C'est de la bête de bombe, t'es en érection sur Taxi Autant pour moi, pour cette intro pleine d'egotrip, fallait qu'j'me lache Avec l'album Ace du 9 et de Nuttea, tu peux te T.H.E., T.H.F Fais pas le chaud, j'suis plein de fraîcheur Bête de clash, Disiz la Peste, j'suis le challenger Ce putain de challenge frérot, c'est une vrai cure de vitamine De réussir, faire que le bien, garder ce que la vie t'ammène Et le plus grand des chen d'essayer de toucher les gens Sans faire la pute par le fait qu'on touche de l'argent C'est ma cause Faf, c'est la mienne aussi Avec minutie, j'm'initie dans l'esprit du MC qui s'initie S'initie un texte passé insignifiant Dans la forme c'est qu'un freestyle, dans le fond c'est plein de sens J'ai qu'un challenge dans ma vie c'est de la reussir Avec plein d'amour, une famille et dieu, je pourrais mourrir x2 Disiz et Vasquez, deux banlieusards hors normes, à ce qu'on dit Y'a un soucis quand tu Ter-ma le fond La forme du coup, les normes, t'imagines Ce putain de challenge frérot, c'est une vrai cure de vitamine J'attend pas de signal, l'amour du métier m'appelle encore Et le but premier si tu me connais pas c'est la recherche et tenir l'effort Est-ce du neuf mec, c'est pas pour rien, crois-moi Tiens dans ta tête, où que tu sois t'auras des nouvelles dans les six mois Eh la Peste, je suis vraiment fiers d'équipe C'est du tout frais keum, Eh comme ça moi un album Quel trip ! Et quel putain de flip' à l'idée de flair Mais je pas le faire et qu'après c'est la guerre Et ce que je fais, c'est fait exprès clair Eh ouais, y'a des moments comme ça Où pris par surprise, l'enthousiasme déborde sur la hantise Halleluya Exploitons nos matières grises, même fira Je reste lucide pour pas bacler mes divers chantiers Entier quitte à morphler, j'envisage pas de facilité Dans ce qui est depuis un temps, ma principale activité Tu comprend faut pas faire chier un rappeur qui a faim Plus tu l'snobe quand il vient, plus la conquête ira loin Pendant que tu crois que c'est la fin Ce putain de mec en chien se maintient et reviens sur ta gueule Tôt ou tard, c'est pas c'qui l'retiens de faire des dommages Boxer ce bordel à volonté, j'ai éviter les voies scolaires de garage Pas sans flippé, tu croyais pas que j'allais rater l'occaz' De représenter un Ace du 9 et un Rimeur à Gage A la conquête x2 L'indifférence de pourri s'payent Se croire au dessus pareil, bon ! on evitera de jouer au con Parce que justement nous on sait que tout se paye Aujourd'hui, on est là avec un peu de métier dans l'sac Et l'envie de se trouver une bonne place Pour pas bé-ton le jour où ils secouerons le sac Attention, je vais dire des gros mots J'sais que suis grossier, parfois fantasque Disiz, flow fantastique, pas besoin de masse Sale pute, j'rappe pas pour que t'astique ma heute Fais pas le sophistiquer, plutôt caustique mec Plutôt qu'on s'tâte, mec, j'te nique au mic Et puis constate vite, mâte que la Peste est d'attaque Tu vois ce qu'on veut dire On est donc un putain de produit sur lequel on se doit d'investir Faire tout le tour C'est pas vraiment le pire La route me fait prendre la largeur, bien plus rageur Laisse du neuf, remet les pages à l'heure Sur ce track de Ralph , rafale de oufs, c'est le beat qui fait tout Mon flow t'étouffe J'pars à la conquête avec Quinto Malheureux qui m'teste Rimes primaires mais efficace, c'est celles de Disiz la Peste Disiz-ze, evites les rimes bizarres Aiguise, bise, brise, jette ton flow comme le blizzard J'maintiens le bras d'honneur au monopole J'maintiens le soutien sans fin aux tontons de la vieille école Et aux tontons de la nouvelle aussi Du simple travailleur au M.C A nous plaindre de jeunes bleus saint qui luttent pour leurs vies Maintenant j'suis bon des femmes, préfèrent la bande F.M Quand presse co, pijal puis d'M.P, tu vois ma bande est ferme Disiz, c'est ça la guerre Tu veux qu'on s'enterrent Envie d'une carrière, j'cultive le savoir faire, fous la De-mer Il est subversif le vers, tu trouve Pour ta programation de groove Ah, si tu savais c'qu'on couve Et ça n'est pas encore assez, j'trouve</t>
         </is>
       </c>
     </row>
@@ -752,7 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Wesh wesh XXX c'est la dèche rien n'a changé On envahit les lieux avec des rimes qui créent une tuerie Wesh wesh XXX c'est la dèche rien n'a changé Pour ces MC, j'annonce une lyricale pénurie FF de Mars, Faf Larage, K-Rhyme Le Roi T'entends que Djel scratch au best Le mic j'l'arrache sec, c'est Don Choa Approche toi, clash, test, tu seras la poupée pour le crash test Mon groupe et Faf mec, K-Rhyme Le Roi on détourne les convois Ouvre des larges becs, faim de cash, je crache net, le rage que j'envoie Avec ma voix, et ma foi à chaque check Je tâche d'exceller, si je vexe, mes excuses enculé, tu ruses ? On dirait un con de flic zélé Pour les mecs de ton style mon assemblée de fêlés dit juste Niquez-les Mon cur devient sec, ex-gosse aussi féroce que rusé Je bosse avec l'envie d'avoir tout ce que la vie m'a refusé Comprends ou cherche, j'suis qu'un témoin pas muet Faut se remuer le derche, tu sais qu'on est pas les seuls à suer Hé mec, au mic j'suis là, on sait que j'suis là Sur une Ampex c'est ça quoi Je confirme ce que je dis, j'ai conçu ce que je suis, Le Roi Je guide ma conduite, y a pas de fuites sur le site de Mars Tu piges ? Le coach du Hip Hop dans la mêlée Faut s'en méfier, transpirer pour prospérer Dans les studios, mic en main, OK ? Play, fin prêt, t'es prêt ? Tout part de là, sur un rythme, une rime sur une feuille à plat Surtout dit pas n'importe quoi dans l'ensemble On ne sort pas de là où les MCs se ressemblent Flambent, tremblent sur des fringues minables Vas te faire pendre, je comprends pas, j'étais rien B'sahtik Maintenant que j'avance Khamsa fhaynik You might also like J'compte violer l'histoire à condition d'lui faire un enfant J'suis de l'école des enfoirés La vie c'est une fente faut lui fourrer au fond Yeah yeah une fente, un fion, une pute qui mérite qu'on se batte pour elle Plus rien ne me retient quand je représente les miens Au pluriel, et pour rien J'pourrais oublier ces endroits pourris, je l'affirme Maintenant la ferme mec, au nom de ma firme que les Faux aillent s'faire mettre On est tous comme l'infirme dans Usual Infâmes et fiers mec, ferme, je confirme des frères m'aiment Et si le truc est confus c'est ce qu'on préfère man Normal avec ce qu'on fume On sait ce qu'on peut faire et le mène jusqu'au bout Pour jamais regretter ce qu'on fût, à qui on se confie ? Ceux qui écoutent Ce qu'on fait, les mêmes qui nous suivent malgré ce qu'on fit Rien de neuf hormis narrer ce qu'on vit chez nous, mettre à l'écrit Ce qu'on voit, ce qu'on décrit C'est juste le monde tel qu'il est chez vous Conçois la haine des miens dans mes chants, la même dans mes chants Tu plonges ? J'suis de mèche Ce même besoin de vaincre se lit dans les yeux des méchants On fait notre truc même si c'est à l'arraché, ici c'est la FF, Le Roi et Larage Là Rat, j'le dis, laisses Sat, crois pas qu'on arrache L'ami, on n'est pas de ceux qui mentent, il nous faut ce qui monte Ceux qui nous en veulent, nique eux, chez nous la haine c'est pas ce qui manque C'est tout ce qu'on sait faire, parler sur du son et dire tout ce qu'on sait Frère, et quand nos gars sont fous c'est ce qu'on préfère C'est tout ce qu'on sait faire Parler sur du son et dire tout ce qu'on sait Frère, et quand nos gars sont fous c'est ce qu'on préfère À l'arrache, Larage, crois pas que le Duc stagne, invite des potos, style On s'en carre FF, Le Roi tu parles, il t'faut au moins ça, la race sur track C'est normal tu raques On parle gars fils, mais c'est dû à l'arraché Les pauv' taches, nous font chier Les gores du mic sont larges et fichés Ici c'est pas le Grand Wizard, le Grand Masta, le Gangsta, nan Juste Faf Larage Mista Mise la ganache fils, ta bourse, ta main au feu, que même en vrac on fait des heureux En guise de, heu de garanties, d'panache, d'exemple, si j'te dis que ce titre Fait au feeling file, j'me vante ? Nan Conforme aux Normes Marseillaises ouais mec Menzo l'est Tu me suis, ce qu'ils font mérite le respect, désolé Si tu croyais que j'allais rester sans rien dire ou me faire muscler Je lutte même si je me sens mal comme mes frères aux isolées Toute la langue avant que je t'la coupe M'la coule dur, va fencule si tu crois Le contraire, je veux que tu coules J'te jure dans ma bouche gras d'injures pour les putes et les p'tits cons Beaucoup d'amour pour mes amis, et y a pas de type comme Tony La vie amère comme la pomme, aussi triste qu'une journée d'automne Ça t'étonne un rap à l'arraché Accompagné d'un Nomade et de Faf Larage, dans ce monde de chienne Vaut mieux finir vieux et sage Mars, v'là l'addition</t>
+          <t>Wesh wesh XXX c'est la dèche rien n'a changé On envahit les lieux avec des rimes qui créent une tuerie Wesh wesh XXX c'est la dèche rien n'a changé Pour ces MC, j'annonce une lyricale pénurie FF de Mars, Faf Larage, K-Rhyme Le Roi T'entends que Djel scratch au best Le mic j'l'arrache sec, c'est Don Choa Approche toi, clash, test, tu seras la poupée pour le crash test Mon groupe et Faf mec, K-Rhyme Le Roi on détourne les convois Ouvre des larges becs, faim de cash, je crache net, le rage que j'envoie Avec ma voix, et ma foi à chaque check Je tâche d'exceller, si je vexe, mes excuses enculé, tu ruses ? On dirait un con de flic zélé Pour les mecs de ton style mon assemblée de fêlés dit juste Niquez-les Mon cur devient sec, ex-gosse aussi féroce que rusé Je bosse avec l'envie d'avoir tout ce que la vie m'a refusé Comprends ou cherche, j'suis qu'un témoin pas muet Faut se remuer le derche, tu sais qu'on est pas les seuls à suer Hé mec, au mic j'suis là, on sait que j'suis là Sur une Ampex c'est ça quoi Je confirme ce que je dis, j'ai conçu ce que je suis, Le Roi Je guide ma conduite, y a pas de fuites sur le site de Mars Tu piges ? Le coach du Hip Hop dans la mêlée Faut s'en méfier, transpirer pour prospérer Dans les studios, mic en main, OK ? Play, fin prêt, t'es prêt ? Tout part de là, sur un rythme, une rime sur une feuille à plat Surtout dit pas n'importe quoi dans l'ensemble On ne sort pas de là où les MCs se ressemblent Flambent, tremblent sur des fringues minables Vas te faire pendre, je comprends pas, j'étais rien B'sahtik Maintenant que j'avance Khamsa fhaynik J'compte violer l'histoire à condition d'lui faire un enfant J'suis de l'école des enfoirés La vie c'est une fente faut lui fourrer au fond Yeah yeah une fente, un fion, une pute qui mérite qu'on se batte pour elle Plus rien ne me retient quand je représente les miens Au pluriel, et pour rien J'pourrais oublier ces endroits pourris, je l'affirme Maintenant la ferme mec, au nom de ma firme que les Faux aillent s'faire mettre On est tous comme l'infirme dans Usual Infâmes et fiers mec, ferme, je confirme des frères m'aiment Et si le truc est confus c'est ce qu'on préfère man Normal avec ce qu'on fume On sait ce qu'on peut faire et le mène jusqu'au bout Pour jamais regretter ce qu'on fût, à qui on se confie ? Ceux qui écoutent Ce qu'on fait, les mêmes qui nous suivent malgré ce qu'on fit Rien de neuf hormis narrer ce qu'on vit chez nous, mettre à l'écrit Ce qu'on voit, ce qu'on décrit C'est juste le monde tel qu'il est chez vous Conçois la haine des miens dans mes chants, la même dans mes chants Tu plonges ? J'suis de mèche Ce même besoin de vaincre se lit dans les yeux des méchants On fait notre truc même si c'est à l'arraché, ici c'est la FF, Le Roi et Larage Là Rat, j'le dis, laisses Sat, crois pas qu'on arrache L'ami, on n'est pas de ceux qui mentent, il nous faut ce qui monte Ceux qui nous en veulent, nique eux, chez nous la haine c'est pas ce qui manque C'est tout ce qu'on sait faire, parler sur du son et dire tout ce qu'on sait Frère, et quand nos gars sont fous c'est ce qu'on préfère C'est tout ce qu'on sait faire Parler sur du son et dire tout ce qu'on sait Frère, et quand nos gars sont fous c'est ce qu'on préfère À l'arrache, Larage, crois pas que le Duc stagne, invite des potos, style On s'en carre FF, Le Roi tu parles, il t'faut au moins ça, la race sur track C'est normal tu raques On parle gars fils, mais c'est dû à l'arraché Les pauv' taches, nous font chier Les gores du mic sont larges et fichés Ici c'est pas le Grand Wizard, le Grand Masta, le Gangsta, nan Juste Faf Larage Mista Mise la ganache fils, ta bourse, ta main au feu, que même en vrac on fait des heureux En guise de, heu de garanties, d'panache, d'exemple, si j'te dis que ce titre Fait au feeling file, j'me vante ? Nan Conforme aux Normes Marseillaises ouais mec Menzo l'est Tu me suis, ce qu'ils font mérite le respect, désolé Si tu croyais que j'allais rester sans rien dire ou me faire muscler Je lutte même si je me sens mal comme mes frères aux isolées Toute la langue avant que je t'la coupe M'la coule dur, va fencule si tu crois Le contraire, je veux que tu coules J'te jure dans ma bouche gras d'injures pour les putes et les p'tits cons Beaucoup d'amour pour mes amis, et y a pas de type comme Tony La vie amère comme la pomme, aussi triste qu'une journée d'automne Ça t'étonne un rap à l'arraché Accompagné d'un Nomade et de Faf Larage, dans ce monde de chienne Vaut mieux finir vieux et sage Mars, v'là l'addition</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>La confrontation finale s'étale de long en large Le Duc Larage le Roi de l'orage très haut dans la hiérarchie des mages Multiplie sorts et illusions contre la haine raciale relent du chaos Ici on brûle des marauds torture le mal et ses dévots La victoire prévaut je veux leur plainte comme écho De mes mélopées antiques active mes mains frénétiques Défie leurs cantiques leurs sorciers ne risquent pas de réplique Perplexes perdus dans le vide soumis Aux pouvoirs de l'épée runique aux atouts fantastiques en pratique Embroche les punis, soldats cette fois encore on les humilie Pour la gloire de tout ce qui les terrifie Solidifie mon emprise définitive Stériles sont leurs dispositifs expéditive Stormbringa ! Issue des fournaises de l'Apocalypse Chantant les éclipses des têtes volent jusque dans les récifs Mars revient, massif est l'assaut Frapper dans le vif est son objectif pour les hauts nobles On est hors-la-loi, hors de leurs lois, de leurs sous-bois Un tourbillon de force qui s'axe surgit de nulle part Les conquérants ne sont plus une fois de plus Le carnage a eu lieu on l'a vu c'est le sort des vaincus Inscrit donc dans les coins sombres de ces pages de l'histoire Ces noms, ces hauts faits, ces victoires À moi la Garde ! Forge l'esprit au combat À moi la Garde ! Porte la hargne à bout de bras À moi la Garde ! Sabre au clair, défend nos terres Déjoue les pièges des hautes sphères You might also like Arrive l'heure des sombres, soudaine brutale, manteaux de métal En éclaireur, sereine mais létale la troupe s'étale Sur l'horizon dans les yeux pas de crainte un raz-de-marée Un flot de rage que seuls les sages évitent d'affronter Un seul sang une seule route la guerre une seule voie le fer Un seul but l'enfer que les faibles se terrent Sous la chair la bête gronde assiège l'esprit je lutte Moment de répit avant la furie blason brandit, je bondis Esquive, contre, ballet sanglant sous une pluie de rubis Où chaque pas sème la mort plongeant les dames dans l'oubli Les braves dans la nuit déchiquetés tentent de fuir leurs courses finies Dans les griffes de mon destrier, leurs ames n'ont pas le temps de crier De côtes de mailles en côtes de mailles je taille couillu comme fuyard Le sourire et la bave aux lèvres à faire frémir comme Bayard Une ombre courant d'air tueur partout et nulle part Le temps s'estompe Serval au sommet de son art Bardes pincez les cordes que les vents chantent à nouveau Le rouge récit de Shu le terrible étripant niais et marauds À l'assaut des donjons où dorment les pensées libres et Les gardes suintant de haine par tous les pores de leurs peaux Si tel est leur souhait qu'il soit exaucé sur le champ leur sort réglé Sur ce champ où l'herbe rougit en n'importe quelle saison j'aurais Raison de leur folie par le verbe ou les nerfs l'esprit ou la chair La Garde et ses guerriers de pierre La Garde pour seul cri de guerre À moi la Garde ! Forge l'esprit au combat À moi la Garde ! Porte la hargne à bout de bras À moi la Garde ! Sabre au clair, défend nos terres Déjoue les pièges des hautes sphères</t>
+          <t>La confrontation finale s'étale de long en large Le Duc Larage le Roi de l'orage très haut dans la hiérarchie des mages Multiplie sorts et illusions contre la haine raciale relent du chaos Ici on brûle des marauds torture le mal et ses dévots La victoire prévaut je veux leur plainte comme écho De mes mélopées antiques active mes mains frénétiques Défie leurs cantiques leurs sorciers ne risquent pas de réplique Perplexes perdus dans le vide soumis Aux pouvoirs de l'épée runique aux atouts fantastiques en pratique Embroche les punis, soldats cette fois encore on les humilie Pour la gloire de tout ce qui les terrifie Solidifie mon emprise définitive Stériles sont leurs dispositifs expéditive Stormbringa ! Issue des fournaises de l'Apocalypse Chantant les éclipses des têtes volent jusque dans les récifs Mars revient, massif est l'assaut Frapper dans le vif est son objectif pour les hauts nobles On est hors-la-loi, hors de leurs lois, de leurs sous-bois Un tourbillon de force qui s'axe surgit de nulle part Les conquérants ne sont plus une fois de plus Le carnage a eu lieu on l'a vu c'est le sort des vaincus Inscrit donc dans les coins sombres de ces pages de l'histoire Ces noms, ces hauts faits, ces victoires À moi la Garde ! Forge l'esprit au combat À moi la Garde ! Porte la hargne à bout de bras À moi la Garde ! Sabre au clair, défend nos terres Déjoue les pièges des hautes sphères Arrive l'heure des sombres, soudaine brutale, manteaux de métal En éclaireur, sereine mais létale la troupe s'étale Sur l'horizon dans les yeux pas de crainte un raz-de-marée Un flot de rage que seuls les sages évitent d'affronter Un seul sang une seule route la guerre une seule voie le fer Un seul but l'enfer que les faibles se terrent Sous la chair la bête gronde assiège l'esprit je lutte Moment de répit avant la furie blason brandit, je bondis Esquive, contre, ballet sanglant sous une pluie de rubis Où chaque pas sème la mort plongeant les dames dans l'oubli Les braves dans la nuit déchiquetés tentent de fuir leurs courses finies Dans les griffes de mon destrier, leurs ames n'ont pas le temps de crier De côtes de mailles en côtes de mailles je taille couillu comme fuyard Le sourire et la bave aux lèvres à faire frémir comme Bayard Une ombre courant d'air tueur partout et nulle part Le temps s'estompe Serval au sommet de son art Bardes pincez les cordes que les vents chantent à nouveau Le rouge récit de Shu le terrible étripant niais et marauds À l'assaut des donjons où dorment les pensées libres et Les gardes suintant de haine par tous les pores de leurs peaux Si tel est leur souhait qu'il soit exaucé sur le champ leur sort réglé Sur ce champ où l'herbe rougit en n'importe quelle saison j'aurais Raison de leur folie par le verbe ou les nerfs l'esprit ou la chair La Garde et ses guerriers de pierre La Garde pour seul cri de guerre À moi la Garde ! Forge l'esprit au combat À moi la Garde ! Porte la hargne à bout de bras À moi la Garde ! Sabre au clair, défend nos terres Déjoue les pièges des hautes sphères</t>
         </is>
       </c>
     </row>
@@ -786,7 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles Dehors c'est toujours les mêmes qui saignent I'm not into hip I'm not into hop Don't step into either shoes Love has no need for rules Heaven and hell is around you et tu l'sais If God is inside you I don't give a hip-hop, don't give a hop Let's rock to the drop Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles Dehors c'est toujours les mêmes qui saignent Et puis merde, si on doit s'débrouiller seul J'ai vu les critiques, les mêmes depuis trente ans par nos gouvernements Y a pas, on s'comprend pas, et puis j'balance papa Et on les voit pas mais ils veulent décider pour nous Et puis nous, on préfère s'envier ou se détester On adore les histoires de quartier Ça part dans tous les sens Rien qu'on s'bat mais on s'trompe de sens Car nous on passe pas pour des gens qui pensent You might also like I don't give a hip-hop don't give a hop I just wanna rock On veut juste faire du son, mec c'est ça I don't give a hip-hop don't give a hop Let's rock to a drop Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles En plus c'est toujours les mêmes qui saignent Ici la terre des pauvres, ouais, viens voir les bénévoles Fantasme pas sur les revolvers et le manque de bol C'est rap'n'roll, ah oui on est quoi, des chanteurs de hall Et on n'est pas c'qu'ils croient, mec On croise le fer avec Belzébuth Va pas croire que Dieu veut nous mettre à la rue pour inspirer Qu'est-ce que tu dis, on veut pas qu'ça pète Juste des logements, des habits, de la bouffe et que justice soit faite about religion I booked a hole to sleep all time J'aime les oui I don't give a hip-hop don't give a hop I just wanna rock I don't give a hip-hop don't give a hop Let's rock to hip-hop Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles Dehors c'est toujours les mêmes qui saignent Et tu l'sais Faf, Arno, Dis l'heure de hip-hop rock'n'roll 2-0-0-6 Peacerock</t>
+          <t>Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles Dehors c'est toujours les mêmes qui saignent I'm not into hip I'm not into hop Don't step into either shoes Love has no need for rules Heaven and hell is around you et tu l'sais If God is inside you I don't give a hip-hop, don't give a hop Let's rock to the drop Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles Dehors c'est toujours les mêmes qui saignent Et puis merde, si on doit s'débrouiller seul J'ai vu les critiques, les mêmes depuis trente ans par nos gouvernements Y a pas, on s'comprend pas, et puis j'balance papa Et on les voit pas mais ils veulent décider pour nous Et puis nous, on préfère s'envier ou se détester On adore les histoires de quartier Ça part dans tous les sens Rien qu'on s'bat mais on s'trompe de sens Car nous on passe pas pour des gens qui pensent I don't give a hip-hop don't give a hop I just wanna rock On veut juste faire du son, mec c'est ça I don't give a hip-hop don't give a hop Let's rock to a drop Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles En plus c'est toujours les mêmes qui saignent Ici la terre des pauvres, ouais, viens voir les bénévoles Fantasme pas sur les revolvers et le manque de bol C'est rap'n'roll, ah oui on est quoi, des chanteurs de hall Et on n'est pas c'qu'ils croient, mec On croise le fer avec Belzébuth Va pas croire que Dieu veut nous mettre à la rue pour inspirer Qu'est-ce que tu dis, on veut pas qu'ça pète Juste des logements, des habits, de la bouffe et que justice soit faite about religion I booked a hole to sleep all time J'aime les oui I don't give a hip-hop don't give a hop I just wanna rock I don't give a hip-hop don't give a hop Let's rock to hip-hop Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles Dehors c'est toujours les mêmes qui saignent Et tu l'sais Faf, Arno, Dis l'heure de hip-hop rock'n'roll 2-0-0-6 Peacerock</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Soit les temps changent, soit on dérange, soit les jeunes mangent Du chien enragé, mais les sales vannes ne sont plus rangées Tu crois qu'y a danger ? Pas un brin, c'est ça qu'ils pigent pas La musique ils l'écoutent pas, tes disques ils les achètent pas Je suis celui que tu suis depuis tant d'années, tu suis Le parcours de celui qui rappe pour les projects les plus appauvris Démunis, mais riches en mélodies qui d'entre vous va se lever ? Qui ? Contre ceux qui résistent, qui veut détourner nos voix ? Qui ? S'marre pour rien, qui représente que dalle ? Qui de ceux-là veulent ma place ? Bidon j'ai trop la dalle Je fous mes rimes sur la table, mes rimes pour l'asphalte Je trime pour la caille, y en a qui flippe quand je taille Vas-y lascar arrête de disjoncter, d'être bloqué, en soirée En concert viens donc jumper Sur des gaillards que tu veux croquer Mais c'est le Hip-Hop que tu vas tuer C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop You might also like J'ai connu trop de bons publics, des soirs d'folies Pour quand je prends une bouteille sur moi rester poli Tu payes ta place pour me faire un doigt, me cracher dessus Je finis, j'te trouve un All Access et je te casse le cul Je parle même plus de respect, à quoi ça sert ? Je cherche même plus à comprendre j'ai pas que ça à faire Mais il y a les autres, ouais, les autres c'est pour eux qu'on est là C'est avec eux qu'on est là, c'est grâce à eux qu'on fait ça Et tant qu'ils seront là, dans les concerts, la main en l'air Je risque pas de me poser la question de savoir de quoi j'ai l'air Def Bond, Squat, ton R en 16 lignes sur une page Respire la tec' de Faf, persiste avec Rage Tactique non réfléchie et diabolique Régler ses comptes pendant une teuf, toi et ta clique Condamner, tes faits je ne peux que les condamner Un coup est parti et toute une famille est brisée Y'a plus de meufs, en soirées y'a plus de seufs y'a que des keufs En 9.9, espérons qu'on sera tous, tous des reufs Y'a rien à faire fils tu piges pas, tu kiffes pas Tu rimes pas, mais quand on se mouille pas tu t'foules pas Ne l'ouvres pas, on reste là que tu te files ou pas, on rit pas T'as le R et Squat, Def et Larage, on change pas En soirée y'a des règlements de compte, des merdes à tout va Des larmes et des flingues, mais pourquoi tu raques pour ça ? C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Quel wack MC veut test notre énergie ? Tu ne comprends pas pourquoi on existe tel qu'on est dans l'industrie Baby baby, choisi la ture-voi dans laquelle tu vas rider cette nuit Certains coupent la gorge des brebis, d'autres les couvres de jou-bis Rude Boy love gal with money On s'auto-produit on gère nos royalties On dit ce qu'on veut dans nos sques-di comme Master P On dit qu'on ne meurt pas car nos esprits dansent pour l'unity Comme au Brésil, en Jamaïque, aux Antilles, en Colombie Paris doit se veiller-er, la province doit suivre aussi Je vais ramener une part de gâteau à tous mes chiens d'en bas Waouf Waouf, t'approches pas, Waouf Waouf on ne joue pas La rage tu l'as, ne me fais pas croire que la 'sique te fait pas Plus d'effet que ça, dans ton walkman tu te bats pas Et avec qui d'abord ?, c'est la merde Mais y'a d'autres moyens de conjurer le sort Laisse faire quand le son t'emporte C'est l'opium du peuple, on a que ça, le combat Tu vois il se trouve dans nos têtes Et quand ça frappe ça fait bien plus mal Je rappe pour l'amour des mots, pour les gars, les gos Pour tous les escrocs, pour tous ceux qui vivent dans des ghettos Le H.I.P. a perdu de sa valeur, mais qui va l'chopper ? C'est tous ces rimeurs à l'heure, l'espoir fait vivre Et celui qui peut lire ce texte ivre peut vivre C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop</t>
+          <t>Soit les temps changent, soit on dérange, soit les jeunes mangent Du chien enragé, mais les sales vannes ne sont plus rangées Tu crois qu'y a danger ? Pas un brin, c'est ça qu'ils pigent pas La musique ils l'écoutent pas, tes disques ils les achètent pas Je suis celui que tu suis depuis tant d'années, tu suis Le parcours de celui qui rappe pour les projects les plus appauvris Démunis, mais riches en mélodies qui d'entre vous va se lever ? Qui ? Contre ceux qui résistent, qui veut détourner nos voix ? Qui ? S'marre pour rien, qui représente que dalle ? Qui de ceux-là veulent ma place ? Bidon j'ai trop la dalle Je fous mes rimes sur la table, mes rimes pour l'asphalte Je trime pour la caille, y en a qui flippe quand je taille Vas-y lascar arrête de disjoncter, d'être bloqué, en soirée En concert viens donc jumper Sur des gaillards que tu veux croquer Mais c'est le Hip-Hop que tu vas tuer C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop J'ai connu trop de bons publics, des soirs d'folies Pour quand je prends une bouteille sur moi rester poli Tu payes ta place pour me faire un doigt, me cracher dessus Je finis, j'te trouve un All Access et je te casse le cul Je parle même plus de respect, à quoi ça sert ? Je cherche même plus à comprendre j'ai pas que ça à faire Mais il y a les autres, ouais, les autres c'est pour eux qu'on est là C'est avec eux qu'on est là, c'est grâce à eux qu'on fait ça Et tant qu'ils seront là, dans les concerts, la main en l'air Je risque pas de me poser la question de savoir de quoi j'ai l'air Def Bond, Squat, ton R en 16 lignes sur une page Respire la tec' de Faf, persiste avec Rage Tactique non réfléchie et diabolique Régler ses comptes pendant une teuf, toi et ta clique Condamner, tes faits je ne peux que les condamner Un coup est parti et toute une famille est brisée Y'a plus de meufs, en soirées y'a plus de seufs y'a que des keufs En 9.9, espérons qu'on sera tous, tous des reufs Y'a rien à faire fils tu piges pas, tu kiffes pas Tu rimes pas, mais quand on se mouille pas tu t'foules pas Ne l'ouvres pas, on reste là que tu te files ou pas, on rit pas T'as le R et Squat, Def et Larage, on change pas En soirée y'a des règlements de compte, des merdes à tout va Des larmes et des flingues, mais pourquoi tu raques pour ça ? C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Quel wack MC veut test notre énergie ? Tu ne comprends pas pourquoi on existe tel qu'on est dans l'industrie Baby baby, choisi la ture-voi dans laquelle tu vas rider cette nuit Certains coupent la gorge des brebis, d'autres les couvres de jou-bis Rude Boy love gal with money On s'auto-produit on gère nos royalties On dit ce qu'on veut dans nos sques-di comme Master P On dit qu'on ne meurt pas car nos esprits dansent pour l'unity Comme au Brésil, en Jamaïque, aux Antilles, en Colombie Paris doit se veiller-er, la province doit suivre aussi Je vais ramener une part de gâteau à tous mes chiens d'en bas Waouf Waouf, t'approches pas, Waouf Waouf on ne joue pas La rage tu l'as, ne me fais pas croire que la 'sique te fait pas Plus d'effet que ça, dans ton walkman tu te bats pas Et avec qui d'abord ?, c'est la merde Mais y'a d'autres moyens de conjurer le sort Laisse faire quand le son t'emporte C'est l'opium du peuple, on a que ça, le combat Tu vois il se trouve dans nos têtes Et quand ça frappe ça fait bien plus mal Je rappe pour l'amour des mots, pour les gars, les gos Pour tous les escrocs, pour tous ceux qui vivent dans des ghettos Le H.I.P. a perdu de sa valeur, mais qui va l'chopper ? C'est tous ces rimeurs à l'heure, l'espoir fait vivre Et celui qui peut lire ce texte ivre peut vivre C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Soit les temps changent, soit on dérange, soit les jeunes mangent Du chien enragé, mais les sales vannes ne sont plus rangées Tu crois qu'y a danger ? Pas un brin, c'est ça qu'ils pigent pas La musique ils l'écoutent pas, tes disques ils les achètent pas Je suis celui que tu suis depuis tant d'années, tu suis Le parcours de celui qui rappe pour les projects les plus appauvris Démunis, mais riches en mélodies qui d'entre vous va se lever ? Qui ? Contre ceux qui résistent, qui veut détourner nos voix ? Qui ? S'marre pour rien, qui représente que dalle ? Qui de ceux-là veulent ma place ? Bidon j'ai trop la dalle Je fous mes rimes sur la table, mes rimes pour l'asphalte Je trime pour la caille, y'en a qui flippe quand je taille Vas-y lascar arrête de disjoncter, d'être bloqué, en soirée En concert viens donc jumper Sur des gaillards que tu veux croquer Mais c'est le Hip Hop que tu vas tuer C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop You might also like J'ai connu trop de bons publics, des soirs d'folies Pour quand je prends une bouteille sur moi rester poli Tu payes ta place pour me faire un doigt, me cracher dessus Je finis, j'te trouve un All Access et je te casse le cul Je parle même plus de respect, à quoi ça sert ? Je cherche même plus à comprendre j'ai pas que ça à faire Mais il y a les autres, ouais, les autres c'est pour eux qu'on est là C'est avec eux qu'on est là, c'est grâce à eux qu'on fait ça Et tant qu'ils seront là, dans les concerts, la main en l'air Je risque pas de me poser la question de savoir de quoi j'ai l'air Def Bond Squat ton air en 16 lignes sur une page Respire la tek de Faf, persiste avec Rage Tactique non réfléchie et diabolique Régler ses comptes pendant une teuf, toi et ta clique Condamner, tes faits je ne peux que les condamner Un coup est parti et toute une famille est brisée Y'a plus de meufs, en soirées y'a plus de seufs y'a que des keufs En 99 espérons qu'on sera tous, tous des reufs Y a rein à faire fils tu piges pas, tu kiffes pas Tu rimes pas, mais quand on se mouille pas tu t'foules pas Ne l'ouvres pas, on reste là que tu te files ou pas, on rit pas T'as le R et Squat, Def et Larage, on change pas En soirée y a des règlements de compte, des merdes à tout va Des larmes et des flingues, mais pourquoi tu raques pour ça ? C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Quel wack MC veut test notre énergie ? Tu ne comprends pas pourquoi on existe tel qu'on est dans l'industrie Baby, baby choisis la ture-voi dans laquelle tu vas rider cette nuit Certains coupent la gorge des brebis, d'autres les couvrent de jou-bi Rude Boy love gal with money On s'autoproduit on gère nos royalties On dit ce qu'on veut dans nos sque-di comme Master P On dit qu'on ne meurt pas car nos esprits dansent pour l'unity Comme au Brésil, en Jamaïque, aux Antilles, en Colombie Paris doit se veille-ré, la province doit suivre aussi Je vais ramener une part de gâteau à tous mes chiens d'en bas Waouf Waouf, t'approche pas, Waouf Waouf on ne joue pas La rage tu l'as, ne me fais pas croire que la zik' te fait pas Plus d'effet que ça, dans mon walkman tu te bats pas Et avec qui d'abord ?, c'est la merde Mais y'a d'autres moyens de conjurer le sort Laisse faire quand le son t'emporte C'est l'opium du peuple, on a que ça, le combat Tu vois il se trouve dans nos fêtes Et quand ça frappe ça fait bien plus mal Je rappe pour l'amour des mots, pour les gars, les go Pour tous les escrocs, pour tous ceux qui vivent dans des ghettos Le H.I.P. a perdu de sa valeur, mais qui va l'choper ? C'est tous ces rimeurs à l'heure, l'espoir fait vivre Et celui qui peut lire ce texte ivre peut vivre C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop</t>
+          <t>Soit les temps changent, soit on dérange, soit les jeunes mangent Du chien enragé, mais les sales vannes ne sont plus rangées Tu crois qu'y a danger ? Pas un brin, c'est ça qu'ils pigent pas La musique ils l'écoutent pas, tes disques ils les achètent pas Je suis celui que tu suis depuis tant d'années, tu suis Le parcours de celui qui rappe pour les projects les plus appauvris Démunis, mais riches en mélodies qui d'entre vous va se lever ? Qui ? Contre ceux qui résistent, qui veut détourner nos voix ? Qui ? S'marre pour rien, qui représente que dalle ? Qui de ceux-là veulent ma place ? Bidon j'ai trop la dalle Je fous mes rimes sur la table, mes rimes pour l'asphalte Je trime pour la caille, y'en a qui flippe quand je taille Vas-y lascar arrête de disjoncter, d'être bloqué, en soirée En concert viens donc jumper Sur des gaillards que tu veux croquer Mais c'est le Hip Hop que tu vas tuer C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop J'ai connu trop de bons publics, des soirs d'folies Pour quand je prends une bouteille sur moi rester poli Tu payes ta place pour me faire un doigt, me cracher dessus Je finis, j'te trouve un All Access et je te casse le cul Je parle même plus de respect, à quoi ça sert ? Je cherche même plus à comprendre j'ai pas que ça à faire Mais il y a les autres, ouais, les autres c'est pour eux qu'on est là C'est avec eux qu'on est là, c'est grâce à eux qu'on fait ça Et tant qu'ils seront là, dans les concerts, la main en l'air Je risque pas de me poser la question de savoir de quoi j'ai l'air Def Bond Squat ton air en 16 lignes sur une page Respire la tek de Faf, persiste avec Rage Tactique non réfléchie et diabolique Régler ses comptes pendant une teuf, toi et ta clique Condamner, tes faits je ne peux que les condamner Un coup est parti et toute une famille est brisée Y'a plus de meufs, en soirées y'a plus de seufs y'a que des keufs En 99 espérons qu'on sera tous, tous des reufs Y a rein à faire fils tu piges pas, tu kiffes pas Tu rimes pas, mais quand on se mouille pas tu t'foules pas Ne l'ouvres pas, on reste là que tu te files ou pas, on rit pas T'as le R et Squat, Def et Larage, on change pas En soirée y a des règlements de compte, des merdes à tout va Des larmes et des flingues, mais pourquoi tu raques pour ça ? C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Quel wack MC veut test notre énergie ? Tu ne comprends pas pourquoi on existe tel qu'on est dans l'industrie Baby, baby choisis la ture-voi dans laquelle tu vas rider cette nuit Certains coupent la gorge des brebis, d'autres les couvrent de jou-bi Rude Boy love gal with money On s'autoproduit on gère nos royalties On dit ce qu'on veut dans nos sque-di comme Master P On dit qu'on ne meurt pas car nos esprits dansent pour l'unity Comme au Brésil, en Jamaïque, aux Antilles, en Colombie Paris doit se veille-ré, la province doit suivre aussi Je vais ramener une part de gâteau à tous mes chiens d'en bas Waouf Waouf, t'approche pas, Waouf Waouf on ne joue pas La rage tu l'as, ne me fais pas croire que la zik' te fait pas Plus d'effet que ça, dans mon walkman tu te bats pas Et avec qui d'abord ?, c'est la merde Mais y'a d'autres moyens de conjurer le sort Laisse faire quand le son t'emporte C'est l'opium du peuple, on a que ça, le combat Tu vois il se trouve dans nos fêtes Et quand ça frappe ça fait bien plus mal Je rappe pour l'amour des mots, pour les gars, les go Pour tous les escrocs, pour tous ceux qui vivent dans des ghettos Le H.I.P. a perdu de sa valeur, mais qui va l'choper ? C'est tous ces rimeurs à l'heure, l'espoir fait vivre Et celui qui peut lire ce texte ivre peut vivre C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Y'a pas de loi quand on a pas le choix Ma foi, le destin n'a pas droit et on y croit On l'a écrit tant de fois sur le mur de leur fautes Les jeux sont faits, on va garder la tête haute Chaque heure, chaque fois qu'on est en peine mec on garde la tête haute Si on fait face à la peur, la foi, c'est une lutte et on en sort avec la tête haute Il reste gravé chaque pleur, chaque larme qu'on laisse couler Elle sèchera la tête haute Tête haute, tête haute, tête haute, tête haute La tête haute même dans le trou, pas évident mais bon Soit on coule, soit on reste dans la course en accrochant l'wagon Pour ceux qui ont la vie dure, que les embuches n'ont pas épargnés Les nerfs à fleur de peau, les dents serrées La justice fait défaut qu'on a pas assez d'blé A côté, on voit les puissants s'en tirer Les espoirs sélèvent et sont anesthésiés Les listes électorales font pas rêver, tu le sais Envie de contrôler sa ville mais ici c'est la guerre Les gens qui aident le disent, aussi écoute bien les cris, les ras-l'bol Trop d'pauvres ont pas d'bol, trop d'mômes en tôle De jeunes filles qui racolent Big-up aux bénévoles, l'avant-tout dégringole La-haut, les forces de l'ordre n'ont que les coups pour parole Le rap en bélier, tête haute, pour défoncer les portes On nous a pas donné les clés, comment tu veux qu'on s'comporte ? You might also like Gilles me pousse contre le mur Quoi ? Avec un XXX Mec, pour que j'oublie mes principes et retourne ma veste Rien à faire, j'préfère crever contre les barrières J'suis un type à l'ancienne, chez nous pas d'machine arrière On fonce tête haute, y'a pas l'choix si on se sent transparent La fierté c'est tout c'qu'on a, ouais J'suis lesclave au dos scarifié par le fouet des maîtres Un peu parano dû au résidu d'l'effet des XXX J'ai fais des fêtes, j'ai connu les défaites mais j'ai jamais touché l'but en rampant ou en baissant ma tête Ni en tripant sur les promesses d'un reality-show Pendu à l'écran, prêt à devenir un reality-sot J'te l'répète, tête haute chaque heure que Dieu fait T'as capté le concept ou j'te le refais ? Je viens d'ces endroits où on croit plus dans les brevets Parc'que devant le talent, le pays ferme les yeux et nous laisse crever Chaque heure, chaque fois qu'on est en peine mec on garde la tête haute Si on fait face à la peur, la foi, c'est une lutte et on en sort avec la tête haute Il reste gravé chaque pleur, chaque larme qu'on laisse couler Elle sèchera la tête haute Tête haute, tête haute, tête haute, tête haute Comment s'épanouir ? Demande à petit frère Trop vite largués dans la rue, les jeux sont plus amers La fin justifie et cette maman pense qu'elle s'humilie à la soupe populaire mais c'est elle la plus digne La douleur hurle, fait faire des conneries Et quand ta vie s'écroule c'est la honte qui te brise Certains cherchent des cibles et d'autres se replient Ça bosse pour le minimum, un toit et du riz Putain où est le fric ? Au chaud dans les Caïmans Des contrats pourris ont usés la santé de nos parents Et chez les VIP, y'a trop d'affaires classées De trafics masqués mais on laisse tout passer La tête dans le guidon, faut avancer, besoin d'se voir au sommet avant d'finir lobotomisé A la croisée des chemins, on s'regarde même plus, divisés Et il nous reste que la télé pour pleurer Ma carrière ? Rien à foutre J'aime faire c'que je fais, mais faire pour briller, on s'grille à force de plier Pour ça, j'garde ma tête haute en toute occasion Surtout quand notre présence est vécue comme une invasion Le mérite c'est beau sur le papier, au fond c'est qu'une arnaque Monter en grade dans les blocs ou sous les arcades, c'est tout c'qui nous est promis Paralysés en phase-test, ces putain d'chaînes on va les briser une à une, yes On marche tête haute, c'est ça le challenge Poings serrés, rangs serrés, tous en phalanges On renie pas nos valeurs Constants devant la joie, devant le malheur Même si nos villes sentent monter la chaleur On verse pas de larmiche, pourtant maintenant qu'on est en indé' Ouais c'est nous contre le monde comme Salvador Allende Si j'dois partir c'est mic' au poing après un couplet Car aux yeux du système, nous sommes les plus redoutés Chaque heure, chaque fois qu'on est en peine mec on garde la tête haute Si on fait face à la peur, la foi, c'est une lutte et on en sort avec la tête haute Y reste gravé chaque pleur, chaque larme qu'on laisse couler Elle sèchera la tête haute Tête haute, tête haute, tête haute, tête haute</t>
+          <t>Y'a pas de loi quand on a pas le choix Ma foi, le destin n'a pas droit et on y croit On l'a écrit tant de fois sur le mur de leur fautes Les jeux sont faits, on va garder la tête haute Chaque heure, chaque fois qu'on est en peine mec on garde la tête haute Si on fait face à la peur, la foi, c'est une lutte et on en sort avec la tête haute Il reste gravé chaque pleur, chaque larme qu'on laisse couler Elle sèchera la tête haute Tête haute, tête haute, tête haute, tête haute La tête haute même dans le trou, pas évident mais bon Soit on coule, soit on reste dans la course en accrochant l'wagon Pour ceux qui ont la vie dure, que les embuches n'ont pas épargnés Les nerfs à fleur de peau, les dents serrées La justice fait défaut qu'on a pas assez d'blé A côté, on voit les puissants s'en tirer Les espoirs sélèvent et sont anesthésiés Les listes électorales font pas rêver, tu le sais Envie de contrôler sa ville mais ici c'est la guerre Les gens qui aident le disent, aussi écoute bien les cris, les ras-l'bol Trop d'pauvres ont pas d'bol, trop d'mômes en tôle De jeunes filles qui racolent Big-up aux bénévoles, l'avant-tout dégringole La-haut, les forces de l'ordre n'ont que les coups pour parole Le rap en bélier, tête haute, pour défoncer les portes On nous a pas donné les clés, comment tu veux qu'on s'comporte ? Gilles me pousse contre le mur Quoi ? Avec un XXX Mec, pour que j'oublie mes principes et retourne ma veste Rien à faire, j'préfère crever contre les barrières J'suis un type à l'ancienne, chez nous pas d'machine arrière On fonce tête haute, y'a pas l'choix si on se sent transparent La fierté c'est tout c'qu'on a, ouais J'suis lesclave au dos scarifié par le fouet des maîtres Un peu parano dû au résidu d'l'effet des XXX J'ai fais des fêtes, j'ai connu les défaites mais j'ai jamais touché l'but en rampant ou en baissant ma tête Ni en tripant sur les promesses d'un reality-show Pendu à l'écran, prêt à devenir un reality-sot J'te l'répète, tête haute chaque heure que Dieu fait T'as capté le concept ou j'te le refais ? Je viens d'ces endroits où on croit plus dans les brevets Parc'que devant le talent, le pays ferme les yeux et nous laisse crever Chaque heure, chaque fois qu'on est en peine mec on garde la tête haute Si on fait face à la peur, la foi, c'est une lutte et on en sort avec la tête haute Il reste gravé chaque pleur, chaque larme qu'on laisse couler Elle sèchera la tête haute Tête haute, tête haute, tête haute, tête haute Comment s'épanouir ? Demande à petit frère Trop vite largués dans la rue, les jeux sont plus amers La fin justifie et cette maman pense qu'elle s'humilie à la soupe populaire mais c'est elle la plus digne La douleur hurle, fait faire des conneries Et quand ta vie s'écroule c'est la honte qui te brise Certains cherchent des cibles et d'autres se replient Ça bosse pour le minimum, un toit et du riz Putain où est le fric ? Au chaud dans les Caïmans Des contrats pourris ont usés la santé de nos parents Et chez les VIP, y'a trop d'affaires classées De trafics masqués mais on laisse tout passer La tête dans le guidon, faut avancer, besoin d'se voir au sommet avant d'finir lobotomisé A la croisée des chemins, on s'regarde même plus, divisés Et il nous reste que la télé pour pleurer Ma carrière ? Rien à foutre J'aime faire c'que je fais, mais faire pour briller, on s'grille à force de plier Pour ça, j'garde ma tête haute en toute occasion Surtout quand notre présence est vécue comme une invasion Le mérite c'est beau sur le papier, au fond c'est qu'une arnaque Monter en grade dans les blocs ou sous les arcades, c'est tout c'qui nous est promis Paralysés en phase-test, ces putain d'chaînes on va les briser une à une, yes On marche tête haute, c'est ça le challenge Poings serrés, rangs serrés, tous en phalanges On renie pas nos valeurs Constants devant la joie, devant le malheur Même si nos villes sentent monter la chaleur On verse pas de larmiche, pourtant maintenant qu'on est en indé' Ouais c'est nous contre le monde comme Salvador Allende Si j'dois partir c'est mic' au poing après un couplet Car aux yeux du système, nous sommes les plus redoutés Chaque heure, chaque fois qu'on est en peine mec on garde la tête haute Si on fait face à la peur, la foi, c'est une lutte et on en sort avec la tête haute Y reste gravé chaque pleur, chaque larme qu'on laisse couler Elle sèchera la tête haute Tête haute, tête haute, tête haute, tête haute</t>
         </is>
       </c>
     </row>
@@ -854,7 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Parce que son souvenir pèse comme ses remords devant la fin De ce fardeau je m'allège, l'exorcisant encore au lendemain De mes jours naïfs Quel réveil plus que brutal Les nerfs à vif, j'ai une vision d'amour et de haine en père complice bien matinal Au risque de vivre mal les jours restants C'est de la méfiance que j'installe dès à présent Puis à la question réaliste sur les faiblesses du genre humain Ma réponse serait p't-être les tremblements d'ma main Grattant la ballade pour un traître La voilà ta ballade, traître Ballade pour un traître La voilà ta ballade Ballade pour un traître Beauté de toute chose, illustre présage inattendu À la croisée des chemins, ors et bijoux te seront dus Lorsque le satin blanc enveloppera l'sommet Que les aigles s'y jetteront à nos pieds Tu seras comblé, l'âme nue, nul être ne pourra tricher C'est alors que ton nom, je reconnaîtrai Celui qui t'auras ignoré Celui-là même qui m'a déçu N'aura d'repos, que ses fantasmes déchus L'agonie ne fera point de toi un martyr Dans l'attente, tu souffres, hélas ta peine ne se retire Des astres maudits figés par des échos d'douleur Les humbles et les justes meurtris par tant d'malheur Pas d'rancune ni vengeance, froid comme une tombe Et comme le fer rouge intense, j'attendrai la sentence Plus poignant que l'envie, viendra l'néant Poussière, tu flatteras les ombres en pleurant Et quand tu regarderas derrière toi derrière toi Faible de ton arrogance, résigné Noyé dans le chagrin, tu la contempleras Le tranchant de son aura cruelle vérité Ton désir de devenir ce que tu n'as jamais été De vouloir ce que tu n'avais pas En te souillant pour y arriver Ils te rongeront pour ceux à qui tu as menti Les tristes qui t'auront aimé Hanteront jusqu'à tes souvenirs Alors tu maudiras ta haine Et je célèbrerai ta perte En chantant, sourire aux lèvres Cette ballade pour un traître You might also like La voilà ta ballade, traître Ballade pour un traître La voilà ta ballade Ballade pour un traître J'ai été trahi par l'illusion, ami d'l'enfance et du rêve hier Elle s'est sauvée, j'sais même pas où, durant sans doute l'hiver De loin la période la plus galère pour le moral C'était un coup bas, on m'a dit qu'ça apprend à vivre, que c'est normal J'ai été trahi par l'enfance, l'ami d'l'insouciance m'a quitté Il m'a laissé d'beaux souvenirs et aussi d'quoi réfléchir pour des années L'insouciance la garce n'a pas tardé aussi Elle m'fait souffrir, j'la fuis, mais j'sais qu'elle m'guette toujours J'ai été trahi par la confiance, meilleure amie d'l'amour Comment pourrais-je lui en vouloir, méfiance existe pour Et quand l'amour m'a présenté la haine Cette méfiance est devenue reine Son autorité m'a jamais plu Respect des autres, respect d'soi-même Respect, sept lettres, putain comme traître comme traître Ah, ça rend malade Tiens, connard ta ballade La voilà ta ballade, traître Ballade pour un traître La voilà ta ballade Ballade pour un traître</t>
+          <t>Parce que son souvenir pèse comme ses remords devant la fin De ce fardeau je m'allège, l'exorcisant encore au lendemain De mes jours naïfs Quel réveil plus que brutal Les nerfs à vif, j'ai une vision d'amour et de haine en père complice bien matinal Au risque de vivre mal les jours restants C'est de la méfiance que j'installe dès à présent Puis à la question réaliste sur les faiblesses du genre humain Ma réponse serait p't-être les tremblements d'ma main Grattant la ballade pour un traître La voilà ta ballade, traître Ballade pour un traître La voilà ta ballade Ballade pour un traître Beauté de toute chose, illustre présage inattendu À la croisée des chemins, ors et bijoux te seront dus Lorsque le satin blanc enveloppera l'sommet Que les aigles s'y jetteront à nos pieds Tu seras comblé, l'âme nue, nul être ne pourra tricher C'est alors que ton nom, je reconnaîtrai Celui qui t'auras ignoré Celui-là même qui m'a déçu N'aura d'repos, que ses fantasmes déchus L'agonie ne fera point de toi un martyr Dans l'attente, tu souffres, hélas ta peine ne se retire Des astres maudits figés par des échos d'douleur Les humbles et les justes meurtris par tant d'malheur Pas d'rancune ni vengeance, froid comme une tombe Et comme le fer rouge intense, j'attendrai la sentence Plus poignant que l'envie, viendra l'néant Poussière, tu flatteras les ombres en pleurant Et quand tu regarderas derrière toi derrière toi Faible de ton arrogance, résigné Noyé dans le chagrin, tu la contempleras Le tranchant de son aura cruelle vérité Ton désir de devenir ce que tu n'as jamais été De vouloir ce que tu n'avais pas En te souillant pour y arriver Ils te rongeront pour ceux à qui tu as menti Les tristes qui t'auront aimé Hanteront jusqu'à tes souvenirs Alors tu maudiras ta haine Et je célèbrerai ta perte En chantant, sourire aux lèvres Cette ballade pour un traître La voilà ta ballade, traître Ballade pour un traître La voilà ta ballade Ballade pour un traître J'ai été trahi par l'illusion, ami d'l'enfance et du rêve hier Elle s'est sauvée, j'sais même pas où, durant sans doute l'hiver De loin la période la plus galère pour le moral C'était un coup bas, on m'a dit qu'ça apprend à vivre, que c'est normal J'ai été trahi par l'enfance, l'ami d'l'insouciance m'a quitté Il m'a laissé d'beaux souvenirs et aussi d'quoi réfléchir pour des années L'insouciance la garce n'a pas tardé aussi Elle m'fait souffrir, j'la fuis, mais j'sais qu'elle m'guette toujours J'ai été trahi par la confiance, meilleure amie d'l'amour Comment pourrais-je lui en vouloir, méfiance existe pour Et quand l'amour m'a présenté la haine Cette méfiance est devenue reine Son autorité m'a jamais plu Respect des autres, respect d'soi-même Respect, sept lettres, putain comme traître comme traître Ah, ça rend malade Tiens, connard ta ballade La voilà ta ballade, traître Ballade pour un traître La voilà ta ballade Ballade pour un traître</t>
         </is>
       </c>
     </row>
@@ -888,7 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tu sais c'est quoi mon problème? Ça me saoule Parce que trop de mâchoires bougent pour rien ou presque le décors Reste le même, les acteurs restent les mêmes, le costume change pas les phrases Ni le bleu dont ils nient le nocif, côté justice c'est actifed La masse n'y croit que devant des chrysanthèmes Et ce mal nécessaire à qui l'on confère le pouvoir d'un Dieu C'est que des hommes, et me dit pas que ça t'étonne que tant de bavures aient lieu Du ronflant du rond-point au Judge Dredd du ghetto Tous pistent le marron qui nous colle à la peau Matraque et lacrymo vidéo dans les journaux Manifeste et prends des coups mec Ailleurs au même moment des fous tournent la roue Pour 4 sous on s'abstient de toute réflexion Et chaque jours ne passe pas sans génuflexion O.k. y a les States eux ils les montrent du doigt Mais lorsque leur culture rapporte là ils l'importent chez moi Tout comme ces séries nazes qui hypnotisent et repassent sans cesse Les mêmes conneries se répètent et on acquiesce mec on acquiesce Les promesses ! ça m'saoule Les faux mecs ! ça m'saoule Les fausses guerres, les contrôles pas clairs ! ça m'saoule Tout le monde se jette la pierre et veut sa part du gâteau Et on se crève pour des miettes pour eux c'est tout ce qu'on vaut You might also likeEt comme ils se gavent avec TVA essence tabac Et comme c'est chacun pour sa face alors ça changera pas C'est comme le Hip Hop envahit de juges et de profs Et des gars qui se la racontent trop en soirée ça débloque mec Ou bien ils captent rien à ce qu'on dit Clairs sont nos vers frère le tout c'est de pas se tromper d'ennemie Et chaque fois qu'on déraille on le sers Si tu parles gangster c'est dans le son pas le sang Rien de malfaisant, sans gun pourtant j'ai mis tout le monde les bras en l'air Et c'est ça qui les dérange tous pour la même cause J'suis clair avec mes potos, Hip Hop je dose Je vis ma musique comme je la sens tant pis pour la promo Pas de maison de disque ou radio entre ma feuille et mon stylo Accroc de vérités non dites faudrait des audits Au lieu de nous leurrer avec des docs vitrines sur les riches Crée les jalousies, l'envie des p'tites gens grandie Jusqu'au jour maudit où le pas est franchi Les voilà dans l'arène tas de chair humaine cherchant à becter Face à du faux social réglant des faux problèmes s'inquiéter C'est pas leur fort mais le sport ne sauve pas tout le monde Et on les regarde jouer avec les restes, t'as les droits de l'homme Que si t'as les papiers, pas assez payé ils se servent à la caisse on le sait mais on laisse Un casse en costume c'est plus classe ça dispense de justice, faut que ça cesse Qu'on se foute plus de nos gueules comme ça ouvertement J'attends le moment impatiemment où ils le payeront chèrement Les promesses ! ça m'saoule Les faux mecs ! ça m'saoule Les fausses guerres, les contrôles pas clairs ! ça m'saoule Tout le monde se jette la pierre et veut sa part du gâteau Et on se crève pour des miettes pour eux c'est tout ce qu'on vaut</t>
+          <t>Tu sais c'est quoi mon problème? Ça me saoule Parce que trop de mâchoires bougent pour rien ou presque le décors Reste le même, les acteurs restent les mêmes, le costume change pas les phrases Ni le bleu dont ils nient le nocif, côté justice c'est actifed La masse n'y croit que devant des chrysanthèmes Et ce mal nécessaire à qui l'on confère le pouvoir d'un Dieu C'est que des hommes, et me dit pas que ça t'étonne que tant de bavures aient lieu Du ronflant du rond-point au Judge Dredd du ghetto Tous pistent le marron qui nous colle à la peau Matraque et lacrymo vidéo dans les journaux Manifeste et prends des coups mec Ailleurs au même moment des fous tournent la roue Pour 4 sous on s'abstient de toute réflexion Et chaque jours ne passe pas sans génuflexion O.k. y a les States eux ils les montrent du doigt Mais lorsque leur culture rapporte là ils l'importent chez moi Tout comme ces séries nazes qui hypnotisent et repassent sans cesse Les mêmes conneries se répètent et on acquiesce mec on acquiesce Les promesses ! ça m'saoule Les faux mecs ! ça m'saoule Les fausses guerres, les contrôles pas clairs ! ça m'saoule Tout le monde se jette la pierre et veut sa part du gâteau Et on se crève pour des miettes pour eux c'est tout ce qu'on vaut Et comme ils se gavent avec TVA essence tabac Et comme c'est chacun pour sa face alors ça changera pas C'est comme le Hip Hop envahit de juges et de profs Et des gars qui se la racontent trop en soirée ça débloque mec Ou bien ils captent rien à ce qu'on dit Clairs sont nos vers frère le tout c'est de pas se tromper d'ennemie Et chaque fois qu'on déraille on le sers Si tu parles gangster c'est dans le son pas le sang Rien de malfaisant, sans gun pourtant j'ai mis tout le monde les bras en l'air Et c'est ça qui les dérange tous pour la même cause J'suis clair avec mes potos, Hip Hop je dose Je vis ma musique comme je la sens tant pis pour la promo Pas de maison de disque ou radio entre ma feuille et mon stylo Accroc de vérités non dites faudrait des audits Au lieu de nous leurrer avec des docs vitrines sur les riches Crée les jalousies, l'envie des p'tites gens grandie Jusqu'au jour maudit où le pas est franchi Les voilà dans l'arène tas de chair humaine cherchant à becter Face à du faux social réglant des faux problèmes s'inquiéter C'est pas leur fort mais le sport ne sauve pas tout le monde Et on les regarde jouer avec les restes, t'as les droits de l'homme Que si t'as les papiers, pas assez payé ils se servent à la caisse on le sait mais on laisse Un casse en costume c'est plus classe ça dispense de justice, faut que ça cesse Qu'on se foute plus de nos gueules comme ça ouvertement J'attends le moment impatiemment où ils le payeront chèrement Les promesses ! ça m'saoule Les faux mecs ! ça m'saoule Les fausses guerres, les contrôles pas clairs ! ça m'saoule Tout le monde se jette la pierre et veut sa part du gâteau Et on se crève pour des miettes pour eux c'est tout ce qu'on vaut</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yes! Faf Larage Taïro Tu l'sais La masse est dans l'club et ça chauffe tu l'sais Yes! Faf et Taïro sont là pour poser La vibe vient des îles, le boom bass kill hey! C'est pour mes Dom-Tom, Réunion Antilles hey! Ce qu'on m'donne c'est de l'or en mélodie Un truc chant-mé qui vient des chaînes et des champs Armés, fini les larmes et les coups d'fouet On vient charger avec du son boosté C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked... Quand tu vois c'qu'on en fait, c'qu'on en sort Quand les ladies sont à fond dans les clubs C'est trop wicked... Quand tu sais d'où ça vient, les anciens ont transmis le son dans la sueur C'est trop wicked... On n'est plus les pieds nus dans la terre mais on chante pour contrer la misère C'est trop wicked... Ça sort pas des cabarets, mais des rues Sombres, des halls, des bidonvilles, tu Connais, la rime est tranchante Fini le temps des pleurs écroulés dans les champs Dis-le aux fachos Black est ma peau La musique est mon sceau L'héritage est dans les dancehalls Fini l'esclavage on mise tout pour s'en sortir On résistera aux coups, on va même en rire Même si ça danse, crois pas qu'on délire Woh yo! Il est temps d'agir You might also like C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked... Oui c'est de l'or mec La seule chose qu'il nous reste après qu'ils nous aient dépouillés, mec Demande aux ancêtres Ces rythmiques qui nous plaisent ont forgé des caractères dans la merde, ouais Et chaque grosse caisse où on jump up Respire la liberté en reggae ou hip-hop Alors jump, jump! Ailleurs ou ici, jump! Pour ceux qu'ont trop subi, jump! Hey ladies! Laisse-moi me coller contre toi Montre-moi comment tu fais ça Remue ton corps de haut en bas Et donne-moi l'énergie jusqu'au tin-ma, boum! On va se toucher se frotter même se cogner, boum! Je veux voir comment ça fait quand tentends les boum Trop d'sueur, trop d'sueur Toi même tu sais y a trop d'sueur C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked... Hey yo! Hey yo, selecta, remets ça encore une fois! Pull it up, dancehall drug! Trop d'sueur, trop d'sueur Toi même tu sais y a trop d'sueur Tout c'qu'on a, tout c'qu'on a Tu le vois bien, on donne tout c'qu'on a C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked...1</t>
+          <t>Yes! Faf Larage Taïro Tu l'sais La masse est dans l'club et ça chauffe tu l'sais Yes! Faf et Taïro sont là pour poser La vibe vient des îles, le boom bass kill hey! C'est pour mes Dom-Tom, Réunion Antilles hey! Ce qu'on m'donne c'est de l'or en mélodie Un truc chant-mé qui vient des chaînes et des champs Armés, fini les larmes et les coups d'fouet On vient charger avec du son boosté C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked... Quand tu vois c'qu'on en fait, c'qu'on en sort Quand les ladies sont à fond dans les clubs C'est trop wicked... Quand tu sais d'où ça vient, les anciens ont transmis le son dans la sueur C'est trop wicked... On n'est plus les pieds nus dans la terre mais on chante pour contrer la misère C'est trop wicked... Ça sort pas des cabarets, mais des rues Sombres, des halls, des bidonvilles, tu Connais, la rime est tranchante Fini le temps des pleurs écroulés dans les champs Dis-le aux fachos Black est ma peau La musique est mon sceau L'héritage est dans les dancehalls Fini l'esclavage on mise tout pour s'en sortir On résistera aux coups, on va même en rire Même si ça danse, crois pas qu'on délire Woh yo! Il est temps d'agir C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked... Oui c'est de l'or mec La seule chose qu'il nous reste après qu'ils nous aient dépouillés, mec Demande aux ancêtres Ces rythmiques qui nous plaisent ont forgé des caractères dans la merde, ouais Et chaque grosse caisse où on jump up Respire la liberté en reggae ou hip-hop Alors jump, jump! Ailleurs ou ici, jump! Pour ceux qu'ont trop subi, jump! Hey ladies! Laisse-moi me coller contre toi Montre-moi comment tu fais ça Remue ton corps de haut en bas Et donne-moi l'énergie jusqu'au tin-ma, boum! On va se toucher se frotter même se cogner, boum! Je veux voir comment ça fait quand tentends les boum Trop d'sueur, trop d'sueur Toi même tu sais y a trop d'sueur C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked... Hey yo! Hey yo, selecta, remets ça encore une fois! Pull it up, dancehall drug! Trop d'sueur, trop d'sueur Toi même tu sais y a trop d'sueur Tout c'qu'on a, tout c'qu'on a Tu le vois bien, on donne tout c'qu'on a C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked...1</t>
         </is>
       </c>
     </row>
@@ -922,7 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>J'fais mon truc bien dans ma tête, fume une cigarette Écris un texte à l'abri des regards des gens vex J'pèse? Non juste un nom qui circule Un mec parmi tant d'autres qui tente de voir la lumière dans le crépuscule Petit à petit j'fais mon trou Enfin ça fait quand même 10 ans que je suis dans l'coup J'ai eu le temps de voir toute l'évolution du hip-hop en pleine expansion Les salles qui se remplissent de génération en génération Des blaireaux apparaître et disparaître au fil des ans Comme des marionnettes faites pour nous réduire à néant Faut pas croire, le rap fait flipper L'image de la rue, des quartiers, des jeunes fait flipper Mais on s'y reconnaît, crache ce qu'on perçoit de la vie Du cran, sûr il en faut mais c'est juste ce qu'on ressent Une vision différente qui marque de plus en plus d'adhérents J'emmerde les modes, fils je suis dedans Je suis dedans Sûr, c'est ma cause tu le sais C'est ma cause c'est comme ça C'est ma cause Y a rien à faire C'est ma cause You might also like On nous a dit Laissez tomber les jeunes, c'est du vent Qu'est ce qu'ils ont à se plaindre tout le temps, putain le rap c'est pesant Autant de réflexions, autant d'articles bidons Autant d'émissions télés foireuses qui nous prenaient pour des cons Le temps de l'incompréhension, pendant ce temps On construisait, aux 4 coins de France Y avait des mecs qui tenaient bon Y a eu le temps de la récupération Pas vraiment révolu celui-là Mais aujourd'hui on y croit, on vit que pour ça Récupérer nos biens, on bosse pour ça Parti d'un rien, maintenant voilà y a des labels à tout-va Le showbiz nous fait pas peur, on sait où on va Aujourd'hui si tu sors un truc pourri c'est que ça vient de toi Fais un choix, mais gaffe on te regarde, on a la Garde Un vaste réseau de connaisseurs, tu foires tu dégages On trahit pas le hip-hop sans subir de dommages On fait le ménage, la musique se bonifie avec l'âge Mars Sûr, c'est ma cause tu le sais C'est ma cause Reste à l'écart, blaireau C'est ma cause Y a rien à faire C'est ma cause Qu'est-ce tu crois, ils ont peur de nous les gens d'la masse Le peuple qui s'instruit en place dans les charts Ça fait chier les bourges, les politiques, technocrates Ça leur échappe, la rue s'réveille et ça les fait trembler Des jeunes promus à un avenir de simple ouvrier Deviennent paroliers, font du fric avec des CD Ça bouleverse leur équilibre d'une putain de France libre Où chaque personne est à sa place sans pouvoir en bouger Le hip hop révolutionne tout un mode de pensée Se joue des boycotts, ne cesse de progresser Une passion, un espoir, pour beaucoup une porte de sortie Mais si tu le prends à la légère crois-moi tu te ramasses vite Faut pas tomber dans le créneau Star Gala C'est lourd, une feuille, un stylo, du travail et t'es comme nous Y a pas de fans, que des potos Et que les mecs qui foutent le merde dans le milieu se calment L'enjeu est d'taille, tu représentes oh! Blaireau! On fout la pression, Ego Trippin' Riche en tech, élève le niveau qu'on nous différencie Aussi je dors pas sinon je meurs alors je file droit Peace à tous ceux qui sont comme moi, accro du hip-hop! Hip-hop Sûr, c'est ma cause La Rage C'est ma cause Touche pas C'est ma cause C'est ma cause C'est ma cause</t>
+          <t>J'fais mon truc bien dans ma tête, fume une cigarette Écris un texte à l'abri des regards des gens vex J'pèse? Non juste un nom qui circule Un mec parmi tant d'autres qui tente de voir la lumière dans le crépuscule Petit à petit j'fais mon trou Enfin ça fait quand même 10 ans que je suis dans l'coup J'ai eu le temps de voir toute l'évolution du hip-hop en pleine expansion Les salles qui se remplissent de génération en génération Des blaireaux apparaître et disparaître au fil des ans Comme des marionnettes faites pour nous réduire à néant Faut pas croire, le rap fait flipper L'image de la rue, des quartiers, des jeunes fait flipper Mais on s'y reconnaît, crache ce qu'on perçoit de la vie Du cran, sûr il en faut mais c'est juste ce qu'on ressent Une vision différente qui marque de plus en plus d'adhérents J'emmerde les modes, fils je suis dedans Je suis dedans Sûr, c'est ma cause tu le sais C'est ma cause c'est comme ça C'est ma cause Y a rien à faire C'est ma cause On nous a dit Laissez tomber les jeunes, c'est du vent Qu'est ce qu'ils ont à se plaindre tout le temps, putain le rap c'est pesant Autant de réflexions, autant d'articles bidons Autant d'émissions télés foireuses qui nous prenaient pour des cons Le temps de l'incompréhension, pendant ce temps On construisait, aux 4 coins de France Y avait des mecs qui tenaient bon Y a eu le temps de la récupération Pas vraiment révolu celui-là Mais aujourd'hui on y croit, on vit que pour ça Récupérer nos biens, on bosse pour ça Parti d'un rien, maintenant voilà y a des labels à tout-va Le showbiz nous fait pas peur, on sait où on va Aujourd'hui si tu sors un truc pourri c'est que ça vient de toi Fais un choix, mais gaffe on te regarde, on a la Garde Un vaste réseau de connaisseurs, tu foires tu dégages On trahit pas le hip-hop sans subir de dommages On fait le ménage, la musique se bonifie avec l'âge Mars Sûr, c'est ma cause tu le sais C'est ma cause Reste à l'écart, blaireau C'est ma cause Y a rien à faire C'est ma cause Qu'est-ce tu crois, ils ont peur de nous les gens d'la masse Le peuple qui s'instruit en place dans les charts Ça fait chier les bourges, les politiques, technocrates Ça leur échappe, la rue s'réveille et ça les fait trembler Des jeunes promus à un avenir de simple ouvrier Deviennent paroliers, font du fric avec des CD Ça bouleverse leur équilibre d'une putain de France libre Où chaque personne est à sa place sans pouvoir en bouger Le hip hop révolutionne tout un mode de pensée Se joue des boycotts, ne cesse de progresser Une passion, un espoir, pour beaucoup une porte de sortie Mais si tu le prends à la légère crois-moi tu te ramasses vite Faut pas tomber dans le créneau Star Gala C'est lourd, une feuille, un stylo, du travail et t'es comme nous Y a pas de fans, que des potos Et que les mecs qui foutent le merde dans le milieu se calment L'enjeu est d'taille, tu représentes oh! Blaireau! On fout la pression, Ego Trippin' Riche en tech, élève le niveau qu'on nous différencie Aussi je dors pas sinon je meurs alors je file droit Peace à tous ceux qui sont comme moi, accro du hip-hop! Hip-hop Sûr, c'est ma cause La Rage C'est ma cause Touche pas C'est ma cause C'est ma cause C'est ma cause</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>On envahit les avec des rimes 'Augmente le son Ce sont des MCs que je vise Voilà léquipe au complet Si tu bloques sur un style en cloque nous on s'moque pas On s'fout de toi on trouve pas de production en stock mec T'es fada, tu vois qu'ici-bas c'est comme dix doigts S'il faut les fermer en poing je viens oh les gars On sla fait du sud la forme du sud pour la norme Enorme et jgomme rien chauvin, cette fois j'me la donne J'te donne tout ce que j'ai, tout ce qu'on a, j'cogne dbonne foi J'te donne tout ce qu'on fait, tout ce qu'on voit comme il se doit Dans la rectitude comme d'hab' dans le sud J'représente pour mon hip-hop du sud, ouais du sud J'brûle sur mes rimes et des intérims, en stand by Skywalker moules sky s'présente pour vous quand je die faut prendre du walker Ça vient du sud, y a pas tout le monde mais on y pense mec J'rappe sur mes lots de strings, pas de femme en string J'm'exprime en rimes, extrait mes rimes sur scène Avec ma face de Scream 2, las de ce crime imaginaire Voici mon style externe où ma magie erre en l'air comme l'escrime C'est qui qui rappe là ? Ce putain dChill simplet Dis mon rap est égal à la somme de 5 ans avec peu ou sans semelles Plus la mesure des escaliers entre mon cul maigre et mes semelles Qui smêle aura nos rimes comme arbitrage AKH au mic en marge original You might also like Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Mec sors du néant De la bouche béante du dragon la brume annonce son aura Roulement de tambour devant le duc de Mars ah Mes compagnons de guerre j'donne la réplique aux tyr-mars Parle de réussite sous le sceau de ma ville Sous la Lune qui vacille d'horreur devant mon épée unique qui scintille Je brime l'élite mais y'a plus âme qui vive, au loin Dans les profondeurs du sud la poussière, s'élève le butin de glaives Jetés à terre pour la trêve, tu parles de représent ? Putain ouais on représente, défend le hip-hop du sud Putain dmerde on le rentre ainsi Être MC, trop sérieux pour que je tlaisse l'être MC Si je suis ici c'est pour toi, je parle donc suis même si c'est dur J'insiste sur le fait que mes stylos incisent seront les clous de ton cercueil Écoute Va t'en de là ! La misère fait tant de gros titres, putain verbe egotrip Même si le slip des gos strempe je peux pas, sûr que je changerai rien Écrire c'est pisser dans un violon, je sais mais si y a que ça Sans dec' trop de sang d'encre dans ce semblant de quotidien C'est sans dent que je parle, j'm'entends mec M'exhorte qu'à l'introspection Le déboule annonce la souche la base née de la bouse innée Notre arme bousille, faudra que tu poses tes fesses talquées sur le coussinet 1.3, le clan des égorgeurs de coussinets présent comme le yéti carré Si on sort c'est pour piétiner, essuie l'assaut lancé depuis le pays des Là où le pavé rugueux rugit et le cul des cavés rougit Je te présente la race rouge vif, l'encre et la fougue en folie La charge de la rime grasse lourde, bref une tuerie en live du midi Et c'est comme ça qu'on le sert ici sec, le Sud reste une valeur sûre Ça se sait, sur ce je signe Serval, salut ! X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Un casseur de rimes sur toi, j'suis pas paranoïaque, moi Narre à bout baboni je vexe sur le mic, j'ai pas le choix Si t'es pas large hein, si t'as pas large hein Prends du vice ou glisse sur le précipice, pisse et mc Mes phrases dansent en transe sur une touche arabisante Sans forcer, j'force les sablés ta clique en bois Accentue ici accentue le sud soudé Mon seul souhait que je défends borné sur toutes les scènes Combien de frères se sont soulevés, ont sifflé, soufflés sur ma musique ? Stoppe ta flop, stoppe les dropes, on n'est pas à Saint-Top' ici C'est notre hip-hop d'ici, notre propre cop plane Mieux renseigné que ce con d'land Mars pour le terrain, c'est du scotchland, c'est tout pour tes reins Sous bande free la propagande mieux qu'un coup de bottin En garde à vue, t'as beau prétendre, j'vais t'en mettre plein la vue Vu ? Pas parti du big ben, sûr, nous, c'est du big pen C'est à toi que je pique man, on fout putain ! Nos vies des best-sellers des thrillers en live, des killers en vibe Ce qu'on cherche, à la base, c'est nos verbes, c'est tout Le revers de la rue se présente chez vous mieux qu'un checu C'est Mars le Sud, au fou, Belsunce je représente Sur pépé, flafa tu sais X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Voila léquipe au complet X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes X4 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes C'est notre hip-hop, du sud, et pas celui des autres, tu lsais !</t>
+          <t>On envahit les avec des rimes 'Augmente le son Ce sont des MCs que je vise Voilà léquipe au complet Si tu bloques sur un style en cloque nous on s'moque pas On s'fout de toi on trouve pas de production en stock mec T'es fada, tu vois qu'ici-bas c'est comme dix doigts S'il faut les fermer en poing je viens oh les gars On sla fait du sud la forme du sud pour la norme Enorme et jgomme rien chauvin, cette fois j'me la donne J'te donne tout ce que j'ai, tout ce qu'on a, j'cogne dbonne foi J'te donne tout ce qu'on fait, tout ce qu'on voit comme il se doit Dans la rectitude comme d'hab' dans le sud J'représente pour mon hip-hop du sud, ouais du sud J'brûle sur mes rimes et des intérims, en stand by Skywalker moules sky s'présente pour vous quand je die faut prendre du walker Ça vient du sud, y a pas tout le monde mais on y pense mec J'rappe sur mes lots de strings, pas de femme en string J'm'exprime en rimes, extrait mes rimes sur scène Avec ma face de Scream 2, las de ce crime imaginaire Voici mon style externe où ma magie erre en l'air comme l'escrime C'est qui qui rappe là ? Ce putain dChill simplet Dis mon rap est égal à la somme de 5 ans avec peu ou sans semelles Plus la mesure des escaliers entre mon cul maigre et mes semelles Qui smêle aura nos rimes comme arbitrage AKH au mic en marge original Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Mec sors du néant De la bouche béante du dragon la brume annonce son aura Roulement de tambour devant le duc de Mars ah Mes compagnons de guerre j'donne la réplique aux tyr-mars Parle de réussite sous le sceau de ma ville Sous la Lune qui vacille d'horreur devant mon épée unique qui scintille Je brime l'élite mais y'a plus âme qui vive, au loin Dans les profondeurs du sud la poussière, s'élève le butin de glaives Jetés à terre pour la trêve, tu parles de représent ? Putain ouais on représente, défend le hip-hop du sud Putain dmerde on le rentre ainsi Être MC, trop sérieux pour que je tlaisse l'être MC Si je suis ici c'est pour toi, je parle donc suis même si c'est dur J'insiste sur le fait que mes stylos incisent seront les clous de ton cercueil Écoute Va t'en de là ! La misère fait tant de gros titres, putain verbe egotrip Même si le slip des gos strempe je peux pas, sûr que je changerai rien Écrire c'est pisser dans un violon, je sais mais si y a que ça Sans dec' trop de sang d'encre dans ce semblant de quotidien C'est sans dent que je parle, j'm'entends mec M'exhorte qu'à l'introspection Le déboule annonce la souche la base née de la bouse innée Notre arme bousille, faudra que tu poses tes fesses talquées sur le coussinet 1.3, le clan des égorgeurs de coussinets présent comme le yéti carré Si on sort c'est pour piétiner, essuie l'assaut lancé depuis le pays des Là où le pavé rugueux rugit et le cul des cavés rougit Je te présente la race rouge vif, l'encre et la fougue en folie La charge de la rime grasse lourde, bref une tuerie en live du midi Et c'est comme ça qu'on le sert ici sec, le Sud reste une valeur sûre Ça se sait, sur ce je signe Serval, salut ! X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Un casseur de rimes sur toi, j'suis pas paranoïaque, moi Narre à bout baboni je vexe sur le mic, j'ai pas le choix Si t'es pas large hein, si t'as pas large hein Prends du vice ou glisse sur le précipice, pisse et mc Mes phrases dansent en transe sur une touche arabisante Sans forcer, j'force les sablés ta clique en bois Accentue ici accentue le sud soudé Mon seul souhait que je défends borné sur toutes les scènes Combien de frères se sont soulevés, ont sifflé, soufflés sur ma musique ? Stoppe ta flop, stoppe les dropes, on n'est pas à Saint-Top' ici C'est notre hip-hop d'ici, notre propre cop plane Mieux renseigné que ce con d'land Mars pour le terrain, c'est du scotchland, c'est tout pour tes reins Sous bande free la propagande mieux qu'un coup de bottin En garde à vue, t'as beau prétendre, j'vais t'en mettre plein la vue Vu ? Pas parti du big ben, sûr, nous, c'est du big pen C'est à toi que je pique man, on fout putain ! Nos vies des best-sellers des thrillers en live, des killers en vibe Ce qu'on cherche, à la base, c'est nos verbes, c'est tout Le revers de la rue se présente chez vous mieux qu'un checu C'est Mars le Sud, au fou, Belsunce je représente Sur pépé, flafa tu sais X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Voila léquipe au complet X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes X4 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes C'est notre hip-hop, du sud, et pas celui des autres, tu lsais !</t>
         </is>
       </c>
     </row>
@@ -956,7 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mes origines sont floues me demande pas si jen ai Respecte mon silence car si je louvre cest cramé Jai pas de papiers, la vérité soit disant né pour servir et protéger La cruauté des hommes ma abusé Oui jsuis un clando jai fait mes classes dans lEst A la dure où des filles trop jeunes se vendaient pour mon maître Sexe, violence jai connu que ça Jai renvoyé beaucoup de gens au trépas même si jaimais pas ça Puis on ma arrêté, détenu, vendu Ma crosse souillée par toutes sortes dindividus Cest pas ma faute ma nature est comme ça Moi je suis juste un objet qui fait Pow ! Cest pas ma faute moi Si lhomme est fasciné par ma force Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Cest pas ma faute moi Si lhomme est fasciné par ma force pourquoi Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Jaurais voulu être une arme de fonction Quon me soigne et quon mutilise avec attention Fréquenter les stands de tir, le beau monde Au lieu de ça je suis arrivé en France en camion Dans un carton jai vu que ma vie ne serait pas un conte Saisi comme une merde avec des contrefaçons Jeté au placard avec dautres, cest drôle Chacun a son histoire aussi dramatique les unes que les autres Comme ce calibre neuf millimètres Jure que la femme de son maître sest elle-même tiré dans la tête Puis y a le fatigué, le vieux fusil qui a shooté un gars Jure que cétait une chèvre ou une caille Putain y a aussi mon compagnon de saisie Un silencieux du milieu, à son actif au moins vingt, trente victimes Et on a lamnésique, semi automatique Trouvé au fond de leau dans un état critique Et le chromé, le bourge qui a trop traîné dans la poudre Jure quil a des amis en haut lieu et que son affaire va se résoudre On est tous là à espérer une sortie Je rêve de jouer dans un film ou une série Je voudrais ne plus être un objet qui fait You might also like Pow ! Cest pas ma faute moi Si lhomme est fasciné par ma force Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Cest pas ma faute moi Si lhomme est fasciné par ma force pourquoi Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Et puis un jour on nous a sortis On sy attendait plus, endormis, cachés dans un sac tranquille Je sais quon allait être acheté à bas prix Et y a le fusil qui panique il veut pas faire la guerre en Afrique Pour nous cest la loterie, la loi du trafic On nest pas un lot de bijouterie Jai pas fini autour du cou dun people sous ecstasy Mais dans les mains dun môme de vingt piges Jusquà cette descente de flics où ils mont sorti de en dessous le lit Où jai vu mes semblables pointer le petit Ni vu ni connu on ma mis avec le shit Jai attendu le placard mais on ma vendu à une fille Elle était pas dici, comme moi étranger en exil Et elle ma plu, elle était si fragile Mais son mac jaurai aimé le finir Quand il la frappait, prenait la tune et menaçait sa famille Elle et moi je voulais croire que cétait pour la vie Maintenant elle est partie et je me sens seul et triste Je croyais pouvoir la défendre et je suis comme un fou Je réalise quelle ma acheté pour mettre fin à ses jours Pow ! Jen ai marre dêtre un objet qui fait Pow ! Cest pas ma faute moi Si lhomme est fasciné par ma force Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Cest pas ma faute moi Si lhomme est fasciné par ma force pourquoi Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo !</t>
+          <t>Mes origines sont floues me demande pas si jen ai Respecte mon silence car si je louvre cest cramé Jai pas de papiers, la vérité soit disant né pour servir et protéger La cruauté des hommes ma abusé Oui jsuis un clando jai fait mes classes dans lEst A la dure où des filles trop jeunes se vendaient pour mon maître Sexe, violence jai connu que ça Jai renvoyé beaucoup de gens au trépas même si jaimais pas ça Puis on ma arrêté, détenu, vendu Ma crosse souillée par toutes sortes dindividus Cest pas ma faute ma nature est comme ça Moi je suis juste un objet qui fait Pow ! Cest pas ma faute moi Si lhomme est fasciné par ma force Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Cest pas ma faute moi Si lhomme est fasciné par ma force pourquoi Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Jaurais voulu être une arme de fonction Quon me soigne et quon mutilise avec attention Fréquenter les stands de tir, le beau monde Au lieu de ça je suis arrivé en France en camion Dans un carton jai vu que ma vie ne serait pas un conte Saisi comme une merde avec des contrefaçons Jeté au placard avec dautres, cest drôle Chacun a son histoire aussi dramatique les unes que les autres Comme ce calibre neuf millimètres Jure que la femme de son maître sest elle-même tiré dans la tête Puis y a le fatigué, le vieux fusil qui a shooté un gars Jure que cétait une chèvre ou une caille Putain y a aussi mon compagnon de saisie Un silencieux du milieu, à son actif au moins vingt, trente victimes Et on a lamnésique, semi automatique Trouvé au fond de leau dans un état critique Et le chromé, le bourge qui a trop traîné dans la poudre Jure quil a des amis en haut lieu et que son affaire va se résoudre On est tous là à espérer une sortie Je rêve de jouer dans un film ou une série Je voudrais ne plus être un objet qui fait Pow ! Cest pas ma faute moi Si lhomme est fasciné par ma force Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Cest pas ma faute moi Si lhomme est fasciné par ma force pourquoi Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Et puis un jour on nous a sortis On sy attendait plus, endormis, cachés dans un sac tranquille Je sais quon allait être acheté à bas prix Et y a le fusil qui panique il veut pas faire la guerre en Afrique Pour nous cest la loterie, la loi du trafic On nest pas un lot de bijouterie Jai pas fini autour du cou dun people sous ecstasy Mais dans les mains dun môme de vingt piges Jusquà cette descente de flics où ils mont sorti de en dessous le lit Où jai vu mes semblables pointer le petit Ni vu ni connu on ma mis avec le shit Jai attendu le placard mais on ma vendu à une fille Elle était pas dici, comme moi étranger en exil Et elle ma plu, elle était si fragile Mais son mac jaurai aimé le finir Quand il la frappait, prenait la tune et menaçait sa famille Elle et moi je voulais croire que cétait pour la vie Maintenant elle est partie et je me sens seul et triste Je croyais pouvoir la défendre et je suis comme un fou Je réalise quelle ma acheté pour mettre fin à ses jours Pow ! Jen ai marre dêtre un objet qui fait Pow ! Cest pas ma faute moi Si lhomme est fasciné par ma force Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Cest pas ma faute moi Si lhomme est fasciné par ma force pourquoi Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo !</t>
         </is>
       </c>
     </row>
@@ -973,7 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>En religieux, j'vois le style père rentré Pas d'soin, pas d'médecin je vais crever C'est leur volonté me garder isoler, que j'dise rien Donner des noms na, j'assume ce que j'ai été bien Mais rend moi un service padre, et narrer à ma famille Ce que je leur ai caché depuis des années À 37 ans voici mon récit ou tout à basculer Loin du compte de fées, fixé, le décor était à chier Tu le sais fils et tu vois le topo, enfance malheureuse Gosse battu, un père ? Non un salaud Mon premier boulot gratis pour ma mère et ses filles J'l'ai abattu, elles elles m'ont jeté, c'est la vie fils Cool minot pour le fric je sais le faire et si je galérais Je dégomme des bières pour du cash gazier, un tueur à gages Un mec sans âme un mec qui pense avec l'arme sans larmes Un mec qui traîne des cadavres des mille et une victimes L'homme qui supprime, l'homme qui a rien à foutre de ta famille Si tu dois mourir, l'homme qui tire, l'homme au compte en banque en Suisse Qui délire, le souvenir, le mec, le pire, le mec qui vise shoot touche sa cible Le mec plié par des firmes des gros bonnets qui friment Le mec à éviter padre tu le sais, mais j'ai décroché Il m'ont demandé de tuer un gamin de huit ans Ça j'ai jamais fait, non, jamais, maintenant je sais pourquoi j'ai filé Laissé les flingues dégoûtés derrière moi, 5 ans de ça... You might also like Un passé trouble 5 ans de répit, une vie à tuer Et un jour tu paie le prix, ça tombe quand tu t'y attends pas Ton passé resurgit trouble, tu prends la vie tu perds la vie c'est ainsi Petit à petit dans ma nouvelle vie j'étais moins aux aguets Remarqué un an était passé j'avais changé de ville, d'identité Cela s'imposait, supposé que ma sécurité à cela tenait 32 ans j'avais, c'est dans un bar que je l'ai rencontré Elle resplendissait détoné du cadre qui l'entourait, une fille bien Elle m'a apprit a aimer sans intérêt, carrément moi à ce moment là Je me suis vu comme un autre,, dire qu'avant de la violence J'étais apôtre un autre j'étais devenu le voisin gentil, l'ami Celui avec qui on part en week-end vendredi Fiancé puis marié, très vite ma femme est tombée enceinte Si vous saviez ma joie dans son ventre il y avait un autre moi Je disais plus je mais nous pour ma famille j'étais prêt a tout J'avoue mes vieux réflexe n'étais plus là Mais voilà j'étais devenu vulnérable j'crois Ce soir là j'étais resté bosser tard au bureau Le téléphone avait sonné plusieurs fois, je répondais Pas un mot, bizarre, une intuition une voix dans ma tête Rentre chez toi pour voir la maison, la lumière allumée La porte entrebâillée, avant de l'ouvrir je savais qu'ils m'avaient retrouvés... Un passé trouble 5 ans de répit, une vie à tuer Et un jour tu paie le prix, ça tombe quand tu t'y attends pas Ton passé resurgit trouble, tu prends la vie tu perds la vie c'est ainsi Maintenant je suis là dans c'lit, j'pense à elle à mon fils aussi Ma vie un gâchis, si j'avais su j'aurais mieux agit, non le crime dans la peau J'ai fait ce que j'avais à faire, faut que je me lève Et je descende les commanditaires frère, je dit quoi ! Faut pas que je perde de vue la vie que je menais La morale j'mettais fixé que je bascule pas dans le passé C'est censé vouloir dire quoi, moi je vais y passer philosopher Padre ton dieu c'qui va m'jeter, finalement je raconte n'importe Quoi je sais que vous voulez m'aider, mais je sens je sais la fin Et je veux pas mourir, je m'en fous tiens, plus le coup C'est la haine qui l'emporte et j'envoie ceux qui ont souffler mon bonheur Mes forces et ma joie, ma vie je crois qu'aujourd'hui on meurt comme on vit Padre, c'est bizarre j'ai plus de rancour au coeur mais je vis, je remercie Dieu de m'avoir donné 5 ans de répit...</t>
+          <t>En religieux, j'vois le style père rentré Pas d'soin, pas d'médecin je vais crever C'est leur volonté me garder isoler, que j'dise rien Donner des noms na, j'assume ce que j'ai été bien Mais rend moi un service padre, et narrer à ma famille Ce que je leur ai caché depuis des années À 37 ans voici mon récit ou tout à basculer Loin du compte de fées, fixé, le décor était à chier Tu le sais fils et tu vois le topo, enfance malheureuse Gosse battu, un père ? Non un salaud Mon premier boulot gratis pour ma mère et ses filles J'l'ai abattu, elles elles m'ont jeté, c'est la vie fils Cool minot pour le fric je sais le faire et si je galérais Je dégomme des bières pour du cash gazier, un tueur à gages Un mec sans âme un mec qui pense avec l'arme sans larmes Un mec qui traîne des cadavres des mille et une victimes L'homme qui supprime, l'homme qui a rien à foutre de ta famille Si tu dois mourir, l'homme qui tire, l'homme au compte en banque en Suisse Qui délire, le souvenir, le mec, le pire, le mec qui vise shoot touche sa cible Le mec plié par des firmes des gros bonnets qui friment Le mec à éviter padre tu le sais, mais j'ai décroché Il m'ont demandé de tuer un gamin de huit ans Ça j'ai jamais fait, non, jamais, maintenant je sais pourquoi j'ai filé Laissé les flingues dégoûtés derrière moi, 5 ans de ça... Un passé trouble 5 ans de répit, une vie à tuer Et un jour tu paie le prix, ça tombe quand tu t'y attends pas Ton passé resurgit trouble, tu prends la vie tu perds la vie c'est ainsi Petit à petit dans ma nouvelle vie j'étais moins aux aguets Remarqué un an était passé j'avais changé de ville, d'identité Cela s'imposait, supposé que ma sécurité à cela tenait 32 ans j'avais, c'est dans un bar que je l'ai rencontré Elle resplendissait détoné du cadre qui l'entourait, une fille bien Elle m'a apprit a aimer sans intérêt, carrément moi à ce moment là Je me suis vu comme un autre,, dire qu'avant de la violence J'étais apôtre un autre j'étais devenu le voisin gentil, l'ami Celui avec qui on part en week-end vendredi Fiancé puis marié, très vite ma femme est tombée enceinte Si vous saviez ma joie dans son ventre il y avait un autre moi Je disais plus je mais nous pour ma famille j'étais prêt a tout J'avoue mes vieux réflexe n'étais plus là Mais voilà j'étais devenu vulnérable j'crois Ce soir là j'étais resté bosser tard au bureau Le téléphone avait sonné plusieurs fois, je répondais Pas un mot, bizarre, une intuition une voix dans ma tête Rentre chez toi pour voir la maison, la lumière allumée La porte entrebâillée, avant de l'ouvrir je savais qu'ils m'avaient retrouvés... Un passé trouble 5 ans de répit, une vie à tuer Et un jour tu paie le prix, ça tombe quand tu t'y attends pas Ton passé resurgit trouble, tu prends la vie tu perds la vie c'est ainsi Maintenant je suis là dans c'lit, j'pense à elle à mon fils aussi Ma vie un gâchis, si j'avais su j'aurais mieux agit, non le crime dans la peau J'ai fait ce que j'avais à faire, faut que je me lève Et je descende les commanditaires frère, je dit quoi ! Faut pas que je perde de vue la vie que je menais La morale j'mettais fixé que je bascule pas dans le passé C'est censé vouloir dire quoi, moi je vais y passer philosopher Padre ton dieu c'qui va m'jeter, finalement je raconte n'importe Quoi je sais que vous voulez m'aider, mais je sens je sais la fin Et je veux pas mourir, je m'en fous tiens, plus le coup C'est la haine qui l'emporte et j'envoie ceux qui ont souffler mon bonheur Mes forces et ma joie, ma vie je crois qu'aujourd'hui on meurt comme on vit Padre, c'est bizarre j'ai plus de rancour au coeur mais je vis, je remercie Dieu de m'avoir donné 5 ans de répit...</t>
         </is>
       </c>
     </row>
@@ -990,7 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Message personnel à ceux qui vise le titre, le Chelem, la ceinture J'les renvoie direct à la peinture Change de registre, tu vises la pogne pour péter la Rolex Tu t'cherches, j't'ai trouvé au fond d'une poubelle Pousse-toi p'tit pou, pars par la petite porte Ta prose pue le pipeau, la pouf et la pastiche pauvre XXX est niqué j'te pousse par terre illico Moi en contre-plongée, dans ma main ton micro Qui est-ce qui tembêtes ? Montre-moi le discret J'te garantis qu'il oubliera ton blase et t'cassera pas la tête Tu fais quoi mec ? Tu veux m'terroriser ? J'en ai peur La merde est dans c'corps, je vais l'exorciser J'ai tenté les quantiques, ça n'a pas marché Alors j'ai crié Ralia sors de c'corps ! Y'avait rien à faire j't'ai fini à coup de cric De flow style celui de brique T'as gouté à ce qu'était la Clubber Lang music Clubber Lang music, pas pour les p'tites filles Sonne le gong, fils J'vois qu't'as une p'tite mine Les MCs couinent sur le ring, comme des bitchs, comme des victimes de XXX On a shooté Rocky de un à six En stéroïdes, Faf androïde, droite qui part en bolide Qui tue sur un instru, une intro, une outro Ou te butes sur un sample en solo, un beat electro Kho tu pues sur tes propres morceaux, c'en est trop J'te bute avec un piccolo, même avec un flow rigolo Tu veux la jouer high comme G.I Claquer des dos, mec faut qu't'y ailles, t'es die Y'en a marre des raps où ça rappe pas, des tocards à la mord-moi-là Marre qu'ils raclent les fonds d'tiroir avec un bandana Marre que l'image prenne le pas sur le mic' J't'attrapes, te mets à sac, dit ça pour Lady Marmalade Te maquer aux tapins, te claque si tu me parles mal Faf a.k.a Dexter, un psychopathe en live Après ça même les sourds qui te raillent, Les bookmakers se taillent, y'aura pas de deuxième round You might also likex2 Clubber Lang music Pas des sons d'usine Rap style exclusif Peut provoquer des suicides de MC Qui captent pas les lois basiques du rythme Bim, bim, gauche, droite, ça fait l'effet d'un fusil Eh mec, tu poses avec peine et tu causes avec peine Plus qu'autant ta prose avec haine Là tu nous forces à lextrême Tu perds ton sang froid, pète avec des fausses coucheries Ahah, t'es fou j'ris Mon pronostic ? Une boucherie Si c'est ça ton style, XXX ça c'est pas ces leçons Souvent ressassé, XXX laisse tomber le sky à la seconde T'es faible, fourbe, vil pour un phillie Tu files le blase de qui de fourgue et vite qu'on en finisse Parce que ras-le-bol de ces nazes sans vocable Et quand on tombe, les gros bras tappellent direct un avocat Jouer les chiffons dans la rue et s'battre, j'ai passé l'âge Mais niveau flow j'suis trop là et le tien n'est pas assez large A ta piaule, c'est bizarre, depuis une semaine c'est moi qui fout le flip Ce mec qui pèse à Adrian C'est vrai qu'elle balise pour ton XXX, la vilaine Parce qu'elle sait que je cabosse vite fait ton crew miteux dans la huitaine Veste kaki, mitaines, tu tombes à mi-temps, mytho, rap mythico XXX avec un micro Et comme d'hab' tu veux en sortir sec avec un pipeau J'te rend tes feuilles, tiens, avec de l'essence et un Zippo C'est le tarif, on t'fout au tapis dans la minute Tapitoyer sur ton corps, tatoues-toi un trou d'uc T'as cru quoi ? Un coup du sort ? T'as pris trop d'pilules Ni de punchlines en majuscules, t'as l'arcade qui brûle Uppercut et crochet cultes, pas d'virgules Mes mots fusent, te bousculent, tu perds tes testicules Pourquoi tu gesticules ? Ma clique Clubber Lang Music sur le ring tue, Apollo Creed t'insulte T'es pas le king, v'la c'qu'il en résulte Quand on s'trompe de catégorie, tu manges des coups d'pieds au cul Fils j'suis trop une brute, vise la ceinture Va jouer du luth, dans le studio on te mute J'ai pas un Tyson en face, plutôt un Jean-Claude Dusse XXX, attitude tu t'chies d'ssus Pas de ju-jitsu Avant le corps XXX, largement au dessus Tape comme une massue x2 Clubber Lang music Pas des sons d'usine Rap style exclusif Peut provoquer des suicides de MC Qui captent pas les lois basiques du rythme Bim, bim, gauche, droite, ça fait l'effet d'un fusil</t>
+          <t>Message personnel à ceux qui vise le titre, le Chelem, la ceinture J'les renvoie direct à la peinture Change de registre, tu vises la pogne pour péter la Rolex Tu t'cherches, j't'ai trouvé au fond d'une poubelle Pousse-toi p'tit pou, pars par la petite porte Ta prose pue le pipeau, la pouf et la pastiche pauvre XXX est niqué j'te pousse par terre illico Moi en contre-plongée, dans ma main ton micro Qui est-ce qui tembêtes ? Montre-moi le discret J'te garantis qu'il oubliera ton blase et t'cassera pas la tête Tu fais quoi mec ? Tu veux m'terroriser ? J'en ai peur La merde est dans c'corps, je vais l'exorciser J'ai tenté les quantiques, ça n'a pas marché Alors j'ai crié Ralia sors de c'corps ! Y'avait rien à faire j't'ai fini à coup de cric De flow style celui de brique T'as gouté à ce qu'était la Clubber Lang music Clubber Lang music, pas pour les p'tites filles Sonne le gong, fils J'vois qu't'as une p'tite mine Les MCs couinent sur le ring, comme des bitchs, comme des victimes de XXX On a shooté Rocky de un à six En stéroïdes, Faf androïde, droite qui part en bolide Qui tue sur un instru, une intro, une outro Ou te butes sur un sample en solo, un beat electro Kho tu pues sur tes propres morceaux, c'en est trop J'te bute avec un piccolo, même avec un flow rigolo Tu veux la jouer high comme G.I Claquer des dos, mec faut qu't'y ailles, t'es die Y'en a marre des raps où ça rappe pas, des tocards à la mord-moi-là Marre qu'ils raclent les fonds d'tiroir avec un bandana Marre que l'image prenne le pas sur le mic' J't'attrapes, te mets à sac, dit ça pour Lady Marmalade Te maquer aux tapins, te claque si tu me parles mal Faf a.k.a Dexter, un psychopathe en live Après ça même les sourds qui te raillent, Les bookmakers se taillent, y'aura pas de deuxième round x2 Clubber Lang music Pas des sons d'usine Rap style exclusif Peut provoquer des suicides de MC Qui captent pas les lois basiques du rythme Bim, bim, gauche, droite, ça fait l'effet d'un fusil Eh mec, tu poses avec peine et tu causes avec peine Plus qu'autant ta prose avec haine Là tu nous forces à lextrême Tu perds ton sang froid, pète avec des fausses coucheries Ahah, t'es fou j'ris Mon pronostic ? Une boucherie Si c'est ça ton style, XXX ça c'est pas ces leçons Souvent ressassé, XXX laisse tomber le sky à la seconde T'es faible, fourbe, vil pour un phillie Tu files le blase de qui de fourgue et vite qu'on en finisse Parce que ras-le-bol de ces nazes sans vocable Et quand on tombe, les gros bras tappellent direct un avocat Jouer les chiffons dans la rue et s'battre, j'ai passé l'âge Mais niveau flow j'suis trop là et le tien n'est pas assez large A ta piaule, c'est bizarre, depuis une semaine c'est moi qui fout le flip Ce mec qui pèse à Adrian C'est vrai qu'elle balise pour ton XXX, la vilaine Parce qu'elle sait que je cabosse vite fait ton crew miteux dans la huitaine Veste kaki, mitaines, tu tombes à mi-temps, mytho, rap mythico XXX avec un micro Et comme d'hab' tu veux en sortir sec avec un pipeau J'te rend tes feuilles, tiens, avec de l'essence et un Zippo C'est le tarif, on t'fout au tapis dans la minute Tapitoyer sur ton corps, tatoues-toi un trou d'uc T'as cru quoi ? Un coup du sort ? T'as pris trop d'pilules Ni de punchlines en majuscules, t'as l'arcade qui brûle Uppercut et crochet cultes, pas d'virgules Mes mots fusent, te bousculent, tu perds tes testicules Pourquoi tu gesticules ? Ma clique Clubber Lang Music sur le ring tue, Apollo Creed t'insulte T'es pas le king, v'la c'qu'il en résulte Quand on s'trompe de catégorie, tu manges des coups d'pieds au cul Fils j'suis trop une brute, vise la ceinture Va jouer du luth, dans le studio on te mute J'ai pas un Tyson en face, plutôt un Jean-Claude Dusse XXX, attitude tu t'chies d'ssus Pas de ju-jitsu Avant le corps XXX, largement au dessus Tape comme une massue x2 Clubber Lang music Pas des sons d'usine Rap style exclusif Peut provoquer des suicides de MC Qui captent pas les lois basiques du rythme Bim, bim, gauche, droite, ça fait l'effet d'un fusil</t>
         </is>
       </c>
     </row>
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Comode, tes un fatigué, un wack, ton style est sous prozac Taccroche au biz comme un morbak Yaura pas de come-back, comme dhab Comode si tu texiles sur la West Coast, on te surnomme 1 PAC Tas pas une phase rame sur le mic Personne veut de toi Tes mou comme Miou Miou, ton style est pas cool Mais vilain comme une poupée vaudou et zou ! Vire de là Oh my Lord, Oh my God Comode tes pas à la mode Fais pas ton cow boy, tes pas mon home boy, ni mon homie Tauras pas le buzz de Ousbourne Ozzy Pas de soucis, tas le verbe trop bouilli Surfe sur les tendances comme aux îles Maouii Ah oui joubliais, tes le roi de lincruste Tes pas tout puissant comme Bruce mais tu suces Comode il donne tout cquil a, chorégraphie Chant avec les filles, il donne moult galas Il est faux comme un steff cola, sex colhal Tu y penses grave, mais cesse le rap Si je te vexe connard, cest que les mecs comme toi me dégoûtent Prennent mon taffe pour un moyen de faire des sous Ouh Comode est comme ça, prêt à tout ! Faible et fourbe Une musicale esbroufe, ton flow est pure soupe Pour des llet-bi, prêt à brader ton son chez Liebig Tes llé-gri et aigri, yeah G, yeah cee Arrête de boire du Hennessee Tas quelque chose dun bouseux du Tennessee Des récits qui puent bon pour la lessive Et si, tu partais à Végas faire un show en bas résille ou à Memphis Bouge ici, personne ne taime fils You might also like Si avec ça tes pas disque dor Comode Rend ta plaque et mic et sors Comode Et retire toi des bacs, des Virgin et des Fnac Tente pas le comeback, come on, Comode Tu rêvais dêtre une panthère, mais tes le chat dMichou Nuit du chasseur, tes la viok, moi Robert Mitchum File moi lsac, et tes paroles en wood Car tes en haut dlaffiche, d MC en bois in the Hood , tchée Depuis tas tatoué KILLER sur les abdos, vilain tas pas dgoût Mais Hamdu, tes un ex comme Paula Abdul MC pour soirée mousse, Pouh, tempeste la loose Freestyle entre punch et barbecue Tes dégueulasse, tu casses pas la baraque, pourtant cest la parade Ça rappe pour lapparat, accroche au steak, rat comme la varappe Moche et frileux, fourbe et mielleux Tes hors jeu, oh les gars sifflez le, houou Comode, de la graine dempafé MC avec le cou vert oxydé par ta Grains de café factice Avec la chierie pactise, quelle sale tactique Pour ça nos lyrics ont lair grands quand tes rimes rapetissent Tes foireux comme des chals passés à loxyde On va toccire, enfouir tes cahiers comme un déchet toxique Mate le miroir, tu ny verras quun pauvre type Puis lfond des chiottes et ty trouveras ta prose cheap Le meilleur de tes sons ne fait pas un bon skit Il constipe, cest ton style, dans le noir il conspire En concert, le public a dit Allez on stire Même ta femme a dit Comode, mieux vaut quon squitte Tes faible, frêle, tas moins dpower quAustin Mes rimes, une encyclopédie et la tienne un post it AKH cest lalu et ton crew la bauxite Même les nazes rient de toi, tes le gag des postiches Si avec ça tes pas disque dor Comode Rend ta plaque et mic et sors Comode Et retire toi des bacs, des Virgin et des Fnac Tente pas le comeback, come on, Comode Eh répond à ce quiz qui sont les potes de Comode ? Des mecs du Bronx B Des mecs du Queens C Les Queers Ctenfoiré, tu peux le trouver là où ça pue la graine crâmée Là où la vibe ne vient jamais Il est tellement pourrave que lencre ne veut pas couler de son bic Ses rimes refusent de sortir de sa bouche Il cherche à se faire sponsoriser par Gros Cave Wear Cest un âne, cest un naze, cest un tocard ouais Il est trop pas West, il donne un mauvais Seawalk Il est pas dur, il est doux comme un putain dEwok Il a rien dans le ventre, même son ver solitaire veut sbarrer Dis-lui de faire un Gangsta Freestyle si tu veux tmarrer Jlai capté, cest son hobbie sla raconter Même sil a les couilles de Fredon le Hobbit Es-tu sûr qusa copine ne veut pas ltromper Car son string, la coquine, me la montré Sa pauvre mère croit quil a une plume de poète Mais on sait quil est prisonnier dune bulle de Moët Et il finira par donner des shows case dans les couloirs du métro Pour enfin pouvoir toucher quelques pesos, Comode</t>
+          <t>Comode, tes un fatigué, un wack, ton style est sous prozac Taccroche au biz comme un morbak Yaura pas de come-back, comme dhab Comode si tu texiles sur la West Coast, on te surnomme 1 PAC Tas pas une phase rame sur le mic Personne veut de toi Tes mou comme Miou Miou, ton style est pas cool Mais vilain comme une poupée vaudou et zou ! Vire de là Oh my Lord, Oh my God Comode tes pas à la mode Fais pas ton cow boy, tes pas mon home boy, ni mon homie Tauras pas le buzz de Ousbourne Ozzy Pas de soucis, tas le verbe trop bouilli Surfe sur les tendances comme aux îles Maouii Ah oui joubliais, tes le roi de lincruste Tes pas tout puissant comme Bruce mais tu suces Comode il donne tout cquil a, chorégraphie Chant avec les filles, il donne moult galas Il est faux comme un steff cola, sex colhal Tu y penses grave, mais cesse le rap Si je te vexe connard, cest que les mecs comme toi me dégoûtent Prennent mon taffe pour un moyen de faire des sous Ouh Comode est comme ça, prêt à tout ! Faible et fourbe Une musicale esbroufe, ton flow est pure soupe Pour des llet-bi, prêt à brader ton son chez Liebig Tes llé-gri et aigri, yeah G, yeah cee Arrête de boire du Hennessee Tas quelque chose dun bouseux du Tennessee Des récits qui puent bon pour la lessive Et si, tu partais à Végas faire un show en bas résille ou à Memphis Bouge ici, personne ne taime fils Si avec ça tes pas disque dor Comode Rend ta plaque et mic et sors Comode Et retire toi des bacs, des Virgin et des Fnac Tente pas le comeback, come on, Comode Tu rêvais dêtre une panthère, mais tes le chat dMichou Nuit du chasseur, tes la viok, moi Robert Mitchum File moi lsac, et tes paroles en wood Car tes en haut dlaffiche, d MC en bois in the Hood , tchée Depuis tas tatoué KILLER sur les abdos, vilain tas pas dgoût Mais Hamdu, tes un ex comme Paula Abdul MC pour soirée mousse, Pouh, tempeste la loose Freestyle entre punch et barbecue Tes dégueulasse, tu casses pas la baraque, pourtant cest la parade Ça rappe pour lapparat, accroche au steak, rat comme la varappe Moche et frileux, fourbe et mielleux Tes hors jeu, oh les gars sifflez le, houou Comode, de la graine dempafé MC avec le cou vert oxydé par ta Grains de café factice Avec la chierie pactise, quelle sale tactique Pour ça nos lyrics ont lair grands quand tes rimes rapetissent Tes foireux comme des chals passés à loxyde On va toccire, enfouir tes cahiers comme un déchet toxique Mate le miroir, tu ny verras quun pauvre type Puis lfond des chiottes et ty trouveras ta prose cheap Le meilleur de tes sons ne fait pas un bon skit Il constipe, cest ton style, dans le noir il conspire En concert, le public a dit Allez on stire Même ta femme a dit Comode, mieux vaut quon squitte Tes faible, frêle, tas moins dpower quAustin Mes rimes, une encyclopédie et la tienne un post it AKH cest lalu et ton crew la bauxite Même les nazes rient de toi, tes le gag des postiches Si avec ça tes pas disque dor Comode Rend ta plaque et mic et sors Comode Et retire toi des bacs, des Virgin et des Fnac Tente pas le comeback, come on, Comode Eh répond à ce quiz qui sont les potes de Comode ? Des mecs du Bronx B Des mecs du Queens C Les Queers Ctenfoiré, tu peux le trouver là où ça pue la graine crâmée Là où la vibe ne vient jamais Il est tellement pourrave que lencre ne veut pas couler de son bic Ses rimes refusent de sortir de sa bouche Il cherche à se faire sponsoriser par Gros Cave Wear Cest un âne, cest un naze, cest un tocard ouais Il est trop pas West, il donne un mauvais Seawalk Il est pas dur, il est doux comme un putain dEwok Il a rien dans le ventre, même son ver solitaire veut sbarrer Dis-lui de faire un Gangsta Freestyle si tu veux tmarrer Jlai capté, cest son hobbie sla raconter Même sil a les couilles de Fredon le Hobbit Es-tu sûr qusa copine ne veut pas ltromper Car son string, la coquine, me la montré Sa pauvre mère croit quil a une plume de poète Mais on sait quil est prisonnier dune bulle de Moët Et il finira par donner des shows case dans les couloirs du métro Pour enfin pouvoir toucher quelques pesos, Comode</t>
         </is>
       </c>
     </row>
@@ -1024,7 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>This is One Shot, yeah yeah This is not a ??? Yeah man Hey Faf, Quinto dites leurs Jalane, Freeman... Ne m'invites pas dans tes soirées Drag-Queen Avec tes potes en string t'es fou Ne m'invites pas dans tes Song-Bway Show Je ne suis pas très techno, no, no, no... Ici, c'est One Shot.. Quinto Lusi dans la partie, c'est r'parti Ecoutes... Là Quand tu bouge sur.. ça Quand l'DJ met la voix tiennent là droit MC, DJ, tout terrain, tu doutes pas Mille et un styles dans tes oreilles Et celui qui trouve ça facile, ben qu'il fasse pareil Pour les dancehall Hi-Real, Lusi, sourire, mec Maintenant qu'j'ai bien gole-ri, je vais le pendre bien sec Respect à Taïro, respect à Nuttea, IAM dans l'trip avec nous Un écrit d'après minuit, pour une Dancehall Furie Tous sur la piste tant que les bonnes vibes existent Quand la musique enflamme les coeurs A cette chaleur qui resiste Faf l'a dit Danse dessus Ca va plus, mes associés kiffent ça, tu as vu Un H?? près de Ris-Pa, t'as vu Merci à l'équipe, c'était puissant les frère Fifi, Rico, Aïsha, Cécile, Léa, Véro, Ella, Paul, Mère ???? , elle s'améliore Si dieu veut, meilleur est cet avenir, les frères j'le pense fort You might also like One Shot dans la partie Entre les femmes, les petits Même si t'appelles la cavalerie J'tiens le pari qu'ils relèvent le défi On est que six mais on punit Avec des mots, des mélodies triées sur le parvis C'est sur scène qu'on sévit Jalane Tu crois que tu peux m'impressioner avec tes soirée en bois Mec, celui qui te parle ici, c'est Faf LaRage Dancehall Furie, Mars boogie Des mots qui se déguisent, faut qui s' dégazent J'sais pas si j'dois rentrer dans l'lards ou dans l'Art Façon standard, épaulé de Stormbringa C'est nos, nos, nos... Des trips de clandos Mec, c'est faux, faux, faux... Des dances Tropo Et des zéros, pros, pros, pros... T'y es pas, la zik c'est pas ça Mec, j't'explique même pas, tu comprendrais pas Tout mes potos d-d-d-d-dance dessus Axes toi sur le D-d-d-dancefloor, sur le mic Le Duc existe, des reportages plus sûr Plus culturels pur façon Dancefloor Come Again, blaireau, ici c'est du vrai Faf et Maniga et Rico dans la place sont près Franchement tes fausses soirées electronique, kitsch de merde Le Show-biz avant, c'était juste de l'herbe Et tu l'as dit mec, je fais faire un sale son sec Pas un son que les nazes récupèrent Après y se plaignent qu'on les rackettent LaRage et One Shot, on n'est pas dans ce trip Pas de tripes, notre trip c'est la zik Fuck les polémiques En étant son air et mon état, quand je pose en candidat Sans le son qui bondira, bon sang qui Bond y va mais pour savoir où tu vas Quand tu prend un chemin tu vois le mien comme celui de n'importe qui, restreint On s'comprend, le monde veut rester avec son compte plein Le bon temps reste un privilège dans cette vie de chien Dancehall, pas d'plainte, j'pense mol, pas d'bol J'mets le feu à fond dans le pays. Goal, qu'on m'gaule Qu'on m'colle une putain de colle, rimes collés au sol Blindés avec nos synthés, on tient le monopole Ah, t-t-tu traduis, qu'on étude le produit, qu'on fasse un produit Qu'un mauvais se réduit, je voudrais pas qu'on m'souhaite la mort A cause m'appelerais à mort, boy, ça c'est pas mon sort Et bon, j'fais pas ça pour l'or. oui, j'suis pas un Ténor Juste un boy du Dancefloor, Dancefloor, le but je dors encore et encore Ici le fric, ici, y'a pas de fric ici, ici c'est One Shot Whouaa t'occupe pour les cris Manamath, Manamath, Manamath, Manamath, Manamath, Manamath... Mates comme l'heure était, mache autour n'est pas si seul Chicote les soirée gaies ou écope ici pas testé cocotte T'inquiète pas y'a que des pilotes, tu prends une calotte C'est fait pour ça mon pote, Une ambiance cocotte Je prend le mic et j'galope, tukutu, tukutu, tukutu Y-yo, Y-yo, Y-yo Ne m'invites pas dans tes soirées Drag-Queen J'aime pas tes potes en string T'es fou Ne m'invites pas dans tes party-Bway Show Je ne suis pas très techno, no, no, no... T'es Fou Dancefloor Soirée Techno C'est dingue Hey Respect à Freeman, Nuttea, Jalane, Faf, Quinto Pour cette tuerie A là c'est à nous d'donner la furie, hey Select a..., select a..., rewind it again please Select a..., select a..., ho, ho, ho, ho, ho, hey C'est la Dancehall Furie Remède pour les âmes et les esprits C'est la Dancehall Furie Rangez vos lames et vos fusils J'transforme le hall de ton immeuble en Dancehall Faut qu'hésites et dance. Le Dancefloor, c'est ton cerveau Le DJ c'est toi si t'y pense, mixe avec tes songes et pense aux enjeux Ceux des cieux, pas ceux d'ici, ceux de dieux c'est eux les vrais anges Tes neurones, c'est le Bi-pôle sur mon bo-gueule Faut qu'ta matière grise s'agite, que ça bouge quand j'ouvre ma gueule Que dans ton esprits, ce soit eux, Garçons et Mademoiselles De Dakar jusqu'en Moselle, ma musique prend des ailes Disiz-ze-ze-ze-ze, comme à Ibiza Sans les dièse bizarre des dep, leurs faire ma misère M'as mise à ma miss, c'est moi chérie-coco, La musique mon cocon Une vingtaine de mesure sur la musique comme des flocons Mais, mais, mais Disiiiize, je les tue avec mon flow Dans le ghetto, c'est la Furie du Dancefloor J'explore ce soir, on va en boite... cranienne Taïro, Chill, Jo et Disiz sur les ondes hertziennes S'te plait, fais une boum dans ton cerveau, invite des idées positives Directive pour les videurs évites les pensées négatives Pour que ça porte dans ton bulbe, ecoute Disiz la Peste Que les good Vibes s'propulsent sur mon cerveau se la taise C'est la Dancehall Furie Remède pour les âmes et les esprits L'exode du sper de mon esprit et le son qui me sont investi Des sphères de mon cortex pour un chapitre inverti, poison mortel Dégénéré par des taies des choses sexi, nos rêves drivés par chuut Baby, Le ??? exitant les woui-woui Quand Je squatte le mic qui déchaine les Hhuuum Quand j'monte les Watt de mon salon style Habilis Fallait voir les faces des voisins criser sur la sound, Stevie La pourriture m'a suivie dans mon coeur comme une sangsue Et j'ai subie le raz de marée du rythme et ses lubies Prés d'l'arrêt du turf, les légendes d'mon équipe survivent S'inscrivirent dans les HiFi comme une nuit depuis en Georgie Ce son s'balade quelque part sur une touche Azerty Sur Mon, tu regrettes au marie, car ce beat est dirty Mon mic plaide pour une mélodie de furie Une équipe fourrée de styles de flows divers transforme ce Dancehall en tuerie Et pour les paru.., que dis-je une century Colloque d'alchimiste cherchant le Beat of the Century J'ramène l'HipHop à l'essence et sans les milles et cent incendies Dis-moi où est le rap quand les ---- jouent au plus bandits Et qui n'ont pas de sujets de lyrics sans Versus et Gucci J'leur réserve sur disque comme Apollo Creed, Une Boucherie Eh ouais, c'est comme ça, ici ça pête fort Ici, c'est One Shot, IAM sur le Dancefloor Et j'crois que c'est là qu'il faut que tu kiffes sur le son Que tu bloque sur le son, si ça le fait Faudrat qu'tu t'lache sur le son, que tu vives dans le son Que tu mette tout ce que t'as dans le son, dansant mais fais comme tu pense Dans le fond, tu glisse dans le son Lêve les bras, fais comme ceux qui sont sur FatTrack Faut que tu trique, trime à max, pour ça le Wax, un axe ou seul les as ont place Une chance de laisser une trace, on taperas fort sur rien d'autre Que les tympans et les cerveaux, un son de salauds pour les costauds Et un Flow de pro pour les potos qui pensent sur le son Qui chauffent sur le son, ceux qui préfèrent le sens dans le son assis sur le caisson Puissant, on vient planter ton son Je précise pour les Condés,on parle pas de baston Fils on vise le fun, la fête, Fuck ce qui divisent Les tête qui bouge sur le son, qui planent sur le son, qui pleurent sur le son Vu pour le son, les senseurs du son, qui plient sur le son, crient sous du son Et rient sur du son, et ceux qui comme vivent dans le son A fond et jusqu'en fin de partie, fiston Swinguent sur le son, hum Hum sur le son, oh oui sur le son, on pose sur le son On peut tuer sur le son</t>
+          <t>This is One Shot, yeah yeah This is not a ??? Yeah man Hey Faf, Quinto dites leurs Jalane, Freeman... Ne m'invites pas dans tes soirées Drag-Queen Avec tes potes en string t'es fou Ne m'invites pas dans tes Song-Bway Show Je ne suis pas très techno, no, no, no... Ici, c'est One Shot.. Quinto Lusi dans la partie, c'est r'parti Ecoutes... Là Quand tu bouge sur.. ça Quand l'DJ met la voix tiennent là droit MC, DJ, tout terrain, tu doutes pas Mille et un styles dans tes oreilles Et celui qui trouve ça facile, ben qu'il fasse pareil Pour les dancehall Hi-Real, Lusi, sourire, mec Maintenant qu'j'ai bien gole-ri, je vais le pendre bien sec Respect à Taïro, respect à Nuttea, IAM dans l'trip avec nous Un écrit d'après minuit, pour une Dancehall Furie Tous sur la piste tant que les bonnes vibes existent Quand la musique enflamme les coeurs A cette chaleur qui resiste Faf l'a dit Danse dessus Ca va plus, mes associés kiffent ça, tu as vu Un H?? près de Ris-Pa, t'as vu Merci à l'équipe, c'était puissant les frère Fifi, Rico, Aïsha, Cécile, Léa, Véro, Ella, Paul, Mère ???? , elle s'améliore Si dieu veut, meilleur est cet avenir, les frères j'le pense fort One Shot dans la partie Entre les femmes, les petits Même si t'appelles la cavalerie J'tiens le pari qu'ils relèvent le défi On est que six mais on punit Avec des mots, des mélodies triées sur le parvis C'est sur scène qu'on sévit Jalane Tu crois que tu peux m'impressioner avec tes soirée en bois Mec, celui qui te parle ici, c'est Faf LaRage Dancehall Furie, Mars boogie Des mots qui se déguisent, faut qui s' dégazent J'sais pas si j'dois rentrer dans l'lards ou dans l'Art Façon standard, épaulé de Stormbringa C'est nos, nos, nos... Des trips de clandos Mec, c'est faux, faux, faux... Des dances Tropo Et des zéros, pros, pros, pros... T'y es pas, la zik c'est pas ça Mec, j't'explique même pas, tu comprendrais pas Tout mes potos d-d-d-d-dance dessus Axes toi sur le D-d-d-dancefloor, sur le mic Le Duc existe, des reportages plus sûr Plus culturels pur façon Dancefloor Come Again, blaireau, ici c'est du vrai Faf et Maniga et Rico dans la place sont près Franchement tes fausses soirées electronique, kitsch de merde Le Show-biz avant, c'était juste de l'herbe Et tu l'as dit mec, je fais faire un sale son sec Pas un son que les nazes récupèrent Après y se plaignent qu'on les rackettent LaRage et One Shot, on n'est pas dans ce trip Pas de tripes, notre trip c'est la zik Fuck les polémiques En étant son air et mon état, quand je pose en candidat Sans le son qui bondira, bon sang qui Bond y va mais pour savoir où tu vas Quand tu prend un chemin tu vois le mien comme celui de n'importe qui, restreint On s'comprend, le monde veut rester avec son compte plein Le bon temps reste un privilège dans cette vie de chien Dancehall, pas d'plainte, j'pense mol, pas d'bol J'mets le feu à fond dans le pays. Goal, qu'on m'gaule Qu'on m'colle une putain de colle, rimes collés au sol Blindés avec nos synthés, on tient le monopole Ah, t-t-tu traduis, qu'on étude le produit, qu'on fasse un produit Qu'un mauvais se réduit, je voudrais pas qu'on m'souhaite la mort A cause m'appelerais à mort, boy, ça c'est pas mon sort Et bon, j'fais pas ça pour l'or. oui, j'suis pas un Ténor Juste un boy du Dancefloor, Dancefloor, le but je dors encore et encore Ici le fric, ici, y'a pas de fric ici, ici c'est One Shot Whouaa t'occupe pour les cris Manamath, Manamath, Manamath, Manamath, Manamath, Manamath... Mates comme l'heure était, mache autour n'est pas si seul Chicote les soirée gaies ou écope ici pas testé cocotte T'inquiète pas y'a que des pilotes, tu prends une calotte C'est fait pour ça mon pote, Une ambiance cocotte Je prend le mic et j'galope, tukutu, tukutu, tukutu Y-yo, Y-yo, Y-yo Ne m'invites pas dans tes soirées Drag-Queen J'aime pas tes potes en string T'es fou Ne m'invites pas dans tes party-Bway Show Je ne suis pas très techno, no, no, no... T'es Fou Dancefloor Soirée Techno C'est dingue Hey Respect à Freeman, Nuttea, Jalane, Faf, Quinto Pour cette tuerie A là c'est à nous d'donner la furie, hey Select a..., select a..., rewind it again please Select a..., select a..., ho, ho, ho, ho, ho, hey C'est la Dancehall Furie Remède pour les âmes et les esprits C'est la Dancehall Furie Rangez vos lames et vos fusils J'transforme le hall de ton immeuble en Dancehall Faut qu'hésites et dance. Le Dancefloor, c'est ton cerveau Le DJ c'est toi si t'y pense, mixe avec tes songes et pense aux enjeux Ceux des cieux, pas ceux d'ici, ceux de dieux c'est eux les vrais anges Tes neurones, c'est le Bi-pôle sur mon bo-gueule Faut qu'ta matière grise s'agite, que ça bouge quand j'ouvre ma gueule Que dans ton esprits, ce soit eux, Garçons et Mademoiselles De Dakar jusqu'en Moselle, ma musique prend des ailes Disiz-ze-ze-ze-ze, comme à Ibiza Sans les dièse bizarre des dep, leurs faire ma misère M'as mise à ma miss, c'est moi chérie-coco, La musique mon cocon Une vingtaine de mesure sur la musique comme des flocons Mais, mais, mais Disiiiize, je les tue avec mon flow Dans le ghetto, c'est la Furie du Dancefloor J'explore ce soir, on va en boite... cranienne Taïro, Chill, Jo et Disiz sur les ondes hertziennes S'te plait, fais une boum dans ton cerveau, invite des idées positives Directive pour les videurs évites les pensées négatives Pour que ça porte dans ton bulbe, ecoute Disiz la Peste Que les good Vibes s'propulsent sur mon cerveau se la taise C'est la Dancehall Furie Remède pour les âmes et les esprits L'exode du sper de mon esprit et le son qui me sont investi Des sphères de mon cortex pour un chapitre inverti, poison mortel Dégénéré par des taies des choses sexi, nos rêves drivés par chuut Baby, Le ??? exitant les woui-woui Quand Je squatte le mic qui déchaine les Hhuuum Quand j'monte les Watt de mon salon style Habilis Fallait voir les faces des voisins criser sur la sound, Stevie La pourriture m'a suivie dans mon coeur comme une sangsue Et j'ai subie le raz de marée du rythme et ses lubies Prés d'l'arrêt du turf, les légendes d'mon équipe survivent S'inscrivirent dans les HiFi comme une nuit depuis en Georgie Ce son s'balade quelque part sur une touche Azerty Sur Mon, tu regrettes au marie, car ce beat est dirty Mon mic plaide pour une mélodie de furie Une équipe fourrée de styles de flows divers transforme ce Dancehall en tuerie Et pour les paru.., que dis-je une century Colloque d'alchimiste cherchant le Beat of the Century J'ramène l'HipHop à l'essence et sans les milles et cent incendies Dis-moi où est le rap quand les ---- jouent au plus bandits Et qui n'ont pas de sujets de lyrics sans Versus et Gucci J'leur réserve sur disque comme Apollo Creed, Une Boucherie Eh ouais, c'est comme ça, ici ça pête fort Ici, c'est One Shot, IAM sur le Dancefloor Et j'crois que c'est là qu'il faut que tu kiffes sur le son Que tu bloque sur le son, si ça le fait Faudrat qu'tu t'lache sur le son, que tu vives dans le son Que tu mette tout ce que t'as dans le son, dansant mais fais comme tu pense Dans le fond, tu glisse dans le son Lêve les bras, fais comme ceux qui sont sur FatTrack Faut que tu trique, trime à max, pour ça le Wax, un axe ou seul les as ont place Une chance de laisser une trace, on taperas fort sur rien d'autre Que les tympans et les cerveaux, un son de salauds pour les costauds Et un Flow de pro pour les potos qui pensent sur le son Qui chauffent sur le son, ceux qui préfèrent le sens dans le son assis sur le caisson Puissant, on vient planter ton son Je précise pour les Condés,on parle pas de baston Fils on vise le fun, la fête, Fuck ce qui divisent Les tête qui bouge sur le son, qui planent sur le son, qui pleurent sur le son Vu pour le son, les senseurs du son, qui plient sur le son, crient sous du son Et rient sur du son, et ceux qui comme vivent dans le son A fond et jusqu'en fin de partie, fiston Swinguent sur le son, hum Hum sur le son, oh oui sur le son, on pose sur le son On peut tuer sur le son</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ouais, faut qu'ils pigent les mecs Faut qu'ils pigent ça Musique et danse dessus Tu vois cque jveux dire Chat ? danse dessus La rage mec, on danse dessus D'où tu viens, quoi qu'tu fasses Car des gars et des meufs mec ils dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue, mec ils dansent dessus Dansent dessus, dansent dessus Dansent dessus Ok, cest risqué, cest poser De parler danse sur un rythme swingué Cest exprès de rapper, lancer des rimes sensées Tfaire bouger sans regretter les faits Le rap qui danse, jrevendique si ça mplaît, quça nique, joublie Jemmerde les clowns que ça gêne quand je kiffe Les dancefloors ne se sont pas vidés en 86 Comme on disait, Funky Fresh fils, lâche tout cque tas fils Ma ligne directrice direct fils et reste peace À la fin de mes phrases et cest ça qui smanifeste fils Mais reste correct, le collectif rectifie on rec à lactif On scande des putain dtitres Certains osent pas, comment leur en vouloir Certains critiquent mec, quils aillent se faire voir Genre jsuis hip-hop, me la fais pas, tu bouges dans les autres boîtes Et si tu boudes ça, allez rentre chez toi Et lâche-moi Car des gars et des meufs, mec, ils dansent dessus You might also like Car des gars et des meufs, mec, ils dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue qui dansent dessus Des gars et des meufs, mec, qui dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue mec qui... Dansent dessus, bougent dessus, foncent dessus Défoncent la piste de danse dessus, déconnent dessus Si on ttraite de trou du cul, insulte Si on insiste celui qui pète, balayette et tu lui saute dessus Jentends des poufs Larage il rappe dessus Mais casse-toi, quand tu feras des concerts, tapprécieras dvoir un public qui bouge dessus Marre des hypocrites hardcorisés Jdonne un peace aux breakers, ceux qui savent encore samuser Eh mec il y a un temps pour tout Faut slibérer chaque fois quon peut dans cmonde qui nous pousse à devenir fou Y a assez dendroits où on rentre pas Tfaçon en général cest naze, mec il mfaut du vrai son pour ça Danse dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue mec ils dansent dessus Des gars et des meufs, mec, qui dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue mec ils dansent dessus Et partout Sur le dancefloor Ici cest One Shot Eh les meufs, faut pas être timides Les mecs, faut pas être stupides, cest le mix qui file Suffit qule DJ déchire Des fausses drogues artificielles genre chimiques, on sen cogne Cest mon cur et mon cerveau qui verront si jdéconne Cest ainsi mec, jveux parler des bouffons qui pètent Comme si je rentrais dans l'steak Faf, tas pas besoin dfaire ça Aucun d'ces blaireaux savent que jpeux faire ça Tu parles de tunes, je parle hip-hop, faut quils pigent ça Akos fait la zik et ça m'va ha ha ha One Shot ma clique sur c'coup-là ha ha ha Tous dans lmême taxi rimes nasty, artistiquement ça claque mec Articule si tu critiques Ton cur bout parce que tu sais qule crew kicke Sans tminik, real shit façon speed Genre rien à foutre, on kiffe mec, on Danse dessus Des gars et des meufs, mec, qui dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue qui dansent dessus One Shot, danse dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue qui dansent dessus Ouais, c'est ça Faf On continue à faire dla bonne musique mec Dire des choses vraies Cquon pense, et ça fera trembler les sphères Et ceux qui comprennent pas On leur on dit quoi On leur Danse dessus On leur ... dessus</t>
+          <t>Ouais, faut qu'ils pigent les mecs Faut qu'ils pigent ça Musique et danse dessus Tu vois cque jveux dire Chat ? danse dessus La rage mec, on danse dessus D'où tu viens, quoi qu'tu fasses Car des gars et des meufs mec ils dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue, mec ils dansent dessus Dansent dessus, dansent dessus Dansent dessus Ok, cest risqué, cest poser De parler danse sur un rythme swingué Cest exprès de rapper, lancer des rimes sensées Tfaire bouger sans regretter les faits Le rap qui danse, jrevendique si ça mplaît, quça nique, joublie Jemmerde les clowns que ça gêne quand je kiffe Les dancefloors ne se sont pas vidés en 86 Comme on disait, Funky Fresh fils, lâche tout cque tas fils Ma ligne directrice direct fils et reste peace À la fin de mes phrases et cest ça qui smanifeste fils Mais reste correct, le collectif rectifie on rec à lactif On scande des putain dtitres Certains osent pas, comment leur en vouloir Certains critiquent mec, quils aillent se faire voir Genre jsuis hip-hop, me la fais pas, tu bouges dans les autres boîtes Et si tu boudes ça, allez rentre chez toi Et lâche-moi Car des gars et des meufs, mec, ils dansent dessus Car des gars et des meufs, mec, ils dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue qui dansent dessus Des gars et des meufs, mec, qui dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue mec qui... Dansent dessus, bougent dessus, foncent dessus Défoncent la piste de danse dessus, déconnent dessus Si on ttraite de trou du cul, insulte Si on insiste celui qui pète, balayette et tu lui saute dessus Jentends des poufs Larage il rappe dessus Mais casse-toi, quand tu feras des concerts, tapprécieras dvoir un public qui bouge dessus Marre des hypocrites hardcorisés Jdonne un peace aux breakers, ceux qui savent encore samuser Eh mec il y a un temps pour tout Faut slibérer chaque fois quon peut dans cmonde qui nous pousse à devenir fou Y a assez dendroits où on rentre pas Tfaçon en général cest naze, mec il mfaut du vrai son pour ça Danse dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue mec ils dansent dessus Des gars et des meufs, mec, qui dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue mec ils dansent dessus Et partout Sur le dancefloor Ici cest One Shot Eh les meufs, faut pas être timides Les mecs, faut pas être stupides, cest le mix qui file Suffit qule DJ déchire Des fausses drogues artificielles genre chimiques, on sen cogne Cest mon cur et mon cerveau qui verront si jdéconne Cest ainsi mec, jveux parler des bouffons qui pètent Comme si je rentrais dans l'steak Faf, tas pas besoin dfaire ça Aucun d'ces blaireaux savent que jpeux faire ça Tu parles de tunes, je parle hip-hop, faut quils pigent ça Akos fait la zik et ça m'va ha ha ha One Shot ma clique sur c'coup-là ha ha ha Tous dans lmême taxi rimes nasty, artistiquement ça claque mec Articule si tu critiques Ton cur bout parce que tu sais qule crew kicke Sans tminik, real shit façon speed Genre rien à foutre, on kiffe mec, on Danse dessus Des gars et des meufs, mec, qui dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue qui dansent dessus One Shot, danse dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue qui dansent dessus Ouais, c'est ça Faf On continue à faire dla bonne musique mec Dire des choses vraies Cquon pense, et ça fera trembler les sphères Et ceux qui comprennent pas On leur on dit quoi On leur Danse dessus On leur ... dessus</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Dans le Hip Hop, le cave est une espèce répandue Dans son milieu naturel, avec ses amis, il survit Mais égaré, il est soumis à la dure loi de la prédation Dès lors que les troublantes créatures du marécage le guettent Ses chances de s'en sortir... sont bien maigres Je débarque, t'embarque dans ma barque, sois rassuré Desserre ton fion, viens dans mon bastion dans les marais Arrête de te marrer comme un taré, tout est carré mes mains sont palmées Des nageoires me poussent à force d'être flow au micro Calcule pas d'où je viens Si tu ne veux pas chavirer calme-toi et tiens-toi bien On se déplace en silence Pas de bruit, de nuisance Des coups de pagaie dans l'eau, on avance avec aisance Pense qu'un endroit, hors-loi, sans Etat Existe, rempli de miss, de bons films et de pera Derrière ce brouillard à couper au couteau, choqué tu le seras plus tôt Le rêve aux abords de cet îlot secret Pour les ordures qui ont la dalle, une salle de torture Où des milliards de moustiques te piquent jusqu'à usure Ta peau séchée, on l'attend pour faire des kayaks Tes os craquent, ton crâne sert à boire le cognac Avec nous, les alligators crèvent de faim On aime s'occuper à couper, découper les vauriens You might also like Le cave voit tout à coup son avenir fort compromis A la vue d'une flotte de kayaks morbides Les battements de son coeur s'accélèrent Il comprend le risque... Je reste dans mon marécage, sage, en méditation A la gachon, je guette l'inspiration dans un silence de plomb Concentration maximum, pas de distraction ou l'abortion pointe à l'horizon Mais ça croasse dans le buisson C'est la période nuptiale, les MC cherchent des micros Mais pas vous, les chours, pas de reproduction pour les crapauds De toute façon, ils sont là, à moi, rien que pour moi Maître céans, décrête que l'endroit n'est pas fait pour toi Trouve-toi un banjo, owo mets-toi au blues bayou Kikou, entre nous, arrête de faire le voyou Sois pas grippe-sou, un harmonica, ça vaut trois sous Le Monstre des Marais coule les vases dans la vase Aux caïmans les gueux, et compte pas sur Flipper pour te sauver Voilà le message je t'enverrai dans les cages de Faf La Rage Si tu traînes dans mon marécage A ce moment-là, le cave est tiré sous l'eau Sa seule chance ? La mythomanie Mais ses vêtements sentent trop le neuf Ils sentent trop la mauvaise video... Bienvenue dans le marécage où pas mal de MC jadis coulèrent Car de là, mes potes bombardent des bons beats sur Studer En place comme Nanard, de bon matin on y chasse du canard Vire des brêles presto à coups de panard Rembarque tes potes les bronques, tu fais le fous là Ici on fume la buddha, pas importée du plat pays du gouda Paye-toi un savon de Marseille, tu fais crépiter Geiger Mon équipe sort des geysers Des jets de mots, des jets de plume, des jets de pensée Tu penses bien que si l'INSEE recensait les MC tu serais pas relancé Romancé, je conterai ta fin avec l'accent, c'est le lycée Sur cahier de texte, t'y es trop absent, le CPE Chill sans figure t'exclut T'y a plus de classe, efface ton nom de bouchiasse Las de voir les caves gratter leur part de fromage Viens, je traîne un type sous le marécage Le cave est en apnée Il ne devrait pas sourire à la vue de l'animal Sinistrement majestueux qui s'avance vers lui Et qui lui tend la main Serait-ce un geste amical ? T'as vu ? Autrefois, enfant, tu lisais les comics et Appréciais la créature du marais Balivernes ! Ferme les yeux, te fais pas prier Je m'en vais, te faire visiter mes quartiers en vrai Le Duc de la scène Hip Hop de Marseille s'est posé là J'ai conquis, détruit, construit un palais et y ai mis Des cachots pleins d'emcees maudits On y torture et fouette les poufs qui pètent Il y a même des spectres casqués, masqués, pour le surveiller Des fois j'organise un tournoi de sélection mesquin Prends le gagnant, et faux ! Il en reste encore un Sors Stormbringer pour la bataille et là il réalise Qu'il aurait bien mieux fait de perdre, fils Le Marécage à l'image de Faf La Rage Cash avec les braves, pire avec les lâches Fais le fou dehors mais si tu écoutes ce morceau, poto Si tu es faux, souviens-toi du Duc, de son château du chaos, des cachots pour les blaireaux Dans le Marécage Il arrive très rarement qu'un cave naïf s'échappe en rampant dans la vase Blotti dans les roseaux, il cherche une porte vers la liberté L'espoir fait vivre, garçon Dans mon bastion, tends ton oreille pour comprendre Freeman, fils du soleil Sans oseille, je donne mes rimes, c'est , avec la rage quand je sors du marécage Fils, à ce qui paraît, tu check tes pages Fais gaffe à ton ménage, dans les deux cas c'est moi le veinard Un fêtard de pétards pour fêter ma victoire 23 grillés combattant dans le noir Buvard des textes Faux je peux encore me voir dans un miroir chaque matin Face aux têtards qui pètent Sept rimes suffisent pour provoquer l'invasion des sales mouettes Dehors, dedans, c'est pareil, mon équipe veille, structurée Rien n'est fait au hasard dans ce bazar, le marais Le manimal doit s'affirmer Poser la griffe, donner des gifles sur chaque son Kill pour les bêtes disciplinées Cave, eh, garde la foi, où que tu sois Dis-toi bien qu'on est là à guetter Guetté, une fois rattrapé, le cave est fini Le Marécage est vivement déconseillé, yo</t>
+          <t>Dans le Hip Hop, le cave est une espèce répandue Dans son milieu naturel, avec ses amis, il survit Mais égaré, il est soumis à la dure loi de la prédation Dès lors que les troublantes créatures du marécage le guettent Ses chances de s'en sortir... sont bien maigres Je débarque, t'embarque dans ma barque, sois rassuré Desserre ton fion, viens dans mon bastion dans les marais Arrête de te marrer comme un taré, tout est carré mes mains sont palmées Des nageoires me poussent à force d'être flow au micro Calcule pas d'où je viens Si tu ne veux pas chavirer calme-toi et tiens-toi bien On se déplace en silence Pas de bruit, de nuisance Des coups de pagaie dans l'eau, on avance avec aisance Pense qu'un endroit, hors-loi, sans Etat Existe, rempli de miss, de bons films et de pera Derrière ce brouillard à couper au couteau, choqué tu le seras plus tôt Le rêve aux abords de cet îlot secret Pour les ordures qui ont la dalle, une salle de torture Où des milliards de moustiques te piquent jusqu'à usure Ta peau séchée, on l'attend pour faire des kayaks Tes os craquent, ton crâne sert à boire le cognac Avec nous, les alligators crèvent de faim On aime s'occuper à couper, découper les vauriens Le cave voit tout à coup son avenir fort compromis A la vue d'une flotte de kayaks morbides Les battements de son coeur s'accélèrent Il comprend le risque... Je reste dans mon marécage, sage, en méditation A la gachon, je guette l'inspiration dans un silence de plomb Concentration maximum, pas de distraction ou l'abortion pointe à l'horizon Mais ça croasse dans le buisson C'est la période nuptiale, les MC cherchent des micros Mais pas vous, les chours, pas de reproduction pour les crapauds De toute façon, ils sont là, à moi, rien que pour moi Maître céans, décrête que l'endroit n'est pas fait pour toi Trouve-toi un banjo, owo mets-toi au blues bayou Kikou, entre nous, arrête de faire le voyou Sois pas grippe-sou, un harmonica, ça vaut trois sous Le Monstre des Marais coule les vases dans la vase Aux caïmans les gueux, et compte pas sur Flipper pour te sauver Voilà le message je t'enverrai dans les cages de Faf La Rage Si tu traînes dans mon marécage A ce moment-là, le cave est tiré sous l'eau Sa seule chance ? La mythomanie Mais ses vêtements sentent trop le neuf Ils sentent trop la mauvaise video... Bienvenue dans le marécage où pas mal de MC jadis coulèrent Car de là, mes potes bombardent des bons beats sur Studer En place comme Nanard, de bon matin on y chasse du canard Vire des brêles presto à coups de panard Rembarque tes potes les bronques, tu fais le fous là Ici on fume la buddha, pas importée du plat pays du gouda Paye-toi un savon de Marseille, tu fais crépiter Geiger Mon équipe sort des geysers Des jets de mots, des jets de plume, des jets de pensée Tu penses bien que si l'INSEE recensait les MC tu serais pas relancé Romancé, je conterai ta fin avec l'accent, c'est le lycée Sur cahier de texte, t'y es trop absent, le CPE Chill sans figure t'exclut T'y a plus de classe, efface ton nom de bouchiasse Las de voir les caves gratter leur part de fromage Viens, je traîne un type sous le marécage Le cave est en apnée Il ne devrait pas sourire à la vue de l'animal Sinistrement majestueux qui s'avance vers lui Et qui lui tend la main Serait-ce un geste amical ? T'as vu ? Autrefois, enfant, tu lisais les comics et Appréciais la créature du marais Balivernes ! Ferme les yeux, te fais pas prier Je m'en vais, te faire visiter mes quartiers en vrai Le Duc de la scène Hip Hop de Marseille s'est posé là J'ai conquis, détruit, construit un palais et y ai mis Des cachots pleins d'emcees maudits On y torture et fouette les poufs qui pètent Il y a même des spectres casqués, masqués, pour le surveiller Des fois j'organise un tournoi de sélection mesquin Prends le gagnant, et faux ! Il en reste encore un Sors Stormbringer pour la bataille et là il réalise Qu'il aurait bien mieux fait de perdre, fils Le Marécage à l'image de Faf La Rage Cash avec les braves, pire avec les lâches Fais le fou dehors mais si tu écoutes ce morceau, poto Si tu es faux, souviens-toi du Duc, de son château du chaos, des cachots pour les blaireaux Dans le Marécage Il arrive très rarement qu'un cave naïf s'échappe en rampant dans la vase Blotti dans les roseaux, il cherche une porte vers la liberté L'espoir fait vivre, garçon Dans mon bastion, tends ton oreille pour comprendre Freeman, fils du soleil Sans oseille, je donne mes rimes, c'est , avec la rage quand je sors du marécage Fils, à ce qui paraît, tu check tes pages Fais gaffe à ton ménage, dans les deux cas c'est moi le veinard Un fêtard de pétards pour fêter ma victoire 23 grillés combattant dans le noir Buvard des textes Faux je peux encore me voir dans un miroir chaque matin Face aux têtards qui pètent Sept rimes suffisent pour provoquer l'invasion des sales mouettes Dehors, dedans, c'est pareil, mon équipe veille, structurée Rien n'est fait au hasard dans ce bazar, le marais Le manimal doit s'affirmer Poser la griffe, donner des gifles sur chaque son Kill pour les bêtes disciplinées Cave, eh, garde la foi, où que tu sois Dis-toi bien qu'on est là à guetter Guetté, une fois rattrapé, le cave est fini Le Marécage est vivement déconseillé, yo</t>
         </is>
       </c>
     </row>
@@ -1075,7 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tous les jours tu te lèves et c'est reparti Chaque fois la même course le même circuit Chaque jour le même guichet la même file Et chaque fois la même phrase faudra rev'nir Tous les jours le même sitcom à la télé Des politiques gravement atteints de cécité Et tous les jours le même scénar' à peine modifié Celui qui t'rappelle qu'à la fin c'est toi qui va chialer Et tous les jours le même spectacle aux infos Guerres sanglantes, confusions et hausses des impôts Tous les jours le même loup dans ton rétro Parce que la vie y'a bien longtemps qu'elle ne fait plus de cadeau Et tous les jours les même craintes et les même souhaits Trouver des sous et tenir le coup jusqu'au jour d'après Tous les jours les même crèvent et les même piqués Les même polices les même tasers toujours les même gazés Et tous les jours tu chutes et on te dit que tout va bien On te fait voir qu'y'a pire qu'ailleurs pour que tu te sentes bien Tous les jours la misère du monde est servie aux repas Ton frigo vide c'est sur pendant c'temps là tu penses pas Tous les jours les même regards les même soupçons Les même idées à la con les même fantômes à l'horizon Tous les jours y'a un poids de plus dans ton sac à dos Et pas l'temps de l'arrêt sur une aire de repos x2 Pour payer leurs conneries t'es dans le viseur Besoin de consommateurs t'es aussi dans le viseur Le bouc émissaire le parfait coupable dans le viseur Taffer plus pour gagner moins t'es encore dans le viseur Derrière la fenêtre tu regardes dehors Appréhende quand tu sors pour affronter la mort Les temps sont hard et la chance qui s'fait la malle Tiser tout l'week-end amorti le mal Le cash flotte au bout des bronzes sur des Yacht homie Des biatchs en Gucci sur Youtube elles font même plus envie Tu te maintiens dans la course par automatisme Ce maudit chien qui vient et pisse sur le tapis La pub te séduit la télé te l'dit Un PV pour la nuit un CV pour l'ennui L'hypnose est telle que leurs lois passent haut la main fils Tes pokémons s'en branlent du lendemain fils Un funambule entre deux fossés riche et pauvre tu trembles tu risques fort de finir dans le trou des ombres Alors la majorité sur le fil voudrait Sort de la routine et la famille peut se briser Faut assumer le danger, être refait à la régulière sans coup de pouce tous les jours le genoux à terre Tous les mois les compteurs à zéro, figer la progression trop minime à l'heure où les verrous doivent sauter Dites aux kids que les comptes de fée sont killés La survie parasite en paradis oublié Khouya la mécanique est rouillée les héros de déçus sont blasés tous les jours fauchés par un train de vie au pied des sommets x2 Pour payer leurs conneries t'es dans le viseur Besoin de consommateurs t'es aussi dans le viseur Le bouc émissaire le parfait coupable dans le viseur Taffer plus pour gagner moins t'es encore dans le viseurYou might also like</t>
+          <t>Tous les jours tu te lèves et c'est reparti Chaque fois la même course le même circuit Chaque jour le même guichet la même file Et chaque fois la même phrase faudra rev'nir Tous les jours le même sitcom à la télé Des politiques gravement atteints de cécité Et tous les jours le même scénar' à peine modifié Celui qui t'rappelle qu'à la fin c'est toi qui va chialer Et tous les jours le même spectacle aux infos Guerres sanglantes, confusions et hausses des impôts Tous les jours le même loup dans ton rétro Parce que la vie y'a bien longtemps qu'elle ne fait plus de cadeau Et tous les jours les même craintes et les même souhaits Trouver des sous et tenir le coup jusqu'au jour d'après Tous les jours les même crèvent et les même piqués Les même polices les même tasers toujours les même gazés Et tous les jours tu chutes et on te dit que tout va bien On te fait voir qu'y'a pire qu'ailleurs pour que tu te sentes bien Tous les jours la misère du monde est servie aux repas Ton frigo vide c'est sur pendant c'temps là tu penses pas Tous les jours les même regards les même soupçons Les même idées à la con les même fantômes à l'horizon Tous les jours y'a un poids de plus dans ton sac à dos Et pas l'temps de l'arrêt sur une aire de repos x2 Pour payer leurs conneries t'es dans le viseur Besoin de consommateurs t'es aussi dans le viseur Le bouc émissaire le parfait coupable dans le viseur Taffer plus pour gagner moins t'es encore dans le viseur Derrière la fenêtre tu regardes dehors Appréhende quand tu sors pour affronter la mort Les temps sont hard et la chance qui s'fait la malle Tiser tout l'week-end amorti le mal Le cash flotte au bout des bronzes sur des Yacht homie Des biatchs en Gucci sur Youtube elles font même plus envie Tu te maintiens dans la course par automatisme Ce maudit chien qui vient et pisse sur le tapis La pub te séduit la télé te l'dit Un PV pour la nuit un CV pour l'ennui L'hypnose est telle que leurs lois passent haut la main fils Tes pokémons s'en branlent du lendemain fils Un funambule entre deux fossés riche et pauvre tu trembles tu risques fort de finir dans le trou des ombres Alors la majorité sur le fil voudrait Sort de la routine et la famille peut se briser Faut assumer le danger, être refait à la régulière sans coup de pouce tous les jours le genoux à terre Tous les mois les compteurs à zéro, figer la progression trop minime à l'heure où les verrous doivent sauter Dites aux kids que les comptes de fée sont killés La survie parasite en paradis oublié Khouya la mécanique est rouillée les héros de déçus sont blasés tous les jours fauchés par un train de vie au pied des sommets x2 Pour payer leurs conneries t'es dans le viseur Besoin de consommateurs t'es aussi dans le viseur Le bouc émissaire le parfait coupable dans le viseur Taffer plus pour gagner moins t'es encore dans le viseur</t>
         </is>
       </c>
     </row>
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Des thèmes trop durs pour l'esprit trop pur, c'est ça dans le lard Un son qui frappe et laisse des blessures, c'est ça dans le lard Ça pouvait pas se passer sans nous, fallait qu'ils voient de quoi on est capables Si fait entend ce rap sans palabre, sifflet comme sirène en temps de guerre Si t'es prêt je le suis aussi autant pas se faire attendre Tant de tympans se tendent autant se faire entendre et tendre L'atmosphère, j'écris sur les nerfs quand le calme a la vie dure Du coup les mains parlent ou tombent comme trop de volonté par balle clouée au mur Un flux de pensée cure un flot de maux, un sombre flow pour une guerre Sans couteaux, censée tirer vers le haut mais en haut On me prête pas une oreille j'insiste et ça me tiens en éveil le sommeil Facilite l'hypnose et sclérose à haute dose et le réveil À la carte vermeil servira à rien ici y'a pas de Saints Pour mon art c'est dans le lard que je taille mon chemin Refrain x2 Hey rho fous le son à fond dans la stéréo C'est La Garde au micro et tu sais que c'est chaud Quand ça rentre dans l'lard c'est parce qu'il le faut Si le son est brut frérot Analyse les nuances un flow qui se danse c'est insensé Ni prudence ni style vont te sauver Danse dessus, c'est ce que je préconise, fils c'est ma shit C'est ma putain de vie Hip Hop ma devise Et je rends hommage à ceux qui ont tenu le coup mec on sait qu'c'est Pas toujours évident de percer, les dents acérées Rho, DJ joue les bons titres que je kiffe Ça a changé mon avenir aujourd'hui je mack Comme un pimp de 7O Funky comme Biz J'ai la rage dans le mic swing les assonances dans la partie Avec speed l'ego trippin' j'ai trop de victimes Fait effet caféine sur le public, c'est l'Enc Et son son de dingue select, next c'est la guerre Dans l'lard mes textes ma tête finit la fête mec You might also likeRefrain Hey rho fous le son à fond dans la stéréo C'est La Garde au micro et tu sais que c'est chaud Quand ça rentre dans l'lard c'est parce qu'il le faut Si le son est brut frérot La Garde un toast porté à ceux qui l'on cru les bougres Gesticulent entre les dents du temps qui a toujours les crocs Diseur d'images sombres juvre dans l'ombre telle une goutte d'eau Sous des trombes d'encre j'inonde irrigue je remue ceux qui jettent leur ancre Jusqu'au cou mais conscient même battu jusqu'au sang je tiens le coup Mais bon sang dur de rester debout jusqu'au bout Dans l'lard fils c'est comme ça qu'on fait sinon ils t'entendent pas Ils te voient pas ils savent pas qui t'es faut que ça change ça Ça, ça fait une paye qu'on représente et ça change quoi ? Tout quand les potos dans les concerts Jump Jump sur ça Foxafile quand chaque fois je rempile Te biles pas On se lasse pas Shurik'N Faf Larage Dans l'lard c'est La Garde on meurt mais on se rend pas Trop haut le niveau pour les MCs je kiffe pas C'est ça dans l'lard, déblaye le terrain pour les braves Des lyrics qui taillent C'est ça dans l'lard !</t>
+          <t>Des thèmes trop durs pour l'esprit trop pur, c'est ça dans le lard Un son qui frappe et laisse des blessures, c'est ça dans le lard Ça pouvait pas se passer sans nous, fallait qu'ils voient de quoi on est capables Si fait entend ce rap sans palabre, sifflet comme sirène en temps de guerre Si t'es prêt je le suis aussi autant pas se faire attendre Tant de tympans se tendent autant se faire entendre et tendre L'atmosphère, j'écris sur les nerfs quand le calme a la vie dure Du coup les mains parlent ou tombent comme trop de volonté par balle clouée au mur Un flux de pensée cure un flot de maux, un sombre flow pour une guerre Sans couteaux, censée tirer vers le haut mais en haut On me prête pas une oreille j'insiste et ça me tiens en éveil le sommeil Facilite l'hypnose et sclérose à haute dose et le réveil À la carte vermeil servira à rien ici y'a pas de Saints Pour mon art c'est dans le lard que je taille mon chemin Refrain x2 Hey rho fous le son à fond dans la stéréo C'est La Garde au micro et tu sais que c'est chaud Quand ça rentre dans l'lard c'est parce qu'il le faut Si le son est brut frérot Analyse les nuances un flow qui se danse c'est insensé Ni prudence ni style vont te sauver Danse dessus, c'est ce que je préconise, fils c'est ma shit C'est ma putain de vie Hip Hop ma devise Et je rends hommage à ceux qui ont tenu le coup mec on sait qu'c'est Pas toujours évident de percer, les dents acérées Rho, DJ joue les bons titres que je kiffe Ça a changé mon avenir aujourd'hui je mack Comme un pimp de 7O Funky comme Biz J'ai la rage dans le mic swing les assonances dans la partie Avec speed l'ego trippin' j'ai trop de victimes Fait effet caféine sur le public, c'est l'Enc Et son son de dingue select, next c'est la guerre Dans l'lard mes textes ma tête finit la fête mec Refrain Hey rho fous le son à fond dans la stéréo C'est La Garde au micro et tu sais que c'est chaud Quand ça rentre dans l'lard c'est parce qu'il le faut Si le son est brut frérot La Garde un toast porté à ceux qui l'on cru les bougres Gesticulent entre les dents du temps qui a toujours les crocs Diseur d'images sombres juvre dans l'ombre telle une goutte d'eau Sous des trombes d'encre j'inonde irrigue je remue ceux qui jettent leur ancre Jusqu'au cou mais conscient même battu jusqu'au sang je tiens le coup Mais bon sang dur de rester debout jusqu'au bout Dans l'lard fils c'est comme ça qu'on fait sinon ils t'entendent pas Ils te voient pas ils savent pas qui t'es faut que ça change ça Ça, ça fait une paye qu'on représente et ça change quoi ? Tout quand les potos dans les concerts Jump Jump sur ça Foxafile quand chaque fois je rempile Te biles pas On se lasse pas Shurik'N Faf Larage Dans l'lard c'est La Garde on meurt mais on se rend pas Trop haut le niveau pour les MCs je kiffe pas C'est ça dans l'lard, déblaye le terrain pour les braves Des lyrics qui taillent C'est ça dans l'lard !</t>
         </is>
       </c>
     </row>
@@ -1109,7 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>OK mec c'est quoi tes ambitions? On s'en cogne! Avoir du fric pour le dépenser chez ceux qui te contrôlent On est des bufs cherche pas On peut pas refaire le monde C'est pas notre destinée, on n'est pas fait pour ça Alors c'est quoi? Payer des factures, galérer dans la rue Se prendre la tête sur nos sorts, c'qu'on endure J'ai pas les couilles de m'investir si au bout y a pas de profit 68 c'est fini, 9-8 ce qui prime... L'économie, l'ère des comptes en banque arrive On te l'intègre chaque jour dans ta tête fils Tu marches ou tu crèves, 9-9 des courbes exponentielles Pour commenter la merde et les séquelles C'est toujours les mêmes qui raquent Toujours les mêmes qui crachent Toujours les mêmes qui font en sorte que tu restes en bas Des fois on sort la tête de l'eau et tant mieux Moi j'ai ma musique, si on m'l'enlève je suis une merde sérieux Mais l'flouze revient au même endroit, fils t'as rien à toi Regarde ta vie faite de crédits et de prêts si t'as d'la chance On croit s'en être sorti Tellement que les mecs qui font la manche on les dégage avec le sourire C'est pas qu'on les hait mais c'est trop proche de c'qu'on peut devenir Ça rassure de voir qu'y a pire, alors vaut mieux en rire J'aurais aimé être un leader, illusions Les vrais leaders ils s'font tous buter à la fin, fils c'est pas bon Toute façon j'ai envie de suivre personne, mais Si j'me bats aujourd'hui, c'est clair c'est pas moi qui vais en profiter La vie c'est le vier, j'essaie de m'raccrocher à quelques principes Style vieux jeu sans m'faire bouffer Trop cool? On t'bouffe! Trop con? On t'bouffe! Trop gentil? Trop fier? On t'bouffe! Alors... You might also like Délires en vrac Délires en vrac Délires... Délires en vrac Peace Love on en rigole, c'est dire s'ils nous ont eus J'suis pas fou, je veux ma part de rêve, on m'donne du fil à retordre Casse tout, fout l'souk, et pour qu'on s'intéresse à nous On braque le type du dessous C'est pas la solution, mais on s'en fout pauv' con Pas vu pas pris Pour survivre faut des fonds Y a des gens pas nets, des gens honnêtes Des gens même qui s'prennent la tête, des gens bêtes Et faut faire avec Y a des gosses qui tirent pour le délire, c'est chaud En taule ils s'rendent compte que c'est pas rigolo Et c'est pas rigolo, non c'est pas rigolo Quand quelqu'un se prend une balle ça n'a rien de réglo Symptômes de la misère? Mal de vivre? On n'est pas en guerre, si, mais faut pas s'tromper de cible Si on s'livre, si on abandonne ils auront gagné Mais qui? Ceux qui tiennent les rênes que tu vois jamais On nous laisse croire que le remède c'est l'boulot Mais la plupart des chômeurs jouent tous au Loto, vrai ou faux? C'est n'importe quoi Mais quand on voit les projets foireux de l'Etat Putain du fric y en a Y a pas d'fauteuil pour deux T'façon j'ai pas envie de partager l'mien avec un bourge fier et péteux Hors jeu, pas question de vendre mon cul pour être accepté Pas question y a trop de cons qui l'font et c'est Normal quand tu l'ouvres on te noie À cause de cela y a plus personne qui se bat Le sexe, un des rares moments Où tu déconnectes vraiment C'est simplement humain et encore j'reste sceptique Y a trop d'maniaques, trop d'pourris Trop de merdes qui viennent te gâcher ça aussi On devient méfiant, égoïste, individualiste Tout est programmé fils C'est comme ça qu'ils nous fixent Pose la question, le bout d'tout ça c'est pas net Est-ce qu'on est là pour engraisser 5 d'la planète? Tout le monde veut sa part du gâteau, à part tes scrupules Ton âme, qu'est ce que t'as à perdre poto? À quoi bon philosopher, y en a qui prévoient l'apocalypse Je veux accomplir ma tâche avant le sinistre</t>
+          <t>OK mec c'est quoi tes ambitions? On s'en cogne! Avoir du fric pour le dépenser chez ceux qui te contrôlent On est des bufs cherche pas On peut pas refaire le monde C'est pas notre destinée, on n'est pas fait pour ça Alors c'est quoi? Payer des factures, galérer dans la rue Se prendre la tête sur nos sorts, c'qu'on endure J'ai pas les couilles de m'investir si au bout y a pas de profit 68 c'est fini, 9-8 ce qui prime... L'économie, l'ère des comptes en banque arrive On te l'intègre chaque jour dans ta tête fils Tu marches ou tu crèves, 9-9 des courbes exponentielles Pour commenter la merde et les séquelles C'est toujours les mêmes qui raquent Toujours les mêmes qui crachent Toujours les mêmes qui font en sorte que tu restes en bas Des fois on sort la tête de l'eau et tant mieux Moi j'ai ma musique, si on m'l'enlève je suis une merde sérieux Mais l'flouze revient au même endroit, fils t'as rien à toi Regarde ta vie faite de crédits et de prêts si t'as d'la chance On croit s'en être sorti Tellement que les mecs qui font la manche on les dégage avec le sourire C'est pas qu'on les hait mais c'est trop proche de c'qu'on peut devenir Ça rassure de voir qu'y a pire, alors vaut mieux en rire J'aurais aimé être un leader, illusions Les vrais leaders ils s'font tous buter à la fin, fils c'est pas bon Toute façon j'ai envie de suivre personne, mais Si j'me bats aujourd'hui, c'est clair c'est pas moi qui vais en profiter La vie c'est le vier, j'essaie de m'raccrocher à quelques principes Style vieux jeu sans m'faire bouffer Trop cool? On t'bouffe! Trop con? On t'bouffe! Trop gentil? Trop fier? On t'bouffe! Alors... Délires en vrac Délires en vrac Délires... Délires en vrac Peace Love on en rigole, c'est dire s'ils nous ont eus J'suis pas fou, je veux ma part de rêve, on m'donne du fil à retordre Casse tout, fout l'souk, et pour qu'on s'intéresse à nous On braque le type du dessous C'est pas la solution, mais on s'en fout pauv' con Pas vu pas pris Pour survivre faut des fonds Y a des gens pas nets, des gens honnêtes Des gens même qui s'prennent la tête, des gens bêtes Et faut faire avec Y a des gosses qui tirent pour le délire, c'est chaud En taule ils s'rendent compte que c'est pas rigolo Et c'est pas rigolo, non c'est pas rigolo Quand quelqu'un se prend une balle ça n'a rien de réglo Symptômes de la misère? Mal de vivre? On n'est pas en guerre, si, mais faut pas s'tromper de cible Si on s'livre, si on abandonne ils auront gagné Mais qui? Ceux qui tiennent les rênes que tu vois jamais On nous laisse croire que le remède c'est l'boulot Mais la plupart des chômeurs jouent tous au Loto, vrai ou faux? C'est n'importe quoi Mais quand on voit les projets foireux de l'Etat Putain du fric y en a Y a pas d'fauteuil pour deux T'façon j'ai pas envie de partager l'mien avec un bourge fier et péteux Hors jeu, pas question de vendre mon cul pour être accepté Pas question y a trop de cons qui l'font et c'est Normal quand tu l'ouvres on te noie À cause de cela y a plus personne qui se bat Le sexe, un des rares moments Où tu déconnectes vraiment C'est simplement humain et encore j'reste sceptique Y a trop d'maniaques, trop d'pourris Trop de merdes qui viennent te gâcher ça aussi On devient méfiant, égoïste, individualiste Tout est programmé fils C'est comme ça qu'ils nous fixent Pose la question, le bout d'tout ça c'est pas net Est-ce qu'on est là pour engraisser 5 d'la planète? Tout le monde veut sa part du gâteau, à part tes scrupules Ton âme, qu'est ce que t'as à perdre poto? À quoi bon philosopher, y en a qui prévoient l'apocalypse Je veux accomplir ma tâche avant le sinistre</t>
         </is>
       </c>
     </row>
@@ -1126,7 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Dans ces chemins où on se perd, où beaucoup sont à la traîne On en oublie lessentiel sur cette Terre, demande pardon Y a plus la place pour penser aux autres Alors qui sera là pour les nôtres ? En 2007 les gens ont peur, les gens ont froid, en ont marre de la merde Celle même que l'on continue à générer même Si ça nous coûte, nous bouffe, y a plus de limites On l'élève à un rang où revenir en arrière devient impossible Le danger c'est l'homme et ses excès de conduite Jen suis un alors ma conscience guide ma zik Je demande pardon pour tout ce que jai fait de mauvais Ce que jai pas fait quand il le fallait Des notes non publiées et dans les cahiers de nos vies Trop de ratures ont sévi, de larmes inassouvies Je te connais pas, mais arrête, je sais qu'au fond de toi c'est pareil Depuis l'enfance on apprend tous à vivre avec nos faiblesses De l'autre côté du globe on se blesse Nous on laisse, pardon pour ces gosses qui vivent le stress La liberté au bout du canon, et pas question de sagesse Au loin, le sang bout plus que de raison Je te demande pardon sérieux pour les fois Où devant mon écran je t'ai vu souffrir sans le son Où dans la rue parmi les klaxons sans un rond C'est nous qui devrions avoir honte pour de bon You might also likex2 Dans ces chemins où on se perd, où beaucoup sont à la traîne On en oublie lessentiel sur cette Terre, demande pardon Y'a plus la place pour penser aux autres Alors qui sera là pour les nôtres ? Il faut que tu nous excuses de n'être que des humains Des machines paradoxales avec beaucoup de craintes Je demande pardon pour nos curs de pierre Quand la colère ronge le cerveau, prêt à faire mal, quitte à frôler l'Enfer Quand les lames et les revolvers opèrent Parce que dans la tête y a plus rien qui espère Pour la misère de nos pères et nos mères Dire si on les aime avant de quitter cette Terre Pour les mauvais choix, les paroles en l'air L'air de rien quand on méprise sans en avoir l'air Tu le sais, j'ai pas le pouvoir de tout changer Je fais pas la course au vote mais je suis en quête de vérité Et pour ce que mon pays t'a fait, tu sais j'étais pas né On en paye tous les conséquences, on va pas esquiver Je te demande pardon pour leurs promesses Pour leur commerce qu'ils t'infligent en mon nom Ici on est trop occupés à se bouffer Ils nous foutent dans la merde avec succès pour oublier Pardon pour être là à regarder sans bouger, pire t'écraser pour exister x2 Dans ces chemins où on se perd, où beaucoup sont à la traîne On en oublie lessentiel sur cette Terre, demande pardon Y'a plus la place pour penser aux autres Alors qui sera là pour les nôtres ?</t>
+          <t>Dans ces chemins où on se perd, où beaucoup sont à la traîne On en oublie lessentiel sur cette Terre, demande pardon Y a plus la place pour penser aux autres Alors qui sera là pour les nôtres ? En 2007 les gens ont peur, les gens ont froid, en ont marre de la merde Celle même que l'on continue à générer même Si ça nous coûte, nous bouffe, y a plus de limites On l'élève à un rang où revenir en arrière devient impossible Le danger c'est l'homme et ses excès de conduite Jen suis un alors ma conscience guide ma zik Je demande pardon pour tout ce que jai fait de mauvais Ce que jai pas fait quand il le fallait Des notes non publiées et dans les cahiers de nos vies Trop de ratures ont sévi, de larmes inassouvies Je te connais pas, mais arrête, je sais qu'au fond de toi c'est pareil Depuis l'enfance on apprend tous à vivre avec nos faiblesses De l'autre côté du globe on se blesse Nous on laisse, pardon pour ces gosses qui vivent le stress La liberté au bout du canon, et pas question de sagesse Au loin, le sang bout plus que de raison Je te demande pardon sérieux pour les fois Où devant mon écran je t'ai vu souffrir sans le son Où dans la rue parmi les klaxons sans un rond C'est nous qui devrions avoir honte pour de bon x2 Dans ces chemins où on se perd, où beaucoup sont à la traîne On en oublie lessentiel sur cette Terre, demande pardon Y'a plus la place pour penser aux autres Alors qui sera là pour les nôtres ? Il faut que tu nous excuses de n'être que des humains Des machines paradoxales avec beaucoup de craintes Je demande pardon pour nos curs de pierre Quand la colère ronge le cerveau, prêt à faire mal, quitte à frôler l'Enfer Quand les lames et les revolvers opèrent Parce que dans la tête y a plus rien qui espère Pour la misère de nos pères et nos mères Dire si on les aime avant de quitter cette Terre Pour les mauvais choix, les paroles en l'air L'air de rien quand on méprise sans en avoir l'air Tu le sais, j'ai pas le pouvoir de tout changer Je fais pas la course au vote mais je suis en quête de vérité Et pour ce que mon pays t'a fait, tu sais j'étais pas né On en paye tous les conséquences, on va pas esquiver Je te demande pardon pour leurs promesses Pour leur commerce qu'ils t'infligent en mon nom Ici on est trop occupés à se bouffer Ils nous foutent dans la merde avec succès pour oublier Pardon pour être là à regarder sans bouger, pire t'écraser pour exister x2 Dans ces chemins où on se perd, où beaucoup sont à la traîne On en oublie lessentiel sur cette Terre, demande pardon Y'a plus la place pour penser aux autres Alors qui sera là pour les nôtres ?</t>
         </is>
       </c>
     </row>
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ALGÉRIE - Abis - Ademo - ADK - Aketo - Aladin 135 - Ashe 22 - Bakar - Bakyl - Bena - Benab - Bigflo Oli - Bilk - Bilton - Carlito - COR - Deen Burbigo - Demon One - Dioussa - Djadja - Doria - Dwen - El Matador - Espiiem - Freeman - Gambino - Gips - GLK - Grizzly 942 - Gueule dAnge - Haristone - Hayce Lemsi - Heuss l'Enfoiré - Hooss - Hornet La Frappe - Houari - Infinit - Jarod - Jayel - KD - Kofs - Koma - Krilino - La F - La Péee - Lacrim - L'Algérino - LAllemand - LIM - Médine - Mehdi Yz - Mess - Moha - Moha La Squale - Morad Scred Connexion - Mougli - Naps - Nemir - Nini Mess - NOR - N.O.S - RD - Rim'k - Rimkus - RK - Rocé - Rousnam - Sat - Scurl - Sifax - Sinik - Sofiane - Soolking - Soso Maness - Stony Stone - Volts Face - Wit - Worms T - YL - Youssef Swatt's - Zbig - Ziak - Zino You might also likeALLEMAGNE - Malty 2BZ - Sch ANDALOUSIE - Josas ANGOLA - Josman - Jova TLZ Clan - Sasuke - Stavo ARGENTINE - Bigflo Oli - Godié - Jazzy Bazz - Lonepsi - Keny Arkana - Rocé ARMÉNIE - Hyacinthe - Lefty - Missak BELGIQUE - Disiz - JeanJass - Stromae BÉNIN - Kohndo - Melopheelo - Ol Kainry - thaHomey - Zoxea BRÉSIL - Cacou - Esteban BURKINA FASO - Cassidy X-Men - Shone BURUNDI - Geeeko CAMBODGE - K.E.R - Malty 2BZ CAMEROUN - Bayass - Beendo Z - Benash - BR aka Block Rider - Brvmsoo - Cahiips - Cashmire - Dinos - Dosseh - Driver - Elh Kmer - Gambi - Ichon - Ill - Katana - K.Point - Lalcko - Lionceau - LMB - Mac Tyer - MC Jean Gab'1 - Mister V - Moyomola - Nakk Mendosa - Osirus Jack - P-dro - Pit Baccardi - Pulkra - Rafleur - Sasuke - Slkrack - T2R - Tayc - Tuerie - Vesti - WaiV - WeRenoi - Yamê - Yseult - Zefor CAP-VERT - Briganté - Bilouki - Jacky Brown - Stomy Bugsy - Zekwé Ramos CENTRAFRIQUE - Dany Dan - Jo Dalton - IPNDEGO - Leys CHILI - Flaco Mundo CHYPRE - Diam's COLOMBIE - Favé - Hippocampe Fou - Rocca - Tortoz COMORES - 100 Blaze - 1pliké140 - 3010 - Alonzo - ALR - Benito - Bné - Bouska - Croma - Elams - Djado Mado - Goulam - Guirri Mafia - HK - Houssein - I.K - Ikbal - Kolo La R - Mapess - Menzo - Mister C - MOH - Mous-k - Nini Mess - Noname - La M - Le Neh - Péké - Rayad - R.E.D.K - Rohff - S.TEBAN - Saf - So La Lune - Soprano - Sultan - Thabiti - Vincenzo - Cobralaz CONGO BRAZZAVILLE - Abd al Malik - Ben-J - Calbo - Doc TMC - Docks - Dry - G-Kill - IDS - Kamini - KLN - Koba LaD - Lino - Naza - Niska - Passi - Ppros - Siboy - Stos CONGO KINSHASA - Al Patch - Arma Jackson - Bazbaz - Bedjik - Beny - Bilouki - Black Brut - Blaz Pit - Bokalossa - Bolémvn - Bosh - Braki - Captaine Roshi - Cash Crime - Cheu-B - Chily - Cinco - Da Uzi - Dadju - Dalsim - Damso - Dasko - David Okit - Davinhor - Despo Rutti - Diddi Trix - Dorseaux - Douma - El9 - Enfantdepauvres - Escobar Macson - Fally Ipupa - Franglish - Frenetik - Fresh La Peufra - Gambino La MG - Gianni - Gradur - Green Montana - Grödash - Guy2Bezbar - IDS - Irvin - ISHA - Jaymax - JNR Slice - John Cruipy - Josman - HD La Relève - Kaflo - Kalash Criminel - Kaza - KeBlack - Kellzer - KLN - Kobo - Kodes - Kozi - Krisy - La Fève - LAFINANCIERE - Landy - Le Motif - Le Risque - Lee Boma - Leust - Leto - Leys - Maître Gims - Makala - MIG - Moka Boka - Nahir - Naza - Ninho - Noah Lunsi - Poison - Prototype - Rizno - Rozzy - Shay - Skodri - Stavo - S-Pi - Theodora - Tiakola - Tito Prince - Udeyfa - Uzi - Varnish La Piscine - Youssoupha - Zed - Zola CORÉE DU SUD - JOON Corse - Ademo - Furax Barbarossa - Jul - Makizar - N.O.S - Sat - PLK CÔTE D'IVOIRE - Abou Debeing - Ash Kidd - Bayass - Black Kent - Bolémvn - Brvbus - Cacahouète - Cacou - Cheu-B - D4R - Dave - Dehmo - Esteban - Fababy - Gaulois - Gouap - H Magnum - Hache-P - Jok'Air - Junior Bvndo - JSX - Kaaris - KT Gorique - Lala ce - Landy - Laylow - Le Juiice - Liim's - L.I.O - Mini - S-Pion - Sese Kepler - Tisco - Vegedream - Zefor ÉCOSSE - Nekfeu ÉGYPTE - Deen Burbigo - Houssbad ESPAGNE - A2H - Ateyaba - Caballero - Falcko - Le Rat Luciano - Tortoz GABON - Benjamin Epps - Juicy P - Vicky R GHANA - Take A Mic GRÈCE - Nekfeu - Youri Guadeloupe - Admiral T - AP 113 - Barack Adama - Brasco - Bridjahting - Doc Gynéco - Georgio - HVmanyy - JSX - Kodes - Laskiiz - Lybro - Malty 2BZ - Melopheelo - Salif - Timal - Veerus - Zoxea GUINÉE CONAKRY - 2V La KTL - Alpha Wann - Black M - Gazo - Guizmo - Doomams - Dr Beriz - Ibrak - Luv Resval - MHD - Nixon - Savage Toddy - Shotas - Slim C GUYANE - Hatik - Zikxo HAÏTI - Alibi Montana - Beeby - Gato - Kery James - Luidji - Mac Kregor - Noma - Obia le Chef - O'Rosko Raricim - Lawid - Shyno IRAN - Pejmaxx ITALIE - Akhenaton - Anton Serra - Ash Kidd - Freeze Corleone - Furax Barbarossa - Gambi - Gueule dAnge - Jazzy Bazz - Jeff le Nerf - Jolly - Ladea - Lomepal - Lonepsi - Lucio Bukowski - Michel - Nakry - Rozzy - Seth Gueko - Swift Guad JAPON - Beamer KOSOVO - GRËJ LANGUEDOC - Maska LIBAN - Abdallah - B.B Jacques - Cheu-B - Jeff le Nerf - Sese Kepler MADAGASCAR - A2H - Chilla - Faf Larage - Gazy MP - Guizmo - Kay The Prodigy - Oboy - Shurik'n - Tsew The Kid MALI - 13or - Amy - Couli B - Dabs - D.Ace - Dinero - Djeffi Jack - Douma Kalash - Doums - Dr Beriz - Elloco - Fresh La Douille - Jackmaboy - JR O Chrome - Kennedy - L'Skadrille - Mala - Mamso - Mokobe - Oxmo Puccino - Pispa - Salif - Saamou Skuu - SenSey - Sianna - Six Coups MC - Slimka - Still Fresh - Zeguerre - Guizmo - Yaro - Yuz Boy MAROC - Aladin 135 - ALI - Alrima - ATIK - Biwai - Canardo - CEZ - Demi Portion - Dibson - Djalito - Doria - Gros Mo - Hamza - Hi-Tekk La Caution - Houssbad - JeanJass - Jolly - Kamelanc - Kamikaz - Kekra - Khali - La Fouine - La M - Larry - Lartiste - Lazer MMZ - L.E.C.K - Leonis - Le S - Leso - Maes - Mister You - Moha MMZ - Mougli - Nessbeal - Niaks - Nikkfurie - Niro - OMR - Osirus Jack - Sasso - Sneazzy - Walid - YS - Zalmad - Zamdane - Zifou - ZKR Martinique - Bushi - Busta Flex - Casey - Fabe - Flaco Mundo - JoeyStarr - Kalash - Le Rat Luciano - OldPee - Meryl - Noname - Nubi - Tiitof - Youv Dee - Zesau NIGERIA - Mac Tyer - Take A Mic PALESTINE - Wit POLOGNE - 7 Jaws - Jarod - Jazzy Bazz - PLK - Shay - Wojtek PORTUGAL - Kool Shen Réunion La - 2V La KTL - Azur - Blacko - Bushi - Faf Larage - Mussy - Shurik'n - Ziak ROUMANIE - Gemen RUSSIE - Davodka - Rocé - Ruskov - Sadek - Seth Gueko - Tovaritch - Youri RWANDA - Gaël Faye - Mussy - Stromae - Swing SÉNÉGAL - Abou Tal - Aelpéachal - Alivor - Alpha 5.20 - Barack Adama - Bassirou - Bena - Booba - Captaine Roshi - Cifack - D.Ace - Dadinho - Disiz - Freeze Corleone - Graya - Guizmo - Ixzo - Joe Lucazz - JSX - La Rvfleuze - Lefa - Madrane - MC Solaar - MHD - Mortalla - Nanass - Norsacce Berlusconi - Ormaz - Prince Waly - Sam's - Sefyu - Slimka - S.Pri Noir - Tiers Monde - Youssoupha - Youv Dee - Zuukou Mayzie SERBIE - Swift Guad SEYCHELLES - A2H TCHAD - MC Solaar TOGO - Ateyaba - Dosseh - Franglish - Kossi - Samy - Sasso TUNISIE - 2zer - Aero - Adès - Alkpote - Badjer - Bilel - Bilk - Brulux - Dinaz - Farage - Gambino - Haroun - ISK - Kacem Wapalek - Kalash l'Afro - Mokless - Nakry - Tunisiano - Sadek - Selim du 9.4 - Sneazzy TURQUIE - Kvra - MRC - Oby One VIETNAM - Mademoiselle Lou YOUGOSLAVIE - Swift Guad9</t>
+          <t>ALGÉRIE - Abis - Ademo - ADK - Aketo - Aladin 135 - Ashe 22 - Bakar - Bakyl - Bena - Benab - Bigflo Oli - Bilk - Bilton - Carlito - COR - Deen Burbigo - Demon One - Dioussa - Djadja - Doria - Dwen - El Matador - Espiiem - Freeman - Gambino - Gips - GLK - Grizzly 942 - Gueule dAnge - Haristone - Hayce Lemsi - Heuss l'Enfoiré - Hooss - Hornet La Frappe - Houari - Infinit - Jarod - Jayel - KD - Kofs - Koma - Krilino - La F - La Péee - Lacrim - L'Algérino - LAllemand - LIM - Médine - Mehdi Yz - Mess - Moha - Moha La Squale - Morad Scred Connexion - Mougli - Naps - Nemir - Nini Mess - NOR - N.O.S - RD - Rim'k - Rimkus - RK - Rocé - Rousnam - Sat - Scurl - Sifax - Sinik - Sofiane - Soolking - Soso Maness - Stony Stone - Volts Face - Wit - Worms T - YL - Youssef Swatt's - Zbig - Ziak - Zino ALLEMAGNE - Malty 2BZ - Sch ANDALOUSIE - Josas ANGOLA - Josman - Jova TLZ Clan - Sasuke - Stavo ARGENTINE - Bigflo Oli - Godié - Jazzy Bazz - Lonepsi - Keny Arkana - Rocé ARMÉNIE - Hyacinthe - Lefty - Missak BELGIQUE - Disiz - JeanJass - Stromae BÉNIN - Kohndo - Melopheelo - Ol Kainry - thaHomey - Zoxea BRÉSIL - Cacou - Esteban BURKINA FASO - Cassidy X-Men - Shone BURUNDI - Geeeko CAMBODGE - K.E.R - Malty 2BZ CAMEROUN - Bayass - Beendo Z - Benash - BR aka Block Rider - Brvmsoo - Cahiips - Cashmire - Dinos - Dosseh - Driver - Elh Kmer - Gambi - Ichon - Ill - Katana - K.Point - Lalcko - Lionceau - LMB - Mac Tyer - MC Jean Gab'1 - Mister V - Moyomola - Nakk Mendosa - Osirus Jack - P-dro - Pit Baccardi - Pulkra - Rafleur - Sasuke - Slkrack - T2R - Tayc - Tuerie - Vesti - WaiV - WeRenoi - Yamê - Yseult - Zefor CAP-VERT - Briganté - Bilouki - Jacky Brown - Stomy Bugsy - Zekwé Ramos CENTRAFRIQUE - Dany Dan - Jo Dalton - IPNDEGO - Leys CHILI - Flaco Mundo CHYPRE - Diam's COLOMBIE - Favé - Hippocampe Fou - Rocca - Tortoz COMORES - 100 Blaze - 1pliké140 - 3010 - Alonzo - ALR - Benito - Bné - Bouska - Croma - Elams - Djado Mado - Goulam - Guirri Mafia - HK - Houssein - I.K - Ikbal - Kolo La R - Mapess - Menzo - Mister C - MOH - Mous-k - Nini Mess - Noname - La M - Le Neh - Péké - Rayad - R.E.D.K - Rohff - S.TEBAN - Saf - So La Lune - Soprano - Sultan - Thabiti - Vincenzo - Cobralaz CONGO BRAZZAVILLE - Abd al Malik - Ben-J - Calbo - Doc TMC - Docks - Dry - G-Kill - IDS - Kamini - KLN - Koba LaD - Lino - Naza - Niska - Passi - Ppros - Siboy - Stos CONGO KINSHASA - Al Patch - Arma Jackson - Bazbaz - Bedjik - Beny - Bilouki - Black Brut - Blaz Pit - Bokalossa - Bolémvn - Bosh - Braki - Captaine Roshi - Cash Crime - Cheu-B - Chily - Cinco - Da Uzi - Dadju - Dalsim - Damso - Dasko - David Okit - Davinhor - Despo Rutti - Diddi Trix - Dorseaux - Douma - El9 - Enfantdepauvres - Escobar Macson - Fally Ipupa - Franglish - Frenetik - Fresh La Peufra - Gambino La MG - Gianni - Gradur - Green Montana - Grödash - Guy2Bezbar - IDS - Irvin - ISHA - Jaymax - JNR Slice - John Cruipy - Josman - HD La Relève - Kaflo - Kalash Criminel - Kaza - KeBlack - Kellzer - KLN - Kobo - Kodes - Kozi - Krisy - La Fève - LAFINANCIERE - Landy - Le Motif - Le Risque - Lee Boma - Leust - Leto - Leys - Maître Gims - Makala - MIG - Moka Boka - Nahir - Naza - Ninho - Noah Lunsi - Poison - Prototype - Rizno - Rozzy - Shay - Skodri - Stavo - S-Pi - Theodora - Tiakola - Tito Prince - Udeyfa - Uzi - Varnish La Piscine - Youssoupha - Zed - Zola CORÉE DU SUD - JOON Corse - Ademo - Furax Barbarossa - Jul - Makizar - N.O.S - Sat - PLK CÔTE D'IVOIRE - Abou Debeing - Ash Kidd - Bayass - Black Kent - Bolémvn - Brvbus - Cacahouète - Cacou - Cheu-B - D4R - Dave - Dehmo - Esteban - Fababy - Gaulois - Gouap - H Magnum - Hache-P - Jok'Air - Junior Bvndo - JSX - Kaaris - KT Gorique - Lala ce - Landy - Laylow - Le Juiice - Liim's - L.I.O - Mini - S-Pion - Sese Kepler - Tisco - Vegedream - Zefor ÉCOSSE - Nekfeu ÉGYPTE - Deen Burbigo - Houssbad ESPAGNE - A2H - Ateyaba - Caballero - Falcko - Le Rat Luciano - Tortoz GABON - Benjamin Epps - Juicy P - Vicky R GHANA - Take A Mic GRÈCE - Nekfeu - Youri Guadeloupe - Admiral T - AP 113 - Barack Adama - Brasco - Bridjahting - Doc Gynéco - Georgio - HVmanyy - JSX - Kodes - Laskiiz - Lybro - Malty 2BZ - Melopheelo - Salif - Timal - Veerus - Zoxea GUINÉE CONAKRY - 2V La KTL - Alpha Wann - Black M - Gazo - Guizmo - Doomams - Dr Beriz - Ibrak - Luv Resval - MHD - Nixon - Savage Toddy - Shotas - Slim C GUYANE - Hatik - Zikxo HAÏTI - Alibi Montana - Beeby - Gato - Kery James - Luidji - Mac Kregor - Noma - Obia le Chef - O'Rosko Raricim - Lawid - Shyno IRAN - Pejmaxx ITALIE - Akhenaton - Anton Serra - Ash Kidd - Freeze Corleone - Furax Barbarossa - Gambi - Gueule dAnge - Jazzy Bazz - Jeff le Nerf - Jolly - Ladea - Lomepal - Lonepsi - Lucio Bukowski - Michel - Nakry - Rozzy - Seth Gueko - Swift Guad JAPON - Beamer KOSOVO - GRËJ LANGUEDOC - Maska LIBAN - Abdallah - B.B Jacques - Cheu-B - Jeff le Nerf - Sese Kepler MADAGASCAR - A2H - Chilla - Faf Larage - Gazy MP - Guizmo - Kay The Prodigy - Oboy - Shurik'n - Tsew The Kid MALI - 13or - Amy - Couli B - Dabs - D.Ace - Dinero - Djeffi Jack - Douma Kalash - Doums - Dr Beriz - Elloco - Fresh La Douille - Jackmaboy - JR O Chrome - Kennedy - L'Skadrille - Mala - Mamso - Mokobe - Oxmo Puccino - Pispa - Salif - Saamou Skuu - SenSey - Sianna - Six Coups MC - Slimka - Still Fresh - Zeguerre - Guizmo - Yaro - Yuz Boy MAROC - Aladin 135 - ALI - Alrima - ATIK - Biwai - Canardo - CEZ - Demi Portion - Dibson - Djalito - Doria - Gros Mo - Hamza - Hi-Tekk La Caution - Houssbad - JeanJass - Jolly - Kamelanc - Kamikaz - Kekra - Khali - La Fouine - La M - Larry - Lartiste - Lazer MMZ - L.E.C.K - Leonis - Le S - Leso - Maes - Mister You - Moha MMZ - Mougli - Nessbeal - Niaks - Nikkfurie - Niro - OMR - Osirus Jack - Sasso - Sneazzy - Walid - YS - Zalmad - Zamdane - Zifou - ZKR Martinique - Bushi - Busta Flex - Casey - Fabe - Flaco Mundo - JoeyStarr - Kalash - Le Rat Luciano - OldPee - Meryl - Noname - Nubi - Tiitof - Youv Dee - Zesau NIGERIA - Mac Tyer - Take A Mic PALESTINE - Wit POLOGNE - 7 Jaws - Jarod - Jazzy Bazz - PLK - Shay - Wojtek PORTUGAL - Kool Shen Réunion La - 2V La KTL - Azur - Blacko - Bushi - Faf Larage - Mussy - Shurik'n - Ziak ROUMANIE - Gemen RUSSIE - Davodka - Rocé - Ruskov - Sadek - Seth Gueko - Tovaritch - Youri RWANDA - Gaël Faye - Mussy - Stromae - Swing SÉNÉGAL - Abou Tal - Aelpéachal - Alivor - Alpha 5.20 - Barack Adama - Bassirou - Bena - Booba - Captaine Roshi - Cifack - D.Ace - Dadinho - Disiz - Freeze Corleone - Graya - Guizmo - Ixzo - Joe Lucazz - JSX - La Rvfleuze - Lefa - Madrane - MC Solaar - MHD - Mortalla - Nanass - Norsacce Berlusconi - Ormaz - Prince Waly - Sam's - Sefyu - Slimka - S.Pri Noir - Tiers Monde - Youssoupha - Youv Dee - Zuukou Mayzie SERBIE - Swift Guad SEYCHELLES - A2H TCHAD - MC Solaar TOGO - Ateyaba - Dosseh - Franglish - Kossi - Samy - Sasso TUNISIE - 2zer - Aero - Adès - Alkpote - Badjer - Bilel - Bilk - Brulux - Dinaz - Farage - Gambino - Haroun - ISK - Kacem Wapalek - Kalash l'Afro - Mokless - Nakry - Tunisiano - Sadek - Selim du 9.4 - Sneazzy TURQUIE - Kvra - MRC - Oby One VIETNAM - Mademoiselle Lou YOUGOSLAVIE - Swift Guad9</t>
         </is>
       </c>
     </row>
@@ -1160,7 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>On va le dire comme ça, à l'ancienne Détermination, j'ai trop besoin d'elle ... Faudrait que tu m'attaches et me baillones, faudrait que tu m'emp ... You might also like</t>
+          <t>On va le dire comme ça, à l'ancienne Détermination, j'ai trop besoin d'elle ... Faudrait que tu m'attaches et me baillones, faudrait que tu m'emp ...</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>On va l'dire comme ça, à l'ancienne, détermination, j'ai trop b'soin d'elle Grâce au ciel, j'ai des ailes, chaque fois qu'on m'freine, je r'pars de plus belle On va l'dire comme ça, à l'ancienne, détermination, j'ai trop b'soin d'elle Grâce au ciel, j'ai des ailes, chaque fois qu'on m'freine, je r'pars de plus belle On va l'dire comme ça, à l'ancienne, ouais putain, Détermination!You might also like</t>
+          <t>On va l'dire comme ça, à l'ancienne, détermination, j'ai trop b'soin d'elle Grâce au ciel, j'ai des ailes, chaque fois qu'on m'freine, je r'pars de plus belle On va l'dire comme ça, à l'ancienne, détermination, j'ai trop b'soin d'elle Grâce au ciel, j'ai des ailes, chaque fois qu'on m'freine, je r'pars de plus belle On va l'dire comme ça, à l'ancienne, ouais putain, Détermination!</t>
         </is>
       </c>
     </row>
@@ -1194,7 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>On bloque tard le soir les yeux mi-clos Les poches vides, à rêver de kilos, entourés de minots La rue me berce au rythme des sirènes affolées Samu et Police sont de sortie pour le ballet File moi une latte enfoiré ! Ces putains de gosses avec qui je traine auront vite fait de mal tourner Je connais le film enfermé dans le cycle Ce putain de shit rend lucide à perdre la bille À 40 piges qu'est-ce que je fous au milieu des kids ? Coincés dans la tise, nos futurs, le trottoir c'est le Ritz ! Alimentation glauque, le spot, dealer entre potes Histoires de meurtres et de coke J'ai brassé les billets, côtoyé les piliers, vécu le crime sans me soucier Mais ma roue a mal tournée Les petits m'écoutent et se voient au sommet Derrière l'écran de fumée, la vérité, je suis toujours là à glander. Et ouais On a érigé en stars des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, désir d'évasion Cloué au sol planté, mauvaises relations On a érigé en star des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, besoin d'élévation Personne ne décolle de ce terminal You might also like Posté au coin de la rue, là où les chiffes s'échouent Où glissent mes shoes, évite les shoot Dévisse les coudes, ceux qui brisent les couilles t'entends ? Et la Police déboule, les bandes rivales se toisent et mobilisent les troupes Pendant que les voisins de palier économisent des couches Les revers du sort renversent la coupe Quand les tordus la relèvent c'est que le Démon y sert sa soupe On y connait les escaliers, les coins, les porches Pas les hommes, maintenant c'est la règle, on s'en bat des autres Je ne peux pas être de ce que les mômes encensent Et finir éteint, en sang, comme les étoiles de mon enfance Faire du mal aux autres, escroqué les potes Sans surprise un gars te mettra une lame aux côtes Le balai de la vie donne son pire gala Ce n'est pas sans danger quand on veut voir le nirvana On a érigé en stars des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, désir d'évasion Cloué au sol planté, mauvaises relations On a érigé en star des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, besoin d'élévation Personne ne décolle de ce terminal Posté au coin de rue, là où tout se passe, parmi les couche-tard Et les faux amis les mains salies par les coups de crasse Lunettes noires et nuit blanche Genre, les types souhaitent bonne chance puis sorte un carré d'as en trichant Instinctif à 15-20 piges tu te fais des films T'imagines plein plein de fric Et ça t'inspire tout à grande vitesse Première classe, tu veux ton billet pour ce train de vie Tu vois des liasses épaisses comme des rouleaux de P.Q Mais parle pas de retraite ou d'numéro de sécu C'est la démerde, trop étourdi par les drogues Ébloui par les chromes sur la B.M T'oublies les anciens qui regrettent leurs choix Au départ ils ont fait le même rêve Ils vivent le même cauchemar, toujours en bas de l'échelle Habités par la fatalité, écrasés par le poids de l'échec On a érigé en stars des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, désir d'évasion Cloué au sol planté, mauvaises relations On a érigé en star des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, besoin d'élévation Personne ne décolle de ce terminal</t>
+          <t>On bloque tard le soir les yeux mi-clos Les poches vides, à rêver de kilos, entourés de minots La rue me berce au rythme des sirènes affolées Samu et Police sont de sortie pour le ballet File moi une latte enfoiré ! Ces putains de gosses avec qui je traine auront vite fait de mal tourner Je connais le film enfermé dans le cycle Ce putain de shit rend lucide à perdre la bille À 40 piges qu'est-ce que je fous au milieu des kids ? Coincés dans la tise, nos futurs, le trottoir c'est le Ritz ! Alimentation glauque, le spot, dealer entre potes Histoires de meurtres et de coke J'ai brassé les billets, côtoyé les piliers, vécu le crime sans me soucier Mais ma roue a mal tournée Les petits m'écoutent et se voient au sommet Derrière l'écran de fumée, la vérité, je suis toujours là à glander. Et ouais On a érigé en stars des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, désir d'évasion Cloué au sol planté, mauvaises relations On a érigé en star des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, besoin d'élévation Personne ne décolle de ce terminal Posté au coin de la rue, là où les chiffes s'échouent Où glissent mes shoes, évite les shoot Dévisse les coudes, ceux qui brisent les couilles t'entends ? Et la Police déboule, les bandes rivales se toisent et mobilisent les troupes Pendant que les voisins de palier économisent des couches Les revers du sort renversent la coupe Quand les tordus la relèvent c'est que le Démon y sert sa soupe On y connait les escaliers, les coins, les porches Pas les hommes, maintenant c'est la règle, on s'en bat des autres Je ne peux pas être de ce que les mômes encensent Et finir éteint, en sang, comme les étoiles de mon enfance Faire du mal aux autres, escroqué les potes Sans surprise un gars te mettra une lame aux côtes Le balai de la vie donne son pire gala Ce n'est pas sans danger quand on veut voir le nirvana On a érigé en stars des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, désir d'évasion Cloué au sol planté, mauvaises relations On a érigé en star des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, besoin d'élévation Personne ne décolle de ce terminal Posté au coin de rue, là où tout se passe, parmi les couche-tard Et les faux amis les mains salies par les coups de crasse Lunettes noires et nuit blanche Genre, les types souhaitent bonne chance puis sorte un carré d'as en trichant Instinctif à 15-20 piges tu te fais des films T'imagines plein plein de fric Et ça t'inspire tout à grande vitesse Première classe, tu veux ton billet pour ce train de vie Tu vois des liasses épaisses comme des rouleaux de P.Q Mais parle pas de retraite ou d'numéro de sécu C'est la démerde, trop étourdi par les drogues Ébloui par les chromes sur la B.M T'oublies les anciens qui regrettent leurs choix Au départ ils ont fait le même rêve Ils vivent le même cauchemar, toujours en bas de l'échelle Habités par la fatalité, écrasés par le poids de l'échec On a érigé en stars des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, désir d'évasion Cloué au sol planté, mauvaises relations On a érigé en star des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, besoin d'élévation Personne ne décolle de ce terminal</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Yo what's up this is Ski Beatz And right now you're listening to the symphonic symphony sounds of Damiani Larage J'aurais voulu être aux premières loges de plein d'events de la musique Comme ces ambiances studio autrefois magiques Comme en 79 dans les couloirs du Avec Quincy et Michael qui fait sa première take Assister aux enregistrements de Off The Wall L'album, les prémices de la soul-pop au camescope Des choses rares, des fois je m'imagine dans ce stade Dans les gradins en 80 pour ACDC live Le son de la cloche Back in Black 200 000 personnes et moi chantant Bon Scott back ! Et le beat goes on Une choré enterrée avec les Whispers J'kiffe toujours le fonk Les pas de James Brown et les font le son Les samples du hip-hop dans les tuyaux J'serai cool avec le Gang s'ils me jouent la Summer Madness Un cours avec Earth, Wind Fire avant la presse Bob Marley, chantant le Zimbabwe poing levé Un seul splash j'aurai plus de voix pour crier A ses côtés le voir mondialiser le reggae Puis j'irai voir Gainsbourg et les Wailers dans la foulée J'irai verser une larme avec Obama Au centre Kennedy, dans un concert hommage à Bruce Springsteen J'aurais kiffé la Three Six Mafia sur le ring Aux Oscars, à fixer les stars en rampant sur You might also like x2 Ramenez moi là-bas, loin des formats Quand la musique s'écoutait pas encore en MP3 Quand les classiques se mesuraient à la qualité J'entends encore le vinyle craquer J'entends encore le vinyle craquer J'irai voir Edith Piaf elle m'expliquerait tout le taff On inviterait Jacques Brel à me parler de la soif De l'art du chant, de la peur de mal faire, il me dirait Faf La rage et l'amour s'expriment avec un public en face On voyage vers des musiciens sur un plateau de tournage La scène est filmée et la BO est live Sergio et Ennio Morricone au firmament A moi les secrets du bon, de la brute et du truand, top du son sur l'image Je l'ai fait ce rêve à Chicago avec Muddy Waters Signer son premier contrat chez Chess Records Son blues allait influencer le rock et la folk des années 40 jusqu'au Rolling Stones J'étais d'attaque pour suivre la route jusqu'à Woodstock J'allais pas rater les Who, Jimmy Hendrix et les autres Enfin un tour à la Motown, l'usine à tubes et Marvin what's going on? Et quoi de neuf à Vegas Full sur le , ce soir j'joue le J'aurais voulu y être à la création de la bande originale de J'aurais porté les cafés à Isaac, rien à battre Ou assister à cette cérémonie des Grammy Fin 90 la première le rap s'est introduit Ou dans ce club de rap jazz à Harlem à la table de Ravel Qui me raconterait les sixtes et les neuvièmes La musique classique et les trésors du XXème Seb Damiani au piano improvisant un thème Il y aurait plein de trucs à faire et plein de trucs à voir Surement plus que ma putain de mémoire tard le soir Tu vois ce que je veux dire? Retour aux sources x22</t>
+          <t>Yo what's up this is Ski Beatz And right now you're listening to the symphonic symphony sounds of Damiani Larage J'aurais voulu être aux premières loges de plein d'events de la musique Comme ces ambiances studio autrefois magiques Comme en 79 dans les couloirs du Avec Quincy et Michael qui fait sa première take Assister aux enregistrements de Off The Wall L'album, les prémices de la soul-pop au camescope Des choses rares, des fois je m'imagine dans ce stade Dans les gradins en 80 pour ACDC live Le son de la cloche Back in Black 200 000 personnes et moi chantant Bon Scott back ! Et le beat goes on Une choré enterrée avec les Whispers J'kiffe toujours le fonk Les pas de James Brown et les font le son Les samples du hip-hop dans les tuyaux J'serai cool avec le Gang s'ils me jouent la Summer Madness Un cours avec Earth, Wind Fire avant la presse Bob Marley, chantant le Zimbabwe poing levé Un seul splash j'aurai plus de voix pour crier A ses côtés le voir mondialiser le reggae Puis j'irai voir Gainsbourg et les Wailers dans la foulée J'irai verser une larme avec Obama Au centre Kennedy, dans un concert hommage à Bruce Springsteen J'aurais kiffé la Three Six Mafia sur le ring Aux Oscars, à fixer les stars en rampant sur x2 Ramenez moi là-bas, loin des formats Quand la musique s'écoutait pas encore en MP3 Quand les classiques se mesuraient à la qualité J'entends encore le vinyle craquer J'entends encore le vinyle craquer J'irai voir Edith Piaf elle m'expliquerait tout le taff On inviterait Jacques Brel à me parler de la soif De l'art du chant, de la peur de mal faire, il me dirait Faf La rage et l'amour s'expriment avec un public en face On voyage vers des musiciens sur un plateau de tournage La scène est filmée et la BO est live Sergio et Ennio Morricone au firmament A moi les secrets du bon, de la brute et du truand, top du son sur l'image Je l'ai fait ce rêve à Chicago avec Muddy Waters Signer son premier contrat chez Chess Records Son blues allait influencer le rock et la folk des années 40 jusqu'au Rolling Stones J'étais d'attaque pour suivre la route jusqu'à Woodstock J'allais pas rater les Who, Jimmy Hendrix et les autres Enfin un tour à la Motown, l'usine à tubes et Marvin what's going on? Et quoi de neuf à Vegas Full sur le , ce soir j'joue le J'aurais voulu y être à la création de la bande originale de J'aurais porté les cafés à Isaac, rien à battre Ou assister à cette cérémonie des Grammy Fin 90 la première le rap s'est introduit Ou dans ce club de rap jazz à Harlem à la table de Ravel Qui me raconterait les sixtes et les neuvièmes La musique classique et les trésors du XXème Seb Damiani au piano improvisant un thème Il y aurait plein de trucs à faire et plein de trucs à voir Surement plus que ma putain de mémoire tard le soir Tu vois ce que je veux dire? Retour aux sources x22</t>
         </is>
       </c>
     </row>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bienvenue dans le dévaste-land, bouteilles cassées Cyclos brûlés, centre social pas vraiment terminé Peinture, façade remaquillée pour masquer la pauvreté Au cas où le touriste ne serait pas prêt Voiture de police, travail absent, embrouille au feu vert Terrasse pleine, un bon resto de poissons face à la mer Galère, le énième contrôle de la semaine Tes papiers fils tu les a pas, on t'amène Surtout si ton nom commence par Ben Mec nerveux au volant T'as un problème ? Quoi ? Descends ! , devant ses enfants Comme un chiffonnier chemise pleine de sang Honte pour un adulte soi-disant civilisé Incapable de tempérer son tempérament Enfermé dans le contexte boulot-maison-prisonnier A cran toute la journée, on finit par agresser Soupape de sécurité, stade de foot plein à craquer Quatre buts, deux-trois jeux télés, esprit anesthésié L'esprit embrumé, anesthésié La pilule est toujours passée, grillés comment on fait ? Aveuglés par le peu de gloire L'espoir de s'en tirer sans empirer pourquoi on voit rien, hey ? L'esprit embrumé, anesthésié Tu paies, tu râles et t'encaisses laisse faire et Oublie jusqu'au prochain jour où tu en chiais Retourne dans le cycle et l'esprit anesthésié You might also like Meeting, bande d'excités souvent armés Enragés, fou de joie à l'idée de dégainer Les premiers, sans pitié, la boule est déjà lancée Une quille est tombée mais bon, elle n'est pas blanche, y'a pas de regrets Intolérance poussée à l'extrême, épaulé par la crème Fanatique, aveuglé par la voix aryenne Et qu'à cela ne tienne, de l'autre côté, on a la même Mentalité, les infidèles sont condamnés C'est Hitler contre Staline, Pétain contre Mussolini Un mal contre mal, pas d'extra-balles, fin de partie Sentiment d'insécurité provoqué Par les camions de police garés dans chaque rue et chaque quartier Loi Pasqua proposée, vivement huée, prises d'otages simultanées Camouflage, ta pilule est passée Diversion, un tac-o-tac, 2 morpions, gratter, courir Après le gros paquet, esprit anesthésié L'esprit embrumé, anesthésié La pilule est toujours passée Grillés, comment on fait ? Aveuglés par le peu de gloire L'espoir de s'en tirer Sans empirer Pourquoi on voit rien, hey ? L'esprit embrumé, anesthésié Tu paies, tu râles et t'encaisses Laisse faire et Oublie jusqu'au prochain jour où tu en chiais Retourne dans le cycle et l'esprit anesthésié Société poussée à la consommation Casinos pleins, pour une bouteille de Perrier baston Salaires bas, prix en hausse, toute la journée Comme un forcené, tu bosses pour pouvoir aller bosser Subvention de velcros sur le pognon pour les quartiers pas un rond Mais un jour de retard dans tes impôts sanction Course de l'espace, puits sans fond, on manque d'oxygène Sur terre, de plus en plus de gens dorment sous les ponts Système D gars, shit, jobs non-déclarés Pas l'choix, instinct de survie exacerbé Le déséquilibre est destiné à régner Sur un parc à jouets où les moins chers se cassent les premiers Gauche, droite, même combat pour la monnaie Ceux qui chantaient on a gagné Sont les mêmes qui sortent manifester La révolution sera pas télévisée On y passe des sitcoms de chez AB, esprit anesthésié</t>
+          <t>Bienvenue dans le dévaste-land, bouteilles cassées Cyclos brûlés, centre social pas vraiment terminé Peinture, façade remaquillée pour masquer la pauvreté Au cas où le touriste ne serait pas prêt Voiture de police, travail absent, embrouille au feu vert Terrasse pleine, un bon resto de poissons face à la mer Galère, le énième contrôle de la semaine Tes papiers fils tu les a pas, on t'amène Surtout si ton nom commence par Ben Mec nerveux au volant T'as un problème ? Quoi ? Descends ! , devant ses enfants Comme un chiffonnier chemise pleine de sang Honte pour un adulte soi-disant civilisé Incapable de tempérer son tempérament Enfermé dans le contexte boulot-maison-prisonnier A cran toute la journée, on finit par agresser Soupape de sécurité, stade de foot plein à craquer Quatre buts, deux-trois jeux télés, esprit anesthésié L'esprit embrumé, anesthésié La pilule est toujours passée, grillés comment on fait ? Aveuglés par le peu de gloire L'espoir de s'en tirer sans empirer pourquoi on voit rien, hey ? L'esprit embrumé, anesthésié Tu paies, tu râles et t'encaisses laisse faire et Oublie jusqu'au prochain jour où tu en chiais Retourne dans le cycle et l'esprit anesthésié Meeting, bande d'excités souvent armés Enragés, fou de joie à l'idée de dégainer Les premiers, sans pitié, la boule est déjà lancée Une quille est tombée mais bon, elle n'est pas blanche, y'a pas de regrets Intolérance poussée à l'extrême, épaulé par la crème Fanatique, aveuglé par la voix aryenne Et qu'à cela ne tienne, de l'autre côté, on a la même Mentalité, les infidèles sont condamnés C'est Hitler contre Staline, Pétain contre Mussolini Un mal contre mal, pas d'extra-balles, fin de partie Sentiment d'insécurité provoqué Par les camions de police garés dans chaque rue et chaque quartier Loi Pasqua proposée, vivement huée, prises d'otages simultanées Camouflage, ta pilule est passée Diversion, un tac-o-tac, 2 morpions, gratter, courir Après le gros paquet, esprit anesthésié L'esprit embrumé, anesthésié La pilule est toujours passée Grillés, comment on fait ? Aveuglés par le peu de gloire L'espoir de s'en tirer Sans empirer Pourquoi on voit rien, hey ? L'esprit embrumé, anesthésié Tu paies, tu râles et t'encaisses Laisse faire et Oublie jusqu'au prochain jour où tu en chiais Retourne dans le cycle et l'esprit anesthésié Société poussée à la consommation Casinos pleins, pour une bouteille de Perrier baston Salaires bas, prix en hausse, toute la journée Comme un forcené, tu bosses pour pouvoir aller bosser Subvention de velcros sur le pognon pour les quartiers pas un rond Mais un jour de retard dans tes impôts sanction Course de l'espace, puits sans fond, on manque d'oxygène Sur terre, de plus en plus de gens dorment sous les ponts Système D gars, shit, jobs non-déclarés Pas l'choix, instinct de survie exacerbé Le déséquilibre est destiné à régner Sur un parc à jouets où les moins chers se cassent les premiers Gauche, droite, même combat pour la monnaie Ceux qui chantaient on a gagné Sont les mêmes qui sortent manifester La révolution sera pas télévisée On y passe des sitcoms de chez AB, esprit anesthésié</t>
         </is>
       </c>
     </row>
@@ -1279,7 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Qu'est-ce que j'voulais dire déjà ? Euuuuuh Ah ouais ! On veux du vrai et d'la 'sique Un truc qui t'prend aux tripes Dans l'lard sans artifice Qui fasse pas un buzz dans les articles Mais dans les sonos, les vagos, les boomers, les speakers Viens, j't'explique ma logique Un son qui frappe, faut d'abord une bonne rythmique Puis ensuite, une mélodie envoutante qui tape dans l'système mec, faut qu'ça clippe Énergique, une basse limite, explosion style nitroglycérine Pas d'autre argument que les watts qui déchirent C'est ça qui minspire, les sens de ma XXX Ma clique kiffe le son bad qui baffe Racket les lyrics des bites Les bitches qui pensent qu'aux hits, rien dartistique Tiens rik pe Faut être fier d'une éthique, avoir une sacré équipe de producteurs armés d'kick Pense au public, les mains en l'air eh yo Farah vas-y dit leur qu'ça part en vrille Pour les faire bouger, j'ai la r'cette, Faf c'est le chef, pas b'soin d'traiteur MC, lève tes mains du mic' ça gave, ça rame grave, on veut pas t'voir en live Quand j'rappe, ça taille, c'est la garde, ça calme, aïe, arrache des larmes aux hauts-parleurs Les langues de putes toujours dans l'viseur Elles parlent derrière, et devant te filent le postérieur Allez vous faire mettre ailleurs C'est que des bruits, des on-dit, des aigris qui savent bien que je suis meilleur qu'eux A la Pete Rock, soul survivor, celui qu'ça embarrasse beh j'm'en bat la race Moi j'axe mon taf, moi et mon staff, on a la rage du bon pour la maf' Trace, ici c'est du rap, pas d'strass Enchaine des milliers d'phases Toi reste à la ramasse Faf le coeur, me juge pas, appelle moi Votre Honneur Dope Rhyme Sayer, mon seigneur Ça saigne, reste pas au milieu You might also like Eh vise la technique, le style de la clique C'est écrit, Imperial Asiatic Depuis 90, sans venir de l'Amérique Mais droit de cette ville, en face de l'Afrique On chie sur la crise avec une éthique stricte Sur nos feats et nos disques, nos bizz et nos rythmes Sorti du cur d'une MPC et c'est ça, le son est fantastique Ils bavent sur nous quand leurs titres c'est le cirque blablabla Ils font retomber la trique Le niveau des lyrics baigne dans le caniveau et dévalue la réputation de ta street Vite et puisque cet art est magique, l'effet est immédiat et ta sortie elle est tragique haaaaaaa Voici l'avis des fans et du public Sans trafic, attends je t'explique Certains artistes renient la musique et les basiques Font leurs carrières sur de la pipe Ils rendent ce milieu si chiatique Posé sur ce beat, j'vend leurs structures atomiques Comme Nessbeal, c'est ma mélodie des briques En France et de Mars que jécris en italique Ils disent sans arrêt à la télé qu'on est raciste Lâchez-nous un peu, occupez-vous du cul de Brice ooooouh Je suis l'épouvantail chez les fachistes On les stoppe, on les couche, on les tilte, on les vanne, on les pique, on les crache, on les chique, on les mâche, on les chie Parfois on les claque et on les kicke Niveau sapes respecte le standing Jdide comme Silvio assis au Badabing Ce son on le mérite Juste un petit break beat de suite Rafale anthologique ratatata C'est drastique, du classique, on fait péter le plastique Les DJ sont d'accord, ce track doit finir sur le vinyle Ça file, ça vit, ça vibre, ça donne, ça kill Sa place fais pas de sou, mais au top de la pile Dans les postes de tirs qui croisent dans la ville Notre match a cent titres sur l'affiche C'est le talon d'Achille face au talent de Chill</t>
+          <t>Qu'est-ce que j'voulais dire déjà ? Euuuuuh Ah ouais ! On veux du vrai et d'la 'sique Un truc qui t'prend aux tripes Dans l'lard sans artifice Qui fasse pas un buzz dans les articles Mais dans les sonos, les vagos, les boomers, les speakers Viens, j't'explique ma logique Un son qui frappe, faut d'abord une bonne rythmique Puis ensuite, une mélodie envoutante qui tape dans l'système mec, faut qu'ça clippe Énergique, une basse limite, explosion style nitroglycérine Pas d'autre argument que les watts qui déchirent C'est ça qui minspire, les sens de ma XXX Ma clique kiffe le son bad qui baffe Racket les lyrics des bites Les bitches qui pensent qu'aux hits, rien dartistique Tiens rik pe Faut être fier d'une éthique, avoir une sacré équipe de producteurs armés d'kick Pense au public, les mains en l'air eh yo Farah vas-y dit leur qu'ça part en vrille Pour les faire bouger, j'ai la r'cette, Faf c'est le chef, pas b'soin d'traiteur MC, lève tes mains du mic' ça gave, ça rame grave, on veut pas t'voir en live Quand j'rappe, ça taille, c'est la garde, ça calme, aïe, arrache des larmes aux hauts-parleurs Les langues de putes toujours dans l'viseur Elles parlent derrière, et devant te filent le postérieur Allez vous faire mettre ailleurs C'est que des bruits, des on-dit, des aigris qui savent bien que je suis meilleur qu'eux A la Pete Rock, soul survivor, celui qu'ça embarrasse beh j'm'en bat la race Moi j'axe mon taf, moi et mon staff, on a la rage du bon pour la maf' Trace, ici c'est du rap, pas d'strass Enchaine des milliers d'phases Toi reste à la ramasse Faf le coeur, me juge pas, appelle moi Votre Honneur Dope Rhyme Sayer, mon seigneur Ça saigne, reste pas au milieu Eh vise la technique, le style de la clique C'est écrit, Imperial Asiatic Depuis 90, sans venir de l'Amérique Mais droit de cette ville, en face de l'Afrique On chie sur la crise avec une éthique stricte Sur nos feats et nos disques, nos bizz et nos rythmes Sorti du cur d'une MPC et c'est ça, le son est fantastique Ils bavent sur nous quand leurs titres c'est le cirque blablabla Ils font retomber la trique Le niveau des lyrics baigne dans le caniveau et dévalue la réputation de ta street Vite et puisque cet art est magique, l'effet est immédiat et ta sortie elle est tragique haaaaaaa Voici l'avis des fans et du public Sans trafic, attends je t'explique Certains artistes renient la musique et les basiques Font leurs carrières sur de la pipe Ils rendent ce milieu si chiatique Posé sur ce beat, j'vend leurs structures atomiques Comme Nessbeal, c'est ma mélodie des briques En France et de Mars que jécris en italique Ils disent sans arrêt à la télé qu'on est raciste Lâchez-nous un peu, occupez-vous du cul de Brice ooooouh Je suis l'épouvantail chez les fachistes On les stoppe, on les couche, on les tilte, on les vanne, on les pique, on les crache, on les chique, on les mâche, on les chie Parfois on les claque et on les kicke Niveau sapes respecte le standing Jdide comme Silvio assis au Badabing Ce son on le mérite Juste un petit break beat de suite Rafale anthologique ratatata C'est drastique, du classique, on fait péter le plastique Les DJ sont d'accord, ce track doit finir sur le vinyle Ça file, ça vit, ça vibre, ça donne, ça kill Sa place fais pas de sou, mais au top de la pile Dans les postes de tirs qui croisent dans la ville Notre match a cent titres sur l'affiche C'est le talon d'Achille face au talent de Chill</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>98, l'apogée des cons et ça suffit Je pose ma B.A. artistique au rempart, la garde avec moi J'écris en vrac, qu'importe, avec le cur Pour l'honneur, pour les miens, mon clan c'est comme ça Pas l'choix fils, crois-moi, le Sud c'est chaud Trente pourcents d'enculés veulent notre peau c'est beaucoup trop J'm'étais dit, c'morceau, je vais être original et concis non C'est fou y a rien à faire, sur ce coup j'ai trop la rage, si On vit à l'époque où le rap connaît un succès non-stop Paradoxalement le FN aussi Y a des années, cinq pourcents voire six Aujourd'hui les chiffres ont doublé, qu'est-ce tu fais Fils, faut voter contre De la cité à la campagne ou aux centres-villes, pour les tiens Faut voter, même si les autres ne font pas l'affaire C'est bête mais on n'peut tout d'même pas laisser les racistes aux manettes Que les choses soient claires, ils veulent ma peau et j'veux les leurs Leur programme de merde, c'est un leurre Qu'est-ce que tu crois, 2039, non, j'attendrai pas Si ça s'amplifie, tu devras faire un choix Alors qu'ils ne parlent surtout pas de République, enfoirés Putain d'nazis ils vont pas nous bluffer Grâce à la merde, ils recrutent dans la cour des cons Pour des idées de fils de pute, aucun pardon You might also like Alors, tu vois à qui on a affaire fais ton devoir, fils De mairie en conseils régionaux, ils s'pavanent Arrivent à jouer à jouer les arbitres aux élections Et c'est l'drame psychologique, la guerre est là, tu sais Rempart ou pas, la liberté en péril Et un parti prônant la haine d'autrui prend des villes Et si tu y assistes sans rien dire, c'est qu't'es avec lui T'as rien compris, ils feront la loi, décideront des aides, qui y a droit Français ou pas, sans carte du parti, un gros doigt Demande aux gens de Vitrolles, Toulon, de Marignane qui sont contre Ce qu'ils vivent, la tension qui monte Pour l'instant c'est subtil, de l'extérieur on voit rien Des coupes administratives, dans les cités plus d'moyens Et la culture, est-ce nécessaire de l'préciser Musique de jeunes, tu peux oublier, le rap en premier Des bouquins, mais les fachos n'ont pas envie qu'tu réfléchisses Eh les médias, au lieu d'attiser, vous serez la première cible Putain, y a qu'à regarder en arrière et s'y référer Trois pays autour de nous sont déjà tombés Si on est trop naïfs, on va s'le prendre en pleine gueule On pourra plus faire machine arrière c'est maintenant qu'ça s'décide Malgré l'Histoire, les procès, les gens à présent Ont oublié qu'Hitler a été élu démocratiquement Scandale, un gros porc veut nous faire la même 'culé Puis virer les Noirs et les Arabes, tous qui les gênent Fermer les frontières, fermer leur gueule à ceux qui pensent différemment Fermer les établissements qu'ils n'contrôlent pas totalement Première étape du programme du FN Je garantis sur ma vie, on va pas s'laisser faire Que les choses soient claires, ils veulent ma peau et j'veux les leurs Leur programme de merde, c'est un leurre Qu'est-ce que tu crois, 2039, non, j'attendrai pas Si ça s'amplifie, tu devras faire un choix Alors qu'ils ne parlent surtout pas de République, enfoirés Putain d'nazis ils vont pas nous bluffer Grâce à la merde, ils recrutent dans la cour des cons Pour des idées de fils de pute, aucun pardon En plus ici on est à Marseille On n'est pas concernés Ceux qui votent pour, à Marseille, on n'les voit pas 50 d'hypocrites au moins dans l'tas Je m'explique, pour certains vivant en ville sans problème Une caisse crame dans une cité aux infos et ils ont la haine La crème du hip-hop, voudraient qu'on disparaisse On représente tout c'qui les gêne, tout c'qui les blesse Fils tu sais, on existe et ça les emmerde Putain d'racistes allez vous faire mettre Marseille, j'y suis né et j'y reste Je l'aime pour ses mélanges, ses cultures, ses ethnies et leurs fêtes C'est un fait, l'étranger, c'est celui qu'ils n'acceptent pas Et beaucoup sont d'origine étrangère, tu le crois? R.A.P, retour au pays, sur les affiches, comme ils disent dans leur jeunesse de merde Ha, j'me marre, les cons, les blaireaux Leurs parents devraient être pris à coups d'pompe dans l'cul pour avoir entretenu de tels cerveaux Trêve de plaisanterie, le temps des baraquements pourris Les pauvres zoufris qui bossaient pour rien c'est fini Manipulés, depuis y a des enfants, pas d'chance Génération ouvrière née ici qui dérange Tu voudrais refaire la France et t'y peux rien XXX Frapper ta fille si elle sort avec un négro connard XXX t'as rien compris, merde J'veux surtout pas essayer d'te convaincre non J'oublie pas le jeune Ibrahim Ali, souvenez-vous Une balle dans l'dos par un colleur d'affiche un fou Ce qu'il lui faut, pas d'doute, la perpétuité Tu vois l'genre d'esprit qui voudrait nous gouverner Alors ceux qui votent parce qu'ils sont soi-disant déçus, perdus Y a pas d'excuse ni d'demi-mesure, faux-culs Aux urnes, j'irai, essaierai de contrer Cette saloperie pour éviter la guerre civile, ouais tu l'sais</t>
+          <t>98, l'apogée des cons et ça suffit Je pose ma B.A. artistique au rempart, la garde avec moi J'écris en vrac, qu'importe, avec le cur Pour l'honneur, pour les miens, mon clan c'est comme ça Pas l'choix fils, crois-moi, le Sud c'est chaud Trente pourcents d'enculés veulent notre peau c'est beaucoup trop J'm'étais dit, c'morceau, je vais être original et concis non C'est fou y a rien à faire, sur ce coup j'ai trop la rage, si On vit à l'époque où le rap connaît un succès non-stop Paradoxalement le FN aussi Y a des années, cinq pourcents voire six Aujourd'hui les chiffres ont doublé, qu'est-ce tu fais Fils, faut voter contre De la cité à la campagne ou aux centres-villes, pour les tiens Faut voter, même si les autres ne font pas l'affaire C'est bête mais on n'peut tout d'même pas laisser les racistes aux manettes Que les choses soient claires, ils veulent ma peau et j'veux les leurs Leur programme de merde, c'est un leurre Qu'est-ce que tu crois, 2039, non, j'attendrai pas Si ça s'amplifie, tu devras faire un choix Alors qu'ils ne parlent surtout pas de République, enfoirés Putain d'nazis ils vont pas nous bluffer Grâce à la merde, ils recrutent dans la cour des cons Pour des idées de fils de pute, aucun pardon Alors, tu vois à qui on a affaire fais ton devoir, fils De mairie en conseils régionaux, ils s'pavanent Arrivent à jouer à jouer les arbitres aux élections Et c'est l'drame psychologique, la guerre est là, tu sais Rempart ou pas, la liberté en péril Et un parti prônant la haine d'autrui prend des villes Et si tu y assistes sans rien dire, c'est qu't'es avec lui T'as rien compris, ils feront la loi, décideront des aides, qui y a droit Français ou pas, sans carte du parti, un gros doigt Demande aux gens de Vitrolles, Toulon, de Marignane qui sont contre Ce qu'ils vivent, la tension qui monte Pour l'instant c'est subtil, de l'extérieur on voit rien Des coupes administratives, dans les cités plus d'moyens Et la culture, est-ce nécessaire de l'préciser Musique de jeunes, tu peux oublier, le rap en premier Des bouquins, mais les fachos n'ont pas envie qu'tu réfléchisses Eh les médias, au lieu d'attiser, vous serez la première cible Putain, y a qu'à regarder en arrière et s'y référer Trois pays autour de nous sont déjà tombés Si on est trop naïfs, on va s'le prendre en pleine gueule On pourra plus faire machine arrière c'est maintenant qu'ça s'décide Malgré l'Histoire, les procès, les gens à présent Ont oublié qu'Hitler a été élu démocratiquement Scandale, un gros porc veut nous faire la même 'culé Puis virer les Noirs et les Arabes, tous qui les gênent Fermer les frontières, fermer leur gueule à ceux qui pensent différemment Fermer les établissements qu'ils n'contrôlent pas totalement Première étape du programme du FN Je garantis sur ma vie, on va pas s'laisser faire Que les choses soient claires, ils veulent ma peau et j'veux les leurs Leur programme de merde, c'est un leurre Qu'est-ce que tu crois, 2039, non, j'attendrai pas Si ça s'amplifie, tu devras faire un choix Alors qu'ils ne parlent surtout pas de République, enfoirés Putain d'nazis ils vont pas nous bluffer Grâce à la merde, ils recrutent dans la cour des cons Pour des idées de fils de pute, aucun pardon En plus ici on est à Marseille On n'est pas concernés Ceux qui votent pour, à Marseille, on n'les voit pas 50 d'hypocrites au moins dans l'tas Je m'explique, pour certains vivant en ville sans problème Une caisse crame dans une cité aux infos et ils ont la haine La crème du hip-hop, voudraient qu'on disparaisse On représente tout c'qui les gêne, tout c'qui les blesse Fils tu sais, on existe et ça les emmerde Putain d'racistes allez vous faire mettre Marseille, j'y suis né et j'y reste Je l'aime pour ses mélanges, ses cultures, ses ethnies et leurs fêtes C'est un fait, l'étranger, c'est celui qu'ils n'acceptent pas Et beaucoup sont d'origine étrangère, tu le crois? R.A.P, retour au pays, sur les affiches, comme ils disent dans leur jeunesse de merde Ha, j'me marre, les cons, les blaireaux Leurs parents devraient être pris à coups d'pompe dans l'cul pour avoir entretenu de tels cerveaux Trêve de plaisanterie, le temps des baraquements pourris Les pauvres zoufris qui bossaient pour rien c'est fini Manipulés, depuis y a des enfants, pas d'chance Génération ouvrière née ici qui dérange Tu voudrais refaire la France et t'y peux rien XXX Frapper ta fille si elle sort avec un négro connard XXX t'as rien compris, merde J'veux surtout pas essayer d'te convaincre non J'oublie pas le jeune Ibrahim Ali, souvenez-vous Une balle dans l'dos par un colleur d'affiche un fou Ce qu'il lui faut, pas d'doute, la perpétuité Tu vois l'genre d'esprit qui voudrait nous gouverner Alors ceux qui votent parce qu'ils sont soi-disant déçus, perdus Y a pas d'excuse ni d'demi-mesure, faux-culs Aux urnes, j'irai, essaierai de contrer Cette saloperie pour éviter la guerre civile, ouais tu l'sais</t>
         </is>
       </c>
     </row>
@@ -1313,7 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Come on man First we get the cash Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume J'assume d'être chaud, un pow possédé ce son Soul Swing, Marseille, je le place d'entrée Les types qui ont un problème avec ça peuvent crever Les flipes, les mauviettes, fils j'en n'ai rien à carrer Je fais c'qu'il faut, faut pas l'oublier, tu le sais Néanmoins j'ai pas beaucoup d'efforts à fournir La fournaise sur scène, témoin le public Quand j'me la joue ziz' ça passe pas j'en ai rien à foutre Mais c'est d'l'art, Faf Larage moi et ma saga Plus long que Dallas, des emmerdes, des crasses mais je suis encore là Pour un show, viens nous Voir là si t'as le temps Néglige pas les cotons-tiges si tu veux un son clean Que le funk reste funk, que le rap reste vrai Le vrai hip hop n'amasse pas de blé Ainsi des groupes fusent, tous pour la tune J'en veux à personne tant qu'on fait la différence Les tendances ne m'atteignent pas, je suis à l'heure East Coast Et fait le compromis avec les Bouches-du-Rhône Ça finira par payer, on fera les comptes dans quelques années Fils, mes disques continueront de tourner, ouais You might also like Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume Attaquer les Fnac et les Mégastore de France Les bacs, les disquaires de mon expérience Soul Swing, des types, la frime égo-trip De la Gangst-shit de hip-hop fanatics 96, le groupe se saigne, se gère lui-même, s'endurcit depuis tant XXX Billes, école, je rigole, comment les choses évoluent Pas une merde en radio nous vaut ma place dans la rue Ecoute-moi et capte mon job comme il est Ne lui met pas de forme, laisse-le dans sa norme Revoit l'histoire du rap ici quand tu parles de moi Fait tourner ma sauce que j'XXX pour toi Et tu le sais, forcer les portes qui s'ouvrent mal Ferme la bouche à ceux qui n'y croyaient pas, qui s'avalent Mes chèques, mes ventes, si il faut j'déballe Pour un spécial coulisse de Soul Swing dans Capital Vas-y crédite, si moi j'débite, sors les sous Reste un ami et nos morceaux tu les joues dans les bonnes radios et les méchantes soirées Ouais fait tourner que je fasse mon blé x2 Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume J'aimais entamer un taxe après une relaxation Mais à présent je prend les devants, garant de mon propre nom Épaulé par mon poto Def avec qui il faut compter Si il te viens l'idée d'affronter Soul Swing, gaffe j'ai K-Rhyme Le Roi de l'autre côté plus rebel et Majestic Mes DJ, tu vois on est plein de pitié Si tu souhaites être épargner, exaucer ton vu me coute On te traitera comme Slick Rick like a prostitute Désormais, fini de plaisanter Tu connais la qualité et ça n'va pas changer Les mecs veulent des nouveaux morceaux, je donne des nouveaux morceaux Et fait un hold up sur toutes les émissions radio Hip-hop sûr et si tu discutes, vois qui est le mac en place Et acceptes que je fasse ma tune, faut pas faire chier quand je place mon blé Mon blé c'est ma voix, ma tech et mes productions, du bon son selon mon humeur Fais tourner l'instru DJ n'hésite pas Scratch par-ci par-là que le beat ne s'arrête pas XXX 96, XXX Freestyle XXX quand je stoppe ma phrase, les pédales tendent de faire de même Mon rap est XXX, faire danser, réfléchir sur des textes qui tiennent à cur et à mon portefeuilles Fais tourner DJ l'instru que je fasse ma tune Faire du XXX pour continuer Le rap dans le son, suis mon job comme un exercice C'est taffé , ça traine depuis trop de temps De temps en temps, j'ai laissé faire, XXX je représente Écoute de voir comment en auto-prod je rends Je me XXX l'argent pour d'autres projets plus grands Autant de hargne que mon équipe, je XXX Le sud dans l'esprit, mon crew ne fait qu'un Les vieux briscards de Marseille de remettent à l'heure Et tu pleures ta mère quand tu penses qu'hier je me lâchais sur RapLine M6 bon pour l'époque Depuis 88 on gonfle le stock, c'est le XXX dans les têtes La consécration dans la mienne Marseille on connait l'histoire, c'est la même Que celles de tout les bad boys du rap en France Et pour que ça commence par le début, l'acharnement en fait traduit ça frappe cette fois Une fois, une seule, pour se retomber du EP Lache ta tune que je fasse la mienne, mon gars, ouais fais tourner que je la fasse mon vié Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume</t>
+          <t>Come on man First we get the cash Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume J'assume d'être chaud, un pow possédé ce son Soul Swing, Marseille, je le place d'entrée Les types qui ont un problème avec ça peuvent crever Les flipes, les mauviettes, fils j'en n'ai rien à carrer Je fais c'qu'il faut, faut pas l'oublier, tu le sais Néanmoins j'ai pas beaucoup d'efforts à fournir La fournaise sur scène, témoin le public Quand j'me la joue ziz' ça passe pas j'en ai rien à foutre Mais c'est d'l'art, Faf Larage moi et ma saga Plus long que Dallas, des emmerdes, des crasses mais je suis encore là Pour un show, viens nous Voir là si t'as le temps Néglige pas les cotons-tiges si tu veux un son clean Que le funk reste funk, que le rap reste vrai Le vrai hip hop n'amasse pas de blé Ainsi des groupes fusent, tous pour la tune J'en veux à personne tant qu'on fait la différence Les tendances ne m'atteignent pas, je suis à l'heure East Coast Et fait le compromis avec les Bouches-du-Rhône Ça finira par payer, on fera les comptes dans quelques années Fils, mes disques continueront de tourner, ouais Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume Attaquer les Fnac et les Mégastore de France Les bacs, les disquaires de mon expérience Soul Swing, des types, la frime égo-trip De la Gangst-shit de hip-hop fanatics 96, le groupe se saigne, se gère lui-même, s'endurcit depuis tant XXX Billes, école, je rigole, comment les choses évoluent Pas une merde en radio nous vaut ma place dans la rue Ecoute-moi et capte mon job comme il est Ne lui met pas de forme, laisse-le dans sa norme Revoit l'histoire du rap ici quand tu parles de moi Fait tourner ma sauce que j'XXX pour toi Et tu le sais, forcer les portes qui s'ouvrent mal Ferme la bouche à ceux qui n'y croyaient pas, qui s'avalent Mes chèques, mes ventes, si il faut j'déballe Pour un spécial coulisse de Soul Swing dans Capital Vas-y crédite, si moi j'débite, sors les sous Reste un ami et nos morceaux tu les joues dans les bonnes radios et les méchantes soirées Ouais fait tourner que je fasse mon blé x2 Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume J'aimais entamer un taxe après une relaxation Mais à présent je prend les devants, garant de mon propre nom Épaulé par mon poto Def avec qui il faut compter Si il te viens l'idée d'affronter Soul Swing, gaffe j'ai K-Rhyme Le Roi de l'autre côté plus rebel et Majestic Mes DJ, tu vois on est plein de pitié Si tu souhaites être épargner, exaucer ton vu me coute On te traitera comme Slick Rick like a prostitute Désormais, fini de plaisanter Tu connais la qualité et ça n'va pas changer Les mecs veulent des nouveaux morceaux, je donne des nouveaux morceaux Et fait un hold up sur toutes les émissions radio Hip-hop sûr et si tu discutes, vois qui est le mac en place Et acceptes que je fasse ma tune, faut pas faire chier quand je place mon blé Mon blé c'est ma voix, ma tech et mes productions, du bon son selon mon humeur Fais tourner l'instru DJ n'hésite pas Scratch par-ci par-là que le beat ne s'arrête pas XXX 96, XXX Freestyle XXX quand je stoppe ma phrase, les pédales tendent de faire de même Mon rap est XXX, faire danser, réfléchir sur des textes qui tiennent à cur et à mon portefeuilles Fais tourner DJ l'instru que je fasse ma tune Faire du XXX pour continuer Le rap dans le son, suis mon job comme un exercice C'est taffé , ça traine depuis trop de temps De temps en temps, j'ai laissé faire, XXX je représente Écoute de voir comment en auto-prod je rends Je me XXX l'argent pour d'autres projets plus grands Autant de hargne que mon équipe, je XXX Le sud dans l'esprit, mon crew ne fait qu'un Les vieux briscards de Marseille de remettent à l'heure Et tu pleures ta mère quand tu penses qu'hier je me lâchais sur RapLine M6 bon pour l'époque Depuis 88 on gonfle le stock, c'est le XXX dans les têtes La consécration dans la mienne Marseille on connait l'histoire, c'est la même Que celles de tout les bad boys du rap en France Et pour que ça commence par le début, l'acharnement en fait traduit ça frappe cette fois Une fois, une seule, pour se retomber du EP Lache ta tune que je fasse la mienne, mon gars, ouais fais tourner que je la fasse mon vié Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume</t>
         </is>
       </c>
     </row>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Faut que j'renaisse fissa avant qu'on m'enterre trop vite je sais que ça Va se faire de toute façon j'espère ne pas mordre à l'hameçon d'ici là Même dans mon élément j'ouvre l'oeil prêt à l'action Sinon je me retrouve sans cervelle la tête sous le cul du gazon Je dois renaître à chaque page elles sont ma raison D'être comme l'éveil pour le sage atomiser ma cage tel un songe Libérer la rage en toile de fond pour pas le toucher trop vite Je nage à contresens d'instinct esquive les naïfs dans le pétrin Tel un Phoenix, renaître, pas que les cendres pourrissent Rejeter les dés sans crainte de se mouiller Lardé de problèmes en tout genre et au quotidien et Personne ne voit rien, faut faire avec Ta famille à dos ou ton boulot qui suit pas La tune qui manque un handicap là pour les faibles Seuls les fous ou les forts en réchappent et la chance Se défile comme par hasard quand t'as le plus besoin d'aide Attendre de toucher le fond ? Jeter l'éponge ? Nan Faut se retourner le cerveau, combien ici sont indemne ? Pas finir stupide, marcher dans le vide sans rien pour me guider Même quand la route est risquée pas question de se planter Faut que j'renaisse, faut faut que j'renaisse A chaque hourra, chaque coup bas, chaque fois, chaque combat Chaque seconde vécu jusqu'au trépas Faut que j'renaisse, faut faut que j'renaisse You might also like Je dois renaître à chaque feuille comme le soleil chaque matin N'est pas Phoenix qui veut les téméraires y laisseront leurs gains Heureux les saints que se remanient sans se ménager Malins qui se démarquent des esprits enragés saccagés sur le côté! Je dois renaître à chaque feuille comme le soleil chaque matin N'est pas Phoenix qui veut les téméraires y laisseront leurs gains Heureux les saints que se remanient sans se ménager Malins qui se démarquent des esprits enragés saccagés sur le côté Ouais alors s'il le faut faire un bout de chemin à ses côtés soit Le doute ? Si on le maîtrise on le matte Par l'acte, agir avant de faire le constat De ses rides qu'on aurait pu faire ceci ou cela Faut faut qu'je renaisse à chaque texte, à chaque pas et Faut faut qu'je renaisse toute façon j'ai pas le choix et! Ouais comme le Phoenix quoi! et oui au moins tu apprécies la journée et pas de regrets à la fin! Sûr cest ce que je voudrais un soleil sous ma fenêtre Un ciel sans tâches, inspiré, mon cahier Retranscrit mes joies sur les pages tu le sais Fuck les haineux aujourd'hui j'en chie pas pourquoi j'aurai pas Le droit de dresser un flow sans failles sur un jour faste Un jour sans facteur sans contrôle sans prise de tête où rien n'empiète sur l'humeur Un jour sans rancoeur un jour sans rage au coeur Un jour sans pressions un jour où tu sais que tu vas faire du bon son Et parler de jours dont on ne parle pas assez les bons C'est vrai rien ne va mieux mais quand y en a un j'en profite Trop précieux pour passer à côté mec je suis pas stupide Des jours comme ça, ouais j'veux des jours comme ça C'est vrai rien ne va mieux Trop précieux pour passer à côté mec Des jours comme ça, ouais j'veux des jours comme ça Seuls les fous n'en veulent pas de ses jours Où tu te lèves en sachant que tu regretteras pas le détour Moi ça me va et si j'ai pas autre chose à faire que ce que j'aime Un privilège trop rare pour qu'on le laisse à la traîne A l'agachon je guette ces jours et je me jette sans faire le difficile Son, sofa, ma femme moi et là faut que tu te lèves tôt pour me faire bouger d'un cil Rho docile la pression reste à l'écart C'est le pied et j'entends bien le prendre à bras le corps Un de ces jours laxistes, où l'orage se limite aux gimmicks Insipides, au lyriciste que je suis c'est comme si on M'inciterait à me retrouver, à oublier, à chérir le moment C'est comme un sourire de M'man, un regard fier de P'pa Un repas en famille où la bonne humeur va de soit Avec Dalou dans la place, les conflits inexistants dans ces journées-là Comme quand je vois ma Charlotte heureuse ça Me réchauffe le coeur, genre le soleil rouge à huit heure du soir Tu sais qu'on y a droit, maudit soit celui ou celle qui va Me l'arracher, putain tu le sais c'est rare ces sensations Quand j'écris et quand je rapperais ce texte je voudrais Des claps et des sourires sincères frère Que ces journées aient des reflets sur scène</t>
+          <t>Faut que j'renaisse fissa avant qu'on m'enterre trop vite je sais que ça Va se faire de toute façon j'espère ne pas mordre à l'hameçon d'ici là Même dans mon élément j'ouvre l'oeil prêt à l'action Sinon je me retrouve sans cervelle la tête sous le cul du gazon Je dois renaître à chaque page elles sont ma raison D'être comme l'éveil pour le sage atomiser ma cage tel un songe Libérer la rage en toile de fond pour pas le toucher trop vite Je nage à contresens d'instinct esquive les naïfs dans le pétrin Tel un Phoenix, renaître, pas que les cendres pourrissent Rejeter les dés sans crainte de se mouiller Lardé de problèmes en tout genre et au quotidien et Personne ne voit rien, faut faire avec Ta famille à dos ou ton boulot qui suit pas La tune qui manque un handicap là pour les faibles Seuls les fous ou les forts en réchappent et la chance Se défile comme par hasard quand t'as le plus besoin d'aide Attendre de toucher le fond ? Jeter l'éponge ? Nan Faut se retourner le cerveau, combien ici sont indemne ? Pas finir stupide, marcher dans le vide sans rien pour me guider Même quand la route est risquée pas question de se planter Faut que j'renaisse, faut faut que j'renaisse A chaque hourra, chaque coup bas, chaque fois, chaque combat Chaque seconde vécu jusqu'au trépas Faut que j'renaisse, faut faut que j'renaisse Je dois renaître à chaque feuille comme le soleil chaque matin N'est pas Phoenix qui veut les téméraires y laisseront leurs gains Heureux les saints que se remanient sans se ménager Malins qui se démarquent des esprits enragés saccagés sur le côté! Je dois renaître à chaque feuille comme le soleil chaque matin N'est pas Phoenix qui veut les téméraires y laisseront leurs gains Heureux les saints que se remanient sans se ménager Malins qui se démarquent des esprits enragés saccagés sur le côté Ouais alors s'il le faut faire un bout de chemin à ses côtés soit Le doute ? Si on le maîtrise on le matte Par l'acte, agir avant de faire le constat De ses rides qu'on aurait pu faire ceci ou cela Faut faut qu'je renaisse à chaque texte, à chaque pas et Faut faut qu'je renaisse toute façon j'ai pas le choix et! Ouais comme le Phoenix quoi! et oui au moins tu apprécies la journée et pas de regrets à la fin! Sûr cest ce que je voudrais un soleil sous ma fenêtre Un ciel sans tâches, inspiré, mon cahier Retranscrit mes joies sur les pages tu le sais Fuck les haineux aujourd'hui j'en chie pas pourquoi j'aurai pas Le droit de dresser un flow sans failles sur un jour faste Un jour sans facteur sans contrôle sans prise de tête où rien n'empiète sur l'humeur Un jour sans rancoeur un jour sans rage au coeur Un jour sans pressions un jour où tu sais que tu vas faire du bon son Et parler de jours dont on ne parle pas assez les bons C'est vrai rien ne va mieux mais quand y en a un j'en profite Trop précieux pour passer à côté mec je suis pas stupide Des jours comme ça, ouais j'veux des jours comme ça C'est vrai rien ne va mieux Trop précieux pour passer à côté mec Des jours comme ça, ouais j'veux des jours comme ça Seuls les fous n'en veulent pas de ses jours Où tu te lèves en sachant que tu regretteras pas le détour Moi ça me va et si j'ai pas autre chose à faire que ce que j'aime Un privilège trop rare pour qu'on le laisse à la traîne A l'agachon je guette ces jours et je me jette sans faire le difficile Son, sofa, ma femme moi et là faut que tu te lèves tôt pour me faire bouger d'un cil Rho docile la pression reste à l'écart C'est le pied et j'entends bien le prendre à bras le corps Un de ces jours laxistes, où l'orage se limite aux gimmicks Insipides, au lyriciste que je suis c'est comme si on M'inciterait à me retrouver, à oublier, à chérir le moment C'est comme un sourire de M'man, un regard fier de P'pa Un repas en famille où la bonne humeur va de soit Avec Dalou dans la place, les conflits inexistants dans ces journées-là Comme quand je vois ma Charlotte heureuse ça Me réchauffe le coeur, genre le soleil rouge à huit heure du soir Tu sais qu'on y a droit, maudit soit celui ou celle qui va Me l'arracher, putain tu le sais c'est rare ces sensations Quand j'écris et quand je rapperais ce texte je voudrais Des claps et des sourires sincères frère Que ces journées aient des reflets sur scène</t>
         </is>
       </c>
     </row>
@@ -1347,7 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai pas attendu qu'on m'dise quand je tchatche avec Faf De mettre la gouache Que les autres MC en face prennent des baffes Fumer l'instru comme quand sur ton spliff Tu tires une taffe, honorer l'invitation du Kif Kif staff J'ai pas attendu qu'on me dise Fils fais du rap Rien à foutre des enculés qui croient pas en moi Eh, le temps n'attend pas on est pressé, t'as les foies ? On sait que ce sont les premiers qui foncent qui ramassent le tas J'm'en ouf, ils m'disent que je suis vulgaire Il changera pas ! C'est ma nature, mon caractère Qu'est-ce que tu peux faire ? Arrogant, nègre et fier Ils aiment pas ça Dans leur système, je gêne, j'ai bouffé leur muselière J'ai pas attendu qu'on me montre Le mauvais du doigt Des influences pour réfléchir me dire dans la vie, avancer C'est un choix, responsable envers mes actes J'ponds ça, laisse tomber on bouffe ça Pas besoin qu'on me dise que ça pue, pour voir qu'ici c'est la merde La vie, un jeu d'échec, protège ton roi pour ne pas perdre Toujours surprendre l'ennemi comme les attaques du Raid Seul dans ce labyrinthe mais je n'ai besoin d'aucune aide À l'aide, c'est la baise personne ne se lève Y'a qu'une minorité de gens le cur sur la main Alors on crève, on sait quoi faire, Pit Baccardi, Neg'Marrons La rage, c'est la même You might also like Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai appris à rester seul au milieu de tous Parfois penser pour tous et même être seul contre tous Je fus, je suis, serais fils du vent J'tisse ma toile exauce mes vux Le vent souffle, faut que j'avance vers Dieu, perdu Une cause, mon but, la force ma détermination Seul guidé par ma conscience j'avance dans une direction Qui mène à ce destin que j'aimerais être le mien Mais qui nécessite que je manifeste une rage, une colère Que j'agisse sans limites J'ai pas attendu la sécheresse Pour savoir que je peux mourir de soif D'avoir le poison dans ma soupe et en conclure que Mon tueur est près de moi et veut ma mort Que le monde soit en couille plus besoin d'être pédé Pour se faire enculer merde, j't'ai pas attendu Pour être ce que je suis, un mec fier qui est ce que tu n'es pas Qui fait ce qu'il peut que toi tu ne fais pas Seul contre tous, je n'attendrai pas l'apocalypse Pour croquer la vie à pleine dent, enragé comme un clebs J'en bave, mais je pourrai surmonter cette épreuve Faire face à cette chienne de vie Qui a le pouvoir de briser mes rêves Laisse j'attends pas qu'elle m'attends au tournant J'suis mal vu mais pour l'instant je la baise avant de me rendre au suivant Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent Progresse, fils, t'as vu ça on y croit parce qu'on marche comme ça Y'a pas le quart de ce qu'on peut faire dans ce titre C'est pas le clan des loosers Ni des suiveurs, la vie, c'est pas un truc de causeurs Nés pour le pire et le meilleur La vie, faut que je la nique, toujours donner le meilleur de moi Pas rester statique on prend des risques dans la musique Pour l'amour du disque c'est pour ça que j'y mets tout mon cur À chaque fois que je kick Jacky Brown au micro Neg'Marrons est mon éthique N'est-ce pas mon haleine pourrie derrière ce mic ? Ne naissent-ils pas de ma semence Ces textes crus que je veux poésie ? Les pros ici sont prêts à ça À l'affront, avec comme seul soutien la prophétie On a peu de temps pour réfléchir mais encore moins pour agir On ne cesse de le dire d'où se manifeste la force d'écrire Des choses qui poussent, incitent les jeunes à réagir vite De façon claire et explicite Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent</t>
+          <t>Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai pas attendu qu'on m'dise quand je tchatche avec Faf De mettre la gouache Que les autres MC en face prennent des baffes Fumer l'instru comme quand sur ton spliff Tu tires une taffe, honorer l'invitation du Kif Kif staff J'ai pas attendu qu'on me dise Fils fais du rap Rien à foutre des enculés qui croient pas en moi Eh, le temps n'attend pas on est pressé, t'as les foies ? On sait que ce sont les premiers qui foncent qui ramassent le tas J'm'en ouf, ils m'disent que je suis vulgaire Il changera pas ! C'est ma nature, mon caractère Qu'est-ce que tu peux faire ? Arrogant, nègre et fier Ils aiment pas ça Dans leur système, je gêne, j'ai bouffé leur muselière J'ai pas attendu qu'on me montre Le mauvais du doigt Des influences pour réfléchir me dire dans la vie, avancer C'est un choix, responsable envers mes actes J'ponds ça, laisse tomber on bouffe ça Pas besoin qu'on me dise que ça pue, pour voir qu'ici c'est la merde La vie, un jeu d'échec, protège ton roi pour ne pas perdre Toujours surprendre l'ennemi comme les attaques du Raid Seul dans ce labyrinthe mais je n'ai besoin d'aucune aide À l'aide, c'est la baise personne ne se lève Y'a qu'une minorité de gens le cur sur la main Alors on crève, on sait quoi faire, Pit Baccardi, Neg'Marrons La rage, c'est la même Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai appris à rester seul au milieu de tous Parfois penser pour tous et même être seul contre tous Je fus, je suis, serais fils du vent J'tisse ma toile exauce mes vux Le vent souffle, faut que j'avance vers Dieu, perdu Une cause, mon but, la force ma détermination Seul guidé par ma conscience j'avance dans une direction Qui mène à ce destin que j'aimerais être le mien Mais qui nécessite que je manifeste une rage, une colère Que j'agisse sans limites J'ai pas attendu la sécheresse Pour savoir que je peux mourir de soif D'avoir le poison dans ma soupe et en conclure que Mon tueur est près de moi et veut ma mort Que le monde soit en couille plus besoin d'être pédé Pour se faire enculer merde, j't'ai pas attendu Pour être ce que je suis, un mec fier qui est ce que tu n'es pas Qui fait ce qu'il peut que toi tu ne fais pas Seul contre tous, je n'attendrai pas l'apocalypse Pour croquer la vie à pleine dent, enragé comme un clebs J'en bave, mais je pourrai surmonter cette épreuve Faire face à cette chienne de vie Qui a le pouvoir de briser mes rêves Laisse j'attends pas qu'elle m'attends au tournant J'suis mal vu mais pour l'instant je la baise avant de me rendre au suivant Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent Progresse, fils, t'as vu ça on y croit parce qu'on marche comme ça Y'a pas le quart de ce qu'on peut faire dans ce titre C'est pas le clan des loosers Ni des suiveurs, la vie, c'est pas un truc de causeurs Nés pour le pire et le meilleur La vie, faut que je la nique, toujours donner le meilleur de moi Pas rester statique on prend des risques dans la musique Pour l'amour du disque c'est pour ça que j'y mets tout mon cur À chaque fois que je kick Jacky Brown au micro Neg'Marrons est mon éthique N'est-ce pas mon haleine pourrie derrière ce mic ? Ne naissent-ils pas de ma semence Ces textes crus que je veux poésie ? Les pros ici sont prêts à ça À l'affront, avec comme seul soutien la prophétie On a peu de temps pour réfléchir mais encore moins pour agir On ne cesse de le dire d'où se manifeste la force d'écrire Des choses qui poussent, incitent les jeunes à réagir vite De façon claire et explicite Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche Ma garantie de n'pas écrire de conneries Avant d'écrire ces quelques mots plein de vie On cherche le pour et le contre, on veut qu'ce soit terrible sans la pression On sait qu'ça va rester sur on s'applique on prend son temps On veut pas d'erreurs on se concentre là sur la feuille on Constate complique comment on fait on Se questionne pour obtenir le meilleur du son En réussissant en foirant on a pas trop le choix on Fait façon relâche au pire la haine parle Suivant les sujets ça marche ou pas En tous cas je m'dois en tant qu'auteur d'investir dans la course Pas seulement si j'veux qu'mes rimes soient cotées en bourse C'est pour l'amour de l'art me prendre la tête ça je sais l'faire Stylo dans la main le lien entre ma feuille et moi c'est clair L'atmosphère se disloque le temps un élément oublié Connexion papier mine cerveau tout y est La création pour commencer se fraie un chemin dans les lignes L'inspiration fait que ce moment soit des plus intimes Sorti d'là tu n'es plus qu'un étranger Un mystère sous tes yeux que tu cherches à élucider You might also like Tu l'sais Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche La garantie de n'pas écrire de conneries Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche La garantie de n'pas écrire de conneries Un style unique utile en vogue pour les freestyles Pur comme du cristal, arrache comme du Mezcal J'tente de faire des assonances du style quand j'y pense Mets au point une diction qui m'met en transe quand j'me lance et Stop j'arrête peur de faire un flop Conscient qu'je vais barrer au prochain mot j'prends une clope et j'attends Observe mon cahier donc cette fois j'ai repoussé les mauvaises idées noté ça j'en ai Tu le sais toi mon carnet je t'en ai fait voir crispé J'arracherai tirerai tes feuilles un fou dans mon délire et J'pars en vrille j'parle du papier Un bloc inerte mais si il vivait il me comprendrait pour la hantise et la rigueur du service Et la qualité de rap cherche que tu t'infliges Aussi si tes écrits sont intelligents Je serai fier de les garder précieusement dans mes rangs C'est ridicule de penser ça mais en fait on est complices Je sais ce qu'il me dirais, me donnerais comme indices N'écrit pas d'conneries trouves des sujets propices Traite les avec malice des textes responsables fils Refuserai les combines si je veux achever une phrase avec des rimes pas trop fines Y'a tellement de choses à dire à partir du moment où ça finit sur un disque il faut que tu mesures les risques Les rangs on s'en fiche quand tu crées pour évoluer C'est la dernière question que tu dois t'poser Autant d'conseils à mon esprit devant une feuille blanche Autant de textes à chier qui dorment car je flanche Je vais pas te faire mes louanges j'suis pas Michel-Ange De la plume et mes notes sont toujours là pour me le rappeler Ne confonds pas egotrip et réalité dans le premier cas j'suis au sommet et dans le deux je tente d'y accéder Comme un obsédé jamais satisfait même si je passe des heures devant un carreau vide J'essaye de ne pas succomber au supplice de la facilité pour un public qui ne veut plus de paroles factices Avant qu'ma voix n'diffuse quoi qu'ce soit si il n'y a pas d'inspiration je ne force pas et je laisse ma feuille blanche Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche La garantie de n'pas écrire de conneries</t>
+          <t>Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche Ma garantie de n'pas écrire de conneries Avant d'écrire ces quelques mots plein de vie On cherche le pour et le contre, on veut qu'ce soit terrible sans la pression On sait qu'ça va rester sur on s'applique on prend son temps On veut pas d'erreurs on se concentre là sur la feuille on Constate complique comment on fait on Se questionne pour obtenir le meilleur du son En réussissant en foirant on a pas trop le choix on Fait façon relâche au pire la haine parle Suivant les sujets ça marche ou pas En tous cas je m'dois en tant qu'auteur d'investir dans la course Pas seulement si j'veux qu'mes rimes soient cotées en bourse C'est pour l'amour de l'art me prendre la tête ça je sais l'faire Stylo dans la main le lien entre ma feuille et moi c'est clair L'atmosphère se disloque le temps un élément oublié Connexion papier mine cerveau tout y est La création pour commencer se fraie un chemin dans les lignes L'inspiration fait que ce moment soit des plus intimes Sorti d'là tu n'es plus qu'un étranger Un mystère sous tes yeux que tu cherches à élucider Tu l'sais Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche La garantie de n'pas écrire de conneries Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche La garantie de n'pas écrire de conneries Un style unique utile en vogue pour les freestyles Pur comme du cristal, arrache comme du Mezcal J'tente de faire des assonances du style quand j'y pense Mets au point une diction qui m'met en transe quand j'me lance et Stop j'arrête peur de faire un flop Conscient qu'je vais barrer au prochain mot j'prends une clope et j'attends Observe mon cahier donc cette fois j'ai repoussé les mauvaises idées noté ça j'en ai Tu le sais toi mon carnet je t'en ai fait voir crispé J'arracherai tirerai tes feuilles un fou dans mon délire et J'pars en vrille j'parle du papier Un bloc inerte mais si il vivait il me comprendrait pour la hantise et la rigueur du service Et la qualité de rap cherche que tu t'infliges Aussi si tes écrits sont intelligents Je serai fier de les garder précieusement dans mes rangs C'est ridicule de penser ça mais en fait on est complices Je sais ce qu'il me dirais, me donnerais comme indices N'écrit pas d'conneries trouves des sujets propices Traite les avec malice des textes responsables fils Refuserai les combines si je veux achever une phrase avec des rimes pas trop fines Y'a tellement de choses à dire à partir du moment où ça finit sur un disque il faut que tu mesures les risques Les rangs on s'en fiche quand tu crées pour évoluer C'est la dernière question que tu dois t'poser Autant d'conseils à mon esprit devant une feuille blanche Autant de textes à chier qui dorment car je flanche Je vais pas te faire mes louanges j'suis pas Michel-Ange De la plume et mes notes sont toujours là pour me le rappeler Ne confonds pas egotrip et réalité dans le premier cas j'suis au sommet et dans le deux je tente d'y accéder Comme un obsédé jamais satisfait même si je passe des heures devant un carreau vide J'essaye de ne pas succomber au supplice de la facilité pour un public qui ne veut plus de paroles factices Avant qu'ma voix n'diffuse quoi qu'ce soit si il n'y a pas d'inspiration je ne force pas et je laisse ma feuille blanche Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche La garantie de n'pas écrire de conneries</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers Tu reconnais la voix jai tout le 1.3 dans le larynx Du petit séminaire, au carré dor en passant par Arenc Et les communes périphériques dans ton oreillette Entend quon croit plus en Clochette chez nous les faits sont réels À cause des cerveaux qui satrophient mais via ce gros feat Vois quil y a plus d1000 profils qui puent le profit Jmarche les yeux cernés marquer par le manque de sommeil mais lmenton pointé vers le ciel comme si je narguais le soleil Je peux me targuer davoir eu un Master 2 en survêt de chelsea On aime pas faire miskine car éduqués à la dure Homme ou femme, joie ou drame ,on se doit d'être fier Marseille ça s'arrête pas, pas de limites, pas de frontières ça parle fort, ça parle vite en vrai,ca vit sur les nerfs ca exagère parfois peut-être ça se calme au bord de la mer L'encre coule le sang se répand ohlalala Il faut être digne de ses lignes elles ont marqué les gens je rêvais d'être feignant je rêvais de Testa rossa Je rêvais que j'avais pas le temps Marseille ça s'arrête pas Ma ville est grande dans la légende c'est Marseille en vrai à la bien lâche rien c'est Marseille en vrai Je représente le décor c'est pour le frérot Relo C'est l'enfant du Vieux-Port normal que j'ai du flow Ils m'ont dit la vie d'artiste mec non je ne signerai pas 30 ans après ayé les my way Sinatra Et voila parti en balade ne visant que les cimes Le soleil et les rues pourries furent l'écrin de mes rimes C'est peut-être pour ça que je pique dans mes propos quand je kick c'est du loco, pur jus produit local J'ai le feu dans la Bocca, les forces de Mars soufflent le cur nourri aux flammes, j'ai la fierté de mes souches couz Marre On cause dès que le son tourne pas avant, et y'a pas de paravents, t'es pas préparé pars avant c'est shu Jusqu'à la moelle enragé, dealer d'images engagées les pages défilent et volent sans jamais se plier You might also like On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers Fier de ce qu'on est, on se contente de ce qu'on a Rien a été volé pour en arriver là Dignité ne s'achète pas, chacun choisit sa voie Faire le bien autour de soi éviter les faux pas Essayer de garder la foi, fier, fort, digne, et droit Malgré les coup bas que la vie nous réserve des fois Élever mes fils, les serrer dans mes bras, chaque matin dans le miroir ils se reconnaîtront bûche 10 fois plus pour sortir de l'engrenage de ces halls Il te mettront sur le grill, testerons ta résistance, la force de tes épaules Le verbe fort formé pour choquer les hautes sphères Sincères Punchliner la dalle au peuple sa mère Ici Ma couleur a ses droits devant le holster Quadriller le terrain tant qu'il peut En parallèle mon clan ma cause on fait le job homy Regarde aujourdhui comment on salit la prod Nos strophes autour du globe untel au microphone fuck les xénophobes Nos vraies valeurs donnent Cador et pléthore de Vador les rues du sud signent Un coeur en or perforé par le sort digne La jungle et ses animaux qui sera le le mâle alpha La rue cest dangerous tu plonges et tu taffoles Fier comme un baye fall, digne comme mes Comocos Ne tretourne pas face à poulet alloco Allo allo, bienvenu chez les hommes ca kick dure mon salaud Juste pour la forme Honneur, fierté, dignité dans le azzi éternel insatisfait éternel incompris On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers</t>
+          <t>On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers Tu reconnais la voix jai tout le 1.3 dans le larynx Du petit séminaire, au carré dor en passant par Arenc Et les communes périphériques dans ton oreillette Entend quon croit plus en Clochette chez nous les faits sont réels À cause des cerveaux qui satrophient mais via ce gros feat Vois quil y a plus d1000 profils qui puent le profit Jmarche les yeux cernés marquer par le manque de sommeil mais lmenton pointé vers le ciel comme si je narguais le soleil Je peux me targuer davoir eu un Master 2 en survêt de chelsea On aime pas faire miskine car éduqués à la dure Homme ou femme, joie ou drame ,on se doit d'être fier Marseille ça s'arrête pas, pas de limites, pas de frontières ça parle fort, ça parle vite en vrai,ca vit sur les nerfs ca exagère parfois peut-être ça se calme au bord de la mer L'encre coule le sang se répand ohlalala Il faut être digne de ses lignes elles ont marqué les gens je rêvais d'être feignant je rêvais de Testa rossa Je rêvais que j'avais pas le temps Marseille ça s'arrête pas Ma ville est grande dans la légende c'est Marseille en vrai à la bien lâche rien c'est Marseille en vrai Je représente le décor c'est pour le frérot Relo C'est l'enfant du Vieux-Port normal que j'ai du flow Ils m'ont dit la vie d'artiste mec non je ne signerai pas 30 ans après ayé les my way Sinatra Et voila parti en balade ne visant que les cimes Le soleil et les rues pourries furent l'écrin de mes rimes C'est peut-être pour ça que je pique dans mes propos quand je kick c'est du loco, pur jus produit local J'ai le feu dans la Bocca, les forces de Mars soufflent le cur nourri aux flammes, j'ai la fierté de mes souches couz Marre On cause dès que le son tourne pas avant, et y'a pas de paravents, t'es pas préparé pars avant c'est shu Jusqu'à la moelle enragé, dealer d'images engagées les pages défilent et volent sans jamais se plier On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers Fier de ce qu'on est, on se contente de ce qu'on a Rien a été volé pour en arriver là Dignité ne s'achète pas, chacun choisit sa voie Faire le bien autour de soi éviter les faux pas Essayer de garder la foi, fier, fort, digne, et droit Malgré les coup bas que la vie nous réserve des fois Élever mes fils, les serrer dans mes bras, chaque matin dans le miroir ils se reconnaîtront bûche 10 fois plus pour sortir de l'engrenage de ces halls Il te mettront sur le grill, testerons ta résistance, la force de tes épaules Le verbe fort formé pour choquer les hautes sphères Sincères Punchliner la dalle au peuple sa mère Ici Ma couleur a ses droits devant le holster Quadriller le terrain tant qu'il peut En parallèle mon clan ma cause on fait le job homy Regarde aujourdhui comment on salit la prod Nos strophes autour du globe untel au microphone fuck les xénophobes Nos vraies valeurs donnent Cador et pléthore de Vador les rues du sud signent Un coeur en or perforé par le sort digne La jungle et ses animaux qui sera le le mâle alpha La rue cest dangerous tu plonges et tu taffoles Fier comme un baye fall, digne comme mes Comocos Ne tretourne pas face à poulet alloco Allo allo, bienvenu chez les hommes ca kick dure mon salaud Juste pour la forme Honneur, fierté, dignité dans le azzi éternel insatisfait éternel incompris On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers</t>
         </is>
       </c>
     </row>
@@ -1398,7 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Evanouis comme des illusions Jai mixé mon passé, présent, futur et jen ai fait des sons Jserai toujours trop nouveau, trop ancien ou pas assez récent Faite de chance, de soleil, de violence, ma ville a ses raisons En France la police tue, la justice dit rien dintéressant Ceux qui prennent le risque de m'test subissent un supplice Les médias savent bien que pour faire peur, suffit dun suffixe Jsors dun chemin hors-norme, jrenvoie la balle au rap La concurrence au diable, lesprit hip-hop au crématorium A.K. ne fait pas du rap, ni du chant, il fait d'la science J'leur chanterai Youssou N'Dour pendant leur minute de silence Cest pire aujourdhui, petit frère préfère bibi au tcheks speed Armé pour de vrai, tire, laisse la bibliothèque vide Lavenir menvoie des sextos, jte ldis texto Que leur major me donne leur expo, jdeviens un ex-pauvre On a de lambition mais lespérance de vie dun mégot Jveux de largent, vu que largent compte plus que la vie dun negro Je rec', toujours sans pitié tfaçon plus rien à prouver Pas trop souvent sur les réseaux, ils splaignent de pas my retrouver Mais jpourrai jamais perdre la main en flow jai jamais foiré Bien sûr, yaura toujours des langues de putes pour nier les faits Je le leur dis façon Biggie dans It Was All A Dream Téma frérot, je rime et ton jean nest plus clean Génération leatherface, chainsaw cest le style Reviens sans cesse hanter le screen comme une lame à Halloween Aloha, cest pas la devise, au centre-ville tout sécroule A lheure ou les fachos dEurope sunissent pour baiser les foules On est tous pistés sur écoute, ou cest moi qui part en couille ? Tfaçon la planète dérouille, la désillusion métouffe Je juge plus, regarde Nipsey on va tous mourir Quand les rappeurs font du zouk pour pas bibi toute une vie Certains sattribuent le crime de leur crew pour faire les virils La vérité sur Youtube ne rapporte que peu de vues You might also like Jsuis la depuis les flinstones, depuis Ericsson et les ringtones Envoie la cryptomonnaie, tu vois bien que le beat cogne Tu me parles de rien, tu mparles de cash, tout a coup jtécoute Jviens réanimer la rue, jlui fait du bouche à bouche dégout Tas la meilleure dope, ouais cest ça Ferme ta gueule, essaie ça Si tu veux être livré avec IAM On fera le nécessaire La trap, tu las accentuée mais tu rapes sans tuer On sgave comme Gargantua, de la table, absent tu es Trop de talla dans leurs speechs, trop de tabac dans leurs sbires Jme dis que la nature est bien faite quand ils font les canards devant leurs biches Zin, jles avale quand jinspire, ou jles rafales quand jexpire Aucun détritus dans lécriture je travaille comme Shakespeare Zin, on a la génétique Pour survivre a la scène de tir et tenir jusquau générique Javoue que jsuis un gros mytho quand jmets un pied chez les flics Destruction dans ma vision Zin, si jtai doublé, cest que la réalité dépasse la fiction C'rap cest un appart, cest tout un art de laménager Des concierges de toutes parts, au moindre écart, on sent le danger 300 rue des Barbares, trop de cafards voudraient y loger Beaucoup ne pensent quà le ronger, quà le singer, quà le figer Que tous braquent leurs satellites, des tuiles jusquau plancher Comme ça ils pourront voir que ctéquipe là na rien à cacher Le jour on cherche nos mines pour que le crime soit presque parfait Et le soir on traque le rythme afin que nos hymnes aient pu te dévorer Aucune demi-mesure, soit tu te couches, soit tu fais all in On a fait le choix, depuis trop de snipers visent nos poitrines Les propos corrosifs placent nos têtes au centre de la cible Mais le regard lointain, on garde quand même un pied sur nos racines, eh Bienvenue dans léquipe ou limpossible devient possible, c'est Un pack de fauves qui pète les portes jusquau premier essai Conjurer le sort, changer le décor, redoubler defforts on lfait On créer nos sons dans le secret donc tattends pas à trop sucrer J'parle des coins français comme ceux de là-bas au pays Quand jrappe y a tout Mars derrière moi comme sur le selfie de Balotelli Vulgaire envers l'élu d'ma ville, l'Etat, pour être honnête Quand jcause du maire tas limpression que jsuis atteint de Gilles de La Tourette Marre de voir un futur anxieux jalonner les rues d'mon coin Comment ambitionner davoir mieux quand on ne craint plus que davoir moins ? On a le choix entre se révolter, fermer les yeux et s'laisser faire ? Si un homme a plus que ce quil ne faut cest que dautres manquent du nécessaire Bercé par le désespoir cest triste quand la douleur s'réveille Cest lhistoire dune lame de rasoir qui joue la funambule sur une veine Moi je suis entre le gars nia qui hait la haine my man Et le gars qui aime imiter le Mia sur l'album de IAM Rare de voir un de tes zinc neutre Dans les impairs y'a 1 3 5 7 9 ou un 3.5.7 neuf Aie de l'estime envers ces vers, même si le fond en perd ses formes Si Dugarry critique ces versets frères, j'suis sûr de percer fort Nous voilà vingt dans la barque au bas mots à défiler yes we can Vois le mic, prends le mic, tue ce rap à coup de all you can Canailleries, railleries, joailleries, taillent le mythe Il a dit quelle a dit quon a dit ont noyé le rythme On a bu au caniveau, gratté au casino, ouais minot Rivés au camino, affiné la weed aux haribos Variés, arrivés, vanillés, mariés au Barrio Fatigués de montrer que Luigi nest pas Mario J'suis le bon canasson, vlà le son tas pigé mon garçon ? Valider tes idées ? sorry non, jen fais mon paillasson Jvends du rêve, tas les restes, M.R.S. cest la maison Drafté par les NYC Knicks du rap, cest ma saison Fait par nous, fait pour nous, fais tourner, shooté à lunisson Pleurent seuls, uvrent seuls, meurent seuls, de vrais Manu Micron Petits chefs, petit plans, pour rêves moribonds Corrigeons la visée, convergeons et touchons l'horizon Jeunesse a lagonie, je ne sens plus son pouls, shit et alcool dans les veines Comme dhab une histoire à dormir debout, encore une mère se noie dans ses peines Que faire quand le berger est du côté des loups ? Et prétends tenir les rênes Quotidien est à gerber, je vomis le tout, tout en encaissant les coups que la vie assène Du mal à compter ceux qui sont sous écrous, ont serré ou purgent des peines On a déjà du mal à joindre les deux bouts, rester debout comment voir le bout du tunnel ? Mauvaise réputation, traînés dans la boue, de bout en bout du coup la coupe est pleine Beaucoup voudront jamais tendre la joue, la main sur le joujou, craquent et braquent et dégainent Toujours lucide jvois les descentes des larmes en rivières et des plaies Les jours se suivent et se ressemblent, on regarde la misère en replay Le diable les appâte puis les acclame, quel vacarme Ils visent tout ce qui brille, vivent que dans le speed vide et sans états dâmes Fidèle à mon art, à ma voix je débite, je n'écoute pas ceux qui parlent et débitent Et me tape beaucoup de barres mais rattrape mon retard, poto je démarre au quart Mets les gaz et vais vite, pavé dans la mare, je casse les mythes, débit barbare et regarde les rimes Je suis dans le délire à part, je me démène et mène ma barque, rape, frappe et jamais n'hésite Crâne blanc sur les corps dessiné Ça sent l'hymne à la punition Haro sur les figures déguisées Dès que sonne la fin des illusions Crâne blanc sur les corps dessiné Ça sent l'hymne à la punition Haro sur les figures déguisées Dès que sonne la fin des illusions Dès que sonne la fin des illusions La fin des illusions Dès que sonne la fin des illusions La fin des illusions AK Larage REDK Relo Veust lyricist I.A.M I.A.M I.A.M I.A.M I.A.M</t>
+          <t>Evanouis comme des illusions Jai mixé mon passé, présent, futur et jen ai fait des sons Jserai toujours trop nouveau, trop ancien ou pas assez récent Faite de chance, de soleil, de violence, ma ville a ses raisons En France la police tue, la justice dit rien dintéressant Ceux qui prennent le risque de m'test subissent un supplice Les médias savent bien que pour faire peur, suffit dun suffixe Jsors dun chemin hors-norme, jrenvoie la balle au rap La concurrence au diable, lesprit hip-hop au crématorium A.K. ne fait pas du rap, ni du chant, il fait d'la science J'leur chanterai Youssou N'Dour pendant leur minute de silence Cest pire aujourdhui, petit frère préfère bibi au tcheks speed Armé pour de vrai, tire, laisse la bibliothèque vide Lavenir menvoie des sextos, jte ldis texto Que leur major me donne leur expo, jdeviens un ex-pauvre On a de lambition mais lespérance de vie dun mégot Jveux de largent, vu que largent compte plus que la vie dun negro Je rec', toujours sans pitié tfaçon plus rien à prouver Pas trop souvent sur les réseaux, ils splaignent de pas my retrouver Mais jpourrai jamais perdre la main en flow jai jamais foiré Bien sûr, yaura toujours des langues de putes pour nier les faits Je le leur dis façon Biggie dans It Was All A Dream Téma frérot, je rime et ton jean nest plus clean Génération leatherface, chainsaw cest le style Reviens sans cesse hanter le screen comme une lame à Halloween Aloha, cest pas la devise, au centre-ville tout sécroule A lheure ou les fachos dEurope sunissent pour baiser les foules On est tous pistés sur écoute, ou cest moi qui part en couille ? Tfaçon la planète dérouille, la désillusion métouffe Je juge plus, regarde Nipsey on va tous mourir Quand les rappeurs font du zouk pour pas bibi toute une vie Certains sattribuent le crime de leur crew pour faire les virils La vérité sur Youtube ne rapporte que peu de vues Jsuis la depuis les flinstones, depuis Ericsson et les ringtones Envoie la cryptomonnaie, tu vois bien que le beat cogne Tu me parles de rien, tu mparles de cash, tout a coup jtécoute Jviens réanimer la rue, jlui fait du bouche à bouche dégout Tas la meilleure dope, ouais cest ça Ferme ta gueule, essaie ça Si tu veux être livré avec IAM On fera le nécessaire La trap, tu las accentuée mais tu rapes sans tuer On sgave comme Gargantua, de la table, absent tu es Trop de talla dans leurs speechs, trop de tabac dans leurs sbires Jme dis que la nature est bien faite quand ils font les canards devant leurs biches Zin, jles avale quand jinspire, ou jles rafales quand jexpire Aucun détritus dans lécriture je travaille comme Shakespeare Zin, on a la génétique Pour survivre a la scène de tir et tenir jusquau générique Javoue que jsuis un gros mytho quand jmets un pied chez les flics Destruction dans ma vision Zin, si jtai doublé, cest que la réalité dépasse la fiction C'rap cest un appart, cest tout un art de laménager Des concierges de toutes parts, au moindre écart, on sent le danger 300 rue des Barbares, trop de cafards voudraient y loger Beaucoup ne pensent quà le ronger, quà le singer, quà le figer Que tous braquent leurs satellites, des tuiles jusquau plancher Comme ça ils pourront voir que ctéquipe là na rien à cacher Le jour on cherche nos mines pour que le crime soit presque parfait Et le soir on traque le rythme afin que nos hymnes aient pu te dévorer Aucune demi-mesure, soit tu te couches, soit tu fais all in On a fait le choix, depuis trop de snipers visent nos poitrines Les propos corrosifs placent nos têtes au centre de la cible Mais le regard lointain, on garde quand même un pied sur nos racines, eh Bienvenue dans léquipe ou limpossible devient possible, c'est Un pack de fauves qui pète les portes jusquau premier essai Conjurer le sort, changer le décor, redoubler defforts on lfait On créer nos sons dans le secret donc tattends pas à trop sucrer J'parle des coins français comme ceux de là-bas au pays Quand jrappe y a tout Mars derrière moi comme sur le selfie de Balotelli Vulgaire envers l'élu d'ma ville, l'Etat, pour être honnête Quand jcause du maire tas limpression que jsuis atteint de Gilles de La Tourette Marre de voir un futur anxieux jalonner les rues d'mon coin Comment ambitionner davoir mieux quand on ne craint plus que davoir moins ? On a le choix entre se révolter, fermer les yeux et s'laisser faire ? Si un homme a plus que ce quil ne faut cest que dautres manquent du nécessaire Bercé par le désespoir cest triste quand la douleur s'réveille Cest lhistoire dune lame de rasoir qui joue la funambule sur une veine Moi je suis entre le gars nia qui hait la haine my man Et le gars qui aime imiter le Mia sur l'album de IAM Rare de voir un de tes zinc neutre Dans les impairs y'a 1 3 5 7 9 ou un 3.5.7 neuf Aie de l'estime envers ces vers, même si le fond en perd ses formes Si Dugarry critique ces versets frères, j'suis sûr de percer fort Nous voilà vingt dans la barque au bas mots à défiler yes we can Vois le mic, prends le mic, tue ce rap à coup de all you can Canailleries, railleries, joailleries, taillent le mythe Il a dit quelle a dit quon a dit ont noyé le rythme On a bu au caniveau, gratté au casino, ouais minot Rivés au camino, affiné la weed aux haribos Variés, arrivés, vanillés, mariés au Barrio Fatigués de montrer que Luigi nest pas Mario J'suis le bon canasson, vlà le son tas pigé mon garçon ? Valider tes idées ? sorry non, jen fais mon paillasson Jvends du rêve, tas les restes, M.R.S. cest la maison Drafté par les NYC Knicks du rap, cest ma saison Fait par nous, fait pour nous, fais tourner, shooté à lunisson Pleurent seuls, uvrent seuls, meurent seuls, de vrais Manu Micron Petits chefs, petit plans, pour rêves moribonds Corrigeons la visée, convergeons et touchons l'horizon Jeunesse a lagonie, je ne sens plus son pouls, shit et alcool dans les veines Comme dhab une histoire à dormir debout, encore une mère se noie dans ses peines Que faire quand le berger est du côté des loups ? Et prétends tenir les rênes Quotidien est à gerber, je vomis le tout, tout en encaissant les coups que la vie assène Du mal à compter ceux qui sont sous écrous, ont serré ou purgent des peines On a déjà du mal à joindre les deux bouts, rester debout comment voir le bout du tunnel ? Mauvaise réputation, traînés dans la boue, de bout en bout du coup la coupe est pleine Beaucoup voudront jamais tendre la joue, la main sur le joujou, craquent et braquent et dégainent Toujours lucide jvois les descentes des larmes en rivières et des plaies Les jours se suivent et se ressemblent, on regarde la misère en replay Le diable les appâte puis les acclame, quel vacarme Ils visent tout ce qui brille, vivent que dans le speed vide et sans états dâmes Fidèle à mon art, à ma voix je débite, je n'écoute pas ceux qui parlent et débitent Et me tape beaucoup de barres mais rattrape mon retard, poto je démarre au quart Mets les gaz et vais vite, pavé dans la mare, je casse les mythes, débit barbare et regarde les rimes Je suis dans le délire à part, je me démène et mène ma barque, rape, frappe et jamais n'hésite Crâne blanc sur les corps dessiné Ça sent l'hymne à la punition Haro sur les figures déguisées Dès que sonne la fin des illusions Crâne blanc sur les corps dessiné Ça sent l'hymne à la punition Haro sur les figures déguisées Dès que sonne la fin des illusions Dès que sonne la fin des illusions La fin des illusions Dès que sonne la fin des illusions La fin des illusions AK Larage REDK Relo Veust lyricist I.A.M I.A.M I.A.M I.A.M I.A.M</t>
         </is>
       </c>
     </row>
@@ -1415,7 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Faf Larage micro redoutable Mec ne tergiverse pas Technique lyricale évolutive et inattaquable Lis mon score Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux La rage fuse on fout le boxon on m'répond en salle On prend l'air le public à fond c'est trop bon c'est donc Pour eux j'acère mes coups d'crayons Sublime ils sont subtils ils sont d'folie en s'unissant Pique bien plus qu'un hérisson si j'monte le temps et les mecs se disent on va arrêter d'rapper derrière c'type on S'plit en laisse tomber on a l'air con Des bidons histoires de films de fiction Disparition j'use pas d'faux noms Quand j'rappe on m'interrompt non j'fais carton J'ai pas d'Python 357 ni d'pompes ni d'rimes errant Que ça t'plaise ou non freestyle pour l'fun pour l'kiff pour l'son pour les bons Explose comme un flacon d'nitroglycérine les MCs s'lachent on r'présente tous la même discipline On va au charbon dégomme le bouffon fait en sorte que ces cons ils aient des frissons Moulant sur les faux moulant sur les types qui pensent que faire d'la merde sur c'créneau c'est cool on Veut pas d'blaireaux non À quoi ça correspond à l'esprit du hip-hop C'est pas faire d'la soupe pour des biftons Eh fiston ils écriront pu d'rimes Tu vois un MC pourri passer après ça c'est la honte You might also like Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Roi d'l'orage le chaos me craint j'tourne la page Cloué et je reviens pour troubler le bal Les faux MC ouais la fête est finie il est temps de foutre le camp de prendre ses jambes à son cou et vlan Qu'est-ce t'attend qu'on t'rentre dedans speed devant File devant fuis devant monsieur Le type au flow percutant le type que t'as pris en grippe parce que tu trip quand il rentres sur un beat méchant Le type qui te ridiculise devant les types à qui tu dis qu't'es un gagnant et qui t'vantes devant eux Si tu t'plantes devant eux t'as l'air d'un con et y a un type qui va t'le faire comprendre à tous dépends la honte devant eux Comme un bleu un texte ou deux et tu tchatches Mais si y'a pas d'talent pas la peine de frimer quand tu marches devant eux Eh le blaireau faut c'qui faut fixe la barre haut pour le rap Il y a trop d'poufs à ses basques D'où le d'où on menace d'où on s'lache d'où on s'fache D'où on clash les bidons Les laisses en suspens les surprend les réduits en bouillie c'est exaltant Plus agressifs qu'une troupe de flics en manif en reconduction à la frontière de pauvres gens Fuck met les bouchés doubles sème le doute dans la tête des mecs qui pensent être fixer le trouble 9-7 ce fut la foudre tombe en 9-8 avec mon frère le serval c'est En octobre 9-8 d'vant ma feuille noire de textes À tous les vrais MCs j'donne un respect Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow Sort des tripes et dictions Les potos du Hip-hop veulent du son s'comprend c'est bon quand c'est à fond Sort des tripes et dictions Les potos du Hip-hop veulent du son s'comprend c'est bon quand c'est à fond Sort des tripes et dictions Ouais Marseille, tu l'sais, dans l'lard</t>
+          <t>Faf Larage micro redoutable Mec ne tergiverse pas Technique lyricale évolutive et inattaquable Lis mon score Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux La rage fuse on fout le boxon on m'répond en salle On prend l'air le public à fond c'est trop bon c'est donc Pour eux j'acère mes coups d'crayons Sublime ils sont subtils ils sont d'folie en s'unissant Pique bien plus qu'un hérisson si j'monte le temps et les mecs se disent on va arrêter d'rapper derrière c'type on S'plit en laisse tomber on a l'air con Des bidons histoires de films de fiction Disparition j'use pas d'faux noms Quand j'rappe on m'interrompt non j'fais carton J'ai pas d'Python 357 ni d'pompes ni d'rimes errant Que ça t'plaise ou non freestyle pour l'fun pour l'kiff pour l'son pour les bons Explose comme un flacon d'nitroglycérine les MCs s'lachent on r'présente tous la même discipline On va au charbon dégomme le bouffon fait en sorte que ces cons ils aient des frissons Moulant sur les faux moulant sur les types qui pensent que faire d'la merde sur c'créneau c'est cool on Veut pas d'blaireaux non À quoi ça correspond à l'esprit du hip-hop C'est pas faire d'la soupe pour des biftons Eh fiston ils écriront pu d'rimes Tu vois un MC pourri passer après ça c'est la honte Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Roi d'l'orage le chaos me craint j'tourne la page Cloué et je reviens pour troubler le bal Les faux MC ouais la fête est finie il est temps de foutre le camp de prendre ses jambes à son cou et vlan Qu'est-ce t'attend qu'on t'rentre dedans speed devant File devant fuis devant monsieur Le type au flow percutant le type que t'as pris en grippe parce que tu trip quand il rentres sur un beat méchant Le type qui te ridiculise devant les types à qui tu dis qu't'es un gagnant et qui t'vantes devant eux Si tu t'plantes devant eux t'as l'air d'un con et y a un type qui va t'le faire comprendre à tous dépends la honte devant eux Comme un bleu un texte ou deux et tu tchatches Mais si y'a pas d'talent pas la peine de frimer quand tu marches devant eux Eh le blaireau faut c'qui faut fixe la barre haut pour le rap Il y a trop d'poufs à ses basques D'où le d'où on menace d'où on s'lache d'où on s'fache D'où on clash les bidons Les laisses en suspens les surprend les réduits en bouillie c'est exaltant Plus agressifs qu'une troupe de flics en manif en reconduction à la frontière de pauvres gens Fuck met les bouchés doubles sème le doute dans la tête des mecs qui pensent être fixer le trouble 9-7 ce fut la foudre tombe en 9-8 avec mon frère le serval c'est En octobre 9-8 d'vant ma feuille noire de textes À tous les vrais MCs j'donne un respect Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow Sort des tripes et dictions Les potos du Hip-hop veulent du son s'comprend c'est bon quand c'est à fond Sort des tripes et dictions Les potos du Hip-hop veulent du son s'comprend c'est bon quand c'est à fond Sort des tripes et dictions Ouais Marseille, tu l'sais, dans l'lard</t>
         </is>
       </c>
     </row>
@@ -1432,7 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>, SFGS , - - , , You might also like</t>
+          <t>, SFGS , - - , ,</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Tu le sais mon hip-hop est comme ça Sec de Marseille, impulsif comme Cantona Si tu cherches après moi, pour rien J'écrirai sur toi comme un chien Te descendrai en rimes Un stylo dans chaque main Mon son fou à fond J'ai bon fond pourtant j'suis à fond Groupe par groupe mec Satan ou bidon fils je suis là Et si je fais le con dans le Mia C'est pas pour qu'il ne te reste que ça sur moi, écoute Tout ce que je fais est voulu A choisir qu'on porte un avis critique et objectif dessus Mais dès que ça vire je flaire vite si on veut jouer Joue sans moi, si tu fais que ça fils t'es coulé Plus méfiant qu'avant, on n'est plus naïf non plus Je sais vite à qui j'ai à faire, sans être payé j'suis ouvert Je reste dur avec les mecs qui parlent trop qui parlent trop Juste pour être clair et réglo S'il faut représenter par la technique on est là Avec le son sourd ou pas, un truc qui est sûr on traine pas Plus simple que d'aller en duo, solo aujourd'hui Hip hop Marseillais pour la vie You might also like x2 Hip hop Marseillais, Hip hop Faf Larage avec le Hip hop Marseillais, Hip hop Def Bond pour le Hip hop Marseillais, Hip hop Si tu veux du bon, du Hip hop Marseillais, Hip hop Fils ne bouge pas Mec je vais parler hip hop Marseillais Et comme ça tu vois ce que c'est, plus besoin de critiquer C'est fait, c'est passé Marseille depuis a retrouvé ses forces Bosse, s'organise non-stop tu le sais Conséquence fils, la ville ne dort plus non Du Centre à Saint Marcel, concerts,soirées sur mesures Des magasins de fringues et des disquaires, fournis En pur son, hip-hop d'ici pour tes technics Du vinyle pour les DJ qui mixent, faut encore prendre des risques C'est pas New-York mais on fixe, la barre haut hey Tout le monde fait ce qu'il faut S'intéresse à la production du coin, ça bouge trop EH YO! sur la planète, de plus en plus de groupes avec un niveau honnête Se pendront en live, check Les émissions speed, les disques en vrac Grades nouveautés qui claquent DJ scratche sur ma voix Faf Larage en nage Représente sa famille, sa vie, son rang mec Tu le sais, d'où je viens, ce que je fais Un gage de qualité hip hop Marseillais x2 Hip hop Marseillais, Hip hop Faf Larage avec le Hip hop Marseillais, Hip hop Def Bond pour le Hip hop Marseillais, Hip hop Si tu veux du bon, du Hip hop Marseillais, Hip hop Fils ne bouge pas F-A-F Larage, D-E-F Bond A-K-A ex Soul Swing Estampillé millésime 97 Lâche les mots comme des serveurs internet Mec, si je booste la tchatche c'est pour une histoire ou l'ego J'suis pas né dans la rue, pas dans le superflu non plus Compte ici que je ne vis pas, c'est exclus Comme un steak cru saignant je deviens dur si on me chauffe Présent au travers du mic comme dans ta vie comme une voix off, bof Complète c'est pas ça, les potes m'en parlent mieux que toi C'est pas le Club Med youkoulélés, y a le soleil les fadas Des ennuis, les nanas cherchent la caillasse peu importe d'où elle vient Pour ce qui est de plonger Mais c'est vrai, demain c'est loin loin J'ai jamais choisi mes relations J'ai pris ceux que j'ai croisés pour seule sélection La simplicité en premier, je peux être ami avec tout le monde, crevards inclus Tu peux venir de n'importe où mais jamais trahir la rue Pour l'équilibre spécifié dans les textes Tous les jours se remettre en place Passer du temps la vérité en face Choisir tes instrus taillées dans la masse Par respect rester vrai Pour le hip hop Marseillais Tu le sais Ouais, pour IAM Sad Hill tu le sais La Fonky Family, le 3 il fils K.Rhyme Le Roi, Le Freeman Sad Hill, Kif Kif, La Cosca Tanto Productions et le Côté Obscur Et Prodijnamore fils et Squat dans le slip, Sista Micky Et il y a encore trop de groupes, trop de monde qui représentent fils Trop de pression, tu le sais, Hip hop Marseillais A tous ces membres actifs, tu le sais Hey Blondin</t>
+          <t>Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Tu le sais mon hip-hop est comme ça Sec de Marseille, impulsif comme Cantona Si tu cherches après moi, pour rien J'écrirai sur toi comme un chien Te descendrai en rimes Un stylo dans chaque main Mon son fou à fond J'ai bon fond pourtant j'suis à fond Groupe par groupe mec Satan ou bidon fils je suis là Et si je fais le con dans le Mia C'est pas pour qu'il ne te reste que ça sur moi, écoute Tout ce que je fais est voulu A choisir qu'on porte un avis critique et objectif dessus Mais dès que ça vire je flaire vite si on veut jouer Joue sans moi, si tu fais que ça fils t'es coulé Plus méfiant qu'avant, on n'est plus naïf non plus Je sais vite à qui j'ai à faire, sans être payé j'suis ouvert Je reste dur avec les mecs qui parlent trop qui parlent trop Juste pour être clair et réglo S'il faut représenter par la technique on est là Avec le son sourd ou pas, un truc qui est sûr on traine pas Plus simple que d'aller en duo, solo aujourd'hui Hip hop Marseillais pour la vie x2 Hip hop Marseillais, Hip hop Faf Larage avec le Hip hop Marseillais, Hip hop Def Bond pour le Hip hop Marseillais, Hip hop Si tu veux du bon, du Hip hop Marseillais, Hip hop Fils ne bouge pas Mec je vais parler hip hop Marseillais Et comme ça tu vois ce que c'est, plus besoin de critiquer C'est fait, c'est passé Marseille depuis a retrouvé ses forces Bosse, s'organise non-stop tu le sais Conséquence fils, la ville ne dort plus non Du Centre à Saint Marcel, concerts,soirées sur mesures Des magasins de fringues et des disquaires, fournis En pur son, hip-hop d'ici pour tes technics Du vinyle pour les DJ qui mixent, faut encore prendre des risques C'est pas New-York mais on fixe, la barre haut hey Tout le monde fait ce qu'il faut S'intéresse à la production du coin, ça bouge trop EH YO! sur la planète, de plus en plus de groupes avec un niveau honnête Se pendront en live, check Les émissions speed, les disques en vrac Grades nouveautés qui claquent DJ scratche sur ma voix Faf Larage en nage Représente sa famille, sa vie, son rang mec Tu le sais, d'où je viens, ce que je fais Un gage de qualité hip hop Marseillais x2 Hip hop Marseillais, Hip hop Faf Larage avec le Hip hop Marseillais, Hip hop Def Bond pour le Hip hop Marseillais, Hip hop Si tu veux du bon, du Hip hop Marseillais, Hip hop Fils ne bouge pas F-A-F Larage, D-E-F Bond A-K-A ex Soul Swing Estampillé millésime 97 Lâche les mots comme des serveurs internet Mec, si je booste la tchatche c'est pour une histoire ou l'ego J'suis pas né dans la rue, pas dans le superflu non plus Compte ici que je ne vis pas, c'est exclus Comme un steak cru saignant je deviens dur si on me chauffe Présent au travers du mic comme dans ta vie comme une voix off, bof Complète c'est pas ça, les potes m'en parlent mieux que toi C'est pas le Club Med youkoulélés, y a le soleil les fadas Des ennuis, les nanas cherchent la caillasse peu importe d'où elle vient Pour ce qui est de plonger Mais c'est vrai, demain c'est loin loin J'ai jamais choisi mes relations J'ai pris ceux que j'ai croisés pour seule sélection La simplicité en premier, je peux être ami avec tout le monde, crevards inclus Tu peux venir de n'importe où mais jamais trahir la rue Pour l'équilibre spécifié dans les textes Tous les jours se remettre en place Passer du temps la vérité en face Choisir tes instrus taillées dans la masse Par respect rester vrai Pour le hip hop Marseillais Tu le sais Ouais, pour IAM Sad Hill tu le sais La Fonky Family, le 3 il fils K.Rhyme Le Roi, Le Freeman Sad Hill, Kif Kif, La Cosca Tanto Productions et le Côté Obscur Et Prodijnamore fils et Squat dans le slip, Sista Micky Et il y a encore trop de groupes, trop de monde qui représentent fils Trop de pression, tu le sais, Hip hop Marseillais A tous ces membres actifs, tu le sais Hey Blondin</t>
         </is>
       </c>
     </row>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Un Hip Hop Protagonist, un freestyle spécialiste Un fan, un Microphone Fiend, speed quand la zique se glisse Peace avant que j'aie commencé, tu le sais Fils, bénis mes ennemis avant de les achever Un Faf Larage en forme précédé de Stormbringa Les normes ornent mes stickers Pas de portables et pas de beepers Pas trop de thunes pour faire ce que je veux Et cependant j'ai l'honneur, le bonheur de vivre comme j'aime Bien et même si je suis dans la merde Poto rien à faire j'ai pas la flemme Glander quand il s'agit de rapper ? Balivernes Si un Alien voudrait me souffler le Happy End Je l'explose en mille morceaux comme un pot en porcelaine Je gaze et t'as la haine mais tu te freines, j'ai trop la crème Le lyrical spécimen te remue jusqu'à l'abdomen Fait pleurer les hyènes et réputé jusqu'au Yémen Yeah men Faf Larage original braquage Si je suis de passage, les langues de putes s'écrasent Je taxe gras et y'a en fond des fous qui balisent Réalisent que si ils font les macs ici ils subissent Agir en bouffon c'est se punir T'es naze si tu penses qu'être soi-même c'est s'trahir Et quand je pose le micro je vire et vais applaudir Quitte à ce que je sois Ie seul si le MC suivant déchire Eh fils tu vois ce que je veux dire Faut ce qui faut pour assainir le Hip Hop Encourager les bons et dégager les pires S'ils pètent je supporte pas ces mecs Ici on a des règles et faut les respecter Sinon c'est la prise de tête La prise de bec, Hip Hop dans ta tête Fils tu comprends en 97 on peut pas s'le permettre C'est évident on s'préserve et y a des différends cependant Le jeu en vaut la chandelle si on reste indépendant Prend le fric là où il est Mais n'oublie jamais en studio quelle est la culture qui t'a bercé On est fin novembre dans l'ombre de la file d'attente lorsque L'occaz se présente je reviens en force Kif kif l'album ? Pff mec c'est même pas la peine Un projet fait avec les tripes, la rage et la haine, fils ! Marseille You might also like Mec, je suis pas là pour les ronds Je monte le ton si on me cherche Avec des textes sans concession Pour des gens qui veulent du son bon et Tu connais la qualité et ça ne va pas changer Je tiens à en poser une pour le public Big Up à tous ceux qui ont déliré sur nos vinyls Fils t'inquiète pas pour ça on a la recette Et y aura encore des maxis conformes aux Normes Marseillaises Matériellement tu le sais c'est pas ce qui me fait vivre Mais moralement j'en ai besoin pour évoluer, exténué La remise en question est instantanée, le morceau consumé Je suis parti sur un autre projet Ou bosse et fait faire, bien dans mes fringues UJS Style et Nouveautés dans la tête et plein d'rêves et D'objectifs, faut pas dormir, le rap c'est un truc qui va trop vite Faut suivre, être à la page et Essayer d'être aussi performant que tu puisses Demande aux mecs des quartiers de Mars, d'Aix ou de Istres Ils ont la rage, bossent à fond et ils ont raison Pas d'ambition pas d'fric, pas d'fric pas de maison Pas de bidons sinon les cons ils nous auront Actionnent les boutons, prennent toutes les décisions Tu marches ou non tes convictions sont saines ou non Des excuses, fils ? Oh non, tu cèdes pour des ronds Malgré des concerts des fois devant un public froid Des jeunes groupes qui y croient et toi tu craches sur ça Connard, moi j'suis passé par là et chaque rap pourri qui marche Elargit le fossé entre les incultes et le bon rap Comprends moi bien blaireau, je suis pas un type aigri Le Hip Hop et ma vie sont liés à jamais, tu le sais Comme le 3ème oeil dévoué, élevé au Rakim, Kool G, EPMD Et je tente de faire des assonances des styles quand j'y pense Je mets au point une diction qui me met en transe Quand je me lance et clean, unique, utile en vogue pour les freestyles Pur comme du cristal, arrache comme du Mesqual Ils regrettent à la fois leurs paroles à la tire occasionnelle On comprend pourquoi ce n'est pas souvent Les plus mauvais qui restent Test sur un texte extraordinairement posé sur une Ampex Si t'es dedans tu piges forcément Si tu l'es pas apprends, si tu veux pas fous le camp Aujourd'hui le 28 9.7 Tu vas entendre ça probablement en 98, te prends pas la tête Je serai parti sur autre chose, tu veux me rattraper, ose Mais laisse faire, c'est ma cause Mec, je suis pas là pour les ronds Je monte le ton si on me cherche Avec des textes sans concession Pour des gens qui veulent du son bon et Tu connais la qualité et ça ne va pas changer</t>
+          <t>Un Hip Hop Protagonist, un freestyle spécialiste Un fan, un Microphone Fiend, speed quand la zique se glisse Peace avant que j'aie commencé, tu le sais Fils, bénis mes ennemis avant de les achever Un Faf Larage en forme précédé de Stormbringa Les normes ornent mes stickers Pas de portables et pas de beepers Pas trop de thunes pour faire ce que je veux Et cependant j'ai l'honneur, le bonheur de vivre comme j'aime Bien et même si je suis dans la merde Poto rien à faire j'ai pas la flemme Glander quand il s'agit de rapper ? Balivernes Si un Alien voudrait me souffler le Happy End Je l'explose en mille morceaux comme un pot en porcelaine Je gaze et t'as la haine mais tu te freines, j'ai trop la crème Le lyrical spécimen te remue jusqu'à l'abdomen Fait pleurer les hyènes et réputé jusqu'au Yémen Yeah men Faf Larage original braquage Si je suis de passage, les langues de putes s'écrasent Je taxe gras et y'a en fond des fous qui balisent Réalisent que si ils font les macs ici ils subissent Agir en bouffon c'est se punir T'es naze si tu penses qu'être soi-même c'est s'trahir Et quand je pose le micro je vire et vais applaudir Quitte à ce que je sois Ie seul si le MC suivant déchire Eh fils tu vois ce que je veux dire Faut ce qui faut pour assainir le Hip Hop Encourager les bons et dégager les pires S'ils pètent je supporte pas ces mecs Ici on a des règles et faut les respecter Sinon c'est la prise de tête La prise de bec, Hip Hop dans ta tête Fils tu comprends en 97 on peut pas s'le permettre C'est évident on s'préserve et y a des différends cependant Le jeu en vaut la chandelle si on reste indépendant Prend le fric là où il est Mais n'oublie jamais en studio quelle est la culture qui t'a bercé On est fin novembre dans l'ombre de la file d'attente lorsque L'occaz se présente je reviens en force Kif kif l'album ? Pff mec c'est même pas la peine Un projet fait avec les tripes, la rage et la haine, fils ! Marseille Mec, je suis pas là pour les ronds Je monte le ton si on me cherche Avec des textes sans concession Pour des gens qui veulent du son bon et Tu connais la qualité et ça ne va pas changer Je tiens à en poser une pour le public Big Up à tous ceux qui ont déliré sur nos vinyls Fils t'inquiète pas pour ça on a la recette Et y aura encore des maxis conformes aux Normes Marseillaises Matériellement tu le sais c'est pas ce qui me fait vivre Mais moralement j'en ai besoin pour évoluer, exténué La remise en question est instantanée, le morceau consumé Je suis parti sur un autre projet Ou bosse et fait faire, bien dans mes fringues UJS Style et Nouveautés dans la tête et plein d'rêves et D'objectifs, faut pas dormir, le rap c'est un truc qui va trop vite Faut suivre, être à la page et Essayer d'être aussi performant que tu puisses Demande aux mecs des quartiers de Mars, d'Aix ou de Istres Ils ont la rage, bossent à fond et ils ont raison Pas d'ambition pas d'fric, pas d'fric pas de maison Pas de bidons sinon les cons ils nous auront Actionnent les boutons, prennent toutes les décisions Tu marches ou non tes convictions sont saines ou non Des excuses, fils ? Oh non, tu cèdes pour des ronds Malgré des concerts des fois devant un public froid Des jeunes groupes qui y croient et toi tu craches sur ça Connard, moi j'suis passé par là et chaque rap pourri qui marche Elargit le fossé entre les incultes et le bon rap Comprends moi bien blaireau, je suis pas un type aigri Le Hip Hop et ma vie sont liés à jamais, tu le sais Comme le 3ème oeil dévoué, élevé au Rakim, Kool G, EPMD Et je tente de faire des assonances des styles quand j'y pense Je mets au point une diction qui me met en transe Quand je me lance et clean, unique, utile en vogue pour les freestyles Pur comme du cristal, arrache comme du Mesqual Ils regrettent à la fois leurs paroles à la tire occasionnelle On comprend pourquoi ce n'est pas souvent Les plus mauvais qui restent Test sur un texte extraordinairement posé sur une Ampex Si t'es dedans tu piges forcément Si tu l'es pas apprends, si tu veux pas fous le camp Aujourd'hui le 28 9.7 Tu vas entendre ça probablement en 98, te prends pas la tête Je serai parti sur autre chose, tu veux me rattraper, ose Mais laisse faire, c'est ma cause Mec, je suis pas là pour les ronds Je monte le ton si on me cherche Avec des textes sans concession Pour des gens qui veulent du son bon et Tu connais la qualité et ça ne va pas changer</t>
         </is>
       </c>
     </row>
@@ -1483,7 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Oh na-na-na-na-na El Cantante del Ghetto Mmm, zaga zau This is the motherfuckin' remix Cocaine, Cocaine Jajajajaja Desde hace tiempo que no te veo, mami Quiero calmar este deseo Dime si tú estás puesta pa' mí Prr! Que los enemigos miran feo Pu-pu-pum-pum Llego a la disco vestido de Jordan Chu-chu-chu Y la baby se me pega con un rico splash Bum Conjunto de Nike y unas Air Force 1 Es rapera como yo y le gusta bailar Ella sabe, si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Después de la disco nos vamos a cu, shh Chu-chu-chu Callaíto', que ninguno se puede enterar Chu, chu, chu, chu Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pum prr You might also like La conocí y me la llevé pa' una finca de Medellín Te vas conmigo Me la pasé to'a la noche fumando y bebiendo lean Ajá Aquí se va a formar un motín Tienes el panty enchumba'o Agárrate, que te vo'a partir Perreo y aguardiente Sibiri, woh Pa' que te caliente' Jajajaja Dímelo, Colombia, Ñengo Flow regresó Dile que traiga a las mujere', que la rumba empezó Dice Yo sé que esto te gusta, ah-ah Traigo un flow hijueputa, ah-ah Que no se acabe nunca, ah-ah No me hagan más pregunta', ah-ah Quien te comió, ese fui yo En candela to'a la noche ella conmigo se guilló La demonia salió brava cuando Ñengo la pilló Secreto' que se quedan guardado' entre tú y yo El Chivo la partió, dice Jajajaja Llego a la disco vestido de Jordan Y la baby se me pega con un rico splash Splash Conjunto de Nike y unas Air Force 1 Es rapera como yo y le gusta bailar Ella sabe, si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Chu-chu-chu Después de la disco nos vamos a cu, shh Prr Callaíto', que ninguno se puede enterar Pu-pu-pum-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Me dijo Hola, cómo estás? Hola, vi la bandera en el perfil Le pregunté si es de Medallo, Cali o de Bogotá A ella le gusta provocar Le dije que deje de sonsacar o se lo voy a colocar Y yo llegué full Jordan y la puse a hacer el fly Se la traga como si eso fuera jugo Veryfine Sabe que estamo' haciendo número' en Spotify Ese pantycito se ve a legua' que no e' de tu size Me llama de madrugada, yo veo su llamada Y me alisto porque ya yo me sé la jugada Gritaba mi nombre mientra' le daba La bellaquera yo le elevaba Ella quiere entusiasmarse Si quieres llamo al dealer, qué hubo, parce? Qué hubo? De ninguna va a dejarse Mami, rica, yo por ti cojo la cárcel El Young King, baby jajajaja Llego a la disco vestido de Jordan Y la baby se me pega con un rico splash Splash, splash Conjunto de Nike y unas Air Force 1 Es rapera como yo y le gusta bailar Ella sabe, si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Chu-chu-chu Después de la disco nos vamos a cu, shh Prr Callaíto', que ninguno se puede enterar Pu-pu-pum-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pri-yah pu-pu-pum laramercy gang Acicala'o de la cabeza a los pie' Oh-oh-oh La combi e' blue all y en los pedale' la' Bred Las cubana' en el cuello y en la mano el Role' Me dicen La Mole Farru! Dándole en la madre sin dejarla caer Saludo a lo' que se viraron y se dejaron ver Ahora coronamo' y tenemo' el poder Abran paso, llegó Pablo con to' los del cartel Pum-pum-pum Aquí vamo' pa' la finquita, un par de chimbita' Ponme la guaracha, dale, que el patrón invita Tra, tra Mucho alcohol y musiquita, el tussi e' rosita Me quedo en Medallo, a mí me encanta la tierrita Fa-rru! jajajaja Llego a la disco vestido de Jordan Y la baby se me pega con un rico splash Conjunto de Nike y unas Air Force 1 Es rapera como yo, le gusta fumar Sabe que si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Después de la disco nos vamo' a singar Callaíto', que ninguno se puede enterar Fa-rru! Laramercy gang Ryan Castro, el que los tiene temblando Mere, indica, Ñengo Real G4 Life White Star Los de Bayeta, oíste, cabrón? Desde Colombia para el mundo entero, parce Ñengi Carbon Fiber Music Jan Paul Medallo, PR Pri-pa-pa-pa-pa-pai-pa This is the motherfuckin' remix Real G4 Life, mami Blep! Ey, Colombia Locombia Dime, Ryan Jajajajajaja</t>
+          <t>Oh na-na-na-na-na El Cantante del Ghetto Mmm, zaga zau This is the motherfuckin' remix Cocaine, Cocaine Jajajajaja Desde hace tiempo que no te veo, mami Quiero calmar este deseo Dime si tú estás puesta pa' mí Prr! Que los enemigos miran feo Pu-pu-pum-pum Llego a la disco vestido de Jordan Chu-chu-chu Y la baby se me pega con un rico splash Bum Conjunto de Nike y unas Air Force 1 Es rapera como yo y le gusta bailar Ella sabe, si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Después de la disco nos vamos a cu, shh Chu-chu-chu Callaíto', que ninguno se puede enterar Chu, chu, chu, chu Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pum prr La conocí y me la llevé pa' una finca de Medellín Te vas conmigo Me la pasé to'a la noche fumando y bebiendo lean Ajá Aquí se va a formar un motín Tienes el panty enchumba'o Agárrate, que te vo'a partir Perreo y aguardiente Sibiri, woh Pa' que te caliente' Jajajaja Dímelo, Colombia, Ñengo Flow regresó Dile que traiga a las mujere', que la rumba empezó Dice Yo sé que esto te gusta, ah-ah Traigo un flow hijueputa, ah-ah Que no se acabe nunca, ah-ah No me hagan más pregunta', ah-ah Quien te comió, ese fui yo En candela to'a la noche ella conmigo se guilló La demonia salió brava cuando Ñengo la pilló Secreto' que se quedan guardado' entre tú y yo El Chivo la partió, dice Jajajaja Llego a la disco vestido de Jordan Y la baby se me pega con un rico splash Splash Conjunto de Nike y unas Air Force 1 Es rapera como yo y le gusta bailar Ella sabe, si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Chu-chu-chu Después de la disco nos vamos a cu, shh Prr Callaíto', que ninguno se puede enterar Pu-pu-pum-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Me dijo Hola, cómo estás? Hola, vi la bandera en el perfil Le pregunté si es de Medallo, Cali o de Bogotá A ella le gusta provocar Le dije que deje de sonsacar o se lo voy a colocar Y yo llegué full Jordan y la puse a hacer el fly Se la traga como si eso fuera jugo Veryfine Sabe que estamo' haciendo número' en Spotify Ese pantycito se ve a legua' que no e' de tu size Me llama de madrugada, yo veo su llamada Y me alisto porque ya yo me sé la jugada Gritaba mi nombre mientra' le daba La bellaquera yo le elevaba Ella quiere entusiasmarse Si quieres llamo al dealer, qué hubo, parce? Qué hubo? De ninguna va a dejarse Mami, rica, yo por ti cojo la cárcel El Young King, baby jajajaja Llego a la disco vestido de Jordan Y la baby se me pega con un rico splash Splash, splash Conjunto de Nike y unas Air Force 1 Es rapera como yo y le gusta bailar Ella sabe, si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Chu-chu-chu Después de la disco nos vamos a cu, shh Prr Callaíto', que ninguno se puede enterar Pu-pu-pum-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pri-yah pu-pu-pum laramercy gang Acicala'o de la cabeza a los pie' Oh-oh-oh La combi e' blue all y en los pedale' la' Bred Las cubana' en el cuello y en la mano el Role' Me dicen La Mole Farru! Dándole en la madre sin dejarla caer Saludo a lo' que se viraron y se dejaron ver Ahora coronamo' y tenemo' el poder Abran paso, llegó Pablo con to' los del cartel Pum-pum-pum Aquí vamo' pa' la finquita, un par de chimbita' Ponme la guaracha, dale, que el patrón invita Tra, tra Mucho alcohol y musiquita, el tussi e' rosita Me quedo en Medallo, a mí me encanta la tierrita Fa-rru! jajajaja Llego a la disco vestido de Jordan Y la baby se me pega con un rico splash Conjunto de Nike y unas Air Force 1 Es rapera como yo, le gusta fumar Sabe que si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Después de la disco nos vamo' a singar Callaíto', que ninguno se puede enterar Fa-rru! Laramercy gang Ryan Castro, el que los tiene temblando Mere, indica, Ñengo Real G4 Life White Star Los de Bayeta, oíste, cabrón? Desde Colombia para el mundo entero, parce Ñengi Carbon Fiber Music Jan Paul Medallo, PR Pri-pa-pa-pa-pa-pai-pa This is the motherfuckin' remix Real G4 Life, mami Blep! Ey, Colombia Locombia Dime, Ryan Jajajajajaja</t>
         </is>
       </c>
     </row>
@@ -1500,7 +1500,7 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Et quand le rideau tombe, que la scène est déserte Cest dans les cieux étincelants que nos pensées se perdent Héros de notre musique où peu de lames percent Champs de ruine, seuls, lépée au poing sous laverse Si la cause est perdue et que la peur sen mêle Le chant du métal aiguisé sifflera quand même Héros de notre musique jetés dans larène Champs de ruine, seuls, épée au poing sous laverse À la faveur de nuits sans lune on a quitté nos jungles Puis déferlés sur les villes et pris les âmes des peuples, tu le crois ? Notre art suspecté de Cabale Mais tout est clair nous sommes des panthères armées de calames Ils ont posté leurs soldats avant dy pénétrer Puis visé notre école et le ciel fut noirci par les traits Sous la pluie de flèches, certains ont perdu la vie Jusquà aujourdhui on perpétue ces calligraphies Habitués transparents dans leur graphique Ils disent que nos rimes se roulent et se plaisent dans les trafics Moi je veux savoir si la solution quils vendent est parfaite Des mômes jouent de larme automatique dans les cafets You might also likeAlors qui est hostile ? cest leur modèle ou cest le rap ? Si leur mer à lair dun lac on est comme des vagues scélérates Entends les sanglots longs de ces violons cest la BO de nos vies Et de nos parcours qui depuis tout ce temps se prolongent Doù je viens y a pas de place de hasard On court pour la survie mec, ni cheval ni casaque Ce nest pas lécrivain mais les blocs qui évoquent le nom de Balzac On sait où se posent nos pas, droits, sur le basalte Debout sous les volcans on offre nos cahiers au mistral Fleurs de cerisiers les mots senvolent et quitte Amistad Héros de cette musique, amants de ces mélopées On rebâtît les chances que la vie même nous a ôté Et quand le rideau tombe, que la scène est déserte Cest dans les cieux étincelants que nos pensées se perdent Héros de notre musique où peu de lames percent Champs de ruine, seuls, lépée au poing sous laverse Si la cause est perdue et que la peur sen mêle Le chant du métal aiguisé sifflera quand même Héros de notre musique jetés dans larène Champs de ruine, seuls, épée au poing sous laverse À Hong Kong baby je pose un versé dans le vent Et depuis 86 on est accros à ce bounce Héros de notre musique, ils ont tenté de la prendre De la vendre sans penser à nous accorder les crédits Eh Yo, on dit que cest la crise Que les mecs rappent avec des chrysanthèmes Mais sous le ciel de Kowloon nos rimes sont toujours en tête La garde sur le mic veille, les saisons voient jaillir son spectre Les modes passent à nos oreilles mais nos voix toujours excellentes Les concepts surprennent, la vague se brise sur nos textes On ne surfe pas, on créée des thèmes intemporels pour nos frères Il y a ceux qui suivent, ceux qui mènent leur barque dans la tempête Je gère la mienne de NY jusquà la rivière des perles Défie les typhons qui dans le Hip Hop ont fait trop de perte Larage en parallèle rebelle en mic check Les clichés ont frappé, généralisé faits et lettres Ils ont tapé les faibles et arrosé nos rangs de traitres Divisés par le paraître, létendards tachés de sang La foi seule compte quand tes dans la merde Mais dans la boue sous les tirs les héros se révèlent Mon clan reste debout, la foule en redemande sur scène Un chant clair et guerrier là où les lances tombent, on ne cesse de marcher Des pions qui faussent la partie sur léchiquier Maître dans lart de rapper à jamais dans lhistoire Ils vont le nier mais récolteront ce quon a semé Et quand le rideau tombe, que la scène est déserte Cest dans les cieux étincelants que nos pensées se perdent Héros de notre musique où peu de lames percent Champs de ruine, seuls, lépée au poing sous laverse Si la cause est perdue et que la peur sen mêle Le chant du métal aiguisé sifflera quand même Héros de notre musique jetés dans larène Champs de ruine, seuls, épée au poing sous laverse</t>
+          <t>Et quand le rideau tombe, que la scène est déserte Cest dans les cieux étincelants que nos pensées se perdent Héros de notre musique où peu de lames percent Champs de ruine, seuls, lépée au poing sous laverse Si la cause est perdue et que la peur sen mêle Le chant du métal aiguisé sifflera quand même Héros de notre musique jetés dans larène Champs de ruine, seuls, épée au poing sous laverse À la faveur de nuits sans lune on a quitté nos jungles Puis déferlés sur les villes et pris les âmes des peuples, tu le crois ? Notre art suspecté de Cabale Mais tout est clair nous sommes des panthères armées de calames Ils ont posté leurs soldats avant dy pénétrer Puis visé notre école et le ciel fut noirci par les traits Sous la pluie de flèches, certains ont perdu la vie Jusquà aujourdhui on perpétue ces calligraphies Habitués transparents dans leur graphique Ils disent que nos rimes se roulent et se plaisent dans les trafics Moi je veux savoir si la solution quils vendent est parfaite Des mômes jouent de larme automatique dans les cafets Alors qui est hostile ? cest leur modèle ou cest le rap ? Si leur mer à lair dun lac on est comme des vagues scélérates Entends les sanglots longs de ces violons cest la BO de nos vies Et de nos parcours qui depuis tout ce temps se prolongent Doù je viens y a pas de place de hasard On court pour la survie mec, ni cheval ni casaque Ce nest pas lécrivain mais les blocs qui évoquent le nom de Balzac On sait où se posent nos pas, droits, sur le basalte Debout sous les volcans on offre nos cahiers au mistral Fleurs de cerisiers les mots senvolent et quitte Amistad Héros de cette musique, amants de ces mélopées On rebâtît les chances que la vie même nous a ôté Et quand le rideau tombe, que la scène est déserte Cest dans les cieux étincelants que nos pensées se perdent Héros de notre musique où peu de lames percent Champs de ruine, seuls, lépée au poing sous laverse Si la cause est perdue et que la peur sen mêle Le chant du métal aiguisé sifflera quand même Héros de notre musique jetés dans larène Champs de ruine, seuls, épée au poing sous laverse À Hong Kong baby je pose un versé dans le vent Et depuis 86 on est accros à ce bounce Héros de notre musique, ils ont tenté de la prendre De la vendre sans penser à nous accorder les crédits Eh Yo, on dit que cest la crise Que les mecs rappent avec des chrysanthèmes Mais sous le ciel de Kowloon nos rimes sont toujours en tête La garde sur le mic veille, les saisons voient jaillir son spectre Les modes passent à nos oreilles mais nos voix toujours excellentes Les concepts surprennent, la vague se brise sur nos textes On ne surfe pas, on créée des thèmes intemporels pour nos frères Il y a ceux qui suivent, ceux qui mènent leur barque dans la tempête Je gère la mienne de NY jusquà la rivière des perles Défie les typhons qui dans le Hip Hop ont fait trop de perte Larage en parallèle rebelle en mic check Les clichés ont frappé, généralisé faits et lettres Ils ont tapé les faibles et arrosé nos rangs de traitres Divisés par le paraître, létendards tachés de sang La foi seule compte quand tes dans la merde Mais dans la boue sous les tirs les héros se révèlent Mon clan reste debout, la foule en redemande sur scène Un chant clair et guerrier là où les lances tombent, on ne cesse de marcher Des pions qui faussent la partie sur léchiquier Maître dans lart de rapper à jamais dans lhistoire Ils vont le nier mais récolteront ce quon a semé Et quand le rideau tombe, que la scène est déserte Cest dans les cieux étincelants que nos pensées se perdent Héros de notre musique où peu de lames percent Champs de ruine, seuls, lépée au poing sous laverse Si la cause est perdue et que la peur sen mêle Le chant du métal aiguisé sifflera quand même Héros de notre musique jetés dans larène Champs de ruine, seuls, épée au poing sous laverse</t>
         </is>
       </c>
     </row>
@@ -1517,7 +1517,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Mi chiamo Leon, non so leggere né scrivere E sono un professionista pagato per uccidere Sempre pronto a morire, non ho mai imparato a vivere Impossibile dormire per chi ne ha saputo ridere Bevo litri di latte, bianco nella sua essenza E spero lavi le macchie di sangue dalla coscienza Ho lasciato la mia terra in fuga da un omicidio Adesso ogni omicidio mi dà i soldi con cui vivo Son come la mia pianta non parlo e non ho radici Tengo tutti alla larga, non mi servono gli amici La vita qua è bastarda e la tua vale due spicci Qui tocca farsi strada e nuotare in mezzo ai nemici La mia vicina di casa sta andando fuori È solo una ragazzina, ma ha già perso i genitori Trucidati dai mafiosi, faccio spazio al cuore burbero Che non sentiva niente, come avesse sopra il sughero Cercando nel mio cuore non è mai uscito l'amore Ogni tanto passo da Tony per una nuova missione Dannata ragazzina, ha seppellito scuola e diario E per vendicare il fratello le insegno a fare il sicario Gomma sullo spioncino, fingi di essere il vicino Trancia la catena e attenta a non far casino Tienilo sotto tiro, molla la donna e il piccolo Trattieni il respiro e chiudi un altro fascicolo You might also like La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta Lei mi si avvicina, sorride, afferra la mano Ubriaca nel ristorante, sussurra un ti amo Il giorno dopo il denaro Sei un sicario, allora vai là fuori Disse lacrimando Vendica i miei genitori Rifiuto l'occasione, non voglio qualche milione Ti ho giurato protezione, 'sta volta interviene il cuore La bimba si commuove, la vita qui non t'aspetta Si decide e si muove e prova la sua vendetta In mano un pranzo italiano al commissariato Sale a cercar lo sbirro, entra in bagno a polso armato Ma lo sbirro è più tagliato dell'ecstasy che ha calato La branca, la disarma e ha il grilletto già puntato Un collega lo interrompe dando l'inizio ai giochi Lo avvisa che sono entrato e che ho già ucciso i suoi soci Devo salvare lei, l'unico vero amore Mi ha insegnato l'alfabeto, mi ha donato il colore A dormire da sdraiato, abbandonare le poltrone Ad amare sì la mia pianta, però anche le persone Ci imboschiamo in hotel, carichi di tensione Posson prendermi la vita e non posson prendermi il cuore In albergo uno squadrone SWAT, pronti all'esecuzione Più di cento persone e una sola che non muore Io Scoppiano le bombe, io cerco l'evacuazione Apro una via di fuga, un ultimo bacio, amore Vai La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta Mi feriscono più volte, non possono farmi niente Riesco a uscire ed imbosco, travestito da agente Qualche metro e sarò libero, lei è fuori che mi aspetta E la vendetta più la cerchi e più si ripresenta Ultimi quattro passi, sento già l'aria più fresca La luce si fa più forte, getto la maschera a terra Ultimo colpo in guerra, dritto nella mia testa Scappa forte amore mio, la mia anima vivrà eterna</t>
+          <t>Mi chiamo Leon, non so leggere né scrivere E sono un professionista pagato per uccidere Sempre pronto a morire, non ho mai imparato a vivere Impossibile dormire per chi ne ha saputo ridere Bevo litri di latte, bianco nella sua essenza E spero lavi le macchie di sangue dalla coscienza Ho lasciato la mia terra in fuga da un omicidio Adesso ogni omicidio mi dà i soldi con cui vivo Son come la mia pianta non parlo e non ho radici Tengo tutti alla larga, non mi servono gli amici La vita qua è bastarda e la tua vale due spicci Qui tocca farsi strada e nuotare in mezzo ai nemici La mia vicina di casa sta andando fuori È solo una ragazzina, ma ha già perso i genitori Trucidati dai mafiosi, faccio spazio al cuore burbero Che non sentiva niente, come avesse sopra il sughero Cercando nel mio cuore non è mai uscito l'amore Ogni tanto passo da Tony per una nuova missione Dannata ragazzina, ha seppellito scuola e diario E per vendicare il fratello le insegno a fare il sicario Gomma sullo spioncino, fingi di essere il vicino Trancia la catena e attenta a non far casino Tienilo sotto tiro, molla la donna e il piccolo Trattieni il respiro e chiudi un altro fascicolo La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta Lei mi si avvicina, sorride, afferra la mano Ubriaca nel ristorante, sussurra un ti amo Il giorno dopo il denaro Sei un sicario, allora vai là fuori Disse lacrimando Vendica i miei genitori Rifiuto l'occasione, non voglio qualche milione Ti ho giurato protezione, 'sta volta interviene il cuore La bimba si commuove, la vita qui non t'aspetta Si decide e si muove e prova la sua vendetta In mano un pranzo italiano al commissariato Sale a cercar lo sbirro, entra in bagno a polso armato Ma lo sbirro è più tagliato dell'ecstasy che ha calato La branca, la disarma e ha il grilletto già puntato Un collega lo interrompe dando l'inizio ai giochi Lo avvisa che sono entrato e che ho già ucciso i suoi soci Devo salvare lei, l'unico vero amore Mi ha insegnato l'alfabeto, mi ha donato il colore A dormire da sdraiato, abbandonare le poltrone Ad amare sì la mia pianta, però anche le persone Ci imboschiamo in hotel, carichi di tensione Posson prendermi la vita e non posson prendermi il cuore In albergo uno squadrone SWAT, pronti all'esecuzione Più di cento persone e una sola che non muore Io Scoppiano le bombe, io cerco l'evacuazione Apro una via di fuga, un ultimo bacio, amore Vai La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta Mi feriscono più volte, non possono farmi niente Riesco a uscire ed imbosco, travestito da agente Qualche metro e sarò libero, lei è fuori che mi aspetta E la vendetta più la cerchi e più si ripresenta Ultimi quattro passi, sento già l'aria più fresca La luce si fa più forte, getto la maschera a terra Ultimo colpo in guerra, dritto nella mia testa Scappa forte amore mio, la mia anima vivrà eterna</t>
         </is>
       </c>
     </row>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Ils deviennent ce qu'ils voient, et voient ce qu'ils deviennent Qu'est-ce qu'ils deviennent Dans cette chienne de vie ils veulent la tienne S'il y a des blèmes, on s'en fout, on tente quand même Pose-toi la question, après, qui tiendra les rênes? Gaffe au précipice, fils D'en haut on glisse vite Les frères se charcutent, se mutent en bêtes, butent Plus personne se respecte dans ma ville À présent tout a un prix, tout s'achète L'échec, habitué, l'espoir s'échappe, la poisse Plus d'crasse, que des crasses, cèdent pour certains à la coke Pousse, trop d'dettes, la misère pèse Les gosses pèsent, pour le pèze La praise se présente sur trappe Compte, chaque quartier possède un mac qui racle le fond d'la caisse du peuple qui taffe La foule flanche Penche vers la débauche cochée, fauchée Avec le manche la voix résiste Mal enraciné, on t'désiste, la cloche retentit Iota Alpha, braque pour la survie l'ami Où est le juste, le sinistre prime Protège ton anus sur l'bitume, le fric XXX le pouvoir tangue Plisse les yeux garçon, à fond dans l'business XXX gonflés, restes d'un passé noir foncé Graine d'arabica élevée au Coca givré Rien n'est bridé, si tu sais retrouve une idée C'est la vie qui veut ça zin-cou Du coup, on fait nos coups en évitant les balles, la corde fléchit Il suffit d'un rien, réfléchis Blotti sous les préaux, taudis rivaux, 'coute fils La rue la nourrice, dedans on glisse Sans remords, sur vos lois on pisse Pour nos morts, peace You might also like Ils deviennent ce qu'ils voient, et voient ce qu'ils deviennent Qu'est-ce qu'ils deviennent Dans cette chienne de vie ils veulent la tienne S'il y a des blèmes, on s'en fout, on tente quand même Pose-toi la question, après, qui tiendra les rênes? Gaffe au précipice, fils D'en haut on glisse vite Ils deviennent ce qu'ils voient, penses-tu, deux mômes Idolâtrant les truands et les plus connus d'la rue Regarde ça, comment ils flambent Putain c'est trop chaud kho, bouger avec ces mecs Les gadji, le blé, du beurre poto Un clan, ils voulaient en être, rien d'autre Cigare au bec à New York, Benz à Naples et Fils, si t'as la maille XXX, fini d'rêver faut agir Ainsi, les voilà, pris dans l'délire En disons deux ans, deux gosses, dix-huit ans à présent Ont vu leur réputation dans le crime de bas étage prendre Une autre dimension La chance du débutant, trop bizarre, trop d'plans foireux et pas d'arrestations Devant tant d'efforts les grands ont cédé Ok, vu le CV, on vous prend avec nous à l'essai Trop doués, deux ans ont passé, les coups se succèdent L'argent rentre, et les jeunes ont pris d'l'assurance Le boss les félicite, confirme leur place au sein du clan Les responsabilise, sous son aile et ça dure quelque temps Mais très court, la fonction étant remplie lors d'un échange Les stups interviennent en flag, aussi Les voici en cellule, séparés Les nerfs à vif la coke trouvée Et un à un on leur expose les faits Deux escrocs manipulés Fils, des chèvres, protégées depuis trois ans et Les flics qui les surveillaient ont laissé faire Magouilles, trafic afin qu'ils montent le marché Disant, tu balances l'organisation Chacun dans sa cellule, larmes aux yeux et qu'à cela ne tienne Plus d'caïd, deux naïfs, vois ce qu'ils deviennent, fils Ils deviennent ce qu'ils voient, et voient ce qu'ils deviennent Qu'est-ce qu'ils deviennent Dans cette chienne de vie ils veulent la tienne S'il y a des blèmes, on s'en fout, on tente quand même Pose-toi la question, après, qui tiendra les rênes? Qui voudrait me tuer Prends un ticket et fais la queue Wesh XXX c'est la dèche, rien n'a changé Les années passent, toujours le même décor, les mêmes cinglés De jour en jour la merde se perpétue Dans la rue les mômes sévissent à l'unisson comme des morpions Pris dans un tourbillon, trouvent refuge dans le chich' Comme Achille, dans la tête plein de bambou Tape des styles du genre, j'm'en bats les Tant qu'je pèse, frère, et fais flipper les Trop laid, trop d'échecs, de jeunes dans le merdier La misère, sans prévenir a fait de nous ses amants Avec le temps mes potes deviennent des as du ouvre et prends pas d'sentiment C'est la jungle, frère, tu comprends Les gosses connaissent tous les vices pour s'en tirer Tous des diabolos, do you speak XXX to you, demande à c'poto Ils prennent exemple sur les aînés Qui même les deux genoux à terre, pas question d'se laisser aller Les dangers font partie du décor Dieu j'implore pour me garder en vie Qu'il m'aide à éviter ces filets dressés pour me dompter Faire de moi un prisonnier À longueur de journée, rien à glander Chômeur à seize ans, à dix-huit ans déjà longue durée Que l'odeur du cash le fait saliver Les touristes deviennent la proie du 143 des chacals Que veux-tu faire quand tu crèves la dalle Où il y a, tu prends, qu'est-ce tu crois c'est normal XXX ils deviennent ce qu'ils voient Ils deviennent ce qu'ils voient, et voient ce qu'ils deviennent dans la rue Ils deviennent ce qu'ils voient, et voient ce qu'ils deviennent dans la rue la rue La merde de jour en jour se perpétue Gaffe au précipice, fils, d'en haut on glisse vite Soigne nos rimes, le respect s'perd et tout s'effrite Je parle du quotidien écoute bien, mes phrases font pas rire</t>
+          <t>Ils deviennent ce qu'ils voient, et voient ce qu'ils deviennent Qu'est-ce qu'ils deviennent Dans cette chienne de vie ils veulent la tienne S'il y a des blèmes, on s'en fout, on tente quand même Pose-toi la question, après, qui tiendra les rênes? Gaffe au précipice, fils D'en haut on glisse vite Les frères se charcutent, se mutent en bêtes, butent Plus personne se respecte dans ma ville À présent tout a un prix, tout s'achète L'échec, habitué, l'espoir s'échappe, la poisse Plus d'crasse, que des crasses, cèdent pour certains à la coke Pousse, trop d'dettes, la misère pèse Les gosses pèsent, pour le pèze La praise se présente sur trappe Compte, chaque quartier possède un mac qui racle le fond d'la caisse du peuple qui taffe La foule flanche Penche vers la débauche cochée, fauchée Avec le manche la voix résiste Mal enraciné, on t'désiste, la cloche retentit Iota Alpha, braque pour la survie l'ami Où est le juste, le sinistre prime Protège ton anus sur l'bitume, le fric XXX le pouvoir tangue Plisse les yeux garçon, à fond dans l'business XXX gonflés, restes d'un passé noir foncé Graine d'arabica élevée au Coca givré Rien n'est bridé, si tu sais retrouve une idée C'est la vie qui veut ça zin-cou Du coup, on fait nos coups en évitant les balles, la corde fléchit Il suffit d'un rien, réfléchis Blotti sous les préaux, taudis rivaux, 'coute fils La rue la nourrice, dedans on glisse Sans remords, sur vos lois on pisse Pour nos morts, peace Ils deviennent ce qu'ils voient, et voient ce qu'ils deviennent Qu'est-ce qu'ils deviennent Dans cette chienne de vie ils veulent la tienne S'il y a des blèmes, on s'en fout, on tente quand même Pose-toi la question, après, qui tiendra les rênes? Gaffe au précipice, fils D'en haut on glisse vite Ils deviennent ce qu'ils voient, penses-tu, deux mômes Idolâtrant les truands et les plus connus d'la rue Regarde ça, comment ils flambent Putain c'est trop chaud kho, bouger avec ces mecs Les gadji, le blé, du beurre poto Un clan, ils voulaient en être, rien d'autre Cigare au bec à New York, Benz à Naples et Fils, si t'as la maille XXX, fini d'rêver faut agir Ainsi, les voilà, pris dans l'délire En disons deux ans, deux gosses, dix-huit ans à présent Ont vu leur réputation dans le crime de bas étage prendre Une autre dimension La chance du débutant, trop bizarre, trop d'plans foireux et pas d'arrestations Devant tant d'efforts les grands ont cédé Ok, vu le CV, on vous prend avec nous à l'essai Trop doués, deux ans ont passé, les coups se succèdent L'argent rentre, et les jeunes ont pris d'l'assurance Le boss les félicite, confirme leur place au sein du clan Les responsabilise, sous son aile et ça dure quelque temps Mais très court, la fonction étant remplie lors d'un échange Les stups interviennent en flag, aussi Les voici en cellule, séparés Les nerfs à vif la coke trouvée Et un à un on leur expose les faits Deux escrocs manipulés Fils, des chèvres, protégées depuis trois ans et Les flics qui les surveillaient ont laissé faire Magouilles, trafic afin qu'ils montent le marché Disant, tu balances l'organisation Chacun dans sa cellule, larmes aux yeux et qu'à cela ne tienne Plus d'caïd, deux naïfs, vois ce qu'ils deviennent, fils Ils deviennent ce qu'ils voient, et voient ce qu'ils deviennent Qu'est-ce qu'ils deviennent Dans cette chienne de vie ils veulent la tienne S'il y a des blèmes, on s'en fout, on tente quand même Pose-toi la question, après, qui tiendra les rênes? Qui voudrait me tuer Prends un ticket et fais la queue Wesh XXX c'est la dèche, rien n'a changé Les années passent, toujours le même décor, les mêmes cinglés De jour en jour la merde se perpétue Dans la rue les mômes sévissent à l'unisson comme des morpions Pris dans un tourbillon, trouvent refuge dans le chich' Comme Achille, dans la tête plein de bambou Tape des styles du genre, j'm'en bats les Tant qu'je pèse, frère, et fais flipper les Trop laid, trop d'échecs, de jeunes dans le merdier La misère, sans prévenir a fait de nous ses amants Avec le temps mes potes deviennent des as du ouvre et prends pas d'sentiment C'est la jungle, frère, tu comprends Les gosses connaissent tous les vices pour s'en tirer Tous des diabolos, do you speak XXX to you, demande à c'poto Ils prennent exemple sur les aînés Qui même les deux genoux à terre, pas question d'se laisser aller Les dangers font partie du décor Dieu j'implore pour me garder en vie Qu'il m'aide à éviter ces filets dressés pour me dompter Faire de moi un prisonnier À longueur de journée, rien à glander Chômeur à seize ans, à dix-huit ans déjà longue durée Que l'odeur du cash le fait saliver Les touristes deviennent la proie du 143 des chacals Que veux-tu faire quand tu crèves la dalle Où il y a, tu prends, qu'est-ce tu crois c'est normal XXX ils deviennent ce qu'ils voient Ils deviennent ce qu'ils voient, et voient ce qu'ils deviennent dans la rue Ils deviennent ce qu'ils voient, et voient ce qu'ils deviennent dans la rue la rue La merde de jour en jour se perpétue Gaffe au précipice, fils, d'en haut on glisse vite Soigne nos rimes, le respect s'perd et tout s'effrite Je parle du quotidien écoute bien, mes phrases font pas rire</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>- Putain ! - C'est pour toi mec ! - Ne va plus jamais rapper putain ! Tu vas nous manquer avec tes rimes pourries On sabre le champagne avec la famille A tous les producteurs qui t'ont pas compris Qui t'ont reproché de pas avoir le sens du rythme Et sur un freestyle, on t'a vu partir T'as lâché le bizz, bousculé par le public T'étais le meilleur dans ta catégorie On va te pleurer comme le p'tit Gregory Rest in peace... Si ton plan c'est pas la folie On fait couler la folie Mémorial de rimes pourries Et si le hip-hop t'a omit On est là pour le homie Mémorial de rimes pourries Dépourvu, tu fais le rookie On allume une bougie Mémorial de rimes pourries You might also like Si j'verse une larme, c'est pour les tas de syllabes que t'as choisi dans tes raps, entassées ici, là Toutes ces rimes et phases larguées au hasard Tu t'es vu au Plaza, t'as fini au bazar Et j'te revois au studio balourd, bras ballants Te vautrer sur un beat à la Timbaland T'étais le king et ils t'ont mis au tapin Figé sur la scène, ils t'ont jeté un parpaing Eh Ta poésie ? Un gros bluff à Las Vegas Taillé pour les khalass, aller t'es fallasse Rappelles-toi, en photo, une amie t'a trouvé nice Dix secondes en live, elle a dit Désolée, je me casse ! T'avais un fonky-look, mais à cause de tes photos de plouc Ils t'ont supprimé ton Facebook T'avais la tournée mais ça a mal tourné Tu pétais, tu vidais la salle en moins de deux couplets Puis vint l'époque de l'autotune Tes baby n'ont rien donné pour tes rêves de lot of thune Jeté du bitume, banni de iTunes T'as fait ton buzz avec zéro vue sur YouTube T'as kiffé Miami, t'es mis au Dirty South Mais le Sud souffrait quand t'ouvrais ta dirty mouth Et à New York ? Tu visais le sommet, putain mais Jay Z il aurait pû t'rappeler Si ton plan c'est pas la folie On fait couler la folie Mémorial de rimes pourries Et si le hip-hop t'a omit On est là pour le homie Mémorial de rimes pourries Dépourvu, tu fais le rookie On allume une bougie Mémorial de rimes pourries Et tes problèmes de justice, malaise Pour avoir séduit des p'tites encore au collège Puis t'as sorti ta tape La critique fut méchante, ils n'ont rien compris à ton style XXX représente Tu voulais les plans beuh, les plans poufs Faire le voyou Parler de braquer un rom pour un sac Babou Ton clip, ça s'est mal passé parce que bloqué aux WC pour un KFC trop épicé Où sont les freestyles que j'aimais trop ? Avec plus de wesh que de textes, et de yo que de mots ? Moins de feeling, de flow, plus de rhum et de crocs Plus de bassines, de sauts, moins d'éclat au micro Et tu kiffais Eminem ? Il t'appelait eh minable Ah toi manie l'malaise, MC éjectable A la recherche de la grosse punchline Yo bifton, maille, freestyle, cadavre! Mon Dieu, si ils savaient, t'étais un tel rebelle que t'as même dit aux règles du rythme d'aller s'faire mettre Pionnier, créateur du rap Cotorep Avec ton vocable, ta diction, ton Motorep Un coup blanc, un coup rebeu, un coup wesh négro Un coup jet set ou ghetto suivant les infos Aujourd'hui ta carrière est finie Plus de respect la famille Ils viennent taguer des bites sur tes affiches T'étais trop jeune pour partir l'ami On t'appelais XXX King de la street et la famille Brillant comme Dany, pas comme Kobe T'as traversé le show-biz en enchainant des gros bides Si ton plan c'est pas la folie On fait couler la folie Mémorial de rimes pourries Et si le hip-hop t'a omit On est là pour le homie Mémorial de rimes pourries Dépourvu, tu fais le rookie On allume une bougie Mémorial de rimes pourries 'Toute façon t'es qu'une merde ! A ceux qui connaissaient tes trois textes de fou Ou tu brillais si fort dans tes pistes de bouse En matière de bouse, t'envoyais du lourd Si fort que tu marchais tout seul et t'avais plus de crew Tes ventes à la sortie nous ont filé le blues T'es devenu le numéro un de la loose Ils t'ont fusillé comme à Ceausescu Et toutes les vilaines tenvoient de gros bisous Putain t'es où...</t>
+          <t>- Putain ! - C'est pour toi mec ! - Ne va plus jamais rapper putain ! Tu vas nous manquer avec tes rimes pourries On sabre le champagne avec la famille A tous les producteurs qui t'ont pas compris Qui t'ont reproché de pas avoir le sens du rythme Et sur un freestyle, on t'a vu partir T'as lâché le bizz, bousculé par le public T'étais le meilleur dans ta catégorie On va te pleurer comme le p'tit Gregory Rest in peace... Si ton plan c'est pas la folie On fait couler la folie Mémorial de rimes pourries Et si le hip-hop t'a omit On est là pour le homie Mémorial de rimes pourries Dépourvu, tu fais le rookie On allume une bougie Mémorial de rimes pourries Si j'verse une larme, c'est pour les tas de syllabes que t'as choisi dans tes raps, entassées ici, là Toutes ces rimes et phases larguées au hasard Tu t'es vu au Plaza, t'as fini au bazar Et j'te revois au studio balourd, bras ballants Te vautrer sur un beat à la Timbaland T'étais le king et ils t'ont mis au tapin Figé sur la scène, ils t'ont jeté un parpaing Eh Ta poésie ? Un gros bluff à Las Vegas Taillé pour les khalass, aller t'es fallasse Rappelles-toi, en photo, une amie t'a trouvé nice Dix secondes en live, elle a dit Désolée, je me casse ! T'avais un fonky-look, mais à cause de tes photos de plouc Ils t'ont supprimé ton Facebook T'avais la tournée mais ça a mal tourné Tu pétais, tu vidais la salle en moins de deux couplets Puis vint l'époque de l'autotune Tes baby n'ont rien donné pour tes rêves de lot of thune Jeté du bitume, banni de iTunes T'as fait ton buzz avec zéro vue sur YouTube T'as kiffé Miami, t'es mis au Dirty South Mais le Sud souffrait quand t'ouvrais ta dirty mouth Et à New York ? Tu visais le sommet, putain mais Jay Z il aurait pû t'rappeler Si ton plan c'est pas la folie On fait couler la folie Mémorial de rimes pourries Et si le hip-hop t'a omit On est là pour le homie Mémorial de rimes pourries Dépourvu, tu fais le rookie On allume une bougie Mémorial de rimes pourries Et tes problèmes de justice, malaise Pour avoir séduit des p'tites encore au collège Puis t'as sorti ta tape La critique fut méchante, ils n'ont rien compris à ton style XXX représente Tu voulais les plans beuh, les plans poufs Faire le voyou Parler de braquer un rom pour un sac Babou Ton clip, ça s'est mal passé parce que bloqué aux WC pour un KFC trop épicé Où sont les freestyles que j'aimais trop ? Avec plus de wesh que de textes, et de yo que de mots ? Moins de feeling, de flow, plus de rhum et de crocs Plus de bassines, de sauts, moins d'éclat au micro Et tu kiffais Eminem ? Il t'appelait eh minable Ah toi manie l'malaise, MC éjectable A la recherche de la grosse punchline Yo bifton, maille, freestyle, cadavre! Mon Dieu, si ils savaient, t'étais un tel rebelle que t'as même dit aux règles du rythme d'aller s'faire mettre Pionnier, créateur du rap Cotorep Avec ton vocable, ta diction, ton Motorep Un coup blanc, un coup rebeu, un coup wesh négro Un coup jet set ou ghetto suivant les infos Aujourd'hui ta carrière est finie Plus de respect la famille Ils viennent taguer des bites sur tes affiches T'étais trop jeune pour partir l'ami On t'appelais XXX King de la street et la famille Brillant comme Dany, pas comme Kobe T'as traversé le show-biz en enchainant des gros bides Si ton plan c'est pas la folie On fait couler la folie Mémorial de rimes pourries Et si le hip-hop t'a omit On est là pour le homie Mémorial de rimes pourries Dépourvu, tu fais le rookie On allume une bougie Mémorial de rimes pourries 'Toute façon t'es qu'une merde ! A ceux qui connaissaient tes trois textes de fou Ou tu brillais si fort dans tes pistes de bouse En matière de bouse, t'envoyais du lourd Si fort que tu marchais tout seul et t'avais plus de crew Tes ventes à la sortie nous ont filé le blues T'es devenu le numéro un de la loose Ils t'ont fusillé comme à Ceausescu Et toutes les vilaines tenvoient de gros bisous Putain t'es où...</t>
         </is>
       </c>
     </row>
@@ -1568,7 +1568,7 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Ce qu'il y a de plus important à nos yeux en tout cas c'est de s'être éclatés, d'avoir rappé sur des prods diverses, variées, qui sont toutes des interprétations d'atmosphères New-Yorkaises Ouais on s'est carrément lâchés, c'est un album où il y a pas de limites, on s'est dit aller on y va on prend vraiment ce qu'on aime, on parle de New-York, on fait plein de clins d'oeils à toutes les phases de New-York depuis le début 80, jusqu'à 2011 Textes, freestyles, en fait tout y passe.. Ouais, ouais carrément.. Et pour nous c'est un hommage, c'est un hommage à une ville, à sa musique, à tout ce qu'elle nous a apportée.. A nos débuts, parce que tout part de là quoi.. Et pour ça on a appelé l'album.. We Luv New York !You might also like</t>
+          <t>Ce qu'il y a de plus important à nos yeux en tout cas c'est de s'être éclatés, d'avoir rappé sur des prods diverses, variées, qui sont toutes des interprétations d'atmosphères New-Yorkaises Ouais on s'est carrément lâchés, c'est un album où il y a pas de limites, on s'est dit aller on y va on prend vraiment ce qu'on aime, on parle de New-York, on fait plein de clins d'oeils à toutes les phases de New-York depuis le début 80, jusqu'à 2011 Textes, freestyles, en fait tout y passe.. Ouais, ouais carrément.. Et pour nous c'est un hommage, c'est un hommage à une ville, à sa musique, à tout ce qu'elle nous a apportée.. A nos débuts, parce que tout part de là quoi.. Et pour ça on a appelé l'album.. We Luv New York !</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Faf Larage Et le groupe IAM J'accuse les rusés, voleurs déguisés Grisés, par le pouvoir de grands sourires qui vont te rassurer Qui te font bosser jusqu'à ta mort et encore Même là faut raquer fort si avant ça le travail n'a pas tué ton corps D'avoir fait de nous des marionnettes sans têtes amorphes, des choses Sourdes et muettes, de faire en sorte que ce soit les mêmes qui morflent J'accuse la vie d'être cupide et les poches vides de trop souvent l'être Et ces barils qui valent plus que l'être J'accuse les voleurs déguisés Les lames aiguisées, une flamme attisée La risée du monde et nous on brandit notre coupe fiers En bas elle est pleine et on manque de bols à la soupe populaire J'accuse les rusés d'faire du cash sur des os blanchis Par le soleil au Congo, j'accuse les lâches qui courbent le dos Ceux qui frappent le petit par peur du gros, le manque de couleurs aux infos La panse grasse des blaireaux et ce putain de Loto J'accuse les dieux des moissons de ne pas faire de vos semences un boomerang Celui de la vengeance, donc pas de chance, j'accuse la masse de somnolence J'accuse le manque de temps entre le berceau et l'tombeau J'accuse le ciel, trop haut, de faire la sourde oreille J'accuse, j'accuse, j'accuse le vent, j'accuse tout le temps Je sais parfois j'abuse, mais c'est mon taf, alors j'accuse You might also like J'accuse ceux d'en haut, les gros qui s'en foutent De ce qu'il y a en bas, tellement ils sont froids En bas, y a nous et les nôtres, qu'est ce que ça représente ? S'ils se moquent de nos conditions de vie, ils glandent Que dalle, ils se prennent pour Dieu, qui il y a Au dessus de eux ? À part les cieux, un vide un écho Des lamentations, des cris et des pleurs Des tableaux d'horreur, sans vie ni couleur La loi tombe en ruines Le haut de la société sabâtardit et dégénère Si on accuse, la ruse on l'a pas crée, qui abuse ici ? J'use du mic, juge du mic, la nature humaine se détruit La vie, la rue, notre avis se rue, y'a trop d'impunis Fataliste je le suis, averti J'accuse le mic d'avoir trahi ma cause J'sais j'abuse parfois le soir des bonnes choses Mais j'accuse le coup comme j'pleure mes morts sur la Nationale J'accuse les bourges d'comploter à l'échelon national J'accuse les juges eux-mêmes de passion, de peser partiaux J'accuse la porte fermée quand j'crevais dans le patio Et ouais j'accuse frère, tous ces cons d'me stresser d'me faire Des crises de spasme, paraît-il c'est le cancer qui m'guette J'accuse quelques MCs vils d'être des civils Y a plus de condés dans l'rap que dans les putains de rues d'ma ville Plus d'ingrats et de traîtres qu'ailleurs, d'une traite j'affirme sec Comme Kadhafi je fais confiance qu'aux femmes D'ailleurs je reflète, le chrétien dans la nef, naïfs en bref Une nouvelle génération bernée par le soleil invincible Sans chef d'accusation, on m'vise car gras d'monde je bousille Tu sais qu'on le veut tous le cul dans le jacuzzi J'les accuse ces chiens d'envoyer les mêmes en CAP Puis saper au ballon directe tneket ! dès que l'un se fait happer J'accuse, jacasse, je casse et je cause, c'est vrai J'veux refaire une histoire déjà close frère J'accuse leur putain de fric d'infecter le monde Où un gosse vend sa pureté à un gros lard immonde À chaque seconde y a pas une poignée de billets Qui génère pas un conflit, on se salit pour un profit J'accuse le pouvoir d'être le phare, fantôme de la gloire Le fléau qui veut ronger l'espoir J'accuse les soi-disant détendeurs du savoir Dont l'orgueil voudrait nous faire suivre leur voie J'accuse les naïfs, les nostalgiques du fascisme Les recrues de la bêtise qui nous haïssent Coupable, Mesdames et Messieurs les jurés un seul verdict Pour rassurer les masses leur dire qu'en bas on existe Si on accuse, la ruse on l'a pas crée Qui abuse ici ? J'use du mic, juge du mic, la nature humaine se détruit La vie, le rue, notre avis se rue Y'a trop d'impunis, fataliste je le suis, averti Dans une glace je reflète Dans une glace je reflète Avec la hargne Faf Larage Et le groupe IAM Je représente Le peuple qui a sur le dos les marques de la servitude et dans le cur, les préméditations du génie3</t>
+          <t>Faf Larage Et le groupe IAM J'accuse les rusés, voleurs déguisés Grisés, par le pouvoir de grands sourires qui vont te rassurer Qui te font bosser jusqu'à ta mort et encore Même là faut raquer fort si avant ça le travail n'a pas tué ton corps D'avoir fait de nous des marionnettes sans têtes amorphes, des choses Sourdes et muettes, de faire en sorte que ce soit les mêmes qui morflent J'accuse la vie d'être cupide et les poches vides de trop souvent l'être Et ces barils qui valent plus que l'être J'accuse les voleurs déguisés Les lames aiguisées, une flamme attisée La risée du monde et nous on brandit notre coupe fiers En bas elle est pleine et on manque de bols à la soupe populaire J'accuse les rusés d'faire du cash sur des os blanchis Par le soleil au Congo, j'accuse les lâches qui courbent le dos Ceux qui frappent le petit par peur du gros, le manque de couleurs aux infos La panse grasse des blaireaux et ce putain de Loto J'accuse les dieux des moissons de ne pas faire de vos semences un boomerang Celui de la vengeance, donc pas de chance, j'accuse la masse de somnolence J'accuse le manque de temps entre le berceau et l'tombeau J'accuse le ciel, trop haut, de faire la sourde oreille J'accuse, j'accuse, j'accuse le vent, j'accuse tout le temps Je sais parfois j'abuse, mais c'est mon taf, alors j'accuse J'accuse ceux d'en haut, les gros qui s'en foutent De ce qu'il y a en bas, tellement ils sont froids En bas, y a nous et les nôtres, qu'est ce que ça représente ? S'ils se moquent de nos conditions de vie, ils glandent Que dalle, ils se prennent pour Dieu, qui il y a Au dessus de eux ? À part les cieux, un vide un écho Des lamentations, des cris et des pleurs Des tableaux d'horreur, sans vie ni couleur La loi tombe en ruines Le haut de la société sabâtardit et dégénère Si on accuse, la ruse on l'a pas crée, qui abuse ici ? J'use du mic, juge du mic, la nature humaine se détruit La vie, la rue, notre avis se rue, y'a trop d'impunis Fataliste je le suis, averti J'accuse le mic d'avoir trahi ma cause J'sais j'abuse parfois le soir des bonnes choses Mais j'accuse le coup comme j'pleure mes morts sur la Nationale J'accuse les bourges d'comploter à l'échelon national J'accuse les juges eux-mêmes de passion, de peser partiaux J'accuse la porte fermée quand j'crevais dans le patio Et ouais j'accuse frère, tous ces cons d'me stresser d'me faire Des crises de spasme, paraît-il c'est le cancer qui m'guette J'accuse quelques MCs vils d'être des civils Y a plus de condés dans l'rap que dans les putains de rues d'ma ville Plus d'ingrats et de traîtres qu'ailleurs, d'une traite j'affirme sec Comme Kadhafi je fais confiance qu'aux femmes D'ailleurs je reflète, le chrétien dans la nef, naïfs en bref Une nouvelle génération bernée par le soleil invincible Sans chef d'accusation, on m'vise car gras d'monde je bousille Tu sais qu'on le veut tous le cul dans le jacuzzi J'les accuse ces chiens d'envoyer les mêmes en CAP Puis saper au ballon directe tneket ! dès que l'un se fait happer J'accuse, jacasse, je casse et je cause, c'est vrai J'veux refaire une histoire déjà close frère J'accuse leur putain de fric d'infecter le monde Où un gosse vend sa pureté à un gros lard immonde À chaque seconde y a pas une poignée de billets Qui génère pas un conflit, on se salit pour un profit J'accuse le pouvoir d'être le phare, fantôme de la gloire Le fléau qui veut ronger l'espoir J'accuse les soi-disant détendeurs du savoir Dont l'orgueil voudrait nous faire suivre leur voie J'accuse les naïfs, les nostalgiques du fascisme Les recrues de la bêtise qui nous haïssent Coupable, Mesdames et Messieurs les jurés un seul verdict Pour rassurer les masses leur dire qu'en bas on existe Si on accuse, la ruse on l'a pas crée Qui abuse ici ? J'use du mic, juge du mic, la nature humaine se détruit La vie, le rue, notre avis se rue Y'a trop d'impunis, fataliste je le suis, averti Dans une glace je reflète Dans une glace je reflète Avec la hargne Faf Larage Et le groupe IAM Je représente Le peuple qui a sur le dos les marques de la servitude et dans le cur, les préméditations du génie3</t>
         </is>
       </c>
     </row>
@@ -1602,7 +1602,7 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Voici le profil d'Henri Avant il était con, maintenant il en rit C'est plus un handicap pour le poste qu'il a choisi Il sait qu'aujourd'hui, il a droit à tous les égards Qu'un seul de ses regards refroidit quiconque joue au mac Et c'est cela qui lui plaît, Henri L'uniforme bleu ferait bander n'importe qui Enfin c'est c'qu'il se dit, dans son univers tragique Personne pour le contredire, au regret du public Henri est flic, un dur, un vrai Un comme on en voit tous les jours sur le pavé Il a des alliés, ensemble l'ordre ils font régner C'est l'pied, lui qui n'a jamais fait preuve d'une once d'autorité Il se dit j'passe le concours, j'étudierai à fond pour Réussir, monter en grade, avoir une arme et un boulot Où je pourrais faire régner ma loi Toucher des petits commissions sur les affaires de mon choix Et Henri est un facho, un zéro, un beauf bien comme il faut Et quand y a des bavures, il crie bravo Les jeunes, il peut pas les voir Et sa matraque frétille, il tremble À chaque fois qu'il s'trouve en face d'un Arabe ou un Noir Sévit dans la cité, prend le prétexte des papiers Provoque et mets des claques, et si besoin il en est Et il est payé pour ça, le gars déprime des fois Se défoule sur des pauvres types lors des gardes-à-vue le soir Si y a des plaintes il est couvert, c'est toi Contre le commissariat T'as pas l'choix, tu fermes ta gueule Cavalier seul, nah ! T'es fou, c'est faux, il l'est pas ! Des Henri y en a des tas, j'en croise dans les couloirs Moi j'm'appelle Max, enfant j'rêvais d'justice Quand j'vois ces gars-là, j'ai honte d'être flic !You might also like</t>
+          <t>Voici le profil d'Henri Avant il était con, maintenant il en rit C'est plus un handicap pour le poste qu'il a choisi Il sait qu'aujourd'hui, il a droit à tous les égards Qu'un seul de ses regards refroidit quiconque joue au mac Et c'est cela qui lui plaît, Henri L'uniforme bleu ferait bander n'importe qui Enfin c'est c'qu'il se dit, dans son univers tragique Personne pour le contredire, au regret du public Henri est flic, un dur, un vrai Un comme on en voit tous les jours sur le pavé Il a des alliés, ensemble l'ordre ils font régner C'est l'pied, lui qui n'a jamais fait preuve d'une once d'autorité Il se dit j'passe le concours, j'étudierai à fond pour Réussir, monter en grade, avoir une arme et un boulot Où je pourrais faire régner ma loi Toucher des petits commissions sur les affaires de mon choix Et Henri est un facho, un zéro, un beauf bien comme il faut Et quand y a des bavures, il crie bravo Les jeunes, il peut pas les voir Et sa matraque frétille, il tremble À chaque fois qu'il s'trouve en face d'un Arabe ou un Noir Sévit dans la cité, prend le prétexte des papiers Provoque et mets des claques, et si besoin il en est Et il est payé pour ça, le gars déprime des fois Se défoule sur des pauvres types lors des gardes-à-vue le soir Si y a des plaintes il est couvert, c'est toi Contre le commissariat T'as pas l'choix, tu fermes ta gueule Cavalier seul, nah ! T'es fou, c'est faux, il l'est pas ! Des Henri y en a des tas, j'en croise dans les couloirs Moi j'm'appelle Max, enfant j'rêvais d'justice Quand j'vois ces gars-là, j'ai honte d'être flic !</t>
         </is>
       </c>
     </row>
@@ -1619,7 +1619,7 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>T'as pas envie de voir la folie gagner le peuple Et déchirer tout ce qui peut y avoir d'humain en toi T'as pas envie de sentir la douleur croissante S'immiscent dans ton esprit l'aspirer et malmener ta foi T'as pas envie de ces cauchemars de destruction De choyer des ruines simplement parce que c'était chez toi autrefois T'as pas envie que ce qui se passe ailleurs se passe ici T'as pas envie, j'ai pas envie, ils ont pas envie de ça Pas envie des hurlements de canons couvrant les cris des tiens De ces feux d'artifices mortels sur ton toit Conscient d'avoir la chance d'être en vie je veux pas l'ôter à d'autre par plaisir Aucune différence ne me choque j'ai pas envie de me salir Je veux pas que les fantômes sans faces hantent mes nuits et mes souvenirs Pour que le remord vienne me finir on naît pour construire Pas l'inverse j'ai pas envie de vivre dans la maison de l'angoisse Où naissent les haineux astiquant leurs treillis heureux d'occire tout ce qu'est pas de leur paroisse J'ai pas envie que pour une croyance le cornu fasse du bénéf' profitant De nos défaillances pour semer la sanglante semence J'ai pas envie que le scénario se déroule comme eux le veulent comme eux le disent J'ai pas envie qu'on attise la hantise du nouveau qu'on médise qu'on se vise Pour rien qu'une devise nous divise à l'heure où les e-mail fusent et où le ciel se remplit de fusées T'as pas envie de sentir la mort sous forme de gaz Un raz-de-marée dont le nom ne se prononcent pas De ces condoléances stéréotypes au phone ou écrites Si hypocrites que ta famille n'assumerait pas T'as pas envie que des puissants ou des fanatiques Déterminent sur des cartes ce qui t'appartient ou pas T'as pas envie que ce soit des idéaux douteux ou des Nombres à neuf chiffres qui décident si tu dois vivre ou pas T'as pas envie, non, t'as pas envie que ça t'arrive T'as pas envie que tes enfants le découvrent dans les reportages historiques plus tard Trot tard, t'as pas envie nan You might also like J'ai pas envie d'être le courroux d'un lobby ni le bras armé d'une harpie Accroc de profit cachant ses griffes sous un corps de lady le coeur enlaidit Quand le canon barrit j'ai pas envie de gens sous des chenilles De chair jusqu'aux chevilles je veux voir des gosses pas en guenilles Le mec en face de moi je sais pas qui c'est juste une silhouette anonyme mais humaine Rien ne vaut ça vie ou la mienne alors en ce qui me concerne Si elle a lieu je la ferais pas votre guerre ni pour vos conneries ni l'argent Ni les prières dites à genoux dans le sang Le frère tirant sur le frère qui peut vouloir ça Enterré mon âme sous le tas d'os blanchis on me l'a pas donné pour ça</t>
+          <t>T'as pas envie de voir la folie gagner le peuple Et déchirer tout ce qui peut y avoir d'humain en toi T'as pas envie de sentir la douleur croissante S'immiscent dans ton esprit l'aspirer et malmener ta foi T'as pas envie de ces cauchemars de destruction De choyer des ruines simplement parce que c'était chez toi autrefois T'as pas envie que ce qui se passe ailleurs se passe ici T'as pas envie, j'ai pas envie, ils ont pas envie de ça Pas envie des hurlements de canons couvrant les cris des tiens De ces feux d'artifices mortels sur ton toit Conscient d'avoir la chance d'être en vie je veux pas l'ôter à d'autre par plaisir Aucune différence ne me choque j'ai pas envie de me salir Je veux pas que les fantômes sans faces hantent mes nuits et mes souvenirs Pour que le remord vienne me finir on naît pour construire Pas l'inverse j'ai pas envie de vivre dans la maison de l'angoisse Où naissent les haineux astiquant leurs treillis heureux d'occire tout ce qu'est pas de leur paroisse J'ai pas envie que pour une croyance le cornu fasse du bénéf' profitant De nos défaillances pour semer la sanglante semence J'ai pas envie que le scénario se déroule comme eux le veulent comme eux le disent J'ai pas envie qu'on attise la hantise du nouveau qu'on médise qu'on se vise Pour rien qu'une devise nous divise à l'heure où les e-mail fusent et où le ciel se remplit de fusées T'as pas envie de sentir la mort sous forme de gaz Un raz-de-marée dont le nom ne se prononcent pas De ces condoléances stéréotypes au phone ou écrites Si hypocrites que ta famille n'assumerait pas T'as pas envie que des puissants ou des fanatiques Déterminent sur des cartes ce qui t'appartient ou pas T'as pas envie que ce soit des idéaux douteux ou des Nombres à neuf chiffres qui décident si tu dois vivre ou pas T'as pas envie, non, t'as pas envie que ça t'arrive T'as pas envie que tes enfants le découvrent dans les reportages historiques plus tard Trot tard, t'as pas envie nan J'ai pas envie d'être le courroux d'un lobby ni le bras armé d'une harpie Accroc de profit cachant ses griffes sous un corps de lady le coeur enlaidit Quand le canon barrit j'ai pas envie de gens sous des chenilles De chair jusqu'aux chevilles je veux voir des gosses pas en guenilles Le mec en face de moi je sais pas qui c'est juste une silhouette anonyme mais humaine Rien ne vaut ça vie ou la mienne alors en ce qui me concerne Si elle a lieu je la ferais pas votre guerre ni pour vos conneries ni l'argent Ni les prières dites à genoux dans le sang Le frère tirant sur le frère qui peut vouloir ça Enterré mon âme sous le tas d'os blanchis on me l'a pas donné pour ça</t>
         </is>
       </c>
     </row>
@@ -1653,7 +1653,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Hey, hey Ça fait bientôt six ans qu'j'vais dormir à 6 du mat' J'ai plus de batterie, j'me vois éteint dans la vitre du Mac, hey Tout est carré, j'me rappelle j'tais tout égaré Dans mes rêves j'achète six Mercos, j'te rappelle quand tout est garé Autour de moi tous des tarés, j'sais pas si tu captes On s'embrouille vite fait J'l'appelle en mode salm sis', tu dates?, hey J'taille si tu gâtes, j'me lève tôt J'ai d'l'or dans les mains, un cur en pierre, hey Ça va t'faire mal aux doigts si tu grattes, hey Ils essayent trop, mais ça marche jamais J'veux leur montrer un peu, vas-y, ça me gêne beaucoup Moi j'peux l'faire debout, couché, assis C'est un chien, donc j'le laisse coucher assis J'me r'sers un Sanpe' cassis, j'suis avec Sofia et Kassim, hey Entre nous, c'est pas égal si, quand t'étais jeune, c'était simple J'rap, avant j'faisais des dessins ou sur Arma 3, j'les dézingue Ceux avec qui j'traîne c'est mes zins Faire genre qu'tu m'aimes, c'est mesquin Elle me dit aïe, arrête de mordre C'est pas des gâteaux, c'est mes s... J'm'amuse, a'ec eux comme Frank dans l'hôpital Toujours y a un gars qui veut m'faire J'arrive, et hop il taille Trop de serpents, trop d'mygales Moi et eux c'est trop brutal Toi et eux c'est trop buccal J'prends un cheese, un tropi... J'avais peur, j'ai pris les devants Direct, j'ai parlé aux cieux J'demande des trucs comme dehors J'prends des vents, j'ai pas froid aux yeux J'veux la pâtisserie et l'gâteau J'veux les billets et l'cadeau Des GTX, des Elgato J'l'appelle poupée comme Delgado Tu préfères percer sur Netflix Ou dans la street, débattons Elle veut qu'on parte loin sur une île Elle en peut plus de moi dès l'bateau Des barres de fer, des bâtons Des rimes compliquées, des bateaux J'arrive vitesse d'escargot Noir, comme le chat d'Edgar Poe Ok, c'est bientôt la guerre mon frère Est-ce qu'on se croise sur le champ? On tire ensemble sur les gens, ou on s'entre-tue sur le chant J'pourrais lui donner mes affaires Quand elle fredonne sur le vent, j'aime trop quand on a rien à faire Quand elle s'allonge sur le ventre Trop de pensées dans ma tête Ça se reproduit comme des cafards Trop de bavards, je dors jamais, j'ai les cernes de Jaffar Oh, ça va gros, tout autour ça avale Je vous vois, j'le refais, eh eh, je demande pas d'a You might also like Ça, ça, ça fait bientôt six ans, j'vais dormir à 6 du mat', hey J'ai plus d'batterie, j'me vois éteint dans la vitre du Mac, hey Tout est carré, j'me rappelle j'tais tout égaré Dans mes rêves j'achète six Mercos et j'te rappelle quand tout est garé Hey, hey hey, hey hey Hey, j'tue la prod, j'ai un déjà-vu J'évite les bandeurs, j'évite les cavus J'viens d'là où on récupère les plus gros trophées J'sais où c'est, j'étais déjà v'nu Il a dit non, j'veux le faire pour voir Rap sur ma vie comme si j'ai un pouvoir Elle a fait sortir d'mon cur tous mes sentiments Elle a bien taffé, elle veut un pourboire J'ai la dope pour les fous, Gelato sur les coups Écouteurs pour les sous, tête acquiesce pour l'écoute, hey Y a une manière, y a pas mille façons Comme dans l'arrache j'suis dans l'truc à fond, hey J'fais le vide dans ma tête, et, j'mets tout dans le caleçon, hey Le tapis vers la Mecque mais je suis vert de ouf Le tapis vers la Mecque Le tapis vers la, la Mecque Mais je suis vert de ouf, hey Ouais je suis vert de, de ouf Tout vert comme à Namek, hey Le tapis vers la, la Mecque Mais je suis vert de, de ouf Let's go Ouais je suis vert de, de, hey Hey hey hey Jamais content ça va pas dans ma tête L'son est sorti, j'écoute la maquette Hey, le rap-jeu j'ai trouvé la manette J'veux voir enfin l'inté' d'la malette Faut, faut, faut qu'j'encaisse vi, vi, vite Qu'je supprime ce putain d'mal-être Hey, j'deviens fou comme Malek J'aime brûler les boss, enlever les putains d'mal-êtres J'suis dans l'stud que des feux sanglants, j'suis dans l'stud j'ai tout dit j'ai pas fait semblant, hey, hey Faut jamais faire semblant Un vrai message ça Pour tous mes descendants Comme le vendeur à chaque transaction J'fais les mêmes erreurs, j'fais les mêmes actions Ouais je veux tout, pas d'fractions Hum, j'ai la même faction La dalle comme un frigo La dalle Un bip et elle crie go, hum T'es cramé de bâtard comme un putain de gringo, hum J'suis avec ma pine-co Zéro sur l'revo dans mon bigo Frérot chez l'voisin c'est la même On est vert de ouf, vert de ouf, hey Au moins j'espère que j'vais mourir debout sa mère Han han Le tapis vers la Mecque Mecque, mais je suis vert de ouf Ouais je suis vert de, de ouf Tout vert comme à Namek, ok Le tapis vers la, la Mecque Mais je suis vert de, de ouf Ouais je suis vert de, de, hey Hey Vert comme à Namek, hey Hum Hey, mh Te fin d'hmm Big R, j'suis banal J'ai même pas d'devise Tellement j'rap tous les jours J'ai même pas de vie Tu l'as pas J'ai la coupe T'as la goutte J'vais chez le best pour la coupe Les bagages dans la soute je crache Et tu bois dans la sou, sou, soupe Twitte sur moi, vas-y twitte Vas-y twitte Elles me kiffent, c'est des twins Le big R dans le rap, c'est un complot comme les twins Hey, pour de vrai, pas de faux semblants Dans un del, électrique J'ai les moves et les tricks Fuck les bountys et les twixs J'fais plus de biff pour les fins d'mois Elle mange rien, elle a que faim d'moi Je lui sers, il a les mains moites Pourtant on s'est vu plein d'fois Le rap-jeu, moi je vois plein d'foires Le Big R, plein de force plein de foi Tu me plains mais tu veux plaindre quoi gros ? Oh, OK Mais tu veux plaindre quoi gros ? Vert de ouf Le tapis vers la Mecque, mais je suis vert de ouf J'la fais courte le regard en dit long Un bonnet en plastique un joggo en nylon Des millions sous mes cheveux mi-longs J'fais d'la D mais elle reste parce que je suis mignon La bataille sous ma capuche Je sais pas si t'as capiche ? C'est Big R la ca, j'guette la ville de la capit' Elle me kiffe trop j'la câline Des couz, des latinas et des kabyles Plus jamais, plus jamais, plus jamais, plus jamais Le feu bleu est sorti du carnet Plus jamais je doute que j'ai la clé Plus jamais, plus jamais Never, plus jamais Never, plus jamais OK Le feu bleu est sorti du carnet Plus jamais je doute que j'ai la clé Que du harr Harr à l'ancienne comme le tar J'vais t'fumer en secret comme le Tsar J'pense aux sous dans le caz' J'vais vers le ciel, je rêve de Porsche dans le car Ta tête acquiesce la routine quotidienne Besoin de diamant Big R obsidienne J'ai le feu j'ai l'oxygène Coupe la shit pas besoin d'opinel, okay Plus jamais, plus jamais, plus jamais, plus jamais Le feu bleu est sorti du carnet Plus jamais je doute que j'ai la clé Plus jamais, plus jamais, plus jamais, plus jamais Le feu bleu est sorti du carnet Plus jamais je doute que j'ai la clé Un problème, deux problèmes, j'me tâte J'me tight J'oublie les visages comme Brad Des concerts partout dans la France Donc je déserte le taf 0-1 Deux ou trois mois que j'ai pas bien mang J'vais casser avec six dates J'vais m'refaire des pâtes, gros On change pas une routine qui date Ici les tours m'font de l'ombre Ici, ici j'mets l'argent en tombe, ho Pardon, à Dieu, quand j'me trompe Ta madame me DM, elle veut qu'j'visite ses trompes, hey Dans un métro, dans un Uber, j'veux l'argent et le compte du beurre La liberté en statue, c'est che-lou, mais j'me sens mieux qu'à Auber' Donc, j'repense au vice et je serre, j'prends la raquette et je sers Sous la cagoule comme le 7 Ils m'voient en louche comme la cuisinière, hey Oh my god, elle me caresse comme un cat Y a la monnaie qui m'attrape, y a la paresse qui m'attend, toi Toi, toi, tu frimes et tu dribble, sans les trippes c'est du fake C'est pas marrant, hey Tu fumes la , tu vends la J'vais tout dire à ta maman Hey, hey, hey, hey Je frappe dans le mur je fais couler l'dème C'est moi dans ma vie je dis rien de plus Toujours la même j'ai usé le thème J'aime, j-j-j'aime, quand la money fait vibrer le tél Plein de chemins mais je prend lequel ? quand j'ai trop le dem' Hey, hey hey ok Devant les billets on s'emballe pas Je frappe dans le micro et 100 balles partent Je rejoins le G en plein Central Park Hey, hey-hey, hey J'amène ma belle dans les meilleurs suites J'ai traversé des épisodes sombres J'ai prié Dieu pour une meilleure suite Les meilleures pâtes, les meilleures huîtres J'ai fais un rêve où je rigole fort J'me suis fais virer d'partout en France Je prends sur moi je serais le meilleur Suisse Hey, hey-hey, hey Bébé quand tu parles je deviens gris Ngro quand tu parles je deviens green Aujourd'hui noir demain j'reviens j'brille Hey, hey-hey, hey Je vous suis pas chui le mob Je vous suis pas chui le mob Je vous suis pas ch-chui le mob Je vous suis pas chui le mob Je vous suis pas chuuuuuui le mob Je vous suis pas chui le mob Je vous suis pas ch-chui le mob Hey, hey-hey, hey Je parle pas comme un antisocial Je rappe pas pour séparer les gens Dans les oreilles dans d'Andy et Sofyan ? So Phaal so Alpha Wann, hey Dans la savane comme un vrai sauvage Je reste à fond quand le vaisseau bad sa mère Sa mère o-o-ok, hey Je vous suis pas chui le mob Je vous suis pas ch-chui le mob Je vous suis pas chui le putain de mob Je vous suis pas chui le mob Je vous suis pas chui le mob Je vous suis pas chui le mob Chui le putain de mob Je vous suis pas chui le mob Je vous suis pas chuuuui le mob Je vous suis pas ch-chui le mob Chui-chui, je vous suis pas chui le mob Hey, je vous suis pas chui le mob Hey, je vous suis pas ch-chui le mob Okay, yeah Toi aussi t'as un pseudo mec, heu ... j'sais pas d'où tu l'sors, mais ... what the f GMK Let's go GMK, c'est très aberrant ma gueule GNV, Annemasse crescendo vie Hein hein yeah J'suis en apesanteur Fini de plaisanter J'suis pas comme tes rappeurs Flemme de me présenter Vrai G's, amoureux des moshpits Ma mère crois en moi, il faut pas que je rate ma ... J'ai le coeur qui bas et la tête qui bouge Et des rimes tellement riches j'fais du rap de bourge Trois rounds blessé mais j'reste debout J'crois qu'j'suis né pour ça alors rien qu'j'débite Bigo qui sonne j'ai mis ne pas déranger Au studio c'est chimique ça devient dangereux Rap illicite interdit aux moins d'dix-huit Elle m'dit , j'retire USD Dossier sensible sous USB Bientôt partout comme une MST J'me demande qui pourra nous ... Huit heure du mat' j'suis sur GVA J'quitte le trois étoiles et j'me crois dans GTA J'étais en boîte eux ils étaient sous GHB Pendant qu'je repensais à la prod que j'ai acheté Jamais tu me revois en GAV Tu vis c'que j'vis mon rap est en POV J'rentre dans la trap j'leur dis Cette shit balance trop comme bhoper Jfais des sous Cest des faits Le maillot de madame sest défait Cest pas des tatouages cest des veines Jarrive à CDG avec du CDG RAP jai la CDF Jsuis avec G et K Jsuis dans un GLK Arrivée dcelle de GMK Jsuis fais une DFK Cest pas une DSK Jsuis pas en RES Jlibère des avants-posts sur ma PS4 Tous pour fatiguer la TN Dans mon ADN Jsuis avec MDS avec ADM Jsuis dans un BM Jsuis pas mh-mh jregarde des fourmis sur ADN Da-damn Du lait et des DM Ta tchoin dans mes DM DMG je DL Une liasse dans ma TL Jcalcule même pas ton avis dans ma TL Hun-hun réel Y a tout ce quil faut dans le bag dans le bag Dans le bank account moins 400 Mais jgaspille tout comme un woaf woaf comme un dog La 808 fait lmême flow dun AK-K, ah gars-gars Jfais les sous jdeviens un number 2K22 gang on my way Jai le toupet, jreste on my way on my way Jai mis les fakes à la poubelle Comme les cannettes vides en fin de soirées G-I-O cest lacronyme Cest la chronique de chaque petits morceaux de vie de ma life Tes plus dans le game tes AFK -FK Tu perds abonnés, tes offusqué Pa- pa-parfum senteure musquée pour son ptit nez Pas faim, mais jvais manger je graille On va tCDG si tu parles mal si tu On va télever si tu parles mal si tu Tes en LV mais tu tsappes mal tu te Jfais des AVC quand je vois ça quand je Il fait chaud, on est pas des froussards Plein de capitaines donc, plein de brassards Cest aberrant -berrant Faire du rap cest devenu amusant amusant Jfais des sous jfais des sous à mes sangs à mes sangs Toutes mais on fait tout à mon sens G-I-O comme à GPS à bon sens hey, ok Très très très qualitatif, très très très aberrant Genève 1213, Lancy , merci madame N'Diaye, so Ivan, so Nessip, so tous les khos So tous les khos 12-13 Lancy, Tivoli yeah yeah yeah yeah DEMNA, DEMNA J'ai la haine, c'est léger J'gratte un truc et c'est géré J'suis un vrai si j'le fais pas j'pense que j'vais dégénérer Féneri, Panerai j'respecte pas ce que vous vénérez J'y crois a fond mais un jour j'ai douté ça m'a fait serrer de ouf La dalle de bouffe et de sous Léthale est la mentale du zoo J'ai l'inspi a 6h30 J'ai de tout comme les gars du souk Pleure mes défunts, j'l'aime de trop Elle me met des feintes tous les jours J'tabasse mes démons c'est le R contre une équipe de foot J'ai pas réussi, j'voulais faire un truc poignant TSL en YSL tout le monde t'aime mais moi non J'suis dans l'fond du truc a fond comme si j'retardais ma mort J'étais triste mais j'avais faim donc j'ai ravalé ma morve Big R unique au monde J'sors la meilleure eau du puit J'suis un gars calme, j'habite à la gare là où y a tout le temps du bruit J'suis en train de réaliser, j'réalise mes rêves tristement Quand j'étais p'tit j'savais pas, au ciné les actrices te mentent J'ai toujours l'impression qu'elle ment Même quand elle me dit qu'elle m'aime Mais y a qu'elle que j'veux vraiment Je sais qu'elle le verra d'elle même J'étais bien avant tout ça Quand l'daron demandait quelle main Maintenant j'stresse quand je dois répondre La boulangère m'demande quel pain J'ai des RDV Pense pas que je gâte C'est toi tu m'as jamais capté Dis pas que je date Les faux que je ban Ma haine que je ... J'ai découvert la haine au bled depuis que je plane J'ai des RDV pense pas que je gâte C'est toi tu m'as jamais capté Dis pas que je date Ma peine que je ban Les faux que je ban J'ai découvert la haine au bled depuis que je ... Kichta dans le jean men J'pull up avec mes X-Men On est pas idem J'fuck pas avec ces pussy Ils m'font mal au crâne je smoke ma médecine Elle a kiffé le trois, ta baddie fait le signe On va passer de la kitchen à la piscine Pour les pessos je run comme Usain double cup J'met les phéners dans la toséine double cup Demande à , faut qu'tu cash in J'sors de lRS6 j'sors pas du quartier J'suis pas la pour le kiff, le frère, il m'faut les papiers Donc v'la les prods que j'assassine Que des passes dé dans la surface comme Zinedine Dès que j'ai assez graille je disparaît comme Presley Boutton rouge, j'sais pas, y a un truc qui me dit presse-le Nan, jamais je me stoppe tant que le sac pèse peu Faire l'argent ou je la fais et bah je fais les deux Je fais les deux mon gars Grünt, Rounhaa, hey Les Air Force sont salies, j'vais rach'ter une paire flemme de les nettoyer Et j'aime trop ma baby, bientôt j'lui paie bague love de chez Cartier Maman m'a agréé, elle bouge la tête quand j'rappe fort dans la son-mai I don't trust nobody I don't trust nobody, sauf Hakim, Ivan, Marco, Haroun Dans le plat, j'suis l'arôme Tu vas tout graille comme dans un resto à Rome Qu'est ce qui fais chaud c'est un saloon Mal rapper chez nous c'est tabou c'est tabou gros C'est nous ya piscine et ping-pong, Gio rap dans les South C'est chaud, han Trahir on ne fait pas ça nous Disque d'or avant mon salut ouais salam Promis j'ai rien dans les poches, Gio ne rate pas le coche Le temps qui passe, qui passe, les cases de mes rêves qui se cochent Tu serais p'tet allé plus loin dans la vie, si t'étais moins moche ok Hey hey, han han, hey hey Mon argent est sali, j'e mets sous le matelas, pas chez le banquier Et j'aime trop ma baby, bientôt je lui pète villa loin du quartier, très loin T'as pas la maille ni le pistolet donc viens pas me faire le bandit gros han I don't trust nobody, hey I don't trust nobody sauf ma mère, hey, ma reus' On va pull up comme Major Lazer Je passe mes exams je dis Mazel tov ! Chui sur une île on m'masse le torse J'écoute leurs sons je soupire tousse, gros C'est Gio kalashnikov, Gio rappeur qui kick off, han J'viens d'Genève la ville à Titeuf T'es la demande sin-cou chui l'offre, hey Carré carré carré T'es la demande, sin-cou, j'suis l'offre Grosse dédicace, à tous les quartiers comme on a dit, Tivoli, 12-13 Lancy, madame N'Diaye Grande commune grande com' Hey, hey Avant tout on le fait pour mieux vivre, vraiment pas pour que t'aimes Avant tout on le fait pour mettre bien la mif, vraiment pas pour te ken' J'arrive pas trop à m'y faire, j'avance petit à petit Tu frimes et j'ai plus la dalle que toi j'kiffe pas ton p'tit appétit Hey, hey-hey mmh J'ai pas un sale avenir, j'ai du sale à venir du très très sale Putain de merde Le frère veut m'arnaquer je trouve ça à vomir J'ai un style tu veux mille tu veux mille Je donne cent tu veux mille Elle veut que je m'habille classe, qu'on aille vivre à Venise Les frères ont la tête dans le gaz Monte le son quand ils passent mon couplet dans la caisse Le Sheitan veut m'avoir à la mort J'le vois rôder vendre du rêve dans la tess' On était bien c'est fini, j'le montre pas mais tu sais ça me blesse Ici il fait froid j'me sens mieux dans mon bled J'me sens mieux dans mon bled Guess who's back ? frérot who's back ? J'me - j'me pose des questions de fou Du genre ? Est-ce qu'elle va faire des bêtises ? Quoi d'autre ? Est-ce que je suis le plus fort ou j'bad ? OK Je play vos shit, je dors ou je baille ? J'fais une sheet, je tej' ou je garde ? J'ai la haine de pas être comme les autres, mon mon-mon iris devient rouge pâle Sasuke Je vois mmh, je vois qu'elle répond pas di-di-di-direct je me fais des films D'vant la salle de concert j'fais des files Je dois trouver la bonne prod j'fais défile En vrai gros faut pas que je perce... En tournée je vais brûler des villes ! Okaay Faire passer mes potos à la télé Faire passer vos rappeurs pour des filles P'tites fillettes mon frérot Des fillettes ma gueule Des fillettes J'ai vu des vrais, j'ai vu des acteurs J'ai étonné tous les rédacteurs J'ai capté la violence d'mes actes La dangerosité des jacteurs Tu m'ralentis comme un tracteur Invite-moi pas dans tes événements Si je viens, je viens jamais seul J'ramène des mauvaises nouvelles comme un facteur J'suis désolé c'est pas Elon Musk J'pose le C4 dans le réacteur J'ai RDV avec mon banquier J'arrive en noir comme un détraqueur Mes rimes profondes y a différentes couches Ta meuf se lave dans différentes douches J'arrête les interviews, t'facon c'est les mêmes questions dans différentes bouches J'suis dans un château ou j'suis dans la trap Le papier attend juste que je l'attrape Je sais pas ce que le rap a fait de moi La réussite attend que je la drague Quand j'étais nul y'avait personne Maintenant les concerts c'est Dirty Dancing Quand j'étais nul y'avait personne, sa mère, sa mère OK J'reviens d'là-bas où j'creusais, du seum sous les ongles, niveau du sable sous la gorge Il a les mains gonflées ou des Stan Smith ça l'aborde, l'avant-bras dépasse de la Porsche C'est des trompetistes, tant qu'maman est fière j'calculerai pas leurs disques Y a 3 ans tout est parti en couilles, j'suis passé du gentil rappeur au p'tit rat nocif BLV, hey zebi, tous tes morts, j'veux ta loyauté, l'fruit de ton charbon on va le dénoyauter Et si demain j'apprends qu't'es bizarre, j'vais t'exploiter organiser un plavon j'raconte rien au tel Echantillon pour les contenter, 5 chiffres minimum si tu veux tenter On dépense pas dans les boîtes, pas dans les bars, on dépensera uniquement dans les grands banquets J'suis en 4x4, parre-balle le kevlar il est anti-crevaison Grosse liasse me garde en flotaison, j'ai frôlé le placard quand je sortait ZON J'ai khalass la Boule Noire avec 10 meuj de C, une bonne chose de faite, sur la photo y a qu'des fucks Toujours avec les anciens shabs d'l'époque, on a besoin d'fonds, t'inquiète on les debloque Fils de pute on a patienté, quand tu m'croise j'suis jamais quasi opé J'suis cagoulé clochard j'vais rien siroter, bientôt on m'voit de partout comme Cassiopée Y a merdier, y en a pleins, qui manquent à l'appel Gros bolide, en double appel, on te visser à la pelle Ici bas, y a pas d'ange, tema tu vois y a pas d'ailes Quand j'ai dû nachave, y en très peu, qui ont passé des appels Attends tu croyais quoi, qu'j'etais con? Tu verras jamais plus vicieux, quand j'fais des ronds On va créer des liens, couper les ponts, manque d'inspiration j'repense au charbon, aux vies d'avant Dans un bolide bad grand, vers Ville-la-Grand, eux et nous tu sais très bien y a pas d'équivalant En vrai Dieu merci j'ai jamais fait mon pain en bavant sur les autres, vas-y venez maintenant Hey, hey J'veux différents garages, une maison à Marrakech, un appart à Ankara 10 millions de stream c'est cool, ok, mais j'veux la même en carats J'rêve de Louis en Carhartt J'dois valoir beaucoup plus, faut que j'devienne un cas rare Mon re-coeu en barrage Ca commence en confiance, ça finit plein d'embarras Hey Un be-tu encore un, un cagibis à Genève, un duplex à Santorin Beaucoup de faux, des torrents Tu veux jte confie quoi ? Tu jures sur le Coran J'vais écrire sans gommer, faire du biff sans comètes Toi tu parles sans connaître J'voulais pas chantonner, j'voulais trop faire des sous avec toi mais comme le riz t'as parlé cantonais J'ai pas bsoin de lui expliquer quoi que ce soit, moi, j'suis juste un vrai negro J'voile mon coeur et mon égo Ca se sent dans les négos On était bien en off, t'es pas le même quand y a des caméras J'le fait pour ma miff, j'le fait pour le frigo, j'le fait pour mes gars, mes rats Dans Genève, on m'appelle le R ou la chèvre Pas de trêve Vers chez moi on charbonne, mal payé pas de grève Les entailles sont très longues, il y en a pas de brèves J'coupe la prod à la scie, j'la décore à la SIMS, dans le ciel retrouve moi à la cime Ta meuf dans un lit, à l'autre bout de Genève, on la connait bien dans la team hey Hey, hm J'ai toujours étais le hm même quand j'étais r, j'serais toujours le même R dans le GTR J'resterais un gamin même si j'étais maire Les négros s'inspirent de moi comme si j'étais l'air J'ai commencé à le faire, tu m'as jeté l'oeil J'ai vu un kho et ta meuf au tel-ho J'me réveil, ... Rempli d'beaucoup d'jalousie comme Othello Hm, trop longtemps qu'jsuis bloqué dans la d J'veux du fric, faire des briques J'veux des coupes et des prix Mon flow tout droit venu des débris Dans la fête, j'cherche les prises Des fois c'était trop la déprime Des souvenirs, juste des bribes Un peu de zik pour que mon coeur se débride Si tu pleures c'est ma faute je sais Pour faire des be-tus faut qu'je saigne Tu récoltes c'que tu mets dans la terre donc des bonnes graines faut qu'je sème Le très haut faut qu'je craigne On va pas s'faire la bise J'pourrais te respecter mais pour ça faudrait qu'je t'aime J'ai beaucoup ou j'ai peu Est-ce que la gloire c'est chacun son tour ? J'ai envie d'aller ou c'est bleu Est-ce que là-bas les chagrins sont courts ? Si c'est ça j'crois qu'c'est bientôt moi J'me rappelle c'était bien l'coma Grandir c'est bien beau mais Perdre tous ses amis c'est bien traumat' J'rajoute des couleurs c'est bien trop mate Elle me laisse seul, ça fait bien trop mal Alors elle me laisse, donc j'ai mal au cou Haut niveau pour moi, c'est bien trop bas Tellement d'tristesse, ça s'dose pas Toi t'as changé d'la veille au soir J'suis pas sûr d'être une bonne personne J'ai envie d'tout lui dire, mais j'ose pas J'ai tout fait, tout fait par amour Appuie toi sur moi, j'suis là pour Kiffe, amuse-toi, j'suis la cour J'vais les rendre riches, j'suis la poule Tu veux qu'on parle, qu'on fasse semblant J'ai pas l'temps, vient on casse un tête Tellement d'blizzard, j'suis dans un del Parle moi pas d'un tel et un tel Tellement d'blizzard, j'suis dans ma peine J'espère qu'j'serai heureux dans ma Benz Imagine c'que j'serai sans toi Imagine c'que j'serai sans ma haine Imagine c'que j'serai sans ma haine Pas d'avance, pas d'attrait Pas d'avant, pas d'après Dans le ventre de la dar' déjà prêt Tes oreilles entourées à la craie Pas d'avance, donc abrège Pas d'vacances Ces méga tchoin n'auront pas d'avance Tu sais qui j'viens chercher à la crèche Pétasse arrêtes-moi ton cinéma Le cur bat fort sous le bruit des basses Des vrais négros y en a plus des masses J'ai rappé sale il a plu des balles Big R, L.U, y a plus d'débat Moi, les étoiles, y a plus d'écarts Sa grand-mère la reine des abeilles J'suis trop fou on dirait, j'ai bu des bars R R R R la cure, R la purge R la brume, R la brute On fait tous les week-end du shopping Elle fait quand même la... R la ..., R la plume R à plus, R la plus beau Beaucoup de demande de feat Mais c'est pas R la pub J'suis bon en attaque mais j'tiens grave à la fuite J'fais qu'manger, manger, je rentre plus dans mes futs Ne me parle pas la nuit J'ai v'là la quille Je me repose dessus, j'fais qu'des 4 à la suite Toujours dégoutant comme les clopes J'dis des trucs en boucle, j'ai des tocs J'suis un bot, j'connais pas la méthode Elle est conne, là-celui qu'est-ce qu'il est con J'fais confiance avant d'demander est-ce qu'il est bon ? C'est mon esprit les sons Enculé d'ta mère tu veux savoir Il est d'enculé l'salaire qu'tu peux avoir Détale, en bavant des mots dans ton bavoir La 'zik c'est mon chat noir J'voudrais faire brûler la Terre Quand j'buvais la mer, j'ai cultivé mon sel L'angoisse s'agrandit comme la taille de mon zen ... et j'crois qu'ça s'voit J'les applique pas mais j'donne grave de conseils Merci le R pour l'accueil, j'suis en vie J'vide mon cur, quand j'remplis ma feuille j'suis en vide J'me cherche en Sortir, j'ai pas envie Derrière moi j'laisserai qu'une carrière et un il J'suis pensif, ça m'rend incisif J'agis, puis j'disparais dans l'vide quantique Y a cent-mille violeurs, ils parlent 36 speechs T'es pas malin mais gros grandis vite Est-c'qu'on s'en sortira, je sais pas Journée répétitive comme jeu Pong sur la Sega J'suis con, la drogue fait des dégâts Elle parle à mes gars, l'ambition décale J'vaux 7 élixirs comme un P.E.K.K.A Elle m'dit je t'aime j'ai envie d'répondre pk? J'vois des droitards rapper, crari subversif J'aime les comparer à un déca Laisse, j'suis dans mes dièzes J'me sens plus charismatique quand j'suis dans mes dièzes J'suis dans la note grise, pas l'été dans les Benz J'aimerais raconter 108 mesures dans des 16 Y a pas de sesse-tris pour m'sentir en esprit Mais j'les comprends, j'fume ma merde c'est la même Là-celui, t'inquiète, c'est le sang c'est la veine Mais c'est du business, p'tet demain c'pas la même Le monde avance vite et moi j'l'ai trop r'gardé J'ai pris une avance en disant que j'étais retardé Ma confiance s'est étalée partout sur le parquet Alors pourquoi j'passe la journée à m'regarder ? Et à m'faire remarquer Faut pas faire crari Au début j'le faisais pour la p'tite 'rrari 'Rrari kit mains libres, crari j'pige que dalle Les notifs et le vide font une p'tite tenaille La prod j'la plie, j'me taille SO Kosei, SO Sectra On traîne dans la neige comme finlandais Demande moi pas si j'suis fine T'es connu grâce aux feat c'est la merde Tu r'ssemble à Ty Dolla ign OK, OK, comme Naps 0k comme zéro et K Pose le Kaloud sur le K Cheese, sourire devant la cam Wow, pétasse veut du cum Connu de Genève à Genève Bientôt Paris à London UK, my friend say my name Gio, Gio, Gio GOAT En fait partout c'est la même Donc quand toute les kichta s'alignent Les pétasse s'alignent Chez nous ça fume et lean pas Insh'Allah le chauffeur conduit bien J'aurai la flemme de parker ma Maybach Mash'Allah c'est c'que m'dit ma meuf Quand j'rap devant elle Ouais merci Habiba Wesh, Wesh poto vas faire pipi Vas faire pipi T'as l'air stressé quand tu pe-ra Okay Une raffale en tu-tu-tu-tu, binks hein-hein Esquiver tu peux pas Ça tabasse dans mon cochi Big R veut qudes gros chiffres Dans les frères jai fais lgros tri Les tarots jnégocie RC4 fuck ces crabes Jouvre la bouche du pe-ra jlui met le gros chibre Encore ma same shit Avec eux cest toujours le même disque Jrappais seul dans ma chambre au Ah ouh Jles voyais devenir vert comme Yoshi Appel manqué dvant lbtaoshi Des avions de coke, des bateaux de shit Elle se maquille, jdevins dodgy Jlaime un peu trop, cest pas toxique Mec je crois qujsuis un génie Quand je meurs on me découpe Le cerveau on mautopsie Dans le Sud, des vacances je mautorise Bsoin de personne, je mauto-psy hey Gros-gros tinquiète, idée noire jélimine hey-hey Ces ngros veulent tester mes limites hey-hey Jai rappé comment jvoyais les choses comment ? Caméra veut tester mes gimmiks mh-mh Elle fait trop, tous les jours, la timide, alors que Elle me kiffe, même parfois elle mimite okay Mh-mh des tminiks Kilomètres, cest 10 000 ouh Ouh, paradis, hé hé, ouh SO Solanci, Tivoli, Madame N'Diaye, tous les producteurs, tous les rappeurs de Genève SO Genève surtout, ok J'brille dans l'noir comme une balise Vol long courrier, j'ai pas d'valise, no one rivalise Ma route semée d'embûches, ma route pas lisse Habiba vient du bled elle s'appelle pas Lise Came et rats, moi et ma vie devant la caméra Fais l'fou, tu finis sans cheveux comme Kad Merad Guinea Black, Harry Black, Viper Black J'suis moche mais elle me kiffe parce que j'fais des super blagues Tue la prod dans le sas, gratte le rap dans le faf J'essaie d'être propre, s'ouvre les yeux dans le sale Big R, méga Gio, tu rap méga choke À droite mes gadjis ah, à gauche mes gadjos Les potos veulent une meilleure vie, en fumant l'meilleur shit On parle comme si de rien, juste à côté l'PRJ J'pisse là où la frayeur chie, j'rêve d'une autre vue Un meilleur mic, un meilleur Mac, un meilleur lit J'avance vite, fuck ces bitches et ces négros indécis R comme Roi, j'rentre au bled comme Mohamed VI Tu m'fais croire qu't'es normal, mais wallh qu't'as des tics De faux negros et surtout pas d'éthique, hey Big R dans tes enceintes, la prod je mets enceinte Elle va agir en diablesse, mais me parler en sainte Je t'ai aimé en vain, je te voyais en zin J'veux pas attendre l'autre joue, j'transforme pas l'eau en vin Frérot, j'vois tes yeux s'allumer quand j'transforme deux en vingt J'veux pas attendre l'autre joue, j'transforme pas l'eau en vin J'vois tes yeux s'allumer quand j'transforme deux en vingt2</t>
+          <t>Hey, hey Ça fait bientôt six ans qu'j'vais dormir à 6 du mat' J'ai plus de batterie, j'me vois éteint dans la vitre du Mac, hey Tout est carré, j'me rappelle j'tais tout égaré Dans mes rêves j'achète six Mercos, j'te rappelle quand tout est garé Autour de moi tous des tarés, j'sais pas si tu captes On s'embrouille vite fait J'l'appelle en mode salm sis', tu dates?, hey J'taille si tu gâtes, j'me lève tôt J'ai d'l'or dans les mains, un cur en pierre, hey Ça va t'faire mal aux doigts si tu grattes, hey Ils essayent trop, mais ça marche jamais J'veux leur montrer un peu, vas-y, ça me gêne beaucoup Moi j'peux l'faire debout, couché, assis C'est un chien, donc j'le laisse coucher assis J'me r'sers un Sanpe' cassis, j'suis avec Sofia et Kassim, hey Entre nous, c'est pas égal si, quand t'étais jeune, c'était simple J'rap, avant j'faisais des dessins ou sur Arma 3, j'les dézingue Ceux avec qui j'traîne c'est mes zins Faire genre qu'tu m'aimes, c'est mesquin Elle me dit aïe, arrête de mordre C'est pas des gâteaux, c'est mes s... J'm'amuse, a'ec eux comme Frank dans l'hôpital Toujours y a un gars qui veut m'faire J'arrive, et hop il taille Trop de serpents, trop d'mygales Moi et eux c'est trop brutal Toi et eux c'est trop buccal J'prends un cheese, un tropi... J'avais peur, j'ai pris les devants Direct, j'ai parlé aux cieux J'demande des trucs comme dehors J'prends des vents, j'ai pas froid aux yeux J'veux la pâtisserie et l'gâteau J'veux les billets et l'cadeau Des GTX, des Elgato J'l'appelle poupée comme Delgado Tu préfères percer sur Netflix Ou dans la street, débattons Elle veut qu'on parte loin sur une île Elle en peut plus de moi dès l'bateau Des barres de fer, des bâtons Des rimes compliquées, des bateaux J'arrive vitesse d'escargot Noir, comme le chat d'Edgar Poe Ok, c'est bientôt la guerre mon frère Est-ce qu'on se croise sur le champ? On tire ensemble sur les gens, ou on s'entre-tue sur le chant J'pourrais lui donner mes affaires Quand elle fredonne sur le vent, j'aime trop quand on a rien à faire Quand elle s'allonge sur le ventre Trop de pensées dans ma tête Ça se reproduit comme des cafards Trop de bavards, je dors jamais, j'ai les cernes de Jaffar Oh, ça va gros, tout autour ça avale Je vous vois, j'le refais, eh eh, je demande pas d'a Ça, ça, ça fait bientôt six ans, j'vais dormir à 6 du mat', hey J'ai plus d'batterie, j'me vois éteint dans la vitre du Mac, hey Tout est carré, j'me rappelle j'tais tout égaré Dans mes rêves j'achète six Mercos et j'te rappelle quand tout est garé Hey, hey hey, hey hey Hey, j'tue la prod, j'ai un déjà-vu J'évite les bandeurs, j'évite les cavus J'viens d'là où on récupère les plus gros trophées J'sais où c'est, j'étais déjà v'nu Il a dit non, j'veux le faire pour voir Rap sur ma vie comme si j'ai un pouvoir Elle a fait sortir d'mon cur tous mes sentiments Elle a bien taffé, elle veut un pourboire J'ai la dope pour les fous, Gelato sur les coups Écouteurs pour les sous, tête acquiesce pour l'écoute, hey Y a une manière, y a pas mille façons Comme dans l'arrache j'suis dans l'truc à fond, hey J'fais le vide dans ma tête, et, j'mets tout dans le caleçon, hey Le tapis vers la Mecque mais je suis vert de ouf Le tapis vers la Mecque Le tapis vers la, la Mecque Mais je suis vert de ouf, hey Ouais je suis vert de, de ouf Tout vert comme à Namek, hey Le tapis vers la, la Mecque Mais je suis vert de, de ouf Let's go Ouais je suis vert de, de, hey Hey hey hey Jamais content ça va pas dans ma tête L'son est sorti, j'écoute la maquette Hey, le rap-jeu j'ai trouvé la manette J'veux voir enfin l'inté' d'la malette Faut, faut, faut qu'j'encaisse vi, vi, vite Qu'je supprime ce putain d'mal-être Hey, j'deviens fou comme Malek J'aime brûler les boss, enlever les putains d'mal-êtres J'suis dans l'stud que des feux sanglants, j'suis dans l'stud j'ai tout dit j'ai pas fait semblant, hey, hey Faut jamais faire semblant Un vrai message ça Pour tous mes descendants Comme le vendeur à chaque transaction J'fais les mêmes erreurs, j'fais les mêmes actions Ouais je veux tout, pas d'fractions Hum, j'ai la même faction La dalle comme un frigo La dalle Un bip et elle crie go, hum T'es cramé de bâtard comme un putain de gringo, hum J'suis avec ma pine-co Zéro sur l'revo dans mon bigo Frérot chez l'voisin c'est la même On est vert de ouf, vert de ouf, hey Au moins j'espère que j'vais mourir debout sa mère Han han Le tapis vers la Mecque Mecque, mais je suis vert de ouf Ouais je suis vert de, de ouf Tout vert comme à Namek, ok Le tapis vers la, la Mecque Mais je suis vert de, de ouf Ouais je suis vert de, de, hey Hey Vert comme à Namek, hey Hum Hey, mh Te fin d'hmm Big R, j'suis banal J'ai même pas d'devise Tellement j'rap tous les jours J'ai même pas de vie Tu l'as pas J'ai la coupe T'as la goutte J'vais chez le best pour la coupe Les bagages dans la soute je crache Et tu bois dans la sou, sou, soupe Twitte sur moi, vas-y twitte Vas-y twitte Elles me kiffent, c'est des twins Le big R dans le rap, c'est un complot comme les twins Hey, pour de vrai, pas de faux semblants Dans un del, électrique J'ai les moves et les tricks Fuck les bountys et les twixs J'fais plus de biff pour les fins d'mois Elle mange rien, elle a que faim d'moi Je lui sers, il a les mains moites Pourtant on s'est vu plein d'fois Le rap-jeu, moi je vois plein d'foires Le Big R, plein de force plein de foi Tu me plains mais tu veux plaindre quoi gros ? Oh, OK Mais tu veux plaindre quoi gros ? Vert de ouf Le tapis vers la Mecque, mais je suis vert de ouf J'la fais courte le regard en dit long Un bonnet en plastique un joggo en nylon Des millions sous mes cheveux mi-longs J'fais d'la D mais elle reste parce que je suis mignon La bataille sous ma capuche Je sais pas si t'as capiche ? C'est Big R la ca, j'guette la ville de la capit' Elle me kiffe trop j'la câline Des couz, des latinas et des kabyles Plus jamais, plus jamais, plus jamais, plus jamais Le feu bleu est sorti du carnet Plus jamais je doute que j'ai la clé Plus jamais, plus jamais Never, plus jamais Never, plus jamais OK Le feu bleu est sorti du carnet Plus jamais je doute que j'ai la clé Que du harr Harr à l'ancienne comme le tar J'vais t'fumer en secret comme le Tsar J'pense aux sous dans le caz' J'vais vers le ciel, je rêve de Porsche dans le car Ta tête acquiesce la routine quotidienne Besoin de diamant Big R obsidienne J'ai le feu j'ai l'oxygène Coupe la shit pas besoin d'opinel, okay Plus jamais, plus jamais, plus jamais, plus jamais Le feu bleu est sorti du carnet Plus jamais je doute que j'ai la clé Plus jamais, plus jamais, plus jamais, plus jamais Le feu bleu est sorti du carnet Plus jamais je doute que j'ai la clé Un problème, deux problèmes, j'me tâte J'me tight J'oublie les visages comme Brad Des concerts partout dans la France Donc je déserte le taf 0-1 Deux ou trois mois que j'ai pas bien mang J'vais casser avec six dates J'vais m'refaire des pâtes, gros On change pas une routine qui date Ici les tours m'font de l'ombre Ici, ici j'mets l'argent en tombe, ho Pardon, à Dieu, quand j'me trompe Ta madame me DM, elle veut qu'j'visite ses trompes, hey Dans un métro, dans un Uber, j'veux l'argent et le compte du beurre La liberté en statue, c'est che-lou, mais j'me sens mieux qu'à Auber' Donc, j'repense au vice et je serre, j'prends la raquette et je sers Sous la cagoule comme le 7 Ils m'voient en louche comme la cuisinière, hey Oh my god, elle me caresse comme un cat Y a la monnaie qui m'attrape, y a la paresse qui m'attend, toi Toi, toi, tu frimes et tu dribble, sans les trippes c'est du fake C'est pas marrant, hey Tu fumes la , tu vends la J'vais tout dire à ta maman Hey, hey, hey, hey Je frappe dans le mur je fais couler l'dème C'est moi dans ma vie je dis rien de plus Toujours la même j'ai usé le thème J'aime, j-j-j'aime, quand la money fait vibrer le tél Plein de chemins mais je prend lequel ? quand j'ai trop le dem' Hey, hey hey ok Devant les billets on s'emballe pas Je frappe dans le micro et 100 balles partent Je rejoins le G en plein Central Park Hey, hey-hey, hey J'amène ma belle dans les meilleurs suites J'ai traversé des épisodes sombres J'ai prié Dieu pour une meilleure suite Les meilleures pâtes, les meilleures huîtres J'ai fais un rêve où je rigole fort J'me suis fais virer d'partout en France Je prends sur moi je serais le meilleur Suisse Hey, hey-hey, hey Bébé quand tu parles je deviens gris Ngro quand tu parles je deviens green Aujourd'hui noir demain j'reviens j'brille Hey, hey-hey, hey Je vous suis pas chui le mob Je vous suis pas chui le mob Je vous suis pas ch-chui le mob Je vous suis pas chui le mob Je vous suis pas chuuuuuui le mob Je vous suis pas chui le mob Je vous suis pas ch-chui le mob Hey, hey-hey, hey Je parle pas comme un antisocial Je rappe pas pour séparer les gens Dans les oreilles dans d'Andy et Sofyan ? So Phaal so Alpha Wann, hey Dans la savane comme un vrai sauvage Je reste à fond quand le vaisseau bad sa mère Sa mère o-o-ok, hey Je vous suis pas chui le mob Je vous suis pas ch-chui le mob Je vous suis pas chui le putain de mob Je vous suis pas chui le mob Je vous suis pas chui le mob Je vous suis pas chui le mob Chui le putain de mob Je vous suis pas chui le mob Je vous suis pas chuuuui le mob Je vous suis pas ch-chui le mob Chui-chui, je vous suis pas chui le mob Hey, je vous suis pas chui le mob Hey, je vous suis pas ch-chui le mob Okay, yeah Toi aussi t'as un pseudo mec, heu ... j'sais pas d'où tu l'sors, mais ... what the f GMK Let's go GMK, c'est très aberrant ma gueule GNV, Annemasse crescendo vie Hein hein yeah J'suis en apesanteur Fini de plaisanter J'suis pas comme tes rappeurs Flemme de me présenter Vrai G's, amoureux des moshpits Ma mère crois en moi, il faut pas que je rate ma ... J'ai le coeur qui bas et la tête qui bouge Et des rimes tellement riches j'fais du rap de bourge Trois rounds blessé mais j'reste debout J'crois qu'j'suis né pour ça alors rien qu'j'débite Bigo qui sonne j'ai mis ne pas déranger Au studio c'est chimique ça devient dangereux Rap illicite interdit aux moins d'dix-huit Elle m'dit , j'retire USD Dossier sensible sous USB Bientôt partout comme une MST J'me demande qui pourra nous ... Huit heure du mat' j'suis sur GVA J'quitte le trois étoiles et j'me crois dans GTA J'étais en boîte eux ils étaient sous GHB Pendant qu'je repensais à la prod que j'ai acheté Jamais tu me revois en GAV Tu vis c'que j'vis mon rap est en POV J'rentre dans la trap j'leur dis Cette shit balance trop comme bhoper Jfais des sous Cest des faits Le maillot de madame sest défait Cest pas des tatouages cest des veines Jarrive à CDG avec du CDG RAP jai la CDF Jsuis avec G et K Jsuis dans un GLK Arrivée dcelle de GMK Jsuis fais une DFK Cest pas une DSK Jsuis pas en RES Jlibère des avants-posts sur ma PS4 Tous pour fatiguer la TN Dans mon ADN Jsuis avec MDS avec ADM Jsuis dans un BM Jsuis pas mh-mh jregarde des fourmis sur ADN Da-damn Du lait et des DM Ta tchoin dans mes DM DMG je DL Une liasse dans ma TL Jcalcule même pas ton avis dans ma TL Hun-hun réel Y a tout ce quil faut dans le bag dans le bag Dans le bank account moins 400 Mais jgaspille tout comme un woaf woaf comme un dog La 808 fait lmême flow dun AK-K, ah gars-gars Jfais les sous jdeviens un number 2K22 gang on my way Jai le toupet, jreste on my way on my way Jai mis les fakes à la poubelle Comme les cannettes vides en fin de soirées G-I-O cest lacronyme Cest la chronique de chaque petits morceaux de vie de ma life Tes plus dans le game tes AFK -FK Tu perds abonnés, tes offusqué Pa- pa-parfum senteure musquée pour son ptit nez Pas faim, mais jvais manger je graille On va tCDG si tu parles mal si tu On va télever si tu parles mal si tu Tes en LV mais tu tsappes mal tu te Jfais des AVC quand je vois ça quand je Il fait chaud, on est pas des froussards Plein de capitaines donc, plein de brassards Cest aberrant -berrant Faire du rap cest devenu amusant amusant Jfais des sous jfais des sous à mes sangs à mes sangs Toutes mais on fait tout à mon sens G-I-O comme à GPS à bon sens hey, ok Très très très qualitatif, très très très aberrant Genève 1213, Lancy , merci madame N'Diaye, so Ivan, so Nessip, so tous les khos So tous les khos 12-13 Lancy, Tivoli yeah yeah yeah yeah DEMNA, DEMNA J'ai la haine, c'est léger J'gratte un truc et c'est géré J'suis un vrai si j'le fais pas j'pense que j'vais dégénérer Féneri, Panerai j'respecte pas ce que vous vénérez J'y crois a fond mais un jour j'ai douté ça m'a fait serrer de ouf La dalle de bouffe et de sous Léthale est la mentale du zoo J'ai l'inspi a 6h30 J'ai de tout comme les gars du souk Pleure mes défunts, j'l'aime de trop Elle me met des feintes tous les jours J'tabasse mes démons c'est le R contre une équipe de foot J'ai pas réussi, j'voulais faire un truc poignant TSL en YSL tout le monde t'aime mais moi non J'suis dans l'fond du truc a fond comme si j'retardais ma mort J'étais triste mais j'avais faim donc j'ai ravalé ma morve Big R unique au monde J'sors la meilleure eau du puit J'suis un gars calme, j'habite à la gare là où y a tout le temps du bruit J'suis en train de réaliser, j'réalise mes rêves tristement Quand j'étais p'tit j'savais pas, au ciné les actrices te mentent J'ai toujours l'impression qu'elle ment Même quand elle me dit qu'elle m'aime Mais y a qu'elle que j'veux vraiment Je sais qu'elle le verra d'elle même J'étais bien avant tout ça Quand l'daron demandait quelle main Maintenant j'stresse quand je dois répondre La boulangère m'demande quel pain J'ai des RDV Pense pas que je gâte C'est toi tu m'as jamais capté Dis pas que je date Les faux que je ban Ma haine que je ... J'ai découvert la haine au bled depuis que je plane J'ai des RDV pense pas que je gâte C'est toi tu m'as jamais capté Dis pas que je date Ma peine que je ban Les faux que je ban J'ai découvert la haine au bled depuis que je ... Kichta dans le jean men J'pull up avec mes X-Men On est pas idem J'fuck pas avec ces pussy Ils m'font mal au crâne je smoke ma médecine Elle a kiffé le trois, ta baddie fait le signe On va passer de la kitchen à la piscine Pour les pessos je run comme Usain double cup J'met les phéners dans la toséine double cup Demande à , faut qu'tu cash in J'sors de lRS6 j'sors pas du quartier J'suis pas la pour le kiff, le frère, il m'faut les papiers Donc v'la les prods que j'assassine Que des passes dé dans la surface comme Zinedine Dès que j'ai assez graille je disparaît comme Presley Boutton rouge, j'sais pas, y a un truc qui me dit presse-le Nan, jamais je me stoppe tant que le sac pèse peu Faire l'argent ou je la fais et bah je fais les deux Je fais les deux mon gars Grünt, Rounhaa, hey Les Air Force sont salies, j'vais rach'ter une paire flemme de les nettoyer Et j'aime trop ma baby, bientôt j'lui paie bague love de chez Cartier Maman m'a agréé, elle bouge la tête quand j'rappe fort dans la son-mai I don't trust nobody I don't trust nobody, sauf Hakim, Ivan, Marco, Haroun Dans le plat, j'suis l'arôme Tu vas tout graille comme dans un resto à Rome Qu'est ce qui fais chaud c'est un saloon Mal rapper chez nous c'est tabou c'est tabou gros C'est nous ya piscine et ping-pong, Gio rap dans les South C'est chaud, han Trahir on ne fait pas ça nous Disque d'or avant mon salut ouais salam Promis j'ai rien dans les poches, Gio ne rate pas le coche Le temps qui passe, qui passe, les cases de mes rêves qui se cochent Tu serais p'tet allé plus loin dans la vie, si t'étais moins moche ok Hey hey, han han, hey hey Mon argent est sali, j'e mets sous le matelas, pas chez le banquier Et j'aime trop ma baby, bientôt je lui pète villa loin du quartier, très loin T'as pas la maille ni le pistolet donc viens pas me faire le bandit gros han I don't trust nobody, hey I don't trust nobody sauf ma mère, hey, ma reus' On va pull up comme Major Lazer Je passe mes exams je dis Mazel tov ! Chui sur une île on m'masse le torse J'écoute leurs sons je soupire tousse, gros C'est Gio kalashnikov, Gio rappeur qui kick off, han J'viens d'Genève la ville à Titeuf T'es la demande sin-cou chui l'offre, hey Carré carré carré T'es la demande, sin-cou, j'suis l'offre Grosse dédicace, à tous les quartiers comme on a dit, Tivoli, 12-13 Lancy, madame N'Diaye Grande commune grande com' Hey, hey Avant tout on le fait pour mieux vivre, vraiment pas pour que t'aimes Avant tout on le fait pour mettre bien la mif, vraiment pas pour te ken' J'arrive pas trop à m'y faire, j'avance petit à petit Tu frimes et j'ai plus la dalle que toi j'kiffe pas ton p'tit appétit Hey, hey-hey mmh J'ai pas un sale avenir, j'ai du sale à venir du très très sale Putain de merde Le frère veut m'arnaquer je trouve ça à vomir J'ai un style tu veux mille tu veux mille Je donne cent tu veux mille Elle veut que je m'habille classe, qu'on aille vivre à Venise Les frères ont la tête dans le gaz Monte le son quand ils passent mon couplet dans la caisse Le Sheitan veut m'avoir à la mort J'le vois rôder vendre du rêve dans la tess' On était bien c'est fini, j'le montre pas mais tu sais ça me blesse Ici il fait froid j'me sens mieux dans mon bled J'me sens mieux dans mon bled Guess who's back ? frérot who's back ? J'me - j'me pose des questions de fou Du genre ? Est-ce qu'elle va faire des bêtises ? Quoi d'autre ? Est-ce que je suis le plus fort ou j'bad ? OK Je play vos shit, je dors ou je baille ? J'fais une sheet, je tej' ou je garde ? J'ai la haine de pas être comme les autres, mon mon-mon iris devient rouge pâle Sasuke Je vois mmh, je vois qu'elle répond pas di-di-di-direct je me fais des films D'vant la salle de concert j'fais des files Je dois trouver la bonne prod j'fais défile En vrai gros faut pas que je perce... En tournée je vais brûler des villes ! Okaay Faire passer mes potos à la télé Faire passer vos rappeurs pour des filles P'tites fillettes mon frérot Des fillettes ma gueule Des fillettes J'ai vu des vrais, j'ai vu des acteurs J'ai étonné tous les rédacteurs J'ai capté la violence d'mes actes La dangerosité des jacteurs Tu m'ralentis comme un tracteur Invite-moi pas dans tes événements Si je viens, je viens jamais seul J'ramène des mauvaises nouvelles comme un facteur J'suis désolé c'est pas Elon Musk J'pose le C4 dans le réacteur J'ai RDV avec mon banquier J'arrive en noir comme un détraqueur Mes rimes profondes y a différentes couches Ta meuf se lave dans différentes douches J'arrête les interviews, t'facon c'est les mêmes questions dans différentes bouches J'suis dans un château ou j'suis dans la trap Le papier attend juste que je l'attrape Je sais pas ce que le rap a fait de moi La réussite attend que je la drague Quand j'étais nul y'avait personne Maintenant les concerts c'est Dirty Dancing Quand j'étais nul y'avait personne, sa mère, sa mère OK J'reviens d'là-bas où j'creusais, du seum sous les ongles, niveau du sable sous la gorge Il a les mains gonflées ou des Stan Smith ça l'aborde, l'avant-bras dépasse de la Porsche C'est des trompetistes, tant qu'maman est fière j'calculerai pas leurs disques Y a 3 ans tout est parti en couilles, j'suis passé du gentil rappeur au p'tit rat nocif BLV, hey zebi, tous tes morts, j'veux ta loyauté, l'fruit de ton charbon on va le dénoyauter Et si demain j'apprends qu't'es bizarre, j'vais t'exploiter organiser un plavon j'raconte rien au tel Echantillon pour les contenter, 5 chiffres minimum si tu veux tenter On dépense pas dans les boîtes, pas dans les bars, on dépensera uniquement dans les grands banquets J'suis en 4x4, parre-balle le kevlar il est anti-crevaison Grosse liasse me garde en flotaison, j'ai frôlé le placard quand je sortait ZON J'ai khalass la Boule Noire avec 10 meuj de C, une bonne chose de faite, sur la photo y a qu'des fucks Toujours avec les anciens shabs d'l'époque, on a besoin d'fonds, t'inquiète on les debloque Fils de pute on a patienté, quand tu m'croise j'suis jamais quasi opé J'suis cagoulé clochard j'vais rien siroter, bientôt on m'voit de partout comme Cassiopée Y a merdier, y en a pleins, qui manquent à l'appel Gros bolide, en double appel, on te visser à la pelle Ici bas, y a pas d'ange, tema tu vois y a pas d'ailes Quand j'ai dû nachave, y en très peu, qui ont passé des appels Attends tu croyais quoi, qu'j'etais con? Tu verras jamais plus vicieux, quand j'fais des ronds On va créer des liens, couper les ponts, manque d'inspiration j'repense au charbon, aux vies d'avant Dans un bolide bad grand, vers Ville-la-Grand, eux et nous tu sais très bien y a pas d'équivalant En vrai Dieu merci j'ai jamais fait mon pain en bavant sur les autres, vas-y venez maintenant Hey, hey J'veux différents garages, une maison à Marrakech, un appart à Ankara 10 millions de stream c'est cool, ok, mais j'veux la même en carats J'rêve de Louis en Carhartt J'dois valoir beaucoup plus, faut que j'devienne un cas rare Mon re-coeu en barrage Ca commence en confiance, ça finit plein d'embarras Hey Un be-tu encore un, un cagibis à Genève, un duplex à Santorin Beaucoup de faux, des torrents Tu veux jte confie quoi ? Tu jures sur le Coran J'vais écrire sans gommer, faire du biff sans comètes Toi tu parles sans connaître J'voulais pas chantonner, j'voulais trop faire des sous avec toi mais comme le riz t'as parlé cantonais J'ai pas bsoin de lui expliquer quoi que ce soit, moi, j'suis juste un vrai negro J'voile mon coeur et mon égo Ca se sent dans les négos On était bien en off, t'es pas le même quand y a des caméras J'le fait pour ma miff, j'le fait pour le frigo, j'le fait pour mes gars, mes rats Dans Genève, on m'appelle le R ou la chèvre Pas de trêve Vers chez moi on charbonne, mal payé pas de grève Les entailles sont très longues, il y en a pas de brèves J'coupe la prod à la scie, j'la décore à la SIMS, dans le ciel retrouve moi à la cime Ta meuf dans un lit, à l'autre bout de Genève, on la connait bien dans la team hey Hey, hm J'ai toujours étais le hm même quand j'étais r, j'serais toujours le même R dans le GTR J'resterais un gamin même si j'étais maire Les négros s'inspirent de moi comme si j'étais l'air J'ai commencé à le faire, tu m'as jeté l'oeil J'ai vu un kho et ta meuf au tel-ho J'me réveil, ... Rempli d'beaucoup d'jalousie comme Othello Hm, trop longtemps qu'jsuis bloqué dans la d J'veux du fric, faire des briques J'veux des coupes et des prix Mon flow tout droit venu des débris Dans la fête, j'cherche les prises Des fois c'était trop la déprime Des souvenirs, juste des bribes Un peu de zik pour que mon coeur se débride Si tu pleures c'est ma faute je sais Pour faire des be-tus faut qu'je saigne Tu récoltes c'que tu mets dans la terre donc des bonnes graines faut qu'je sème Le très haut faut qu'je craigne On va pas s'faire la bise J'pourrais te respecter mais pour ça faudrait qu'je t'aime J'ai beaucoup ou j'ai peu Est-ce que la gloire c'est chacun son tour ? J'ai envie d'aller ou c'est bleu Est-ce que là-bas les chagrins sont courts ? Si c'est ça j'crois qu'c'est bientôt moi J'me rappelle c'était bien l'coma Grandir c'est bien beau mais Perdre tous ses amis c'est bien traumat' J'rajoute des couleurs c'est bien trop mate Elle me laisse seul, ça fait bien trop mal Alors elle me laisse, donc j'ai mal au cou Haut niveau pour moi, c'est bien trop bas Tellement d'tristesse, ça s'dose pas Toi t'as changé d'la veille au soir J'suis pas sûr d'être une bonne personne J'ai envie d'tout lui dire, mais j'ose pas J'ai tout fait, tout fait par amour Appuie toi sur moi, j'suis là pour Kiffe, amuse-toi, j'suis la cour J'vais les rendre riches, j'suis la poule Tu veux qu'on parle, qu'on fasse semblant J'ai pas l'temps, vient on casse un tête Tellement d'blizzard, j'suis dans un del Parle moi pas d'un tel et un tel Tellement d'blizzard, j'suis dans ma peine J'espère qu'j'serai heureux dans ma Benz Imagine c'que j'serai sans toi Imagine c'que j'serai sans ma haine Imagine c'que j'serai sans ma haine Pas d'avance, pas d'attrait Pas d'avant, pas d'après Dans le ventre de la dar' déjà prêt Tes oreilles entourées à la craie Pas d'avance, donc abrège Pas d'vacances Ces méga tchoin n'auront pas d'avance Tu sais qui j'viens chercher à la crèche Pétasse arrêtes-moi ton cinéma Le cur bat fort sous le bruit des basses Des vrais négros y en a plus des masses J'ai rappé sale il a plu des balles Big R, L.U, y a plus d'débat Moi, les étoiles, y a plus d'écarts Sa grand-mère la reine des abeilles J'suis trop fou on dirait, j'ai bu des bars R R R R la cure, R la purge R la brume, R la brute On fait tous les week-end du shopping Elle fait quand même la... R la ..., R la plume R à plus, R la plus beau Beaucoup de demande de feat Mais c'est pas R la pub J'suis bon en attaque mais j'tiens grave à la fuite J'fais qu'manger, manger, je rentre plus dans mes futs Ne me parle pas la nuit J'ai v'là la quille Je me repose dessus, j'fais qu'des 4 à la suite Toujours dégoutant comme les clopes J'dis des trucs en boucle, j'ai des tocs J'suis un bot, j'connais pas la méthode Elle est conne, là-celui qu'est-ce qu'il est con J'fais confiance avant d'demander est-ce qu'il est bon ? C'est mon esprit les sons Enculé d'ta mère tu veux savoir Il est d'enculé l'salaire qu'tu peux avoir Détale, en bavant des mots dans ton bavoir La 'zik c'est mon chat noir J'voudrais faire brûler la Terre Quand j'buvais la mer, j'ai cultivé mon sel L'angoisse s'agrandit comme la taille de mon zen ... et j'crois qu'ça s'voit J'les applique pas mais j'donne grave de conseils Merci le R pour l'accueil, j'suis en vie J'vide mon cur, quand j'remplis ma feuille j'suis en vide J'me cherche en Sortir, j'ai pas envie Derrière moi j'laisserai qu'une carrière et un il J'suis pensif, ça m'rend incisif J'agis, puis j'disparais dans l'vide quantique Y a cent-mille violeurs, ils parlent 36 speechs T'es pas malin mais gros grandis vite Est-c'qu'on s'en sortira, je sais pas Journée répétitive comme jeu Pong sur la Sega J'suis con, la drogue fait des dégâts Elle parle à mes gars, l'ambition décale J'vaux 7 élixirs comme un P.E.K.K.A Elle m'dit je t'aime j'ai envie d'répondre pk? J'vois des droitards rapper, crari subversif J'aime les comparer à un déca Laisse, j'suis dans mes dièzes J'me sens plus charismatique quand j'suis dans mes dièzes J'suis dans la note grise, pas l'été dans les Benz J'aimerais raconter 108 mesures dans des 16 Y a pas de sesse-tris pour m'sentir en esprit Mais j'les comprends, j'fume ma merde c'est la même Là-celui, t'inquiète, c'est le sang c'est la veine Mais c'est du business, p'tet demain c'pas la même Le monde avance vite et moi j'l'ai trop r'gardé J'ai pris une avance en disant que j'étais retardé Ma confiance s'est étalée partout sur le parquet Alors pourquoi j'passe la journée à m'regarder ? Et à m'faire remarquer Faut pas faire crari Au début j'le faisais pour la p'tite 'rrari 'Rrari kit mains libres, crari j'pige que dalle Les notifs et le vide font une p'tite tenaille La prod j'la plie, j'me taille SO Kosei, SO Sectra On traîne dans la neige comme finlandais Demande moi pas si j'suis fine T'es connu grâce aux feat c'est la merde Tu r'ssemble à Ty Dolla ign OK, OK, comme Naps 0k comme zéro et K Pose le Kaloud sur le K Cheese, sourire devant la cam Wow, pétasse veut du cum Connu de Genève à Genève Bientôt Paris à London UK, my friend say my name Gio, Gio, Gio GOAT En fait partout c'est la même Donc quand toute les kichta s'alignent Les pétasse s'alignent Chez nous ça fume et lean pas Insh'Allah le chauffeur conduit bien J'aurai la flemme de parker ma Maybach Mash'Allah c'est c'que m'dit ma meuf Quand j'rap devant elle Ouais merci Habiba Wesh, Wesh poto vas faire pipi Vas faire pipi T'as l'air stressé quand tu pe-ra Okay Une raffale en tu-tu-tu-tu, binks hein-hein Esquiver tu peux pas Ça tabasse dans mon cochi Big R veut qudes gros chiffres Dans les frères jai fais lgros tri Les tarots jnégocie RC4 fuck ces crabes Jouvre la bouche du pe-ra jlui met le gros chibre Encore ma same shit Avec eux cest toujours le même disque Jrappais seul dans ma chambre au Ah ouh Jles voyais devenir vert comme Yoshi Appel manqué dvant lbtaoshi Des avions de coke, des bateaux de shit Elle se maquille, jdevins dodgy Jlaime un peu trop, cest pas toxique Mec je crois qujsuis un génie Quand je meurs on me découpe Le cerveau on mautopsie Dans le Sud, des vacances je mautorise Bsoin de personne, je mauto-psy hey Gros-gros tinquiète, idée noire jélimine hey-hey Ces ngros veulent tester mes limites hey-hey Jai rappé comment jvoyais les choses comment ? Caméra veut tester mes gimmiks mh-mh Elle fait trop, tous les jours, la timide, alors que Elle me kiffe, même parfois elle mimite okay Mh-mh des tminiks Kilomètres, cest 10 000 ouh Ouh, paradis, hé hé, ouh SO Solanci, Tivoli, Madame N'Diaye, tous les producteurs, tous les rappeurs de Genève SO Genève surtout, ok J'brille dans l'noir comme une balise Vol long courrier, j'ai pas d'valise, no one rivalise Ma route semée d'embûches, ma route pas lisse Habiba vient du bled elle s'appelle pas Lise Came et rats, moi et ma vie devant la caméra Fais l'fou, tu finis sans cheveux comme Kad Merad Guinea Black, Harry Black, Viper Black J'suis moche mais elle me kiffe parce que j'fais des super blagues Tue la prod dans le sas, gratte le rap dans le faf J'essaie d'être propre, s'ouvre les yeux dans le sale Big R, méga Gio, tu rap méga choke À droite mes gadjis ah, à gauche mes gadjos Les potos veulent une meilleure vie, en fumant l'meilleur shit On parle comme si de rien, juste à côté l'PRJ J'pisse là où la frayeur chie, j'rêve d'une autre vue Un meilleur mic, un meilleur Mac, un meilleur lit J'avance vite, fuck ces bitches et ces négros indécis R comme Roi, j'rentre au bled comme Mohamed VI Tu m'fais croire qu't'es normal, mais wallh qu't'as des tics De faux negros et surtout pas d'éthique, hey Big R dans tes enceintes, la prod je mets enceinte Elle va agir en diablesse, mais me parler en sainte Je t'ai aimé en vain, je te voyais en zin J'veux pas attendre l'autre joue, j'transforme pas l'eau en vin Frérot, j'vois tes yeux s'allumer quand j'transforme deux en vingt J'veux pas attendre l'autre joue, j'transforme pas l'eau en vin J'vois tes yeux s'allumer quand j'transforme deux en vingt2</t>
         </is>
       </c>
     </row>
@@ -1670,7 +1670,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Tu vois c'canapé ? Y'a l'angle au fond, j'suis assis là Que l'DJ soit Kheops, Abdel ou Cut Killa Da c'est pareil j'l'ai déjà dit dans l'son Bouge ta tête, tourne pas en rond Les tracks senchainent sur les V7 de Paname Bien vissé au pied d'ma table, déserte un pochetron S'approche et viens me kicker son couplet mort dans l'oreille Ma famille... Eh cous' cool, tu postillonnes sur ma veste Ces rimes qui baignent dans le JP soulèvent la question la salive ou la piste, OK j'y vais Mais ceux qui tournent sur la platine me bottent pas Dégueulante, on se casse allez je stoppe cash A la rigueur si y'a du funk, je fais tourner les bras Je leur ressers les pas du Mia Non, je n'me secoue pas sur la dance, j'me casse avant la fin De mon siège, j'observe et vois chuter gravement l'empire romain Une pute à lumière, comme dit Bouga, me dit j't'ai vu dix fois sur scène Elle s'en va et dit ciao Kool Shen ! OK, je vois, elle connait ses bases Eh cousine t'es brave, mais tais-toi, juste c'que t'as à dire c'est naze Pour ceux et celles qui ne m'ont jamais vu crumper Ça donne un peu des phases comme celles qu'on voit aux soirées UMP Quinze ans après si j'en appelle à la raison Je suis toujours comme E.T, je veux rentrer maison You might also like Même si le son est bon et que je connais deux-trois pas Je danse pas Même si tout le monde est pété et que personne s'en souviendra Non je danse pas Même si c'est à létranger, que là on nous connait pas Ah je danse pas Même si l'ambiance est de folie et qu'on me tire par le bras Non je danse pas -Ah ouais putain, tu danses jamais toi ! -Eh non, casses-toi, putain -Ah mais, mais les gars le hip-hop, le break et tout quoi ! -Putain dégage ! -Aïe ça fait mal, merde ! J'danse pas, quoi enfoiré ? Non j'suis pas un félé ! En soirée, ma table, du Rhum et pas d'bèlè Bien sur, j'kiffe dance soul et R'n'B Mais à la rigueur Jump around !, si vraiment j'suis ivre C'est pas une honte si le déhanché suit pas C'est pas de la bombe mais bon c'est pas une honte Et faut m'voir remuer les coudes à la Snoop Dogg, beautiful Genre j'pense à Rio en regardant mes genoux Ah j'kiffe Et jespère qu'ça s'voit, j'suis pas comme lui là-bas en bas au bar sur un pouf à m'tenir le foie Et je big-up les street-dancers qui brillent Insulte les bouffons qui lâchent une choré' de camping Y'a celles qui fassent comme un clip de Lady Gaga Mais après la vodka y'a plus qu'des Lady bas d'gamme Des Beyonce de Châtelet, des P Diddy qui bavent Des Justin en chiens, en Gucci de Taïwan On rigole, c'est pas grave, on joue l'jeu, fout l'feu si le DJ envoie des hits, j'ai les pieds qui bounce Faut esquive et y'a un son qui m'plait, j'suis miné Lève la main en l'air en mode ouais j'connais ! Même si le son est bon et que je connais deux-trois pas Je danse pas Même si tout le monde est pété et que personne s'en souviendra Non je danse pas Même si c'est à létranger, que là on nous connait pas Ah je danse pas Même si l'ambiance est de folie et qu'on me tire par le bras Non je danse pas</t>
+          <t>Tu vois c'canapé ? Y'a l'angle au fond, j'suis assis là Que l'DJ soit Kheops, Abdel ou Cut Killa Da c'est pareil j'l'ai déjà dit dans l'son Bouge ta tête, tourne pas en rond Les tracks senchainent sur les V7 de Paname Bien vissé au pied d'ma table, déserte un pochetron S'approche et viens me kicker son couplet mort dans l'oreille Ma famille... Eh cous' cool, tu postillonnes sur ma veste Ces rimes qui baignent dans le JP soulèvent la question la salive ou la piste, OK j'y vais Mais ceux qui tournent sur la platine me bottent pas Dégueulante, on se casse allez je stoppe cash A la rigueur si y'a du funk, je fais tourner les bras Je leur ressers les pas du Mia Non, je n'me secoue pas sur la dance, j'me casse avant la fin De mon siège, j'observe et vois chuter gravement l'empire romain Une pute à lumière, comme dit Bouga, me dit j't'ai vu dix fois sur scène Elle s'en va et dit ciao Kool Shen ! OK, je vois, elle connait ses bases Eh cousine t'es brave, mais tais-toi, juste c'que t'as à dire c'est naze Pour ceux et celles qui ne m'ont jamais vu crumper Ça donne un peu des phases comme celles qu'on voit aux soirées UMP Quinze ans après si j'en appelle à la raison Je suis toujours comme E.T, je veux rentrer maison Même si le son est bon et que je connais deux-trois pas Je danse pas Même si tout le monde est pété et que personne s'en souviendra Non je danse pas Même si c'est à létranger, que là on nous connait pas Ah je danse pas Même si l'ambiance est de folie et qu'on me tire par le bras Non je danse pas -Ah ouais putain, tu danses jamais toi ! -Eh non, casses-toi, putain -Ah mais, mais les gars le hip-hop, le break et tout quoi ! -Putain dégage ! -Aïe ça fait mal, merde ! J'danse pas, quoi enfoiré ? Non j'suis pas un félé ! En soirée, ma table, du Rhum et pas d'bèlè Bien sur, j'kiffe dance soul et R'n'B Mais à la rigueur Jump around !, si vraiment j'suis ivre C'est pas une honte si le déhanché suit pas C'est pas de la bombe mais bon c'est pas une honte Et faut m'voir remuer les coudes à la Snoop Dogg, beautiful Genre j'pense à Rio en regardant mes genoux Ah j'kiffe Et jespère qu'ça s'voit, j'suis pas comme lui là-bas en bas au bar sur un pouf à m'tenir le foie Et je big-up les street-dancers qui brillent Insulte les bouffons qui lâchent une choré' de camping Y'a celles qui fassent comme un clip de Lady Gaga Mais après la vodka y'a plus qu'des Lady bas d'gamme Des Beyonce de Châtelet, des P Diddy qui bavent Des Justin en chiens, en Gucci de Taïwan On rigole, c'est pas grave, on joue l'jeu, fout l'feu si le DJ envoie des hits, j'ai les pieds qui bounce Faut esquive et y'a un son qui m'plait, j'suis miné Lève la main en l'air en mode ouais j'connais ! Même si le son est bon et que je connais deux-trois pas Je danse pas Même si tout le monde est pété et que personne s'en souviendra Non je danse pas Même si c'est à létranger, que là on nous connait pas Ah je danse pas Même si l'ambiance est de folie et qu'on me tire par le bras Non je danse pas</t>
         </is>
       </c>
     </row>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>On va conjurer le sort qu'ils nous réservent Des exemples de réussite on en manque des cris de victoire On veut en entendre si des gens d'en bas réussissent On veut en vanter les mérites merde si y a moyen À un détail près mec on veut avoir le choix Vu que le fric offre aux hors-la-loi l'immunité j'sais pas On prendra le cash de l'or, de quoi brûler les formats Représente pour ceux qui veulent voir plus loin que ça Des métiers intouchables pour ta couleur ton adresse c'est un handicap Des gosses qui vivent en marge de ta société de barges Qui les classes dans les rues comme un problème un outrage Ça fait des mômes pas épanouis qui s'ennuient Des jeunes séduits par les ennuis des fautes commises Trop tôt divers niveaux de fléaux dispo Dans les griffes du chaos sans idéaux c'est ce qui se dit, oh Tu nous regardes et de oh oh... Une seconde... une seconde C'est pas le milieu qui est censé faire l'homme ta pitié Ton mépris fuck, qui représente ? On sait Qui nous respecte ? On sait, qui nous néglige ? On sait Rien qu'au regard on sait au discours on sait élève Ma voix pour des milliers de pensées laisse-moi représenter Tu voudrais nous voir rentrer dans le moule Qu'on y nage et qu'on y coule, parce que nos gênes refusent de s'y plier Mais c'est pas ce qu'on est venu chercher les clôtures, ne pas se résigner Ouais t'as les mecs y raflent des marchés grâce à nos vieux qui en ont chié Niveau bénéfice zéro l'office sera brèf là-haut Un bouton erase et sur ta chaise il y aura déjà le nouveau minot Sûr ça nous fait craquer péter les plombs Quand les courbatures symbolisent notre éducation Et c'est pour ça qu'on représente, on représente tout le temps Représente mon clan mon rang mon sang Pour chaque esprit rebelle fuyant le néant S'accrochant aux Titans on va les choquer maintenant Ton échelle de valeurs on s'en tape mec Tu nous regarde de haut t'as peur qu'on te pique ton fric et ta place mec Tu nous regarde de haut priant pour que l'histoire ne se répète pas mec Tu nous regarde de haut parce que de près t'oserais même pas You might also like Laisse nous représenter, sinon à quoi ça sert ce qu'on fait Sinon pourquoi ce privilège qu'à d'autres on a refusé Laisse nous briller d'en bas malgré les billets c'est de là qu'on est Laisse nous clamer le trop de rancoeur, draguer dans le bitume est le noir coupé Pacte sacré encré dans le port des écrits à l'abri des cris de l'aigri La quête grandie et gronde sans craintes ni feindre on le fait c'est tout Sans geindre dépeindre les joies et pleurs de nos pairs Étreindre la voie sans cesse atteindre le sourd sans toucher terre Mais les chaînes les plus dures sont celles qu'on se met soi-même la loi se traîne Parfois, déchaîne la faim des Rois experts à l'élevage de proies, en liesses Quand le maître gagne, en laisse quand il perd et pourtant On se croit libre le cul devant la télé championne du voyeurisme Et tous les dimanches on refait le monde au bar le mâtin Mais ça va pas plus loin non m'sieur chez nous y a pas de mutins Ils veulent que des moutons qui bouffent dans leurs mains lors des live en plein air Où les paroles changent et où tous chantent sur le putain de même air Et nous on gobe ça plus rien ne nous surprend chaque fois Un nouveau prétendant et nous on remet ça en rang serré fissa Et je vois pas pourquoi ça changerait vu que ça dure Et qu'on a l'air d'aimer ça se faire traire par une Perrette à la dent longue et dure</t>
+          <t>On va conjurer le sort qu'ils nous réservent Des exemples de réussite on en manque des cris de victoire On veut en entendre si des gens d'en bas réussissent On veut en vanter les mérites merde si y a moyen À un détail près mec on veut avoir le choix Vu que le fric offre aux hors-la-loi l'immunité j'sais pas On prendra le cash de l'or, de quoi brûler les formats Représente pour ceux qui veulent voir plus loin que ça Des métiers intouchables pour ta couleur ton adresse c'est un handicap Des gosses qui vivent en marge de ta société de barges Qui les classes dans les rues comme un problème un outrage Ça fait des mômes pas épanouis qui s'ennuient Des jeunes séduits par les ennuis des fautes commises Trop tôt divers niveaux de fléaux dispo Dans les griffes du chaos sans idéaux c'est ce qui se dit, oh Tu nous regardes et de oh oh... Une seconde... une seconde C'est pas le milieu qui est censé faire l'homme ta pitié Ton mépris fuck, qui représente ? On sait Qui nous respecte ? On sait, qui nous néglige ? On sait Rien qu'au regard on sait au discours on sait élève Ma voix pour des milliers de pensées laisse-moi représenter Tu voudrais nous voir rentrer dans le moule Qu'on y nage et qu'on y coule, parce que nos gênes refusent de s'y plier Mais c'est pas ce qu'on est venu chercher les clôtures, ne pas se résigner Ouais t'as les mecs y raflent des marchés grâce à nos vieux qui en ont chié Niveau bénéfice zéro l'office sera brèf là-haut Un bouton erase et sur ta chaise il y aura déjà le nouveau minot Sûr ça nous fait craquer péter les plombs Quand les courbatures symbolisent notre éducation Et c'est pour ça qu'on représente, on représente tout le temps Représente mon clan mon rang mon sang Pour chaque esprit rebelle fuyant le néant S'accrochant aux Titans on va les choquer maintenant Ton échelle de valeurs on s'en tape mec Tu nous regarde de haut t'as peur qu'on te pique ton fric et ta place mec Tu nous regarde de haut priant pour que l'histoire ne se répète pas mec Tu nous regarde de haut parce que de près t'oserais même pas Laisse nous représenter, sinon à quoi ça sert ce qu'on fait Sinon pourquoi ce privilège qu'à d'autres on a refusé Laisse nous briller d'en bas malgré les billets c'est de là qu'on est Laisse nous clamer le trop de rancoeur, draguer dans le bitume est le noir coupé Pacte sacré encré dans le port des écrits à l'abri des cris de l'aigri La quête grandie et gronde sans craintes ni feindre on le fait c'est tout Sans geindre dépeindre les joies et pleurs de nos pairs Étreindre la voie sans cesse atteindre le sourd sans toucher terre Mais les chaînes les plus dures sont celles qu'on se met soi-même la loi se traîne Parfois, déchaîne la faim des Rois experts à l'élevage de proies, en liesses Quand le maître gagne, en laisse quand il perd et pourtant On se croit libre le cul devant la télé championne du voyeurisme Et tous les dimanches on refait le monde au bar le mâtin Mais ça va pas plus loin non m'sieur chez nous y a pas de mutins Ils veulent que des moutons qui bouffent dans leurs mains lors des live en plein air Où les paroles changent et où tous chantent sur le putain de même air Et nous on gobe ça plus rien ne nous surprend chaque fois Un nouveau prétendant et nous on remet ça en rang serré fissa Et je vois pas pourquoi ça changerait vu que ça dure Et qu'on a l'air d'aimer ça se faire traire par une Perrette à la dent longue et dure</t>
         </is>
       </c>
     </row>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>J'ai rien à perdre, FF rien à foutre Rahzel, Bruizza rien à taire, Troisième il rien à perdre Faf Larage rien à braire, Def dont sleep rien à foutre K-Rhyme Le Roi rien à taire, Freeman rien à perdre Belsunce rien à foutre, le reuf rien à perdre IAM rien à taire Les deux pieds sur terre, la tête pleine de teh Rien à taire, rien à faire Avant je n'étais rien, un putain de chien, plein d'Heineken Sale face, dent en plastique, arrières pensées malsaines Je me levais à 3 heures quand même réveil dur La face striée des plis des coussins incrustés dans ma figure Tanqué dans une station de métro Branleur invétéré la RTM aurait pu me proposer un putain de boulot Hormis que j'étais le pilier de ces spots J'ai niqué la carrière scolaire de pas mal de potes On était quand même des sacrés rêveurs Et les rêves brisés transforment les songeurs en braqueurs Rien ne me faisait plus rire Seul la soif de survivre, le cash me faisait courir Partir un peu plus loin la tête coiffée plus tard d'un couffis La rage dans le mic entre deux repas de souffris Inutile torchon j'aurais voulu crever, tuer Renversé en plein été sur mon vélo aux deux roues crevées Poumon fumigène souffle siffle leur crise d'asthme J'aurais du en planter des mecs j'aurais pas eu de spasmes L'eau a coulé depuis l'époque des polos frizz A celle des Valstar envoyés sur les pare brise Stéréo, 16 à gauche à droite scud de popo Le walkman sur disque m'a rendu sourd comme un pot Les pâtes au beurre patraque, armé d'une matraque 1 je rappais pour moi 2,3,4,5 pour la hayat Pas de boite j'avais pas de lovés On s'incrustait le soir dans les mariages C'était gratuit y avait du gâteaux et à boire, de l'air pur du riff Chaque fois que j'écris je pense à Said, Ali, Sherif Lah'mou, s'il en est ainsi c'était écrit La frustration m'a rendu aigri et j'ai maigri Mentalité excessive sale à pourrir Si je ne peux t'avoir quelqu'un de ta famille doit mourir You might also like J'ai rien à perdre, même si je me fous dans la merde J'ai rien à perdre, rien à foutre, rien à taire J'ai rien à perdre, même si je me fous dans la merde J'ai rien à perdre, rien à foutre, rien à taire Le clan des 103 haja mec que pasa ? Tu t'en bats les couilles hein Jusqu'à c'qu'ils viennent frapper chez toi Le clan des 103 haja mec que pasa ? Tu t'en bats les couilles hein Jusqu'à c'qu'ils viennent frapper chez toi Le clan des 103 gadjo débarque chez toi 103 Peugeot Si j'fais la fête c'est qu'tout va mal dans ma tête Normal j'm'endette éclate le fric les gens me trouvent bête Tout les week end j'rentrais ivre, j'apprenais à vivre Maintenant je rentre ivre tout les jours, j'me contente de survivre Aucune vue de la grande vie j'ai eu du mal à suivre les cours de maths Ras le bol de l'école et d'ces femmes profs Les jours de fête ne me font plus marrer Même bourré à la bière, Noël, Pâques, mon anniversaire c'est pareil Plus d'suspense, d'sensation Ma participation suffit pour faire plaisir aux proches Ma famille, mes amis le savent Le sourire aux lèvres est rare 5,6 pétards et le fou rire vient tout comme le cafard Tu captes ça ? Frère écoute la terre tourne, ma tête tourne, la roue tourne Chacun chacun son tour côtoie la skoumoun On refuse de devenir vieux avant l'âge C'est la routine pour mon entourage Dans la merde ? solidaire on s'encourage Faut m'défoncer la mâchoire pour m'empêcher de parler sur instrumental Pas l'temps d'être sentimental, j'ai trop la dalle J'emmerde les projets DSU, déçu par le CIQ Les élus peuvent se mettre leurs belles paroles dans le cul Coincé dans les squats par le froid, les rêves foirent Le soir la poisse s'acharne sur mes camarades et moi La chance ni vient ni part je prends part au partie d'poker Dans le quartier mon bunker, Le Rat deker rit plus que ce putain d'joker Je nagerais avec les femmes et un micro dans une piscine pas pour la frime Pour une paire de seins frangine Rouler dans l'or, connaitre l'autre, autre monde Les mains bien dans la merde dans la tête un désordre monstre Les restos classes c'est pas mon genre j'préfère les snacks Devenir prince impossible ma vie c'est ma musique dans les Fnac</t>
+          <t>J'ai rien à perdre, FF rien à foutre Rahzel, Bruizza rien à taire, Troisième il rien à perdre Faf Larage rien à braire, Def dont sleep rien à foutre K-Rhyme Le Roi rien à taire, Freeman rien à perdre Belsunce rien à foutre, le reuf rien à perdre IAM rien à taire Les deux pieds sur terre, la tête pleine de teh Rien à taire, rien à faire Avant je n'étais rien, un putain de chien, plein d'Heineken Sale face, dent en plastique, arrières pensées malsaines Je me levais à 3 heures quand même réveil dur La face striée des plis des coussins incrustés dans ma figure Tanqué dans une station de métro Branleur invétéré la RTM aurait pu me proposer un putain de boulot Hormis que j'étais le pilier de ces spots J'ai niqué la carrière scolaire de pas mal de potes On était quand même des sacrés rêveurs Et les rêves brisés transforment les songeurs en braqueurs Rien ne me faisait plus rire Seul la soif de survivre, le cash me faisait courir Partir un peu plus loin la tête coiffée plus tard d'un couffis La rage dans le mic entre deux repas de souffris Inutile torchon j'aurais voulu crever, tuer Renversé en plein été sur mon vélo aux deux roues crevées Poumon fumigène souffle siffle leur crise d'asthme J'aurais du en planter des mecs j'aurais pas eu de spasmes L'eau a coulé depuis l'époque des polos frizz A celle des Valstar envoyés sur les pare brise Stéréo, 16 à gauche à droite scud de popo Le walkman sur disque m'a rendu sourd comme un pot Les pâtes au beurre patraque, armé d'une matraque 1 je rappais pour moi 2,3,4,5 pour la hayat Pas de boite j'avais pas de lovés On s'incrustait le soir dans les mariages C'était gratuit y avait du gâteaux et à boire, de l'air pur du riff Chaque fois que j'écris je pense à Said, Ali, Sherif Lah'mou, s'il en est ainsi c'était écrit La frustration m'a rendu aigri et j'ai maigri Mentalité excessive sale à pourrir Si je ne peux t'avoir quelqu'un de ta famille doit mourir J'ai rien à perdre, même si je me fous dans la merde J'ai rien à perdre, rien à foutre, rien à taire J'ai rien à perdre, même si je me fous dans la merde J'ai rien à perdre, rien à foutre, rien à taire Le clan des 103 haja mec que pasa ? Tu t'en bats les couilles hein Jusqu'à c'qu'ils viennent frapper chez toi Le clan des 103 haja mec que pasa ? Tu t'en bats les couilles hein Jusqu'à c'qu'ils viennent frapper chez toi Le clan des 103 gadjo débarque chez toi 103 Peugeot Si j'fais la fête c'est qu'tout va mal dans ma tête Normal j'm'endette éclate le fric les gens me trouvent bête Tout les week end j'rentrais ivre, j'apprenais à vivre Maintenant je rentre ivre tout les jours, j'me contente de survivre Aucune vue de la grande vie j'ai eu du mal à suivre les cours de maths Ras le bol de l'école et d'ces femmes profs Les jours de fête ne me font plus marrer Même bourré à la bière, Noël, Pâques, mon anniversaire c'est pareil Plus d'suspense, d'sensation Ma participation suffit pour faire plaisir aux proches Ma famille, mes amis le savent Le sourire aux lèvres est rare 5,6 pétards et le fou rire vient tout comme le cafard Tu captes ça ? Frère écoute la terre tourne, ma tête tourne, la roue tourne Chacun chacun son tour côtoie la skoumoun On refuse de devenir vieux avant l'âge C'est la routine pour mon entourage Dans la merde ? solidaire on s'encourage Faut m'défoncer la mâchoire pour m'empêcher de parler sur instrumental Pas l'temps d'être sentimental, j'ai trop la dalle J'emmerde les projets DSU, déçu par le CIQ Les élus peuvent se mettre leurs belles paroles dans le cul Coincé dans les squats par le froid, les rêves foirent Le soir la poisse s'acharne sur mes camarades et moi La chance ni vient ni part je prends part au partie d'poker Dans le quartier mon bunker, Le Rat deker rit plus que ce putain d'joker Je nagerais avec les femmes et un micro dans une piscine pas pour la frime Pour une paire de seins frangine Rouler dans l'or, connaitre l'autre, autre monde Les mains bien dans la merde dans la tête un désordre monstre Les restos classes c'est pas mon genre j'préfère les snacks Devenir prince impossible ma vie c'est ma musique dans les Fnac</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Je viens de Marseille la ville photique Ce qui implique, logique, l'unique chaleur de mes lyrics Se fixe, se glisse, qu'importe le rythme Mais celui-ci est volontairement pur, dépouillé mais funky Ainsi vous êtes introduits dans le siège de l'Alliance Afro-Asiatique Niveau rap musique un point stratégique Mythique, mystique cauchemar des xénophobes Amenemket, quel est le lien, dis-moi d'où tu viens? Je viens de Marseille où pharaon excelle Attention au son de l'éternelle production Sans crier gare la vérité se révèle face à vous Un sujet tabou, en tout et pour tout Où en 90, le Soul Swing'n Radical persiste Sans risque, poursuit sa liste et j'insiste Pharaon Akhénaton Roi Soleil Dis-moi d'où tu viens, où tu te réveilles? À Marseille, tu t'en fous, je te l'avoue pour nous c'est pareil Un conseil, surtout veille mec, essaye D'assimiler la balistique linguistique Des phraséologistes, kamikazes mythologiques Rimologistes, scientistes à la technologie du style De rap avancé et prolixe Viennent de la Planète Mars et non d'ailleurs, eh oui! Ils symbolisent la revanche des enfants du soleil Yo Shurik'n, dis-moi si tu viens de Marseille Les rues de goudron gris et sale ornées d'après trottoirs Martelés par les pas des prostituées quand s'éveille le soir C'est de là que je viens, là où je naquis Et dans quelques années c'est ici que se terminera ma vie Dans cette ville aux 10 000 cités, aux mille et une filles Où le béton des tours caresse Aton qui brille Mais ne te méprends pas, le pays d'où je viens N'a rien à voir avec celui des merveilles Je viens de Marseille IAM and the Soul Swing'n Radical Live de la Planète Mars! Signing off!You might also like</t>
+          <t>Je viens de Marseille la ville photique Ce qui implique, logique, l'unique chaleur de mes lyrics Se fixe, se glisse, qu'importe le rythme Mais celui-ci est volontairement pur, dépouillé mais funky Ainsi vous êtes introduits dans le siège de l'Alliance Afro-Asiatique Niveau rap musique un point stratégique Mythique, mystique cauchemar des xénophobes Amenemket, quel est le lien, dis-moi d'où tu viens? Je viens de Marseille où pharaon excelle Attention au son de l'éternelle production Sans crier gare la vérité se révèle face à vous Un sujet tabou, en tout et pour tout Où en 90, le Soul Swing'n Radical persiste Sans risque, poursuit sa liste et j'insiste Pharaon Akhénaton Roi Soleil Dis-moi d'où tu viens, où tu te réveilles? À Marseille, tu t'en fous, je te l'avoue pour nous c'est pareil Un conseil, surtout veille mec, essaye D'assimiler la balistique linguistique Des phraséologistes, kamikazes mythologiques Rimologistes, scientistes à la technologie du style De rap avancé et prolixe Viennent de la Planète Mars et non d'ailleurs, eh oui! Ils symbolisent la revanche des enfants du soleil Yo Shurik'n, dis-moi si tu viens de Marseille Les rues de goudron gris et sale ornées d'après trottoirs Martelés par les pas des prostituées quand s'éveille le soir C'est de là que je viens, là où je naquis Et dans quelques années c'est ici que se terminera ma vie Dans cette ville aux 10 000 cités, aux mille et une filles Où le béton des tours caresse Aton qui brille Mais ne te méprends pas, le pays d'où je viens N'a rien à voir avec celui des merveilles Je viens de Marseille IAM and the Soul Swing'n Radical Live de la Planète Mars! Signing off!</t>
         </is>
       </c>
     </row>
@@ -1738,7 +1738,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>J'suis dans un trip qui lui-même est dans un délire bien à lui Dans un délire bien à lui mais bien à lui d'chez bien à lui Et rien qu'à lui mais rien qu'à lui d'chez rien qu'à lui C'qu'est pas rien d'chez pas rien qui nuit qu'à lui-même et qui luit même quand vient la nuit À chacun sa voie, sa voix ou sa façon d'voir l'avenir Pour moi, ce sera soit l'cannabis thérapeutique, soit l'asile On n'a rien à voir, j'vois pas c'qu'on pourrait avoir à s'dire Mis à part à plus et n'plus jamais s'parler par la suite Y aura jamais plus de types à part qu'y a d'parasites Y aura toujours plus de fils de putes qu'y a d'sacs plastiques Que ceux qui s'y mttent dans l'espoir de la mttre à la zik' Aillent se faire empaler par j'sais pas qui qu'aurait v'là la bite J'retourne parmi les miens, je m'alimente Un minimum au maniement du mic, me munis de mon art J'ai voulu faire une secte, à moi d'me sacrifier Voir mes gars friqués agripper le billet qu'on aura fabriqué J'ai voulu... sur les p'tits du maire, t'es vert L'uZine avec un Z Pourquoi faire du bruit si j'peux t'abattre avec un silencieux ? Même les criminels, avant d'tuer, se mettent à prier Dieu J'pousse un coup d'gueule quand j'suis bourré Gérard Depardieu Zé Pequ' dans La Cité d'Dieu J'ai la rage d'un paysan qui vient défendre son territoire L'Histoire, on la fera, mais ça sans faire la pute sur le trottoir J'ai repris le calumet car la douleur est trop intense J'fais partie d'la résistance, de ceux qui peuvent cramer la France Moi, ma France est colorée, mais la plupart ont l'choléra Après vous avoir dérobés, on partira tous comme des rats La vie, la vraie, c'est pas la Terre la liberté, c'est faire la guerre Révolutionnaire comme un Black Panther You might also like J'retourne parmi les miens, je m'alimente Un minimum au maniement du mic, me munis de mon art J'ai voulu faire une secte, à moi d'me sacrifier Voir mes gars friqués agripper le billet qu'on aura fabriqué Putain d'sa grand-mère, j'me rappelle plus d'mon xte-te J'm'en bats les couilles, tu vas t'exciter, j'vais t'laisser terre-par' Non seulement t'es marrant quand tu bad et badant quand tu cries Mais t'as la sale gueule de Rémy quand tu ris, tu m'fais kiffer Mais genre kiffer à un point qui ferait flipper n'importe qui Au point d'enchaîner au moins six syncopes de suite et les kiffer À chacun ses interdits, à chacun ses vérités Auxquelles on croit comme pas permis et qu'on s'interdit d'vérifier On a viré les chapeaux melons pour garder les bottes de cuir Et s'piétiner si bien qu'la loi du plus fou domine l'échiquier J'ai ni les idées si claires ni clairement très envie qu'elles le soient Mes nuits s'résument à mettre en rimes le peu qu'il reste de moi J'dois être le moins équilibré des types qu'Eklips ait imité Privé d'prestation publique depuis qu'le pays est grippé Les enfileurs pro' reprochent aux enfilés d'enfiler des gilets Mais le fait est qu'la majorité kifferait les retirer Wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? C'est sans jouer qu'j'vais gagner la bataille J'suis un assassin sensible, sans cible comme un sale bâtard Tout est surfait, j'préfère aller en enfer qu'aller à Zara T-shirt, survêt', sans chemise, sans pantalon, comme Rika Zaraï Toute ma vie, ni Dieu ni maître, mort aux vaches et no pasarán Mais m'appelle pas poto ni frérot, encore moins camarade Pas d'résolution, la révolution, avant d'la faire dans la rue Il faut la faire dans la tête, c'est ça, l'adage Je trace ma route pas à pas avant que je n'me carapate J'fais du rap qui séduira mais j'le fais pour oim à la base Eh, je vis pas pour les Hommes, je brille pas sous les ordres J'écoute Brel de L'Amour est mort, drive-by en caravane Le black Jacques Brel, le fils de Jacques Mes', Rabakar Amara, Katana, Loko et Tige la Rafale J'écoute Triple S, La vie de rêve, j'écoute Agartha J'écoute Requiem, j'trouve pas l'sommeil, j'écoute J'écoute que Faf Larage, j'écoute le A-K-H Et celui qu'ça embarrasse, eh beh j'm'en bats la race Eh, trop d'rimes, quand j'm'applique, j'suis pas avare Cur de Godric, mentalité Salazar Les cailleras sont d'sortie, bandes de bâtards Du jour au lendemain, j'veux peser comme le Qatar Avec l'atmosphère, j'suis en décalage J'me sens bien quand j'ai un gros joint d'be-her et le 'sky dans mon verre Dieu et Lucifer sont proches de nous Mais, si tu dois payer, mon pote, tu marcheras sur l'genou J'te l'dis qu'une fois, j'ai qu'une parole, fils de Le Z s'enfuit comme l'ovni J'pète le migidi-mic en migidi-Nike, les MC tombent en siguidi-strike Laisse les braves esquiver la BAC éternue, j't'ai vu sniffer la trace Kicker la basse, vider la tasse, un coup d'marteau, j'viens briser la glace Piquer la place, on résout pas l'problème en voulant astiquer la crasse Fuck, migidi-man, mes rimes s'écoulent par six milligrammes Prépare l'plan Vigipirate, tu sens l'odeur du vinyle qui crame Baiser l'État, les scélérats, c'est fêlé, gars, baissez les bras Même leur matraque télescopique n'suffira pas à dresser les rats J'ai mal à la tête alors, chérie, parle à la bête Y a pas d'tralala, check, déguste bien la banane à sec T'as voulu faire le narvalo, mais c'est mort, j'suis venu tout saloper Tu vas galoper, si t'as mal aux pieds, va t'suicider, t'as plus qu'à sauter J'm'en bats les, les, les couilles, flow sans limite, tu voudrais pomper sur moi ? Préparez les douilles mais, me checker, ça fait plus mal que tomber sur l'bras J'ai écrit c'texte à la va-vite pour que t'écoutes les autres Mon rap te bouffe les côtes, tu fourres les mômes, les rappeurs schnouffent l'héro' Suce mon chibidi-chibre, j'fume mon chiguidi-shit Sors ma diguidi-dick, peu importe l'instru', ma couille, tu sais c'est qui les kick Fais pas l'narvalo, à tiser tout seul, tu chies dans ton froc Tu t'replies dans ton bloc, à la moindre crari, tu dis qu'c'est ton pote J'fais pas d'guiliguili, file d'ici, t'es tout riquiqui Anti schmilblick, mini, veni, vidi, veni, vidi, vici On fait des roulés boulés pour écouler, pour désaouler T'as vu des fous débouler, chouravez mes CD si vous les voulez J'biguidi-pète le beat, diguidi-tête de bite, beaf de diguidi-steak de rimes Tsiguidi, tsiguidi, tsiguidi, sexes de films J'digui-dis que d'la merde, j'biguidi-pète le biguidi-beat Diguidi-tête de diguidi-bite, ma rime casse les canines d'un biguidi-pit' J'vois tous ces pédés qui niquent, rien n'vaut une femme, même pas technique En minikini, ma mini mignonne dans un parc pour un pique-nique Tu veux qu'je sorte le flow qui botte le dos, qui craque les côtes et les os ? Écoutez les autres, je fuck les faux, t'es fou, il faut évacuer le fauve Aaah, j'arrive même plus à m'arrêter, v'là la pétée Tu veux rapper ? Tu vas galérer, t'es trop petit, parle à mes pieds Va t'entraîner Seul dans tes rêves, tous endettés Hey, wow, qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Grand, hey NarvaLooney Tunes au côté fou si sous-coté qu'ç'en est douteux Et doté d'un côté si doux qu'ç'en est fou, le bouffe Que Dali déboule chez Mouv' et tout s'écroule, écoutez c'couplet sous beuh Conçu pour tous ceux à qui on a dit qu'c'était pas fait pour eux J'sors d'où on t'oublie bien avant d'te retrouver tout bleu Amateur de jus d'vache aux airs de sacré bouseux Force rouge est tout près, fin prêt à tous les découper sous peu Wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Deadi m'a appelé pour un freestyle, j'ai dit Pourquoi pas ? J'ai regardé sous l'placard qui m'servait d'tête Si j'avais des textes, j'en avais mais qu'avec des thèmes Et j'étais avec des potes, on faisait des fléchettes Peut-être que, pour vous, c'est l'échec Mais, moi, j'étais content, j'passais du bon temps devant des mecs amers Le rap m'a p't-être pas permis de rendre fière ma mère Mais, être payé à faire d'la merde, c'est grave le bon plan Bon, écrire quand t'as pas d'idée, c'est pas pratique Là, j'avais autant d'inspiration qu'un asthmatique Hun, mais comme, l'ego, c'est l'avenir J'allais faire comme tout l'monde j'allais raconter ma vie Donc, hier m'est arrivé un truc étrange Ma mère m'a dit qu'elle m'appelait cinq minutes, ça en a duré trente Hun, j'ai fait l'amour y a exactement douze heures C'est quand même beaucoup mieux quand j'le fais pas tout seul Cet été, j'ai découvert de nouvelles métropoles En c'moment, j'regarde Prison Break, c'est éclaté au sol Mais j'continue, ça mérite un bon prix J'viens d'lire la définition d'métropole, j'ai rien compris Ah, ces derniers temps, j'ai moins d'mal à assumer qu'j'aime l'anal Que Yves Duteil et Serge Lama J'suis toujours dans mes pensées La meilleure façon qu'j'ai trouvée pour faire d'la maille, c'est d'la dépenser Demain, j'ai rendez-vous chez Sony pour parler stratégie Ça m'intéresse autant qu'le sport avec des gens tétraplégiques J'tourne un clip la semaine prochaine, j'ai pas trop d'idées J'espère qu'le réalisateur sait improviser Vos raps à deux balles ont le même parfum, m'font taper des barres comme une hyène qu'a faim Aussi condamné qu'un John Caffey, Deadi déraille à la vitesse d'un train Pas b'soin d'médecin, d'tes soins, j'détiens à la fois la maladie et l'vaccin Mon fléau fait l'effet d'un verre d'absinthe que tu bois cul-sec et digères moyen Tu pourrais finir invalide, à faire le malin face à celui qu'le Malin valide Assassin linguistique, stick à la main, cannabis, file Mon côté schlague a pas pris d'ride, mérite une prime à la rime Une visite à l'asile, oui, j'ai déjà l'sourire du Joker plaqué sur la face à l'idée qu'ça arrive Oui, j'milite pour l'euthanasie de ceux qui aiment pas la vie, paralysés ou pas La matrice est tout-par', alors pourquoi la fuir ? On sait déjà tous où tout ça va ni-f' Grand, hey, on sait déjà tous où tout ça va ni-f' Wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Déboulé tout droit de L'uZine, hallucine, le signe est un fait tatoué dans mon cerveau Sur le beat, j'ai le swing, mais ma ville a le crime, ma gueule, demande à Jean-Pierre Pernaut Sens-tu l'urine en bas de tous les bâtiments ? aussi rapidement C'est là qu'ils t'perquis', quand les dés-kis' se déguisent, narvalo, t'y vois qu'du feu C'est des pro' du jeu, prends-le comme tu veux ou comme une salope au bout d'une queue Ces bâtards m'engrainent, m'entraînent, m'emmènent, m'assimilent sous les mers En-d'ssous des pierres du ter-ter, autour d'mes frères, mais c'est pas c'que j'voulais faire Vous êtes verts de rage, j'en ai pas vu un me l'montrer J'ai les mains dans la malle, et le mal a la mouille laisse tomber Tous ces pédés dans le rap qui croyaient penser savoir kicker C'est niqué, j'allume les mille manies en un coup d'briquet Je crame l'âme, avale la vitesse, dans la vie d'tess' Mais la rue t'laisse sur le pavé, l'ami, mais les mots n'enlèveront pas toute les larmes de ma tristesse Saigne au-d'ssus des les politiques, les élus viennent, règnent Demande à et à si j'les ai pas vus courir devant l'comico Tendez la poutre car le rap est à pendre, c'est attendre et attendre pour remonter la pente Car le vide assassine, petit à petit, les gars, il est quasi l'heure Ma gueule, ma gueule, ne cherche, pas mon équipe a la voie d'la guerre , vole un imper', il pleut des sabres, on n'a rien à perdre, c'est clair J'suis un délire go-fast, j'ai le sourire à Frank Lucas Rap de bâtard, rap de bâtard, comme un coup d'schlass dans un thorax Faites pas les cons, le rap, c'est du ski de fond, j'rappe en direct des bas-fonds J'vais les gifler, ces bouffons, j'vais leur gicler sur le front, ça fait plaisir comme avoir un plavon C'est pas fini comme l'amour d'un mort, je sors la nuit quand les oiseaux dorment Je n'ai qu'une vie, tout pour la daronne, nous, c'est L'uZine, le Z, on charbonne Je vais t'briser la colonne, boisson vodka de Pologne J'ai des potos, des givrés, sur la photo, on te rogne, j'ai des potos, des ivrognes Le shit est bon, c'est du népalais, on fait le mal parce qu'il le fallait Gros, fais belek, j'ai pas d'cran d'arrêt, j'veux pas finir en maison d'arrêt À grailler des pâtes, rêver de chattes, j'vois qu'mes pensées qui s'échappent J'veux plus de roro que l'pape, je n'partirai pas comme Fabe Participer n'a plus aucune importance, tout peut s'arrêter n'importe quand, la vie, c'est pas du cinéma Te dis jamais qu'y aura d'autres plans, j'gratte comme transplante et puis l'ppé-ra comme j'plante, et la prod' prend cher Non seulement, j'en suis pas mais j'ai pas votre temps, j'suis d'ceux qui font ça comme personne et aussi comme Ouais, toujours profondément plongé dans mon délire à la Ghostland Évidemment qu'Deadi va m'graille mais c'est pas grave, ça parle, nous deux ensembles c'est la bataille de Wagram Comme des matraques que ça tape ou ça crame sur de la drill, de la cloud ou d'la trap Z'ont toujours pas compris qu'c'était du 4x4 et que ça changeait rien, l'rap sans nous, c'est l'porno sans les nains Essayer d'nous avoir, ça serait comme d'essayer d'applaudir ou s'branler sans les mains Pas assez l'âge pour m'comporter comme un homme, mais bien trop pour avoir les boules Pour la mort d'Jackie Chan, j'ai pleuré comme un môme pour la mort de Johnny, j'ai repris deux fois des moules Ça rime à rien mais ça rime v'là bien, j'arrive comme Céline au dîner du CRIF En espérant qu'il m'arrivera rien, pour ça, je touche du bois comme Jésus Christ On fait ça facile, pour nous, ça équivaut à jouer à la belotte Enfin, même plus encore, j'ai jamais su comment on jouait à la belette Mais, si, un putain d'jour, de ma vie, j'fais la vedette Tire-moi la joue comme la meuf d'Eraserhead C'est pas fini, ça va être un festival, ça va si vite, comme une voiture de keuf qui crame J'aime le p'tit bruit que font leurs jolies têtes qui craquent, comme celui d'un vinyle ou d'une paire de fesses qui claque Harakiri, j'suis sûr en équilibre, on verra c'que t'esquivera J'suis et t'es , j'suis enfer en Tacchini, wow, Deadi, j'ai aucune idée d'c'qu'il s'passe Plutôt rester à la traîne que d'me faire traiter d'tre-traî ou même de traîner du côté d'où j'traîne Tout c'qui m'adoucit rend ma douce vert, depuis l'jour où j'ai rencontré la Gelato, j'ai la toux d'Serge L'héritier d'un San-Nom écarlate et la bouche sèche, plutôt que d'écouter c'que t'écoutes T'as les coups d'blues de Bernie, j'ai ses coups d'pelle et mets des coups d'batte à tous ceux qui jouent les clowns, bref Vous êtes tous mal, solvable ou pas, tout s'paye, tout s'mêle, rouges ou pas, on finira tous pâles et tous raides Good bye, pit' ou pas, tout s'brade, plutôt y passer que d'passer pour l'best Prions pour que mon côté bat les couilles tienne, quitte à passer pour un taré où qu'j'aille Quitte à tienne, quitte à c'que mon côté bat les couilles gagne Ils veulent parler de rap ou de trap, ils ne feraient même pas la différence entre les deux J'prends n'importe quel beat et j'le râpe, je t'ouvre le point vital entre les yeux Peu importe le flow, il me correspond, la trap n'a rien inventé, oh, t'es con Obligé de leur rappeler d'où viennent là, faites pas, j'ai haussé l'ton J'emprunte le flow de Cleveland pour démarrer ce texte en beauté Tous les styles de rap ont déjà existé, c'est juste qu'ils étaient démodés Peu importe le flow, il m'envahit, le rythme est le rite, je prends partie Seule la mélodie me rend actif, j'ai pas, je l'ai dans l'calcif Donne-moi du flow, j'vais leur montrer, ils commencent à m'énerver à raconter Que de la merde, ils n'y connaissent rien, on l'sait, mais quelle bonté pour moi de les faire tomber Aucune limite ne pourrait exister à mon égard, j'touche tous les extrêmes opposés sans faire le grand écart Pour moi, chaque note jouée est une percussion, j'fais danser les breakeurs même sans faire du son Tu prétends qu'le BPM définit le revers de ma veste, j'vais t'prouver l'contraire Si l'rap était seulement celui qu'tu connais mama j'pourrais être son père Me faites pas croire qu'le rap à l'ancienne était plus conscient qu'le rap d'aujourd'hui J'vais t'rappeler c'qui marchait et c'que, toi, t'écoutais, oui, bien avant qu'tu commences à faire crari1</t>
+          <t>J'suis dans un trip qui lui-même est dans un délire bien à lui Dans un délire bien à lui mais bien à lui d'chez bien à lui Et rien qu'à lui mais rien qu'à lui d'chez rien qu'à lui C'qu'est pas rien d'chez pas rien qui nuit qu'à lui-même et qui luit même quand vient la nuit À chacun sa voie, sa voix ou sa façon d'voir l'avenir Pour moi, ce sera soit l'cannabis thérapeutique, soit l'asile On n'a rien à voir, j'vois pas c'qu'on pourrait avoir à s'dire Mis à part à plus et n'plus jamais s'parler par la suite Y aura jamais plus de types à part qu'y a d'parasites Y aura toujours plus de fils de putes qu'y a d'sacs plastiques Que ceux qui s'y mttent dans l'espoir de la mttre à la zik' Aillent se faire empaler par j'sais pas qui qu'aurait v'là la bite J'retourne parmi les miens, je m'alimente Un minimum au maniement du mic, me munis de mon art J'ai voulu faire une secte, à moi d'me sacrifier Voir mes gars friqués agripper le billet qu'on aura fabriqué J'ai voulu... sur les p'tits du maire, t'es vert L'uZine avec un Z Pourquoi faire du bruit si j'peux t'abattre avec un silencieux ? Même les criminels, avant d'tuer, se mettent à prier Dieu J'pousse un coup d'gueule quand j'suis bourré Gérard Depardieu Zé Pequ' dans La Cité d'Dieu J'ai la rage d'un paysan qui vient défendre son territoire L'Histoire, on la fera, mais ça sans faire la pute sur le trottoir J'ai repris le calumet car la douleur est trop intense J'fais partie d'la résistance, de ceux qui peuvent cramer la France Moi, ma France est colorée, mais la plupart ont l'choléra Après vous avoir dérobés, on partira tous comme des rats La vie, la vraie, c'est pas la Terre la liberté, c'est faire la guerre Révolutionnaire comme un Black Panther J'retourne parmi les miens, je m'alimente Un minimum au maniement du mic, me munis de mon art J'ai voulu faire une secte, à moi d'me sacrifier Voir mes gars friqués agripper le billet qu'on aura fabriqué Putain d'sa grand-mère, j'me rappelle plus d'mon xte-te J'm'en bats les couilles, tu vas t'exciter, j'vais t'laisser terre-par' Non seulement t'es marrant quand tu bad et badant quand tu cries Mais t'as la sale gueule de Rémy quand tu ris, tu m'fais kiffer Mais genre kiffer à un point qui ferait flipper n'importe qui Au point d'enchaîner au moins six syncopes de suite et les kiffer À chacun ses interdits, à chacun ses vérités Auxquelles on croit comme pas permis et qu'on s'interdit d'vérifier On a viré les chapeaux melons pour garder les bottes de cuir Et s'piétiner si bien qu'la loi du plus fou domine l'échiquier J'ai ni les idées si claires ni clairement très envie qu'elles le soient Mes nuits s'résument à mettre en rimes le peu qu'il reste de moi J'dois être le moins équilibré des types qu'Eklips ait imité Privé d'prestation publique depuis qu'le pays est grippé Les enfileurs pro' reprochent aux enfilés d'enfiler des gilets Mais le fait est qu'la majorité kifferait les retirer Wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? C'est sans jouer qu'j'vais gagner la bataille J'suis un assassin sensible, sans cible comme un sale bâtard Tout est surfait, j'préfère aller en enfer qu'aller à Zara T-shirt, survêt', sans chemise, sans pantalon, comme Rika Zaraï Toute ma vie, ni Dieu ni maître, mort aux vaches et no pasarán Mais m'appelle pas poto ni frérot, encore moins camarade Pas d'résolution, la révolution, avant d'la faire dans la rue Il faut la faire dans la tête, c'est ça, l'adage Je trace ma route pas à pas avant que je n'me carapate J'fais du rap qui séduira mais j'le fais pour oim à la base Eh, je vis pas pour les Hommes, je brille pas sous les ordres J'écoute Brel de L'Amour est mort, drive-by en caravane Le black Jacques Brel, le fils de Jacques Mes', Rabakar Amara, Katana, Loko et Tige la Rafale J'écoute Triple S, La vie de rêve, j'écoute Agartha J'écoute Requiem, j'trouve pas l'sommeil, j'écoute J'écoute que Faf Larage, j'écoute le A-K-H Et celui qu'ça embarrasse, eh beh j'm'en bats la race Eh, trop d'rimes, quand j'm'applique, j'suis pas avare Cur de Godric, mentalité Salazar Les cailleras sont d'sortie, bandes de bâtards Du jour au lendemain, j'veux peser comme le Qatar Avec l'atmosphère, j'suis en décalage J'me sens bien quand j'ai un gros joint d'be-her et le 'sky dans mon verre Dieu et Lucifer sont proches de nous Mais, si tu dois payer, mon pote, tu marcheras sur l'genou J'te l'dis qu'une fois, j'ai qu'une parole, fils de Le Z s'enfuit comme l'ovni J'pète le migidi-mic en migidi-Nike, les MC tombent en siguidi-strike Laisse les braves esquiver la BAC éternue, j't'ai vu sniffer la trace Kicker la basse, vider la tasse, un coup d'marteau, j'viens briser la glace Piquer la place, on résout pas l'problème en voulant astiquer la crasse Fuck, migidi-man, mes rimes s'écoulent par six milligrammes Prépare l'plan Vigipirate, tu sens l'odeur du vinyle qui crame Baiser l'État, les scélérats, c'est fêlé, gars, baissez les bras Même leur matraque télescopique n'suffira pas à dresser les rats J'ai mal à la tête alors, chérie, parle à la bête Y a pas d'tralala, check, déguste bien la banane à sec T'as voulu faire le narvalo, mais c'est mort, j'suis venu tout saloper Tu vas galoper, si t'as mal aux pieds, va t'suicider, t'as plus qu'à sauter J'm'en bats les, les, les couilles, flow sans limite, tu voudrais pomper sur moi ? Préparez les douilles mais, me checker, ça fait plus mal que tomber sur l'bras J'ai écrit c'texte à la va-vite pour que t'écoutes les autres Mon rap te bouffe les côtes, tu fourres les mômes, les rappeurs schnouffent l'héro' Suce mon chibidi-chibre, j'fume mon chiguidi-shit Sors ma diguidi-dick, peu importe l'instru', ma couille, tu sais c'est qui les kick Fais pas l'narvalo, à tiser tout seul, tu chies dans ton froc Tu t'replies dans ton bloc, à la moindre crari, tu dis qu'c'est ton pote J'fais pas d'guiliguili, file d'ici, t'es tout riquiqui Anti schmilblick, mini, veni, vidi, veni, vidi, vici On fait des roulés boulés pour écouler, pour désaouler T'as vu des fous débouler, chouravez mes CD si vous les voulez J'biguidi-pète le beat, diguidi-tête de bite, beaf de diguidi-steak de rimes Tsiguidi, tsiguidi, tsiguidi, sexes de films J'digui-dis que d'la merde, j'biguidi-pète le biguidi-beat Diguidi-tête de diguidi-bite, ma rime casse les canines d'un biguidi-pit' J'vois tous ces pédés qui niquent, rien n'vaut une femme, même pas technique En minikini, ma mini mignonne dans un parc pour un pique-nique Tu veux qu'je sorte le flow qui botte le dos, qui craque les côtes et les os ? Écoutez les autres, je fuck les faux, t'es fou, il faut évacuer le fauve Aaah, j'arrive même plus à m'arrêter, v'là la pétée Tu veux rapper ? Tu vas galérer, t'es trop petit, parle à mes pieds Va t'entraîner Seul dans tes rêves, tous endettés Hey, wow, qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Grand, hey NarvaLooney Tunes au côté fou si sous-coté qu'ç'en est douteux Et doté d'un côté si doux qu'ç'en est fou, le bouffe Que Dali déboule chez Mouv' et tout s'écroule, écoutez c'couplet sous beuh Conçu pour tous ceux à qui on a dit qu'c'était pas fait pour eux J'sors d'où on t'oublie bien avant d'te retrouver tout bleu Amateur de jus d'vache aux airs de sacré bouseux Force rouge est tout près, fin prêt à tous les découper sous peu Wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Deadi m'a appelé pour un freestyle, j'ai dit Pourquoi pas ? J'ai regardé sous l'placard qui m'servait d'tête Si j'avais des textes, j'en avais mais qu'avec des thèmes Et j'étais avec des potes, on faisait des fléchettes Peut-être que, pour vous, c'est l'échec Mais, moi, j'étais content, j'passais du bon temps devant des mecs amers Le rap m'a p't-être pas permis de rendre fière ma mère Mais, être payé à faire d'la merde, c'est grave le bon plan Bon, écrire quand t'as pas d'idée, c'est pas pratique Là, j'avais autant d'inspiration qu'un asthmatique Hun, mais comme, l'ego, c'est l'avenir J'allais faire comme tout l'monde j'allais raconter ma vie Donc, hier m'est arrivé un truc étrange Ma mère m'a dit qu'elle m'appelait cinq minutes, ça en a duré trente Hun, j'ai fait l'amour y a exactement douze heures C'est quand même beaucoup mieux quand j'le fais pas tout seul Cet été, j'ai découvert de nouvelles métropoles En c'moment, j'regarde Prison Break, c'est éclaté au sol Mais j'continue, ça mérite un bon prix J'viens d'lire la définition d'métropole, j'ai rien compris Ah, ces derniers temps, j'ai moins d'mal à assumer qu'j'aime l'anal Que Yves Duteil et Serge Lama J'suis toujours dans mes pensées La meilleure façon qu'j'ai trouvée pour faire d'la maille, c'est d'la dépenser Demain, j'ai rendez-vous chez Sony pour parler stratégie Ça m'intéresse autant qu'le sport avec des gens tétraplégiques J'tourne un clip la semaine prochaine, j'ai pas trop d'idées J'espère qu'le réalisateur sait improviser Vos raps à deux balles ont le même parfum, m'font taper des barres comme une hyène qu'a faim Aussi condamné qu'un John Caffey, Deadi déraille à la vitesse d'un train Pas b'soin d'médecin, d'tes soins, j'détiens à la fois la maladie et l'vaccin Mon fléau fait l'effet d'un verre d'absinthe que tu bois cul-sec et digères moyen Tu pourrais finir invalide, à faire le malin face à celui qu'le Malin valide Assassin linguistique, stick à la main, cannabis, file Mon côté schlague a pas pris d'ride, mérite une prime à la rime Une visite à l'asile, oui, j'ai déjà l'sourire du Joker plaqué sur la face à l'idée qu'ça arrive Oui, j'milite pour l'euthanasie de ceux qui aiment pas la vie, paralysés ou pas La matrice est tout-par', alors pourquoi la fuir ? On sait déjà tous où tout ça va ni-f' Grand, hey, on sait déjà tous où tout ça va ni-f' Wow, qu'-qu'-qu'-qu'-qu'est-ce qu'il s'passe ? Déboulé tout droit de L'uZine, hallucine, le signe est un fait tatoué dans mon cerveau Sur le beat, j'ai le swing, mais ma ville a le crime, ma gueule, demande à Jean-Pierre Pernaut Sens-tu l'urine en bas de tous les bâtiments ? aussi rapidement C'est là qu'ils t'perquis', quand les dés-kis' se déguisent, narvalo, t'y vois qu'du feu C'est des pro' du jeu, prends-le comme tu veux ou comme une salope au bout d'une queue Ces bâtards m'engrainent, m'entraînent, m'emmènent, m'assimilent sous les mers En-d'ssous des pierres du ter-ter, autour d'mes frères, mais c'est pas c'que j'voulais faire Vous êtes verts de rage, j'en ai pas vu un me l'montrer J'ai les mains dans la malle, et le mal a la mouille laisse tomber Tous ces pédés dans le rap qui croyaient penser savoir kicker C'est niqué, j'allume les mille manies en un coup d'briquet Je crame l'âme, avale la vitesse, dans la vie d'tess' Mais la rue t'laisse sur le pavé, l'ami, mais les mots n'enlèveront pas toute les larmes de ma tristesse Saigne au-d'ssus des les politiques, les élus viennent, règnent Demande à et à si j'les ai pas vus courir devant l'comico Tendez la poutre car le rap est à pendre, c'est attendre et attendre pour remonter la pente Car le vide assassine, petit à petit, les gars, il est quasi l'heure Ma gueule, ma gueule, ne cherche, pas mon équipe a la voie d'la guerre , vole un imper', il pleut des sabres, on n'a rien à perdre, c'est clair J'suis un délire go-fast, j'ai le sourire à Frank Lucas Rap de bâtard, rap de bâtard, comme un coup d'schlass dans un thorax Faites pas les cons, le rap, c'est du ski de fond, j'rappe en direct des bas-fonds J'vais les gifler, ces bouffons, j'vais leur gicler sur le front, ça fait plaisir comme avoir un plavon C'est pas fini comme l'amour d'un mort, je sors la nuit quand les oiseaux dorment Je n'ai qu'une vie, tout pour la daronne, nous, c'est L'uZine, le Z, on charbonne Je vais t'briser la colonne, boisson vodka de Pologne J'ai des potos, des givrés, sur la photo, on te rogne, j'ai des potos, des ivrognes Le shit est bon, c'est du népalais, on fait le mal parce qu'il le fallait Gros, fais belek, j'ai pas d'cran d'arrêt, j'veux pas finir en maison d'arrêt À grailler des pâtes, rêver de chattes, j'vois qu'mes pensées qui s'échappent J'veux plus de roro que l'pape, je n'partirai pas comme Fabe Participer n'a plus aucune importance, tout peut s'arrêter n'importe quand, la vie, c'est pas du cinéma Te dis jamais qu'y aura d'autres plans, j'gratte comme transplante et puis l'ppé-ra comme j'plante, et la prod' prend cher Non seulement, j'en suis pas mais j'ai pas votre temps, j'suis d'ceux qui font ça comme personne et aussi comme Ouais, toujours profondément plongé dans mon délire à la Ghostland Évidemment qu'Deadi va m'graille mais c'est pas grave, ça parle, nous deux ensembles c'est la bataille de Wagram Comme des matraques que ça tape ou ça crame sur de la drill, de la cloud ou d'la trap Z'ont toujours pas compris qu'c'était du 4x4 et que ça changeait rien, l'rap sans nous, c'est l'porno sans les nains Essayer d'nous avoir, ça serait comme d'essayer d'applaudir ou s'branler sans les mains Pas assez l'âge pour m'comporter comme un homme, mais bien trop pour avoir les boules Pour la mort d'Jackie Chan, j'ai pleuré comme un môme pour la mort de Johnny, j'ai repris deux fois des moules Ça rime à rien mais ça rime v'là bien, j'arrive comme Céline au dîner du CRIF En espérant qu'il m'arrivera rien, pour ça, je touche du bois comme Jésus Christ On fait ça facile, pour nous, ça équivaut à jouer à la belotte Enfin, même plus encore, j'ai jamais su comment on jouait à la belette Mais, si, un putain d'jour, de ma vie, j'fais la vedette Tire-moi la joue comme la meuf d'Eraserhead C'est pas fini, ça va être un festival, ça va si vite, comme une voiture de keuf qui crame J'aime le p'tit bruit que font leurs jolies têtes qui craquent, comme celui d'un vinyle ou d'une paire de fesses qui claque Harakiri, j'suis sûr en équilibre, on verra c'que t'esquivera J'suis et t'es , j'suis enfer en Tacchini, wow, Deadi, j'ai aucune idée d'c'qu'il s'passe Plutôt rester à la traîne que d'me faire traiter d'tre-traî ou même de traîner du côté d'où j'traîne Tout c'qui m'adoucit rend ma douce vert, depuis l'jour où j'ai rencontré la Gelato, j'ai la toux d'Serge L'héritier d'un San-Nom écarlate et la bouche sèche, plutôt que d'écouter c'que t'écoutes T'as les coups d'blues de Bernie, j'ai ses coups d'pelle et mets des coups d'batte à tous ceux qui jouent les clowns, bref Vous êtes tous mal, solvable ou pas, tout s'paye, tout s'mêle, rouges ou pas, on finira tous pâles et tous raides Good bye, pit' ou pas, tout s'brade, plutôt y passer que d'passer pour l'best Prions pour que mon côté bat les couilles tienne, quitte à passer pour un taré où qu'j'aille Quitte à tienne, quitte à c'que mon côté bat les couilles gagne Ils veulent parler de rap ou de trap, ils ne feraient même pas la différence entre les deux J'prends n'importe quel beat et j'le râpe, je t'ouvre le point vital entre les yeux Peu importe le flow, il me correspond, la trap n'a rien inventé, oh, t'es con Obligé de leur rappeler d'où viennent là, faites pas, j'ai haussé l'ton J'emprunte le flow de Cleveland pour démarrer ce texte en beauté Tous les styles de rap ont déjà existé, c'est juste qu'ils étaient démodés Peu importe le flow, il m'envahit, le rythme est le rite, je prends partie Seule la mélodie me rend actif, j'ai pas, je l'ai dans l'calcif Donne-moi du flow, j'vais leur montrer, ils commencent à m'énerver à raconter Que de la merde, ils n'y connaissent rien, on l'sait, mais quelle bonté pour moi de les faire tomber Aucune limite ne pourrait exister à mon égard, j'touche tous les extrêmes opposés sans faire le grand écart Pour moi, chaque note jouée est une percussion, j'fais danser les breakeurs même sans faire du son Tu prétends qu'le BPM définit le revers de ma veste, j'vais t'prouver l'contraire Si l'rap était seulement celui qu'tu connais mama j'pourrais être son père Me faites pas croire qu'le rap à l'ancienne était plus conscient qu'le rap d'aujourd'hui J'vais t'rappeler c'qui marchait et c'que, toi, t'écoutais, oui, bien avant qu'tu commences à faire crari1</t>
         </is>
       </c>
     </row>
@@ -1755,7 +1755,7 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Diam's Qui veut m'enseigner mon art ? Va te renseigner moi j'ai tout vu et entendu Du haut de mon arbre Le rap c'est mon art Tu finiras par l'remarquer J'veux pas mentir au peuple, lui dire que pour moi ça roule Mentir aux jeunes en disant que c'est cool quand ça défouraille Va pas m'faire croire que le rap c'est de l'argent comptant Faut m'croire avec une barre on est largement content Dans ce milieu, j'aime ceux qui ne mentent à quiconque Et toi pourquoi tu parles ? Vas-y ferme-la petit con J'ai toujours la vibes dernier cri, des larmes dans mes écrits Mais j'ai le sourire quand tu viens m'dire que tu m'apprécies J'peux pas dire, que je rêve de vendre 1000 disques Moi j'rêve de vendre mes disques à 1000 personnes puissance 10 C'est pas une vie des fois je gagne même pas le SMIC Mais j'suis là t'as vue on s'bise toi et moi c'est show bizz J'suis incomprise mais j'veux être trop prisée Y'a que toi qui pourras faire en sorte que j'puisse tout briser Viens viens dans mon monde je m'en fous d'connaître des re-sta Moi je veux des mômes et du monde des MJC aux stades A ce stade de ma vie j'veux juste qu'on me connaisse et qu'on m'kiffe Pas qu'on m'test et qu'on m'kill Moi c'est Diamant au cas ou tu saurais pas T'aime plus l'rap ça t'soule donc tu m'appelles et je répare J'peux pas t'en vouloir d'avoir sous-estimé mon flair Faut pas me sous-estimer mon frère Car j'veux tout briser ça fait trop long time que j'attends la gloire J'veux qu'on m'aime à défaut qu'on taille J'suis pas antisociale parce que j'aime pas la musique de merde Moi j'suis ouverte big up à la musique d'outre-mer Big up à toutes les chanteuses dans les refrains, big up aux foulex big up aux tubes Je m'en bas les ff.... d'être rentrée dans le moule Moi j'veux qu'on dise que j'suis d'la bombe Big up a ceux qui on kiffé toute l'époque de Time Bomb Rappelle-toi quand ça kickait sec à Paname Je suis de l'école ou tu ne kick pas si tu n'as pas l'âme Concours de flow, de phases, de balles, de larmes 2 Bal 2 Neg, Solo ou Solaar Un truc de fou renoi 113 et Doudou Masta L'époque où y'avait peu bizz du rap et basta Nouveaux, anciens, zoulous, cailleras Big up à LSkadrille, Sniper et Kayna Bercée à la Soul au Rap et à la Funk Rappelle-toi l'époque où y'avait trop de mecs sapés à la punk Le rap d'antan où y'avait même pas d'thème Crois-moi ça a changé va écouter Tandem Vendredi soir y'avait Disiz et ATK Ce soir c'est freestyle Ambiance scandale vas-y préviens tes gars Tout était dans l'style, le kiff et l'attitude A 10 ans j'ai pris une grosse gifle avec Rapattitude Puis ça défile, les rappeurs se succèdent Qui aurait cru qu'un jour on aurait tous ce succès Moi on m'a pas aidé, j'ai galéré t'as pas idée Big up à la FF, Psy 4 De La Rime, KDD J'fait pas la groupie, moi j'suis loin d'ça Et des amis dans l'bizz ben crois-moi j'ai pas besoin d'ça J'ai toujours eu la tête sur les épaules Big up au Ménage à 3, La Cliqua, IV My People J'étais sauvage j'avais le bic amer Ma plus grosse référence ça reste les Nique Ta Mère ConcertS blindés du feu et des pogos J'étais opé moi j'connaissais par cur les Sages Po Pozoèzè ! Toujours à la page dans le combat d'Idéal J Different Teep, Les Petits Boss, Démocrates D et Daara J Afro Jazz, Roots'neg et La Brigade K-Special, Double Pact, Saïan Supa et Psykopat Crois-moi j'connais l'histoire de ceux qui m'ont marquée Le hip hop c'est mon art tu finiras par l'remarquer Si tu veux on fait un quiz J'te parlerai de Factor X, Kazkami, Triptik et Lagonz Viv' J'oublie pas D.Abuz System, Ekoué, les Spécialistes EJM, Express D, APM Yavait Saxo, Polo, Rocé MIC, Daomen, Lady Laistee et Busta Flex pour toaster Qui veut menseigner mon art ? Vas te renseigner moi jai tout vu et entendu du haut de mon arbre Big up à IAM, Neg Marrons, et Chiens De Paille Kennedy, Karlito, Isïs, Rohff et Intouchable Lionel D, 3ème Oeil et la Scred Connexion Teemour, Driver, la Clinique et La Caution A tous ceux qui bossent encore, qui ramènent du neuf Carré Rouge, MASS, OSFA, Less' du 9 Ailleurs ou dans lEssone, Assassin et Mystik Beat de Boul, lAgression Verbale et Futuristiq La liste est longue, dur de pas zapper des blazes Faf Larage, 147 Code et Boss of Scandalz A tous ceux qui déroulent, qui défoncent et qui froissent Arsenik, tu sais, Sinik et Loz Monzas Moi j'suis qu'une ptite nana qui a voué ses vers à vous Et faut avouer que jvise le nirvana Dans tous les genres, B-love, Matt Houston et Lion Positive Black Soul, Destinée, Vibe dans mon album Joublie pas Fabe, K-reen et China Jimmy Sissoko, Mafia Trece et Secteur Ä Jalane, Wallen, La Mafia Underground Coup Direkt, Assia, Kayliah, ETA et leur bande Lord Ko, Raggasonic, Faya D et Nuttea Tonton David, Soundkail et les Tiwony J'manque de temps, si seulement jpouvais placer Ceux que jconnais pas mais qui vont tous nous déclasser Aujourdhui jsuis officielle demain je le serais ptêtre plus Donc jsuis aussi celle qui dois défoncer lactu Moi cest Diamant au cas où tu le saurais pas Taimes plus le rap tu mappelles et je répare You might also like Diam's Diamant qui veut m'enseigner mon art Jsais pas si tu connais, compte en banque vidé Sayd des Mureaux, j'sais pas si tu connais 91, Diamant, Diams comme tu veux Jsais pas si tu connais Paroles rédigées et expliquées par la communauté RapGenius France</t>
+          <t>Diam's Qui veut m'enseigner mon art ? Va te renseigner moi j'ai tout vu et entendu Du haut de mon arbre Le rap c'est mon art Tu finiras par l'remarquer J'veux pas mentir au peuple, lui dire que pour moi ça roule Mentir aux jeunes en disant que c'est cool quand ça défouraille Va pas m'faire croire que le rap c'est de l'argent comptant Faut m'croire avec une barre on est largement content Dans ce milieu, j'aime ceux qui ne mentent à quiconque Et toi pourquoi tu parles ? Vas-y ferme-la petit con J'ai toujours la vibes dernier cri, des larmes dans mes écrits Mais j'ai le sourire quand tu viens m'dire que tu m'apprécies J'peux pas dire, que je rêve de vendre 1000 disques Moi j'rêve de vendre mes disques à 1000 personnes puissance 10 C'est pas une vie des fois je gagne même pas le SMIC Mais j'suis là t'as vue on s'bise toi et moi c'est show bizz J'suis incomprise mais j'veux être trop prisée Y'a que toi qui pourras faire en sorte que j'puisse tout briser Viens viens dans mon monde je m'en fous d'connaître des re-sta Moi je veux des mômes et du monde des MJC aux stades A ce stade de ma vie j'veux juste qu'on me connaisse et qu'on m'kiffe Pas qu'on m'test et qu'on m'kill Moi c'est Diamant au cas ou tu saurais pas T'aime plus l'rap ça t'soule donc tu m'appelles et je répare J'peux pas t'en vouloir d'avoir sous-estimé mon flair Faut pas me sous-estimer mon frère Car j'veux tout briser ça fait trop long time que j'attends la gloire J'veux qu'on m'aime à défaut qu'on taille J'suis pas antisociale parce que j'aime pas la musique de merde Moi j'suis ouverte big up à la musique d'outre-mer Big up à toutes les chanteuses dans les refrains, big up aux foulex big up aux tubes Je m'en bas les ff.... d'être rentrée dans le moule Moi j'veux qu'on dise que j'suis d'la bombe Big up a ceux qui on kiffé toute l'époque de Time Bomb Rappelle-toi quand ça kickait sec à Paname Je suis de l'école ou tu ne kick pas si tu n'as pas l'âme Concours de flow, de phases, de balles, de larmes 2 Bal 2 Neg, Solo ou Solaar Un truc de fou renoi 113 et Doudou Masta L'époque où y'avait peu bizz du rap et basta Nouveaux, anciens, zoulous, cailleras Big up à LSkadrille, Sniper et Kayna Bercée à la Soul au Rap et à la Funk Rappelle-toi l'époque où y'avait trop de mecs sapés à la punk Le rap d'antan où y'avait même pas d'thème Crois-moi ça a changé va écouter Tandem Vendredi soir y'avait Disiz et ATK Ce soir c'est freestyle Ambiance scandale vas-y préviens tes gars Tout était dans l'style, le kiff et l'attitude A 10 ans j'ai pris une grosse gifle avec Rapattitude Puis ça défile, les rappeurs se succèdent Qui aurait cru qu'un jour on aurait tous ce succès Moi on m'a pas aidé, j'ai galéré t'as pas idée Big up à la FF, Psy 4 De La Rime, KDD J'fait pas la groupie, moi j'suis loin d'ça Et des amis dans l'bizz ben crois-moi j'ai pas besoin d'ça J'ai toujours eu la tête sur les épaules Big up au Ménage à 3, La Cliqua, IV My People J'étais sauvage j'avais le bic amer Ma plus grosse référence ça reste les Nique Ta Mère ConcertS blindés du feu et des pogos J'étais opé moi j'connaissais par cur les Sages Po Pozoèzè ! Toujours à la page dans le combat d'Idéal J Different Teep, Les Petits Boss, Démocrates D et Daara J Afro Jazz, Roots'neg et La Brigade K-Special, Double Pact, Saïan Supa et Psykopat Crois-moi j'connais l'histoire de ceux qui m'ont marquée Le hip hop c'est mon art tu finiras par l'remarquer Si tu veux on fait un quiz J'te parlerai de Factor X, Kazkami, Triptik et Lagonz Viv' J'oublie pas D.Abuz System, Ekoué, les Spécialistes EJM, Express D, APM Yavait Saxo, Polo, Rocé MIC, Daomen, Lady Laistee et Busta Flex pour toaster Qui veut menseigner mon art ? Vas te renseigner moi jai tout vu et entendu du haut de mon arbre Big up à IAM, Neg Marrons, et Chiens De Paille Kennedy, Karlito, Isïs, Rohff et Intouchable Lionel D, 3ème Oeil et la Scred Connexion Teemour, Driver, la Clinique et La Caution A tous ceux qui bossent encore, qui ramènent du neuf Carré Rouge, MASS, OSFA, Less' du 9 Ailleurs ou dans lEssone, Assassin et Mystik Beat de Boul, lAgression Verbale et Futuristiq La liste est longue, dur de pas zapper des blazes Faf Larage, 147 Code et Boss of Scandalz A tous ceux qui déroulent, qui défoncent et qui froissent Arsenik, tu sais, Sinik et Loz Monzas Moi j'suis qu'une ptite nana qui a voué ses vers à vous Et faut avouer que jvise le nirvana Dans tous les genres, B-love, Matt Houston et Lion Positive Black Soul, Destinée, Vibe dans mon album Joublie pas Fabe, K-reen et China Jimmy Sissoko, Mafia Trece et Secteur Ä Jalane, Wallen, La Mafia Underground Coup Direkt, Assia, Kayliah, ETA et leur bande Lord Ko, Raggasonic, Faya D et Nuttea Tonton David, Soundkail et les Tiwony J'manque de temps, si seulement jpouvais placer Ceux que jconnais pas mais qui vont tous nous déclasser Aujourdhui jsuis officielle demain je le serais ptêtre plus Donc jsuis aussi celle qui dois défoncer lactu Moi cest Diamant au cas où tu le saurais pas Taimes plus le rap tu mappelles et je répare Diam's Diamant qui veut m'enseigner mon art Jsais pas si tu connais, compte en banque vidé Sayd des Mureaux, j'sais pas si tu connais 91, Diamant, Diams comme tu veux Jsais pas si tu connais Paroles rédigées et expliquées par la communauté RapGenius France</t>
         </is>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Ah an, ahan... One Shot Disiz la Peste Quinto Bête de Duo Conquerir la terre x2 La réussite de la connaissance, c'est ce qui abîme tout les crews Co-Coincidence, mon rap grandit quand j'y pense Con-Conquerir la terre Ra-ra-ra-rassembler les légions S'te plait met plus de mayonnaise dans mon sandwich, mec Fais pas l'radin parce que p't'être qu'un jour j's'rais riche, mec J'suis l'inconnu du rap français Je suis le plus chim mais j'm'en bats les couilles Ma chérie quand j'rappe, même ton keum qu'a pas de chatte mouille Foute à barge c'est ma couille, Rimeurs à Gages c'est mon groupe One Shot c'est mon crew, Chéri coco c'est mon coup RER D, 402 P.L.C Evry Si tu veux m'clash, fais pas ton blair, viens ici Si tu kiffes Disiz, tu connais mon maxi C'est de la bête de bombe, t'es en érection sur Taxi Autant pour moi, pour cette intro pleine d'egotrip, fallait qu'j'me lache Avec l'album Ace du 9 et de Nuttea, tu peux te T.H.E., T.H.F Fais pas le chaud, j'suis plein de fraîcheur Bête de clash, Disiz la Peste, j'suis le challenger Ce putain de challenge frérot, c'est une vrai cure de vitamine De réussir, faire que le bien, garder ce que la vie t'ammène Et le plus grand des chen d'essayer de toucher les gens Sans faire la pute par le fait qu'on touche de l'argent C'est ma cause Faf, c'est la mienne aussi Avec minutie, j'm'initie dans l'esprit du MC qui s'initie S'initie un texte passé insignifiant Dans la forme c'est qu'un freestyle, dans le fond c'est plein de sens J'ai qu'un challenge dans ma vie c'est de la reussir Avec plein d'amour, une famille et dieu, je pourrais mourrir You might also like x2 Disiz et Vasquez, deux banlieusards hors normes, à ce qu'on dit Y'a un soucis quand tu Ter-ma le fond La forme du coup, les normes, t'imagines Ce putain de challenge frérot, c'est une vrai cure de vitamine J'attend pas de signal, l'amour du métier m'appelle encore Et le but premier si tu me connais pas c'est la recherche et tenir l'effort Est-ce du neuf mec, c'est pas pour rien, crois-moi Tiens dans ta tête, où que tu sois t'auras des nouvelles dans les six mois Eh la Peste, je suis vraiment fiers d'équipe C'est du tout frais keum, Eh comme ça moi un album Quel trip ! Et quel putain de flip' à l'idée de flair Mais je pas le faire et qu'après c'est la guerre Et ce que je fais, c'est fait exprès clair Eh ouais, y'a des moments comme ça Où pris par surprise, l'enthousiasme déborde sur la hantise Halleluya Exploitons nos matières grises, même fira Je reste lucide pour pas bacler mes divers chantiers Entier quitte à morphler, j'envisage pas de facilité Dans ce qui est depuis un temps, ma principale activité Tu comprend faut pas faire chier un rappeur qui a faim Plus tu l'snobe quand il vient, plus la conquête ira loin Pendant que tu crois que c'est la fin Ce putain de mec en chien se maintient et reviens sur ta gueule Tôt ou tard, c'est pas c'qui l'retiens de faire des dommages Boxer ce bordel à volonté, j'ai éviter les voies scolaires de garage Pas sans flippé, tu croyais pas que j'allais rater l'occaz' De représenter un Ace du 9 et un Rimeur à Gage A la conquête x2 L'indifférence de pourri s'payent Se croire au dessus pareil, bon ! on evitera de jouer au con Parce que justement nous on sait que tout se paye Aujourd'hui, on est là avec un peu de métier dans l'sac Et l'envie de se trouver une bonne place Pour pas bé-ton le jour où ils secouerons le sac Attention, je vais dire des gros mots J'sais que suis grossier, parfois fantasque Disiz, flow fantastique, pas besoin de masse Sale pute, j'rappe pas pour que t'astique ma heute Fais pas le sophistiquer, plutôt caustique mec Plutôt qu'on s'tâte, mec, j'te nique au mic Et puis constate vite, mâte que la Peste est d'attaque Tu vois ce qu'on veut dire On est donc un putain de produit sur lequel on se doit d'investir Faire tout le tour C'est pas vraiment le pire La route me fait prendre la largeur, bien plus rageur Laisse du neuf, remet les pages à l'heure Sur ce track de Ralph , rafale de oufs, c'est le beat qui fait tout Mon flow t'étouffe J'pars à la conquête avec Quinto Malheureux qui m'teste Rimes primaires mais efficace, c'est celles de Disiz la Peste Disiz-ze, evites les rimes bizarres Aiguise, bise, brise, jette ton flow comme le blizzard J'maintiens le bras d'honneur au monopole J'maintiens le soutien sans fin aux tontons de la vieille école Et aux tontons de la nouvelle aussi Du simple travailleur au M.C A nous plaindre de jeunes bleus saint qui luttent pour leurs vies Maintenant j'suis bon des femmes, préfèrent la bande F.M Quand presse co, pijal puis d'M.P, tu vois ma bande est ferme Disiz, c'est ça la guerre Tu veux qu'on s'enterrent Envie d'une carrière, j'cultive le savoir faire, fous la De-mer Il est subversif le vers, tu trouve Pour ta programation de groove Ah, si tu savais c'qu'on couve Et ça n'est pas encore assez, j'trouve</t>
+          <t>Ah an, ahan... One Shot Disiz la Peste Quinto Bête de Duo Conquerir la terre x2 La réussite de la connaissance, c'est ce qui abîme tout les crews Co-Coincidence, mon rap grandit quand j'y pense Con-Conquerir la terre Ra-ra-ra-rassembler les légions S'te plait met plus de mayonnaise dans mon sandwich, mec Fais pas l'radin parce que p't'être qu'un jour j's'rais riche, mec J'suis l'inconnu du rap français Je suis le plus chim mais j'm'en bats les couilles Ma chérie quand j'rappe, même ton keum qu'a pas de chatte mouille Foute à barge c'est ma couille, Rimeurs à Gages c'est mon groupe One Shot c'est mon crew, Chéri coco c'est mon coup RER D, 402 P.L.C Evry Si tu veux m'clash, fais pas ton blair, viens ici Si tu kiffes Disiz, tu connais mon maxi C'est de la bête de bombe, t'es en érection sur Taxi Autant pour moi, pour cette intro pleine d'egotrip, fallait qu'j'me lache Avec l'album Ace du 9 et de Nuttea, tu peux te T.H.E., T.H.F Fais pas le chaud, j'suis plein de fraîcheur Bête de clash, Disiz la Peste, j'suis le challenger Ce putain de challenge frérot, c'est une vrai cure de vitamine De réussir, faire que le bien, garder ce que la vie t'ammène Et le plus grand des chen d'essayer de toucher les gens Sans faire la pute par le fait qu'on touche de l'argent C'est ma cause Faf, c'est la mienne aussi Avec minutie, j'm'initie dans l'esprit du MC qui s'initie S'initie un texte passé insignifiant Dans la forme c'est qu'un freestyle, dans le fond c'est plein de sens J'ai qu'un challenge dans ma vie c'est de la reussir Avec plein d'amour, une famille et dieu, je pourrais mourrir x2 Disiz et Vasquez, deux banlieusards hors normes, à ce qu'on dit Y'a un soucis quand tu Ter-ma le fond La forme du coup, les normes, t'imagines Ce putain de challenge frérot, c'est une vrai cure de vitamine J'attend pas de signal, l'amour du métier m'appelle encore Et le but premier si tu me connais pas c'est la recherche et tenir l'effort Est-ce du neuf mec, c'est pas pour rien, crois-moi Tiens dans ta tête, où que tu sois t'auras des nouvelles dans les six mois Eh la Peste, je suis vraiment fiers d'équipe C'est du tout frais keum, Eh comme ça moi un album Quel trip ! Et quel putain de flip' à l'idée de flair Mais je pas le faire et qu'après c'est la guerre Et ce que je fais, c'est fait exprès clair Eh ouais, y'a des moments comme ça Où pris par surprise, l'enthousiasme déborde sur la hantise Halleluya Exploitons nos matières grises, même fira Je reste lucide pour pas bacler mes divers chantiers Entier quitte à morphler, j'envisage pas de facilité Dans ce qui est depuis un temps, ma principale activité Tu comprend faut pas faire chier un rappeur qui a faim Plus tu l'snobe quand il vient, plus la conquête ira loin Pendant que tu crois que c'est la fin Ce putain de mec en chien se maintient et reviens sur ta gueule Tôt ou tard, c'est pas c'qui l'retiens de faire des dommages Boxer ce bordel à volonté, j'ai éviter les voies scolaires de garage Pas sans flippé, tu croyais pas que j'allais rater l'occaz' De représenter un Ace du 9 et un Rimeur à Gage A la conquête x2 L'indifférence de pourri s'payent Se croire au dessus pareil, bon ! on evitera de jouer au con Parce que justement nous on sait que tout se paye Aujourd'hui, on est là avec un peu de métier dans l'sac Et l'envie de se trouver une bonne place Pour pas bé-ton le jour où ils secouerons le sac Attention, je vais dire des gros mots J'sais que suis grossier, parfois fantasque Disiz, flow fantastique, pas besoin de masse Sale pute, j'rappe pas pour que t'astique ma heute Fais pas le sophistiquer, plutôt caustique mec Plutôt qu'on s'tâte, mec, j'te nique au mic Et puis constate vite, mâte que la Peste est d'attaque Tu vois ce qu'on veut dire On est donc un putain de produit sur lequel on se doit d'investir Faire tout le tour C'est pas vraiment le pire La route me fait prendre la largeur, bien plus rageur Laisse du neuf, remet les pages à l'heure Sur ce track de Ralph , rafale de oufs, c'est le beat qui fait tout Mon flow t'étouffe J'pars à la conquête avec Quinto Malheureux qui m'teste Rimes primaires mais efficace, c'est celles de Disiz la Peste Disiz-ze, evites les rimes bizarres Aiguise, bise, brise, jette ton flow comme le blizzard J'maintiens le bras d'honneur au monopole J'maintiens le soutien sans fin aux tontons de la vieille école Et aux tontons de la nouvelle aussi Du simple travailleur au M.C A nous plaindre de jeunes bleus saint qui luttent pour leurs vies Maintenant j'suis bon des femmes, préfèrent la bande F.M Quand presse co, pijal puis d'M.P, tu vois ma bande est ferme Disiz, c'est ça la guerre Tu veux qu'on s'enterrent Envie d'une carrière, j'cultive le savoir faire, fous la De-mer Il est subversif le vers, tu trouve Pour ta programation de groove Ah, si tu savais c'qu'on couve Et ça n'est pas encore assez, j'trouve</t>
         </is>
       </c>
     </row>
@@ -1789,7 +1789,7 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>- La baraque sa mère ! - C'est là, c'est là ? T'es sûr que c'est là ? - Un plan sur, sans accros - Vas-y gare la caisse, évite les réverbères - Mais qu'est-ce que c'est ça ? - J'y pense chaque fois - Il commence à me gonfler ce gros naze - Il a pas digéré - T'inquiètes, ces portes là ça me connait - Tu vois la porte, tu vois mon pied ? - Bizarre qu'il y est pas d'alarme - Si on voulait des canapés, on se ferait des Conforma gros nazeYou might also like</t>
+          <t>- La baraque sa mère ! - C'est là, c'est là ? T'es sûr que c'est là ? - Un plan sur, sans accros - Vas-y gare la caisse, évite les réverbères - Mais qu'est-ce que c'est ça ? - J'y pense chaque fois - Il commence à me gonfler ce gros naze - Il a pas digéré - T'inquiètes, ces portes là ça me connait - Tu vois la porte, tu vois mon pied ? - Bizarre qu'il y est pas d'alarme - Si on voulait des canapés, on se ferait des Conforma gros naze</t>
         </is>
       </c>
     </row>
@@ -1806,7 +1806,7 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>Ok, on va enregistrer votre déposition Samedi 17 Janvier 1998, 5h37 du matin...Allez-y Hier matin je crisais, avais un rendez-vous, trop de pression Pour un job après un an de galère, fais pas l'con Ce coup-ci je le sens, s'il faut faire du rentre-dedans Pas peur des longs déplacements Sportif comme ils le demandent Embauché sur le champ par une meuf, un top En plus j'avais la côte, passer le week-end avec cette grosse La condition étant de commencer à l'instant Partant, je prends les devants Hey, c'est où qu'il faut se rendre? Attends c'est loin d'ici qu'elle me dit Faut aller voir le boss, si tu conviens après on fait la fête, fils. Chaud, le gros lot, le boulot et la go Dans sa BM, tout le trajet j'y ai pensé, hey mec Là j'réalise où je me trouve, dans les bois Genre Twin Peaks, bien paumé, j'ai les foies En route pour un séminaire de bourges, je bouge, écoutes Rien à foutre, du moment qu'ils m'payent j'approuve C'était une sorte de manoir, un truc sinistre...Enfin moi c'est Mon job qui m'intéressait de toute façon. Bon j'dois dire que La meuf...enfin... On y arrive, drôle d'endroit et des tours on guette En effet des reflets paraissent en haut au coin des fenêtres Une grande cour, autour des bois, au centre la bâtisse Un truc restauré, lugubre et froid, un triste édifice L'orage menaçant, éclairs foudroyants en guise de bienvenue Faf Larage à fond dans sa voiture Elle au volant me dit T'inquiète, je m'occupe de tout Va te reposer ou mange, après on a la nuit pour nous Un coq en pâte, costard, cigare, ça va Maintenant je suis prêt pour être présenté l? A la réception, trop de monde, j'avais Pas prévu tous ces regards intrigués Drôle de réception...bizarre, la salle et tout, lugubre Tout le monde me regardait...heu...bizarre Dans la pièce 20 invités, j'ai noté et ils me testent Si ça sent le fric ? Fils ça en est bourré, cette Situation me gênait au dbut Et la meuf, où elle est ? Je sais plus elle a disparu Mon cul! Me v'là, siégeant au milieu de la finance Partageant le homard aux chandelles avec la vieille France Discours déchaîné, au sommet, la société Comme ils la voyaient, et l'économie mal gérée Et moi là j'étais excédé, prêt à exploser Leur philosophie m'a dégoûté, ces cons méprisaient le monde Et j'ai tout de suite pris parti pour les miens J'ai pas à avoir honte si j'ai pas de blé, pas de boulot Enclin à aller plus loin, filade s'il le faut Les poings serrés... Putain des nerfs j'en shoote un, j'en plie un Me débat, envoie les pieds, les mains, la tête Afin de me créer une brèche, j'en défonce un Réaliser enfin le vrai visage de mes hôtes Ma faute? Être venu ici sans mes potes En fait, ces mecs y profitent. Si t'as pas de blé, t'es rien pour eux Après j'étais énervé et je sais pas ce qui s'est passé Je me suis évanoui, puis plus rien...j'sais pas... Ils ont dû me droguer en fait...j'pense Le réveil, un cauchemar Et la pluie donne le ton si je flanche aah Dans les bois, à travers les branches d'arbre La lumière filtre et c'est le drame Au loin, j'entends les chiens et les moteurs qui braillent Simple chasse à l'homme, pire un truc de fou Une attraction pour eux, un bon coup Et je cours pour ma survie Durant la nuit et boue et agonie J'ai esquivé un tir, buter un molosse, dire Que c'est eux ou moi, en premier j'ai flippé, couru Puis décidé que ma peau serait chère payée Riposter, envisager un plan, je reviens en force et Chut, un bruit dans mon dos...et d'un Un vieux qui faisait du zèle, naïf à l'écart J'ai hérité d'un fusil, d'une radio, d'une lampe et d'une carte J'ai pris contact à sa place sur la nationale Environ à 500 m de là, j'ai eu ce salaud les gars et Essoufflé, 10 minutes après je vois les phares sur la route... Et là, il y a une voiture qui a explosé, la panique J'en ai profité pour m'échapper vite fait, et voilà j'ai atterri ici... Faut faire quelque chose, faut les coincer Y'a des fous qui font des safaris avec des types comme moi Bien on va en rester là, on a tout ce qu'il faut bougez pas Je vais vous envoyer quelqu'un... Qu'est-ce qu'on en fait chef? Boucle-le, ce soir, je vais le ramener au chateauYou might also like</t>
+          <t>Ok, on va enregistrer votre déposition Samedi 17 Janvier 1998, 5h37 du matin...Allez-y Hier matin je crisais, avais un rendez-vous, trop de pression Pour un job après un an de galère, fais pas l'con Ce coup-ci je le sens, s'il faut faire du rentre-dedans Pas peur des longs déplacements Sportif comme ils le demandent Embauché sur le champ par une meuf, un top En plus j'avais la côte, passer le week-end avec cette grosse La condition étant de commencer à l'instant Partant, je prends les devants Hey, c'est où qu'il faut se rendre? Attends c'est loin d'ici qu'elle me dit Faut aller voir le boss, si tu conviens après on fait la fête, fils. Chaud, le gros lot, le boulot et la go Dans sa BM, tout le trajet j'y ai pensé, hey mec Là j'réalise où je me trouve, dans les bois Genre Twin Peaks, bien paumé, j'ai les foies En route pour un séminaire de bourges, je bouge, écoutes Rien à foutre, du moment qu'ils m'payent j'approuve C'était une sorte de manoir, un truc sinistre...Enfin moi c'est Mon job qui m'intéressait de toute façon. Bon j'dois dire que La meuf...enfin... On y arrive, drôle d'endroit et des tours on guette En effet des reflets paraissent en haut au coin des fenêtres Une grande cour, autour des bois, au centre la bâtisse Un truc restauré, lugubre et froid, un triste édifice L'orage menaçant, éclairs foudroyants en guise de bienvenue Faf Larage à fond dans sa voiture Elle au volant me dit T'inquiète, je m'occupe de tout Va te reposer ou mange, après on a la nuit pour nous Un coq en pâte, costard, cigare, ça va Maintenant je suis prêt pour être présenté l? A la réception, trop de monde, j'avais Pas prévu tous ces regards intrigués Drôle de réception...bizarre, la salle et tout, lugubre Tout le monde me regardait...heu...bizarre Dans la pièce 20 invités, j'ai noté et ils me testent Si ça sent le fric ? Fils ça en est bourré, cette Situation me gênait au dbut Et la meuf, où elle est ? Je sais plus elle a disparu Mon cul! Me v'là, siégeant au milieu de la finance Partageant le homard aux chandelles avec la vieille France Discours déchaîné, au sommet, la société Comme ils la voyaient, et l'économie mal gérée Et moi là j'étais excédé, prêt à exploser Leur philosophie m'a dégoûté, ces cons méprisaient le monde Et j'ai tout de suite pris parti pour les miens J'ai pas à avoir honte si j'ai pas de blé, pas de boulot Enclin à aller plus loin, filade s'il le faut Les poings serrés... Putain des nerfs j'en shoote un, j'en plie un Me débat, envoie les pieds, les mains, la tête Afin de me créer une brèche, j'en défonce un Réaliser enfin le vrai visage de mes hôtes Ma faute? Être venu ici sans mes potes En fait, ces mecs y profitent. Si t'as pas de blé, t'es rien pour eux Après j'étais énervé et je sais pas ce qui s'est passé Je me suis évanoui, puis plus rien...j'sais pas... Ils ont dû me droguer en fait...j'pense Le réveil, un cauchemar Et la pluie donne le ton si je flanche aah Dans les bois, à travers les branches d'arbre La lumière filtre et c'est le drame Au loin, j'entends les chiens et les moteurs qui braillent Simple chasse à l'homme, pire un truc de fou Une attraction pour eux, un bon coup Et je cours pour ma survie Durant la nuit et boue et agonie J'ai esquivé un tir, buter un molosse, dire Que c'est eux ou moi, en premier j'ai flippé, couru Puis décidé que ma peau serait chère payée Riposter, envisager un plan, je reviens en force et Chut, un bruit dans mon dos...et d'un Un vieux qui faisait du zèle, naïf à l'écart J'ai hérité d'un fusil, d'une radio, d'une lampe et d'une carte J'ai pris contact à sa place sur la nationale Environ à 500 m de là, j'ai eu ce salaud les gars et Essoufflé, 10 minutes après je vois les phares sur la route... Et là, il y a une voiture qui a explosé, la panique J'en ai profité pour m'échapper vite fait, et voilà j'ai atterri ici... Faut faire quelque chose, faut les coincer Y'a des fous qui font des safaris avec des types comme moi Bien on va en rester là, on a tout ce qu'il faut bougez pas Je vais vous envoyer quelqu'un... Qu'est-ce qu'on en fait chef? Boucle-le, ce soir, je vais le ramener au chateau</t>
         </is>
       </c>
     </row>
@@ -1823,7 +1823,7 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Appelez la garde En garde, en garde Ha ha ha Ils possédaient un pouvoir effrayant Si puissant que ceux qui s'y aventuraient Ils les affrontaient et les tuaient sur le champ Mais seulement deux hommes ont réussi à survivre La garde meurt mais ne se rend pas Meurt mais ne se rend pas Ne plie pas, ne casse pas Meurt mais ne se rend pas Ta route s'arrête là, au bout de mon sabre Les sages qui entrent ici le savent, les braves Sans une larme sacrifient leurs âmes Es-tu prêt pour ca ? Vivre où la rose ne pousse pas Tenir le micro comme un katana, briser l'ennemi en combat Les plaines plieront sous nos sabots, qui plieront ces nabots Tremblement de terre, C.O. l'obscur lâche ses hérauts Incandescente lâme, Maître de l'art ancestral Expert en technique martiale, te voilà Duc de Nottingham Comme Sherwood, Mars bastion de la rebellion Prêt à guerroyer contre la répression, sanctionne sans sommation Nomme des témoins, donne l'heure pour la confrontation Le fief pour lui, démonstration de notre dévotion Armé de Stormbringer la peur se tire, belle journée pour vouloir fuir Se repentir, courir, occire, jouir, mourir avec le sourire Finir l'épée au poing, une tête de facho dans la main Oublier demain, s'évaporer comme la fumée d'un joint Mais le triste sire aspire à conquérir la Terre Rassemblez les légions sous la bannière de la maison mère Embrassez vos fermières, l'odeur de fer dans l'air Annonciateur des flammes de l'enfer éveille l'esprit de vos cimeterres Tel Minamoto je brandis mon Tanto bien haut Kama entre les dents, clairon sonne la charge. Sus aux marauds Taïaut, les couards félons fuient face au fléau Fléau, fléau d'arme, Pow ! dans le dos, rejoins le Très-Haut Je boute les gueux hors du sentier, traque les mécréants Les change en palefreniers, en serviteurs dévoués Les pieds calés dans mes étriers sur mon fier destrier J'entripaille au nom de mes armoiries et Nous conterons nos glorieuses batailles lors d'un banquet Flashback sur nos conquètes passées entre deux gibiers Planté au centre de la table ronde, le blason Pour que tous n'oublient pas La garde meurt mais ne se rend pas You might also like La garde meurt mais ne se rend pas Meurt mais ne se rend pas Ne plie pas, ne casse pas Meurt mais ne se rend pas Soldat un constat Vue de haut la plaine se dessine Trace la fresque pour mon estime, sur feuille immortalise là La félonie a failli, Veni, Vidi, Vici Mais une troupe résiste avec la hargne du désespoir Dans ce cas le légat, l'Enc, entre en action Force m'est de croire qu'il faut un exemple Un capitaine en haillons. Allons-y donc fils ! Consultez les grimoires d'antan, qu'ils sombrent dans la folie Qu'importe les méthodes, le nombre, ignoble donc serais-je Que capitulent les écervelés sous ma colère L'échec n'a pas de sens, vois le champ de batailles Un chateau réduit en cendres, des troupes en tenaille Leurs gentes dames viennent supplier Jusqu'à faire don de leur corps Mais le feu est mort, la paille n'offre plus de confort Reviens à la réalité, petit, choisis donc, ici, maintenant Ton camp, c'est ton dernier choix, subis la mort ou la loi Jeter le gant, ignare, espère un duel avec le duc ? Ton âme appartient déja à Stormbringa Ce halo noir qui surplombe ma victoire Moi du haut de la falaise, bras croisés, ma botte sur un couard Lieutenant, rassemblez la horde de loups Vite, rejoindre Shurik'N pour la dernière joute En route, si vous croisez un étendard Avec une flamme encore intacte Brûlez puis tranchez les têtes qui dépassent Je finirais les incantations pour protéger enfin la Maison Mère Mars ! Éradiquez ces rapaces Eux ou nous les astres ont choisi Alors la prophétie fatale s'accomplit Le Hip Hop déchaîne son courroux Une vision au loin mon frère, son rictus, carnassier Rituel, pourfendre ses adversaires de sa selle Mon épée démon siffle un chant sourd qui m'enivre Eperonne ma monture, cabre, charge droit devant Les cendres et les corps témoigneront que tout le monde Se souvienne ici bas La garde meurt mais ne se rend pas La garde meurt mais ne se rend pas Meurt mais ne se rend pas Ne plie pas, ne casse pas Meurt mais ne se rend pas Appelle la garde Kif Kif, Cosca, Sad Hill, Tanto, représentent pour le C.O Les affranchis, Shurik'N, le Squad, Faf LaRage, le Petit mas Representent la garde et tu le sais1</t>
+          <t>Appelez la garde En garde, en garde Ha ha ha Ils possédaient un pouvoir effrayant Si puissant que ceux qui s'y aventuraient Ils les affrontaient et les tuaient sur le champ Mais seulement deux hommes ont réussi à survivre La garde meurt mais ne se rend pas Meurt mais ne se rend pas Ne plie pas, ne casse pas Meurt mais ne se rend pas Ta route s'arrête là, au bout de mon sabre Les sages qui entrent ici le savent, les braves Sans une larme sacrifient leurs âmes Es-tu prêt pour ca ? Vivre où la rose ne pousse pas Tenir le micro comme un katana, briser l'ennemi en combat Les plaines plieront sous nos sabots, qui plieront ces nabots Tremblement de terre, C.O. l'obscur lâche ses hérauts Incandescente lâme, Maître de l'art ancestral Expert en technique martiale, te voilà Duc de Nottingham Comme Sherwood, Mars bastion de la rebellion Prêt à guerroyer contre la répression, sanctionne sans sommation Nomme des témoins, donne l'heure pour la confrontation Le fief pour lui, démonstration de notre dévotion Armé de Stormbringer la peur se tire, belle journée pour vouloir fuir Se repentir, courir, occire, jouir, mourir avec le sourire Finir l'épée au poing, une tête de facho dans la main Oublier demain, s'évaporer comme la fumée d'un joint Mais le triste sire aspire à conquérir la Terre Rassemblez les légions sous la bannière de la maison mère Embrassez vos fermières, l'odeur de fer dans l'air Annonciateur des flammes de l'enfer éveille l'esprit de vos cimeterres Tel Minamoto je brandis mon Tanto bien haut Kama entre les dents, clairon sonne la charge. Sus aux marauds Taïaut, les couards félons fuient face au fléau Fléau, fléau d'arme, Pow ! dans le dos, rejoins le Très-Haut Je boute les gueux hors du sentier, traque les mécréants Les change en palefreniers, en serviteurs dévoués Les pieds calés dans mes étriers sur mon fier destrier J'entripaille au nom de mes armoiries et Nous conterons nos glorieuses batailles lors d'un banquet Flashback sur nos conquètes passées entre deux gibiers Planté au centre de la table ronde, le blason Pour que tous n'oublient pas La garde meurt mais ne se rend pas La garde meurt mais ne se rend pas Meurt mais ne se rend pas Ne plie pas, ne casse pas Meurt mais ne se rend pas Soldat un constat Vue de haut la plaine se dessine Trace la fresque pour mon estime, sur feuille immortalise là La félonie a failli, Veni, Vidi, Vici Mais une troupe résiste avec la hargne du désespoir Dans ce cas le légat, l'Enc, entre en action Force m'est de croire qu'il faut un exemple Un capitaine en haillons. Allons-y donc fils ! Consultez les grimoires d'antan, qu'ils sombrent dans la folie Qu'importe les méthodes, le nombre, ignoble donc serais-je Que capitulent les écervelés sous ma colère L'échec n'a pas de sens, vois le champ de batailles Un chateau réduit en cendres, des troupes en tenaille Leurs gentes dames viennent supplier Jusqu'à faire don de leur corps Mais le feu est mort, la paille n'offre plus de confort Reviens à la réalité, petit, choisis donc, ici, maintenant Ton camp, c'est ton dernier choix, subis la mort ou la loi Jeter le gant, ignare, espère un duel avec le duc ? Ton âme appartient déja à Stormbringa Ce halo noir qui surplombe ma victoire Moi du haut de la falaise, bras croisés, ma botte sur un couard Lieutenant, rassemblez la horde de loups Vite, rejoindre Shurik'N pour la dernière joute En route, si vous croisez un étendard Avec une flamme encore intacte Brûlez puis tranchez les têtes qui dépassent Je finirais les incantations pour protéger enfin la Maison Mère Mars ! Éradiquez ces rapaces Eux ou nous les astres ont choisi Alors la prophétie fatale s'accomplit Le Hip Hop déchaîne son courroux Une vision au loin mon frère, son rictus, carnassier Rituel, pourfendre ses adversaires de sa selle Mon épée démon siffle un chant sourd qui m'enivre Eperonne ma monture, cabre, charge droit devant Les cendres et les corps témoigneront que tout le monde Se souvienne ici bas La garde meurt mais ne se rend pas La garde meurt mais ne se rend pas Meurt mais ne se rend pas Ne plie pas, ne casse pas Meurt mais ne se rend pas Appelle la garde Kif Kif, Cosca, Sad Hill, Tanto, représentent pour le C.O Les affranchis, Shurik'N, le Squad, Faf LaRage, le Petit mas Representent la garde et tu le sais1</t>
         </is>
       </c>
     </row>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Hé vieillard, alors t'aurais bien une histoire pour moi et mes amis guerriers, hein ? Une histoire ?.. Vous tous ici, valeureux guerriers connaissez la légende des 2 épées Gentilshommes, trop d'obscurité entache ce récit. Permettez à votre humble serviteur de vous révéler l'intégralité de cette nuit où La Garde naquit... Un poignard dans le silence à un cheveux de mon bras Les sens en alerte couché sur le sol prêt au combat J'ai volé qu'un pain, rien qui justifie un tel sort Pour un gosse affamé dans les quartiers pauvres Ça fait trop longtemps que ça dure, des embuscades bizarres Des embrouilles inattendues ponctuées de magie noire Je sais qu'il y a un truc qui cloche, un danger qui rôde Mais c'est la vie dans les ruelles de Mars ... Ah ça tu l'as dit hein, hé du vin maraud.. et la suite vieillard ? La suite ? C'est courir jusqu'à en perdre haleine Grimper sur les toits de la Taverne en évitant les carreaux d'arbalètes Un sort d'illusion m'a sauvé, j'en ai tué un La patrouille Royale qui me poursuivait Chaque fois que ma vie est en jeu les souvenirs affluent Un sentiment de déjà vu, un passé vécu dans la solitude Un gamin déjà mercenaire, habitué au vol formé Pour la guerre toujours en quête d'une bourse pleine Ça fait des heures que je fuis mes assassins avertis Seul mon instinct me guide pour assurer ma survie Comme une voix intérieure qui me pousse coûte que coûte À faire un dernier effort l'ultime course me pousse Sur les quais au coeur d'une histoire Où un autre que moi luttait pour sa vie contre les mêmes couards You might also like Alors... Voici le récit des 2 lames qui déjouèrent le sort Le sort ! Un revers de manche essuya mon front trempé de sueur Ça faisait des heures que je courais sans pouvoir les semer Je sentais leur odeur dominer la puanteur régnant dans ce secteur Dans ce quartier sans coeur pendant que le mien tentait de reprendre son souffle À cause de qui et pourquoi devais-je fuir Pourquoi cette ville grouillée de sorciers et soldats ne pensant qu'à m'occire J'ai vu mes poursuivants je les croyais mi homme mi animal Tels démons issus de plan abyssal d'où le relent de souffre Je comprenais rien à tout ça la mort aux trousses comptant que sur mon instinct Malgré cette voix dans ma tête disant que c'était mon destin Fallait que je continue rue après rue le doute faisant glue Pas le temps pour combattre dur d'avancer dans ce noir plein d'ordures La lune dans le dos, ombre dans l'ombre, je longeais les murs gris Chaque recoin sombre chaque pénombre offrant un abri Jusqu'au quai trancher les gorges des veilleurs quand la nuit se remplit d'un cri de douleur Au loin un homme assailli se battait avec ardeur Alors... Voici le récit des 2 lames qui déjouèrent le sort Le sort ! On était là dos-à-dos maculés de sang Nul besoin de mots pour exprimer le lien qui nous rassemble Nos destinées enfin retrouvées C'est dans le choc des armes que le nom de La Garde fut scellé Le combat fut bref nos adversaires faciles Nos esprits en communion nos lames qui scintillent Comme si un pacte venu de loin renaissait Comme si le Diable devant ce duo frissonnait ... Merde, que je sois damné ?! Mais... Excusez, ma mémoire me fait défaut Dés lors ils chevauchèrent ensemble Et partout dans l'Empire les craintes des Seigneurs firent écho Le temps n'a plus jamais été le même Et pour tenter de les détruire l'Empereur y perdit son règne Ce qui était en marche ne pouvait être stoppé Au son de La Garde le peuple suivrait Que je sois pendu... les gars, c'est lui, c'est un des deux, c'est un des deux j'vous dit, écartez-vous, écartez-vous...</t>
+          <t>Hé vieillard, alors t'aurais bien une histoire pour moi et mes amis guerriers, hein ? Une histoire ?.. Vous tous ici, valeureux guerriers connaissez la légende des 2 épées Gentilshommes, trop d'obscurité entache ce récit. Permettez à votre humble serviteur de vous révéler l'intégralité de cette nuit où La Garde naquit... Un poignard dans le silence à un cheveux de mon bras Les sens en alerte couché sur le sol prêt au combat J'ai volé qu'un pain, rien qui justifie un tel sort Pour un gosse affamé dans les quartiers pauvres Ça fait trop longtemps que ça dure, des embuscades bizarres Des embrouilles inattendues ponctuées de magie noire Je sais qu'il y a un truc qui cloche, un danger qui rôde Mais c'est la vie dans les ruelles de Mars ... Ah ça tu l'as dit hein, hé du vin maraud.. et la suite vieillard ? La suite ? C'est courir jusqu'à en perdre haleine Grimper sur les toits de la Taverne en évitant les carreaux d'arbalètes Un sort d'illusion m'a sauvé, j'en ai tué un La patrouille Royale qui me poursuivait Chaque fois que ma vie est en jeu les souvenirs affluent Un sentiment de déjà vu, un passé vécu dans la solitude Un gamin déjà mercenaire, habitué au vol formé Pour la guerre toujours en quête d'une bourse pleine Ça fait des heures que je fuis mes assassins avertis Seul mon instinct me guide pour assurer ma survie Comme une voix intérieure qui me pousse coûte que coûte À faire un dernier effort l'ultime course me pousse Sur les quais au coeur d'une histoire Où un autre que moi luttait pour sa vie contre les mêmes couards Alors... Voici le récit des 2 lames qui déjouèrent le sort Le sort ! Un revers de manche essuya mon front trempé de sueur Ça faisait des heures que je courais sans pouvoir les semer Je sentais leur odeur dominer la puanteur régnant dans ce secteur Dans ce quartier sans coeur pendant que le mien tentait de reprendre son souffle À cause de qui et pourquoi devais-je fuir Pourquoi cette ville grouillée de sorciers et soldats ne pensant qu'à m'occire J'ai vu mes poursuivants je les croyais mi homme mi animal Tels démons issus de plan abyssal d'où le relent de souffre Je comprenais rien à tout ça la mort aux trousses comptant que sur mon instinct Malgré cette voix dans ma tête disant que c'était mon destin Fallait que je continue rue après rue le doute faisant glue Pas le temps pour combattre dur d'avancer dans ce noir plein d'ordures La lune dans le dos, ombre dans l'ombre, je longeais les murs gris Chaque recoin sombre chaque pénombre offrant un abri Jusqu'au quai trancher les gorges des veilleurs quand la nuit se remplit d'un cri de douleur Au loin un homme assailli se battait avec ardeur Alors... Voici le récit des 2 lames qui déjouèrent le sort Le sort ! On était là dos-à-dos maculés de sang Nul besoin de mots pour exprimer le lien qui nous rassemble Nos destinées enfin retrouvées C'est dans le choc des armes que le nom de La Garde fut scellé Le combat fut bref nos adversaires faciles Nos esprits en communion nos lames qui scintillent Comme si un pacte venu de loin renaissait Comme si le Diable devant ce duo frissonnait ... Merde, que je sois damné ?! Mais... Excusez, ma mémoire me fait défaut Dés lors ils chevauchèrent ensemble Et partout dans l'Empire les craintes des Seigneurs firent écho Le temps n'a plus jamais été le même Et pour tenter de les détruire l'Empereur y perdit son règne Ce qui était en marche ne pouvait être stoppé Au son de La Garde le peuple suivrait Que je sois pendu... les gars, c'est lui, c'est un des deux, c'est un des deux j'vous dit, écartez-vous, écartez-vous...</t>
         </is>
       </c>
     </row>
@@ -1857,7 +1857,7 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>J'fuck leur baratin, fait raviver la flamme, crame sur la moitié de la France sans état d'âme J'cane l'intolérance avec ma meilleure arme Et si le système du FN prétend être adéquat J'aimerais qu'il puisse faire connaissance avec mon extrême droite Ça c'est pour remettre ton cerveau en place J'ai mené le large causé du juge, sauvé ta putain d'race JMLP qui croit que nos disques cachent de la haine raciale Depuis tout petit j'apprends à cracher sur tes initiales ma banlieue où trop de gars se canent Les jeunes votent pour Loana, Jenifer et Jean-Pascal J'entends des fuck Le Pen en rafales, une ordure s'installe On a, sous-estimé, cru esquiver mais les fachos s'installent Si t'as des burnes c'est dans les urnes que se passe le combat Pas avec des tombes, c'est grave mais c'est un comble Bazar, j'me dois d'le faire pour ? Un crachat dans ton il signe d'espoir fume les lâches Ça fait une semaine qu'on a mal au crane, normal le FN pète le score Ces problèmes n'ont pas d'accord avec leur programme Leur manière de penser, leur meetings, leur galas La flamme n'est pas l'avenir des français You might also like Sortez les battes et les kanifes et nique sa mère les manifs' Contre le FN catastrophe, y a que le cocktail molotov Pas moyen de discuter car pas moyen d'échanger Et dans ma vision des choses ce sont eux les étrangers J'me passerais bien de tes lois à double sens, j'n'ai que mon son comme gâchette Si y avais une justice en France ça ferais longtemps qu'taurais pris perpet' De plus, on est pas pour la peine de mort Sauf si c'est pour t'régler ton cas d'gros porc là on réponds d'accord c'est sûr Dire non plus haut que le profane raciste Bulletins de votes pour qu'en France il y ait pas un Vichy bis Manier le verbe à un certain niveau T'apprends, à aimer l'autre cela qu'importe ses défauts Black-out regard comme l'existence et le Qui aurait cru qu'on sauverait la France ? Mais peu se le disent Notre origine première est adamique, j'parle de toi et d'moi Abd Al Malik Loin de tout extrémisme, le respect de l'autre est mon abscisse Obligé d'être explicite J'rappe pour nos mères ! Pour nos surs, pour nos frères Il faut que ça agisse ! C'est le danger La menace a atteint son apogée ! Le français se fait piéger Boycottons leur projet ! Chaud ! Faut pas que ce bâtard nous rapatrie, c'est Aux armes allons enfants dans la patrie, c'est De la ganache à Jean-Marie Mobilisation, s'ils le font, on fout le feu à Paris D'un côté le bruit et les odeurs, et de l'autre Des références claires à Hitler on peut pas rester neutre Mobilisons les nôtres ! Préviens les autres Lâchons la meute Le , faut pas qu'on s'loupe 17 la France brûle de honte, pisse sur la flamme L'Angleterre et Tony Blair est sous le choc, l'Italie acclame L'extrême droite se propage dans le monde Des groupuscules nazis se refondent, c'est toute une République qui s'effondre Le Pen, main droite levée, n'rejette pas Mein Kampf Effectue des bras et rejette les immigrés de France Pourquoi j'ai pas voté au premier tour ? Et comme un con on laisse passer ce deuxième tour On représente le son de là, nous on est dans les égouts de Paname Faute de quoi ! clique sans même qu'on bouge le bras Ça sent les guns, ça bombe les jeunes, regarde-les se Ah c'est, mise en jeu ! On représente le son de là, nous on est dans les égouts de Paname Faute de quoi ! clique sans même qu'on bouge le bras Ça sent les guns, ça bombe les jeunes, regarde-les se Ah c'est, mise en jeu ! Inverse le Front National, t'auras les Normes Françaises Niveau rationnel, il faut qu'leur généraux s'renseignent Voilà, c'est mon paper qui marie mon peigne Et enfant d'un rap tout blanc d'chez Marie Le Pen Collabos apprivoisés Arlette Chabot Charles Villeneuve Mots croisés, lacrymogène, j'parle de beauf sur neuf Regarde ma barbe, elle pousse pour que tu me haïsse De Paname à Tarbes, la Caution nique ton IIIème Reich Nique la carte de résidence , et d'France Pénitentiaire, depuis quand double peine et rapatriement Charter, créatrice de pénibles emmerdes Dans le starter, candidat, taux de réponses par terre Être part'naire, c'est se Jerrican, puissance, problèmes, présidentielles J'martelle, J'accepte ma haine, à terme J'ai déjà l'âge d'aller voter Mais pourtant je l'ai jamais fait Depuis le 21 Avril je sais On vois qui c'était cet autre qui parle à sa place J'ai pas de haine dans mon cur, non Mais je la laisse à ce qu'ils font Cet incident nous aura soudé Et Jean-Marie t'es mal barré Stop ton baratin, dimanche t'étais au MAM Dans un bar à timps on pense qu'en latin et on a tous mal J'ai été tapée par un noir, volée par un blanc, agressée par un arabe Mais j'dit votez pas pour eux Si le second tour si ça doit donner des rimes, moi ça m'a donné des larmes Presque donné des rides de voir ces lards prôner des rires Hey prenez des livres apprenez à lire que Les extrêmes sont là depuis quand et qu'entre nous des fois on est pire qu'eux 21 Avril, c'était le 11 Septembre à la Bastille Et à la Nation, donc prends ta carte et fait pas style Gueule pas si t'as pas de quoi donner de la voix Au lieu de rapper, vas, vote, même si tu n'a pas de foi Putain, j'en ai marre d'cette ambiance de néo-nazi Y a 6 millions de néo-nazis en France donc me revoici Et me parle pas de votes contestataires 20 votent Le Pen, est-ce qu'on se tape ma tête ? Mais en '88 c'était déjà 15 95 plus 15, la progression elle n'est pas mince Je vise vers le haut mais au parfum, crie haut, à mes négros Rabzas immigrés, là en VO La lutte sera trash, la liberté s'arrache Donnez sur les lois un coup de patte et un coup de hache La France doit faire face à ses vieux démons de dédain 9 de collabos, 20 de fils de putains Qu'on attende plus de se faire peur pour sonner la révolte -30 pour-cent si on écoule pas ce putain de droit de vote Note, qu'après les manifs les preuves ce sont dans les urnes Hey, 21 Avril, tous ces voleurs s'grattaient les burnes Hein, contrainte, choisir entre l'escroquerie et le fascisme Ça fait gol-ri man, le peuple a été victime de laxisme L'isoloir c'est ce qui peut faire ce putain d'épicentre d'incivisme On vote parmi les rares fans, la carrière putain d'cataclysme C'est l'érection chez les porcs Les mecs, le Belize prend du gras et du grade, négro, faut qu'on s'attrape le bras Grave est l'heure cousin, brave le Pape nous additionne C'est dans l'union qu'le jour se lève et dans le centre qu'il se couche cousin La rage me branche, mais c'est des pages que j'gratte Parce qu'un dimanche de Mai j'ai dû choisir entre la droite et la droite de la droite Rectorat, pigé comme on nous baise Dans cet électorat, figé tu sauras pourquoi nos voix pèsent Il y a trop de fachos et trop de collabos J'ai honte de la France et des politicos Depuis le Code Noir fallait tous les garder des sceaux On a construit nos tapes et saute Je dit tout haut ce que les jeunes pensent tout bas Si le FN ssé-pa il y aura du feu sur Paname Les ont décidé que chez l'Oncle Sam On fera couler les langues Témoin débat sur l'insécurité en France Tu t'attendais à quoi ? Voyons, fallait bien qu'on en vienne là J'félicite qui ? D'après toi Qui a le pouvoir de manipuler un peuple entier à part les médias Tu veux la tendance ? 17 pour le FN en France Et malgré tout j'me dis quand même faut qu'j'avance T'auras plus qu'un Jean Marie Le Pen, pour nous éradiquer T'inquiète la France tu vas la retrouver J'encule le système et son séisme électoral J'baiserai la France jusqu'à ce qu'elle m'aime car tout de même elle me l'a mise Fils de prolétaire Le premier tour ne m'étonne pas quand une vieille dame se fait crocheter son portable Mais p'tit frère t'es plus sortable T'es incapable de rester lucide même plus solvable que Ton air agressif est contestable Au fond le Front n'est qu'une qu'un t'enfoncerait contre un V6 T'as trouvé ça mortel de siffler la Marseillaise Regarde Le Pen lui qui nous baise il en rigole, France J'ai trop de peine envers toi ma terre natale La grandeur de mon amour s'évalue dans ma souffrance Alors comme ça facho t'es faché, tu veux de l'amour Mais essaie donc d'être surveillant dans un McDo à temps complet à place Clichy Les curs s'embrasent chez ton et tes ragots nourrissent ta foule Prépare tes troupes car y aura du monde pour tes charters Hé les zincs, soit c'est le vote ou la fumette L'empêcher d'aller en tête, voter c'est la fierté du geste Aux élections soit tu vas à l'urne, soit tu reste sur le banc Soit tu vote pour un voyou, ou tu vote blanc On le sait tous, une bite ça n'a pas dil Et ce qui est sur c'est que Le Pen regarde sa France par un oeil J'veux que la mesure anti-fasciste surgisse Que tous on baise le score de la Droite à plus de 20 artistes Hé, chico ! Si tu veux voter, vote Fais ce que tu as à faire et fais gaffe car les anges regardent et notent Nous, on en a rien à foutre de ces acteurs au pouvoir Car on sait que c'est à Dieu que reviens toute la gloire Je suis pas venu te raconter d'histoires Nous on est ce qu'on est car l'époque l'exige, garde cette phrase en mémoire Chez nous on les emmerde tous depuis notre enfance On aurait dû voler les urnes pour faire l'bordel en France De nos jours c'est devenu dangereux d'être franc Et on aide car dans ce pays toute morale a disparue J'n'ai pas été élevé dans la droiture tu m'suis N'importe qui est l'genre à relever dans la voiture, voilà qui j'suis Laisse pas ceux qui se battent pour la cause et qui ont espoir Et qui savent que sans bataille, y a pas d'victoire Dédié à tous ceux que Dédié à tous les justes oubliés Le F.N parle fort plus les forts lèvent le groin Plus la panthère se renforce et plus les frères lèvent le poing Il est temps de faire le point, lextrême a fait l'extrême Même si tu reste zen la haine coule dans ton joint La menace plane et la flamme acclamée par les fans Vous gagne, borgne l'homme hargne rare sont ceux qui l'épargnent Mais le loup supprime l'agneau et ses potes les nazis paradent D'une belle propagande, derrière une sombre mascarade Passage en arabe Y a de quoi se sentir mal quand j'vois la côte électorale 17 pour le Front National la France perd les pédales Il faut qu'on réfléchisse, il faut que les gens s'unissent Personnellement j'veux pas qu'ma gosse grandisse dans une France raciste Faut qu'on se bouge, j'te jure qu'cette fois ça vaut la peine Au lieu de ce niquer entre nous, concentrons nous sur le FN Il est temps d'agir, c'est aujourd'hui qu'faut prendre conscience Ou comme en '40, va falloir faire de la Résistance La zik' m'engraine, elle m'porte avec mon engrais Apporte moi un mic que j'les traine, ces porcs veulent créer une force Augmente les degrés d'ces porcs les immigrés seront victime Putain dentorse j'ai fait mon entrée Les cordes sont graves, dans le désert on prêche Je t'avais prévenu, dans une saison blanche et sèche On doit faire quoi pour qu'tu piges ? La poudre du , on va finir par 2.0.0.2, fini le rap de proximité Emmerde le Front National parce que toujours international Le thème c'est les Droits de l'Homme avant qu'tu me gomme Demande à France liberté Peut-on être libre, tant qu'y a des gens enfermés Peut-on tuer l'esprit de la Révolution Au on tape pour 100 On a le franc parler, ils peuvent raler nous on taffe pour 100 Tu es unique, quelque soit les tuniques dans les Églises Ou les djellabas dans les Mosquées C'est pareil pour tout le monde tu sais, dit au Bosquet On bosse que pour la liberté, on rappe une vie à tutelle Monsieur R te parle de l'amour Chez moi y'a pas de couleurs ni de races, lève le poing et c'est ton tour Unissons-nous pour sauver l'amour L'intolérance et tout ce qui l'entoure Monsieur R te parle de l'amour Chez moi y'a pas de couleurs ni de races, lève le poing et c'est ton tour Unissons-nous pour sauver l'amour L'intolérance et tout ce qui l'entoure</t>
+          <t>J'fuck leur baratin, fait raviver la flamme, crame sur la moitié de la France sans état d'âme J'cane l'intolérance avec ma meilleure arme Et si le système du FN prétend être adéquat J'aimerais qu'il puisse faire connaissance avec mon extrême droite Ça c'est pour remettre ton cerveau en place J'ai mené le large causé du juge, sauvé ta putain d'race JMLP qui croit que nos disques cachent de la haine raciale Depuis tout petit j'apprends à cracher sur tes initiales ma banlieue où trop de gars se canent Les jeunes votent pour Loana, Jenifer et Jean-Pascal J'entends des fuck Le Pen en rafales, une ordure s'installe On a, sous-estimé, cru esquiver mais les fachos s'installent Si t'as des burnes c'est dans les urnes que se passe le combat Pas avec des tombes, c'est grave mais c'est un comble Bazar, j'me dois d'le faire pour ? Un crachat dans ton il signe d'espoir fume les lâches Ça fait une semaine qu'on a mal au crane, normal le FN pète le score Ces problèmes n'ont pas d'accord avec leur programme Leur manière de penser, leur meetings, leur galas La flamme n'est pas l'avenir des français Sortez les battes et les kanifes et nique sa mère les manifs' Contre le FN catastrophe, y a que le cocktail molotov Pas moyen de discuter car pas moyen d'échanger Et dans ma vision des choses ce sont eux les étrangers J'me passerais bien de tes lois à double sens, j'n'ai que mon son comme gâchette Si y avais une justice en France ça ferais longtemps qu'taurais pris perpet' De plus, on est pas pour la peine de mort Sauf si c'est pour t'régler ton cas d'gros porc là on réponds d'accord c'est sûr Dire non plus haut que le profane raciste Bulletins de votes pour qu'en France il y ait pas un Vichy bis Manier le verbe à un certain niveau T'apprends, à aimer l'autre cela qu'importe ses défauts Black-out regard comme l'existence et le Qui aurait cru qu'on sauverait la France ? Mais peu se le disent Notre origine première est adamique, j'parle de toi et d'moi Abd Al Malik Loin de tout extrémisme, le respect de l'autre est mon abscisse Obligé d'être explicite J'rappe pour nos mères ! Pour nos surs, pour nos frères Il faut que ça agisse ! C'est le danger La menace a atteint son apogée ! Le français se fait piéger Boycottons leur projet ! Chaud ! Faut pas que ce bâtard nous rapatrie, c'est Aux armes allons enfants dans la patrie, c'est De la ganache à Jean-Marie Mobilisation, s'ils le font, on fout le feu à Paris D'un côté le bruit et les odeurs, et de l'autre Des références claires à Hitler on peut pas rester neutre Mobilisons les nôtres ! Préviens les autres Lâchons la meute Le , faut pas qu'on s'loupe 17 la France brûle de honte, pisse sur la flamme L'Angleterre et Tony Blair est sous le choc, l'Italie acclame L'extrême droite se propage dans le monde Des groupuscules nazis se refondent, c'est toute une République qui s'effondre Le Pen, main droite levée, n'rejette pas Mein Kampf Effectue des bras et rejette les immigrés de France Pourquoi j'ai pas voté au premier tour ? Et comme un con on laisse passer ce deuxième tour On représente le son de là, nous on est dans les égouts de Paname Faute de quoi ! clique sans même qu'on bouge le bras Ça sent les guns, ça bombe les jeunes, regarde-les se Ah c'est, mise en jeu ! On représente le son de là, nous on est dans les égouts de Paname Faute de quoi ! clique sans même qu'on bouge le bras Ça sent les guns, ça bombe les jeunes, regarde-les se Ah c'est, mise en jeu ! Inverse le Front National, t'auras les Normes Françaises Niveau rationnel, il faut qu'leur généraux s'renseignent Voilà, c'est mon paper qui marie mon peigne Et enfant d'un rap tout blanc d'chez Marie Le Pen Collabos apprivoisés Arlette Chabot Charles Villeneuve Mots croisés, lacrymogène, j'parle de beauf sur neuf Regarde ma barbe, elle pousse pour que tu me haïsse De Paname à Tarbes, la Caution nique ton IIIème Reich Nique la carte de résidence , et d'France Pénitentiaire, depuis quand double peine et rapatriement Charter, créatrice de pénibles emmerdes Dans le starter, candidat, taux de réponses par terre Être part'naire, c'est se Jerrican, puissance, problèmes, présidentielles J'martelle, J'accepte ma haine, à terme J'ai déjà l'âge d'aller voter Mais pourtant je l'ai jamais fait Depuis le 21 Avril je sais On vois qui c'était cet autre qui parle à sa place J'ai pas de haine dans mon cur, non Mais je la laisse à ce qu'ils font Cet incident nous aura soudé Et Jean-Marie t'es mal barré Stop ton baratin, dimanche t'étais au MAM Dans un bar à timps on pense qu'en latin et on a tous mal J'ai été tapée par un noir, volée par un blanc, agressée par un arabe Mais j'dit votez pas pour eux Si le second tour si ça doit donner des rimes, moi ça m'a donné des larmes Presque donné des rides de voir ces lards prôner des rires Hey prenez des livres apprenez à lire que Les extrêmes sont là depuis quand et qu'entre nous des fois on est pire qu'eux 21 Avril, c'était le 11 Septembre à la Bastille Et à la Nation, donc prends ta carte et fait pas style Gueule pas si t'as pas de quoi donner de la voix Au lieu de rapper, vas, vote, même si tu n'a pas de foi Putain, j'en ai marre d'cette ambiance de néo-nazi Y a 6 millions de néo-nazis en France donc me revoici Et me parle pas de votes contestataires 20 votent Le Pen, est-ce qu'on se tape ma tête ? Mais en '88 c'était déjà 15 95 plus 15, la progression elle n'est pas mince Je vise vers le haut mais au parfum, crie haut, à mes négros Rabzas immigrés, là en VO La lutte sera trash, la liberté s'arrache Donnez sur les lois un coup de patte et un coup de hache La France doit faire face à ses vieux démons de dédain 9 de collabos, 20 de fils de putains Qu'on attende plus de se faire peur pour sonner la révolte -30 pour-cent si on écoule pas ce putain de droit de vote Note, qu'après les manifs les preuves ce sont dans les urnes Hey, 21 Avril, tous ces voleurs s'grattaient les burnes Hein, contrainte, choisir entre l'escroquerie et le fascisme Ça fait gol-ri man, le peuple a été victime de laxisme L'isoloir c'est ce qui peut faire ce putain d'épicentre d'incivisme On vote parmi les rares fans, la carrière putain d'cataclysme C'est l'érection chez les porcs Les mecs, le Belize prend du gras et du grade, négro, faut qu'on s'attrape le bras Grave est l'heure cousin, brave le Pape nous additionne C'est dans l'union qu'le jour se lève et dans le centre qu'il se couche cousin La rage me branche, mais c'est des pages que j'gratte Parce qu'un dimanche de Mai j'ai dû choisir entre la droite et la droite de la droite Rectorat, pigé comme on nous baise Dans cet électorat, figé tu sauras pourquoi nos voix pèsent Il y a trop de fachos et trop de collabos J'ai honte de la France et des politicos Depuis le Code Noir fallait tous les garder des sceaux On a construit nos tapes et saute Je dit tout haut ce que les jeunes pensent tout bas Si le FN ssé-pa il y aura du feu sur Paname Les ont décidé que chez l'Oncle Sam On fera couler les langues Témoin débat sur l'insécurité en France Tu t'attendais à quoi ? Voyons, fallait bien qu'on en vienne là J'félicite qui ? D'après toi Qui a le pouvoir de manipuler un peuple entier à part les médias Tu veux la tendance ? 17 pour le FN en France Et malgré tout j'me dis quand même faut qu'j'avance T'auras plus qu'un Jean Marie Le Pen, pour nous éradiquer T'inquiète la France tu vas la retrouver J'encule le système et son séisme électoral J'baiserai la France jusqu'à ce qu'elle m'aime car tout de même elle me l'a mise Fils de prolétaire Le premier tour ne m'étonne pas quand une vieille dame se fait crocheter son portable Mais p'tit frère t'es plus sortable T'es incapable de rester lucide même plus solvable que Ton air agressif est contestable Au fond le Front n'est qu'une qu'un t'enfoncerait contre un V6 T'as trouvé ça mortel de siffler la Marseillaise Regarde Le Pen lui qui nous baise il en rigole, France J'ai trop de peine envers toi ma terre natale La grandeur de mon amour s'évalue dans ma souffrance Alors comme ça facho t'es faché, tu veux de l'amour Mais essaie donc d'être surveillant dans un McDo à temps complet à place Clichy Les curs s'embrasent chez ton et tes ragots nourrissent ta foule Prépare tes troupes car y aura du monde pour tes charters Hé les zincs, soit c'est le vote ou la fumette L'empêcher d'aller en tête, voter c'est la fierté du geste Aux élections soit tu vas à l'urne, soit tu reste sur le banc Soit tu vote pour un voyou, ou tu vote blanc On le sait tous, une bite ça n'a pas dil Et ce qui est sur c'est que Le Pen regarde sa France par un oeil J'veux que la mesure anti-fasciste surgisse Que tous on baise le score de la Droite à plus de 20 artistes Hé, chico ! Si tu veux voter, vote Fais ce que tu as à faire et fais gaffe car les anges regardent et notent Nous, on en a rien à foutre de ces acteurs au pouvoir Car on sait que c'est à Dieu que reviens toute la gloire Je suis pas venu te raconter d'histoires Nous on est ce qu'on est car l'époque l'exige, garde cette phrase en mémoire Chez nous on les emmerde tous depuis notre enfance On aurait dû voler les urnes pour faire l'bordel en France De nos jours c'est devenu dangereux d'être franc Et on aide car dans ce pays toute morale a disparue J'n'ai pas été élevé dans la droiture tu m'suis N'importe qui est l'genre à relever dans la voiture, voilà qui j'suis Laisse pas ceux qui se battent pour la cause et qui ont espoir Et qui savent que sans bataille, y a pas d'victoire Dédié à tous ceux que Dédié à tous les justes oubliés Le F.N parle fort plus les forts lèvent le groin Plus la panthère se renforce et plus les frères lèvent le poing Il est temps de faire le point, lextrême a fait l'extrême Même si tu reste zen la haine coule dans ton joint La menace plane et la flamme acclamée par les fans Vous gagne, borgne l'homme hargne rare sont ceux qui l'épargnent Mais le loup supprime l'agneau et ses potes les nazis paradent D'une belle propagande, derrière une sombre mascarade Passage en arabe Y a de quoi se sentir mal quand j'vois la côte électorale 17 pour le Front National la France perd les pédales Il faut qu'on réfléchisse, il faut que les gens s'unissent Personnellement j'veux pas qu'ma gosse grandisse dans une France raciste Faut qu'on se bouge, j'te jure qu'cette fois ça vaut la peine Au lieu de ce niquer entre nous, concentrons nous sur le FN Il est temps d'agir, c'est aujourd'hui qu'faut prendre conscience Ou comme en '40, va falloir faire de la Résistance La zik' m'engraine, elle m'porte avec mon engrais Apporte moi un mic que j'les traine, ces porcs veulent créer une force Augmente les degrés d'ces porcs les immigrés seront victime Putain dentorse j'ai fait mon entrée Les cordes sont graves, dans le désert on prêche Je t'avais prévenu, dans une saison blanche et sèche On doit faire quoi pour qu'tu piges ? La poudre du , on va finir par 2.0.0.2, fini le rap de proximité Emmerde le Front National parce que toujours international Le thème c'est les Droits de l'Homme avant qu'tu me gomme Demande à France liberté Peut-on être libre, tant qu'y a des gens enfermés Peut-on tuer l'esprit de la Révolution Au on tape pour 100 On a le franc parler, ils peuvent raler nous on taffe pour 100 Tu es unique, quelque soit les tuniques dans les Églises Ou les djellabas dans les Mosquées C'est pareil pour tout le monde tu sais, dit au Bosquet On bosse que pour la liberté, on rappe une vie à tutelle Monsieur R te parle de l'amour Chez moi y'a pas de couleurs ni de races, lève le poing et c'est ton tour Unissons-nous pour sauver l'amour L'intolérance et tout ce qui l'entoure Monsieur R te parle de l'amour Chez moi y'a pas de couleurs ni de races, lève le poing et c'est ton tour Unissons-nous pour sauver l'amour L'intolérance et tout ce qui l'entoure</t>
         </is>
       </c>
     </row>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Je me situe parmi les MCs d'hier et de demain La rage dans le mic j'ai faim alors écoute moi C'est vrai que j'aime le R'n'B mais fallait du Jack le mauvais pourrira son qui Qui tâche leurs tripes tous dansent en slip Qui efface leur vie moi j'ai la haine et pas de flic hormis ceux que je respecte en tant que mec Plein de place dans mes rimes que j'comblerai d' Soit disant y a pas d'place pour moi Soit disant le hardcore d'époque ça marche pas Comme si j'avais que ça comme but dans la vie Attendant comme un con d'être choisi C'est moi le vice aujourd'hui ici et j'aime pas trop Je trouve ça zéro quand c'est de moi qu'on rit J'ai pas de blé mais laisse tomber À part répéter Qu'est-ce que tu fais de tes journées ? Les mecs tentent de me tester mais j'adopte un profil bas Mais quand vient le moment de la scène c'est pas à moi de la fermer alors où sont les chauds qui frimaient autrefois Dehors je crois et si les autres ne bougent pas je ne m'inquiète pas Les cris sont toujours là À la fin mon gars tu vois y a pas d'quoi s'alarmer tu le sais c'est si simple de baver sur La concurrence est rude et bien plus dure tant mieux Quespérer sinon qu'le hip-hop tue dans les lieux Tous les lieux représentés par ceux qui le ressente le plus Les factions en pleine action Justement tiens en parlant d'action ce morceau La rage dans le mic la frappe dans le rap des claques dans les faces Ce morceau fils comme je l'aime Au mieux de ma forme quand ma plume se déchaîne La rage dans le mic fils tu le sais You might also like La rage dans le mic x7 Au top ouvrez le summum les mômes disent vrai Faf Larage tourne la page là pour restaurer la qualité Fixée, décédée, noire de texte Inspirées les taupes auto-prod j'donne le Pour bannir les L.A.I. bouffis de Il suffit d'un simple stylo à billes Les potos de hip-hop sauront reconnaître un fait Quand le feu prendra le I ils sauteront par la fenêtre Gil mon manager le sait à Paris les majors se font funky Mais il passe pas pour un banquier Refuse septembre les larmes vont couler Fini l'été mon vier les groupes vont gicler Maintenant j'ai la hargne d'un Rottweiler la machoire d'un Pitbull Quand je mâche le mic les potos disent Ouh J'suis l'Homme aux provocs les mecs j'aurai des textes virulents harcèlement et c'est pas du vent Et les basses te blessent te laissent et c'est ça le son Sans le sirop les cahuètes sales les glaçons C'est la surprise l'Âme Soul en 96 saison Les micros sans files les samples s'allient les groupies s'alignent Le centre bourse suit vole et Ça me fait le samedi traîne ainsi ça te dit sort la sape soleil Lâche les sous sur les concerts Les soirées freestyles comme celle-là sur les S S comme Soul S comme Swing S comme Spéculé de toi Ah la star Non je saigne les stylos suce le sang des stabilos Si je me sens je prend mon texte et je le teste au micro Def pour le Soul Soul pour le Swing le Swing pour toi La rage sur le mic mon mic see yeah La rage dans le mic x7</t>
+          <t>Je me situe parmi les MCs d'hier et de demain La rage dans le mic j'ai faim alors écoute moi C'est vrai que j'aime le R'n'B mais fallait du Jack le mauvais pourrira son qui Qui tâche leurs tripes tous dansent en slip Qui efface leur vie moi j'ai la haine et pas de flic hormis ceux que je respecte en tant que mec Plein de place dans mes rimes que j'comblerai d' Soit disant y a pas d'place pour moi Soit disant le hardcore d'époque ça marche pas Comme si j'avais que ça comme but dans la vie Attendant comme un con d'être choisi C'est moi le vice aujourd'hui ici et j'aime pas trop Je trouve ça zéro quand c'est de moi qu'on rit J'ai pas de blé mais laisse tomber À part répéter Qu'est-ce que tu fais de tes journées ? Les mecs tentent de me tester mais j'adopte un profil bas Mais quand vient le moment de la scène c'est pas à moi de la fermer alors où sont les chauds qui frimaient autrefois Dehors je crois et si les autres ne bougent pas je ne m'inquiète pas Les cris sont toujours là À la fin mon gars tu vois y a pas d'quoi s'alarmer tu le sais c'est si simple de baver sur La concurrence est rude et bien plus dure tant mieux Quespérer sinon qu'le hip-hop tue dans les lieux Tous les lieux représentés par ceux qui le ressente le plus Les factions en pleine action Justement tiens en parlant d'action ce morceau La rage dans le mic la frappe dans le rap des claques dans les faces Ce morceau fils comme je l'aime Au mieux de ma forme quand ma plume se déchaîne La rage dans le mic fils tu le sais La rage dans le mic x7 Au top ouvrez le summum les mômes disent vrai Faf Larage tourne la page là pour restaurer la qualité Fixée, décédée, noire de texte Inspirées les taupes auto-prod j'donne le Pour bannir les L.A.I. bouffis de Il suffit d'un simple stylo à billes Les potos de hip-hop sauront reconnaître un fait Quand le feu prendra le I ils sauteront par la fenêtre Gil mon manager le sait à Paris les majors se font funky Mais il passe pas pour un banquier Refuse septembre les larmes vont couler Fini l'été mon vier les groupes vont gicler Maintenant j'ai la hargne d'un Rottweiler la machoire d'un Pitbull Quand je mâche le mic les potos disent Ouh J'suis l'Homme aux provocs les mecs j'aurai des textes virulents harcèlement et c'est pas du vent Et les basses te blessent te laissent et c'est ça le son Sans le sirop les cahuètes sales les glaçons C'est la surprise l'Âme Soul en 96 saison Les micros sans files les samples s'allient les groupies s'alignent Le centre bourse suit vole et Ça me fait le samedi traîne ainsi ça te dit sort la sape soleil Lâche les sous sur les concerts Les soirées freestyles comme celle-là sur les S S comme Soul S comme Swing S comme Spéculé de toi Ah la star Non je saigne les stylos suce le sang des stabilos Si je me sens je prend mon texte et je le teste au micro Def pour le Soul Soul pour le Swing le Swing pour toi La rage sur le mic mon mic see yeah La rage dans le mic x7</t>
         </is>
       </c>
     </row>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>This is One Shot, yeah yeah This is not a ??? Yeah man Hey Faf, Quinto dites leurs Jalane, Freeman... Ne m'invites pas dans tes soirées Drag-Queen Avec tes potes en string t'es fou Ne m'invites pas dans tes Song-Bway Show Je ne suis pas très techno, no, no, no... Ici, c'est One Shot.. Quinto Lusi dans la partie, c'est r'parti Ecoutes... Là Quand tu bouge sur.. ça Quand l'DJ met la voix tiennent là droit MC, DJ, tout terrain, tu doutes pas Mille et un styles dans tes oreilles Et celui qui trouve ça facile, ben qu'il fasse pareil Pour les dancehall Hi-Real, Lusi, sourire, mec Maintenant qu'j'ai bien gole-ri, je vais le pendre bien sec Respect à Taïro, respect à Nuttea, IAM dans l'trip avec nous Un écrit d'après minuit, pour une Dancehall Furie Tous sur la piste tant que les bonnes vibes existent Quand la musique enflamme les coeurs A cette chaleur qui resiste Faf l'a dit Danse dessus Ca va plus, mes associés kiffent ça, tu as vu Un H?? près de Ris-Pa, t'as vu Merci à l'équipe, c'était puissant les frère Fifi, Rico, Aïsha, Cécile, Léa, Véro, Ella, Paul, Mère ???? , elle s'améliore Si dieu veut, meilleur est cet avenir, les frères j'le pense fort You might also like One Shot dans la partie Entre les femmes, les petits Même si t'appelles la cavalerie J'tiens le pari qu'ils relèvent le défi On est que six mais on punit Avec des mots, des mélodies triées sur le parvis C'est sur scène qu'on sévit Jalane Tu crois que tu peux m'impressioner avec tes soirée en bois Mec, celui qui te parle ici, c'est Faf LaRage Dancehall Furie, Mars boogie Des mots qui se déguisent, faut qui s' dégazent J'sais pas si j'dois rentrer dans l'lards ou dans l'Art Façon standard, épaulé de Stormbringa C'est nos, nos, nos... Des trips de clandos Mec, c'est faux, faux, faux... Des dances Tropo Et des zéros, pros, pros, pros... T'y es pas, la zik c'est pas ça Mec, j't'explique même pas, tu comprendrais pas Tout mes potos d-d-d-d-dance dessus Axes toi sur le D-d-d-dancefloor, sur le mic Le Duc existe, des reportages plus sûr Plus culturels pur façon Dancefloor Come Again, blaireau, ici c'est du vrai Faf et Maniga et Rico dans la place sont près Franchement tes fausses soirées electronique, kitsch de merde Le Show-biz avant, c'était juste de l'herbe Et tu l'as dit mec, je fais faire un sale son sec Pas un son que les nazes récupèrent Après y se plaignent qu'on les rackettent LaRage et One Shot, on n'est pas dans ce trip Pas de tripes, notre trip c'est la zik Fuck les polémiques En étant son air et mon état, quand je pose en candidat Sans le son qui bondira, bon sang qui Bond y va mais pour savoir où tu vas Quand tu prend un chemin tu vois le mien comme celui de n'importe qui, restreint On s'comprend, le monde veut rester avec son compte plein Le bon temps reste un privilège dans cette vie de chien Dancehall, pas d'plainte, j'pense mol, pas d'bol J'mets le feu à fond dans le pays. Goal, qu'on m'gaule Qu'on m'colle une putain de colle, rimes collés au sol Blindés avec nos synthés, on tient le monopole Ah, t-t-tu traduis, qu'on étude le produit, qu'on fasse un produit Qu'un mauvais se réduit, je voudrais pas qu'on m'souhaite la mort A cause m'appelerais à mort, boy, ça c'est pas mon sort Et bon, j'fais pas ça pour l'or. oui, j'suis pas un Ténor Juste un boy du Dancefloor, Dancefloor, le but je dors encore et encore Ici le fric, ici, y'a pas de fric ici, ici c'est One Shot Whouaa t'occupe pour les cris Manamath, Manamath, Manamath, Manamath, Manamath, Manamath... Mates comme l'heure était, mache autour n'est pas si seul Chicote les soirée gaies ou écope ici pas testé cocotte T'inquiète pas y'a que des pilotes, tu prends une calotte C'est fait pour ça mon pote, Une ambiance cocotte Je prend le mic et j'galope, tukutu, tukutu, tukutu Y-yo, Y-yo, Y-yo Ne m'invites pas dans tes soirées Drag-Queen J'aime pas tes potes en string T'es fou Ne m'invites pas dans tes party-Bway Show Je ne suis pas très techno, no, no, no... T'es Fou Dancefloor Soirée Techno C'est dingue Hey Respect à Freeman, Nuttea, Jalane, Faf, Quinto Pour cette tuerie A là c'est à nous d'donner la furie, hey Select a..., select a..., rewind it again please Select a..., select a..., ho, ho, ho, ho, ho, hey C'est la Dancehall Furie Remède pour les âmes et les esprits C'est la Dancehall Furie Rangez vos lames et vos fusils J'transforme le hall de ton immeuble en Dancehall Faut qu'hésites et dance. Le Dancefloor, c'est ton cerveau Le DJ c'est toi si t'y pense, mixe avec tes songes et pense aux enjeux Ceux des cieux, pas ceux d'ici, ceux de dieux c'est eux les vrais anges Tes neurones, c'est le Bi-pôle sur mon bo-gueule Faut qu'ta matière grise s'agite, que ça bouge quand j'ouvre ma gueule Que dans ton esprits, ce soit eux, Garçons et Mademoiselles De Dakar jusqu'en Moselle, ma musique prend des ailes Disiz-ze-ze-ze-ze, comme à Ibiza Sans les dièse bizarre des dep, leurs faire ma misère M'as mise à ma miss, c'est moi chérie-coco, La musique mon cocon Une vingtaine de mesure sur la musique comme des flocons Mais, mais, mais Disiiiize, je les tue avec mon flow Dans le ghetto, c'est la Furie du Dancefloor J'explore ce soir, on va en boite... cranienne Taïro, Chill, Jo et Disiz sur les ondes hertziennes S'te plait, fais une boum dans ton cerveau, invite des idées positives Directive pour les videurs évites les pensées négatives Pour que ça porte dans ton bulbe, ecoute Disiz la Peste Que les good Vibes s'propulsent sur mon cerveau se la taise C'est la Dancehall Furie Remède pour les âmes et les esprits L'exode du sper de mon esprit et le son qui me sont investi Des sphères de mon cortex pour un chapitre inverti, poison mortel Dégénéré par des taies des choses sexi, nos rêves drivés par chuut Baby, Le ??? exitant les woui-woui Quand Je squatte le mic qui déchaine les Hhuuum Quand j'monte les Watt de mon salon style Habilis Fallait voir les faces des voisins criser sur la sound, Stevie La pourriture m'a suivie dans mon coeur comme une sangsue Et j'ai subie le raz de marée du rythme et ses lubies Prés d'l'arrêt du turf, les légendes d'mon équipe survivent S'inscrivirent dans les HiFi comme une nuit depuis en Georgie Ce son s'balade quelque part sur une touche Azerty Sur Mon, tu regrettes au marie, car ce beat est dirty Mon mic plaide pour une mélodie de furie Une équipe fourrée de styles de flows divers transforme ce Dancehall en tuerie Et pour les paru.., que dis-je une century Colloque d'alchimiste cherchant le Beat of the Century J'ramène l'HipHop à l'essence et sans les milles et cent incendies Dis-moi où est le rap quand les ---- jouent au plus bandits Et qui n'ont pas de sujets de lyrics sans Versus et Gucci J'leur réserve sur disque comme Apollo Creed, Une Boucherie Eh ouais, c'est comme ça, ici ça pête fort Ici, c'est One Shot, IAM sur le Dancefloor Et j'crois que c'est là qu'il faut que tu kiffes sur le son Que tu bloque sur le son, si ça le fait Faudrat qu'tu t'lache sur le son, que tu vives dans le son Que tu mette tout ce que t'as dans le son, dansant mais fais comme tu pense Dans le fond, tu glisse dans le son Lêve les bras, fais comme ceux qui sont sur FatTrack Faut que tu trique, trime à max, pour ça le Wax, un axe ou seul les as ont place Une chance de laisser une trace, on taperas fort sur rien d'autre Que les tympans et les cerveaux, un son de salauds pour les costauds Et un Flow de pro pour les potos qui pensent sur le son Qui chauffent sur le son, ceux qui préfèrent le sens dans le son assis sur le caisson Puissant, on vient planter ton son Je précise pour les Condés,on parle pas de baston Fils on vise le fun, la fête, Fuck ce qui divisent Les tête qui bouge sur le son, qui planent sur le son, qui pleurent sur le son Vu pour le son, les senseurs du son, qui plient sur le son, crient sous du son Et rient sur du son, et ceux qui comme vivent dans le son A fond et jusqu'en fin de partie, fiston Swinguent sur le son, hum Hum sur le son, oh oui sur le son, on pose sur le son On peut tuer sur le son</t>
+          <t>This is One Shot, yeah yeah This is not a ??? Yeah man Hey Faf, Quinto dites leurs Jalane, Freeman... Ne m'invites pas dans tes soirées Drag-Queen Avec tes potes en string t'es fou Ne m'invites pas dans tes Song-Bway Show Je ne suis pas très techno, no, no, no... Ici, c'est One Shot.. Quinto Lusi dans la partie, c'est r'parti Ecoutes... Là Quand tu bouge sur.. ça Quand l'DJ met la voix tiennent là droit MC, DJ, tout terrain, tu doutes pas Mille et un styles dans tes oreilles Et celui qui trouve ça facile, ben qu'il fasse pareil Pour les dancehall Hi-Real, Lusi, sourire, mec Maintenant qu'j'ai bien gole-ri, je vais le pendre bien sec Respect à Taïro, respect à Nuttea, IAM dans l'trip avec nous Un écrit d'après minuit, pour une Dancehall Furie Tous sur la piste tant que les bonnes vibes existent Quand la musique enflamme les coeurs A cette chaleur qui resiste Faf l'a dit Danse dessus Ca va plus, mes associés kiffent ça, tu as vu Un H?? près de Ris-Pa, t'as vu Merci à l'équipe, c'était puissant les frère Fifi, Rico, Aïsha, Cécile, Léa, Véro, Ella, Paul, Mère ???? , elle s'améliore Si dieu veut, meilleur est cet avenir, les frères j'le pense fort One Shot dans la partie Entre les femmes, les petits Même si t'appelles la cavalerie J'tiens le pari qu'ils relèvent le défi On est que six mais on punit Avec des mots, des mélodies triées sur le parvis C'est sur scène qu'on sévit Jalane Tu crois que tu peux m'impressioner avec tes soirée en bois Mec, celui qui te parle ici, c'est Faf LaRage Dancehall Furie, Mars boogie Des mots qui se déguisent, faut qui s' dégazent J'sais pas si j'dois rentrer dans l'lards ou dans l'Art Façon standard, épaulé de Stormbringa C'est nos, nos, nos... Des trips de clandos Mec, c'est faux, faux, faux... Des dances Tropo Et des zéros, pros, pros, pros... T'y es pas, la zik c'est pas ça Mec, j't'explique même pas, tu comprendrais pas Tout mes potos d-d-d-d-dance dessus Axes toi sur le D-d-d-dancefloor, sur le mic Le Duc existe, des reportages plus sûr Plus culturels pur façon Dancefloor Come Again, blaireau, ici c'est du vrai Faf et Maniga et Rico dans la place sont près Franchement tes fausses soirées electronique, kitsch de merde Le Show-biz avant, c'était juste de l'herbe Et tu l'as dit mec, je fais faire un sale son sec Pas un son que les nazes récupèrent Après y se plaignent qu'on les rackettent LaRage et One Shot, on n'est pas dans ce trip Pas de tripes, notre trip c'est la zik Fuck les polémiques En étant son air et mon état, quand je pose en candidat Sans le son qui bondira, bon sang qui Bond y va mais pour savoir où tu vas Quand tu prend un chemin tu vois le mien comme celui de n'importe qui, restreint On s'comprend, le monde veut rester avec son compte plein Le bon temps reste un privilège dans cette vie de chien Dancehall, pas d'plainte, j'pense mol, pas d'bol J'mets le feu à fond dans le pays. Goal, qu'on m'gaule Qu'on m'colle une putain de colle, rimes collés au sol Blindés avec nos synthés, on tient le monopole Ah, t-t-tu traduis, qu'on étude le produit, qu'on fasse un produit Qu'un mauvais se réduit, je voudrais pas qu'on m'souhaite la mort A cause m'appelerais à mort, boy, ça c'est pas mon sort Et bon, j'fais pas ça pour l'or. oui, j'suis pas un Ténor Juste un boy du Dancefloor, Dancefloor, le but je dors encore et encore Ici le fric, ici, y'a pas de fric ici, ici c'est One Shot Whouaa t'occupe pour les cris Manamath, Manamath, Manamath, Manamath, Manamath, Manamath... Mates comme l'heure était, mache autour n'est pas si seul Chicote les soirée gaies ou écope ici pas testé cocotte T'inquiète pas y'a que des pilotes, tu prends une calotte C'est fait pour ça mon pote, Une ambiance cocotte Je prend le mic et j'galope, tukutu, tukutu, tukutu Y-yo, Y-yo, Y-yo Ne m'invites pas dans tes soirées Drag-Queen J'aime pas tes potes en string T'es fou Ne m'invites pas dans tes party-Bway Show Je ne suis pas très techno, no, no, no... T'es Fou Dancefloor Soirée Techno C'est dingue Hey Respect à Freeman, Nuttea, Jalane, Faf, Quinto Pour cette tuerie A là c'est à nous d'donner la furie, hey Select a..., select a..., rewind it again please Select a..., select a..., ho, ho, ho, ho, ho, hey C'est la Dancehall Furie Remède pour les âmes et les esprits C'est la Dancehall Furie Rangez vos lames et vos fusils J'transforme le hall de ton immeuble en Dancehall Faut qu'hésites et dance. Le Dancefloor, c'est ton cerveau Le DJ c'est toi si t'y pense, mixe avec tes songes et pense aux enjeux Ceux des cieux, pas ceux d'ici, ceux de dieux c'est eux les vrais anges Tes neurones, c'est le Bi-pôle sur mon bo-gueule Faut qu'ta matière grise s'agite, que ça bouge quand j'ouvre ma gueule Que dans ton esprits, ce soit eux, Garçons et Mademoiselles De Dakar jusqu'en Moselle, ma musique prend des ailes Disiz-ze-ze-ze-ze, comme à Ibiza Sans les dièse bizarre des dep, leurs faire ma misère M'as mise à ma miss, c'est moi chérie-coco, La musique mon cocon Une vingtaine de mesure sur la musique comme des flocons Mais, mais, mais Disiiiize, je les tue avec mon flow Dans le ghetto, c'est la Furie du Dancefloor J'explore ce soir, on va en boite... cranienne Taïro, Chill, Jo et Disiz sur les ondes hertziennes S'te plait, fais une boum dans ton cerveau, invite des idées positives Directive pour les videurs évites les pensées négatives Pour que ça porte dans ton bulbe, ecoute Disiz la Peste Que les good Vibes s'propulsent sur mon cerveau se la taise C'est la Dancehall Furie Remède pour les âmes et les esprits L'exode du sper de mon esprit et le son qui me sont investi Des sphères de mon cortex pour un chapitre inverti, poison mortel Dégénéré par des taies des choses sexi, nos rêves drivés par chuut Baby, Le ??? exitant les woui-woui Quand Je squatte le mic qui déchaine les Hhuuum Quand j'monte les Watt de mon salon style Habilis Fallait voir les faces des voisins criser sur la sound, Stevie La pourriture m'a suivie dans mon coeur comme une sangsue Et j'ai subie le raz de marée du rythme et ses lubies Prés d'l'arrêt du turf, les légendes d'mon équipe survivent S'inscrivirent dans les HiFi comme une nuit depuis en Georgie Ce son s'balade quelque part sur une touche Azerty Sur Mon, tu regrettes au marie, car ce beat est dirty Mon mic plaide pour une mélodie de furie Une équipe fourrée de styles de flows divers transforme ce Dancehall en tuerie Et pour les paru.., que dis-je une century Colloque d'alchimiste cherchant le Beat of the Century J'ramène l'HipHop à l'essence et sans les milles et cent incendies Dis-moi où est le rap quand les ---- jouent au plus bandits Et qui n'ont pas de sujets de lyrics sans Versus et Gucci J'leur réserve sur disque comme Apollo Creed, Une Boucherie Eh ouais, c'est comme ça, ici ça pête fort Ici, c'est One Shot, IAM sur le Dancefloor Et j'crois que c'est là qu'il faut que tu kiffes sur le son Que tu bloque sur le son, si ça le fait Faudrat qu'tu t'lache sur le son, que tu vives dans le son Que tu mette tout ce que t'as dans le son, dansant mais fais comme tu pense Dans le fond, tu glisse dans le son Lêve les bras, fais comme ceux qui sont sur FatTrack Faut que tu trique, trime à max, pour ça le Wax, un axe ou seul les as ont place Une chance de laisser une trace, on taperas fort sur rien d'autre Que les tympans et les cerveaux, un son de salauds pour les costauds Et un Flow de pro pour les potos qui pensent sur le son Qui chauffent sur le son, ceux qui préfèrent le sens dans le son assis sur le caisson Puissant, on vient planter ton son Je précise pour les Condés,on parle pas de baston Fils on vise le fun, la fête, Fuck ce qui divisent Les tête qui bouge sur le son, qui planent sur le son, qui pleurent sur le son Vu pour le son, les senseurs du son, qui plient sur le son, crient sous du son Et rient sur du son, et ceux qui comme vivent dans le son A fond et jusqu'en fin de partie, fiston Swinguent sur le son, hum Hum sur le son, oh oui sur le son, on pose sur le son On peut tuer sur le son</t>
         </is>
       </c>
     </row>
@@ -1908,7 +1908,7 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Quand ce sera la fin d'la musique, tu tireras... 97, j'flingue un plouc au micro J'pousse un mot pour les clebs et les salauds C'est clair, mec, fuis au galop, jaloux, bombes dans mon ballot Un tas de textes crados, tu voudrais pomper mon halo Un coup bas, chez le FN tu pètes les boundas C'est moi qui fout le boul avec ma zik' de bamboulas Moteur, action, fils du béton, klaxon Viens à Marseille con, et tu verras comme nous taxons J'suis pas le meilleur des mecs, loin de là J'brûle des boulettes, j'suis pas sex symbol mais symbole sec au mic Check, pour ton info personnelle, mec j'perce au soleil On m'a vu en sommeil, j'étais en mode veille J'pète un pot pour les amis fidèles, compagnons modèles À ceux qui prient le soir et ceux qui s'éclatent dans les hôtels Chacun sa vie, j'suis pas juge tu piges, gruge, suge Purge au mic dans un pur style pétassifuge Fuit les pétasses, qu'Allah les punissent Les langues de pute punissent les purises J'm'immunise contre les pétasses du mouv' Par là, j'évoques pas les poules mais les flics au stylo aigris qui ont les boules Gonflées, trop d'classe, Fouras, ma race, ou la scène en coulisse Coule la session sous la pression des solistes En sous l'eau apnée mon jean flingue au verbe Plein d'verve nerveux fervent sans moula mais plein d'herbe Traîner dans les bars les Stans dans la ciure Prescott, Polo, Tommy Jean sans figure Caquette cocotte dans ton fanzine pourri Bientôt tu vas goûter à la Benzine Souris, rigole avec les mecs que tu connais J'suis pas ton pote fils, le naturel revient au galop Avec les sales aussi, manière de gicler ton équipe de gamins d'économe Pour t'expliquer la vie à coup de pieds au cul minimum T'ignore tous le soi-disant mytho du rap te claque Zgeg, c'est l'été lève ton bonnet et ton anorak Voici mon nom de code, j'te le file pour pas un peso Morte A La Francia Italia Deso You might also like97, je marche à Sad Hill C'est le sale Chill Armé d'un cimeterre dans la main, au milieu d'un cimetière désolé J'prends le mic pour la pagaille, tu le sais Au nom du père, du fils et du Sentenza, Amen, Ainsi soit Chill C'est comme ça que ça ce passe mec ici Dicave l'assassin au SM, l'analphabète qui pisse à la raie Des Delanoë, les ploucs de la SACEM Assaut vérbalistique shoot les vieux du showbiz Mon son pèse comme Toto pèse dans les gros bizz J'veux être unique, pas de beuf de base intégré Quand j'mens, j'jure sur la tête à Megret Ca devrait suffire pour qu'il clams, la haine, la criptonite frappe lui et sa clique Illico et sa pouf la bonite J'devrais donner des cours, comment tenir un mic à l'ENA Imagine ça, moi le type du bled de l'Etna En freestyle à l'assemblée, passe le mic Et j'fouette un par un les députés présents ce jour là d'amblé Agent du micro d'argent, tueur solitaire à la solde du CO Discipline militaire, j'finis un job pour lequel on me paie C'est pourtant simple, je déboule avec un signe de paix Et tu pètes, c'est comme ça qu'on traite ces frères, un vieil ami comme moi Sers donc un verre à Sentenza, j't'apprendrais les bonnes manières Quand tu baves dans la capsule, pas de lapsus Tu veux la bombe mais capsulte Capte mon argot, mon argument, je braque Wells Fargo Caractère bardé d'Ergo, mais Charlot, ton speech à l'effet D'un gros lard qui fond au Serengeti C'est pas un mic que t'as, c'est un yeti Et donne le salaire de la peur, chaque texte est une prime J'suis mercenaire, ici le sans pitié prime J'ai fais mon cursus sur le sentiers de la guerre En évitant les bagarres, pas clair j'peux taper comme je fesai naguère Coléreux , je ramène le choléra Je banni les rimes Collaro qui dira que Chill est naïf Plein de conneries, je gerbe sur les clacos Dans un style inédit, le flow marque mick huh....Marco Ipso facto, salaud, le king du KO Total Kheops, bote les fesses au fils de Crao peace aux frères d'IAM, Fonky Family K.Rhyme Le Roi et Faf Larage, Def Bond, 3ème il sur ma page Don't sleep, aux mecs qui bossent d'une manière ardue Côté Obscur, Les Mecs De La Rue Adios Amigo... Paaaan !</t>
+          <t>Quand ce sera la fin d'la musique, tu tireras... 97, j'flingue un plouc au micro J'pousse un mot pour les clebs et les salauds C'est clair, mec, fuis au galop, jaloux, bombes dans mon ballot Un tas de textes crados, tu voudrais pomper mon halo Un coup bas, chez le FN tu pètes les boundas C'est moi qui fout le boul avec ma zik' de bamboulas Moteur, action, fils du béton, klaxon Viens à Marseille con, et tu verras comme nous taxons J'suis pas le meilleur des mecs, loin de là J'brûle des boulettes, j'suis pas sex symbol mais symbole sec au mic Check, pour ton info personnelle, mec j'perce au soleil On m'a vu en sommeil, j'étais en mode veille J'pète un pot pour les amis fidèles, compagnons modèles À ceux qui prient le soir et ceux qui s'éclatent dans les hôtels Chacun sa vie, j'suis pas juge tu piges, gruge, suge Purge au mic dans un pur style pétassifuge Fuit les pétasses, qu'Allah les punissent Les langues de pute punissent les purises J'm'immunise contre les pétasses du mouv' Par là, j'évoques pas les poules mais les flics au stylo aigris qui ont les boules Gonflées, trop d'classe, Fouras, ma race, ou la scène en coulisse Coule la session sous la pression des solistes En sous l'eau apnée mon jean flingue au verbe Plein d'verve nerveux fervent sans moula mais plein d'herbe Traîner dans les bars les Stans dans la ciure Prescott, Polo, Tommy Jean sans figure Caquette cocotte dans ton fanzine pourri Bientôt tu vas goûter à la Benzine Souris, rigole avec les mecs que tu connais J'suis pas ton pote fils, le naturel revient au galop Avec les sales aussi, manière de gicler ton équipe de gamins d'économe Pour t'expliquer la vie à coup de pieds au cul minimum T'ignore tous le soi-disant mytho du rap te claque Zgeg, c'est l'été lève ton bonnet et ton anorak Voici mon nom de code, j'te le file pour pas un peso Morte A La Francia Italia Deso 97, je marche à Sad Hill C'est le sale Chill Armé d'un cimeterre dans la main, au milieu d'un cimetière désolé J'prends le mic pour la pagaille, tu le sais Au nom du père, du fils et du Sentenza, Amen, Ainsi soit Chill C'est comme ça que ça ce passe mec ici Dicave l'assassin au SM, l'analphabète qui pisse à la raie Des Delanoë, les ploucs de la SACEM Assaut vérbalistique shoot les vieux du showbiz Mon son pèse comme Toto pèse dans les gros bizz J'veux être unique, pas de beuf de base intégré Quand j'mens, j'jure sur la tête à Megret Ca devrait suffire pour qu'il clams, la haine, la criptonite frappe lui et sa clique Illico et sa pouf la bonite J'devrais donner des cours, comment tenir un mic à l'ENA Imagine ça, moi le type du bled de l'Etna En freestyle à l'assemblée, passe le mic Et j'fouette un par un les députés présents ce jour là d'amblé Agent du micro d'argent, tueur solitaire à la solde du CO Discipline militaire, j'finis un job pour lequel on me paie C'est pourtant simple, je déboule avec un signe de paix Et tu pètes, c'est comme ça qu'on traite ces frères, un vieil ami comme moi Sers donc un verre à Sentenza, j't'apprendrais les bonnes manières Quand tu baves dans la capsule, pas de lapsus Tu veux la bombe mais capsulte Capte mon argot, mon argument, je braque Wells Fargo Caractère bardé d'Ergo, mais Charlot, ton speech à l'effet D'un gros lard qui fond au Serengeti C'est pas un mic que t'as, c'est un yeti Et donne le salaire de la peur, chaque texte est une prime J'suis mercenaire, ici le sans pitié prime J'ai fais mon cursus sur le sentiers de la guerre En évitant les bagarres, pas clair j'peux taper comme je fesai naguère Coléreux , je ramène le choléra Je banni les rimes Collaro qui dira que Chill est naïf Plein de conneries, je gerbe sur les clacos Dans un style inédit, le flow marque mick huh....Marco Ipso facto, salaud, le king du KO Total Kheops, bote les fesses au fils de Crao peace aux frères d'IAM, Fonky Family K.Rhyme Le Roi et Faf Larage, Def Bond, 3ème il sur ma page Don't sleep, aux mecs qui bossent d'une manière ardue Côté Obscur, Les Mecs De La Rue Adios Amigo... Paaaan !</t>
         </is>
       </c>
     </row>
@@ -1925,7 +1925,7 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>J'ai rien à perdre, FF rien à foutre Rahzel, Bruizza rien à taire, Troisième il rien à perdre Faf Larage rien à braire, Def dont sleep rien à foutre K-Rhyme Le Roi rien à taire, Freeman rien à perdre Belsunce rien à foutre, le reuf rien à perdre IAM rien à taire Les deux pieds sur terre, la tête pleine de teh Rien à taire, rien à faire Avant je n'étais rien, un putain de chien, plein d'Heineken Sale face, dent en plastique, arrières pensées malsaines Je me levais à 3 heures quand même réveil dur La face striée des plis des coussins incrustés dans ma figure Tanqué dans une station de métro Branleur invétéré la RTM aurait pu me proposer un putain de boulot Hormis que j'étais le pilier de ces spots J'ai niqué la carrière scolaire de pas mal de potes On était quand même des sacrés rêveurs Et les rêves brisés transforment les songeurs en braqueurs Rien ne me faisait plus rire Seul la soif de survivre, le cash me faisait courir Partir un peu plus loin la tête coiffée plus tard d'un couffis La rage dans le mic entre deux repas de souffris Inutile torchon j'aurais voulu crever, tuer Renversé en plein été sur mon vélo aux deux roues crevées Poumon fumigène souffle siffle leur crise d'asthme J'aurais du en planter des mecs j'aurais pas eu de spasmes L'eau a coulé depuis l'époque des polos frizz A celle des Valstar envoyés sur les pare brise Stéréo, 16 à gauche à droite scud de popo Le walkman sur disque m'a rendu sourd comme un pot Les pâtes au beurre patraque, armé d'une matraque 1 je rappais pour moi 2,3,4,5 pour la hayat Pas de boite j'avais pas de lovés On s'incrustait le soir dans les mariages C'était gratuit y avait du gâteaux et à boire, de l'air pur du riff Chaque fois que j'écris je pense à Said, Ali, Sherif Lah'mou, s'il en est ainsi c'était écrit La frustration m'a rendu aigri et j'ai maigri Mentalité excessive sale à pourrir Si je ne peux t'avoir quelqu'un de ta famille doit mourir You might also like J'ai rien à perdre, même si je me fous dans la merde J'ai rien à perdre, rien à foutre, rien à taire J'ai rien à perdre, même si je me fous dans la merde J'ai rien à perdre, rien à foutre, rien à taire Le clan des 103 haja mec que pasa ? Tu t'en bats les couilles hein Jusqu'à c'qu'ils viennent frapper chez toi Le clan des 103 haja mec que pasa ? Tu t'en bats les couilles hein Jusqu'à c'qu'ils viennent frapper chez toi Le clan des 103 gadjo débarque chez toi 103 Peugeot Si j'fais la fête c'est qu'tout va mal dans ma tête Normal j'm'endette éclate le fric les gens me trouvent bête Tout les week end j'rentrais ivre, j'apprenais à vivre Maintenant je rentre ivre tout les jours, j'me contente de survivre Aucune vue de la grande vie j'ai eu du mal à suivre les cours de maths Ras le bol de l'école et d'ces femmes profs Les jours de fête ne me font plus marrer Même bourré à la bière, Noël, Pâques, mon anniversaire c'est pareil Plus d'suspense, d'sensation Ma participation suffit pour faire plaisir aux proches Ma famille, mes amis le savent Le sourire aux lèvres est rare 5,6 pétards et le fou rire vient tout comme le cafard Tu captes ça ? Frère écoute la terre tourne, ma tête tourne, la roue tourne Chacun chacun son tour côtoie la skoumoun On refuse de devenir vieux avant l'âge C'est la routine pour mon entourage Dans la merde ? solidaire on s'encourage Faut m'défoncer la mâchoire pour m'empêcher de parler sur instrumental Pas l'temps d'être sentimental, j'ai trop la dalle J'emmerde les projets DSU, déçu par le CIQ Les élus peuvent se mettre leurs belles paroles dans le cul Coincé dans les squats par le froid, les rêves foirent Le soir la poisse s'acharne sur mes camarades et moi La chance ni vient ni part je prends part au partie d'poker Dans le quartier mon bunker, Le Rat deker rit plus que ce putain d'joker Je nagerais avec les femmes et un micro dans une piscine pas pour la frime Pour une paire de seins frangine Rouler dans l'or, connaitre l'autre, autre monde Les mains bien dans la merde dans la tête un désordre monstre Les restos classes c'est pas mon genre j'préfère les snacks Devenir prince impossible ma vie c'est ma musique dans les Fnac</t>
+          <t>J'ai rien à perdre, FF rien à foutre Rahzel, Bruizza rien à taire, Troisième il rien à perdre Faf Larage rien à braire, Def dont sleep rien à foutre K-Rhyme Le Roi rien à taire, Freeman rien à perdre Belsunce rien à foutre, le reuf rien à perdre IAM rien à taire Les deux pieds sur terre, la tête pleine de teh Rien à taire, rien à faire Avant je n'étais rien, un putain de chien, plein d'Heineken Sale face, dent en plastique, arrières pensées malsaines Je me levais à 3 heures quand même réveil dur La face striée des plis des coussins incrustés dans ma figure Tanqué dans une station de métro Branleur invétéré la RTM aurait pu me proposer un putain de boulot Hormis que j'étais le pilier de ces spots J'ai niqué la carrière scolaire de pas mal de potes On était quand même des sacrés rêveurs Et les rêves brisés transforment les songeurs en braqueurs Rien ne me faisait plus rire Seul la soif de survivre, le cash me faisait courir Partir un peu plus loin la tête coiffée plus tard d'un couffis La rage dans le mic entre deux repas de souffris Inutile torchon j'aurais voulu crever, tuer Renversé en plein été sur mon vélo aux deux roues crevées Poumon fumigène souffle siffle leur crise d'asthme J'aurais du en planter des mecs j'aurais pas eu de spasmes L'eau a coulé depuis l'époque des polos frizz A celle des Valstar envoyés sur les pare brise Stéréo, 16 à gauche à droite scud de popo Le walkman sur disque m'a rendu sourd comme un pot Les pâtes au beurre patraque, armé d'une matraque 1 je rappais pour moi 2,3,4,5 pour la hayat Pas de boite j'avais pas de lovés On s'incrustait le soir dans les mariages C'était gratuit y avait du gâteaux et à boire, de l'air pur du riff Chaque fois que j'écris je pense à Said, Ali, Sherif Lah'mou, s'il en est ainsi c'était écrit La frustration m'a rendu aigri et j'ai maigri Mentalité excessive sale à pourrir Si je ne peux t'avoir quelqu'un de ta famille doit mourir J'ai rien à perdre, même si je me fous dans la merde J'ai rien à perdre, rien à foutre, rien à taire J'ai rien à perdre, même si je me fous dans la merde J'ai rien à perdre, rien à foutre, rien à taire Le clan des 103 haja mec que pasa ? Tu t'en bats les couilles hein Jusqu'à c'qu'ils viennent frapper chez toi Le clan des 103 haja mec que pasa ? Tu t'en bats les couilles hein Jusqu'à c'qu'ils viennent frapper chez toi Le clan des 103 gadjo débarque chez toi 103 Peugeot Si j'fais la fête c'est qu'tout va mal dans ma tête Normal j'm'endette éclate le fric les gens me trouvent bête Tout les week end j'rentrais ivre, j'apprenais à vivre Maintenant je rentre ivre tout les jours, j'me contente de survivre Aucune vue de la grande vie j'ai eu du mal à suivre les cours de maths Ras le bol de l'école et d'ces femmes profs Les jours de fête ne me font plus marrer Même bourré à la bière, Noël, Pâques, mon anniversaire c'est pareil Plus d'suspense, d'sensation Ma participation suffit pour faire plaisir aux proches Ma famille, mes amis le savent Le sourire aux lèvres est rare 5,6 pétards et le fou rire vient tout comme le cafard Tu captes ça ? Frère écoute la terre tourne, ma tête tourne, la roue tourne Chacun chacun son tour côtoie la skoumoun On refuse de devenir vieux avant l'âge C'est la routine pour mon entourage Dans la merde ? solidaire on s'encourage Faut m'défoncer la mâchoire pour m'empêcher de parler sur instrumental Pas l'temps d'être sentimental, j'ai trop la dalle J'emmerde les projets DSU, déçu par le CIQ Les élus peuvent se mettre leurs belles paroles dans le cul Coincé dans les squats par le froid, les rêves foirent Le soir la poisse s'acharne sur mes camarades et moi La chance ni vient ni part je prends part au partie d'poker Dans le quartier mon bunker, Le Rat deker rit plus que ce putain d'joker Je nagerais avec les femmes et un micro dans une piscine pas pour la frime Pour une paire de seins frangine Rouler dans l'or, connaitre l'autre, autre monde Les mains bien dans la merde dans la tête un désordre monstre Les restos classes c'est pas mon genre j'préfère les snacks Devenir prince impossible ma vie c'est ma musique dans les Fnac</t>
         </is>
       </c>
     </row>
@@ -1942,7 +1942,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>Yeah, back up in here again From Medina to Marseille You know what I'm sayin? La Saga 2000 Takin Francs to the bank Up in Sad Hill, IAM, the Sunz of Man Royal Fam rule, IAM, you know the jam Faf Larage, wrapped in camouflage Hip-hop in Mars to Medina is fuckin large Ici y'a Sad Hill, IAM et Sunz of Man, Royal Fam Faf Larage sur c'refrain La Saga 2000 pour te remettre à la page Hip-hop, international de BK à Mars I can't see a thing, but I care A mouse piss on cotton, my style is rotten Spoiled by vets who Protect they Necks Do the knowledge to the mathematical slang that's handsome Funny hot dogs get played at the speed of fast forward For comin toward me with that bullshit, I'm from Bushwick 7-1-8, get it straight, you're fake I slap the shit outta you with your own fuckin tape Dreddy Kruger from New York, Faf Larage go ahead and elaborate You might also like Sunz of Man, IAM, Royal Fam, Coloquinte et Faf Larage Impact de rime large, BK et Mars connecte Je vois les faux MCs svexent, c'est ce qui me rallie à ctexte Cette shit est worldwide Kirbs fout le son à fond, c'est chaud qu'on y aille Optimisé par mic c'est high quand je taille On avance fort voilà c'que c'est, c'est d'rester un exemple Concret d'un petit qui vient de la rue Pour ceux qui avaient pas le choix, pour ceux qui y croient Pour ceux qui voulaient réussir mais qu'on a bridé en bas Pour ceux qui croient que notre place est dans des usines ou des prisons On vous chie dessus, vise les sommets avec les nôtres et on y trône sur From Medina to Marseille Timbo King We movin on strong, learnin right from wrong When you dead, buried and gone, yo the world goes on You see, life is like a Sad Hill song, some blast chrome The ghetto is a place that we all call home It's the universal Sun-splash, when the guns blast So run fast, some knights saw the blood and hash, green grass A team of solid brass load a machine for task Reminice about the days when I schemed for cash Thought that was the past, never thought my dreams would pass Havin a flashback, I was a king, movin to jazz Vocal pizazz, every word is sharp as the last We move in dark mass, tune as a harp, we mind cast Keep my body fast, like a whirlwind, of Tai Chi It's the alley do-or-die emcee, one man assembly I simply, came to rock this M-I-C Endevour to be the greatest livin form of energy Sur la ville comme une mélodie triste mais demain juré J'en ferai la symphonie de mes tripes Pour ceux qui ne savent pas lire Il faut quils puissent m'entendre, écrit pour ceux qui comprennent Quil faut s'en sortir ensemble Écrit pour ceux qui veulent niquer le rap On sent que certains nazes ont plus d'impact que de gunshot I spit my shit like a hurricane Tearin your frame, sparin your family name Strange and insane from a lifetime of pain Used to roll dice on the train, precise in the game Fuck your ice, fame and shame, I splice juguler vain Spit that W slang bang, witness the bloodstain The flood came, sustain the grain through mud and rain Sustain the grain through mud and rain Yo, sustain the grain through mud and rain We movin on strong, learnin right from wrong When you dead, buried and gone, yo the world goes on You see, life is like a Sad Hill song, some blast chrome The ghetto is a place that we all call home Up in Sad Hill, IAM, the Sunz of Man Royal Fam rule, IAM, you know the jam Faf Larage, wrapped in camouflage Hip-hop in Mars to Medina is fuckin large We movin on strong, learnin right from wrong When you dead, buried and gone, yo the world goes on You see, life is like a Sad Hill song, some blast chrome The ghetto is a place that we all call home Marseille.. Marseille That's how we do it It's just that world that we live in Francs to the bank We got plans to live large La Saga 2000 We got plans to live large Yeah, yeah, Kheops It's just that world that we live in</t>
+          <t>Yeah, back up in here again From Medina to Marseille You know what I'm sayin? La Saga 2000 Takin Francs to the bank Up in Sad Hill, IAM, the Sunz of Man Royal Fam rule, IAM, you know the jam Faf Larage, wrapped in camouflage Hip-hop in Mars to Medina is fuckin large Ici y'a Sad Hill, IAM et Sunz of Man, Royal Fam Faf Larage sur c'refrain La Saga 2000 pour te remettre à la page Hip-hop, international de BK à Mars I can't see a thing, but I care A mouse piss on cotton, my style is rotten Spoiled by vets who Protect they Necks Do the knowledge to the mathematical slang that's handsome Funny hot dogs get played at the speed of fast forward For comin toward me with that bullshit, I'm from Bushwick 7-1-8, get it straight, you're fake I slap the shit outta you with your own fuckin tape Dreddy Kruger from New York, Faf Larage go ahead and elaborate Sunz of Man, IAM, Royal Fam, Coloquinte et Faf Larage Impact de rime large, BK et Mars connecte Je vois les faux MCs svexent, c'est ce qui me rallie à ctexte Cette shit est worldwide Kirbs fout le son à fond, c'est chaud qu'on y aille Optimisé par mic c'est high quand je taille On avance fort voilà c'que c'est, c'est d'rester un exemple Concret d'un petit qui vient de la rue Pour ceux qui avaient pas le choix, pour ceux qui y croient Pour ceux qui voulaient réussir mais qu'on a bridé en bas Pour ceux qui croient que notre place est dans des usines ou des prisons On vous chie dessus, vise les sommets avec les nôtres et on y trône sur From Medina to Marseille Timbo King We movin on strong, learnin right from wrong When you dead, buried and gone, yo the world goes on You see, life is like a Sad Hill song, some blast chrome The ghetto is a place that we all call home It's the universal Sun-splash, when the guns blast So run fast, some knights saw the blood and hash, green grass A team of solid brass load a machine for task Reminice about the days when I schemed for cash Thought that was the past, never thought my dreams would pass Havin a flashback, I was a king, movin to jazz Vocal pizazz, every word is sharp as the last We move in dark mass, tune as a harp, we mind cast Keep my body fast, like a whirlwind, of Tai Chi It's the alley do-or-die emcee, one man assembly I simply, came to rock this M-I-C Endevour to be the greatest livin form of energy Sur la ville comme une mélodie triste mais demain juré J'en ferai la symphonie de mes tripes Pour ceux qui ne savent pas lire Il faut quils puissent m'entendre, écrit pour ceux qui comprennent Quil faut s'en sortir ensemble Écrit pour ceux qui veulent niquer le rap On sent que certains nazes ont plus d'impact que de gunshot I spit my shit like a hurricane Tearin your frame, sparin your family name Strange and insane from a lifetime of pain Used to roll dice on the train, precise in the game Fuck your ice, fame and shame, I splice juguler vain Spit that W slang bang, witness the bloodstain The flood came, sustain the grain through mud and rain Sustain the grain through mud and rain Yo, sustain the grain through mud and rain We movin on strong, learnin right from wrong When you dead, buried and gone, yo the world goes on You see, life is like a Sad Hill song, some blast chrome The ghetto is a place that we all call home Up in Sad Hill, IAM, the Sunz of Man Royal Fam rule, IAM, you know the jam Faf Larage, wrapped in camouflage Hip-hop in Mars to Medina is fuckin large We movin on strong, learnin right from wrong When you dead, buried and gone, yo the world goes on You see, life is like a Sad Hill song, some blast chrome The ghetto is a place that we all call home Marseille.. Marseille That's how we do it It's just that world that we live in Francs to the bank We got plans to live large La Saga 2000 We got plans to live large Yeah, yeah, Kheops It's just that world that we live in</t>
         </is>
       </c>
     </row>
@@ -1959,7 +1959,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>x2 J'ai la soul dans le sang et la rage de vaincre Faut du flow qui tue et des instrus de dingue Yeah ! Et l'envie de tout faire péter Ouais c'est moi le mec de Pas le temps Plus de 15 ans de musique, premier tube à 34 ans Toujours la rage dans le mic comme en 95 Toujours accro au hip-hop comme en 85 Un type simple qui fait du son et sort un album Un atome musical espérant la bombe Une pour ceux qui me suivent J'apporte rimes et technique plus un lot de stories Sans crier victoire ça on l'sait Demain je peux tout perdre et tout recommencer Hey yo je parle de musique au fond y avait pas d'cash Et les critiques au fond passent et la merde veut ma peau J'aime pas trop jouer les stars et les styles ça m'saoule Ma place est difficile mais j'kiffe la soul Pour les générations qui m'ont pas vu venir Je livre c'que j'ai dans les tripes à vous d'voir Je vais pas la jouer gangsta pour bien m'faire voir Ranger les étiquettes pour la promo c'est juste moi J'aime pas raconter ma life je suis trop réservé pour ça Qu'on parle musique parce qu'au fond il s'agit de ça Depuis Soul Swing avec IAM On est toujours sur le mix, sur le grill et il s'agit de ça Du fond, de la forme, et du bon rap, sans pomper les gars J'assure ma survie avec des snares et des claps Je suis un mec normal pas d'temps à perdre Bien sûr j'travaille et je veux mon salaire Parti d'zéro, un vrai rat de studio Merde j'y ai appris tout ce qu'il me faut You might also like J'ai la soul dans le sang et la rage de vaincre Faut du flow qui tue et des instrus de dingue Yeah ! Et l'envie de tout faire péter Pas l'choix le rap j'avais ça dans la peau Pour éviter que ce pays bouffe mes idéaux Mais c'est jamais fini, on n'est jamais arrivés On n'est jamais trop prudent, ça le hasard pourrait bien le bouffer Après quoi je cours? j'en sais rien Mettre la famille à l'abri c'est déjà pas rien J'évolue comme un animal blessé sur mes gardes Prêt à esquiver les claques alors je garde la rage Je me marre quand j'peux Mais putain pour mon biz je reste sérieux, hyper sérieux C'est pas un album fait en deux-deux, j'fais c'que je veux La prod claque alors qui en veut? Qui m'en veut? Y aura toujours une bande de fils de... De langue de... chut Avant d'esquiver la chute Ça tue, ça sature j't'assure Pas de censure faudra des points de suture Pas de soucis j'assassine ça c'est sûr Ça sensibilise ceux qui ciblent un son pur Big-up à tous ceux qui m'ont soutenu ouais Pour les autres, seul Dieu me juge tu le sais J'ai la soul dans le sang et la rage de vaincre Faut du flow qui tue et des instrus de dingue Yeah ! Et l'envie de tout faire péter</t>
+          <t>x2 J'ai la soul dans le sang et la rage de vaincre Faut du flow qui tue et des instrus de dingue Yeah ! Et l'envie de tout faire péter Ouais c'est moi le mec de Pas le temps Plus de 15 ans de musique, premier tube à 34 ans Toujours la rage dans le mic comme en 95 Toujours accro au hip-hop comme en 85 Un type simple qui fait du son et sort un album Un atome musical espérant la bombe Une pour ceux qui me suivent J'apporte rimes et technique plus un lot de stories Sans crier victoire ça on l'sait Demain je peux tout perdre et tout recommencer Hey yo je parle de musique au fond y avait pas d'cash Et les critiques au fond passent et la merde veut ma peau J'aime pas trop jouer les stars et les styles ça m'saoule Ma place est difficile mais j'kiffe la soul Pour les générations qui m'ont pas vu venir Je livre c'que j'ai dans les tripes à vous d'voir Je vais pas la jouer gangsta pour bien m'faire voir Ranger les étiquettes pour la promo c'est juste moi J'aime pas raconter ma life je suis trop réservé pour ça Qu'on parle musique parce qu'au fond il s'agit de ça Depuis Soul Swing avec IAM On est toujours sur le mix, sur le grill et il s'agit de ça Du fond, de la forme, et du bon rap, sans pomper les gars J'assure ma survie avec des snares et des claps Je suis un mec normal pas d'temps à perdre Bien sûr j'travaille et je veux mon salaire Parti d'zéro, un vrai rat de studio Merde j'y ai appris tout ce qu'il me faut J'ai la soul dans le sang et la rage de vaincre Faut du flow qui tue et des instrus de dingue Yeah ! Et l'envie de tout faire péter Pas l'choix le rap j'avais ça dans la peau Pour éviter que ce pays bouffe mes idéaux Mais c'est jamais fini, on n'est jamais arrivés On n'est jamais trop prudent, ça le hasard pourrait bien le bouffer Après quoi je cours? j'en sais rien Mettre la famille à l'abri c'est déjà pas rien J'évolue comme un animal blessé sur mes gardes Prêt à esquiver les claques alors je garde la rage Je me marre quand j'peux Mais putain pour mon biz je reste sérieux, hyper sérieux C'est pas un album fait en deux-deux, j'fais c'que je veux La prod claque alors qui en veut? Qui m'en veut? Y aura toujours une bande de fils de... De langue de... chut Avant d'esquiver la chute Ça tue, ça sature j't'assure Pas de censure faudra des points de suture Pas de soucis j'assassine ça c'est sûr Ça sensibilise ceux qui ciblent un son pur Big-up à tous ceux qui m'ont soutenu ouais Pour les autres, seul Dieu me juge tu le sais J'ai la soul dans le sang et la rage de vaincre Faut du flow qui tue et des instrus de dingue Yeah ! Et l'envie de tout faire péter</t>
         </is>
       </c>
     </row>
@@ -1976,7 +1976,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Sur les chemins de la gloire on prend des risques Parce que la vie est trop courte pour être petite Combien de désirs voguent dans l'oubli Combien de kids qui regardent vers l'infini Combien de coeurs à la recherche du one love Combien de trains qui passent avant qu'on sendorme Des projets plein la tête il n'y a rein qui nous arrête A part la peur de notre échec il est temps qu'on s'y mette ... bientôt la suiteYou might also like</t>
+          <t>Sur les chemins de la gloire on prend des risques Parce que la vie est trop courte pour être petite Combien de désirs voguent dans l'oubli Combien de kids qui regardent vers l'infini Combien de coeurs à la recherche du one love Combien de trains qui passent avant qu'on sendorme Des projets plein la tête il n'y a rein qui nous arrête A part la peur de notre échec il est temps qu'on s'y mette ... bientôt la suite</t>
         </is>
       </c>
     </row>
@@ -1993,7 +1993,7 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Letra de La voz de los Grandres ft. Faf Larage Rap mental Nach, Rap universal Larage Hoy Marsella y Alicante unen sus fuerzas Nosotros somos la voz de... Todos los que aprendieron del ayer Pour tout nos frères Todas las que su amor sincero dan Pour tout nos mères De todos los que buscan libertad sabiendo que no volverán Les voix de nos clans, traversent le temps Todos los que en Hip-Hop se dejan ver Pour tout nos frères De todas las que en paz vienen y van Pour toutes nos mères De los que saben que otro amanecer alcanzarán y vivirán La voix de nos clans traversent le temps Es la voz de los grandes, es la voz de vuestras vidas Si Solo hay una vida y un sentido para darle Y no pienso esperar al tiempo Porque el nunca se paró a esperarme Me entiendes, no? Conecté mi alma e un micrófono y así sonó Hoy vuestros cuellos al unísono se mueven Que temen aquellos que nada tienen? Cuántos caben en mi círculo? Dime, Quienes me ven? Tú haces lo que todo el mundo Y le caes bien a todo el mundo Que te den, no vivo al este del edén y muchos lo saben Ven, acércate, esta es la voz que va a iluminarte Enchufa el cable y entretente mientras hable Estatua, actúa, puntúa por los tuyos Qué más te dan esos rumores y esos murmullos? Qué mas te dan?, si solo importas tú y tu experiencia Porque entre tú y tú, solo estáis tú y tu conciencia Cuestión de paciencia, coherencia, perseverancia Solo será tu acción la que cambie tus circunstancias Muévete, deshazte de manadas de bocazas De esas vidas atrapadas entre paredes y espadas O verás tu pisada posada de nuevo en la nada Aquí nadie regala nada, y tú sigues sin hacer nada Ciudades super pobladas donde unos se quejan Donde tantos tontos se creen libres entre rejas NS y Faf Larage, letal pareja, aléjate comadreja Lo tuyo ni se asemeja Rata, que aquí no existe lugar para la errata Vine a aprender en la Escuela del Micro de Plata Marsella como tu estrella y como tu Stigmata Gota a gota, rimas rotas, voces que matan You might also like Todos los que aprendieron del ayer Pour tout nos frères Todas las que su amor sincero dan Pour tout nos mères De todos los que buscan libertad sabiendo que no volverán Les voix de nos clans, traversent le temps Todos los que en HipHop se dejan ver Pour tout nos frères De todas las que en paz vienen y van Pour toutes nos mères De los que saben que otro amanecer alcanzarán y vivirán La voix de nos clans traversent le temps A la base, on nait tous égaux Là pour accomplir quelques chose Des pièces de puzzle laché dans le dèsordre Chacun cherche sa voix et beaucoup continue à errer Dans le tableau du monde y a plus de miséricorde Mais t'inquiète petit, ta mère elle a fait c'quelle a peu T'epanger les soucis, de la vie et ses vices et RO Ce à toi maintenant de reprendre le flambeau tu vida T'aura ptéte plus de peine et t'as seurement plus de crainte Compte pas sur la chance, dans le coir elle est présente Mais la selection y est naturelle et pesante Dans les milieu dit difficiles C'est plus facile quand on se défile Vers la voie de la cruise et de crime Rime avec déprime et mème si on s' y référe pour la frime Los bandidos aussi veulent leur terre promise Moi, j'ai le rap et la rage reste, flatte mon ego Il est loin le temps des legot Aujourd'hui je rappe avec Nacho Je reste une pièce, pas maitresse Au micro combat le stress Pouur que mon clan echappeè la detresse Mes experiences en transe, sur mes feuiulles blanches Me rallie au rang des écrivain urbain, sur les planches Faut macker le Bizness Mais je veux pas finir mes jours Loveless Faut salir de la sombra, desde Alicante a Marseille Estés donde estés en America Latina y en España A todo el mundo seguimos juntos Les voies du peuples traverse les mers Alors t'inquiète petit, t'as deja une place dans nos rimes Todos los que aprendieron del ayer Pour tout nos frères Todas las que su amor sincero dan Pour tout nos mères De todos los que buscan libertad sabiendo que no volverán Les voix de nos clans, traversent le temps Todos los que en HipHop se dejan ver Pour tout nos frères De todas las que en paz vienen y van Pour toutes nos mères De los que saben que otro amanecer alcanzarán y vivirán La voix de nos clans traversent le temps</t>
+          <t>Letra de La voz de los Grandres ft. Faf Larage Rap mental Nach, Rap universal Larage Hoy Marsella y Alicante unen sus fuerzas Nosotros somos la voz de... Todos los que aprendieron del ayer Pour tout nos frères Todas las que su amor sincero dan Pour tout nos mères De todos los que buscan libertad sabiendo que no volverán Les voix de nos clans, traversent le temps Todos los que en Hip-Hop se dejan ver Pour tout nos frères De todas las que en paz vienen y van Pour toutes nos mères De los que saben que otro amanecer alcanzarán y vivirán La voix de nos clans traversent le temps Es la voz de los grandes, es la voz de vuestras vidas Si Solo hay una vida y un sentido para darle Y no pienso esperar al tiempo Porque el nunca se paró a esperarme Me entiendes, no? Conecté mi alma e un micrófono y así sonó Hoy vuestros cuellos al unísono se mueven Que temen aquellos que nada tienen? Cuántos caben en mi círculo? Dime, Quienes me ven? Tú haces lo que todo el mundo Y le caes bien a todo el mundo Que te den, no vivo al este del edén y muchos lo saben Ven, acércate, esta es la voz que va a iluminarte Enchufa el cable y entretente mientras hable Estatua, actúa, puntúa por los tuyos Qué más te dan esos rumores y esos murmullos? Qué mas te dan?, si solo importas tú y tu experiencia Porque entre tú y tú, solo estáis tú y tu conciencia Cuestión de paciencia, coherencia, perseverancia Solo será tu acción la que cambie tus circunstancias Muévete, deshazte de manadas de bocazas De esas vidas atrapadas entre paredes y espadas O verás tu pisada posada de nuevo en la nada Aquí nadie regala nada, y tú sigues sin hacer nada Ciudades super pobladas donde unos se quejan Donde tantos tontos se creen libres entre rejas NS y Faf Larage, letal pareja, aléjate comadreja Lo tuyo ni se asemeja Rata, que aquí no existe lugar para la errata Vine a aprender en la Escuela del Micro de Plata Marsella como tu estrella y como tu Stigmata Gota a gota, rimas rotas, voces que matan Todos los que aprendieron del ayer Pour tout nos frères Todas las que su amor sincero dan Pour tout nos mères De todos los que buscan libertad sabiendo que no volverán Les voix de nos clans, traversent le temps Todos los que en HipHop se dejan ver Pour tout nos frères De todas las que en paz vienen y van Pour toutes nos mères De los que saben que otro amanecer alcanzarán y vivirán La voix de nos clans traversent le temps A la base, on nait tous égaux Là pour accomplir quelques chose Des pièces de puzzle laché dans le dèsordre Chacun cherche sa voix et beaucoup continue à errer Dans le tableau du monde y a plus de miséricorde Mais t'inquiète petit, ta mère elle a fait c'quelle a peu T'epanger les soucis, de la vie et ses vices et RO Ce à toi maintenant de reprendre le flambeau tu vida T'aura ptéte plus de peine et t'as seurement plus de crainte Compte pas sur la chance, dans le coir elle est présente Mais la selection y est naturelle et pesante Dans les milieu dit difficiles C'est plus facile quand on se défile Vers la voie de la cruise et de crime Rime avec déprime et mème si on s' y référe pour la frime Los bandidos aussi veulent leur terre promise Moi, j'ai le rap et la rage reste, flatte mon ego Il est loin le temps des legot Aujourd'hui je rappe avec Nacho Je reste une pièce, pas maitresse Au micro combat le stress Pouur que mon clan echappeè la detresse Mes experiences en transe, sur mes feuiulles blanches Me rallie au rang des écrivain urbain, sur les planches Faut macker le Bizness Mais je veux pas finir mes jours Loveless Faut salir de la sombra, desde Alicante a Marseille Estés donde estés en America Latina y en España A todo el mundo seguimos juntos Les voies du peuples traverse les mers Alors t'inquiète petit, t'as deja une place dans nos rimes Todos los que aprendieron del ayer Pour tout nos frères Todas las que su amor sincero dan Pour tout nos mères De todos los que buscan libertad sabiendo que no volverán Les voix de nos clans, traversent le temps Todos los que en HipHop se dejan ver Pour tout nos frères De todas las que en paz vienen y van Pour toutes nos mères De los que saben que otro amanecer alcanzarán y vivirán La voix de nos clans traversent le temps</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Tous les jours des putains de ringards pénibles arpentent les rues et les clubs pour brancher des meufs. Voici leurs histoires Et cest toujours les moches qui viennent ! Franchement je te promets pas le grand soir Ni à manger ni à boire Ni bougie, ni sushi, ni musique Au premier rancard y aura pas de fantaisie, hé vas-y Offre le döner bien moisi Avec moi y a pas de baby, tes pas ma lady Mais si tas des sous jen profite Non attends, je blague on va saimer Sur une étoile mon cul ! Dans les chiottes dun club ça le fait Fais pas ta Laura Ingalls, tes une chaude je le sens Pas grave si tas tes règles, moi je pète en dormant On est fait pour sentendre, et dis à tes copines de pas tattendre Dis-leur ce soir cest sucette à la viande Poupée la vie est trop courte faut se lâcher Tas le sourire de Gollum mais pas de quartier lâche-moi ! Fin de soirée fais pas ta mijaurée Jai les crocs, je prends tout si tu veux te marrer Hé cousine y aura pas de champagne et de jacuzzi Toi et moi cousin cest pas possible Vas-y ferme ta gueule et reste tranquille cest quoi ce mec ?! Hé cousine y aura pas de champagne et de jacuzzi Tu sais pas parler et tas pas de style Vas-y ferme ta gueule et reste tranquille vas-y dégage ! You might also likeMême en situation difficile le crevard de la night ne lâche jamais laffaire Attends, reste, eh mais tu sais pas qui je suis ?! Là je fais mon comeback mais je suis jamais parti Hé te moque pas ça casse la magie Mais tu te prends pour qui ? On nest pas dans un clip, on nest pas en Amérique Hein ? Roman quoi ? Romantique ! Remonte vite chez ta mère je suis pas un bouffon sensible Mais quest-ce qui nous arrive ? Même si là tes pas terrible, promis Dici quelques verres tu seras comestible au lit Massage olé-olé te caresse comme un poulpe et Mamie dis-le à tes copines Non pas à la moche là, laisse la partir Elle a la tête de lindien des Black Eyed Peas Excuse le rot parfumé à la Marlboro Merde sur ton chemisier y a un bout dagneau Ouais quest-ce quil y a juste jai bu Fais pas ta difficile quand tes gaulée comme un zébu En soirée les gars se cassent dès quils mont vu Un plan cul ils savent que jy suis dessus ! Je suis comme ça gros Lhumour entre les Musclés et Bali-Balo et je me jette à leau Hé cousine y aura pas de champagne et de jacuzzi Toi et moi cousin cest pas possible Vas-y ferme ta gueule et reste tranquille cest quoi ce mec ?! Hé cousine y aura pas de champagne et de jacuzzi Tu sais pas parler et tas pas de style Vas-y ferme ta gueule et reste tranquille vas-y dégage ! Et lorsque vient lheure du départ, le pauvre type au bord du gouffre tente le tout pour le tout Cest ma love song, underground cousine Pas de champagne ni de Rnb Tout, tout je te dirai tout sur le zizi Si tu fais pas ta ni pute ni soumise Minsulte pas je suis connu ici Tu sais ce quon dit quand on nest pas jolie on est polie Des amants maudits, allez on fuit jai pas de Porsche Mais deux Fantas au drive et pour une pipe je paie les croques Ou bien on va chez toi, une bouffe ouais cest parti Fais-moi des spaghettis si tu veux tâter mes parties Underwear Tati, poutre apparente Velu comme un grizzli le gars a trop de style Eh ten vas pas cousine attends sil le faut Je suis prêt à te payer mais cest mon dernier mot Ça fait deux ans que jai pas niqué depuis mon retour de Hong-Kong Putain fais un geste jai les couilles de King Kong Hé cousine y aura pas de champagne et de jacuzzi Toi et moi cousin cest pas possible Vas-y ferme ta gueule et reste tranquille cest quoi ce mec ?! Hé cousine y aura pas de champagne et de jacuzzi Tu sais pas parler et tas pas de style Vas-y ferme ta gueule et reste tranquille vas-y dégage !</t>
+          <t>Tous les jours des putains de ringards pénibles arpentent les rues et les clubs pour brancher des meufs. Voici leurs histoires Et cest toujours les moches qui viennent ! Franchement je te promets pas le grand soir Ni à manger ni à boire Ni bougie, ni sushi, ni musique Au premier rancard y aura pas de fantaisie, hé vas-y Offre le döner bien moisi Avec moi y a pas de baby, tes pas ma lady Mais si tas des sous jen profite Non attends, je blague on va saimer Sur une étoile mon cul ! Dans les chiottes dun club ça le fait Fais pas ta Laura Ingalls, tes une chaude je le sens Pas grave si tas tes règles, moi je pète en dormant On est fait pour sentendre, et dis à tes copines de pas tattendre Dis-leur ce soir cest sucette à la viande Poupée la vie est trop courte faut se lâcher Tas le sourire de Gollum mais pas de quartier lâche-moi ! Fin de soirée fais pas ta mijaurée Jai les crocs, je prends tout si tu veux te marrer Hé cousine y aura pas de champagne et de jacuzzi Toi et moi cousin cest pas possible Vas-y ferme ta gueule et reste tranquille cest quoi ce mec ?! Hé cousine y aura pas de champagne et de jacuzzi Tu sais pas parler et tas pas de style Vas-y ferme ta gueule et reste tranquille vas-y dégage ! Même en situation difficile le crevard de la night ne lâche jamais laffaire Attends, reste, eh mais tu sais pas qui je suis ?! Là je fais mon comeback mais je suis jamais parti Hé te moque pas ça casse la magie Mais tu te prends pour qui ? On nest pas dans un clip, on nest pas en Amérique Hein ? Roman quoi ? Romantique ! Remonte vite chez ta mère je suis pas un bouffon sensible Mais quest-ce qui nous arrive ? Même si là tes pas terrible, promis Dici quelques verres tu seras comestible au lit Massage olé-olé te caresse comme un poulpe et Mamie dis-le à tes copines Non pas à la moche là, laisse la partir Elle a la tête de lindien des Black Eyed Peas Excuse le rot parfumé à la Marlboro Merde sur ton chemisier y a un bout dagneau Ouais quest-ce quil y a juste jai bu Fais pas ta difficile quand tes gaulée comme un zébu En soirée les gars se cassent dès quils mont vu Un plan cul ils savent que jy suis dessus ! Je suis comme ça gros Lhumour entre les Musclés et Bali-Balo et je me jette à leau Hé cousine y aura pas de champagne et de jacuzzi Toi et moi cousin cest pas possible Vas-y ferme ta gueule et reste tranquille cest quoi ce mec ?! Hé cousine y aura pas de champagne et de jacuzzi Tu sais pas parler et tas pas de style Vas-y ferme ta gueule et reste tranquille vas-y dégage ! Et lorsque vient lheure du départ, le pauvre type au bord du gouffre tente le tout pour le tout Cest ma love song, underground cousine Pas de champagne ni de Rnb Tout, tout je te dirai tout sur le zizi Si tu fais pas ta ni pute ni soumise Minsulte pas je suis connu ici Tu sais ce quon dit quand on nest pas jolie on est polie Des amants maudits, allez on fuit jai pas de Porsche Mais deux Fantas au drive et pour une pipe je paie les croques Ou bien on va chez toi, une bouffe ouais cest parti Fais-moi des spaghettis si tu veux tâter mes parties Underwear Tati, poutre apparente Velu comme un grizzli le gars a trop de style Eh ten vas pas cousine attends sil le faut Je suis prêt à te payer mais cest mon dernier mot Ça fait deux ans que jai pas niqué depuis mon retour de Hong-Kong Putain fais un geste jai les couilles de King Kong Hé cousine y aura pas de champagne et de jacuzzi Toi et moi cousin cest pas possible Vas-y ferme ta gueule et reste tranquille cest quoi ce mec ?! Hé cousine y aura pas de champagne et de jacuzzi Tu sais pas parler et tas pas de style Vas-y ferme ta gueule et reste tranquille vas-y dégage !</t>
         </is>
       </c>
     </row>
@@ -2027,7 +2027,7 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Ils sont là, le couteau entre les dents Ils croient qu'on est que des rude boys, nés pour livrer bataille Frappant les tam-tams quand ça poigne, quand j'entre entre la racaille La connerie est de taille à masquer l'ignorance Et si par miracle un doute les assaille, cette chienne les relance Les masques, les gardes et lil sur leur bectance, la main sur la panse Faut qu'ils sachent que les nôtres servent à autre chose que voler maintenant Jusque dans ces bleds paumés de France où la peur va croissante Haine du croissant naissance Pendant que seul le dico parle de violence Versant dans l'indécence des idées germent, issues de sales semences Toujours les mêmes séquences Un idiot creuse un trou, y'en a 100 qui s'y lancent Dame Complaisance fait son entrée, omnipotente Et eux la regardent passer tant que ça danse le dimanche Ils pensent qu'à garder leur chance Et v'là ma jeunesse, la foule Ceux pour qui le monde s'ouvre Chouf, v'là la sale bouffe Celle que tes cauchemars couvrent couvrent ! Grince les dents, c'est le réveil évident Nos vies se vidant Du bon sens on te met du consistant Écris le avant de choper ta syncope, hé l'propre ! C'est le sale qui te branche, note, à travers notre faute Ca doit venir de ces colonies où la chaleur mène Mais pas ta flamme du mal qui dirige vos haines Et prends-toi ça ! Et appelle si t'as besoin de sous-titres Sur mon pupitre y' a pas de place pour les sous-pitres La vérité c'est que vous craignez vos faiblesses tous autant que vous êtes Nous on combat ça avec un art qui se dresse et vexe ! You might also like Et voilà, on y est maintenant, et tu sais de quoi ça parle ! x2 Y'a pas que les nuits qui sont noires, y'a les âmes si nos beats crament Les démons les arment, souillés par le charme Y'a pas que les mots qui font mal, y'a les actes Pensée animale, suit la conséquence, raison minimale Ils sont là, le couteau entre les dents T'as la frousse pour ton Citroën C3, qu'une horde débarque Avec une tire braquée dans ton chemin de pointes et droits Amalgame et effroi en fond de l'exil amenant icône et croix Souvenir d'un bled cramé que la faim nettoie Propagande sous les toits, guerre à nos portes, chez le Gotha c'est l'extase Import, export, transport Ils guettent les chiffres comme à la bourse de Francfort Ils collent à nos basques un dénommé Oussama comme étant notre meilleur mentor Des Viêt-Cong on a gardé que le mental, ce qui a fait de nous des warriors A la carrière bien peu instrumentale, loin du standard stupide de l'inclus vendable Loin des buffets où ces hyènes pendables se nourrissent des fruits du scandale Ils voudraient tous nous voir à l'agonie, au bord de l'asphyxie La peur au ventre qu'on les envahisse d'Afrique jusqu'en Laponie Ils parlent de démocratie, flippent sur la démographie Des mots nous qualifient de démons Sur les monts, on y vit... ... Pas, on est là, stagne en bas de chez toi De chez eux dans les rues, les blocs, ils nous damnent mais on les voit pas Et on va pas refaire l'histoire du monde Si c'est un miroir qui nous gène alors fuck je représente les monstres La chasse est ouverte et les uniformes grondent Mais ailleurs dans le monde ça les gênent pas qu'on creuse des tombes Et qui sait ce qu'ils nous réservent Quand ils nous guettent, t'inquiète, on sait ce qu'ils ont dans la tête mec Ouais, et ça fait peur, mais on se bat, et l'Histoire jugera x2 Y'a pas que les nuits qui sont noires, y'a les âmes si nos beats crament Les démons les arment, souillés par le charme Y'a pas que les mots qui font mal, y'a les actes Pensée animale, suit la conséquence, raison minimale</t>
+          <t>Ils sont là, le couteau entre les dents Ils croient qu'on est que des rude boys, nés pour livrer bataille Frappant les tam-tams quand ça poigne, quand j'entre entre la racaille La connerie est de taille à masquer l'ignorance Et si par miracle un doute les assaille, cette chienne les relance Les masques, les gardes et lil sur leur bectance, la main sur la panse Faut qu'ils sachent que les nôtres servent à autre chose que voler maintenant Jusque dans ces bleds paumés de France où la peur va croissante Haine du croissant naissance Pendant que seul le dico parle de violence Versant dans l'indécence des idées germent, issues de sales semences Toujours les mêmes séquences Un idiot creuse un trou, y'en a 100 qui s'y lancent Dame Complaisance fait son entrée, omnipotente Et eux la regardent passer tant que ça danse le dimanche Ils pensent qu'à garder leur chance Et v'là ma jeunesse, la foule Ceux pour qui le monde s'ouvre Chouf, v'là la sale bouffe Celle que tes cauchemars couvrent couvrent ! Grince les dents, c'est le réveil évident Nos vies se vidant Du bon sens on te met du consistant Écris le avant de choper ta syncope, hé l'propre ! C'est le sale qui te branche, note, à travers notre faute Ca doit venir de ces colonies où la chaleur mène Mais pas ta flamme du mal qui dirige vos haines Et prends-toi ça ! Et appelle si t'as besoin de sous-titres Sur mon pupitre y' a pas de place pour les sous-pitres La vérité c'est que vous craignez vos faiblesses tous autant que vous êtes Nous on combat ça avec un art qui se dresse et vexe ! Et voilà, on y est maintenant, et tu sais de quoi ça parle ! x2 Y'a pas que les nuits qui sont noires, y'a les âmes si nos beats crament Les démons les arment, souillés par le charme Y'a pas que les mots qui font mal, y'a les actes Pensée animale, suit la conséquence, raison minimale Ils sont là, le couteau entre les dents T'as la frousse pour ton Citroën C3, qu'une horde débarque Avec une tire braquée dans ton chemin de pointes et droits Amalgame et effroi en fond de l'exil amenant icône et croix Souvenir d'un bled cramé que la faim nettoie Propagande sous les toits, guerre à nos portes, chez le Gotha c'est l'extase Import, export, transport Ils guettent les chiffres comme à la bourse de Francfort Ils collent à nos basques un dénommé Oussama comme étant notre meilleur mentor Des Viêt-Cong on a gardé que le mental, ce qui a fait de nous des warriors A la carrière bien peu instrumentale, loin du standard stupide de l'inclus vendable Loin des buffets où ces hyènes pendables se nourrissent des fruits du scandale Ils voudraient tous nous voir à l'agonie, au bord de l'asphyxie La peur au ventre qu'on les envahisse d'Afrique jusqu'en Laponie Ils parlent de démocratie, flippent sur la démographie Des mots nous qualifient de démons Sur les monts, on y vit... ... Pas, on est là, stagne en bas de chez toi De chez eux dans les rues, les blocs, ils nous damnent mais on les voit pas Et on va pas refaire l'histoire du monde Si c'est un miroir qui nous gène alors fuck je représente les monstres La chasse est ouverte et les uniformes grondent Mais ailleurs dans le monde ça les gênent pas qu'on creuse des tombes Et qui sait ce qu'ils nous réservent Quand ils nous guettent, t'inquiète, on sait ce qu'ils ont dans la tête mec Ouais, et ça fait peur, mais on se bat, et l'Histoire jugera x2 Y'a pas que les nuits qui sont noires, y'a les âmes si nos beats crament Les démons les arment, souillés par le charme Y'a pas que les mots qui font mal, y'a les actes Pensée animale, suit la conséquence, raison minimale</t>
         </is>
       </c>
     </row>
@@ -2044,7 +2044,7 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Je pars de rien t'arrives à tout Ou est-ce l'inverse? Ma foi Le destin n'a pas de loi Je pars de tout t'arrives à rien Ou est-ce l'inverse? Ma foi Le destin n'a pas de Roi Je viens d'déposer une fille, une bombe un coup fumant C'est fou c'que j'plais, poto en c'moment Physique? Nan, t'es fou c'est faux ça j'le sais Un p'tit gros, bronzé, qui louche et fauché comme les blés J'étais pas ce qui se se faisait d'mieux en mec Plein de complexes, éternel ex, parle au passé Fallait jouer les 6 chiffres, au pif, mon découvert fou Sorti, blindé jusqu'à mon dernier souffle Allez, souffle tes bougies et bon anniversaire Lui dit son père il pose son verre et embrasse sa mère Il ne lui en veut plus pour l'abandon devant la maternelle L'eau a a coulé depuis il a pu tester ses propres ailes Simple radeau il est devenu bateau, travaille au Mc Do Va à la fac, sort avec ses potos Sa première cigarette, sa première voiture, son premier joint Sa première capote pour lui tout ça c'est loin You might also like C'est loin le temps où j'étais un gosse, un merdeux moche Pas d'potes, pas d'meuf, pas d'sous, pas d'pot L'adolescence m'a grillé, fallait vivre et j'ai chié Prié les flics d'arrêter de gifler Prison je connais, quadrillé ma vie, j'y ai trempé Réinséré, replié sans famille j'étais À bout, à court, de tout, logé dans un foyer Le soir je campais aux entrées des boîtes pour rêver Je pars de rien t'arrives à tout Ou est-ce l'inverse? Ma foi Le destin n'a pas de loi Je pars de tout t'arrives à rien Ou est-ce l'inverse? Ma foi Le destin n'a pas de Roi Cursus classique il prépare sa thèse Et bosse en plus parce qu'à présent les factures ça pèse Son père est mort, son fils est né Le printemps vient d'arriver et sa mère s'est remariée Ca va pas mal pour lui non plus niveau boulot c'est le pied Il passe les mois d'Août à St Tropez, sa femme est belle Il construit sa vie comme un dessin d'architecture Pas de gommage ni de rature dans son futur Le futur bien j'ai la caille, la caisse Lorsque j'y pose mes fesses toutes les pouffes m'agressent Et je frime ouais fils, je frime comme c'est bon On gagne des millions à 40 ans on ne te refuse plus rien Le petit gros qui louche en costard c'est moi Ceux qui me trouvaient indésirable aux abois J'apprécie, j' y pense midi, quand je conduis Ce vieux qui gît sur un banc j'aurais pu finir comme lui En proie aux flics moi ils me laissent tranquille sûr Je marche au Moët, cigare j'ai une belle voiture Bien sûr une belle voiture, une baraque design Le samedi soir devant Arthur et le dimanche à la campagne La famille s'agrandit, le compte en banque aussi Fruit d'une tâche bien accomplie Soudain il sursaute un agent lui demande de dégager Ses songes au fond de son esprit sont retournés Il regroupe ses affaires sur son banc habituel Puis les gens le regardent disparaître au coin de la ruelle Il fut comme eux jadis, y pensent-ils? J'en doute Ce vieil homme qui sous le poids des âges s'arc-boute Il tourne à gauche et s'engouffre dans une rue mal éclairée Et croise la route de Dame Destinée</t>
+          <t>Je pars de rien t'arrives à tout Ou est-ce l'inverse? Ma foi Le destin n'a pas de loi Je pars de tout t'arrives à rien Ou est-ce l'inverse? Ma foi Le destin n'a pas de Roi Je viens d'déposer une fille, une bombe un coup fumant C'est fou c'que j'plais, poto en c'moment Physique? Nan, t'es fou c'est faux ça j'le sais Un p'tit gros, bronzé, qui louche et fauché comme les blés J'étais pas ce qui se se faisait d'mieux en mec Plein de complexes, éternel ex, parle au passé Fallait jouer les 6 chiffres, au pif, mon découvert fou Sorti, blindé jusqu'à mon dernier souffle Allez, souffle tes bougies et bon anniversaire Lui dit son père il pose son verre et embrasse sa mère Il ne lui en veut plus pour l'abandon devant la maternelle L'eau a a coulé depuis il a pu tester ses propres ailes Simple radeau il est devenu bateau, travaille au Mc Do Va à la fac, sort avec ses potos Sa première cigarette, sa première voiture, son premier joint Sa première capote pour lui tout ça c'est loin C'est loin le temps où j'étais un gosse, un merdeux moche Pas d'potes, pas d'meuf, pas d'sous, pas d'pot L'adolescence m'a grillé, fallait vivre et j'ai chié Prié les flics d'arrêter de gifler Prison je connais, quadrillé ma vie, j'y ai trempé Réinséré, replié sans famille j'étais À bout, à court, de tout, logé dans un foyer Le soir je campais aux entrées des boîtes pour rêver Je pars de rien t'arrives à tout Ou est-ce l'inverse? Ma foi Le destin n'a pas de loi Je pars de tout t'arrives à rien Ou est-ce l'inverse? Ma foi Le destin n'a pas de Roi Cursus classique il prépare sa thèse Et bosse en plus parce qu'à présent les factures ça pèse Son père est mort, son fils est né Le printemps vient d'arriver et sa mère s'est remariée Ca va pas mal pour lui non plus niveau boulot c'est le pied Il passe les mois d'Août à St Tropez, sa femme est belle Il construit sa vie comme un dessin d'architecture Pas de gommage ni de rature dans son futur Le futur bien j'ai la caille, la caisse Lorsque j'y pose mes fesses toutes les pouffes m'agressent Et je frime ouais fils, je frime comme c'est bon On gagne des millions à 40 ans on ne te refuse plus rien Le petit gros qui louche en costard c'est moi Ceux qui me trouvaient indésirable aux abois J'apprécie, j' y pense midi, quand je conduis Ce vieux qui gît sur un banc j'aurais pu finir comme lui En proie aux flics moi ils me laissent tranquille sûr Je marche au Moët, cigare j'ai une belle voiture Bien sûr une belle voiture, une baraque design Le samedi soir devant Arthur et le dimanche à la campagne La famille s'agrandit, le compte en banque aussi Fruit d'une tâche bien accomplie Soudain il sursaute un agent lui demande de dégager Ses songes au fond de son esprit sont retournés Il regroupe ses affaires sur son banc habituel Puis les gens le regardent disparaître au coin de la ruelle Il fut comme eux jadis, y pensent-ils? J'en doute Ce vieil homme qui sous le poids des âges s'arc-boute Il tourne à gauche et s'engouffre dans une rue mal éclairée Et croise la route de Dame Destinée</t>
         </is>
       </c>
     </row>
@@ -2061,7 +2061,7 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Quoi, qu'est-ce qu'y a, toi, qu'est-ce tu veux, t'façon Tu veux morfler, encore Allez bouge Qu'est-ce tu fais? Non, attends attends Range ça, tire pas s'te plaît, déconne pas Non, s'te plaît, arrête Arrête, arrête! Vas-y, qu'est-ce t'attends pour lui mettre en pleine poire ? T'façon ce gars-là y manquera à personne, essaie voir T'as ce qui faut entre les mains, autour y a rien, c'est le bon coin C'est bien, pour seul témoin, la lune, voire un chien Errant, vas-y putain Appuie sur la détente, un p'tit coup vite fait dans l'buffet ça te tente je sais Regarde-le, une loque à tes pieds, mon vier Comment y se chie dessus, y mérite pas de vivre c't'empaffé Non, l'écoute pas, tu ne peux pas faire ça Ça ne te ressemble pas, toi une arme à la main déjà j'ai du mal à le croire Ta gueule putain, laisse-le vivre Non ! On ne sait que trop ce qu'il en coûte De prendre ce genre de risque, jouer avec des vies Je sais que tu tiens à la tienne et c'est pourquoi t'hésites De là à franchir le pas qui mène au gouffre, y a pas beaucoup de types Qui l'font, ouais et alors y a que des mauviettes Ça parle beaucoup et ça passe jamais à l'acte, arrête ! Tu veux pas être comme eux et je te comprends Tu voudrais qu'on te respecte, mais comment ? En restant un mec bien , un mec bien qui tend l'autre joue La salope du groupe, celui qui prend toujours des coups Non, calme-toi, y a d'autres choix, d'autres voies Que la violence gratuite, un meurtre, disjoncte pas ! Si tu tires vous êtes deux à mourir, ne l'oublie pas Si tu tires pas c'est clair il reviendra t'en mettre plus que ça You might also like Shoote-le parce qu'il t'a humilié, faut que tu ripostes Épargne-le, parce que c'est ton sort que tu mets en jeu Lorsque t'auras tiré tu pourras plus reculer Encore heureux car enfin tu mériteras le respect Je sais que c'est dur dans ce monde d'être un gentil C'est sûr l'entourage en profite Mais qu'est-ce qui est important au fond ? Pouvoir se dire dans des années J'ai bien agi Voir ses enfants grandir ou finir en prison ? Hey la lavette, me casse pas le boulot On sait tous pourquoi il est là à tenir en joue un salaud il pour il, ouais fils t'as raison et un mec, qui te fout une raclée Avec ses potes devant tout le monde mérite pas de pitié Souviens-toi d'sa grande gueule, son arrogance Comment y t'a latté avec sa bande, faut le calmer C'est bon tu voulais l'humilier, crois-moi c'est fait Il n'est pas prêt de recommencer maintenant qu'il sait Pense à tes proches, ta fiancée, ta fille, quoi Elle a à peine deux ans, tu comptes l'éduquer au parloir ? Comme les vrais ma foi C'est n'importe quoi Pense à tes parents qui auront trimé vingt-cinq ans pour assister à ça Hey, arrête tout, tu veux que ta fille se cache dans la rue Parce que les autres mômes lui disent Ton père s'est fait casser le cul Y aura plus de respect Y aura plus personne qui va te calculer Y aura qu'un tas de gros cons qui viendront t'saouler Si tu veux ça, O.K., mais je pourrai plus te sauver Qu'est-ce tu veux sauver ? C'est la cavale ou des barreaux d'acier Un meurtrier ne s'en sort jamais indemne Que ce soit physique ou dans la tête, t'es pas un psychopathe Ça n'en vaut pas la peine Shoote-le parce qu'il t'a humilié, faut que tu ripostes Épargne-le, parce que c'est ton sort que tu mets en jeu Lorsque t'auras tiré tu pourras plus reculer Encore heureux car enfin tu mériteras le respect Bon alors merde, tu le shootes ou quoi ? On va pas y passer la nuit À l'inverse, sûr t'aurais un trou ou même plusieurs Faut te laisser aller, faut réaliser, que si tu veux qu'on te craigne Qu'on te laisse tranquille faut leur prouver Qu'ils sachent tous de quoi t'es capable Que t'es pas un de ces minables qui claque des dents dès qu'on le regarde Briser sa vie et ses rêves pour une histoire de fierté Si chaque fois que tu te sens blessé tu sors calibré C'est pas un film c'est ton histoire, y a trop de gens qui t'aiment Parce que t'es quelqu'un d'bien, ne gâche pas ça Y a pas de mal à être discret et honnête C'est honorable de ne pas céder à ses pulsions meurtrières, tu vois Si tu butes ce mec tu le regretteras, parce que c'est pas toi Tu ne pourras plus te regarder en face crois-moi Shoote-le, épargne-le, shoote-le, épargne-le Shoote-le, épargne -le, shoote-le, épargne-le</t>
+          <t>Quoi, qu'est-ce qu'y a, toi, qu'est-ce tu veux, t'façon Tu veux morfler, encore Allez bouge Qu'est-ce tu fais? Non, attends attends Range ça, tire pas s'te plaît, déconne pas Non, s'te plaît, arrête Arrête, arrête! Vas-y, qu'est-ce t'attends pour lui mettre en pleine poire ? T'façon ce gars-là y manquera à personne, essaie voir T'as ce qui faut entre les mains, autour y a rien, c'est le bon coin C'est bien, pour seul témoin, la lune, voire un chien Errant, vas-y putain Appuie sur la détente, un p'tit coup vite fait dans l'buffet ça te tente je sais Regarde-le, une loque à tes pieds, mon vier Comment y se chie dessus, y mérite pas de vivre c't'empaffé Non, l'écoute pas, tu ne peux pas faire ça Ça ne te ressemble pas, toi une arme à la main déjà j'ai du mal à le croire Ta gueule putain, laisse-le vivre Non ! On ne sait que trop ce qu'il en coûte De prendre ce genre de risque, jouer avec des vies Je sais que tu tiens à la tienne et c'est pourquoi t'hésites De là à franchir le pas qui mène au gouffre, y a pas beaucoup de types Qui l'font, ouais et alors y a que des mauviettes Ça parle beaucoup et ça passe jamais à l'acte, arrête ! Tu veux pas être comme eux et je te comprends Tu voudrais qu'on te respecte, mais comment ? En restant un mec bien , un mec bien qui tend l'autre joue La salope du groupe, celui qui prend toujours des coups Non, calme-toi, y a d'autres choix, d'autres voies Que la violence gratuite, un meurtre, disjoncte pas ! Si tu tires vous êtes deux à mourir, ne l'oublie pas Si tu tires pas c'est clair il reviendra t'en mettre plus que ça Shoote-le parce qu'il t'a humilié, faut que tu ripostes Épargne-le, parce que c'est ton sort que tu mets en jeu Lorsque t'auras tiré tu pourras plus reculer Encore heureux car enfin tu mériteras le respect Je sais que c'est dur dans ce monde d'être un gentil C'est sûr l'entourage en profite Mais qu'est-ce qui est important au fond ? Pouvoir se dire dans des années J'ai bien agi Voir ses enfants grandir ou finir en prison ? Hey la lavette, me casse pas le boulot On sait tous pourquoi il est là à tenir en joue un salaud il pour il, ouais fils t'as raison et un mec, qui te fout une raclée Avec ses potes devant tout le monde mérite pas de pitié Souviens-toi d'sa grande gueule, son arrogance Comment y t'a latté avec sa bande, faut le calmer C'est bon tu voulais l'humilier, crois-moi c'est fait Il n'est pas prêt de recommencer maintenant qu'il sait Pense à tes proches, ta fiancée, ta fille, quoi Elle a à peine deux ans, tu comptes l'éduquer au parloir ? Comme les vrais ma foi C'est n'importe quoi Pense à tes parents qui auront trimé vingt-cinq ans pour assister à ça Hey, arrête tout, tu veux que ta fille se cache dans la rue Parce que les autres mômes lui disent Ton père s'est fait casser le cul Y aura plus de respect Y aura plus personne qui va te calculer Y aura qu'un tas de gros cons qui viendront t'saouler Si tu veux ça, O.K., mais je pourrai plus te sauver Qu'est-ce tu veux sauver ? C'est la cavale ou des barreaux d'acier Un meurtrier ne s'en sort jamais indemne Que ce soit physique ou dans la tête, t'es pas un psychopathe Ça n'en vaut pas la peine Shoote-le parce qu'il t'a humilié, faut que tu ripostes Épargne-le, parce que c'est ton sort que tu mets en jeu Lorsque t'auras tiré tu pourras plus reculer Encore heureux car enfin tu mériteras le respect Bon alors merde, tu le shootes ou quoi ? On va pas y passer la nuit À l'inverse, sûr t'aurais un trou ou même plusieurs Faut te laisser aller, faut réaliser, que si tu veux qu'on te craigne Qu'on te laisse tranquille faut leur prouver Qu'ils sachent tous de quoi t'es capable Que t'es pas un de ces minables qui claque des dents dès qu'on le regarde Briser sa vie et ses rêves pour une histoire de fierté Si chaque fois que tu te sens blessé tu sors calibré C'est pas un film c'est ton histoire, y a trop de gens qui t'aiment Parce que t'es quelqu'un d'bien, ne gâche pas ça Y a pas de mal à être discret et honnête C'est honorable de ne pas céder à ses pulsions meurtrières, tu vois Si tu butes ce mec tu le regretteras, parce que c'est pas toi Tu ne pourras plus te regarder en face crois-moi Shoote-le, épargne-le, shoote-le, épargne-le Shoote-le, épargne -le, shoote-le, épargne-le</t>
         </is>
       </c>
     </row>
@@ -2078,7 +2078,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Premier réflexe quand je me lève j'enlève Les coussins de ma tête et les canettes qui traînent Sous mon drap à midi je peux toujours larver dans mon lit Je me sens dès je pourris à la télé et avant la gym Aller debout, te pète pas le genou fait pas le fou Risque une pompe sinon deux puis c'est tout C'est lourd demain promis je m'y mets Mais la salle de sport dans la pièce à côté c'est trop loin Ok je paye rien palace, terrier trop grand En un an je connais par coeur la cuisine et ta chambre Puis quoi d'abord qu'est-ce qu'tu viens te mêler, mauvier Je peux pas faire de sport j'en fais pas je suis chez moi Enfin chez elle la meuf est pas là, 29 ans, plein de frics PDG de sa boite et son mec fils je te dis pas noble en plus Famille de bourge, le bras long qui n'use Pas de gange quand tu les emmerdes ils te coulent Et jusque là, ça a toujours fonctionné ainsi je dis ça Parce que voilà maintenant je suis là et ca va pas Ils me haïssent, ces parents payeraient chers pour ma peau Devant leur fille ils font le style tout est beau mais c'est chaud ils la trahissent Ils l'ont pris pour un caprice, ils ont laissé faire Mais le jour où j'ai parlé de petit-fils, ah t'as déclenché la guerre Moi les viocs je m'en moque, ils finiront bien par crever à ce propos Il faut que je pense à mettre une bouteille au frais Pour l'occase pas maintenant je suis naze et j'ai la dalle Et envie de chier là je dois me le... Maintenant là...ah non et merde...non You might also like x2 Un parasite, un fainéant dans mon lit tout le temps Une poule riche, je prends, la terreur des parents Je suis un fainéant, je suis un fainéant Cette vie là j'en rêvais je l'ai rencontré, elle a bloqué J'ai flairé le bon coup jai tout lâché trop cool Tous les jours elle est au bureau Ah ouais, tu vois le genre de pouf en tailleur stricte Qui rafle les contrats oh là mais c'est mesquin De parler comme ça elle tentretient Mais là je me carre mon gars ses collègues aimeraient tous la sauter Les lèche bottes qui la respectent pffft voudraient la sauter À la limite cest pas mon cul Tout le monde dit que c'est une bombe, elle a des sous c'est tout ce qui compte Pour moi et même à la folie et ça aussi c'est important En même temps un problème pour ces parents Aller fais péter le cendrier Une bonne clope putain la bonne ou elle est Ah le petit déjeuner est servi Elle est tranquille cette fille en fait jusqu'à ce quelle prenne laspirateur Un putain de hoover trop bruyant Quand je l'appelle elle ne m'entends pas alors, je bouge pas de mon lit J'ai toutes les télécommandes à portée de bras C'est vrai je suis un fainéant je fume, je dors et je baise La preuve qu'on peut vivre de thunes et de..... Ah ouais je vois, je vois, ah ouais... eh oh réveille-toi.....eh bien x2 Un parasite, un fainéant dans mon lit tout le temps Une poule riche, je prends, la terreur des parents Je suis un fainéant, je suis un fainéant Cloué au pieux comme un vieux la journée même pour pisser J'ai un vieux pot sous le sommier fut un temps c'était chaud Et l'fallait me foutre dehors, et ma traité de clodo, de blaireau Et j'en passe et puis y a eu ce rappeur un soir à la télé pas mauvais Je dois dire le petit Faf Larage qu'il s'appelle, ah ouais je connais Le type me ressemble comme deux gouttes d'eau La meuf a cru que cétait moi je lai joué cétait pour te faire une surprise Le faux et maintenant cette conne elle croit que tous les jours jsuis en studio C'est pas beau rot excuse le champagne frère, pète les fayots fils Cette nuit j'ai pris un encat des merdes ce que j'ai trouvé devine ce que j'ai trouvé Elle a acheté l'album de Kheops là ou je suis sensé rapper il est gonflé Le mec, ce Faf LaRage, il a écrit un texte on dirait moi en plus vulgaire Ça fait peine à entendre fils si je me mettais à rapper alors lui Qu'est-ce quil dirait fainéant c'est un métier gazier Yes yes y'all, sur mon lit y'all, j'en ai ras le bol des mecs de moi se moquent Y'a rien à envier je vais lui coller un procès, gratter un max de blé Au cas où l'autre voudrait me jeter j'ai ma fierté tu le sais hein? Bon ben bah c'est cool hein casse toi maintenant</t>
+          <t>Premier réflexe quand je me lève j'enlève Les coussins de ma tête et les canettes qui traînent Sous mon drap à midi je peux toujours larver dans mon lit Je me sens dès je pourris à la télé et avant la gym Aller debout, te pète pas le genou fait pas le fou Risque une pompe sinon deux puis c'est tout C'est lourd demain promis je m'y mets Mais la salle de sport dans la pièce à côté c'est trop loin Ok je paye rien palace, terrier trop grand En un an je connais par coeur la cuisine et ta chambre Puis quoi d'abord qu'est-ce qu'tu viens te mêler, mauvier Je peux pas faire de sport j'en fais pas je suis chez moi Enfin chez elle la meuf est pas là, 29 ans, plein de frics PDG de sa boite et son mec fils je te dis pas noble en plus Famille de bourge, le bras long qui n'use Pas de gange quand tu les emmerdes ils te coulent Et jusque là, ça a toujours fonctionné ainsi je dis ça Parce que voilà maintenant je suis là et ca va pas Ils me haïssent, ces parents payeraient chers pour ma peau Devant leur fille ils font le style tout est beau mais c'est chaud ils la trahissent Ils l'ont pris pour un caprice, ils ont laissé faire Mais le jour où j'ai parlé de petit-fils, ah t'as déclenché la guerre Moi les viocs je m'en moque, ils finiront bien par crever à ce propos Il faut que je pense à mettre une bouteille au frais Pour l'occase pas maintenant je suis naze et j'ai la dalle Et envie de chier là je dois me le... Maintenant là...ah non et merde...non x2 Un parasite, un fainéant dans mon lit tout le temps Une poule riche, je prends, la terreur des parents Je suis un fainéant, je suis un fainéant Cette vie là j'en rêvais je l'ai rencontré, elle a bloqué J'ai flairé le bon coup jai tout lâché trop cool Tous les jours elle est au bureau Ah ouais, tu vois le genre de pouf en tailleur stricte Qui rafle les contrats oh là mais c'est mesquin De parler comme ça elle tentretient Mais là je me carre mon gars ses collègues aimeraient tous la sauter Les lèche bottes qui la respectent pffft voudraient la sauter À la limite cest pas mon cul Tout le monde dit que c'est une bombe, elle a des sous c'est tout ce qui compte Pour moi et même à la folie et ça aussi c'est important En même temps un problème pour ces parents Aller fais péter le cendrier Une bonne clope putain la bonne ou elle est Ah le petit déjeuner est servi Elle est tranquille cette fille en fait jusqu'à ce quelle prenne laspirateur Un putain de hoover trop bruyant Quand je l'appelle elle ne m'entends pas alors, je bouge pas de mon lit J'ai toutes les télécommandes à portée de bras C'est vrai je suis un fainéant je fume, je dors et je baise La preuve qu'on peut vivre de thunes et de..... Ah ouais je vois, je vois, ah ouais... eh oh réveille-toi.....eh bien x2 Un parasite, un fainéant dans mon lit tout le temps Une poule riche, je prends, la terreur des parents Je suis un fainéant, je suis un fainéant Cloué au pieux comme un vieux la journée même pour pisser J'ai un vieux pot sous le sommier fut un temps c'était chaud Et l'fallait me foutre dehors, et ma traité de clodo, de blaireau Et j'en passe et puis y a eu ce rappeur un soir à la télé pas mauvais Je dois dire le petit Faf Larage qu'il s'appelle, ah ouais je connais Le type me ressemble comme deux gouttes d'eau La meuf a cru que cétait moi je lai joué cétait pour te faire une surprise Le faux et maintenant cette conne elle croit que tous les jours jsuis en studio C'est pas beau rot excuse le champagne frère, pète les fayots fils Cette nuit j'ai pris un encat des merdes ce que j'ai trouvé devine ce que j'ai trouvé Elle a acheté l'album de Kheops là ou je suis sensé rapper il est gonflé Le mec, ce Faf LaRage, il a écrit un texte on dirait moi en plus vulgaire Ça fait peine à entendre fils si je me mettais à rapper alors lui Qu'est-ce quil dirait fainéant c'est un métier gazier Yes yes y'all, sur mon lit y'all, j'en ai ras le bol des mecs de moi se moquent Y'a rien à envier je vais lui coller un procès, gratter un max de blé Au cas où l'autre voudrait me jeter j'ai ma fierté tu le sais hein? Bon ben bah c'est cool hein casse toi maintenant</t>
         </is>
       </c>
     </row>
@@ -2095,7 +2095,7 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Oh la la, faire un reportage sur la plage, c'est pas évident, hein? Allez détends-toi, en vacances on dort pas... y a l'équipe, là, faut y aller! Hey blaireau j'suis là! Ouais j'me gratte les couilles sur ma chaise longue Parasol, clopes pour pas un rond Ça soulage d'pisser dans l'eau salée Y a toujours un con après avec sa bouée pour boire la tasse et J'ai ma plage privée, c'est ma meuf qui paye Voyage d'affaires sur la côte une semaine C'est le pied Des gonzesses en maillot qui t'allument toute la journée Moi, au frais, j'ai mon caleçon gonflé et taché Des vieilles croûtes choquées qu'arrêtent pas d'râler Hé, les viocs, si je me lève y a des dentiers qui vont valser Hé, respecte les vieux, tu vas te faire virer de la plage là C'est pas un bon mois j'ai perdu mon procès contre Faf Larage Tu t'souviens le gus qu'a fait un morceau sur moi Attends, il paraît que sur son album il remet ça Et ta copine ? Sûr elle est au courant que je chante pas Mais si je voudrais je pourrais Je me suis remis au sexe, au sport, ce genre de choses C'est la bonne qui m'a entraîné, pour ça elle est carrée En plus ça m'a évité de prendre la porte Quand ma meuf elle s'énerve Eh, l'expérience ça paye Le premier reportage t'es fou elle l'a pas vu Elle rentre trop tard Tant mieux sinon c'est foutu Tu nous vois devant la télé moi en train de la descendre Me regarder en train d'dire qu'elle m'entretient et tout le reste? Nan... Excuse-moi de le dire, comme pouf y a pire Ça va sans dire et le soir au lit on joue au fakir Elle aime commander, prendre les choses en main Tout c'que je voulais, pas m'fouler avec des pauses de merde J'ai recréé mon environnement sur la plage La glacière plein d'bières et le seau pour la selle Y a un gamin qui le jette à la poubelle Je fais la sieste et lui donne une Heineken pour la peine You might also like J'suis un fainéant, une meuf qui bosse et moi j'suis en vacances Changer ma place, blaireau? Là j'te dis non Un fainéant, un fainéant en vacances J'suis un fainéant, un gros tas mou Sur ma chaise longue dans le vent Tranquille à la mer une poule riche qui sort les francs Un fainéant, un fainéant en vacances Et tes beaux-parents? En maison de repos Ça leur a fichu un coup parce que leur fille m'aimait trop Ils feront pas de vieux os, d'ici là le Champagne coulera à flots Voulaient ma peau, racontent aux infirmières que je suis un faux C'est faux Tu l'as dit poto, m'traitent de salaud D'Roméo des préaux, putain d'aristos c'est pour bientôt Ecoute fils, j'suis pas un Charlot Seulement quand il s'agit de larver j'suis le Diderot des Dunlopillo Ah j'oubliais tu connais pas la dernière, on y est Ma meuf a eu une promotion c'est bien pour les billets L'inconvénient c'est son assistant un nouveau Muscu à gogo gaulé comme un taureau Y a comme un défaut, j'avais balayé tous mes rivaux Et puis le v'là qui fait du zèle dans mon dos Il est descendu sur la côte avec nous en Polo Non pas la voiture, le tricot histoire d'faire le beau En conférence il la suit comme un chien À l'hôtel c'est tout juste s'il dort pas dans la salle de bain Alors c'est la guerre ? Il sort d'une pub pour rasoir J'peux pas le voir les soirs quand ils viennent se baigner Putain faut l'voir, la roulade, il nage comme une algue Je rêve qu'un Zodiac l'alpague Ça calme hein? Et ouais, il me gave, se pavane sur le sable Le contraire de moi mais elle a l'air d'apprécier Avec ma ligne de baleine et mon haleine Faut que je rivalise avec ce gigolo de fête foraine Il s'prend pour David Charvet, mais c'est rhéné Avec son string rouge il va pas nous blouser Mais bon Méfi! Je vais pas m'battre pour une femme En rentrant je la retourne je lui fais un gosse, je l'épouse et voilà bah c'est super, hein? Ta gueule!</t>
+          <t>Oh la la, faire un reportage sur la plage, c'est pas évident, hein? Allez détends-toi, en vacances on dort pas... y a l'équipe, là, faut y aller! Hey blaireau j'suis là! Ouais j'me gratte les couilles sur ma chaise longue Parasol, clopes pour pas un rond Ça soulage d'pisser dans l'eau salée Y a toujours un con après avec sa bouée pour boire la tasse et J'ai ma plage privée, c'est ma meuf qui paye Voyage d'affaires sur la côte une semaine C'est le pied Des gonzesses en maillot qui t'allument toute la journée Moi, au frais, j'ai mon caleçon gonflé et taché Des vieilles croûtes choquées qu'arrêtent pas d'râler Hé, les viocs, si je me lève y a des dentiers qui vont valser Hé, respecte les vieux, tu vas te faire virer de la plage là C'est pas un bon mois j'ai perdu mon procès contre Faf Larage Tu t'souviens le gus qu'a fait un morceau sur moi Attends, il paraît que sur son album il remet ça Et ta copine ? Sûr elle est au courant que je chante pas Mais si je voudrais je pourrais Je me suis remis au sexe, au sport, ce genre de choses C'est la bonne qui m'a entraîné, pour ça elle est carrée En plus ça m'a évité de prendre la porte Quand ma meuf elle s'énerve Eh, l'expérience ça paye Le premier reportage t'es fou elle l'a pas vu Elle rentre trop tard Tant mieux sinon c'est foutu Tu nous vois devant la télé moi en train de la descendre Me regarder en train d'dire qu'elle m'entretient et tout le reste? Nan... Excuse-moi de le dire, comme pouf y a pire Ça va sans dire et le soir au lit on joue au fakir Elle aime commander, prendre les choses en main Tout c'que je voulais, pas m'fouler avec des pauses de merde J'ai recréé mon environnement sur la plage La glacière plein d'bières et le seau pour la selle Y a un gamin qui le jette à la poubelle Je fais la sieste et lui donne une Heineken pour la peine J'suis un fainéant, une meuf qui bosse et moi j'suis en vacances Changer ma place, blaireau? Là j'te dis non Un fainéant, un fainéant en vacances J'suis un fainéant, un gros tas mou Sur ma chaise longue dans le vent Tranquille à la mer une poule riche qui sort les francs Un fainéant, un fainéant en vacances Et tes beaux-parents? En maison de repos Ça leur a fichu un coup parce que leur fille m'aimait trop Ils feront pas de vieux os, d'ici là le Champagne coulera à flots Voulaient ma peau, racontent aux infirmières que je suis un faux C'est faux Tu l'as dit poto, m'traitent de salaud D'Roméo des préaux, putain d'aristos c'est pour bientôt Ecoute fils, j'suis pas un Charlot Seulement quand il s'agit de larver j'suis le Diderot des Dunlopillo Ah j'oubliais tu connais pas la dernière, on y est Ma meuf a eu une promotion c'est bien pour les billets L'inconvénient c'est son assistant un nouveau Muscu à gogo gaulé comme un taureau Y a comme un défaut, j'avais balayé tous mes rivaux Et puis le v'là qui fait du zèle dans mon dos Il est descendu sur la côte avec nous en Polo Non pas la voiture, le tricot histoire d'faire le beau En conférence il la suit comme un chien À l'hôtel c'est tout juste s'il dort pas dans la salle de bain Alors c'est la guerre ? Il sort d'une pub pour rasoir J'peux pas le voir les soirs quand ils viennent se baigner Putain faut l'voir, la roulade, il nage comme une algue Je rêve qu'un Zodiac l'alpague Ça calme hein? Et ouais, il me gave, se pavane sur le sable Le contraire de moi mais elle a l'air d'apprécier Avec ma ligne de baleine et mon haleine Faut que je rivalise avec ce gigolo de fête foraine Il s'prend pour David Charvet, mais c'est rhéné Avec son string rouge il va pas nous blouser Mais bon Méfi! Je vais pas m'battre pour une femme En rentrant je la retourne je lui fais un gosse, je l'épouse et voilà bah c'est super, hein? Ta gueule!</t>
         </is>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Est-ce que je vis sur une autre planète ? Du haut de mon cinquième étage, une fenêtre Vise mon assiette pas de steak J'observe mes propres règles, essaie de m'en tirer Avec du bien et rester honnête, c'est pas la fête tous les jours Gaffe au contre coups dans l'état d'esprit où je suis Je passe pour un fou, discute de droite à gauche Et confronté à la haine, pas la peine de péter les vitres pour un 'blème Les mens ne semblent plus stimulés, là où qu'ils se trouvent Un taux de suicide jamais égalé, j'peux rien pour eux, et Je prie pour les miens et, espère un lendemain saint et Sans parti raciste pour les condamnés, et mec, t'es à côté d'la plaque là Mais tu délires ou quoi, regarde autour de toi Tout n'est qu'hypocrisie, tu me suis, je suis le seul Simple, raisonnement, rien qu'avant Je pense et je paie les pots cassés, je mens ? Tu vois cinq-mille balles, au moins j'étais dans le costume du mec dans les rangs Et là je vis où, dans un monde étranger Dans un pays où je paie les pots cassés Citoyen, si je suis dans la merde Efface, conscient des problèmes, la rapublique peut bouger Et là je vis où, dans un monde étranger Dans un pays où je paie les pots cassés Citoyen, si je suis dans la merde Efface, conscient des problèmes, la rapublique va s'installer You might also like Je vois où tout ça me conduit et ça me plaît pas du tout J'suis un mec moyen, un job moyen, un salaire moyen, ma meuf moyen M'en tirer y'a pas moyen, un français moyen, j'ai pas de moyen J'ai été conçu pour être moyen, payer l'État tu es fou Moi y en a pas avoir de sous, arrête tout, j'ai trop payé et Putain l'État, c'est moi, fils, tout ce que donne pour ça Je devrais être roi, et vois en moi, un citoyen normal Soudain éveillé, vote pour un gouvernement qui ne cesse de m'enfoncer Y a un hic là, je m'inplique lourd comme une barrique Aux yeux des aveugles qui laissent faire trop de tmenik Situation critique, fini les merguez frites, tandis que les gars en haut Se pavannebt dans les restos chics, ils gagnent trop de fric Profitent, parlent de crise, moi quand j'ai la trique Je me tape que des boulimiques, et ça aussi c'est la merde Avec le stress ont fait n'importe quoi, bouffe n'importe quoi Et on devient n'importe quoi, vis devant la télé, squatte Regarde n'importe quoi, des modèles qui n'existent pas Autorisés par le pouvoir, boire un coup pour oublier le tout Si t'as pas de chance, tu finis dans le gouffre Au bout avec un pot de vin défoncé sur le trottoir C'est pas le même pot qu'il touche sous la table Du coup, j'ai tout lâché, envoie chier, j'ai eu les huissiers Que j'ai dégagés à coups de pompe dans le nez, ouaaaih Je me sens mieux à présent, au RMI et je remercie mes parents Qui m'aident de temps en temps, tu sais la famille c'est sacré Respect, si elle est pas décimée dans ce merdier, grâce à Dieu J'ai eu de la chance et je me plains pas, j'ai pris conscience Et réalisé où étaient mes droits, je fais avec ça, dans ce monde où tout est pourri Où la loi est profit, vois les autres pays, les gosses meurent pour un rien Pour des idéaux où le seul idéal sûr, c'est la paix et combien Es-tu prêt à perdre pour que ça cesse, toi le plein aux as, fais ton Biz Sur la misère, trafic d'armes, d'organes, remèdes périmés Un putain de marché, on est tous dépassés, et fait l'impasse sur ces magouilles La poudre aux yeux, on nous embrouille, et si tu réfléchis trop à ça Ça te fout la trouille, j'accepte plus, j'suis exclu, mais j'ai plus peur J'accueille plus les mauvaises avec stupeur, je canalise mon énergie Essaie de rester positif, localise le mal et réagis sur le vif, fils !</t>
+          <t>Est-ce que je vis sur une autre planète ? Du haut de mon cinquième étage, une fenêtre Vise mon assiette pas de steak J'observe mes propres règles, essaie de m'en tirer Avec du bien et rester honnête, c'est pas la fête tous les jours Gaffe au contre coups dans l'état d'esprit où je suis Je passe pour un fou, discute de droite à gauche Et confronté à la haine, pas la peine de péter les vitres pour un 'blème Les mens ne semblent plus stimulés, là où qu'ils se trouvent Un taux de suicide jamais égalé, j'peux rien pour eux, et Je prie pour les miens et, espère un lendemain saint et Sans parti raciste pour les condamnés, et mec, t'es à côté d'la plaque là Mais tu délires ou quoi, regarde autour de toi Tout n'est qu'hypocrisie, tu me suis, je suis le seul Simple, raisonnement, rien qu'avant Je pense et je paie les pots cassés, je mens ? Tu vois cinq-mille balles, au moins j'étais dans le costume du mec dans les rangs Et là je vis où, dans un monde étranger Dans un pays où je paie les pots cassés Citoyen, si je suis dans la merde Efface, conscient des problèmes, la rapublique peut bouger Et là je vis où, dans un monde étranger Dans un pays où je paie les pots cassés Citoyen, si je suis dans la merde Efface, conscient des problèmes, la rapublique va s'installer Je vois où tout ça me conduit et ça me plaît pas du tout J'suis un mec moyen, un job moyen, un salaire moyen, ma meuf moyen M'en tirer y'a pas moyen, un français moyen, j'ai pas de moyen J'ai été conçu pour être moyen, payer l'État tu es fou Moi y en a pas avoir de sous, arrête tout, j'ai trop payé et Putain l'État, c'est moi, fils, tout ce que donne pour ça Je devrais être roi, et vois en moi, un citoyen normal Soudain éveillé, vote pour un gouvernement qui ne cesse de m'enfoncer Y a un hic là, je m'inplique lourd comme une barrique Aux yeux des aveugles qui laissent faire trop de tmenik Situation critique, fini les merguez frites, tandis que les gars en haut Se pavannebt dans les restos chics, ils gagnent trop de fric Profitent, parlent de crise, moi quand j'ai la trique Je me tape que des boulimiques, et ça aussi c'est la merde Avec le stress ont fait n'importe quoi, bouffe n'importe quoi Et on devient n'importe quoi, vis devant la télé, squatte Regarde n'importe quoi, des modèles qui n'existent pas Autorisés par le pouvoir, boire un coup pour oublier le tout Si t'as pas de chance, tu finis dans le gouffre Au bout avec un pot de vin défoncé sur le trottoir C'est pas le même pot qu'il touche sous la table Du coup, j'ai tout lâché, envoie chier, j'ai eu les huissiers Que j'ai dégagés à coups de pompe dans le nez, ouaaaih Je me sens mieux à présent, au RMI et je remercie mes parents Qui m'aident de temps en temps, tu sais la famille c'est sacré Respect, si elle est pas décimée dans ce merdier, grâce à Dieu J'ai eu de la chance et je me plains pas, j'ai pris conscience Et réalisé où étaient mes droits, je fais avec ça, dans ce monde où tout est pourri Où la loi est profit, vois les autres pays, les gosses meurent pour un rien Pour des idéaux où le seul idéal sûr, c'est la paix et combien Es-tu prêt à perdre pour que ça cesse, toi le plein aux as, fais ton Biz Sur la misère, trafic d'armes, d'organes, remèdes périmés Un putain de marché, on est tous dépassés, et fait l'impasse sur ces magouilles La poudre aux yeux, on nous embrouille, et si tu réfléchis trop à ça Ça te fout la trouille, j'accepte plus, j'suis exclu, mais j'ai plus peur J'accueille plus les mauvaises avec stupeur, je canalise mon énergie Essaie de rester positif, localise le mal et réagis sur le vif, fils !</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2129,7 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Que tu comprennes le sens de mot flow, MOFO Ouais on travaille les lyrics, c'est sûr On fait pas l'poids sur la technique, et sur c'point précis Tu m'as pas l'air très sûr Faf et AKH, combinaison d'malade T'es où ? T'es pas là, tu palabres On s'tape des salades Sur le mic', c'est clair on marave, man On casse la baraque au mill' J'coupe le cake mais c'est ton rap qu'est comique Doublet de mimique, d'un Gee de la West Coast T'es l'Easy Jet de la rime, un pauvre MC low cost T'es 'sos, vatos locos Ils prennent le hall pour un blocos Ils vendent du XXX 5, ils font la queue à la poste J'parle de ton flow pauvre Pas d'molotov, pas d'coffre Dans ton équipe, mon mic' s'appelle holocauste Ce sont des faits, moi j'rend un constat On met l'accent sur tout les propos radicaux de mon staff Ce hip-hop se mad, le trou d'uc-tion s'tape C'est malheureux Secret Story, rap français, même combat Des MC sans conscience vendent leurs chiasses à des gens pré-fab Avec du Brice Hortefeux en préface T'as maquillé ta voix, trafiqué sur le maqu' Tes propos m'estomaquent, on dirait c'putain d'Zemmour sur le mic' Tout est prêt pour découper Tu sais, ça va bouger, ce soir on est booké Dans ta ville, file, t'es un fiasco loupé Prend des notes, c'est AKH Et fuck le refrain, écoute le couplet ! C'est XXX, tu bloques et tu baves Ton block met du grade sur mes épaules, t'es pas écoutable Ta prose est coupable et pas l'à propos Entend bien le propos, que tu comprennes le sens du mot flow You might also like Pas d'attitude, c'est du rap, l'écriture est gravée dans la peau Que tu comprennes le sens du mot flow C'est le sens de la découpe, du beat, des poses et des bons mots Que tu comprennes le sens du mot flow La pression dès que l'équipe attrape le mic' sur scène ou en studio Que tu comprennes le sens du mot flow Technique et assonance, la tienne est assommante, il est temps poto Que tu comprennes le sens du mot flow Je rentre fat à la face du monde Easy sur la snare, paré à fonce-dé un maximum J'ai la dalle comme Piaf étant môme J'attends rien d'ce bizz, sauf que les vrais reconnaissent la bombe C'est pour les initiés, déçus de la tournure des choses Qui croient plus en hip-hop, en espérant une aut' dose Un sérum auditif, gimmick, piano répétitif V'la c'qu'on offre, niveau sonore abusif, on suit les codes On a nos normes et nos formats Cogne comme Foreman, à l'époque où l'Homme était fort en combat On dit qu'ça vend pas, pas grave, ça blague pas, ça rame pas Gangsta, on aime ça mais ça flambe pas Tu piges mes lyrics, fixe mes délires Street music c'est p't-être pas de l'or mais du saphir On va en finir, poto tu vas en baver Toi qui pose sans respect, après moi tu crieras Avé Prieras Jéhovah, Bouddha ou Yahvé De pas t'laisser aller là où les lâches larvent sans love ni lové On parle le victime affolé, sans pistolet et un big tolé Tacle sur le mollet, va voler J'ai la soul dans le sang et le mic' qui m'suit Rap comme à Brooklyn Mate le fond XXX Je brille sans joie et rie sans railleries, sans ballerines Mes batteries sont rechargées pour abattre le beat Violent comme un coup d'batte de Mike Myers On fire, on t'bâillonne alors ferme ta gueule ! J'arrive comme un revenant qui vient hanter la baraque Haïe des MCs comme des white trash, les braquent On claque sans barraka , chaud comme les rues de Caracas Sans place et sans hasard Trop pro pour les copycat Tu tiens pas les bases, t'es bon pour l'abattoir On va t'voir après ce couplet bleu comme un Avatar Big up aux ladies et gars, les relous de villas, de villes ou de villages aux mille visages, à la vie dure, qui trichent pas Au fait, Faf Larage n'a pas de Facebook Mais j'ai trop d'prisonniers dans mon book Pas d'attitude, c'est du rap, l'écriture est gravée dans la peau Que tu comprennes le sens du mot flow C'est le sens de la découpe, du beat, des poses et des bons mots Que tu comprennes le sens du mot flow La pression dès que l'équipe attrape le mic' sur scène ou en studio Que tu comprennes le sens du mot flow Technique et assonance, la tienne est assommante, il est temps poto Que tu comprennes le sens du mot flow</t>
+          <t>Que tu comprennes le sens de mot flow, MOFO Ouais on travaille les lyrics, c'est sûr On fait pas l'poids sur la technique, et sur c'point précis Tu m'as pas l'air très sûr Faf et AKH, combinaison d'malade T'es où ? T'es pas là, tu palabres On s'tape des salades Sur le mic', c'est clair on marave, man On casse la baraque au mill' J'coupe le cake mais c'est ton rap qu'est comique Doublet de mimique, d'un Gee de la West Coast T'es l'Easy Jet de la rime, un pauvre MC low cost T'es 'sos, vatos locos Ils prennent le hall pour un blocos Ils vendent du XXX 5, ils font la queue à la poste J'parle de ton flow pauvre Pas d'molotov, pas d'coffre Dans ton équipe, mon mic' s'appelle holocauste Ce sont des faits, moi j'rend un constat On met l'accent sur tout les propos radicaux de mon staff Ce hip-hop se mad, le trou d'uc-tion s'tape C'est malheureux Secret Story, rap français, même combat Des MC sans conscience vendent leurs chiasses à des gens pré-fab Avec du Brice Hortefeux en préface T'as maquillé ta voix, trafiqué sur le maqu' Tes propos m'estomaquent, on dirait c'putain d'Zemmour sur le mic' Tout est prêt pour découper Tu sais, ça va bouger, ce soir on est booké Dans ta ville, file, t'es un fiasco loupé Prend des notes, c'est AKH Et fuck le refrain, écoute le couplet ! C'est XXX, tu bloques et tu baves Ton block met du grade sur mes épaules, t'es pas écoutable Ta prose est coupable et pas l'à propos Entend bien le propos, que tu comprennes le sens du mot flow Pas d'attitude, c'est du rap, l'écriture est gravée dans la peau Que tu comprennes le sens du mot flow C'est le sens de la découpe, du beat, des poses et des bons mots Que tu comprennes le sens du mot flow La pression dès que l'équipe attrape le mic' sur scène ou en studio Que tu comprennes le sens du mot flow Technique et assonance, la tienne est assommante, il est temps poto Que tu comprennes le sens du mot flow Je rentre fat à la face du monde Easy sur la snare, paré à fonce-dé un maximum J'ai la dalle comme Piaf étant môme J'attends rien d'ce bizz, sauf que les vrais reconnaissent la bombe C'est pour les initiés, déçus de la tournure des choses Qui croient plus en hip-hop, en espérant une aut' dose Un sérum auditif, gimmick, piano répétitif V'la c'qu'on offre, niveau sonore abusif, on suit les codes On a nos normes et nos formats Cogne comme Foreman, à l'époque où l'Homme était fort en combat On dit qu'ça vend pas, pas grave, ça blague pas, ça rame pas Gangsta, on aime ça mais ça flambe pas Tu piges mes lyrics, fixe mes délires Street music c'est p't-être pas de l'or mais du saphir On va en finir, poto tu vas en baver Toi qui pose sans respect, après moi tu crieras Avé Prieras Jéhovah, Bouddha ou Yahvé De pas t'laisser aller là où les lâches larvent sans love ni lové On parle le victime affolé, sans pistolet et un big tolé Tacle sur le mollet, va voler J'ai la soul dans le sang et le mic' qui m'suit Rap comme à Brooklyn Mate le fond XXX Je brille sans joie et rie sans railleries, sans ballerines Mes batteries sont rechargées pour abattre le beat Violent comme un coup d'batte de Mike Myers On fire, on t'bâillonne alors ferme ta gueule ! J'arrive comme un revenant qui vient hanter la baraque Haïe des MCs comme des white trash, les braquent On claque sans barraka , chaud comme les rues de Caracas Sans place et sans hasard Trop pro pour les copycat Tu tiens pas les bases, t'es bon pour l'abattoir On va t'voir après ce couplet bleu comme un Avatar Big up aux ladies et gars, les relous de villas, de villes ou de villages aux mille visages, à la vie dure, qui trichent pas Au fait, Faf Larage n'a pas de Facebook Mais j'ai trop d'prisonniers dans mon book Pas d'attitude, c'est du rap, l'écriture est gravée dans la peau Que tu comprennes le sens du mot flow C'est le sens de la découpe, du beat, des poses et des bons mots Que tu comprennes le sens du mot flow La pression dès que l'équipe attrape le mic' sur scène ou en studio Que tu comprennes le sens du mot flow Technique et assonance, la tienne est assommante, il est temps poto Que tu comprennes le sens du mot flow</t>
         </is>
       </c>
     </row>
@@ -2146,7 +2146,7 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Tu voulais ma peau, les gars, voilà, le seul flic aux murs qui mange pas Pots de vin, corruption y connaît pas, son boulot y vit que pour ça Crétin qu'est-ce que t'espérais ? Me descendre, me surprendre Me flinguer devant ma limousine sans croire que j'allais me défendre ? Pauv' taré, tu me fais pitié, 5 ans que tu me traques et t'as toujours rien pigé Je vais te faire un résumé exclusif, à qui t'as à affaire Espèce de gros blaire t'as devant toi l'unique et légendaire Mr Claude, la terreur des mauvais players La sanction des sex faux-monnayeurs, la crème des souteneurs Le roi des proxénètes, aucun tripot, cabaret, trottoir, ne m'échappe Aucune boîte, aucun mac Du sexe de luxe j'ai le trust, et basé mon empire sur la qualité, mes filles c'est le must Étale ma protection, on me juge sur mes actions et Je tiens ce business dans le creux de ma main et Toutes me filles me soutiennent d'aucunes ne se plaignent Plus d'agressions, d'peines, les détraqués se freinent devant Monsieur Claude, la terreur des mauvais players Les souteneurs tremblent devant, Monsieur Claude La sanctions du sexe faux-monnayeur, intouchable, le grand Mr Claude Maintenant regarde-toi ! T'as l'air de quoi ? Pieds et poings liés, la gueule amochée La peur au ventre d'être liquidé, mesure l'ampleur de la chose sombre crétin Le monde n'est pas rose aussi j'ai conçu le mien, tiens, retraite, syndic Assurance, une société Parallèle à ceci près que je fixe seul les règles, les filles ? Elles se donnent à fond, je force pas C'est un choix délibéré de leur part, souvent pour un nouveau départ Tu connais ça ton ex-femme bosse pour moi C'est la seule raison pour laquelle tu t'acharnes sur moi, elle fait partie de l'élite Le réseau international, une mine d'or, la tête de l'empire Elles veulent toutes en faire partie mais je recrute que la crème Les éduque, les prends en charge, voiture et appart' Un salaire fixe sur les pourboires, cadeaux, bijoux et au revoir Des fois elles couchent pas c'est juste pour un soir de gala Des call-girls, des beautés qui aliment les rêves La classe et l'intelligence incarnées en une bombe de sexe Évoluent dans les hautes sphères Dans l'monde des affaires avec des clients qui pèsent Et ça remplit les caisses et quand j'me sens J'en séduis une ou deux car elles tombent toutes devant You might also like Monsieur Claude, la terreur des mauvais players Les souteneurs tremblent devant, Monsieur Claude La sanctions du sexe faux-monnayeur, intouchable, le grand Mr Claude Arrête de saliver, t'es plus concerné, c'est réservé aux clients solvables Qui payent cash des sommes qui font pleurer Tous les grands de ce monde, et là y a du blé Du Président, aux ministres, princes et héritiers Mes appart' de luxe particuliers affichent complet Discrétion assurée, déesses douées et sophistiquées Sorties, la détente est préconisée, ensuite c'est, plus simple Quand t'es aux anges tu vas moins te méfier Te figurer que tes culbutes sont filmées, que les secrets d'état Que tu lâches pour faire le beau sont enregistrés Un bonus à la fille qui t'a fait parler, ça paye On s'renseigne c'est prudent, rend service à la pègre et Le crime organisé me doit de fières chandelles C'est pourquoi en haut ils me craignent, personne ne me connaît J'ai trop de dossiers, trop de vidéos, tu serais choqué De voir un vieux notable politique bourré de coke au lit Plus performant que toi et ta brigade de flics, enfoirés J'ai tes supérieurs en VHS certains vêtus de cuir se font fouetter Les fesses et tu tentes de me boucler ? T'es gonflé, c'est la vengeance qui te guide Tu m'en veux ? Pourquoi ? Parce que ton ex est dans mon entreprise Elle t'a largué et quand t'y pense les coups de pieds Que tu lui a mis dans le ventre n'y sont pas étrangers T'es qu'une épine dans mon pied, flic de merde en haut y sont tous mouillés Y vont te virer et il ne te reste que l'alcool pour oublier Mr Claude</t>
+          <t>Tu voulais ma peau, les gars, voilà, le seul flic aux murs qui mange pas Pots de vin, corruption y connaît pas, son boulot y vit que pour ça Crétin qu'est-ce que t'espérais ? Me descendre, me surprendre Me flinguer devant ma limousine sans croire que j'allais me défendre ? Pauv' taré, tu me fais pitié, 5 ans que tu me traques et t'as toujours rien pigé Je vais te faire un résumé exclusif, à qui t'as à affaire Espèce de gros blaire t'as devant toi l'unique et légendaire Mr Claude, la terreur des mauvais players La sanction des sex faux-monnayeurs, la crème des souteneurs Le roi des proxénètes, aucun tripot, cabaret, trottoir, ne m'échappe Aucune boîte, aucun mac Du sexe de luxe j'ai le trust, et basé mon empire sur la qualité, mes filles c'est le must Étale ma protection, on me juge sur mes actions et Je tiens ce business dans le creux de ma main et Toutes me filles me soutiennent d'aucunes ne se plaignent Plus d'agressions, d'peines, les détraqués se freinent devant Monsieur Claude, la terreur des mauvais players Les souteneurs tremblent devant, Monsieur Claude La sanctions du sexe faux-monnayeur, intouchable, le grand Mr Claude Maintenant regarde-toi ! T'as l'air de quoi ? Pieds et poings liés, la gueule amochée La peur au ventre d'être liquidé, mesure l'ampleur de la chose sombre crétin Le monde n'est pas rose aussi j'ai conçu le mien, tiens, retraite, syndic Assurance, une société Parallèle à ceci près que je fixe seul les règles, les filles ? Elles se donnent à fond, je force pas C'est un choix délibéré de leur part, souvent pour un nouveau départ Tu connais ça ton ex-femme bosse pour moi C'est la seule raison pour laquelle tu t'acharnes sur moi, elle fait partie de l'élite Le réseau international, une mine d'or, la tête de l'empire Elles veulent toutes en faire partie mais je recrute que la crème Les éduque, les prends en charge, voiture et appart' Un salaire fixe sur les pourboires, cadeaux, bijoux et au revoir Des fois elles couchent pas c'est juste pour un soir de gala Des call-girls, des beautés qui aliment les rêves La classe et l'intelligence incarnées en une bombe de sexe Évoluent dans les hautes sphères Dans l'monde des affaires avec des clients qui pèsent Et ça remplit les caisses et quand j'me sens J'en séduis une ou deux car elles tombent toutes devant Monsieur Claude, la terreur des mauvais players Les souteneurs tremblent devant, Monsieur Claude La sanctions du sexe faux-monnayeur, intouchable, le grand Mr Claude Arrête de saliver, t'es plus concerné, c'est réservé aux clients solvables Qui payent cash des sommes qui font pleurer Tous les grands de ce monde, et là y a du blé Du Président, aux ministres, princes et héritiers Mes appart' de luxe particuliers affichent complet Discrétion assurée, déesses douées et sophistiquées Sorties, la détente est préconisée, ensuite c'est, plus simple Quand t'es aux anges tu vas moins te méfier Te figurer que tes culbutes sont filmées, que les secrets d'état Que tu lâches pour faire le beau sont enregistrés Un bonus à la fille qui t'a fait parler, ça paye On s'renseigne c'est prudent, rend service à la pègre et Le crime organisé me doit de fières chandelles C'est pourquoi en haut ils me craignent, personne ne me connaît J'ai trop de dossiers, trop de vidéos, tu serais choqué De voir un vieux notable politique bourré de coke au lit Plus performant que toi et ta brigade de flics, enfoirés J'ai tes supérieurs en VHS certains vêtus de cuir se font fouetter Les fesses et tu tentes de me boucler ? T'es gonflé, c'est la vengeance qui te guide Tu m'en veux ? Pourquoi ? Parce que ton ex est dans mon entreprise Elle t'a largué et quand t'y pense les coups de pieds Que tu lui a mis dans le ventre n'y sont pas étrangers T'es qu'une épine dans mon pied, flic de merde en haut y sont tous mouillés Y vont te virer et il ne te reste que l'alcool pour oublier Mr Claude</t>
         </is>
       </c>
     </row>
@@ -2163,7 +2163,7 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Bah, les gars, les gars, j'y vais hein, ciao Non, Encore un verre Ouais ouais, c'est ça J'y vais, j'y vais, alléz ciao Ouais c'est ça, à la prochaine Ouais cest ça, à la prochaine bande de profiteurs malhonnêtes Toujours prêts a tiser sur ma tête, qui maide à régler mes dettes? Présent pour la fête, absent pour la défaite Ça cest des amis, moi jappelle ça des putes et pas des jolies Ça ne vaut même pas mon vomi, ils auraient pu me poser à la maise hein C nest pas grave dans le métro, j ne serais pas mal à laise hein Après ça, jarrête tout, je vous le jure même le Baileys hein Arrêter de boire dici demain, je peux le faire hein, je suis balèze hein Bah ouais Il faut que je prenne un paquet de chewing-gum au distributeur Si joublie ça ma mère va jacter comme Martin Luther Mais il est où ce portefeuille putain de merde? Il est où ce portefeuille, merde? Putain ils ont niqué mon portefeuille, ma thune, mon blé, mon baille Ça y-est je déraille, je veux mon baille Il faut que jy retourne et que je les défouraille sec Jaurais dû méfier de ces deux bâtards Toujours à dire que je suis sapé comme un prince peut-être que cest trop tard Cet enculé de Marseillais, pourtant je ne lui ai rien dit lan dernier Quand il a bousillé ma caisse, ben ce soir, il va morfler sur le trottoir Quant à lautre rastaquouère silencieux, là il était ambitieux Mais cest la dernière fois quil joue au vicieux En plus tous les deux savent que j ai tendance à ménerver pour un rien Ils vont ramasser grave personne ny pourra rien Le gros et le petit, on dirait Laurel et Hardy Attend que jarrive, on va voir cest qui le plus dégourdi You might also like Oh, passez chez moi quand vous voulez Bande de salops Les gars s'il y a un problème je suis là Bande de salops Eh, les gars, eh, vous êtes mes frères Bande de salops Eh, à la vie à la mort Sa mère Bande de salops Passez chez moi quand vous voulez hein Bande de salops Les gars vous avez besoin de moi, je suis là, pas de problèmes Bande de salops Eh, la tête de moi ma seule famille Bande de salops Allez frères Bande de salops Est-ce que jai fait pour eux les mecs, toujours sapés comme des minables Et même avec leurs fausses fringues, je leur trouve des femmes Ils ont jamais rien fait pour moi et même quand je fais des magouilles Ils me balanceraient aux flics pour un petit plat de nouilles Je men bats les couilles et je vais les laisser pourrir Mourir dans leur misère, je ne fais pas de baby-sitting Je les vois venir, eh viens, on linvite Parce que jai toujours du fric et du shit Et en boîte, jai toujours mes entrées gratuites Partout où je vais, je connais du monde et eux ils savent Et même chez eux à Lyon jai trop de femmes, oué je suis grave Ah et ma B-M mec, dernier modelle Et trop de top models qui sarrachent mes sièges en cuir à larrière Ah, putain, mec, je suis bourré, où sont mes clés? Complètement dechiré, putain, ils mont niqué mes clés Cest lautre, il fait trop le nerveux, chaque fois le grand, il se la raconte Mais tous les soirs sa mère le prend à coup de pompes Soit-disant des amis et lautre petit louche qui dit jamais rien Ce faux-cul il me doit de la thune mais il na jamais rien Jai vu leurs regards hypocrites, ils menvient devant mon bolide Les mots se lisent solides, ils crisent mais ils me chives Ça va chier, les cons, ils mont niqué mes clés Mais je vais tout brûler dans cette ville et je vais les récupérer Les Lyonnais de mes couilles, ils veulent me la faire à lenvers Mais à coup de barre de fer les jeunes, je men vais me les mettre à terre, mec Oh, les gars vous êtes mes frères Bande de salops Oh, passez chez moi quand vous voulez hein Bande de salops Les gars il a un problème celui-là Bande de salops Ouais Bande de salops Eh, les gars vous êtes ma seule famille Bande de salops Passez chez moi quand vous voulez Bande de salops Les gars je serai toujours là pour vous sur ma vie Bande de salops Ouais Bande de salops Non, la situation se complique, faut que je marche droit Camoufler lhaleine dalcoolique, les gens, je ne regarde pas non, non, non, non À chaque fois cest la même, ces deux conos mengrainent ''Encore un dernier verre, mon frère pour stopper la migraine'' Stop da cono, enchaîner bouteilles sur bouteilles avec un faux-nerveux qui rince Qui parle trop fort dans mes oreilles Fuck that shit, promis demain, jarrête ces conneries de bibines Rentrer en chien pendant quun lache-rien roule dans une grosse vardine Joue le beau gosse avec laccent, te sort des bulles pastisées La saison prochaine à lOlympique, on va tout niquer On va te ressortir les Mozer, Waddle, Abédi Pelé Bref une grande gueule prêt à parier sur nanard et j-p-P Eh hey Il faut que je balance une piécette sur le trottoir Oh, oh, où sont mes francs? Huh, il y a pétard Premier indice un mégot, de PhillipMau dans un jeans MO Non c'est pas lui qui ma fait ça, mais non c'est pas le gros Et son pote le chippendales qui ma chouravé mes skeuds de parigot Depuis tout à lheure je ferme ma gueule, putain bande de salops Ah ouais après ils vont se retrouver dans un endroit Ils vont se partager tout ça, je resterais maigre et eux resteront gras Praising Jah Scarlafaraille, il faut que je trouve un moyen de les retrouver Toi là-bas le baba-cool, file ta trottinette sinon je vais te tacler Tacler Trop de choses à faire, il faut que jaille les charcler Charcler Comment, ils me prennent pour un con ou quoi? Bande denfoirés Les gars, je serai toujours là pours vous Bande de salops Mes frères, mes frères, rien à dire Bande de salops Passez chez moi quand vous voulez les gars Bande de salops Mes frères, mes frères Bon les gars Oh, mes clés, ils sont où là mes clés? ...</t>
+          <t>Bah, les gars, les gars, j'y vais hein, ciao Non, Encore un verre Ouais ouais, c'est ça J'y vais, j'y vais, alléz ciao Ouais c'est ça, à la prochaine Ouais cest ça, à la prochaine bande de profiteurs malhonnêtes Toujours prêts a tiser sur ma tête, qui maide à régler mes dettes? Présent pour la fête, absent pour la défaite Ça cest des amis, moi jappelle ça des putes et pas des jolies Ça ne vaut même pas mon vomi, ils auraient pu me poser à la maise hein C nest pas grave dans le métro, j ne serais pas mal à laise hein Après ça, jarrête tout, je vous le jure même le Baileys hein Arrêter de boire dici demain, je peux le faire hein, je suis balèze hein Bah ouais Il faut que je prenne un paquet de chewing-gum au distributeur Si joublie ça ma mère va jacter comme Martin Luther Mais il est où ce portefeuille putain de merde? Il est où ce portefeuille, merde? Putain ils ont niqué mon portefeuille, ma thune, mon blé, mon baille Ça y-est je déraille, je veux mon baille Il faut que jy retourne et que je les défouraille sec Jaurais dû méfier de ces deux bâtards Toujours à dire que je suis sapé comme un prince peut-être que cest trop tard Cet enculé de Marseillais, pourtant je ne lui ai rien dit lan dernier Quand il a bousillé ma caisse, ben ce soir, il va morfler sur le trottoir Quant à lautre rastaquouère silencieux, là il était ambitieux Mais cest la dernière fois quil joue au vicieux En plus tous les deux savent que j ai tendance à ménerver pour un rien Ils vont ramasser grave personne ny pourra rien Le gros et le petit, on dirait Laurel et Hardy Attend que jarrive, on va voir cest qui le plus dégourdi Oh, passez chez moi quand vous voulez Bande de salops Les gars s'il y a un problème je suis là Bande de salops Eh, les gars, eh, vous êtes mes frères Bande de salops Eh, à la vie à la mort Sa mère Bande de salops Passez chez moi quand vous voulez hein Bande de salops Les gars vous avez besoin de moi, je suis là, pas de problèmes Bande de salops Eh, la tête de moi ma seule famille Bande de salops Allez frères Bande de salops Est-ce que jai fait pour eux les mecs, toujours sapés comme des minables Et même avec leurs fausses fringues, je leur trouve des femmes Ils ont jamais rien fait pour moi et même quand je fais des magouilles Ils me balanceraient aux flics pour un petit plat de nouilles Je men bats les couilles et je vais les laisser pourrir Mourir dans leur misère, je ne fais pas de baby-sitting Je les vois venir, eh viens, on linvite Parce que jai toujours du fric et du shit Et en boîte, jai toujours mes entrées gratuites Partout où je vais, je connais du monde et eux ils savent Et même chez eux à Lyon jai trop de femmes, oué je suis grave Ah et ma B-M mec, dernier modelle Et trop de top models qui sarrachent mes sièges en cuir à larrière Ah, putain, mec, je suis bourré, où sont mes clés? Complètement dechiré, putain, ils mont niqué mes clés Cest lautre, il fait trop le nerveux, chaque fois le grand, il se la raconte Mais tous les soirs sa mère le prend à coup de pompes Soit-disant des amis et lautre petit louche qui dit jamais rien Ce faux-cul il me doit de la thune mais il na jamais rien Jai vu leurs regards hypocrites, ils menvient devant mon bolide Les mots se lisent solides, ils crisent mais ils me chives Ça va chier, les cons, ils mont niqué mes clés Mais je vais tout brûler dans cette ville et je vais les récupérer Les Lyonnais de mes couilles, ils veulent me la faire à lenvers Mais à coup de barre de fer les jeunes, je men vais me les mettre à terre, mec Oh, les gars vous êtes mes frères Bande de salops Oh, passez chez moi quand vous voulez hein Bande de salops Les gars il a un problème celui-là Bande de salops Ouais Bande de salops Eh, les gars vous êtes ma seule famille Bande de salops Passez chez moi quand vous voulez Bande de salops Les gars je serai toujours là pour vous sur ma vie Bande de salops Ouais Bande de salops Non, la situation se complique, faut que je marche droit Camoufler lhaleine dalcoolique, les gens, je ne regarde pas non, non, non, non À chaque fois cest la même, ces deux conos mengrainent ''Encore un dernier verre, mon frère pour stopper la migraine'' Stop da cono, enchaîner bouteilles sur bouteilles avec un faux-nerveux qui rince Qui parle trop fort dans mes oreilles Fuck that shit, promis demain, jarrête ces conneries de bibines Rentrer en chien pendant quun lache-rien roule dans une grosse vardine Joue le beau gosse avec laccent, te sort des bulles pastisées La saison prochaine à lOlympique, on va tout niquer On va te ressortir les Mozer, Waddle, Abédi Pelé Bref une grande gueule prêt à parier sur nanard et j-p-P Eh hey Il faut que je balance une piécette sur le trottoir Oh, oh, où sont mes francs? Huh, il y a pétard Premier indice un mégot, de PhillipMau dans un jeans MO Non c'est pas lui qui ma fait ça, mais non c'est pas le gros Et son pote le chippendales qui ma chouravé mes skeuds de parigot Depuis tout à lheure je ferme ma gueule, putain bande de salops Ah ouais après ils vont se retrouver dans un endroit Ils vont se partager tout ça, je resterais maigre et eux resteront gras Praising Jah Scarlafaraille, il faut que je trouve un moyen de les retrouver Toi là-bas le baba-cool, file ta trottinette sinon je vais te tacler Tacler Trop de choses à faire, il faut que jaille les charcler Charcler Comment, ils me prennent pour un con ou quoi? Bande denfoirés Les gars, je serai toujours là pours vous Bande de salops Mes frères, mes frères, rien à dire Bande de salops Passez chez moi quand vous voulez les gars Bande de salops Mes frères, mes frères Bon les gars Oh, mes clés, ils sont où là mes clés? ...</t>
         </is>
       </c>
     </row>
@@ -2180,7 +2180,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>En 2003, dans les faubourgs de Montmartre Une histoire d'amour, une tragédie, un destin brisé Ça aurait pu être le fabuleux destin d'Amélie Poulain Mais c'n'est que le fabuleux désastre de la vie de Marcel Murat Salut Gomez, c'est moi Marcel, ton plus grand fan Et j't'écris de la part de mon cousin Stan J'habite en province, c'est bien loin Mais je suis tes actions, tes chansons, tes refrains J'ai toujours voulu être flic, mais ils disent que j'louche Et ils ont enrôlé une femme et Mouss Diouf En attendant on s'amuse chez nous à la campagne, on a un château C'est privé, on chasse la bécasse et le négro On est des pros, et t'es mon modèle, mon héros De toi j'ai peint un tableau, en uniforme, t'es trop beau J'tai envoyé ça et des paupiettes Et j'ai ma femme qui comprend pas la passion qu'j'ai pour toi, mec, elle s'inquiète Mais bon, moi j'suis pas une fiotte La dernière fois qu'elle a parlé sur toi J'l'ai un quart d'heure au fond des chiottes Avec mon gamin Alain on a bien ri Vas-y P'pa, plus de javel Ça c'est bien mon p'tit Gomez je t'invite chez nous à un barbecue magistral Réponds-moi vite Marcel, ton plus grand fan You might also like Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Salut Marcel, ici Gomez, comment vas-tu ? J'réponds à ta lettre, et quand j'l'ai lu, j'étais sur l'cul Au fait, y a du blé à s'faire dans les champs quand t'es connu Et à La Poste, y a pas moyen d'détourner des RMI J'ai reçu tes paupiettes dégueulasses J'm'inquiète pour ta femme, c'que t'apelles tes parties d'chasse Tu sais franchement, ton tableau est ressemblant, ouais mais L'uniforme allemand et la croix gammée un peu gênant Lescaut, c'est qu'une série noire pour TF1 Le type de trucs qui te harcèle le cerveau Un peu comme Fan de l'samedi matin T'as d'la chance toi, j'ai toujours rêvé d'avoir un fils Pour qu'il écoule mon vieux stock de cannabis J'm'en fous d'là où tu vis Garde ta campagne et tes vaches folles L'odeur du fumier, c'est comme les chiottes, c'est jamais drôle En plus tu louches, au royaume des borgnes, Jean-Marie est roi Donc ne m'écris plus, Gomez, oublie-moi Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Gomez, j'ai reçu ta lettre, et ça l'fait pas J'ai frappé ma femme, mon fils, et ça l'fait toujours pas J'comprend pas ton humour sur la campagne et le foin Chez moi ça craint, j'ai pas d'amis Si tu m'lâches, c'est la fin J'peux pas t'oublier, j'comprends, t'as plein d'problèmes À Paname, les HLM, les Arabes, le système Dis-moi, les immigrés, j'en ai jamais vu en vrai Est-ce qu'ils parlent comme nous ? Est-ce qu'ils mangent comme nous ? Tavarez, c'est un noir, alors il est pas comme nous ? Et le nouveau Dubois, j'espère qu'il est blanc comme nous Et désolé pour les paupiettes, t'avais raison pour les chiottes Et pour punir ma femme, ouais y'a rien de mieux que les clopes Aussi, j'tenvoie du foie gras, j'compte venir chez toi Je serai pas gênant, j'sais qu't'as des problèmes Réponds-moi J'ai aucun problème, t'es qu'un pauvre mec fini Un bouseux de seconde zone qui m'envoie du foie gras pourri Un fan comme toi, non merci Et si, Marcel, tu montes à Paris Moi, j't'assure, c'est la bavure garantie Tes propos sur les immigrés m'navrent Oui Tavarez est fier d'être noir Et Dubois n'est pas un Scandinave T'es prévenu, y'a pas un bouseux qui fasse long feu Gomez, un homme nerveux, et en plus, qui t'en veux PS La mort ou la prison En d'autres termes, quatre murs, ou quatre planches Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Finalement, t'es pas celui que j'croyais T'as drôlement changé depuis ta célébrité Le rap, c'est pour les voyous, les dégénérés et je l'sais Gomez, t'es qu'un drogué, Gomez, t'es qu'un PD Tu feras jamais d'argent dans ma poche, mec, tu m'as déçu Tes planches, ça veut dire quoi, la prison ? Quoi ? C'est toi le corrompu Vendu, j'suis dans ma voiture à toute allure J'ai pris une biture, écrasé une vache, un renard et une vielle pute J'arrive à Paris Tu seras pas tranquille, moi en vie En ville, tu bois aussi, j'te l'dis J'étais ton plus grand fan, ton meilleur ami On aurait pu chasser ensemble Je t'aurai volontiers prêté mon fusil Mais j'm'en fous, tu m'as trahi Et j'enregistre cette cassette de la part de Marcel, mec, ton pire ennemi Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Est-ce que Monsieur Murat est arrivé à bon port Pour retrouver son bien-aimé ? Ça, c'est une autre histoire Gomez, j'aurai ta peau!!!</t>
+          <t>En 2003, dans les faubourgs de Montmartre Une histoire d'amour, une tragédie, un destin brisé Ça aurait pu être le fabuleux destin d'Amélie Poulain Mais c'n'est que le fabuleux désastre de la vie de Marcel Murat Salut Gomez, c'est moi Marcel, ton plus grand fan Et j't'écris de la part de mon cousin Stan J'habite en province, c'est bien loin Mais je suis tes actions, tes chansons, tes refrains J'ai toujours voulu être flic, mais ils disent que j'louche Et ils ont enrôlé une femme et Mouss Diouf En attendant on s'amuse chez nous à la campagne, on a un château C'est privé, on chasse la bécasse et le négro On est des pros, et t'es mon modèle, mon héros De toi j'ai peint un tableau, en uniforme, t'es trop beau J'tai envoyé ça et des paupiettes Et j'ai ma femme qui comprend pas la passion qu'j'ai pour toi, mec, elle s'inquiète Mais bon, moi j'suis pas une fiotte La dernière fois qu'elle a parlé sur toi J'l'ai un quart d'heure au fond des chiottes Avec mon gamin Alain on a bien ri Vas-y P'pa, plus de javel Ça c'est bien mon p'tit Gomez je t'invite chez nous à un barbecue magistral Réponds-moi vite Marcel, ton plus grand fan Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Salut Marcel, ici Gomez, comment vas-tu ? J'réponds à ta lettre, et quand j'l'ai lu, j'étais sur l'cul Au fait, y a du blé à s'faire dans les champs quand t'es connu Et à La Poste, y a pas moyen d'détourner des RMI J'ai reçu tes paupiettes dégueulasses J'm'inquiète pour ta femme, c'que t'apelles tes parties d'chasse Tu sais franchement, ton tableau est ressemblant, ouais mais L'uniforme allemand et la croix gammée un peu gênant Lescaut, c'est qu'une série noire pour TF1 Le type de trucs qui te harcèle le cerveau Un peu comme Fan de l'samedi matin T'as d'la chance toi, j'ai toujours rêvé d'avoir un fils Pour qu'il écoule mon vieux stock de cannabis J'm'en fous d'là où tu vis Garde ta campagne et tes vaches folles L'odeur du fumier, c'est comme les chiottes, c'est jamais drôle En plus tu louches, au royaume des borgnes, Jean-Marie est roi Donc ne m'écris plus, Gomez, oublie-moi Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Gomez, j'ai reçu ta lettre, et ça l'fait pas J'ai frappé ma femme, mon fils, et ça l'fait toujours pas J'comprend pas ton humour sur la campagne et le foin Chez moi ça craint, j'ai pas d'amis Si tu m'lâches, c'est la fin J'peux pas t'oublier, j'comprends, t'as plein d'problèmes À Paname, les HLM, les Arabes, le système Dis-moi, les immigrés, j'en ai jamais vu en vrai Est-ce qu'ils parlent comme nous ? Est-ce qu'ils mangent comme nous ? Tavarez, c'est un noir, alors il est pas comme nous ? Et le nouveau Dubois, j'espère qu'il est blanc comme nous Et désolé pour les paupiettes, t'avais raison pour les chiottes Et pour punir ma femme, ouais y'a rien de mieux que les clopes Aussi, j'tenvoie du foie gras, j'compte venir chez toi Je serai pas gênant, j'sais qu't'as des problèmes Réponds-moi J'ai aucun problème, t'es qu'un pauvre mec fini Un bouseux de seconde zone qui m'envoie du foie gras pourri Un fan comme toi, non merci Et si, Marcel, tu montes à Paris Moi, j't'assure, c'est la bavure garantie Tes propos sur les immigrés m'navrent Oui Tavarez est fier d'être noir Et Dubois n'est pas un Scandinave T'es prévenu, y'a pas un bouseux qui fasse long feu Gomez, un homme nerveux, et en plus, qui t'en veux PS La mort ou la prison En d'autres termes, quatre murs, ou quatre planches Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Finalement, t'es pas celui que j'croyais T'as drôlement changé depuis ta célébrité Le rap, c'est pour les voyous, les dégénérés et je l'sais Gomez, t'es qu'un drogué, Gomez, t'es qu'un PD Tu feras jamais d'argent dans ma poche, mec, tu m'as déçu Tes planches, ça veut dire quoi, la prison ? Quoi ? C'est toi le corrompu Vendu, j'suis dans ma voiture à toute allure J'ai pris une biture, écrasé une vache, un renard et une vielle pute J'arrive à Paris Tu seras pas tranquille, moi en vie En ville, tu bois aussi, j'te l'dis J'étais ton plus grand fan, ton meilleur ami On aurait pu chasser ensemble Je t'aurai volontiers prêté mon fusil Mais j'm'en fous, tu m'as trahi Et j'enregistre cette cassette de la part de Marcel, mec, ton pire ennemi Laissez-moi vous conter l'histoire Du fabuleux désastre de Marcel Murat Est-ce que Monsieur Murat est arrivé à bon port Pour retrouver son bien-aimé ? Ça, c'est une autre histoire Gomez, j'aurai ta peau!!!</t>
         </is>
       </c>
     </row>
@@ -2197,7 +2197,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>On est comme ça C'est Mars dans la peau, et on y va, ma foi Alors Faf, qu'est-ce qui s'passe là, y a du nouveau ou quoi, y a du nouveau? Eh ouais, y a du neuf là J'suis sur l'morceau sur Marseille Mars dans la peau Mars dans la peau? C'est nouveau ça, vas-y fais écouter, fais écouter Prêt à monter l'son là? Envoie la sauce, mec On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma gauche à ma droite c'est XXX Quand j'dis d'où j'viens, où j'tiens On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma droite à ma gauche c'est XXX Quand j'dis d'où j'viens, où j'tiens Marque la carte dans l'Sud, Treize, Marseille, c'est là qu'on vit Pour ça on nous hait ou on nous envie L'état d'esprit est ancré depuis des décennies On s'y est fait des ennemis, les murs y respirent encore l'agonie En ville, t'hallucines, mayday la hass est vive À chaque élection on chie, mais bon on s'active Fuck les fascistes, on peut pas le nier Fuck qu'il y en ait dans l'ombre, ça craint mais on résiste Black, ma couleur dans la gueule de tous les racistes Black, mon rap, black, mon blaze, black, ces nazes Braque les yeux sur le stade, ça existe Ça aide fils, à piger c'qui s'passe ici Sea, sex and fun, on n'est pas à Beverly Hills Mais on sait rire et vaut mieux, sinon on lâche prise À travers des rimes ou en club, on s'exprime tout haut Poto sois le bienvenu si tu nous prends pas de haut You might also like On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma gauche à ma droite c'est XXX Quand j'dis d'où j'viens, où j'tiens On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma droite à ma gauche c'est XXX Quand j'dis d'où j'viens, où j'tiens On sait qu'on a nos rêves à l'écart alors on insiste, persiste Micro en main ou balle au pied, la même fils Mars, mix de cultures, de races pour le futur Mars, prise pour raclure, à l'usure on sature Une ossature large, aux armes Du rire aux larmes mais on est comme ça On s'enflamme même si on rame, c'est Mars dans la peau, Mars dans l'âme Mars des HLM jusqu'en haut d'la Garde Mars sur la carte du rap Mars représentée comme il se doit quand les autres nous lâchent Mais c'est loin d'être dead Y a l'habitude de ne pas recevoir d'aides Ici c'est la démerde et la mer, sa mère Sors de mon territoire, rien qu'on nous casse Mais les chiens aboient et la caravane passe On est en place, reste tenace Fume la vie, essuie des claques, du bif, du taf En vrac, faut brasser des liasses mec On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma gauche à ma droite c'est XXX Quand j'dis d'où j'viens, où j'tiens On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma droite à ma gauche c'est XXX Quand j'dis d'où j'viens, où j'tiens On est Olympique, l'accent qui défie les gens Un poil arrogant, des slogans affolants qui te rentrent dedans On reste méfiants, fiers On gagne même des fois qu'on perd Et on vocifère qu'on va s'refaire La crise, OK, on la connaît On va pas se voiler la face, le soleil l'a pas enlevée ni donnée On est tous dans le même bateau mais manque de place Ça fait des aigris, des conflits, des marques dans l'dos Mais bon, c'est l'jeu c'est la vie Et pour gratter un peu d'espoir, on est tous derrière notre équipe On vit le foot, le sang chaud, on n'est pas manchots T'es pas à El Paso, le Vélodrome jamais désert gros Je vais pas te faire l'apologie de nos défauts T'façon on n'en a pas, j'rigole, j'suis pas un mytho À l'extérieur, mes potos diront d'moi Que je suis de mauvaise foi, mais on se refait pas ma foi On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma gauche à ma droite c'est XXX Quand j'dis d'où j'viens, où j'tiens On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma droite à ma gauche c'est XXX Quand j'dis d'où j'viens, où j'tiens Ici c'est comme ça et pas autrement, tu referas pas la ville, mec La plage, le soleil, les gonzes, les grands pecs Mais quand faut y aller on y va Prêts pour la ston-ba, nos adversaires y aura garre-ba On est comme ça t'entends ça mec? C'est Mars dans la peau Et on est là, ma foi À ma gauche à ma droite c'est XXX Quand j'dis d'où j'viens, où j'tiens On est comme ça sur l'terrain ou au mic C'est Mars dans la peau on a la rage mec Et on est là, ma foi et tu l'sais À ma droite à ma gauche c'est XXX Quand j'dis d'où j'viens, où j'tiens Peace!</t>
+          <t>On est comme ça C'est Mars dans la peau, et on y va, ma foi Alors Faf, qu'est-ce qui s'passe là, y a du nouveau ou quoi, y a du nouveau? Eh ouais, y a du neuf là J'suis sur l'morceau sur Marseille Mars dans la peau Mars dans la peau? C'est nouveau ça, vas-y fais écouter, fais écouter Prêt à monter l'son là? Envoie la sauce, mec On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma gauche à ma droite c'est XXX Quand j'dis d'où j'viens, où j'tiens On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma droite à ma gauche c'est XXX Quand j'dis d'où j'viens, où j'tiens Marque la carte dans l'Sud, Treize, Marseille, c'est là qu'on vit Pour ça on nous hait ou on nous envie L'état d'esprit est ancré depuis des décennies On s'y est fait des ennemis, les murs y respirent encore l'agonie En ville, t'hallucines, mayday la hass est vive À chaque élection on chie, mais bon on s'active Fuck les fascistes, on peut pas le nier Fuck qu'il y en ait dans l'ombre, ça craint mais on résiste Black, ma couleur dans la gueule de tous les racistes Black, mon rap, black, mon blaze, black, ces nazes Braque les yeux sur le stade, ça existe Ça aide fils, à piger c'qui s'passe ici Sea, sex and fun, on n'est pas à Beverly Hills Mais on sait rire et vaut mieux, sinon on lâche prise À travers des rimes ou en club, on s'exprime tout haut Poto sois le bienvenu si tu nous prends pas de haut On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma gauche à ma droite c'est XXX Quand j'dis d'où j'viens, où j'tiens On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma droite à ma gauche c'est XXX Quand j'dis d'où j'viens, où j'tiens On sait qu'on a nos rêves à l'écart alors on insiste, persiste Micro en main ou balle au pied, la même fils Mars, mix de cultures, de races pour le futur Mars, prise pour raclure, à l'usure on sature Une ossature large, aux armes Du rire aux larmes mais on est comme ça On s'enflamme même si on rame, c'est Mars dans la peau, Mars dans l'âme Mars des HLM jusqu'en haut d'la Garde Mars sur la carte du rap Mars représentée comme il se doit quand les autres nous lâchent Mais c'est loin d'être dead Y a l'habitude de ne pas recevoir d'aides Ici c'est la démerde et la mer, sa mère Sors de mon territoire, rien qu'on nous casse Mais les chiens aboient et la caravane passe On est en place, reste tenace Fume la vie, essuie des claques, du bif, du taf En vrac, faut brasser des liasses mec On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma gauche à ma droite c'est XXX Quand j'dis d'où j'viens, où j'tiens On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma droite à ma gauche c'est XXX Quand j'dis d'où j'viens, où j'tiens On est Olympique, l'accent qui défie les gens Un poil arrogant, des slogans affolants qui te rentrent dedans On reste méfiants, fiers On gagne même des fois qu'on perd Et on vocifère qu'on va s'refaire La crise, OK, on la connaît On va pas se voiler la face, le soleil l'a pas enlevée ni donnée On est tous dans le même bateau mais manque de place Ça fait des aigris, des conflits, des marques dans l'dos Mais bon, c'est l'jeu c'est la vie Et pour gratter un peu d'espoir, on est tous derrière notre équipe On vit le foot, le sang chaud, on n'est pas manchots T'es pas à El Paso, le Vélodrome jamais désert gros Je vais pas te faire l'apologie de nos défauts T'façon on n'en a pas, j'rigole, j'suis pas un mytho À l'extérieur, mes potos diront d'moi Que je suis de mauvaise foi, mais on se refait pas ma foi On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma gauche à ma droite c'est XXX Quand j'dis d'où j'viens, où j'tiens On est comme ça C'est Mars dans la peau Et on est là, ma foi À ma droite à ma gauche c'est XXX Quand j'dis d'où j'viens, où j'tiens Ici c'est comme ça et pas autrement, tu referas pas la ville, mec La plage, le soleil, les gonzes, les grands pecs Mais quand faut y aller on y va Prêts pour la ston-ba, nos adversaires y aura garre-ba On est comme ça t'entends ça mec? C'est Mars dans la peau Et on est là, ma foi À ma gauche à ma droite c'est XXX Quand j'dis d'où j'viens, où j'tiens On est comme ça sur l'terrain ou au mic C'est Mars dans la peau on a la rage mec Et on est là, ma foi et tu l'sais À ma droite à ma gauche c'est XXX Quand j'dis d'où j'viens, où j'tiens Peace!</t>
         </is>
       </c>
     </row>
@@ -2214,7 +2214,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Si t'as rien à dire, reste à la maison Élève des pigeons, chante leur des chansons Si tu sais pas écrire, brûle ton Stabylo Vends des chamallows, mais laisse-nous le micro Hey fais tourner que je fasse ma thune Et si ça passe pas t'inquiète pas j'assume B.Boy à fond depuis Run D.M.C. c'est ça Même si j'ai pas d'Adidas Faf Larage et Shurik'N La rue ou la scène on est les mêmes pa ni problem Le rap est ouvert vrai mais faudrait pas abuser Mc t'es à chier, grillé rien à écrire et Si tu m'cherches fils je t'achève sans machette clash le chef Un H.F., des phases sèches, c'est pas ton truc fils ! Si ton seul but c'est de faire de la thune fils ! Étudie la bourse au lieu de chercher des tubes fils ! Quand on me dit on le pense, vous le dites c'est chaleureux Faut rendre un minimum de choses pour rester dans ce milieu Tu fais le hargneux mais y'a rien dans tes cahiers c'est brumeux Combien avant toi ont testé aujourd'hui sont silencieux Tu m'as gonflé mec ! J'te parle en tant que public T'es foutu mec, T'es foutu mec Répète pour pas que t'en perdes une miette Si tu salis mon art faut bien que je te reprenne sévère You might also like Si t'as rien à dire, reste à la maison Élève des pigeons, chante leur des chansons Si tu sais pas écrire, brûle ton Stabylo Vends des chamallows, mais laisse-nous le micro Si ça me gonfle au bout de cinq minutes leurs rimes moins lourdes que l'hélium Peut-être suis-je un MC trop dur le fond vaut plus que la forme MC old school c'est clair par passion et par contrat Ça je l'ai déjà dit une fois jamais je trahirais mes pairs Trop grand est le privilège trop vicieux sont les pièges Trop de MC sacrilège saccage mon paysage Des mecs qu'ont rien à dire qu' on entend le plus souvent C'est vide à en frémir pour eux c'est pas ça l'important MC enragés depuis le début La Garde cauchemar des vendus La Garde toujours à l'affût foire tu finis au rebut J'ai pas 3 minutes 30 à perdre ni d'oreille pour tes fables À chaque fois je perds mon temps et c'est tout ce que j'y gagne MC si t'as rien à dire c'est que t'as rien à foutre ici Faut que tu choisisses vite ton camp y'a pas de place pour l'indécis Je dois trop à ceux qui m'écoutent pour débiter des conneries Ni mêmes supporter les tiennes c'est pourquoi je sévis Au nom de ceux qui suent sans cesse au taffe jusqu'au fond de la nuit Penchés sur une feuille tasse après tasse pour ça faut que tu stoppes le RAP Quand je donne c'est toujours à fond, j'écris je pars en campagne Mc si t'es pas costaud reste à tes verres de champagne Si t'as rien à dire, reste à la maison Élève des pigeons, chante leur des chansons Si tu sais pas écrire, brûle ton Stabylo Vends des chamallows, mais laisse-nous le micro Y'a beaucoup trop de choses à dire pour que tu cultives le non-sens Trop de gens pris dans la nasse qui attendent que tu y penses Comprends que tes phrases rassies arrivent comme des offenses À la face même de ceux qui t'ont offert ta chance Danse avec les lourds MC vide tes calembours insipides Y'a que ta basse-cour qui les pite au moins pour les sourds c' est limpide T'inventes pas une vie de Zorro les MCs comme nous sont légions J'entends sonner le clairon c'est le crépuscule des zéros Pour ceux qui y croient t'es une trahison un barreau de prison Un flow de mensonges une illusion dont le temps aura raison Fais des morceaux club on danse pas fais des morceaux caillera Mec ça s'entend trop que tu les ressens pas T'as rien à dire, rien à m'apprendre et rien à me communiquer Hormis le chemin où je dois pas m'aventurer tu le sais Variét' bidon ou underground pourri c'est quoi La différence ? Je suis ni l'un ni l'autre et toi ?! Si t'as rien à dire, reste à la maison Élève des pigeons, chante leur des chansons Si tu sais pas écrire, brûle ton Stabylo Vends des chamallows, mais laisse-nous le micro</t>
+          <t>Si t'as rien à dire, reste à la maison Élève des pigeons, chante leur des chansons Si tu sais pas écrire, brûle ton Stabylo Vends des chamallows, mais laisse-nous le micro Hey fais tourner que je fasse ma thune Et si ça passe pas t'inquiète pas j'assume B.Boy à fond depuis Run D.M.C. c'est ça Même si j'ai pas d'Adidas Faf Larage et Shurik'N La rue ou la scène on est les mêmes pa ni problem Le rap est ouvert vrai mais faudrait pas abuser Mc t'es à chier, grillé rien à écrire et Si tu m'cherches fils je t'achève sans machette clash le chef Un H.F., des phases sèches, c'est pas ton truc fils ! Si ton seul but c'est de faire de la thune fils ! Étudie la bourse au lieu de chercher des tubes fils ! Quand on me dit on le pense, vous le dites c'est chaleureux Faut rendre un minimum de choses pour rester dans ce milieu Tu fais le hargneux mais y'a rien dans tes cahiers c'est brumeux Combien avant toi ont testé aujourd'hui sont silencieux Tu m'as gonflé mec ! J'te parle en tant que public T'es foutu mec, T'es foutu mec Répète pour pas que t'en perdes une miette Si tu salis mon art faut bien que je te reprenne sévère Si t'as rien à dire, reste à la maison Élève des pigeons, chante leur des chansons Si tu sais pas écrire, brûle ton Stabylo Vends des chamallows, mais laisse-nous le micro Si ça me gonfle au bout de cinq minutes leurs rimes moins lourdes que l'hélium Peut-être suis-je un MC trop dur le fond vaut plus que la forme MC old school c'est clair par passion et par contrat Ça je l'ai déjà dit une fois jamais je trahirais mes pairs Trop grand est le privilège trop vicieux sont les pièges Trop de MC sacrilège saccage mon paysage Des mecs qu'ont rien à dire qu' on entend le plus souvent C'est vide à en frémir pour eux c'est pas ça l'important MC enragés depuis le début La Garde cauchemar des vendus La Garde toujours à l'affût foire tu finis au rebut J'ai pas 3 minutes 30 à perdre ni d'oreille pour tes fables À chaque fois je perds mon temps et c'est tout ce que j'y gagne MC si t'as rien à dire c'est que t'as rien à foutre ici Faut que tu choisisses vite ton camp y'a pas de place pour l'indécis Je dois trop à ceux qui m'écoutent pour débiter des conneries Ni mêmes supporter les tiennes c'est pourquoi je sévis Au nom de ceux qui suent sans cesse au taffe jusqu'au fond de la nuit Penchés sur une feuille tasse après tasse pour ça faut que tu stoppes le RAP Quand je donne c'est toujours à fond, j'écris je pars en campagne Mc si t'es pas costaud reste à tes verres de champagne Si t'as rien à dire, reste à la maison Élève des pigeons, chante leur des chansons Si tu sais pas écrire, brûle ton Stabylo Vends des chamallows, mais laisse-nous le micro Y'a beaucoup trop de choses à dire pour que tu cultives le non-sens Trop de gens pris dans la nasse qui attendent que tu y penses Comprends que tes phrases rassies arrivent comme des offenses À la face même de ceux qui t'ont offert ta chance Danse avec les lourds MC vide tes calembours insipides Y'a que ta basse-cour qui les pite au moins pour les sourds c' est limpide T'inventes pas une vie de Zorro les MCs comme nous sont légions J'entends sonner le clairon c'est le crépuscule des zéros Pour ceux qui y croient t'es une trahison un barreau de prison Un flow de mensonges une illusion dont le temps aura raison Fais des morceaux club on danse pas fais des morceaux caillera Mec ça s'entend trop que tu les ressens pas T'as rien à dire, rien à m'apprendre et rien à me communiquer Hormis le chemin où je dois pas m'aventurer tu le sais Variét' bidon ou underground pourri c'est quoi La différence ? Je suis ni l'un ni l'autre et toi ?! Si t'as rien à dire, reste à la maison Élève des pigeons, chante leur des chansons Si tu sais pas écrire, brûle ton Stabylo Vends des chamallows, mais laisse-nous le micro</t>
         </is>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Ouais, ouais, ahh Mais pour qui tu t'prend ? Tu crois que tu peux asseoir la morale à ta table Et négocier avec le diable ? Nan Mea... L'Homme avec un grand H Mea... , L'Histoire avec un grand H Mea... Et la Mort avec un grand M Il serait temps, il serait temps de faire ton... Mea Culpa trop de paradoxes Mea Culpa fixer les limites Mea Culpa chercher l'absolution Mea Culpa l'ultime Solution Mea Culpa Ton Mea Culpa Tu pleure pendant la garde ???? La misére chauffe l'hivers mais tu l'oublieras dès l'été C'est vrai que t'es moins sévère que dans tes première journées Mais si tu reste si bien, tu risque bien d'y retourner Démocrate ou dictateur à l'ego démesuré A jouer le sprinter, tu finiras par t'épuiser Entrainer tes propres souffrances, l'âme par toi-même aiguisée Si tu ne sais pas prendre le temps, tu finiras par l'épuiser Tu le Sais... You might also like Mea Culpa trop de paradoxes Mea Culpa fixer les limites Mea Culpa chercher l'absolution Mea Culpa trop de paradoxes Mea Culpa fixer les limites Mea Culpa l'ultime Solution Mea Culpa Ton Mea Culpa Si le jeu en vaut la chandelle, ça te regarde Entre divinité et démon, tu le sais, prends garde, souvent, t'es déçu La plaidoirie d'un homme de loi du mal t'as bercé, poussé à l'excès Créé tes propres malheurs pour les corriger Va jusqu'a te faire souffrir pour pouvoir te soigner Ce voile sur tes yeux est cousu de tes mains, t'y voir pas Et tes visions qui gémirent l'orchestre et ta faim, t'y crois pas Mais qui est tu... pour briser l'équilibre ? Clamer être le maître des lieux c'est stupide Ne joue plus avec le feu même s'il gèle dehors La fourche peut se fendre dans bien des décors Mea Culpa, Mea Culpa, Mea Culpa... Mea Culpa, Mea Culpa... Trops de choses dans ce néant Auxquelles se raccrocher Trop de choses et trops de gens Que le temps fait changer L'innocence envolée Tu causes au plus offrant Tu parsèmes tes vérités Mais tout n'est que vent Mea Culpa, Mea Culpa, Mea Culpa, Mea Culpa... Mea... Mea Culpa chercher l'absolution Mea Culpa trop de paradoxes Mea Culpa fixer les limites Mea Culpa l'ultime Solution Mea Culpa Ton Mea Culpa Mea Culpa, Mea Culpa, Mea Culpa, Mea Culpa, Mea Culpa...</t>
+          <t>Ouais, ouais, ahh Mais pour qui tu t'prend ? Tu crois que tu peux asseoir la morale à ta table Et négocier avec le diable ? Nan Mea... L'Homme avec un grand H Mea... , L'Histoire avec un grand H Mea... Et la Mort avec un grand M Il serait temps, il serait temps de faire ton... Mea Culpa trop de paradoxes Mea Culpa fixer les limites Mea Culpa chercher l'absolution Mea Culpa l'ultime Solution Mea Culpa Ton Mea Culpa Tu pleure pendant la garde ???? La misére chauffe l'hivers mais tu l'oublieras dès l'été C'est vrai que t'es moins sévère que dans tes première journées Mais si tu reste si bien, tu risque bien d'y retourner Démocrate ou dictateur à l'ego démesuré A jouer le sprinter, tu finiras par t'épuiser Entrainer tes propres souffrances, l'âme par toi-même aiguisée Si tu ne sais pas prendre le temps, tu finiras par l'épuiser Tu le Sais... Mea Culpa trop de paradoxes Mea Culpa fixer les limites Mea Culpa chercher l'absolution Mea Culpa trop de paradoxes Mea Culpa fixer les limites Mea Culpa l'ultime Solution Mea Culpa Ton Mea Culpa Si le jeu en vaut la chandelle, ça te regarde Entre divinité et démon, tu le sais, prends garde, souvent, t'es déçu La plaidoirie d'un homme de loi du mal t'as bercé, poussé à l'excès Créé tes propres malheurs pour les corriger Va jusqu'a te faire souffrir pour pouvoir te soigner Ce voile sur tes yeux est cousu de tes mains, t'y voir pas Et tes visions qui gémirent l'orchestre et ta faim, t'y crois pas Mais qui est tu... pour briser l'équilibre ? Clamer être le maître des lieux c'est stupide Ne joue plus avec le feu même s'il gèle dehors La fourche peut se fendre dans bien des décors Mea Culpa, Mea Culpa, Mea Culpa... Mea Culpa, Mea Culpa... Trops de choses dans ce néant Auxquelles se raccrocher Trop de choses et trops de gens Que le temps fait changer L'innocence envolée Tu causes au plus offrant Tu parsèmes tes vérités Mais tout n'est que vent Mea Culpa, Mea Culpa, Mea Culpa, Mea Culpa... Mea... Mea Culpa chercher l'absolution Mea Culpa trop de paradoxes Mea Culpa fixer les limites Mea Culpa l'ultime Solution Mea Culpa Ton Mea Culpa Mea Culpa, Mea Culpa, Mea Culpa, Mea Culpa, Mea Culpa...</t>
         </is>
       </c>
     </row>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>On vit dans lillusion, le faux, faut sméfier On vit dans le mal et la haine, faut sméfier Faut sméfier de tout, faut sméfier Faut sméfier Alors mefi Alors jme méfie, mefi, parce que le décor autour de moi est flou Alors jme méfie, mefi, parce que les gens sont trop hypocrites Mefi parce que la vie est hardcore et on la subit Les gens changent en fonction du vent, de leurs soucis Ils sméfient eux aussi parce quon a tous envie dréussir Mefi, jme méfie quand tu dis que cque jfais cest dla merde Tu kiffes pas ma musique, mefi Jme méfie de cque jentends des uns des autres Des ragots, des on-dit Des histoires pour rien qui ruinent des vies Mefi, jme méfie, je vis pas à travers autrui On vit dans lillusion, le faux, faut sméfier On vit dans le mal et la haine, faut sméfier Faut sméfier de tout, faut sméfier Faut sméfier Alors Mefi You might also like Mefi de celui, toujours de ton avis, trop gentil du genre jcasse mes vices Il tcasse dès qutes parti Mefi, jme méfie de ceux qui mjugent trop vite Jpréfère me méfier et ensuite donner mon respect Faut sméfier, on sait plus à qui sfier La trahison rôde en bas dmon quartier, faut sméfier Mefi, jme méfie de ceux qui prétendent connaître ma famille Merde, tes qui fils, Mefi Quand tu dis trop vite que cque jfais cest de la tuerie Boucherie, même si cest vrai jme méfie Sauf si tes un ami, un homie à qui Jai donné ma confiance, sache que je me méfie Parano pt-être oui, vaut mieux que naïf Cest un principe, que tu sois dici ou du Wisconsin Mefi, jme méfie du succès Car ce qui monte doit redescendre donc je prie pour être épargné On vit dans lillusion, le faux, faut sméfier On vit dans le mal et la haine, faut sméfier Faut sméfier de tout, faut sméfier Faut sméfier Alors Méfi Mefi, même de moi-même De mon côté sombre qui menfonce quand je me trouve dans la merde Malaise, mefi du mal-être Des lois malhonnêtes, du malin Là dans un coin à malmener mes lettres Mefi, jme méfie de tout cque jdis, à qui je le dis De tout cque jsigne, de tout cque jlis Mefi du petit écran, les infos Jaime avoir plusieurs avis, trop dmensonges aujourdhui Mefi, Mefi de leuro Quand jen ai vingt, cest pas des francs Quand jen ai cent, même pas je bande Mefi, fils mefi, quand tu mentends, je sais qutu le sens Pire que lencens, mon son saigne tes cinq sens Mefi, jme méfie du G8, les vrais G cest eux Mefi de leur stratégie, leur magie, leur technologie, leur psychologie Mefi dces logiques quand tu vois cquon vit, mefi!</t>
+          <t>On vit dans lillusion, le faux, faut sméfier On vit dans le mal et la haine, faut sméfier Faut sméfier de tout, faut sméfier Faut sméfier Alors mefi Alors jme méfie, mefi, parce que le décor autour de moi est flou Alors jme méfie, mefi, parce que les gens sont trop hypocrites Mefi parce que la vie est hardcore et on la subit Les gens changent en fonction du vent, de leurs soucis Ils sméfient eux aussi parce quon a tous envie dréussir Mefi, jme méfie quand tu dis que cque jfais cest dla merde Tu kiffes pas ma musique, mefi Jme méfie de cque jentends des uns des autres Des ragots, des on-dit Des histoires pour rien qui ruinent des vies Mefi, jme méfie, je vis pas à travers autrui On vit dans lillusion, le faux, faut sméfier On vit dans le mal et la haine, faut sméfier Faut sméfier de tout, faut sméfier Faut sméfier Alors Mefi Mefi de celui, toujours de ton avis, trop gentil du genre jcasse mes vices Il tcasse dès qutes parti Mefi, jme méfie de ceux qui mjugent trop vite Jpréfère me méfier et ensuite donner mon respect Faut sméfier, on sait plus à qui sfier La trahison rôde en bas dmon quartier, faut sméfier Mefi, jme méfie de ceux qui prétendent connaître ma famille Merde, tes qui fils, Mefi Quand tu dis trop vite que cque jfais cest de la tuerie Boucherie, même si cest vrai jme méfie Sauf si tes un ami, un homie à qui Jai donné ma confiance, sache que je me méfie Parano pt-être oui, vaut mieux que naïf Cest un principe, que tu sois dici ou du Wisconsin Mefi, jme méfie du succès Car ce qui monte doit redescendre donc je prie pour être épargné On vit dans lillusion, le faux, faut sméfier On vit dans le mal et la haine, faut sméfier Faut sméfier de tout, faut sméfier Faut sméfier Alors Méfi Mefi, même de moi-même De mon côté sombre qui menfonce quand je me trouve dans la merde Malaise, mefi du mal-être Des lois malhonnêtes, du malin Là dans un coin à malmener mes lettres Mefi, jme méfie de tout cque jdis, à qui je le dis De tout cque jsigne, de tout cque jlis Mefi du petit écran, les infos Jaime avoir plusieurs avis, trop dmensonges aujourdhui Mefi, Mefi de leuro Quand jen ai vingt, cest pas des francs Quand jen ai cent, même pas je bande Mefi, fils mefi, quand tu mentends, je sais qutu le sens Pire que lencens, mon son saigne tes cinq sens Mefi, jme méfie du G8, les vrais G cest eux Mefi de leur stratégie, leur magie, leur technologie, leur psychologie Mefi dces logiques quand tu vois cquon vit, mefi!</t>
         </is>
       </c>
     </row>
@@ -2265,7 +2265,7 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>5, 4, 3, 2, 1.. Bonne année ! Donne-moi de bonnes résolutions pour le nouveau millénaire Donne-moi une bonne raison de fêter ce nouveau millénaire Il y en a pour les jeunes Pour les vieux Pour les hommes Pour les femmes Les carottes de l'an 2000 se vendent comme la bonne came Pour les forts Pour les faibles Pas de changement dans les règles Juste un décompte bidon berçant de fausses illusions Vas-y ce soir c'est kissman J'ai trouvé un costard 3 pièces Ça fait goleri mes potes Tout à l'heure ça faisait frais Mais l'ivresse Ma maîtresse me tape les mêmes Phases que l'week-end dernier Et toi tu viens me demander Si ça a changé C'est ça santé ! Eclate toi Hein contradictoire d'un point de vue net Ballonne tes poumons, ton foie On est là santé hum ... je t'aime Merci d'être là L'année va être chargée faut que j'laisse du neuf para a familia You might also like J'avoue que je suis rabat-joie mais putain je pose un abat-jour Si tu as eu une idée lumière du genre et si on s'aimait pour toujours Il n'y a qu'un soir par an que la paix embrase les foules Comme par hasard il n'y a que ce soir que les saints embrassent les fous Disiz pour ce qui est de mes décisions Fais pas comme ces idiots, parle pas de résolutions L'an 2000 pour moi c'est comme un lundi le nouveau millénaire Pas besoin d'une date pour parler de paix ça m'a mis les nerfs Fin de siècle Y a pas de mystère Feuille blanche tout à refaire Les pièges restent les mêmes Dans ce nouveau millénaire x2 Donne-moi de bonnes résolutions pour le nouveau millénaire Donne-moi une bonne raison de fêter ce nouveau millénaire Aujourd'hui notre bonheur c'est quoi ? Détenir un bien qui n'appartient qu'à soit Posséder ce que l'autre n'a pas Toujours obsédé par ces mêmes rêves sans joie Mais pourquoi ? Où est-ce qu'on va ? On veut la paix, l'amour, l'amitié, l'égalité, la santé Ouais ma santé, ma thune Ma gueule et les autres on verra Fais pas le faux c'est c'que tu t'dis au fond d'toi Egoïste mais s'il faut être optimiste je peux Si j'picole j'crois que le monde ira mieux C'est c'que j'veux mais y a rien qui change au 31 A base de cotillons à 2 balles essaierai d'faire bien J'veux croire que dans un excès La scène m'appelle déjà mais La mer en moi c'est levée J'ai dû me délaisser</t>
+          <t>5, 4, 3, 2, 1.. Bonne année ! Donne-moi de bonnes résolutions pour le nouveau millénaire Donne-moi une bonne raison de fêter ce nouveau millénaire Il y en a pour les jeunes Pour les vieux Pour les hommes Pour les femmes Les carottes de l'an 2000 se vendent comme la bonne came Pour les forts Pour les faibles Pas de changement dans les règles Juste un décompte bidon berçant de fausses illusions Vas-y ce soir c'est kissman J'ai trouvé un costard 3 pièces Ça fait goleri mes potes Tout à l'heure ça faisait frais Mais l'ivresse Ma maîtresse me tape les mêmes Phases que l'week-end dernier Et toi tu viens me demander Si ça a changé C'est ça santé ! Eclate toi Hein contradictoire d'un point de vue net Ballonne tes poumons, ton foie On est là santé hum ... je t'aime Merci d'être là L'année va être chargée faut que j'laisse du neuf para a familia J'avoue que je suis rabat-joie mais putain je pose un abat-jour Si tu as eu une idée lumière du genre et si on s'aimait pour toujours Il n'y a qu'un soir par an que la paix embrase les foules Comme par hasard il n'y a que ce soir que les saints embrassent les fous Disiz pour ce qui est de mes décisions Fais pas comme ces idiots, parle pas de résolutions L'an 2000 pour moi c'est comme un lundi le nouveau millénaire Pas besoin d'une date pour parler de paix ça m'a mis les nerfs Fin de siècle Y a pas de mystère Feuille blanche tout à refaire Les pièges restent les mêmes Dans ce nouveau millénaire x2 Donne-moi de bonnes résolutions pour le nouveau millénaire Donne-moi une bonne raison de fêter ce nouveau millénaire Aujourd'hui notre bonheur c'est quoi ? Détenir un bien qui n'appartient qu'à soit Posséder ce que l'autre n'a pas Toujours obsédé par ces mêmes rêves sans joie Mais pourquoi ? Où est-ce qu'on va ? On veut la paix, l'amour, l'amitié, l'égalité, la santé Ouais ma santé, ma thune Ma gueule et les autres on verra Fais pas le faux c'est c'que tu t'dis au fond d'toi Egoïste mais s'il faut être optimiste je peux Si j'picole j'crois que le monde ira mieux C'est c'que j'veux mais y a rien qui change au 31 A base de cotillons à 2 balles essaierai d'faire bien J'veux croire que dans un excès La scène m'appelle déjà mais La mer en moi c'est levée J'ai dû me délaisser</t>
         </is>
       </c>
     </row>
@@ -2282,7 +2282,7 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>5, 4, 3, 2, 1.. Bonne année ! Donne-moi de bonnes résolutions pour le nouveau millénaire Donne-moi une bonne raison de fêter ce nouveau millénaire Il y en a pour les jeunes Pour les vieux Pour les hommes Pour les femmes Les carottes de l'an 2000 se vendent comme la bonne came Pour les forts Pour les faibles Pas de changement dans les règles Juste un décompte bidon berçant de fausses illusions Vas-y ce soir c'est kissman J'ai trouvé un costard 3 pièces Ça fait goleri mes potes Tout à l'heure ça faisait frais Mais l'ivresse Ma maîtresse me tape les mêmes Phases que l'week-end dernier Et toi tu viens me demander Si ça a changé C'est ça santé ! Eclate toi Hein contradictoire d'un point de vue net Ballonne tes poumons, ton foie On est là santé hum ... je t'aime Merci d'être là L'année va être chargée faut que j'laisse du neuf para a familia You might also like J'avoue que je suis rabat-joie mais putain je pose un abat-jour Si tu as eu une idée lumière du genre et si on s'aimait pour toujours Il n'y a qu'un soir par an que la paix embrase les foules Comme par hasard il n'y a que ce soir que les saints embrassent les fous Disiz pour ce qui est de mes décisions Fais pas comme ces idiots, parle pas de résolutions L'an 2000 pour moi c'est comme un lundi le nouveau millénaire Pas besoin d'une date pour parler de paix ça m'a mis les nerfs Fin de siècle Y a pas de mystère Feuille blanche tout à refaire Les pièges restent les mêmes Dans ce nouveau millénaire x2 Donne-moi de bonnes résolutions pour le nouveau millénaire Donne-moi une bonne raison de fêter ce nouveau millénaire Aujourd'hui notre bonheur c'est quoi ? Détenir un bien qui n'appartient qu'à soit Posséder ce que l'autre n'a pas Toujours obsédé par ces mêmes rêves sans joie Mais pourquoi ? Où est-ce qu'on va ? On veut la paix, l'amour, l'amitié, l'égalité, la santé Ouais ma santé, ma thune Ma gueule et les autres on verra Fais pas le faux c'est c'que tu t'dis au fond d'toi Egoïste mais s'il faut être optimiste je peux Si j'picole j'crois que le monde ira mieux C'est c'que j'veux mais y a rien qui change au 31 A base de cotillons à 2 balles essaierai d'faire bien J'veux croire que dans un excès La scène m'appelle déjà mais La mer en moi c'est levée J'ai dû me délaisser</t>
+          <t>5, 4, 3, 2, 1.. Bonne année ! Donne-moi de bonnes résolutions pour le nouveau millénaire Donne-moi une bonne raison de fêter ce nouveau millénaire Il y en a pour les jeunes Pour les vieux Pour les hommes Pour les femmes Les carottes de l'an 2000 se vendent comme la bonne came Pour les forts Pour les faibles Pas de changement dans les règles Juste un décompte bidon berçant de fausses illusions Vas-y ce soir c'est kissman J'ai trouvé un costard 3 pièces Ça fait goleri mes potes Tout à l'heure ça faisait frais Mais l'ivresse Ma maîtresse me tape les mêmes Phases que l'week-end dernier Et toi tu viens me demander Si ça a changé C'est ça santé ! Eclate toi Hein contradictoire d'un point de vue net Ballonne tes poumons, ton foie On est là santé hum ... je t'aime Merci d'être là L'année va être chargée faut que j'laisse du neuf para a familia J'avoue que je suis rabat-joie mais putain je pose un abat-jour Si tu as eu une idée lumière du genre et si on s'aimait pour toujours Il n'y a qu'un soir par an que la paix embrase les foules Comme par hasard il n'y a que ce soir que les saints embrassent les fous Disiz pour ce qui est de mes décisions Fais pas comme ces idiots, parle pas de résolutions L'an 2000 pour moi c'est comme un lundi le nouveau millénaire Pas besoin d'une date pour parler de paix ça m'a mis les nerfs Fin de siècle Y a pas de mystère Feuille blanche tout à refaire Les pièges restent les mêmes Dans ce nouveau millénaire x2 Donne-moi de bonnes résolutions pour le nouveau millénaire Donne-moi une bonne raison de fêter ce nouveau millénaire Aujourd'hui notre bonheur c'est quoi ? Détenir un bien qui n'appartient qu'à soit Posséder ce que l'autre n'a pas Toujours obsédé par ces mêmes rêves sans joie Mais pourquoi ? Où est-ce qu'on va ? On veut la paix, l'amour, l'amitié, l'égalité, la santé Ouais ma santé, ma thune Ma gueule et les autres on verra Fais pas le faux c'est c'que tu t'dis au fond d'toi Egoïste mais s'il faut être optimiste je peux Si j'picole j'crois que le monde ira mieux C'est c'que j'veux mais y a rien qui change au 31 A base de cotillons à 2 balles essaierai d'faire bien J'veux croire que dans un excès La scène m'appelle déjà mais La mer en moi c'est levée J'ai dû me délaisser</t>
         </is>
       </c>
     </row>
@@ -2299,7 +2299,7 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>On veut tous être millionnaire, et tu le sais On veut tous être millionnaire Pété de tunes demande autour de toi si jexagère On veut tous être millionnaire, yeah yeah On veut tous lêtre, on veut tous être millionnaire On veut tous être millionnaire Rien à foutre de leurs lois et de leurs commentaires On veut tous être millionnaire, yeah yeah On veut tous lêtre On veut tous être millionnaire Pétés de tunes demande autour de toi si jexagère Rien à foutre de leurs lois et de leurs commentaires On veut croquer nous aussi sans jouer les faussaires Pourquoi tu crois que les mêmes kiffent les gangsters Cest lappât du cash pas de mystère Rectifie, jai dit quoi millionnaire ? Mais si y a moyen on est partant pour milliardaire Fuck lenfer dêtre pauvre si tas souffert Pète sa gueule à un diamantaire Baiser les instances judiciaires Arroser nos repas de liasses pour dessert You might also like On veut tous être millionnaire Pété de tunes demande autour de toi si jexagère On veut tous être millionnaire, yeah yeah On veut tous lêtre, on veut tous être millionnaire On veut tous être millionnaire Rien à foutre de leurs lois et de leurs commentaires On veut tous être millionnaire, yeah yeah On veut tous lêtre On veut tous être millionnaire Pétés de tunes demande autour de toi si jexagère Rien à foutre de leurs lois et de leurs commentaires Faut consommer, faut faire rêver, cest vu à la télé Ça fait des jeunes qui veulent se prendre pour des célébrités Sans moyen cest chaud et va leur expliquer Quil y a un taux déchec trop élevé Cest les mentalités tout gratis Menfler, mrenflouer, manger comme Onassis Men vais macheter un Gauguin ou un Matisse Men fous si jy pige rien cest tout pour le kif Nous en veux pas on veut faire du chiffre Mettre une gifle aux gâteux de riches et faire du bénéfice Millionnaire, ouais ça sonne sa mère Même Bronson et Spielberg mont viré trop vénères On veut tous lêtre, les jeunes, les vieux et les vieilles Savent plus où se mettre, y a trop de galères Y a plus de révolutionnaires, que des mercenaires Veux pas être un pensionnaire mais le taulier qui gère laffaire On veut tous être millionnaire Pété de tunes demande autour de toi si jexagère On veut tous être millionnaire, yeah yeah On veut tous lêtre, on veut tous être millionnaire On veut tous être millionnaire Rien à foutre de leurs lois et de leurs commentaires On veut tous être millionnaire, yeah yeah On veut tous lêtre On veut tous être millionnaire Pétés de tunes demande autour de toi si jexagère Rien à foutre de leurs lois et de leurs commentaires Si tu les gênes certains hésitent pas à couper des têtes Sûr ils iront en enfer mais en Jet et Faut pas oublier que ce monde veut nous bouffer Prêt à nous liquider si tas pas de billets Alors comment on fait maître? Eux les millionnaires ils se font jamais mettre Foutre le dawa et les regarder se taire Arroser les assos humanitaires Y en a qui vendent des armes, y en a qui vendent de lherbe Y en a qui vendraient leur chair, y en a qui tuent pour lhéritage du grand-père Ces combines, non, pas mon style Mais fais-moi péter un loto ça jy serais pas hostile Fini les humiliations et les comptes en banque vides Banco la roue tourne dis-nous où on signe Pour mettre la famille à labri Pendant plusieurs générations, tu msuis Et on veut faire les mécènes sans que ça nous coûte un kopeck On veut tous rendre nos rêves réels Pour ça y a trop de volontaires Et alors on se crève à la tâche, on veut jouer mais pas perdre On veut tous être millionnaire Pété de tunes demande autour de toi si jexagère On veut tous être millionnaire, yeah yeah On veut tous lêtre, on veut tous être millionnaire On veut tous être millionnaire Rien à foutre de leurs lois et de leurs commentaires On veut tous être millionnaire, yeah yeah On veut tous lêtre On veut tous être millionnaire Pétés de tunes demande autour de toi si jexagère Rien à foutre de leurs lois et de leurs commentaires</t>
+          <t>On veut tous être millionnaire, et tu le sais On veut tous être millionnaire Pété de tunes demande autour de toi si jexagère On veut tous être millionnaire, yeah yeah On veut tous lêtre, on veut tous être millionnaire On veut tous être millionnaire Rien à foutre de leurs lois et de leurs commentaires On veut tous être millionnaire, yeah yeah On veut tous lêtre On veut tous être millionnaire Pétés de tunes demande autour de toi si jexagère Rien à foutre de leurs lois et de leurs commentaires On veut croquer nous aussi sans jouer les faussaires Pourquoi tu crois que les mêmes kiffent les gangsters Cest lappât du cash pas de mystère Rectifie, jai dit quoi millionnaire ? Mais si y a moyen on est partant pour milliardaire Fuck lenfer dêtre pauvre si tas souffert Pète sa gueule à un diamantaire Baiser les instances judiciaires Arroser nos repas de liasses pour dessert On veut tous être millionnaire Pété de tunes demande autour de toi si jexagère On veut tous être millionnaire, yeah yeah On veut tous lêtre, on veut tous être millionnaire On veut tous être millionnaire Rien à foutre de leurs lois et de leurs commentaires On veut tous être millionnaire, yeah yeah On veut tous lêtre On veut tous être millionnaire Pétés de tunes demande autour de toi si jexagère Rien à foutre de leurs lois et de leurs commentaires Faut consommer, faut faire rêver, cest vu à la télé Ça fait des jeunes qui veulent se prendre pour des célébrités Sans moyen cest chaud et va leur expliquer Quil y a un taux déchec trop élevé Cest les mentalités tout gratis Menfler, mrenflouer, manger comme Onassis Men vais macheter un Gauguin ou un Matisse Men fous si jy pige rien cest tout pour le kif Nous en veux pas on veut faire du chiffre Mettre une gifle aux gâteux de riches et faire du bénéfice Millionnaire, ouais ça sonne sa mère Même Bronson et Spielberg mont viré trop vénères On veut tous lêtre, les jeunes, les vieux et les vieilles Savent plus où se mettre, y a trop de galères Y a plus de révolutionnaires, que des mercenaires Veux pas être un pensionnaire mais le taulier qui gère laffaire On veut tous être millionnaire Pété de tunes demande autour de toi si jexagère On veut tous être millionnaire, yeah yeah On veut tous lêtre, on veut tous être millionnaire On veut tous être millionnaire Rien à foutre de leurs lois et de leurs commentaires On veut tous être millionnaire, yeah yeah On veut tous lêtre On veut tous être millionnaire Pétés de tunes demande autour de toi si jexagère Rien à foutre de leurs lois et de leurs commentaires Si tu les gênes certains hésitent pas à couper des têtes Sûr ils iront en enfer mais en Jet et Faut pas oublier que ce monde veut nous bouffer Prêt à nous liquider si tas pas de billets Alors comment on fait maître? Eux les millionnaires ils se font jamais mettre Foutre le dawa et les regarder se taire Arroser les assos humanitaires Y en a qui vendent des armes, y en a qui vendent de lherbe Y en a qui vendraient leur chair, y en a qui tuent pour lhéritage du grand-père Ces combines, non, pas mon style Mais fais-moi péter un loto ça jy serais pas hostile Fini les humiliations et les comptes en banque vides Banco la roue tourne dis-nous où on signe Pour mettre la famille à labri Pendant plusieurs générations, tu msuis Et on veut faire les mécènes sans que ça nous coûte un kopeck On veut tous rendre nos rêves réels Pour ça y a trop de volontaires Et alors on se crève à la tâche, on veut jouer mais pas perdre On veut tous être millionnaire Pété de tunes demande autour de toi si jexagère On veut tous être millionnaire, yeah yeah On veut tous lêtre, on veut tous être millionnaire On veut tous être millionnaire Rien à foutre de leurs lois et de leurs commentaires On veut tous être millionnaire, yeah yeah On veut tous lêtre On veut tous être millionnaire Pétés de tunes demande autour de toi si jexagère Rien à foutre de leurs lois et de leurs commentaires</t>
         </is>
       </c>
     </row>
@@ -2316,7 +2316,7 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>J'suis en mission Fils, bénis mes ennemis avant de les achever J'suis en mission Fils, bénis mes ennemis avant de les achever Quand on m'file une mission traquer un bidon c'est pile mon style Tu kiffes quand j'brille sous ma diction Le hip-hop m'a chargé d'une expédition Sans faction appréhension action Les blaires sont médusés si on s'lâche c'est pour les freiner Putain il faut les crever sur disque ou CD Tu le sais les combats à coups d'rimes dans l'lard Combat d'rue style rap la rage un flow max Paraît qu'je rime du Champ de Mars Ouais j'en fixe un depuis un temps piste un c'est le moment opportun Ma cible est en soirée il fait style y s'fond dans la masse genre j'file mais c'est grillé Ouais alors les gars ça va ? Putain Ouais bien C'moment là j'écris un texte Un arrêt vil-ci présent sur la liste comme focus qui décroche pas une rime pour assurer Je l'ai repéré en un clin dil en coin il me voit Il sait que le hip-hop veut des comptes va falloir payer Il s'casse, XXX pas d'temps à perdre vite j'ai un délai à respecter faut pas l'laisser séchapper C'est parti poursuite à la sortie dans la ville il file Pas tranquille il s'faufile mais c'est inutile Une caisse pile merde faillit m'faire écraser Au pied au milieu des rues sombres on court comme des dingues Après un quart d'heure d'course il pensait s'en être sorti crevé plus d'souffle dans la nuit Soudain je surgit tel un de nulle part un gars prêt pour la bagarre il gémit Ouais ouais Larage, j'ai pas peur d'toi hein Attends tu vas voir ouais quand j'vais au mic fils j'suis là et tout l'groove essaie Quand j'me présente fils j'viens en paix Quand j'représente fils j'viens pour tout niquer Quand j'nique tout quand j'tue comme un fou Quand j'pète quand j'rentre en transe comme les MC j'me respecte Comme un quand j'joue des rôles nets quand j'm'introduit sur Internet quand j'me le Hip-hop quand les cancan vont bon train Quand même j'suis enragé quand j'le suis tu l'sais Quand j'explose avec 10 ans d'travail derrière moi Candidat à quoi ? Rien car pour les vauriens c'est tout Quand j'suis tout ça quand j'fais tout ça quand tout ça s'passe autour de moi tu kiffes et c'est comme ça Quand tu entendras ça ailleurs alors tu sauras Ouais qui est l'original Faf Larage fils c'est moi T'auras encore des séries comme ça quand j'suis en forme maintenant tu connais l'résultat j'te file mon gars You might also likex4 Quand j'prend mes feuilles j'suis en mission Marre de rire gloire à l'art de rue Quel interrogatoire je veux pas perdre mon temps T'es accusé d'avoir sali le hip-hop Eh merde t'arrêtes je l'vois dans tes yeux t'es pas un vrai Malgré ton attitude et ta tenue t'es fou c'est qu'une habitude Tu piges que c'est pas le bon cru t'as choisis d'faire du rap pour encaisser d'la thune Tu débarques sors tes cracks en guise de tubes ne respectant pas le rap c'est pourquoi on t'traque Trahis le rap on frappe T'as pas le biz ici on craque pas Sauf si tu m'dis c'que j'veux savoir le public veut une sanction Te foutre dans une cave avec un pitou Fais attention des preuves y en a contre toi Si tu veux pas finir tes jours va falloir coopérer Tu t'es moqué nous a ris au nez paumé tu vas cracher J'veux des noms tous les noms tous les cons tous les membres de l'organisation du label à celui qui t'fais tes sons Tous ceux qui marchent avec toi tes potos Toute l'équipe promo ses contacts radio il me les faut Tiens un stylo une feuille que t'écrives enfin un truc sensé N'oublie pas entre lâches mais l'rap j'tord au bout du gros gibier mais si t'insistes x4 Quand j'prend mes feuilles j'suis en mission Marre de rire gloire à l'art de rue Niquez tous les bidons Tu sais les les les les bidons Niquez tous les bidons Niquez tous les bidons1</t>
+          <t>J'suis en mission Fils, bénis mes ennemis avant de les achever J'suis en mission Fils, bénis mes ennemis avant de les achever Quand on m'file une mission traquer un bidon c'est pile mon style Tu kiffes quand j'brille sous ma diction Le hip-hop m'a chargé d'une expédition Sans faction appréhension action Les blaires sont médusés si on s'lâche c'est pour les freiner Putain il faut les crever sur disque ou CD Tu le sais les combats à coups d'rimes dans l'lard Combat d'rue style rap la rage un flow max Paraît qu'je rime du Champ de Mars Ouais j'en fixe un depuis un temps piste un c'est le moment opportun Ma cible est en soirée il fait style y s'fond dans la masse genre j'file mais c'est grillé Ouais alors les gars ça va ? Putain Ouais bien C'moment là j'écris un texte Un arrêt vil-ci présent sur la liste comme focus qui décroche pas une rime pour assurer Je l'ai repéré en un clin dil en coin il me voit Il sait que le hip-hop veut des comptes va falloir payer Il s'casse, XXX pas d'temps à perdre vite j'ai un délai à respecter faut pas l'laisser séchapper C'est parti poursuite à la sortie dans la ville il file Pas tranquille il s'faufile mais c'est inutile Une caisse pile merde faillit m'faire écraser Au pied au milieu des rues sombres on court comme des dingues Après un quart d'heure d'course il pensait s'en être sorti crevé plus d'souffle dans la nuit Soudain je surgit tel un de nulle part un gars prêt pour la bagarre il gémit Ouais ouais Larage, j'ai pas peur d'toi hein Attends tu vas voir ouais quand j'vais au mic fils j'suis là et tout l'groove essaie Quand j'me présente fils j'viens en paix Quand j'représente fils j'viens pour tout niquer Quand j'nique tout quand j'tue comme un fou Quand j'pète quand j'rentre en transe comme les MC j'me respecte Comme un quand j'joue des rôles nets quand j'm'introduit sur Internet quand j'me le Hip-hop quand les cancan vont bon train Quand même j'suis enragé quand j'le suis tu l'sais Quand j'explose avec 10 ans d'travail derrière moi Candidat à quoi ? Rien car pour les vauriens c'est tout Quand j'suis tout ça quand j'fais tout ça quand tout ça s'passe autour de moi tu kiffes et c'est comme ça Quand tu entendras ça ailleurs alors tu sauras Ouais qui est l'original Faf Larage fils c'est moi T'auras encore des séries comme ça quand j'suis en forme maintenant tu connais l'résultat j'te file mon gars x4 Quand j'prend mes feuilles j'suis en mission Marre de rire gloire à l'art de rue Quel interrogatoire je veux pas perdre mon temps T'es accusé d'avoir sali le hip-hop Eh merde t'arrêtes je l'vois dans tes yeux t'es pas un vrai Malgré ton attitude et ta tenue t'es fou c'est qu'une habitude Tu piges que c'est pas le bon cru t'as choisis d'faire du rap pour encaisser d'la thune Tu débarques sors tes cracks en guise de tubes ne respectant pas le rap c'est pourquoi on t'traque Trahis le rap on frappe T'as pas le biz ici on craque pas Sauf si tu m'dis c'que j'veux savoir le public veut une sanction Te foutre dans une cave avec un pitou Fais attention des preuves y en a contre toi Si tu veux pas finir tes jours va falloir coopérer Tu t'es moqué nous a ris au nez paumé tu vas cracher J'veux des noms tous les noms tous les cons tous les membres de l'organisation du label à celui qui t'fais tes sons Tous ceux qui marchent avec toi tes potos Toute l'équipe promo ses contacts radio il me les faut Tiens un stylo une feuille que t'écrives enfin un truc sensé N'oublie pas entre lâches mais l'rap j'tord au bout du gros gibier mais si t'insistes x4 Quand j'prend mes feuilles j'suis en mission Marre de rire gloire à l'art de rue Niquez tous les bidons Tu sais les les les les bidons Niquez tous les bidons Niquez tous les bidons1</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Eh, eh j'fume des chichas comme Zifou, trente piges, j'me sens au top comme Zizou 2020 j'ai enfin ma Grünt, 2030, j'serai sur Autopsie 12 J'traine avec des durs à cuire, lunettes Cartier, en or est la monture Chez les rappeurs, j'suis connu comme un nom d'tueur mais ils ont du mal à l'dire comme un nom d'turc Mon p'tit reuf a choisi l'argent sale, j'sais pas comment lui dire qu'j'suis pas d'accord Quand il sort du hebs, j'le câline mais j'l'insulte quand il sort d'ma chambre et qu'il ferme pas la porte Quel paradoxe, y m'a dit Cinq piges, c'est pas la mort À la tess, tu t'fais traiter d'pédé quand ton pote gère une meuf et qu'tu gères pas sa pote, hun Donc sa pote, j'l'ai géré, on s'est guetté la night, elle a dû m'plaire Contrairement à l'autre, elle a du cur, on s'verra à l'heure des jnouns et des adultères Elle est belle, bonne et tatouée, avec les go', j'crois qu'j'suis pas doué Elle a mis sa meilleure tenue pour me voir, moi, j'vérifie qu'mon slibard est pas troué, woof Toute mon enfance passée à m'faire des r'marques J'veux qu'les rebeus m'respectent comme leurs pères J'veux qu'les renois, ils m'respectent comme leurs paires d'Air Max Le rap français, ça m'a coûté sa mère, c'est un guêpier, j'suis dégoûté sa mère Ta mère t'a dit qu'c'était pas un métier, eh poto, il faut toujours écouter sa mère, logique Dream team du ghetto, dehors, ça bibi du bédo À du vil-ci, du gué-dro, c'est la dream team du ghetto Dehors, ça bibi du bédo, eh, du bédo D'Aulnay à Juvisy, tu nnais-co Wesh mon gars Lesram You might also like En scooter sans casque à deux, comme un cascadeur, j'mets des 4-4-2 Y a un tas d'baceux, vas-y, calle ta beuh, j'me verrais bien sur la côte dans un 4x4 bleu Y a tout ceux qui parlent de nous mais nous, on parle pas d'eux, ils jouent les bandits, en vrai, c'est des trouillards Là, j'me revois petit avec mon cartable, je n'imaginais pas cette vie de débrouillard Eh, mon poto, dis-moi c'que t'as fait pour mériter autant de malchance, une vie si cruelle Le soir, on navigue, on roule à fond dans la ville, la miss, elle est montée, elle a fait pipi sur elle Y a la jeunesse dorée qu'a le nez dans la poudre, le nez tout blanc, ils dorment bien T'as remarqué qu'ils ont plus que toi mais pourtant, ils donnent moins T'as un plavon, t'es un bavon, t'oublies pas ton poto, le bénéf', tu divises par deux RDV devant Histoire d'Or, ils sont partis le niquer juste histoire de 3.1.0 crame un bédo, y a du shit et d'la beuh, souvent, on se plaint mais on est trop dans l'abus On m'a dit réveille-toi, t'es trop dans ta bulle, au studio, t'es pas pro quant t'as bu J'ai la haine, j'ai la haine, j'en veux au monde entier, faut rajouter de l'or sur mon dentier Y a des restes de rappeur dans mon cendrier, faut agir quand les problèmes ne font qu'empirer, enfoiré Limsa, Lesram, c'est léger, enfoiré C'est la dream team du ghetto Hé, j'renvoie un p'tit refrain pour la route allez Dream team du ghetto, dehors, ça bibi du bédo À du vil-ci, du gué-dro À du vil-ci, du gué-dro, c'est la dream team du ghetto Dehors, ça bibi du bédo, eh À du vil-ci, du gué-dro D'Aulnay à Juvisy, tu nnais-co Woof woof woof woof Le frérot FA Je parle peu quand ça m'intéresse pas, tu penses à Dieu mais seulement quand t'as b'soin Tu sers à que dalle comme un maire-adjoint, y a que dans ta te-tê à toi qu't'es une star Ouais, j'en n'ai rien à foutre du prestige, boy, y a trop de conneries dans les livres d'histoire Les bienfaits des colonies, ça n'existe pas, j'ai toujours vu la musique comme un exutoire Et dans ce merdier, je m'en sors bien, j'suis loin d'avoir le plus mauvais des sorbets Regarde autour de toi, le monde est sordide, y a pas de bonnes âmes, que des corps vides Tout est moins difficile à bord d'une corvette, dans mon bled, y a pas d'obésité morbide Y a des morts-nés tous les morning, comment s'en r'mettre ? Tout est hostile, ils font que morfler Poto, je sais que c'est la jungle, jungle, jungle, on m'y a préparé depuis jeune, jeune, jeune Jamais été du genre zen, zen, zen, mes sins-c' rêvent de l'espace Schengen J'aimerais mettre un coup dans la fourmilière, je suis loin d'avoir le plus mauvais des formulaires Moi, j'ai beaucoup plus que le nécessaire, j'ai des goûts de luxe, j'avais la PlayStation J'suis un redoutable disquetteur, la nuit, j'suis avec dix gangsters Le jour, j'suis avec dix skateurs, RDV au five à dix-sept heures Ils veulent pas qu't'aies d'lumière mais font genre Gros, on est unis, hein J'compte que sur moi-même comme une hyène, au pluriel, je n'conjugue plus rien Tes gars, Limsa d'Aulnay-sous les nettoie, on a connu les caves, les soutes et les toits Timon, Pumba, gros, dis-leur qu'ils ont d'la chance de voir l'amour qui brille sous les étoiles L'atmosphère est pesante, du shit sur la pesette, les risques, ils sont pris pour pesetas Ouais, gros, ça se fait soulever des fois mais ça laisse le commissaire dans tous ses états Dans leurs soirées, qu'des fausses Miley Cyrus, des faux sourires, faux smileys Faut rentrer gros sac, faut s'magner, j'suis khabat et j'ride dans Lost Highway, woof Dans ma classe, y avait des Mamadou, y avait pas d'Bérengère, on voulait être des footballeurs, des gangsters Sache qu'un jour, j'serai légendaire, woof Ouais ouais, j'serai légendaire Woof woof C'est au poto Lesram C'est au poto Lesram C'est au poto Lesram Ouais ouais, 3-1-0 Wesh enfoiré Vas-y, suce mon doigt d'honneur, même si l'argent n'achète pas l'bonheur Je me dois d'rester un charbonneur, pour le gagne-pain, le matin, j'sors d'bonne heure Pied de biche a trouvé un volet, cinquante rouges, ça fait un violet Menotté, t'as les mains collées même si t'es bien gaulé, tu vas dégringoler Et si on peut pas j'ose, tre-lau, il veut sa dose En fumette que ça s'pose, devant la télé, ça regarde Oz La rue, les meufs, elle les rend jalouses, on vend la mousse, cache la cons' dans ta housse J'suis espagnol comme andalouse, j'rappe pas depuis hier, demande à Houss Quand tu repenses à avant, tu peux pas enterrer les frissons Le te-shi a entraîné des visions, 3.1.Z, j'ai enchaîné les missions J'vais pas demander pardon, nous, on s'prend pas pour des patrons RDV, elle est v'nu, elle a mis des talons mais moi, j'étais habillé chez Décathlon, enfoiré J'ai la haine, enfoiré, wesh, mon p'tit pote, wesh, enfoiré Les mêmes qui chipotent, nous, on fait d'la fraîche en soirée Ouh, karaï, j'quitte le chantier, j'pense qu'à r'trouver ma Plails', mon whisky japonais J'voulais surtout pas r'mettre les pieds dans c'rap de merde, merci à c'connard de Limsa d'Aulnay J'écoute tout l'monde j'écoute Booba, j'écoute Isha, JuL, Niska ou Liza Monet Mais j'écoute pas ma femme quand elle m'demande qui sont toutes ces putes dans ma liste d'abonnés Cinq piges, ma p'tite bien éduquée, elle déteste vos zumbas d'pédé, vos raps du zulu Cinq piges, putain, cinq piges déjà, elle atteint presque le tiroir où j'cache le joujou Une mesure j'vois les gros fantasmer, deux mesures j'vois les corps s'entasser Ils utilisent leur dernier souffle à m'demander Mais, wesh, comment t'as fait ? Zek, Zek, j'sors d'la matrice, de la hess, j'tais en pénurie J'gardais chaque gramme pour en faire une rime, chaque larme pour faire chauffer du riz Kevin met des paillettes dans sa vie, j'crache Payet sur nerf optique Teinture de tapette pour plaire aux p'tites, moins d'mille paillettes, t'as zéro feat J'suis tout c'qu'ils détestent, barbe intégriste, prénom d'ient-cli, prénom d'ient-cli Un putain d'Gremlins mais version gentil, tant qu'mes couilles sont vides et qu'mes verres sont remplis J'te disquette, j'te mets ien-b, j'te disquette again Tu sors plus d'la bre-ch' comme dans escape game Bon courage Jogging dans la rue et mal rasé, bah ouais, la vraie vie, c'est pas Insta' Vivons heureux, visons cachés, j'montre plus ma racli sur Insta' Le pilon d'Rooster est bien tassé, du seum dans doudoune matelassée Tu cherches le bonheur, il est d'jà passé, j'pars à sa poursuite dans un Classe C Objectifs revus à la baisse, on sait tous qu'il vient pas d'la tess On sort pas des mêmes endroits, évite-nous tes maladresses Mes parents n'savent plus m'conseiller sur toutes les sommes que j'encaisse Attaché, fouetté comme la C, j'venge la moitié d'mes ancêtres Que des vieilles choa dans les gares et j'parle pas si j'connais pas J'fais rentrer vingt meujs au placard et j'les fais solo pour mon gars Et ceux qui sont là quand j'vais mal, qui m'accompagnent quand j'voyage Ce soir, l'resto, il est pour moi, demain, il paye ou on partage Et garde tes symboles de réussite, j'vis pas dans un clip, nique le carré VIP Le monde est ma baby, baby, ne fais pas comme tout l'monde, ouais, évite-moi la traîtrise Aujourd'hui, j'suis sûr de moi, j'apprends d'mes erreurs et sur le tas J'crache pas dans la soupe mais j'mets les pieds dans l'plat, yah, yah, yah, yah On crame les feux et les carrières, 9-3 j'ai pas grandi en Ariège L'hiver, j'veux r'tourner en Espagne, l'été, j'veux r'tourner en arrière, logique J'suis avec V2E, rouge, orange, on crame les deux feux Le rap, j'en ai marre wAllah, j'préfère écouter Marwa Loud, Oh la folle La nuit, les gens font du sexe, les gros nibards, c'est un don du ciel Bébé, m'parle pas d'réduction mammaire, pour moi, c'est la pire invention du siècle Guignolo, casse-toi d'ici, sache que t'es bien si t'as pas d'CB Tu pourrais percer mais t'as mal ciblé, j'ai lu ton av'nir dans la p'tite chatte à Phoebe Je veux l'respect, je veux l'compte en banque, j'veux qu'à la radio et sur scène, on m'entende Ils m'ont vu avec Sefyu, avec Lomepal, ces connards, y croient que j'suis l'chaînon manquant Ils le savent au fond d'eux, pas b'soin d'approfondir Riquelme, qu'j'ai la balle, qu'j'écrive ou que j'baise, j'recherche la profondeur, woof woof woof J'suis pas un exemple, j'vis n'importe comment et tous les cinq ans, j'vais pas voter Et lui, il fait n'importe quoi, comme ils s'aimaient pas, elle a dû avorter La conscience en feu, j'passe encore des nuits blanches à chercher un sens à nos vies Tout c'que j'sais j'me sens pas comme eux, j'me tuerais pas pour une paire de Gucci Quand tout va bien, on se rappelle de toi, on t'appelle le sang et si tu réponds pas, on dit qu't'as gé-chan, eh Mentalité gilet jaune sur les Champs ouais, bouteille de champagne, mes déprimes en stand by On fête la naissance d'un nouveau-né dans mes proches, chaque jour, on s'engage Ça sort des quartiers d'Paname, pas comme tu l'imagines mais des quartiers haram Là où la fin est triste, là où l'destin te balafre et les p'tits en chien te bazardent, nous, on fait l'plan, on s'arrache En deux-trois coups d'fil, j'ai l'avance de la frappe, aujourd'hui, j'suis avec toi Demain, sur le tarmac car traîner dehors, c'est les problèmes, mauvais endroit, mauvais moment La bouche en sang, j'avais trop d'haine, attiré par des mauvais penchants Trottinette volée dans le bât', délocalisée, d'venue intraçable La BAC est passée dans le square, shlag défoncé dans le noir, wow wow Ma mère ne m'sait plus ici, anti-camer, Tunisie, à chaque contrôle, on t'humilie, wow wow Ouais, putain, c'est la merde Mon âme est pure et chaque bavure la crucifie Le monde est filtra mais j'vais l'infiltrer, le biff, c'est fictif, la mort, c'est vite-fait J'suis pas un chic type, l'amour, c'est surfait, le globe est fucked up, j'suis dans la surface J'pense à la mille-fa, il faut qu'j'me surpasse, la faute à pas d'chance, nan, ça n'existe as-p Poto, j'ai pas l'temps, pourquoi tu piges pas ? J'veux la plus grosse part de la pizza J'sais pas si t'as vu, c'est la guerre dehors, pourquoi tu me parles de ta garde-robe ? Infecte comme un plat de garde à vue, j'ai mon parka, tous les jours, je brave dehors Ça fait des années que je frappe le sac et je frappe fort, je veux que tout l'monde le sache Je m'actionne, des années que je taffe mon rap, j'leur pardonne, au fond, ils pouvaient pas savoir Le pire est sûrement à venir mon frère, le monde ressemble pas à l'avenue Montaigne J'casse la démarche et je rallume mon teh, désolé mama, j'suis pas fils modèle Moi, j'ai mille problèmes et ton fiston t'aime et ton fils comprend qu'y a des vices sur terre J'veux le biff comptant, ouais, le monde scellé, j'ai enlevé le cran d'sûreté J'compte ni évoluer ni changer, t'as bibi ni los-ki, ni cent g' Tu connais ni l'Maroc, ni Tanger, j'fume une chicha devant Nice - Angers Elle m'manque mais j'vais pas courir dans l'vent, j'repense à nous fou rires d'antan Son cul est beau comme ton père qui r'trouve un taf, sa chatte est belle comme un sourire d'enfant Dans les faux, y a trop d'frères à lister, j'veux qu'les renois m'respectent comme leur mère Qu'les rebeus m'respectent comme leur fer à lisser, woof woof woof woof Eh, j'bois la pisse de Lucifer, posé dans l'club vers l'urinoir Ils mettent un p'tit son d'Lil Uzi Vert, dans la ve-ca, y a un lil Uzi noir Gros, j'écris comme Zola, ride la night comme zonard Barbare comme Conan, moi, j'rappe pas comme un autre connard Ma rue, elle pue la pisse, ma voisine, elle pue la tise Y a du nouveau shit, c'est plus la crise mais ça perturbe la paix comme Ludacris, mec C'est l'omerta, gros, nos nerfs craquent, le bruit des gyros, on les entend tous Ça pisse là où nos mères passent, ça tire où les enfants jouent Ouais, mon poto, il m'a fait d'la peine, sa femme la putain s'est tapé l'masseur Si t'es belle, je t'appelle ma belle, si t'es pas belle, je t'appelle ma sur Logique, wallah t'es comme une re-su pour moi C'est même pas une question d'physique ou quoi mais, t'as vu, j'veux t'garder comme une sur Limsa d'Aulnay, enfoiré Bon allez, c'est l'instant émotion... Fier de mon reuf Chaud t'valide, j'veux t'serrer dans mes bras, marre de t'parler par courrier qu'une salope, qu'une proc' va lire Le linge s'lave en famille mais y a trop d'valises Qu'est-c'que j'donnerais pour t'secourir ? J'suis trop khabat pour me souv'nir On partageait la couette pour se couvrir, maint'nant, ça ment aux re-shta pour se couvrir J'ai noyé ma peine dans tout l'pays, j'cogite sous rhum et sous Blueberry On a encaissé des drames et des coups terribles, le reste de mon âme dans les égouts d'Derry J'les baise, j'ai même pas mis l'pénis entier, les keufs surveillent ton phone, tes écoutes, tes rimes Si j'voulais ouvrir un établissement qui marche j'ouvrirais pas d'chicha mais un pénitencier Dehors, c'est la guerre, à qui la faute ? La vérité, très peu qui l'affrontent La guerre, la paix, t'façon c'est la même chose plus de mecs qui la veulent que d'mecs qui la font On s'est d'jà embrouillé pour de la merde un peu comme Hatem et Unai Moi, j'veux juste t'faire libérer une night, woof woof Là, j'écris c'texte et j'm'allège d'un poids, j'vais pas t'faire la morale, le malaise d'un cours La morale, j'l'ai d'jà faite vingt fois, tu t'es l'vé un matin, tu étais balaise d'un coup Baltimore grandit, 'l'aime ça, couplets mordent, ici les rappeurs sont des crooners Gégé m'a dit Dans cette ville, gros, l'amour est mort, l'amitié, la cherche pas, elle est tombée pour meurtre Pour les grands, t'es l'p'tit frère de Limsa, pour les p'tits, j'suis l'grand frère de Neggez On reste des frérots, des frangins, on n'oublie pas Blandin, woof On s'est d'jà embrouillé pour de la merde un peu comme Hatem et Unai J'suis content, y t'ont libérer une night, woof woof, woof woof woof woof Allez, tiens, vas-y, garde la nnaie-mo, j'suis sous caramelo, j'ai croisé les shtars à vélo Tous ceux qui jouent les victimes, moi, ils m'font pas de la peine, c'est mérité, la vérité, ils m'ont mis grave la haine J'crois, dans cette vie bizarre, j'vais m'en sortir à l'arrache, comme un mec qui sait pas nager, qui veut s'enfuir à la nage Faut mettre les p'tits à la page, faudrait qu'on s'tire à la plage Y a tout l'monde qui a la rage, j'veux commettre un crime à la hache Là, y a les keufs, j'suis chargé et ça fait battre mon cur J'aimerais les larguer un peu comme si j'avais quatre moteurs T'es prêt à piller, voler pour les billets violets, weed et dolé Avant d'détailler, tu plies tes volets Tu finis par connaître tout Paris à force de vendre Demande à Kenny de Porte du Pré, jusqu'à Porte de Vanves Eh, monsieur l'agent, de l'argent, c'est c'que rapporte le temps Donc faut bombarder un peu comme quand je sors le deux-temps Enfoiré Wesh mon gars, qu'est-ce que t'es prêt à faire pour le cash ? Qu'est-c'que t'es prêt à faire pour le cash ? Qu'est-c'que t'es prêt à faire pour le cash ? Qu'est-c'que t'es prêt à faire pour le cash mon pote hein ? Qu'est-c'que t'es prêt à faire pour le cash ? Qu'est-c'que t'es prêt à faire pour le cash ? Troquer ta liberté pour une cage ? Qu'est-c'que t'es prêt à faire pour le cash ? J'sais pas si j'vais m'en faire si j'vais r'gretter, si j'mourrais gangster, si j's'rais retraité Si j'péterais l'mis-per, si j'perc'rais l'mystère, si j'verrais l'hiver, si j'verrais l'été Pour percer faut rapper comme un débutant, y veulent qu'on soit des moutons et pas des mutants, woof, woof Bien sûr, j'veux qu'ça marche et qu'tout l'monde soit ravi mais j'veux pas apprendre à dire Bonsoir Paris, en vingt-et-une langues, woof woof Dehors, y a plus d'respect, mes frères n'ont plus d'espoir, c'clochard n'a plu d'Despe', woof Moi, j'observe la Lune des toits, mes frérots n'ont plus d'été, mon ciel n'a plus d'étoile, woof Dans l'ghetto, ça t'arrache le bras pour une montre, mes potos, y attendaient beaucoup du nombre Avec mes amis d'enfance, on rêvait d'quitter la tess' pour faire l'tour du monde, on s'retrouvera autour d'une tombe Quand j'ai des galères, où t'es toi ? Le droit ch'min, j'ai pas pris du tout cette voie A-S-B, gros, les vrais amis s'font rares, comme un keuf qui dit M'sieur, ça ira pour cette fois Hein, qu'est-c'que t'es prêt à faire pour le cash ? Qu'est-c'que t'es prêt à faire pour le cash ? Troquer ta liberté pour une cage ? Qu'est-c'que t'es prêt à faire pour le cash, mon pote, hein ? Putain, j'ai fini mon flash, j'en prends un deuxième chez Jamel Sur l'périph', encore un flash, les amendes, j'les paye jamais Faut pas cracher dans la soupe, des années qu'ils nous la foutent C'est les voyous en costard qui la font passer dans la soute Oh mon ami, faut des sous et comprendre la vie sans sous-titres Chérie, comprends, j'suis un peu saoul, mets la selha dans ton soutif' C'est la tête du chef qu'on dessoude, nous, sous les yeux des choufs Kiffe quand on arrive à bout de souffle, c'est ceux qu'on aime qu'on fait souffrir Ah, putain de merde, dur de s'en sortir sans une égratignure Et sur ma mère, que dans la ue-r, y a beaucoup trop d'ingratitude Mon escalope gratinée, un verre de rosé Une escalope aux yeux verts, j'passe une soirée arrosée La moitié sont condamnés, Villepinte, Fleury-Mérogis L'illicite dans mon registre, c'est la rue qui parle, enregistre Entre galère et drame, des années qu'j'travaille ma rime C.O.R., c'est dix ans d'rap et l'premier album arrive Entre galère et drame, des années qu'j'travaille ma rime C.O.R., c'est dix ans d'rap et l'premier album arrive, boy J'rappe comme je chie, j'connais mes classiques Askip tu rappes comme moi mais tu fais pas d'fric, ouais J'rappe comme je chie, j'connais mes classiques Askip tu rappes comme moi mais tu fais pas d'fric À tous mes frangins, j'vais rendre la pareille Pour toutes les fins d'mois brisées par l'manque d'argent et l'Jack Daniel's C'est rare que j'sorte de ma tanière ou quand j'le fais, j'pars loin d'chez moi Eh vieux, j'parle pas chinois J'ai dix ans d'avance et j'écris toujours dans ma chambre, j'ai tellement d'projets en attente Ouais, tout est dans ma tête, chacun fait ses euros J'suis pas la jeunesse qui s'lève tôt, j'représente pas la France Et mes frères inconnus comme des joueurs de water-polo Moi, j'enchaîne les victoires, pressé par l'tic-tac Les déprimes quand la vie s'corse mais j'perds rarement espoir Nos vies sont remplies d'fils de pute, sur mon corps, des signes de lutte J'savais d'jà où j'allais quand tu découvrais les films de cul Quatorze-quinze ans, avec ma bande dans l'RER, ouais, j'emmerdais mes parents et puis le réseau ferroviaire Maintenant, j'respecte ma mère, y a plus mon cul posé dans des parcs Pas d'lendemain d'MD à déprimer comme un schlag Paris Nord, facile d'être armé dans la jungle, eh Pour rapper comme moi, il faut juste taffer comme un chien, j'viens d'là où tu peux pas rentrer Même si t'es stock, t'auras pas les codes, on peut t'balafrer Puis passe dans les halls mais comme moi, t'auras pas l'étoffe Y a qu'des hyènes qui vendent des drogues dures à des femmes enceintes J'connais les tieks et les bizbi, les peines de hebs, les grigris Tu fais du mal, ça t'revient en pleine tête, c'est pas un frisbee J'encule le vice des vils-ci, eh, gros Bien sûr qu'mes blancos du 7-5 sont Mafia K'1 Fry, eh Ça part en survêt', eh, avec des trous d'boulettes Petit avait la haine, des Air Max avec les bulles trouées Maintenant, il marche avec le froid du métal Et la shmeta a vraiment peur de s'faire retrouver Dadinho d'vient vite Zé Pequ' quand y a trop d'enjeux C'est chaud mon vieux des preuves, de l'essence, ça met des caves en feu Mes gavas savent à quoi s'en t'nir, tu finis pas cent'naire si tu déclenches l'incendie Depuis tout p'tit, bah, ça traîne tard en ville, normal qu'nos parents vrillent Maintenant, laisse ma clique avant qu'on d'vienne ta hantise, espèce de saloperie Voilà comment on crache le feu Quand j'prends l'mic', c'est pour les insoumis, j'parle de ceux qu'on oublie L'Homme de l'ombre n'a pas rangé sa panoplie Pendant qu'mes gars au cachot prient, j'vends des disques, c'est la folie J'ai lâché l'école très vite, j'fantasmais sur les yous-v' qui gazent les flics Ma révolution avec mes pitres, on casse des vitres Et aujourd'hui, on a grandi Ils veulent ma mort, j'dis la vérité comme Galilée, y a pas d'égalité, on va leur faire faire des galipettes Aulnay-sous, la qualité, la mentalité c'est porter ses couilles et d'vant la madre pas d'vulgarité On les a inspirés, dans la rue, l'rap est dead, donc, j'voulais rappeler qu'c'est nous le rap élite Et ça devient pénible, ils ont pas un penny, ils montent sur des péniches, ils sucent que des pénis C'est nous qu'avons les cojones comme des balles de tennis, oh Pas de teminiks, d'vant moi, ça devient qu'des 'nuques-nuques, avec monsieur Molotov, venus pour casser des nu-nuques Même si t'as la force de Luke, sahbi, c'sert à rien qu'tu luttes Et sur un coup d'te-tê, j'peux dégainer plus vite qu'L'y Luke C'tte année, ils vont khalass leurs dettes comme à Lannister Et mister, on est v'nus marquer l'histoire et ta p'tite sur On v'-esqui Lester, vi-sser les hipsters, mardi matin, voiture bélier d'vant l'distrib' On n'a jamais fait d'équitation, tits-pe, on faisait de la bécane J'avais déjà des palpitations quand j'entendais crier Emmaüs bien avant que l'Abbé canne Et gros, ce soir, j'suis fonce-dé comme Johnny Depp au milieu d'Las Vegas Si ma meuf fait la folle, poto, je lui fais l'amour, sa valise et je la dégage Ouais, gros, j'viens d'un quartier chaud où toi, tu fais rien à part per-cho J'suis avec Neggez dans la voiture, 9.3, y a des mes-ar, y a d'la pure C'est nous qui faisons le son de l'année, les caves et les frères s'font condamner Ramène même l'état et son armée, les p'tits frères bédavent et sont armés Faire semblant d'les croire, c'est bien, j'raconte ma vie, wallah, c'est mieux J'attends toujours la sse-pa, et j'vois qu'les promesses s'accumulent Être gavé, rassasié, voilà c'que veut la race humaine Ils pourraient manger l'assiette en t'regardant et assumer Si j'dis qu'le monde part en couilles, c'est qu'on n'est pas si loin, mon gars Que d'être en couple, j'tombe amoureux d'un Toka' La pute a des sentiments, elle est tombée amoureuse d'un tocard Méfie-toi des apparences ou bien, tu t'méfieras de moi On dit qu'l'habit fait pas le moine, j'ai vu des moines en Buscemi Les condés, j'les fais cavaler, c'est Cavalli, bébé, tu s'ras ma cavalière Si on s'capte dans une cave la nuit et nikoumouk et Barrani Y a qu'd'vant les porcs, t'as pas nié, suffit d'une balayette pour retourner ce foutu sablier Pour ça qu'j'ai rempli l'barillet, Aulnay sont en train d'vous parier Putain, j'ai l'âge d'être marié, c'est que l'début, donc reste au calme Mon blaze dans l'koutoki, j'ai mis du Jack dans mon Coca Fonc-dé, j'vois la tête à Chucky, on n'est pas si loin d'l'époque du , le 9-3, c'est pas l'Kentucky J'demande pas l'heure mais le prix de ta montre, avant de t'l'arracher d'vant ta femme et tes gosses On a quitté l'école pour rester dans nos, et on donnera pas d'noms juste par éducation Tes amis donnent le go pour une p'tite paire de seins, regarde pas ton retro, j'arrive dans l'angle mort La boite est séquentielle, la liasse est arc-en-ciel, on a tout vu ou presque, que le GP800, hlahlahlahla Paris-Malaga, trente kil' dans la cave, deux chiffres à la barre, au feu rouge, prends ton gramme La blanche dans la mule, cramée comme ma puce, j'rentre à l'heure où les corbeaux chantent sur ton cadavre Olala, olala, le baveux m'a blanchi comme monsieur Benalla, olala Ramène-moi mon biff', épargne-moi de ton tralala, toute la s'maine, en boite, on t'a vu faire la mala-la T'es un galérien, t'as pas d'vie mais quand j't'appelle, crari t'es pris Dans les rappeurs forts qui font pas d'vues, j'ai l'meilleur rapport qualité-prix En amour, j'suis un intermittent, j'l'aimais mais j'l'avais jamais dit Qu'est-ce j'vais faire le rebeu intelligent ? J'sais pas l'faire, en plus gros y a déjà Médine, logique J'ai une vie d'rockstar, j'ai une vie détruite, on fait du son, on vit des trucs Les guignolos qui bossent dans un bureau, wAllah, j'ai pas envie d'être eux J'suis avec le frère Majid, on parle à nos p'tits mais rien n'les fait changer L'État pense qu'la prison a un effet magique, alors que eux-mêmes, le crime les fait manger Le bénéf', mes gars l'rackettent, le bénéf', mes gars l'recomptent Un million égale record, les imposteurs tirent en l'air, oublient qu'les balles retombent L'égalité un mensonge, même pour les, tous mes enfants des îles Quand t'as pas d'papiers sur toi, c'est en zonz, les blancs, on leur dit La prochaine fois, pensez-y, woof woof woof Bassem, penalty en pleine te-tê, slllrp, j'sirote mon verre de thé J'm'en bats les couilles avec fermeté, ça fait six mois qu'mes so finissent par R.E.P. De quoi on parle ? Chacal J'désactive les com', j'les fous à poil Personne n'a jamais vu Picasso mendier des avis sous chaque toile alors bouge ta mère J'écoute ni la radio, ni les askip, viens, on s'checke pas, viens, on fait pas d'feat C'qui m'excite dans l'jeu, c'est même pas l'titre mais voir leurs gueules de putes quand elles ragequit Le suicide, c'est choisir sa mort, la réussite, c'est choisir sa vie Cinq heures, fin d'chantier, j'bave sur le siège de la ligne D en pensant wari wari Beaucoup arrivent ambitions Stringer Bell, r'partent avec la rondelle d'Omar Little Ils veulent mon flow, mon juice, ma cervelle, l'marabout comprend pas c'qu'ils veulent Luxe, luxe, j'ai des tocs, du toc à vingt-quatre carats ma p'tite gueule Mais j'essaye d'me convaincre que j'suis beau d'l'intérieur comme p'tite coupure dans sac Lidl Mais d'après l'boss là-haut, ça passe middle Ça charbon, ça charbon donc j'évolue, tes idoles sont pas bons, ils dévaluent Parle-moi de monnaie, de plus-value, les valeurs et tout ça, c'est révolu J'ai mes-ar sous coussin, peu d'retenue, fini millionnaire ou détenu J't'envoie des sorts comme à Cotonou, ces fils de putains sont pas comme nous Ouais, depuis le day one, bah, le rap transcende, la maille rend fou et tous les jours s'ressemblent Plus de monnaie égale plus de 'blèmes, plus de problèmes égale plus de sang J'ai commencé le rap car cur a mal, j'évolue au gré de mon karma Bientôt je vais en Benz au carwash, sur qui tu veux qu'je compte à part oi-m ? Sonne-per, c'est comme ça que le Fall opère Élévation d'manière solitaire, j'ai plus de patience, j'suis dans folie, frère Voici l'métisse, café, plus banc qu'un pack de lait J'sais qu'les autres cailles-ra veulent pas, moi, j'te bouffe la tartelette Rien à battre que t'écris bien, allez, bouge ta mère en Fac de Lettres Ton son pue la pisse comme n'importe quel mur de Gare du Nord à Gard de l'Est Même quartier, cages d'escalier, ça s'vanne fort entre riz et s'moule Qui aime bien châtie... mes couilles, regarde Dieudonné et Élie Semoun Donc moi j'paie ma redevance pour m'farcir Eric Zemmour Si j'vois un arc-en-ciel, j'espère qu'Paris brûle et l'Élysée mouille Ils m'écartent les jambes comme Ronaldo juste avant coup-franc Ils m'écartent les bras comme le Corcovado, j'leur souffle que des conneries comme quand la prof' envoyait mes potes au tableau Mais bon, tout l'monde s'détend, les porcs seront compétents quand les camés auront des dents, han Ça vend crack et zipette, sponso' par Fly Emirates Ça t'sort de sacrées disquettes pour disparaître après giclette J'reprends, tout l'monde Ça vend crack et zipette, sponso' par Fly Emirates Ça t'sort de sacrées disquettes pour disparaître après giclette J'ai qu'un mot d'ordre, c'est lâcher prise, c'est pas mon but de kidnapper l'biz' J'ai grandi dehors avec les rats des villes, ils sont bourrés sous rhum, ils d'mandent des garettes-ci Aujourd'hui, c'est vrai, on a nos objectifs, pour la vie d'adulte, j'suis pas trop aisé Le comptoir est philosophie, allô Jean, ce soir j'suis au PCC Y aura toujours des bâtons dans les roues, à nous d'faire attention aux lacets défaits Ma filleule saura rendre les coups, t'étonne pas si on veut t'défenestrer J'suis à l'hippodrome, au Prix d'Amérique, demain dans un hall avec mes rats des villes Et j'comprends qu'ma mère trouve ça pathétique, ils sont blindés d'fric mais ils ont pas d'éthique, eh Et mon pote s'est venté, ouais, de faire tomber la neige en juillet D'vendre plus de farine qu'un pâtissier, d'avoir très peu d'alliés et d'une voiture de sport et d'un vieux BEP Et puis cette fille, elle a bien d'autres rêves, et ça, on l'remarque dans ses yeux qui brillent Elle se dit chaque jour qu'le monde est à elle, eh ouais Les tits-pe quittent l'école pour la vente de stup', le million, qu'est-c'que tu veux qu'j'demande de plus ? Ta meuf nous suce pendant qu'tu parles sur nous, ouais gros sac, dis-toi qu'c'est toi la langue de pute Des potes au hebs deviennent fous, schizo', aucune injustice que ma rime n'défend Ils veulent dev'nir c'que j'suis, moi, j'veux tout c'qu'ils ont J'ai trop d'points forts, j'suis comme Marvin des Anges C'est sur elle qu'j'étais en sang à la sortie d'un café dansant, on a fait des bêtises comme quand on était enfants On va s'aimer, on va baiser, puis, on va r'gretter ensemble Ouais, la copine ne rêve sans faire des vux, quand j'vois les dégâts du mariage et du hebs J'peux t'en parler sans faire les deux car j'ai vu nos pères et des vrais gangsters rer-pleu Ado, j'ai pas pris l'droit ch'min, en disant T'inquiète, y en aura d'autres J'fais du Rap car j'viens d'Aulnay, j'aurais fait d'la country si j'étais du Colorado Ouais, on traîne en bande, d'la coca', quelques amis en vendent Dans la street, c'est dur de rester propre, connard, comme quand tu t'habilles en blanc On a fait honte à nos pères, à nos mères, t'façon, quoi que j'fasse, les internautes pianoteront Attitude de canard pour baiser à l'hôtel, attitude caille-ra quand on fait la bise à notre oncle Nos potes galèrent donc j'en place une pour eux, si t'as pas vu l'bourreau Dans les clips de mes potes, j'suis figurant, ouais, gros, j'ai jamais eu l'bon rôle Pas là pour plaisanter, pas là pour faire semblant Plus l'temps d'me présenter, le 9-3, c'est sanglant Il est où c'putain d'EP ? J'l'attends, ça fait cent ans Le reste, j'vais pas stopper, le bédo, c'est tentant J'vais boire un p'tit fé-ca, posé fratellini J'arrive à petits pas, j'arrive en tchilili J'aime bien quand on m'titille, j'aime pas trop Umtiti Aulnay, ça d'vient rentable, bientôt le grand Paris Des ients-cli présentables et est-c'que tu paries ? Mets-moi, une dix, une vingt, j'suis Jack, j'suis pas sous vin Poto, j'prédis ta fin, pourtant, j'suis pas devin J'les vois plus, ils sont loin, pourtant, j'suis tout devant C'est con, c'est décevant, nous, quand est-c'qu'on se vante ? J'arrive en coup de vent, j'repars un soir de pluie Tu l'écoutes mais il ment, il est falsch comme son re-cui Et j'les entends qui miaulent, dis-moi qui chehel qui ? J'traîne avec Cayman, j'baraude en Cherokee Nage pas où t'as pas les ieds-p, prends rien si tu peux pas nous yer-p' Kalash, si tu veux nous yek, Jack Da', Hennessy Moët 3.5.7 neuf, sous la couette, j'sors avec une frappe iranienne J'allume mon tel', j'vends d'la zipette, course poursuite avec les handeks Billets colorés, j'prends des ailes, on monte chez toi si t'as des dettes On t'saute à dix si t'es balaise, faut pas parler, gros, faut le faire Comme ça qu'on voit une paire de cojones, les gros poissons n'ont pas</t>
+          <t>Eh, eh j'fume des chichas comme Zifou, trente piges, j'me sens au top comme Zizou 2020 j'ai enfin ma Grünt, 2030, j'serai sur Autopsie 12 J'traine avec des durs à cuire, lunettes Cartier, en or est la monture Chez les rappeurs, j'suis connu comme un nom d'tueur mais ils ont du mal à l'dire comme un nom d'turc Mon p'tit reuf a choisi l'argent sale, j'sais pas comment lui dire qu'j'suis pas d'accord Quand il sort du hebs, j'le câline mais j'l'insulte quand il sort d'ma chambre et qu'il ferme pas la porte Quel paradoxe, y m'a dit Cinq piges, c'est pas la mort À la tess, tu t'fais traiter d'pédé quand ton pote gère une meuf et qu'tu gères pas sa pote, hun Donc sa pote, j'l'ai géré, on s'est guetté la night, elle a dû m'plaire Contrairement à l'autre, elle a du cur, on s'verra à l'heure des jnouns et des adultères Elle est belle, bonne et tatouée, avec les go', j'crois qu'j'suis pas doué Elle a mis sa meilleure tenue pour me voir, moi, j'vérifie qu'mon slibard est pas troué, woof Toute mon enfance passée à m'faire des r'marques J'veux qu'les rebeus m'respectent comme leurs pères J'veux qu'les renois, ils m'respectent comme leurs paires d'Air Max Le rap français, ça m'a coûté sa mère, c'est un guêpier, j'suis dégoûté sa mère Ta mère t'a dit qu'c'était pas un métier, eh poto, il faut toujours écouter sa mère, logique Dream team du ghetto, dehors, ça bibi du bédo À du vil-ci, du gué-dro, c'est la dream team du ghetto Dehors, ça bibi du bédo, eh, du bédo D'Aulnay à Juvisy, tu nnais-co Wesh mon gars Lesram En scooter sans casque à deux, comme un cascadeur, j'mets des 4-4-2 Y a un tas d'baceux, vas-y, calle ta beuh, j'me verrais bien sur la côte dans un 4x4 bleu Y a tout ceux qui parlent de nous mais nous, on parle pas d'eux, ils jouent les bandits, en vrai, c'est des trouillards Là, j'me revois petit avec mon cartable, je n'imaginais pas cette vie de débrouillard Eh, mon poto, dis-moi c'que t'as fait pour mériter autant de malchance, une vie si cruelle Le soir, on navigue, on roule à fond dans la ville, la miss, elle est montée, elle a fait pipi sur elle Y a la jeunesse dorée qu'a le nez dans la poudre, le nez tout blanc, ils dorment bien T'as remarqué qu'ils ont plus que toi mais pourtant, ils donnent moins T'as un plavon, t'es un bavon, t'oublies pas ton poto, le bénéf', tu divises par deux RDV devant Histoire d'Or, ils sont partis le niquer juste histoire de 3.1.0 crame un bédo, y a du shit et d'la beuh, souvent, on se plaint mais on est trop dans l'abus On m'a dit réveille-toi, t'es trop dans ta bulle, au studio, t'es pas pro quant t'as bu J'ai la haine, j'ai la haine, j'en veux au monde entier, faut rajouter de l'or sur mon dentier Y a des restes de rappeur dans mon cendrier, faut agir quand les problèmes ne font qu'empirer, enfoiré Limsa, Lesram, c'est léger, enfoiré C'est la dream team du ghetto Hé, j'renvoie un p'tit refrain pour la route allez Dream team du ghetto, dehors, ça bibi du bédo À du vil-ci, du gué-dro À du vil-ci, du gué-dro, c'est la dream team du ghetto Dehors, ça bibi du bédo, eh À du vil-ci, du gué-dro D'Aulnay à Juvisy, tu nnais-co Woof woof woof woof Le frérot FA Je parle peu quand ça m'intéresse pas, tu penses à Dieu mais seulement quand t'as b'soin Tu sers à que dalle comme un maire-adjoint, y a que dans ta te-tê à toi qu't'es une star Ouais, j'en n'ai rien à foutre du prestige, boy, y a trop de conneries dans les livres d'histoire Les bienfaits des colonies, ça n'existe pas, j'ai toujours vu la musique comme un exutoire Et dans ce merdier, je m'en sors bien, j'suis loin d'avoir le plus mauvais des sorbets Regarde autour de toi, le monde est sordide, y a pas de bonnes âmes, que des corps vides Tout est moins difficile à bord d'une corvette, dans mon bled, y a pas d'obésité morbide Y a des morts-nés tous les morning, comment s'en r'mettre ? Tout est hostile, ils font que morfler Poto, je sais que c'est la jungle, jungle, jungle, on m'y a préparé depuis jeune, jeune, jeune Jamais été du genre zen, zen, zen, mes sins-c' rêvent de l'espace Schengen J'aimerais mettre un coup dans la fourmilière, je suis loin d'avoir le plus mauvais des formulaires Moi, j'ai beaucoup plus que le nécessaire, j'ai des goûts de luxe, j'avais la PlayStation J'suis un redoutable disquetteur, la nuit, j'suis avec dix gangsters Le jour, j'suis avec dix skateurs, RDV au five à dix-sept heures Ils veulent pas qu't'aies d'lumière mais font genre Gros, on est unis, hein J'compte que sur moi-même comme une hyène, au pluriel, je n'conjugue plus rien Tes gars, Limsa d'Aulnay-sous les nettoie, on a connu les caves, les soutes et les toits Timon, Pumba, gros, dis-leur qu'ils ont d'la chance de voir l'amour qui brille sous les étoiles L'atmosphère est pesante, du shit sur la pesette, les risques, ils sont pris pour pesetas Ouais, gros, ça se fait soulever des fois mais ça laisse le commissaire dans tous ses états Dans leurs soirées, qu'des fausses Miley Cyrus, des faux sourires, faux smileys Faut rentrer gros sac, faut s'magner, j'suis khabat et j'ride dans Lost Highway, woof Dans ma classe, y avait des Mamadou, y avait pas d'Bérengère, on voulait être des footballeurs, des gangsters Sache qu'un jour, j'serai légendaire, woof Ouais ouais, j'serai légendaire Woof woof C'est au poto Lesram C'est au poto Lesram C'est au poto Lesram Ouais ouais, 3-1-0 Wesh enfoiré Vas-y, suce mon doigt d'honneur, même si l'argent n'achète pas l'bonheur Je me dois d'rester un charbonneur, pour le gagne-pain, le matin, j'sors d'bonne heure Pied de biche a trouvé un volet, cinquante rouges, ça fait un violet Menotté, t'as les mains collées même si t'es bien gaulé, tu vas dégringoler Et si on peut pas j'ose, tre-lau, il veut sa dose En fumette que ça s'pose, devant la télé, ça regarde Oz La rue, les meufs, elle les rend jalouses, on vend la mousse, cache la cons' dans ta housse J'suis espagnol comme andalouse, j'rappe pas depuis hier, demande à Houss Quand tu repenses à avant, tu peux pas enterrer les frissons Le te-shi a entraîné des visions, 3.1.Z, j'ai enchaîné les missions J'vais pas demander pardon, nous, on s'prend pas pour des patrons RDV, elle est v'nu, elle a mis des talons mais moi, j'étais habillé chez Décathlon, enfoiré J'ai la haine, enfoiré, wesh, mon p'tit pote, wesh, enfoiré Les mêmes qui chipotent, nous, on fait d'la fraîche en soirée Ouh, karaï, j'quitte le chantier, j'pense qu'à r'trouver ma Plails', mon whisky japonais J'voulais surtout pas r'mettre les pieds dans c'rap de merde, merci à c'connard de Limsa d'Aulnay J'écoute tout l'monde j'écoute Booba, j'écoute Isha, JuL, Niska ou Liza Monet Mais j'écoute pas ma femme quand elle m'demande qui sont toutes ces putes dans ma liste d'abonnés Cinq piges, ma p'tite bien éduquée, elle déteste vos zumbas d'pédé, vos raps du zulu Cinq piges, putain, cinq piges déjà, elle atteint presque le tiroir où j'cache le joujou Une mesure j'vois les gros fantasmer, deux mesures j'vois les corps s'entasser Ils utilisent leur dernier souffle à m'demander Mais, wesh, comment t'as fait ? Zek, Zek, j'sors d'la matrice, de la hess, j'tais en pénurie J'gardais chaque gramme pour en faire une rime, chaque larme pour faire chauffer du riz Kevin met des paillettes dans sa vie, j'crache Payet sur nerf optique Teinture de tapette pour plaire aux p'tites, moins d'mille paillettes, t'as zéro feat J'suis tout c'qu'ils détestent, barbe intégriste, prénom d'ient-cli, prénom d'ient-cli Un putain d'Gremlins mais version gentil, tant qu'mes couilles sont vides et qu'mes verres sont remplis J'te disquette, j'te mets ien-b, j'te disquette again Tu sors plus d'la bre-ch' comme dans escape game Bon courage Jogging dans la rue et mal rasé, bah ouais, la vraie vie, c'est pas Insta' Vivons heureux, visons cachés, j'montre plus ma racli sur Insta' Le pilon d'Rooster est bien tassé, du seum dans doudoune matelassée Tu cherches le bonheur, il est d'jà passé, j'pars à sa poursuite dans un Classe C Objectifs revus à la baisse, on sait tous qu'il vient pas d'la tess On sort pas des mêmes endroits, évite-nous tes maladresses Mes parents n'savent plus m'conseiller sur toutes les sommes que j'encaisse Attaché, fouetté comme la C, j'venge la moitié d'mes ancêtres Que des vieilles choa dans les gares et j'parle pas si j'connais pas J'fais rentrer vingt meujs au placard et j'les fais solo pour mon gars Et ceux qui sont là quand j'vais mal, qui m'accompagnent quand j'voyage Ce soir, l'resto, il est pour moi, demain, il paye ou on partage Et garde tes symboles de réussite, j'vis pas dans un clip, nique le carré VIP Le monde est ma baby, baby, ne fais pas comme tout l'monde, ouais, évite-moi la traîtrise Aujourd'hui, j'suis sûr de moi, j'apprends d'mes erreurs et sur le tas J'crache pas dans la soupe mais j'mets les pieds dans l'plat, yah, yah, yah, yah On crame les feux et les carrières, 9-3 j'ai pas grandi en Ariège L'hiver, j'veux r'tourner en Espagne, l'été, j'veux r'tourner en arrière, logique J'suis avec V2E, rouge, orange, on crame les deux feux Le rap, j'en ai marre wAllah, j'préfère écouter Marwa Loud, Oh la folle La nuit, les gens font du sexe, les gros nibards, c'est un don du ciel Bébé, m'parle pas d'réduction mammaire, pour moi, c'est la pire invention du siècle Guignolo, casse-toi d'ici, sache que t'es bien si t'as pas d'CB Tu pourrais percer mais t'as mal ciblé, j'ai lu ton av'nir dans la p'tite chatte à Phoebe Je veux l'respect, je veux l'compte en banque, j'veux qu'à la radio et sur scène, on m'entende Ils m'ont vu avec Sefyu, avec Lomepal, ces connards, y croient que j'suis l'chaînon manquant Ils le savent au fond d'eux, pas b'soin d'approfondir Riquelme, qu'j'ai la balle, qu'j'écrive ou que j'baise, j'recherche la profondeur, woof woof woof J'suis pas un exemple, j'vis n'importe comment et tous les cinq ans, j'vais pas voter Et lui, il fait n'importe quoi, comme ils s'aimaient pas, elle a dû avorter La conscience en feu, j'passe encore des nuits blanches à chercher un sens à nos vies Tout c'que j'sais j'me sens pas comme eux, j'me tuerais pas pour une paire de Gucci Quand tout va bien, on se rappelle de toi, on t'appelle le sang et si tu réponds pas, on dit qu't'as gé-chan, eh Mentalité gilet jaune sur les Champs ouais, bouteille de champagne, mes déprimes en stand by On fête la naissance d'un nouveau-né dans mes proches, chaque jour, on s'engage Ça sort des quartiers d'Paname, pas comme tu l'imagines mais des quartiers haram Là où la fin est triste, là où l'destin te balafre et les p'tits en chien te bazardent, nous, on fait l'plan, on s'arrache En deux-trois coups d'fil, j'ai l'avance de la frappe, aujourd'hui, j'suis avec toi Demain, sur le tarmac car traîner dehors, c'est les problèmes, mauvais endroit, mauvais moment La bouche en sang, j'avais trop d'haine, attiré par des mauvais penchants Trottinette volée dans le bât', délocalisée, d'venue intraçable La BAC est passée dans le square, shlag défoncé dans le noir, wow wow Ma mère ne m'sait plus ici, anti-camer, Tunisie, à chaque contrôle, on t'humilie, wow wow Ouais, putain, c'est la merde Mon âme est pure et chaque bavure la crucifie Le monde est filtra mais j'vais l'infiltrer, le biff, c'est fictif, la mort, c'est vite-fait J'suis pas un chic type, l'amour, c'est surfait, le globe est fucked up, j'suis dans la surface J'pense à la mille-fa, il faut qu'j'me surpasse, la faute à pas d'chance, nan, ça n'existe as-p Poto, j'ai pas l'temps, pourquoi tu piges pas ? J'veux la plus grosse part de la pizza J'sais pas si t'as vu, c'est la guerre dehors, pourquoi tu me parles de ta garde-robe ? Infecte comme un plat de garde à vue, j'ai mon parka, tous les jours, je brave dehors Ça fait des années que je frappe le sac et je frappe fort, je veux que tout l'monde le sache Je m'actionne, des années que je taffe mon rap, j'leur pardonne, au fond, ils pouvaient pas savoir Le pire est sûrement à venir mon frère, le monde ressemble pas à l'avenue Montaigne J'casse la démarche et je rallume mon teh, désolé mama, j'suis pas fils modèle Moi, j'ai mille problèmes et ton fiston t'aime et ton fils comprend qu'y a des vices sur terre J'veux le biff comptant, ouais, le monde scellé, j'ai enlevé le cran d'sûreté J'compte ni évoluer ni changer, t'as bibi ni los-ki, ni cent g' Tu connais ni l'Maroc, ni Tanger, j'fume une chicha devant Nice - Angers Elle m'manque mais j'vais pas courir dans l'vent, j'repense à nous fou rires d'antan Son cul est beau comme ton père qui r'trouve un taf, sa chatte est belle comme un sourire d'enfant Dans les faux, y a trop d'frères à lister, j'veux qu'les renois m'respectent comme leur mère Qu'les rebeus m'respectent comme leur fer à lisser, woof woof woof woof Eh, j'bois la pisse de Lucifer, posé dans l'club vers l'urinoir Ils mettent un p'tit son d'Lil Uzi Vert, dans la ve-ca, y a un lil Uzi noir Gros, j'écris comme Zola, ride la night comme zonard Barbare comme Conan, moi, j'rappe pas comme un autre connard Ma rue, elle pue la pisse, ma voisine, elle pue la tise Y a du nouveau shit, c'est plus la crise mais ça perturbe la paix comme Ludacris, mec C'est l'omerta, gros, nos nerfs craquent, le bruit des gyros, on les entend tous Ça pisse là où nos mères passent, ça tire où les enfants jouent Ouais, mon poto, il m'a fait d'la peine, sa femme la putain s'est tapé l'masseur Si t'es belle, je t'appelle ma belle, si t'es pas belle, je t'appelle ma sur Logique, wallah t'es comme une re-su pour moi C'est même pas une question d'physique ou quoi mais, t'as vu, j'veux t'garder comme une sur Limsa d'Aulnay, enfoiré Bon allez, c'est l'instant émotion... Fier de mon reuf Chaud t'valide, j'veux t'serrer dans mes bras, marre de t'parler par courrier qu'une salope, qu'une proc' va lire Le linge s'lave en famille mais y a trop d'valises Qu'est-c'que j'donnerais pour t'secourir ? J'suis trop khabat pour me souv'nir On partageait la couette pour se couvrir, maint'nant, ça ment aux re-shta pour se couvrir J'ai noyé ma peine dans tout l'pays, j'cogite sous rhum et sous Blueberry On a encaissé des drames et des coups terribles, le reste de mon âme dans les égouts d'Derry J'les baise, j'ai même pas mis l'pénis entier, les keufs surveillent ton phone, tes écoutes, tes rimes Si j'voulais ouvrir un établissement qui marche j'ouvrirais pas d'chicha mais un pénitencier Dehors, c'est la guerre, à qui la faute ? La vérité, très peu qui l'affrontent La guerre, la paix, t'façon c'est la même chose plus de mecs qui la veulent que d'mecs qui la font On s'est d'jà embrouillé pour de la merde un peu comme Hatem et Unai Moi, j'veux juste t'faire libérer une night, woof woof Là, j'écris c'texte et j'm'allège d'un poids, j'vais pas t'faire la morale, le malaise d'un cours La morale, j'l'ai d'jà faite vingt fois, tu t'es l'vé un matin, tu étais balaise d'un coup Baltimore grandit, 'l'aime ça, couplets mordent, ici les rappeurs sont des crooners Gégé m'a dit Dans cette ville, gros, l'amour est mort, l'amitié, la cherche pas, elle est tombée pour meurtre Pour les grands, t'es l'p'tit frère de Limsa, pour les p'tits, j'suis l'grand frère de Neggez On reste des frérots, des frangins, on n'oublie pas Blandin, woof On s'est d'jà embrouillé pour de la merde un peu comme Hatem et Unai J'suis content, y t'ont libérer une night, woof woof, woof woof woof woof Allez, tiens, vas-y, garde la nnaie-mo, j'suis sous caramelo, j'ai croisé les shtars à vélo Tous ceux qui jouent les victimes, moi, ils m'font pas de la peine, c'est mérité, la vérité, ils m'ont mis grave la haine J'crois, dans cette vie bizarre, j'vais m'en sortir à l'arrache, comme un mec qui sait pas nager, qui veut s'enfuir à la nage Faut mettre les p'tits à la page, faudrait qu'on s'tire à la plage Y a tout l'monde qui a la rage, j'veux commettre un crime à la hache Là, y a les keufs, j'suis chargé et ça fait battre mon cur J'aimerais les larguer un peu comme si j'avais quatre moteurs T'es prêt à piller, voler pour les billets violets, weed et dolé Avant d'détailler, tu plies tes volets Tu finis par connaître tout Paris à force de vendre Demande à Kenny de Porte du Pré, jusqu'à Porte de Vanves Eh, monsieur l'agent, de l'argent, c'est c'que rapporte le temps Donc faut bombarder un peu comme quand je sors le deux-temps Enfoiré Wesh mon gars, qu'est-ce que t'es prêt à faire pour le cash ? Qu'est-c'que t'es prêt à faire pour le cash ? Qu'est-c'que t'es prêt à faire pour le cash ? Qu'est-c'que t'es prêt à faire pour le cash mon pote hein ? Qu'est-c'que t'es prêt à faire pour le cash ? Qu'est-c'que t'es prêt à faire pour le cash ? Troquer ta liberté pour une cage ? Qu'est-c'que t'es prêt à faire pour le cash ? J'sais pas si j'vais m'en faire si j'vais r'gretter, si j'mourrais gangster, si j's'rais retraité Si j'péterais l'mis-per, si j'perc'rais l'mystère, si j'verrais l'hiver, si j'verrais l'été Pour percer faut rapper comme un débutant, y veulent qu'on soit des moutons et pas des mutants, woof, woof Bien sûr, j'veux qu'ça marche et qu'tout l'monde soit ravi mais j'veux pas apprendre à dire Bonsoir Paris, en vingt-et-une langues, woof woof Dehors, y a plus d'respect, mes frères n'ont plus d'espoir, c'clochard n'a plu d'Despe', woof Moi, j'observe la Lune des toits, mes frérots n'ont plus d'été, mon ciel n'a plus d'étoile, woof Dans l'ghetto, ça t'arrache le bras pour une montre, mes potos, y attendaient beaucoup du nombre Avec mes amis d'enfance, on rêvait d'quitter la tess' pour faire l'tour du monde, on s'retrouvera autour d'une tombe Quand j'ai des galères, où t'es toi ? Le droit ch'min, j'ai pas pris du tout cette voie A-S-B, gros, les vrais amis s'font rares, comme un keuf qui dit M'sieur, ça ira pour cette fois Hein, qu'est-c'que t'es prêt à faire pour le cash ? Qu'est-c'que t'es prêt à faire pour le cash ? Troquer ta liberté pour une cage ? Qu'est-c'que t'es prêt à faire pour le cash, mon pote, hein ? Putain, j'ai fini mon flash, j'en prends un deuxième chez Jamel Sur l'périph', encore un flash, les amendes, j'les paye jamais Faut pas cracher dans la soupe, des années qu'ils nous la foutent C'est les voyous en costard qui la font passer dans la soute Oh mon ami, faut des sous et comprendre la vie sans sous-titres Chérie, comprends, j'suis un peu saoul, mets la selha dans ton soutif' C'est la tête du chef qu'on dessoude, nous, sous les yeux des choufs Kiffe quand on arrive à bout de souffle, c'est ceux qu'on aime qu'on fait souffrir Ah, putain de merde, dur de s'en sortir sans une égratignure Et sur ma mère, que dans la ue-r, y a beaucoup trop d'ingratitude Mon escalope gratinée, un verre de rosé Une escalope aux yeux verts, j'passe une soirée arrosée La moitié sont condamnés, Villepinte, Fleury-Mérogis L'illicite dans mon registre, c'est la rue qui parle, enregistre Entre galère et drame, des années qu'j'travaille ma rime C.O.R., c'est dix ans d'rap et l'premier album arrive Entre galère et drame, des années qu'j'travaille ma rime C.O.R., c'est dix ans d'rap et l'premier album arrive, boy J'rappe comme je chie, j'connais mes classiques Askip tu rappes comme moi mais tu fais pas d'fric, ouais J'rappe comme je chie, j'connais mes classiques Askip tu rappes comme moi mais tu fais pas d'fric À tous mes frangins, j'vais rendre la pareille Pour toutes les fins d'mois brisées par l'manque d'argent et l'Jack Daniel's C'est rare que j'sorte de ma tanière ou quand j'le fais, j'pars loin d'chez moi Eh vieux, j'parle pas chinois J'ai dix ans d'avance et j'écris toujours dans ma chambre, j'ai tellement d'projets en attente Ouais, tout est dans ma tête, chacun fait ses euros J'suis pas la jeunesse qui s'lève tôt, j'représente pas la France Et mes frères inconnus comme des joueurs de water-polo Moi, j'enchaîne les victoires, pressé par l'tic-tac Les déprimes quand la vie s'corse mais j'perds rarement espoir Nos vies sont remplies d'fils de pute, sur mon corps, des signes de lutte J'savais d'jà où j'allais quand tu découvrais les films de cul Quatorze-quinze ans, avec ma bande dans l'RER, ouais, j'emmerdais mes parents et puis le réseau ferroviaire Maintenant, j'respecte ma mère, y a plus mon cul posé dans des parcs Pas d'lendemain d'MD à déprimer comme un schlag Paris Nord, facile d'être armé dans la jungle, eh Pour rapper comme moi, il faut juste taffer comme un chien, j'viens d'là où tu peux pas rentrer Même si t'es stock, t'auras pas les codes, on peut t'balafrer Puis passe dans les halls mais comme moi, t'auras pas l'étoffe Y a qu'des hyènes qui vendent des drogues dures à des femmes enceintes J'connais les tieks et les bizbi, les peines de hebs, les grigris Tu fais du mal, ça t'revient en pleine tête, c'est pas un frisbee J'encule le vice des vils-ci, eh, gros Bien sûr qu'mes blancos du 7-5 sont Mafia K'1 Fry, eh Ça part en survêt', eh, avec des trous d'boulettes Petit avait la haine, des Air Max avec les bulles trouées Maintenant, il marche avec le froid du métal Et la shmeta a vraiment peur de s'faire retrouver Dadinho d'vient vite Zé Pequ' quand y a trop d'enjeux C'est chaud mon vieux des preuves, de l'essence, ça met des caves en feu Mes gavas savent à quoi s'en t'nir, tu finis pas cent'naire si tu déclenches l'incendie Depuis tout p'tit, bah, ça traîne tard en ville, normal qu'nos parents vrillent Maintenant, laisse ma clique avant qu'on d'vienne ta hantise, espèce de saloperie Voilà comment on crache le feu Quand j'prends l'mic', c'est pour les insoumis, j'parle de ceux qu'on oublie L'Homme de l'ombre n'a pas rangé sa panoplie Pendant qu'mes gars au cachot prient, j'vends des disques, c'est la folie J'ai lâché l'école très vite, j'fantasmais sur les yous-v' qui gazent les flics Ma révolution avec mes pitres, on casse des vitres Et aujourd'hui, on a grandi Ils veulent ma mort, j'dis la vérité comme Galilée, y a pas d'égalité, on va leur faire faire des galipettes Aulnay-sous, la qualité, la mentalité c'est porter ses couilles et d'vant la madre pas d'vulgarité On les a inspirés, dans la rue, l'rap est dead, donc, j'voulais rappeler qu'c'est nous le rap élite Et ça devient pénible, ils ont pas un penny, ils montent sur des péniches, ils sucent que des pénis C'est nous qu'avons les cojones comme des balles de tennis, oh Pas de teminiks, d'vant moi, ça devient qu'des 'nuques-nuques, avec monsieur Molotov, venus pour casser des nu-nuques Même si t'as la force de Luke, sahbi, c'sert à rien qu'tu luttes Et sur un coup d'te-tê, j'peux dégainer plus vite qu'L'y Luke C'tte année, ils vont khalass leurs dettes comme à Lannister Et mister, on est v'nus marquer l'histoire et ta p'tite sur On v'-esqui Lester, vi-sser les hipsters, mardi matin, voiture bélier d'vant l'distrib' On n'a jamais fait d'équitation, tits-pe, on faisait de la bécane J'avais déjà des palpitations quand j'entendais crier Emmaüs bien avant que l'Abbé canne Et gros, ce soir, j'suis fonce-dé comme Johnny Depp au milieu d'Las Vegas Si ma meuf fait la folle, poto, je lui fais l'amour, sa valise et je la dégage Ouais, gros, j'viens d'un quartier chaud où toi, tu fais rien à part per-cho J'suis avec Neggez dans la voiture, 9.3, y a des mes-ar, y a d'la pure C'est nous qui faisons le son de l'année, les caves et les frères s'font condamner Ramène même l'état et son armée, les p'tits frères bédavent et sont armés Faire semblant d'les croire, c'est bien, j'raconte ma vie, wallah, c'est mieux J'attends toujours la sse-pa, et j'vois qu'les promesses s'accumulent Être gavé, rassasié, voilà c'que veut la race humaine Ils pourraient manger l'assiette en t'regardant et assumer Si j'dis qu'le monde part en couilles, c'est qu'on n'est pas si loin, mon gars Que d'être en couple, j'tombe amoureux d'un Toka' La pute a des sentiments, elle est tombée amoureuse d'un tocard Méfie-toi des apparences ou bien, tu t'méfieras de moi On dit qu'l'habit fait pas le moine, j'ai vu des moines en Buscemi Les condés, j'les fais cavaler, c'est Cavalli, bébé, tu s'ras ma cavalière Si on s'capte dans une cave la nuit et nikoumouk et Barrani Y a qu'd'vant les porcs, t'as pas nié, suffit d'une balayette pour retourner ce foutu sablier Pour ça qu'j'ai rempli l'barillet, Aulnay sont en train d'vous parier Putain, j'ai l'âge d'être marié, c'est que l'début, donc reste au calme Mon blaze dans l'koutoki, j'ai mis du Jack dans mon Coca Fonc-dé, j'vois la tête à Chucky, on n'est pas si loin d'l'époque du , le 9-3, c'est pas l'Kentucky J'demande pas l'heure mais le prix de ta montre, avant de t'l'arracher d'vant ta femme et tes gosses On a quitté l'école pour rester dans nos, et on donnera pas d'noms juste par éducation Tes amis donnent le go pour une p'tite paire de seins, regarde pas ton retro, j'arrive dans l'angle mort La boite est séquentielle, la liasse est arc-en-ciel, on a tout vu ou presque, que le GP800, hlahlahlahla Paris-Malaga, trente kil' dans la cave, deux chiffres à la barre, au feu rouge, prends ton gramme La blanche dans la mule, cramée comme ma puce, j'rentre à l'heure où les corbeaux chantent sur ton cadavre Olala, olala, le baveux m'a blanchi comme monsieur Benalla, olala Ramène-moi mon biff', épargne-moi de ton tralala, toute la s'maine, en boite, on t'a vu faire la mala-la T'es un galérien, t'as pas d'vie mais quand j't'appelle, crari t'es pris Dans les rappeurs forts qui font pas d'vues, j'ai l'meilleur rapport qualité-prix En amour, j'suis un intermittent, j'l'aimais mais j'l'avais jamais dit Qu'est-ce j'vais faire le rebeu intelligent ? J'sais pas l'faire, en plus gros y a déjà Médine, logique J'ai une vie d'rockstar, j'ai une vie détruite, on fait du son, on vit des trucs Les guignolos qui bossent dans un bureau, wAllah, j'ai pas envie d'être eux J'suis avec le frère Majid, on parle à nos p'tits mais rien n'les fait changer L'État pense qu'la prison a un effet magique, alors que eux-mêmes, le crime les fait manger Le bénéf', mes gars l'rackettent, le bénéf', mes gars l'recomptent Un million égale record, les imposteurs tirent en l'air, oublient qu'les balles retombent L'égalité un mensonge, même pour les, tous mes enfants des îles Quand t'as pas d'papiers sur toi, c'est en zonz, les blancs, on leur dit La prochaine fois, pensez-y, woof woof woof Bassem, penalty en pleine te-tê, slllrp, j'sirote mon verre de thé J'm'en bats les couilles avec fermeté, ça fait six mois qu'mes so finissent par R.E.P. De quoi on parle ? Chacal J'désactive les com', j'les fous à poil Personne n'a jamais vu Picasso mendier des avis sous chaque toile alors bouge ta mère J'écoute ni la radio, ni les askip, viens, on s'checke pas, viens, on fait pas d'feat C'qui m'excite dans l'jeu, c'est même pas l'titre mais voir leurs gueules de putes quand elles ragequit Le suicide, c'est choisir sa mort, la réussite, c'est choisir sa vie Cinq heures, fin d'chantier, j'bave sur le siège de la ligne D en pensant wari wari Beaucoup arrivent ambitions Stringer Bell, r'partent avec la rondelle d'Omar Little Ils veulent mon flow, mon juice, ma cervelle, l'marabout comprend pas c'qu'ils veulent Luxe, luxe, j'ai des tocs, du toc à vingt-quatre carats ma p'tite gueule Mais j'essaye d'me convaincre que j'suis beau d'l'intérieur comme p'tite coupure dans sac Lidl Mais d'après l'boss là-haut, ça passe middle Ça charbon, ça charbon donc j'évolue, tes idoles sont pas bons, ils dévaluent Parle-moi de monnaie, de plus-value, les valeurs et tout ça, c'est révolu J'ai mes-ar sous coussin, peu d'retenue, fini millionnaire ou détenu J't'envoie des sorts comme à Cotonou, ces fils de putains sont pas comme nous Ouais, depuis le day one, bah, le rap transcende, la maille rend fou et tous les jours s'ressemblent Plus de monnaie égale plus de 'blèmes, plus de problèmes égale plus de sang J'ai commencé le rap car cur a mal, j'évolue au gré de mon karma Bientôt je vais en Benz au carwash, sur qui tu veux qu'je compte à part oi-m ? Sonne-per, c'est comme ça que le Fall opère Élévation d'manière solitaire, j'ai plus de patience, j'suis dans folie, frère Voici l'métisse, café, plus banc qu'un pack de lait J'sais qu'les autres cailles-ra veulent pas, moi, j'te bouffe la tartelette Rien à battre que t'écris bien, allez, bouge ta mère en Fac de Lettres Ton son pue la pisse comme n'importe quel mur de Gare du Nord à Gard de l'Est Même quartier, cages d'escalier, ça s'vanne fort entre riz et s'moule Qui aime bien châtie... mes couilles, regarde Dieudonné et Élie Semoun Donc moi j'paie ma redevance pour m'farcir Eric Zemmour Si j'vois un arc-en-ciel, j'espère qu'Paris brûle et l'Élysée mouille Ils m'écartent les jambes comme Ronaldo juste avant coup-franc Ils m'écartent les bras comme le Corcovado, j'leur souffle que des conneries comme quand la prof' envoyait mes potes au tableau Mais bon, tout l'monde s'détend, les porcs seront compétents quand les camés auront des dents, han Ça vend crack et zipette, sponso' par Fly Emirates Ça t'sort de sacrées disquettes pour disparaître après giclette J'reprends, tout l'monde Ça vend crack et zipette, sponso' par Fly Emirates Ça t'sort de sacrées disquettes pour disparaître après giclette J'ai qu'un mot d'ordre, c'est lâcher prise, c'est pas mon but de kidnapper l'biz' J'ai grandi dehors avec les rats des villes, ils sont bourrés sous rhum, ils d'mandent des garettes-ci Aujourd'hui, c'est vrai, on a nos objectifs, pour la vie d'adulte, j'suis pas trop aisé Le comptoir est philosophie, allô Jean, ce soir j'suis au PCC Y aura toujours des bâtons dans les roues, à nous d'faire attention aux lacets défaits Ma filleule saura rendre les coups, t'étonne pas si on veut t'défenestrer J'suis à l'hippodrome, au Prix d'Amérique, demain dans un hall avec mes rats des villes Et j'comprends qu'ma mère trouve ça pathétique, ils sont blindés d'fric mais ils ont pas d'éthique, eh Et mon pote s'est venté, ouais, de faire tomber la neige en juillet D'vendre plus de farine qu'un pâtissier, d'avoir très peu d'alliés et d'une voiture de sport et d'un vieux BEP Et puis cette fille, elle a bien d'autres rêves, et ça, on l'remarque dans ses yeux qui brillent Elle se dit chaque jour qu'le monde est à elle, eh ouais Les tits-pe quittent l'école pour la vente de stup', le million, qu'est-c'que tu veux qu'j'demande de plus ? Ta meuf nous suce pendant qu'tu parles sur nous, ouais gros sac, dis-toi qu'c'est toi la langue de pute Des potes au hebs deviennent fous, schizo', aucune injustice que ma rime n'défend Ils veulent dev'nir c'que j'suis, moi, j'veux tout c'qu'ils ont J'ai trop d'points forts, j'suis comme Marvin des Anges C'est sur elle qu'j'étais en sang à la sortie d'un café dansant, on a fait des bêtises comme quand on était enfants On va s'aimer, on va baiser, puis, on va r'gretter ensemble Ouais, la copine ne rêve sans faire des vux, quand j'vois les dégâts du mariage et du hebs J'peux t'en parler sans faire les deux car j'ai vu nos pères et des vrais gangsters rer-pleu Ado, j'ai pas pris l'droit ch'min, en disant T'inquiète, y en aura d'autres J'fais du Rap car j'viens d'Aulnay, j'aurais fait d'la country si j'étais du Colorado Ouais, on traîne en bande, d'la coca', quelques amis en vendent Dans la street, c'est dur de rester propre, connard, comme quand tu t'habilles en blanc On a fait honte à nos pères, à nos mères, t'façon, quoi que j'fasse, les internautes pianoteront Attitude de canard pour baiser à l'hôtel, attitude caille-ra quand on fait la bise à notre oncle Nos potes galèrent donc j'en place une pour eux, si t'as pas vu l'bourreau Dans les clips de mes potes, j'suis figurant, ouais, gros, j'ai jamais eu l'bon rôle Pas là pour plaisanter, pas là pour faire semblant Plus l'temps d'me présenter, le 9-3, c'est sanglant Il est où c'putain d'EP ? J'l'attends, ça fait cent ans Le reste, j'vais pas stopper, le bédo, c'est tentant J'vais boire un p'tit fé-ca, posé fratellini J'arrive à petits pas, j'arrive en tchilili J'aime bien quand on m'titille, j'aime pas trop Umtiti Aulnay, ça d'vient rentable, bientôt le grand Paris Des ients-cli présentables et est-c'que tu paries ? Mets-moi, une dix, une vingt, j'suis Jack, j'suis pas sous vin Poto, j'prédis ta fin, pourtant, j'suis pas devin J'les vois plus, ils sont loin, pourtant, j'suis tout devant C'est con, c'est décevant, nous, quand est-c'qu'on se vante ? J'arrive en coup de vent, j'repars un soir de pluie Tu l'écoutes mais il ment, il est falsch comme son re-cui Et j'les entends qui miaulent, dis-moi qui chehel qui ? J'traîne avec Cayman, j'baraude en Cherokee Nage pas où t'as pas les ieds-p, prends rien si tu peux pas nous yer-p' Kalash, si tu veux nous yek, Jack Da', Hennessy Moët 3.5.7 neuf, sous la couette, j'sors avec une frappe iranienne J'allume mon tel', j'vends d'la zipette, course poursuite avec les handeks Billets colorés, j'prends des ailes, on monte chez toi si t'as des dettes On t'saute à dix si t'es balaise, faut pas parler, gros, faut le faire Comme ça qu'on voit une paire de cojones, les gros poissons n'ont pas d'arête Transversal</t>
         </is>
       </c>
     </row>
@@ -2350,7 +2350,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>C'est la finale ! I can't believe it ! Faf Larage est Nidpool ! Ils se battent pour la finale ! Mais qui va morfler ? Jarod est Vegegra ! Si tas rate les épisodes précédents Si tas pas vote pour moi je te casse les dents De devant Comme le petit One Touch Man qui a lâché le rap Il vend des beignets sur les plages A Pataya depuis mon clash Quest devenu Mythoman ? Depuis sa raclée mesdames ? Ll charbonne en robe de chambre dans une vitrine a Amsterdam Nidpool ! Jai la dalle Jai pris la maille, des quarts et demi-finales Jai lamine tous les bails, sans égal Je suis dans le game ! Vegegra, Je les kenn El Barjo, Calighetto sont dead Je leur ai fait leur fête Rap Fighter c'est beaucoup trop facile Pour moi, je tue toutes mes cibles Je fais la fusion avec Goku Ma team vaut mieux que ton vieux legging Calighetto, je t'ai transformé en caligâteau C'était trop facile. Merci. Aligato ! El Barjo n'était pas un barjo Il était fragile je l'ai tue en impro Il a pris des coups de marteau, il avait même pas le bac pro T'es retourne dans ton cartoon charclo J'ai jongle avec lui, il a fait des saltos je me suis pris pour Ronaldo You might also like OK Vegegra. Tu proposes un Octogone Sans règles. Cest quand tu veux frère Tas parlé, moi jai parlé. Jassume OK Nidpool. On attend la date, le jour, lheure Octogone Pas darbitre. Et oublie pas la clause sur le Sandwich Grec Et jvais t'ni Je suis comme un brolique ou Broly gros Je vais te renvoyer au lit, bro Je te prépare un gros coup Un son beaucoup plus fort que ton ki, gros Tema ta combi on dirait un sadomaso Barre-toi qu'est-ce tu fous dans ma zone On sait même pas si t'as des nasaux Fashion faux pas ! Ta moustache ca lfaisait pas Dégarni de haut en bas Le nombril sous les sketba Heureusement qu'on voit pas ta gueule T'es tombe sur un castagneur Trop de level oblige de pull up J'arrose achète un pare-balles tout neuf Ahah ! Jesquive et tinflige un trauma Jfete ca avec Bulma Façon petite danse Fortnite Tes rince comme le vieux Sangohan en position ftale Tes le Sayan de la cave Tes même pas capable de fightback Finale de quoi, tu crois que t'es trop chaud Tu pues de la gueule prends un kiss cool mon gars tu parles trop C'est quoi ce nom tout pourri Nidpool t'as aucun assoss A force de te faire découper tu vas choper le tetanos Qu'est ce tu vas faire ? ... Donner de la force a ma camisole de beau gosse Immortel en detox... Pool ! Punchline même en morse Sous le vent... Ton vieux feat avec Celine Dion Tu fous la honte, range l'épée ressors les ballerines Demande pardon Je suis prince des Sayans t'es un monstre Genre Gollum en plus bidon Tu gères pas ta libido Je t'ai vu te frotter contre un guidon Je suis le haut de gamme dans ce rap game Dans ma tête y a tout le Allstar du fight, y a un gang Ca finit mal sur le ring, ding J'humilie les fragiles en streaming Krav maga, pencak, patates de viking King des x, moi, pour illustrer mes textes Pas de clip Mais des movies a 700 milli de recettes Ramener des trophées j'lai trop fait Corrige, défoncé, trop de refres qui se croyaient frais J'empale verbalement, dans des battles en anglais ou allemand Freestyle bestialement J'viens pour tuer cordialement Les rageux, les fâchés figés Qui pleurent devant leur écran Ils m'ont vu peter la bouche a leur poulain machinalement N1 dans les listes des booky pour les paris Selfies de l'asile a la Street, j'suis une armée au cromi Je suis riche ils sont fauchés Je suis très gras je soulève des rochers J'ai une famille de fou je suis refait Détruire des planètes le projet J'ai fait un voeu demande a Shenron Il m'a dit que j'aurai les éloges Que jles avalerai comme un Senzu Et que ce serait moi le plus gros des Sayans Il kenn des aliens Quand je baille je défonce les barrières Je ne regarde jamais en arrière Je vous ai tue je vais mourir de vieillesse Jbalance des boules, ils balancent leurs boules Jsaute dedans et jécrase la foule Débite des boites, dégomme et découpe A la maison jramène la coupe Ramener la coupe a la maison Allez, allez, allez Ramener la coupe a la maison Allez, allez, allez Votez !</t>
+          <t>C'est la finale ! I can't believe it ! Faf Larage est Nidpool ! Ils se battent pour la finale ! Mais qui va morfler ? Jarod est Vegegra ! Si tas rate les épisodes précédents Si tas pas vote pour moi je te casse les dents De devant Comme le petit One Touch Man qui a lâché le rap Il vend des beignets sur les plages A Pataya depuis mon clash Quest devenu Mythoman ? Depuis sa raclée mesdames ? Ll charbonne en robe de chambre dans une vitrine a Amsterdam Nidpool ! Jai la dalle Jai pris la maille, des quarts et demi-finales Jai lamine tous les bails, sans égal Je suis dans le game ! Vegegra, Je les kenn El Barjo, Calighetto sont dead Je leur ai fait leur fête Rap Fighter c'est beaucoup trop facile Pour moi, je tue toutes mes cibles Je fais la fusion avec Goku Ma team vaut mieux que ton vieux legging Calighetto, je t'ai transformé en caligâteau C'était trop facile. Merci. Aligato ! El Barjo n'était pas un barjo Il était fragile je l'ai tue en impro Il a pris des coups de marteau, il avait même pas le bac pro T'es retourne dans ton cartoon charclo J'ai jongle avec lui, il a fait des saltos je me suis pris pour Ronaldo OK Vegegra. Tu proposes un Octogone Sans règles. Cest quand tu veux frère Tas parlé, moi jai parlé. Jassume OK Nidpool. On attend la date, le jour, lheure Octogone Pas darbitre. Et oublie pas la clause sur le Sandwich Grec Et jvais t'ni Je suis comme un brolique ou Broly gros Je vais te renvoyer au lit, bro Je te prépare un gros coup Un son beaucoup plus fort que ton ki, gros Tema ta combi on dirait un sadomaso Barre-toi qu'est-ce tu fous dans ma zone On sait même pas si t'as des nasaux Fashion faux pas ! Ta moustache ca lfaisait pas Dégarni de haut en bas Le nombril sous les sketba Heureusement qu'on voit pas ta gueule T'es tombe sur un castagneur Trop de level oblige de pull up J'arrose achète un pare-balles tout neuf Ahah ! Jesquive et tinflige un trauma Jfete ca avec Bulma Façon petite danse Fortnite Tes rince comme le vieux Sangohan en position ftale Tes le Sayan de la cave Tes même pas capable de fightback Finale de quoi, tu crois que t'es trop chaud Tu pues de la gueule prends un kiss cool mon gars tu parles trop C'est quoi ce nom tout pourri Nidpool t'as aucun assoss A force de te faire découper tu vas choper le tetanos Qu'est ce tu vas faire ? ... Donner de la force a ma camisole de beau gosse Immortel en detox... Pool ! Punchline même en morse Sous le vent... Ton vieux feat avec Celine Dion Tu fous la honte, range l'épée ressors les ballerines Demande pardon Je suis prince des Sayans t'es un monstre Genre Gollum en plus bidon Tu gères pas ta libido Je t'ai vu te frotter contre un guidon Je suis le haut de gamme dans ce rap game Dans ma tête y a tout le Allstar du fight, y a un gang Ca finit mal sur le ring, ding J'humilie les fragiles en streaming Krav maga, pencak, patates de viking King des x, moi, pour illustrer mes textes Pas de clip Mais des movies a 700 milli de recettes Ramener des trophées j'lai trop fait Corrige, défoncé, trop de refres qui se croyaient frais J'empale verbalement, dans des battles en anglais ou allemand Freestyle bestialement J'viens pour tuer cordialement Les rageux, les fâchés figés Qui pleurent devant leur écran Ils m'ont vu peter la bouche a leur poulain machinalement N1 dans les listes des booky pour les paris Selfies de l'asile a la Street, j'suis une armée au cromi Je suis riche ils sont fauchés Je suis très gras je soulève des rochers J'ai une famille de fou je suis refait Détruire des planètes le projet J'ai fait un voeu demande a Shenron Il m'a dit que j'aurai les éloges Que jles avalerai comme un Senzu Et que ce serait moi le plus gros des Sayans Il kenn des aliens Quand je baille je défonce les barrières Je ne regarde jamais en arrière Je vous ai tue je vais mourir de vieillesse Jbalance des boules, ils balancent leurs boules Jsaute dedans et jécrase la foule Débite des boites, dégomme et découpe A la maison jramène la coupe Ramener la coupe a la maison Allez, allez, allez Ramener la coupe a la maison Allez, allez, allez Votez !</t>
         </is>
       </c>
     </row>
@@ -2367,7 +2367,7 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Pour certains c'étaient des potes, et pour d'autres des p'tits d'la cité Mais seulement un sur trois a survécu dans l'électricité Ça a été une réalité dure à accepter Le 27 octobre, Zyed et Bouna nous ont quittés Dix-sept ans et quinze ans, eh, trop jeunes pour partir Trop jeunes pour dire à tout l'monde On se reverra qu'en dehors de cette terre Vu qu'on est tous des hommes, on passera tous, tôt ou tard, par la mort mes frères Quand des mômes fuient la police par peur jusqu'à perdre la vie On doit s'poser des questions, moi j'suis juste un mec qui donne son avis J'suis là pour, on a tous vu au moins une fois les civils Déraper comme des barges dans la cour On s'comprend plus, de là tout part Quand même nos ministres désignent les gosses innocents coupables Aujourd'hui j'frémis parce que j'ai trois enfants Et garde ce dernier vers, car je sais c'que sentent les parents Mon Dieu, j'pense à Zyed et son accent blédard Son sourire gentil, et son pull à capuche Tim noir Toujours serviable et jamais en colère On l'appelait Lance-Pierres, il avait une force d'homme frère J'pense à Bouna, toujours avec Harouna Tout l'temps au Chêne Pointu, pourtant il habitait la PAMA Respect aux familles Traoré et Benna Le ghetto est en pleurs, j'en perds mes mots, Allah y rahmou You might also like On veut savoir ce qu'il s'est passé On veut nous cacher la vérité Toute une communauté sous haute tension Deux vies gâchées sans explication Une famille perd son enfant Impossible d'oublier, même avec le temps Bouna, Zyed, paix à vos âmes, paix à vos âmes Oh, paix à vos âmes, oh yeah Sur ce son, on rappe, on dédie cette zik à Bouna et Zyed Non j'ai du mal à croire J'ai du mal à voir ton blaze Bouna, gravé sur du marbre Tu t'en rappelles, chaque soir des bêtes de darka sur une rocade Histoire d'être capital, t'avais une tête de plus que moi Amateur de moto, danseur de XXX À fond dans les govas et les gos, de jour en jour je deviens fou Dans ma tête, de bons moment en boucle Demande à tous, depuis qu't'es parti je ris mais y a plus goût à rire Tu manques à la famille À chaque yer-pri, je prie que Dieu vous ouvre les portes du Paradis Sur ce, j'ai les nerfs, B2G, courageux, parole de frère Hier, j'ai croisé l'émotion, elle touchait le fond J'ai croisé des jeunes et j'ai croisé des mères, donc j'ai croisé le monde J'ai croisé les doigts, crois-moi j'ai prié ma sur J'ai pris ma feuille, j'ai pris mon cur et puis j'ai crié ma peur L'amour est fiable et tu l'sais, la guerre est bad Elle et lui vous êtes Bouna, toi et moi, on est Zyed On est des anges, on est des grands, on est les enfants qui dérangent Avec le cur en sang, on chante pour tous ceux qui nous manquent Nous sommes épuisés par les pleurs, à peine quinze ans, à fleur de vie Bouna, ça fait drôle de plus t'voir en roue arrière sur ton vélo Boucle d'oreille, sapé goss'bo J'ai lancé des projectiles pour vous venger Mais rien n'vous a réveillé, Zyed, où est passée ta tête Qui nous écoutait l'soir à la fenêtre du premier étage ? Parlais pas trop, trop sage Tristesse, dépit, faiblesse nous ont envahis La France est en deuil, le ghetto pleure deux des siens La colère dans les yeux, deux enfants sont morts pour rien Une pensée pour eux, lions nos deux mains Que Dieu leur ouvre la porte des cieux et qu'ça n'arrive plus demain Y a des écoles qui brûlent et des voitures s'embrasent OK brûlons-la mais pas l'histoire de base Bouna et Zyed, deux enfants morts avant l'âge Rien qu'd'y penser, moi ça m'fout la rage, hmm Hommage à mes deux potos, qui sont partis trop tôt Quand j'regarde leurs photos, un frisson me monte au dos On n'vous verra plus en mode peace à la cité Ça fera bizarre mais c'est une triste réalité Zyed et Bouna, malheureusement, nous ont quittés Qu'ils demeurent au Paradis pour l'éternité En attendant j'ai perdu deux d'mes res-frè Si c'était à refaire, ce couplet ben je l'referais À mes potes, Zyed et Bouna Reposez en paix Allah y rahmou Pensée pour Muhittin Ma présence n'a rien d'honorable, elle est juste normale J'serai toujours auprès des miens tant qu'ils auront mal C'que j'vois dans le studio, c'est beau, c'est grand Les miens se sont unis mais pas dans l'autodestruction Parce que les miens ont une force qu'il sont les seuls à ignorer J'attends l'jour où ils vont s'lever, s'élever dans le respect Que Dieu fasse miséricorde à nos frères Zyed et Bouna Faut voir comment respecter leur mémoire Pour Bouna et Zyed Je prends ma plume en versant quelques larmes Partageant la douleur La souffrance des familles qui les pleurent Comprendre ce qu'il s'est passé Exposer la vérité au grand jour Que ce fardeau soit moins lourd, oh yeah Bouna et Zyed restent dans nos curs à tout jamais C'est pour nos minots que j'retranscris mes larmes du bout d'mon stylo Pourquoi dans nos trous à rats, s'en sortent qu'une mino' J'tire le signal d'alarme avant d'en venir aux armes Paix à vos âmes et à vos XXX Morts pour rien, c'est l'slogan qui fera p't-être réagir ceux qui siègent à l'Assemblée Nous on s'est rassemblés pour rendre hommage à nos morts C'est à eux qu'on a dédié l'ceau-mor Traoré et Benna, c'est à vous qu'on a dédié l'ceau-mor Le cur serré devant ma feuille blanche La main tremblante, mal au crâne de voir qu'on nous écoute que quand les coins crament Toujours la même, c'est la merde, ainsi d'suite On veut fuir la misère à chaque course-poursuite Que Dieu donne la force aux familles en deuil À leurs proches pour surmonter cette dure épreuve Dites à Nicolas que malheureusement, derrière les voitures qui brûlent C'est la détresse des quartiers qui hurle J'lève la main en l'air à la mémoire de nos p'tits frères J'lève la main en l'air pour leurs pères et pour leurs mères J'parle avec le cur au nom d'une jeunesse en détresse Vas-y cours petit, cours, pour fuir la tristesse Qu'Allah leur pardonne d'avoir provoqué un drame Aujourd'hui j'appelle au calme, il faudrait éteindre les flammes L'âme est touchée mais le corps se relèvera Je demande aux miens de ne jamais baisser les bras Mourir d'sa belle mort est la chose la plus belle au monde Mais l'destin en a voulu autrement, quelle chose immonde Fin d'une vie humaine et des plaisirs éphémères d'la vie Nos curs pleurent de désespoir et la haine nous envahit Enivrés d'tristesse, leur non-présence nous blesse sans cesse L'ciel a voulu qu'ils décèdent, guettent dans l'au-delà mais laisse Une pensée à ces hommes qui n'vivent plus qu'dans nos mémoires Quelques temps d'silence à leurs personnes XXX La disparition de deux êtres innocents et honnêtes A provoqué beaucoup de rivières de larmes sur les pommettes Adolescents laissant derrière leur dos Des centaines de pleurs, des curs blessés et c'est en s'en- Traidant, en se serrant les coudes Que l'on peut rester forts quand la mort fait escale chez nous Salam à vous, tenez le coup, uvrez dans l'bien Difficile pour une famille d'avancer avec un membre en moins J'commence en faisant deux mesures de silence pour les enfances perdues En guise d'insulte pour tous les esprits tordus ... Sa mère! J'ai les nerfs de voir nos pères en larmes J'ai les nerfs de voir mes frères s'noyer dans l'drame Et lors d'un banal contrôle dans nos halls on a le rôle d'un animal pour la Gaule De vandales pour les héritiers d'De Gaulle XXX La France pays de rencontres XXX XXX La douleur parle, nous on perd des frères C'est juste un appel au calme dans cette époque de merde Paix à la famille, laissez-la faire son deuil J'verse une goutte sur l'sol et vers l'ciel j'jette un il Ça fait mal quand quelqu'un part mais c'est Dieu qui décide On s'retrouvera plus tard, sur la route sur laquelle on s'destine Morts pour rien, pour vous on a beaucoup d'estime Que Dieu vous garde, OK, reposez en paix À nos frères morts violemment, aux plus jeunes qui prouvent qu'on peut réussir brillamment Le plus important, l'dîn, on veut tous partir dignement Rattraper nos péchés, à part les drames, rien pour nous unir C'est c'qui nous manque, combien passeront la barre des trente Vies courtes mais intenses, profite des tiens, porte avec honneur toutes nos valeurs Décharger les mamas du poids d'nos malheurs Dramatique pour les familles blessées dans l'âme Résister pour exister, wesh les p'tits frères, faut éviter l'haram Y a trop d'souffrances au cur des abysses dans les quartiers d'France Alerte maximum pour les mômes, état d'urgence J'porte des fleurs pour les morts, faut qu'on y pense Et qu'on sème de l'espoir pour le futur Même si la poisse rend l'quotidien trop dur, même si les pleurs parlent quand des gosses partent N'oublions pas qu'les anges ne meurent pas C'est juste quelques mots en votre mémoire Votre histoire gravée sur le marbre, un hommage pour dire qu'y en a marre Un hommage à Benna, Traoré Deux p'tits frangins Allah y rahmou, qui sont partis haja Morts pour rien, là où vous êtes Inch'Allah vous êtes bien Beau temps, mauvais temps, vous étiez toujours contents J'ai du mal à réaliser qu'le temps nous a séparés Le mal qu'ils nous ont fait, ils pourront jamais le réparer XXX, Traoré Quelle époque nous vivons, quelle époque C'est pour XXX Quelle époque nous vivons, perdre sa vie sans raison Sans explication, la banlieue pleure à l'unisson Mais quelle époque nous vivons? On veut savoir le pourquoi du comment Dialogue de sourds, on nous répond en nous insultant Mais quelle époque nous vivons? Trop p'tits pour partir d'nos rangs Pas assez d'mots pour apaiser les parents Mais quelle époque nous vivons? D'autres agissent en cassant Manière douce, nous on transforme notre rage en chanson J'connais l'respect, pas celui qui sort d'la bouche des autres Celui qu'on m'a appris depuis tout gosse mais on est tous des hommes Ça m'désole et on s'demande que faire face à tout c'désordre Et pour s'faire entendre, faut qu'la voix d'mes couz' résonne Plus rien n'est sûr quand y a l'sheitan et ses miss qui zonent Mais qu'ils ont, à croire que ça leur plaît d'voir une enfance qui XXX Pendant qu'les best pigeonnent, j'vois le reste qui chôme Nous on est jeunes, plein d'avenir et c'est toute ma tristesse qui somme Dites-moi comment régler les problèmes en supprimant les solutions Ce système a trop sous-estimé sa population L'oppression a une faille, nous a enlevé deux de nos frères C'est les larmes aux yeux que l'on pratique notre prière 93, volcan en éruption, banlieue poudrière On n'éteint pas notre flamme, c'est jusqu'à la mort qu'on sera solidaire Tremblay en hommage, ma ville crame, lâchez les Canadair Y a rien à dire, dors avant d'partir en guerre Histoire triste, j'suis pas là pour m'faire d'la pub Les chtars guidés par Ibliss frère, ici ça devient rude Perdre deux d'nos proches pendant l'ramdam Une pensée hardcore pour les rents-pa qui pleurent l'âme I.S.L.A.M., ma source vitale Apprendre la mauvaise nouvelle d'un mort, mon frère, ça on l'vit tous mal J'accepte plus l'mektoub, les soucis ressurgissent Combien d'enfants avec une tombe avant qu'la France agisse Respect aux familles, aux amis, aux manifestants Existants, restant résistants Et exigeant, détestant les forces, les testant Et quel ordre? C'est l'désordre qui est présent Fort déplaisant, unis dans tous les sens Munis d'encre ou d'essence personne n'est perso Ou hésitant, devant c't accident attristant A cité ta cité s'assistant Tata nzambé XXX bongo XXX Benna, Traoré Ouais, c'est du meurtre, qu'c'est l'humeur vraie tumeur En attendant, s'rassemblant dans la lueur, truc flambant XXX tata na bisso Dynam, ouais ouais ouais ouais, hein C'est trop hard d'être morts pour rien ghetto hardcore cousin XXX com si cété ti moun a mwen Ka ressenti douleur là tout au fond a chair mwen Lé pa imaginé sa k'arrivé des frew mwen Des jeunes XXX morts XXX pour rien Allez XXX maman Traoré Famille Benna XXX j'en ai oublié Tou lé -XXX toujou là, pas la France XXX sa An juste ka espérer XXX Le mal au moment qu'tu ressens parce que t'es blessé par le mal qui ronge Tu tombes dans la dépression parce que les événements pour toi sont étranges Pour tous mes frères qui sont victimes d'avoir perdu un être cher Parce que le fruit d'un amour fraternel vient de disparaître J'ai reflété un mal de vivre parce que mes nerfs sont devenus ivres Parce que les gens ne m'épargnent pas, j'ai dû survivre Un petit sourire levé vers l'ciel, une éclaircie, l'soleil Ça prouve qu'on doit sécher nos larmes parce que nos âmes sont éternelles Dur d'clamer la paix alors qu'la liste ne fait qu's'allonger Ça m'enrage que nos vies s'embrasent pendant qu'Arnaud rêve à la vie d'Pete Sampras Les meilleurs s'en vont toujours les premiers, c'est pas d'leur faute Les prolos s'lavent les mains dans l'sang des nôtres Arrête de foutre le feu chez nos daronnes, déjà qu'elles sont mal logées Au fond, ça n'arrangera rien, tu sais Pense à nos martyrs et rappelle-toi qu'avant d'partir Il te faudra chérir la mif, qu'on arrête de courir car tu peux mourir vite Même un daron du bled fier ne peut retenir ses larmes Face à des mères accablées comme celles de Bouna et Zyed L'insomnie s'empare des familles du défunt Mais des fois, il n'y a pas de douleur que le sommeil sache vaincre Hache de guerre à gauche frolo pour un effort de paix C'est l'9-3 qui pleure quand Clichy-sous-Bois est en deuil J'ai de la peine car le décès de certains me reviennent en tête Les frères, laissez-vous bercer par la tristesse Sauvons les deux âmes Comment résister, honorer son charme Zyed et Bouna Nous restons sans voix Quelle choc de ne plus vous revoir Sur mon visage ne cessent de couler les larmes Que Dieu vous garde pour l'éternité J'ai l'cur brisé, car j'ai souvent rêvé d'un monde meilleur Que la guérilla urbaine et d'enterrer deux frères Traoré Benna, que Dieu vous pardonne Que Dieu vous ouvre les portes du Paradis Que la tension se calme ici-bas J'suis un frère parmi tant d'autres J'voulais faire passer un message de paix Mon phrasé porte le deuil On vient d'perdre deux âmes fraîches, deux anges On vient encore d'perdre deux p'tits frères On leur rend hommage le cur noyé dans nos larmes Nos plumes portent nos peines et les blessures de nos âmes Les cris sincères, ouala j'ai mal La douleur est intense et même le silence pleure Pas là pour condamner l'coupable, Dieu l'fera Lui-même Et qu'la paix soit avec la famille d'ces deux lumières Deux gouttes qui débordent le vase, écoute Le mal se disperse, les man se disent prêts à agir et à serrer les coudes Les poings en l'air et même sur les I Quand on est solidaire, qu'on attise la flamme et à deux morts on l'dédie Trop d'sirènes, pompiers flics et ambulances Qu'on allume un cierge au lieu d'ces ambiances brûlantes La délinquance n'est pas une profession dans la street Qu'ils arrêtent leurs étiquettes et d'nous classer dans leurs putain d'statistiques 271005, c'est la fin d'une vie, les larmes d'une mère Le calvaire d'un père et l'combat d'un grand frère Une sur perdue qui voit son frère partir au plus jeune âge Une mort incomprise et toute une tess qui prend la rage Un événement qui prend une tournure grave, des nuits d'émeute Avec une seule idée en tête, faut qu'y en ait un qui crève On veut la vérité pour Zyed et Bouna Une forte pensée pour les familles, Traoré Benna Crois-moi, j'ai eu froid dans le dos En entendant les commentaires de politiques au lendemain du drame Quand la loi et l'ordre font peur à des gosses et que le pire se passe Le respect, c'était de faire profil bas Il nous faut des responsables, ça doit pas toujours marcher dans un sens Parce que c'qu'il s'est passé n'a pas d'sens Mes pensées vont aux familles, alors rest in peace Mon Dieu, entends nos prières, c'est pas juste c'qui arrive Deux frères partent, des curs fanent, la violence pour morphine, frère Mon cur saigne, mon cur parle, mon cur aime, mon cur bat Aussi vite que l'approche de la vérité, donc militer Pour la même cause, même veine, même combat Familles Traoré et Benna Beaucoup d'force et beaucoup d'chance pour la suite frères, pour tous les miens On a les mains réanimées par les armes Ensanglantées mais vite lavées par les larmes, paix à leurs âmes Nettoyer les gouttes et lâche même des gouttes et Les frères sont dégoûtés, les parents sont alarmés Morts pour rien, seul l'avenir nous l'dira Ou en tirer une leçon les jours à venir on verra Pour l'heure, une prière pour les p'tits frères Une pensée à leurs parents en espérant d'meilleurs moments Né d'une mort, l'espoir vit, restons forts Clichy-sous-Bois Montfermeil présentent leur reconnaissance Des adolescents parés Pour cette oppression incessante, donc une vie de tarés Grandir sous l'enseigne Montfermeil Clichy Mon cur saigne, tu sais, tant de gâchis Re-fré, réfléchis, deux vies ont fléchi Ils ont dit qu'on agissait par haine Plus rien ne sert de défendre une vie déjà vaine Mais allez dire ça aux mères Que leurs fils méritait une vie éphémère XXX Parce qu'on nous a traités d'vauriens J'dédicace aux gosses morts pour rien Seule la violence du désespoir dégage cette odeur de peur Quand un jeune des ghettos meurt, je pleure De colère, c'est ça qui fait brûler les voitures Saoulé d'devoir enterrer les nôtres, vois-tu Français, écoute pas leurs putain d'histoires Si on agit ainsi c'est par la force du désespoir Comme à Clichy quand la mort t'électrocute Et combien d'raisons justifie leur mort? Aucune Le ghetto parle, le ghetto chante, le ghetto pleure Des larmes de peine C'est triste à dire, qu'il faille le pire Pour qu'on écoute nos curs qui saignent Mes pensées vont vers les familles Benna et Traoré, yeah Le ghetto pleure ces deux adolescents Un message de paix dans toute cette effervescence J'parle au nom du 7-7 Mes amitié pour les familles des défunts, c'est pour ces jeunes qu'on s'mobilise Une prose contre une rose Hommage à Bouna et Zyed, nos banlieues pleurent L'onde de choc retentit, j'crie ma douleur Un requiem pour ceux qu'on aime Nos HLM sont en berne, trop d'pertes et d'chrysanthèmes J'veux pas finir dans les bras du système Électrocuté ou cané, alors j'tire la sonnette d'alerte La mort ne donne jamais de rendez-vous Les khos, levez vos index dès que vous savez qu'elle va venir à vous J'avoue, ça fait si mal d'voir partir des p'tits et des fillettes De voir que de drames, la vie est ainsi faite Qu'Allah fasse miséricodre à Bouna et à Zyed Ils voudraient nous étouffer pour mieux nous avaler comme le ferait un boa La tasse ils veulent nous faire boire Paix à nos morts, d'ici à Clichy-sous-Bois Ils sont morts, ma voix gèle, j'suis rouge, tout est pêle-mêle J'vous connaissais pas mais au fond vous êtes une partie d'moi Moi j'pleure, rien que j'pleure C'est dur, la France a peur, comprenez notre émotion Trop d'nos frères à terre, deux ouais, ils étaient deux Pour le troisième, j'remercie Dieu Hein, sois fort Muhittin J't'assure, sois fort C'est pour nos deux p'tits frères, rest in peace Que j'lance d'ici, d'Évry-Courcouronnes à Clichy Si si, à prendre les jeunes pour des imbéciles C'est la douleur du ghetto qui se transforme en missile Et la banlieue ne veut plus lécher la vitrine Elle est brisée, et c'est la vérité que l'on vise La rue a mal, mais pas que depuis hier Et aujourd'hui les pierres ont remplacé les prières Hommage aux familles blessées Agressées dans leur chair, Seigneur dissipe leur gêne et le poids de leur détresse Chéris nos p'tits frères partis jeunes Pendant ce saint mois d'jeûne On en a marre de cette animosité qui règne, nous divise et nous trahit Mitraillés dans cette lutte perpétuelle qu'est la quête de notre salut Bouna et Zyed, dans nos mémoires à jamais gravés Pour Bouna, Zyed, j'ai l'cur qui palpite J'ai mal quand sans état d'âme, on prend l'âme À deux d'mes frères, RR, j'ai la rage Quand les larmes ressortent sur un drame Dans l'9-3 c'est ça, c'est cette situation qu'j'condamne J'rends hommage aux familles, j'prends mon briquet, j'allume la flamme Pour qu'tu voies d'en-haut ma tristesse pendant la salate J'fais une dou3a pour qu'tu partes en paix, refré Négro, on était en exode Mais j'pense qu'ils veulent nous voir visés, nos phases macabres et nos XXX XXX faut canaliser Gardez la foi mais faut que j'aie ce condé parce que nos vies sont jeu d'l'oie Prie pour pas tomber sur la case d'un colt Une mauvaise phrase comme nos refrés jouent à Liberté ou Volt On sait comment ça finit Un clash, une course-poursuite, un crash, la suite, un putain d'incendie Deux âmes partent, un mot d'provoc' et la France crame Sarko en tête des sondages, man, à qui profite le scandale? Malaise perceptible, chômage trafic et vente d'armes Tout l'monde s'affole parce que notre rap c'est pas du France Gall Anti flics et gendarmes, politique, chantage Contrôle où les képis semblent avoir dix ans d'âge Les deuils tournent dans les p'tites villes et grands axes Comme toute tragédie, l'histoire est triste et la fin semblable J'comprends pas pourquoi la vie est si dure, man Comment ça se fait, on peut perdre sa vie bêtement Combien de temps ils vont faire pleurer nos mamans Combien de temps ils vont nous marcher sur les pieds, man Traoré et Benna ne méritaient pas ça Mouille avec la peur au ventre pour une histoire de balles Y en a marre d'être mal catalogués Le ghetto pleure c'est la rue cette réalité Cause conséquence, voilà l'revers d'la médaille Les chèques d'assurance nous ramèneront pas les deux p'tits frères die 27105, Zyed, Bouna rendent leur âme Parole de grand, personne n'oubliera cette date, ce drame Maximum respect, pensée pour leurs milles-fa Leurs proches amis pour qui ça doit vraiment pas être cile-fa Perdre un être cher aussi jeune, c'est trop dar J'pose huit roses en leur mémoire, car trop tard C'est envers mes frères que je m'adresse car cette histoire m'attriste et blesse Mon cur saigne mais seule l'encre de ma plume se verse C'est d'la haine que tu peux lire dans mes yeux Mais c'est avec le cur serré qu'j'écris, un regard vers les cieux Allah! On m'a dit d'calmer donc j'garde la rage en moi Parce qu'un Black reste un Black, même vénère il reste une proie J'ai mal mais remplace mon arme par des larmes Car les flammes qu'il peut ne feront jamais revenir vos âmes Il n'y a pas pire enfer que d'penser qu'le Paradis n'existe pas En c'moment-même, les esprits des défunts nous hantent Ambiance de paix car j'ai le mal de guerre De quartier en quartier ça brûle parce que ce sont nos frères On va laisser les rancunes en route Apporter des gerbes de fleurs aux textes pour apaiser les têtes Chaque jour, des bougies s'allument et s'éteignent Bouna et Zyed, de leurs lueurs on s'imprègne Tout arrive par ici On envisage le pire Tous en état de crise Bouna, Zyed, martyrs La violence contre l'innocence Les héros n'existent plus depuis longtemps Ils ont bafoué votre enfance Gardez-nous une place, on vient dans peu de temps Oh, tous les quartiers ont les larmes aux yeux Trop de larmes pouvant éteindre le feu qui leur traversait l'corps En traversant mon cur, mon sentiment fut renversé Par un poids-lourd immatriculé par la mort L'amour et la mort, des extrêmes qui s'kiffent à mort Zyed, Bouna, destins liés par des câbles Si mon cur aurait eu des yeux, tu l'aurais vu saigner Benna,Traoré, Allah y rahmou, Sefyu Coupés dans leur élan, trop tôt ces jeunes sont die Deux familles, toute une génération en deuil, ma gueule Ç'aurait pu être un d'tes frelons, un d'mes frelons L'idée fait froid dans l'dos alors qu'j'suis pas tant qu'ça un frileux Vu qu'j'fais partie des cibles, il est donc impossible Qu'j'y sois insensible, des familles pleurent Bouna, Zyed, partez en paix vers l'ciel Nous on continue l'combat, qu'vous soyez pas morts dans l'zef C'est avec peine et haine que j'prends c'putain d'micro Car au-devant d'la scène, t'as la mort d'mes deux frelos À qui j'dédie c'morceau pendant ce temps d'fléau Ça vient du cur khey, j't'assure qu'c'est pas du mytho En bref, malgré ma froideur, sur c'beat j'ouvre mon cur Pour rejoindre les deux familles dans leur propre douleur Et quoi qu'il arrive, pour nous, vous êtes toujours là À jamais gravés dans nos curs, Zyed et Bouna J'remplace l'alcool par de l'eau céleste, le bédo par une datte On s'connaît pas mais c'est pour Bouna et Zyed À c'que j'vois, vous aviez des potes et des gens qui vous aiment Depuis votre mort, les jeunes ont déployé leurs ailes J'ai le cur noué, Bellahi je le jure c'est vrai À nous tous, ça peut tous nous arriver J'envoie des dou3as pour vos familles, vos larmes inondent toutes nos villes Et votre mort résonne dans toutes nos vies J'peux pas camoufler ma peine, j'peux pas camoufler ma haine Hémorragie interne, j'me porte bien mais l'cur saigne Une flamme subsiste pour Bouna et Zyed Siaka, Biggie, Montfermeil Clichy Maillot, Silly, Sur-Marne-Neuilly Sachez qu'le 9-3 côté Est ne vous oublie La Tunisie, la Mauritanie aussi, ces lignes vous sont dédiées À vous et vos familles, pour vous, j'garderai bonne mine, promis Ma plume se plie, les mots sont trop lourds Des actes injustifiés qui emmènent des conséquences trop lourdes Conscients que le temps passe, de nos esprits rien ne s'efface Mes frères, je vous embrasse, nos vies s'éteignent, les frères j'vous rends hommage Le remède c'est qu'on s'entraide Tu sais pour qui on plaide, il était une fois Bouna et Zyed Partis trop tôt, Allah y rahmou, message de paix en votre mémoire Vos noms sont gravés à jamais dans notre histoire Mort subite que nous n'oublieront jamais reste gravée dans nos mémoires On peut pas s'en débarrasser comme le reflet d'un miroir Accrochés à la réalité, mes reufs s'en sortiront Triste destinée, pour réussir prêts à se prosterner Consternés par la tournure des choses Mourir, ou lutter tous pour nos familles et disparus Korozeef, message du cur Ceci nous rappelle que toute âme revient au Créateur Ouais J'ai le cur qui saigne Tant de compassion s'imprègne Au-dedans de moi, des choses me font perdre la foi De voir des jeunes s'en aller aussi souvent que ça Je compatis, c'est si triste La justice grise, nos ciels sans couleurs Un venin de couleuvre Déjà trop dans nos vies, détruit nos frères et surs Ils nous brutalisent, la justice couvre La presse se rend complice et personne ne l'ouvre La pensée réactionnaire connaît des joies intenses Quelles sont les premières victimes en proie à la violence? Ceux qui ravalent leurs mots jusqu'à vomir des pierres Ceux qu'on réprime dans le sang comme en temps de guerre Bouna et Zyed, juste jeunes et envie de vivre Qui n'en demeurent pas moins des exemples à suivre Bouna, en entendant ton nom ou en voyant ta photo Des milliers de flashbacks me remontent au cerveau Je t'avais appris à nager Je me rappelle ce jour-là, t'as failli te noyer Je t'ai côtoyé depuis ta tendre enfance Je me rappelle de toi, m'étant décroché avec la plus grande aisance La BDS a shooté votre crew Mais avec le temps cette équipe s'est dissoute Biggie, Kahi, mon p'tit frère est parti Que Allah lui ouvre les portes du paradis Encore des anges qui partent trop tôt dans l'ghetto Et la tristesse fait couler l'encre de mon stylo C'est avec la main sur l'cur que j'lâche mes mots J'ai d'la rage, j'ai d'la haine, j'ai d'la peine et j'n'arrêterai pas s'il faut Ça a toujours été nous contre eux On est rien dans c'bas monde, que Dieu vous garde Nous on restera sur nos gardes C'est dans les cieux que vos frères et surs vous regardent, Zyed et Bouna Une mesure de silence Pour nos frères Bouna, Zyed auxquels on pense À l'heure actuelle, vos noms sont gravés dans nos têtes Que vos âmes reposent en paix, c'est tout c'qu'on souhaite La main sur l'cur, la mille-fa plongée dans la douleur Triste sort, la mort est venue frapper à leur porte de bonne heure Sous nos bonnets on a d'la peine Comme tu l'sais, dans nos quartiers, seule la mort règne et les curs saignent Encore deux d'nos p'tits partis, ça suffit Pour Bouna, Zyed avec qui j'avais pas encore d'affinités C'qui n'empêche pas d'témoigner ma solidarité Militer afin d'limiter, les saignements d'nos curs déjà irrités D'une tristesse profonde, on est tous héritiers Une larme tombe, mais peut-on les éviter J'ai un frère du même âge, voilà la vérité À vous et vos familles, j'rends hommage avec sincérité J'viens rendre hommage, Mister Daï De Neuilly-sur-Marne à Clichy, j'vous épargne mes analyses car l'résultat sera l'même Ça m'fait mal, j'ai d'la peine, alors ma haine j'la canalise Rien ne pourra faire qu'ils nous reviennent, j'en ai les membres qui s'paralysent Le poing gauche serré, la tête baissée, la main droite sur l'cur J'en place une pour la famille qui auront toujours ce mal au cur J'm'exprime en leur mémoire parce qu'ils manqueront jamais à l'appel Que leur flamme s'éteigne en paix, que leurs âmes reposent en paix Une couronne de fleurs pour Zyed et Bouna Ça fait mal au cur, on ne peut que supporter leur mille-fa Difficile de consoler après la mort Sur la tombe d'un proche, c'est tellement dur de rester fort Obligé de contenir ma pensée Par respect pour leur mémoire, donc je vais me contrôler La vérité n'est jamais facile à dire Attendons de la savoir, pour l'instant calmons les tirs D'abord mes condoléances aux frères, aux surs, aux rent-p's Aux amis qui étaient si chers au cur de Zyed et Bouna Pour lesquels je cace-dédi ce rap, même si j'les connaissais as-p Mec, je suis à-l, ouais, à cent pour cent avec eux, avec mon cur et mon âme Pour que ce genre d'événement ne se perpétue as-p On tue les jeunes dans nos tiers-quar, tis-gra Faudrait qu'ça cesse parce qu'on commence à en avoir vraiment marre J'ai le cur en sang, j'ai du mal à caresser J'ai des sentiments bloqués XXX des petits frères sont die Pour m'en remettre faut plus qu'une douille, khey Je suis banlieusard, blesse pas les mêmes même si l'envie de mitraille Graille, y a cette envie de tout fumer Mais au fond ça sert à rien maintenant comme notre quartier est cramé Pour les madres, poto, fais preuve de respect Tout se paie, que leurs âmes reposent en paix Dur d'en parler sans offenser vu qu'la douleur est encore vive Ce rap est une prière pour nos deux frères partis trop vite Que Dieu les garde, que Dieu protège leurs familles Que Dieu leur donne d'la force et du courage pour affronter la vie Paix à leurs amis, soyez gardiens d'leur souvenir D'leurs visages, d'leurs sourires, sachez qu'on est tous avec vous Même si c'est l'mektoub, on s'demande quand même XXX C'est pour Zyed et Bouna, Allah y Rahmo XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de nos enfants XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de vos enfants Dans l'ghetto, on a perdu l'sourire, on n'arrive même plus à rire On a vu des frères partir et plus jamais revenir La haine, la rage, la tristesse dans nos yeux, ça m'fait tellement réfléchir Mais qui accuser, Dieu l'a voulu Il crée des trucs, comment puis-je Avoir la haine envers mon Créateur, c'est cru J'n'arrive même plus à fermer les yeux Les souvenirs du passé n'cessent de me hanter Ça m'fait bizarre d'ressasser le passé J'rends hommage à ces p'tits partis trop tôt, partis pour rien Une pensée aux familles c'est 15-24 soutien Un départ prématuré, ils sont privés de c'monde pourri On est blessés à jamais, que leurs esprits reposent en paix C'est dommage, surtout à leur âge Et j'me demande encore pourquoi on n'est pas tous devenus sages Mais l'seul message, c'est qu'y a encore des parents Qui ont perdu leurs enfants, et ça tirons-en un enseignement La vie est bien trop courte pour qu'on s'fasse la guerre La vie est bien trop courte, profitons d'nos frères S'mobiliser, c'est bien, changer les choses c'est mieux Instant d'paix en espérant qu'on vivra tous vieux Quoi qu'il arrive, on doit rendre des comptes Pose pas la question pourquoi, on y passe tous Qu'la vie soit longue ou XXX Mais la mémoire elle reste, comme quand on s'pose Y a la dignité d'deux êtres qui s'impose Quelques mesures pour la mesure du monde immonde Où on traîne nos corps en attendant la suite Que vos noms soient jamais oubliés Bouna, Zyed, c'est nous pour vous à jamais Demande du calme, ne transformons pas notre deuil en drame Laissons couler nos larmes, demande la paix face aux armes Mais t'es un fou, renoi c'est nos p'tits frères qui sont partis pour rien Toujours nos mères qui pleurent, toujours cette putain de haine au cur Cesse tes rancurs, on a l'devoir de calmer la rage Avec un grand cur, nous sommes unis pour faire un hommage Ça sera toujours les mêmes personnes qui y laisseront des plumes Notre quartier fume, il faudra bien que quelqu'un l'assume Qu'on s'le dise, y aura pas d'paix sans l'mot respect Zyed et Bouna, que vos âmes reposent en paix Négro c'est l'deuil, coupe le moteur de l'YZ Mon stylo pleure d'l'acide au nom d'Bouna et Zyed Tristesse et rage, jeunesse arrachée par la Faucheuse La mort n'attend personne et on confie son âme à Dieu Saluer la République, y a pas moyen Tout c'que j'ai retenu d'la Marseillaise,</t>
+          <t>Pour certains c'étaient des potes, et pour d'autres des p'tits d'la cité Mais seulement un sur trois a survécu dans l'électricité Ça a été une réalité dure à accepter Le 27 octobre, Zyed et Bouna nous ont quittés Dix-sept ans et quinze ans, eh, trop jeunes pour partir Trop jeunes pour dire à tout l'monde On se reverra qu'en dehors de cette terre Vu qu'on est tous des hommes, on passera tous, tôt ou tard, par la mort mes frères Quand des mômes fuient la police par peur jusqu'à perdre la vie On doit s'poser des questions, moi j'suis juste un mec qui donne son avis J'suis là pour, on a tous vu au moins une fois les civils Déraper comme des barges dans la cour On s'comprend plus, de là tout part Quand même nos ministres désignent les gosses innocents coupables Aujourd'hui j'frémis parce que j'ai trois enfants Et garde ce dernier vers, car je sais c'que sentent les parents Mon Dieu, j'pense à Zyed et son accent blédard Son sourire gentil, et son pull à capuche Tim noir Toujours serviable et jamais en colère On l'appelait Lance-Pierres, il avait une force d'homme frère J'pense à Bouna, toujours avec Harouna Tout l'temps au Chêne Pointu, pourtant il habitait la PAMA Respect aux familles Traoré et Benna Le ghetto est en pleurs, j'en perds mes mots, Allah y rahmou On veut savoir ce qu'il s'est passé On veut nous cacher la vérité Toute une communauté sous haute tension Deux vies gâchées sans explication Une famille perd son enfant Impossible d'oublier, même avec le temps Bouna, Zyed, paix à vos âmes, paix à vos âmes Oh, paix à vos âmes, oh yeah Sur ce son, on rappe, on dédie cette zik à Bouna et Zyed Non j'ai du mal à croire J'ai du mal à voir ton blaze Bouna, gravé sur du marbre Tu t'en rappelles, chaque soir des bêtes de darka sur une rocade Histoire d'être capital, t'avais une tête de plus que moi Amateur de moto, danseur de XXX À fond dans les govas et les gos, de jour en jour je deviens fou Dans ma tête, de bons moment en boucle Demande à tous, depuis qu't'es parti je ris mais y a plus goût à rire Tu manques à la famille À chaque yer-pri, je prie que Dieu vous ouvre les portes du Paradis Sur ce, j'ai les nerfs, B2G, courageux, parole de frère Hier, j'ai croisé l'émotion, elle touchait le fond J'ai croisé des jeunes et j'ai croisé des mères, donc j'ai croisé le monde J'ai croisé les doigts, crois-moi j'ai prié ma sur J'ai pris ma feuille, j'ai pris mon cur et puis j'ai crié ma peur L'amour est fiable et tu l'sais, la guerre est bad Elle et lui vous êtes Bouna, toi et moi, on est Zyed On est des anges, on est des grands, on est les enfants qui dérangent Avec le cur en sang, on chante pour tous ceux qui nous manquent Nous sommes épuisés par les pleurs, à peine quinze ans, à fleur de vie Bouna, ça fait drôle de plus t'voir en roue arrière sur ton vélo Boucle d'oreille, sapé goss'bo J'ai lancé des projectiles pour vous venger Mais rien n'vous a réveillé, Zyed, où est passée ta tête Qui nous écoutait l'soir à la fenêtre du premier étage ? Parlais pas trop, trop sage Tristesse, dépit, faiblesse nous ont envahis La France est en deuil, le ghetto pleure deux des siens La colère dans les yeux, deux enfants sont morts pour rien Une pensée pour eux, lions nos deux mains Que Dieu leur ouvre la porte des cieux et qu'ça n'arrive plus demain Y a des écoles qui brûlent et des voitures s'embrasent OK brûlons-la mais pas l'histoire de base Bouna et Zyed, deux enfants morts avant l'âge Rien qu'd'y penser, moi ça m'fout la rage, hmm Hommage à mes deux potos, qui sont partis trop tôt Quand j'regarde leurs photos, un frisson me monte au dos On n'vous verra plus en mode peace à la cité Ça fera bizarre mais c'est une triste réalité Zyed et Bouna, malheureusement, nous ont quittés Qu'ils demeurent au Paradis pour l'éternité En attendant j'ai perdu deux d'mes res-frè Si c'était à refaire, ce couplet ben je l'referais À mes potes, Zyed et Bouna Reposez en paix Allah y rahmou Pensée pour Muhittin Ma présence n'a rien d'honorable, elle est juste normale J'serai toujours auprès des miens tant qu'ils auront mal C'que j'vois dans le studio, c'est beau, c'est grand Les miens se sont unis mais pas dans l'autodestruction Parce que les miens ont une force qu'il sont les seuls à ignorer J'attends l'jour où ils vont s'lever, s'élever dans le respect Que Dieu fasse miséricorde à nos frères Zyed et Bouna Faut voir comment respecter leur mémoire Pour Bouna et Zyed Je prends ma plume en versant quelques larmes Partageant la douleur La souffrance des familles qui les pleurent Comprendre ce qu'il s'est passé Exposer la vérité au grand jour Que ce fardeau soit moins lourd, oh yeah Bouna et Zyed restent dans nos curs à tout jamais C'est pour nos minots que j'retranscris mes larmes du bout d'mon stylo Pourquoi dans nos trous à rats, s'en sortent qu'une mino' J'tire le signal d'alarme avant d'en venir aux armes Paix à vos âmes et à vos XXX Morts pour rien, c'est l'slogan qui fera p't-être réagir ceux qui siègent à l'Assemblée Nous on s'est rassemblés pour rendre hommage à nos morts C'est à eux qu'on a dédié l'ceau-mor Traoré et Benna, c'est à vous qu'on a dédié l'ceau-mor Le cur serré devant ma feuille blanche La main tremblante, mal au crâne de voir qu'on nous écoute que quand les coins crament Toujours la même, c'est la merde, ainsi d'suite On veut fuir la misère à chaque course-poursuite Que Dieu donne la force aux familles en deuil À leurs proches pour surmonter cette dure épreuve Dites à Nicolas que malheureusement, derrière les voitures qui brûlent C'est la détresse des quartiers qui hurle J'lève la main en l'air à la mémoire de nos p'tits frères J'lève la main en l'air pour leurs pères et pour leurs mères J'parle avec le cur au nom d'une jeunesse en détresse Vas-y cours petit, cours, pour fuir la tristesse Qu'Allah leur pardonne d'avoir provoqué un drame Aujourd'hui j'appelle au calme, il faudrait éteindre les flammes L'âme est touchée mais le corps se relèvera Je demande aux miens de ne jamais baisser les bras Mourir d'sa belle mort est la chose la plus belle au monde Mais l'destin en a voulu autrement, quelle chose immonde Fin d'une vie humaine et des plaisirs éphémères d'la vie Nos curs pleurent de désespoir et la haine nous envahit Enivrés d'tristesse, leur non-présence nous blesse sans cesse L'ciel a voulu qu'ils décèdent, guettent dans l'au-delà mais laisse Une pensée à ces hommes qui n'vivent plus qu'dans nos mémoires Quelques temps d'silence à leurs personnes XXX La disparition de deux êtres innocents et honnêtes A provoqué beaucoup de rivières de larmes sur les pommettes Adolescents laissant derrière leur dos Des centaines de pleurs, des curs blessés et c'est en s'en- Traidant, en se serrant les coudes Que l'on peut rester forts quand la mort fait escale chez nous Salam à vous, tenez le coup, uvrez dans l'bien Difficile pour une famille d'avancer avec un membre en moins J'commence en faisant deux mesures de silence pour les enfances perdues En guise d'insulte pour tous les esprits tordus ... Sa mère! J'ai les nerfs de voir nos pères en larmes J'ai les nerfs de voir mes frères s'noyer dans l'drame Et lors d'un banal contrôle dans nos halls on a le rôle d'un animal pour la Gaule De vandales pour les héritiers d'De Gaulle XXX La France pays de rencontres XXX XXX La douleur parle, nous on perd des frères C'est juste un appel au calme dans cette époque de merde Paix à la famille, laissez-la faire son deuil J'verse une goutte sur l'sol et vers l'ciel j'jette un il Ça fait mal quand quelqu'un part mais c'est Dieu qui décide On s'retrouvera plus tard, sur la route sur laquelle on s'destine Morts pour rien, pour vous on a beaucoup d'estime Que Dieu vous garde, OK, reposez en paix À nos frères morts violemment, aux plus jeunes qui prouvent qu'on peut réussir brillamment Le plus important, l'dîn, on veut tous partir dignement Rattraper nos péchés, à part les drames, rien pour nous unir C'est c'qui nous manque, combien passeront la barre des trente Vies courtes mais intenses, profite des tiens, porte avec honneur toutes nos valeurs Décharger les mamas du poids d'nos malheurs Dramatique pour les familles blessées dans l'âme Résister pour exister, wesh les p'tits frères, faut éviter l'haram Y a trop d'souffrances au cur des abysses dans les quartiers d'France Alerte maximum pour les mômes, état d'urgence J'porte des fleurs pour les morts, faut qu'on y pense Et qu'on sème de l'espoir pour le futur Même si la poisse rend l'quotidien trop dur, même si les pleurs parlent quand des gosses partent N'oublions pas qu'les anges ne meurent pas C'est juste quelques mots en votre mémoire Votre histoire gravée sur le marbre, un hommage pour dire qu'y en a marre Un hommage à Benna, Traoré Deux p'tits frangins Allah y rahmou, qui sont partis haja Morts pour rien, là où vous êtes Inch'Allah vous êtes bien Beau temps, mauvais temps, vous étiez toujours contents J'ai du mal à réaliser qu'le temps nous a séparés Le mal qu'ils nous ont fait, ils pourront jamais le réparer XXX, Traoré Quelle époque nous vivons, quelle époque C'est pour XXX Quelle époque nous vivons, perdre sa vie sans raison Sans explication, la banlieue pleure à l'unisson Mais quelle époque nous vivons? On veut savoir le pourquoi du comment Dialogue de sourds, on nous répond en nous insultant Mais quelle époque nous vivons? Trop p'tits pour partir d'nos rangs Pas assez d'mots pour apaiser les parents Mais quelle époque nous vivons? D'autres agissent en cassant Manière douce, nous on transforme notre rage en chanson J'connais l'respect, pas celui qui sort d'la bouche des autres Celui qu'on m'a appris depuis tout gosse mais on est tous des hommes Ça m'désole et on s'demande que faire face à tout c'désordre Et pour s'faire entendre, faut qu'la voix d'mes couz' résonne Plus rien n'est sûr quand y a l'sheitan et ses miss qui zonent Mais qu'ils ont, à croire que ça leur plaît d'voir une enfance qui XXX Pendant qu'les best pigeonnent, j'vois le reste qui chôme Nous on est jeunes, plein d'avenir et c'est toute ma tristesse qui somme Dites-moi comment régler les problèmes en supprimant les solutions Ce système a trop sous-estimé sa population L'oppression a une faille, nous a enlevé deux de nos frères C'est les larmes aux yeux que l'on pratique notre prière 93, volcan en éruption, banlieue poudrière On n'éteint pas notre flamme, c'est jusqu'à la mort qu'on sera solidaire Tremblay en hommage, ma ville crame, lâchez les Canadair Y a rien à dire, dors avant d'partir en guerre Histoire triste, j'suis pas là pour m'faire d'la pub Les chtars guidés par Ibliss frère, ici ça devient rude Perdre deux d'nos proches pendant l'ramdam Une pensée hardcore pour les rents-pa qui pleurent l'âme I.S.L.A.M., ma source vitale Apprendre la mauvaise nouvelle d'un mort, mon frère, ça on l'vit tous mal J'accepte plus l'mektoub, les soucis ressurgissent Combien d'enfants avec une tombe avant qu'la France agisse Respect aux familles, aux amis, aux manifestants Existants, restant résistants Et exigeant, détestant les forces, les testant Et quel ordre? C'est l'désordre qui est présent Fort déplaisant, unis dans tous les sens Munis d'encre ou d'essence personne n'est perso Ou hésitant, devant c't accident attristant A cité ta cité s'assistant Tata nzambé XXX bongo XXX Benna, Traoré Ouais, c'est du meurtre, qu'c'est l'humeur vraie tumeur En attendant, s'rassemblant dans la lueur, truc flambant XXX tata na bisso Dynam, ouais ouais ouais ouais, hein C'est trop hard d'être morts pour rien ghetto hardcore cousin XXX com si cété ti moun a mwen Ka ressenti douleur là tout au fond a chair mwen Lé pa imaginé sa k'arrivé des frew mwen Des jeunes XXX morts XXX pour rien Allez XXX maman Traoré Famille Benna XXX j'en ai oublié Tou lé -XXX toujou là, pas la France XXX sa An juste ka espérer XXX Le mal au moment qu'tu ressens parce que t'es blessé par le mal qui ronge Tu tombes dans la dépression parce que les événements pour toi sont étranges Pour tous mes frères qui sont victimes d'avoir perdu un être cher Parce que le fruit d'un amour fraternel vient de disparaître J'ai reflété un mal de vivre parce que mes nerfs sont devenus ivres Parce que les gens ne m'épargnent pas, j'ai dû survivre Un petit sourire levé vers l'ciel, une éclaircie, l'soleil Ça prouve qu'on doit sécher nos larmes parce que nos âmes sont éternelles Dur d'clamer la paix alors qu'la liste ne fait qu's'allonger Ça m'enrage que nos vies s'embrasent pendant qu'Arnaud rêve à la vie d'Pete Sampras Les meilleurs s'en vont toujours les premiers, c'est pas d'leur faute Les prolos s'lavent les mains dans l'sang des nôtres Arrête de foutre le feu chez nos daronnes, déjà qu'elles sont mal logées Au fond, ça n'arrangera rien, tu sais Pense à nos martyrs et rappelle-toi qu'avant d'partir Il te faudra chérir la mif, qu'on arrête de courir car tu peux mourir vite Même un daron du bled fier ne peut retenir ses larmes Face à des mères accablées comme celles de Bouna et Zyed L'insomnie s'empare des familles du défunt Mais des fois, il n'y a pas de douleur que le sommeil sache vaincre Hache de guerre à gauche frolo pour un effort de paix C'est l'9-3 qui pleure quand Clichy-sous-Bois est en deuil J'ai de la peine car le décès de certains me reviennent en tête Les frères, laissez-vous bercer par la tristesse Sauvons les deux âmes Comment résister, honorer son charme Zyed et Bouna Nous restons sans voix Quelle choc de ne plus vous revoir Sur mon visage ne cessent de couler les larmes Que Dieu vous garde pour l'éternité J'ai l'cur brisé, car j'ai souvent rêvé d'un monde meilleur Que la guérilla urbaine et d'enterrer deux frères Traoré Benna, que Dieu vous pardonne Que Dieu vous ouvre les portes du Paradis Que la tension se calme ici-bas J'suis un frère parmi tant d'autres J'voulais faire passer un message de paix Mon phrasé porte le deuil On vient d'perdre deux âmes fraîches, deux anges On vient encore d'perdre deux p'tits frères On leur rend hommage le cur noyé dans nos larmes Nos plumes portent nos peines et les blessures de nos âmes Les cris sincères, ouala j'ai mal La douleur est intense et même le silence pleure Pas là pour condamner l'coupable, Dieu l'fera Lui-même Et qu'la paix soit avec la famille d'ces deux lumières Deux gouttes qui débordent le vase, écoute Le mal se disperse, les man se disent prêts à agir et à serrer les coudes Les poings en l'air et même sur les I Quand on est solidaire, qu'on attise la flamme et à deux morts on l'dédie Trop d'sirènes, pompiers flics et ambulances Qu'on allume un cierge au lieu d'ces ambiances brûlantes La délinquance n'est pas une profession dans la street Qu'ils arrêtent leurs étiquettes et d'nous classer dans leurs putain d'statistiques 271005, c'est la fin d'une vie, les larmes d'une mère Le calvaire d'un père et l'combat d'un grand frère Une sur perdue qui voit son frère partir au plus jeune âge Une mort incomprise et toute une tess qui prend la rage Un événement qui prend une tournure grave, des nuits d'émeute Avec une seule idée en tête, faut qu'y en ait un qui crève On veut la vérité pour Zyed et Bouna Une forte pensée pour les familles, Traoré Benna Crois-moi, j'ai eu froid dans le dos En entendant les commentaires de politiques au lendemain du drame Quand la loi et l'ordre font peur à des gosses et que le pire se passe Le respect, c'était de faire profil bas Il nous faut des responsables, ça doit pas toujours marcher dans un sens Parce que c'qu'il s'est passé n'a pas d'sens Mes pensées vont aux familles, alors rest in peace Mon Dieu, entends nos prières, c'est pas juste c'qui arrive Deux frères partent, des curs fanent, la violence pour morphine, frère Mon cur saigne, mon cur parle, mon cur aime, mon cur bat Aussi vite que l'approche de la vérité, donc militer Pour la même cause, même veine, même combat Familles Traoré et Benna Beaucoup d'force et beaucoup d'chance pour la suite frères, pour tous les miens On a les mains réanimées par les armes Ensanglantées mais vite lavées par les larmes, paix à leurs âmes Nettoyer les gouttes et lâche même des gouttes et Les frères sont dégoûtés, les parents sont alarmés Morts pour rien, seul l'avenir nous l'dira Ou en tirer une leçon les jours à venir on verra Pour l'heure, une prière pour les p'tits frères Une pensée à leurs parents en espérant d'meilleurs moments Né d'une mort, l'espoir vit, restons forts Clichy-sous-Bois Montfermeil présentent leur reconnaissance Des adolescents parés Pour cette oppression incessante, donc une vie de tarés Grandir sous l'enseigne Montfermeil Clichy Mon cur saigne, tu sais, tant de gâchis Re-fré, réfléchis, deux vies ont fléchi Ils ont dit qu'on agissait par haine Plus rien ne sert de défendre une vie déjà vaine Mais allez dire ça aux mères Que leurs fils méritait une vie éphémère XXX Parce qu'on nous a traités d'vauriens J'dédicace aux gosses morts pour rien Seule la violence du désespoir dégage cette odeur de peur Quand un jeune des ghettos meurt, je pleure De colère, c'est ça qui fait brûler les voitures Saoulé d'devoir enterrer les nôtres, vois-tu Français, écoute pas leurs putain d'histoires Si on agit ainsi c'est par la force du désespoir Comme à Clichy quand la mort t'électrocute Et combien d'raisons justifie leur mort? Aucune Le ghetto parle, le ghetto chante, le ghetto pleure Des larmes de peine C'est triste à dire, qu'il faille le pire Pour qu'on écoute nos curs qui saignent Mes pensées vont vers les familles Benna et Traoré, yeah Le ghetto pleure ces deux adolescents Un message de paix dans toute cette effervescence J'parle au nom du 7-7 Mes amitié pour les familles des défunts, c'est pour ces jeunes qu'on s'mobilise Une prose contre une rose Hommage à Bouna et Zyed, nos banlieues pleurent L'onde de choc retentit, j'crie ma douleur Un requiem pour ceux qu'on aime Nos HLM sont en berne, trop d'pertes et d'chrysanthèmes J'veux pas finir dans les bras du système Électrocuté ou cané, alors j'tire la sonnette d'alerte La mort ne donne jamais de rendez-vous Les khos, levez vos index dès que vous savez qu'elle va venir à vous J'avoue, ça fait si mal d'voir partir des p'tits et des fillettes De voir que de drames, la vie est ainsi faite Qu'Allah fasse miséricodre à Bouna et à Zyed Ils voudraient nous étouffer pour mieux nous avaler comme le ferait un boa La tasse ils veulent nous faire boire Paix à nos morts, d'ici à Clichy-sous-Bois Ils sont morts, ma voix gèle, j'suis rouge, tout est pêle-mêle J'vous connaissais pas mais au fond vous êtes une partie d'moi Moi j'pleure, rien que j'pleure C'est dur, la France a peur, comprenez notre émotion Trop d'nos frères à terre, deux ouais, ils étaient deux Pour le troisième, j'remercie Dieu Hein, sois fort Muhittin J't'assure, sois fort C'est pour nos deux p'tits frères, rest in peace Que j'lance d'ici, d'Évry-Courcouronnes à Clichy Si si, à prendre les jeunes pour des imbéciles C'est la douleur du ghetto qui se transforme en missile Et la banlieue ne veut plus lécher la vitrine Elle est brisée, et c'est la vérité que l'on vise La rue a mal, mais pas que depuis hier Et aujourd'hui les pierres ont remplacé les prières Hommage aux familles blessées Agressées dans leur chair, Seigneur dissipe leur gêne et le poids de leur détresse Chéris nos p'tits frères partis jeunes Pendant ce saint mois d'jeûne On en a marre de cette animosité qui règne, nous divise et nous trahit Mitraillés dans cette lutte perpétuelle qu'est la quête de notre salut Bouna et Zyed, dans nos mémoires à jamais gravés Pour Bouna, Zyed, j'ai l'cur qui palpite J'ai mal quand sans état d'âme, on prend l'âme À deux d'mes frères, RR, j'ai la rage Quand les larmes ressortent sur un drame Dans l'9-3 c'est ça, c'est cette situation qu'j'condamne J'rends hommage aux familles, j'prends mon briquet, j'allume la flamme Pour qu'tu voies d'en-haut ma tristesse pendant la salate J'fais une dou3a pour qu'tu partes en paix, refré Négro, on était en exode Mais j'pense qu'ils veulent nous voir visés, nos phases macabres et nos XXX XXX faut canaliser Gardez la foi mais faut que j'aie ce condé parce que nos vies sont jeu d'l'oie Prie pour pas tomber sur la case d'un colt Une mauvaise phrase comme nos refrés jouent à Liberté ou Volt On sait comment ça finit Un clash, une course-poursuite, un crash, la suite, un putain d'incendie Deux âmes partent, un mot d'provoc' et la France crame Sarko en tête des sondages, man, à qui profite le scandale? Malaise perceptible, chômage trafic et vente d'armes Tout l'monde s'affole parce que notre rap c'est pas du France Gall Anti flics et gendarmes, politique, chantage Contrôle où les képis semblent avoir dix ans d'âge Les deuils tournent dans les p'tites villes et grands axes Comme toute tragédie, l'histoire est triste et la fin semblable J'comprends pas pourquoi la vie est si dure, man Comment ça se fait, on peut perdre sa vie bêtement Combien de temps ils vont faire pleurer nos mamans Combien de temps ils vont nous marcher sur les pieds, man Traoré et Benna ne méritaient pas ça Mouille avec la peur au ventre pour une histoire de balles Y en a marre d'être mal catalogués Le ghetto pleure c'est la rue cette réalité Cause conséquence, voilà l'revers d'la médaille Les chèques d'assurance nous ramèneront pas les deux p'tits frères die 27105, Zyed, Bouna rendent leur âme Parole de grand, personne n'oubliera cette date, ce drame Maximum respect, pensée pour leurs milles-fa Leurs proches amis pour qui ça doit vraiment pas être cile-fa Perdre un être cher aussi jeune, c'est trop dar J'pose huit roses en leur mémoire, car trop tard C'est envers mes frères que je m'adresse car cette histoire m'attriste et blesse Mon cur saigne mais seule l'encre de ma plume se verse C'est d'la haine que tu peux lire dans mes yeux Mais c'est avec le cur serré qu'j'écris, un regard vers les cieux Allah! On m'a dit d'calmer donc j'garde la rage en moi Parce qu'un Black reste un Black, même vénère il reste une proie J'ai mal mais remplace mon arme par des larmes Car les flammes qu'il peut ne feront jamais revenir vos âmes Il n'y a pas pire enfer que d'penser qu'le Paradis n'existe pas En c'moment-même, les esprits des défunts nous hantent Ambiance de paix car j'ai le mal de guerre De quartier en quartier ça brûle parce que ce sont nos frères On va laisser les rancunes en route Apporter des gerbes de fleurs aux textes pour apaiser les têtes Chaque jour, des bougies s'allument et s'éteignent Bouna et Zyed, de leurs lueurs on s'imprègne Tout arrive par ici On envisage le pire Tous en état de crise Bouna, Zyed, martyrs La violence contre l'innocence Les héros n'existent plus depuis longtemps Ils ont bafoué votre enfance Gardez-nous une place, on vient dans peu de temps Oh, tous les quartiers ont les larmes aux yeux Trop de larmes pouvant éteindre le feu qui leur traversait l'corps En traversant mon cur, mon sentiment fut renversé Par un poids-lourd immatriculé par la mort L'amour et la mort, des extrêmes qui s'kiffent à mort Zyed, Bouna, destins liés par des câbles Si mon cur aurait eu des yeux, tu l'aurais vu saigner Benna,Traoré, Allah y rahmou, Sefyu Coupés dans leur élan, trop tôt ces jeunes sont die Deux familles, toute une génération en deuil, ma gueule Ç'aurait pu être un d'tes frelons, un d'mes frelons L'idée fait froid dans l'dos alors qu'j'suis pas tant qu'ça un frileux Vu qu'j'fais partie des cibles, il est donc impossible Qu'j'y sois insensible, des familles pleurent Bouna, Zyed, partez en paix vers l'ciel Nous on continue l'combat, qu'vous soyez pas morts dans l'zef C'est avec peine et haine que j'prends c'putain d'micro Car au-devant d'la scène, t'as la mort d'mes deux frelos À qui j'dédie c'morceau pendant ce temps d'fléau Ça vient du cur khey, j't'assure qu'c'est pas du mytho En bref, malgré ma froideur, sur c'beat j'ouvre mon cur Pour rejoindre les deux familles dans leur propre douleur Et quoi qu'il arrive, pour nous, vous êtes toujours là À jamais gravés dans nos curs, Zyed et Bouna J'remplace l'alcool par de l'eau céleste, le bédo par une datte On s'connaît pas mais c'est pour Bouna et Zyed À c'que j'vois, vous aviez des potes et des gens qui vous aiment Depuis votre mort, les jeunes ont déployé leurs ailes J'ai le cur noué, Bellahi je le jure c'est vrai À nous tous, ça peut tous nous arriver J'envoie des dou3as pour vos familles, vos larmes inondent toutes nos villes Et votre mort résonne dans toutes nos vies J'peux pas camoufler ma peine, j'peux pas camoufler ma haine Hémorragie interne, j'me porte bien mais l'cur saigne Une flamme subsiste pour Bouna et Zyed Siaka, Biggie, Montfermeil Clichy Maillot, Silly, Sur-Marne-Neuilly Sachez qu'le 9-3 côté Est ne vous oublie La Tunisie, la Mauritanie aussi, ces lignes vous sont dédiées À vous et vos familles, pour vous, j'garderai bonne mine, promis Ma plume se plie, les mots sont trop lourds Des actes injustifiés qui emmènent des conséquences trop lourdes Conscients que le temps passe, de nos esprits rien ne s'efface Mes frères, je vous embrasse, nos vies s'éteignent, les frères j'vous rends hommage Le remède c'est qu'on s'entraide Tu sais pour qui on plaide, il était une fois Bouna et Zyed Partis trop tôt, Allah y rahmou, message de paix en votre mémoire Vos noms sont gravés à jamais dans notre histoire Mort subite que nous n'oublieront jamais reste gravée dans nos mémoires On peut pas s'en débarrasser comme le reflet d'un miroir Accrochés à la réalité, mes reufs s'en sortiront Triste destinée, pour réussir prêts à se prosterner Consternés par la tournure des choses Mourir, ou lutter tous pour nos familles et disparus Korozeef, message du cur Ceci nous rappelle que toute âme revient au Créateur Ouais J'ai le cur qui saigne Tant de compassion s'imprègne Au-dedans de moi, des choses me font perdre la foi De voir des jeunes s'en aller aussi souvent que ça Je compatis, c'est si triste La justice grise, nos ciels sans couleurs Un venin de couleuvre Déjà trop dans nos vies, détruit nos frères et surs Ils nous brutalisent, la justice couvre La presse se rend complice et personne ne l'ouvre La pensée réactionnaire connaît des joies intenses Quelles sont les premières victimes en proie à la violence? Ceux qui ravalent leurs mots jusqu'à vomir des pierres Ceux qu'on réprime dans le sang comme en temps de guerre Bouna et Zyed, juste jeunes et envie de vivre Qui n'en demeurent pas moins des exemples à suivre Bouna, en entendant ton nom ou en voyant ta photo Des milliers de flashbacks me remontent au cerveau Je t'avais appris à nager Je me rappelle ce jour-là, t'as failli te noyer Je t'ai côtoyé depuis ta tendre enfance Je me rappelle de toi, m'étant décroché avec la plus grande aisance La BDS a shooté votre crew Mais avec le temps cette équipe s'est dissoute Biggie, Kahi, mon p'tit frère est parti Que Allah lui ouvre les portes du paradis Encore des anges qui partent trop tôt dans l'ghetto Et la tristesse fait couler l'encre de mon stylo C'est avec la main sur l'cur que j'lâche mes mots J'ai d'la rage, j'ai d'la haine, j'ai d'la peine et j'n'arrêterai pas s'il faut Ça a toujours été nous contre eux On est rien dans c'bas monde, que Dieu vous garde Nous on restera sur nos gardes C'est dans les cieux que vos frères et surs vous regardent, Zyed et Bouna Une mesure de silence Pour nos frères Bouna, Zyed auxquels on pense À l'heure actuelle, vos noms sont gravés dans nos têtes Que vos âmes reposent en paix, c'est tout c'qu'on souhaite La main sur l'cur, la mille-fa plongée dans la douleur Triste sort, la mort est venue frapper à leur porte de bonne heure Sous nos bonnets on a d'la peine Comme tu l'sais, dans nos quartiers, seule la mort règne et les curs saignent Encore deux d'nos p'tits partis, ça suffit Pour Bouna, Zyed avec qui j'avais pas encore d'affinités C'qui n'empêche pas d'témoigner ma solidarité Militer afin d'limiter, les saignements d'nos curs déjà irrités D'une tristesse profonde, on est tous héritiers Une larme tombe, mais peut-on les éviter J'ai un frère du même âge, voilà la vérité À vous et vos familles, j'rends hommage avec sincérité J'viens rendre hommage, Mister Daï De Neuilly-sur-Marne à Clichy, j'vous épargne mes analyses car l'résultat sera l'même Ça m'fait mal, j'ai d'la peine, alors ma haine j'la canalise Rien ne pourra faire qu'ils nous reviennent, j'en ai les membres qui s'paralysent Le poing gauche serré, la tête baissée, la main droite sur l'cur J'en place une pour la famille qui auront toujours ce mal au cur J'm'exprime en leur mémoire parce qu'ils manqueront jamais à l'appel Que leur flamme s'éteigne en paix, que leurs âmes reposent en paix Une couronne de fleurs pour Zyed et Bouna Ça fait mal au cur, on ne peut que supporter leur mille-fa Difficile de consoler après la mort Sur la tombe d'un proche, c'est tellement dur de rester fort Obligé de contenir ma pensée Par respect pour leur mémoire, donc je vais me contrôler La vérité n'est jamais facile à dire Attendons de la savoir, pour l'instant calmons les tirs D'abord mes condoléances aux frères, aux surs, aux rent-p's Aux amis qui étaient si chers au cur de Zyed et Bouna Pour lesquels je cace-dédi ce rap, même si j'les connaissais as-p Mec, je suis à-l, ouais, à cent pour cent avec eux, avec mon cur et mon âme Pour que ce genre d'événement ne se perpétue as-p On tue les jeunes dans nos tiers-quar, tis-gra Faudrait qu'ça cesse parce qu'on commence à en avoir vraiment marre J'ai le cur en sang, j'ai du mal à caresser J'ai des sentiments bloqués XXX des petits frères sont die Pour m'en remettre faut plus qu'une douille, khey Je suis banlieusard, blesse pas les mêmes même si l'envie de mitraille Graille, y a cette envie de tout fumer Mais au fond ça sert à rien maintenant comme notre quartier est cramé Pour les madres, poto, fais preuve de respect Tout se paie, que leurs âmes reposent en paix Dur d'en parler sans offenser vu qu'la douleur est encore vive Ce rap est une prière pour nos deux frères partis trop vite Que Dieu les garde, que Dieu protège leurs familles Que Dieu leur donne d'la force et du courage pour affronter la vie Paix à leurs amis, soyez gardiens d'leur souvenir D'leurs visages, d'leurs sourires, sachez qu'on est tous avec vous Même si c'est l'mektoub, on s'demande quand même XXX C'est pour Zyed et Bouna, Allah y Rahmo XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de nos enfants XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de vos enfants Dans l'ghetto, on a perdu l'sourire, on n'arrive même plus à rire On a vu des frères partir et plus jamais revenir La haine, la rage, la tristesse dans nos yeux, ça m'fait tellement réfléchir Mais qui accuser, Dieu l'a voulu Il crée des trucs, comment puis-je Avoir la haine envers mon Créateur, c'est cru J'n'arrive même plus à fermer les yeux Les souvenirs du passé n'cessent de me hanter Ça m'fait bizarre d'ressasser le passé J'rends hommage à ces p'tits partis trop tôt, partis pour rien Une pensée aux familles c'est 15-24 soutien Un départ prématuré, ils sont privés de c'monde pourri On est blessés à jamais, que leurs esprits reposent en paix C'est dommage, surtout à leur âge Et j'me demande encore pourquoi on n'est pas tous devenus sages Mais l'seul message, c'est qu'y a encore des parents Qui ont perdu leurs enfants, et ça tirons-en un enseignement La vie est bien trop courte pour qu'on s'fasse la guerre La vie est bien trop courte, profitons d'nos frères S'mobiliser, c'est bien, changer les choses c'est mieux Instant d'paix en espérant qu'on vivra tous vieux Quoi qu'il arrive, on doit rendre des comptes Pose pas la question pourquoi, on y passe tous Qu'la vie soit longue ou XXX Mais la mémoire elle reste, comme quand on s'pose Y a la dignité d'deux êtres qui s'impose Quelques mesures pour la mesure du monde immonde Où on traîne nos corps en attendant la suite Que vos noms soient jamais oubliés Bouna, Zyed, c'est nous pour vous à jamais Demande du calme, ne transformons pas notre deuil en drame Laissons couler nos larmes, demande la paix face aux armes Mais t'es un fou, renoi c'est nos p'tits frères qui sont partis pour rien Toujours nos mères qui pleurent, toujours cette putain de haine au cur Cesse tes rancurs, on a l'devoir de calmer la rage Avec un grand cur, nous sommes unis pour faire un hommage Ça sera toujours les mêmes personnes qui y laisseront des plumes Notre quartier fume, il faudra bien que quelqu'un l'assume Qu'on s'le dise, y aura pas d'paix sans l'mot respect Zyed et Bouna, que vos âmes reposent en paix Négro c'est l'deuil, coupe le moteur de l'YZ Mon stylo pleure d'l'acide au nom d'Bouna et Zyed Tristesse et rage, jeunesse arrachée par la Faucheuse La mort n'attend personne et on confie son âme à Dieu Saluer la République, y a pas moyen Tout c'que j'ai retenu d'la Marseillaise, c'est aux armes, ci</t>
         </is>
       </c>
     </row>
@@ -2384,7 +2384,7 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Monsieur l'juge, monsieur l'juge! Oui? Qui êtes-vous? Eh, tu t'souviens pas d'moi enfoiré? Monsieur, s'il vous plaît... Allez, allez, suis-moi sans faire d'histoires Arrêtez, mais lâchez-moi! Au secours! Allez, monte dans c'putain d'coffre Au secours! XXX Ça fait quatre heures que j'roule, enfin j'l'ai eu ce salaud Obligé d'le droguer, et ce juste en face de ses bureaux Il n'a qu'ce qu'il mérite et j'compte sûrement pas m'arrêter Ma vie était paisible mais ce connard a tout fait basculer Ah, j'ai mal à la tête, mais qu'est-ce qu'il m'arrive? Je vois rien, on m'a bandé les yeux, attaché comme un chien J'en suis sûr, j'suis dans une voiture Même pas d'clim dans ce coffre qui pue J'me souviens Au volant, la route est longue avec ses bruits d'coffre Ce juge, cette merde, et j'veux pas qu'il s'étouffe Besoin d'savoir pourquoi moi et pas un autre Accusé à tort, crois-moi il va m'dire quelles sont mes fautes Et à l'abri dans les bois, c'est l'moment de s'expliquer J'ouvre le coffre et si il clic j'hésiterai pas à le bang Vous êtes fou, c'est un kidnapping Avez-vous seulement une idée de c'que vous êtes en train d'faire De c'qu'on fait aux gangsters, de la police qui vous recherche Relâchez-moi et je ferai c'qu'il faut pour alléger votre peine Mais moi j'm'en bats les couilles d'ces flics, allez sors de là Fous-toi à genoux sur l'sol Tu vas m'dire pourquoi tu m'as piégé You might also like Quand y a plus d'justice Quand t'es à bout, dans un trou, seul contre tous Que faire quand y a qu'une justice? À genoux, tenu en joue par un fou Que faire quand y a plus d'justice? Quand t'es à bout, dans un trou, seul contre tous Que faire quand y a qu'une justice? À genoux, tenu en joue par un fou D'abord personne ne vous a piégé quoi? Et le fait de vous voir armé, prêt à tirer, montre que la loi ne s'est pas trompée Ouais, c'est ça Coupable pour extorsion de fonds, faux et usage de faux Faudrait assumer vos fautes Maintenant, tu délires ou quoi Le canon dans ta bouche, tu vas avouer, crois-moi Avouer quoi? Avouer qu'tu es corrompu, j'étais la cible parfaite J'avais l'profil et la tête d'un mec de cité donc arrête Vous avez eu un procès équitable, les preuves étaient contre vous C'est ça, avec des dessous de tables encaissés par vous tous Enquête bâclée, on cherche un bouc émissaire pour l'mettre au trou J'vous revois encore lors du procès avec des beaux airs, c'est vous mais c'est du délire! Non, j'crois plus en la justice, tu vas payer pour tes fautes Admets, passe aux aveux, donne-moi des noms Donne-moi les vrais coupables car j'm'impatiente J'suis à deux doigts à présent d'appuyer sur la détente Quand y a plus d'justice Quand t'es à bout, dans un trou, seul contre tous Que faire quand y a qu'une justice? À genoux, tenu en joue par un fou Que faire quand y a plus d'justice? Quand t'es à bout, dans un trou, seul contre tous Que faire quand y a qu'une justice? À genoux, tenu en joue par un fou Putain, j'voulais qu'il m'parle sous l'emprise d'une arme, mais que faire? J'suis pas un tueur ni un voleur, ma vie est un enfer Pourquoi ce sourire, ce pourri se moque de moi Malgré tout ça faut qu'je tienne car je n'peux aller plus bas Bon, faut qu'j'réfléchisse, vite, ma vie est en jeu Il m'tient mais pas question de lui donner c'qu'il veut Il m'faut gagner du temps, j'espère que Ça y est, j'vois la police, faut jouer serré avant qu'il me relâche Rendez-vous, vous êtes cerné Jetez votre arme à terre Mais merde! Comment ils ont su? Aucun mal ne vous sera fait C'est encore toi connard Ta gueule, arrête! Alors, tu vois pas, p'tite merde, les lasers sur ta tête Le jeu est terminé et tu vas prendre perpète Cette affaire est trop complexe, tu t'attaques à des sphères trop hautes pour toi Ta gueule! Et t'es qu'un pion dans l'échec Ah, tu crois ça? Rien à foutre J'ai pas lâché ma dernière balle Nooon! J'cracherai sur ta pierre tombale Nooon! Serrez-moi tout l'périmètre, là, déployez XXX Allez go, go, go Monsieur l'juge, monsieur l'juge Oui, oui lieutenant Tout va bien? Oui, ça va, ça va, un peu limite l'intervention Tout s'est bien passé comme prévu finalement Et faites-moi disparaître tout ça là, faites le ménage, j'veux plus rien voir Allez, allez À vos ordres Monsieur Quand y a plus d'justice Quand t'es à bout, dans un trou, seul contre tous Que faire quand y a qu'une justice? À genoux, tenu en joue par un fou Que faire quand y a plus d'justice? Quand t'es à bout, dans un trou, seul contre tous Que faire quand y a qu'une justice? À genoux, tenu en joue par un fou</t>
+          <t>Monsieur l'juge, monsieur l'juge! Oui? Qui êtes-vous? Eh, tu t'souviens pas d'moi enfoiré? Monsieur, s'il vous plaît... Allez, allez, suis-moi sans faire d'histoires Arrêtez, mais lâchez-moi! Au secours! Allez, monte dans c'putain d'coffre Au secours! XXX Ça fait quatre heures que j'roule, enfin j'l'ai eu ce salaud Obligé d'le droguer, et ce juste en face de ses bureaux Il n'a qu'ce qu'il mérite et j'compte sûrement pas m'arrêter Ma vie était paisible mais ce connard a tout fait basculer Ah, j'ai mal à la tête, mais qu'est-ce qu'il m'arrive? Je vois rien, on m'a bandé les yeux, attaché comme un chien J'en suis sûr, j'suis dans une voiture Même pas d'clim dans ce coffre qui pue J'me souviens Au volant, la route est longue avec ses bruits d'coffre Ce juge, cette merde, et j'veux pas qu'il s'étouffe Besoin d'savoir pourquoi moi et pas un autre Accusé à tort, crois-moi il va m'dire quelles sont mes fautes Et à l'abri dans les bois, c'est l'moment de s'expliquer J'ouvre le coffre et si il clic j'hésiterai pas à le bang Vous êtes fou, c'est un kidnapping Avez-vous seulement une idée de c'que vous êtes en train d'faire De c'qu'on fait aux gangsters, de la police qui vous recherche Relâchez-moi et je ferai c'qu'il faut pour alléger votre peine Mais moi j'm'en bats les couilles d'ces flics, allez sors de là Fous-toi à genoux sur l'sol Tu vas m'dire pourquoi tu m'as piégé Quand y a plus d'justice Quand t'es à bout, dans un trou, seul contre tous Que faire quand y a qu'une justice? À genoux, tenu en joue par un fou Que faire quand y a plus d'justice? Quand t'es à bout, dans un trou, seul contre tous Que faire quand y a qu'une justice? À genoux, tenu en joue par un fou D'abord personne ne vous a piégé quoi? Et le fait de vous voir armé, prêt à tirer, montre que la loi ne s'est pas trompée Ouais, c'est ça Coupable pour extorsion de fonds, faux et usage de faux Faudrait assumer vos fautes Maintenant, tu délires ou quoi Le canon dans ta bouche, tu vas avouer, crois-moi Avouer quoi? Avouer qu'tu es corrompu, j'étais la cible parfaite J'avais l'profil et la tête d'un mec de cité donc arrête Vous avez eu un procès équitable, les preuves étaient contre vous C'est ça, avec des dessous de tables encaissés par vous tous Enquête bâclée, on cherche un bouc émissaire pour l'mettre au trou J'vous revois encore lors du procès avec des beaux airs, c'est vous mais c'est du délire! Non, j'crois plus en la justice, tu vas payer pour tes fautes Admets, passe aux aveux, donne-moi des noms Donne-moi les vrais coupables car j'm'impatiente J'suis à deux doigts à présent d'appuyer sur la détente Quand y a plus d'justice Quand t'es à bout, dans un trou, seul contre tous Que faire quand y a qu'une justice? À genoux, tenu en joue par un fou Que faire quand y a plus d'justice? Quand t'es à bout, dans un trou, seul contre tous Que faire quand y a qu'une justice? À genoux, tenu en joue par un fou Putain, j'voulais qu'il m'parle sous l'emprise d'une arme, mais que faire? J'suis pas un tueur ni un voleur, ma vie est un enfer Pourquoi ce sourire, ce pourri se moque de moi Malgré tout ça faut qu'je tienne car je n'peux aller plus bas Bon, faut qu'j'réfléchisse, vite, ma vie est en jeu Il m'tient mais pas question de lui donner c'qu'il veut Il m'faut gagner du temps, j'espère que Ça y est, j'vois la police, faut jouer serré avant qu'il me relâche Rendez-vous, vous êtes cerné Jetez votre arme à terre Mais merde! Comment ils ont su? Aucun mal ne vous sera fait C'est encore toi connard Ta gueule, arrête! Alors, tu vois pas, p'tite merde, les lasers sur ta tête Le jeu est terminé et tu vas prendre perpète Cette affaire est trop complexe, tu t'attaques à des sphères trop hautes pour toi Ta gueule! Et t'es qu'un pion dans l'échec Ah, tu crois ça? Rien à foutre J'ai pas lâché ma dernière balle Nooon! J'cracherai sur ta pierre tombale Nooon! Serrez-moi tout l'périmètre, là, déployez XXX Allez go, go, go Monsieur l'juge, monsieur l'juge Oui, oui lieutenant Tout va bien? Oui, ça va, ça va, un peu limite l'intervention Tout s'est bien passé comme prévu finalement Et faites-moi disparaître tout ça là, faites le ménage, j'veux plus rien voir Allez, allez À vos ordres Monsieur Quand y a plus d'justice Quand t'es à bout, dans un trou, seul contre tous Que faire quand y a qu'une justice? À genoux, tenu en joue par un fou Que faire quand y a plus d'justice? Quand t'es à bout, dans un trou, seul contre tous Que faire quand y a qu'une justice? À genoux, tenu en joue par un fou</t>
         </is>
       </c>
     </row>
@@ -2401,7 +2401,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Et quand la ville ferme les yeux, on met le poste et puis on roule, la nuit est à nous Y'a plus de riche ou pauvre, on est parqué dans la soute et l'horizon s'ouvre à nos rêves fou Trois mille ans d'épopée, trente ans d'hip-hop et on s'tape pour pas être mis de côté On doit en faire dix fois plus pour en arriver au même point que les autres et ça parait fou Bienvenue là ou j'ai trainé sur le dos mon cartable Où les vrais jouent aux cartes, un gun sur la table Où les samedi, sur la CB c'est carnage On rayonne sur Mare Nostrum depuis l'époque de Carthage Les liens s'font et s'défont, la peur est palpable Où les gangs de gamins veulent régner sans partage Ça sent le monoï dans l'bus qui part à la plage Et les p'tites sont sapées comme au festival à Cannes Les gros en place ne cessent de compter leurs fables On croit plus en rien, on s'sauve juste la face En face on nous fait la morale, main dans la came Dans les snacks, on reste calme, on regarde la CAN sur les chaines étrangères On a pigé leur message, sport et musique ont amorcés le ménage Pendant c'temps, loin très loin de la farce, aux quatre coins de l'Europe, Mars brille sur la carte On cogne sur l'instru comme sur sac au muay-thaï Et la catégorie du flow c'est du bon, bye-bye On jette les vieux démons de notre ville à la casse Ou on chasse les éléphants comme les Maasaï Nous sommes IAM, Soul Swing, Psy 4, Fonky, aya Tu sais sur le mic' c'est que des putain d'Super Saiyan Le chemin est long quand on part de la cave Mais ça fait mal a chaque fois quand on sort de la base You might also like M.R.S, parle vrai, page de fait Écoute fils, tu veux du style ? On a l'style M.R.S, parle vrai, page de fait Écoute fils, tu veux des rimes ? On arrive M.R.S, parle vrai, page de fait Écoute fils, tu veux du style ? On a l'style M.R.S, parle vrai, page de fait Écoute fils, tu veux des rimes ? On arrive Et quand la ville ferme les yeux, on met le poste et puis on roule, la nuit est à nous Y'a plus de riche ou pauvre, on est parqué dans la soute et l'horizon s'ouvre à nos rêves fou Trois mille ans d'épopée, trente ans d'hip-hop et on s'tape pour pas être mis de côté On doit en faire dix fois plus pour en arriver au même point que les autres et ça parait fou M.A.R.S toujours dans la place Larage et AKH ont laissés des traces Indélébiles depuis la planète Mars On a jamais quitté le nid Jamais on oublie nos racines Tue-nous pas, même après le platine Obligé d'en faire plus pour prouver Il faut s'arracher sinon obligé de bouger Une pensée pour les frères qui triment sans débouchée Nos rues trop longtemps abandonnées On fait des victimes mais on est fier, champion ! Nique les caricatures bidons, à l'écran ils voudraient qu'on fasse les bouffons Les faits-divers de la French Co' sont enterrés Les gosses cherchent le butin, où il est sans s'cacher Elle est comment la vie ici ? Demande au prophète Rêve de villa à la corniche d'une réput' aux Baumettes Manque de taf', là il faudra plus que Starbuck La star c'est la beuh, le bizz et les barbec' Les assoc' bossent dur pour s'imposer Dans les quartiers où les gosses rappent pour s'affirmer Mais les pouvoirs publics s'font prier Seule la Bonne Mère veille sur les marseillais Connexion Corsica, Afrique, Italie, Espagne Génération métissée de talents et d'espoirs La tchatch avec la mauvaise foi Nous c'est mieux, et même nos fachos ils le sont plus que chez toi Ces enculés s'cachent comme les rats Mesure pas qu'cette ville a juste besoin d'gent-ar</t>
+          <t>Et quand la ville ferme les yeux, on met le poste et puis on roule, la nuit est à nous Y'a plus de riche ou pauvre, on est parqué dans la soute et l'horizon s'ouvre à nos rêves fou Trois mille ans d'épopée, trente ans d'hip-hop et on s'tape pour pas être mis de côté On doit en faire dix fois plus pour en arriver au même point que les autres et ça parait fou Bienvenue là ou j'ai trainé sur le dos mon cartable Où les vrais jouent aux cartes, un gun sur la table Où les samedi, sur la CB c'est carnage On rayonne sur Mare Nostrum depuis l'époque de Carthage Les liens s'font et s'défont, la peur est palpable Où les gangs de gamins veulent régner sans partage Ça sent le monoï dans l'bus qui part à la plage Et les p'tites sont sapées comme au festival à Cannes Les gros en place ne cessent de compter leurs fables On croit plus en rien, on s'sauve juste la face En face on nous fait la morale, main dans la came Dans les snacks, on reste calme, on regarde la CAN sur les chaines étrangères On a pigé leur message, sport et musique ont amorcés le ménage Pendant c'temps, loin très loin de la farce, aux quatre coins de l'Europe, Mars brille sur la carte On cogne sur l'instru comme sur sac au muay-thaï Et la catégorie du flow c'est du bon, bye-bye On jette les vieux démons de notre ville à la casse Ou on chasse les éléphants comme les Maasaï Nous sommes IAM, Soul Swing, Psy 4, Fonky, aya Tu sais sur le mic' c'est que des putain d'Super Saiyan Le chemin est long quand on part de la cave Mais ça fait mal a chaque fois quand on sort de la base M.R.S, parle vrai, page de fait Écoute fils, tu veux du style ? On a l'style M.R.S, parle vrai, page de fait Écoute fils, tu veux des rimes ? On arrive M.R.S, parle vrai, page de fait Écoute fils, tu veux du style ? On a l'style M.R.S, parle vrai, page de fait Écoute fils, tu veux des rimes ? On arrive Et quand la ville ferme les yeux, on met le poste et puis on roule, la nuit est à nous Y'a plus de riche ou pauvre, on est parqué dans la soute et l'horizon s'ouvre à nos rêves fou Trois mille ans d'épopée, trente ans d'hip-hop et on s'tape pour pas être mis de côté On doit en faire dix fois plus pour en arriver au même point que les autres et ça parait fou M.A.R.S toujours dans la place Larage et AKH ont laissés des traces Indélébiles depuis la planète Mars On a jamais quitté le nid Jamais on oublie nos racines Tue-nous pas, même après le platine Obligé d'en faire plus pour prouver Il faut s'arracher sinon obligé de bouger Une pensée pour les frères qui triment sans débouchée Nos rues trop longtemps abandonnées On fait des victimes mais on est fier, champion ! Nique les caricatures bidons, à l'écran ils voudraient qu'on fasse les bouffons Les faits-divers de la French Co' sont enterrés Les gosses cherchent le butin, où il est sans s'cacher Elle est comment la vie ici ? Demande au prophète Rêve de villa à la corniche d'une réput' aux Baumettes Manque de taf', là il faudra plus que Starbuck La star c'est la beuh, le bizz et les barbec' Les assoc' bossent dur pour s'imposer Dans les quartiers où les gosses rappent pour s'affirmer Mais les pouvoirs publics s'font prier Seule la Bonne Mère veille sur les marseillais Connexion Corsica, Afrique, Italie, Espagne Génération métissée de talents et d'espoirs La tchatch avec la mauvaise foi Nous c'est mieux, et même nos fachos ils le sont plus que chez toi Ces enculés s'cachent comme les rats Mesure pas qu'cette ville a juste besoin d'gent-ar</t>
         </is>
       </c>
     </row>
@@ -2418,7 +2418,7 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Gros naze Gros naze Nanananananaze Nanananananaze Nanananananaze Toujours tu sais y en a qui se la jouent pour rien c'est banal Un rien fait tourner les têtes des mecs qui s'en battent La roue tourne faut être prêt sinon c'est fatal Le jour où t'es à l'aise un choc pour le mental Y'a des loosers qui prennent du grade et ça c'est pas grave Mais si l'comportement d'vient minable le mec pas aimable Allez fils mets toi qui pense que les autres sont peu d'choses on va t'écarter l'public te décompose On devient pas pourri on l'est ou pas, les seize s'développent à l'avenir suivant les moyens qu't'as Je n'parle pas que de musique dans tous les domaines c'est typique on le sait dès qu't'es un peu important tu d'viens laissé C'est quoi c'truc la rançon d'la gloire qui donne une attitude Un regard qui trahit c'que t'es trop content d'toi C'est tragique quand on t'voit imbus d'personne à cause d'un statut, un don, boss, on s'en cogne On peut succomber un instant mais toi t'es un cas Pour une broutille t'as un égo qui enfle grave Fils t'es naze pourri trop naze pourri Nanananananaze Nanananananaze Nanananananaze Nanananananaze You might also like C'est pas simple de s'en sortir fils faut être fort Chaque jour, démerdes, pousses des limites au bord Nanana encore un fou qui rigole Sûr il tuerait père et mère pour toucher l'pactole Pas d'amis juste des relations qu'il utilise Il les expertise sympathise l'épuise puis les terrorise C'est ça son bizz se fixer un but et pour devise, briser quiconque se tient au travers Te marche sur la gueule pour atteindre la lumière Mais tous paient un jour le néant viendra s'refaire En attendant ce genre d'con prolifère Ce genre d'con qu'on repère dans la misère ce genre d'con peut foutre ta vie en l'air Ça peut être ton patron ton supérieur ton producteur ton pote d'y a une heure le mec ou la femme que t'as dans l'cur Faut lui dire merde t'es moche Enfoncer ton entourage pour parvenir à tes fins putain c'est moche T'es nanananananaze t'enfonces les autres Nanananananaze tu envies les autres Nanananananaze tu profites des autres Nanananananaze tu l'sais Des nanananananazes on en trouve partout dans tous les coins et toutes les classes sociales On essaie d'gérer nos vies on s'regarde de temps en temps dans une glace Eux s'ils le font elle éclate Les gavés du genre envieux sonnent comme des faux T'es dans ta merde mais tu t'plains pas un peu d'pudeur quoi Ils restent là à s'dire que tu tomberas bientôt Viennent te voir en fait en espérant constater les dégâts 'Tain c'est naze mais c'est vrai comme ces filles et ces mecs qui viennent de racoler par intérêt Quand t'es rien ils te crachent à la gueule Te salissent pour l'fun c'est idiot mais ça les fait grimper au rideau C'est triste à dire y a trop d'pourris ceux que j'ai cité ne reflètent qu'une catégorie Si tu m'suis tu dois faire le ménage ça t'ennuie mais c'est p't'être plus sage ça évite les chutes plus graves Un mauvais entourage dans une vie ça t'coule en moins d'deux et pour le rattrapage tu rames c'est Nanananananaze t'inquiètes les gens bien ça existe suffit d'être en phase au lieu d'être naze Gros naze Pourri</t>
+          <t>Gros naze Gros naze Nanananananaze Nanananananaze Nanananananaze Toujours tu sais y en a qui se la jouent pour rien c'est banal Un rien fait tourner les têtes des mecs qui s'en battent La roue tourne faut être prêt sinon c'est fatal Le jour où t'es à l'aise un choc pour le mental Y'a des loosers qui prennent du grade et ça c'est pas grave Mais si l'comportement d'vient minable le mec pas aimable Allez fils mets toi qui pense que les autres sont peu d'choses on va t'écarter l'public te décompose On devient pas pourri on l'est ou pas, les seize s'développent à l'avenir suivant les moyens qu't'as Je n'parle pas que de musique dans tous les domaines c'est typique on le sait dès qu't'es un peu important tu d'viens laissé C'est quoi c'truc la rançon d'la gloire qui donne une attitude Un regard qui trahit c'que t'es trop content d'toi C'est tragique quand on t'voit imbus d'personne à cause d'un statut, un don, boss, on s'en cogne On peut succomber un instant mais toi t'es un cas Pour une broutille t'as un égo qui enfle grave Fils t'es naze pourri trop naze pourri Nanananananaze Nanananananaze Nanananananaze Nanananananaze C'est pas simple de s'en sortir fils faut être fort Chaque jour, démerdes, pousses des limites au bord Nanana encore un fou qui rigole Sûr il tuerait père et mère pour toucher l'pactole Pas d'amis juste des relations qu'il utilise Il les expertise sympathise l'épuise puis les terrorise C'est ça son bizz se fixer un but et pour devise, briser quiconque se tient au travers Te marche sur la gueule pour atteindre la lumière Mais tous paient un jour le néant viendra s'refaire En attendant ce genre d'con prolifère Ce genre d'con qu'on repère dans la misère ce genre d'con peut foutre ta vie en l'air Ça peut être ton patron ton supérieur ton producteur ton pote d'y a une heure le mec ou la femme que t'as dans l'cur Faut lui dire merde t'es moche Enfoncer ton entourage pour parvenir à tes fins putain c'est moche T'es nanananananaze t'enfonces les autres Nanananananaze tu envies les autres Nanananananaze tu profites des autres Nanananananaze tu l'sais Des nanananananazes on en trouve partout dans tous les coins et toutes les classes sociales On essaie d'gérer nos vies on s'regarde de temps en temps dans une glace Eux s'ils le font elle éclate Les gavés du genre envieux sonnent comme des faux T'es dans ta merde mais tu t'plains pas un peu d'pudeur quoi Ils restent là à s'dire que tu tomberas bientôt Viennent te voir en fait en espérant constater les dégâts 'Tain c'est naze mais c'est vrai comme ces filles et ces mecs qui viennent de racoler par intérêt Quand t'es rien ils te crachent à la gueule Te salissent pour l'fun c'est idiot mais ça les fait grimper au rideau C'est triste à dire y a trop d'pourris ceux que j'ai cité ne reflètent qu'une catégorie Si tu m'suis tu dois faire le ménage ça t'ennuie mais c'est p't'être plus sage ça évite les chutes plus graves Un mauvais entourage dans une vie ça t'coule en moins d'deux et pour le rattrapage tu rames c'est Nanananananaze t'inquiètes les gens bien ça existe suffit d'être en phase au lieu d'être naze Gros naze Pourri</t>
         </is>
       </c>
     </row>
@@ -2435,7 +2435,7 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Je suis, je suis un homme libre Un homme qui raisonne, et regarde ma pomme et celles d'mes complices On a pas l'air du cru, mais on kiffe tout l'monde, blanc, noir C'est les fachos qui se constipent On passe pour ces nasiques, pas d'clé pour l'Eden Et on kicke toujours jusqu'au Yemen La garde s'est pas rendue, elle a r'poussé l'ennemi Il est r'parti avec un bon coup d'marteau dans les mains Ils ont un plan pour nous, rien qu'un seul c'est l'échec Mais Veust, tu l'sais, j'suis l'aigle au dessus d'leurs têtes J'veux pas d'leurs modèles, leur foutu miroir J'suis ce p'tit gars trop grand pour leur tiroir Comprend le cinéma auquel on assiste Ceux qui ont la bouche le plus à gauche sont souvent les plus gros racistes Ça donne des leçons, moi j'vois les gueules à l'open-space Y'a qu'des Steph', Romain et Aurélien qui t'assistent Ils nous comprennent pas, ni notre culture d'ailleurs Ils font une pièce de nos vies et nous mettent dans celle J'hallucine et dis quand même Le rap et l'R'n'B critiqués par des clowns d'la chanson française Juste une seconde de silence pour les p'tit gars qui s'mettent en selle Et qui projettent leur rêve dans l'ciel Sans barrières, ni fouet, ni maître x2 Ils veulent m'enchainer comme à ce bagne à Cayenne Mais leur vue ne dépasse pas leurs foutues Cayenne Nos vies courent sur un fil, on rêve d'elles dans nos têtes On veut ni chaîne, ni traitre, ni fouet, ni maître You might also like Eh yo Chill, tu le sais ! Ni fouet, ni maître, non ! Mais ça date pas d'hier Ouais J'me souviens J'ai connu le regard méfiant des autres J'étais jeune et noir, pour eux c'était déjà une faute J'ai vu les bases de la France d'aujourd'hui Celles qui trempent devant les dommages des p'tits Pour les parents, c'était le mal de vivre Joindre les deux bouts, se sacrifier pour la famille Maintenant, on les retrouve dans la rue lors des manif' Le sentiment d'avoir été trahis, c'est loin le temps des coupe-jarrets Mais les caméras braquent les cités sans arrêt pour faire peur aux français Ça fait des milliers de foyers défavorisés, dévalorisés à la télé pour de la pub Et casseurs et cassés dans l'même panier Y'a pas d'votes à gratter, ordre à la police de les gérer Pourtant on veut tous être libres S'échapper du ghetto, des tours grises, las des phobies Mais qu'est-c'tu veux faire, comment veux-tu avancer sans repère quand le monde autour de toi te rejette Plus de trêve, prisonnier d'son stress Plus une tune dans un monde où c'est l'argent qui gère Plus de respect de soi-même, et la loi on l'emmerde quand t'as pas eu les droits de vivre des rêves Mais qu'est-ce qu'il a c'pays ? Même les gosses de riches en tombent en déprime sous coke Rien ne va plus mais on l'a vu venir x2 Ils veulent m'enchainer comme à ce bagne à Cayenne Mais leur vue ne dépasse pas leurs foutues Cayenne Nos vies courent sur un fil, on rêve d'elles dans nos têtes On veut ni chaîne, ni traitre, ni fouet, ni maître</t>
+          <t>Je suis, je suis un homme libre Un homme qui raisonne, et regarde ma pomme et celles d'mes complices On a pas l'air du cru, mais on kiffe tout l'monde, blanc, noir C'est les fachos qui se constipent On passe pour ces nasiques, pas d'clé pour l'Eden Et on kicke toujours jusqu'au Yemen La garde s'est pas rendue, elle a r'poussé l'ennemi Il est r'parti avec un bon coup d'marteau dans les mains Ils ont un plan pour nous, rien qu'un seul c'est l'échec Mais Veust, tu l'sais, j'suis l'aigle au dessus d'leurs têtes J'veux pas d'leurs modèles, leur foutu miroir J'suis ce p'tit gars trop grand pour leur tiroir Comprend le cinéma auquel on assiste Ceux qui ont la bouche le plus à gauche sont souvent les plus gros racistes Ça donne des leçons, moi j'vois les gueules à l'open-space Y'a qu'des Steph', Romain et Aurélien qui t'assistent Ils nous comprennent pas, ni notre culture d'ailleurs Ils font une pièce de nos vies et nous mettent dans celle J'hallucine et dis quand même Le rap et l'R'n'B critiqués par des clowns d'la chanson française Juste une seconde de silence pour les p'tit gars qui s'mettent en selle Et qui projettent leur rêve dans l'ciel Sans barrières, ni fouet, ni maître x2 Ils veulent m'enchainer comme à ce bagne à Cayenne Mais leur vue ne dépasse pas leurs foutues Cayenne Nos vies courent sur un fil, on rêve d'elles dans nos têtes On veut ni chaîne, ni traitre, ni fouet, ni maître Eh yo Chill, tu le sais ! Ni fouet, ni maître, non ! Mais ça date pas d'hier Ouais J'me souviens J'ai connu le regard méfiant des autres J'étais jeune et noir, pour eux c'était déjà une faute J'ai vu les bases de la France d'aujourd'hui Celles qui trempent devant les dommages des p'tits Pour les parents, c'était le mal de vivre Joindre les deux bouts, se sacrifier pour la famille Maintenant, on les retrouve dans la rue lors des manif' Le sentiment d'avoir été trahis, c'est loin le temps des coupe-jarrets Mais les caméras braquent les cités sans arrêt pour faire peur aux français Ça fait des milliers de foyers défavorisés, dévalorisés à la télé pour de la pub Et casseurs et cassés dans l'même panier Y'a pas d'votes à gratter, ordre à la police de les gérer Pourtant on veut tous être libres S'échapper du ghetto, des tours grises, las des phobies Mais qu'est-c'tu veux faire, comment veux-tu avancer sans repère quand le monde autour de toi te rejette Plus de trêve, prisonnier d'son stress Plus une tune dans un monde où c'est l'argent qui gère Plus de respect de soi-même, et la loi on l'emmerde quand t'as pas eu les droits de vivre des rêves Mais qu'est-ce qu'il a c'pays ? Même les gosses de riches en tombent en déprime sous coke Rien ne va plus mais on l'a vu venir x2 Ils veulent m'enchainer comme à ce bagne à Cayenne Mais leur vue ne dépasse pas leurs foutues Cayenne Nos vies courent sur un fil, on rêve d'elles dans nos têtes On veut ni chaîne, ni traitre, ni fouet, ni maître</t>
         </is>
       </c>
     </row>
@@ -2452,7 +2452,7 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Nos légendes Nos légendes Nos légendes Nos légendes Et on court après nos légendes Paysages oubliés Mais troublés par trop d'préjugés Tellement quon n'sait plus où chercher On m'a fait croire que de lespoir, dans c'monde, y en a Que les sentiments, si t'es un homme, ne s'expriment pas Que si t'es pauvre, t'es un moins que rien et c'est normal Égaré, j'voulais pas finir comme ça Mais lcrétin, lui qui a fixé les règles, jvoudrais l'avoir en face de moi Lui cracher à la gueule en lui disant, tu nous as plantés Les enfants grandissent forts de leurs actes À douze ans ils rêvent de braquer un sac Y a dquoi flipper Trop d'fausses idées Le bonheur est en toi mais n'faut pas t'brider Chacun sa lumière, laisse la tienne te guider Si tu espères trouver ton coin de paix Trop dfausses idées On crée nos rêves pour mieux les utiliser Mais d'ici à c'que s'achèvent nos problèmes d'identité On aura p't-être perdu la chance qu'on avait You might also like Et on court après nos légendes Paysages oubliés Mais troublés par trop d'préjugés Tellement qu'on n'sait plus où chercher J'fais rien gratis, j'ai trop besoin d'fric On m'avait dit, c'est c'qu'il t'faut pour grandir J'agis, réagis appris d'la vie Aujourd'hui j'en ai vingt-huit de cycles Et j'prétends pas en avoir compris le quart Pas plus que ce boss qui possède des milliards C'est bon et c'est con Mais tout l'monde veut en être parce que c'est bon et c'est con On nous a bernés Le bonheur une légende qu'on nous a contée Mais beaucoup pensaient l'avoir trouvé Qui sait, si t'es fort dans la tête, qui sait Exorciser ses fantasmes et essaie de nous l'montrer Qui sait, p't-être que tout c'qu'il nous faut, cesser De focaliser sur cette réalité faussée Putain d'société Nos légendes Nos légendes Nos légendes Nos légendes Trop d'fausses idées Le bonheur est en toi mais n'faut pas t'brider Chacun sa lumière, laisse la tienne te guider Si tu espères trouver ton coin de paix Et on court après nos légendes Paysages oubliés Mais troublés par trop d'préjugés Tellement qu'on n'sait plus où chercher On court après nos légendes, ouais Nos légendes passées</t>
+          <t>Nos légendes Nos légendes Nos légendes Nos légendes Et on court après nos légendes Paysages oubliés Mais troublés par trop d'préjugés Tellement quon n'sait plus où chercher On m'a fait croire que de lespoir, dans c'monde, y en a Que les sentiments, si t'es un homme, ne s'expriment pas Que si t'es pauvre, t'es un moins que rien et c'est normal Égaré, j'voulais pas finir comme ça Mais lcrétin, lui qui a fixé les règles, jvoudrais l'avoir en face de moi Lui cracher à la gueule en lui disant, tu nous as plantés Les enfants grandissent forts de leurs actes À douze ans ils rêvent de braquer un sac Y a dquoi flipper Trop d'fausses idées Le bonheur est en toi mais n'faut pas t'brider Chacun sa lumière, laisse la tienne te guider Si tu espères trouver ton coin de paix Trop dfausses idées On crée nos rêves pour mieux les utiliser Mais d'ici à c'que s'achèvent nos problèmes d'identité On aura p't-être perdu la chance qu'on avait Et on court après nos légendes Paysages oubliés Mais troublés par trop d'préjugés Tellement qu'on n'sait plus où chercher J'fais rien gratis, j'ai trop besoin d'fric On m'avait dit, c'est c'qu'il t'faut pour grandir J'agis, réagis appris d'la vie Aujourd'hui j'en ai vingt-huit de cycles Et j'prétends pas en avoir compris le quart Pas plus que ce boss qui possède des milliards C'est bon et c'est con Mais tout l'monde veut en être parce que c'est bon et c'est con On nous a bernés Le bonheur une légende qu'on nous a contée Mais beaucoup pensaient l'avoir trouvé Qui sait, si t'es fort dans la tête, qui sait Exorciser ses fantasmes et essaie de nous l'montrer Qui sait, p't-être que tout c'qu'il nous faut, cesser De focaliser sur cette réalité faussée Putain d'société Nos légendes Nos légendes Nos légendes Nos légendes Trop d'fausses idées Le bonheur est en toi mais n'faut pas t'brider Chacun sa lumière, laisse la tienne te guider Si tu espères trouver ton coin de paix Et on court après nos légendes Paysages oubliés Mais troublés par trop d'préjugés Tellement qu'on n'sait plus où chercher On court après nos légendes, ouais Nos légendes passées</t>
         </is>
       </c>
     </row>
@@ -2469,7 +2469,7 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Ça fait des heures que le vent épouse son visage marquant et marqué Comme un vieil air de blues gravé sur un disque hors d'usage Les yeux fixés sur le gris paysage où depuis des années le vert Des billets terni celui des pelouses aujourd'hui jonchées de braises Le temps l'a puni, le temps assagit, embellit les souvenirs Douce symphonie urbaine précieuse tel un saphir Les soupirs de l'important quand les rues lâchent Pour celui qui sait les voir leur plus attrayant spectacle Ça fait des heures et des vies qu'assis là sur le banc vieux comme ses os Il mate l'interminable flot de badauds égarés en quête d'un quidam à blâmer D'un fardeau à porter, charmées les têtes suivent assoiffées Verse une larme souvenir d'un temps où la bête fût traquée Le vice installé à ses pieds une coulée de lave ignorante et aveugle Erre dans ce fleuve de chair présent dans chaque chaumière comme Dieu Ça fait des heures que le vent frappe son regard mais rien ne l'irrite, les cieux Pourraient s'écrouler lÉden fait plus espérer le cur se meurt au grenier Assis là il les regarde passer, pressés de tisser leur toile leur vue Se voile et le précieux comme l'individu fini croisé mais pas vu Perdu depuis tout ce temps, tout le temps déçu il le sait lui Mais reste assis à faire la manche sur les routes du Paradis You might also like Il sait que dans ce théâtre y'a que du concret, des scènes répétées chaque jour Un jeu d'acteur qui triche pas, du naturel sans détour Un tas de noms indéchiffrables luttent contre le règne de l'anonymat Encrés sur les murs comme s'ils se foutaient des lois Connaissant les auteurs comme chaque protagonistes De chaque actes, certains plus graves même dorment dans l'oubli Ça fait des heures et des vies ! Ça fait des heures et des vies qu'il lit la résignation au rythme des pas Du Blue Jeans crade, du costume au bleu de travail Les véhicules donnent cette impression d'envie de casser du piéton La colère et la joie se disputent un bout de goudron Des fois défilent des banderoles sarcastiques, ça se corse Et comme dans une rediff' ça se calme de force Viendront s'afficher des visages de l'époque pour un vote Le mépris invoque chaque gloire profite à un autre Les jours se succèdent, les gens se ressemblent du tabac À l'alcool les vices se ressentent et il devine pourquoi Assis là il a vu le respect s'échouer sur du marbre la fierté Se jouer de ses gardes des justices au glaive meurtrier et rouillé Des mains jointes cherchant l'excuse pour une vie souvent gaspillée Des happy-ends des vrais, il me semble que c'est ce qu'il est venu trouver</t>
+          <t>Ça fait des heures que le vent épouse son visage marquant et marqué Comme un vieil air de blues gravé sur un disque hors d'usage Les yeux fixés sur le gris paysage où depuis des années le vert Des billets terni celui des pelouses aujourd'hui jonchées de braises Le temps l'a puni, le temps assagit, embellit les souvenirs Douce symphonie urbaine précieuse tel un saphir Les soupirs de l'important quand les rues lâchent Pour celui qui sait les voir leur plus attrayant spectacle Ça fait des heures et des vies qu'assis là sur le banc vieux comme ses os Il mate l'interminable flot de badauds égarés en quête d'un quidam à blâmer D'un fardeau à porter, charmées les têtes suivent assoiffées Verse une larme souvenir d'un temps où la bête fût traquée Le vice installé à ses pieds une coulée de lave ignorante et aveugle Erre dans ce fleuve de chair présent dans chaque chaumière comme Dieu Ça fait des heures que le vent frappe son regard mais rien ne l'irrite, les cieux Pourraient s'écrouler lÉden fait plus espérer le cur se meurt au grenier Assis là il les regarde passer, pressés de tisser leur toile leur vue Se voile et le précieux comme l'individu fini croisé mais pas vu Perdu depuis tout ce temps, tout le temps déçu il le sait lui Mais reste assis à faire la manche sur les routes du Paradis Il sait que dans ce théâtre y'a que du concret, des scènes répétées chaque jour Un jeu d'acteur qui triche pas, du naturel sans détour Un tas de noms indéchiffrables luttent contre le règne de l'anonymat Encrés sur les murs comme s'ils se foutaient des lois Connaissant les auteurs comme chaque protagonistes De chaque actes, certains plus graves même dorment dans l'oubli Ça fait des heures et des vies ! Ça fait des heures et des vies qu'il lit la résignation au rythme des pas Du Blue Jeans crade, du costume au bleu de travail Les véhicules donnent cette impression d'envie de casser du piéton La colère et la joie se disputent un bout de goudron Des fois défilent des banderoles sarcastiques, ça se corse Et comme dans une rediff' ça se calme de force Viendront s'afficher des visages de l'époque pour un vote Le mépris invoque chaque gloire profite à un autre Les jours se succèdent, les gens se ressemblent du tabac À l'alcool les vices se ressentent et il devine pourquoi Assis là il a vu le respect s'échouer sur du marbre la fierté Se jouer de ses gardes des justices au glaive meurtrier et rouillé Des mains jointes cherchant l'excuse pour une vie souvent gaspillée Des happy-ends des vrais, il me semble que c'est ce qu'il est venu trouver</t>
         </is>
       </c>
     </row>
@@ -2486,7 +2486,7 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Ooh! T'inquiète, c'est Cut Killer HH pour Faf Larage Hey écoute ça, back in the days à l'ancienne J'ai commencé en 80 Et en 81 - 2 - 3 - 4 le rap m'a accroché Tellement qu'en 2007 je kill Encore des mics sur des beats qui déchirent N'essaie même pas de venir test quand c'est Faf qui officie Mc depuis 85, 87 devant un public Tu connais le gimmick yo sur le mic yo C'était en 80 au tout début du rap yo Y avait surtout le breakdance et chacun commençait à s'y mettre On échappait pas à la vague yo C'était le début y avait tout à faire On prenait nos problèmes, les mettait en rimes et ça le faisait Loin de moi l'idée de me la jouer, de faire l'ancien C'est juste quelques souvenirs anciens D'un gamin devant sa radio, j'essaye de capter Quelques nouveautés sur les émissions de funk bébé Paraît qu'il y a un nouveau son à New York City R.A.P. on va en entendre parler J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais You might also like Y a eu Beatstreet, Breakstreet Dans le cinéma ça file Say what ? À l'époque on n'espérait pas faire de la tune Mais juste avoir le style Y avait pas internet mais garanti ça dansait sur tous les sites Hip Hop l'émission après Starsky chut c'est parti De Bambataa à Run-DMC La claque du premier album de Public Enemy J'ai pété les plombs devant le Big Daddy Le Kool G, du Biz Markie trop d'albums fils Trop de flows dans ma feuille et mon stylo J'voulais faire partie des pros du micro c'était chaud On disait le rap ça durera pas C'est juste bon pour les blacks, on n'en veut pas Trop d'Noirs et d'Arabes dans le paysage On avait trouvé une culture mec c'est ça On va l'dire comme ça à l'ancienne Détermination fallait qu'on s'y tienne On était quoi au Vieux Port au début une trentaine? Dédicace à la old school de Marseille J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais J'te parle d'un gosse qui rêvait de micro et pas d'or Quand tout le monde disait c'est fini la mode Fallait aimer le hip-hop et au-delà fallait croire en quelque chose Sinon on finissait paumé dans la zone On était là avec nos Adidas, B. Boy Stance À parler vinyles semaines et week-ends Comment c'était important les habits J'te parlerai pas d'embrouilles là j'en ai pas envie J'te ramène des good vibes sur ma musique Avant les concerts, les groupies et le fric Les scratchs de DST sur RockIt The Message et Rapper's Delight Fixaient déjà les courants du rap Y a eu la vague des samples de James Brown Et moi je cherchais ma place dans le hip-hop On avait peu d'infos à la radio Ça mixait le funk et les Kurtis Blow Les DJ's, les anciens ont filé le micro Y avait les premiers raps sociaux Y a eu les premiers raps ghettos La variét' nous regardait de haut Y avait déjà la chasse aux faux Avant les premières sessions de studio J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais Oooh wee! T'inquiète, Cut Killa Killa H-H Pour my man Faf Larage Ooh! On lâche pas l'affaire, hey! Hey Faf, t'inquiète, t'inquiète, toi-même-tu-sais!</t>
+          <t>Ooh! T'inquiète, c'est Cut Killer HH pour Faf Larage Hey écoute ça, back in the days à l'ancienne J'ai commencé en 80 Et en 81 - 2 - 3 - 4 le rap m'a accroché Tellement qu'en 2007 je kill Encore des mics sur des beats qui déchirent N'essaie même pas de venir test quand c'est Faf qui officie Mc depuis 85, 87 devant un public Tu connais le gimmick yo sur le mic yo C'était en 80 au tout début du rap yo Y avait surtout le breakdance et chacun commençait à s'y mettre On échappait pas à la vague yo C'était le début y avait tout à faire On prenait nos problèmes, les mettait en rimes et ça le faisait Loin de moi l'idée de me la jouer, de faire l'ancien C'est juste quelques souvenirs anciens D'un gamin devant sa radio, j'essaye de capter Quelques nouveautés sur les émissions de funk bébé Paraît qu'il y a un nouveau son à New York City R.A.P. on va en entendre parler J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais Y a eu Beatstreet, Breakstreet Dans le cinéma ça file Say what ? À l'époque on n'espérait pas faire de la tune Mais juste avoir le style Y avait pas internet mais garanti ça dansait sur tous les sites Hip Hop l'émission après Starsky chut c'est parti De Bambataa à Run-DMC La claque du premier album de Public Enemy J'ai pété les plombs devant le Big Daddy Le Kool G, du Biz Markie trop d'albums fils Trop de flows dans ma feuille et mon stylo J'voulais faire partie des pros du micro c'était chaud On disait le rap ça durera pas C'est juste bon pour les blacks, on n'en veut pas Trop d'Noirs et d'Arabes dans le paysage On avait trouvé une culture mec c'est ça On va l'dire comme ça à l'ancienne Détermination fallait qu'on s'y tienne On était quoi au Vieux Port au début une trentaine? Dédicace à la old school de Marseille J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais J'te parle d'un gosse qui rêvait de micro et pas d'or Quand tout le monde disait c'est fini la mode Fallait aimer le hip-hop et au-delà fallait croire en quelque chose Sinon on finissait paumé dans la zone On était là avec nos Adidas, B. Boy Stance À parler vinyles semaines et week-ends Comment c'était important les habits J'te parlerai pas d'embrouilles là j'en ai pas envie J'te ramène des good vibes sur ma musique Avant les concerts, les groupies et le fric Les scratchs de DST sur RockIt The Message et Rapper's Delight Fixaient déjà les courants du rap Y a eu la vague des samples de James Brown Et moi je cherchais ma place dans le hip-hop On avait peu d'infos à la radio Ça mixait le funk et les Kurtis Blow Les DJ's, les anciens ont filé le micro Y avait les premiers raps sociaux Y a eu les premiers raps ghettos La variét' nous regardait de haut Y avait déjà la chasse aux faux Avant les premières sessions de studio J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais Oooh wee! T'inquiète, Cut Killa Killa H-H Pour my man Faf Larage Ooh! On lâche pas l'affaire, hey! Hey Faf, t'inquiète, t'inquiète, toi-même-tu-sais!</t>
         </is>
       </c>
     </row>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Au début, c'était des gosses qui jouaient sur les playgrounds Les poches vides, on trainait, fiers de notre bande Les mains dans les disques poussiéreux de A1 On rêvait de gloire, dalbums à la Raekwon On signait à Def Jam, foulait le Madison Square Mais ici, pour nous, c'est tout chaud, magique arrière J'trainais avec les vrais au Latin Quarter Mais comme au break, dans la vie j'restais par terre Trop rap, trop bad, trop black Trop fat, trop d'rage pour la masse Trop strict, trop spé' pour les radios Trop d'merde, trop d'dettes, trop d'agios Et trop la foi, beaucoup d'égo, de street-cinéma Les nuits au métro, entre stylos et matraques On brillait au rap comme Oscar de la Hoya A l'époque où Tupac chantait California Ils ont commencés à se dire c'est pas une passade Quand on a défoncé le bizz, portes et façades On a eu l'hexagone alors qu'on rêvait d'NY Et cogne sur la vie entre la pierre et le mic' Je menvole au dessus des songes Ma vie s'étiole et je vois New York, puis mes pensées qui Volent au dessus des ponts Des rues, des blocs et mes rêves m'emportent à New York You might also like Face au rejet, on a développé nos ambitions Un phénomène social fort à travers le monde Big Apple devint La Mecque pour les B-Boys Où qu'on soit sur le globe, on dit my people Peu d'résultats à suivre dans les écoles Mais gras de strophes pointues stockées dans les coffres Maintenant nos pièces dans les galeries s'exposent On a influencé les modes avec nos dress-codes A New York City, posés nos valises plus d'une fois La France nous a renié trop d'fois Tokyo, Berlin, Mars, Barcelone ou Rio Une seule et même langue diffusée dans nos micros Malgré les chiffres du rap, peu de récompenses Mais un milieu qui s'étend dans les consciences On casse l'ambiance, d'un coup y'a plus un sourire Car ils savent bien que le rap ne peut pas mourir On va s'nourrir des restes puis survivre Et pour la énième fois créer la surprise On a les mots, le mental, les machines Pour un retour massif à la Maciste On a nos couleurs, nos stars, nos lieux mythiques Nos classiques, nos légendes et nos faits tragiques On rêvait NY à fond, jeunes et naïfs Et de là, toutes nos tueries jaillissent x2 Je menvole au dessus des songes Ma vie s'étiole et je vois New York, puis mes pensées qui Volent au dessus des ponts Des rues, des blocs et mes rêves m'emportent à New York</t>
+          <t>Au début, c'était des gosses qui jouaient sur les playgrounds Les poches vides, on trainait, fiers de notre bande Les mains dans les disques poussiéreux de A1 On rêvait de gloire, dalbums à la Raekwon On signait à Def Jam, foulait le Madison Square Mais ici, pour nous, c'est tout chaud, magique arrière J'trainais avec les vrais au Latin Quarter Mais comme au break, dans la vie j'restais par terre Trop rap, trop bad, trop black Trop fat, trop d'rage pour la masse Trop strict, trop spé' pour les radios Trop d'merde, trop d'dettes, trop d'agios Et trop la foi, beaucoup d'égo, de street-cinéma Les nuits au métro, entre stylos et matraques On brillait au rap comme Oscar de la Hoya A l'époque où Tupac chantait California Ils ont commencés à se dire c'est pas une passade Quand on a défoncé le bizz, portes et façades On a eu l'hexagone alors qu'on rêvait d'NY Et cogne sur la vie entre la pierre et le mic' Je menvole au dessus des songes Ma vie s'étiole et je vois New York, puis mes pensées qui Volent au dessus des ponts Des rues, des blocs et mes rêves m'emportent à New York Face au rejet, on a développé nos ambitions Un phénomène social fort à travers le monde Big Apple devint La Mecque pour les B-Boys Où qu'on soit sur le globe, on dit my people Peu d'résultats à suivre dans les écoles Mais gras de strophes pointues stockées dans les coffres Maintenant nos pièces dans les galeries s'exposent On a influencé les modes avec nos dress-codes A New York City, posés nos valises plus d'une fois La France nous a renié trop d'fois Tokyo, Berlin, Mars, Barcelone ou Rio Une seule et même langue diffusée dans nos micros Malgré les chiffres du rap, peu de récompenses Mais un milieu qui s'étend dans les consciences On casse l'ambiance, d'un coup y'a plus un sourire Car ils savent bien que le rap ne peut pas mourir On va s'nourrir des restes puis survivre Et pour la énième fois créer la surprise On a les mots, le mental, les machines Pour un retour massif à la Maciste On a nos couleurs, nos stars, nos lieux mythiques Nos classiques, nos légendes et nos faits tragiques On rêvait NY à fond, jeunes et naïfs Et de là, toutes nos tueries jaillissent x2 Je menvole au dessus des songes Ma vie s'étiole et je vois New York, puis mes pensées qui Volent au dessus des ponts Des rues, des blocs et mes rêves m'emportent à New York</t>
         </is>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>J'avance dans le marais que je sais infecté de reptiles sereins À l'idée de m'injecter le venin par morsure ou poignée de mains Je les sens là autour de moi à chaque fois, à chaque pas sous chaque nénuphar Se cache un saurien et faudrait pas le savoir trop tard Et si t'essayes de faire avancer ton biz et ça souvent Des gens qui te foutent des barrières mec y en a tout le temps Et si je suis où j'en suis c'est clair c'est pas un accident Et quand une langue de pute me cherche faut que j'y casse les dents Je sais où je vais mais faudrait pas que j'y aille trop vite que j'évite les croche-pieds La bave par les crapauds laissée, les lianes qui tentent de me lasser Sur le sol tapissé, lil se trompe mais pas l'oreille Entends le corail glissé je te l'ai dit c'est le marais pas le pays des merveilles Le seul critère c'est l'image dans l'eau plate les yeux dans le dos Tu vois pas ce qu'il y a devant rho une masse obscure qui te sourit à pleine dent rho Dans le sous-bois l'écho court moins speed que la 'sique Je deviens amnésique dès qu'un ragot me pique j'ai louïe sélective J'aime pas voir un sourire me disant fils t'as changé Des incapables pensent que j'ai coulé Des inconnus même qui s'approchent de trop près J'préfère vivre en parallèle, en parallèle, en parallèle You might also like Trop de pouffes qui parlent, comme si de leur vie j'en étais le centre Les cons qui me détestent mais qui arrivent pas à devenir franc Je pige pas leurs motivations et leurs comportements Mais je sais que tout se paye et j'attends patiemment Je garde la tête haute sans faire cas de ce qui se passe au ras des pâquerettes Me coucher ? Nan ! Impossible je sais envers qui j'ai une dette Mais la volaille caquette tant qu'elle le peut à défaut de faire mieux Ça sonne creux et je me place à des lieux de leurs yeux Je suis trop à fond dans ce son depuis pour calmer, fou ! Langue de pute au fur et à mesure va falloir des loupes Pour checker mes loops et mes flows, mes coups et mes mots Mes fougues et mes taux de ventes de réussite c'est lourd En attendant j'avance droit j'ai toujours la rage au ventre Pour quoi que ce soit que j'ai fait ou vais faire j'ai ma conscience Ai eu le cran de combattre la malchance plus d'une fois Un mec qui chiale dans son coin, fils j'suis pas de ceux-là J'aime pas voir un sourire me disant fils t'as changé Des incapables pensent que j'ai coulé Des inconnus même qui s'approchent de trop près J'préfère vivre en parallèle, en parallèle, en parallèle</t>
+          <t>J'avance dans le marais que je sais infecté de reptiles sereins À l'idée de m'injecter le venin par morsure ou poignée de mains Je les sens là autour de moi à chaque fois, à chaque pas sous chaque nénuphar Se cache un saurien et faudrait pas le savoir trop tard Et si t'essayes de faire avancer ton biz et ça souvent Des gens qui te foutent des barrières mec y en a tout le temps Et si je suis où j'en suis c'est clair c'est pas un accident Et quand une langue de pute me cherche faut que j'y casse les dents Je sais où je vais mais faudrait pas que j'y aille trop vite que j'évite les croche-pieds La bave par les crapauds laissée, les lianes qui tentent de me lasser Sur le sol tapissé, lil se trompe mais pas l'oreille Entends le corail glissé je te l'ai dit c'est le marais pas le pays des merveilles Le seul critère c'est l'image dans l'eau plate les yeux dans le dos Tu vois pas ce qu'il y a devant rho une masse obscure qui te sourit à pleine dent rho Dans le sous-bois l'écho court moins speed que la 'sique Je deviens amnésique dès qu'un ragot me pique j'ai louïe sélective J'aime pas voir un sourire me disant fils t'as changé Des incapables pensent que j'ai coulé Des inconnus même qui s'approchent de trop près J'préfère vivre en parallèle, en parallèle, en parallèle Trop de pouffes qui parlent, comme si de leur vie j'en étais le centre Les cons qui me détestent mais qui arrivent pas à devenir franc Je pige pas leurs motivations et leurs comportements Mais je sais que tout se paye et j'attends patiemment Je garde la tête haute sans faire cas de ce qui se passe au ras des pâquerettes Me coucher ? Nan ! Impossible je sais envers qui j'ai une dette Mais la volaille caquette tant qu'elle le peut à défaut de faire mieux Ça sonne creux et je me place à des lieux de leurs yeux Je suis trop à fond dans ce son depuis pour calmer, fou ! Langue de pute au fur et à mesure va falloir des loupes Pour checker mes loops et mes flows, mes coups et mes mots Mes fougues et mes taux de ventes de réussite c'est lourd En attendant j'avance droit j'ai toujours la rage au ventre Pour quoi que ce soit que j'ai fait ou vais faire j'ai ma conscience Ai eu le cran de combattre la malchance plus d'une fois Un mec qui chiale dans son coin, fils j'suis pas de ceux-là J'aime pas voir un sourire me disant fils t'as changé Des incapables pensent que j'ai coulé Des inconnus même qui s'approchent de trop près J'préfère vivre en parallèle, en parallèle, en parallèle</t>
         </is>
       </c>
     </row>
@@ -2537,7 +2537,7 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Yeah Et tu l'sais Faf, Larage ouais My man Itachi se met au fourneau pour cuisiner un fuckin' track Lorsqu'il me le sert, le cahier des charges c'est Bomboclaat J'prends ma mission au sérieux, peu importe c'qu'ils disent ouais Still real, mon style 90-2000 Si ce hip-hop est sous terre, j'suis Negan et Lucille Dans ce dernier épisode, j'manie la force tranquille J'cours pas après les trophées, ils en ont trop fait Pas là pour briller mais mes frérots m'ont offert le rspect J'ai fait mes bails, j'me suis battu contr les préjugés Jugé pour avoir fait du rap et prouver qu'il était Pas la mode de l'été, pas le caprice d'ado attardé non Mais un souffle de liberté, la voix des plus opprimés Aujourd'hui, il voudrait voir mes valeurs à la baisse Quoi ? S'faire un nom grâce à sa Mercedes ou à ses fesses A ses liasses, à ses biceps plus qu'à sa gentillesse T'as 3 secondes pour être une déesse ou te mettre en pièces Yeah, vas-y mène l'enquête Kyo Itachi et Larage ont tenu leurs promesses hein Plus de mot, plus de fake, mec, plus un geste non Plus de mot, plus de fake, mec, plus un geste et tu l'sais Yeah, vas-y mène l'enquête ah Kyo Itachi et Larage ont tenu leurs promesses ouais Plus de mot, plus de fake, mec, plus un geste Plus de mot, plus de fake, mec, plus un geste You might also like Mes phrases chocs rivalisent avec une langue qui est en règle La vérité, c'est celle qu'on diffuse et pas celle qui gêne Pas b'soin d'être pour défendre le case Trop d'artistes se voilent la face pour quelques showcases Plus rien à défendre et rien à foutre, comment leur en vouloir ? Les haters, sombres victimes d'un effet miroir ouais ouais Crétins, les lâches pensent avoir le dernier mot han Les héros en salle d'attente pour quelques pronos oh no Pour s'en sortir, faut plus que des tutos Le devil a lâché lasso, le salaud Tout part avant l'eau Les frérots veulent les follow des stars du porno Les fake news ont filé l'opinion aux infos Pendant c'temps, ça s'mange le cerveau dans les ouais Vaccin contre la peur, Big Pharma fait des dab On n'aura jamais le fin mot d'l'histoire Pression et dessous de table semblent gérer le caviar ouais J'ai dépassé le quota de conscience sur instru yeah La tendance est dans la flambe ou la punch crue Je viens pas pour vendre du rêve ou forcer mon actu Je reste vrai dans mes interviews, mes rimes ou dans la rue Yeah, vas-y mène l'enquête Kyo Itachi et Larage ont tenu leurs promesses ouais ouais Plus de mot, plus de fake, mec, plus un geste plus un geste Plus de mot, plus de fake, mec, plus un geste et tu l'sais Yeah, vas-y mène l'enquête Kyo Itachi et Larage ont tenu leurs promesses Plus de mot, plus de fake, mec, plus un geste Plus de mot, plus de fake, mec, plus un geste Yeah yeah, ouais Et tu l'sais Faf Larage Kyo Itachi Comme ça Plus un mot, plus de fake Mec, plus un geste Hein Peace</t>
+          <t>Yeah Et tu l'sais Faf, Larage ouais My man Itachi se met au fourneau pour cuisiner un fuckin' track Lorsqu'il me le sert, le cahier des charges c'est Bomboclaat J'prends ma mission au sérieux, peu importe c'qu'ils disent ouais Still real, mon style 90-2000 Si ce hip-hop est sous terre, j'suis Negan et Lucille Dans ce dernier épisode, j'manie la force tranquille J'cours pas après les trophées, ils en ont trop fait Pas là pour briller mais mes frérots m'ont offert le rspect J'ai fait mes bails, j'me suis battu contr les préjugés Jugé pour avoir fait du rap et prouver qu'il était Pas la mode de l'été, pas le caprice d'ado attardé non Mais un souffle de liberté, la voix des plus opprimés Aujourd'hui, il voudrait voir mes valeurs à la baisse Quoi ? S'faire un nom grâce à sa Mercedes ou à ses fesses A ses liasses, à ses biceps plus qu'à sa gentillesse T'as 3 secondes pour être une déesse ou te mettre en pièces Yeah, vas-y mène l'enquête Kyo Itachi et Larage ont tenu leurs promesses hein Plus de mot, plus de fake, mec, plus un geste non Plus de mot, plus de fake, mec, plus un geste et tu l'sais Yeah, vas-y mène l'enquête ah Kyo Itachi et Larage ont tenu leurs promesses ouais Plus de mot, plus de fake, mec, plus un geste Plus de mot, plus de fake, mec, plus un geste Mes phrases chocs rivalisent avec une langue qui est en règle La vérité, c'est celle qu'on diffuse et pas celle qui gêne Pas b'soin d'être pour défendre le case Trop d'artistes se voilent la face pour quelques showcases Plus rien à défendre et rien à foutre, comment leur en vouloir ? Les haters, sombres victimes d'un effet miroir ouais ouais Crétins, les lâches pensent avoir le dernier mot han Les héros en salle d'attente pour quelques pronos oh no Pour s'en sortir, faut plus que des tutos Le devil a lâché lasso, le salaud Tout part avant l'eau Les frérots veulent les follow des stars du porno Les fake news ont filé l'opinion aux infos Pendant c'temps, ça s'mange le cerveau dans les ouais Vaccin contre la peur, Big Pharma fait des dab On n'aura jamais le fin mot d'l'histoire Pression et dessous de table semblent gérer le caviar ouais J'ai dépassé le quota de conscience sur instru yeah La tendance est dans la flambe ou la punch crue Je viens pas pour vendre du rêve ou forcer mon actu Je reste vrai dans mes interviews, mes rimes ou dans la rue Yeah, vas-y mène l'enquête Kyo Itachi et Larage ont tenu leurs promesses ouais ouais Plus de mot, plus de fake, mec, plus un geste plus un geste Plus de mot, plus de fake, mec, plus un geste et tu l'sais Yeah, vas-y mène l'enquête Kyo Itachi et Larage ont tenu leurs promesses Plus de mot, plus de fake, mec, plus un geste Plus de mot, plus de fake, mec, plus un geste Yeah yeah, ouais Et tu l'sais Faf Larage Kyo Itachi Comme ça Plus un mot, plus de fake Mec, plus un geste Hein Peace</t>
         </is>
       </c>
     </row>
@@ -2554,7 +2554,7 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Tous les jours, la vie moderne engendre une nouvelle espèce de philosophes Voici leurs histoires J'suis un pur produit de la merde ambiante Un mélange de défauts, de travers et de haine refoulée par les gens J'm'alimente de pubs et d'TV-réalité Les docus de société, rien à carrer J'suis con et j'veux le rester J'viens faire peur aux tout petits Leur dire qu'y'a pas d'avenir Que papa s'tape tati et pousse maman au suicide Acide, acerbe, hypocrite et pervers Et j't'emmerde, te fais pleurer à la Mylène Farmer On est pas égaux, qu'est-ce que tu crois ? Mon kiff c'est de te croiser dans la rue, broyé par la vie et l'rouge, le short plein d'pisse J'donne pas dans le caritatif Là je fuis alors excuse pour le tsunami, j'avais pas un rond, pas d'ami J'rends pas de service gratuit, m'en fous d'ta vie c'est cuit Et cherche pas une épaule pour chialer, c'est si grave tant pis Jaloux, envieux, des jeunes et des vieux Tes proches me détestent, mais j'ai pas besoin d'eux Je viens pour frapper le faible car le fort m'intimide La veuve et l'orphelin ont peur de mes gifles Après une cuite, j'suis pas un héros Fuck Néo, dans la matrice je suis l'défaut Celui qui fout rien mais qui veut le magot Injusticier dans l'âme et j'exploite vos handicaps Et si ça fait des drames, j'y fane, regarde, et rit aux larmes Je repends des rumeurs degueu' à table sur un homme et une femme, et je hais les autres et leur bonheur a besoin d'un pavé dans la marre J'suis pour la dépression, pour que tailles en prison, le chômage c'est trop bon, les traders ont raison Je viens plomber lambiance comme Carrie au bal Comme un Quick avec un Sprite sans bulle et des frites froides Je tape où ça fait mal, traitre ouais j'suis prêt à tout Je suis en mode Fight Club, tu peux m'donner des coups Je croque dans ton crâne, je viens prendre ma place Regarde bien dans le miroir et tu verras ma face J'veux vous voir en bas La main en avant des mendiants, faire les poubelles à plein temps Personne avant moi Eh m'sieur l'agent, c'est bien beau le fauteuil roulant mais j'étais là avant Nan j'te connais pas La famille, les parents, à qui faut raquer les cadeaux à Noël tous les ans Pur produit de cette sale mental' Je sors du trou du cul de la crise J'rêve de paillettes et de gloire De plein d'femmes à poil et de Cristal à boire Mon passe-temps c'est la tise, j'peux te lire lavenir dans un verre de pastis sur le comptoir Avec les collègues au bar, on parle des problèmes, de tous ces parasites à l'affut d'une belle aubaine Et franchement la France, pour ces crouilles, elle est trop belle J'aimerais le dire à ma femme mais j'peux pas vraiment, elle est trop bête Alors c'est avec Dédé que j'fais mes théories On nous raconte que le danger c'est les météorites Pas du tout, c'est la cité au bout d'la rue et les jeunes qui y vivent, c'est un putain d'nid à terroristes Des fainéants qui n'attendent que le coup d'pouce, oh Mohamed T'as inventé qu'un truc, c'est le couscous Du chômage à la casse, c'est à nous qu'il faut penser monsieur Bourdin, je le demande Mais qu'est-ce qu'on fait pour les français ? Je pourrais aimer les bleus, vanter l'équipe et la louer, mais c'est pas l'équipe de France, c'est celle du Zimbabwe Vu c'qu'ils font dans le monde, j'en attendais pas moins ces derniers temps On a déjà dégagé sec tous les rabouins J'aime trop ma vie, j'ai pas l'temps de penser aux mouflets Ça chie partout et ça braille quand ça veut bouffer Ça pue le Mustela, la pisse et le Nutella Ça casse les couilles, pire que ces putain d'Vuvuzela Mon beauf a monté sa boite dans l'bâtiment, ça marche, il fait 50 au black pratiquement J'ai fait mon devoir citoyen, moi anonyme mais plus qu'ça, je l'ai balancé à l'Urssaf Pauv' con maintenant qui pleure à sa stupide sur parce qu'il doit vendre sa Mégane et son téléviseur Quand j'vois les autres dans la merde, ça m'va, car ça fait chaud au cur de voir qu'y a pas qu'moi Ouais J'veux vous voir en bas La main en avant des mendiants, faire les poubelles à plein temps Personne avant moi Eh m'sieur l'agent, c'est bien beau le fauteuil roulant mais j'étais là avant Nan j'te connais pas La famille, les parents, à qui faut raquer les cadeaux à Noël tous les ans Pur produit de cette sale mental' Ils sont déjà chez vous, et ils vont tous vous ken NiggaYou might also like</t>
+          <t>Tous les jours, la vie moderne engendre une nouvelle espèce de philosophes Voici leurs histoires J'suis un pur produit de la merde ambiante Un mélange de défauts, de travers et de haine refoulée par les gens J'm'alimente de pubs et d'TV-réalité Les docus de société, rien à carrer J'suis con et j'veux le rester J'viens faire peur aux tout petits Leur dire qu'y'a pas d'avenir Que papa s'tape tati et pousse maman au suicide Acide, acerbe, hypocrite et pervers Et j't'emmerde, te fais pleurer à la Mylène Farmer On est pas égaux, qu'est-ce que tu crois ? Mon kiff c'est de te croiser dans la rue, broyé par la vie et l'rouge, le short plein d'pisse J'donne pas dans le caritatif Là je fuis alors excuse pour le tsunami, j'avais pas un rond, pas d'ami J'rends pas de service gratuit, m'en fous d'ta vie c'est cuit Et cherche pas une épaule pour chialer, c'est si grave tant pis Jaloux, envieux, des jeunes et des vieux Tes proches me détestent, mais j'ai pas besoin d'eux Je viens pour frapper le faible car le fort m'intimide La veuve et l'orphelin ont peur de mes gifles Après une cuite, j'suis pas un héros Fuck Néo, dans la matrice je suis l'défaut Celui qui fout rien mais qui veut le magot Injusticier dans l'âme et j'exploite vos handicaps Et si ça fait des drames, j'y fane, regarde, et rit aux larmes Je repends des rumeurs degueu' à table sur un homme et une femme, et je hais les autres et leur bonheur a besoin d'un pavé dans la marre J'suis pour la dépression, pour que tailles en prison, le chômage c'est trop bon, les traders ont raison Je viens plomber lambiance comme Carrie au bal Comme un Quick avec un Sprite sans bulle et des frites froides Je tape où ça fait mal, traitre ouais j'suis prêt à tout Je suis en mode Fight Club, tu peux m'donner des coups Je croque dans ton crâne, je viens prendre ma place Regarde bien dans le miroir et tu verras ma face J'veux vous voir en bas La main en avant des mendiants, faire les poubelles à plein temps Personne avant moi Eh m'sieur l'agent, c'est bien beau le fauteuil roulant mais j'étais là avant Nan j'te connais pas La famille, les parents, à qui faut raquer les cadeaux à Noël tous les ans Pur produit de cette sale mental' Je sors du trou du cul de la crise J'rêve de paillettes et de gloire De plein d'femmes à poil et de Cristal à boire Mon passe-temps c'est la tise, j'peux te lire lavenir dans un verre de pastis sur le comptoir Avec les collègues au bar, on parle des problèmes, de tous ces parasites à l'affut d'une belle aubaine Et franchement la France, pour ces crouilles, elle est trop belle J'aimerais le dire à ma femme mais j'peux pas vraiment, elle est trop bête Alors c'est avec Dédé que j'fais mes théories On nous raconte que le danger c'est les météorites Pas du tout, c'est la cité au bout d'la rue et les jeunes qui y vivent, c'est un putain d'nid à terroristes Des fainéants qui n'attendent que le coup d'pouce, oh Mohamed T'as inventé qu'un truc, c'est le couscous Du chômage à la casse, c'est à nous qu'il faut penser monsieur Bourdin, je le demande Mais qu'est-ce qu'on fait pour les français ? Je pourrais aimer les bleus, vanter l'équipe et la louer, mais c'est pas l'équipe de France, c'est celle du Zimbabwe Vu c'qu'ils font dans le monde, j'en attendais pas moins ces derniers temps On a déjà dégagé sec tous les rabouins J'aime trop ma vie, j'ai pas l'temps de penser aux mouflets Ça chie partout et ça braille quand ça veut bouffer Ça pue le Mustela, la pisse et le Nutella Ça casse les couilles, pire que ces putain d'Vuvuzela Mon beauf a monté sa boite dans l'bâtiment, ça marche, il fait 50 au black pratiquement J'ai fait mon devoir citoyen, moi anonyme mais plus qu'ça, je l'ai balancé à l'Urssaf Pauv' con maintenant qui pleure à sa stupide sur parce qu'il doit vendre sa Mégane et son téléviseur Quand j'vois les autres dans la merde, ça m'va, car ça fait chaud au cur de voir qu'y a pas qu'moi Ouais J'veux vous voir en bas La main en avant des mendiants, faire les poubelles à plein temps Personne avant moi Eh m'sieur l'agent, c'est bien beau le fauteuil roulant mais j'étais là avant Nan j'te connais pas La famille, les parents, à qui faut raquer les cadeaux à Noël tous les ans Pur produit de cette sale mental' Ils sont déjà chez vous, et ils vont tous vous ken Nigga</t>
         </is>
       </c>
     </row>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Mesdames et messieurs, nous sommes en direct du building Cometax où nous assistons à une prise dotages complètement folle où le négociateur tente de raisonner le preneur dotages Tas vu ça, on passe à la télé putain Pitié ! Ta gueule! Ils perdent pas de temps les vautours!oui, allô ?! Écoutez, on a fait ce que vous avez exigé tas intérêt mec! les médias sont là mais donnez-nous un otage maintenant Cest une prise dotages, alors le flic tu vas pas me la faire à lenvers Fais ce que je dis et y aura pas de galères Jai les nerfs et je veux le direct Comme ça y aura pas de mépris sur mon geste Tu veux un otage? Ok, cest bon toi la secrétaire tu peux partir ! Ah merci Après tout tas rien à voir là-dedans Eh le négociateur tas entendu ? Elle va sortir ! Ok cest bien on lattend Et maintenant écoute moi bien et fais ce que je dis Fous-moi sur haut-parleur jveux que les télés en profitent, jveux quils filment Attention, ici jai un écran et pas darnaque Rappelle toi jai encore deux otages ! Ok du calme, du calme Cest une prise dotages Viens je temmène dans ma douleur prends ta caméra Va y avoir du spectacle En direct live jai rien à perdre gaffe au dérapage You might also like Mesdames et messieurs, nous assistons ici à quelque chose dassez inhabituel puisque le preneur dotages a exigé la diffusion dun de ses communiqués et daprès nos sources, celui-ci nous regarde en ce moment même Pour commencer il faut savoir que je suis pas un monstre Et à la base jsuis comme tout le monde Jétais désespéré, licencié, donc au chômage Et pour la garde de ma fille, jaurai vendu mon âme Le juge a dit que jétais pas fiable Avec un avis dexpulsion sur le dos et des dettes, merde jaurais réglé ça Ils ont rien voulu savoir, pour eux jétais un produit de banlieue sans but ni espoir Je leur ai dit que cétait une mauvaise passe Mon avocat a pas levé le petit doigt pour me sortir de là On aurait dit une sale pièce de théâtre où se jouait ma vie Et avec le sourire ils mont enlevé ma fille Dailleurs, ho le négociateur tu mentends ? Je vous entends parfaitement Ok cest bon alors maintenant en attendant fais ramener mon ex-femme et mon enfant Sur le champ sinon je fais couler le sang ! Non, non attendez On va pas faire peur aux téléspectateurs non? Là on doit faire péter laudience jai raison non? Sils veulent de la misère humaine Jen ai à revendre depuis ma naissance et même Si jai trente ans et que dans mon quartier on me considère Comme un grand frère quand tes fauché quest-ce tu veux dire aux jeunes merde? Que tes suicidaire, que tas trop souffert ? Ça y est votre ex-femme est arrivée ! Coupe les télés je veux lui parler! Cest une prise dotages Viens je temmène dans ma douleur prends ta caméra Va y avoir du spectacle En direct live jai rien à perdre gaffe au dérapage Mesdames et messieurs par respect du travail des forces de police nous interrompons ces images pour laisser passer une courte page de pub. Nous vous rappelons que lex-femme du preneur dotages est sur les lieux au téléphone avec ce dernier Chérie écoute-moi, ça va pas durer longtemps ctaffaire Depuis que tes partie jvis lenfer Mais je ten veux pas, pas facile de vivre avec un homme brisé Je voulais pas vous faire de mal tu sais Ma petite princesse dis-lui que je laime Que son père voulait un travail jai eu que de la haine Ce bureau où je suis cest un bureau dembauche Je te lavais dit je me stabilisais jétais sélectionné pour un job Cet après-midi tous les espoirs métaient permis Jimaginais un poste fixe à la Cometax Les créanciers me harcelaient sans cesse, et malgré ça pas de stress Mais là hélas, délit de faciès Dans le bureau le gars me regarde des pieds à la tête Et il me dit que je ferai pas laffaire Je lui réponds Représentant, je sais le faire ! Il ma ri au nez, jai protesté, il a appelé la sécurité Taurais du voir sa gueule jte jure quand je suis revenu calibré Maintenant il regrette de mavoir humilié Me faites pas de mal! Hé ta gueule lotage je parle à ma femme Maintenant cest trop tard pour dialoguer Cest quoi ce bruit? Merde chérie repasse-moi le flic vite ! Y a le GIPN qui rapplique merde ! Restez calme, restez calme! Et tu me dis de rester calme Et tu ferais quoi à ma place hein? Jsuis pas une baltringue! Attendez non ! Mais qui a donné lordre de tirer bordel, tout était sous contrôle Bonsoir mesdames et messieurs, flash info du nouveau dans laffaire de la Cometax, la prise dotages, nous apprenons à linstant que le revolver du preneur dotage nétait pas chargé je vous rappelle que celui-ci a été abattu dune balle dans la tête, lors de lintervention, les otages sont sains et saufs, le ministère de lintérieur se refuse à tout commentaire, le point ce soir dans lédition spéciale</t>
+          <t>Mesdames et messieurs, nous sommes en direct du building Cometax où nous assistons à une prise dotages complètement folle où le négociateur tente de raisonner le preneur dotages Tas vu ça, on passe à la télé putain Pitié ! Ta gueule! Ils perdent pas de temps les vautours!oui, allô ?! Écoutez, on a fait ce que vous avez exigé tas intérêt mec! les médias sont là mais donnez-nous un otage maintenant Cest une prise dotages, alors le flic tu vas pas me la faire à lenvers Fais ce que je dis et y aura pas de galères Jai les nerfs et je veux le direct Comme ça y aura pas de mépris sur mon geste Tu veux un otage? Ok, cest bon toi la secrétaire tu peux partir ! Ah merci Après tout tas rien à voir là-dedans Eh le négociateur tas entendu ? Elle va sortir ! Ok cest bien on lattend Et maintenant écoute moi bien et fais ce que je dis Fous-moi sur haut-parleur jveux que les télés en profitent, jveux quils filment Attention, ici jai un écran et pas darnaque Rappelle toi jai encore deux otages ! Ok du calme, du calme Cest une prise dotages Viens je temmène dans ma douleur prends ta caméra Va y avoir du spectacle En direct live jai rien à perdre gaffe au dérapage Mesdames et messieurs, nous assistons ici à quelque chose dassez inhabituel puisque le preneur dotages a exigé la diffusion dun de ses communiqués et daprès nos sources, celui-ci nous regarde en ce moment même Pour commencer il faut savoir que je suis pas un monstre Et à la base jsuis comme tout le monde Jétais désespéré, licencié, donc au chômage Et pour la garde de ma fille, jaurai vendu mon âme Le juge a dit que jétais pas fiable Avec un avis dexpulsion sur le dos et des dettes, merde jaurais réglé ça Ils ont rien voulu savoir, pour eux jétais un produit de banlieue sans but ni espoir Je leur ai dit que cétait une mauvaise passe Mon avocat a pas levé le petit doigt pour me sortir de là On aurait dit une sale pièce de théâtre où se jouait ma vie Et avec le sourire ils mont enlevé ma fille Dailleurs, ho le négociateur tu mentends ? Je vous entends parfaitement Ok cest bon alors maintenant en attendant fais ramener mon ex-femme et mon enfant Sur le champ sinon je fais couler le sang ! Non, non attendez On va pas faire peur aux téléspectateurs non? Là on doit faire péter laudience jai raison non? Sils veulent de la misère humaine Jen ai à revendre depuis ma naissance et même Si jai trente ans et que dans mon quartier on me considère Comme un grand frère quand tes fauché quest-ce tu veux dire aux jeunes merde? Que tes suicidaire, que tas trop souffert ? Ça y est votre ex-femme est arrivée ! Coupe les télés je veux lui parler! Cest une prise dotages Viens je temmène dans ma douleur prends ta caméra Va y avoir du spectacle En direct live jai rien à perdre gaffe au dérapage Mesdames et messieurs par respect du travail des forces de police nous interrompons ces images pour laisser passer une courte page de pub. Nous vous rappelons que lex-femme du preneur dotages est sur les lieux au téléphone avec ce dernier Chérie écoute-moi, ça va pas durer longtemps ctaffaire Depuis que tes partie jvis lenfer Mais je ten veux pas, pas facile de vivre avec un homme brisé Je voulais pas vous faire de mal tu sais Ma petite princesse dis-lui que je laime Que son père voulait un travail jai eu que de la haine Ce bureau où je suis cest un bureau dembauche Je te lavais dit je me stabilisais jétais sélectionné pour un job Cet après-midi tous les espoirs métaient permis Jimaginais un poste fixe à la Cometax Les créanciers me harcelaient sans cesse, et malgré ça pas de stress Mais là hélas, délit de faciès Dans le bureau le gars me regarde des pieds à la tête Et il me dit que je ferai pas laffaire Je lui réponds Représentant, je sais le faire ! Il ma ri au nez, jai protesté, il a appelé la sécurité Taurais du voir sa gueule jte jure quand je suis revenu calibré Maintenant il regrette de mavoir humilié Me faites pas de mal! Hé ta gueule lotage je parle à ma femme Maintenant cest trop tard pour dialoguer Cest quoi ce bruit? Merde chérie repasse-moi le flic vite ! Y a le GIPN qui rapplique merde ! Restez calme, restez calme! Et tu me dis de rester calme Et tu ferais quoi à ma place hein? Jsuis pas une baltringue! Attendez non ! Mais qui a donné lordre de tirer bordel, tout était sous contrôle Bonsoir mesdames et messieurs, flash info du nouveau dans laffaire de la Cometax, la prise dotages, nous apprenons à linstant que le revolver du preneur dotage nétait pas chargé je vous rappelle que celui-ci a été abattu dune balle dans la tête, lors de lintervention, les otages sont sains et saufs, le ministère de lintérieur se refuse à tout commentaire, le point ce soir dans lédition spéciale</t>
         </is>
       </c>
     </row>
@@ -2588,7 +2588,7 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Ci-gît la mémoire des justes Dans le cimetière des volontés, là où le cosmos des maudits se meurt Ici la faille a trouvé ses maîtres. Ici l'étincelle éternelle devient flamme et toute la création se prépare au changement Tremblez Démons car la fin est proche Les écrits rejaillissent et l'irréel renaît Voici le triomphe des modestes, le chapitre tant convoité par les hommes. Voici la vérité. Voici la Prophétie... Tout ce que j'ai vécu jusqu'alors ne compte plus Rester à l'écart, le noir prend le dessus Souhaits et sentiments impuissants Dans la forge de mon coeur bouillonne une autre existence Moi Larage, l'avatar des forces J'en suis aujourd'hui le sanctuaire de leurs noces Un guide sombre tisse mes sorts Pour supporter un flux d'énergie jamais effleuré par l'homme dans nul monde Entends monter ce cri du fond de mon être jusqu'aux astres dans le silence Opaque d'un lieu où ni le temps ni l'existence ne résiste Convient les 4 vents à bannir tout remord de ma vue cette vie n'est plus Que souvenir d'un monde parallèle trésor d'une cité perdue Tout se fige en dedans mais l'appel se faisant pressant les échos se taisent Au-dehors ne restent que corbeaux et nuages même couleurs même décors J'ai tari la source de mes larmes devenue inutile Asséché mes veines changé mon coeur en granit pour ne plus craindre qu'on le mutile You might also like Les Dieux eux-mêmes en retiennent leur souffle Un battement de leurs cils pourrait nous plonger dans un gouffre Un vide, un silence, y réside rien, les niveaux défilent Les quand et les comment ne sont plus de mises C'est l'exil d'une seconde de l'éternité C'est l'appel des anciens dont seul un son peut rendre fou Et seul un fou pourrait narguer les lois des Célestes Et plonger sa main dans l'oubli, dans l'antre de la Génèse Confiant, contrôlant la roue du Temps Mon voyage touche à sa fin scellant La Prophétie Sur l'autel ma conscience j'ai couché voué à Hachinam Envoûté j'ai payé le prix et le prix c'est l'âme noircie et le rouge sur la lame J'emprunte une voie que je sais sans retour sans carrefour sans pitié Que le diable en personne n'ose emprunter vide d'amour où la bête naît J'ai sacrifié tout ce qui restait en moi d'homme chose futile Et factice instable pour devenir prémisse de l'inéluctable Sans regret j'ai prêté serment à l'épée sur le mont le plus haut remercié Les Cieux pour ma destinée par les mages protégés Soyez prêts à présent la bête s'est réveillée sentant l'heure approcher Les mains plongées dans le cosmos voyez sa force affluée Déjouer l'incroyable, dompter l'insurmontable Pour revenir accomplir l'avenir Mon cerveau apaisé accueille des souvenirs De milles questions aux milles réponses, milles techniques Milles pratiques, milles mémoires Milles sortilèges antiques et milles savoirs Mon sang, un pouvoir, un sceau et deux épées qui se croisent À travers les âges tremblant devant ce lien influent Que son bras arrête l'éternel mouvement, début et fin de tout Que les questions restent sans réponses ceux jusqu'à la fin de tout Dressé sous le ciel défiant les divins sans peur de leur courroux Sûre de la prédilection la bête rugit sa rage a faim de tout Aucun talisman aucune amulette ne saurait vous mettre à l'abri Aucun sortilège émit ne saurait changé ce qui fût jadis prédit Je suis le Serval guerrier 2 fois maudit héros d'une Prophétie Venue du fond des siècles de Mars viendra la tempête...</t>
+          <t>Ci-gît la mémoire des justes Dans le cimetière des volontés, là où le cosmos des maudits se meurt Ici la faille a trouvé ses maîtres. Ici l'étincelle éternelle devient flamme et toute la création se prépare au changement Tremblez Démons car la fin est proche Les écrits rejaillissent et l'irréel renaît Voici le triomphe des modestes, le chapitre tant convoité par les hommes. Voici la vérité. Voici la Prophétie... Tout ce que j'ai vécu jusqu'alors ne compte plus Rester à l'écart, le noir prend le dessus Souhaits et sentiments impuissants Dans la forge de mon coeur bouillonne une autre existence Moi Larage, l'avatar des forces J'en suis aujourd'hui le sanctuaire de leurs noces Un guide sombre tisse mes sorts Pour supporter un flux d'énergie jamais effleuré par l'homme dans nul monde Entends monter ce cri du fond de mon être jusqu'aux astres dans le silence Opaque d'un lieu où ni le temps ni l'existence ne résiste Convient les 4 vents à bannir tout remord de ma vue cette vie n'est plus Que souvenir d'un monde parallèle trésor d'une cité perdue Tout se fige en dedans mais l'appel se faisant pressant les échos se taisent Au-dehors ne restent que corbeaux et nuages même couleurs même décors J'ai tari la source de mes larmes devenue inutile Asséché mes veines changé mon coeur en granit pour ne plus craindre qu'on le mutile Les Dieux eux-mêmes en retiennent leur souffle Un battement de leurs cils pourrait nous plonger dans un gouffre Un vide, un silence, y réside rien, les niveaux défilent Les quand et les comment ne sont plus de mises C'est l'exil d'une seconde de l'éternité C'est l'appel des anciens dont seul un son peut rendre fou Et seul un fou pourrait narguer les lois des Célestes Et plonger sa main dans l'oubli, dans l'antre de la Génèse Confiant, contrôlant la roue du Temps Mon voyage touche à sa fin scellant La Prophétie Sur l'autel ma conscience j'ai couché voué à Hachinam Envoûté j'ai payé le prix et le prix c'est l'âme noircie et le rouge sur la lame J'emprunte une voie que je sais sans retour sans carrefour sans pitié Que le diable en personne n'ose emprunter vide d'amour où la bête naît J'ai sacrifié tout ce qui restait en moi d'homme chose futile Et factice instable pour devenir prémisse de l'inéluctable Sans regret j'ai prêté serment à l'épée sur le mont le plus haut remercié Les Cieux pour ma destinée par les mages protégés Soyez prêts à présent la bête s'est réveillée sentant l'heure approcher Les mains plongées dans le cosmos voyez sa force affluée Déjouer l'incroyable, dompter l'insurmontable Pour revenir accomplir l'avenir Mon cerveau apaisé accueille des souvenirs De milles questions aux milles réponses, milles techniques Milles pratiques, milles mémoires Milles sortilèges antiques et milles savoirs Mon sang, un pouvoir, un sceau et deux épées qui se croisent À travers les âges tremblant devant ce lien influent Que son bras arrête l'éternel mouvement, début et fin de tout Que les questions restent sans réponses ceux jusqu'à la fin de tout Dressé sous le ciel défiant les divins sans peur de leur courroux Sûre de la prédilection la bête rugit sa rage a faim de tout Aucun talisman aucune amulette ne saurait vous mettre à l'abri Aucun sortilège émit ne saurait changé ce qui fût jadis prédit Je suis le Serval guerrier 2 fois maudit héros d'une Prophétie Venue du fond des siècles de Mars viendra la tempête...</t>
         </is>
       </c>
     </row>
@@ -2605,7 +2605,7 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>- Oh, j'ai écouté quelques morceaux d'l'album de Faf Larage, franchement c'était pas mal - Faf Larage! Ça fait même pas un an qu'il écrit c'mec-là! - Ah ouais? Franchement ça tombe bien, parce que j'ai été à Kif-kif, j'ai réussi à gratter un morceau, j'l'ai dans mon walkman là... - Ah ouais? Vas-y fais voir La rage dans le mic D'la frappe dans le rap Des claques dans les faces Putain d'mauvais MC Pour m'égaler, il t'faut plus qu'un crew, de possee Une panoplie de baggy jeans Stormy Hill Casquette ras des cils Qu'une démarche de boiteux foireux ou un air de pimp Un album et même un clip, même du fric Si t'as rien d'tout ça détends-toi Tu pourrais gratter l'award du plus gros blair' du rap Hey, j'digère ta carrière Coup d'boots dans l'derrière Clair, après une prise avec toi les micros sont pas fiers Les studios ferment Yo, putain d'naïf Quand j'en aurai fini avec toi t'assumeras l'tarif Dans la rue y aura des manifs Des gens m'suppliant d'arrêter d'te molester l'pif De rimes saignantes Mais non, c'est bon, j'fais un exemple sur le vif Toi l'blair' tu commences à m'plaire Si pensif, tu deviens craintif Sans blague, ils savent que vous descendre c'est mon kif Si t'es attentif, tu sais qu'Faf à l'offensive devient explosif Laisse le hip-hop tranquille Pourquoi pas tenter une carrière de danseur au Queen Putain d'bouffon! Imaginais-tu le duc, en mythe, en légende Un Père Fouettard pour les MC débutants C'est pas faux mais tu t'méprends Stormbringa et Larage font des dommages dans l'clan des tire-au-flanc You might also likex4 Bouge!!!! Putain d'bouffon! Que tu comprennes le sens du mot flow Majestix Faf Larage Pourquoi faut qu'tu tchatches Faut qu'tu t'lâches, faut qu't'arraches Mais faut qu'tu saches qu'en face y a la race, la rage dans le mic Aïe! La classe dans le rap, du vrai dans ces putes de caille Sinon y a plus d'style, freestyle faut qu'j'y aille Faut pas qu'je déraille sinon ça fout la honte Dans l'fond y a trop d'poufs qui piaillent Je sais qu't'en es, l'genre d'con qui supporte pas Qu'il y ait un disque qui déchire plus que toi Et tout l'monde s'en cogne grave C'est calculé Plus tu payes, tchatches Et plus j'me la joue dans le délire de te faire flipper Hey, tu le sais, j'ai beau être extrêmement haïssable Exclusivement exécrable J'expédie Speede les MC's comme mon spinladies Te ridiculise plus que Travolta dans Grease Foireux! Tu piges? Tu t'prends pour un pimp Mais t'as l'style de Pee Wee Des textes genre Oui-oui Un clown de plus dans la partie Laxiste! Un plouc de merde dans l'biz Tu critiques, ma tête te fait l'effet d'un méso laxatif Quand j'en aurai fini avec toi, même dans des années Tes arrière-petits-enfants diront Pépé s'est pris une putain d'raclée!!! Bilan, ne m'cherche pas Sinon les MC pourris anonymes voudront même plus entendre parler d'toi Ta femme te reniera Mon son à fond, dans l'salon, elle t'foutra à la porte en criant Fils, tu fais pas l'poids! Ton crew, ha! Même pour l'fun Ils vont te pisser à la raie en gueulant Faf, met l'seum Fils de poulet, pourquoi l'nier, t'es un boulet Dans le R-A-P, tout l'monde le sait, tu vas déguster Et inutile d'appeler SOS MC en détresse Sûr, avec tes prouesses Ils vont t'raccrocher au nez, OK La rage dans le mic fils J'te l'ai dit, dans quelques années, mes disques continueront d'tourner Peace aux vrais DJ, peace à ceux qui pour le hip-hop ont tout donné Peace aux MC's qui rappent simplement parce qu'ils sont passionnés Peace aux bons producteurs d'musique Peace aux danseurs, aux graffeurs, à ceux qui font avancer l'truc et au public Si t'es rien d'tout ça, débranche-moi Putain d'bouffon, avant d'parler fils, faudra faire attention x2 Gueule de ma forme, quand ma plume ça t'gêne - Alors, qu'est-ce t'en penses? - Bah, j'crois qu'j'vais m'engager à l'armée... ou faire chippendale - Pff! Putain d'bouffon, vas!</t>
+          <t>- Oh, j'ai écouté quelques morceaux d'l'album de Faf Larage, franchement c'était pas mal - Faf Larage! Ça fait même pas un an qu'il écrit c'mec-là! - Ah ouais? Franchement ça tombe bien, parce que j'ai été à Kif-kif, j'ai réussi à gratter un morceau, j'l'ai dans mon walkman là... - Ah ouais? Vas-y fais voir La rage dans le mic D'la frappe dans le rap Des claques dans les faces Putain d'mauvais MC Pour m'égaler, il t'faut plus qu'un crew, de possee Une panoplie de baggy jeans Stormy Hill Casquette ras des cils Qu'une démarche de boiteux foireux ou un air de pimp Un album et même un clip, même du fric Si t'as rien d'tout ça détends-toi Tu pourrais gratter l'award du plus gros blair' du rap Hey, j'digère ta carrière Coup d'boots dans l'derrière Clair, après une prise avec toi les micros sont pas fiers Les studios ferment Yo, putain d'naïf Quand j'en aurai fini avec toi t'assumeras l'tarif Dans la rue y aura des manifs Des gens m'suppliant d'arrêter d'te molester l'pif De rimes saignantes Mais non, c'est bon, j'fais un exemple sur le vif Toi l'blair' tu commences à m'plaire Si pensif, tu deviens craintif Sans blague, ils savent que vous descendre c'est mon kif Si t'es attentif, tu sais qu'Faf à l'offensive devient explosif Laisse le hip-hop tranquille Pourquoi pas tenter une carrière de danseur au Queen Putain d'bouffon! Imaginais-tu le duc, en mythe, en légende Un Père Fouettard pour les MC débutants C'est pas faux mais tu t'méprends Stormbringa et Larage font des dommages dans l'clan des tire-au-flanc x4 Bouge!!!! Putain d'bouffon! Que tu comprennes le sens du mot flow Majestix Faf Larage Pourquoi faut qu'tu tchatches Faut qu'tu t'lâches, faut qu't'arraches Mais faut qu'tu saches qu'en face y a la race, la rage dans le mic Aïe! La classe dans le rap, du vrai dans ces putes de caille Sinon y a plus d'style, freestyle faut qu'j'y aille Faut pas qu'je déraille sinon ça fout la honte Dans l'fond y a trop d'poufs qui piaillent Je sais qu't'en es, l'genre d'con qui supporte pas Qu'il y ait un disque qui déchire plus que toi Et tout l'monde s'en cogne grave C'est calculé Plus tu payes, tchatches Et plus j'me la joue dans le délire de te faire flipper Hey, tu le sais, j'ai beau être extrêmement haïssable Exclusivement exécrable J'expédie Speede les MC's comme mon spinladies Te ridiculise plus que Travolta dans Grease Foireux! Tu piges? Tu t'prends pour un pimp Mais t'as l'style de Pee Wee Des textes genre Oui-oui Un clown de plus dans la partie Laxiste! Un plouc de merde dans l'biz Tu critiques, ma tête te fait l'effet d'un méso laxatif Quand j'en aurai fini avec toi, même dans des années Tes arrière-petits-enfants diront Pépé s'est pris une putain d'raclée!!! Bilan, ne m'cherche pas Sinon les MC pourris anonymes voudront même plus entendre parler d'toi Ta femme te reniera Mon son à fond, dans l'salon, elle t'foutra à la porte en criant Fils, tu fais pas l'poids! Ton crew, ha! Même pour l'fun Ils vont te pisser à la raie en gueulant Faf, met l'seum Fils de poulet, pourquoi l'nier, t'es un boulet Dans le R-A-P, tout l'monde le sait, tu vas déguster Et inutile d'appeler SOS MC en détresse Sûr, avec tes prouesses Ils vont t'raccrocher au nez, OK La rage dans le mic fils J'te l'ai dit, dans quelques années, mes disques continueront d'tourner Peace aux vrais DJ, peace à ceux qui pour le hip-hop ont tout donné Peace aux MC's qui rappent simplement parce qu'ils sont passionnés Peace aux bons producteurs d'musique Peace aux danseurs, aux graffeurs, à ceux qui font avancer l'truc et au public Si t'es rien d'tout ça, débranche-moi Putain d'bouffon, avant d'parler fils, faudra faire attention x2 Gueule de ma forme, quand ma plume ça t'gêne - Alors, qu'est-ce t'en penses? - Bah, j'crois qu'j'vais m'engager à l'armée... ou faire chippendale - Pff! Putain d'bouffon, vas!</t>
         </is>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Ok, on va enregistrer votre déposition Samedi 17 Janvier 1998, 5h37 du matin...Allez-y Hier matin je crisais, avais un rendez-vous, trop de pression Pour un job après un an de galère, fais pas l'con Ce coup-ci je le sens, s'il faut faire du rentre-dedans Pas peur des longs déplacements Sportif comme ils le demandent Embauché sur le champ par une meuf, un top En plus j'avais la côte, passer le week-end avec cette grosse La condition étant de commencer à l'instant Partant, je prends les devants Hey, c'est où qu'il faut se rendre? Attends c'est loin d'ici qu'elle me dit Faut aller voir le boss, si tu conviens après on fait la fête, fils. Chaud, le gros lot, le boulot et la go Dans sa BM, tout le trajet j'y ai pensé, hey mec Là j'réalise où je me trouve, dans les bois Genre Twin Peaks, bien paumé, j'ai les foies En route pour un séminaire de bourges, je bouge, écoutes Rien à foutre, du moment qu'ils m'payent j'approuve C'était une sorte de manoir, un truc sinistre...Enfin moi c'est Mon job qui m'intéressait de toute façon. Bon j'dois dire que La meuf...enfin... On y arrive, drôle d'endroit et des tours on guette En effet des reflets paraissent en haut au coin des fenêtres Une grande cour, autour des bois, au centre la bâtisse Un truc restauré, lugubre et froid, un triste édifice L'orage menaçant, éclairs foudroyants en guise de bienvenue Faf Larage à fond dans sa voiture Elle au volant me dit T'inquiète, je m'occupe de tout Va te reposer ou mange, après on a la nuit pour nous Un coq en pâte, costard, cigare, ça va Maintenant je suis prêt pour être présenté l? A la réception, trop de monde, j'avais Pas prévu tous ces regards intrigués Drôle de réception...bizarre, la salle et tout, lugubre Tout le monde me regardait...heu...bizarre Dans la pièce 20 invités, j'ai noté et ils me testent Si ça sent le fric ? Fils ça en est bourré, cette Situation me gênait au dbut Et la meuf, où elle est ? Je sais plus elle a disparu Mon cul! Me v'là, siégeant au milieu de la finance Partageant le homard aux chandelles avec la vieille France Discours déchaîné, au sommet, la société Comme ils la voyaient, et l'économie mal gérée Et moi là j'étais excédé, prêt à exploser Leur philosophie m'a dégoûté, ces cons méprisaient le monde Et j'ai tout de suite pris parti pour les miens J'ai pas à avoir honte si j'ai pas de blé, pas de boulot Enclin à aller plus loin, filade s'il le faut Les poings serrés... Putain des nerfs j'en shoote un, j'en plie un Me débat, envoie les pieds, les mains, la tête Afin de me créer une brèche, j'en défonce un Réaliser enfin le vrai visage de mes hôtes Ma faute? Être venu ici sans mes potes En fait, ces mecs y profitent. Si t'as pas de blé, t'es rien pour eux Après j'étais énervé et je sais pas ce qui s'est passé Je me suis évanoui, puis plus rien...j'sais pas... Ils ont dû me droguer en fait...j'pense Le réveil, un cauchemar Et la pluie donne le ton si je flanche aah Dans les bois, à travers les branches d'arbre La lumière filtre et c'est le drame Au loin, j'entends les chiens et les moteurs qui braillent Simple chasse à l'homme, pire un truc de fou Une attraction pour eux, un bon coup Et je cours pour ma survie Durant la nuit et boue et agonie J'ai esquivé un tir, buter un molosse, dire Que c'est eux ou moi, en premier j'ai flippé, couru Puis décidé que ma peau serait chère payée Riposter, envisager un plan, je reviens en force et Chut, un bruit dans mon dos...et d'un Un vieux qui faisait du zèle, naïf à l'écart J'ai hérité d'un fusil, d'une radio, d'une lampe et d'une carte J'ai pris contact à sa place sur la nationale Environ à 500 m de là, j'ai eu ce salaud les gars et Essoufflé, 10 minutes après je vois les phares sur la route... Et là, il y a une voiture qui a explosé, la panique J'en ai profité pour m'échapper vite fait, et voilà j'ai atterri ici... Faut faire quelque chose, faut les coincer Y'a des fous qui font des safaris avec des types comme moi Bien on va en rester là, on a tout ce qu'il faut bougez pas Je vais vous envoyer quelqu'un... Qu'est-ce qu'on en fait chef? Boucle-le, ce soir, je vais le ramener au chateauYou might also like</t>
+          <t>Ok, on va enregistrer votre déposition Samedi 17 Janvier 1998, 5h37 du matin...Allez-y Hier matin je crisais, avais un rendez-vous, trop de pression Pour un job après un an de galère, fais pas l'con Ce coup-ci je le sens, s'il faut faire du rentre-dedans Pas peur des longs déplacements Sportif comme ils le demandent Embauché sur le champ par une meuf, un top En plus j'avais la côte, passer le week-end avec cette grosse La condition étant de commencer à l'instant Partant, je prends les devants Hey, c'est où qu'il faut se rendre? Attends c'est loin d'ici qu'elle me dit Faut aller voir le boss, si tu conviens après on fait la fête, fils. Chaud, le gros lot, le boulot et la go Dans sa BM, tout le trajet j'y ai pensé, hey mec Là j'réalise où je me trouve, dans les bois Genre Twin Peaks, bien paumé, j'ai les foies En route pour un séminaire de bourges, je bouge, écoutes Rien à foutre, du moment qu'ils m'payent j'approuve C'était une sorte de manoir, un truc sinistre...Enfin moi c'est Mon job qui m'intéressait de toute façon. Bon j'dois dire que La meuf...enfin... On y arrive, drôle d'endroit et des tours on guette En effet des reflets paraissent en haut au coin des fenêtres Une grande cour, autour des bois, au centre la bâtisse Un truc restauré, lugubre et froid, un triste édifice L'orage menaçant, éclairs foudroyants en guise de bienvenue Faf Larage à fond dans sa voiture Elle au volant me dit T'inquiète, je m'occupe de tout Va te reposer ou mange, après on a la nuit pour nous Un coq en pâte, costard, cigare, ça va Maintenant je suis prêt pour être présenté l? A la réception, trop de monde, j'avais Pas prévu tous ces regards intrigués Drôle de réception...bizarre, la salle et tout, lugubre Tout le monde me regardait...heu...bizarre Dans la pièce 20 invités, j'ai noté et ils me testent Si ça sent le fric ? Fils ça en est bourré, cette Situation me gênait au dbut Et la meuf, où elle est ? Je sais plus elle a disparu Mon cul! Me v'là, siégeant au milieu de la finance Partageant le homard aux chandelles avec la vieille France Discours déchaîné, au sommet, la société Comme ils la voyaient, et l'économie mal gérée Et moi là j'étais excédé, prêt à exploser Leur philosophie m'a dégoûté, ces cons méprisaient le monde Et j'ai tout de suite pris parti pour les miens J'ai pas à avoir honte si j'ai pas de blé, pas de boulot Enclin à aller plus loin, filade s'il le faut Les poings serrés... Putain des nerfs j'en shoote un, j'en plie un Me débat, envoie les pieds, les mains, la tête Afin de me créer une brèche, j'en défonce un Réaliser enfin le vrai visage de mes hôtes Ma faute? Être venu ici sans mes potes En fait, ces mecs y profitent. Si t'as pas de blé, t'es rien pour eux Après j'étais énervé et je sais pas ce qui s'est passé Je me suis évanoui, puis plus rien...j'sais pas... Ils ont dû me droguer en fait...j'pense Le réveil, un cauchemar Et la pluie donne le ton si je flanche aah Dans les bois, à travers les branches d'arbre La lumière filtre et c'est le drame Au loin, j'entends les chiens et les moteurs qui braillent Simple chasse à l'homme, pire un truc de fou Une attraction pour eux, un bon coup Et je cours pour ma survie Durant la nuit et boue et agonie J'ai esquivé un tir, buter un molosse, dire Que c'est eux ou moi, en premier j'ai flippé, couru Puis décidé que ma peau serait chère payée Riposter, envisager un plan, je reviens en force et Chut, un bruit dans mon dos...et d'un Un vieux qui faisait du zèle, naïf à l'écart J'ai hérité d'un fusil, d'une radio, d'une lampe et d'une carte J'ai pris contact à sa place sur la nationale Environ à 500 m de là, j'ai eu ce salaud les gars et Essoufflé, 10 minutes après je vois les phares sur la route... Et là, il y a une voiture qui a explosé, la panique J'en ai profité pour m'échapper vite fait, et voilà j'ai atterri ici... Faut faire quelque chose, faut les coincer Y'a des fous qui font des safaris avec des types comme moi Bien on va en rester là, on a tout ce qu'il faut bougez pas Je vais vous envoyer quelqu'un... Qu'est-ce qu'on en fait chef? Boucle-le, ce soir, je vais le ramener au chateau</t>
         </is>
       </c>
     </row>
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Putain d'soirée de merde! Ça va pas! Eh t'façons, j'suis pas mieux là, tout seul chez moi, tranquille? Devant la télé Putain d'soirée de merde! C'est ton dernier show, ta dernière virée Demain dans la rue y aura ton portrait Le mec défoncé, grillé, gazé, le paumé Une seule soirée d'merde et ta cote part en fumée Putain de soirée de merde, au début j'y croyais ferme Un plan dégun avec une fille, tu pleures Tu m'crois si ça te chante, t'façons maintenant Y a plus d'raison que je me vante vu qu'tout a foiré Laisse-moi t'raconter, j'avais tout calculé Sélectionné une meuf triée sur le volet Le merdier, ses deux copines à chier le genre de poufs Qui t'cassent ta baraque si elles sont pas occupées Donc il me fallait deux potes pas trop difficiles et disciplinés Ayant une caisse pour m'véhiculer La soirée fils, c'est pas à côté, mais une fois là-bas Les meufs vont nous faire rentrer et tout nous payer J'avais tout organisé, assuré, le soir Ils se pointent au volant d'une AX défoncée, dégoûté C'est clair avec son fourgon je foire mon rencard, en panne Il m'fallait pousser à chaque démarrage En retard on arrive devant la boîte, trois connards Du cambouis partout et on pue le gasoil Les mecs trouvent ça drôle, moi pas, pourquoi ? Je voulais me péter une bourgeoise dans cet état j'peux pas Elle m'attend à l'entrée, elle m'voit, rentre direct Style elle me connaît pas, Attends, c'est moi pars pas Et merde plus d'plan, j'ai trop la haine, et quand l'autre me dit C'est rien, y a des claques qui se perdent Putain de soirée de merde En fait j'suis bien à la maison, là You might also like Du coup on a fait 30 kilomètres pour rien, fils respect, on y est Le gros devant veut pas nous laisser entrer Allez putain, Non, j'insiste énervé Et j'aperçois cinq malabars excités prêts à me shooter! J'ai morflé Les mecs qui m'accompagnent? Deux dégonflés J'y retournerai avec des vrais histoire de remettre les choses en place Pour l'instant j'ai la mâchoire sur le côté, un Lacoste neuf déchiré Je laisse pas tomber Ce soir faut que je pine, hey les blaires, j'ai un plan un truc de rechange Ce soir sur la plage je sais qu'ça se déhanche, on y va Bon la zique zéro, techno ou pogo, un peu de popo Si y a des femmes j'suis down poto y a pas photo On y go, j'ai plus d'ego faut qu'je me croque un morceau Après quelques verres de bière je deviens sourd et dispo Soirée feu de camp sur la plage, le bar à dix francs Bon les gars chacun son cul maintenant, j'me sens En veine, piste ma proie, seule? C'est pour moi! Tu fais quoi? J'te paye à boire? Garçon, deux tequilas Que j'te lui bourre la gueule! Verre sur verre une méchante Brésilienne Elle veut pas, mais déchirée elle voudra je vais me la faire, l'erreur? L'alcool elle aime trop ça, et je me suis ruiné en Tequila Et moi le con au bout d'une heure autour du feu bourré j'invente Des trucs style Capoeira improvisée pour l'impressionner Trop bidon sur le sable près des grillades, des roulades Sûr y avait d'autres spécialités que d'tomber dans les flammes Ça m'a rendu chauve et j'ai mon croco Lacoste tatoué sur le torse et Je me suis jeté dans la flotte habillé Tu parles d'une réussite, dans la mer j'ai fini, au bout du rouleau Cherche mon cash rho que je paye les consos J'ai dû l'tomber sûrement en faisant mes pirouettes, faut Pas que j'm'fasse d'illusions, la Brésilienne elle s'est fait la malle Faut pas déconner, la sécu, pour 20 tequilas non payées Ils vont pas m'les briser! J'ai encore morflé, mes potes? Deux dégonflés Ils se tapaient deux poufs sur l'sable Pendant que je prenais des claques par cinq gorilles et J'y retournerai avec des vrais histoire de remettre les choses en place et Pour l'instant j'ai toujours rien piné, on rentre Faut que je me détende, trop c'est trop Rien à foutre des go, j'y vais en solo s'il le faut et merde Soudain me vient un sursaut d'orgueil de crève Quand sur la route du retour une auto-stoppeuse, fils j'en rêvais Stop, je m'jette sur elle pour lui parler Elle a dû avoir peur cette conne, elle m'a gazée, j'suis rentré, dégoûté Résigné, finir cette putain de soirée devant la télé J'arrive à la fin du film de boules en plus Putain, y a tout qui chie là!</t>
+          <t>Putain d'soirée de merde! Ça va pas! Eh t'façons, j'suis pas mieux là, tout seul chez moi, tranquille? Devant la télé Putain d'soirée de merde! C'est ton dernier show, ta dernière virée Demain dans la rue y aura ton portrait Le mec défoncé, grillé, gazé, le paumé Une seule soirée d'merde et ta cote part en fumée Putain de soirée de merde, au début j'y croyais ferme Un plan dégun avec une fille, tu pleures Tu m'crois si ça te chante, t'façons maintenant Y a plus d'raison que je me vante vu qu'tout a foiré Laisse-moi t'raconter, j'avais tout calculé Sélectionné une meuf triée sur le volet Le merdier, ses deux copines à chier le genre de poufs Qui t'cassent ta baraque si elles sont pas occupées Donc il me fallait deux potes pas trop difficiles et disciplinés Ayant une caisse pour m'véhiculer La soirée fils, c'est pas à côté, mais une fois là-bas Les meufs vont nous faire rentrer et tout nous payer J'avais tout organisé, assuré, le soir Ils se pointent au volant d'une AX défoncée, dégoûté C'est clair avec son fourgon je foire mon rencard, en panne Il m'fallait pousser à chaque démarrage En retard on arrive devant la boîte, trois connards Du cambouis partout et on pue le gasoil Les mecs trouvent ça drôle, moi pas, pourquoi ? Je voulais me péter une bourgeoise dans cet état j'peux pas Elle m'attend à l'entrée, elle m'voit, rentre direct Style elle me connaît pas, Attends, c'est moi pars pas Et merde plus d'plan, j'ai trop la haine, et quand l'autre me dit C'est rien, y a des claques qui se perdent Putain de soirée de merde En fait j'suis bien à la maison, là Du coup on a fait 30 kilomètres pour rien, fils respect, on y est Le gros devant veut pas nous laisser entrer Allez putain, Non, j'insiste énervé Et j'aperçois cinq malabars excités prêts à me shooter! J'ai morflé Les mecs qui m'accompagnent? Deux dégonflés J'y retournerai avec des vrais histoire de remettre les choses en place Pour l'instant j'ai la mâchoire sur le côté, un Lacoste neuf déchiré Je laisse pas tomber Ce soir faut que je pine, hey les blaires, j'ai un plan un truc de rechange Ce soir sur la plage je sais qu'ça se déhanche, on y va Bon la zique zéro, techno ou pogo, un peu de popo Si y a des femmes j'suis down poto y a pas photo On y go, j'ai plus d'ego faut qu'je me croque un morceau Après quelques verres de bière je deviens sourd et dispo Soirée feu de camp sur la plage, le bar à dix francs Bon les gars chacun son cul maintenant, j'me sens En veine, piste ma proie, seule? C'est pour moi! Tu fais quoi? J'te paye à boire? Garçon, deux tequilas Que j'te lui bourre la gueule! Verre sur verre une méchante Brésilienne Elle veut pas, mais déchirée elle voudra je vais me la faire, l'erreur? L'alcool elle aime trop ça, et je me suis ruiné en Tequila Et moi le con au bout d'une heure autour du feu bourré j'invente Des trucs style Capoeira improvisée pour l'impressionner Trop bidon sur le sable près des grillades, des roulades Sûr y avait d'autres spécialités que d'tomber dans les flammes Ça m'a rendu chauve et j'ai mon croco Lacoste tatoué sur le torse et Je me suis jeté dans la flotte habillé Tu parles d'une réussite, dans la mer j'ai fini, au bout du rouleau Cherche mon cash rho que je paye les consos J'ai dû l'tomber sûrement en faisant mes pirouettes, faut Pas que j'm'fasse d'illusions, la Brésilienne elle s'est fait la malle Faut pas déconner, la sécu, pour 20 tequilas non payées Ils vont pas m'les briser! J'ai encore morflé, mes potes? Deux dégonflés Ils se tapaient deux poufs sur l'sable Pendant que je prenais des claques par cinq gorilles et J'y retournerai avec des vrais histoire de remettre les choses en place et Pour l'instant j'ai toujours rien piné, on rentre Faut que je me détende, trop c'est trop Rien à foutre des go, j'y vais en solo s'il le faut et merde Soudain me vient un sursaut d'orgueil de crève Quand sur la route du retour une auto-stoppeuse, fils j'en rêvais Stop, je m'jette sur elle pour lui parler Elle a dû avoir peur cette conne, elle m'a gazée, j'suis rentré, dégoûté Résigné, finir cette putain de soirée devant la télé J'arrive à la fin du film de boules en plus Putain, y a tout qui chie là!</t>
         </is>
       </c>
     </row>
@@ -2656,7 +2656,7 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Représenter les miens n'est pas une charge, mais un honneur J'me dois d'être à la hauteur de la tâche Tu veux ma place, va falloir t'lever d'bonne heure T'sais pas toi, tout c'que j'ai dû faire pour en arriver là Marseille c'est pas la French Riviera, c'est le ghetto Des putains d'quartiers délabrés Négro, tu sais où t'adresser si tu veux de la pure, de la bonne, de la vraie Musique, on fait pas dans la dope Nous on vient changer la donne S.A.T, Soprano, Akhenaton On creuse des tombes sur le sillon, marche vers le triomphe En mémoire, tous qui nous ont quittés, j'retiens ton silence On détruit, reconstruit, c'est plus que de la musique On éduque, on instruit, une poésie, une prophétie Quand je prends le micro y a danger pour les pitres et tous les faux MC Trop d'style, 3-6-1, Street Skillz, Corner Street, trois labels Une seule bannière, un amour, une vie, un art, une manière C'est plus que de la musique Je fais qu'un avec ma musique C'est pas juste de la musique C'est bien plus que de la musique Si tu piges pas, c'beat vit pour claquer Pousse pousse l'encre que j'puisse vite gratter M.R.S, ville-centre c'est l'quartier Le faya, 1-8 tu peux d'emblée appeler Laisse les bla bla bla, narre les faits Y a pas d'micmac, mec, plie c'mic vite fait HH yes, tous poussent pour mater File seize rimes comme ça construit, consigne sans s'rater Ça s'est gravé pst pst comme dans les débuts quand j'graffais Si si on kiffe même si la vie c'est 6-6-6 s'y est vilement immiscé Lève ton verre à c'putain d'R.A.P A.R.T, qui t'a parlé de raquer ? Le biz fric bitch vite rabat c'caquet C'est F.A.T, ouais tu le sais S.A.T You might also like C'est plus que de la musique Je fais qu'un avec ma musique C'est pas juste de la musique C'est bien plus que de la musique J'fais pas du rap pour avoir les mines de diamants de Akon Ni pour m'taper Kardashian au Sheraton Pas pour remplacer mon fish à du bacon Mais pour les métèques et mats d'Akhenaton Moi j'rappe comme on rentre dans une pharmacie Comme Tony, Soprano ne fait qu'une thérapie J'écris pas pour plaire à Rachida Dati Ici, la taule fait plus d'entrées que les filles J'décris le mal-être des jeunes du pays Ma rime vétit leur mental d'un treillis J'regarde le monde dans les yeux d'sa poésie Mais pas dans les yeux d'un paparazzi J'ai dit oui à la vie d'Africa Bambataa Et depuis, les rappeurs ont tous des attaques C'est l'extase dans tous les concerts des Psy4 Le hip-hop, c'est mon second souffle comme le kho Sat C'est plus que de la musique Je fais qu'un avec ma musique C'est pas juste de la musique C'est bien plus que de la musique I.A.M, je marche avec Psy4 de la Rime, je marche avec Prince Negaafellaga, je marche avec Kalash l'Afro, Berreta, je marche avec Gino 13-13 Click, je marche avec J-Just Music, je marche avec Mesrime Staff Ali, je marche avec RBZ, Mo' Cheez, je marche avec Stone Black, Faf Larage, je marche avec DJ Faz, je marche avec Tonyno, Sale Équipe, je marche avec Carpe Diem, Saïd, je marche avec Keny Arkana, je marche avec Marseille, 1.3, je marche avec Les gens qui marchent avec moi, je marche avec Tous ceux qui roulent avec moi, je marche avec</t>
+          <t>Représenter les miens n'est pas une charge, mais un honneur J'me dois d'être à la hauteur de la tâche Tu veux ma place, va falloir t'lever d'bonne heure T'sais pas toi, tout c'que j'ai dû faire pour en arriver là Marseille c'est pas la French Riviera, c'est le ghetto Des putains d'quartiers délabrés Négro, tu sais où t'adresser si tu veux de la pure, de la bonne, de la vraie Musique, on fait pas dans la dope Nous on vient changer la donne S.A.T, Soprano, Akhenaton On creuse des tombes sur le sillon, marche vers le triomphe En mémoire, tous qui nous ont quittés, j'retiens ton silence On détruit, reconstruit, c'est plus que de la musique On éduque, on instruit, une poésie, une prophétie Quand je prends le micro y a danger pour les pitres et tous les faux MC Trop d'style, 3-6-1, Street Skillz, Corner Street, trois labels Une seule bannière, un amour, une vie, un art, une manière C'est plus que de la musique Je fais qu'un avec ma musique C'est pas juste de la musique C'est bien plus que de la musique Si tu piges pas, c'beat vit pour claquer Pousse pousse l'encre que j'puisse vite gratter M.R.S, ville-centre c'est l'quartier Le faya, 1-8 tu peux d'emblée appeler Laisse les bla bla bla, narre les faits Y a pas d'micmac, mec, plie c'mic vite fait HH yes, tous poussent pour mater File seize rimes comme ça construit, consigne sans s'rater Ça s'est gravé pst pst comme dans les débuts quand j'graffais Si si on kiffe même si la vie c'est 6-6-6 s'y est vilement immiscé Lève ton verre à c'putain d'R.A.P A.R.T, qui t'a parlé de raquer ? Le biz fric bitch vite rabat c'caquet C'est F.A.T, ouais tu le sais S.A.T C'est plus que de la musique Je fais qu'un avec ma musique C'est pas juste de la musique C'est bien plus que de la musique J'fais pas du rap pour avoir les mines de diamants de Akon Ni pour m'taper Kardashian au Sheraton Pas pour remplacer mon fish à du bacon Mais pour les métèques et mats d'Akhenaton Moi j'rappe comme on rentre dans une pharmacie Comme Tony, Soprano ne fait qu'une thérapie J'écris pas pour plaire à Rachida Dati Ici, la taule fait plus d'entrées que les filles J'décris le mal-être des jeunes du pays Ma rime vétit leur mental d'un treillis J'regarde le monde dans les yeux d'sa poésie Mais pas dans les yeux d'un paparazzi J'ai dit oui à la vie d'Africa Bambataa Et depuis, les rappeurs ont tous des attaques C'est l'extase dans tous les concerts des Psy4 Le hip-hop, c'est mon second souffle comme le kho Sat C'est plus que de la musique Je fais qu'un avec ma musique C'est pas juste de la musique C'est bien plus que de la musique I.A.M, je marche avec Psy4 de la Rime, je marche avec Prince Negaafellaga, je marche avec Kalash l'Afro, Berreta, je marche avec Gino 13-13 Click, je marche avec J-Just Music, je marche avec Mesrime Staff Ali, je marche avec RBZ, Mo' Cheez, je marche avec Stone Black, Faf Larage, je marche avec DJ Faz, je marche avec Tonyno, Sale Équipe, je marche avec Carpe Diem, Saïd, je marche avec Keny Arkana, je marche avec Marseille, 1.3, je marche avec Les gens qui marchent avec moi, je marche avec Tous ceux qui roulent avec moi, je marche avec</t>
         </is>
       </c>
     </row>
@@ -2673,7 +2673,7 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Ils passent leur temps à dénigrer notre pédigré... Clan d'instinct 31, Toulouse 10Vers ! Vu que la mentale est changeante, j'ai du prendre une tangente Et qu'en principe être le même pour mes proches dans cet esprit de vengeance Le ventre vide les rêves dans la poche si loin des faux semblants J'suis resté ce putain de gosse rêveur assoiffé de bim bam et de rimes sanglantes Chaque phase une sentence qui tombe éloignez les enfants des baffles Les quatre bâtards débarquent et beaucoup vont se faire un sang d'encre Il y a trop de tendances, les temps changent La preuve regarde aujourd'hui chez nous les anges et les démons n'ont plus de mal à s'entendre J'suis le même, un gars très simple en bas de l'échelle on apprend tous à se forger Ce s'rait mentir de dire aux gens qu'on n'a pas de préceptes J'marche sur le pas de mes frères j'ai fait ce qu'il fallait faire J'parle des mêmes c'est pour les nôtres que sur cette putain de prod on lâche des 16 On persévère avec ce langage cru entre les fous et ce grabuge Loin de toute cette merde vu que chacun de nous s'en rince les mains J'reste le même un gars brut la rage sous la capuche toujours à l'affut Prêt à partir au quart de tour si l'un de vous baise les miens Ils passent leur temps à dénigrer notre pédigré Polychrome 7, R.E.D.A Nous on partage les mêmes valeurs depuis gosses mène les mêmes combats Demande au bloc opératoire c'est quatre gâchettes pour un même contrat Le monde un zoo le sort n'épargne pas les rohs Mais au contraire nous incite à perquisitionner vos zones Sortis du même moule à se foutre de la norme En des temps où se multiplient les putes les pelotons et les corps J'le destine que pour mes braves, les P'tit Fa et les Tox' Viens dis car de par chez oim on y bicrave de la prod bolche' Du 31 à les miens laissent leur empreinte s'plaignent preneurs de ressources s'braquent cernés par un tas de baltringues Tringlent les basses et c'est leur taf sachez-le, trop ont mesuré un pacte et massent d'un jet de flamme à l'Hexaler et aujourd'hui Quand j'diverge j'ressoude mon clan juste par instinct de survie à chaque attaque de front je serre les dents Sincèrement, rien ne sert de se plaindre Aux portes de l'Enfer je n'ai aperçu que des frères You might also like Ils passent leur temps à dénigrer notre pédigré Polychrooooooome 7. Barberousse As-tu reconnu la puissance de frappe du P'tit Fa ? Une prod pour des ogres les voix chantent pour les hommes pas pour les p'tites frappes Les amis dans la panique ne sont pas tous restés là Demande à Amine ce qu'est la famine que j'en verse des larmes Écoute l'Hexaler aussi te l'dira, qu'on reste les mêmes faces à nos mères vivre sans elles serait irrespirable À Reda pose-lui la question la bonne celle qui ne fâche pas, album après album, et même si le cash part Il te dira qu'on est là, qu'on est resté les mêmes, qu'on a l'art de faire mal pour ceux qui voulaient tester les mecs Je fais baigner les mots dans l'acide depuis trop longtemps Et gros si ma rime est massive c'est pour que mes rohs l'entendent Je pratique le même son, depuis des piges et des piges Du sésame à la zonmé j'y ai vu les pires dépits Puisque aujourd'hui ce qui s'appelle du rap n'en porte que le nom Il n'est plus je viens me battre contre le monde peu importe le nombre Ah ouais Ils passent leur temps à dénigrer notre pédigré Polychrome, la Fine équipe, l'Hexaler La vie est ainsi faite et j'en extrait le principal Quand le pouvoir se retransmet de main en main si sale Ne me félicitez pas, chez moi, le rap c'est vital Appelez moi le déficit au sein du paradis fiscal Quand ça détourne les caisses publiques jusqu'aux décimales Ma douleur est viscérale sans guérison médicinale Voyageant dans les entrailles d'un goéland comme dit Scylla Ma mort est lente, donc je la verrai arriver d'ici là Dans un autre monde avec ma mandoline elle est embolie de Sartre Très peu comprendront la métaphore au sein de ces scyllabes La Fine équipe, l'Hexaler ou l'homme béni du rap On franchit les étapes et on opère sans la péridurale Y'a rien de sûr si tu croyais au bénéfice durable Quand ça revend du sable à trois euros six le gramme Eh ouais, c'est la merde quand le biz' n'est pas rentable Et donc j'en vois combien se travestir de part en part</t>
+          <t>Ils passent leur temps à dénigrer notre pédigré... Clan d'instinct 31, Toulouse 10Vers ! Vu que la mentale est changeante, j'ai du prendre une tangente Et qu'en principe être le même pour mes proches dans cet esprit de vengeance Le ventre vide les rêves dans la poche si loin des faux semblants J'suis resté ce putain de gosse rêveur assoiffé de bim bam et de rimes sanglantes Chaque phase une sentence qui tombe éloignez les enfants des baffles Les quatre bâtards débarquent et beaucoup vont se faire un sang d'encre Il y a trop de tendances, les temps changent La preuve regarde aujourd'hui chez nous les anges et les démons n'ont plus de mal à s'entendre J'suis le même, un gars très simple en bas de l'échelle on apprend tous à se forger Ce s'rait mentir de dire aux gens qu'on n'a pas de préceptes J'marche sur le pas de mes frères j'ai fait ce qu'il fallait faire J'parle des mêmes c'est pour les nôtres que sur cette putain de prod on lâche des 16 On persévère avec ce langage cru entre les fous et ce grabuge Loin de toute cette merde vu que chacun de nous s'en rince les mains J'reste le même un gars brut la rage sous la capuche toujours à l'affut Prêt à partir au quart de tour si l'un de vous baise les miens Ils passent leur temps à dénigrer notre pédigré Polychrome 7, R.E.D.A Nous on partage les mêmes valeurs depuis gosses mène les mêmes combats Demande au bloc opératoire c'est quatre gâchettes pour un même contrat Le monde un zoo le sort n'épargne pas les rohs Mais au contraire nous incite à perquisitionner vos zones Sortis du même moule à se foutre de la norme En des temps où se multiplient les putes les pelotons et les corps J'le destine que pour mes braves, les P'tit Fa et les Tox' Viens dis car de par chez oim on y bicrave de la prod bolche' Du 31 à les miens laissent leur empreinte s'plaignent preneurs de ressources s'braquent cernés par un tas de baltringues Tringlent les basses et c'est leur taf sachez-le, trop ont mesuré un pacte et massent d'un jet de flamme à l'Hexaler et aujourd'hui Quand j'diverge j'ressoude mon clan juste par instinct de survie à chaque attaque de front je serre les dents Sincèrement, rien ne sert de se plaindre Aux portes de l'Enfer je n'ai aperçu que des frères Ils passent leur temps à dénigrer notre pédigré Polychrooooooome 7. Barberousse As-tu reconnu la puissance de frappe du P'tit Fa ? Une prod pour des ogres les voix chantent pour les hommes pas pour les p'tites frappes Les amis dans la panique ne sont pas tous restés là Demande à Amine ce qu'est la famine que j'en verse des larmes Écoute l'Hexaler aussi te l'dira, qu'on reste les mêmes faces à nos mères vivre sans elles serait irrespirable À Reda pose-lui la question la bonne celle qui ne fâche pas, album après album, et même si le cash part Il te dira qu'on est là, qu'on est resté les mêmes, qu'on a l'art de faire mal pour ceux qui voulaient tester les mecs Je fais baigner les mots dans l'acide depuis trop longtemps Et gros si ma rime est massive c'est pour que mes rohs l'entendent Je pratique le même son, depuis des piges et des piges Du sésame à la zonmé j'y ai vu les pires dépits Puisque aujourd'hui ce qui s'appelle du rap n'en porte que le nom Il n'est plus je viens me battre contre le monde peu importe le nombre Ah ouais Ils passent leur temps à dénigrer notre pédigré Polychrome, la Fine équipe, l'Hexaler La vie est ainsi faite et j'en extrait le principal Quand le pouvoir se retransmet de main en main si sale Ne me félicitez pas, chez moi, le rap c'est vital Appelez moi le déficit au sein du paradis fiscal Quand ça détourne les caisses publiques jusqu'aux décimales Ma douleur est viscérale sans guérison médicinale Voyageant dans les entrailles d'un goéland comme dit Scylla Ma mort est lente, donc je la verrai arriver d'ici là Dans un autre monde avec ma mandoline elle est embolie de Sartre Très peu comprendront la métaphore au sein de ces scyllabes La Fine équipe, l'Hexaler ou l'homme béni du rap On franchit les étapes et on opère sans la péridurale Y'a rien de sûr si tu croyais au bénéfice durable Quand ça revend du sable à trois euros six le gramme Eh ouais, c'est la merde quand le biz' n'est pas rentable Et donc j'en vois combien se travestir de part en part</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Allez les nouvelles recrues là Asseyez vous autour d'la table! Bienvenue en Enfer! Alors pour les petits malins P't-être qu'avant vous étiez des meurtriers Des escrocs Des dealers de drogue Mais ici vous êtes des merdes Vous êtes des bleus! Donc je m'présente Je suis votre directeur marketing Et on est là pour trouver des idées Le secteur français spécialement On doit faire péter tout ça Donc donnez-moi tout ce que vous avez J'veux des idées, j'veux que ça pulse J'veux du neuf, j'veux du génie Comment faire brûler ce pays Vous êtes des démons à présent Alors faites marcher votre imagination J'veux... Plus de bordel, plus de confusion dans les têtes, du sensationnel Exemple en France quand les quartiers se déchaînent Toi c'est ton secteur alors plus d'étincelles Le bouton politique, appuie, appuie Fais leur dire des conneries, des phrases assassines Et là-dedans en prime fous-nous des... j'sais pas Trouve des talibans, des flics, des armes, j'veux du crime Des journalistes qui filment, que ça parle Vrai, faux, que la rumeur en profite, c'est pas grave Quand la justice s'imagine mater des rebellions en enfermant des kids Nous on mise sur le racisme et le chômage Remontez à la source, les bourges qui ont le gent-ar Les costards qui ont le pouvoir, les juges qui font les canards Faut sceller des pactes, serrer des pattes Et j'veux pas entendre parler du Diable, il faut pas qu'on nous capte You might also like Qui on est ? Des spécialistes en communication Qu'est-ce qu'on fait ? On fait des plans pour l'Armaggedon Qui on est ? Des pros de la corruption Représente le vice, fils, on fait du bénéfice Les gars il faut être compétitifs Suffit pas d'allumer un feu dans une cité et d'attendre que ça tire J'veux pas entendre parler de compassion, d'amour, d'humanitaire Pas assez de résultat? Si je tombe, je tomberai pas tout seul Déjà qu'on m'a soufflé un poste aux Etats-Unis Un petit arriviste de merde, un pistonné de grande famille Son oncle avait découvert Hitler Oh du lourd! Et en plus c'est son frère qui a signé Ben Laden Oh la pointure! J'arrive du département des tueurs en série J'ai fait mes preuves et maintenant j'ai un pays La France, je préviens je recrute à l'étranger Un spécialiste de guerres civiles en Afrique j'vais l'débaucher Patron, on s'en occupe! Écoute bien petite merde, ta gueule! Qui commande ici hein? T'as vu l'chantier? Avant on avait les guerres, les collabos, les colonies Maintenant on a deux voitures qui brûlent et quoi? Émile Louis? Qui on est ? Des spécialistes en communication Qu'est-ce qu'on fait ? On fait des plans pour l'Armaggedon Qui on est ? Des pros de la corruption Représente le vice, fils, on fait du bénéfice Bon on a quoi en ce moment Comme marchés en plein développement? Il faut rendre fous les gens Jouer la confusion, les anciennes croyances Les cultes, les sorciers, les gourous et les charlatans Qu'ils se jettent des sorts, faut du folklore Faut les paumer et pendant c'temps Faut les baiser, qu'ils pensent que les bons sont les méchants Basculez-moi ce pays dans le flip comment? Trouvez-moi deux porcs et trois poulets qui ont la grippe ah ouais... Et chez les mômes y a plein de trucs à faire Merde, télé et internet, de la boucherie, de la fesse pour les moins de 13 Vous dormez ou quoi, les gars, faut m'installer ça Y a de quoi faire dans les familles, faut démarrer à la base Des parents largués, plus des mômes ingrats Ajoutez un peu d'violence et ça claque mieux qu'du C4 Misez sur l'avenir, être prêts La bombe nucléaire au départ c'était juste une idée et ils nous l'ont piquée Et encore les Ricains voilà! Je pense qu'on peut les battre Ils ont George Bush, on peut pas lutter! Alors tu dégages Je crois qu'on est d'accord maintenant sur l'objectif J'ai l'il sur les statistiques et je surveille vos chiffres On est une équipe, foutez-moi ce pays à feu et à sang Et il y aura à croquer pour tous Qui on est ? Des spécialistes en communication Qu'est-ce qu'on fait ? On fait des plans pour l'Armaggedon Qui on est ? Des pros de la corruption Représente le vice, fils, on fait du bénéfice</t>
+          <t>Allez les nouvelles recrues là Asseyez vous autour d'la table! Bienvenue en Enfer! Alors pour les petits malins P't-être qu'avant vous étiez des meurtriers Des escrocs Des dealers de drogue Mais ici vous êtes des merdes Vous êtes des bleus! Donc je m'présente Je suis votre directeur marketing Et on est là pour trouver des idées Le secteur français spécialement On doit faire péter tout ça Donc donnez-moi tout ce que vous avez J'veux des idées, j'veux que ça pulse J'veux du neuf, j'veux du génie Comment faire brûler ce pays Vous êtes des démons à présent Alors faites marcher votre imagination J'veux... Plus de bordel, plus de confusion dans les têtes, du sensationnel Exemple en France quand les quartiers se déchaînent Toi c'est ton secteur alors plus d'étincelles Le bouton politique, appuie, appuie Fais leur dire des conneries, des phrases assassines Et là-dedans en prime fous-nous des... j'sais pas Trouve des talibans, des flics, des armes, j'veux du crime Des journalistes qui filment, que ça parle Vrai, faux, que la rumeur en profite, c'est pas grave Quand la justice s'imagine mater des rebellions en enfermant des kids Nous on mise sur le racisme et le chômage Remontez à la source, les bourges qui ont le gent-ar Les costards qui ont le pouvoir, les juges qui font les canards Faut sceller des pactes, serrer des pattes Et j'veux pas entendre parler du Diable, il faut pas qu'on nous capte Qui on est ? Des spécialistes en communication Qu'est-ce qu'on fait ? On fait des plans pour l'Armaggedon Qui on est ? Des pros de la corruption Représente le vice, fils, on fait du bénéfice Les gars il faut être compétitifs Suffit pas d'allumer un feu dans une cité et d'attendre que ça tire J'veux pas entendre parler de compassion, d'amour, d'humanitaire Pas assez de résultat? Si je tombe, je tomberai pas tout seul Déjà qu'on m'a soufflé un poste aux Etats-Unis Un petit arriviste de merde, un pistonné de grande famille Son oncle avait découvert Hitler Oh du lourd! Et en plus c'est son frère qui a signé Ben Laden Oh la pointure! J'arrive du département des tueurs en série J'ai fait mes preuves et maintenant j'ai un pays La France, je préviens je recrute à l'étranger Un spécialiste de guerres civiles en Afrique j'vais l'débaucher Patron, on s'en occupe! Écoute bien petite merde, ta gueule! Qui commande ici hein? T'as vu l'chantier? Avant on avait les guerres, les collabos, les colonies Maintenant on a deux voitures qui brûlent et quoi? Émile Louis? Qui on est ? Des spécialistes en communication Qu'est-ce qu'on fait ? On fait des plans pour l'Armaggedon Qui on est ? Des pros de la corruption Représente le vice, fils, on fait du bénéfice Bon on a quoi en ce moment Comme marchés en plein développement? Il faut rendre fous les gens Jouer la confusion, les anciennes croyances Les cultes, les sorciers, les gourous et les charlatans Qu'ils se jettent des sorts, faut du folklore Faut les paumer et pendant c'temps Faut les baiser, qu'ils pensent que les bons sont les méchants Basculez-moi ce pays dans le flip comment? Trouvez-moi deux porcs et trois poulets qui ont la grippe ah ouais... Et chez les mômes y a plein de trucs à faire Merde, télé et internet, de la boucherie, de la fesse pour les moins de 13 Vous dormez ou quoi, les gars, faut m'installer ça Y a de quoi faire dans les familles, faut démarrer à la base Des parents largués, plus des mômes ingrats Ajoutez un peu d'violence et ça claque mieux qu'du C4 Misez sur l'avenir, être prêts La bombe nucléaire au départ c'était juste une idée et ils nous l'ont piquée Et encore les Ricains voilà! Je pense qu'on peut les battre Ils ont George Bush, on peut pas lutter! Alors tu dégages Je crois qu'on est d'accord maintenant sur l'objectif J'ai l'il sur les statistiques et je surveille vos chiffres On est une équipe, foutez-moi ce pays à feu et à sang Et il y aura à croquer pour tous Qui on est ? Des spécialistes en communication Qu'est-ce qu'on fait ? On fait des plans pour l'Armaggedon Qui on est ? Des pros de la corruption Représente le vice, fils, on fait du bénéfice</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Hoou ! It's time ! Faf Larage est Nidpool ! Aie aie aie aie aie ! Je les ai vu dans les vestiaires ! Ils se détestent ! Greg frite est Mytoman ! Trépanation et médocs nont pas su mtenir J'ai barbarisé ldoc, giflé la psy pour le délire Nidpool en cavale, Manson est dans la plaza Valium et Lexomyl, on nest pas seul dans la Cabeza Mais qui vient mclasher ? Qui je vais recracher ? Lado du Colorado qui red'vient du papier mâché Adios l'hosto et fais passer le mic Pour tes likes, j'éventre le balourd à coup de punchlines Moi cest Mytoman, ouais mentir je sais faire Donc tu sais où tu peux tmettre ta croix dbois, ta croix dfer Je suis sorti du Park histoire de prendre un peu lair Et parce que jai trop arnaqué tous mes potes de galère Cest moi le plus beau parleur que cette Terre ait porté Les meufs ressentent ma chaleur, elles veulent toutes mescorter La vérité me vénère Jvais tla mettre à lenvers Jvends de la glace en hiver et du feu en enfer You might also like Eh tu sais quoi ? Calme toi Satan, tas le flow de Saddam Ici cest Rap Fighter, avale un Chimichanga Genre écoute tes poèmes pour Kyle sur Winamp Pendant que ta daronne se fait ken par un Boot Camp !! Aucun héros en collant moulant peut rivaliser Enfile ton cosplay de Suceman Vous allez tous zapper On na pas besoin d'ce faux cul, d'ce dalleux On va tous pisser un coup pendant son couplet drageux Nidpool tas un blaze de cuvette de toilette Tes direct sur la sellette et le siège est pas net Tes juste un super vilain avec une tête en crépi Si ton corps est dessiné, ton visage est écrit Stop ! Tes postures zélées Mais comment oses-tu errer ? Dans ce costume serré ? Pourquoi tant de selfies sur tes réseaux sociaux ? Autant poster des WC après un gros popo Non non, attends, 'tends, écoute bien, écoute bien Ton flow cest pire que le cancer, et je sais dquoi je parle Jme régénère, tes fans se prennent une fissure anale Jte laisserai que les os comme un seau de fried chicken Reconnais ton supérieur quand jte sors du game Jforce dans ma camisole, katana aiguisé Jte mettrai pas la fessée, ça pourrait t'faire kiffer Cest une sonde pas banale que jvais tenfoncer ! Mon rap est un électrochoc, jvais tfaire câbler Avec ma parole jisole des femmes aux envies folles Tu vas faire quoi en camisole avec ta demi-molle ? Ya plein dtrucs à faire avec le bon appareil Mais même si tu tla coupais elle repousserait pareil Ta meuf ta quitté, à tout jamais tu la dégoûtes Au petit dèj' tu prends toujours du lait avec tes croûtes ? Tes quun déséquilibré qui aime trop sfaire saigner Je vais texploser, espèce de clone dhomme-araignée Qui est le winner ? Mentionne son nom en commentaire</t>
+          <t>Hoou ! It's time ! Faf Larage est Nidpool ! Aie aie aie aie aie ! Je les ai vu dans les vestiaires ! Ils se détestent ! Greg frite est Mytoman ! Trépanation et médocs nont pas su mtenir J'ai barbarisé ldoc, giflé la psy pour le délire Nidpool en cavale, Manson est dans la plaza Valium et Lexomyl, on nest pas seul dans la Cabeza Mais qui vient mclasher ? Qui je vais recracher ? Lado du Colorado qui red'vient du papier mâché Adios l'hosto et fais passer le mic Pour tes likes, j'éventre le balourd à coup de punchlines Moi cest Mytoman, ouais mentir je sais faire Donc tu sais où tu peux tmettre ta croix dbois, ta croix dfer Je suis sorti du Park histoire de prendre un peu lair Et parce que jai trop arnaqué tous mes potes de galère Cest moi le plus beau parleur que cette Terre ait porté Les meufs ressentent ma chaleur, elles veulent toutes mescorter La vérité me vénère Jvais tla mettre à lenvers Jvends de la glace en hiver et du feu en enfer Eh tu sais quoi ? Calme toi Satan, tas le flow de Saddam Ici cest Rap Fighter, avale un Chimichanga Genre écoute tes poèmes pour Kyle sur Winamp Pendant que ta daronne se fait ken par un Boot Camp !! Aucun héros en collant moulant peut rivaliser Enfile ton cosplay de Suceman Vous allez tous zapper On na pas besoin d'ce faux cul, d'ce dalleux On va tous pisser un coup pendant son couplet drageux Nidpool tas un blaze de cuvette de toilette Tes direct sur la sellette et le siège est pas net Tes juste un super vilain avec une tête en crépi Si ton corps est dessiné, ton visage est écrit Stop ! Tes postures zélées Mais comment oses-tu errer ? Dans ce costume serré ? Pourquoi tant de selfies sur tes réseaux sociaux ? Autant poster des WC après un gros popo Non non, attends, 'tends, écoute bien, écoute bien Ton flow cest pire que le cancer, et je sais dquoi je parle Jme régénère, tes fans se prennent une fissure anale Jte laisserai que les os comme un seau de fried chicken Reconnais ton supérieur quand jte sors du game Jforce dans ma camisole, katana aiguisé Jte mettrai pas la fessée, ça pourrait t'faire kiffer Cest une sonde pas banale que jvais tenfoncer ! Mon rap est un électrochoc, jvais tfaire câbler Avec ma parole jisole des femmes aux envies folles Tu vas faire quoi en camisole avec ta demi-molle ? Ya plein dtrucs à faire avec le bon appareil Mais même si tu tla coupais elle repousserait pareil Ta meuf ta quitté, à tout jamais tu la dégoûtes Au petit dèj' tu prends toujours du lait avec tes croûtes ? Tes quun déséquilibré qui aime trop sfaire saigner Je vais texploser, espèce de clone dhomme-araignée Qui est le winner ? Mentionne son nom en commentaire</t>
         </is>
       </c>
     </row>
@@ -2724,7 +2724,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Po po po po ! Ils sont chaud bouillants ! L'arène va exploser ! Nelick est One Touch Man ! Holalala ! La foule est en délire ! Faf Larage est Nidpool ! Namaste Jfais 100 rimes et 100 pompes par soir Jreviens bouillant mais j'tombe que contre des vieux shlags Mon crâne une boule de cristal, ty revois tous tes cauchemars Maintenant vous feriez mieux de m'appeler One Punchline Jsuis le boss ! Euh attend deux secondes ! ... Je m'étire un peu... Cest bon je suis prêt Moccuper des ptit ripoux comme toi, cest mon métier Sous ton joli costume cest sûr tas des petites myrtilles Je vais t'envoyer sur une autre planète tout comme Mirty Moi cest Nidpool, welcome dans mon univers Tout de mwaHA HAAAA j'su cwevéé... Ah tas vu ton style Il endort tout le monde là ! Ah écoute, écoute... MOI C'EST NIDPOOL WELCOME DANS MON UNIVERS !!! Nique lasile et les infirmières trop deters Tout le monde a compris que jétais pas là pour méditer Sur le ring jai le seum, un flow à pas défier, Myto lsait Demi-finale cest quoi le topo? Cest quoi le blaze de ladversaire ? Un truc genre One Punch Coco You might also like Ok Punch Coco, ça marche ! Tas le charisme dune mouche qui a la gastro Tes fans vont te jeter des pierres, tes pas un héros Jmédite, je reste très calme, phase aiguisée comme tes sécateurs Un touché BAM comme le C4, tes qu'un cobaye tes qu'un kidnappeur Toutes tes blagues elleS sont rénées Jai mis mon ptit doigt dans Vaness Devine qui soccupait delle quand toi tétais checa Je suis cool d'habitude mais avec toi je serai pas sympa Je fais 10 kilomètres par jour pendant que tu fais les 100 pas Tu parles beaucoup on s'en tape Tu vis dans un placenta Mais vu comment j'te découpe ça m'étonnerait que tu repousses intact Jaurai déjà ma trilogie au box-office Alors que ta saison 2 sortira pas avant 2026 100 pompes 100 abdos, sans cervelle est ton CV Tes exploits ? Des battles avec des crustacés Avec ta pose style zen, tu ressembles à une poterie Mais cest trop beau !!! Pour faire la déco d'un resto chinese ! Les victimes te détestent, tes un sauveur pathétique Je suis immortel, tu peux me toucher et je ressuscite... Tu peux me toucher... Et je ressuscite Tu peux me toucher... Et je ressuscite ! Tu peux me toucher... Et je ressuscite ! Tu peux me toucher ! Et je... OH OH OH OOH ! Nidpool, arrête, arrête Ya une battle à finir, là. Tu fais quoi ? Tes pas drôle, on te la déjà dit, t'es têtu Vu tes moisissures, je sais pas si cest tes fesses ou ta tête qui puent J't'ai pas touché pool pourquoi tu gesticules ? Maintenant que j'y pense c'est vrai qu'tu ressembles de ouf à des attends 'ttends 'ttends 'ttends ! Tu peux me dessiner une salle de jeux pour adultes ? Avec des femmes, dénudées Et des hommes euh... aussi dénudés du coup Zoomes un peu sur lun deux, descends un tout p'tit peu la caméra... VOILA ! Tu ressembles de ouf à des testicules ! Je pourrai être ton maître, mais jai la flemme Avant de piquer une sieste dans ma chambre Je te fais piquer une tête dans lacide Je vais te buter sans te toucher, rien quen crachant Je pourrai t'clasher, sans même rapper Je crois que t'aimes bien ça, te faire torturer par des chauves ! HEY GROS ! Tu mérites pas un manga, pas un comic book bidon Je tétrangle avec mes bandages 100 COTON Tu restes assis en tailleur, hey le gars sest fait dessus ! Ton cyborg te follow plus, il poste que tu pues ! Tu sera jamais classé S , tas foiré le clash test ! Pour Vaness, je vais te hâcher comme un boudin Tex Mex ! Fais tes adieux sur le ring, car tu verras pas demain Je vais te coincer dans les cordes, et te découper les mains Qui est le winner ? Mentionne son nom dans les commentaires !</t>
+          <t>Po po po po ! Ils sont chaud bouillants ! L'arène va exploser ! Nelick est One Touch Man ! Holalala ! La foule est en délire ! Faf Larage est Nidpool ! Namaste Jfais 100 rimes et 100 pompes par soir Jreviens bouillant mais j'tombe que contre des vieux shlags Mon crâne une boule de cristal, ty revois tous tes cauchemars Maintenant vous feriez mieux de m'appeler One Punchline Jsuis le boss ! Euh attend deux secondes ! ... Je m'étire un peu... Cest bon je suis prêt Moccuper des ptit ripoux comme toi, cest mon métier Sous ton joli costume cest sûr tas des petites myrtilles Je vais t'envoyer sur une autre planète tout comme Mirty Moi cest Nidpool, welcome dans mon univers Tout de mwaHA HAAAA j'su cwevéé... Ah tas vu ton style Il endort tout le monde là ! Ah écoute, écoute... MOI C'EST NIDPOOL WELCOME DANS MON UNIVERS !!! Nique lasile et les infirmières trop deters Tout le monde a compris que jétais pas là pour méditer Sur le ring jai le seum, un flow à pas défier, Myto lsait Demi-finale cest quoi le topo? Cest quoi le blaze de ladversaire ? Un truc genre One Punch Coco Ok Punch Coco, ça marche ! Tas le charisme dune mouche qui a la gastro Tes fans vont te jeter des pierres, tes pas un héros Jmédite, je reste très calme, phase aiguisée comme tes sécateurs Un touché BAM comme le C4, tes qu'un cobaye tes qu'un kidnappeur Toutes tes blagues elleS sont rénées Jai mis mon ptit doigt dans Vaness Devine qui soccupait delle quand toi tétais checa Je suis cool d'habitude mais avec toi je serai pas sympa Je fais 10 kilomètres par jour pendant que tu fais les 100 pas Tu parles beaucoup on s'en tape Tu vis dans un placenta Mais vu comment j'te découpe ça m'étonnerait que tu repousses intact Jaurai déjà ma trilogie au box-office Alors que ta saison 2 sortira pas avant 2026 100 pompes 100 abdos, sans cervelle est ton CV Tes exploits ? Des battles avec des crustacés Avec ta pose style zen, tu ressembles à une poterie Mais cest trop beau !!! Pour faire la déco d'un resto chinese ! Les victimes te détestent, tes un sauveur pathétique Je suis immortel, tu peux me toucher et je ressuscite... Tu peux me toucher... Et je ressuscite Tu peux me toucher... Et je ressuscite ! Tu peux me toucher... Et je ressuscite ! Tu peux me toucher ! Et je... OH OH OH OOH ! Nidpool, arrête, arrête Ya une battle à finir, là. Tu fais quoi ? Tes pas drôle, on te la déjà dit, t'es têtu Vu tes moisissures, je sais pas si cest tes fesses ou ta tête qui puent J't'ai pas touché pool pourquoi tu gesticules ? Maintenant que j'y pense c'est vrai qu'tu ressembles de ouf à des attends 'ttends 'ttends 'ttends ! Tu peux me dessiner une salle de jeux pour adultes ? Avec des femmes, dénudées Et des hommes euh... aussi dénudés du coup Zoomes un peu sur lun deux, descends un tout p'tit peu la caméra... VOILA ! Tu ressembles de ouf à des testicules ! Je pourrai être ton maître, mais jai la flemme Avant de piquer une sieste dans ma chambre Je te fais piquer une tête dans lacide Je vais te buter sans te toucher, rien quen crachant Je pourrai t'clasher, sans même rapper Je crois que t'aimes bien ça, te faire torturer par des chauves ! HEY GROS ! Tu mérites pas un manga, pas un comic book bidon Je tétrangle avec mes bandages 100 COTON Tu restes assis en tailleur, hey le gars sest fait dessus ! Ton cyborg te follow plus, il poste que tu pues ! Tu sera jamais classé S , tas foiré le clash test ! Pour Vaness, je vais te hâcher comme un boudin Tex Mex ! Fais tes adieux sur le ring, car tu verras pas demain Je vais te coincer dans les cordes, et te découper les mains Qui est le winner ? Mentionne son nom dans les commentaires !</t>
         </is>
       </c>
     </row>
@@ -2741,7 +2741,7 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>C'est la finale ! I can't believe it ! Faf Larage est Nidpool ! Ils se battent pour la finale ! Mais qui va morfler ? Jarod est Vegegra ! Si tas rate les épisodes précédents Si tas pas vote pour moi je te casse les dents De devant Comme le petit One Touch Man qui a lâché le rap Il vend des beignets sur les plages A Pataya depuis mon clash Quest devenu Mythoman ? Depuis sa raclée mesdames ? Ll charbonne en robe de chambre dans une vitrine a Amsterdam Nidpool ! Jai la dalle Jai pris la maille, des quarts et demi-finales Jai lamine tous les bails, sans égal Je suis dans le game ! Vegegra, Je les kenn El Barjo, Calighetto sont dead Je leur ai fait leur fête Rap Fighter c'est beaucoup trop facile Pour moi, je tue toutes mes cibles Je fais la fusion avec Goku Ma team vaut mieux que ton vieux legging Calighetto, je t'ai transformé en caligâteau C'était trop facile. Merci. Aligato ! El Barjo n'était pas un barjo Il était fragile je l'ai tue en impro Il a pris des coups de marteau, il avait même pas le bac pro T'es retourne dans ton cartoon charclo J'ai jongle avec lui, il a fait des saltos je me suis pris pour Ronaldo You might also like OK Vegegra. Tu proposes un Octogone Sans règles. Cest quand tu veux frère Tas parlé, moi jai parlé. Jassume OK Nidpool. On attend la date, le jour, lheure Octogone Pas darbitre. Et oublie pas la clause sur le Sandwich Grec Et jvais t'ni Je suis comme un brolique ou Broly gros Je vais te renvoyer au lit, bro Je te prépare un gros coup Un son beaucoup plus fort que ton ki, gros Tema ta combi on dirait un sadomaso Barre-toi qu'est-ce tu fous dans ma zone On sait même pas si t'as des nasaux Fashion faux pas ! Ta moustache ca lfaisait pas Dégarni de haut en bas Le nombril sous les sketba Heureusement qu'on voit pas ta gueule T'es tombe sur un castagneur Trop de level oblige de pull up J'arrose achète un pare-balles tout neuf Ahah ! Jesquive et tinflige un trauma Jfete ca avec Bulma Façon petite danse Fortnite Tes rince comme le vieux Sangohan en position ftale Tes le Sayan de la cave Tes même pas capable de fightback Finale de quoi, tu crois que t'es trop chaud Tu pues de la gueule prends un kiss cool mon gars tu parles trop C'est quoi ce nom tout pourri Nidpool t'as aucun assoss A force de te faire découper tu vas choper le tetanos Qu'est ce tu vas faire ? ... Donner de la force a ma camisole de beau gosse Immortel en detox... Pool ! Punchline même en morse Sous le vent... Ton vieux feat avec Celine Dion Tu fous la honte, range l'épée ressors les ballerines Demande pardon Je suis prince des Sayans t'es un monstre Genre Gollum en plus bidon Tu gères pas ta libido Je t'ai vu te frotter contre un guidon Je suis le haut de gamme dans ce rap game Dans ma tête y a tout le Allstar du fight, y a un gang Ca finit mal sur le ring, ding J'humilie les fragiles en streaming Krav maga, pencak, patates de viking King des x, moi, pour illustrer mes textes Pas de clip Mais des movies a 700 milli de recettes Ramener des trophées j'lai trop fait Corrige, défoncé, trop de refres qui se croyaient frais J'empale verbalement, dans des battles en anglais ou allemand Freestyle bestialement J'viens pour tuer cordialement Les rageux, les fâchés figés Qui pleurent devant leur écran Ils m'ont vu peter la bouche a leur poulain machinalement N1 dans les listes des booky pour les paris Selfies de l'asile a la Street, j'suis une armée au cromi Je suis riche ils sont fauchés Je suis très gras je soulève des rochers J'ai une famille de fou je suis refait Détruire des planètes le projet J'ai fait un voeu demande a Shenron Il m'a dit que j'aurai les éloges Que jles avalerai comme un Senzu Et que ce serait moi le plus gros des Sayans Il kenn des aliens Quand je baille je défonce les barrières Je ne regarde jamais en arrière Je vous ai tue je vais mourir de vieillesse Jbalance des boules, ils balancent leurs boules Jsaute dedans et jécrase la foule Débite des boites, dégomme et découpe A la maison jramène la coupe Ramener la coupe a la maison Allez, allez, allez Ramener la coupe a la maison Allez, allez, allez Votez !</t>
+          <t>C'est la finale ! I can't believe it ! Faf Larage est Nidpool ! Ils se battent pour la finale ! Mais qui va morfler ? Jarod est Vegegra ! Si tas rate les épisodes précédents Si tas pas vote pour moi je te casse les dents De devant Comme le petit One Touch Man qui a lâché le rap Il vend des beignets sur les plages A Pataya depuis mon clash Quest devenu Mythoman ? Depuis sa raclée mesdames ? Ll charbonne en robe de chambre dans une vitrine a Amsterdam Nidpool ! Jai la dalle Jai pris la maille, des quarts et demi-finales Jai lamine tous les bails, sans égal Je suis dans le game ! Vegegra, Je les kenn El Barjo, Calighetto sont dead Je leur ai fait leur fête Rap Fighter c'est beaucoup trop facile Pour moi, je tue toutes mes cibles Je fais la fusion avec Goku Ma team vaut mieux que ton vieux legging Calighetto, je t'ai transformé en caligâteau C'était trop facile. Merci. Aligato ! El Barjo n'était pas un barjo Il était fragile je l'ai tue en impro Il a pris des coups de marteau, il avait même pas le bac pro T'es retourne dans ton cartoon charclo J'ai jongle avec lui, il a fait des saltos je me suis pris pour Ronaldo OK Vegegra. Tu proposes un Octogone Sans règles. Cest quand tu veux frère Tas parlé, moi jai parlé. Jassume OK Nidpool. On attend la date, le jour, lheure Octogone Pas darbitre. Et oublie pas la clause sur le Sandwich Grec Et jvais t'ni Je suis comme un brolique ou Broly gros Je vais te renvoyer au lit, bro Je te prépare un gros coup Un son beaucoup plus fort que ton ki, gros Tema ta combi on dirait un sadomaso Barre-toi qu'est-ce tu fous dans ma zone On sait même pas si t'as des nasaux Fashion faux pas ! Ta moustache ca lfaisait pas Dégarni de haut en bas Le nombril sous les sketba Heureusement qu'on voit pas ta gueule T'es tombe sur un castagneur Trop de level oblige de pull up J'arrose achète un pare-balles tout neuf Ahah ! Jesquive et tinflige un trauma Jfete ca avec Bulma Façon petite danse Fortnite Tes rince comme le vieux Sangohan en position ftale Tes le Sayan de la cave Tes même pas capable de fightback Finale de quoi, tu crois que t'es trop chaud Tu pues de la gueule prends un kiss cool mon gars tu parles trop C'est quoi ce nom tout pourri Nidpool t'as aucun assoss A force de te faire découper tu vas choper le tetanos Qu'est ce tu vas faire ? ... Donner de la force a ma camisole de beau gosse Immortel en detox... Pool ! Punchline même en morse Sous le vent... Ton vieux feat avec Celine Dion Tu fous la honte, range l'épée ressors les ballerines Demande pardon Je suis prince des Sayans t'es un monstre Genre Gollum en plus bidon Tu gères pas ta libido Je t'ai vu te frotter contre un guidon Je suis le haut de gamme dans ce rap game Dans ma tête y a tout le Allstar du fight, y a un gang Ca finit mal sur le ring, ding J'humilie les fragiles en streaming Krav maga, pencak, patates de viking King des x, moi, pour illustrer mes textes Pas de clip Mais des movies a 700 milli de recettes Ramener des trophées j'lai trop fait Corrige, défoncé, trop de refres qui se croyaient frais J'empale verbalement, dans des battles en anglais ou allemand Freestyle bestialement J'viens pour tuer cordialement Les rageux, les fâchés figés Qui pleurent devant leur écran Ils m'ont vu peter la bouche a leur poulain machinalement N1 dans les listes des booky pour les paris Selfies de l'asile a la Street, j'suis une armée au cromi Je suis riche ils sont fauchés Je suis très gras je soulève des rochers J'ai une famille de fou je suis refait Détruire des planètes le projet J'ai fait un voeu demande a Shenron Il m'a dit que j'aurai les éloges Que jles avalerai comme un Senzu Et que ce serait moi le plus gros des Sayans Il kenn des aliens Quand je baille je défonce les barrières Je ne regarde jamais en arrière Je vous ai tue je vais mourir de vieillesse Jbalance des boules, ils balancent leurs boules Jsaute dedans et jécrase la foule Débite des boites, dégomme et découpe A la maison jramène la coupe Ramener la coupe a la maison Allez, allez, allez Ramener la coupe a la maison Allez, allez, allez Votez !</t>
         </is>
       </c>
     </row>
@@ -2758,7 +2758,7 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Mon père est né dans les quartiers de New York Dans le Bronx yo fin 70 sans rouler sur l'or Promis à une vie de rue, traîner dans le ghetto Le samedi soir il kiffait les parties dans les blocks yo Aux States y avait pas grand chose à espérer Le rêve américain pouvait s'éterniser jusqu'à ne plus se réveiller Fallait construire sur des bases peu sûres Créer des structures, user de la rue sa seule culture Ses poings faibles serrés mis en avant Avenant il létait avant mais en en bavant on durcit forcément Sans argent il lui restait le talent entre La dope et les gangs y avait le micro et lencre À parler de gun et de filles à enflammer les foules faciles Fournit le funky beat il a le profil Venu le vinyl faire des disques il avait les titres Parler social avec des tripes il avait le style Avec des messages il faisait des hits revendicatifs Un ovni dans la musique vient pour choquer l'Amérique Là où il vit, ce qu'il subit, il veut qu'on le sache Représente les jeunes dans la merde où qu'ils se cachent Et ça marche ! Les radios se l'arrachent, les télés jouent le jeu Sur le câble et les charts la règle c'est fous le feu ! Les dés sont jetés de NYC à L.A., s'il y allait ? Il en avait des fans ? Si ! Ils le vénéraient Entre un spliff, une forty, quelques fuck the police Enchaîner les clips malgré les démêlés avec la justice Le gouvernement et les riches supportent pas de voir un gangsta Au cinéma ou pire un Grammy pour un nigga Soit c'est comme ça il parle de cul et de Benz Mais il pèse et les jeunes l'aiment merde et c'est ça qui les baise Y a eu des beefs et des rimes chocs en vedettes Trop de deads et heureusement c'est pas encore dans mes gênes Mais il a des doughs et cest une star et on lentend partout Un coup bling bling un coup psycho Un coup à Sing-Sing ou bien un coup avec Nike Un coup de crack ou un coup de millions de record deal Dirty de Atlanta à Miami Bounce dans le monde avec une armée d'MC Privilégie le platine, les clubs Les pubs et les films à fond dans le marketing Ses origines miséreuses il les oublie un peu De temps en temps c'est vrai on se voit mais on se parle peu Pourtant c'est la famille mon vieux Mais nos rapports restent showbiz et douteux Quand il vient en France mon père me toise Ce rap américain ne me reconnaît pas Moi le rap français je fais mon biz Je laime mais jai pas besoin de lui pour réussirYou might also like</t>
+          <t>Mon père est né dans les quartiers de New York Dans le Bronx yo fin 70 sans rouler sur l'or Promis à une vie de rue, traîner dans le ghetto Le samedi soir il kiffait les parties dans les blocks yo Aux States y avait pas grand chose à espérer Le rêve américain pouvait s'éterniser jusqu'à ne plus se réveiller Fallait construire sur des bases peu sûres Créer des structures, user de la rue sa seule culture Ses poings faibles serrés mis en avant Avenant il létait avant mais en en bavant on durcit forcément Sans argent il lui restait le talent entre La dope et les gangs y avait le micro et lencre À parler de gun et de filles à enflammer les foules faciles Fournit le funky beat il a le profil Venu le vinyl faire des disques il avait les titres Parler social avec des tripes il avait le style Avec des messages il faisait des hits revendicatifs Un ovni dans la musique vient pour choquer l'Amérique Là où il vit, ce qu'il subit, il veut qu'on le sache Représente les jeunes dans la merde où qu'ils se cachent Et ça marche ! Les radios se l'arrachent, les télés jouent le jeu Sur le câble et les charts la règle c'est fous le feu ! Les dés sont jetés de NYC à L.A., s'il y allait ? Il en avait des fans ? Si ! Ils le vénéraient Entre un spliff, une forty, quelques fuck the police Enchaîner les clips malgré les démêlés avec la justice Le gouvernement et les riches supportent pas de voir un gangsta Au cinéma ou pire un Grammy pour un nigga Soit c'est comme ça il parle de cul et de Benz Mais il pèse et les jeunes l'aiment merde et c'est ça qui les baise Y a eu des beefs et des rimes chocs en vedettes Trop de deads et heureusement c'est pas encore dans mes gênes Mais il a des doughs et cest une star et on lentend partout Un coup bling bling un coup psycho Un coup à Sing-Sing ou bien un coup avec Nike Un coup de crack ou un coup de millions de record deal Dirty de Atlanta à Miami Bounce dans le monde avec une armée d'MC Privilégie le platine, les clubs Les pubs et les films à fond dans le marketing Ses origines miséreuses il les oublie un peu De temps en temps c'est vrai on se voit mais on se parle peu Pourtant c'est la famille mon vieux Mais nos rapports restent showbiz et douteux Quand il vient en France mon père me toise Ce rap américain ne me reconnaît pas Moi le rap français je fais mon biz Je laime mais jai pas besoin de lui pour réussir</t>
         </is>
       </c>
     </row>
@@ -2775,7 +2775,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Moi le rap français Je suis né mi-80 la rage au ventre émigré des States Arrivé en France où mon père me délaisse Je reste sans tune mais des rêves en tête je me rappelle Ici le ciel brillait pour les modestes plus qu'à l'Ouest Mais j'assume, j'irai peindre ma fresque sur la toile des maîtres de musique Je veux en être le best mec, sec, j'ai déchanté J'aurai pu crever, me casser, m'écraser Sur le pavé on me voulait pas français j'ai été rejeté Alors comme un exclu la rue m'a inclus J'ai revisité mon but voulu juste exister avec un peu de cul Nous les jeunes d'ici dans les rues on n'avait pas notre truc Notre musique qu'on nous identifie, si si et Qu'on s'exprime, avec mes racines, j'avais les récits, eu le déclic Au tout début j'ai eu peu de public On me ressortait les années de mon arrivée, le break Ma jeunesse un autre contexte avec mon père quand je venais Les potos de l'époque beaucoup m'ont pas rappelé Beaucoup ont dû travailler ou sont tombés Les vrais sont restés, fidèles à la mort c'est un pacte On a repris le contrôle et je parle pour eux dédicace Fallait que je casse l'image du gosse qui casse Qui schlasse, qui fume du hash qui grandit et qui se lasse Je suis pas un lâche, arrêtez les sarcasmes Pour que dalle j'ai eu un deal, dans les journaux essuyais mes premières attaques Mes clashs on me ratait pas, dans mes états, mes écarts, mes ébats L'opinion avait peur de moi, rien que ça Mais j'ai pas arrêté, au contraire j'ai continué Commencé à m'organiser sans radio ni télé Trouver une identité face à mon père de l'autre côté Face à sa forte personnalité c'est pas gagné Voyagé du Sud au Nord, m'accrocher, on m'accordait L'attention d'un art barré c'était mal barré Mon taf était grave carré, me boycotter ? On a déjà essayé Mais trop tard dans les bacs j'étais installé Marre de la bac, fais chier ! L'état je m'en suis toujours méfié Passé ma vie à les défier tu le sais J'étais underground dans ma tête, c'était risqué de surfer Entre des tubes et des bombes de six à dix minutes J'ai commencé à toucher de l'or c'était bon Mon pedigree dans les quartiers était au plafond Je pensais être longtemps à fond Mais c'est mon père qui dans les soirées mettait la pression On le kiffait pour de bon, moi comme une indigestion Je l'avais en travers le con merde il faisait du bon son C'est mon territoire ici alors qu'est ce qu'il vient se la jouer Tu crois qu'il m'aurait aidé ? Mais non voyons J'étais pas non-voyant, à la suite, acceptais le fait Qu'avoir des hits en radio tachait ma réputation Bon je suis un mec sombre sorti de l'ombre à fond Je crois que j'ai toujours cherché la reconnaissance dans le fond J'ai peut-être égaré des amis sur le chemin de la réussite Mais qui m'aime me suit et les majors me kiffent On a sorti plein de titres, des bons, des mauvais Je leur ai rapporté un max, pensé je vais tout niqué Ça se passe et des merdes quand j'en sors ça se tasse Dés fois on dit n'importe quoi pour impressionner des tasses Qu'est ce qu'il y a ? Ouais je suis large mentalité de barge Trop longtemps en marge je mange quand ça marche Alors j'apprécie la réussite, j'essaye de pas tomber Mais y a toujours un doute sérieux dans ce que je fais Des amis égarés, d'autres m'ont spolié Des gens mal intentionnés m'ont récupéré Je sais plus à qui redistribuer Grave coté, brasse des sous mais toujours pas respecté Et mon père ne vend plus ici désolé Vient pour le prestige faire des billets en soirée Si si dés fois c'est vrai je vais chez lui C'est vrai j'aurai voulu qu'on enregistre plus de feat J'ai tendu la perche, rien ensuite, même si Ailleurs il est big ici c'est moi qui fais le biz On m'a lâché sans repères, m'a pas éduqué Ce qui explique mes faiblesses et mes excès Des relents de violence me lancent Des fois je rigole, des fois je veux tout larguer C'est confus dans ma tête mec Un jour j'aime la rue le lendemain j'ai qu'une idée en tête VIP et chèqueYou might also like</t>
+          <t>Moi le rap français Je suis né mi-80 la rage au ventre émigré des States Arrivé en France où mon père me délaisse Je reste sans tune mais des rêves en tête je me rappelle Ici le ciel brillait pour les modestes plus qu'à l'Ouest Mais j'assume, j'irai peindre ma fresque sur la toile des maîtres de musique Je veux en être le best mec, sec, j'ai déchanté J'aurai pu crever, me casser, m'écraser Sur le pavé on me voulait pas français j'ai été rejeté Alors comme un exclu la rue m'a inclus J'ai revisité mon but voulu juste exister avec un peu de cul Nous les jeunes d'ici dans les rues on n'avait pas notre truc Notre musique qu'on nous identifie, si si et Qu'on s'exprime, avec mes racines, j'avais les récits, eu le déclic Au tout début j'ai eu peu de public On me ressortait les années de mon arrivée, le break Ma jeunesse un autre contexte avec mon père quand je venais Les potos de l'époque beaucoup m'ont pas rappelé Beaucoup ont dû travailler ou sont tombés Les vrais sont restés, fidèles à la mort c'est un pacte On a repris le contrôle et je parle pour eux dédicace Fallait que je casse l'image du gosse qui casse Qui schlasse, qui fume du hash qui grandit et qui se lasse Je suis pas un lâche, arrêtez les sarcasmes Pour que dalle j'ai eu un deal, dans les journaux essuyais mes premières attaques Mes clashs on me ratait pas, dans mes états, mes écarts, mes ébats L'opinion avait peur de moi, rien que ça Mais j'ai pas arrêté, au contraire j'ai continué Commencé à m'organiser sans radio ni télé Trouver une identité face à mon père de l'autre côté Face à sa forte personnalité c'est pas gagné Voyagé du Sud au Nord, m'accrocher, on m'accordait L'attention d'un art barré c'était mal barré Mon taf était grave carré, me boycotter ? On a déjà essayé Mais trop tard dans les bacs j'étais installé Marre de la bac, fais chier ! L'état je m'en suis toujours méfié Passé ma vie à les défier tu le sais J'étais underground dans ma tête, c'était risqué de surfer Entre des tubes et des bombes de six à dix minutes J'ai commencé à toucher de l'or c'était bon Mon pedigree dans les quartiers était au plafond Je pensais être longtemps à fond Mais c'est mon père qui dans les soirées mettait la pression On le kiffait pour de bon, moi comme une indigestion Je l'avais en travers le con merde il faisait du bon son C'est mon territoire ici alors qu'est ce qu'il vient se la jouer Tu crois qu'il m'aurait aidé ? Mais non voyons J'étais pas non-voyant, à la suite, acceptais le fait Qu'avoir des hits en radio tachait ma réputation Bon je suis un mec sombre sorti de l'ombre à fond Je crois que j'ai toujours cherché la reconnaissance dans le fond J'ai peut-être égaré des amis sur le chemin de la réussite Mais qui m'aime me suit et les majors me kiffent On a sorti plein de titres, des bons, des mauvais Je leur ai rapporté un max, pensé je vais tout niqué Ça se passe et des merdes quand j'en sors ça se tasse Dés fois on dit n'importe quoi pour impressionner des tasses Qu'est ce qu'il y a ? Ouais je suis large mentalité de barge Trop longtemps en marge je mange quand ça marche Alors j'apprécie la réussite, j'essaye de pas tomber Mais y a toujours un doute sérieux dans ce que je fais Des amis égarés, d'autres m'ont spolié Des gens mal intentionnés m'ont récupéré Je sais plus à qui redistribuer Grave coté, brasse des sous mais toujours pas respecté Et mon père ne vend plus ici désolé Vient pour le prestige faire des billets en soirée Si si dés fois c'est vrai je vais chez lui C'est vrai j'aurai voulu qu'on enregistre plus de feat J'ai tendu la perche, rien ensuite, même si Ailleurs il est big ici c'est moi qui fais le biz On m'a lâché sans repères, m'a pas éduqué Ce qui explique mes faiblesses et mes excès Des relents de violence me lancent Des fois je rigole, des fois je veux tout larguer C'est confus dans ma tête mec Un jour j'aime la rue le lendemain j'ai qu'une idée en tête VIP et chèque</t>
         </is>
       </c>
     </row>
@@ -2792,7 +2792,7 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Now, check the sound Le duc de la scène hip-hop de Marseille Faf Larage, moi et ma saga DJ Rebel, toujours là T'es fou mec? pourquoi on est là Qu'est-ce tu crois, Faf Larage et DJ Rebel en studio, cette fois Encore une paye sur mes potos Qui chient sur les blaireaux et zéros Qui balancent leurs trucs qui puent sans XXX Poto, au max, mets-y autour d'un axe Tu la ressens quand tu prends un scratch Fils, c'est trop classe, tempo rebelle Old school XXX pass-pass, pass-pass sur wax XXX Technics Et la technique, MK2 et lyrics, tu l'sais La compétition n'a qu'à bien s'tenir Et dédicace au Soul Swing, Majest'X, Def, K-Rhyme Les partisans du hip-hop, de Marseille à Paris En passant par Dunkerque, Strasbourg, la Belgique et la Suisse Retour sur Lyon, Nice, Montpellier, Agen, Bordeaux Où qu'vous soyez Seuls vous pourrez comprendre les mots skillz, DJ, en bons juges et apprécier XXX si tu l'es, fais-le savoir Crois-moi la qualité, on la fout pour des mecs comme toi Tu vois, un DJ, il s'crève le cul Achète des disques, fait des instrus Pour qu'toi tu jump dessus You might also like Damn, it feels good to see people up on it DJ, un caprice Fixe-moi un rythme que j'accomplisse S'te plaît fils, derrière tes platines, scratche qu'on entende et kiffe Mise sur des breakbeats, des voix, des crissures Des trucs que t'utilises sur Le doigt quand tu les lance sur Un rap qui tue, égotrip, freestyle, tu le sais, sûr De moi quand je les envoie et détruis les faux XXX Tous supports sur scène Même s'ils ont la haine, ils restent blêmes Quand XXX ils ont la haine, sûr Sont peu nombreux, sûr À espérer que j'me plante Avec mon DJ on fait c'qu'il faut On va d'l'avant ensemble et je finis sur oh Sur ah Sur yeeeah Personne ne peut rien contre moi avec mon DJ Tu l'sais, les putes paniquent XXX celui qui s'agite Pensent qu'on baisse les bras, ici on meurt mais ne se rend pas Que reste-t-il à prouver? Sinon remercier les DJ qui nous font bouger Fais pas d'amalgame, je parle de mecs de marque Causent une fichue trouille aux crétins qui refusent le rap Mix, des CD, des sons pour les pédés Des soirées drag-queen et autres, qu'est-ce que j'en ai à branler Eh Rebel, mixe mes , fixe tes bitch! Félicite-les don't sleep Et le squad, fils est Damn, it feels good to see people up on it</t>
+          <t>Now, check the sound Le duc de la scène hip-hop de Marseille Faf Larage, moi et ma saga DJ Rebel, toujours là T'es fou mec? pourquoi on est là Qu'est-ce tu crois, Faf Larage et DJ Rebel en studio, cette fois Encore une paye sur mes potos Qui chient sur les blaireaux et zéros Qui balancent leurs trucs qui puent sans XXX Poto, au max, mets-y autour d'un axe Tu la ressens quand tu prends un scratch Fils, c'est trop classe, tempo rebelle Old school XXX pass-pass, pass-pass sur wax XXX Technics Et la technique, MK2 et lyrics, tu l'sais La compétition n'a qu'à bien s'tenir Et dédicace au Soul Swing, Majest'X, Def, K-Rhyme Les partisans du hip-hop, de Marseille à Paris En passant par Dunkerque, Strasbourg, la Belgique et la Suisse Retour sur Lyon, Nice, Montpellier, Agen, Bordeaux Où qu'vous soyez Seuls vous pourrez comprendre les mots skillz, DJ, en bons juges et apprécier XXX si tu l'es, fais-le savoir Crois-moi la qualité, on la fout pour des mecs comme toi Tu vois, un DJ, il s'crève le cul Achète des disques, fait des instrus Pour qu'toi tu jump dessus Damn, it feels good to see people up on it DJ, un caprice Fixe-moi un rythme que j'accomplisse S'te plaît fils, derrière tes platines, scratche qu'on entende et kiffe Mise sur des breakbeats, des voix, des crissures Des trucs que t'utilises sur Le doigt quand tu les lance sur Un rap qui tue, égotrip, freestyle, tu le sais, sûr De moi quand je les envoie et détruis les faux XXX Tous supports sur scène Même s'ils ont la haine, ils restent blêmes Quand XXX ils ont la haine, sûr Sont peu nombreux, sûr À espérer que j'me plante Avec mon DJ on fait c'qu'il faut On va d'l'avant ensemble et je finis sur oh Sur ah Sur yeeeah Personne ne peut rien contre moi avec mon DJ Tu l'sais, les putes paniquent XXX celui qui s'agite Pensent qu'on baisse les bras, ici on meurt mais ne se rend pas Que reste-t-il à prouver? Sinon remercier les DJ qui nous font bouger Fais pas d'amalgame, je parle de mecs de marque Causent une fichue trouille aux crétins qui refusent le rap Mix, des CD, des sons pour les pédés Des soirées drag-queen et autres, qu'est-ce que j'en ai à branler Eh Rebel, mixe mes , fixe tes bitch! Félicite-les don't sleep Et le squad, fils est Damn, it feels good to see people up on it</t>
         </is>
       </c>
     </row>
@@ -2826,7 +2826,7 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Ouais ouais Et tu l'sais S.A.T, l'artificier Faf Larage DJ Faze Just Music Me parlez plus de rap français, ça me saoule, ça me lasse À les entendre ils sont tous plein de guns, de poudre, de liasse De nos jours les textes ne sont plus qu'insultes et menaces Laisse-moi me ressourcer sur un vieux Snoop ou le premier de Nas Rangez les synthés, ressortez les samplers Mais par pitié, j'vous en conjure, faites-moi taire tous ces menteurs De nos jours y a trop d'rappeurs, plus assez d'MC Ma vie est à Marseille mais mon cur bat sur un beat d'NYC Donne-moi le M.I.C, j'ai trop de choses à dire Une vie c'est court, ici-bas y a trop d'choses à voir de choses à vivre J'cautionne en aucun cas leurs appels au crime J'défendrai mes valeurs jusqu'au bout comme Apollo Creed Aucune apologie de la violence dans mes vers J'rappe, un pour mes pairs, deux pour m'calmer les nerfs Trois, le rap et moi c'est une histoire de loyauté Pas que de royautés, et ce jusqu'à c'que la vie m'soit ôtée You might also like It's the return of the wild style The real hip-hop, hip-hop Represent, represent Si tu veux dealer, deale, si tu veux tirer, tire Mais dans tes titres, cesse de raconter des merdes aux petits Si tu veux braquer, braque sans blague Mais quand tu rappes, dans tes tracks, cesse de raconter des craques, mec Quand tu prends le mic, brûle-le, vas-y fume-le Putain fous l'feu Rock the mic Quand tu prends le mic, brûle-le, vas-y fume-le Putain fous l'feu Y a des MC qui triment pour faire du bon son Et d'autres lâchent des rimes comme des caissons On parle plus de hip-hop, où va l'son On a pris trop de différentes directions Y a plus d'famille, y a plus d'amis Y a même plus de vision artistique, rimes comprises Y a un vide, en musique la source tarie On parle cash, on parle tarif et royalties Yo, j'entends des mômes qui s'inventent des vies J'entends des rumeurs à propos d'gun, pire que dans Voici Ça écoute plus les albums ni les maxis Ça sait même plus à quoi servent des platines S'agit pas que d'ghetto, mec S'agit de nourrir ton quartier d'autre chose que des gâteaux secs S'agit d'big-up ceux qui taffent et qui s'jettent Si tu fais des braquages, fais-les sur mixtapes Si t'as un truc vénèr à dire et tu sais pas le dire Écris un livre Ton flow est trop pourri, y a quoi sur les CV Je m'en carre de qui a le record de GAV En vrai, si le mic est décédé, le beat déchiré On a commencé c'était pas un hobby, mec Y avait rien à bouffer Transmets-nous un message et on fait passer Ne serait-ce que de dire que tes rimes ont défoncé It's the return of the wild style The real hip-hop, hip-hop Represent, represent Si tu veux dealer, deale, si tu veux tirer, tire Mais dans tes titres, cesse de raconter des merdes aux petits Si tu veux braquer, braque sans blague Mais quand tu rappes, dans tes tracks, cesse de raconter des craques, mec Quand tu prends le mic, brûle-le, vas-y fume-le Putain fous l'feu Rock the mic Quand tu prends le mic, brûle-le, vas-y fume-le Putain fous l'feu Say what!</t>
+          <t>Ouais ouais Et tu l'sais S.A.T, l'artificier Faf Larage DJ Faze Just Music Me parlez plus de rap français, ça me saoule, ça me lasse À les entendre ils sont tous plein de guns, de poudre, de liasse De nos jours les textes ne sont plus qu'insultes et menaces Laisse-moi me ressourcer sur un vieux Snoop ou le premier de Nas Rangez les synthés, ressortez les samplers Mais par pitié, j'vous en conjure, faites-moi taire tous ces menteurs De nos jours y a trop d'rappeurs, plus assez d'MC Ma vie est à Marseille mais mon cur bat sur un beat d'NYC Donne-moi le M.I.C, j'ai trop de choses à dire Une vie c'est court, ici-bas y a trop d'choses à voir de choses à vivre J'cautionne en aucun cas leurs appels au crime J'défendrai mes valeurs jusqu'au bout comme Apollo Creed Aucune apologie de la violence dans mes vers J'rappe, un pour mes pairs, deux pour m'calmer les nerfs Trois, le rap et moi c'est une histoire de loyauté Pas que de royautés, et ce jusqu'à c'que la vie m'soit ôtée It's the return of the wild style The real hip-hop, hip-hop Represent, represent Si tu veux dealer, deale, si tu veux tirer, tire Mais dans tes titres, cesse de raconter des merdes aux petits Si tu veux braquer, braque sans blague Mais quand tu rappes, dans tes tracks, cesse de raconter des craques, mec Quand tu prends le mic, brûle-le, vas-y fume-le Putain fous l'feu Rock the mic Quand tu prends le mic, brûle-le, vas-y fume-le Putain fous l'feu Y a des MC qui triment pour faire du bon son Et d'autres lâchent des rimes comme des caissons On parle plus de hip-hop, où va l'son On a pris trop de différentes directions Y a plus d'famille, y a plus d'amis Y a même plus de vision artistique, rimes comprises Y a un vide, en musique la source tarie On parle cash, on parle tarif et royalties Yo, j'entends des mômes qui s'inventent des vies J'entends des rumeurs à propos d'gun, pire que dans Voici Ça écoute plus les albums ni les maxis Ça sait même plus à quoi servent des platines S'agit pas que d'ghetto, mec S'agit de nourrir ton quartier d'autre chose que des gâteaux secs S'agit d'big-up ceux qui taffent et qui s'jettent Si tu fais des braquages, fais-les sur mixtapes Si t'as un truc vénèr à dire et tu sais pas le dire Écris un livre Ton flow est trop pourri, y a quoi sur les CV Je m'en carre de qui a le record de GAV En vrai, si le mic est décédé, le beat déchiré On a commencé c'était pas un hobby, mec Y avait rien à bouffer Transmets-nous un message et on fait passer Ne serait-ce que de dire que tes rimes ont défoncé It's the return of the wild style The real hip-hop, hip-hop Represent, represent Si tu veux dealer, deale, si tu veux tirer, tire Mais dans tes titres, cesse de raconter des merdes aux petits Si tu veux braquer, braque sans blague Mais quand tu rappes, dans tes tracks, cesse de raconter des craques, mec Quand tu prends le mic, brûle-le, vas-y fume-le Putain fous l'feu Rock the mic Quand tu prends le mic, brûle-le, vas-y fume-le Putain fous l'feu Say what!</t>
         </is>
       </c>
     </row>
@@ -2841,11 +2841,7 @@
           <t>Ripaille (interlude)</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>You might also like</t>
-        </is>
-      </c>
+      <c r="C142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -2860,7 +2856,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Putain quel réveil de merde, j'en ai marre de me lever si tôt Les pipos, les rivaux, les esquiver, ça j'essaye de l'faire Alors j'gratte ma vie au PMU, espérant gagner Ma femme dit que j'baise ma thune, c'est tout ou rien, moi j'espère ramener Le pactole, après ça j'oublie tout C'est quitte ou double, ouais ouais, t'façon ça va pas changer la donne Ce soir-là vers 19h, j'suis parti au PMU du coin Disant à ma femme Laisse-moi tranquille ce soir, surveille le gosse et le chien Je claque la porte, j'me dis Pourquoi pas moi ? J'ai grave la rage, je gratte la corde jusqu'à ma mort Alors j'commence mon rituel, commande un café et un verre d'eau froid J'pense à ma mère décédée, en m'demandant si elle s'rait fière de moi J'n'ai pas l'choix, ma race, dis-moi qui va donner d'la bouffe aux gosses Le gloss ça coûte, donc j'me suis adonné au grattage Bonsoir Madame, j'voudrais un paquet d'Philipp Mo' et un Blackjack J'vois des gens rentrer du taff, moi qui suis au chômage ça m'agace Je massois et j'rêve de faire briller, tous ces billets Verts, pour éviter d'hériter des vies ternes, en hiver x2 Ma vie n'est pas un film, mais j'veux qu'elle le devienne Chaque joue ma vie me tue, et moi je fais de même alors J'gratte, j'gratte, j'gratte, j'gratte J'gratte, j'gratte, j'gratte, j'gratte You might also like Je vais gratter, mais avant ça je m'imagine que je gagne Je pourrais partir m'éclater, partir faire le tour du monde ce soir Je sens mon coeur saccélérer, les battements tapent ma boîte crânienne Je lâcherais pas ma vie à Paname, quoi qu'il advienne Certaines idées me montent vite à la tête, les filles, les voitures J'suis dépité vois-tu, alors mon esprit n'pense qu'à faire la fête Le bon côté d'ma pensée me pousse à rester là À profiter d'mon argent avec mes potes et puis ma mille-fa Mais après tout, si t'as d'l'oseille les problèmes s'amenuisent Autant que je graille des foufs, en boîte de nuit Mais qu'est-ce que va faire ma femme toute seule ? J'vais laisser une famille orpheline, j'suis qu'un égoïste rongé par le seum La télé m'a guidé, attiré par la vie d'rêve J'veux palper, palpiter, loin d'la misère Me disant que la française des jeux me permet d'croquer l'gâteau Quitter ma vie d'appartement, j'veux ma vie d'château Des tas de Ferrari, en rouge, en bleu, et même en cristal Mamen, si je gagne je quitterais cet état léthargique Ma vie n'est pas un film, mais j'veux qu'elle le devienne Chaque joue ma vie me tue, et moi je fais de même alors J'gratte, j'gratte, j'gratte, j'gratte J'gratte, j'gratte, j'gratte, j'gratte</t>
+          <t>Putain quel réveil de merde, j'en ai marre de me lever si tôt Les pipos, les rivaux, les esquiver, ça j'essaye de l'faire Alors j'gratte ma vie au PMU, espérant gagner Ma femme dit que j'baise ma thune, c'est tout ou rien, moi j'espère ramener Le pactole, après ça j'oublie tout C'est quitte ou double, ouais ouais, t'façon ça va pas changer la donne Ce soir-là vers 19h, j'suis parti au PMU du coin Disant à ma femme Laisse-moi tranquille ce soir, surveille le gosse et le chien Je claque la porte, j'me dis Pourquoi pas moi ? J'ai grave la rage, je gratte la corde jusqu'à ma mort Alors j'commence mon rituel, commande un café et un verre d'eau froid J'pense à ma mère décédée, en m'demandant si elle s'rait fière de moi J'n'ai pas l'choix, ma race, dis-moi qui va donner d'la bouffe aux gosses Le gloss ça coûte, donc j'me suis adonné au grattage Bonsoir Madame, j'voudrais un paquet d'Philipp Mo' et un Blackjack J'vois des gens rentrer du taff, moi qui suis au chômage ça m'agace Je massois et j'rêve de faire briller, tous ces billets Verts, pour éviter d'hériter des vies ternes, en hiver x2 Ma vie n'est pas un film, mais j'veux qu'elle le devienne Chaque joue ma vie me tue, et moi je fais de même alors J'gratte, j'gratte, j'gratte, j'gratte J'gratte, j'gratte, j'gratte, j'gratte Je vais gratter, mais avant ça je m'imagine que je gagne Je pourrais partir m'éclater, partir faire le tour du monde ce soir Je sens mon coeur saccélérer, les battements tapent ma boîte crânienne Je lâcherais pas ma vie à Paname, quoi qu'il advienne Certaines idées me montent vite à la tête, les filles, les voitures J'suis dépité vois-tu, alors mon esprit n'pense qu'à faire la fête Le bon côté d'ma pensée me pousse à rester là À profiter d'mon argent avec mes potes et puis ma mille-fa Mais après tout, si t'as d'l'oseille les problèmes s'amenuisent Autant que je graille des foufs, en boîte de nuit Mais qu'est-ce que va faire ma femme toute seule ? J'vais laisser une famille orpheline, j'suis qu'un égoïste rongé par le seum La télé m'a guidé, attiré par la vie d'rêve J'veux palper, palpiter, loin d'la misère Me disant que la française des jeux me permet d'croquer l'gâteau Quitter ma vie d'appartement, j'veux ma vie d'château Des tas de Ferrari, en rouge, en bleu, et même en cristal Mamen, si je gagne je quitterais cet état léthargique Ma vie n'est pas un film, mais j'veux qu'elle le devienne Chaque joue ma vie me tue, et moi je fais de même alors J'gratte, j'gratte, j'gratte, j'gratte J'gratte, j'gratte, j'gratte, j'gratte</t>
         </is>
       </c>
     </row>
@@ -2877,7 +2873,7 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>ROH2F, La Fierté Des Nôtres Préparez les k-7, les cd vierges Soldat Comorien, Ewa K1 Fry Mafia Léquipe dont il faut se méfier Ouais, viens pas tester J-J-J-J-J-J-J-J-Jamais ROHFF, Catastastrohff Tu peux pas test gros 21 Juin Fierté des Nôtres Prend mon entrée comme un coup d'blaf', m'prend pas pour un blarf Si Tes pas d'chez nous t'étonne pas qu't'as perdu ton larf' On roule sans assurance ni carte grise On a l'permis d'baiser la France, c'est l'agence tout risque, on rêve de braquer le FISC Défouraille les Barracuda, on est là, pour en découdre, coude à coude, on gagne sur un coup bas A la bouche un cigare d'Cuba, on s'affiche pas, danse pas la rumba On pense quà rentrer les ronds, à ronfler après avoir romba On casse les dos ronds, vive la cambrure la levrette Les pareurs de gens, les diamants, les pigeons à lunette Les pequenots, les tebês, les danseurs de techno Les fils de stup fumeur de NTP au tierno Baise la brigade des mines, pour les vendeurs de doublette Numéro de séries bien retapé, pour rouler ou pour taper On marche au 12 fafs ROH2F Baise France Télécom, y'a des faux biftons bien fait, des Yescard pour mettre le plein d'essance La France une chatte rasé, qui demande cas s'faire fourrer Je lui mets un xeu dans son verre quand elle est bourrée Tu pousses des altères? Y'a le pe-pom ! Seul mes poto se désaltèrent Mon rap te piétine la tête avec des crampons On t'laisse par terre qu'après un braquo qui a d'la joie Avec un 12 un paquet de 12 on fume un flic, parce quil qui avait pas l'chois ! You might also like Ewa, ROH2F Tu peux pas test ! Tu peux pas test man J-J-J-J-J-J-J-J-Jamais Okey! Ça fait longtemps qu'je suis pas partie en freestyle comme ça, hein, cogno Hassoul t'es pas mon pote J'te fume tu crapotes, tu sabotes Comme ton XXX j'te rabote donc ça m'botte Numéro 1 le son qui domine sur Paris Tu te prends pour Rohff t'as monté ta mafia kainri Quoi ? Les vers de terre veulent clash les boas ? Pull up Attend attend stop stop stop Remet remet Hey, vous savez, faire des freestyle ça me donne le fou rire Tu Comprends, Allez envoi la sauce tsika Rohff Cest tsika ROH2F, le flow qui met des oid Qui arrache le sol en bécane, en quad J'déboule avec mes kicks mes sners et mes sub What's up si tu crois que tu peux faire plus lourd suck my zeub Ici tu t'fais kaoter tes clients s'font carotter Si ton style c'était du coca y'aurai pas d'quoi roter Tu veux ressembler à la rue, la rue n'a pas tes traits Et si tu fais d'la chirurgie la rue t'refera l'portrait Tes potes en retrait, donne-moi mon rocks qui met un sef à X-or Balance son GSX-R voilà l'sponsor bien vi-ser A quoi bon sert de faire du free fight, jujitsu Quand l'canon t'observe tu t'chies dessus C'est l'niveau au-dessus dans la rap on est pas né égaux Parce que mon son s'la raconte j'me barre en égo, t'es qu'un faux négro On n'a pas la même frappe j'ai dépassé l'Concorde j'me démarque La Place Concorde j'casse le délire à l'arc 21 Juin dans les bacs, La Fierté Des Notres Ça va être la fête de la musique ! Le 21 juin, aight MC, j'suis sur tes côtes, comme quand j'traque un cafard Me demande rien, j'aime pas me justifier, j'suis peu bavard Big up aux taulards qui sortent du mitard Ouai gros Fais péter l'poste par la fenêtre Augmente la basse, rappeur, discute pas les ordres du boss Vitry en force, bêtes féroces, crapuleuses allures J'viens là en cross, met des tartes, rentre ta caisse dans l'mur Flip sur la conduite, j'pilote, fais pas la chochotte Trop de fuites sur le siège chauffant, faudra installer tes chiottes Toujours ces fumiers de porcs pour t'humilier Braquer, lever le capot, jaloux de voir des négros-bicots briller On s'démerde, le hall, local, on squatte, gros Langage local, surchauffe le bitume, Air Max Quattro Tellement d'nerfs qu'au ste-po on s'tape avec les menottes Tellement fiers qu'au resto on s'tape pour payer la note Naturellement vrai, pour ça que les vrais me supportent, m'escortent Si ça tire, quand y'en a un qui tombe, on le porte Solidaire, les reins solides, insolent Solitaire dans un bolide, un son lourd, la rime insolite Un son militaire, moi j't'encule pour long-time Rassasier les loubards d'tout-par comme au snack-time J'ai qu'une parole et un manche, l'un est ferme, l'autre d'acier Dans l'rap y'a plein de merguez poto on a les dossiers Shrab tu pèses ? Pour nous t'es qu'une grosse merde On attend juste qu't'ouvres tes fesses pour venir pousser la merde Faites du bruit ! Aaahhhh ! 9.4 DJ Mosko Donne-moi un son qui donne envie au voyou d'mettre la cagoule Au zoulou d'metre un bandana, au tass de rouler leurs boules Pour nos petites reuss' qui défonce des bonhomme, respecter dans la tess, les p'tites fesses qui lache des grosses caisses Comme un CRS on t'agresse, ghetto youth qui progresse, sollicité comme Vergès, lâche la cesse T'es d'la baise, wesh labess?, c'est la hausse ou la baisse Les taros, c'est paros, comme un détenu a la douche qu'à l'barreau Vol à la tire, les mecs tirent sans capote, tirent sans les gans Touche les eins en te draguant, t'tir les cheveux en te braquant Mon flow est craquant Rohff, D. Express Déboulent au concert en Express, trop ghetto et l'pire ? On l'fait pas exprès ! Y parle de qui au Talkie ? Ta meuf elle regarde qui ? T'allumes ta radio y'a qui ? Sur le toit de ta tour encore qui ? Rohff ceci, Rohff cela Rohff par-ci, fermes tes fesses, j'arrive par-là, c'est l'helalala Le 21 juin poto c'est l' helalala Tout le monde ! La Fierté Des Nôtres poto c'est l' helalala Assis sur l'arc de triomphe c'est l' helalala Que tu sois là ou pas là gros c'est helalala Faites du bruit, fais du bruit Toujours la gera Lalbum dRoh2f, tu peux pas tester ! J-J-J-J-J-J-J-J-Jamais! Salim du 9.4, ma gueule! Je connais le succès au point d'me faire sucer au poste Les flics veulent des autographes et ta meuf m'accoste, qui l'aurait cru? Tu fais semblant de n'pas m'avoir vu On mvoit de loin comme la tour Eiffel, j'incarne la rue J'ai quitté l'bled avec un gros ventre tout rikiki Mon père c'est pas monsieur Drummond Comment j'enviais la belle vie d'Ricky J'ai pas été un enfant gâté, on m'a traité d'enfant raté Plutôt tendance à voir les choses gâtées, ma vie piratée Jsuis pas une brute, faut qu'on ampute mon nerf Avant qu'j'te butte, ça bouillonne ma tête, c'est une cocotte-minute Je forcerai personne à m'aimer ou m'estimer Pour les bâtards qui sont jaloux de cque Dieu m'a prédestiné Essaye jamais d'me sous-estimer, c'est toi ou moi sur la civière Toujours les mêmes histoires, ta famille pleure des rivières Après l'cimetière, la vie continue Ils finiront par s'y faire mais j'en serai pas si fier Car terminer la vie de vedette, la gloire, les coups bêtes Les groupies en levrette, les croupes tsika ROH2F La cavale ou la perpette à m'torturer l'zboub A m'faire gazer au mitard ou à chanter dans les lifer's groups Si t'as quelque chose à t'reprocher, c'est qu'il va t'arriver malheur Comme la mort on noublie personne, on passe à n'importe quelle heure Tous des killers, tout le monde veut t'marcher dessus Tout le monde veut te doubler Pas question de te-trai, j'te tire par derrière, histoire d'pas t'louper A bout portant ! Un mec cool mais hardcore au moment opportun On sautorise le port d'arme, de la rue on est l'portrait MC bats en retrait Génération flinguée d'la cervelle à bout portant Un mec cool mais hardcore au moment opportun On sautorise le port d'arme, de la rue on est l'portrait MC bats en retrait On use nos couilles à charbonner, à niquer et cracher dans l'vent En attendant la mère d'nos enfants Comme dans Aniki, mon frère, on est là pour représenter Pour te montrer ce que j'ai dans le ventre, j'irai jusqu'à m'éventrer Avant qu'on creuse mon trou à coup d'pioche, faut que j'empoche Que personne m'fasse de reproches Même mes proches me connaissent pas entièrement Viens pas m'sucer la bite, le jour d'mon enterrement, un évènement J'regarde toujours derrière même quand une fouffe me masse Jsuis jeune, bonne carrière mais comme Aaliyah aux Bahamas J'peux mourir subitement Allah Yarlem J'espère qu'j'ai pas vécu tout ce temps pour mourir bêtement Un p'tit comorien qui s'oppose à l'état Parce qu'ils ont mis notre histoire enceinte Assiste à l'accouchement à travers les enceintes Mon destin sans répit, j'ai grandi vite comme un p'tit pit Pour vous traumatiser, pour t'courser jusqu'à l'impasse pour t'rouler dessus En marche avant arrière comme au fer à repasser Jaloux, j'me mets à ta place, c'est normal Un p'tit renoi parti du plus bas puis monté pour faire très mal J'ai trop souffert pour oublier, j'vais t'plier ton bouclier Fallait bien qu'il y ait quelqu'un pour t'humilier A des milliers d'kilomètres d'écriture Tu peux m'remonter aux traces de sang ancrées de cris durs On trace notre passé aux points d'suture Dus aux coups durs, c'est d'la haute couture sur du papier J'te surine la tête au stylo tah Nicky Santoro Une fois qu't'es hors page, j'te piétine comme une équipe de cent taureaux Que des billets d'cent euros ou 500 Et j'termine mon couplet avec les mains plein de sang ROH2F Aaaaaaaaaaaaaaaaaaaaaaaaaaaaahhhh ROH2F Kamelancien, Mista Flow, 94 Ouai gros t'inquiète Eh il va mettre tous l'monde daccord Le 9.4, 30 minutes Dédicacé à toutes les équipes de Paris Du jamais vu en France Jusqu'à Marseille ROHF2F, Kamelancien, Mista Flow Lille Les jeunes montent leur patrimoine avec des outils et d'la one Chargent une porteuse en Espagne Prêt à défourailler à la douane avec les Espinguoins C'est le son des kalashs, des lance-roquettes, des raboins Qui braquent ton S3 pour tracer à la conquête des gros sous sur ce gros son Tu peux fêter ton milliard sachant pertinemment qu'on se fait péter tôt ou tard La B.R.B. bosse, t'laisse enchaîné pour mieux t'niquer Réseaux démantelés, sommes faramineuses inexpliquées Faut pas être trop gourmand, savoir s'passer du dessert Sous-estime jamais la rapacité d'l'adversaire, investis dans la pierre On veut c'qui est rentable, confortable, histoire de s'évader En Audi S, GPS et ce putain de DVD On veut s'vernir sans s'graisser les pattes Quand les keufs descendent qu'y ait pas un chat Tous au ski ou à Cuba à la pacha Fructifie notre pouvoir d'achat, nos paradis fiscaux J'casque trop d'impôts J'suis Vitriot pas Monégasque Donne-nous un tuyau à la méthode basque On t'raquette, on t'séquestre, si on estime que t'as trop de cash, on t'filoche Si t'es plein d'oursins dans les poches Malsain comme le monde de la nuit, la coke ou l'crack Ou nourrir sa famille avec de l'argent crade Pour ceux qui vivent la folie des grandeurs Au-dessus de leurs moyens, pour l'paraître Rien dans l'frigo, roule en guez ou en doublette, wesh poto Y'a des faux biftons, des michtons Qui s'font casser par des émirs pour des bijoux, sacs Vuitton Rohff, faites du bruit Pourquoi ai-je si mal au ventre, moi qui m'vante d'être un bonhomme dur Pourquoi ai-je si froid quand il vente, quelque chose me torture Me bouffe l'oxygène, plus d'appétit quand j'déjeune P'tit à p'tit j'ressens les coups comme si j'étais plus jeune J'sais plus où m'mettre, dois-je admettre être affaiblis Caché entre les lignes de ma lettre Perçois mon mal-être, en cette lettre Douleur atroce, j'perds mes forces, j'craque tellement j'suis croc Entrain d'craquer, j'tire une tête de croque-mort L'amour m'a drogué, le cur pourtant anesthésié Elle a trouvé le nerf vivant Overdosé mon cur un mort vivant J'voulais faire bien pour changer M'éloigné des dangers, comme un voyou se ranger Rongé par l'passé, triste vécu J'révais d'affection, d'protection, pour m'sentir en sécu Blasé par la routine qui m'use, blasé par les boites de nuits Toujours assis quand tu t'amuses, fatigué des mauvais news Les fantômes du passé me traquent comme un schlag Sorti de cure, à qui on propose du crack, faut pas qu'j'craque J'moisis pas en prison, mais j'cohabite avec la poisse Mon passé braque mon présent, le futur bloqué dans l'sas Ressasse les souvenirs, les bons les mauvais délires Recyclé en B.E.P car j'ressemble à mon avenir Pendant qu'j'explose de rire tu peux compter mes chicots On m'a dit reste comme ça, c'est toi c'est l'charme du ghetto Si j'avais pas vécu ici j'aurais été quelqu'un d'autre Si j'avais pas manqué mon père j'aurais fait beaucoup moins d'fautes Mais avec des si, on coupe du bois crois-moi J'ai d'quoi raser lAmazonie, moi, Mkouboi Housni Chacun sa notion d'la vie, ses passages à vide Chacun ses intérêts, ses poches vides Que Dieu nous guide Que dieu nous guide Entre croyants et non-croyants Ouai Gros Comme un dépend entre voyants et non-voyants, mais voyons Toutes les té-cis veulent s'en sortir comme Sami Nasri Marqué à vie, j'compte plus les rayures sur ma carrosserie Les fantômes du passé me traquent comme un schlag Sorti de cure, à qui on propose du crack, faut pas qu'j'craque Remue par l'couteau dans la plaie, quand j'perds tout mon sang Le regard perçant, quand tu me vois, tu l'ressens Tu l'ressent Wesh !... Ouai gros ! Rohff, DJ Mosko, Kamelancien, Mista Flow, La Fierté Des Nôtres Lalbum, le 21 Juin Famille ou amis j'sais plus à qui m'fier Mon existence est regrettée pour une grande vie sacrifiée Les mots dépassent les pensées On en vient à en découdre Parce qu'on sème la haine, périme aussi vite qu'un coup d'foudre On s'efforce de résoudre les problèmes On redoute qu'ils reviennent Telle une césarienne qui s'ré-ouvre, qui faut recoudre Seul au monde, surtout quand la nuit tombe J'prends l'périph' pour rien Essaye en vain d'joindre mes potes sur messagerie J'sors à la première porte J'reviens sur mes pas Pourquoi c'qu'on donne on l'reçoit pas ? Déteste moi pour c'que j'suis, ne m'aime pas pour c'que j'aspire pas à être J'suis d'jà vieux avant l'âge, j'suis fuck dans l'stress J'attends même plus qu'un proche s'arrête pour qu'j'sois en feu d'détresse La sécheresse dans mes yeux, j'voile ma tristesse, silencieux Jintériorise mes déceptions J'ai pas baigné dans l'affection Mon cur sous compte à rebours Ça peut sauter d'ici demain J'suis humain J'partage mon coeur comme du pain Rohff, dédicace à Ideal J, Kery James, Teddy Corona L'amour m'a refoulé depuis le jour de ma naissance Du bled à la France, mon enfance n'est que suite de malchances J'ai pris conscience que mon expérience féconde mon espoir Mon bref passage dans ce monde se doit de frapper l'histoire Chaque seconde me sont comptées, moi j'ai pas le droit de m'effondrer Moi j'ai pas le choix, ma destinée n'est que d'affronter Comprends pourquoi je fais pas de sentiments Pourquoi j'ai pas envie de te sourire et ni de te parler gentiment Le regard froid, meurtri, glacé de déceptions Donne l'impression de mépris car je ne maîtrise pas son action Aveuglé par le brouillard de la malédiction Je ressens le besoin d'ameubler ce désert d'affection L'état du paysage atteint mon personnage Le résumé de ma vie, en flash, déteint sur mon visage J'ai la rage, la fureur de vaincre l'invincible Faut que j'accède à l'inaccessible, ce que le système a pour cible Compréhensible, quand le bonheur n'a fait que t'effleurer Ma mère a trop pleuré, car dans les rangs je me suis trop leurré J'ai été élevé par les larmes, les cris, les coups, les drames Je me suis relevé car ça n'a fait que rendurcir mon âme Un vrai bonhomme qui encaisse est un mur La lame de la misère ne peut percer mon armure Ni le charme d'une femme, actrice du vice Complice du haram, il faut que je me repentisse Sinon je crame dans les flammes Intouchable Clique, Dry, Demon One Tu peux pas test gros ! Poto On continu sur SkyRohff Freestyle racaille danthologie Tu crois que jai fini hhmm Non, je pourrais rapper même 24 heures Tiens celle-là j'l'est écris t'a leur vas-y J'ai pas encore tchec le mic qu'on me dit Rohff putain t'abuse D'avoir assassiné tel et tel rappeur on m'accuse C'est nous la rue, la ruse, plus l'temps de galérer faire mumus Pour ceux qui s'esquive pas quand déboule les freres Mus Pour mes ex-crapule gros barbeur, trapu en débardeur Devenu barbu par peur du créateur Salam aux surs qui lâchent pas le hijab, sous la canicule Super mignonne, même si Tes charmant même pas elle t'calcule Ex-professionnel des brushings tah les pubs de shampoing shel Malaisienne, arabia, européenne ou khel Les mariages halals, les belles mères toujours dans le camp du ri-ma Pas les michetonneuses qui se la racontent en tur-voi sur ri-pa Qui manipule des mecs affaiblies, qui cogite comme des meufs Se barre en sucette même leurs reufs deviennent des keufs Tellement impatient ça rott-ca pour 1 kilo Y'a plus d'chaud tu te fais tirer dessus braquer au culot A l'arme blanche arme à double tranchant Ça peut t'sauver la vie ou t'la gâcher, souvent les 2 en même temps Donc fait gaffe une cavale ça coute plus cher qu'une fouf Ghetto Faf, t'es pas habituer à la vie du bled tu deviens ouf Tu reviens t'faire fumer dans un endroit isolé Corps trouer et seule et après ton prénom on dira Allah Yahmou d'un air désolé Poto faut apprendre à t'contrôler, ouai gros c'est l'ghetto, j'vais pas extrapoler C'est plein d'gens inhumain sans foie, ni loi, qui tue impunément Qui ont un cimetière derrière avec qui on vit communément Plein d'chacal 3afrit et d'pince, au point d'cotiser pour une barquette de frite et rester mince Au commissariat extirpent leurs poigner des pinces, qui viennent pas pour le match mais pour goumer les skins au Parc des Princes On a d'quoi t'recevoir, et cela dès ce soir, t'inquiet rappeur, on va pas te décevoir Dit au bonhomme qu'on n'tir qu'une fois parce que d'une on est économe et 2 on n'vie qu'une fois Wesh, ewa, faites du bruit K1 Fry Mafia Aaaaahhhhh, ROH2F Cest Husni, ewa, ichiya A quoi bon sert d'avoir un schlass si tu schlasses pas Un brolique si tu tires pas Une équipe si elle bouge pas Un savon si tu t'douches pas Une meuf si elle couche pas A quoi bon sert de défourailler un keuf si tu l'couches pas Ça sert à rien d'être musclé menacé au chinef A quoi bon sert d'vendre des barrettes si tu fumes tout l'bénef' A quoi bon sert d'être un mec de Vitry si tu braques pas, dragues pas, rappes pas, met pas d'hazbas Avoir un écran plasma, ouais, si t'as pas l'câble hein A quoi sert l'hiver ? Faire des sous et l'été, rouler en cab Pourquoi jouer l'fou si t'assumes pas l'personnage La hagla c'est mal payer comme une femme de ménage Tapis d'prière, une Kalash plus que motivé Ça sert à quoi d'vivre ? Ça sert à crever ! Ça sert à quoi d'm'appeller Rohff ? Ça sert à tout niquer, t'mettre au piquet Sans mettre le paquet Non mais tu te prends pour qui ? Ne m'demande pas porqué c'est Gratuit Tu sais c'est qui l'boss aujourdhui J'en ai fait pour m'faire embarquer, j'gaz même au parquet J'trahis personne, j'suis pati voir XXX, ok J't'avouerais qu'on a d'quoi faire la guerre Ce qui nous manque c'est juste les chars, les hélicoptères et un reporter Un briquet qui et un peu dessence et tu deviens lhomme de feu Tu veux un verre d'eau manque de pot, la météo a dit qu'il aller faire beau Ouai 100 ghetto Ouai !!! Wesh le 9.4 faut qu'sa cris sa mère là ouai Une spéciale pour les viré nocturne Rohff Vas-y dit leur poto, Ok gros Tu pourras jamais tester J-J-J-J-J-J-J-J-Jamais J-J-J-J-J-J-J-J-Jamais, ewa N'est pas la haine Vas-y, poto Compte 2 - 3 - 4 Catastrohff contre-attaque Hamdoullah j'suis du 9.4, j'déménage pas pour garder les plaque Goute mes claques 9.4 9.4, c'est pas la même puissance de frappe, des putain d'flow en vrac Mes Mcs, on va tous les frappe jusqu'a la mort Quand j'rap, tu m'chouf comme quand j'te braque Ton rap hardcore s'fait découper comme un G.I. en Irak Tes qu'une pute qui rappe, tu sautes comme une puce qui râle, j'vais t'apprendre à pe-ra Ta cru qu't'aller faire quoi avec ton flow tout pérave Haha, des barres, fait péter mon son barbare Dans ton bar ou d'en ton barbac On compte pas sur les air-bague demande à 'Lito On arrive vers l'avenir en faisant des tonneaux, c'est flow du loto, 100 ghetto Mehlish si j'perds mes cheveux, j'sais ce que je veux, j'sais que je vaux Je suis en 450 et 600 chevaux, poto C'est mon été, l'arc de triomphe, cest mon idée Sans respect j'vais trop loin, en plus je peux plus m'arrêter J'rappe pas pour les tunes tu sens qu'j'suis u passionner Quand l'bitume prend le mic ce n'est que pour t'impressionner Laisse faire on va t'sonner Questionner par les journalistes, les puristes, les lyricistes, j'suis trop déchainer Ouai gros J'fais du mal à la concurrence, ils ont la haine Comme Bush qui a les larmes aux yeux quand il pense à Ben Laden ! Personne ne bouge tout l'monde s'faire descendre... Aaahhhhhh Dédicacer à tous les mecs dOrly Sur s'couplet faut qu'sa Paro tinquiète pas ROH2F Attend, attend, écoute ça J'suis l'meilleur et j'te baise et j'suis sûr de moi Tes comme une tas-pé, tes en sang sur moi Tu t'prends la tête sur moi, ben ta raison y'a pas d'comparaison Mon public est plus large que ta vision d'l'horizon Le son qui tourne en prison, dans ta voiture, j'arrive du futur L'imposture, tas cru m'mettre de mauvaise posture J'suis l'pointeur de rappeur hardcore, j'me confesse Je leur fais l'coup du mic dès qu'il s'baisse j'lui prends les fesses Par reflex, j'suis en mode hagra T'inquiète pour faire mes tunes j'trouverais un prétexte Ewa Dans ma planque, j'ai plein d'calibre dans un d'mes textes J'ai tout niqué, la musique, le cinéma et le textile Même ton immobilier j'y ai entretenir et c'est styler Des bâtiments, des travaux, comme Florent Pagny, je mentirais Aux impôts, je leur dirais mampani Je leur mettrais la banane de King Kong avant d'me tirer, en charmante compagnie O.P, over dopé, over booker, j'me fait rare comme un chinois qui invite à zouker Qui tas demandé envier la vie d'mecs de cité ? Petite bourgeoise qui s'inspire d'notre malheur par nécessité T'écarte tes jambe au rap français, c'est pas dans l'ascenseur qu't'as sucer Cest dans l'caméscope que j' tai vu t'faire défoncer Fuck tous ceux qui veulent clash avec ton boss Rohff, cache ton torse, remballe tes os c'est 94 fil conducteur Je suis éditeur-producteur Protège ta fouf ou on lui pète ses adducteurs J'ai mes tireurs, conducteurs Ewa Faites du bruit Ya pas de draame, j'ai des me-ars qui font se bruit là braa On arrive flow énervé en Cayenne Turbo, intérieur crème Tiss-mé continue à regarder Turbo Rohff Tu crois que tas la côte parce que tu es beau, tête de bite Tu te fais michetonner comme un footballeur au bico ou au VIP Ewa, aight, wesh Manu Key, bientôt le double-album de Manu Key La Fierté Des Nôtres, et je vous rappelle, lalbum de RimK Tonton dans les bacs Enfant du pays , Offishal 113, Intouchable qui arrive bientôt, Carlito, Big Nas C'est du lourd, Mafia K1 Fry La Cerise Sur Le Ghetto , Mista Flow Street Lourd Party DJ Mosko, DJ Corona tsika Kamelancien Pour les gros et les petit storses 94 Cagoulés à la FLN Corse, 94 S'tapent même avec une entorse, 94 Sais que l'union fait la force, 94 Tension et rapports de force, 94 Armes blanches, monnaie fausse, 94 Charge d'un rhinocéros, 94 Roue arrière en CBR beau gosse, 94 Roh2F J'ai commencé mes crocs a vil A la maison de la jeunesse de ma ville Devant toute la cité un peu timide de profil Mon style n'as pas de sosie, pour moi c'est easy La valse des balles vocales, la poésie du uzi Je veut mes tunes, après faudra recoudre le bitume Mon hardcore t'entube et ta mère danse sur mes tubes Je suis dans le collimateur, des R.G., des rappeurs Qui font que répéter ce que j'ai dit dans le code de l'honneur Comme un versus tu déconne, c'est pas Raffarin que t'écoute C'est Arafat, la Rohff-rafale dans tes cotes C'est pas du rap de shit, je écris sans alcool Je snif pas de coke ni de colle je kick mon crack et tu décolle Flow sans bacon, l'approche qui détonne Des rimes je t'en tire des tonnes Je monte, bloqué sur scène comme à Compton C'est roots comme à Kingston Je dose comme Capleton C'est housni XXX Ewa change change change Vas-y ste plait laisse un dernier juste un dernier Vasy envoi, envoi, envoi Un dernier un dernier les gars Ouai gros, 94 J'suis sûr ils attendent un dernier Vas-y envoi, envoi 94 Aaaaaaaaahhhhhh Ouai gros, comme d'hab' le meilleur pour la fin Un son d'guerrier tsika ROH2F 21 Juin, 94, La Fierté Des Nôtres, dans les bacs Le rap français on l'matte Depuis l'époque où je bicravais mes barrettes à la fac de Tolbiac Motherfucker, ça se fait ap Comme la façon de tuer un phoque à coups de battes, matraques Comme le décès du cher Yacine, Allah y Lahmou Je pense à lui quand je vois le petit Djilali en fauteuil roulant Je t'allume en déboulant, arrêt cardiaque en courant Tu te feras pisser dessus en mourant Affolant au mic comme au volant Mon son un monstre violent Je terrorise tes petites putes, tes violons Je rappe en te violant, je dis pas ça en rigolant Sur ma tête y'a pas de collant A mort la zouletterie Mon hardcore fait peur comme une Porsche dans Vitry Gardez vos fleurs je vous en prie Là c'est pas un accident, ton flow à le SIDA Ça pousse des cris stridents C'est tsika monsieur Rohff qui est en train de baiser l'occident C'est toujours l'heure de découper Sauf au Ramadan ces petits pds de condés entament leurs rondes à l'heure de couper Compte sur moi pour pas te louper Je vais exploser un de ces quatre En éclatant un grec piégé au C-4 Je suis beau comme mon 44 J'ai remis mon trois quart Je compte plus mes bagarres, ce soir j'ai bouffé du quatre quart, du calcaire Donc le jaloux qui frime périra Faut pas cracher dans la hariha Flow, beat, turbo 4 sorties de pot en inox, Carrera Carrément c'est zehab comme d'hab donc j'arrive du kahab C'est Housni comme disent mes arabes ou mes shab J'ai commencé à rapper dans une cave avec mon poto Démon dans la crise Sous skunk, 8.6 On démonte tous les MC's, incendie les LS10 La calvit' à 26 Je fais pas les choses à moitié Je tourne en 4x4 pas en Avensis On a tous des guns qui partent de la ceinture à la couille gauche C'est le far west On a tous des sales gueules, c'est pour ça qu'on se déteste C'est banal comme se faire bastosser le crâne au feu rouge pour une banane Pas question d'argent mais de principes, c'est normal C'est plein d'animaux dans le rap, plein de faux durs Je reviens de la chasse, Brigitte Bardot pleure pas prends cette fourrure Tu peux rapper ta mère, tirer ta mère, être balaise ta mère On te niquera quand même ta mère ! C'est vulgaire et alors ?! Comparé aux bâtards qu'il y a dans ce monde je suis un mec en or Shoot dans le ballon d'or du hardcore J'veux pas de médaille ni de dan Je mets tout le monde d'accord comme Jordan, Zidane, Superman Je suis la bombe humaine aaaah Au micro j'ai la gaule je suis mécra Si t'attends le refrain y'en a pas Mais y'a une sirène vers la fin petit bâtard va Y'a pas de thème, flow de teigne Pas de je t'aime Y'a que du son et du sang qui coulent en fontaine C'est du lourd pour ceux qui ont pris une lourde peine Dis aux rappeurs que tout se mérite, même de passer la trentaine V'là ce que je leur mettrais dans leurs tempes ça me tente J'ai l'index qui me démange, j'ai envie de doigter la détente Déclasser mon son qui t'accompagne quand tu déboites dans les virages Musique de fond des règlements de compte et de lengrenage A toute âge, toute rage, toute forme d'outrage Je fais sourire la haine comme à lheure du partage ou de faire son paquetage Hey yo écoute ma putain de démo La preuve qu'on peut enlever la vie d'un homme rien qu'avec des mots De la old school aux nouveaux Je m'en bas les yeuk, t'es pas de mon niveau T'es pile poil à la hauteur de ma euque Jépargnerais peut-être les petites meufs comme Diam's Sinon je les baise tous Venus, Serena, Robbie, Pharrel Williams Handek' les yeux rien que ça brille Ta carrière en train de sombrer, se faire marbrer, calibrer, sabrer T'es ridicule, comme Dragon Ball avec du recul Le ghetto voit que t'es un mytho comme Hercule J'ai fait un double album parce que je suis un gogole qui s'ennuie Ça fuse dans mon esprit un tour de plus sur le circuit Faites du bruit Aaaaaaaaaaahhhhhhhhhh Ben alors ! 94 ! Stoppez, juste 2 seconde ! Alors, je lai fait ou quoi ? Alors, il la fait, du bruit pour Rohff2</t>
+          <t>ROH2F, La Fierté Des Nôtres Préparez les k-7, les cd vierges Soldat Comorien, Ewa K1 Fry Mafia Léquipe dont il faut se méfier Ouais, viens pas tester J-J-J-J-J-J-J-J-Jamais ROHFF, Catastastrohff Tu peux pas test gros 21 Juin Fierté des Nôtres Prend mon entrée comme un coup d'blaf', m'prend pas pour un blarf Si Tes pas d'chez nous t'étonne pas qu't'as perdu ton larf' On roule sans assurance ni carte grise On a l'permis d'baiser la France, c'est l'agence tout risque, on rêve de braquer le FISC Défouraille les Barracuda, on est là, pour en découdre, coude à coude, on gagne sur un coup bas A la bouche un cigare d'Cuba, on s'affiche pas, danse pas la rumba On pense quà rentrer les ronds, à ronfler après avoir romba On casse les dos ronds, vive la cambrure la levrette Les pareurs de gens, les diamants, les pigeons à lunette Les pequenots, les tebês, les danseurs de techno Les fils de stup fumeur de NTP au tierno Baise la brigade des mines, pour les vendeurs de doublette Numéro de séries bien retapé, pour rouler ou pour taper On marche au 12 fafs ROH2F Baise France Télécom, y'a des faux biftons bien fait, des Yescard pour mettre le plein d'essance La France une chatte rasé, qui demande cas s'faire fourrer Je lui mets un xeu dans son verre quand elle est bourrée Tu pousses des altères? Y'a le pe-pom ! Seul mes poto se désaltèrent Mon rap te piétine la tête avec des crampons On t'laisse par terre qu'après un braquo qui a d'la joie Avec un 12 un paquet de 12 on fume un flic, parce quil qui avait pas l'chois ! Ewa, ROH2F Tu peux pas test ! Tu peux pas test man J-J-J-J-J-J-J-J-Jamais Okey! Ça fait longtemps qu'je suis pas partie en freestyle comme ça, hein, cogno Hassoul t'es pas mon pote J'te fume tu crapotes, tu sabotes Comme ton XXX j'te rabote donc ça m'botte Numéro 1 le son qui domine sur Paris Tu te prends pour Rohff t'as monté ta mafia kainri Quoi ? Les vers de terre veulent clash les boas ? Pull up Attend attend stop stop stop Remet remet Hey, vous savez, faire des freestyle ça me donne le fou rire Tu Comprends, Allez envoi la sauce tsika Rohff Cest tsika ROH2F, le flow qui met des oid Qui arrache le sol en bécane, en quad J'déboule avec mes kicks mes sners et mes sub What's up si tu crois que tu peux faire plus lourd suck my zeub Ici tu t'fais kaoter tes clients s'font carotter Si ton style c'était du coca y'aurai pas d'quoi roter Tu veux ressembler à la rue, la rue n'a pas tes traits Et si tu fais d'la chirurgie la rue t'refera l'portrait Tes potes en retrait, donne-moi mon rocks qui met un sef à X-or Balance son GSX-R voilà l'sponsor bien vi-ser A quoi bon sert de faire du free fight, jujitsu Quand l'canon t'observe tu t'chies dessus C'est l'niveau au-dessus dans la rap on est pas né égaux Parce que mon son s'la raconte j'me barre en égo, t'es qu'un faux négro On n'a pas la même frappe j'ai dépassé l'Concorde j'me démarque La Place Concorde j'casse le délire à l'arc 21 Juin dans les bacs, La Fierté Des Notres Ça va être la fête de la musique ! Le 21 juin, aight MC, j'suis sur tes côtes, comme quand j'traque un cafard Me demande rien, j'aime pas me justifier, j'suis peu bavard Big up aux taulards qui sortent du mitard Ouai gros Fais péter l'poste par la fenêtre Augmente la basse, rappeur, discute pas les ordres du boss Vitry en force, bêtes féroces, crapuleuses allures J'viens là en cross, met des tartes, rentre ta caisse dans l'mur Flip sur la conduite, j'pilote, fais pas la chochotte Trop de fuites sur le siège chauffant, faudra installer tes chiottes Toujours ces fumiers de porcs pour t'humilier Braquer, lever le capot, jaloux de voir des négros-bicots briller On s'démerde, le hall, local, on squatte, gros Langage local, surchauffe le bitume, Air Max Quattro Tellement d'nerfs qu'au ste-po on s'tape avec les menottes Tellement fiers qu'au resto on s'tape pour payer la note Naturellement vrai, pour ça que les vrais me supportent, m'escortent Si ça tire, quand y'en a un qui tombe, on le porte Solidaire, les reins solides, insolent Solitaire dans un bolide, un son lourd, la rime insolite Un son militaire, moi j't'encule pour long-time Rassasier les loubards d'tout-par comme au snack-time J'ai qu'une parole et un manche, l'un est ferme, l'autre d'acier Dans l'rap y'a plein de merguez poto on a les dossiers Shrab tu pèses ? Pour nous t'es qu'une grosse merde On attend juste qu't'ouvres tes fesses pour venir pousser la merde Faites du bruit ! Aaahhhh ! 9.4 DJ Mosko Donne-moi un son qui donne envie au voyou d'mettre la cagoule Au zoulou d'metre un bandana, au tass de rouler leurs boules Pour nos petites reuss' qui défonce des bonhomme, respecter dans la tess, les p'tites fesses qui lache des grosses caisses Comme un CRS on t'agresse, ghetto youth qui progresse, sollicité comme Vergès, lâche la cesse T'es d'la baise, wesh labess?, c'est la hausse ou la baisse Les taros, c'est paros, comme un détenu a la douche qu'à l'barreau Vol à la tire, les mecs tirent sans capote, tirent sans les gans Touche les eins en te draguant, t'tir les cheveux en te braquant Mon flow est craquant Rohff, D. Express Déboulent au concert en Express, trop ghetto et l'pire ? On l'fait pas exprès ! Y parle de qui au Talkie ? Ta meuf elle regarde qui ? T'allumes ta radio y'a qui ? Sur le toit de ta tour encore qui ? Rohff ceci, Rohff cela Rohff par-ci, fermes tes fesses, j'arrive par-là, c'est l'helalala Le 21 juin poto c'est l' helalala Tout le monde ! La Fierté Des Nôtres poto c'est l' helalala Assis sur l'arc de triomphe c'est l' helalala Que tu sois là ou pas là gros c'est helalala Faites du bruit, fais du bruit Toujours la gera Lalbum dRoh2f, tu peux pas tester ! J-J-J-J-J-J-J-J-Jamais! Salim du 9.4, ma gueule! Je connais le succès au point d'me faire sucer au poste Les flics veulent des autographes et ta meuf m'accoste, qui l'aurait cru? Tu fais semblant de n'pas m'avoir vu On mvoit de loin comme la tour Eiffel, j'incarne la rue J'ai quitté l'bled avec un gros ventre tout rikiki Mon père c'est pas monsieur Drummond Comment j'enviais la belle vie d'Ricky J'ai pas été un enfant gâté, on m'a traité d'enfant raté Plutôt tendance à voir les choses gâtées, ma vie piratée Jsuis pas une brute, faut qu'on ampute mon nerf Avant qu'j'te butte, ça bouillonne ma tête, c'est une cocotte-minute Je forcerai personne à m'aimer ou m'estimer Pour les bâtards qui sont jaloux de cque Dieu m'a prédestiné Essaye jamais d'me sous-estimer, c'est toi ou moi sur la civière Toujours les mêmes histoires, ta famille pleure des rivières Après l'cimetière, la vie continue Ils finiront par s'y faire mais j'en serai pas si fier Car terminer la vie de vedette, la gloire, les coups bêtes Les groupies en levrette, les croupes tsika ROH2F La cavale ou la perpette à m'torturer l'zboub A m'faire gazer au mitard ou à chanter dans les lifer's groups Si t'as quelque chose à t'reprocher, c'est qu'il va t'arriver malheur Comme la mort on noublie personne, on passe à n'importe quelle heure Tous des killers, tout le monde veut t'marcher dessus Tout le monde veut te doubler Pas question de te-trai, j'te tire par derrière, histoire d'pas t'louper A bout portant ! Un mec cool mais hardcore au moment opportun On sautorise le port d'arme, de la rue on est l'portrait MC bats en retrait Génération flinguée d'la cervelle à bout portant Un mec cool mais hardcore au moment opportun On sautorise le port d'arme, de la rue on est l'portrait MC bats en retrait On use nos couilles à charbonner, à niquer et cracher dans l'vent En attendant la mère d'nos enfants Comme dans Aniki, mon frère, on est là pour représenter Pour te montrer ce que j'ai dans le ventre, j'irai jusqu'à m'éventrer Avant qu'on creuse mon trou à coup d'pioche, faut que j'empoche Que personne m'fasse de reproches Même mes proches me connaissent pas entièrement Viens pas m'sucer la bite, le jour d'mon enterrement, un évènement J'regarde toujours derrière même quand une fouffe me masse Jsuis jeune, bonne carrière mais comme Aaliyah aux Bahamas J'peux mourir subitement Allah Yarlem J'espère qu'j'ai pas vécu tout ce temps pour mourir bêtement Un p'tit comorien qui s'oppose à l'état Parce qu'ils ont mis notre histoire enceinte Assiste à l'accouchement à travers les enceintes Mon destin sans répit, j'ai grandi vite comme un p'tit pit Pour vous traumatiser, pour t'courser jusqu'à l'impasse pour t'rouler dessus En marche avant arrière comme au fer à repasser Jaloux, j'me mets à ta place, c'est normal Un p'tit renoi parti du plus bas puis monté pour faire très mal J'ai trop souffert pour oublier, j'vais t'plier ton bouclier Fallait bien qu'il y ait quelqu'un pour t'humilier A des milliers d'kilomètres d'écriture Tu peux m'remonter aux traces de sang ancrées de cris durs On trace notre passé aux points d'suture Dus aux coups durs, c'est d'la haute couture sur du papier J'te surine la tête au stylo tah Nicky Santoro Une fois qu't'es hors page, j'te piétine comme une équipe de cent taureaux Que des billets d'cent euros ou 500 Et j'termine mon couplet avec les mains plein de sang ROH2F Aaaaaaaaaaaaaaaaaaaaaaaaaaaaahhhh ROH2F Kamelancien, Mista Flow, 94 Ouai gros t'inquiète Eh il va mettre tous l'monde daccord Le 9.4, 30 minutes Dédicacé à toutes les équipes de Paris Du jamais vu en France Jusqu'à Marseille ROHF2F, Kamelancien, Mista Flow Lille Les jeunes montent leur patrimoine avec des outils et d'la one Chargent une porteuse en Espagne Prêt à défourailler à la douane avec les Espinguoins C'est le son des kalashs, des lance-roquettes, des raboins Qui braquent ton S3 pour tracer à la conquête des gros sous sur ce gros son Tu peux fêter ton milliard sachant pertinemment qu'on se fait péter tôt ou tard La B.R.B. bosse, t'laisse enchaîné pour mieux t'niquer Réseaux démantelés, sommes faramineuses inexpliquées Faut pas être trop gourmand, savoir s'passer du dessert Sous-estime jamais la rapacité d'l'adversaire, investis dans la pierre On veut c'qui est rentable, confortable, histoire de s'évader En Audi S, GPS et ce putain de DVD On veut s'vernir sans s'graisser les pattes Quand les keufs descendent qu'y ait pas un chat Tous au ski ou à Cuba à la pacha Fructifie notre pouvoir d'achat, nos paradis fiscaux J'casque trop d'impôts J'suis Vitriot pas Monégasque Donne-nous un tuyau à la méthode basque On t'raquette, on t'séquestre, si on estime que t'as trop de cash, on t'filoche Si t'es plein d'oursins dans les poches Malsain comme le monde de la nuit, la coke ou l'crack Ou nourrir sa famille avec de l'argent crade Pour ceux qui vivent la folie des grandeurs Au-dessus de leurs moyens, pour l'paraître Rien dans l'frigo, roule en guez ou en doublette, wesh poto Y'a des faux biftons, des michtons Qui s'font casser par des émirs pour des bijoux, sacs Vuitton Rohff, faites du bruit Pourquoi ai-je si mal au ventre, moi qui m'vante d'être un bonhomme dur Pourquoi ai-je si froid quand il vente, quelque chose me torture Me bouffe l'oxygène, plus d'appétit quand j'déjeune P'tit à p'tit j'ressens les coups comme si j'étais plus jeune J'sais plus où m'mettre, dois-je admettre être affaiblis Caché entre les lignes de ma lettre Perçois mon mal-être, en cette lettre Douleur atroce, j'perds mes forces, j'craque tellement j'suis croc Entrain d'craquer, j'tire une tête de croque-mort L'amour m'a drogué, le cur pourtant anesthésié Elle a trouvé le nerf vivant Overdosé mon cur un mort vivant J'voulais faire bien pour changer M'éloigné des dangers, comme un voyou se ranger Rongé par l'passé, triste vécu J'révais d'affection, d'protection, pour m'sentir en sécu Blasé par la routine qui m'use, blasé par les boites de nuits Toujours assis quand tu t'amuses, fatigué des mauvais news Les fantômes du passé me traquent comme un schlag Sorti de cure, à qui on propose du crack, faut pas qu'j'craque J'moisis pas en prison, mais j'cohabite avec la poisse Mon passé braque mon présent, le futur bloqué dans l'sas Ressasse les souvenirs, les bons les mauvais délires Recyclé en B.E.P car j'ressemble à mon avenir Pendant qu'j'explose de rire tu peux compter mes chicots On m'a dit reste comme ça, c'est toi c'est l'charme du ghetto Si j'avais pas vécu ici j'aurais été quelqu'un d'autre Si j'avais pas manqué mon père j'aurais fait beaucoup moins d'fautes Mais avec des si, on coupe du bois crois-moi J'ai d'quoi raser lAmazonie, moi, Mkouboi Housni Chacun sa notion d'la vie, ses passages à vide Chacun ses intérêts, ses poches vides Que Dieu nous guide Que dieu nous guide Entre croyants et non-croyants Ouai Gros Comme un dépend entre voyants et non-voyants, mais voyons Toutes les té-cis veulent s'en sortir comme Sami Nasri Marqué à vie, j'compte plus les rayures sur ma carrosserie Les fantômes du passé me traquent comme un schlag Sorti de cure, à qui on propose du crack, faut pas qu'j'craque Remue par l'couteau dans la plaie, quand j'perds tout mon sang Le regard perçant, quand tu me vois, tu l'ressens Tu l'ressent Wesh !... Ouai gros ! Rohff, DJ Mosko, Kamelancien, Mista Flow, La Fierté Des Nôtres Lalbum, le 21 Juin Famille ou amis j'sais plus à qui m'fier Mon existence est regrettée pour une grande vie sacrifiée Les mots dépassent les pensées On en vient à en découdre Parce qu'on sème la haine, périme aussi vite qu'un coup d'foudre On s'efforce de résoudre les problèmes On redoute qu'ils reviennent Telle une césarienne qui s'ré-ouvre, qui faut recoudre Seul au monde, surtout quand la nuit tombe J'prends l'périph' pour rien Essaye en vain d'joindre mes potes sur messagerie J'sors à la première porte J'reviens sur mes pas Pourquoi c'qu'on donne on l'reçoit pas ? Déteste moi pour c'que j'suis, ne m'aime pas pour c'que j'aspire pas à être J'suis d'jà vieux avant l'âge, j'suis fuck dans l'stress J'attends même plus qu'un proche s'arrête pour qu'j'sois en feu d'détresse La sécheresse dans mes yeux, j'voile ma tristesse, silencieux Jintériorise mes déceptions J'ai pas baigné dans l'affection Mon cur sous compte à rebours Ça peut sauter d'ici demain J'suis humain J'partage mon coeur comme du pain Rohff, dédicace à Ideal J, Kery James, Teddy Corona L'amour m'a refoulé depuis le jour de ma naissance Du bled à la France, mon enfance n'est que suite de malchances J'ai pris conscience que mon expérience féconde mon espoir Mon bref passage dans ce monde se doit de frapper l'histoire Chaque seconde me sont comptées, moi j'ai pas le droit de m'effondrer Moi j'ai pas le choix, ma destinée n'est que d'affronter Comprends pourquoi je fais pas de sentiments Pourquoi j'ai pas envie de te sourire et ni de te parler gentiment Le regard froid, meurtri, glacé de déceptions Donne l'impression de mépris car je ne maîtrise pas son action Aveuglé par le brouillard de la malédiction Je ressens le besoin d'ameubler ce désert d'affection L'état du paysage atteint mon personnage Le résumé de ma vie, en flash, déteint sur mon visage J'ai la rage, la fureur de vaincre l'invincible Faut que j'accède à l'inaccessible, ce que le système a pour cible Compréhensible, quand le bonheur n'a fait que t'effleurer Ma mère a trop pleuré, car dans les rangs je me suis trop leurré J'ai été élevé par les larmes, les cris, les coups, les drames Je me suis relevé car ça n'a fait que rendurcir mon âme Un vrai bonhomme qui encaisse est un mur La lame de la misère ne peut percer mon armure Ni le charme d'une femme, actrice du vice Complice du haram, il faut que je me repentisse Sinon je crame dans les flammes Intouchable Clique, Dry, Demon One Tu peux pas test gros ! Poto On continu sur SkyRohff Freestyle racaille danthologie Tu crois que jai fini hhmm Non, je pourrais rapper même 24 heures Tiens celle-là j'l'est écris t'a leur vas-y J'ai pas encore tchec le mic qu'on me dit Rohff putain t'abuse D'avoir assassiné tel et tel rappeur on m'accuse C'est nous la rue, la ruse, plus l'temps de galérer faire mumus Pour ceux qui s'esquive pas quand déboule les freres Mus Pour mes ex-crapule gros barbeur, trapu en débardeur Devenu barbu par peur du créateur Salam aux surs qui lâchent pas le hijab, sous la canicule Super mignonne, même si Tes charmant même pas elle t'calcule Ex-professionnel des brushings tah les pubs de shampoing shel Malaisienne, arabia, européenne ou khel Les mariages halals, les belles mères toujours dans le camp du ri-ma Pas les michetonneuses qui se la racontent en tur-voi sur ri-pa Qui manipule des mecs affaiblies, qui cogite comme des meufs Se barre en sucette même leurs reufs deviennent des keufs Tellement impatient ça rott-ca pour 1 kilo Y'a plus d'chaud tu te fais tirer dessus braquer au culot A l'arme blanche arme à double tranchant Ça peut t'sauver la vie ou t'la gâcher, souvent les 2 en même temps Donc fait gaffe une cavale ça coute plus cher qu'une fouf Ghetto Faf, t'es pas habituer à la vie du bled tu deviens ouf Tu reviens t'faire fumer dans un endroit isolé Corps trouer et seule et après ton prénom on dira Allah Yahmou d'un air désolé Poto faut apprendre à t'contrôler, ouai gros c'est l'ghetto, j'vais pas extrapoler C'est plein d'gens inhumain sans foie, ni loi, qui tue impunément Qui ont un cimetière derrière avec qui on vit communément Plein d'chacal 3afrit et d'pince, au point d'cotiser pour une barquette de frite et rester mince Au commissariat extirpent leurs poigner des pinces, qui viennent pas pour le match mais pour goumer les skins au Parc des Princes On a d'quoi t'recevoir, et cela dès ce soir, t'inquiet rappeur, on va pas te décevoir Dit au bonhomme qu'on n'tir qu'une fois parce que d'une on est économe et 2 on n'vie qu'une fois Wesh, ewa, faites du bruit K1 Fry Mafia Aaaaahhhhh, ROH2F Cest Husni, ewa, ichiya A quoi bon sert d'avoir un schlass si tu schlasses pas Un brolique si tu tires pas Une équipe si elle bouge pas Un savon si tu t'douches pas Une meuf si elle couche pas A quoi bon sert de défourailler un keuf si tu l'couches pas Ça sert à rien d'être musclé menacé au chinef A quoi bon sert d'vendre des barrettes si tu fumes tout l'bénef' A quoi bon sert d'être un mec de Vitry si tu braques pas, dragues pas, rappes pas, met pas d'hazbas Avoir un écran plasma, ouais, si t'as pas l'câble hein A quoi sert l'hiver ? Faire des sous et l'été, rouler en cab Pourquoi jouer l'fou si t'assumes pas l'personnage La hagla c'est mal payer comme une femme de ménage Tapis d'prière, une Kalash plus que motivé Ça sert à quoi d'vivre ? Ça sert à crever ! Ça sert à quoi d'm'appeller Rohff ? Ça sert à tout niquer, t'mettre au piquet Sans mettre le paquet Non mais tu te prends pour qui ? Ne m'demande pas porqué c'est Gratuit Tu sais c'est qui l'boss aujourdhui J'en ai fait pour m'faire embarquer, j'gaz même au parquet J'trahis personne, j'suis pati voir XXX, ok J't'avouerais qu'on a d'quoi faire la guerre Ce qui nous manque c'est juste les chars, les hélicoptères et un reporter Un briquet qui et un peu dessence et tu deviens lhomme de feu Tu veux un verre d'eau manque de pot, la météo a dit qu'il aller faire beau Ouai 100 ghetto Ouai !!! Wesh le 9.4 faut qu'sa cris sa mère là ouai Une spéciale pour les viré nocturne Rohff Vas-y dit leur poto, Ok gros Tu pourras jamais tester J-J-J-J-J-J-J-J-Jamais J-J-J-J-J-J-J-J-Jamais, ewa N'est pas la haine Vas-y, poto Compte 2 - 3 - 4 Catastrohff contre-attaque Hamdoullah j'suis du 9.4, j'déménage pas pour garder les plaque Goute mes claques 9.4 9.4, c'est pas la même puissance de frappe, des putain d'flow en vrac Mes Mcs, on va tous les frappe jusqu'a la mort Quand j'rap, tu m'chouf comme quand j'te braque Ton rap hardcore s'fait découper comme un G.I. en Irak Tes qu'une pute qui rappe, tu sautes comme une puce qui râle, j'vais t'apprendre à pe-ra Ta cru qu't'aller faire quoi avec ton flow tout pérave Haha, des barres, fait péter mon son barbare Dans ton bar ou d'en ton barbac On compte pas sur les air-bague demande à 'Lito On arrive vers l'avenir en faisant des tonneaux, c'est flow du loto, 100 ghetto Mehlish si j'perds mes cheveux, j'sais ce que je veux, j'sais que je vaux Je suis en 450 et 600 chevaux, poto C'est mon été, l'arc de triomphe, cest mon idée Sans respect j'vais trop loin, en plus je peux plus m'arrêter J'rappe pas pour les tunes tu sens qu'j'suis u passionner Quand l'bitume prend le mic ce n'est que pour t'impressionner Laisse faire on va t'sonner Questionner par les journalistes, les puristes, les lyricistes, j'suis trop déchainer Ouai gros J'fais du mal à la concurrence, ils ont la haine Comme Bush qui a les larmes aux yeux quand il pense à Ben Laden ! Personne ne bouge tout l'monde s'faire descendre... Aaahhhhhh Dédicacer à tous les mecs dOrly Sur s'couplet faut qu'sa Paro tinquiète pas ROH2F Attend, attend, écoute ça J'suis l'meilleur et j'te baise et j'suis sûr de moi Tes comme une tas-pé, tes en sang sur moi Tu t'prends la tête sur moi, ben ta raison y'a pas d'comparaison Mon public est plus large que ta vision d'l'horizon Le son qui tourne en prison, dans ta voiture, j'arrive du futur L'imposture, tas cru m'mettre de mauvaise posture J'suis l'pointeur de rappeur hardcore, j'me confesse Je leur fais l'coup du mic dès qu'il s'baisse j'lui prends les fesses Par reflex, j'suis en mode hagra T'inquiète pour faire mes tunes j'trouverais un prétexte Ewa Dans ma planque, j'ai plein d'calibre dans un d'mes textes J'ai tout niqué, la musique, le cinéma et le textile Même ton immobilier j'y ai entretenir et c'est styler Des bâtiments, des travaux, comme Florent Pagny, je mentirais Aux impôts, je leur dirais mampani Je leur mettrais la banane de King Kong avant d'me tirer, en charmante compagnie O.P, over dopé, over booker, j'me fait rare comme un chinois qui invite à zouker Qui tas demandé envier la vie d'mecs de cité ? Petite bourgeoise qui s'inspire d'notre malheur par nécessité T'écarte tes jambe au rap français, c'est pas dans l'ascenseur qu't'as sucer Cest dans l'caméscope que j' tai vu t'faire défoncer Fuck tous ceux qui veulent clash avec ton boss Rohff, cache ton torse, remballe tes os c'est 94 fil conducteur Je suis éditeur-producteur Protège ta fouf ou on lui pète ses adducteurs J'ai mes tireurs, conducteurs Ewa Faites du bruit Ya pas de draame, j'ai des me-ars qui font se bruit là braa On arrive flow énervé en Cayenne Turbo, intérieur crème Tiss-mé continue à regarder Turbo Rohff Tu crois que tas la côte parce que tu es beau, tête de bite Tu te fais michetonner comme un footballeur au bico ou au VIP Ewa, aight, wesh Manu Key, bientôt le double-album de Manu Key La Fierté Des Nôtres, et je vous rappelle, lalbum de RimK Tonton dans les bacs Enfant du pays , Offishal 113, Intouchable qui arrive bientôt, Carlito, Big Nas C'est du lourd, Mafia K1 Fry La Cerise Sur Le Ghetto , Mista Flow Street Lourd Party DJ Mosko, DJ Corona tsika Kamelancien Pour les gros et les petit storses 94 Cagoulés à la FLN Corse, 94 S'tapent même avec une entorse, 94 Sais que l'union fait la force, 94 Tension et rapports de force, 94 Armes blanches, monnaie fausse, 94 Charge d'un rhinocéros, 94 Roue arrière en CBR beau gosse, 94 Roh2F J'ai commencé mes crocs a vil A la maison de la jeunesse de ma ville Devant toute la cité un peu timide de profil Mon style n'as pas de sosie, pour moi c'est easy La valse des balles vocales, la poésie du uzi Je veut mes tunes, après faudra recoudre le bitume Mon hardcore t'entube et ta mère danse sur mes tubes Je suis dans le collimateur, des R.G., des rappeurs Qui font que répéter ce que j'ai dit dans le code de l'honneur Comme un versus tu déconne, c'est pas Raffarin que t'écoute C'est Arafat, la Rohff-rafale dans tes cotes C'est pas du rap de shit, je écris sans alcool Je snif pas de coke ni de colle je kick mon crack et tu décolle Flow sans bacon, l'approche qui détonne Des rimes je t'en tire des tonnes Je monte, bloqué sur scène comme à Compton C'est roots comme à Kingston Je dose comme Capleton C'est housni XXX Ewa change change change Vas-y ste plait laisse un dernier juste un dernier Vasy envoi, envoi, envoi Un dernier un dernier les gars Ouai gros, 94 J'suis sûr ils attendent un dernier Vas-y envoi, envoi 94 Aaaaaaaaahhhhhh Ouai gros, comme d'hab' le meilleur pour la fin Un son d'guerrier tsika ROH2F 21 Juin, 94, La Fierté Des Nôtres, dans les bacs Le rap français on l'matte Depuis l'époque où je bicravais mes barrettes à la fac de Tolbiac Motherfucker, ça se fait ap Comme la façon de tuer un phoque à coups de battes, matraques Comme le décès du cher Yacine, Allah y Lahmou Je pense à lui quand je vois le petit Djilali en fauteuil roulant Je t'allume en déboulant, arrêt cardiaque en courant Tu te feras pisser dessus en mourant Affolant au mic comme au volant Mon son un monstre violent Je terrorise tes petites putes, tes violons Je rappe en te violant, je dis pas ça en rigolant Sur ma tête y'a pas de collant A mort la zouletterie Mon hardcore fait peur comme une Porsche dans Vitry Gardez vos fleurs je vous en prie Là c'est pas un accident, ton flow à le SIDA Ça pousse des cris stridents C'est tsika monsieur Rohff qui est en train de baiser l'occident C'est toujours l'heure de découper Sauf au Ramadan ces petits pds de condés entament leurs rondes à l'heure de couper Compte sur moi pour pas te louper Je vais exploser un de ces quatre En éclatant un grec piégé au C-4 Je suis beau comme mon 44 J'ai remis mon trois quart Je compte plus mes bagarres, ce soir j'ai bouffé du quatre quart, du calcaire Donc le jaloux qui frime périra Faut pas cracher dans la hariha Flow, beat, turbo 4 sorties de pot en inox, Carrera Carrément c'est zehab comme d'hab donc j'arrive du kahab C'est Housni comme disent mes arabes ou mes shab J'ai commencé à rapper dans une cave avec mon poto Démon dans la crise Sous skunk, 8.6 On démonte tous les MC's, incendie les LS10 La calvit' à 26 Je fais pas les choses à moitié Je tourne en 4x4 pas en Avensis On a tous des guns qui partent de la ceinture à la couille gauche C'est le far west On a tous des sales gueules, c'est pour ça qu'on se déteste C'est banal comme se faire bastosser le crâne au feu rouge pour une banane Pas question d'argent mais de principes, c'est normal C'est plein d'animaux dans le rap, plein de faux durs Je reviens de la chasse, Brigitte Bardot pleure pas prends cette fourrure Tu peux rapper ta mère, tirer ta mère, être balaise ta mère On te niquera quand même ta mère ! C'est vulgaire et alors ?! Comparé aux bâtards qu'il y a dans ce monde je suis un mec en or Shoot dans le ballon d'or du hardcore J'veux pas de médaille ni de dan Je mets tout le monde d'accord comme Jordan, Zidane, Superman Je suis la bombe humaine aaaah Au micro j'ai la gaule je suis mécra Si t'attends le refrain y'en a pas Mais y'a une sirène vers la fin petit bâtard va Y'a pas de thème, flow de teigne Pas de je t'aime Y'a que du son et du sang qui coulent en fontaine C'est du lourd pour ceux qui ont pris une lourde peine Dis aux rappeurs que tout se mérite, même de passer la trentaine V'là ce que je leur mettrais dans leurs tempes ça me tente J'ai l'index qui me démange, j'ai envie de doigter la détente Déclasser mon son qui t'accompagne quand tu déboites dans les virages Musique de fond des règlements de compte et de lengrenage A toute âge, toute rage, toute forme d'outrage Je fais sourire la haine comme à lheure du partage ou de faire son paquetage Hey yo écoute ma putain de démo La preuve qu'on peut enlever la vie d'un homme rien qu'avec des mots De la old school aux nouveaux Je m'en bas les yeuk, t'es pas de mon niveau T'es pile poil à la hauteur de ma euque Jépargnerais peut-être les petites meufs comme Diam's Sinon je les baise tous Venus, Serena, Robbie, Pharrel Williams Handek' les yeux rien que ça brille Ta carrière en train de sombrer, se faire marbrer, calibrer, sabrer T'es ridicule, comme Dragon Ball avec du recul Le ghetto voit que t'es un mytho comme Hercule J'ai fait un double album parce que je suis un gogole qui s'ennuie Ça fuse dans mon esprit un tour de plus sur le circuit Faites du bruit Aaaaaaaaaaahhhhhhhhhh Ben alors ! 94 ! Stoppez, juste 2 seconde ! Alors, je lai fait ou quoi ? Alors, il la fait, du bruit pour Rohff2</t>
         </is>
       </c>
     </row>
@@ -2894,7 +2890,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Laisse-moi t'présenter Prélude Spécial funk RB yo Featuring my man Faf Larage Pour les sexy diams yo Touche-moi Et lis-moi comme un livre Rends-moi saoul, rends-moi ivre de toi Tout en moi Tout de moi je te livre L'amour fou, je veux vivre avec toi Oh, non, ne me laisse pas, reste dans mon sillage De ton cur, de mon âme, faisons l'alliage Vas, tourne-moi autour, ce jusquà l'infini jusqu'à l'infini Plus longtemps que le temps d'une vie Sexy diam's Rejoins-moi Sur la plage Douze Car tes charmes Vibrent en moi Se révèlent Blues Flirte avec ton volume string Effleure mes sens, que je craque Frôle-moi ooh N'aie pas peur, n'aie pas le trac Vas-y viens, XXX ta peau black Caresse-moi You might also like Si tu vas Où lamour se dessine À ces battements de vie que tu perçois Tu verras Que lhistoire que j'imagine Tous ces doux rêves où je suis sous ton bras Jatteindrai des sommets, le hit de ta playlist Si tu viens te poser là sur la piste Je me ferai en or pour combler ma platine Et tu sauras que l'on se destine Oh, sexy diam's yo Tu le sais Prélude Hey yo, Faf Larage Écoute quelques minutes Fais-moi une faveur Sois sexy si l'son parle Tu sais cqu'il te dirait, on y va toi et moi sur la plage Douze et tous mes sillons te regardent Rester de marbre, impossible Dans tes veines coule de la lave, alors danse et les platines s'enflamment Et te trompe pas d'index Choisis pas le next ni l'ex Tu sais, y a le vrai et le fake Sexy diam's Rejoins-moi Sur la plage Douze Car tes charmes Vibrent en moi Se révèlent Blues Flirte avec ton volume string Effleure mes sens, que je craque Frôle-moi XXX N'aie pas peur, n'aie pas le trac Vas-y viens, XXX ta peau black Caresse-moi Sexy diam's Rejoins-moi Sur la plage Douze Car tes charmes Vibrent en moi Se révèlent Blues Sexy Lady, oh lady</t>
+          <t>Laisse-moi t'présenter Prélude Spécial funk RB yo Featuring my man Faf Larage Pour les sexy diams yo Touche-moi Et lis-moi comme un livre Rends-moi saoul, rends-moi ivre de toi Tout en moi Tout de moi je te livre L'amour fou, je veux vivre avec toi Oh, non, ne me laisse pas, reste dans mon sillage De ton cur, de mon âme, faisons l'alliage Vas, tourne-moi autour, ce jusquà l'infini jusqu'à l'infini Plus longtemps que le temps d'une vie Sexy diam's Rejoins-moi Sur la plage Douze Car tes charmes Vibrent en moi Se révèlent Blues Flirte avec ton volume string Effleure mes sens, que je craque Frôle-moi ooh N'aie pas peur, n'aie pas le trac Vas-y viens, XXX ta peau black Caresse-moi Si tu vas Où lamour se dessine À ces battements de vie que tu perçois Tu verras Que lhistoire que j'imagine Tous ces doux rêves où je suis sous ton bras Jatteindrai des sommets, le hit de ta playlist Si tu viens te poser là sur la piste Je me ferai en or pour combler ma platine Et tu sauras que l'on se destine Oh, sexy diam's yo Tu le sais Prélude Hey yo, Faf Larage Écoute quelques minutes Fais-moi une faveur Sois sexy si l'son parle Tu sais cqu'il te dirait, on y va toi et moi sur la plage Douze et tous mes sillons te regardent Rester de marbre, impossible Dans tes veines coule de la lave, alors danse et les platines s'enflamment Et te trompe pas d'index Choisis pas le next ni l'ex Tu sais, y a le vrai et le fake Sexy diam's Rejoins-moi Sur la plage Douze Car tes charmes Vibrent en moi Se révèlent Blues Flirte avec ton volume string Effleure mes sens, que je craque Frôle-moi XXX N'aie pas peur, n'aie pas le trac Vas-y viens, XXX ta peau black Caresse-moi Sexy diam's Rejoins-moi Sur la plage Douze Car tes charmes Vibrent en moi Se révèlent Blues Sexy Lady, oh lady</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2924,7 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Fils, ignore la voix, le duc, tu sais Mais cest pas moi, qui parle Hip-Hop, mixe, si on y reste, ça suffit Cesser, on nous supplie sur ta vie, on oublie Dédicace de Mars Génération des fils de zoufris On fout le feu, rien à foutre, la loose cest pour ceux Qui crachent dans la soupe et qui pensent comme eux Holocauste, fils, tu le sais cest pas si loin Des bouseux et des vieux haineux en veulent à nos racines Voient nos destins au bout dune corde juste pour la forme Si cest pas ton cas, enculé regarde pour qui tu votes Plus de négligence, ni de chance Quand vient lheure au bal de la souffrance Personne nespère une dernière danse Rue sombre, les murs tombent La grande faucheuse fait ses rondes et on espère ne pas la croiser Mais sil le faut, faire un bout de chemin à ses côtés Soit, et si on plie, on smange, on ne se relève pas Dieu nous regarde alors, Mc, justifie ta tâche Mars, on représente le Sud, on dit c'qui s'passe Ici, on a la musique pour nous, le feeling et les larmes La fierté et la rage comme dans nos rimes on vide nos armes La violence s'entend dans l'accent Marseille mon clan Cest pourquoi on représente les nôtres Mon peuple maudit, pour mon école et ma vie You might also like La ville est notre quartier, sans relâche arpenté Charpentés, comme une belle femme, les rues sont vidées Cité impossible à dompter, difficile déviter Lentité révoltée, poches vides, cur gonflé Les idées reçues, les clichés persistent et Pas mal de gars décidés veulent résister, suis la piste épicée Ya pas à dire cest live de Mars et ça le fait Eh, faut pas fuir, je viens de commencer Je ferai ce quil faut pour que la flamme crame, poto Quitte à monter au créneau, un bon cocktail molo' À lancienne frérot, essuie ta sueur mon garde-cur Même sous les clameurs on commet pas derreurs On focalise sur les labeurs, peur de rien, et dites-leur bien Quon marche quavec des mecs droits comme leur conscience Ça fout la trouille, hein ? Pourtant ma ville garde le sourire Endurcis, certains on compris Les autres sappuient sur un mur et soupirent Tant pis, cest la vie Cest ce quon écrit Sil faut le crier, faudra pas nous prier On représente ce quon est, fils et ça va pas sarrêter ici Les double dragons visent haut pour la lune noire Shurikn, Faf Larage, pour le C.O, dans l'lard La violence s'entend dans l'accent Marseille mon clan Cest pourquoi on représente les nôtres Mon peuple maudit, pour mon école et ma vie1</t>
+          <t>Fils, ignore la voix, le duc, tu sais Mais cest pas moi, qui parle Hip-Hop, mixe, si on y reste, ça suffit Cesser, on nous supplie sur ta vie, on oublie Dédicace de Mars Génération des fils de zoufris On fout le feu, rien à foutre, la loose cest pour ceux Qui crachent dans la soupe et qui pensent comme eux Holocauste, fils, tu le sais cest pas si loin Des bouseux et des vieux haineux en veulent à nos racines Voient nos destins au bout dune corde juste pour la forme Si cest pas ton cas, enculé regarde pour qui tu votes Plus de négligence, ni de chance Quand vient lheure au bal de la souffrance Personne nespère une dernière danse Rue sombre, les murs tombent La grande faucheuse fait ses rondes et on espère ne pas la croiser Mais sil le faut, faire un bout de chemin à ses côtés Soit, et si on plie, on smange, on ne se relève pas Dieu nous regarde alors, Mc, justifie ta tâche Mars, on représente le Sud, on dit c'qui s'passe Ici, on a la musique pour nous, le feeling et les larmes La fierté et la rage comme dans nos rimes on vide nos armes La violence s'entend dans l'accent Marseille mon clan Cest pourquoi on représente les nôtres Mon peuple maudit, pour mon école et ma vie La ville est notre quartier, sans relâche arpenté Charpentés, comme une belle femme, les rues sont vidées Cité impossible à dompter, difficile déviter Lentité révoltée, poches vides, cur gonflé Les idées reçues, les clichés persistent et Pas mal de gars décidés veulent résister, suis la piste épicée Ya pas à dire cest live de Mars et ça le fait Eh, faut pas fuir, je viens de commencer Je ferai ce quil faut pour que la flamme crame, poto Quitte à monter au créneau, un bon cocktail molo' À lancienne frérot, essuie ta sueur mon garde-cur Même sous les clameurs on commet pas derreurs On focalise sur les labeurs, peur de rien, et dites-leur bien Quon marche quavec des mecs droits comme leur conscience Ça fout la trouille, hein ? Pourtant ma ville garde le sourire Endurcis, certains on compris Les autres sappuient sur un mur et soupirent Tant pis, cest la vie Cest ce quon écrit Sil faut le crier, faudra pas nous prier On représente ce quon est, fils et ça va pas sarrêter ici Les double dragons visent haut pour la lune noire Shurikn, Faf Larage, pour le C.O, dans l'lard La violence s'entend dans l'accent Marseille mon clan Cest pourquoi on représente les nôtres Mon peuple maudit, pour mon école et ma vie1</t>
         </is>
       </c>
     </row>
@@ -2945,7 +2941,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>T'es pas là quand le DJ fout un son de malade Tu t'échappes car Larage va t'offrir une balade En privé tu fais le mac alors sors tes salades Mais t'es grillé, dans le game on connait tes fables T'es où ? On te cherche même quand tu rappe T'es pas là, j'vois qu'un cintre sous ta New Era T'es trop jeune pour mon hip-hop, allez vire de là Pour avancer gros, il t'faut un youpala T'es grave, t'es bad, dans ton appart', devant ta glace Mais tes freestyles tombent à plat et les gamins t'caillassent T'as un pseudo sur le net, un avatar en place Mais t'es un fake et sur ton blog y'a dégun qui passe Tu tailles, tu grattes et tu saques pour attirer les clashs Mais personne veut s'afficher en relevant des XXX T'es pas là, ma foi, même ton flow râle que t'es fade Tes rimes ras la fouf, rien à foutre t'es un âne Le beat se barre et la basse se pend sous tes ya Pour técouter, ta meuf se prend à coup de tequila J'ai blasté le mic', à ça qu'fallait pas qu'il soit là Voilà XXX, encore à foncer dans l'lard Un coup de breakbeat tout droit sorti de N.Y.C Si, les MC's nous on les noie Je connais mon taf, des claques j'en ai mis dans l'baba Celui qui s'croyait mon égal suce pour un kebab T'es où ? T'es pas là, tu rêves d'être Lil what ? The french Lil Wayne ? Merde mec, t'es Lil Wack On est las des faux gars vénères qui font les killah Des couplets maladroits pour terroriser le petit Nicolas Sur la mesure tes placements c'est la tombola Tu crois mettre la pression, mais c'est la bamboula T'es pas là, ton crew n'y croit plus il est flagada Et quand tu lâches le mic', la foule entame une ola Tes raps fatigués on besoin d'guarana Fini tes rimes en bois avec du XXX T'as pas d'fan ah là Fin parce que t'es pas là Dégueule comme dans 8 mile mais ça sarrête là You might also likeJ'peux pas rapper les mecs Eh gros ! Mais il est où ?</t>
+          <t>T'es pas là quand le DJ fout un son de malade Tu t'échappes car Larage va t'offrir une balade En privé tu fais le mac alors sors tes salades Mais t'es grillé, dans le game on connait tes fables T'es où ? On te cherche même quand tu rappe T'es pas là, j'vois qu'un cintre sous ta New Era T'es trop jeune pour mon hip-hop, allez vire de là Pour avancer gros, il t'faut un youpala T'es grave, t'es bad, dans ton appart', devant ta glace Mais tes freestyles tombent à plat et les gamins t'caillassent T'as un pseudo sur le net, un avatar en place Mais t'es un fake et sur ton blog y'a dégun qui passe Tu tailles, tu grattes et tu saques pour attirer les clashs Mais personne veut s'afficher en relevant des XXX T'es pas là, ma foi, même ton flow râle que t'es fade Tes rimes ras la fouf, rien à foutre t'es un âne Le beat se barre et la basse se pend sous tes ya Pour técouter, ta meuf se prend à coup de tequila J'ai blasté le mic', à ça qu'fallait pas qu'il soit là Voilà XXX, encore à foncer dans l'lard Un coup de breakbeat tout droit sorti de N.Y.C Si, les MC's nous on les noie Je connais mon taf, des claques j'en ai mis dans l'baba Celui qui s'croyait mon égal suce pour un kebab T'es où ? T'es pas là, tu rêves d'être Lil what ? The french Lil Wayne ? Merde mec, t'es Lil Wack On est las des faux gars vénères qui font les killah Des couplets maladroits pour terroriser le petit Nicolas Sur la mesure tes placements c'est la tombola Tu crois mettre la pression, mais c'est la bamboula T'es pas là, ton crew n'y croit plus il est flagada Et quand tu lâches le mic', la foule entame une ola Tes raps fatigués on besoin d'guarana Fini tes rimes en bois avec du XXX T'as pas d'fan ah là Fin parce que t'es pas là Dégueule comme dans 8 mile mais ça sarrête là J'peux pas rapper les mecs Eh gros ! Mais il est où ?</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2958,7 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Ma famille enclenche le premier pas Tu constateras l'ampleur des dégâts Jamais deux MC en vaudront un averti Contrats exécutés, réunion au sommet Je sens que ça va chier, c'est un beau jour pour payer ou crever Alliance, mes alliées, il paraît Maudits soient ses liaisons dangereuses, je suis fou à lier Comme les alliés, ça promet Au moindre faux-mouve dans le move Personne ne bouge Souriez, vous êtes braqués Envie ceux qui vivent ces vices que pour leurs intérêts Malheureusement, ceux-là seront les premiers qu'il faudra enterrer Mon nom Mister pour tous ma vie demeure un mystère C'est le Boss qui l'a voulu en cas de haja je suis couvert Donc, j'emplis mon réservoir, doc, on a de quoi les recevoir Ces loques qu'on se réserve, c'est à voir, donc On préfère jouer les hommes invisibles plutôt que de passer pour des invincibles Pris pour cible, ces MC deviennent nuisibles Pour le Trois' affronteront les nazes Lutteront sur le terrain qu'on a chois' Demande à l'Artificier Artilleur en rimes meurtrières On imposera nos lois, même si le mic il faut qu'on croise You might also like Gazier, peu importe qui je suis ni d'où je viens mais plutôt là où je vais Ceux pour qui je représente et surtout si je reste dans le vrai De mics munis à mains nues ou armé, attaque les faux comme un convoi de fonds Ramasse les biftons, rends à la rue sa pure musique des bas-fonds Dès lors j'honore les miens à base de lyrics durs Dis dans les règles de l'art, un truc qui sort du lot, et provient cash du cur Avec chance, si Dieu veut, ça nous ramènera de l'or, tu veux de l'hymne à la racaille Crache le blé, la caille m'a pris le cur, ravitaille D'une qualité rare comme une fille encore majeure et pucelle Sortie de ces coins sombres où nos rimes se recèlent Tous opérationnels pour faire péter la banque, la tirelire Imposer le Troisième il, investir sur ceux qui arrivent derrière Bref, c'est trop tard, j'ai été trop loin, je peux plus revenir en arrière Écrire ces phrases prohibées, ma seule carrière Si t'es pas dans le coup, lèves-toi du milieu que je m'y mette ou mieux, mets-toi ailleurs Alors, quoi de neuf, Monsieur le nettoyeur ? Mon accent axé sur un axe Quand je m'absente, relax Entre deux clopes au max sur le wax Ma faction entre en jeu, c'est prévu Mon rôle dans le cycle, fixer les tordus avant la sortie du truc En clair, le principe, le Trois débarque du 143 Je nettoie, déploie ma Stormbringa Pour les haflits, ah, j'ai pas d'shit Mais des lyrics corrosifs à souhait, fils Pour les faire planer si haut Qu'il reviendront pas, mec Je rase tout, nique tout, enfonce le clou En force dans le crâne des faux MCs Qui se forcent à être comme nous Je sais pas pour vous Mais moins y a de bidons, mieux le Hip Hop se porte Ça fonctionne ainsi Si on se sert les coudes, boom, dans le lard Impact, aucun boycott ne me résiste Bouffe le scepticisme, nettoyeurs, racistes Faire de la place sans rayer L'industrie speede avec les tripes Et l'enfant terrible pour dégager la piste Pour imposer le Trois' et ses bonhommes Les têtes brûlées avec qui j'opère depuis des années Nous contrer, t'es mal-barré Le produit incontrôlé Brut, c'est ainsi que l'apprécient les vrais En vrai, on voudrait inonder le marché Conçus pour durer, rare est la denrée Pas de retour en arrière, on est tous trompés L'organisation alimente du sol français à Rio Grande Tout est façonné en clandestinité Nécessité second souffle à donner Rébellion prête à fonctionner Traître, tu peux toujours espionner Vouloir nous couillonner Mais est-ce que tu sais qui on est ? Cinq tonnes d'explosifs prêt à sauter Remonter à bloc pour atteindre les sommets Forcer toutes ces portes coincées On vient installer le rap des oubliés L'assaut annoncé Vous swinguez sur ce morceau miné Et le niqué fait face à tous les dangers Enfant de quartier, connu du reuf au 143 Ici, le niqueur croit en toi Comme les putain d'liqueurs que tu bois Et si on s'descendait tous comme dans Reservoir Dogs ? Entre nous y a tellement de haine Que je tue des MCs quand je dors C'est un braquo haut de gamme Manque plus que les calibres Sans pare-balles Représente, quitte à faire veuve ma câline Nique les trous de balle au microphone Écoute quand le crew parle au microphone On coule pas Je t'envoie le communiqué, ami Triade a besoin de liquide, d'liqueur Et de niquer avant que tous les cousins se liquident Au moment où y a l'plus de monde, c'est le sang Je te braque, c'est le sum La plupart des fans paniquent, les bras se lèvent seuls Le temps tourne, faut que je m'éclipse Tant que tu te tournes Histoire de rejoindre ma vie de clebs Le haine qui m'entoure au cas où si le plan tourne mal Personne nous connaîtra Y a jamais eu d'arme dans ma veste, vois... Mais le trac Ma famille enclenche le premier pas Tu constateras l'ampleur des dégâts Jamais deux MC en vaudront un averti</t>
+          <t>Ma famille enclenche le premier pas Tu constateras l'ampleur des dégâts Jamais deux MC en vaudront un averti Contrats exécutés, réunion au sommet Je sens que ça va chier, c'est un beau jour pour payer ou crever Alliance, mes alliées, il paraît Maudits soient ses liaisons dangereuses, je suis fou à lier Comme les alliés, ça promet Au moindre faux-mouve dans le move Personne ne bouge Souriez, vous êtes braqués Envie ceux qui vivent ces vices que pour leurs intérêts Malheureusement, ceux-là seront les premiers qu'il faudra enterrer Mon nom Mister pour tous ma vie demeure un mystère C'est le Boss qui l'a voulu en cas de haja je suis couvert Donc, j'emplis mon réservoir, doc, on a de quoi les recevoir Ces loques qu'on se réserve, c'est à voir, donc On préfère jouer les hommes invisibles plutôt que de passer pour des invincibles Pris pour cible, ces MC deviennent nuisibles Pour le Trois' affronteront les nazes Lutteront sur le terrain qu'on a chois' Demande à l'Artificier Artilleur en rimes meurtrières On imposera nos lois, même si le mic il faut qu'on croise Gazier, peu importe qui je suis ni d'où je viens mais plutôt là où je vais Ceux pour qui je représente et surtout si je reste dans le vrai De mics munis à mains nues ou armé, attaque les faux comme un convoi de fonds Ramasse les biftons, rends à la rue sa pure musique des bas-fonds Dès lors j'honore les miens à base de lyrics durs Dis dans les règles de l'art, un truc qui sort du lot, et provient cash du cur Avec chance, si Dieu veut, ça nous ramènera de l'or, tu veux de l'hymne à la racaille Crache le blé, la caille m'a pris le cur, ravitaille D'une qualité rare comme une fille encore majeure et pucelle Sortie de ces coins sombres où nos rimes se recèlent Tous opérationnels pour faire péter la banque, la tirelire Imposer le Troisième il, investir sur ceux qui arrivent derrière Bref, c'est trop tard, j'ai été trop loin, je peux plus revenir en arrière Écrire ces phrases prohibées, ma seule carrière Si t'es pas dans le coup, lèves-toi du milieu que je m'y mette ou mieux, mets-toi ailleurs Alors, quoi de neuf, Monsieur le nettoyeur ? Mon accent axé sur un axe Quand je m'absente, relax Entre deux clopes au max sur le wax Ma faction entre en jeu, c'est prévu Mon rôle dans le cycle, fixer les tordus avant la sortie du truc En clair, le principe, le Trois débarque du 143 Je nettoie, déploie ma Stormbringa Pour les haflits, ah, j'ai pas d'shit Mais des lyrics corrosifs à souhait, fils Pour les faire planer si haut Qu'il reviendront pas, mec Je rase tout, nique tout, enfonce le clou En force dans le crâne des faux MCs Qui se forcent à être comme nous Je sais pas pour vous Mais moins y a de bidons, mieux le Hip Hop se porte Ça fonctionne ainsi Si on se sert les coudes, boom, dans le lard Impact, aucun boycott ne me résiste Bouffe le scepticisme, nettoyeurs, racistes Faire de la place sans rayer L'industrie speede avec les tripes Et l'enfant terrible pour dégager la piste Pour imposer le Trois' et ses bonhommes Les têtes brûlées avec qui j'opère depuis des années Nous contrer, t'es mal-barré Le produit incontrôlé Brut, c'est ainsi que l'apprécient les vrais En vrai, on voudrait inonder le marché Conçus pour durer, rare est la denrée Pas de retour en arrière, on est tous trompés L'organisation alimente du sol français à Rio Grande Tout est façonné en clandestinité Nécessité second souffle à donner Rébellion prête à fonctionner Traître, tu peux toujours espionner Vouloir nous couillonner Mais est-ce que tu sais qui on est ? Cinq tonnes d'explosifs prêt à sauter Remonter à bloc pour atteindre les sommets Forcer toutes ces portes coincées On vient installer le rap des oubliés L'assaut annoncé Vous swinguez sur ce morceau miné Et le niqué fait face à tous les dangers Enfant de quartier, connu du reuf au 143 Ici, le niqueur croit en toi Comme les putain d'liqueurs que tu bois Et si on s'descendait tous comme dans Reservoir Dogs ? Entre nous y a tellement de haine Que je tue des MCs quand je dors C'est un braquo haut de gamme Manque plus que les calibres Sans pare-balles Représente, quitte à faire veuve ma câline Nique les trous de balle au microphone Écoute quand le crew parle au microphone On coule pas Je t'envoie le communiqué, ami Triade a besoin de liquide, d'liqueur Et de niquer avant que tous les cousins se liquident Au moment où y a l'plus de monde, c'est le sang Je te braque, c'est le sum La plupart des fans paniquent, les bras se lèvent seuls Le temps tourne, faut que je m'éclipse Tant que tu te tournes Histoire de rejoindre ma vie de clebs Le haine qui m'entoure au cas où si le plan tourne mal Personne nous connaîtra Y a jamais eu d'arme dans ma veste, vois... Mais le trac Ma famille enclenche le premier pas Tu constateras l'ampleur des dégâts Jamais deux MC en vaudront un averti</t>
         </is>
       </c>
     </row>
@@ -2979,7 +2975,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>x2 J'étais fonky-fonky warm avec un fonky-fonky style Mac dans la place avec un fonky-fonky staff Mon son frappe où on l'attendait pas On va révolutionner les charts Et tu le sais fils ! Yeah ! Je suis né dans le Bronx où les gens sont fresh En face de Manhattan où le monde se presse Et j'viens montrer notre truc dont le globe se rappellera La culture c'est le hip-hop, la musique elle s'appelle rap Ma mère dit qu'c'est une mob, qu'j'dois trouver un job Si j'vais en tôle ça sera ma faute Ce soir c'est bloc-party, graffiti-artistes Danseurs, mic' et platines Faut que je rappe maintenant Pour les homies et les meufs qui sont dedans J'ai pas d'fric pour faire le gosse-beau Pas encore pro mais j'vais killer le show Parce que le rap m'a béni Jarrive en quête d'un public Mon crew s'agite et New York est en panique On construit un truc tellement big Que la rue va s'en souvenir toute sa vie You might also like Le hip-hop a débuté dans le noir Sur des scènes minuscules montées dans les bars Branchés sur les poteaux électriques dans la rue Depuis la planète entière entend notre raffut La pop nous critique, le rock nous méprise Le jazz nous prie gentiment d'lâcher prise On est là, on va y rester Avec c'mic' j'm'en vais gagner le respect x2 J'étais fonky-fonky warm avec un fonky-fonky style Mac dans la place avec un fonky-fonky staff Mon son frappe où on l'attendait pas On va révolutionner les charts Et tu le sais fils ! Ça part en toupie sur des cartons lisses Les gangs s'amenuisent et la violence s'épuise La FM capte le bizz, les DJ en crise Scratchent aux fenêtres en attendant le week-end Une nouvelle vague, hip-hop c'est le name Ça grave, ça break et ça rap et les jeunes aiment Les autres courants musicaux sont à plaindre On révolutionne le nouveau millénaire Au dessus de zéro, dans la sono, le DJ fait l'show Joue ses vinyles, reflet de notre époque Parle pas dicônes, les valeurs sont hip-hop Vise le fauteuil du number one Que nos noms s'XXX, devant la Polo sonne L'heure pour nous de grimper dans les charts Et le Billboard, en passant par la petite porte On excelle, rien à perdre Si t'en as pas assez, on a l'feeling Pour le ciment contre le système qui nous fout dans la merde et la critique Viens faire un tour dans ma Cadillac black où y'a des bimb', des loques et des gens comme toi et moi Toute la night on fait le show, levez tous les bras ! x2 J'étais fonky-fonky warm avec un fonky-fonky style Mac dans la place avec un fonky-fonky staff Mon son frappe où on l'attendait pas On va révolutionner les charts Et tu le sais fils !</t>
+          <t>x2 J'étais fonky-fonky warm avec un fonky-fonky style Mac dans la place avec un fonky-fonky staff Mon son frappe où on l'attendait pas On va révolutionner les charts Et tu le sais fils ! Yeah ! Je suis né dans le Bronx où les gens sont fresh En face de Manhattan où le monde se presse Et j'viens montrer notre truc dont le globe se rappellera La culture c'est le hip-hop, la musique elle s'appelle rap Ma mère dit qu'c'est une mob, qu'j'dois trouver un job Si j'vais en tôle ça sera ma faute Ce soir c'est bloc-party, graffiti-artistes Danseurs, mic' et platines Faut que je rappe maintenant Pour les homies et les meufs qui sont dedans J'ai pas d'fric pour faire le gosse-beau Pas encore pro mais j'vais killer le show Parce que le rap m'a béni Jarrive en quête d'un public Mon crew s'agite et New York est en panique On construit un truc tellement big Que la rue va s'en souvenir toute sa vie Le hip-hop a débuté dans le noir Sur des scènes minuscules montées dans les bars Branchés sur les poteaux électriques dans la rue Depuis la planète entière entend notre raffut La pop nous critique, le rock nous méprise Le jazz nous prie gentiment d'lâcher prise On est là, on va y rester Avec c'mic' j'm'en vais gagner le respect x2 J'étais fonky-fonky warm avec un fonky-fonky style Mac dans la place avec un fonky-fonky staff Mon son frappe où on l'attendait pas On va révolutionner les charts Et tu le sais fils ! Ça part en toupie sur des cartons lisses Les gangs s'amenuisent et la violence s'épuise La FM capte le bizz, les DJ en crise Scratchent aux fenêtres en attendant le week-end Une nouvelle vague, hip-hop c'est le name Ça grave, ça break et ça rap et les jeunes aiment Les autres courants musicaux sont à plaindre On révolutionne le nouveau millénaire Au dessus de zéro, dans la sono, le DJ fait l'show Joue ses vinyles, reflet de notre époque Parle pas dicônes, les valeurs sont hip-hop Vise le fauteuil du number one Que nos noms s'XXX, devant la Polo sonne L'heure pour nous de grimper dans les charts Et le Billboard, en passant par la petite porte On excelle, rien à perdre Si t'en as pas assez, on a l'feeling Pour le ciment contre le système qui nous fout dans la merde et la critique Viens faire un tour dans ma Cadillac black où y'a des bimb', des loques et des gens comme toi et moi Toute la night on fait le show, levez tous les bras ! x2 J'étais fonky-fonky warm avec un fonky-fonky style Mac dans la place avec un fonky-fonky staff Mon son frappe où on l'attendait pas On va révolutionner les charts Et tu le sais fils !</t>
         </is>
       </c>
     </row>
@@ -2996,7 +2992,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>This is it Michael, ils ont finalement eu raison de toi Sans t'connaitre, les mots ont frappés trop d'fois Aujourd'hui les démentis ne te remmèneront pas Et beaucoup trop d'repentis font tomber les masques Ne le savaient-ils pas ? De la rue à la toile ils pleurent Tous n'ont pas été des fans Les paroles peuvent blesser, plus qu'un gun Et les plaies brûlent souvent juste pour le fun Les gens aiment voir les autres couler Ça met du piment dans leurs vies de merde trop rangées Et pas d'bravo pour le best au sommet Ils veulent surtout pas qu'tu y restes j'te promets, de quoi flipper Et si t'excelles sans te la raconter, y'aura toujours des langues de putes pour niquer ta vie privée Toujours des parasites pour en profiter De quoi péter les plombs et se renfermer à enrager Sourires envieux et poignées d'mains faussées Proche ou pas, vivons heureux, vivons cachés Sinon les rumeurs et les ragots te harcèlent pour rien Il tarrive un truc bien ? On te lâche les chiens Mais j't'apprends rien, c'est gratuit, les on-dits animent les soirées Et quand t'es différent, faut saccrocher Pas l'droit de sortir du lot Ils vont même jusqu'à te casser pour deux tailles de trop Du coup, la solitude pèse si t'es pas dans leur monde Un quelconque handicap est un fardeau monstre Faut être sûr de soi pour réponse Ou l'envie de claquer des gueules et en finir te ronge You might also likex2 La rengaine est la même, la jalousie aussi Qu'on soit d'ailleurs, qu'on vive ici Une vie d'merde sur fond de guerre, de crise ou encore de scandales sur la BBC Lâchez les justes et le bien a l'air con Allez, tirez le rideau, fin, This Is It De là haut, tu dois mourir d'rire A les regarder expliquer causes, conséquences qui t'ont amené au pire Tu as fait face à une telle méchanceté au travers du net La grande porte de la lâcheté moderne Ton départ t'a racheté à leurs yeux de mouffetards qui passent leurs journées à cafter A l'heure où ça tuerait sa mère pour un être casté Ils se branlent sur ta musique, aucun ne l'a achetée C'est la nature humaine, cette étoile dans l'ciel on veut la voir chuter afin de la capter Si elle se révèle fragile ou pas sage, elle tombe et chacun y va de son coup de pied au passage La réussite c'est chiant si c'est les autres, si les autres nous ressemblent c'est pire Quand l'voisin qu'a XXX la voiture qu'il a acheté neuve et s'est saigné pour la payer On l'croise, on lui fait même la causerie Dès qu'il a l'dos tourné, c'est coup d'clé sur la carrosserie Ici la taille moyenne est d'un mètre Pour des hommes qui trouvent normal de sauter à quinze sur un mec L'école t'y prépare, plus tard t'y adapte et tu marches sur tout et tous pour t'élever dans la XXX Je les ai vu tout ces petits juges venir s'assoir à ma place Et vite devenir des grosses putes Michael, ils ont tripés sur tes fautes, ça les a rassurés sur leurs vies mesquines et médiocres Ils t'ont plantés des lames dans le cur si fort Que t'as plus respiré et criés le pauvre, il est mort Ce sont les mêmes, tu vois, qui poussaient en 43 ils sont là puis en 45 c'est pas moi Des gens ordinaires, cachés dans la masse Des bourreaux excusés par la masse Fatigués de les voir avec leur fausse gentillesse Je leur garde un bout d'corde et dix secondes dans mes prières This is it x2 La rengaine est la même, la jalousie aussi Qu'on soit d'ailleurs, qu'on vive ici Une vie d'merde sur fond de guerre, de crise ou encore de scandales sur la BBC Lâchez les justes et le bien a l'air con Allez, tirez le rideau, fin, This Is It</t>
+          <t>This is it Michael, ils ont finalement eu raison de toi Sans t'connaitre, les mots ont frappés trop d'fois Aujourd'hui les démentis ne te remmèneront pas Et beaucoup trop d'repentis font tomber les masques Ne le savaient-ils pas ? De la rue à la toile ils pleurent Tous n'ont pas été des fans Les paroles peuvent blesser, plus qu'un gun Et les plaies brûlent souvent juste pour le fun Les gens aiment voir les autres couler Ça met du piment dans leurs vies de merde trop rangées Et pas d'bravo pour le best au sommet Ils veulent surtout pas qu'tu y restes j'te promets, de quoi flipper Et si t'excelles sans te la raconter, y'aura toujours des langues de putes pour niquer ta vie privée Toujours des parasites pour en profiter De quoi péter les plombs et se renfermer à enrager Sourires envieux et poignées d'mains faussées Proche ou pas, vivons heureux, vivons cachés Sinon les rumeurs et les ragots te harcèlent pour rien Il tarrive un truc bien ? On te lâche les chiens Mais j't'apprends rien, c'est gratuit, les on-dits animent les soirées Et quand t'es différent, faut saccrocher Pas l'droit de sortir du lot Ils vont même jusqu'à te casser pour deux tailles de trop Du coup, la solitude pèse si t'es pas dans leur monde Un quelconque handicap est un fardeau monstre Faut être sûr de soi pour réponse Ou l'envie de claquer des gueules et en finir te ronge x2 La rengaine est la même, la jalousie aussi Qu'on soit d'ailleurs, qu'on vive ici Une vie d'merde sur fond de guerre, de crise ou encore de scandales sur la BBC Lâchez les justes et le bien a l'air con Allez, tirez le rideau, fin, This Is It De là haut, tu dois mourir d'rire A les regarder expliquer causes, conséquences qui t'ont amené au pire Tu as fait face à une telle méchanceté au travers du net La grande porte de la lâcheté moderne Ton départ t'a racheté à leurs yeux de mouffetards qui passent leurs journées à cafter A l'heure où ça tuerait sa mère pour un être casté Ils se branlent sur ta musique, aucun ne l'a achetée C'est la nature humaine, cette étoile dans l'ciel on veut la voir chuter afin de la capter Si elle se révèle fragile ou pas sage, elle tombe et chacun y va de son coup de pied au passage La réussite c'est chiant si c'est les autres, si les autres nous ressemblent c'est pire Quand l'voisin qu'a XXX la voiture qu'il a acheté neuve et s'est saigné pour la payer On l'croise, on lui fait même la causerie Dès qu'il a l'dos tourné, c'est coup d'clé sur la carrosserie Ici la taille moyenne est d'un mètre Pour des hommes qui trouvent normal de sauter à quinze sur un mec L'école t'y prépare, plus tard t'y adapte et tu marches sur tout et tous pour t'élever dans la XXX Je les ai vu tout ces petits juges venir s'assoir à ma place Et vite devenir des grosses putes Michael, ils ont tripés sur tes fautes, ça les a rassurés sur leurs vies mesquines et médiocres Ils t'ont plantés des lames dans le cur si fort Que t'as plus respiré et criés le pauvre, il est mort Ce sont les mêmes, tu vois, qui poussaient en 43 ils sont là puis en 45 c'est pas moi Des gens ordinaires, cachés dans la masse Des bourreaux excusés par la masse Fatigués de les voir avec leur fausse gentillesse Je leur garde un bout d'corde et dix secondes dans mes prières This is it x2 La rengaine est la même, la jalousie aussi Qu'on soit d'ailleurs, qu'on vive ici Une vie d'merde sur fond de guerre, de crise ou encore de scandales sur la BBC Lâchez les justes et le bien a l'air con Allez, tirez le rideau, fin, This Is It</t>
         </is>
       </c>
     </row>
@@ -3013,7 +3009,7 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, le truc d'façon détendue Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, le truc d'façon Un truc qui pète, un truc qui en jette Un truc pas bête, un truc honnête Un truc qui t'fait squatter ta putain d'tête près d'ta radio Un truc qui t'parle direct Un truc libre comme une vapeur d'zoula frérot Un truc qui fait chier, un truc pour cracher Un truc qu'on respecte, un truc qui mérite la vérité Un truc pour qu'on becte un truc solide Un truc, écoute ouais, ouais Un truc trop patate, un truc qui donne envie Un truc sans costard cravate, un truc de merde si t'as envie Un truc scandaleux Un truc qui t'emmerde si tu veux aussi Un truc du 9-2, un truc simple, un truc de Lusi XXX XXX portugais Le truc qu'on explore, la mine d'or XXX J'en prendrai soin, le truc m'rend fort, le truc j'en ai besoin You might also like Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, le truc d'façon détendue Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, le truc d'façon On m'nomme le rien à carrer MC Le méga-géant qui XXX des MC Le XXX MC, f le pouvoir MC Le Mohamed Ali des MC Le high MC, je bouffe des MC, brûle des MC Chire des MC Quand j'en ai fini, c'est ainsi qu'je suis Gavé de MC Carré dans l'sens où j'ai fourré des rimes dans l'cul d'un XXX MC Faut qu'ça fuient les MC, sûr j'l'ai dit Faut rester funky MC, c'est pas le mot qu'je fuis Marre des je veux être MC J'en renvoie plus d'un dans la tombe Si leurs sons me semblent pourris Je viens d'un pays où on cause, MC Où y a des j'ai des choses à dire MC Des MC's à la Disiz, faut des roots MC's Des freestyle MC's, big-up Des sérieux MC's, des sociaux MC's big-up Des originaux MC's, big-up Des auteurs interprètes qui disent c'qu'ils vivent, big-up À tous les vrais MC's, qu'on s'le dise C'est pas l'plaisir de l'être qui fait le MC Un truc de MC Un truc qu'il me faut Canaliser ma rage de MC Là il est bien, là, stoppe le client quand j'viens et dit Faut qu'on l'tue, cet instru Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, le truc d'façon détendue Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, le truc d'façon Encore et encore Alors Faf, tu dis quoi encore? Vas-y frère On pourrait parler de tass', des propos qui t'dépassent Qui t'déclassent, tous tes propos qui t'fâchent, mais non... On pourrait semer des putain d'barrières, délimiter des frontières Et s'dire qu'toi et moi ça peut pas l'faire, mais non... On pourrait dire que parfois la vie donne envie d'gerber Qu'y a des coups trop durs à avaler, mais non... On pourrait t'sortir la même ambiance tout l'temps Faire les gogols tout l'temps Faire les XXX méchants sérieux, on est méchants, mais non... Le truc que t'avais pas repéré, le truc de rue vrai Le truc que j'kiffe et qu'toi tu hais Le truc qui fait qu'y a du monde dedans, et Le truc taillé pour l'putain d'trio Le truc que l'système pige pas XXX au boycott tu sais Le truc, un putain d'produit brut Le truc sous-estimé jusqu'à l'os Le truc rend fou des gosses depuis quinze ans déjà Le truc, tu l'sens complexe, vis-le Le truc s'explique pas, le truc est là, le truc foudroie Comme cet instru Comme cet instru Cet instru, faut qu'on l'tue Eh, Akos, cet instru, faut qu'on l'tue Cet instru, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, détendu Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, le truc d'façon détendue Qu'on l'punisse Cette putain d'instru Vasquez en portugais</t>
+          <t>Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, le truc d'façon détendue Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, le truc d'façon Un truc qui pète, un truc qui en jette Un truc pas bête, un truc honnête Un truc qui t'fait squatter ta putain d'tête près d'ta radio Un truc qui t'parle direct Un truc libre comme une vapeur d'zoula frérot Un truc qui fait chier, un truc pour cracher Un truc qu'on respecte, un truc qui mérite la vérité Un truc pour qu'on becte un truc solide Un truc, écoute ouais, ouais Un truc trop patate, un truc qui donne envie Un truc sans costard cravate, un truc de merde si t'as envie Un truc scandaleux Un truc qui t'emmerde si tu veux aussi Un truc du 9-2, un truc simple, un truc de Lusi XXX XXX portugais Le truc qu'on explore, la mine d'or XXX J'en prendrai soin, le truc m'rend fort, le truc j'en ai besoin Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, le truc d'façon détendue Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, le truc d'façon On m'nomme le rien à carrer MC Le méga-géant qui XXX des MC Le XXX MC, f le pouvoir MC Le Mohamed Ali des MC Le high MC, je bouffe des MC, brûle des MC Chire des MC Quand j'en ai fini, c'est ainsi qu'je suis Gavé de MC Carré dans l'sens où j'ai fourré des rimes dans l'cul d'un XXX MC Faut qu'ça fuient les MC, sûr j'l'ai dit Faut rester funky MC, c'est pas le mot qu'je fuis Marre des je veux être MC J'en renvoie plus d'un dans la tombe Si leurs sons me semblent pourris Je viens d'un pays où on cause, MC Où y a des j'ai des choses à dire MC Des MC's à la Disiz, faut des roots MC's Des freestyle MC's, big-up Des sérieux MC's, des sociaux MC's big-up Des originaux MC's, big-up Des auteurs interprètes qui disent c'qu'ils vivent, big-up À tous les vrais MC's, qu'on s'le dise C'est pas l'plaisir de l'être qui fait le MC Un truc de MC Un truc qu'il me faut Canaliser ma rage de MC Là il est bien, là, stoppe le client quand j'viens et dit Faut qu'on l'tue, cet instru Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, le truc d'façon détendue Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, le truc d'façon Encore et encore Alors Faf, tu dis quoi encore? Vas-y frère On pourrait parler de tass', des propos qui t'dépassent Qui t'déclassent, tous tes propos qui t'fâchent, mais non... On pourrait semer des putain d'barrières, délimiter des frontières Et s'dire qu'toi et moi ça peut pas l'faire, mais non... On pourrait dire que parfois la vie donne envie d'gerber Qu'y a des coups trop durs à avaler, mais non... On pourrait t'sortir la même ambiance tout l'temps Faire les gogols tout l'temps Faire les XXX méchants sérieux, on est méchants, mais non... Le truc que t'avais pas repéré, le truc de rue vrai Le truc que j'kiffe et qu'toi tu hais Le truc qui fait qu'y a du monde dedans, et Le truc taillé pour l'putain d'trio Le truc que l'système pige pas XXX au boycott tu sais Le truc, un putain d'produit brut Le truc sous-estimé jusqu'à l'os Le truc rend fou des gosses depuis quinze ans déjà Le truc, tu l'sens complexe, vis-le Le truc s'explique pas, le truc est là, le truc foudroie Comme cet instru Comme cet instru Cet instru, faut qu'on l'tue Eh, Akos, cet instru, faut qu'on l'tue Cet instru, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, détendu Faut qu'on l'flingue Qu'on l'punisse Cet instru Et sans faire les hystériques, mec, faut qu'on l'tue Faut qu'on l'flingue Qu'on l'punisse Cet instru Tranquille, gros, le truc d'façon détendue Qu'on l'punisse Cette putain d'instru Vasquez en portugais</t>
         </is>
       </c>
     </row>
@@ -3030,7 +3026,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Je t'en prie, fais-moi une faveur Essaie d'm'entendre quelques instants J'ai juste quelques mots sur le cur Un texte ou bien une prière c'est comme tu l'entends Permet-moi de figer le temps une seconde On dira rien je monterai là-haut voir ton monde Des fois j'y songe voir si c'est mieux après la vie ou si j'me trompe Pour affronter mes doutes et mes hontes Raconte-moi le ciel, parle-moi, est-ce que tout est vrai? Si c'est le cas ça me rassurerait Je veux y croire ça nous permet d'encaisser la vie ici-bas Mais les livres saints nous laissent pas beaucoup de marge J'espère que tu comprends mon âme Je voudrais tant que tu m'expliques toi-même le bien et le mal T'as qu'à me dire ce que tu veux de moi Ou si seul le cur est roi, ça c'est une loi qui me va T'es mon confident j'ai des milliers de choses à te dire et M'adressais à tes émissaires aussi souvent qu'je pouvais Tu sais comment j'te respecte ouais Toi-même tu sais quand y a plus rien c'est vers toi que je me tourne ouais Fais-moi une faveur Donne-moi la force de rester droit Fais-moi une faveur Y a tout qui brûle autour de moi Fais-moi une faveur Fais-moi un signe j'ai besoin d'ça Fais-moi une faveur Garde les miens auprès de toi You might also like Je peux pas te renier non tu m'donnes de la force Et j'peux pas dire vraiment qu't'es vivant il faut qu'tu me comprennes Est-ce que t'as de la peine quand les miens saignent ? Ceux qui nous ont quittés est-ce qu'ils t'ont rejoint ? Tant de questions qui dorment dans le secret Tant de mystères où tu nous laisses nous noyer On peut pas s'en empêcher et si c'est toi qui a décidé c'est vrai Grâce! Combien de fois j'ai demandé Mais j'te ferais pas de reproches Après tout c'est nos guerres, nos maladies, nos catastrophes Mais je sais qu't'as un plan et tu dois avoir un plan Sinon à quoi bon l'évolution et les tourments Et ça te saoule pas les fanatiques, les érudits, les hérétiques? Ceux qui tuent pour une place au paradis, qu'est-ce t'en dis? Les victimes qui souffrent est-ce que tu les suis? Garde nous de l'apocalypse mais on s'autodétruit Et l'autre en bas est-ce qu'il existe? Est-ce que les damnés te résistent? Est-ce toi ou lui qui nous punit? S'il te plait protège tous ceux qui me sont chers S'il te plait protège tous ceux que j'aime Fais-moi une faveur Donne-moi la force de rester droit Fais-moi une faveur Y a tout qui brûle autour de moi Fais-moi une faveur Fais-moi un signe j'ai besoin d'ça Fais-moi une faveur Garde les miens auprès de toi</t>
+          <t>Je t'en prie, fais-moi une faveur Essaie d'm'entendre quelques instants J'ai juste quelques mots sur le cur Un texte ou bien une prière c'est comme tu l'entends Permet-moi de figer le temps une seconde On dira rien je monterai là-haut voir ton monde Des fois j'y songe voir si c'est mieux après la vie ou si j'me trompe Pour affronter mes doutes et mes hontes Raconte-moi le ciel, parle-moi, est-ce que tout est vrai? Si c'est le cas ça me rassurerait Je veux y croire ça nous permet d'encaisser la vie ici-bas Mais les livres saints nous laissent pas beaucoup de marge J'espère que tu comprends mon âme Je voudrais tant que tu m'expliques toi-même le bien et le mal T'as qu'à me dire ce que tu veux de moi Ou si seul le cur est roi, ça c'est une loi qui me va T'es mon confident j'ai des milliers de choses à te dire et M'adressais à tes émissaires aussi souvent qu'je pouvais Tu sais comment j'te respecte ouais Toi-même tu sais quand y a plus rien c'est vers toi que je me tourne ouais Fais-moi une faveur Donne-moi la force de rester droit Fais-moi une faveur Y a tout qui brûle autour de moi Fais-moi une faveur Fais-moi un signe j'ai besoin d'ça Fais-moi une faveur Garde les miens auprès de toi Je peux pas te renier non tu m'donnes de la force Et j'peux pas dire vraiment qu't'es vivant il faut qu'tu me comprennes Est-ce que t'as de la peine quand les miens saignent ? Ceux qui nous ont quittés est-ce qu'ils t'ont rejoint ? Tant de questions qui dorment dans le secret Tant de mystères où tu nous laisses nous noyer On peut pas s'en empêcher et si c'est toi qui a décidé c'est vrai Grâce! Combien de fois j'ai demandé Mais j'te ferais pas de reproches Après tout c'est nos guerres, nos maladies, nos catastrophes Mais je sais qu't'as un plan et tu dois avoir un plan Sinon à quoi bon l'évolution et les tourments Et ça te saoule pas les fanatiques, les érudits, les hérétiques? Ceux qui tuent pour une place au paradis, qu'est-ce t'en dis? Les victimes qui souffrent est-ce que tu les suis? Garde nous de l'apocalypse mais on s'autodétruit Et l'autre en bas est-ce qu'il existe? Est-ce que les damnés te résistent? Est-ce toi ou lui qui nous punit? S'il te plait protège tous ceux qui me sont chers S'il te plait protège tous ceux que j'aime Fais-moi une faveur Donne-moi la force de rester droit Fais-moi une faveur Y a tout qui brûle autour de moi Fais-moi une faveur Fais-moi un signe j'ai besoin d'ça Fais-moi une faveur Garde les miens auprès de toi</t>
         </is>
       </c>
     </row>
@@ -3047,7 +3043,7 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>La voie lactée.. sur la voie lactée ! La voie lactée là où sommeillent les tristes vécus Les causes perdus, les espoirs déçus, repus Où les fantômes d'affamés côtoient les rois déchus Où On est tous élus, là où il y a pas d'exclus ! J'ai ma place quelque part, ça je le sais Où ? Bah c'est ça qu'j'sais pas J'ai p'têtre pas assez de vie pour la trouver Ça m'empêche pas de chercher Partout et comme tous, par temps durs, ont toussent, volontiers... Voyez combiens de volontaires voraces comme moi s'engagent sur le sentier A force de sentir grandir l'urgence ont à le cur inquiet Danse! Le cortège, trop près des flammes ça crame et ont se gaussent sans pitié J'ai pas l'temps, en plus ils tracent trop vite Lassent trop vite, faut qu'je fasse vite La poisse s'en prend trop au lasso Lassés, les bufs solides lâchent Finissent en civet Sauvés par le CV Les veinards servent des ventres gras à vie Plutôt crever que d'pleurer sur mon sort Ailleurs on trouve tableau plus noir, ça change pas mon décor Mais c'est bien d'le savoir, pas perdre le Nord même sur le port Y'a p't'être encore un espoir qui dort sous la chaire et la pierre Mais l'fer interfère Amer cancer Qui presse devant la mise en bière J'trim comme un dingue, chaque rime est un rite que j'accomplis Un flingue brandit sur le quai des soupirs J'veux pas sortir par leur soupirail Ça schlingue les entrailles L'enfer vomit sa canaille Toujours sur les mêmes fringues frères Et quand frappe l'hiver les frileux s'taille, sûr! You might also likeX2 La voie lactée là où sommeillent les tristes vécus Les causes perdus, les espoirs déçus, repus Où les fantômes d'affamés côtoient les rois déchus On est tous élus là où il y a pas d'exclus ! Je dois reconnaître mon rang, entre le noir et le blanc Sur l'échiquier stellaire, j'ai une case en suspend Louche comme le regard des damnés, le cur est brisé par les sentiments et je mendurcis à chaque seconde J'dormirai pas, sagement à attendre le mouvement qu'ont m'aurai choisi C'est pas mon but, c'est pas ma vie Et dans ma ville assaillit par des forces subtiles Des conflits, flux de galaxy Ici la terre si ont se plient, ont rangent, se plie ont tombe en aillons Succombe sous la honte Frôle des solutions, les scorpions dans les caves se piquent Estompe les raisons, ont fuient, ont se trompent, tu vois! C'est, le bureau ou les barreaux, c'est Dans chaque grandes villes, des tragédies Comme à Las Vegas, la conscience agasse Ont préfèrent l'oublie, l'envie, sa rend plus accessible Aide des gens, sa t'retombe dessus, tu fais l'égoïste, mais tes actes suivent peut être la bonne piste.. La voie lactée là où sommeillent les tristes vécus Les causes perdus, les espoirs déçus, repus Où les fantômes d'affamés côtoient les rois déchus On est tous élus là où il y a pas d'exclus ! Shurik'n J'préfert faire mes affaires, tranquille, j'attends rien de dégun Ce qu'ils font, meurt de faim, où ce con mange mains Par instinct, sert le poing, pour un coin de paradis, si ta pas un radis ont te file aux chiens Y'a des cadis remplis de gueux déçut à qui ont à rien dit Alors ils se gueulent dessus, ils se tapent dessus, ils se trompent Mais sa leurs passent au dessus de la tronche, hélas! Alimente la besace des mauvaises ondes tenaces Une place en laveu, faut pas que sa tarde ont l'avouent Y'a le feu qui darde ses aiguillions, ont verra pt'être pas le prochain réveillon Coupé du reste du monde, le fiel fuit les portes de mon être, avec l'encre, s'enchevêtre, guette la rage dans la bête Lattant le prédateur se réveille, sans que jm'y oppose, ma cause avec, j'impose mon sceau sur chaque textes, en priant pour qu'il y'en aient qui reste Et le reste?! c'est de la littérature, vu que j'suis sur de nada Peste soit de l'incertitude serti de question, le vide répond pas Compas dans la tête j'analyse chaque décisions, chaque directions Ma quête! Disons qu'elle stoppera au son du glas froid comme glaçon, garçon met d'lhuile de coude dans les rouages, fixe pas les nuages, les présages qu'ont élis mettent le mal sur un piédestal Il serait peu sage de ne pas le clamé, l'éclat des pièces se ternis écumes des lames, salit, vexé la belle saute dans la rame vers... X3 La voie lactée là où sommeillent les tristes vécus Les causes perdus, les espoirs déçus, repus Où les fantômes d'affamés côtoient les rois déchus On est tous élus là où il y a pas d'exclus !</t>
+          <t>La voie lactée.. sur la voie lactée ! La voie lactée là où sommeillent les tristes vécus Les causes perdus, les espoirs déçus, repus Où les fantômes d'affamés côtoient les rois déchus Où On est tous élus, là où il y a pas d'exclus ! J'ai ma place quelque part, ça je le sais Où ? Bah c'est ça qu'j'sais pas J'ai p'têtre pas assez de vie pour la trouver Ça m'empêche pas de chercher Partout et comme tous, par temps durs, ont toussent, volontiers... Voyez combiens de volontaires voraces comme moi s'engagent sur le sentier A force de sentir grandir l'urgence ont à le cur inquiet Danse! Le cortège, trop près des flammes ça crame et ont se gaussent sans pitié J'ai pas l'temps, en plus ils tracent trop vite Lassent trop vite, faut qu'je fasse vite La poisse s'en prend trop au lasso Lassés, les bufs solides lâchent Finissent en civet Sauvés par le CV Les veinards servent des ventres gras à vie Plutôt crever que d'pleurer sur mon sort Ailleurs on trouve tableau plus noir, ça change pas mon décor Mais c'est bien d'le savoir, pas perdre le Nord même sur le port Y'a p't'être encore un espoir qui dort sous la chaire et la pierre Mais l'fer interfère Amer cancer Qui presse devant la mise en bière J'trim comme un dingue, chaque rime est un rite que j'accomplis Un flingue brandit sur le quai des soupirs J'veux pas sortir par leur soupirail Ça schlingue les entrailles L'enfer vomit sa canaille Toujours sur les mêmes fringues frères Et quand frappe l'hiver les frileux s'taille, sûr! X2 La voie lactée là où sommeillent les tristes vécus Les causes perdus, les espoirs déçus, repus Où les fantômes d'affamés côtoient les rois déchus On est tous élus là où il y a pas d'exclus ! Je dois reconnaître mon rang, entre le noir et le blanc Sur l'échiquier stellaire, j'ai une case en suspend Louche comme le regard des damnés, le cur est brisé par les sentiments et je mendurcis à chaque seconde J'dormirai pas, sagement à attendre le mouvement qu'ont m'aurai choisi C'est pas mon but, c'est pas ma vie Et dans ma ville assaillit par des forces subtiles Des conflits, flux de galaxy Ici la terre si ont se plient, ont rangent, se plie ont tombe en aillons Succombe sous la honte Frôle des solutions, les scorpions dans les caves se piquent Estompe les raisons, ont fuient, ont se trompent, tu vois! C'est, le bureau ou les barreaux, c'est Dans chaque grandes villes, des tragédies Comme à Las Vegas, la conscience agasse Ont préfèrent l'oublie, l'envie, sa rend plus accessible Aide des gens, sa t'retombe dessus, tu fais l'égoïste, mais tes actes suivent peut être la bonne piste.. La voie lactée là où sommeillent les tristes vécus Les causes perdus, les espoirs déçus, repus Où les fantômes d'affamés côtoient les rois déchus On est tous élus là où il y a pas d'exclus ! Shurik'n J'préfert faire mes affaires, tranquille, j'attends rien de dégun Ce qu'ils font, meurt de faim, où ce con mange mains Par instinct, sert le poing, pour un coin de paradis, si ta pas un radis ont te file aux chiens Y'a des cadis remplis de gueux déçut à qui ont à rien dit Alors ils se gueulent dessus, ils se tapent dessus, ils se trompent Mais sa leurs passent au dessus de la tronche, hélas! Alimente la besace des mauvaises ondes tenaces Une place en laveu, faut pas que sa tarde ont l'avouent Y'a le feu qui darde ses aiguillions, ont verra pt'être pas le prochain réveillon Coupé du reste du monde, le fiel fuit les portes de mon être, avec l'encre, s'enchevêtre, guette la rage dans la bête Lattant le prédateur se réveille, sans que jm'y oppose, ma cause avec, j'impose mon sceau sur chaque textes, en priant pour qu'il y'en aient qui reste Et le reste?! c'est de la littérature, vu que j'suis sur de nada Peste soit de l'incertitude serti de question, le vide répond pas Compas dans la tête j'analyse chaque décisions, chaque directions Ma quête! Disons qu'elle stoppera au son du glas froid comme glaçon, garçon met d'lhuile de coude dans les rouages, fixe pas les nuages, les présages qu'ont élis mettent le mal sur un piédestal Il serait peu sage de ne pas le clamé, l'éclat des pièces se ternis écumes des lames, salit, vexé la belle saute dans la rame vers... X3 La voie lactée là où sommeillent les tristes vécus Les causes perdus, les espoirs déçus, repus Où les fantômes d'affamés côtoient les rois déchus On est tous élus là où il y a pas d'exclus !</t>
         </is>
       </c>
     </row>
@@ -3064,7 +3060,7 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>La voie lactée.. sur la voie lactée ! La voie lactée là où sommeillent les tristes vécus Les causes perdus, les espoirs déçus, repus Où les fantômes d'affamés côtoient les rois déchus On est tous élus là où il y a pas d'exclus ! J'ai ma place quelque part, ça je le sais Où ? Bah c'est ça qu'j'sais pas J'ai p'têtre pas assez de vie pour la trouver Ça m'empêche pas de chercher Partout et comme tous, partant durs, tous volontiers Voyez combien de volontaires voraces comme moi s'engagent sur le sentier A force de sentir grandir l'urgence on à le cur inquiet XXX cortège trop près des flammes ça crame et se gaussent sans pitié J'ai pas l'temps, en plus il trace trop vite XXX faut qu'je fasse vite La poisse en prend trop au lasso Les XXX solides lâchent Finissent en civet Sauvés par le CV Les veinards servent des ventres gras avides Plutôt crever que pleurer sur mon sort Ailleurs on trouve tableau plus noir, ça change pas mon décor Pas perdre le Nord même sur le port Y'a p't'être encore un espoir qui dort sous la pierre et la chaire Mais le fer interfère Amer cancer Qui presse dans la mise en bière Chaque crime est un rite que j'accompli Un flingue brandit sur le quai des soupirs Je veux pas sortir par le soupirail Ça schlingue les entrailles L'enfer vomit sa canaille Toujours sur les mêmes fringues frères Et quand frappe l'hiver les frileux se taillent sur.. You might also like Je dois reconnaître mon rang, entre le noir et le blanc Sur l'échiquier stellaire, j'ai une case en suspens Louche comme le regard des damnés XXX C'est pas mon but, c'est pas ma vie Et dans ma ville assaillit par des forces subtiles XXX Le bureau ou les barreaux XXX</t>
+          <t>La voie lactée.. sur la voie lactée ! La voie lactée là où sommeillent les tristes vécus Les causes perdus, les espoirs déçus, repus Où les fantômes d'affamés côtoient les rois déchus On est tous élus là où il y a pas d'exclus ! J'ai ma place quelque part, ça je le sais Où ? Bah c'est ça qu'j'sais pas J'ai p'têtre pas assez de vie pour la trouver Ça m'empêche pas de chercher Partout et comme tous, partant durs, tous volontiers Voyez combien de volontaires voraces comme moi s'engagent sur le sentier A force de sentir grandir l'urgence on à le cur inquiet XXX cortège trop près des flammes ça crame et se gaussent sans pitié J'ai pas l'temps, en plus il trace trop vite XXX faut qu'je fasse vite La poisse en prend trop au lasso Les XXX solides lâchent Finissent en civet Sauvés par le CV Les veinards servent des ventres gras avides Plutôt crever que pleurer sur mon sort Ailleurs on trouve tableau plus noir, ça change pas mon décor Pas perdre le Nord même sur le port Y'a p't'être encore un espoir qui dort sous la pierre et la chaire Mais le fer interfère Amer cancer Qui presse dans la mise en bière Chaque crime est un rite que j'accompli Un flingue brandit sur le quai des soupirs Je veux pas sortir par le soupirail Ça schlingue les entrailles L'enfer vomit sa canaille Toujours sur les mêmes fringues frères Et quand frappe l'hiver les frileux se taillent sur.. Je dois reconnaître mon rang, entre le noir et le blanc Sur l'échiquier stellaire, j'ai une case en suspens Louche comme le regard des damnés XXX C'est pas mon but, c'est pas ma vie Et dans ma ville assaillit par des forces subtiles XXX Le bureau ou les barreaux XXX</t>
         </is>
       </c>
     </row>
@@ -3081,7 +3077,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>I've come to save you Gonna rescue you Cause I love you baby We love New York Yeah, Yeah À chaque fois qu'j'prends l'mic J'pense à Sia et Coney Island Ces Black Panthers tous épiés par le FBI, t'sais J'déambulais avec BDP dans l'player yes ! On prend ta merde, on la rend meilleur comme KRS On sample, on chop, on coupe à la hache On rembobine à l'impasse comme quand Rakim a débarqué dans la place J'ai PK, NY et le Bridge dans mes veines Le Bronx dans le système et sur ce mur est écrit Harlem J'suis le poster de Lord Finesse à la 125ème Le slice de pizza huileux à un dollar vingt-cinq L'odeur qui pue dans le métro, qui bondit hors des grilles Les boucles énormes de dix carats qui pendent aux lobes des filles On change la donne, on pète la porte comme Kool G Rap qui pose in the streets of New York On sait qu'c'est pas l'paradis mais si on compare les copies La grosse pomme est ce lieu où l'rêve reste possible On frappe fort comme à la première claque que j'ai eu en marchant dans Harlem pour la première fois comme chez moi J'trainais dans Beatstreet-Records, prenais la vibe sous les textes Man I love New York, mon école Mon style vient de là où le break est sorti Où les graffs ont sévis sur le métro des Yankee Laisser mes traces à Brooklyn Bronx dans la peau Jumper sur les hitlists de Flex et Primo Déjà pro, écoute le flow avant 2.0.0.0 Le Queensbridge jumelé avec nos Home-Studios Centre-ville, freestyle en découper les samples Pendant que Pump Up The Jam faisait couler la France On est pas aigris, poto regarde le mic est toujours chaud Et Buddah Kriss envoie des sons qui défoncent la sono Tu connais les protagonistes, pas besoin d'CV Si la 'sique en France a tout fait pour nous couler You might also like We love New York La maison de Biggie, de Big L, de Big Pun, de Rakim et de Big Daddy We love New York Là où la rime naze est handicap Où t'entends 10000 enfants de Kool G Rap We love New York La maison de Jay Z, de D-Block, et du Wu, de Black Star et Skyzoo We love New York Là où Sean Price a travaillé ses phases Où résonne Illmatic de Nasty Nas On met la pression comme le parc à Fort Greene Comme Forty-Five King sur le beat Mis des MC's sur orbite comme l'a dit Daddy Qui tapent et claquent dans l'casque Les freestyles déments de Biz Markie dans Mister Magic's Rap Attack We love New York Brooklyn écrit sur nos habits Starter Patrick Ewing, Jack sur le baggy Le temps d'un couplet défile la géographie Mars devient le Borough six et l'hymne est dans nos machines Respect aux lyricistes Detroit, Philly ou Cali Ouais Mais NYC reste en haut de la liste Et ça livre des sons fous, des squed' dans les valises Faut pas lire tout ces MCs qui squattent en haut de l'affiche J'ai pris mes bombes américaines et mis mon cul au maquis Car les bourgeois hautains ont remplacés leurs cours de marquis Le mérite ne paye pas, ne remplit pas le caddie 6000 kilomètres XXX c'est là où je naquis On parie sur la tradition live, rimes larges Un pack de couplets de barge, et de phases graves Héritier de vibrations des Grandmaster Flash On remet New York à la page A la Nas, je sonne l'alarme Pour les fans de gros samples à l'ancienne Remixés façon 2010 Faudrait pas avoir louïe trop fine fils On va bruler des tympans de nazes façon M.O.P V'la l'équipe AKH et Larage On lâche pas l'affaire même en crypté pour ceux qui pigeaient pas l'rap On revient à la base, au temps du Juice Crew Quand Will Smith et Jazzy Jeff avaient pas d'sous Quand les Ghetto-Blaster défiaient le power Je peux être Rock et Hip Hop, et te mettre à l'heure Pas de neutre stratégie, rien que de la tuerie Bougie à la B.I.G Et Jay Z on l'bousille Ambiance buildings et projects Importés sur Mars pour nous révéler Sans revenus, sans moyens, sans filets Mais sans bling-bling et sans bla-bla Sans blague, des fois j'kiffe mais c'est sérieux les gars We love New York La maison de Biggie, de Big L, de Big Pun, de Rakim et de Big Daddy We love New York Là où la rime naze est handicap Où t'entends 10000 enfants de Kool G Rap We love New York La maison de Jay Z, de D-Block, et du Wu, de Black Star et Skyzoo We love New York Là où Sean Price a travaillé ses phases Où résonne Illmatic de Nasty Nas x5 We love New York2</t>
+          <t>I've come to save you Gonna rescue you Cause I love you baby We love New York Yeah, Yeah À chaque fois qu'j'prends l'mic J'pense à Sia et Coney Island Ces Black Panthers tous épiés par le FBI, t'sais J'déambulais avec BDP dans l'player yes ! On prend ta merde, on la rend meilleur comme KRS On sample, on chop, on coupe à la hache On rembobine à l'impasse comme quand Rakim a débarqué dans la place J'ai PK, NY et le Bridge dans mes veines Le Bronx dans le système et sur ce mur est écrit Harlem J'suis le poster de Lord Finesse à la 125ème Le slice de pizza huileux à un dollar vingt-cinq L'odeur qui pue dans le métro, qui bondit hors des grilles Les boucles énormes de dix carats qui pendent aux lobes des filles On change la donne, on pète la porte comme Kool G Rap qui pose in the streets of New York On sait qu'c'est pas l'paradis mais si on compare les copies La grosse pomme est ce lieu où l'rêve reste possible On frappe fort comme à la première claque que j'ai eu en marchant dans Harlem pour la première fois comme chez moi J'trainais dans Beatstreet-Records, prenais la vibe sous les textes Man I love New York, mon école Mon style vient de là où le break est sorti Où les graffs ont sévis sur le métro des Yankee Laisser mes traces à Brooklyn Bronx dans la peau Jumper sur les hitlists de Flex et Primo Déjà pro, écoute le flow avant 2.0.0.0 Le Queensbridge jumelé avec nos Home-Studios Centre-ville, freestyle en découper les samples Pendant que Pump Up The Jam faisait couler la France On est pas aigris, poto regarde le mic est toujours chaud Et Buddah Kriss envoie des sons qui défoncent la sono Tu connais les protagonistes, pas besoin d'CV Si la 'sique en France a tout fait pour nous couler We love New York La maison de Biggie, de Big L, de Big Pun, de Rakim et de Big Daddy We love New York Là où la rime naze est handicap Où t'entends 10000 enfants de Kool G Rap We love New York La maison de Jay Z, de D-Block, et du Wu, de Black Star et Skyzoo We love New York Là où Sean Price a travaillé ses phases Où résonne Illmatic de Nasty Nas On met la pression comme le parc à Fort Greene Comme Forty-Five King sur le beat Mis des MC's sur orbite comme l'a dit Daddy Qui tapent et claquent dans l'casque Les freestyles déments de Biz Markie dans Mister Magic's Rap Attack We love New York Brooklyn écrit sur nos habits Starter Patrick Ewing, Jack sur le baggy Le temps d'un couplet défile la géographie Mars devient le Borough six et l'hymne est dans nos machines Respect aux lyricistes Detroit, Philly ou Cali Ouais Mais NYC reste en haut de la liste Et ça livre des sons fous, des squed' dans les valises Faut pas lire tout ces MCs qui squattent en haut de l'affiche J'ai pris mes bombes américaines et mis mon cul au maquis Car les bourgeois hautains ont remplacés leurs cours de marquis Le mérite ne paye pas, ne remplit pas le caddie 6000 kilomètres XXX c'est là où je naquis On parie sur la tradition live, rimes larges Un pack de couplets de barge, et de phases graves Héritier de vibrations des Grandmaster Flash On remet New York à la page A la Nas, je sonne l'alarme Pour les fans de gros samples à l'ancienne Remixés façon 2010 Faudrait pas avoir louïe trop fine fils On va bruler des tympans de nazes façon M.O.P V'la l'équipe AKH et Larage On lâche pas l'affaire même en crypté pour ceux qui pigeaient pas l'rap On revient à la base, au temps du Juice Crew Quand Will Smith et Jazzy Jeff avaient pas d'sous Quand les Ghetto-Blaster défiaient le power Je peux être Rock et Hip Hop, et te mettre à l'heure Pas de neutre stratégie, rien que de la tuerie Bougie à la B.I.G Et Jay Z on l'bousille Ambiance buildings et projects Importés sur Mars pour nous révéler Sans revenus, sans moyens, sans filets Mais sans bling-bling et sans bla-bla Sans blague, des fois j'kiffe mais c'est sérieux les gars We love New York La maison de Biggie, de Big L, de Big Pun, de Rakim et de Big Daddy We love New York Là où la rime naze est handicap Où t'entends 10000 enfants de Kool G Rap We love New York La maison de Jay Z, de D-Block, et du Wu, de Black Star et Skyzoo We love New York Là où Sean Price a travaillé ses phases Où résonne Illmatic de Nasty Nas x5 We love New York2</t>
         </is>
       </c>
     </row>
@@ -3098,7 +3094,7 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Entre collisions et sentiments Dans la nuit, plus de figurants Les nerfs à vif la plupart du temps Il était une fois dans la ville De la cité de Dieu à Wall Street Les New Jack jouent les affranchis Ça parle sexe dans la city Il était une fois dans la ville Caméra-épaule, zoom sur des tranches de vie Balayage sur la city la nuit, effet d'style Du ciel en cadre aux fenêtres en couleur sur le screen Plan serré, la réalité cogne à mon script Ça joue à la Play autour des bières, pièce enfumée Au dessus sur l'ordi, webcam, ça chante en anglais Le bloc à côté, seize-neuf movie en Blue Ray Dessous, des gosses dorment sans voir leur père pleurer Ça bedave dans le hall comme d'hab, ça sent pas l'cramé, nan, ça vanne sur des histoires Changement d'décor, baie vitrée, vue sur mer, le champagne efface les scrupules de nouvel adultère A des kilomètres, en résidence de luxe, un mal-être Des larmes d'une femme trompée sur un collier de perles Fondu au noir et on bascule sur le bitume Flash-radar sur le périph', un bolide, une cause perdue Dérapage aux portes de la ville On joue le ralenti, driving sous les ponts des XXX en balise Gros plan sur le réchaud, les vapeurs de la soupe Mêlé au CO2 vont ravir un petit groupe C'est la rue qui se présente, ses lumières et ses sirènes Avant-première, flics et voyous rentrent en scène Vice et embrouille derrière les portes closes L'intimité en rose quand les soucis font des pauses Plan large sur les toits au soleil levant Comme s'il ne s'était rien passé, tout recommence Les rôles reprennent vie dans la survie Et les scénar' distribués n'ont pas de surprise You might also like Entre collisions et sentiments Dans la nuit, plus de figurants Les nerfs à vif la plupart du temps Il était une fois dans la ville De la cité de Dieu à Wall Street Les New Jack jouent les affranchis Ça parle sexe dans la city Il était une fois dans la ville Dessous les lampadaires, un rayon de lumière Et des milliers d'insectes ont goutés à la mort Tout près, une pièce inondées de prières Un homme plein d'rêves tente en vain d'échapper à son sort Deux adolescents s'embrassent dans l'obscurité Ils jurent fidélité et de se marier Ça zone à vingt à l'heure dans une tire avariée Tue le temps à charrier, rouler dans le XXX Entre sacs plastique et vestiges de chariots Taper à l'un des centres commerciaux qui a étranglé le quartier Au snack, le poulet trempe dans la mayo Vient tacher les cahiers On tape sur l'épaule et dit oh why home Seule dans cinq-cents mètres carré Elle attend son mari, sûre comme tout les soirs qu'il s'est barré Mais la banque prend les paris, merde, encore perdu Ce fou dilapide le fric du foyer Des mains virevoltent au dessus des percu' Dans son habit de lumière, elle s'déhanche et fait grimper le mercure Le taulier du cabaret ne remplit pas les coupettes Et deux gars accoudés au bar ont le quart de la recette Dans les poches, une séquence, un plan entre pochetron Plus d'voyou et pas d'lieutenant Caméra-épaule et là tu sens la tension partout Sainte image, tu comprends qu'la nuit est à nous Un il pour voir, un pour chialer sur la monotonie Trafic dans la fabrique à aspirant Manny et Tony Nuit américaine dans les bars où les destins s'abiment Il était une fois la ville Entre collisions et sentiments Dans la nuit, plus de figurants Les nerfs à vif la plupart du temps Il était une fois dans la ville De la cité de Dieu à Wall Street Les New Jack jouent les affranchis Ça parle sexe dans la city Il était une fois dans la ville</t>
+          <t>Entre collisions et sentiments Dans la nuit, plus de figurants Les nerfs à vif la plupart du temps Il était une fois dans la ville De la cité de Dieu à Wall Street Les New Jack jouent les affranchis Ça parle sexe dans la city Il était une fois dans la ville Caméra-épaule, zoom sur des tranches de vie Balayage sur la city la nuit, effet d'style Du ciel en cadre aux fenêtres en couleur sur le screen Plan serré, la réalité cogne à mon script Ça joue à la Play autour des bières, pièce enfumée Au dessus sur l'ordi, webcam, ça chante en anglais Le bloc à côté, seize-neuf movie en Blue Ray Dessous, des gosses dorment sans voir leur père pleurer Ça bedave dans le hall comme d'hab, ça sent pas l'cramé, nan, ça vanne sur des histoires Changement d'décor, baie vitrée, vue sur mer, le champagne efface les scrupules de nouvel adultère A des kilomètres, en résidence de luxe, un mal-être Des larmes d'une femme trompée sur un collier de perles Fondu au noir et on bascule sur le bitume Flash-radar sur le périph', un bolide, une cause perdue Dérapage aux portes de la ville On joue le ralenti, driving sous les ponts des XXX en balise Gros plan sur le réchaud, les vapeurs de la soupe Mêlé au CO2 vont ravir un petit groupe C'est la rue qui se présente, ses lumières et ses sirènes Avant-première, flics et voyous rentrent en scène Vice et embrouille derrière les portes closes L'intimité en rose quand les soucis font des pauses Plan large sur les toits au soleil levant Comme s'il ne s'était rien passé, tout recommence Les rôles reprennent vie dans la survie Et les scénar' distribués n'ont pas de surprise Entre collisions et sentiments Dans la nuit, plus de figurants Les nerfs à vif la plupart du temps Il était une fois dans la ville De la cité de Dieu à Wall Street Les New Jack jouent les affranchis Ça parle sexe dans la city Il était une fois dans la ville Dessous les lampadaires, un rayon de lumière Et des milliers d'insectes ont goutés à la mort Tout près, une pièce inondées de prières Un homme plein d'rêves tente en vain d'échapper à son sort Deux adolescents s'embrassent dans l'obscurité Ils jurent fidélité et de se marier Ça zone à vingt à l'heure dans une tire avariée Tue le temps à charrier, rouler dans le XXX Entre sacs plastique et vestiges de chariots Taper à l'un des centres commerciaux qui a étranglé le quartier Au snack, le poulet trempe dans la mayo Vient tacher les cahiers On tape sur l'épaule et dit oh why home Seule dans cinq-cents mètres carré Elle attend son mari, sûre comme tout les soirs qu'il s'est barré Mais la banque prend les paris, merde, encore perdu Ce fou dilapide le fric du foyer Des mains virevoltent au dessus des percu' Dans son habit de lumière, elle s'déhanche et fait grimper le mercure Le taulier du cabaret ne remplit pas les coupettes Et deux gars accoudés au bar ont le quart de la recette Dans les poches, une séquence, un plan entre pochetron Plus d'voyou et pas d'lieutenant Caméra-épaule et là tu sens la tension partout Sainte image, tu comprends qu'la nuit est à nous Un il pour voir, un pour chialer sur la monotonie Trafic dans la fabrique à aspirant Manny et Tony Nuit américaine dans les bars où les destins s'abiment Il était une fois la ville Entre collisions et sentiments Dans la nuit, plus de figurants Les nerfs à vif la plupart du temps Il était une fois dans la ville De la cité de Dieu à Wall Street Les New Jack jouent les affranchis Ça parle sexe dans la city Il était une fois dans la ville</t>
         </is>
       </c>
     </row>

--- a/data/02_intermediate/cleaned_Faf_Larage_songs.xlsx
+++ b/data/02_intermediate/cleaned_Faf_Larage_songs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C157"/>
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,12 +577,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Misère</t>
+          <t>Habitude</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Columbine - Clubbing for Columbine - 0301 Sam's - Sunday Soundcloud Première saison 0401 Artiste multiples Babali Show rap is not a game vol. 2 - 0501 La Race Canine - Héroïne - 0601 Sanka - Black shaolin - 0801 Black Kent - Morceaux d'un homme - 0801 Freeze Corleone - Vieilles merdes vol. II - 1101 75ème Session - Enter the dojo vol. 2 Diabi - 1501 Alpha Wann - Alph Lauren 2 - 1501 Rim'k - Monster tape 1801 Ninho - I.S.P.A.C 2 - 1801 Scars Volodia - Vitamine R - 2001 Alkpote Butter Bullets - Ténébreuse musique 2101 Lacraps Mani Deïz - 42 grammes - 2201 H Magnum - Gotham city 2301 Godié Swinx - N22 - 2401 Hash24 Sopico - 2075 2501 Artistes multiples - Sismogram - 2501 Euphonik - Inconnu mais reconnu 2501 Taf - Tohu bohu - 2901 Lefa - Monsieur Fall 2901 Bolo Bicrave ou rapper Février 0202 H-Tône - Fistaille made in Toylettes Vol. 1 - 0502 Fixpen Sill - Edelweiss - 0502 Kohndo - Intra-muros - 0502 KSA - VIII 0502 Manny À lhorizon 0502 Oner O 0502 Tarek FastLife Emirates money - 0502 Tortoz - Dans le carré 0702 SLONE - At the boom jazz cafe 0802 Eddy Woogy - Tout Eddy - 0802 Kekra - Free base 2 - 1002 Sango - Flowrilege 1202 Diomay Tchiki O - 1202 Perso - Gratte ciel 1202 Pink Flamingo - Escape - 1702 Peet - PEATE 1902 Bip's - Nocturne pré-régicide 1902 Cadavreski - Sensible 1902 Clem Beatz - Trouble in paradise 1902 Fadah KLM - Le billet de 5 - 1902 Kore - Pattaya Bande Originale 1902 Krom Au Mic Zone franche - 1902 Leeroy - Noir fluo - 1902 Sadek - Roulette Russe - 2102 Inspire - Millenaire II 2502 Timuxx - Super hero 2602 Bazoo - B-Tape - 2602 Brav - Error 404 2602 Dirty Zoo - La Dernière Tribu 2602 Droogz Brigade - Projet Ludovico - 2602 Jazzy Bazz - P-Town 2602 Kamnouze OSNS - 2602 Kool Shen - Sur le fil du rasoir - 2602 Nakk Mendosa - Darksun 2 2602 Numbers - Numbers - 2802 O'boy - OlySide - 2802 Romeo Elvis Le Motel - Morale 2902 Charly Kid Patee Gee - Yacht Club 2902 Vaati - Adventures Mars - 0203 Grems - Green Pisse - 0203 Grems - Freen Pisse - 0303 Biffty - Du sale et du gras Bootleg - 0403 13 Block Violence urbaine émeute 0403 Aris-K Noob saibot - 0403 Jul - My World Réédition - 0403 Lartiste - Maestro - 0403 La Fouine - Nouveau Monde - 0403 Moïse The Dude - Dudelife 0703 Cheeko Blanka - Sont Trop Cools 0803 Skreally Boy - SuperStona1 - 1103 Fababy - Ange Démon 1303 Les 13 Salopards - Own The Spot 1403 Triplego - Eau Max 1503 KSA DJ Weedim - Clochard de luxe - 1703 KT Gorique - Tentative de survie - 1803 DTF - La hass avant le bonheur - 2103 Pesoa - Supra - 2503 Falcko Conte de tess IV 2503 Hugo Délire Kyo Itachi - Grand Delirium - 2503 The Shin Sekaï - Indéfini - 2503 MOH - L'art des Mots 2703 Seven Eli Prod - Double Infini - 3103 Lorenzo - Empereur du sale 3103 Beny, Yacine 1.5, Majdon Co Yazid Z - Reality Show Avril - 0104 Jul - Album Gratuit 2016 - 0104 Ol'Kainry - Superman Noir - 0104 TLF - No Limit - 0404 Juxebox - Naga 0604 Coolax - Black Mathusalem - 0804 Bhati - Abimé 0804 Green Money CDC V 0804 Iris - Magnitude 10 Maxi - 0804 Jehkyl - CVPP Couilles Vides Poches Pleines - 0804 Jorrdee DJ Weedim - Je sais plus - 0804 Les Frères Lumières - À des années lumières - 0804 Lil Taï Z - Lil Taï Z - 0804 Neg' Marrons - Valeur Sûre - 0804 Sultan - Condamné À Régner 1004 Krisy - Parmi vous - 1504 A2H - Libre 1504 Arm TEPR - Psaumes - 1504 Doc Gynéco - Première consultation Edition 20ème Anniversaire - 1504 MHD - MHD - 1504 Artistes multiples - Booska Peufra - Vol. 2 1804 Jiddy - CKDO 2004 Fhat.R Melan - Bornes To Loose - 2204 Big Budha Cheez - L'heure des loups - 2204 Caballero JeanJass - Double Hélice - 2204 MZ - La Dictature 2404 Beeby - Le aigneur Réédition - 2704 Eech - Rosendaal Talk 2904 Artiste multiples - Néochrome présente Microbes saison 1 - 2904 Dr Bériz - 1974 - 2904 Hooss - French Riviera Vol. 2 2904 Loud Lary Ajust - Ondulé - 2904 Tiers Monde - No Future 3004 2spee Gonzales - Ah Souhait Vol. 1 Mai 0205 Brownie Dubz Gang - LE KLVN 0205 I.N.C.H. - Nappage Nocturne - 0305 3010 - Monstre - 0605 Djadja Dinaz - On s'promet - 0605 Jarod - Caméléon - 0605 Kalash Kaos 0605 Paco - Baraka Feat 0605 Rezinsky - Les Hérétiques, Tomes I II - 0605 Mani Deïz, Senamo Seyté - Trois fois rien 1005 Artistes multiples - EOW EP - 1005 Di-Meh - Shine 1205 Jones Cruipy - Rêve européen 1305 Artistes multiples - AMG Hip Hop Présente La France Sous Pression 1305 Coco Tkt Human ex thug 1305 Rochdi - L'Exorciste Cénobite 1305 Specta - Metempsycose - 2005 Alonzo - Avenue de Saint-Antoine - 2005 Dooz Kawa - Bohemian Rap Story - 2005 Ghetto Fabulous Gang - 93 La cité des parias 2005 Houssaw - Play 2005 LK de l'Hotel Moscou - Orient Heights Springbreak 2 - 2005 PSO Thug - Demoniak 2005 Ywill La Jonction - Livre d'or 2005 GLK - Murder 2305 Mani Deïz - Comme les autres - 2505 Ichon - FDP - 2605 Niro - Or Game - 2705 Aero Wonderful - Atmosphère Vol. 2 - 2705 Kekra - Vréel - 2705 Keny Arkana - État d'Urgence 2705 Artistes multiples - Néochrome - Tirs Groupés volume 2 2705 Res Turner - Ouvrez les cages - 2705 Lomepal Stwo - ODSL - 2705 SCH - Anarchie 3105 Hits Alive - Triple 6 Vol. 3 Les Enfants du Diable Juin 0306 Fadah, Kdor Metronom Les sens des maux 0306 Faf Larage Sébastien Damiani - Larage Damiani Extended Play Vol. 2 - 0306 Guizmo - GPG - 0306 Jr O Crom Doomams - Vendetta - 0306 K-LY - Samo - 0306 Lucio Bukowski Oster Lapwass - Oderunt Poetas - 0306 Niska Zifukoro - 0306 Numbers - 77 0306 Rekta - Marche ou Crève 0506 Ockney Chileas Alter ego 2 - 0606 A2H - Studio Files 2015-2016 0606 Funky Armenico Subotaï - Normalus 0606 Ockney Chilea's - Alter Ego 2 1006 Arom - Damien VS Van Helsing - 1206 Salfrom Goune, Stick Bazoo - Godphaseurs - 1306 Josman - Matrix - 1306 Grems The Imposture - P.R.A.F 1506 Jiddy - Training Tape 2 1706 Mac Kregor - Cogito Ergo Sum 1706 Myth Syzer Ikaz Boi - Cerebral EP - 1706 -Crew - Destins Liés - 1906 Panama Bende - Bende Mafia - 2206 Les Tontons Flingueurs - Le démon à 9 queues II 2206 Youno Les Chimistes - Méthylamine - 2406 Alkpote DJ Weedim - Sadisme et perversion - 2406 Bigflo Oli - La cour des grands Réédition 2406 Fizzi Pizzi - C1C2T - 2406 Hamza - Zombie Life - 2406 Jul - Émotions 2406 Zekwé Ramos - FrappMusiq 2606 SOV - Sovaire Ep - 2706 Sopico - MOJO Juillet 0107 Aladoum - Géant Noir - 0107 Les Alchimistes - Cannibales - 0107 Biffty DJ Weedim - Mega Souye Tape 0107 Kahifa - Nueva Luz - 0407 Népal - 444 Nuits - 0807 Damso - Batterie Faible - 0807 Sadek - Nique le casino 1107 Hologram Lo' - Jeep EP 1307 Fencizzle Gsnype - Kramwa'ill - 1807 Lapso Laps - Packman 2107 Les Genero - Parcours du combattant 2707 Nusky - On vit avec - 3107 Despo Rutti - Majster - 3107 Krisy - Menthe à l'eau Août - 0508 O'Trak - Gomorrap - 2608 Maître Gims - À contrecur M.C.A.R. Réédition Septembre - 0209 A2H - Summer Stories Kushtape Volume 2 - 0509 LuXe - LuXemixtape - 0909 13 Block - Ultrap - 0909 Rockin' Squat - Grand Cru Classé 2004-2016 1209 Beeby - 5 Etoiles 1209 K-LY - K-LY Co - 1509 Jul - Album gratuit 2016 Vol. 2 - 1609 PNL - Dans la légende - 1609 Wati B - La Pièce BO du film 1709 A Point Z Matière grise - 2309 Jorrdee - BJOVR IOP! - 2309 Lefa - TMCP - 2309 Volodia - Un Pied sur Terre - 2309 Jayel - Tout Est Dit - 2509 Dinos - Toujours pas Imany mais presque - 2609 Espiiem - Départ 2609 La Connaixion Jeunesse Eternelle - 2609 Tengo John - Près Qu'elle - 3009 Kery James - Mouhammad Alix 3009 LIM - Pirates - 3009 Taïro - Reggae Français Octobre 0710 Elams - Je Suis Elams - 0710 MRC - MRC - 0910 Hakim Sensei - Goldfish 1010 Gys - Vale Tudo 1010 LTA - Echographie 1310 La Prune - La Prune - 1410 Convok - Un jour plus vieux - 1410 Despo Rutti Le Front Kick De Cantona - 1410 Gros Mo - Les de Gros Mo 1410 Lefty All Hayz On Me 1410 JP Manova - 19h07 Réédition - 1410 Soprano - L'Everest 1810 Issaba - À la recherche du temps perdu 2110 Hotel Moscou - L'Opium du Peuple - 2110 Lil Taï Z - Trop Jeune - 2110 Ninho M.I.L.S Maintenant Ils Le Savent - 2110 Naza - Tout pour la street 2110 Skreally Boy - 0352 - 2110 Sneazzy - Dieu bénisse Supersound 2110 Mani Deïz, Nefaste, Ol Zico Pejmaxx Martyrs Modernes 2310 Le 77 - C'est le 77 - 2410 Hamza - New Casanova 2510 2spee Gonzales - Ah Souhait Vol. 2 - 2810 Black M - Eternel Insatisfait - 2810 Casseurs Flowters - Live Tour 2016 2810 Gérard Baste - Le Prince de la Vigne 2810 Jeff Le Nerf Red Album - 2810 Kalash Criminel - R.A.S 2810 Kdor Sales Gosses Incurable 2810 La Méthode - Adrénaline - 2810 L'Algérino - Banderas 2810 Lario Nowhere A Mi-Chemin 2810 Medouze Changer La Donne 2810 Taïpan - P.A.N - 2810 Tortoz - FullG - 3110 T.I.S - L'homme contre le monstre Novembre 0111 Karna - Inconnu mais style reconnu - 0211 Prince Waly Myth Syzer - Junior - 0411 Dosseh - Yuri - 0411 Georgio - Héra - 0411 MMZ - Tout Pour Le Gang 0611 Artistes multiples - Misère Records présente le rap indé ouvre sa gueule - 0611 Lu'cid - Ex-Nihilo 0611 PALA - Acid Rose Garden 0711 Le Bon Son Du Bon Son 3 1111 Artistes multiples - Diamantaire Jee Van Cleef présente Jukebox Vol. 1 1111 Das Raizer - Nathuram Godse - 1111 Kaaris - Okou Gnakouri 1111 Krimo Vis Ta Vie 1511 Mr Kayz - 11 de légende 1611 HIGHMAN - H.I.G.H 1811 Artistes multiples All Stars Industrie - 1811 Mister You - Le Grand Méchant You 1811 Pumpkin Vin'S da Cuero - Chimiq - 1811 Seth Gueko - Barlou 2011 Tengo John - Tortue de Jade 2111 Jorrdee - Wavers 2111 Tonino Entre Temps John-Z Zed Beatz 2111 Dorian - Horizons 2511 Anton Serra Eddy Martin - Les 400 coups - 2511 Gradur - Where is l'album de Gradur 2511 Lacraps - Les Preuves Du Temps - 2511 Lucio Bukowski Milka - Hourvari - 2511 Swift Guad Mani Deiz - Masterpiece - 2711 PLK - Dedans - 2811 Haristone - Bates Motel - 2811 High Five Crew - Silicon Valley 3011 Artistes multiples - Le Gang Des Antillais Bande Originale Du Film De Jean-Claude Barny - 3011 Kekra - FreeBase 3 3011 Sëar-lui-même - À L'arrache, Épisode II Histoires Sans Fin XX11 Néochrome - Générations 88.2 Décembre - 0212 Billy Joe - La petite maison de la tuerie 0212 Chabodo - C'est Le Cha - 0212 Jul - L'ovni - 0212 Nekfeu - Cyborg 0212 Tarek FastLife À Bon Entendeur - 0212 Shay - Jolie Garce - 0212 Shurik'N - Adamant-ium - 0412 So'Clock Negann - Fréquences 0912 Artiste multiples - Booska Pefra Vol. 3 0912 Benito Chacon Chef De Meute 0912 GrandeVille - GrandeVille Records Vol. 1 0912 Lartiste - Clandestino - 0912 Laylow - Mercy 0912 Niro - Les Autres avec Or Game en version physique 0912 Prince Fellaga - Arabesque 0912 Tekilla Le Retour du sombre héros - 0912 Tito Prince - Toti Nation II 1112 Da Nill PubArt - 1112 Luni Sacks - Souterrain Son Vol. 1 - 1212 B-Biface - Fini de pleurer 1212 Hematome Pêle-Mêle 1212 Sauveur Eloheem - Aube 1412 Toy El Mago, Swif Nebaza Rus-Vi Made In 1Dependanz 1612 Artiste multiples - Sauvages, vol. 2 1612 Fayçal - Bords perdus EP 1612 K-Rhyme Le Roi Adrénaline 1612 Melan - Vagabond De La Rime, Vol. 3 - 1812 Rowjay - Carnaval de Finesse 1912 Stick - TricératoX Vol. 2 - 2012 Beny - Pepito deviendra grand 2112 West - Overdose 2212 Seven - 2032 - 2312 Nekfeu - Black Album - 2412 Hamza - Santa Sauce 2512 Grande Instance - 12 ans d'âge 2512 Miklo - Carnal Vol. 1 2512 Sauveur Eloheem - Le Panthéon des Pensées Sombres 2912 GRTZKY - Apex 2912 Sixo Master Flow - JMNDC 3112 G Lamaonthebeat - Dans le noir EP 3112 Jason Voriz - Trap Manstrr Autres - Du 1104 au 1111 Sofiane - Jesuispasséchezso Du 1706 au XXXX Alkpote - Les Marches de l'Empereur, Saison 2 - Du 2307 au 1408 Eskro - Néant 94 Date à confirmer XXXX Treza Ulysse XXXX Minch Né Sous X16</t>
+          <t>Aucun visage ne me regarde Et sur les quelques pièces que je glane A la sortie des magasins, après loffice Le côté face aussi me donne le profil Le soleil tombe avec les degrés Depuis ce matin je marche, mais là mes pieds sont las, il faudrait que je pense à me poser Que je me trouve un porche ou un coin tranquille, bien abrité A lécart des regards, la tolérance est souvent mal imitée Parfois jaimerais être invisible tout comme ces fantômes Ne pas voir ces yeux, qui ne me regardent pas comme on regarde un homme Bonjour madame, nayez pas peur, non, je ne suis pas dangereux Je vous tiens la porte cest tout, cest pas à votre sac que jen veux Cest quun bonjour , ça ne vous coutera pas 1 Allez fouillez votre cur, y'a peut-être encore quelques merci Je vous jure cest pas de ma faute si tout le pays part en vrille Je suis là par manque de chance, la vie a ses sombres héros Comme une ombre au tableau, je croise des routes sans jamais laisser de trace Sil vous plait, voyez moi, une fois avant que le vieux ne mefface Je sais cest dur car vous me percevez comme un peut-être Alors cest presque par instinct que vous tournez la tête Cest vrai je dors là, où vos chiens ont leur chiottes Je gêne les amoureux qui sur les bancs, le soir se bécotent Et si le vent parfois me force à squatter vos entrées Noubliez pas, même les vaincus ont droit au respect Et si le dédain était armé, je serais mort 1000 fois Comme ceux quon trouve le matin gelés et morts de froid Mais là cest pire ma présence ne choque même plus Le temps défile et doucement je deviens une simple habitude On ne me voit plus, je suis transparent, une habitude Les regards glissent, sur mes affaires entassées sur ce trottoir vide Cest tout ce qui me reste, mon testament On ne me voit plus, je suis une silhouette Une ombre sans utilité Comme disent hommes et femmes pleins de futilités Je ne suis quune habitude, ou aucun pas ne sarrête On vit lhiver gelés par la honte Le froid et lété, lindifférence des passants nous fait de lombre Sur un trottoir, un banc on dérange, chacun sa croix Une pièce, de leau courante, un trésor quon ne trouve pas Le soir on marche en petits groupes, livrés à nous-mêmes Rien qui nous retient ici, ni maison, ni repères Nos souvenirs, nos joies dans des sacs poubelles On brave le quotidien et voit nos espoirs à la baisse On fuit la loi et lordre qui nous chassent parce quon na plus de sous Ils ont saisi ma dignité avec mes biens un jour Depuis je vous regarde, faire semblant de ne pas me voir et ça me marque Plus que le temps à tuer sur le goudron une tache dans ce parc Vos non dits qui en disent long me rattrapent Et parmi nous beaucoup se résignent face au mépris, ils signent Pour une idylle avec une bouteille vide On ne juge pas, on a tous une histoire, je ne vous le souhaite pas Je pourrais être vous, vous pourriez être moi Alors je rêve devant les vitrines, tant pis si cest pour de faux Je sais que la rue ne fait pas de cadeau Jessaie dêtre fort même dans le caniveau Je ne suis quune statue de chair parmi vous Et à la fin jaurai joué mon rôle jusquau bout Mais les spectateurs mont fait défaut On ne me voit plus, je suis transparent, une habitude Les regards glissent, sur mes affaires entassées sur ce trottoir vide Cest tout ce qui me reste, mon testament On ne me voit plus, je suis une silhouette Une ombre sans utilité Comme disent hommes et femmes pleins de futilités Je ne suis quune habitude, ou aucun pas ne sarrête On ne me voit plus</t>
         </is>
       </c>
     </row>
@@ -594,12 +594,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Habitude</t>
+          <t>Ta meuf (la caille)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Aucun visage ne me regarde Et sur les quelques pièces que je glane A la sortie des magasins, après loffice Le côté face aussi me donne le profil Le soleil tombe avec les degrés Depuis ce matin je marche, mais là mes pieds sont las, il faudrait que je pense à me poser Que je me trouve un porche ou un coin tranquille, bien abrité A lécart des regards, la tolérance est souvent mal imitée Parfois jaimerais être invisible tout comme ces fantômes Ne pas voir ces yeux, qui ne me regardent pas comme on regarde un homme Bonjour madame, nayez pas peur, non, je ne suis pas dangereux Je vous tiens la porte cest tout, cest pas à votre sac que jen veux Cest quun bonjour , ça ne vous coutera pas 1 Allez fouillez votre cur, y'a peut-être encore quelques merci Je vous jure cest pas de ma faute si tout le pays part en vrille Je suis là par manque de chance, la vie a ses sombres héros Comme une ombre au tableau, je croise des routes sans jamais laisser de trace Sil vous plait, voyez moi, une fois avant que le vieux ne mefface Je sais cest dur car vous me percevez comme un peut-être Alors cest presque par instinct que vous tournez la tête Cest vrai je dors là, où vos chiens ont leur chiottes Je gêne les amoureux qui sur les bancs, le soir se bécotent Et si le vent parfois me force à squatter vos entrées Noubliez pas, même les vaincus ont droit au respect Et si le dédain était armé, je serais mort 1000 fois Comme ceux quon trouve le matin gelés et morts de froid Mais là cest pire ma présence ne choque même plus Le temps défile et doucement je deviens une simple habitude On ne me voit plus, je suis transparent, une habitude Les regards glissent, sur mes affaires entassées sur ce trottoir vide Cest tout ce qui me reste, mon testament On ne me voit plus, je suis une silhouette Une ombre sans utilité Comme disent hommes et femmes pleins de futilités Je ne suis quune habitude, ou aucun pas ne sarrête On vit lhiver gelés par la honte Le froid et lété, lindifférence des passants nous fait de lombre Sur un trottoir, un banc on dérange, chacun sa croix Une pièce, de leau courante, un trésor quon ne trouve pas Le soir on marche en petits groupes, livrés à nous-mêmes Rien qui nous retient ici, ni maison, ni repères Nos souvenirs, nos joies dans des sacs poubelles On brave le quotidien et voit nos espoirs à la baisse On fuit la loi et lordre qui nous chassent parce quon na plus de sous Ils ont saisi ma dignité avec mes biens un jour Depuis je vous regarde, faire semblant de ne pas me voir et ça me marque Plus que le temps à tuer sur le goudron une tache dans ce parc Vos non dits qui en disent long me rattrapent Et parmi nous beaucoup se résignent face au mépris, ils signent Pour une idylle avec une bouteille vide On ne juge pas, on a tous une histoire, je ne vous le souhaite pas Je pourrais être vous, vous pourriez être moi Alors je rêve devant les vitrines, tant pis si cest pour de faux Je sais que la rue ne fait pas de cadeau Jessaie dêtre fort même dans le caniveau Je ne suis quune statue de chair parmi vous Et à la fin jaurai joué mon rôle jusquau bout Mais les spectateurs mont fait défaut On ne me voit plus, je suis transparent, une habitude Les regards glissent, sur mes affaires entassées sur ce trottoir vide Cest tout ce qui me reste, mon testament On ne me voit plus, je suis une silhouette Une ombre sans utilité Comme disent hommes et femmes pleins de futilités Je ne suis quune habitude, ou aucun pas ne sarrête On ne me voit plus</t>
+          <t>Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle est grave, mec Mais sérieux, tout l'monde en a marre, mec Elle se comporte comme le pire des mecs Elle s'la pète, elle met des coups d'tête et des balayettes En Stan Smith et 501 serré Elle traîne la jambe, façon Keyser Sauze t'es fou ! Elle pisse debout en chantant Le crime paye Et ses dents en or, on croit qu'elle va nous bouffer Elle dort avec ses pitt' et ses rott' Dans la cuisine, elle organise des combats de coqs Elle est fons-dé, fais gaffe à son Crew, le lady Unit Gilets par-balle et tatoo Pire que les Crips et les Bloods, elles ont toujours les boules C'est pas les Pussicat Dolls, elles, elles te coupent les couilles Aïe ! C'est chaud ! Et l'autre jour, on m'a volé mon blouson J'dis pas qu'c'est elle, mais putain, j'ai des soupçons Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Quand elle traîne avec nous, c'est glauque, attends, la meuf elle a un Glock Elle a braqué un boucher pour une entrecôte C'est l'autre jour, quand on a fait les courses On l'a retrouvée torchée au rayon bière, à Carrefour Je sais pas pourquoi tu la kiff, elle est pas sexy Quand on sort, elle tape des mecs pour de la sensi Pour faire un barbecue, elle a brûlé ma 106 Oh ! Pour s'excuser, elle m'a taxé ma montre suisse On peut pas mater la télé chez toi Y en a que pour Scarface et pour Tony Montana Tu veux la guerre ? Non ! Y en a marre de la guerre ! Elle nous fait peur, tu piges, quand elle est là, on se chie d'ssus Les mecs se sont mis au karaté, au jujitsu Tu la croises dans la rue, au mieux elle te vomit d'ssus Et t'as vu tout ses bijoux en affaire J'en ai offert à ma mère, c'est pas de l'or c'est du fer Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Je vais pas parler dans son dos, c'est pas mon genre Chaque fois qu'elle croise un agent, à la clé, un jugement Ses roues arrières, son GSXR et son holster Traînent des commissaires sur le goudron, derrière Ahhh ! Le quartier est désert quand elle a ses règles Hier, elle a pé-cho ton cousin sur la poubelle Oh, c'est pas vrai ! Elle deal devant les maternelles c'est abusé Elle est même maudite par lÉternel Ouah ! D'ailleurs, j'suis sûr qu'elle est impliquée dans la mort de 2Pac Quand elle se lève, on dirait Tyson sous crack Et les mecs, elle leur fout la main au cul Oh Si tu lui plait, c'est mort, elle te casse le c Pas d'respect, elle est comme ça Ta meuf, c'est une caille-ra et elle nous kiff pas Et dis lui tout, j'men fou, on est à bout Demain, je me casse au Pérou Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est trop une caille-ra Ohohoh.. Ta meuf, c'est trop une caille-ra Ohohoh..1</t>
         </is>
       </c>
     </row>
@@ -611,12 +611,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Ta meuf (la caille)</t>
+          <t>Monnaie de singe</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle est grave, mec Mais sérieux, tout l'monde en a marre, mec Elle se comporte comme le pire des mecs Elle s'la pète, elle met des coups d'tête et des balayettes En Stan Smith et 501 serré Elle traîne la jambe, façon Keyser Sauze t'es fou ! Elle pisse debout en chantant Le crime paye Et ses dents en or, on croit qu'elle va nous bouffer Elle dort avec ses pitt' et ses rott' Dans la cuisine, elle organise des combats de coqs Elle est fons-dé, fais gaffe à son Crew, le lady Unit Gilets par-balle et tatoo Pire que les Crips et les Bloods, elles ont toujours les boules C'est pas les Pussicat Dolls, elles, elles te coupent les couilles Aïe ! C'est chaud ! Et l'autre jour, on m'a volé mon blouson J'dis pas qu'c'est elle, mais putain, j'ai des soupçons Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Quand elle traîne avec nous, c'est glauque, attends, la meuf elle a un Glock Elle a braqué un boucher pour une entrecôte C'est l'autre jour, quand on a fait les courses On l'a retrouvée torchée au rayon bière, à Carrefour Je sais pas pourquoi tu la kiff, elle est pas sexy Quand on sort, elle tape des mecs pour de la sensi Pour faire un barbecue, elle a brûlé ma 106 Oh ! Pour s'excuser, elle m'a taxé ma montre suisse On peut pas mater la télé chez toi Y en a que pour Scarface et pour Tony Montana Tu veux la guerre ? Non ! Y en a marre de la guerre ! Elle nous fait peur, tu piges, quand elle est là, on se chie d'ssus Les mecs se sont mis au karaté, au jujitsu Tu la croises dans la rue, au mieux elle te vomit d'ssus Et t'as vu tout ses bijoux en affaire J'en ai offert à ma mère, c'est pas de l'or c'est du fer Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Je vais pas parler dans son dos, c'est pas mon genre Chaque fois qu'elle croise un agent, à la clé, un jugement Ses roues arrières, son GSXR et son holster Traînent des commissaires sur le goudron, derrière Ahhh ! Le quartier est désert quand elle a ses règles Hier, elle a pé-cho ton cousin sur la poubelle Oh, c'est pas vrai ! Elle deal devant les maternelles c'est abusé Elle est même maudite par lÉternel Ouah ! D'ailleurs, j'suis sûr qu'elle est impliquée dans la mort de 2Pac Quand elle se lève, on dirait Tyson sous crack Et les mecs, elle leur fout la main au cul Oh Si tu lui plait, c'est mort, elle te casse le c Pas d'respect, elle est comme ça Ta meuf, c'est une caille-ra et elle nous kiff pas Et dis lui tout, j'men fou, on est à bout Demain, je me casse au Pérou Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est une caille, mec, elle met des coups d'tête Elle fume, elle boit, elle s'la pète Elle est dingue, elle est raide, elle est pas nette Elle met des balayettes, c'est une caille-ra Ta meuf, c'est trop une caille-ra Ohohoh.. Ta meuf, c'est trop une caille-ra Ohohoh..1</t>
+          <t>Narcos Yah J'descends pas du singe mais du A45 A45 Et le bras est long comme la première peine du sin-c' grr, pah J'descends pas du singe mais du A45 A45 L'argent n'fait pas l'bonheur mais en avoir, ça reste quand même plus simple eh, c'est vrai ou pas ? Des gants en croco' cachent les mains d'un sauvage sauvage, sauvage, sauvage Ca-capuche dans l'auto, très sombre personnage Yuri Des gants en croco' cachent les mains d'un sauvage gang Capuche dans l'auto, très sombre personnage C'est pas avec une pute que tu vas m'appâter pour me faire nan, nan C'est pas n'importe quelle cruche avec un ul-c qui a les compétences pour me plaire ah J'ai deux-trois contacts sûrs pour l'jour où j'aurais b'soin d'me refaire J'ai deux-trois contacts sûrs pour l'jour où j'aurais b'soin d'mener une guerre pah, pah, pah, pah C'est le dernier Doss' dans la voiture ouvreuse dernier Doss', dernier Doss' Rajoute une pièce car la qualité est coûteuse Tu te questionnes sur qui sont ces bêtes fougueuses Qui sont-ils vraiment ? Qui sont-ils vraiment ? Huh, nous on s'questionne sur ta sexualité douteuse M'parle pas, j'suis dans ma trice-ma, n'te prononce pas sur c'que tu maîtrises pas ta gueule C'est qu'j'ai pas assez charbonné s'il m'reste de la place dans mon coffre pour les kichtas hey Chasser gibier, nourrir mille-fa nourrir mille-fa Rien à branler d'jouer à Fifa, yah J'descends pas du singe mais du A45 A45 Et le bras est long comme la première peine du sin-c' grr, pah J'descends pas du singe mais du A45 A45 L'argent n'fait pas l'bonheur mais en avoir, ça reste quand même plus simple eh, c'est vrai ou pas ? Des gants en croco' cachent les mains d'un sauvage sauvage, sauvage, sauvage Ca-capuche dans l'auto, très sombre personnage Yuri Des gants en croco' cachent les mains d'un sauvage gang Capuche dans l'auto, très sombre personnage Yah, j'suis dans la boutique, j'choisis mes articles en faisant am stram gram plouf, plouf Suivant l'exemple des barons d'la came, on s'est construit gramme par gramme Est-ce qu'au hasard, on s'connaît dis-moi ? J'sais pas, tu m'as toisé quand j'venais j'sais pas Perso', j'ai un peu d'mal à t'remettre hein, a-t-on un 'blème de go' ou d'monnaie ? Nouvelle gestu, nouvelle degz, on les cherche même plus à sauver le binks fwish, fwish Texte crû pour faire bouger le teh J'vante mes victoires breh, mais j'assume mes déboires eh J'rappais d'jà mais j'allais bon-char sur du Boulogne Boy et du Rimes et Gloires J'fais dans la mélo', dans l'médicinal, faut cinq-six zéros après la décimale J'roule SO.L.O, y a que ça qui m'aille, fuck la race humaine, vive le règne animal, ey Il faudrait que j'me fasse opérer du cur hein, que j'songe à arrêter de rapper cette pute de rue, c'est réducteur, yah J'descends pas du singe mais du A45 A45 Et le bras est long comme la première peine du sin-c' grr, pah J'descends pas du singe mais du A45 A45 L'argent n'fait pas l'bonheur mais en avoir, ça reste quand même plus simple eh, c'est vrai ou pas ? Des gants en croco' cachent les mains d'un sauvage sauvage, sauvage, sauvage Ca-capuche dans l'auto, très sombre personnage Yuri Des gants en croco' cachent les mains d'un sauvage gang Capuche dans l'auto, très sombre personnage</t>
         </is>
       </c>
     </row>
@@ -628,12 +628,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Monnaie de singe</t>
+          <t>Le Frunkp</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Narcos Yah J'descends pas du singe mais du A45 A45 Et le bras est long comme la première peine du sin-c' grr, pah J'descends pas du singe mais du A45 A45 L'argent n'fait pas l'bonheur mais en avoir, ça reste quand même plus simple eh, c'est vrai ou pas ? Des gants en croco' cachent les mains d'un sauvage sauvage, sauvage, sauvage Ca-capuche dans l'auto, très sombre personnage Yuri Des gants en croco' cachent les mains d'un sauvage gang Capuche dans l'auto, très sombre personnage C'est pas avec une pute que tu vas m'appâter pour me faire nan, nan C'est pas n'importe quelle cruche avec un ul-c qui a les compétences pour me plaire ah J'ai deux-trois contacts sûrs pour l'jour où j'aurais b'soin d'me refaire J'ai deux-trois contacts sûrs pour l'jour où j'aurais b'soin d'mener une guerre pah, pah, pah, pah C'est le dernier Doss' dans la voiture ouvreuse dernier Doss', dernier Doss' Rajoute une pièce car la qualité est coûteuse Tu te questionnes sur qui sont ces bêtes fougueuses Qui sont-ils vraiment ? Qui sont-ils vraiment ? Huh, nous on s'questionne sur ta sexualité douteuse M'parle pas, j'suis dans ma trice-ma, n'te prononce pas sur c'que tu maîtrises pas ta gueule C'est qu'j'ai pas assez charbonné s'il m'reste de la place dans mon coffre pour les kichtas hey Chasser gibier, nourrir mille-fa nourrir mille-fa Rien à branler d'jouer à Fifa, yah J'descends pas du singe mais du A45 A45 Et le bras est long comme la première peine du sin-c' grr, pah J'descends pas du singe mais du A45 A45 L'argent n'fait pas l'bonheur mais en avoir, ça reste quand même plus simple eh, c'est vrai ou pas ? Des gants en croco' cachent les mains d'un sauvage sauvage, sauvage, sauvage Ca-capuche dans l'auto, très sombre personnage Yuri Des gants en croco' cachent les mains d'un sauvage gang Capuche dans l'auto, très sombre personnage Yah, j'suis dans la boutique, j'choisis mes articles en faisant am stram gram plouf, plouf Suivant l'exemple des barons d'la came, on s'est construit gramme par gramme Est-ce qu'au hasard, on s'connaît dis-moi ? J'sais pas, tu m'as toisé quand j'venais j'sais pas Perso', j'ai un peu d'mal à t'remettre hein, a-t-on un 'blème de go' ou d'monnaie ? Nouvelle gestu, nouvelle degz, on les cherche même plus à sauver le binks fwish, fwish Texte crû pour faire bouger le teh J'vante mes victoires breh, mais j'assume mes déboires eh J'rappais d'jà mais j'allais bon-char sur du Boulogne Boy et du Rimes et Gloires J'fais dans la mélo', dans l'médicinal, faut cinq-six zéros après la décimale J'roule SO.L.O, y a que ça qui m'aille, fuck la race humaine, vive le règne animal, ey Il faudrait que j'me fasse opérer du cur hein, que j'songe à arrêter de rapper cette pute de rue, c'est réducteur, yah J'descends pas du singe mais du A45 A45 Et le bras est long comme la première peine du sin-c' grr, pah J'descends pas du singe mais du A45 A45 L'argent n'fait pas l'bonheur mais en avoir, ça reste quand même plus simple eh, c'est vrai ou pas ? Des gants en croco' cachent les mains d'un sauvage sauvage, sauvage, sauvage Ca-capuche dans l'auto, très sombre personnage Yuri Des gants en croco' cachent les mains d'un sauvage gang Capuche dans l'auto, très sombre personnage</t>
+          <t>Ooh! T'inquiète, c'est Cut Killer HH pour Faf Larage Hey écoute ça, back in the days à l'ancienne J'ai commencé en 80 Et en 81 - 2 - 3 - 4 le rap m'a accroché Tellement qu'en 2007 je kill Encore des mics sur des beats qui déchirent N'essaie même pas de venir test quand c'est Faf qui officie Mc depuis 85, 87 devant un public Tu connais le gimmick yo sur le mic yo C'était en 80 au tout début du rap yo Y avait surtout le breakdance et chacun commençait à s'y mettre On échappait pas à la vague yo C'était le début y avait tout à faire On prenait nos problèmes, les mettait en rimes et ça le faisait Loin de moi l'idée de me la jouer, de faire l'ancien C'est juste quelques souvenirs anciens D'un gamin devant sa radio, j'essaye de capter Quelques nouveautés sur les émissions de funk bébé Paraît qu'il y a un nouveau son à New York City R.A.P. on va en entendre parler J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais Y a eu Beatstreet, Breakstreet Dans le cinéma ça file Say what ? À l'époque on n'espérait pas faire de la tune Mais juste avoir le style Y avait pas internet mais garanti ça dansait sur tous les sites Hip Hop l'émission après Starsky chut c'est parti De Bambataa à Run-DMC La claque du premier album de Public Enemy J'ai pété les plombs devant le Big Daddy Le Kool G, du Biz Markie trop d'albums fils Trop de flows dans ma feuille et mon stylo J'voulais faire partie des pros du micro c'était chaud On disait le rap ça durera pas C'est juste bon pour les blacks, on n'en veut pas Trop d'Noirs et d'Arabes dans le paysage On avait trouvé une culture mec c'est ça On va l'dire comme ça à l'ancienne Détermination fallait qu'on s'y tienne On était quoi au Vieux Port au début une trentaine? Dédicace à la old school de Marseille J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais J'te parle d'un gosse qui rêvait de micro et pas d'or Quand tout le monde disait c'est fini la mode Fallait aimer le hip-hop et au-delà fallait croire en quelque chose Sinon on finissait paumé dans la zone On était là avec nos Adidas, B. Boy Stance À parler vinyles semaines et week-ends Comment c'était important les habits J'te parlerai pas d'embrouilles là j'en ai pas envie J'te ramène des good vibes sur ma musique Avant les concerts, les groupies et le fric Les scratchs de DST sur RockIt The Message et Rapper's Delight Fixaient déjà les courants du rap Y a eu la vague des samples de James Brown Et moi je cherchais ma place dans le hip-hop On avait peu d'infos à la radio Ça mixait le funk et les Kurtis Blow Les DJ's, les anciens ont filé le micro Y avait les premiers raps sociaux Y a eu les premiers raps ghettos La variét' nous regardait de haut Y avait déjà la chasse aux faux Avant les premières sessions de studio J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais Oooh wee! T'inquiète, Cut Killa Killa H-H Pour my man Faf Larage Ooh! On lâche pas l'affaire, hey! Hey Faf, t'inquiète, t'inquiète, toi-même-tu-sais!</t>
         </is>
       </c>
     </row>
@@ -645,12 +645,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Le Frunkp</t>
+          <t>Mon clan</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Ooh! T'inquiète, c'est Cut Killer HH pour Faf Larage Hey écoute ça, back in the days à l'ancienne J'ai commencé en 80 Et en 81 - 2 - 3 - 4 le rap m'a accroché Tellement qu'en 2007 je kill Encore des mics sur des beats qui déchirent N'essaie même pas de venir test quand c'est Faf qui officie Mc depuis 85, 87 devant un public Tu connais le gimmick yo sur le mic yo C'était en 80 au tout début du rap yo Y avait surtout le breakdance et chacun commençait à s'y mettre On échappait pas à la vague yo C'était le début y avait tout à faire On prenait nos problèmes, les mettait en rimes et ça le faisait Loin de moi l'idée de me la jouer, de faire l'ancien C'est juste quelques souvenirs anciens D'un gamin devant sa radio, j'essaye de capter Quelques nouveautés sur les émissions de funk bébé Paraît qu'il y a un nouveau son à New York City R.A.P. on va en entendre parler J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais Y a eu Beatstreet, Breakstreet Dans le cinéma ça file Say what ? À l'époque on n'espérait pas faire de la tune Mais juste avoir le style Y avait pas internet mais garanti ça dansait sur tous les sites Hip Hop l'émission après Starsky chut c'est parti De Bambataa à Run-DMC La claque du premier album de Public Enemy J'ai pété les plombs devant le Big Daddy Le Kool G, du Biz Markie trop d'albums fils Trop de flows dans ma feuille et mon stylo J'voulais faire partie des pros du micro c'était chaud On disait le rap ça durera pas C'est juste bon pour les blacks, on n'en veut pas Trop d'Noirs et d'Arabes dans le paysage On avait trouvé une culture mec c'est ça On va l'dire comme ça à l'ancienne Détermination fallait qu'on s'y tienne On était quoi au Vieux Port au début une trentaine? Dédicace à la old school de Marseille J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais J'te parle d'un gosse qui rêvait de micro et pas d'or Quand tout le monde disait c'est fini la mode Fallait aimer le hip-hop et au-delà fallait croire en quelque chose Sinon on finissait paumé dans la zone On était là avec nos Adidas, B. Boy Stance À parler vinyles semaines et week-ends Comment c'était important les habits J'te parlerai pas d'embrouilles là j'en ai pas envie J'te ramène des good vibes sur ma musique Avant les concerts, les groupies et le fric Les scratchs de DST sur RockIt The Message et Rapper's Delight Fixaient déjà les courants du rap Y a eu la vague des samples de James Brown Et moi je cherchais ma place dans le hip-hop On avait peu d'infos à la radio Ça mixait le funk et les Kurtis Blow Les DJ's, les anciens ont filé le micro Y avait les premiers raps sociaux Y a eu les premiers raps ghettos La variét' nous regardait de haut Y avait déjà la chasse aux faux Avant les premières sessions de studio J'te ramène des good vibes, on kiffait le rap On and on and on, on and on Les noms sur les chaines, les ceintures et les bagues On and on and on, on and on Les graffs sur les jeans, les métros et les tags On and on and on, on and on Les concerts rares comme les skeuds dans les bacs Toi-même tu sais Oooh wee! T'inquiète, Cut Killa Killa H-H Pour my man Faf Larage Ooh! On lâche pas l'affaire, hey! Hey Faf, t'inquiète, t'inquiète, toi-même-tu-sais!</t>
+          <t>Fils, ignore la voix, le duc, tu sais Mais cest pas moi, qui parle Hip-Hop, mixe, si on y reste, ça suffit Cesser, on nous supplie sur ta vie, on oublie Dédicace de Mars Génération des fils de zoufris On fout le feu, rien à foutre, la loose cest pour ceux Qui crachent dans la soupe et qui pensent comme eux Holocauste, fils, tu le sais cest pas si loin Des bouseux et des vieux haineux en veulent à nos racines Voient nos destins au bout dune corde juste pour la forme Si cest pas ton cas, enculé regarde pour qui tu votes Plus de négligence, ni de chance Quand vient lheure au bal de la souffrance Personne nespère une dernière danse Rue sombre, les murs tombent La grande faucheuse fait ses rondes et on espère ne pas la croiser Mais sil le faut, faire un bout de chemin à ses côtés Soit, et si on plie, on smange, on ne se relève pas Dieu nous regarde alors, Mc, justifie ta tâche Mars, on représente le Sud, on dit c'qui s'passe Ici, on a la musique pour nous, le feeling et les larmes La fierté et la rage comme dans nos rimes on vide nos armes La violence s'entend dans l'accent Marseille mon clan Cest pourquoi on représente les nôtres Mon peuple maudit, pour mon école et ma vie La ville est notre quartier, sans relâche arpenté Charpentés, comme une belle femme, les rues sont vidées Cité impossible à dompter, difficile déviter Lentité révoltée, poches vides, cur gonflé Les idées reçues, les clichés persistent et Pas mal de gars décidés veulent résister, suis la piste épicée Ya pas à dire cest live de Mars et ça le fait Eh, faut pas fuir, je viens de commencer Je ferai ce quil faut pour que la flamme crame, poto Quitte à monter au créneau, un bon cocktail molo' À lancienne frérot, essuie ta sueur mon garde-cur Même sous les clameurs on commet pas derreurs On focalise sur les labeurs, peur de rien, et dites-leur bien Quon marche quavec des mecs droits comme leur conscience Ça fout la trouille, hein ? Pourtant ma ville garde le sourire Endurcis, certains on compris Les autres sappuient sur un mur et soupirent Tant pis, cest la vie Cest ce quon écrit Sil faut le crier, faudra pas nous prier On représente ce quon est, fils et ça va pas sarrêter ici Les double dragons visent haut pour la lune noire Shurikn, Faf Larage, pour le C.O, dans l'lard La violence s'entend dans l'accent Marseille mon clan Cest pourquoi on représente les nôtres Mon peuple maudit, pour mon école et ma vie1</t>
         </is>
       </c>
     </row>
@@ -662,12 +662,12 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Dernier coup d’éclat</t>
+          <t>A cet instant précis</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Pour certains c'étaient des potes, et pour d'autres des p'tits d'la cité Mais seulement un sur trois a survécu dans l'électricité Ça a été une réalité dure à accepter Le 27 octobre, Zyed et Bouna nous ont quittés Dix-sept ans et quinze ans, eh, trop jeunes pour partir Trop jeunes pour dire à tout l'monde On se reverra qu'en dehors de cette terre Vu qu'on est tous des hommes, on passera tous, tôt ou tard, par la mort mes frères Quand des mômes fuient la police par peur jusqu'à perdre la vie On doit s'poser des questions, moi j'suis juste un mec qui donne son avis J'suis là pour, on a tous vu au moins une fois les civils Déraper comme des barges dans la cour On s'comprend plus, de là tout part Quand même nos ministres désignent les gosses innocents coupables Aujourd'hui j'frémis parce que j'ai trois enfants Et garde ce dernier vers, car je sais c'que sentent les parents Mon Dieu, j'pense à Zyed et son accent blédard Son sourire gentil, et son pull à capuche Tim noir Toujours serviable et jamais en colère On l'appelait Lance-Pierres, il avait une force d'homme frère J'pense à Bouna, toujours avec Harouna Tout l'temps au Chêne Pointu, pourtant il habitait la PAMA Respect aux familles Traoré et Benna Le ghetto est en pleurs, j'en perds mes mots, Allah y rahmou On veut savoir ce qu'il s'est passé On veut nous cacher la vérité Toute une communauté sous haute tension Deux vies gâchées sans explication Une famille perd son enfant Impossible d'oublier, même avec le temps Bouna, Zyed, paix à vos âmes, paix à vos âmes Oh, paix à vos âmes, oh yeah Sur ce son, on rappe, on dédie cette zik à Bouna et Zyed Non j'ai du mal à croire J'ai du mal à voir ton blaze Bouna, gravé sur du marbre Tu t'en rappelles, chaque soir des bêtes de darka sur une rocade Histoire d'être capital, t'avais une tête de plus que moi Amateur de moto, danseur de XXX À fond dans les govas et les gos, de jour en jour je deviens fou Dans ma tête, de bons moment en boucle Demande à tous, depuis qu't'es parti je ris mais y a plus goût à rire Tu manques à la famille À chaque yer-pri, je prie que Dieu vous ouvre les portes du Paradis Sur ce, j'ai les nerfs, B2G, courageux, parole de frère Hier, j'ai croisé l'émotion, elle touchait le fond J'ai croisé des jeunes et j'ai croisé des mères, donc j'ai croisé le monde J'ai croisé les doigts, crois-moi j'ai prié ma sur J'ai pris ma feuille, j'ai pris mon cur et puis j'ai crié ma peur L'amour est fiable et tu l'sais, la guerre est bad Elle et lui vous êtes Bouna, toi et moi, on est Zyed On est des anges, on est des grands, on est les enfants qui dérangent Avec le cur en sang, on chante pour tous ceux qui nous manquent Nous sommes épuisés par les pleurs, à peine quinze ans, à fleur de vie Bouna, ça fait drôle de plus t'voir en roue arrière sur ton vélo Boucle d'oreille, sapé goss'bo J'ai lancé des projectiles pour vous venger Mais rien n'vous a réveillé, Zyed, où est passée ta tête Qui nous écoutait l'soir à la fenêtre du premier étage ? Parlais pas trop, trop sage Tristesse, dépit, faiblesse nous ont envahis La France est en deuil, le ghetto pleure deux des siens La colère dans les yeux, deux enfants sont morts pour rien Une pensée pour eux, lions nos deux mains Que Dieu leur ouvre la porte des cieux et qu'ça n'arrive plus demain Y a des écoles qui brûlent et des voitures s'embrasent OK brûlons-la mais pas l'histoire de base Bouna et Zyed, deux enfants morts avant l'âge Rien qu'd'y penser, moi ça m'fout la rage, hmm Hommage à mes deux potos, qui sont partis trop tôt Quand j'regarde leurs photos, un frisson me monte au dos On n'vous verra plus en mode peace à la cité Ça fera bizarre mais c'est une triste réalité Zyed et Bouna, malheureusement, nous ont quittés Qu'ils demeurent au Paradis pour l'éternité En attendant j'ai perdu deux d'mes res-frè Si c'était à refaire, ce couplet ben je l'referais À mes potes, Zyed et Bouna Reposez en paix Allah y rahmou Pensée pour Muhittin Ma présence n'a rien d'honorable, elle est juste normale J'serai toujours auprès des miens tant qu'ils auront mal C'que j'vois dans le studio, c'est beau, c'est grand Les miens se sont unis mais pas dans l'autodestruction Parce que les miens ont une force qu'il sont les seuls à ignorer J'attends l'jour où ils vont s'lever, s'élever dans le respect Que Dieu fasse miséricorde à nos frères Zyed et Bouna Faut voir comment respecter leur mémoire Pour Bouna et Zyed Je prends ma plume en versant quelques larmes Partageant la douleur La souffrance des familles qui les pleurent Comprendre ce qu'il s'est passé Exposer la vérité au grand jour Que ce fardeau soit moins lourd, oh yeah Bouna et Zyed restent dans nos curs à tout jamais C'est pour nos minots que j'retranscris mes larmes du bout d'mon stylo Pourquoi dans nos trous à rats, s'en sortent qu'une mino' J'tire le signal d'alarme avant d'en venir aux armes Paix à vos âmes et à vos XXX Morts pour rien, c'est l'slogan qui fera p't-être réagir ceux qui siègent à l'Assemblée Nous on s'est rassemblés pour rendre hommage à nos morts C'est à eux qu'on a dédié l'ceau-mor Traoré et Benna, c'est à vous qu'on a dédié l'ceau-mor Le cur serré devant ma feuille blanche La main tremblante, mal au crâne de voir qu'on nous écoute que quand les coins crament Toujours la même, c'est la merde, ainsi d'suite On veut fuir la misère à chaque course-poursuite Que Dieu donne la force aux familles en deuil À leurs proches pour surmonter cette dure épreuve Dites à Nicolas que malheureusement, derrière les voitures qui brûlent C'est la détresse des quartiers qui hurle J'lève la main en l'air à la mémoire de nos p'tits frères J'lève la main en l'air pour leurs pères et pour leurs mères J'parle avec le cur au nom d'une jeunesse en détresse Vas-y cours petit, cours, pour fuir la tristesse Qu'Allah leur pardonne d'avoir provoqué un drame Aujourd'hui j'appelle au calme, il faudrait éteindre les flammes L'âme est touchée mais le corps se relèvera Je demande aux miens de ne jamais baisser les bras Mourir d'sa belle mort est la chose la plus belle au monde Mais l'destin en a voulu autrement, quelle chose immonde Fin d'une vie humaine et des plaisirs éphémères d'la vie Nos curs pleurent de désespoir et la haine nous envahit Enivrés d'tristesse, leur non-présence nous blesse sans cesse L'ciel a voulu qu'ils décèdent, guettent dans l'au-delà mais laisse Une pensée à ces hommes qui n'vivent plus qu'dans nos mémoires Quelques temps d'silence à leurs personnes XXX La disparition de deux êtres innocents et honnêtes A provoqué beaucoup de rivières de larmes sur les pommettes Adolescents laissant derrière leur dos Des centaines de pleurs, des curs blessés et c'est en s'en- Traidant, en se serrant les coudes Que l'on peut rester forts quand la mort fait escale chez nous Salam à vous, tenez le coup, uvrez dans l'bien Difficile pour une famille d'avancer avec un membre en moins J'commence en faisant deux mesures de silence pour les enfances perdues En guise d'insulte pour tous les esprits tordus ... Sa mère! J'ai les nerfs de voir nos pères en larmes J'ai les nerfs de voir mes frères s'noyer dans l'drame Et lors d'un banal contrôle dans nos halls on a le rôle d'un animal pour la Gaule De vandales pour les héritiers d'De Gaulle XXX La France pays de rencontres XXX XXX La douleur parle, nous on perd des frères C'est juste un appel au calme dans cette époque de merde Paix à la famille, laissez-la faire son deuil J'verse une goutte sur l'sol et vers l'ciel j'jette un il Ça fait mal quand quelqu'un part mais c'est Dieu qui décide On s'retrouvera plus tard, sur la route sur laquelle on s'destine Morts pour rien, pour vous on a beaucoup d'estime Que Dieu vous garde, OK, reposez en paix À nos frères morts violemment, aux plus jeunes qui prouvent qu'on peut réussir brillamment Le plus important, l'dîn, on veut tous partir dignement Rattraper nos péchés, à part les drames, rien pour nous unir C'est c'qui nous manque, combien passeront la barre des trente Vies courtes mais intenses, profite des tiens, porte avec honneur toutes nos valeurs Décharger les mamas du poids d'nos malheurs Dramatique pour les familles blessées dans l'âme Résister pour exister, wesh les p'tits frères, faut éviter l'haram Y a trop d'souffrances au cur des abysses dans les quartiers d'France Alerte maximum pour les mômes, état d'urgence J'porte des fleurs pour les morts, faut qu'on y pense Et qu'on sème de l'espoir pour le futur Même si la poisse rend l'quotidien trop dur, même si les pleurs parlent quand des gosses partent N'oublions pas qu'les anges ne meurent pas C'est juste quelques mots en votre mémoire Votre histoire gravée sur le marbre, un hommage pour dire qu'y en a marre Un hommage à Benna, Traoré Deux p'tits frangins Allah y rahmou, qui sont partis haja Morts pour rien, là où vous êtes Inch'Allah vous êtes bien Beau temps, mauvais temps, vous étiez toujours contents J'ai du mal à réaliser qu'le temps nous a séparés Le mal qu'ils nous ont fait, ils pourront jamais le réparer XXX, Traoré Quelle époque nous vivons, quelle époque C'est pour XXX Quelle époque nous vivons, perdre sa vie sans raison Sans explication, la banlieue pleure à l'unisson Mais quelle époque nous vivons? On veut savoir le pourquoi du comment Dialogue de sourds, on nous répond en nous insultant Mais quelle époque nous vivons? Trop p'tits pour partir d'nos rangs Pas assez d'mots pour apaiser les parents Mais quelle époque nous vivons? D'autres agissent en cassant Manière douce, nous on transforme notre rage en chanson J'connais l'respect, pas celui qui sort d'la bouche des autres Celui qu'on m'a appris depuis tout gosse mais on est tous des hommes Ça m'désole et on s'demande que faire face à tout c'désordre Et pour s'faire entendre, faut qu'la voix d'mes couz' résonne Plus rien n'est sûr quand y a l'sheitan et ses miss qui zonent Mais qu'ils ont, à croire que ça leur plaît d'voir une enfance qui XXX Pendant qu'les best pigeonnent, j'vois le reste qui chôme Nous on est jeunes, plein d'avenir et c'est toute ma tristesse qui somme Dites-moi comment régler les problèmes en supprimant les solutions Ce système a trop sous-estimé sa population L'oppression a une faille, nous a enlevé deux de nos frères C'est les larmes aux yeux que l'on pratique notre prière 93, volcan en éruption, banlieue poudrière On n'éteint pas notre flamme, c'est jusqu'à la mort qu'on sera solidaire Tremblay en hommage, ma ville crame, lâchez les Canadair Y a rien à dire, dors avant d'partir en guerre Histoire triste, j'suis pas là pour m'faire d'la pub Les chtars guidés par Ibliss frère, ici ça devient rude Perdre deux d'nos proches pendant l'ramdam Une pensée hardcore pour les rents-pa qui pleurent l'âme I.S.L.A.M., ma source vitale Apprendre la mauvaise nouvelle d'un mort, mon frère, ça on l'vit tous mal J'accepte plus l'mektoub, les soucis ressurgissent Combien d'enfants avec une tombe avant qu'la France agisse Respect aux familles, aux amis, aux manifestants Existants, restant résistants Et exigeant, détestant les forces, les testant Et quel ordre? C'est l'désordre qui est présent Fort déplaisant, unis dans tous les sens Munis d'encre ou d'essence personne n'est perso Ou hésitant, devant c't accident attristant A cité ta cité s'assistant Tata nzambé XXX bongo XXX Benna, Traoré Ouais, c'est du meurtre, qu'c'est l'humeur vraie tumeur En attendant, s'rassemblant dans la lueur, truc flambant XXX tata na bisso Dynam, ouais ouais ouais ouais, hein C'est trop hard d'être morts pour rien ghetto hardcore cousin XXX com si cété ti moun a mwen Ka ressenti douleur là tout au fond a chair mwen Lé pa imaginé sa k'arrivé des frew mwen Des jeunes XXX morts XXX pour rien Allez XXX maman Traoré Famille Benna XXX j'en ai oublié Tou lé -XXX toujou là, pas la France XXX sa An juste ka espérer XXX Le mal au moment qu'tu ressens parce que t'es blessé par le mal qui ronge Tu tombes dans la dépression parce que les événements pour toi sont étranges Pour tous mes frères qui sont victimes d'avoir perdu un être cher Parce que le fruit d'un amour fraternel vient de disparaître J'ai reflété un mal de vivre parce que mes nerfs sont devenus ivres Parce que les gens ne m'épargnent pas, j'ai dû survivre Un petit sourire levé vers l'ciel, une éclaircie, l'soleil Ça prouve qu'on doit sécher nos larmes parce que nos âmes sont éternelles Dur d'clamer la paix alors qu'la liste ne fait qu's'allonger Ça m'enrage que nos vies s'embrasent pendant qu'Arnaud rêve à la vie d'Pete Sampras Les meilleurs s'en vont toujours les premiers, c'est pas d'leur faute Les prolos s'lavent les mains dans l'sang des nôtres Arrête de foutre le feu chez nos daronnes, déjà qu'elles sont mal logées Au fond, ça n'arrangera rien, tu sais Pense à nos martyrs et rappelle-toi qu'avant d'partir Il te faudra chérir la mif, qu'on arrête de courir car tu peux mourir vite Même un daron du bled fier ne peut retenir ses larmes Face à des mères accablées comme celles de Bouna et Zyed L'insomnie s'empare des familles du défunt Mais des fois, il n'y a pas de douleur que le sommeil sache vaincre Hache de guerre à gauche frolo pour un effort de paix C'est l'9-3 qui pleure quand Clichy-sous-Bois est en deuil J'ai de la peine car le décès de certains me reviennent en tête Les frères, laissez-vous bercer par la tristesse Sauvons les deux âmes Comment résister, honorer son charme Zyed et Bouna Nous restons sans voix Quelle choc de ne plus vous revoir Sur mon visage ne cessent de couler les larmes Que Dieu vous garde pour l'éternité J'ai l'cur brisé, car j'ai souvent rêvé d'un monde meilleur Que la guérilla urbaine et d'enterrer deux frères Traoré Benna, que Dieu vous pardonne Que Dieu vous ouvre les portes du Paradis Que la tension se calme ici-bas J'suis un frère parmi tant d'autres J'voulais faire passer un message de paix Mon phrasé porte le deuil On vient d'perdre deux âmes fraîches, deux anges On vient encore d'perdre deux p'tits frères On leur rend hommage le cur noyé dans nos larmes Nos plumes portent nos peines et les blessures de nos âmes Les cris sincères, ouala j'ai mal La douleur est intense et même le silence pleure Pas là pour condamner l'coupable, Dieu l'fera Lui-même Et qu'la paix soit avec la famille d'ces deux lumières Deux gouttes qui débordent le vase, écoute Le mal se disperse, les man se disent prêts à agir et à serrer les coudes Les poings en l'air et même sur les I Quand on est solidaire, qu'on attise la flamme et à deux morts on l'dédie Trop d'sirènes, pompiers flics et ambulances Qu'on allume un cierge au lieu d'ces ambiances brûlantes La délinquance n'est pas une profession dans la street Qu'ils arrêtent leurs étiquettes et d'nous classer dans leurs putain d'statistiques 271005, c'est la fin d'une vie, les larmes d'une mère Le calvaire d'un père et l'combat d'un grand frère Une sur perdue qui voit son frère partir au plus jeune âge Une mort incomprise et toute une tess qui prend la rage Un événement qui prend une tournure grave, des nuits d'émeute Avec une seule idée en tête, faut qu'y en ait un qui crève On veut la vérité pour Zyed et Bouna Une forte pensée pour les familles, Traoré Benna Crois-moi, j'ai eu froid dans le dos En entendant les commentaires de politiques au lendemain du drame Quand la loi et l'ordre font peur à des gosses et que le pire se passe Le respect, c'était de faire profil bas Il nous faut des responsables, ça doit pas toujours marcher dans un sens Parce que c'qu'il s'est passé n'a pas d'sens Mes pensées vont aux familles, alors rest in peace Mon Dieu, entends nos prières, c'est pas juste c'qui arrive Deux frères partent, des curs fanent, la violence pour morphine, frère Mon cur saigne, mon cur parle, mon cur aime, mon cur bat Aussi vite que l'approche de la vérité, donc militer Pour la même cause, même veine, même combat Familles Traoré et Benna Beaucoup d'force et beaucoup d'chance pour la suite frères, pour tous les miens On a les mains réanimées par les armes Ensanglantées mais vite lavées par les larmes, paix à leurs âmes Nettoyer les gouttes et lâche même des gouttes et Les frères sont dégoûtés, les parents sont alarmés Morts pour rien, seul l'avenir nous l'dira Ou en tirer une leçon les jours à venir on verra Pour l'heure, une prière pour les p'tits frères Une pensée à leurs parents en espérant d'meilleurs moments Né d'une mort, l'espoir vit, restons forts Clichy-sous-Bois Montfermeil présentent leur reconnaissance Des adolescents parés Pour cette oppression incessante, donc une vie de tarés Grandir sous l'enseigne Montfermeil Clichy Mon cur saigne, tu sais, tant de gâchis Re-fré, réfléchis, deux vies ont fléchi Ils ont dit qu'on agissait par haine Plus rien ne sert de défendre une vie déjà vaine Mais allez dire ça aux mères Que leurs fils méritait une vie éphémère XXX Parce qu'on nous a traités d'vauriens J'dédicace aux gosses morts pour rien Seule la violence du désespoir dégage cette odeur de peur Quand un jeune des ghettos meurt, je pleure De colère, c'est ça qui fait brûler les voitures Saoulé d'devoir enterrer les nôtres, vois-tu Français, écoute pas leurs putain d'histoires Si on agit ainsi c'est par la force du désespoir Comme à Clichy quand la mort t'électrocute Et combien d'raisons justifie leur mort? Aucune Le ghetto parle, le ghetto chante, le ghetto pleure Des larmes de peine C'est triste à dire, qu'il faille le pire Pour qu'on écoute nos curs qui saignent Mes pensées vont vers les familles Benna et Traoré, yeah Le ghetto pleure ces deux adolescents Un message de paix dans toute cette effervescence J'parle au nom du 7-7 Mes amitié pour les familles des défunts, c'est pour ces jeunes qu'on s'mobilise Une prose contre une rose Hommage à Bouna et Zyed, nos banlieues pleurent L'onde de choc retentit, j'crie ma douleur Un requiem pour ceux qu'on aime Nos HLM sont en berne, trop d'pertes et d'chrysanthèmes J'veux pas finir dans les bras du système Électrocuté ou cané, alors j'tire la sonnette d'alerte La mort ne donne jamais de rendez-vous Les khos, levez vos index dès que vous savez qu'elle va venir à vous J'avoue, ça fait si mal d'voir partir des p'tits et des fillettes De voir que de drames, la vie est ainsi faite Qu'Allah fasse miséricodre à Bouna et à Zyed Ils voudraient nous étouffer pour mieux nous avaler comme le ferait un boa La tasse ils veulent nous faire boire Paix à nos morts, d'ici à Clichy-sous-Bois Ils sont morts, ma voix gèle, j'suis rouge, tout est pêle-mêle J'vous connaissais pas mais au fond vous êtes une partie d'moi Moi j'pleure, rien que j'pleure C'est dur, la France a peur, comprenez notre émotion Trop d'nos frères à terre, deux ouais, ils étaient deux Pour le troisième, j'remercie Dieu Hein, sois fort Muhittin J't'assure, sois fort C'est pour nos deux p'tits frères, rest in peace Que j'lance d'ici, d'Évry-Courcouronnes à Clichy Si si, à prendre les jeunes pour des imbéciles C'est la douleur du ghetto qui se transforme en missile Et la banlieue ne veut plus lécher la vitrine Elle est brisée, et c'est la vérité que l'on vise La rue a mal, mais pas que depuis hier Et aujourd'hui les pierres ont remplacé les prières Hommage aux familles blessées Agressées dans leur chair, Seigneur dissipe leur gêne et le poids de leur détresse Chéris nos p'tits frères partis jeunes Pendant ce saint mois d'jeûne On en a marre de cette animosité qui règne, nous divise et nous trahit Mitraillés dans cette lutte perpétuelle qu'est la quête de notre salut Bouna et Zyed, dans nos mémoires à jamais gravés Pour Bouna, Zyed, j'ai l'cur qui palpite J'ai mal quand sans état d'âme, on prend l'âme À deux d'mes frères, RR, j'ai la rage Quand les larmes ressortent sur un drame Dans l'9-3 c'est ça, c'est cette situation qu'j'condamne J'rends hommage aux familles, j'prends mon briquet, j'allume la flamme Pour qu'tu voies d'en-haut ma tristesse pendant la salate J'fais une dou3a pour qu'tu partes en paix, refré Négro, on était en exode Mais j'pense qu'ils veulent nous voir visés, nos phases macabres et nos XXX XXX faut canaliser Gardez la foi mais faut que j'aie ce condé parce que nos vies sont jeu d'l'oie Prie pour pas tomber sur la case d'un colt Une mauvaise phrase comme nos refrés jouent à Liberté ou Volt On sait comment ça finit Un clash, une course-poursuite, un crash, la suite, un putain d'incendie Deux âmes partent, un mot d'provoc' et la France crame Sarko en tête des sondages, man, à qui profite le scandale? Malaise perceptible, chômage trafic et vente d'armes Tout l'monde s'affole parce que notre rap c'est pas du France Gall Anti flics et gendarmes, politique, chantage Contrôle où les képis semblent avoir dix ans d'âge Les deuils tournent dans les p'tites villes et grands axes Comme toute tragédie, l'histoire est triste et la fin semblable J'comprends pas pourquoi la vie est si dure, man Comment ça se fait, on peut perdre sa vie bêtement Combien de temps ils vont faire pleurer nos mamans Combien de temps ils vont nous marcher sur les pieds, man Traoré et Benna ne méritaient pas ça Mouille avec la peur au ventre pour une histoire de balles Y en a marre d'être mal catalogués Le ghetto pleure c'est la rue cette réalité Cause conséquence, voilà l'revers d'la médaille Les chèques d'assurance nous ramèneront pas les deux p'tits frères die 27105, Zyed, Bouna rendent leur âme Parole de grand, personne n'oubliera cette date, ce drame Maximum respect, pensée pour leurs milles-fa Leurs proches amis pour qui ça doit vraiment pas être cile-fa Perdre un être cher aussi jeune, c'est trop dar J'pose huit roses en leur mémoire, car trop tard C'est envers mes frères que je m'adresse car cette histoire m'attriste et blesse Mon cur saigne mais seule l'encre de ma plume se verse C'est d'la haine que tu peux lire dans mes yeux Mais c'est avec le cur serré qu'j'écris, un regard vers les cieux Allah! On m'a dit d'calmer donc j'garde la rage en moi Parce qu'un Black reste un Black, même vénère il reste une proie J'ai mal mais remplace mon arme par des larmes Car les flammes qu'il peut ne feront jamais revenir vos âmes Il n'y a pas pire enfer que d'penser qu'le Paradis n'existe pas En c'moment-même, les esprits des défunts nous hantent Ambiance de paix car j'ai le mal de guerre De quartier en quartier ça brûle parce que ce sont nos frères On va laisser les rancunes en route Apporter des gerbes de fleurs aux textes pour apaiser les têtes Chaque jour, des bougies s'allument et s'éteignent Bouna et Zyed, de leurs lueurs on s'imprègne Tout arrive par ici On envisage le pire Tous en état de crise Bouna, Zyed, martyrs La violence contre l'innocence Les héros n'existent plus depuis longtemps Ils ont bafoué votre enfance Gardez-nous une place, on vient dans peu de temps Oh, tous les quartiers ont les larmes aux yeux Trop de larmes pouvant éteindre le feu qui leur traversait l'corps En traversant mon cur, mon sentiment fut renversé Par un poids-lourd immatriculé par la mort L'amour et la mort, des extrêmes qui s'kiffent à mort Zyed, Bouna, destins liés par des câbles Si mon cur aurait eu des yeux, tu l'aurais vu saigner Benna,Traoré, Allah y rahmou, Sefyu Coupés dans leur élan, trop tôt ces jeunes sont die Deux familles, toute une génération en deuil, ma gueule Ç'aurait pu être un d'tes frelons, un d'mes frelons L'idée fait froid dans l'dos alors qu'j'suis pas tant qu'ça un frileux Vu qu'j'fais partie des cibles, il est donc impossible Qu'j'y sois insensible, des familles pleurent Bouna, Zyed, partez en paix vers l'ciel Nous on continue l'combat, qu'vous soyez pas morts dans l'zef C'est avec peine et haine que j'prends c'putain d'micro Car au-devant d'la scène, t'as la mort d'mes deux frelos À qui j'dédie c'morceau pendant ce temps d'fléau Ça vient du cur khey, j't'assure qu'c'est pas du mytho En bref, malgré ma froideur, sur c'beat j'ouvre mon cur Pour rejoindre les deux familles dans leur propre douleur Et quoi qu'il arrive, pour nous, vous êtes toujours là À jamais gravés dans nos curs, Zyed et Bouna J'remplace l'alcool par de l'eau céleste, le bédo par une datte On s'connaît pas mais c'est pour Bouna et Zyed À c'que j'vois, vous aviez des potes et des gens qui vous aiment Depuis votre mort, les jeunes ont déployé leurs ailes J'ai le cur noué, Bellahi je le jure c'est vrai À nous tous, ça peut tous nous arriver J'envoie des dou3as pour vos familles, vos larmes inondent toutes nos villes Et votre mort résonne dans toutes nos vies J'peux pas camoufler ma peine, j'peux pas camoufler ma haine Hémorragie interne, j'me porte bien mais l'cur saigne Une flamme subsiste pour Bouna et Zyed Siaka, Biggie, Montfermeil Clichy Maillot, Silly, Sur-Marne-Neuilly Sachez qu'le 9-3 côté Est ne vous oublie La Tunisie, la Mauritanie aussi, ces lignes vous sont dédiées À vous et vos familles, pour vous, j'garderai bonne mine, promis Ma plume se plie, les mots sont trop lourds Des actes injustifiés qui emmènent des conséquences trop lourdes Conscients que le temps passe, de nos esprits rien ne s'efface Mes frères, je vous embrasse, nos vies s'éteignent, les frères j'vous rends hommage Le remède c'est qu'on s'entraide Tu sais pour qui on plaide, il était une fois Bouna et Zyed Partis trop tôt, Allah y rahmou, message de paix en votre mémoire Vos noms sont gravés à jamais dans notre histoire Mort subite que nous n'oublieront jamais reste gravée dans nos mémoires On peut pas s'en débarrasser comme le reflet d'un miroir Accrochés à la réalité, mes reufs s'en sortiront Triste destinée, pour réussir prêts à se prosterner Consternés par la tournure des choses Mourir, ou lutter tous pour nos familles et disparus Korozeef, message du cur Ceci nous rappelle que toute âme revient au Créateur Ouais J'ai le cur qui saigne Tant de compassion s'imprègne Au-dedans de moi, des choses me font perdre la foi De voir des jeunes s'en aller aussi souvent que ça Je compatis, c'est si triste La justice grise, nos ciels sans couleurs Un venin de couleuvre Déjà trop dans nos vies, détruit nos frères et surs Ils nous brutalisent, la justice couvre La presse se rend complice et personne ne l'ouvre La pensée réactionnaire connaît des joies intenses Quelles sont les premières victimes en proie à la violence? Ceux qui ravalent leurs mots jusqu'à vomir des pierres Ceux qu'on réprime dans le sang comme en temps de guerre Bouna et Zyed, juste jeunes et envie de vivre Qui n'en demeurent pas moins des exemples à suivre Bouna, en entendant ton nom ou en voyant ta photo Des milliers de flashbacks me remontent au cerveau Je t'avais appris à nager Je me rappelle ce jour-là, t'as failli te noyer Je t'ai côtoyé depuis ta tendre enfance Je me rappelle de toi, m'étant décroché avec la plus grande aisance La BDS a shooté votre crew Mais avec le temps cette équipe s'est dissoute Biggie, Kahi, mon p'tit frère est parti Que Allah lui ouvre les portes du paradis Encore des anges qui partent trop tôt dans l'ghetto Et la tristesse fait couler l'encre de mon stylo C'est avec la main sur l'cur que j'lâche mes mots J'ai d'la rage, j'ai d'la haine, j'ai d'la peine et j'n'arrêterai pas s'il faut Ça a toujours été nous contre eux On est rien dans c'bas monde, que Dieu vous garde Nous on restera sur nos gardes C'est dans les cieux que vos frères et surs vous regardent, Zyed et Bouna Une mesure de silence Pour nos frères Bouna, Zyed auxquels on pense À l'heure actuelle, vos noms sont gravés dans nos têtes Que vos âmes reposent en paix, c'est tout c'qu'on souhaite La main sur l'cur, la mille-fa plongée dans la douleur Triste sort, la mort est venue frapper à leur porte de bonne heure Sous nos bonnets on a d'la peine Comme tu l'sais, dans nos quartiers, seule la mort règne et les curs saignent Encore deux d'nos p'tits partis, ça suffit Pour Bouna, Zyed avec qui j'avais pas encore d'affinités C'qui n'empêche pas d'témoigner ma solidarité Militer afin d'limiter, les saignements d'nos curs déjà irrités D'une tristesse profonde, on est tous héritiers Une larme tombe, mais peut-on les éviter J'ai un frère du même âge, voilà la vérité À vous et vos familles, j'rends hommage avec sincérité J'viens rendre hommage, Mister Daï De Neuilly-sur-Marne à Clichy, j'vous épargne mes analyses car l'résultat sera l'même Ça m'fait mal, j'ai d'la peine, alors ma haine j'la canalise Rien ne pourra faire qu'ils nous reviennent, j'en ai les membres qui s'paralysent Le poing gauche serré, la tête baissée, la main droite sur l'cur J'en place une pour la famille qui auront toujours ce mal au cur J'm'exprime en leur mémoire parce qu'ils manqueront jamais à l'appel Que leur flamme s'éteigne en paix, que leurs âmes reposent en paix Une couronne de fleurs pour Zyed et Bouna Ça fait mal au cur, on ne peut que supporter leur mille-fa Difficile de consoler après la mort Sur la tombe d'un proche, c'est tellement dur de rester fort Obligé de contenir ma pensée Par respect pour leur mémoire, donc je vais me contrôler La vérité n'est jamais facile à dire Attendons de la savoir, pour l'instant calmons les tirs D'abord mes condoléances aux frères, aux surs, aux rent-p's Aux amis qui étaient si chers au cur de Zyed et Bouna Pour lesquels je cace-dédi ce rap, même si j'les connaissais as-p Mec, je suis à-l, ouais, à cent pour cent avec eux, avec mon cur et mon âme Pour que ce genre d'événement ne se perpétue as-p On tue les jeunes dans nos tiers-quar, tis-gra Faudrait qu'ça cesse parce qu'on commence à en avoir vraiment marre J'ai le cur en sang, j'ai du mal à caresser J'ai des sentiments bloqués XXX des petits frères sont die Pour m'en remettre faut plus qu'une douille, khey Je suis banlieusard, blesse pas les mêmes même si l'envie de mitraille Graille, y a cette envie de tout fumer Mais au fond ça sert à rien maintenant comme notre quartier est cramé Pour les madres, poto, fais preuve de respect Tout se paie, que leurs âmes reposent en paix Dur d'en parler sans offenser vu qu'la douleur est encore vive Ce rap est une prière pour nos deux frères partis trop vite Que Dieu les garde, que Dieu protège leurs familles Que Dieu leur donne d'la force et du courage pour affronter la vie Paix à leurs amis, soyez gardiens d'leur souvenir D'leurs visages, d'leurs sourires, sachez qu'on est tous avec vous Même si c'est l'mektoub, on s'demande quand même XXX C'est pour Zyed et Bouna, Allah y Rahmo XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de nos enfants XXX Si la douleur noyait nos âmes Si les pleurs nous arrachaient nos dernières armes Si l'on avait pris la vie de vos enfants Dans l'ghetto, on a perdu l'sourire, on n'arrive même plus à rire On a vu des frères partir et plus jamais revenir La haine, la rage, la tristesse dans nos yeux, ça m'fait tellement réfléchir Mais qui accuser, Dieu l'a voulu Il crée des trucs, comment puis-je Avoir la haine envers mon Créateur, c'est cru J'n'arrive même plus à fermer les yeux Les souvenirs du passé n'cessent de me hanter Ça m'fait bizarre d'ressasser le passé J'rends hommage à ces p'tits partis trop tôt, partis pour rien Une pensée aux familles c'est 15-24 soutien Un départ prématuré, ils sont privés de c'monde pourri On est blessés à jamais, que leurs esprits reposent en paix C'est dommage, surtout à leur âge Et j'me demande encore pourquoi on n'est pas tous devenus sages Mais l'seul message, c'est qu'y a encore des parents Qui ont perdu leurs enfants, et ça tirons-en un enseignement La vie est bien trop courte pour qu'on s'fasse la guerre La vie est bien trop courte, profitons d'nos frères S'mobiliser, c'est bien, changer les choses c'est mieux Instant d'paix en espérant qu'on vivra tous vieux Quoi qu'il arrive, on doit rendre des comptes Pose pas la question pourquoi, on y passe tous Qu'la vie soit longue ou XXX Mais la mémoire elle reste, comme quand on s'pose Y a la dignité d'deux êtres qui s'impose Quelques mesures pour la mesure du monde immonde Où on traîne nos corps en attendant la suite Que vos noms soient jamais oubliés Bouna, Zyed, c'est nous pour vous à jamais Demande du calme, ne transformons pas notre deuil en drame Laissons couler nos larmes, demande la paix face aux armes Mais t'es un fou, renoi c'est nos p'tits frères qui sont partis pour rien Toujours nos mères qui pleurent, toujours cette putain de haine au cur Cesse tes rancurs, on a l'devoir de calmer la rage Avec un grand cur, nous sommes unis pour faire un hommage Ça sera toujours les mêmes personnes qui y laisseront des plumes Notre quartier fume, il faudra bien que quelqu'un l'assume Qu'on s'le dise, y aura pas d'paix sans l'mot respect Zyed et Bouna, que vos âmes reposent en paix Négro c'est l'deuil, coupe le moteur de l'YZ Mon stylo pleure d'l'acide au nom d'Bouna et Zyed Tristesse et rage, jeunesse arrachée par la Faucheuse La mort n'attend personne et on confie son âme à Dieu Saluer la République, y a pas moyen Tout c'que j'ai retenu d'la Marseillaise, c'est aux armes, ci</t>
+          <t>Voici venir l'âge béni A cet instant précis, il y a Un vieil homme froid sur un lit d'hôpital Un enfant qui voit l'jour dans une chambre rose pâle Un mec qui braque, une balle qui fuse Une bombe qu'explose, une mère qui prie Une foule qui danse, une musique qui balance Un mur qui tombe, des cris qui répondent Un homme seul, assis sur un trottoir Un autre, bourré, qui dort sur un comptoir Une femme devant une glace, plein d'bleus et d'ecchymoses Une autre vêtue d'blanc, heureuse, qui pose Des tours en banlieue à la face des bourges Des mômes de toutes races qui jouent dans une cour Des caves qui couvrent les talents d'demain Sportifs qui gagnent, un rap qui réveille Des comptes en banque pleins, des gens qui circulent Un psychopathe qui veut l'pouvoir, manipule Des déchets toxiques qui s'accumulent, un chien qui hurle Une décision nulle, une vie qui bascule Une fête quelque part, un anniversaire Un couple qui s'aime sans s'soucier du reste A cet instant précis, il y a aussi Une famille qui s'fait expulser d'chez elle Un huissier véreux, des coups qui s'perdent Un flic pourri, un ami qui trahit Des nuits d'insomnie, un stylo qui écrit Un reporter qui sévit en pleine guerre civile Un paparazzi caché derrière une piscine Une bonne nouvelle, un projet qui aboutit Une rencontre, des potes qui délirent Un dossier explosif qui dort dans un tiroir Un magistrat qui ferme les yeux, un au revoir Des costards autour d'une table qui révisent le monde Des vies en jeu, des sous qui tombent Un sourire, un avenir qui s'dessine Une mauvaise nouvelle, un dernier soupir Un père de famille qui se tue à la tâche pour les siens Un chômeur qui n'sait plus où est l'bien Une ville qui sommeille, des vices qui s'réveillent Une plaie qui saigne, des situations qui craignent Une nouvelle adresse dans un bidonville Des tas d'gens qui s'foutent pas mal de c'que j'dis Un écran qui diffuse des conneries Un discours haineux que l'on applaudit Des ateliers d'couture qui tournent 24 heures sur 24 Une révolution technologique se prépare Un scientifique qui cherche un antidote Un espoir, un rêve, un cauchemar Un fléau qui menace, des fanatiques qui brassent Une cause juste qui vaut l'coup qu'on en parle Un vieil homme froid sur un lit d'hôpital Un enfant qui voit l'jour, un ange qui passe</t>
         </is>
       </c>
     </row>
@@ -679,12 +679,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Mon clan</t>
+          <t>Achevez-les</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Fils, ignore la voix, le duc, tu sais Mais cest pas moi, qui parle Hip-Hop, mixe, si on y reste, ça suffit Cesser, on nous supplie sur ta vie, on oublie Dédicace de Mars Génération des fils de zoufris On fout le feu, rien à foutre, la loose cest pour ceux Qui crachent dans la soupe et qui pensent comme eux Holocauste, fils, tu le sais cest pas si loin Des bouseux et des vieux haineux en veulent à nos racines Voient nos destins au bout dune corde juste pour la forme Si cest pas ton cas, enculé regarde pour qui tu votes Plus de négligence, ni de chance Quand vient lheure au bal de la souffrance Personne nespère une dernière danse Rue sombre, les murs tombent La grande faucheuse fait ses rondes et on espère ne pas la croiser Mais sil le faut, faire un bout de chemin à ses côtés Soit, et si on plie, on smange, on ne se relève pas Dieu nous regarde alors, Mc, justifie ta tâche Mars, on représente le Sud, on dit c'qui s'passe Ici, on a la musique pour nous, le feeling et les larmes La fierté et la rage comme dans nos rimes on vide nos armes La violence s'entend dans l'accent Marseille mon clan Cest pourquoi on représente les nôtres Mon peuple maudit, pour mon école et ma vie La ville est notre quartier, sans relâche arpenté Charpentés, comme une belle femme, les rues sont vidées Cité impossible à dompter, difficile déviter Lentité révoltée, poches vides, cur gonflé Les idées reçues, les clichés persistent et Pas mal de gars décidés veulent résister, suis la piste épicée Ya pas à dire cest live de Mars et ça le fait Eh, faut pas fuir, je viens de commencer Je ferai ce quil faut pour que la flamme crame, poto Quitte à monter au créneau, un bon cocktail molo' À lancienne frérot, essuie ta sueur mon garde-cur Même sous les clameurs on commet pas derreurs On focalise sur les labeurs, peur de rien, et dites-leur bien Quon marche quavec des mecs droits comme leur conscience Ça fout la trouille, hein ? Pourtant ma ville garde le sourire Endurcis, certains on compris Les autres sappuient sur un mur et soupirent Tant pis, cest la vie Cest ce quon écrit Sil faut le crier, faudra pas nous prier On représente ce quon est, fils et ça va pas sarrêter ici Les double dragons visent haut pour la lune noire Shurikn, Faf Larage, pour le C.O, dans l'lard La violence s'entend dans l'accent Marseille mon clan Cest pourquoi on représente les nôtres Mon peuple maudit, pour mon école et ma vie1</t>
+          <t>Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Oui, et une fois terminé Jetez-les, coup de pieds, deux taqués et balayez-les Le saviez-vous, quoi ? Avant qu'on les éclate Ils étaient in, maintenant ils sont out C'est pas possible, j'y crois pas, oh non Ils ont récidivé leurs soirées d'usine à 10000 cons C'est l'an 2000 hun ! Paraît-il l'alibi, j'ai l'ouïe trop fragile, l'heure précoce attise Mon envie d'agripper une tunique à planter, une psyché à clouer Un travelo à poncer, j'avoue avoir été choqué Ils croient se métamorphoser, travelos, rébus ils puent Achevez-les Ils sont si chétifs, taillés dans un Twix Où ont-ils été acheter leurs costumes à Super Fenix? Ils ont 2 de tension, l'autre face de la médaille Il y a plus de laser dans les rave party que dans Le Retour Du Jedi Qui sait peut-être sous l'effet des strobos J'ai voulu voir des humains, je n'ai vu que des robots Leurs femmes sont des mutants, des mochetés gonflées Avec leurs pantalons de iz tacheté Un coup TU leur dissocies le psycho du soma en clair Et ils défrisent le coma So check it, check it out, D-E-F L'autre bout de l'observation mets le holà Chtebeuh ! Sur les méga transes Haroun Tazieff Du cosmos et de l'extrême, tu en veux, tu en as Je te mets le feu que tu sois kitch, rap ou grunge À coups de pied quand tu danses et te brises comme du Crunch Hé les céphalopodes un air teubé ? On ne me la fait pas ! Oh mais non mais non allez c'est bon see ya Alors quoi on fait bande à part Moi ça m'éclate quand j'entends ces bozos appeler ça de l'art Je sais pas, essaye autre chose Fais du jazz, fais un buf sur les bords de la seine avec ton pote Jack Mais s'il te plaît laisse tomber le rap Tu veux faire une autre musique mais tu t'en fous T'as ton sax', allez soit gentil, ramasse tes cheveux Et va jouer, et puis cesse de pleurnicher ou je vais t'achever Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Les producteurs cherchent de nouveaux artistes talentueux Et trouvent leur bonheur au beau milieu des merdeux Les recrutent le nez farci de morvelle Sur les bancs de la maternelle Le show bizz tape dans la crèche, fort Ils vont sûrement décerner le Blédina d'or Quinze, onze, quatre ans, de plus en plus de minots Très bientôt un ftus au micro Micro, comme la taille du cerveau de certaines Qui pour un sourire te dédaignent et se prennent pour des reines Alors que leurs mecs les traitent comme des merdes, des chèvres Et à ce jeu elles perdent À tous les coups parce que je ne danse pas le zouk Pour les flatter je suis un plouc nartezemouk De nos jours les blacks c'est le trip Mais seulement pour faire les danses ou les churs dans les clips Ou les plateaux, une touche exotique dans le show C'est plus dance, plus ché-bran ! Oui, mais gros plan sur le blond et la blonde au micro, Ok Ce producteur est à secouer Et tous ceux qu'on a cités Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Ceci dit, écoutez moi bien On dira que le Soul Swing ne fout rien I-A-M leur donne encore un sacré coup de main Mais je suis large pour tout ça Et si je reste enfoui, qu'est c'que tu veux On ne fait pas toujours ce qu'on veut Achevez-le, achevez-le Qui ??? Le bozzo qui croit que je me la coule, me tourne les pouces Et que ça marche pour moi, il se trompe J'ai fait mes comptes et rien ne va Et on m'arnaque et que celui qui m'a roulé Surveille son cul, je rejoue Tout ce que j'ai en 93 my man goddamn cest le retour de Shurik'n On note une recrudescence de pillage de greniers Planquez les fringues du papinou Toutos Foungios a débarqué À coup de lèche vitrine au Secours Populaire Gavroche est de retour c'est pas la faute à Voltaire Moins de matières que de vice, système économique J'ouvre les placards et je lâche la mite Pas de ronds à claquer dans le savon et le dentifrice Achevez-les avant que la Croix Rouge ne roule en Limousine Elle est partie S'il y a un fait qui me saoule et m'époustoufle C'est bien la mode des chanteurs et chanteuses qui s'essoufflent À l'agonie, je parie qu'ils en chient en studio Augmente les effets, monte les niveaux sur le micro Ils se la jouent avec une putain qu'étouffe Des mots qui ne pèsent pas et ne déformeraient pas un pouf Quand on n'a pas de voix, on se tait On s'abstient de nous les briser avec des chansons de laid Moi, tu vois, c'est des textes et de l'émotion Danielle Gilbert, Guy Lux, ah c'qu'ils puent Leurs faces collent à mon cul comme la colle Uhu Avaient-ils prévu que j'allais les descendre Nostradamus lui avait prédit que je Mettrais ces vilains à l'amende Après un bon sommeil, je me réveille Qui j'entends, Madame Soleil J'vais t'toucher la vieille ! Méfie-toi de ceux qui voient le tiercé dans les astres Achève-les, balance-les par le ballast Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les</t>
         </is>
       </c>
     </row>
@@ -696,12 +696,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>A cet instant précis</t>
+          <t>A la conquête</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Voici venir l'âge béni A cet instant précis, il y a Un vieil homme froid sur un lit d'hôpital Un enfant qui voit l'jour dans une chambre rose pâle Un mec qui braque, une balle qui fuse Une bombe qu'explose, une mère qui prie Une foule qui danse, une musique qui balance Un mur qui tombe, des cris qui répondent Un homme seul, assis sur un trottoir Un autre, bourré, qui dort sur un comptoir Une femme devant une glace, plein d'bleus et d'ecchymoses Une autre vêtue d'blanc, heureuse, qui pose Des tours en banlieue à la face des bourges Des mômes de toutes races qui jouent dans une cour Des caves qui couvrent les talents d'demain Sportifs qui gagnent, un rap qui réveille Des comptes en banque pleins, des gens qui circulent Un psychopathe qui veut l'pouvoir, manipule Des déchets toxiques qui s'accumulent, un chien qui hurle Une décision nulle, une vie qui bascule Une fête quelque part, un anniversaire Un couple qui s'aime sans s'soucier du reste A cet instant précis, il y a aussi Une famille qui s'fait expulser d'chez elle Un huissier véreux, des coups qui s'perdent Un flic pourri, un ami qui trahit Des nuits d'insomnie, un stylo qui écrit Un reporter qui sévit en pleine guerre civile Un paparazzi caché derrière une piscine Une bonne nouvelle, un projet qui aboutit Une rencontre, des potes qui délirent Un dossier explosif qui dort dans un tiroir Un magistrat qui ferme les yeux, un au revoir Des costards autour d'une table qui révisent le monde Des vies en jeu, des sous qui tombent Un sourire, un avenir qui s'dessine Une mauvaise nouvelle, un dernier soupir Un père de famille qui se tue à la tâche pour les siens Un chômeur qui n'sait plus où est l'bien Une ville qui sommeille, des vices qui s'réveillent Une plaie qui saigne, des situations qui craignent Une nouvelle adresse dans un bidonville Des tas d'gens qui s'foutent pas mal de c'que j'dis Un écran qui diffuse des conneries Un discours haineux que l'on applaudit Des ateliers d'couture qui tournent 24 heures sur 24 Une révolution technologique se prépare Un scientifique qui cherche un antidote Un espoir, un rêve, un cauchemar Un fléau qui menace, des fanatiques qui brassent Une cause juste qui vaut l'coup qu'on en parle Un vieil homme froid sur un lit d'hôpital Un enfant qui voit l'jour, un ange qui passe</t>
+          <t>Ah an, ahan... One Shot Disiz la Peste Quinto Bête de Duo Conquerir la terre x2 La réussite de la connaissance, c'est ce qui abîme tout les crews Co-Coincidence, mon rap grandit quand j'y pense Con-Conquerir la terre Ra-ra-ra-rassembler les légions S'te plait met plus de mayonnaise dans mon sandwich, mec Fais pas l'radin parce que p't'être qu'un jour j's'rais riche, mec J'suis l'inconnu du rap français Je suis le plus chim mais j'm'en bats les couilles Ma chérie quand j'rappe, même ton keum qu'a pas de chatte mouille Foute à barge c'est ma couille, Rimeurs à Gages c'est mon groupe One Shot c'est mon crew, Chéri coco c'est mon coup RER D, 402 P.L.C Evry Si tu veux m'clash, fais pas ton blair, viens ici Si tu kiffes Disiz, tu connais mon maxi C'est de la bête de bombe, t'es en érection sur Taxi Autant pour moi, pour cette intro pleine d'egotrip, fallait qu'j'me lache Avec l'album Ace du 9 et de Nuttea, tu peux te T.H.E., T.H.F Fais pas le chaud, j'suis plein de fraîcheur Bête de clash, Disiz la Peste, j'suis le challenger Ce putain de challenge frérot, c'est une vrai cure de vitamine De réussir, faire que le bien, garder ce que la vie t'ammène Et le plus grand des chen d'essayer de toucher les gens Sans faire la pute par le fait qu'on touche de l'argent C'est ma cause Faf, c'est la mienne aussi Avec minutie, j'm'initie dans l'esprit du MC qui s'initie S'initie un texte passé insignifiant Dans la forme c'est qu'un freestyle, dans le fond c'est plein de sens J'ai qu'un challenge dans ma vie c'est de la reussir Avec plein d'amour, une famille et dieu, je pourrais mourrir x2 Disiz et Vasquez, deux banlieusards hors normes, à ce qu'on dit Y'a un soucis quand tu Ter-ma le fond La forme du coup, les normes, t'imagines Ce putain de challenge frérot, c'est une vrai cure de vitamine J'attend pas de signal, l'amour du métier m'appelle encore Et le but premier si tu me connais pas c'est la recherche et tenir l'effort Est-ce du neuf mec, c'est pas pour rien, crois-moi Tiens dans ta tête, où que tu sois t'auras des nouvelles dans les six mois Eh la Peste, je suis vraiment fiers d'équipe C'est du tout frais keum, Eh comme ça moi un album Quel trip ! Et quel putain de flip' à l'idée de flair Mais je pas le faire et qu'après c'est la guerre Et ce que je fais, c'est fait exprès clair Eh ouais, y'a des moments comme ça Où pris par surprise, l'enthousiasme déborde sur la hantise Halleluya Exploitons nos matières grises, même fira Je reste lucide pour pas bacler mes divers chantiers Entier quitte à morphler, j'envisage pas de facilité Dans ce qui est depuis un temps, ma principale activité Tu comprend faut pas faire chier un rappeur qui a faim Plus tu l'snobe quand il vient, plus la conquête ira loin Pendant que tu crois que c'est la fin Ce putain de mec en chien se maintient et reviens sur ta gueule Tôt ou tard, c'est pas c'qui l'retiens de faire des dommages Boxer ce bordel à volonté, j'ai éviter les voies scolaires de garage Pas sans flippé, tu croyais pas que j'allais rater l'occaz' De représenter un Ace du 9 et un Rimeur à Gage A la conquête x2 L'indifférence de pourri s'payent Se croire au dessus pareil, bon ! on evitera de jouer au con Parce que justement nous on sait que tout se paye Aujourd'hui, on est là avec un peu de métier dans l'sac Et l'envie de se trouver une bonne place Pour pas bé-ton le jour où ils secouerons le sac Attention, je vais dire des gros mots J'sais que suis grossier, parfois fantasque Disiz, flow fantastique, pas besoin de masse Sale pute, j'rappe pas pour que t'astique ma heute Fais pas le sophistiquer, plutôt caustique mec Plutôt qu'on s'tâte, mec, j'te nique au mic Et puis constate vite, mâte que la Peste est d'attaque Tu vois ce qu'on veut dire On est donc un putain de produit sur lequel on se doit d'investir Faire tout le tour C'est pas vraiment le pire La route me fait prendre la largeur, bien plus rageur Laisse du neuf, remet les pages à l'heure Sur ce track de Ralph , rafale de oufs, c'est le beat qui fait tout Mon flow t'étouffe J'pars à la conquête avec Quinto Malheureux qui m'teste Rimes primaires mais efficace, c'est celles de Disiz la Peste Disiz-ze, evites les rimes bizarres Aiguise, bise, brise, jette ton flow comme le blizzard J'maintiens le bras d'honneur au monopole J'maintiens le soutien sans fin aux tontons de la vieille école Et aux tontons de la nouvelle aussi Du simple travailleur au M.C A nous plaindre de jeunes bleus saint qui luttent pour leurs vies Maintenant j'suis bon des femmes, préfèrent la bande F.M Quand presse co, pijal puis d'M.P, tu vois ma bande est ferme Disiz, c'est ça la guerre Tu veux qu'on s'enterrent Envie d'une carrière, j'cultive le savoir faire, fous la De-mer Il est subversif le vers, tu trouve Pour ta programation de groove Ah, si tu savais c'qu'on couve Et ça n'est pas encore assez, j'trouve</t>
         </is>
       </c>
     </row>
@@ -713,12 +713,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Achevez-les</t>
+          <t>A l’arrache</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Oui, et une fois terminé Jetez-les, coup de pieds, deux taqués et balayez-les Le saviez-vous, quoi ? Avant qu'on les éclate Ils étaient in, maintenant ils sont out C'est pas possible, j'y crois pas, oh non Ils ont récidivé leurs soirées d'usine à 10000 cons C'est l'an 2000 hun ! Paraît-il l'alibi, j'ai l'ouïe trop fragile, l'heure précoce attise Mon envie d'agripper une tunique à planter, une psyché à clouer Un travelo à poncer, j'avoue avoir été choqué Ils croient se métamorphoser, travelos, rébus ils puent Achevez-les Ils sont si chétifs, taillés dans un Twix Où ont-ils été acheter leurs costumes à Super Fenix? Ils ont 2 de tension, l'autre face de la médaille Il y a plus de laser dans les rave party que dans Le Retour Du Jedi Qui sait peut-être sous l'effet des strobos J'ai voulu voir des humains, je n'ai vu que des robots Leurs femmes sont des mutants, des mochetés gonflées Avec leurs pantalons de iz tacheté Un coup TU leur dissocies le psycho du soma en clair Et ils défrisent le coma So check it, check it out, D-E-F L'autre bout de l'observation mets le holà Chtebeuh ! Sur les méga transes Haroun Tazieff Du cosmos et de l'extrême, tu en veux, tu en as Je te mets le feu que tu sois kitch, rap ou grunge À coups de pied quand tu danses et te brises comme du Crunch Hé les céphalopodes un air teubé ? On ne me la fait pas ! Oh mais non mais non allez c'est bon see ya Alors quoi on fait bande à part Moi ça m'éclate quand j'entends ces bozos appeler ça de l'art Je sais pas, essaye autre chose Fais du jazz, fais un buf sur les bords de la seine avec ton pote Jack Mais s'il te plaît laisse tomber le rap Tu veux faire une autre musique mais tu t'en fous T'as ton sax', allez soit gentil, ramasse tes cheveux Et va jouer, et puis cesse de pleurnicher ou je vais t'achever Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Les producteurs cherchent de nouveaux artistes talentueux Et trouvent leur bonheur au beau milieu des merdeux Les recrutent le nez farci de morvelle Sur les bancs de la maternelle Le show bizz tape dans la crèche, fort Ils vont sûrement décerner le Blédina d'or Quinze, onze, quatre ans, de plus en plus de minots Très bientôt un ftus au micro Micro, comme la taille du cerveau de certaines Qui pour un sourire te dédaignent et se prennent pour des reines Alors que leurs mecs les traitent comme des merdes, des chèvres Et à ce jeu elles perdent À tous les coups parce que je ne danse pas le zouk Pour les flatter je suis un plouc nartezemouk De nos jours les blacks c'est le trip Mais seulement pour faire les danses ou les churs dans les clips Ou les plateaux, une touche exotique dans le show C'est plus dance, plus ché-bran ! Oui, mais gros plan sur le blond et la blonde au micro, Ok Ce producteur est à secouer Et tous ceux qu'on a cités Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les Ceci dit, écoutez moi bien On dira que le Soul Swing ne fout rien I-A-M leur donne encore un sacré coup de main Mais je suis large pour tout ça Et si je reste enfoui, qu'est c'que tu veux On ne fait pas toujours ce qu'on veut Achevez-le, achevez-le Qui ??? Le bozzo qui croit que je me la coule, me tourne les pouces Et que ça marche pour moi, il se trompe J'ai fait mes comptes et rien ne va Et on m'arnaque et que celui qui m'a roulé Surveille son cul, je rejoue Tout ce que j'ai en 93 my man goddamn cest le retour de Shurik'n On note une recrudescence de pillage de greniers Planquez les fringues du papinou Toutos Foungios a débarqué À coup de lèche vitrine au Secours Populaire Gavroche est de retour c'est pas la faute à Voltaire Moins de matières que de vice, système économique J'ouvre les placards et je lâche la mite Pas de ronds à claquer dans le savon et le dentifrice Achevez-les avant que la Croix Rouge ne roule en Limousine Elle est partie S'il y a un fait qui me saoule et m'époustoufle C'est bien la mode des chanteurs et chanteuses qui s'essoufflent À l'agonie, je parie qu'ils en chient en studio Augmente les effets, monte les niveaux sur le micro Ils se la jouent avec une putain qu'étouffe Des mots qui ne pèsent pas et ne déformeraient pas un pouf Quand on n'a pas de voix, on se tait On s'abstient de nous les briser avec des chansons de laid Moi, tu vois, c'est des textes et de l'émotion Danielle Gilbert, Guy Lux, ah c'qu'ils puent Leurs faces collent à mon cul comme la colle Uhu Avaient-ils prévu que j'allais les descendre Nostradamus lui avait prédit que je Mettrais ces vilains à l'amende Après un bon sommeil, je me réveille Qui j'entends, Madame Soleil J'vais t'toucher la vieille ! Méfie-toi de ceux qui voient le tiercé dans les astres Achève-les, balance-les par le ballast Achevez-les, à coup de claques, achevez-les Achevez-les, à coup de gifles, achevez-les Achevez-les, à coup de scalps, achevez-les Achevez-les, à coup de tacles, achevez-les Achevez-les, à coup de baffes, achevez-les Achevez-les, à coup de pieds, achevez-les Achevez-les, achevez-les, achevez-les</t>
+          <t>Wesh wesh XXX c'est la dèche rien n'a changé On envahit les lieux avec des rimes qui créent une tuerie Wesh wesh XXX c'est la dèche rien n'a changé Pour ces MC, j'annonce une lyricale pénurie FF de Mars, Faf Larage, K-Rhyme Le Roi T'entends que Djel scratch au best Le mic j'l'arrache sec, c'est Don Choa Approche toi, clash, test, tu seras la poupée pour le crash test Mon groupe et Faf mec, K-Rhyme Le Roi on détourne les convois Ouvre des larges becs, faim de cash, je crache net, le rage que j'envoie Avec ma voix, et ma foi à chaque check Je tâche d'exceller, si je vexe, mes excuses enculé, tu ruses ? On dirait un con de flic zélé Pour les mecs de ton style mon assemblée de fêlés dit juste Niquez-les Mon cur devient sec, ex-gosse aussi féroce que rusé Je bosse avec l'envie d'avoir tout ce que la vie m'a refusé Comprends ou cherche, j'suis qu'un témoin pas muet Faut se remuer le derche, tu sais qu'on est pas les seuls à suer Hé mec, au mic j'suis là, on sait que j'suis là Sur une Ampex c'est ça quoi Je confirme ce que je dis, j'ai conçu ce que je suis, Le Roi Je guide ma conduite, y a pas de fuites sur le site de Mars Tu piges ? Le coach du Hip Hop dans la mêlée Faut s'en méfier, transpirer pour prospérer Dans les studios, mic en main, OK ? Play, fin prêt, t'es prêt ? Tout part de là, sur un rythme, une rime sur une feuille à plat Surtout dit pas n'importe quoi dans l'ensemble On ne sort pas de là où les MCs se ressemblent Flambent, tremblent sur des fringues minables Vas te faire pendre, je comprends pas, j'étais rien B'sahtik Maintenant que j'avance Khamsa fhaynik J'compte violer l'histoire à condition d'lui faire un enfant J'suis de l'école des enfoirés La vie c'est une fente faut lui fourrer au fond Yeah yeah une fente, un fion, une pute qui mérite qu'on se batte pour elle Plus rien ne me retient quand je représente les miens Au pluriel, et pour rien J'pourrais oublier ces endroits pourris, je l'affirme Maintenant la ferme mec, au nom de ma firme que les Faux aillent s'faire mettre On est tous comme l'infirme dans Usual Infâmes et fiers mec, ferme, je confirme des frères m'aiment Et si le truc est confus c'est ce qu'on préfère man Normal avec ce qu'on fume On sait ce qu'on peut faire et le mène jusqu'au bout Pour jamais regretter ce qu'on fût, à qui on se confie ? Ceux qui écoutent Ce qu'on fait, les mêmes qui nous suivent malgré ce qu'on fit Rien de neuf hormis narrer ce qu'on vit chez nous, mettre à l'écrit Ce qu'on voit, ce qu'on décrit C'est juste le monde tel qu'il est chez vous Conçois la haine des miens dans mes chants, la même dans mes chants Tu plonges ? J'suis de mèche Ce même besoin de vaincre se lit dans les yeux des méchants On fait notre truc même si c'est à l'arraché, ici c'est la FF, Le Roi et Larage Là Rat, j'le dis, laisses Sat, crois pas qu'on arrache L'ami, on n'est pas de ceux qui mentent, il nous faut ce qui monte Ceux qui nous en veulent, nique eux, chez nous la haine c'est pas ce qui manque C'est tout ce qu'on sait faire, parler sur du son et dire tout ce qu'on sait Frère, et quand nos gars sont fous c'est ce qu'on préfère C'est tout ce qu'on sait faire Parler sur du son et dire tout ce qu'on sait Frère, et quand nos gars sont fous c'est ce qu'on préfère À l'arrache, Larage, crois pas que le Duc stagne, invite des potos, style On s'en carre FF, Le Roi tu parles, il t'faut au moins ça, la race sur track C'est normal tu raques On parle gars fils, mais c'est dû à l'arraché Les pauv' taches, nous font chier Les gores du mic sont larges et fichés Ici c'est pas le Grand Wizard, le Grand Masta, le Gangsta, nan Juste Faf Larage Mista Mise la ganache fils, ta bourse, ta main au feu, que même en vrac on fait des heureux En guise de, heu de garanties, d'panache, d'exemple, si j'te dis que ce titre Fait au feeling file, j'me vante ? Nan Conforme aux Normes Marseillaises ouais mec Menzo l'est Tu me suis, ce qu'ils font mérite le respect, désolé Si tu croyais que j'allais rester sans rien dire ou me faire muscler Je lutte même si je me sens mal comme mes frères aux isolées Toute la langue avant que je t'la coupe M'la coule dur, va fencule si tu crois Le contraire, je veux que tu coules J'te jure dans ma bouche gras d'injures pour les putes et les p'tits cons Beaucoup d'amour pour mes amis, et y a pas de type comme Tony La vie amère comme la pomme, aussi triste qu'une journée d'automne Ça t'étonne un rap à l'arraché Accompagné d'un Nomade et de Faf Larage, dans ce monde de chienne Vaut mieux finir vieux et sage Mars, v'là l'addition</t>
         </is>
       </c>
     </row>
@@ -730,12 +730,12 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>A la conquête</t>
+          <t>À moi la garde</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ah an, ahan... One Shot Disiz la Peste Quinto Bête de Duo Conquerir la terre x2 La réussite de la connaissance, c'est ce qui abîme tout les crews Co-Coincidence, mon rap grandit quand j'y pense Con-Conquerir la terre Ra-ra-ra-rassembler les légions S'te plait met plus de mayonnaise dans mon sandwich, mec Fais pas l'radin parce que p't'être qu'un jour j's'rais riche, mec J'suis l'inconnu du rap français Je suis le plus chim mais j'm'en bats les couilles Ma chérie quand j'rappe, même ton keum qu'a pas de chatte mouille Foute à barge c'est ma couille, Rimeurs à Gages c'est mon groupe One Shot c'est mon crew, Chéri coco c'est mon coup RER D, 402 P.L.C Evry Si tu veux m'clash, fais pas ton blair, viens ici Si tu kiffes Disiz, tu connais mon maxi C'est de la bête de bombe, t'es en érection sur Taxi Autant pour moi, pour cette intro pleine d'egotrip, fallait qu'j'me lache Avec l'album Ace du 9 et de Nuttea, tu peux te T.H.E., T.H.F Fais pas le chaud, j'suis plein de fraîcheur Bête de clash, Disiz la Peste, j'suis le challenger Ce putain de challenge frérot, c'est une vrai cure de vitamine De réussir, faire que le bien, garder ce que la vie t'ammène Et le plus grand des chen d'essayer de toucher les gens Sans faire la pute par le fait qu'on touche de l'argent C'est ma cause Faf, c'est la mienne aussi Avec minutie, j'm'initie dans l'esprit du MC qui s'initie S'initie un texte passé insignifiant Dans la forme c'est qu'un freestyle, dans le fond c'est plein de sens J'ai qu'un challenge dans ma vie c'est de la reussir Avec plein d'amour, une famille et dieu, je pourrais mourrir x2 Disiz et Vasquez, deux banlieusards hors normes, à ce qu'on dit Y'a un soucis quand tu Ter-ma le fond La forme du coup, les normes, t'imagines Ce putain de challenge frérot, c'est une vrai cure de vitamine J'attend pas de signal, l'amour du métier m'appelle encore Et le but premier si tu me connais pas c'est la recherche et tenir l'effort Est-ce du neuf mec, c'est pas pour rien, crois-moi Tiens dans ta tête, où que tu sois t'auras des nouvelles dans les six mois Eh la Peste, je suis vraiment fiers d'équipe C'est du tout frais keum, Eh comme ça moi un album Quel trip ! Et quel putain de flip' à l'idée de flair Mais je pas le faire et qu'après c'est la guerre Et ce que je fais, c'est fait exprès clair Eh ouais, y'a des moments comme ça Où pris par surprise, l'enthousiasme déborde sur la hantise Halleluya Exploitons nos matières grises, même fira Je reste lucide pour pas bacler mes divers chantiers Entier quitte à morphler, j'envisage pas de facilité Dans ce qui est depuis un temps, ma principale activité Tu comprend faut pas faire chier un rappeur qui a faim Plus tu l'snobe quand il vient, plus la conquête ira loin Pendant que tu crois que c'est la fin Ce putain de mec en chien se maintient et reviens sur ta gueule Tôt ou tard, c'est pas c'qui l'retiens de faire des dommages Boxer ce bordel à volonté, j'ai éviter les voies scolaires de garage Pas sans flippé, tu croyais pas que j'allais rater l'occaz' De représenter un Ace du 9 et un Rimeur à Gage A la conquête x2 L'indifférence de pourri s'payent Se croire au dessus pareil, bon ! on evitera de jouer au con Parce que justement nous on sait que tout se paye Aujourd'hui, on est là avec un peu de métier dans l'sac Et l'envie de se trouver une bonne place Pour pas bé-ton le jour où ils secouerons le sac Attention, je vais dire des gros mots J'sais que suis grossier, parfois fantasque Disiz, flow fantastique, pas besoin de masse Sale pute, j'rappe pas pour que t'astique ma heute Fais pas le sophistiquer, plutôt caustique mec Plutôt qu'on s'tâte, mec, j'te nique au mic Et puis constate vite, mâte que la Peste est d'attaque Tu vois ce qu'on veut dire On est donc un putain de produit sur lequel on se doit d'investir Faire tout le tour C'est pas vraiment le pire La route me fait prendre la largeur, bien plus rageur Laisse du neuf, remet les pages à l'heure Sur ce track de Ralph , rafale de oufs, c'est le beat qui fait tout Mon flow t'étouffe J'pars à la conquête avec Quinto Malheureux qui m'teste Rimes primaires mais efficace, c'est celles de Disiz la Peste Disiz-ze, evites les rimes bizarres Aiguise, bise, brise, jette ton flow comme le blizzard J'maintiens le bras d'honneur au monopole J'maintiens le soutien sans fin aux tontons de la vieille école Et aux tontons de la nouvelle aussi Du simple travailleur au M.C A nous plaindre de jeunes bleus saint qui luttent pour leurs vies Maintenant j'suis bon des femmes, préfèrent la bande F.M Quand presse co, pijal puis d'M.P, tu vois ma bande est ferme Disiz, c'est ça la guerre Tu veux qu'on s'enterrent Envie d'une carrière, j'cultive le savoir faire, fous la De-mer Il est subversif le vers, tu trouve Pour ta programation de groove Ah, si tu savais c'qu'on couve Et ça n'est pas encore assez, j'trouve</t>
+          <t>La confrontation finale s'étale de long en large Le Duc Larage le Roi de l'orage très haut dans la hiérarchie des mages Multiplie sorts et illusions contre la haine raciale relent du chaos Ici on brûle des marauds torture le mal et ses dévots La victoire prévaut je veux leur plainte comme écho De mes mélopées antiques active mes mains frénétiques Défie leurs cantiques leurs sorciers ne risquent pas de réplique Perplexes perdus dans le vide soumis Aux pouvoirs de l'épée runique aux atouts fantastiques en pratique Embroche les punis, soldats cette fois encore on les humilie Pour la gloire de tout ce qui les terrifie Solidifie mon emprise définitive Stériles sont leurs dispositifs expéditive Stormbringa ! Issue des fournaises de l'Apocalypse Chantant les éclipses des têtes volent jusque dans les récifs Mars revient, massif est l'assaut Frapper dans le vif est son objectif pour les hauts nobles On est hors-la-loi, hors de leurs lois, de leurs sous-bois Un tourbillon de force qui s'axe surgit de nulle part Les conquérants ne sont plus une fois de plus Le carnage a eu lieu on l'a vu c'est le sort des vaincus Inscrit donc dans les coins sombres de ces pages de l'histoire Ces noms, ces hauts faits, ces victoires À moi la Garde ! Forge l'esprit au combat À moi la Garde ! Porte la hargne à bout de bras À moi la Garde ! Sabre au clair, défend nos terres Déjoue les pièges des hautes sphères Arrive l'heure des sombres, soudaine brutale, manteaux de métal En éclaireur, sereine mais létale la troupe s'étale Sur l'horizon dans les yeux pas de crainte un raz-de-marée Un flot de rage que seuls les sages évitent d'affronter Un seul sang une seule route la guerre une seule voie le fer Un seul but l'enfer que les faibles se terrent Sous la chair la bête gronde assiège l'esprit je lutte Moment de répit avant la furie blason brandit, je bondis Esquive, contre, ballet sanglant sous une pluie de rubis Où chaque pas sème la mort plongeant les dames dans l'oubli Les braves dans la nuit déchiquetés tentent de fuir leurs courses finies Dans les griffes de mon destrier, leurs ames n'ont pas le temps de crier De côtes de mailles en côtes de mailles je taille couillu comme fuyard Le sourire et la bave aux lèvres à faire frémir comme Bayard Une ombre courant d'air tueur partout et nulle part Le temps s'estompe Serval au sommet de son art Bardes pincez les cordes que les vents chantent à nouveau Le rouge récit de Shu le terrible étripant niais et marauds À l'assaut des donjons où dorment les pensées libres et Les gardes suintant de haine par tous les pores de leurs peaux Si tel est leur souhait qu'il soit exaucé sur le champ leur sort réglé Sur ce champ où l'herbe rougit en n'importe quelle saison j'aurais Raison de leur folie par le verbe ou les nerfs l'esprit ou la chair La Garde et ses guerriers de pierre La Garde pour seul cri de guerre À moi la Garde ! Forge l'esprit au combat À moi la Garde ! Porte la hargne à bout de bras À moi la Garde ! Sabre au clair, défend nos terres Déjoue les pièges des hautes sphères</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>A l’arrache</t>
+          <t>Arrêter Les Bombes “I Don’t Need”</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Wesh wesh XXX c'est la dèche rien n'a changé On envahit les lieux avec des rimes qui créent une tuerie Wesh wesh XXX c'est la dèche rien n'a changé Pour ces MC, j'annonce une lyricale pénurie FF de Mars, Faf Larage, K-Rhyme Le Roi T'entends que Djel scratch au best Le mic j'l'arrache sec, c'est Don Choa Approche toi, clash, test, tu seras la poupée pour le crash test Mon groupe et Faf mec, K-Rhyme Le Roi on détourne les convois Ouvre des larges becs, faim de cash, je crache net, le rage que j'envoie Avec ma voix, et ma foi à chaque check Je tâche d'exceller, si je vexe, mes excuses enculé, tu ruses ? On dirait un con de flic zélé Pour les mecs de ton style mon assemblée de fêlés dit juste Niquez-les Mon cur devient sec, ex-gosse aussi féroce que rusé Je bosse avec l'envie d'avoir tout ce que la vie m'a refusé Comprends ou cherche, j'suis qu'un témoin pas muet Faut se remuer le derche, tu sais qu'on est pas les seuls à suer Hé mec, au mic j'suis là, on sait que j'suis là Sur une Ampex c'est ça quoi Je confirme ce que je dis, j'ai conçu ce que je suis, Le Roi Je guide ma conduite, y a pas de fuites sur le site de Mars Tu piges ? Le coach du Hip Hop dans la mêlée Faut s'en méfier, transpirer pour prospérer Dans les studios, mic en main, OK ? Play, fin prêt, t'es prêt ? Tout part de là, sur un rythme, une rime sur une feuille à plat Surtout dit pas n'importe quoi dans l'ensemble On ne sort pas de là où les MCs se ressemblent Flambent, tremblent sur des fringues minables Vas te faire pendre, je comprends pas, j'étais rien B'sahtik Maintenant que j'avance Khamsa fhaynik J'compte violer l'histoire à condition d'lui faire un enfant J'suis de l'école des enfoirés La vie c'est une fente faut lui fourrer au fond Yeah yeah une fente, un fion, une pute qui mérite qu'on se batte pour elle Plus rien ne me retient quand je représente les miens Au pluriel, et pour rien J'pourrais oublier ces endroits pourris, je l'affirme Maintenant la ferme mec, au nom de ma firme que les Faux aillent s'faire mettre On est tous comme l'infirme dans Usual Infâmes et fiers mec, ferme, je confirme des frères m'aiment Et si le truc est confus c'est ce qu'on préfère man Normal avec ce qu'on fume On sait ce qu'on peut faire et le mène jusqu'au bout Pour jamais regretter ce qu'on fût, à qui on se confie ? Ceux qui écoutent Ce qu'on fait, les mêmes qui nous suivent malgré ce qu'on fit Rien de neuf hormis narrer ce qu'on vit chez nous, mettre à l'écrit Ce qu'on voit, ce qu'on décrit C'est juste le monde tel qu'il est chez vous Conçois la haine des miens dans mes chants, la même dans mes chants Tu plonges ? J'suis de mèche Ce même besoin de vaincre se lit dans les yeux des méchants On fait notre truc même si c'est à l'arraché, ici c'est la FF, Le Roi et Larage Là Rat, j'le dis, laisses Sat, crois pas qu'on arrache L'ami, on n'est pas de ceux qui mentent, il nous faut ce qui monte Ceux qui nous en veulent, nique eux, chez nous la haine c'est pas ce qui manque C'est tout ce qu'on sait faire, parler sur du son et dire tout ce qu'on sait Frère, et quand nos gars sont fous c'est ce qu'on préfère C'est tout ce qu'on sait faire Parler sur du son et dire tout ce qu'on sait Frère, et quand nos gars sont fous c'est ce qu'on préfère À l'arrache, Larage, crois pas que le Duc stagne, invite des potos, style On s'en carre FF, Le Roi tu parles, il t'faut au moins ça, la race sur track C'est normal tu raques On parle gars fils, mais c'est dû à l'arraché Les pauv' taches, nous font chier Les gores du mic sont larges et fichés Ici c'est pas le Grand Wizard, le Grand Masta, le Gangsta, nan Juste Faf Larage Mista Mise la ganache fils, ta bourse, ta main au feu, que même en vrac on fait des heureux En guise de, heu de garanties, d'panache, d'exemple, si j'te dis que ce titre Fait au feeling file, j'me vante ? Nan Conforme aux Normes Marseillaises ouais mec Menzo l'est Tu me suis, ce qu'ils font mérite le respect, désolé Si tu croyais que j'allais rester sans rien dire ou me faire muscler Je lutte même si je me sens mal comme mes frères aux isolées Toute la langue avant que je t'la coupe M'la coule dur, va fencule si tu crois Le contraire, je veux que tu coules J'te jure dans ma bouche gras d'injures pour les putes et les p'tits cons Beaucoup d'amour pour mes amis, et y a pas de type comme Tony La vie amère comme la pomme, aussi triste qu'une journée d'automne Ça t'étonne un rap à l'arraché Accompagné d'un Nomade et de Faf Larage, dans ce monde de chienne Vaut mieux finir vieux et sage Mars, v'là l'addition</t>
+          <t>Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles Dehors c'est toujours les mêmes qui saignent I'm not into hip I'm not into hop Don't step into either shoes Love has no need for rules Heaven and hell is around you et tu l'sais If God is inside you I don't give a hip-hop, don't give a hop Let's rock to the drop Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles Dehors c'est toujours les mêmes qui saignent Et puis merde, si on doit s'débrouiller seul J'ai vu les critiques, les mêmes depuis trente ans par nos gouvernements Y a pas, on s'comprend pas, et puis j'balance papa Et on les voit pas mais ils veulent décider pour nous Et puis nous, on préfère s'envier ou se détester On adore les histoires de quartier Ça part dans tous les sens Rien qu'on s'bat mais on s'trompe de sens Car nous on passe pas pour des gens qui pensent I don't give a hip-hop don't give a hop I just wanna rock On veut juste faire du son, mec c'est ça I don't give a hip-hop don't give a hop Let's rock to a drop Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles En plus c'est toujours les mêmes qui saignent Ici la terre des pauvres, ouais, viens voir les bénévoles Fantasme pas sur les revolvers et le manque de bol C'est rap'n'roll, ah oui on est quoi, des chanteurs de hall Et on n'est pas c'qu'ils croient, mec On croise le fer avec Belzébuth Va pas croire que Dieu veut nous mettre à la rue pour inspirer Qu'est-ce que tu dis, on veut pas qu'ça pète Juste des logements, des habits, de la bouffe et que justice soit faite about religion I booked a hole to sleep all time J'aime les oui I don't give a hip-hop don't give a hop I just wanna rock I don't give a hip-hop don't give a hop Let's rock to hip-hop Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles Dehors c'est toujours les mêmes qui saignent Et tu l'sais Faf, Arno, Dis l'heure de hip-hop rock'n'roll 2-0-0-6 Peacerock</t>
         </is>
       </c>
     </row>
@@ -764,12 +764,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>À moi la garde</t>
+          <t>Assault lyrical</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>La confrontation finale s'étale de long en large Le Duc Larage le Roi de l'orage très haut dans la hiérarchie des mages Multiplie sorts et illusions contre la haine raciale relent du chaos Ici on brûle des marauds torture le mal et ses dévots La victoire prévaut je veux leur plainte comme écho De mes mélopées antiques active mes mains frénétiques Défie leurs cantiques leurs sorciers ne risquent pas de réplique Perplexes perdus dans le vide soumis Aux pouvoirs de l'épée runique aux atouts fantastiques en pratique Embroche les punis, soldats cette fois encore on les humilie Pour la gloire de tout ce qui les terrifie Solidifie mon emprise définitive Stériles sont leurs dispositifs expéditive Stormbringa ! Issue des fournaises de l'Apocalypse Chantant les éclipses des têtes volent jusque dans les récifs Mars revient, massif est l'assaut Frapper dans le vif est son objectif pour les hauts nobles On est hors-la-loi, hors de leurs lois, de leurs sous-bois Un tourbillon de force qui s'axe surgit de nulle part Les conquérants ne sont plus une fois de plus Le carnage a eu lieu on l'a vu c'est le sort des vaincus Inscrit donc dans les coins sombres de ces pages de l'histoire Ces noms, ces hauts faits, ces victoires À moi la Garde ! Forge l'esprit au combat À moi la Garde ! Porte la hargne à bout de bras À moi la Garde ! Sabre au clair, défend nos terres Déjoue les pièges des hautes sphères Arrive l'heure des sombres, soudaine brutale, manteaux de métal En éclaireur, sereine mais létale la troupe s'étale Sur l'horizon dans les yeux pas de crainte un raz-de-marée Un flot de rage que seuls les sages évitent d'affronter Un seul sang une seule route la guerre une seule voie le fer Un seul but l'enfer que les faibles se terrent Sous la chair la bête gronde assiège l'esprit je lutte Moment de répit avant la furie blason brandit, je bondis Esquive, contre, ballet sanglant sous une pluie de rubis Où chaque pas sème la mort plongeant les dames dans l'oubli Les braves dans la nuit déchiquetés tentent de fuir leurs courses finies Dans les griffes de mon destrier, leurs ames n'ont pas le temps de crier De côtes de mailles en côtes de mailles je taille couillu comme fuyard Le sourire et la bave aux lèvres à faire frémir comme Bayard Une ombre courant d'air tueur partout et nulle part Le temps s'estompe Serval au sommet de son art Bardes pincez les cordes que les vents chantent à nouveau Le rouge récit de Shu le terrible étripant niais et marauds À l'assaut des donjons où dorment les pensées libres et Les gardes suintant de haine par tous les pores de leurs peaux Si tel est leur souhait qu'il soit exaucé sur le champ leur sort réglé Sur ce champ où l'herbe rougit en n'importe quelle saison j'aurais Raison de leur folie par le verbe ou les nerfs l'esprit ou la chair La Garde et ses guerriers de pierre La Garde pour seul cri de guerre À moi la Garde ! Forge l'esprit au combat À moi la Garde ! Porte la hargne à bout de bras À moi la Garde ! Sabre au clair, défend nos terres Déjoue les pièges des hautes sphères</t>
+          <t>Soit les temps changent, soit on dérange, soit les jeunes mangent Du chien enragé, mais les sales vannes ne sont plus rangées Tu crois qu'y a danger ? Pas un brin, c'est ça qu'ils pigent pas La musique ils l'écoutent pas, tes disques ils les achètent pas Je suis celui que tu suis depuis tant d'années, tu suis Le parcours de celui qui rappe pour les projects les plus appauvris Démunis, mais riches en mélodies qui d'entre vous va se lever ? Qui ? Contre ceux qui résistent, qui veut détourner nos voix ? Qui ? S'marre pour rien, qui représente que dalle ? Qui de ceux-là veulent ma place ? Bidon j'ai trop la dalle Je fous mes rimes sur la table, mes rimes pour l'asphalte Je trime pour la caille, y en a qui flippe quand je taille Vas-y lascar arrête de disjoncter, d'être bloqué, en soirée En concert viens donc jumper Sur des gaillards que tu veux croquer Mais c'est le Hip-Hop que tu vas tuer C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop J'ai connu trop de bons publics, des soirs d'folies Pour quand je prends une bouteille sur moi rester poli Tu payes ta place pour me faire un doigt, me cracher dessus Je finis, j'te trouve un All Access et je te casse le cul Je parle même plus de respect, à quoi ça sert ? Je cherche même plus à comprendre j'ai pas que ça à faire Mais il y a les autres, ouais, les autres c'est pour eux qu'on est là C'est avec eux qu'on est là, c'est grâce à eux qu'on fait ça Et tant qu'ils seront là, dans les concerts, la main en l'air Je risque pas de me poser la question de savoir de quoi j'ai l'air Def Bond, Squat, ton R en 16 lignes sur une page Respire la tec' de Faf, persiste avec Rage Tactique non réfléchie et diabolique Régler ses comptes pendant une teuf, toi et ta clique Condamner, tes faits je ne peux que les condamner Un coup est parti et toute une famille est brisée Y'a plus de meufs, en soirées y'a plus de seufs y'a que des keufs En 9.9, espérons qu'on sera tous, tous des reufs Y'a rien à faire fils tu piges pas, tu kiffes pas Tu rimes pas, mais quand on se mouille pas tu t'foules pas Ne l'ouvres pas, on reste là que tu te files ou pas, on rit pas T'as le R et Squat, Def et Larage, on change pas En soirée y'a des règlements de compte, des merdes à tout va Des larmes et des flingues, mais pourquoi tu raques pour ça ? C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Quel wack MC veut test notre énergie ? Tu ne comprends pas pourquoi on existe tel qu'on est dans l'industrie Baby baby, choisi la ture-voi dans laquelle tu vas rider cette nuit Certains coupent la gorge des brebis, d'autres les couvres de jou-bis Rude Boy love gal with money On s'auto-produit on gère nos royalties On dit ce qu'on veut dans nos sques-di comme Master P On dit qu'on ne meurt pas car nos esprits dansent pour l'unity Comme au Brésil, en Jamaïque, aux Antilles, en Colombie Paris doit se veiller-er, la province doit suivre aussi Je vais ramener une part de gâteau à tous mes chiens d'en bas Waouf Waouf, t'approches pas, Waouf Waouf on ne joue pas La rage tu l'as, ne me fais pas croire que la 'sique te fait pas Plus d'effet que ça, dans ton walkman tu te bats pas Et avec qui d'abord ?, c'est la merde Mais y'a d'autres moyens de conjurer le sort Laisse faire quand le son t'emporte C'est l'opium du peuple, on a que ça, le combat Tu vois il se trouve dans nos têtes Et quand ça frappe ça fait bien plus mal Je rappe pour l'amour des mots, pour les gars, les gos Pour tous les escrocs, pour tous ceux qui vivent dans des ghettos Le H.I.P. a perdu de sa valeur, mais qui va l'chopper ? C'est tous ces rimeurs à l'heure, l'espoir fait vivre Et celui qui peut lire ce texte ivre peut vivre C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop</t>
         </is>
       </c>
     </row>
@@ -781,12 +781,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Arrêter Les Bombes “I Don’t Need”</t>
+          <t>Assaut Lyrical</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles Dehors c'est toujours les mêmes qui saignent I'm not into hip I'm not into hop Don't step into either shoes Love has no need for rules Heaven and hell is around you et tu l'sais If God is inside you I don't give a hip-hop, don't give a hop Let's rock to the drop Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles Dehors c'est toujours les mêmes qui saignent Et puis merde, si on doit s'débrouiller seul J'ai vu les critiques, les mêmes depuis trente ans par nos gouvernements Y a pas, on s'comprend pas, et puis j'balance papa Et on les voit pas mais ils veulent décider pour nous Et puis nous, on préfère s'envier ou se détester On adore les histoires de quartier Ça part dans tous les sens Rien qu'on s'bat mais on s'trompe de sens Car nous on passe pas pour des gens qui pensent I don't give a hip-hop don't give a hop I just wanna rock On veut juste faire du son, mec c'est ça I don't give a hip-hop don't give a hop Let's rock to a drop Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles En plus c'est toujours les mêmes qui saignent Ici la terre des pauvres, ouais, viens voir les bénévoles Fantasme pas sur les revolvers et le manque de bol C'est rap'n'roll, ah oui on est quoi, des chanteurs de hall Et on n'est pas c'qu'ils croient, mec On croise le fer avec Belzébuth Va pas croire que Dieu veut nous mettre à la rue pour inspirer Qu'est-ce que tu dis, on veut pas qu'ça pète Juste des logements, des habits, de la bouffe et que justice soit faite about religion I booked a hole to sleep all time J'aime les oui I don't give a hip-hop don't give a hop I just wanna rock I don't give a hip-hop don't give a hop Let's rock to hip-hop Faut arrêter les bombes, que fleurissent les tombes Pour que les enfants qui viennent au monde s'aiment On veut plus d'fausses lois, on veut plus d'fausses règles Dehors c'est toujours les mêmes qui saignent Et tu l'sais Faf, Arno, Dis l'heure de hip-hop rock'n'roll 2-0-0-6 Peacerock</t>
+          <t>Soit les temps changent, soit on dérange, soit les jeunes mangent Du chien enragé, mais les sales vannes ne sont plus rangées Tu crois qu'y a danger ? Pas un brin, c'est ça qu'ils pigent pas La musique ils l'écoutent pas, tes disques ils les achètent pas Je suis celui que tu suis depuis tant d'années, tu suis Le parcours de celui qui rappe pour les projects les plus appauvris Démunis, mais riches en mélodies qui d'entre vous va se lever ? Qui ? Contre ceux qui résistent, qui veut détourner nos voix ? Qui ? S'marre pour rien, qui représente que dalle ? Qui de ceux-là veulent ma place ? Bidon j'ai trop la dalle Je fous mes rimes sur la table, mes rimes pour l'asphalte Je trime pour la caille, y'en a qui flippe quand je taille Vas-y lascar arrête de disjoncter, d'être bloqué, en soirée En concert viens donc jumper Sur des gaillards que tu veux croquer Mais c'est le Hip Hop que tu vas tuer C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop J'ai connu trop de bons publics, des soirs d'folies Pour quand je prends une bouteille sur moi rester poli Tu payes ta place pour me faire un doigt, me cracher dessus Je finis, j'te trouve un All Access et je te casse le cul Je parle même plus de respect, à quoi ça sert ? Je cherche même plus à comprendre j'ai pas que ça à faire Mais il y a les autres, ouais, les autres c'est pour eux qu'on est là C'est avec eux qu'on est là, c'est grâce à eux qu'on fait ça Et tant qu'ils seront là, dans les concerts, la main en l'air Je risque pas de me poser la question de savoir de quoi j'ai l'air Def Bond Squat ton air en 16 lignes sur une page Respire la tek de Faf, persiste avec Rage Tactique non réfléchie et diabolique Régler ses comptes pendant une teuf, toi et ta clique Condamner, tes faits je ne peux que les condamner Un coup est parti et toute une famille est brisée Y'a plus de meufs, en soirées y'a plus de seufs y'a que des keufs En 99 espérons qu'on sera tous, tous des reufs Y a rein à faire fils tu piges pas, tu kiffes pas Tu rimes pas, mais quand on se mouille pas tu t'foules pas Ne l'ouvres pas, on reste là que tu te files ou pas, on rit pas T'as le R et Squat, Def et Larage, on change pas En soirée y a des règlements de compte, des merdes à tout va Des larmes et des flingues, mais pourquoi tu raques pour ça ? C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Quel wack MC veut test notre énergie ? Tu ne comprends pas pourquoi on existe tel qu'on est dans l'industrie Baby, baby choisis la ture-voi dans laquelle tu vas rider cette nuit Certains coupent la gorge des brebis, d'autres les couvrent de jou-bi Rude Boy love gal with money On s'autoproduit on gère nos royalties On dit ce qu'on veut dans nos sque-di comme Master P On dit qu'on ne meurt pas car nos esprits dansent pour l'unity Comme au Brésil, en Jamaïque, aux Antilles, en Colombie Paris doit se veille-ré, la province doit suivre aussi Je vais ramener une part de gâteau à tous mes chiens d'en bas Waouf Waouf, t'approche pas, Waouf Waouf on ne joue pas La rage tu l'as, ne me fais pas croire que la zik' te fait pas Plus d'effet que ça, dans mon walkman tu te bats pas Et avec qui d'abord ?, c'est la merde Mais y'a d'autres moyens de conjurer le sort Laisse faire quand le son t'emporte C'est l'opium du peuple, on a que ça, le combat Tu vois il se trouve dans nos fêtes Et quand ça frappe ça fait bien plus mal Je rappe pour l'amour des mots, pour les gars, les go Pour tous les escrocs, pour tous ceux qui vivent dans des ghettos Le H.I.P. a perdu de sa valeur, mais qui va l'choper ? C'est tous ces rimeurs à l'heure, l'espoir fait vivre Et celui qui peut lire ce texte ivre peut vivre C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop</t>
         </is>
       </c>
     </row>
@@ -798,12 +798,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Assault lyrical</t>
+          <t>Avec la tête haute</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Soit les temps changent, soit on dérange, soit les jeunes mangent Du chien enragé, mais les sales vannes ne sont plus rangées Tu crois qu'y a danger ? Pas un brin, c'est ça qu'ils pigent pas La musique ils l'écoutent pas, tes disques ils les achètent pas Je suis celui que tu suis depuis tant d'années, tu suis Le parcours de celui qui rappe pour les projects les plus appauvris Démunis, mais riches en mélodies qui d'entre vous va se lever ? Qui ? Contre ceux qui résistent, qui veut détourner nos voix ? Qui ? S'marre pour rien, qui représente que dalle ? Qui de ceux-là veulent ma place ? Bidon j'ai trop la dalle Je fous mes rimes sur la table, mes rimes pour l'asphalte Je trime pour la caille, y en a qui flippe quand je taille Vas-y lascar arrête de disjoncter, d'être bloqué, en soirée En concert viens donc jumper Sur des gaillards que tu veux croquer Mais c'est le Hip-Hop que tu vas tuer C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop J'ai connu trop de bons publics, des soirs d'folies Pour quand je prends une bouteille sur moi rester poli Tu payes ta place pour me faire un doigt, me cracher dessus Je finis, j'te trouve un All Access et je te casse le cul Je parle même plus de respect, à quoi ça sert ? Je cherche même plus à comprendre j'ai pas que ça à faire Mais il y a les autres, ouais, les autres c'est pour eux qu'on est là C'est avec eux qu'on est là, c'est grâce à eux qu'on fait ça Et tant qu'ils seront là, dans les concerts, la main en l'air Je risque pas de me poser la question de savoir de quoi j'ai l'air Def Bond, Squat, ton R en 16 lignes sur une page Respire la tec' de Faf, persiste avec Rage Tactique non réfléchie et diabolique Régler ses comptes pendant une teuf, toi et ta clique Condamner, tes faits je ne peux que les condamner Un coup est parti et toute une famille est brisée Y'a plus de meufs, en soirées y'a plus de seufs y'a que des keufs En 9.9, espérons qu'on sera tous, tous des reufs Y'a rien à faire fils tu piges pas, tu kiffes pas Tu rimes pas, mais quand on se mouille pas tu t'foules pas Ne l'ouvres pas, on reste là que tu te files ou pas, on rit pas T'as le R et Squat, Def et Larage, on change pas En soirée y'a des règlements de compte, des merdes à tout va Des larmes et des flingues, mais pourquoi tu raques pour ça ? C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Quel wack MC veut test notre énergie ? Tu ne comprends pas pourquoi on existe tel qu'on est dans l'industrie Baby baby, choisi la ture-voi dans laquelle tu vas rider cette nuit Certains coupent la gorge des brebis, d'autres les couvres de jou-bis Rude Boy love gal with money On s'auto-produit on gère nos royalties On dit ce qu'on veut dans nos sques-di comme Master P On dit qu'on ne meurt pas car nos esprits dansent pour l'unity Comme au Brésil, en Jamaïque, aux Antilles, en Colombie Paris doit se veiller-er, la province doit suivre aussi Je vais ramener une part de gâteau à tous mes chiens d'en bas Waouf Waouf, t'approches pas, Waouf Waouf on ne joue pas La rage tu l'as, ne me fais pas croire que la 'sique te fait pas Plus d'effet que ça, dans ton walkman tu te bats pas Et avec qui d'abord ?, c'est la merde Mais y'a d'autres moyens de conjurer le sort Laisse faire quand le son t'emporte C'est l'opium du peuple, on a que ça, le combat Tu vois il se trouve dans nos têtes Et quand ça frappe ça fait bien plus mal Je rappe pour l'amour des mots, pour les gars, les gos Pour tous les escrocs, pour tous ceux qui vivent dans des ghettos Le H.I.P. a perdu de sa valeur, mais qui va l'chopper ? C'est tous ces rimeurs à l'heure, l'espoir fait vivre Et celui qui peut lire ce texte ivre peut vivre C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y a des MC's avec des rimes non stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop</t>
+          <t>Y'a pas de loi quand on a pas le choix Ma foi, le destin n'a pas droit et on y croit On l'a écrit tant de fois sur le mur de leur fautes Les jeux sont faits, on va garder la tête haute Chaque heure, chaque fois qu'on est en peine mec on garde la tête haute Si on fait face à la peur, la foi, c'est une lutte et on en sort avec la tête haute Il reste gravé chaque pleur, chaque larme qu'on laisse couler Elle sèchera la tête haute Tête haute, tête haute, tête haute, tête haute La tête haute même dans le trou, pas évident mais bon Soit on coule, soit on reste dans la course en accrochant l'wagon Pour ceux qui ont la vie dure, que les embuches n'ont pas épargnés Les nerfs à fleur de peau, les dents serrées La justice fait défaut qu'on a pas assez d'blé A côté, on voit les puissants s'en tirer Les espoirs sélèvent et sont anesthésiés Les listes électorales font pas rêver, tu le sais Envie de contrôler sa ville mais ici c'est la guerre Les gens qui aident le disent, aussi écoute bien les cris, les ras-l'bol Trop d'pauvres ont pas d'bol, trop d'mômes en tôle De jeunes filles qui racolent Big-up aux bénévoles, l'avant-tout dégringole La-haut, les forces de l'ordre n'ont que les coups pour parole Le rap en bélier, tête haute, pour défoncer les portes On nous a pas donné les clés, comment tu veux qu'on s'comporte ? Gilles me pousse contre le mur Quoi ? Avec un XXX Mec, pour que j'oublie mes principes et retourne ma veste Rien à faire, j'préfère crever contre les barrières J'suis un type à l'ancienne, chez nous pas d'machine arrière On fonce tête haute, y'a pas l'choix si on se sent transparent La fierté c'est tout c'qu'on a, ouais J'suis lesclave au dos scarifié par le fouet des maîtres Un peu parano dû au résidu d'l'effet des XXX J'ai fais des fêtes, j'ai connu les défaites mais j'ai jamais touché l'but en rampant ou en baissant ma tête Ni en tripant sur les promesses d'un reality-show Pendu à l'écran, prêt à devenir un reality-sot J'te l'répète, tête haute chaque heure que Dieu fait T'as capté le concept ou j'te le refais ? Je viens d'ces endroits où on croit plus dans les brevets Parc'que devant le talent, le pays ferme les yeux et nous laisse crever Chaque heure, chaque fois qu'on est en peine mec on garde la tête haute Si on fait face à la peur, la foi, c'est une lutte et on en sort avec la tête haute Il reste gravé chaque pleur, chaque larme qu'on laisse couler Elle sèchera la tête haute Tête haute, tête haute, tête haute, tête haute Comment s'épanouir ? Demande à petit frère Trop vite largués dans la rue, les jeux sont plus amers La fin justifie et cette maman pense qu'elle s'humilie à la soupe populaire mais c'est elle la plus digne La douleur hurle, fait faire des conneries Et quand ta vie s'écroule c'est la honte qui te brise Certains cherchent des cibles et d'autres se replient Ça bosse pour le minimum, un toit et du riz Putain où est le fric ? Au chaud dans les Caïmans Des contrats pourris ont usés la santé de nos parents Et chez les VIP, y'a trop d'affaires classées De trafics masqués mais on laisse tout passer La tête dans le guidon, faut avancer, besoin d'se voir au sommet avant d'finir lobotomisé A la croisée des chemins, on s'regarde même plus, divisés Et il nous reste que la télé pour pleurer Ma carrière ? Rien à foutre J'aime faire c'que je fais, mais faire pour briller, on s'grille à force de plier Pour ça, j'garde ma tête haute en toute occasion Surtout quand notre présence est vécue comme une invasion Le mérite c'est beau sur le papier, au fond c'est qu'une arnaque Monter en grade dans les blocs ou sous les arcades, c'est tout c'qui nous est promis Paralysés en phase-test, ces putain d'chaînes on va les briser une à une, yes On marche tête haute, c'est ça le challenge Poings serrés, rangs serrés, tous en phalanges On renie pas nos valeurs Constants devant la joie, devant le malheur Même si nos villes sentent monter la chaleur On verse pas de larmiche, pourtant maintenant qu'on est en indé' Ouais c'est nous contre le monde comme Salvador Allende Si j'dois partir c'est mic' au poing après un couplet Car aux yeux du système, nous sommes les plus redoutés Chaque heure, chaque fois qu'on est en peine mec on garde la tête haute Si on fait face à la peur, la foi, c'est une lutte et on en sort avec la tête haute Y reste gravé chaque pleur, chaque larme qu'on laisse couler Elle sèchera la tête haute Tête haute, tête haute, tête haute, tête haute</t>
         </is>
       </c>
     </row>
@@ -815,12 +815,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Assaut Lyrical</t>
+          <t>Ballade pour un traître</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Soit les temps changent, soit on dérange, soit les jeunes mangent Du chien enragé, mais les sales vannes ne sont plus rangées Tu crois qu'y a danger ? Pas un brin, c'est ça qu'ils pigent pas La musique ils l'écoutent pas, tes disques ils les achètent pas Je suis celui que tu suis depuis tant d'années, tu suis Le parcours de celui qui rappe pour les projects les plus appauvris Démunis, mais riches en mélodies qui d'entre vous va se lever ? Qui ? Contre ceux qui résistent, qui veut détourner nos voix ? Qui ? S'marre pour rien, qui représente que dalle ? Qui de ceux-là veulent ma place ? Bidon j'ai trop la dalle Je fous mes rimes sur la table, mes rimes pour l'asphalte Je trime pour la caille, y'en a qui flippe quand je taille Vas-y lascar arrête de disjoncter, d'être bloqué, en soirée En concert viens donc jumper Sur des gaillards que tu veux croquer Mais c'est le Hip Hop que tu vas tuer C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop J'ai connu trop de bons publics, des soirs d'folies Pour quand je prends une bouteille sur moi rester poli Tu payes ta place pour me faire un doigt, me cracher dessus Je finis, j'te trouve un All Access et je te casse le cul Je parle même plus de respect, à quoi ça sert ? Je cherche même plus à comprendre j'ai pas que ça à faire Mais il y a les autres, ouais, les autres c'est pour eux qu'on est là C'est avec eux qu'on est là, c'est grâce à eux qu'on fait ça Et tant qu'ils seront là, dans les concerts, la main en l'air Je risque pas de me poser la question de savoir de quoi j'ai l'air Def Bond Squat ton air en 16 lignes sur une page Respire la tek de Faf, persiste avec Rage Tactique non réfléchie et diabolique Régler ses comptes pendant une teuf, toi et ta clique Condamner, tes faits je ne peux que les condamner Un coup est parti et toute une famille est brisée Y'a plus de meufs, en soirées y'a plus de seufs y'a que des keufs En 99 espérons qu'on sera tous, tous des reufs Y a rein à faire fils tu piges pas, tu kiffes pas Tu rimes pas, mais quand on se mouille pas tu t'foules pas Ne l'ouvres pas, on reste là que tu te files ou pas, on rit pas T'as le R et Squat, Def et Larage, on change pas En soirée y a des règlements de compte, des merdes à tout va Des larmes et des flingues, mais pourquoi tu raques pour ça ? C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Quel wack MC veut test notre énergie ? Tu ne comprends pas pourquoi on existe tel qu'on est dans l'industrie Baby, baby choisis la ture-voi dans laquelle tu vas rider cette nuit Certains coupent la gorge des brebis, d'autres les couvrent de jou-bi Rude Boy love gal with money On s'autoproduit on gère nos royalties On dit ce qu'on veut dans nos sque-di comme Master P On dit qu'on ne meurt pas car nos esprits dansent pour l'unity Comme au Brésil, en Jamaïque, aux Antilles, en Colombie Paris doit se veille-ré, la province doit suivre aussi Je vais ramener une part de gâteau à tous mes chiens d'en bas Waouf Waouf, t'approche pas, Waouf Waouf on ne joue pas La rage tu l'as, ne me fais pas croire que la zik' te fait pas Plus d'effet que ça, dans mon walkman tu te bats pas Et avec qui d'abord ?, c'est la merde Mais y'a d'autres moyens de conjurer le sort Laisse faire quand le son t'emporte C'est l'opium du peuple, on a que ça, le combat Tu vois il se trouve dans nos fêtes Et quand ça frappe ça fait bien plus mal Je rappe pour l'amour des mots, pour les gars, les go Pour tous les escrocs, pour tous ceux qui vivent dans des ghettos Le H.I.P. a perdu de sa valeur, mais qui va l'choper ? C'est tous ces rimeurs à l'heure, l'espoir fait vivre Et celui qui peut lire ce texte ivre peut vivre C'est un braquage vocal, que tout le monde Jump up, Jump up regarde comment tu te comportes Ici y'a des MCs avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop Assaut lyrical me say me Jump up Jump up, les bonnes vibes sortent et si ça merde c'est mort Ici y'a des MC avec des rimes non-stop Voici 4 soldats en guerre sans cesse pour le Hip-Hop</t>
+          <t>Parce que son souvenir pèse comme ses remords devant la fin De ce fardeau je m'allège, l'exorcisant encore au lendemain De mes jours naïfs Quel réveil plus que brutal Les nerfs à vif, j'ai une vision d'amour et de haine en père complice bien matinal Au risque de vivre mal les jours restants C'est de la méfiance que j'installe dès à présent Puis à la question réaliste sur les faiblesses du genre humain Ma réponse serait p't-être les tremblements d'ma main Grattant la ballade pour un traître La voilà ta ballade, traître Ballade pour un traître La voilà ta ballade Ballade pour un traître Beauté de toute chose, illustre présage inattendu À la croisée des chemins, ors et bijoux te seront dus Lorsque le satin blanc enveloppera l'sommet Que les aigles s'y jetteront à nos pieds Tu seras comblé, l'âme nue, nul être ne pourra tricher C'est alors que ton nom, je reconnaîtrai Celui qui t'auras ignoré Celui-là même qui m'a déçu N'aura d'repos, que ses fantasmes déchus L'agonie ne fera point de toi un martyr Dans l'attente, tu souffres, hélas ta peine ne se retire Des astres maudits figés par des échos d'douleur Les humbles et les justes meurtris par tant d'malheur Pas d'rancune ni vengeance, froid comme une tombe Et comme le fer rouge intense, j'attendrai la sentence Plus poignant que l'envie, viendra l'néant Poussière, tu flatteras les ombres en pleurant Et quand tu regarderas derrière toi derrière toi Faible de ton arrogance, résigné Noyé dans le chagrin, tu la contempleras Le tranchant de son aura cruelle vérité Ton désir de devenir ce que tu n'as jamais été De vouloir ce que tu n'avais pas En te souillant pour y arriver Ils te rongeront pour ceux à qui tu as menti Les tristes qui t'auront aimé Hanteront jusqu'à tes souvenirs Alors tu maudiras ta haine Et je célèbrerai ta perte En chantant, sourire aux lèvres Cette ballade pour un traître La voilà ta ballade, traître Ballade pour un traître La voilà ta ballade Ballade pour un traître J'ai été trahi par l'illusion, ami d'l'enfance et du rêve hier Elle s'est sauvée, j'sais même pas où, durant sans doute l'hiver De loin la période la plus galère pour le moral C'était un coup bas, on m'a dit qu'ça apprend à vivre, que c'est normal J'ai été trahi par l'enfance, l'ami d'l'insouciance m'a quitté Il m'a laissé d'beaux souvenirs et aussi d'quoi réfléchir pour des années L'insouciance la garce n'a pas tardé aussi Elle m'fait souffrir, j'la fuis, mais j'sais qu'elle m'guette toujours J'ai été trahi par la confiance, meilleure amie d'l'amour Comment pourrais-je lui en vouloir, méfiance existe pour Et quand l'amour m'a présenté la haine Cette méfiance est devenue reine Son autorité m'a jamais plu Respect des autres, respect d'soi-même Respect, sept lettres, putain comme traître comme traître Ah, ça rend malade Tiens, connard ta ballade La voilà ta ballade, traître Ballade pour un traître La voilà ta ballade Ballade pour un traître</t>
         </is>
       </c>
     </row>
@@ -832,12 +832,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Avec la tête haute</t>
+          <t>Billy</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Y'a pas de loi quand on a pas le choix Ma foi, le destin n'a pas droit et on y croit On l'a écrit tant de fois sur le mur de leur fautes Les jeux sont faits, on va garder la tête haute Chaque heure, chaque fois qu'on est en peine mec on garde la tête haute Si on fait face à la peur, la foi, c'est une lutte et on en sort avec la tête haute Il reste gravé chaque pleur, chaque larme qu'on laisse couler Elle sèchera la tête haute Tête haute, tête haute, tête haute, tête haute La tête haute même dans le trou, pas évident mais bon Soit on coule, soit on reste dans la course en accrochant l'wagon Pour ceux qui ont la vie dure, que les embuches n'ont pas épargnés Les nerfs à fleur de peau, les dents serrées La justice fait défaut qu'on a pas assez d'blé A côté, on voit les puissants s'en tirer Les espoirs sélèvent et sont anesthésiés Les listes électorales font pas rêver, tu le sais Envie de contrôler sa ville mais ici c'est la guerre Les gens qui aident le disent, aussi écoute bien les cris, les ras-l'bol Trop d'pauvres ont pas d'bol, trop d'mômes en tôle De jeunes filles qui racolent Big-up aux bénévoles, l'avant-tout dégringole La-haut, les forces de l'ordre n'ont que les coups pour parole Le rap en bélier, tête haute, pour défoncer les portes On nous a pas donné les clés, comment tu veux qu'on s'comporte ? Gilles me pousse contre le mur Quoi ? Avec un XXX Mec, pour que j'oublie mes principes et retourne ma veste Rien à faire, j'préfère crever contre les barrières J'suis un type à l'ancienne, chez nous pas d'machine arrière On fonce tête haute, y'a pas l'choix si on se sent transparent La fierté c'est tout c'qu'on a, ouais J'suis lesclave au dos scarifié par le fouet des maîtres Un peu parano dû au résidu d'l'effet des XXX J'ai fais des fêtes, j'ai connu les défaites mais j'ai jamais touché l'but en rampant ou en baissant ma tête Ni en tripant sur les promesses d'un reality-show Pendu à l'écran, prêt à devenir un reality-sot J'te l'répète, tête haute chaque heure que Dieu fait T'as capté le concept ou j'te le refais ? Je viens d'ces endroits où on croit plus dans les brevets Parc'que devant le talent, le pays ferme les yeux et nous laisse crever Chaque heure, chaque fois qu'on est en peine mec on garde la tête haute Si on fait face à la peur, la foi, c'est une lutte et on en sort avec la tête haute Il reste gravé chaque pleur, chaque larme qu'on laisse couler Elle sèchera la tête haute Tête haute, tête haute, tête haute, tête haute Comment s'épanouir ? Demande à petit frère Trop vite largués dans la rue, les jeux sont plus amers La fin justifie et cette maman pense qu'elle s'humilie à la soupe populaire mais c'est elle la plus digne La douleur hurle, fait faire des conneries Et quand ta vie s'écroule c'est la honte qui te brise Certains cherchent des cibles et d'autres se replient Ça bosse pour le minimum, un toit et du riz Putain où est le fric ? Au chaud dans les Caïmans Des contrats pourris ont usés la santé de nos parents Et chez les VIP, y'a trop d'affaires classées De trafics masqués mais on laisse tout passer La tête dans le guidon, faut avancer, besoin d'se voir au sommet avant d'finir lobotomisé A la croisée des chemins, on s'regarde même plus, divisés Et il nous reste que la télé pour pleurer Ma carrière ? Rien à foutre J'aime faire c'que je fais, mais faire pour briller, on s'grille à force de plier Pour ça, j'garde ma tête haute en toute occasion Surtout quand notre présence est vécue comme une invasion Le mérite c'est beau sur le papier, au fond c'est qu'une arnaque Monter en grade dans les blocs ou sous les arcades, c'est tout c'qui nous est promis Paralysés en phase-test, ces putain d'chaînes on va les briser une à une, yes On marche tête haute, c'est ça le challenge Poings serrés, rangs serrés, tous en phalanges On renie pas nos valeurs Constants devant la joie, devant le malheur Même si nos villes sentent monter la chaleur On verse pas de larmiche, pourtant maintenant qu'on est en indé' Ouais c'est nous contre le monde comme Salvador Allende Si j'dois partir c'est mic' au poing après un couplet Car aux yeux du système, nous sommes les plus redoutés Chaque heure, chaque fois qu'on est en peine mec on garde la tête haute Si on fait face à la peur, la foi, c'est une lutte et on en sort avec la tête haute Y reste gravé chaque pleur, chaque larme qu'on laisse couler Elle sèchera la tête haute Tête haute, tête haute, tête haute, tête haute</t>
+          <t>Cliquez sur la lettre de votre choix pour accéder directement au raccourciABCDEFGHIJKLMNOPQRSTUVWXYZ100Blaze 113 13 Block 1995 1PLIKÉ140 20syl 25G 2CheeseMilkShake 2Fingz 2Spee Gonzales 2zer 3010 3e il 47ter 4Keus 5 Majeur 667 6rano 75ème Session 7 Jaws 8rukiAA2H Abd Al Malik Abdallah Abou Debeing Abou Tall Abuz Adams Ademo Adès Admiral T Aelpéacha Aero Afro S Aketo Akhenaton Al Peco Alaclair Ensemble Aladin 135 Alkpote Ali Alibi Montana Alivor Alonzo ALP Alpha Wann Alpha 5.20 Amine Anton Serra Araujo Arcane Areno Jaz Arma Jackson Ärsenik Ashe 22 Ash Kidd Assaf Assassin Assy Ateyaba ATL4S ATK AxiomBBadjer Bakar Bambi Cruz Barack Adama Bavoog Avers Bazoo Bedjik Beeby Bekar Benab Ben-J Benjamin Epps BEN plg Beny Beozedzed Béton Armé Biffty Bigflo Oli Big Budha Cheez Big Red Billy Joe Black Kent Black M Black Marché Blacko Blaiz Blaz Pit Blondin B-NØM Booba Boostee Bohemian Club Bolémvn Bon Gamin Bosh Boss One Bouga Box Frappe Game Bram's Brasco Brav' Bresom Gang Brulux Brvmsoo BTPKR Busta Flex Butter BulletsCCaballero Cahiips Calbo La Canaille Canardo Captaine Roshi Casey Casseurs Flowters Cassidy Céo CFR CG6 Chanceko Chanje Chapsy Charly Greane Chatnoir Chiens de paille Chilla Chillo Chily Chinwvr Coelho Columbine Congo Bill Cool Connexion C.O.R Coyote Jo Bastard Crown C-sen Cyanure CYPH3RDD6 D. Abuz System D.Ace Daddy Lord C Dadju Dadoo Damso Dandyguel Dante Sito Dany Dan David Okit Davodka Darryl Zeuja DA Uzi Dawa O'Mic Dead Obies Deadi Dee Nasty Deen Burbigo Def Bond Demi Portion Démocrates D Demon One Denza Denzo Derka Despo Rutti DFHDGB Di-Meh Diam's Diddi Trix Dika DIL Dinero Dinos Dinor rdt Diomay Disiz La Peste Djadja Dinaz Djalito Djamal Django Djamatik Djé DJ Weedim Doc Gynéco Doc OVG Doc TMC Don Choa Donkishot Doomams Dooz Kawa Dosseh Dostan Malicia Mc Double Zulu Doudou Masta Doums Doxx Dr Beriz Driver Dry DTFEEast Eddie Hyde Eden Dillinger Eden Eyez Eden Seven Eff Gee Eikiro Ejm Ekoué Elams Elyo El Matador Empty7 Enfantdepauvres Escobar Macson Espiiem Esteban Exodarap Expression Direkt Explicit SamouraïFF430 FA2L Fababy Fabe Faf Larage Faktiss Falcko Farhaon Farlot Faster Jay Faya D Féfé Félix J Fhe-Mann Fiasko Proximo Fibo Fisto Fixpen Sill Fixpen Singe Flev' Flynt Foda C Fonky Family Fonky Flav' FouKi Foulques Nera Framal Franglish Fred Watt Fredy K Fréko Ding Freeman Freeze Corleone Freko Ding Frenetik Furax Barbarossa Futuristiq FuzatiGGaël Faye Gambi Gazouza Setif Ghetto Fabulous Gang Geeeko Georgio Gerard Baste G. Kill GLK Gradur Grand Corps Malade Green Montana Grems Gringe Grödash Gros Mo Guizmo Guy2BezbarHHamed Daye H Magnum Hash24 Hayce Lemsi Hamé Hamza Haristone Hatik Heskis High Five Crew Hitakora Hologram Lo' Hooss Hornet la Frappe Horseck Hors II Portée Hotel Paradisio Hippocampe Fou Hugo Boss Hugo Délire Hugo TSR Hunter HyacintheIIAM Ian Vandooren Ichon ICO Ideal Jim IGee Ikar Ikbal Imhotep Infinit' Insolent Inspire Intouchable Iron Sy Irvin Isha ISK Issaba Issaka Ixzo IZMJJaeyez James Deano James Delleck Jarod Jar Pacino Jason Voriz Jazzy Bazz JeanJass Jeff Le Nerf Jehkyl Jessy Money Jethro Bare Jewel Usain JMK Jnoun Joe Lucazz Joey Larsé JoeyStarr Jok'Air Jo le Pheno Jorrdee Josman Joysad JR O'Chrome Juicy P JuL Junior BvndoKK-LY K-mel K-Rhyme Le Roi Kaaris Kacem Wapalek Kaddour Hadadi Kaki Santana Kalash Kalash Criminel Kalash L'Afro Kalif Hardcore Kamelanc' Kamel Le Nouvo Kamini Kamnouze Kanoé Karlito Kaza Kekra Kema Kemmler Kennedy Keny Arkana Kenyon Kenzy Keroué Kery James Ketokrim Key Largo Kheops Kikesa KingPark Kix Kaki Klub Des Loosers Koba LaD Kobo Kodes Kofs Kohndo Koma Kool Shen Kossi Krampf Krisy KSA KT Gorique KuRt 2020 KymaLLacraps Lacrim La Fouine Lala ce L'Algérino La Mannschaft L'Animal Landy Lanimal L'Animalerie La Race Canine Larry Lartiste La Rumeur Lary Kidd La Smala Lasco Latroce Mex La Meute L'Entourage Laylow Laylow x SirKlo Le A Leck Le D Ledé Markson LeeroY Kesiah Le Club Lefa Le Gouffre Le Juiice Lemdi Leone Leonis Lesram Lestin Le Rat Luciano Les 10' Les Alchimistes Les Frères Scotch Les Rieurs Les Sages Poètes de la Rue Les Tontons Flingueurs Leto Ligue des Ombres Liim's Lil Ryder Lim Limsa Lino L'Institut Lionel D L.I.O. Pétrodollars Lomepal Lonepsi Lord Esperanza Lord Gasmique Lord Kossity L'Ordre Du Périph Lorenzo Loud Loud Lary Ajust Loxley Lpee LT RT Klan Lu'cid Lucien Révolucien Lucio Bukowski Luidji Lujipeka Lunatic Luni Luni Sacks Luv Resval LuXe L'uZine Lycos Lyms LyndaMM le Maudit Mac Kregor Mac Tyer Maes Mafia K'1 Fry Mairo Maître Gims Maj Trafyk Mak G Makala Mala Manu Key Marin Monster Marty de Lutece Maska Max D. Carter Max Paro MC Janik MC Jean Gab'1 MC Solaar Médine Megaski Melopheelo Mekra Ménélik Menzo Meryl Metek Riski MHD Miaouss Mic Fury Michel Midox Ministère A.M.E.R Mino Missié GG Mista Flo Mister C Mister V Mister You Mové Sort Mo'vez Lang MOH Moha La Squale Moi Même Flow Moka Boka Mokobé Morsay Mothas la Mascarade Moubarak MRC Mysa Mystik MZNNadjee Nahir Nakk Narcisse Nawfal Naza Neg Lyrical Neka Nekfeu Nelick Nemir Neo Néochrome Néoklash Népal Neron Nessbeal Nestaman Nikkfurie Nikus Pokus Ninho Nino B Niska Niro NOR Norsacce Berlusconi N.O.S Nosfer Nubi Sale Nusky Nyda NysayOOboy O'Trak Odeuxzero Odezenne OGB Oggy Nilz OldPee Oligarshiiit Ol' Kainry Onze OPG OrelSan Ormaz Orus Osirus Jack Oxmo Puccino OZPPakigo Panama Bende Passi P-dro Petit Voyou Phénomène Bizness Piloophaz Pit Baccardi PLK PNL Pompes Funègres Popey Primero Prince Waly Profecy Psy4 de la Rime PSO Thug PulkraQQrono Q.E FavelasRRaphaël Reckone Red Cross R.E.D.K Rémy Rim'K Rizla RK R'Mak Robdbloc Rocca Rocé Rochdi Rockin' Squat Rohff Roméo Elvis Rounhaa Royce Rowjay RVNHD RvzmoSS-Cap Sadek SAF Saïan Supa Crew Sajfleo Saké Sako Salakid Salek Salif Samat Samm Sanka Sat l'Artificier Saty Savage Toddy Say Says'z Sch S-Crew Scylla SDM sean Sëar Lui-Même SEB Sefyu Selim du 9.4 Senamo Senyss Serane Sese Kepler SetMatch Seth Gueko Sexion d'Assaut Seyté Shay Sheek Sheldon Shone Holocost Shotas Shro Shurik'N Sianna Siboy Sidi Sid Sifax Sinik Silky Shaï Sirap Sir'Klo Sir Samuel Six Slim C Slimka Sly the Mic Buddah Smartzee Smeels Smily Sneazzy Sniper So Clock Sofiane Solo Soolking Soon E MC Sopico Soprano Soso Maness Soul G Specta Spider ZED S.Pri Noir Squidji Stavo Stick Still Fresh Stof Terrier Stomy Bugsy Stupeflip Suikon Blaz AD Sultan SuperWak Clique Suprême NTM Swagg Man Swenz Swift Guad Swing SyenTTake A Mic Taipan Taï Z Tandem Tawsen Tayc Tedax Max Teddy Corona Teki Latex Tengo John thaHomey The Shin Sekaï Tiakola Tiers monde Tiitof Timal T.I.S Tito Prince TK TLF TLZ Clan Tortoz Tsew The Kid TSR Crew Tuerie Tunisiano TyranikUUltimate Bitches USKYVVald Val Mobb Varnish la Piscine Veerus Vesti Veust Lyricist Vicelow Vicenzo Vidji Vin's Vîrus Volts Face VSOWWacko Waltmann Waman Wit. Worms-TXXGangs X-Men XIII Sarkastick XVBARBARYYannick Yaro YL Younès Youri Youssef Swatt's Youssoupha Youv Dee Ysha YUZMVZZamdane Zed Zed Yun Pavarotti Zesau Zeu Zek Zeguerre Ziak Zidi Zikxo Zinée ZKR Zola Zoonard Zoxea Zuukou MayzieABCDEFGHIJKLMNOPQRSTUVWXYZCliquez sur la lettre de votre choix pour accéder directement au raccourci41</t>
         </is>
       </c>
     </row>
@@ -849,12 +849,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Ballade pour un traître</t>
+          <t>Ça m’saoule</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Parce que son souvenir pèse comme ses remords devant la fin De ce fardeau je m'allège, l'exorcisant encore au lendemain De mes jours naïfs Quel réveil plus que brutal Les nerfs à vif, j'ai une vision d'amour et de haine en père complice bien matinal Au risque de vivre mal les jours restants C'est de la méfiance que j'installe dès à présent Puis à la question réaliste sur les faiblesses du genre humain Ma réponse serait p't-être les tremblements d'ma main Grattant la ballade pour un traître La voilà ta ballade, traître Ballade pour un traître La voilà ta ballade Ballade pour un traître Beauté de toute chose, illustre présage inattendu À la croisée des chemins, ors et bijoux te seront dus Lorsque le satin blanc enveloppera l'sommet Que les aigles s'y jetteront à nos pieds Tu seras comblé, l'âme nue, nul être ne pourra tricher C'est alors que ton nom, je reconnaîtrai Celui qui t'auras ignoré Celui-là même qui m'a déçu N'aura d'repos, que ses fantasmes déchus L'agonie ne fera point de toi un martyr Dans l'attente, tu souffres, hélas ta peine ne se retire Des astres maudits figés par des échos d'douleur Les humbles et les justes meurtris par tant d'malheur Pas d'rancune ni vengeance, froid comme une tombe Et comme le fer rouge intense, j'attendrai la sentence Plus poignant que l'envie, viendra l'néant Poussière, tu flatteras les ombres en pleurant Et quand tu regarderas derrière toi derrière toi Faible de ton arrogance, résigné Noyé dans le chagrin, tu la contempleras Le tranchant de son aura cruelle vérité Ton désir de devenir ce que tu n'as jamais été De vouloir ce que tu n'avais pas En te souillant pour y arriver Ils te rongeront pour ceux à qui tu as menti Les tristes qui t'auront aimé Hanteront jusqu'à tes souvenirs Alors tu maudiras ta haine Et je célèbrerai ta perte En chantant, sourire aux lèvres Cette ballade pour un traître La voilà ta ballade, traître Ballade pour un traître La voilà ta ballade Ballade pour un traître J'ai été trahi par l'illusion, ami d'l'enfance et du rêve hier Elle s'est sauvée, j'sais même pas où, durant sans doute l'hiver De loin la période la plus galère pour le moral C'était un coup bas, on m'a dit qu'ça apprend à vivre, que c'est normal J'ai été trahi par l'enfance, l'ami d'l'insouciance m'a quitté Il m'a laissé d'beaux souvenirs et aussi d'quoi réfléchir pour des années L'insouciance la garce n'a pas tardé aussi Elle m'fait souffrir, j'la fuis, mais j'sais qu'elle m'guette toujours J'ai été trahi par la confiance, meilleure amie d'l'amour Comment pourrais-je lui en vouloir, méfiance existe pour Et quand l'amour m'a présenté la haine Cette méfiance est devenue reine Son autorité m'a jamais plu Respect des autres, respect d'soi-même Respect, sept lettres, putain comme traître comme traître Ah, ça rend malade Tiens, connard ta ballade La voilà ta ballade, traître Ballade pour un traître La voilà ta ballade Ballade pour un traître</t>
+          <t>Tu sais c'est quoi mon problème? Ça me saoule Parce que trop de mâchoires bougent pour rien ou presque le décors Reste le même, les acteurs restent les mêmes, le costume change pas les phrases Ni le bleu dont ils nient le nocif, côté justice c'est actifed La masse n'y croit que devant des chrysanthèmes Et ce mal nécessaire à qui l'on confère le pouvoir d'un Dieu C'est que des hommes, et me dit pas que ça t'étonne que tant de bavures aient lieu Du ronflant du rond-point au Judge Dredd du ghetto Tous pistent le marron qui nous colle à la peau Matraque et lacrymo vidéo dans les journaux Manifeste et prends des coups mec Ailleurs au même moment des fous tournent la roue Pour 4 sous on s'abstient de toute réflexion Et chaque jours ne passe pas sans génuflexion O.k. y a les States eux ils les montrent du doigt Mais lorsque leur culture rapporte là ils l'importent chez moi Tout comme ces séries nazes qui hypnotisent et repassent sans cesse Les mêmes conneries se répètent et on acquiesce mec on acquiesce Les promesses ! ça m'saoule Les faux mecs ! ça m'saoule Les fausses guerres, les contrôles pas clairs ! ça m'saoule Tout le monde se jette la pierre et veut sa part du gâteau Et on se crève pour des miettes pour eux c'est tout ce qu'on vaut Et comme ils se gavent avec TVA essence tabac Et comme c'est chacun pour sa face alors ça changera pas C'est comme le Hip Hop envahit de juges et de profs Et des gars qui se la racontent trop en soirée ça débloque mec Ou bien ils captent rien à ce qu'on dit Clairs sont nos vers frère le tout c'est de pas se tromper d'ennemie Et chaque fois qu'on déraille on le sers Si tu parles gangster c'est dans le son pas le sang Rien de malfaisant, sans gun pourtant j'ai mis tout le monde les bras en l'air Et c'est ça qui les dérange tous pour la même cause J'suis clair avec mes potos, Hip Hop je dose Je vis ma musique comme je la sens tant pis pour la promo Pas de maison de disque ou radio entre ma feuille et mon stylo Accroc de vérités non dites faudrait des audits Au lieu de nous leurrer avec des docs vitrines sur les riches Crée les jalousies, l'envie des p'tites gens grandie Jusqu'au jour maudit où le pas est franchi Les voilà dans l'arène tas de chair humaine cherchant à becter Face à du faux social réglant des faux problèmes s'inquiéter C'est pas leur fort mais le sport ne sauve pas tout le monde Et on les regarde jouer avec les restes, t'as les droits de l'homme Que si t'as les papiers, pas assez payé ils se servent à la caisse on le sait mais on laisse Un casse en costume c'est plus classe ça dispense de justice, faut que ça cesse Qu'on se foute plus de nos gueules comme ça ouvertement J'attends le moment impatiemment où ils le payeront chèrement Les promesses ! ça m'saoule Les faux mecs ! ça m'saoule Les fausses guerres, les contrôles pas clairs ! ça m'saoule Tout le monde se jette la pierre et veut sa part du gâteau Et on se crève pour des miettes pour eux c'est tout ce qu'on vaut</t>
         </is>
       </c>
     </row>
@@ -866,12 +866,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Billy</t>
+          <t>C’est de l’or</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Cliquez sur la lettre de votre choix pour accéder directement au raccourciABCDEFGHIJKLMNOPQRSTUVWXYZ100Blaze 113 13 Block 1995 1PLIKÉ140 20syl 25G 2CheeseMilkShake 2Fingz 2Spee Gonzales 2zer 3010 3e il 47ter 4Keus 5 Majeur 667 6rano 75ème Session 7 Jaws 8rukiAA2H Abd Al Malik Abdallah Abou Debeing Abou Tall Abuz Adams Ademo Adès Admiral T Aelpéacha Aero Afro S Aketo Akhenaton Al Peco Alaclair Ensemble Aladin 135 Alkpote Ali Alibi Montana Alivor Alonzo ALP Alpha Wann Alpha 5.20 Amine Anton Serra Araujo Arcane Areno Jaz Arma Jackson Ärsenik Ashe 22 Ash Kidd Assaf Assassin Assy Ateyaba ATL4S ATK AxiomBBadjer Bakar Bambi Cruz Barack Adama Bavoog Avers Bazoo Bedjik Beeby Bekar Benab Ben-J Benjamin Epps BEN plg Beny Beozedzed Béton Armé Biffty Bigflo Oli Big Budha Cheez Big Red Billy Joe Black Kent Black M Black Marché Blacko Blaiz Blaz Pit Blondin B-NØM Booba Boostee Bohemian Club Bolémvn Bon Gamin Bosh Boss One Bouga Box Frappe Game Bram's Brasco Brav' Bresom Gang Brulux Brvmsoo BTPKR Busta Flex Butter BulletsCCaballero Cahiips Calbo La Canaille Canardo Captaine Roshi Casey Casseurs Flowters Cassidy Céo CFR CG6 Chanceko Chanje Chapsy Charly Greane Chatnoir Chiens de paille Chilla Chillo Chily Chinwvr Coelho Columbine Congo Bill Cool Connexion C.O.R Coyote Jo Bastard Crown C-sen Cyanure CYPH3RDD6 D. Abuz System D.Ace Daddy Lord C Dadju Dadoo Damso Dandyguel Dante Sito Dany Dan David Okit Davodka Darryl Zeuja DA Uzi Dawa O'Mic Dead Obies Deadi Dee Nasty Deen Burbigo Def Bond Demi Portion Démocrates D Demon One Denza Denzo Derka Despo Rutti DFHDGB Di-Meh Diam's Diddi Trix Dika DIL Dinero Dinos Dinor rdt Diomay Disiz La Peste Djadja Dinaz Djalito Djamal Django Djamatik Djé DJ Weedim Doc Gynéco Doc OVG Doc TMC Don Choa Donkishot Doomams Dooz Kawa Dosseh Dostan Malicia Mc Double Zulu Doudou Masta Doums Doxx Dr Beriz Driver Dry DTFEEast Eddie Hyde Eden Dillinger Eden Eyez Eden Seven Eff Gee Eikiro Ejm Ekoué Elams Elyo El Matador Empty7 Enfantdepauvres Escobar Macson Espiiem Esteban Exodarap Expression Direkt Explicit SamouraïFF430 FA2L Fababy Fabe Faf Larage Faktiss Falcko Farhaon Farlot Faster Jay Faya D Féfé Félix J Fhe-Mann Fiasko Proximo Fibo Fisto Fixpen Sill Fixpen Singe Flev' Flynt Foda C Fonky Family Fonky Flav' FouKi Foulques Nera Framal Franglish Fred Watt Fredy K Fréko Ding Freeman Freeze Corleone Freko Ding Frenetik Furax Barbarossa Futuristiq FuzatiGGaël Faye Gambi Gazouza Setif Ghetto Fabulous Gang Geeeko Georgio Gerard Baste G. Kill GLK Gradur Grand Corps Malade Green Montana Grems Gringe Grödash Gros Mo Guizmo Guy2BezbarHHamed Daye H Magnum Hash24 Hayce Lemsi Hamé Hamza Haristone Hatik Heskis High Five Crew Hitakora Hologram Lo' Hooss Hornet la Frappe Horseck Hors II Portée Hotel Paradisio Hippocampe Fou Hugo Boss Hugo Délire Hugo TSR Hunter HyacintheIIAM Ian Vandooren Ichon ICO Ideal Jim IGee Ikar Ikbal Imhotep Infinit' Insolent Inspire Intouchable Iron Sy Irvin Isha ISK Issaba Issaka Ixzo IZMJJaeyez James Deano James Delleck Jarod Jar Pacino Jason Voriz Jazzy Bazz JeanJass Jeff Le Nerf Jehkyl Jessy Money Jethro Bare Jewel Usain JMK Jnoun Joe Lucazz Joey Larsé JoeyStarr Jok'Air Jo le Pheno Jorrdee Josman Joysad JR O'Chrome Juicy P JuL Junior BvndoKK-LY K-mel K-Rhyme Le Roi Kaaris Kacem Wapalek Kaddour Hadadi Kaki Santana Kalash Kalash Criminel Kalash L'Afro Kalif Hardcore Kamelanc' Kamel Le Nouvo Kamini Kamnouze Kanoé Karlito Kaza Kekra Kema Kemmler Kennedy Keny Arkana Kenyon Kenzy Keroué Kery James Ketokrim Key Largo Kheops Kikesa KingPark Kix Kaki Klub Des Loosers Koba LaD Kobo Kodes Kofs Kohndo Koma Kool Shen Kossi Krampf Krisy KSA KT Gorique KuRt 2020 KymaLLacraps Lacrim La Fouine Lala ce L'Algérino La Mannschaft L'Animal Landy Lanimal L'Animalerie La Race Canine Larry Lartiste La Rumeur Lary Kidd La Smala Lasco Latroce Mex La Meute L'Entourage Laylow Laylow x SirKlo Le A Leck Le D Ledé Markson LeeroY Kesiah Le Club Lefa Le Gouffre Le Juiice Lemdi Leone Leonis Lesram Lestin Le Rat Luciano Les 10' Les Alchimistes Les Frères Scotch Les Rieurs Les Sages Poètes de la Rue Les Tontons Flingueurs Leto Ligue des Ombres Liim's Lil Ryder Lim Limsa Lino L'Institut Lionel D L.I.O. Pétrodollars Lomepal Lonepsi Lord Esperanza Lord Gasmique Lord Kossity L'Ordre Du Périph Lorenzo Loud Loud Lary Ajust Loxley Lpee LT RT Klan Lu'cid Lucien Révolucien Lucio Bukowski Luidji Lujipeka Lunatic Luni Luni Sacks Luv Resval LuXe L'uZine Lycos Lyms LyndaMM le Maudit Mac Kregor Mac Tyer Maes Mafia K'1 Fry Mairo Maître Gims Maj Trafyk Mak G Makala Mala Manu Key Marin Monster Marty de Lutece Maska Max D. Carter Max Paro MC Janik MC Jean Gab'1 MC Solaar Médine Megaski Melopheelo Mekra Ménélik Menzo Meryl Metek Riski MHD Miaouss Mic Fury Michel Midox Ministère A.M.E.R Mino Missié GG Mista Flo Mister C Mister V Mister You Mové Sort Mo'vez Lang MOH Moha La Squale Moi Même Flow Moka Boka Mokobé Morsay Mothas la Mascarade Moubarak MRC Mysa Mystik MZNNadjee Nahir Nakk Narcisse Nawfal Naza Neg Lyrical Neka Nekfeu Nelick Nemir Neo Néochrome Néoklash Népal Neron Nessbeal Nestaman Nikkfurie Nikus Pokus Ninho Nino B Niska Niro NOR Norsacce Berlusconi N.O.S Nosfer Nubi Sale Nusky Nyda NysayOOboy O'Trak Odeuxzero Odezenne OGB Oggy Nilz OldPee Oligarshiiit Ol' Kainry Onze OPG OrelSan Ormaz Orus Osirus Jack Oxmo Puccino OZPPakigo Panama Bende Passi P-dro Petit Voyou Phénomène Bizness Piloophaz Pit Baccardi PLK PNL Pompes Funègres Popey Primero Prince Waly Profecy Psy4 de la Rime PSO Thug PulkraQQrono Q.E FavelasRRaphaël Reckone Red Cross R.E.D.K Rémy Rim'K Rizla RK R'Mak Robdbloc Rocca Rocé Rochdi Rockin' Squat Rohff Roméo Elvis Rounhaa Royce Rowjay RVNHD RvzmoSS-Cap Sadek SAF Saïan Supa Crew Sajfleo Saké Sako Salakid Salek Salif Samat Samm Sanka Sat l'Artificier Saty Savage Toddy Say Says'z Sch S-Crew Scylla SDM sean Sëar Lui-Même SEB Sefyu Selim du 9.4 Senamo Senyss Serane Sese Kepler SetMatch Seth Gueko Sexion d'Assaut Seyté Shay Sheek Sheldon Shone Holocost Shotas Shro Shurik'N Sianna Siboy Sidi Sid Sifax Sinik Silky Shaï Sirap Sir'Klo Sir Samuel Six Slim C Slimka Sly the Mic Buddah Smartzee Smeels Smily Sneazzy Sniper So Clock Sofiane Solo Soolking Soon E MC Sopico Soprano Soso Maness Soul G Specta Spider ZED S.Pri Noir Squidji Stavo Stick Still Fresh Stof Terrier Stomy Bugsy Stupeflip Suikon Blaz AD Sultan SuperWak Clique Suprême NTM Swagg Man Swenz Swift Guad Swing SyenTTake A Mic Taipan Taï Z Tandem Tawsen Tayc Tedax Max Teddy Corona Teki Latex Tengo John thaHomey The Shin Sekaï Tiakola Tiers monde Tiitof Timal T.I.S Tito Prince TK TLF TLZ Clan Tortoz Tsew The Kid TSR Crew Tuerie Tunisiano TyranikUUltimate Bitches USKYVVald Val Mobb Varnish la Piscine Veerus Vesti Veust Lyricist Vicelow Vicenzo Vidji Vin's Vîrus Volts Face VSOWWacko Waltmann Waman Wit. Worms-TXXGangs X-Men XIII Sarkastick XVBARBARYYannick Yaro YL Younès Youri Youssef Swatt's Youssoupha Youv Dee Ysha YUZMVZZamdane Zed Zed Yun Pavarotti Zesau Zeu Zek Zeguerre Ziak Zidi Zikxo Zinée ZKR Zola Zoonard Zoxea Zuukou MayzieABCDEFGHIJKLMNOPQRSTUVWXYZCliquez sur la lettre de votre choix pour accéder directement au raccourci41</t>
+          <t>Yes! Faf Larage Taïro Tu l'sais La masse est dans l'club et ça chauffe tu l'sais Yes! Faf et Taïro sont là pour poser La vibe vient des îles, le boom bass kill hey! C'est pour mes Dom-Tom, Réunion Antilles hey! Ce qu'on m'donne c'est de l'or en mélodie Un truc chant-mé qui vient des chaînes et des champs Armés, fini les larmes et les coups d'fouet On vient charger avec du son boosté C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked... Quand tu vois c'qu'on en fait, c'qu'on en sort Quand les ladies sont à fond dans les clubs C'est trop wicked... Quand tu sais d'où ça vient, les anciens ont transmis le son dans la sueur C'est trop wicked... On n'est plus les pieds nus dans la terre mais on chante pour contrer la misère C'est trop wicked... Ça sort pas des cabarets, mais des rues Sombres, des halls, des bidonvilles, tu Connais, la rime est tranchante Fini le temps des pleurs écroulés dans les champs Dis-le aux fachos Black est ma peau La musique est mon sceau L'héritage est dans les dancehalls Fini l'esclavage on mise tout pour s'en sortir On résistera aux coups, on va même en rire Même si ça danse, crois pas qu'on délire Woh yo! Il est temps d'agir C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked... Oui c'est de l'or mec La seule chose qu'il nous reste après qu'ils nous aient dépouillés, mec Demande aux ancêtres Ces rythmiques qui nous plaisent ont forgé des caractères dans la merde, ouais Et chaque grosse caisse où on jump up Respire la liberté en reggae ou hip-hop Alors jump, jump! Ailleurs ou ici, jump! Pour ceux qu'ont trop subi, jump! Hey ladies! Laisse-moi me coller contre toi Montre-moi comment tu fais ça Remue ton corps de haut en bas Et donne-moi l'énergie jusqu'au tin-ma, boum! On va se toucher se frotter même se cogner, boum! Je veux voir comment ça fait quand tentends les boum Trop d'sueur, trop d'sueur Toi même tu sais y a trop d'sueur C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked... Hey yo! Hey yo, selecta, remets ça encore une fois! Pull it up, dancehall drug! Trop d'sueur, trop d'sueur Toi même tu sais y a trop d'sueur Tout c'qu'on a, tout c'qu'on a Tu le vois bien, on donne tout c'qu'on a C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked...1</t>
         </is>
       </c>
     </row>
@@ -883,12 +883,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Ça m’saoule</t>
+          <t>C’est ma cause</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Tu sais c'est quoi mon problème? Ça me saoule Parce que trop de mâchoires bougent pour rien ou presque le décors Reste le même, les acteurs restent les mêmes, le costume change pas les phrases Ni le bleu dont ils nient le nocif, côté justice c'est actifed La masse n'y croit que devant des chrysanthèmes Et ce mal nécessaire à qui l'on confère le pouvoir d'un Dieu C'est que des hommes, et me dit pas que ça t'étonne que tant de bavures aient lieu Du ronflant du rond-point au Judge Dredd du ghetto Tous pistent le marron qui nous colle à la peau Matraque et lacrymo vidéo dans les journaux Manifeste et prends des coups mec Ailleurs au même moment des fous tournent la roue Pour 4 sous on s'abstient de toute réflexion Et chaque jours ne passe pas sans génuflexion O.k. y a les States eux ils les montrent du doigt Mais lorsque leur culture rapporte là ils l'importent chez moi Tout comme ces séries nazes qui hypnotisent et repassent sans cesse Les mêmes conneries se répètent et on acquiesce mec on acquiesce Les promesses ! ça m'saoule Les faux mecs ! ça m'saoule Les fausses guerres, les contrôles pas clairs ! ça m'saoule Tout le monde se jette la pierre et veut sa part du gâteau Et on se crève pour des miettes pour eux c'est tout ce qu'on vaut Et comme ils se gavent avec TVA essence tabac Et comme c'est chacun pour sa face alors ça changera pas C'est comme le Hip Hop envahit de juges et de profs Et des gars qui se la racontent trop en soirée ça débloque mec Ou bien ils captent rien à ce qu'on dit Clairs sont nos vers frère le tout c'est de pas se tromper d'ennemie Et chaque fois qu'on déraille on le sers Si tu parles gangster c'est dans le son pas le sang Rien de malfaisant, sans gun pourtant j'ai mis tout le monde les bras en l'air Et c'est ça qui les dérange tous pour la même cause J'suis clair avec mes potos, Hip Hop je dose Je vis ma musique comme je la sens tant pis pour la promo Pas de maison de disque ou radio entre ma feuille et mon stylo Accroc de vérités non dites faudrait des audits Au lieu de nous leurrer avec des docs vitrines sur les riches Crée les jalousies, l'envie des p'tites gens grandie Jusqu'au jour maudit où le pas est franchi Les voilà dans l'arène tas de chair humaine cherchant à becter Face à du faux social réglant des faux problèmes s'inquiéter C'est pas leur fort mais le sport ne sauve pas tout le monde Et on les regarde jouer avec les restes, t'as les droits de l'homme Que si t'as les papiers, pas assez payé ils se servent à la caisse on le sait mais on laisse Un casse en costume c'est plus classe ça dispense de justice, faut que ça cesse Qu'on se foute plus de nos gueules comme ça ouvertement J'attends le moment impatiemment où ils le payeront chèrement Les promesses ! ça m'saoule Les faux mecs ! ça m'saoule Les fausses guerres, les contrôles pas clairs ! ça m'saoule Tout le monde se jette la pierre et veut sa part du gâteau Et on se crève pour des miettes pour eux c'est tout ce qu'on vaut</t>
+          <t>J'fais mon truc bien dans ma tête, fume une cigarette Écris un texte à l'abri des regards des gens vex J'pèse? Non juste un nom qui circule Un mec parmi tant d'autres qui tente de voir la lumière dans le crépuscule Petit à petit j'fais mon trou Enfin ça fait quand même 10 ans que je suis dans l'coup J'ai eu le temps de voir toute l'évolution du hip-hop en pleine expansion Les salles qui se remplissent de génération en génération Des blaireaux apparaître et disparaître au fil des ans Comme des marionnettes faites pour nous réduire à néant Faut pas croire, le rap fait flipper L'image de la rue, des quartiers, des jeunes fait flipper Mais on s'y reconnaît, crache ce qu'on perçoit de la vie Du cran, sûr il en faut mais c'est juste ce qu'on ressent Une vision différente qui marque de plus en plus d'adhérents J'emmerde les modes, fils je suis dedans Je suis dedans Sûr, c'est ma cause tu le sais C'est ma cause c'est comme ça C'est ma cause Y a rien à faire C'est ma cause On nous a dit Laissez tomber les jeunes, c'est du vent Qu'est ce qu'ils ont à se plaindre tout le temps, putain le rap c'est pesant Autant de réflexions, autant d'articles bidons Autant d'émissions télés foireuses qui nous prenaient pour des cons Le temps de l'incompréhension, pendant ce temps On construisait, aux 4 coins de France Y avait des mecs qui tenaient bon Y a eu le temps de la récupération Pas vraiment révolu celui-là Mais aujourd'hui on y croit, on vit que pour ça Récupérer nos biens, on bosse pour ça Parti d'un rien, maintenant voilà y a des labels à tout-va Le showbiz nous fait pas peur, on sait où on va Aujourd'hui si tu sors un truc pourri c'est que ça vient de toi Fais un choix, mais gaffe on te regarde, on a la Garde Un vaste réseau de connaisseurs, tu foires tu dégages On trahit pas le hip-hop sans subir de dommages On fait le ménage, la musique se bonifie avec l'âge Mars Sûr, c'est ma cause tu le sais C'est ma cause Reste à l'écart, blaireau C'est ma cause Y a rien à faire C'est ma cause Qu'est-ce tu crois, ils ont peur de nous les gens d'la masse Le peuple qui s'instruit en place dans les charts Ça fait chier les bourges, les politiques, technocrates Ça leur échappe, la rue s'réveille et ça les fait trembler Des jeunes promus à un avenir de simple ouvrier Deviennent paroliers, font du fric avec des CD Ça bouleverse leur équilibre d'une putain de France libre Où chaque personne est à sa place sans pouvoir en bouger Le hip hop révolutionne tout un mode de pensée Se joue des boycotts, ne cesse de progresser Une passion, un espoir, pour beaucoup une porte de sortie Mais si tu le prends à la légère crois-moi tu te ramasses vite Faut pas tomber dans le créneau Star Gala C'est lourd, une feuille, un stylo, du travail et t'es comme nous Y a pas de fans, que des potos Et que les mecs qui foutent le merde dans le milieu se calment L'enjeu est d'taille, tu représentes oh! Blaireau! On fout la pression, Ego Trippin' Riche en tech, élève le niveau qu'on nous différencie Aussi je dors pas sinon je meurs alors je file droit Peace à tous ceux qui sont comme moi, accro du hip-hop! Hip-hop Sûr, c'est ma cause La Rage C'est ma cause Touche pas C'est ma cause C'est ma cause C'est ma cause</t>
         </is>
       </c>
     </row>
@@ -900,12 +900,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>C’est de l’or</t>
+          <t>C’est notre hip-hop</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Yes! Faf Larage Taïro Tu l'sais La masse est dans l'club et ça chauffe tu l'sais Yes! Faf et Taïro sont là pour poser La vibe vient des îles, le boom bass kill hey! C'est pour mes Dom-Tom, Réunion Antilles hey! Ce qu'on m'donne c'est de l'or en mélodie Un truc chant-mé qui vient des chaînes et des champs Armés, fini les larmes et les coups d'fouet On vient charger avec du son boosté C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked... Quand tu vois c'qu'on en fait, c'qu'on en sort Quand les ladies sont à fond dans les clubs C'est trop wicked... Quand tu sais d'où ça vient, les anciens ont transmis le son dans la sueur C'est trop wicked... On n'est plus les pieds nus dans la terre mais on chante pour contrer la misère C'est trop wicked... Ça sort pas des cabarets, mais des rues Sombres, des halls, des bidonvilles, tu Connais, la rime est tranchante Fini le temps des pleurs écroulés dans les champs Dis-le aux fachos Black est ma peau La musique est mon sceau L'héritage est dans les dancehalls Fini l'esclavage on mise tout pour s'en sortir On résistera aux coups, on va même en rire Même si ça danse, crois pas qu'on délire Woh yo! Il est temps d'agir C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked... Oui c'est de l'or mec La seule chose qu'il nous reste après qu'ils nous aient dépouillés, mec Demande aux ancêtres Ces rythmiques qui nous plaisent ont forgé des caractères dans la merde, ouais Et chaque grosse caisse où on jump up Respire la liberté en reggae ou hip-hop Alors jump, jump! Ailleurs ou ici, jump! Pour ceux qu'ont trop subi, jump! Hey ladies! Laisse-moi me coller contre toi Montre-moi comment tu fais ça Remue ton corps de haut en bas Et donne-moi l'énergie jusqu'au tin-ma, boum! On va se toucher se frotter même se cogner, boum! Je veux voir comment ça fait quand tentends les boum Trop d'sueur, trop d'sueur Toi même tu sais y a trop d'sueur C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked... Hey yo! Hey yo, selecta, remets ça encore une fois! Pull it up, dancehall drug! Trop d'sueur, trop d'sueur Toi même tu sais y a trop d'sueur Tout c'qu'on a, tout c'qu'on a Tu le vois bien, on donne tout c'qu'on a C'est trop wicked... C'qu'on te donne c'est nos efforts, c'est de l'or, yes de l'or Et si t'en redemande encore, c'est de l'or, yes de l'or C'est trop wicked... La musique est notre opium, c'est de l'or, yes de l'or L'énergie au maximum, c'est de l'or, yes de l'or C'est trop wicked...1</t>
+          <t>On envahit les avec des rimes 'Augmente le son Ce sont des MCs que je vise Voilà léquipe au complet Si tu bloques sur un style en cloque nous on s'moque pas On s'fout de toi on trouve pas de production en stock mec T'es fada, tu vois qu'ici-bas c'est comme dix doigts S'il faut les fermer en poing je viens oh les gars On sla fait du sud la forme du sud pour la norme Enorme et jgomme rien chauvin, cette fois j'me la donne J'te donne tout ce que j'ai, tout ce qu'on a, j'cogne dbonne foi J'te donne tout ce qu'on fait, tout ce qu'on voit comme il se doit Dans la rectitude comme d'hab' dans le sud J'représente pour mon hip-hop du sud, ouais du sud J'brûle sur mes rimes et des intérims, en stand by Skywalker moules sky s'présente pour vous quand je die faut prendre du walker Ça vient du sud, y a pas tout le monde mais on y pense mec J'rappe sur mes lots de strings, pas de femme en string J'm'exprime en rimes, extrait mes rimes sur scène Avec ma face de Scream 2, las de ce crime imaginaire Voici mon style externe où ma magie erre en l'air comme l'escrime C'est qui qui rappe là ? Ce putain dChill simplet Dis mon rap est égal à la somme de 5 ans avec peu ou sans semelles Plus la mesure des escaliers entre mon cul maigre et mes semelles Qui smêle aura nos rimes comme arbitrage AKH au mic en marge original Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Mec sors du néant De la bouche béante du dragon la brume annonce son aura Roulement de tambour devant le duc de Mars ah Mes compagnons de guerre j'donne la réplique aux tyr-mars Parle de réussite sous le sceau de ma ville Sous la Lune qui vacille d'horreur devant mon épée unique qui scintille Je brime l'élite mais y'a plus âme qui vive, au loin Dans les profondeurs du sud la poussière, s'élève le butin de glaives Jetés à terre pour la trêve, tu parles de représent ? Putain ouais on représente, défend le hip-hop du sud Putain dmerde on le rentre ainsi Être MC, trop sérieux pour que je tlaisse l'être MC Si je suis ici c'est pour toi, je parle donc suis même si c'est dur J'insiste sur le fait que mes stylos incisent seront les clous de ton cercueil Écoute Va t'en de là ! La misère fait tant de gros titres, putain verbe egotrip Même si le slip des gos strempe je peux pas, sûr que je changerai rien Écrire c'est pisser dans un violon, je sais mais si y a que ça Sans dec' trop de sang d'encre dans ce semblant de quotidien C'est sans dent que je parle, j'm'entends mec M'exhorte qu'à l'introspection Le déboule annonce la souche la base née de la bouse innée Notre arme bousille, faudra que tu poses tes fesses talquées sur le coussinet 1.3, le clan des égorgeurs de coussinets présent comme le yéti carré Si on sort c'est pour piétiner, essuie l'assaut lancé depuis le pays des Là où le pavé rugueux rugit et le cul des cavés rougit Je te présente la race rouge vif, l'encre et la fougue en folie La charge de la rime grasse lourde, bref une tuerie en live du midi Et c'est comme ça qu'on le sert ici sec, le Sud reste une valeur sûre Ça se sait, sur ce je signe Serval, salut ! X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Un casseur de rimes sur toi, j'suis pas paranoïaque, moi Narre à bout baboni je vexe sur le mic, j'ai pas le choix Si t'es pas large hein, si t'as pas large hein Prends du vice ou glisse sur le précipice, pisse et mc Mes phrases dansent en transe sur une touche arabisante Sans forcer, j'force les sablés ta clique en bois Accentue ici accentue le sud soudé Mon seul souhait que je défends borné sur toutes les scènes Combien de frères se sont soulevés, ont sifflé, soufflés sur ma musique ? Stoppe ta flop, stoppe les dropes, on n'est pas à Saint-Top' ici C'est notre hip-hop d'ici, notre propre cop plane Mieux renseigné que ce con d'land Mars pour le terrain, c'est du scotchland, c'est tout pour tes reins Sous bande free la propagande mieux qu'un coup de bottin En garde à vue, t'as beau prétendre, j'vais t'en mettre plein la vue Vu ? Pas parti du big ben, sûr, nous, c'est du big pen C'est à toi que je pique man, on fout putain ! Nos vies des best-sellers des thrillers en live, des killers en vibe Ce qu'on cherche, à la base, c'est nos verbes, c'est tout Le revers de la rue se présente chez vous mieux qu'un checu C'est Mars le Sud, au fou, Belsunce je représente Sur pépé, flafa tu sais X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Voila léquipe au complet X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes X4 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes C'est notre hip-hop, du sud, et pas celui des autres, tu lsais !</t>
         </is>
       </c>
     </row>
@@ -917,12 +917,12 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>C’est ma cause</t>
+          <t>C’est Pas Ma Faute</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>J'fais mon truc bien dans ma tête, fume une cigarette Écris un texte à l'abri des regards des gens vex J'pèse? Non juste un nom qui circule Un mec parmi tant d'autres qui tente de voir la lumière dans le crépuscule Petit à petit j'fais mon trou Enfin ça fait quand même 10 ans que je suis dans l'coup J'ai eu le temps de voir toute l'évolution du hip-hop en pleine expansion Les salles qui se remplissent de génération en génération Des blaireaux apparaître et disparaître au fil des ans Comme des marionnettes faites pour nous réduire à néant Faut pas croire, le rap fait flipper L'image de la rue, des quartiers, des jeunes fait flipper Mais on s'y reconnaît, crache ce qu'on perçoit de la vie Du cran, sûr il en faut mais c'est juste ce qu'on ressent Une vision différente qui marque de plus en plus d'adhérents J'emmerde les modes, fils je suis dedans Je suis dedans Sûr, c'est ma cause tu le sais C'est ma cause c'est comme ça C'est ma cause Y a rien à faire C'est ma cause On nous a dit Laissez tomber les jeunes, c'est du vent Qu'est ce qu'ils ont à se plaindre tout le temps, putain le rap c'est pesant Autant de réflexions, autant d'articles bidons Autant d'émissions télés foireuses qui nous prenaient pour des cons Le temps de l'incompréhension, pendant ce temps On construisait, aux 4 coins de France Y avait des mecs qui tenaient bon Y a eu le temps de la récupération Pas vraiment révolu celui-là Mais aujourd'hui on y croit, on vit que pour ça Récupérer nos biens, on bosse pour ça Parti d'un rien, maintenant voilà y a des labels à tout-va Le showbiz nous fait pas peur, on sait où on va Aujourd'hui si tu sors un truc pourri c'est que ça vient de toi Fais un choix, mais gaffe on te regarde, on a la Garde Un vaste réseau de connaisseurs, tu foires tu dégages On trahit pas le hip-hop sans subir de dommages On fait le ménage, la musique se bonifie avec l'âge Mars Sûr, c'est ma cause tu le sais C'est ma cause Reste à l'écart, blaireau C'est ma cause Y a rien à faire C'est ma cause Qu'est-ce tu crois, ils ont peur de nous les gens d'la masse Le peuple qui s'instruit en place dans les charts Ça fait chier les bourges, les politiques, technocrates Ça leur échappe, la rue s'réveille et ça les fait trembler Des jeunes promus à un avenir de simple ouvrier Deviennent paroliers, font du fric avec des CD Ça bouleverse leur équilibre d'une putain de France libre Où chaque personne est à sa place sans pouvoir en bouger Le hip hop révolutionne tout un mode de pensée Se joue des boycotts, ne cesse de progresser Une passion, un espoir, pour beaucoup une porte de sortie Mais si tu le prends à la légère crois-moi tu te ramasses vite Faut pas tomber dans le créneau Star Gala C'est lourd, une feuille, un stylo, du travail et t'es comme nous Y a pas de fans, que des potos Et que les mecs qui foutent le merde dans le milieu se calment L'enjeu est d'taille, tu représentes oh! Blaireau! On fout la pression, Ego Trippin' Riche en tech, élève le niveau qu'on nous différencie Aussi je dors pas sinon je meurs alors je file droit Peace à tous ceux qui sont comme moi, accro du hip-hop! Hip-hop Sûr, c'est ma cause La Rage C'est ma cause Touche pas C'est ma cause C'est ma cause C'est ma cause</t>
+          <t>Mes origines sont floues me demande pas si jen ai Respecte mon silence car si je louvre cest cramé Jai pas de papiers, la vérité soit disant né pour servir et protéger La cruauté des hommes ma abusé Oui jsuis un clando jai fait mes classes dans lEst A la dure où des filles trop jeunes se vendaient pour mon maître Sexe, violence jai connu que ça Jai renvoyé beaucoup de gens au trépas même si jaimais pas ça Puis on ma arrêté, détenu, vendu Ma crosse souillée par toutes sortes dindividus Cest pas ma faute ma nature est comme ça Moi je suis juste un objet qui fait Pow ! Cest pas ma faute moi Si lhomme est fasciné par ma force Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Cest pas ma faute moi Si lhomme est fasciné par ma force pourquoi Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Jaurais voulu être une arme de fonction Quon me soigne et quon mutilise avec attention Fréquenter les stands de tir, le beau monde Au lieu de ça je suis arrivé en France en camion Dans un carton jai vu que ma vie ne serait pas un conte Saisi comme une merde avec des contrefaçons Jeté au placard avec dautres, cest drôle Chacun a son histoire aussi dramatique les unes que les autres Comme ce calibre neuf millimètres Jure que la femme de son maître sest elle-même tiré dans la tête Puis y a le fatigué, le vieux fusil qui a shooté un gars Jure que cétait une chèvre ou une caille Putain y a aussi mon compagnon de saisie Un silencieux du milieu, à son actif au moins vingt, trente victimes Et on a lamnésique, semi automatique Trouvé au fond de leau dans un état critique Et le chromé, le bourge qui a trop traîné dans la poudre Jure quil a des amis en haut lieu et que son affaire va se résoudre On est tous là à espérer une sortie Je rêve de jouer dans un film ou une série Je voudrais ne plus être un objet qui fait Pow ! Cest pas ma faute moi Si lhomme est fasciné par ma force Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Cest pas ma faute moi Si lhomme est fasciné par ma force pourquoi Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Et puis un jour on nous a sortis On sy attendait plus, endormis, cachés dans un sac tranquille Je sais quon allait être acheté à bas prix Et y a le fusil qui panique il veut pas faire la guerre en Afrique Pour nous cest la loterie, la loi du trafic On nest pas un lot de bijouterie Jai pas fini autour du cou dun people sous ecstasy Mais dans les mains dun môme de vingt piges Jusquà cette descente de flics où ils mont sorti de en dessous le lit Où jai vu mes semblables pointer le petit Ni vu ni connu on ma mis avec le shit Jai attendu le placard mais on ma vendu à une fille Elle était pas dici, comme moi étranger en exil Et elle ma plu, elle était si fragile Mais son mac jaurai aimé le finir Quand il la frappait, prenait la tune et menaçait sa famille Elle et moi je voulais croire que cétait pour la vie Maintenant elle est partie et je me sens seul et triste Je croyais pouvoir la défendre et je suis comme un fou Je réalise quelle ma acheté pour mettre fin à ses jours Pow ! Jen ai marre dêtre un objet qui fait Pow ! Cest pas ma faute moi Si lhomme est fasciné par ma force Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Cest pas ma faute moi Si lhomme est fasciné par ma force pourquoi Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo !</t>
         </is>
       </c>
     </row>
@@ -934,12 +934,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>C’est notre hip-hop</t>
+          <t>Cinq ans de répit</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>On envahit les avec des rimes 'Augmente le son Ce sont des MCs que je vise Voilà léquipe au complet Si tu bloques sur un style en cloque nous on s'moque pas On s'fout de toi on trouve pas de production en stock mec T'es fada, tu vois qu'ici-bas c'est comme dix doigts S'il faut les fermer en poing je viens oh les gars On sla fait du sud la forme du sud pour la norme Enorme et jgomme rien chauvin, cette fois j'me la donne J'te donne tout ce que j'ai, tout ce qu'on a, j'cogne dbonne foi J'te donne tout ce qu'on fait, tout ce qu'on voit comme il se doit Dans la rectitude comme d'hab' dans le sud J'représente pour mon hip-hop du sud, ouais du sud J'brûle sur mes rimes et des intérims, en stand by Skywalker moules sky s'présente pour vous quand je die faut prendre du walker Ça vient du sud, y a pas tout le monde mais on y pense mec J'rappe sur mes lots de strings, pas de femme en string J'm'exprime en rimes, extrait mes rimes sur scène Avec ma face de Scream 2, las de ce crime imaginaire Voici mon style externe où ma magie erre en l'air comme l'escrime C'est qui qui rappe là ? Ce putain dChill simplet Dis mon rap est égal à la somme de 5 ans avec peu ou sans semelles Plus la mesure des escaliers entre mon cul maigre et mes semelles Qui smêle aura nos rimes comme arbitrage AKH au mic en marge original Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Mec sors du néant De la bouche béante du dragon la brume annonce son aura Roulement de tambour devant le duc de Mars ah Mes compagnons de guerre j'donne la réplique aux tyr-mars Parle de réussite sous le sceau de ma ville Sous la Lune qui vacille d'horreur devant mon épée unique qui scintille Je brime l'élite mais y'a plus âme qui vive, au loin Dans les profondeurs du sud la poussière, s'élève le butin de glaives Jetés à terre pour la trêve, tu parles de représent ? Putain ouais on représente, défend le hip-hop du sud Putain dmerde on le rentre ainsi Être MC, trop sérieux pour que je tlaisse l'être MC Si je suis ici c'est pour toi, je parle donc suis même si c'est dur J'insiste sur le fait que mes stylos incisent seront les clous de ton cercueil Écoute Va t'en de là ! La misère fait tant de gros titres, putain verbe egotrip Même si le slip des gos strempe je peux pas, sûr que je changerai rien Écrire c'est pisser dans un violon, je sais mais si y a que ça Sans dec' trop de sang d'encre dans ce semblant de quotidien C'est sans dent que je parle, j'm'entends mec M'exhorte qu'à l'introspection Le déboule annonce la souche la base née de la bouse innée Notre arme bousille, faudra que tu poses tes fesses talquées sur le coussinet 1.3, le clan des égorgeurs de coussinets présent comme le yéti carré Si on sort c'est pour piétiner, essuie l'assaut lancé depuis le pays des Là où le pavé rugueux rugit et le cul des cavés rougit Je te présente la race rouge vif, l'encre et la fougue en folie La charge de la rime grasse lourde, bref une tuerie en live du midi Et c'est comme ça qu'on le sert ici sec, le Sud reste une valeur sûre Ça se sait, sur ce je signe Serval, salut ! X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Un casseur de rimes sur toi, j'suis pas paranoïaque, moi Narre à bout baboni je vexe sur le mic, j'ai pas le choix Si t'es pas large hein, si t'as pas large hein Prends du vice ou glisse sur le précipice, pisse et mc Mes phrases dansent en transe sur une touche arabisante Sans forcer, j'force les sablés ta clique en bois Accentue ici accentue le sud soudé Mon seul souhait que je défends borné sur toutes les scènes Combien de frères se sont soulevés, ont sifflé, soufflés sur ma musique ? Stoppe ta flop, stoppe les dropes, on n'est pas à Saint-Top' ici C'est notre hip-hop d'ici, notre propre cop plane Mieux renseigné que ce con d'land Mars pour le terrain, c'est du scotchland, c'est tout pour tes reins Sous bande free la propagande mieux qu'un coup de bottin En garde à vue, t'as beau prétendre, j'vais t'en mettre plein la vue Vu ? Pas parti du big ben, sûr, nous, c'est du big pen C'est à toi que je pique man, on fout putain ! Nos vies des best-sellers des thrillers en live, des killers en vibe Ce qu'on cherche, à la base, c'est nos verbes, c'est tout Le revers de la rue se présente chez vous mieux qu'un checu C'est Mars le Sud, au fou, Belsunce je représente Sur pépé, flafa tu sais X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes Le Sud fout le waï man, swingue les sound man dans ton walkman Trop de son boy s'trainent pour des canailles Combien sont de taille pour la bataille en vérité ? Voila léquipe au complet X2 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes X4 C'est notre hip-hop, du sud, et pas celui des autres Les nôtres restent bruts quand tu donnes des notes C'est notre hip-hop, du sud, et pas celui des autres, tu lsais !</t>
+          <t>En religieux, j'vois le style père rentré Pas d'soin, pas d'médecin je vais crever C'est leur volonté me garder isoler, que j'dise rien Donner des noms na, j'assume ce que j'ai été bien Mais rend moi un service padre, et narrer à ma famille Ce que je leur ai caché depuis des années À 37 ans voici mon récit ou tout à basculer Loin du compte de fées, fixé, le décor était à chier Tu le sais fils et tu vois le topo, enfance malheureuse Gosse battu, un père ? Non un salaud Mon premier boulot gratis pour ma mère et ses filles J'l'ai abattu, elles elles m'ont jeté, c'est la vie fils Cool minot pour le fric je sais le faire et si je galérais Je dégomme des bières pour du cash gazier, un tueur à gages Un mec sans âme un mec qui pense avec l'arme sans larmes Un mec qui traîne des cadavres des mille et une victimes L'homme qui supprime, l'homme qui a rien à foutre de ta famille Si tu dois mourir, l'homme qui tire, l'homme au compte en banque en Suisse Qui délire, le souvenir, le mec, le pire, le mec qui vise shoot touche sa cible Le mec plié par des firmes des gros bonnets qui friment Le mec à éviter padre tu le sais, mais j'ai décroché Il m'ont demandé de tuer un gamin de huit ans Ça j'ai jamais fait, non, jamais, maintenant je sais pourquoi j'ai filé Laissé les flingues dégoûtés derrière moi, 5 ans de ça... Un passé trouble 5 ans de répit, une vie à tuer Et un jour tu paie le prix, ça tombe quand tu t'y attends pas Ton passé resurgit trouble, tu prends la vie tu perds la vie c'est ainsi Petit à petit dans ma nouvelle vie j'étais moins aux aguets Remarqué un an était passé j'avais changé de ville, d'identité Cela s'imposait, supposé que ma sécurité à cela tenait 32 ans j'avais, c'est dans un bar que je l'ai rencontré Elle resplendissait détoné du cadre qui l'entourait, une fille bien Elle m'a apprit a aimer sans intérêt, carrément moi à ce moment là Je me suis vu comme un autre,, dire qu'avant de la violence J'étais apôtre un autre j'étais devenu le voisin gentil, l'ami Celui avec qui on part en week-end vendredi Fiancé puis marié, très vite ma femme est tombée enceinte Si vous saviez ma joie dans son ventre il y avait un autre moi Je disais plus je mais nous pour ma famille j'étais prêt a tout J'avoue mes vieux réflexe n'étais plus là Mais voilà j'étais devenu vulnérable j'crois Ce soir là j'étais resté bosser tard au bureau Le téléphone avait sonné plusieurs fois, je répondais Pas un mot, bizarre, une intuition une voix dans ma tête Rentre chez toi pour voir la maison, la lumière allumée La porte entrebâillée, avant de l'ouvrir je savais qu'ils m'avaient retrouvés... Un passé trouble 5 ans de répit, une vie à tuer Et un jour tu paie le prix, ça tombe quand tu t'y attends pas Ton passé resurgit trouble, tu prends la vie tu perds la vie c'est ainsi Maintenant je suis là dans c'lit, j'pense à elle à mon fils aussi Ma vie un gâchis, si j'avais su j'aurais mieux agit, non le crime dans la peau J'ai fait ce que j'avais à faire, faut que je me lève Et je descende les commanditaires frère, je dit quoi ! Faut pas que je perde de vue la vie que je menais La morale j'mettais fixé que je bascule pas dans le passé C'est censé vouloir dire quoi, moi je vais y passer philosopher Padre ton dieu c'qui va m'jeter, finalement je raconte n'importe Quoi je sais que vous voulez m'aider, mais je sens je sais la fin Et je veux pas mourir, je m'en fous tiens, plus le coup C'est la haine qui l'emporte et j'envoie ceux qui ont souffler mon bonheur Mes forces et ma joie, ma vie je crois qu'aujourd'hui on meurt comme on vit Padre, c'est bizarre j'ai plus de rancour au coeur mais je vis, je remercie Dieu de m'avoir donné 5 ans de répit...</t>
         </is>
       </c>
     </row>
@@ -951,12 +951,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>C’est Pas Ma Faute</t>
+          <t>Clubber Lang Music</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Mes origines sont floues me demande pas si jen ai Respecte mon silence car si je louvre cest cramé Jai pas de papiers, la vérité soit disant né pour servir et protéger La cruauté des hommes ma abusé Oui jsuis un clando jai fait mes classes dans lEst A la dure où des filles trop jeunes se vendaient pour mon maître Sexe, violence jai connu que ça Jai renvoyé beaucoup de gens au trépas même si jaimais pas ça Puis on ma arrêté, détenu, vendu Ma crosse souillée par toutes sortes dindividus Cest pas ma faute ma nature est comme ça Moi je suis juste un objet qui fait Pow ! Cest pas ma faute moi Si lhomme est fasciné par ma force Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Cest pas ma faute moi Si lhomme est fasciné par ma force pourquoi Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Jaurais voulu être une arme de fonction Quon me soigne et quon mutilise avec attention Fréquenter les stands de tir, le beau monde Au lieu de ça je suis arrivé en France en camion Dans un carton jai vu que ma vie ne serait pas un conte Saisi comme une merde avec des contrefaçons Jeté au placard avec dautres, cest drôle Chacun a son histoire aussi dramatique les unes que les autres Comme ce calibre neuf millimètres Jure que la femme de son maître sest elle-même tiré dans la tête Puis y a le fatigué, le vieux fusil qui a shooté un gars Jure que cétait une chèvre ou une caille Putain y a aussi mon compagnon de saisie Un silencieux du milieu, à son actif au moins vingt, trente victimes Et on a lamnésique, semi automatique Trouvé au fond de leau dans un état critique Et le chromé, le bourge qui a trop traîné dans la poudre Jure quil a des amis en haut lieu et que son affaire va se résoudre On est tous là à espérer une sortie Je rêve de jouer dans un film ou une série Je voudrais ne plus être un objet qui fait Pow ! Cest pas ma faute moi Si lhomme est fasciné par ma force Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Cest pas ma faute moi Si lhomme est fasciné par ma force pourquoi Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Et puis un jour on nous a sortis On sy attendait plus, endormis, cachés dans un sac tranquille Je sais quon allait être acheté à bas prix Et y a le fusil qui panique il veut pas faire la guerre en Afrique Pour nous cest la loterie, la loi du trafic On nest pas un lot de bijouterie Jai pas fini autour du cou dun people sous ecstasy Mais dans les mains dun môme de vingt piges Jusquà cette descente de flics où ils mont sorti de en dessous le lit Où jai vu mes semblables pointer le petit Ni vu ni connu on ma mis avec le shit Jai attendu le placard mais on ma vendu à une fille Elle était pas dici, comme moi étranger en exil Et elle ma plu, elle était si fragile Mais son mac jaurai aimé le finir Quand il la frappait, prenait la tune et menaçait sa famille Elle et moi je voulais croire que cétait pour la vie Maintenant elle est partie et je me sens seul et triste Je croyais pouvoir la défendre et je suis comme un fou Je réalise quelle ma acheté pour mettre fin à ses jours Pow ! Jen ai marre dêtre un objet qui fait Pow ! Cest pas ma faute moi Si lhomme est fasciné par ma force Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo ! Cest pas ma faute moi Si lhomme est fasciné par ma force pourquoi Je suis juste un objet qui fait Pow ! Je suis juste un objet qui fait Hooo !</t>
+          <t>Message personnel à ceux qui vise le titre, le Chelem, la ceinture J'les renvoie direct à la peinture Change de registre, tu vises la pogne pour péter la Rolex Tu t'cherches, j't'ai trouvé au fond d'une poubelle Pousse-toi p'tit pou, pars par la petite porte Ta prose pue le pipeau, la pouf et la pastiche pauvre XXX est niqué j'te pousse par terre illico Moi en contre-plongée, dans ma main ton micro Qui est-ce qui tembêtes ? Montre-moi le discret J'te garantis qu'il oubliera ton blase et t'cassera pas la tête Tu fais quoi mec ? Tu veux m'terroriser ? J'en ai peur La merde est dans c'corps, je vais l'exorciser J'ai tenté les quantiques, ça n'a pas marché Alors j'ai crié Ralia sors de c'corps ! Y'avait rien à faire j't'ai fini à coup de cric De flow style celui de brique T'as gouté à ce qu'était la Clubber Lang music Clubber Lang music, pas pour les p'tites filles Sonne le gong, fils J'vois qu't'as une p'tite mine Les MCs couinent sur le ring, comme des bitchs, comme des victimes de XXX On a shooté Rocky de un à six En stéroïdes, Faf androïde, droite qui part en bolide Qui tue sur un instru, une intro, une outro Ou te butes sur un sample en solo, un beat electro Kho tu pues sur tes propres morceaux, c'en est trop J'te bute avec un piccolo, même avec un flow rigolo Tu veux la jouer high comme G.I Claquer des dos, mec faut qu't'y ailles, t'es die Y'en a marre des raps où ça rappe pas, des tocards à la mord-moi-là Marre qu'ils raclent les fonds d'tiroir avec un bandana Marre que l'image prenne le pas sur le mic' J't'attrapes, te mets à sac, dit ça pour Lady Marmalade Te maquer aux tapins, te claque si tu me parles mal Faf a.k.a Dexter, un psychopathe en live Après ça même les sourds qui te raillent, Les bookmakers se taillent, y'aura pas de deuxième round x2 Clubber Lang music Pas des sons d'usine Rap style exclusif Peut provoquer des suicides de MC Qui captent pas les lois basiques du rythme Bim, bim, gauche, droite, ça fait l'effet d'un fusil Eh mec, tu poses avec peine et tu causes avec peine Plus qu'autant ta prose avec haine Là tu nous forces à lextrême Tu perds ton sang froid, pète avec des fausses coucheries Ahah, t'es fou j'ris Mon pronostic ? Une boucherie Si c'est ça ton style, XXX ça c'est pas ces leçons Souvent ressassé, XXX laisse tomber le sky à la seconde T'es faible, fourbe, vil pour un phillie Tu files le blase de qui de fourgue et vite qu'on en finisse Parce que ras-le-bol de ces nazes sans vocable Et quand on tombe, les gros bras tappellent direct un avocat Jouer les chiffons dans la rue et s'battre, j'ai passé l'âge Mais niveau flow j'suis trop là et le tien n'est pas assez large A ta piaule, c'est bizarre, depuis une semaine c'est moi qui fout le flip Ce mec qui pèse à Adrian C'est vrai qu'elle balise pour ton XXX, la vilaine Parce qu'elle sait que je cabosse vite fait ton crew miteux dans la huitaine Veste kaki, mitaines, tu tombes à mi-temps, mytho, rap mythico XXX avec un micro Et comme d'hab' tu veux en sortir sec avec un pipeau J'te rend tes feuilles, tiens, avec de l'essence et un Zippo C'est le tarif, on t'fout au tapis dans la minute Tapitoyer sur ton corps, tatoues-toi un trou d'uc T'as cru quoi ? Un coup du sort ? T'as pris trop d'pilules Ni de punchlines en majuscules, t'as l'arcade qui brûle Uppercut et crochet cultes, pas d'virgules Mes mots fusent, te bousculent, tu perds tes testicules Pourquoi tu gesticules ? Ma clique Clubber Lang Music sur le ring tue, Apollo Creed t'insulte T'es pas le king, v'la c'qu'il en résulte Quand on s'trompe de catégorie, tu manges des coups d'pieds au cul Fils j'suis trop une brute, vise la ceinture Va jouer du luth, dans le studio on te mute J'ai pas un Tyson en face, plutôt un Jean-Claude Dusse XXX, attitude tu t'chies d'ssus Pas de ju-jitsu Avant le corps XXX, largement au dessus Tape comme une massue x2 Clubber Lang music Pas des sons d'usine Rap style exclusif Peut provoquer des suicides de MC Qui captent pas les lois basiques du rythme Bim, bim, gauche, droite, ça fait l'effet d'un fusil</t>
         </is>
       </c>
     </row>
@@ -968,12 +968,12 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Cinq ans de répit</t>
+          <t>Comode “Le Dégueulasse”</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>En religieux, j'vois le style père rentré Pas d'soin, pas d'médecin je vais crever C'est leur volonté me garder isoler, que j'dise rien Donner des noms na, j'assume ce que j'ai été bien Mais rend moi un service padre, et narrer à ma famille Ce que je leur ai caché depuis des années À 37 ans voici mon récit ou tout à basculer Loin du compte de fées, fixé, le décor était à chier Tu le sais fils et tu vois le topo, enfance malheureuse Gosse battu, un père ? Non un salaud Mon premier boulot gratis pour ma mère et ses filles J'l'ai abattu, elles elles m'ont jeté, c'est la vie fils Cool minot pour le fric je sais le faire et si je galérais Je dégomme des bières pour du cash gazier, un tueur à gages Un mec sans âme un mec qui pense avec l'arme sans larmes Un mec qui traîne des cadavres des mille et une victimes L'homme qui supprime, l'homme qui a rien à foutre de ta famille Si tu dois mourir, l'homme qui tire, l'homme au compte en banque en Suisse Qui délire, le souvenir, le mec, le pire, le mec qui vise shoot touche sa cible Le mec plié par des firmes des gros bonnets qui friment Le mec à éviter padre tu le sais, mais j'ai décroché Il m'ont demandé de tuer un gamin de huit ans Ça j'ai jamais fait, non, jamais, maintenant je sais pourquoi j'ai filé Laissé les flingues dégoûtés derrière moi, 5 ans de ça... Un passé trouble 5 ans de répit, une vie à tuer Et un jour tu paie le prix, ça tombe quand tu t'y attends pas Ton passé resurgit trouble, tu prends la vie tu perds la vie c'est ainsi Petit à petit dans ma nouvelle vie j'étais moins aux aguets Remarqué un an était passé j'avais changé de ville, d'identité Cela s'imposait, supposé que ma sécurité à cela tenait 32 ans j'avais, c'est dans un bar que je l'ai rencontré Elle resplendissait détoné du cadre qui l'entourait, une fille bien Elle m'a apprit a aimer sans intérêt, carrément moi à ce moment là Je me suis vu comme un autre,, dire qu'avant de la violence J'étais apôtre un autre j'étais devenu le voisin gentil, l'ami Celui avec qui on part en week-end vendredi Fiancé puis marié, très vite ma femme est tombée enceinte Si vous saviez ma joie dans son ventre il y avait un autre moi Je disais plus je mais nous pour ma famille j'étais prêt a tout J'avoue mes vieux réflexe n'étais plus là Mais voilà j'étais devenu vulnérable j'crois Ce soir là j'étais resté bosser tard au bureau Le téléphone avait sonné plusieurs fois, je répondais Pas un mot, bizarre, une intuition une voix dans ma tête Rentre chez toi pour voir la maison, la lumière allumée La porte entrebâillée, avant de l'ouvrir je savais qu'ils m'avaient retrouvés... Un passé trouble 5 ans de répit, une vie à tuer Et un jour tu paie le prix, ça tombe quand tu t'y attends pas Ton passé resurgit trouble, tu prends la vie tu perds la vie c'est ainsi Maintenant je suis là dans c'lit, j'pense à elle à mon fils aussi Ma vie un gâchis, si j'avais su j'aurais mieux agit, non le crime dans la peau J'ai fait ce que j'avais à faire, faut que je me lève Et je descende les commanditaires frère, je dit quoi ! Faut pas que je perde de vue la vie que je menais La morale j'mettais fixé que je bascule pas dans le passé C'est censé vouloir dire quoi, moi je vais y passer philosopher Padre ton dieu c'qui va m'jeter, finalement je raconte n'importe Quoi je sais que vous voulez m'aider, mais je sens je sais la fin Et je veux pas mourir, je m'en fous tiens, plus le coup C'est la haine qui l'emporte et j'envoie ceux qui ont souffler mon bonheur Mes forces et ma joie, ma vie je crois qu'aujourd'hui on meurt comme on vit Padre, c'est bizarre j'ai plus de rancour au coeur mais je vis, je remercie Dieu de m'avoir donné 5 ans de répit...</t>
+          <t>Comode, tes un fatigué, un wack, ton style est sous prozac Taccroche au biz comme un morbak Yaura pas de come-back, comme dhab Comode si tu texiles sur la West Coast, on te surnomme 1 PAC Tas pas une phase rame sur le mic Personne veut de toi Tes mou comme Miou Miou, ton style est pas cool Mais vilain comme une poupée vaudou et zou ! Vire de là Oh my Lord, Oh my God Comode tes pas à la mode Fais pas ton cow boy, tes pas mon home boy, ni mon homie Tauras pas le buzz de Ousbourne Ozzy Pas de soucis, tas le verbe trop bouilli Surfe sur les tendances comme aux îles Maouii Ah oui joubliais, tes le roi de lincruste Tes pas tout puissant comme Bruce mais tu suces Comode il donne tout cquil a, chorégraphie Chant avec les filles, il donne moult galas Il est faux comme un steff cola, sex colhal Tu y penses grave, mais cesse le rap Si je te vexe connard, cest que les mecs comme toi me dégoûtent Prennent mon taffe pour un moyen de faire des sous Ouh Comode est comme ça, prêt à tout ! Faible et fourbe Une musicale esbroufe, ton flow est pure soupe Pour des llet-bi, prêt à brader ton son chez Liebig Tes llé-gri et aigri, yeah G, yeah cee Arrête de boire du Hennessee Tas quelque chose dun bouseux du Tennessee Des récits qui puent bon pour la lessive Et si, tu partais à Végas faire un show en bas résille ou à Memphis Bouge ici, personne ne taime fils Si avec ça tes pas disque dor Comode Rend ta plaque et mic et sors Comode Et retire toi des bacs, des Virgin et des Fnac Tente pas le comeback, come on, Comode Tu rêvais dêtre une panthère, mais tes le chat dMichou Nuit du chasseur, tes la viok, moi Robert Mitchum File moi lsac, et tes paroles en wood Car tes en haut dlaffiche, d MC en bois in the Hood , tchée Depuis tas tatoué KILLER sur les abdos, vilain tas pas dgoût Mais Hamdu, tes un ex comme Paula Abdul MC pour soirée mousse, Pouh, tempeste la loose Freestyle entre punch et barbecue Tes dégueulasse, tu casses pas la baraque, pourtant cest la parade Ça rappe pour lapparat, accroche au steak, rat comme la varappe Moche et frileux, fourbe et mielleux Tes hors jeu, oh les gars sifflez le, houou Comode, de la graine dempafé MC avec le cou vert oxydé par ta Grains de café factice Avec la chierie pactise, quelle sale tactique Pour ça nos lyrics ont lair grands quand tes rimes rapetissent Tes foireux comme des chals passés à loxyde On va toccire, enfouir tes cahiers comme un déchet toxique Mate le miroir, tu ny verras quun pauvre type Puis lfond des chiottes et ty trouveras ta prose cheap Le meilleur de tes sons ne fait pas un bon skit Il constipe, cest ton style, dans le noir il conspire En concert, le public a dit Allez on stire Même ta femme a dit Comode, mieux vaut quon squitte Tes faible, frêle, tas moins dpower quAustin Mes rimes, une encyclopédie et la tienne un post it AKH cest lalu et ton crew la bauxite Même les nazes rient de toi, tes le gag des postiches Si avec ça tes pas disque dor Comode Rend ta plaque et mic et sors Comode Et retire toi des bacs, des Virgin et des Fnac Tente pas le comeback, come on, Comode Eh répond à ce quiz qui sont les potes de Comode ? Des mecs du Bronx B Des mecs du Queens C Les Queers Ctenfoiré, tu peux le trouver là où ça pue la graine crâmée Là où la vibe ne vient jamais Il est tellement pourrave que lencre ne veut pas couler de son bic Ses rimes refusent de sortir de sa bouche Il cherche à se faire sponsoriser par Gros Cave Wear Cest un âne, cest un naze, cest un tocard ouais Il est trop pas West, il donne un mauvais Seawalk Il est pas dur, il est doux comme un putain dEwok Il a rien dans le ventre, même son ver solitaire veut sbarrer Dis-lui de faire un Gangsta Freestyle si tu veux tmarrer Jlai capté, cest son hobbie sla raconter Même sil a les couilles de Fredon le Hobbit Es-tu sûr qusa copine ne veut pas ltromper Car son string, la coquine, me la montré Sa pauvre mère croit quil a une plume de poète Mais on sait quil est prisonnier dune bulle de Moët Et il finira par donner des shows case dans les couloirs du métro Pour enfin pouvoir toucher quelques pesos, Comode</t>
         </is>
       </c>
     </row>
@@ -985,12 +985,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Clubber Lang Music</t>
+          <t>Dancehall Furie</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Message personnel à ceux qui vise le titre, le Chelem, la ceinture J'les renvoie direct à la peinture Change de registre, tu vises la pogne pour péter la Rolex Tu t'cherches, j't'ai trouvé au fond d'une poubelle Pousse-toi p'tit pou, pars par la petite porte Ta prose pue le pipeau, la pouf et la pastiche pauvre XXX est niqué j'te pousse par terre illico Moi en contre-plongée, dans ma main ton micro Qui est-ce qui tembêtes ? Montre-moi le discret J'te garantis qu'il oubliera ton blase et t'cassera pas la tête Tu fais quoi mec ? Tu veux m'terroriser ? J'en ai peur La merde est dans c'corps, je vais l'exorciser J'ai tenté les quantiques, ça n'a pas marché Alors j'ai crié Ralia sors de c'corps ! Y'avait rien à faire j't'ai fini à coup de cric De flow style celui de brique T'as gouté à ce qu'était la Clubber Lang music Clubber Lang music, pas pour les p'tites filles Sonne le gong, fils J'vois qu't'as une p'tite mine Les MCs couinent sur le ring, comme des bitchs, comme des victimes de XXX On a shooté Rocky de un à six En stéroïdes, Faf androïde, droite qui part en bolide Qui tue sur un instru, une intro, une outro Ou te butes sur un sample en solo, un beat electro Kho tu pues sur tes propres morceaux, c'en est trop J'te bute avec un piccolo, même avec un flow rigolo Tu veux la jouer high comme G.I Claquer des dos, mec faut qu't'y ailles, t'es die Y'en a marre des raps où ça rappe pas, des tocards à la mord-moi-là Marre qu'ils raclent les fonds d'tiroir avec un bandana Marre que l'image prenne le pas sur le mic' J't'attrapes, te mets à sac, dit ça pour Lady Marmalade Te maquer aux tapins, te claque si tu me parles mal Faf a.k.a Dexter, un psychopathe en live Après ça même les sourds qui te raillent, Les bookmakers se taillent, y'aura pas de deuxième round x2 Clubber Lang music Pas des sons d'usine Rap style exclusif Peut provoquer des suicides de MC Qui captent pas les lois basiques du rythme Bim, bim, gauche, droite, ça fait l'effet d'un fusil Eh mec, tu poses avec peine et tu causes avec peine Plus qu'autant ta prose avec haine Là tu nous forces à lextrême Tu perds ton sang froid, pète avec des fausses coucheries Ahah, t'es fou j'ris Mon pronostic ? Une boucherie Si c'est ça ton style, XXX ça c'est pas ces leçons Souvent ressassé, XXX laisse tomber le sky à la seconde T'es faible, fourbe, vil pour un phillie Tu files le blase de qui de fourgue et vite qu'on en finisse Parce que ras-le-bol de ces nazes sans vocable Et quand on tombe, les gros bras tappellent direct un avocat Jouer les chiffons dans la rue et s'battre, j'ai passé l'âge Mais niveau flow j'suis trop là et le tien n'est pas assez large A ta piaule, c'est bizarre, depuis une semaine c'est moi qui fout le flip Ce mec qui pèse à Adrian C'est vrai qu'elle balise pour ton XXX, la vilaine Parce qu'elle sait que je cabosse vite fait ton crew miteux dans la huitaine Veste kaki, mitaines, tu tombes à mi-temps, mytho, rap mythico XXX avec un micro Et comme d'hab' tu veux en sortir sec avec un pipeau J'te rend tes feuilles, tiens, avec de l'essence et un Zippo C'est le tarif, on t'fout au tapis dans la minute Tapitoyer sur ton corps, tatoues-toi un trou d'uc T'as cru quoi ? Un coup du sort ? T'as pris trop d'pilules Ni de punchlines en majuscules, t'as l'arcade qui brûle Uppercut et crochet cultes, pas d'virgules Mes mots fusent, te bousculent, tu perds tes testicules Pourquoi tu gesticules ? Ma clique Clubber Lang Music sur le ring tue, Apollo Creed t'insulte T'es pas le king, v'la c'qu'il en résulte Quand on s'trompe de catégorie, tu manges des coups d'pieds au cul Fils j'suis trop une brute, vise la ceinture Va jouer du luth, dans le studio on te mute J'ai pas un Tyson en face, plutôt un Jean-Claude Dusse XXX, attitude tu t'chies d'ssus Pas de ju-jitsu Avant le corps XXX, largement au dessus Tape comme une massue x2 Clubber Lang music Pas des sons d'usine Rap style exclusif Peut provoquer des suicides de MC Qui captent pas les lois basiques du rythme Bim, bim, gauche, droite, ça fait l'effet d'un fusil</t>
+          <t>This is One Shot, yeah yeah This is not a ??? Yeah man Hey Faf, Quinto dites leurs Jalane, Freeman... Ne m'invites pas dans tes soirées Drag-Queen Avec tes potes en string t'es fou Ne m'invites pas dans tes Song-Bway Show Je ne suis pas très techno, no, no, no... Ici, c'est One Shot.. Quinto Lusi dans la partie, c'est r'parti Ecoutes... Là Quand tu bouge sur.. ça Quand l'DJ met la voix tiennent là droit MC, DJ, tout terrain, tu doutes pas Mille et un styles dans tes oreilles Et celui qui trouve ça facile, ben qu'il fasse pareil Pour les dancehall Hi-Real, Lusi, sourire, mec Maintenant qu'j'ai bien gole-ri, je vais le pendre bien sec Respect à Taïro, respect à Nuttea, IAM dans l'trip avec nous Un écrit d'après minuit, pour une Dancehall Furie Tous sur la piste tant que les bonnes vibes existent Quand la musique enflamme les coeurs A cette chaleur qui resiste Faf l'a dit Danse dessus Ca va plus, mes associés kiffent ça, tu as vu Un H?? près de Ris-Pa, t'as vu Merci à l'équipe, c'était puissant les frère Fifi, Rico, Aïsha, Cécile, Léa, Véro, Ella, Paul, Mère ???? , elle s'améliore Si dieu veut, meilleur est cet avenir, les frères j'le pense fort One Shot dans la partie Entre les femmes, les petits Même si t'appelles la cavalerie J'tiens le pari qu'ils relèvent le défi On est que six mais on punit Avec des mots, des mélodies triées sur le parvis C'est sur scène qu'on sévit Jalane Tu crois que tu peux m'impressioner avec tes soirée en bois Mec, celui qui te parle ici, c'est Faf LaRage Dancehall Furie, Mars boogie Des mots qui se déguisent, faut qui s' dégazent J'sais pas si j'dois rentrer dans l'lards ou dans l'Art Façon standard, épaulé de Stormbringa C'est nos, nos, nos... Des trips de clandos Mec, c'est faux, faux, faux... Des dances Tropo Et des zéros, pros, pros, pros... T'y es pas, la zik c'est pas ça Mec, j't'explique même pas, tu comprendrais pas Tout mes potos d-d-d-d-dance dessus Axes toi sur le D-d-d-dancefloor, sur le mic Le Duc existe, des reportages plus sûr Plus culturels pur façon Dancefloor Come Again, blaireau, ici c'est du vrai Faf et Maniga et Rico dans la place sont près Franchement tes fausses soirées electronique, kitsch de merde Le Show-biz avant, c'était juste de l'herbe Et tu l'as dit mec, je fais faire un sale son sec Pas un son que les nazes récupèrent Après y se plaignent qu'on les rackettent LaRage et One Shot, on n'est pas dans ce trip Pas de tripes, notre trip c'est la zik Fuck les polémiques En étant son air et mon état, quand je pose en candidat Sans le son qui bondira, bon sang qui Bond y va mais pour savoir où tu vas Quand tu prend un chemin tu vois le mien comme celui de n'importe qui, restreint On s'comprend, le monde veut rester avec son compte plein Le bon temps reste un privilège dans cette vie de chien Dancehall, pas d'plainte, j'pense mol, pas d'bol J'mets le feu à fond dans le pays. Goal, qu'on m'gaule Qu'on m'colle une putain de colle, rimes collés au sol Blindés avec nos synthés, on tient le monopole Ah, t-t-tu traduis, qu'on étude le produit, qu'on fasse un produit Qu'un mauvais se réduit, je voudrais pas qu'on m'souhaite la mort A cause m'appelerais à mort, boy, ça c'est pas mon sort Et bon, j'fais pas ça pour l'or. oui, j'suis pas un Ténor Juste un boy du Dancefloor, Dancefloor, le but je dors encore et encore Ici le fric, ici, y'a pas de fric ici, ici c'est One Shot Whouaa t'occupe pour les cris Manamath, Manamath, Manamath, Manamath, Manamath, Manamath... Mates comme l'heure était, mache autour n'est pas si seul Chicote les soirée gaies ou écope ici pas testé cocotte T'inquiète pas y'a que des pilotes, tu prends une calotte C'est fait pour ça mon pote, Une ambiance cocotte Je prend le mic et j'galope, tukutu, tukutu, tukutu Y-yo, Y-yo, Y-yo Ne m'invites pas dans tes soirées Drag-Queen J'aime pas tes potes en string T'es fou Ne m'invites pas dans tes party-Bway Show Je ne suis pas très techno, no, no, no... T'es Fou Dancefloor Soirée Techno C'est dingue Hey Respect à Freeman, Nuttea, Jalane, Faf, Quinto Pour cette tuerie A là c'est à nous d'donner la furie, hey Select a..., select a..., rewind it again please Select a..., select a..., ho, ho, ho, ho, ho, hey C'est la Dancehall Furie Remède pour les âmes et les esprits C'est la Dancehall Furie Rangez vos lames et vos fusils J'transforme le hall de ton immeuble en Dancehall Faut qu'hésites et dance. Le Dancefloor, c'est ton cerveau Le DJ c'est toi si t'y pense, mixe avec tes songes et pense aux enjeux Ceux des cieux, pas ceux d'ici, ceux de dieux c'est eux les vrais anges Tes neurones, c'est le Bi-pôle sur mon bo-gueule Faut qu'ta matière grise s'agite, que ça bouge quand j'ouvre ma gueule Que dans ton esprits, ce soit eux, Garçons et Mademoiselles De Dakar jusqu'en Moselle, ma musique prend des ailes Disiz-ze-ze-ze-ze, comme à Ibiza Sans les dièse bizarre des dep, leurs faire ma misère M'as mise à ma miss, c'est moi chérie-coco, La musique mon cocon Une vingtaine de mesure sur la musique comme des flocons Mais, mais, mais Disiiiize, je les tue avec mon flow Dans le ghetto, c'est la Furie du Dancefloor J'explore ce soir, on va en boite... cranienne Taïro, Chill, Jo et Disiz sur les ondes hertziennes S'te plait, fais une boum dans ton cerveau, invite des idées positives Directive pour les videurs évites les pensées négatives Pour que ça porte dans ton bulbe, ecoute Disiz la Peste Que les good Vibes s'propulsent sur mon cerveau se la taise C'est la Dancehall Furie Remède pour les âmes et les esprits L'exode du sper de mon esprit et le son qui me sont investi Des sphères de mon cortex pour un chapitre inverti, poison mortel Dégénéré par des taies des choses sexi, nos rêves drivés par chuut Baby, Le ??? exitant les woui-woui Quand Je squatte le mic qui déchaine les Hhuuum Quand j'monte les Watt de mon salon style Habilis Fallait voir les faces des voisins criser sur la sound, Stevie La pourriture m'a suivie dans mon coeur comme une sangsue Et j'ai subie le raz de marée du rythme et ses lubies Prés d'l'arrêt du turf, les légendes d'mon équipe survivent S'inscrivirent dans les HiFi comme une nuit depuis en Georgie Ce son s'balade quelque part sur une touche Azerty Sur Mon, tu regrettes au marie, car ce beat est dirty Mon mic plaide pour une mélodie de furie Une équipe fourrée de styles de flows divers transforme ce Dancehall en tuerie Et pour les paru.., que dis-je une century Colloque d'alchimiste cherchant le Beat of the Century J'ramène l'HipHop à l'essence et sans les milles et cent incendies Dis-moi où est le rap quand les ---- jouent au plus bandits Et qui n'ont pas de sujets de lyrics sans Versus et Gucci J'leur réserve sur disque comme Apollo Creed, Une Boucherie Eh ouais, c'est comme ça, ici ça pête fort Ici, c'est One Shot, IAM sur le Dancefloor Et j'crois que c'est là qu'il faut que tu kiffes sur le son Que tu bloque sur le son, si ça le fait Faudrat qu'tu t'lache sur le son, que tu vives dans le son Que tu mette tout ce que t'as dans le son, dansant mais fais comme tu pense Dans le fond, tu glisse dans le son Lêve les bras, fais comme ceux qui sont sur FatTrack Faut que tu trique, trime à max, pour ça le Wax, un axe ou seul les as ont place Une chance de laisser une trace, on taperas fort sur rien d'autre Que les tympans et les cerveaux, un son de salauds pour les costauds Et un Flow de pro pour les potos qui pensent sur le son Qui chauffent sur le son, ceux qui préfèrent le sens dans le son assis sur le caisson Puissant, on vient planter ton son Je précise pour les Condés,on parle pas de baston Fils on vise le fun, la fête, Fuck ce qui divisent Les tête qui bouge sur le son, qui planent sur le son, qui pleurent sur le son Vu pour le son, les senseurs du son, qui plient sur le son, crient sous du son Et rient sur du son, et ceux qui comme vivent dans le son A fond et jusqu'en fin de partie, fiston Swinguent sur le son, hum Hum sur le son, oh oui sur le son, on pose sur le son On peut tuer sur le son</t>
         </is>
       </c>
     </row>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Comode “Le Dégueulasse”</t>
+          <t>Danse dessus</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Comode, tes un fatigué, un wack, ton style est sous prozac Taccroche au biz comme un morbak Yaura pas de come-back, comme dhab Comode si tu texiles sur la West Coast, on te surnomme 1 PAC Tas pas une phase rame sur le mic Personne veut de toi Tes mou comme Miou Miou, ton style est pas cool Mais vilain comme une poupée vaudou et zou ! Vire de là Oh my Lord, Oh my God Comode tes pas à la mode Fais pas ton cow boy, tes pas mon home boy, ni mon homie Tauras pas le buzz de Ousbourne Ozzy Pas de soucis, tas le verbe trop bouilli Surfe sur les tendances comme aux îles Maouii Ah oui joubliais, tes le roi de lincruste Tes pas tout puissant comme Bruce mais tu suces Comode il donne tout cquil a, chorégraphie Chant avec les filles, il donne moult galas Il est faux comme un steff cola, sex colhal Tu y penses grave, mais cesse le rap Si je te vexe connard, cest que les mecs comme toi me dégoûtent Prennent mon taffe pour un moyen de faire des sous Ouh Comode est comme ça, prêt à tout ! Faible et fourbe Une musicale esbroufe, ton flow est pure soupe Pour des llet-bi, prêt à brader ton son chez Liebig Tes llé-gri et aigri, yeah G, yeah cee Arrête de boire du Hennessee Tas quelque chose dun bouseux du Tennessee Des récits qui puent bon pour la lessive Et si, tu partais à Végas faire un show en bas résille ou à Memphis Bouge ici, personne ne taime fils Si avec ça tes pas disque dor Comode Rend ta plaque et mic et sors Comode Et retire toi des bacs, des Virgin et des Fnac Tente pas le comeback, come on, Comode Tu rêvais dêtre une panthère, mais tes le chat dMichou Nuit du chasseur, tes la viok, moi Robert Mitchum File moi lsac, et tes paroles en wood Car tes en haut dlaffiche, d MC en bois in the Hood , tchée Depuis tas tatoué KILLER sur les abdos, vilain tas pas dgoût Mais Hamdu, tes un ex comme Paula Abdul MC pour soirée mousse, Pouh, tempeste la loose Freestyle entre punch et barbecue Tes dégueulasse, tu casses pas la baraque, pourtant cest la parade Ça rappe pour lapparat, accroche au steak, rat comme la varappe Moche et frileux, fourbe et mielleux Tes hors jeu, oh les gars sifflez le, houou Comode, de la graine dempafé MC avec le cou vert oxydé par ta Grains de café factice Avec la chierie pactise, quelle sale tactique Pour ça nos lyrics ont lair grands quand tes rimes rapetissent Tes foireux comme des chals passés à loxyde On va toccire, enfouir tes cahiers comme un déchet toxique Mate le miroir, tu ny verras quun pauvre type Puis lfond des chiottes et ty trouveras ta prose cheap Le meilleur de tes sons ne fait pas un bon skit Il constipe, cest ton style, dans le noir il conspire En concert, le public a dit Allez on stire Même ta femme a dit Comode, mieux vaut quon squitte Tes faible, frêle, tas moins dpower quAustin Mes rimes, une encyclopédie et la tienne un post it AKH cest lalu et ton crew la bauxite Même les nazes rient de toi, tes le gag des postiches Si avec ça tes pas disque dor Comode Rend ta plaque et mic et sors Comode Et retire toi des bacs, des Virgin et des Fnac Tente pas le comeback, come on, Comode Eh répond à ce quiz qui sont les potes de Comode ? Des mecs du Bronx B Des mecs du Queens C Les Queers Ctenfoiré, tu peux le trouver là où ça pue la graine crâmée Là où la vibe ne vient jamais Il est tellement pourrave que lencre ne veut pas couler de son bic Ses rimes refusent de sortir de sa bouche Il cherche à se faire sponsoriser par Gros Cave Wear Cest un âne, cest un naze, cest un tocard ouais Il est trop pas West, il donne un mauvais Seawalk Il est pas dur, il est doux comme un putain dEwok Il a rien dans le ventre, même son ver solitaire veut sbarrer Dis-lui de faire un Gangsta Freestyle si tu veux tmarrer Jlai capté, cest son hobbie sla raconter Même sil a les couilles de Fredon le Hobbit Es-tu sûr qusa copine ne veut pas ltromper Car son string, la coquine, me la montré Sa pauvre mère croit quil a une plume de poète Mais on sait quil est prisonnier dune bulle de Moët Et il finira par donner des shows case dans les couloirs du métro Pour enfin pouvoir toucher quelques pesos, Comode</t>
+          <t>Ouais, faut qu'ils pigent les mecs Faut qu'ils pigent ça Musique et danse dessus Tu vois cque jveux dire Chat ? danse dessus La rage mec, on danse dessus D'où tu viens, quoi qu'tu fasses Car des gars et des meufs mec ils dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue, mec ils dansent dessus Dansent dessus, dansent dessus Dansent dessus Ok, cest risqué, cest poser De parler danse sur un rythme swingué Cest exprès de rapper, lancer des rimes sensées Tfaire bouger sans regretter les faits Le rap qui danse, jrevendique si ça mplaît, quça nique, joublie Jemmerde les clowns que ça gêne quand je kiffe Les dancefloors ne se sont pas vidés en 86 Comme on disait, Funky Fresh fils, lâche tout cque tas fils Ma ligne directrice direct fils et reste peace À la fin de mes phrases et cest ça qui smanifeste fils Mais reste correct, le collectif rectifie on rec à lactif On scande des putain dtitres Certains osent pas, comment leur en vouloir Certains critiquent mec, quils aillent se faire voir Genre jsuis hip-hop, me la fais pas, tu bouges dans les autres boîtes Et si tu boudes ça, allez rentre chez toi Et lâche-moi Car des gars et des meufs, mec, ils dansent dessus Car des gars et des meufs, mec, ils dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue qui dansent dessus Des gars et des meufs, mec, qui dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue mec qui... Dansent dessus, bougent dessus, foncent dessus Défoncent la piste de danse dessus, déconnent dessus Si on ttraite de trou du cul, insulte Si on insiste celui qui pète, balayette et tu lui saute dessus Jentends des poufs Larage il rappe dessus Mais casse-toi, quand tu feras des concerts, tapprécieras dvoir un public qui bouge dessus Marre des hypocrites hardcorisés Jdonne un peace aux breakers, ceux qui savent encore samuser Eh mec il y a un temps pour tout Faut slibérer chaque fois quon peut dans cmonde qui nous pousse à devenir fou Y a assez dendroits où on rentre pas Tfaçon en général cest naze, mec il mfaut du vrai son pour ça Danse dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue mec ils dansent dessus Des gars et des meufs, mec, qui dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue mec ils dansent dessus Et partout Sur le dancefloor Ici cest One Shot Eh les meufs, faut pas être timides Les mecs, faut pas être stupides, cest le mix qui file Suffit qule DJ déchire Des fausses drogues artificielles genre chimiques, on sen cogne Cest mon cur et mon cerveau qui verront si jdéconne Cest ainsi mec, jveux parler des bouffons qui pètent Comme si je rentrais dans l'steak Faf, tas pas besoin dfaire ça Aucun d'ces blaireaux savent que jpeux faire ça Tu parles de tunes, je parle hip-hop, faut quils pigent ça Akos fait la zik et ça m'va ha ha ha One Shot ma clique sur c'coup-là ha ha ha Tous dans lmême taxi rimes nasty, artistiquement ça claque mec Articule si tu critiques Ton cur bout parce que tu sais qule crew kicke Sans tminik, real shit façon speed Genre rien à foutre, on kiffe mec, on Danse dessus Des gars et des meufs, mec, qui dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue qui dansent dessus One Shot, danse dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue qui dansent dessus Ouais, c'est ça Faf On continue à faire dla bonne musique mec Dire des choses vraies Cquon pense, et ça fera trembler les sphères Et ceux qui comprennent pas On leur on dit quoi On leur Danse dessus On leur ... dessus</t>
         </is>
       </c>
     </row>
@@ -1019,12 +1019,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Dancehall Furie</t>
+          <t>Dans le Marécage</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>This is One Shot, yeah yeah This is not a ??? Yeah man Hey Faf, Quinto dites leurs Jalane, Freeman... Ne m'invites pas dans tes soirées Drag-Queen Avec tes potes en string t'es fou Ne m'invites pas dans tes Song-Bway Show Je ne suis pas très techno, no, no, no... Ici, c'est One Shot.. Quinto Lusi dans la partie, c'est r'parti Ecoutes... Là Quand tu bouge sur.. ça Quand l'DJ met la voix tiennent là droit MC, DJ, tout terrain, tu doutes pas Mille et un styles dans tes oreilles Et celui qui trouve ça facile, ben qu'il fasse pareil Pour les dancehall Hi-Real, Lusi, sourire, mec Maintenant qu'j'ai bien gole-ri, je vais le pendre bien sec Respect à Taïro, respect à Nuttea, IAM dans l'trip avec nous Un écrit d'après minuit, pour une Dancehall Furie Tous sur la piste tant que les bonnes vibes existent Quand la musique enflamme les coeurs A cette chaleur qui resiste Faf l'a dit Danse dessus Ca va plus, mes associés kiffent ça, tu as vu Un H?? près de Ris-Pa, t'as vu Merci à l'équipe, c'était puissant les frère Fifi, Rico, Aïsha, Cécile, Léa, Véro, Ella, Paul, Mère ???? , elle s'améliore Si dieu veut, meilleur est cet avenir, les frères j'le pense fort One Shot dans la partie Entre les femmes, les petits Même si t'appelles la cavalerie J'tiens le pari qu'ils relèvent le défi On est que six mais on punit Avec des mots, des mélodies triées sur le parvis C'est sur scène qu'on sévit Jalane Tu crois que tu peux m'impressioner avec tes soirée en bois Mec, celui qui te parle ici, c'est Faf LaRage Dancehall Furie, Mars boogie Des mots qui se déguisent, faut qui s' dégazent J'sais pas si j'dois rentrer dans l'lards ou dans l'Art Façon standard, épaulé de Stormbringa C'est nos, nos, nos... Des trips de clandos Mec, c'est faux, faux, faux... Des dances Tropo Et des zéros, pros, pros, pros... T'y es pas, la zik c'est pas ça Mec, j't'explique même pas, tu comprendrais pas Tout mes potos d-d-d-d-dance dessus Axes toi sur le D-d-d-dancefloor, sur le mic Le Duc existe, des reportages plus sûr Plus culturels pur façon Dancefloor Come Again, blaireau, ici c'est du vrai Faf et Maniga et Rico dans la place sont près Franchement tes fausses soirées electronique, kitsch de merde Le Show-biz avant, c'était juste de l'herbe Et tu l'as dit mec, je fais faire un sale son sec Pas un son que les nazes récupèrent Après y se plaignent qu'on les rackettent LaRage et One Shot, on n'est pas dans ce trip Pas de tripes, notre trip c'est la zik Fuck les polémiques En étant son air et mon état, quand je pose en candidat Sans le son qui bondira, bon sang qui Bond y va mais pour savoir où tu vas Quand tu prend un chemin tu vois le mien comme celui de n'importe qui, restreint On s'comprend, le monde veut rester avec son compte plein Le bon temps reste un privilège dans cette vie de chien Dancehall, pas d'plainte, j'pense mol, pas d'bol J'mets le feu à fond dans le pays. Goal, qu'on m'gaule Qu'on m'colle une putain de colle, rimes collés au sol Blindés avec nos synthés, on tient le monopole Ah, t-t-tu traduis, qu'on étude le produit, qu'on fasse un produit Qu'un mauvais se réduit, je voudrais pas qu'on m'souhaite la mort A cause m'appelerais à mort, boy, ça c'est pas mon sort Et bon, j'fais pas ça pour l'or. oui, j'suis pas un Ténor Juste un boy du Dancefloor, Dancefloor, le but je dors encore et encore Ici le fric, ici, y'a pas de fric ici, ici c'est One Shot Whouaa t'occupe pour les cris Manamath, Manamath, Manamath, Manamath, Manamath, Manamath... Mates comme l'heure était, mache autour n'est pas si seul Chicote les soirée gaies ou écope ici pas testé cocotte T'inquiète pas y'a que des pilotes, tu prends une calotte C'est fait pour ça mon pote, Une ambiance cocotte Je prend le mic et j'galope, tukutu, tukutu, tukutu Y-yo, Y-yo, Y-yo Ne m'invites pas dans tes soirées Drag-Queen J'aime pas tes potes en string T'es fou Ne m'invites pas dans tes party-Bway Show Je ne suis pas très techno, no, no, no... T'es Fou Dancefloor Soirée Techno C'est dingue Hey Respect à Freeman, Nuttea, Jalane, Faf, Quinto Pour cette tuerie A là c'est à nous d'donner la furie, hey Select a..., select a..., rewind it again please Select a..., select a..., ho, ho, ho, ho, ho, hey C'est la Dancehall Furie Remède pour les âmes et les esprits C'est la Dancehall Furie Rangez vos lames et vos fusils J'transforme le hall de ton immeuble en Dancehall Faut qu'hésites et dance. Le Dancefloor, c'est ton cerveau Le DJ c'est toi si t'y pense, mixe avec tes songes et pense aux enjeux Ceux des cieux, pas ceux d'ici, ceux de dieux c'est eux les vrais anges Tes neurones, c'est le Bi-pôle sur mon bo-gueule Faut qu'ta matière grise s'agite, que ça bouge quand j'ouvre ma gueule Que dans ton esprits, ce soit eux, Garçons et Mademoiselles De Dakar jusqu'en Moselle, ma musique prend des ailes Disiz-ze-ze-ze-ze, comme à Ibiza Sans les dièse bizarre des dep, leurs faire ma misère M'as mise à ma miss, c'est moi chérie-coco, La musique mon cocon Une vingtaine de mesure sur la musique comme des flocons Mais, mais, mais Disiiiize, je les tue avec mon flow Dans le ghetto, c'est la Furie du Dancefloor J'explore ce soir, on va en boite... cranienne Taïro, Chill, Jo et Disiz sur les ondes hertziennes S'te plait, fais une boum dans ton cerveau, invite des idées positives Directive pour les videurs évites les pensées négatives Pour que ça porte dans ton bulbe, ecoute Disiz la Peste Que les good Vibes s'propulsent sur mon cerveau se la taise C'est la Dancehall Furie Remède pour les âmes et les esprits L'exode du sper de mon esprit et le son qui me sont investi Des sphères de mon cortex pour un chapitre inverti, poison mortel Dégénéré par des taies des choses sexi, nos rêves drivés par chuut Baby, Le ??? exitant les woui-woui Quand Je squatte le mic qui déchaine les Hhuuum Quand j'monte les Watt de mon salon style Habilis Fallait voir les faces des voisins criser sur la sound, Stevie La pourriture m'a suivie dans mon coeur comme une sangsue Et j'ai subie le raz de marée du rythme et ses lubies Prés d'l'arrêt du turf, les légendes d'mon équipe survivent S'inscrivirent dans les HiFi comme une nuit depuis en Georgie Ce son s'balade quelque part sur une touche Azerty Sur Mon, tu regrettes au marie, car ce beat est dirty Mon mic plaide pour une mélodie de furie Une équipe fourrée de styles de flows divers transforme ce Dancehall en tuerie Et pour les paru.., que dis-je une century Colloque d'alchimiste cherchant le Beat of the Century J'ramène l'HipHop à l'essence et sans les milles et cent incendies Dis-moi où est le rap quand les ---- jouent au plus bandits Et qui n'ont pas de sujets de lyrics sans Versus et Gucci J'leur réserve sur disque comme Apollo Creed, Une Boucherie Eh ouais, c'est comme ça, ici ça pête fort Ici, c'est One Shot, IAM sur le Dancefloor Et j'crois que c'est là qu'il faut que tu kiffes sur le son Que tu bloque sur le son, si ça le fait Faudrat qu'tu t'lache sur le son, que tu vives dans le son Que tu mette tout ce que t'as dans le son, dansant mais fais comme tu pense Dans le fond, tu glisse dans le son Lêve les bras, fais comme ceux qui sont sur FatTrack Faut que tu trique, trime à max, pour ça le Wax, un axe ou seul les as ont place Une chance de laisser une trace, on taperas fort sur rien d'autre Que les tympans et les cerveaux, un son de salauds pour les costauds Et un Flow de pro pour les potos qui pensent sur le son Qui chauffent sur le son, ceux qui préfèrent le sens dans le son assis sur le caisson Puissant, on vient planter ton son Je précise pour les Condés,on parle pas de baston Fils on vise le fun, la fête, Fuck ce qui divisent Les tête qui bouge sur le son, qui planent sur le son, qui pleurent sur le son Vu pour le son, les senseurs du son, qui plient sur le son, crient sous du son Et rient sur du son, et ceux qui comme vivent dans le son A fond et jusqu'en fin de partie, fiston Swinguent sur le son, hum Hum sur le son, oh oui sur le son, on pose sur le son On peut tuer sur le son</t>
+          <t>Dans le Hip Hop, le cave est une espèce répandue Dans son milieu naturel, avec ses amis, il survit Mais égaré, il est soumis à la dure loi de la prédation Dès lors que les troublantes créatures du marécage le guettent Ses chances de s'en sortir... sont bien maigres Je débarque, t'embarque dans ma barque, sois rassuré Desserre ton fion, viens dans mon bastion dans les marais Arrête de te marrer comme un taré, tout est carré mes mains sont palmées Des nageoires me poussent à force d'être flow au micro Calcule pas d'où je viens Si tu ne veux pas chavirer calme-toi et tiens-toi bien On se déplace en silence Pas de bruit, de nuisance Des coups de pagaie dans l'eau, on avance avec aisance Pense qu'un endroit, hors-loi, sans Etat Existe, rempli de miss, de bons films et de pera Derrière ce brouillard à couper au couteau, choqué tu le seras plus tôt Le rêve aux abords de cet îlot secret Pour les ordures qui ont la dalle, une salle de torture Où des milliards de moustiques te piquent jusqu'à usure Ta peau séchée, on l'attend pour faire des kayaks Tes os craquent, ton crâne sert à boire le cognac Avec nous, les alligators crèvent de faim On aime s'occuper à couper, découper les vauriens Le cave voit tout à coup son avenir fort compromis A la vue d'une flotte de kayaks morbides Les battements de son coeur s'accélèrent Il comprend le risque... Je reste dans mon marécage, sage, en méditation A la gachon, je guette l'inspiration dans un silence de plomb Concentration maximum, pas de distraction ou l'abortion pointe à l'horizon Mais ça croasse dans le buisson C'est la période nuptiale, les MC cherchent des micros Mais pas vous, les chours, pas de reproduction pour les crapauds De toute façon, ils sont là, à moi, rien que pour moi Maître céans, décrête que l'endroit n'est pas fait pour toi Trouve-toi un banjo, owo mets-toi au blues bayou Kikou, entre nous, arrête de faire le voyou Sois pas grippe-sou, un harmonica, ça vaut trois sous Le Monstre des Marais coule les vases dans la vase Aux caïmans les gueux, et compte pas sur Flipper pour te sauver Voilà le message je t'enverrai dans les cages de Faf La Rage Si tu traînes dans mon marécage A ce moment-là, le cave est tiré sous l'eau Sa seule chance ? La mythomanie Mais ses vêtements sentent trop le neuf Ils sentent trop la mauvaise video... Bienvenue dans le marécage où pas mal de MC jadis coulèrent Car de là, mes potes bombardent des bons beats sur Studer En place comme Nanard, de bon matin on y chasse du canard Vire des brêles presto à coups de panard Rembarque tes potes les bronques, tu fais le fous là Ici on fume la buddha, pas importée du plat pays du gouda Paye-toi un savon de Marseille, tu fais crépiter Geiger Mon équipe sort des geysers Des jets de mots, des jets de plume, des jets de pensée Tu penses bien que si l'INSEE recensait les MC tu serais pas relancé Romancé, je conterai ta fin avec l'accent, c'est le lycée Sur cahier de texte, t'y es trop absent, le CPE Chill sans figure t'exclut T'y a plus de classe, efface ton nom de bouchiasse Las de voir les caves gratter leur part de fromage Viens, je traîne un type sous le marécage Le cave est en apnée Il ne devrait pas sourire à la vue de l'animal Sinistrement majestueux qui s'avance vers lui Et qui lui tend la main Serait-ce un geste amical ? T'as vu ? Autrefois, enfant, tu lisais les comics et Appréciais la créature du marais Balivernes ! Ferme les yeux, te fais pas prier Je m'en vais, te faire visiter mes quartiers en vrai Le Duc de la scène Hip Hop de Marseille s'est posé là J'ai conquis, détruit, construit un palais et y ai mis Des cachots pleins d'emcees maudits On y torture et fouette les poufs qui pètent Il y a même des spectres casqués, masqués, pour le surveiller Des fois j'organise un tournoi de sélection mesquin Prends le gagnant, et faux ! Il en reste encore un Sors Stormbringer pour la bataille et là il réalise Qu'il aurait bien mieux fait de perdre, fils Le Marécage à l'image de Faf La Rage Cash avec les braves, pire avec les lâches Fais le fou dehors mais si tu écoutes ce morceau, poto Si tu es faux, souviens-toi du Duc, de son château du chaos, des cachots pour les blaireaux Dans le Marécage Il arrive très rarement qu'un cave naïf s'échappe en rampant dans la vase Blotti dans les roseaux, il cherche une porte vers la liberté L'espoir fait vivre, garçon Dans mon bastion, tends ton oreille pour comprendre Freeman, fils du soleil Sans oseille, je donne mes rimes, c'est , avec la rage quand je sors du marécage Fils, à ce qui paraît, tu check tes pages Fais gaffe à ton ménage, dans les deux cas c'est moi le veinard Un fêtard de pétards pour fêter ma victoire 23 grillés combattant dans le noir Buvard des textes Faux je peux encore me voir dans un miroir chaque matin Face aux têtards qui pètent Sept rimes suffisent pour provoquer l'invasion des sales mouettes Dehors, dedans, c'est pareil, mon équipe veille, structurée Rien n'est fait au hasard dans ce bazar, le marais Le manimal doit s'affirmer Poser la griffe, donner des gifles sur chaque son Kill pour les bêtes disciplinées Cave, eh, garde la foi, où que tu sois Dis-toi bien qu'on est là à guetter Guetté, une fois rattrapé, le cave est fini Le Marécage est vivement déconseillé, yo</t>
         </is>
       </c>
     </row>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Danse dessus</t>
+          <t>Dans le viseur</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Ouais, faut qu'ils pigent les mecs Faut qu'ils pigent ça Musique et danse dessus Tu vois cque jveux dire Chat ? danse dessus La rage mec, on danse dessus D'où tu viens, quoi qu'tu fasses Car des gars et des meufs mec ils dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue, mec ils dansent dessus Dansent dessus, dansent dessus Dansent dessus Ok, cest risqué, cest poser De parler danse sur un rythme swingué Cest exprès de rapper, lancer des rimes sensées Tfaire bouger sans regretter les faits Le rap qui danse, jrevendique si ça mplaît, quça nique, joublie Jemmerde les clowns que ça gêne quand je kiffe Les dancefloors ne se sont pas vidés en 86 Comme on disait, Funky Fresh fils, lâche tout cque tas fils Ma ligne directrice direct fils et reste peace À la fin de mes phrases et cest ça qui smanifeste fils Mais reste correct, le collectif rectifie on rec à lactif On scande des putain dtitres Certains osent pas, comment leur en vouloir Certains critiquent mec, quils aillent se faire voir Genre jsuis hip-hop, me la fais pas, tu bouges dans les autres boîtes Et si tu boudes ça, allez rentre chez toi Et lâche-moi Car des gars et des meufs, mec, ils dansent dessus Car des gars et des meufs, mec, ils dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue qui dansent dessus Des gars et des meufs, mec, qui dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue mec qui... Dansent dessus, bougent dessus, foncent dessus Défoncent la piste de danse dessus, déconnent dessus Si on ttraite de trou du cul, insulte Si on insiste celui qui pète, balayette et tu lui saute dessus Jentends des poufs Larage il rappe dessus Mais casse-toi, quand tu feras des concerts, tapprécieras dvoir un public qui bouge dessus Marre des hypocrites hardcorisés Jdonne un peace aux breakers, ceux qui savent encore samuser Eh mec il y a un temps pour tout Faut slibérer chaque fois quon peut dans cmonde qui nous pousse à devenir fou Y a assez dendroits où on rentre pas Tfaçon en général cest naze, mec il mfaut du vrai son pour ça Danse dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue mec ils dansent dessus Des gars et des meufs, mec, qui dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue mec ils dansent dessus Et partout Sur le dancefloor Ici cest One Shot Eh les meufs, faut pas être timides Les mecs, faut pas être stupides, cest le mix qui file Suffit qule DJ déchire Des fausses drogues artificielles genre chimiques, on sen cogne Cest mon cur et mon cerveau qui verront si jdéconne Cest ainsi mec, jveux parler des bouffons qui pètent Comme si je rentrais dans l'steak Faf, tas pas besoin dfaire ça Aucun d'ces blaireaux savent que jpeux faire ça Tu parles de tunes, je parle hip-hop, faut quils pigent ça Akos fait la zik et ça m'va ha ha ha One Shot ma clique sur c'coup-là ha ha ha Tous dans lmême taxi rimes nasty, artistiquement ça claque mec Articule si tu critiques Ton cur bout parce que tu sais qule crew kicke Sans tminik, real shit façon speed Genre rien à foutre, on kiffe mec, on Danse dessus Des gars et des meufs, mec, qui dansent dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue qui dansent dessus One Shot, danse dessus Même si cest la misère, ils dansent dessus Les villes et leurs cités dansent dessus Ceux qui veulent du bon son qui tue qui dansent dessus Ouais, c'est ça Faf On continue à faire dla bonne musique mec Dire des choses vraies Cquon pense, et ça fera trembler les sphères Et ceux qui comprennent pas On leur on dit quoi On leur Danse dessus On leur ... dessus</t>
+          <t>Tous les jours tu te lèves et c'est reparti Chaque fois la même course le même circuit Chaque jour le même guichet la même file Et chaque fois la même phrase faudra rev'nir Tous les jours le même sitcom à la télé Des politiques gravement atteints de cécité Et tous les jours le même scénar' à peine modifié Celui qui t'rappelle qu'à la fin c'est toi qui va chialer Et tous les jours le même spectacle aux infos Guerres sanglantes, confusions et hausses des impôts Tous les jours le même loup dans ton rétro Parce que la vie y'a bien longtemps qu'elle ne fait plus de cadeau Et tous les jours les même craintes et les même souhaits Trouver des sous et tenir le coup jusqu'au jour d'après Tous les jours les même crèvent et les même piqués Les même polices les même tasers toujours les même gazés Et tous les jours tu chutes et on te dit que tout va bien On te fait voir qu'y'a pire qu'ailleurs pour que tu te sentes bien Tous les jours la misère du monde est servie aux repas Ton frigo vide c'est sur pendant c'temps là tu penses pas Tous les jours les même regards les même soupçons Les même idées à la con les même fantômes à l'horizon Tous les jours y'a un poids de plus dans ton sac à dos Et pas l'temps de l'arrêt sur une aire de repos x2 Pour payer leurs conneries t'es dans le viseur Besoin de consommateurs t'es aussi dans le viseur Le bouc émissaire le parfait coupable dans le viseur Taffer plus pour gagner moins t'es encore dans le viseur Derrière la fenêtre tu regardes dehors Appréhende quand tu sors pour affronter la mort Les temps sont hard et la chance qui s'fait la malle Tiser tout l'week-end amorti le mal Le cash flotte au bout des bronzes sur des Yacht homie Des biatchs en Gucci sur Youtube elles font même plus envie Tu te maintiens dans la course par automatisme Ce maudit chien qui vient et pisse sur le tapis La pub te séduit la télé te l'dit Un PV pour la nuit un CV pour l'ennui L'hypnose est telle que leurs lois passent haut la main fils Tes pokémons s'en branlent du lendemain fils Un funambule entre deux fossés riche et pauvre tu trembles tu risques fort de finir dans le trou des ombres Alors la majorité sur le fil voudrait Sort de la routine et la famille peut se briser Faut assumer le danger, être refait à la régulière sans coup de pouce tous les jours le genoux à terre Tous les mois les compteurs à zéro, figer la progression trop minime à l'heure où les verrous doivent sauter Dites aux kids que les comptes de fée sont killés La survie parasite en paradis oublié Khouya la mécanique est rouillée les héros de déçus sont blasés tous les jours fauchés par un train de vie au pied des sommets x2 Pour payer leurs conneries t'es dans le viseur Besoin de consommateurs t'es aussi dans le viseur Le bouc émissaire le parfait coupable dans le viseur Taffer plus pour gagner moins t'es encore dans le viseur</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Dans le Marécage</t>
+          <t>Dans l’lard</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Dans le Hip Hop, le cave est une espèce répandue Dans son milieu naturel, avec ses amis, il survit Mais égaré, il est soumis à la dure loi de la prédation Dès lors que les troublantes créatures du marécage le guettent Ses chances de s'en sortir... sont bien maigres Je débarque, t'embarque dans ma barque, sois rassuré Desserre ton fion, viens dans mon bastion dans les marais Arrête de te marrer comme un taré, tout est carré mes mains sont palmées Des nageoires me poussent à force d'être flow au micro Calcule pas d'où je viens Si tu ne veux pas chavirer calme-toi et tiens-toi bien On se déplace en silence Pas de bruit, de nuisance Des coups de pagaie dans l'eau, on avance avec aisance Pense qu'un endroit, hors-loi, sans Etat Existe, rempli de miss, de bons films et de pera Derrière ce brouillard à couper au couteau, choqué tu le seras plus tôt Le rêve aux abords de cet îlot secret Pour les ordures qui ont la dalle, une salle de torture Où des milliards de moustiques te piquent jusqu'à usure Ta peau séchée, on l'attend pour faire des kayaks Tes os craquent, ton crâne sert à boire le cognac Avec nous, les alligators crèvent de faim On aime s'occuper à couper, découper les vauriens Le cave voit tout à coup son avenir fort compromis A la vue d'une flotte de kayaks morbides Les battements de son coeur s'accélèrent Il comprend le risque... Je reste dans mon marécage, sage, en méditation A la gachon, je guette l'inspiration dans un silence de plomb Concentration maximum, pas de distraction ou l'abortion pointe à l'horizon Mais ça croasse dans le buisson C'est la période nuptiale, les MC cherchent des micros Mais pas vous, les chours, pas de reproduction pour les crapauds De toute façon, ils sont là, à moi, rien que pour moi Maître céans, décrête que l'endroit n'est pas fait pour toi Trouve-toi un banjo, owo mets-toi au blues bayou Kikou, entre nous, arrête de faire le voyou Sois pas grippe-sou, un harmonica, ça vaut trois sous Le Monstre des Marais coule les vases dans la vase Aux caïmans les gueux, et compte pas sur Flipper pour te sauver Voilà le message je t'enverrai dans les cages de Faf La Rage Si tu traînes dans mon marécage A ce moment-là, le cave est tiré sous l'eau Sa seule chance ? La mythomanie Mais ses vêtements sentent trop le neuf Ils sentent trop la mauvaise video... Bienvenue dans le marécage où pas mal de MC jadis coulèrent Car de là, mes potes bombardent des bons beats sur Studer En place comme Nanard, de bon matin on y chasse du canard Vire des brêles presto à coups de panard Rembarque tes potes les bronques, tu fais le fous là Ici on fume la buddha, pas importée du plat pays du gouda Paye-toi un savon de Marseille, tu fais crépiter Geiger Mon équipe sort des geysers Des jets de mots, des jets de plume, des jets de pensée Tu penses bien que si l'INSEE recensait les MC tu serais pas relancé Romancé, je conterai ta fin avec l'accent, c'est le lycée Sur cahier de texte, t'y es trop absent, le CPE Chill sans figure t'exclut T'y a plus de classe, efface ton nom de bouchiasse Las de voir les caves gratter leur part de fromage Viens, je traîne un type sous le marécage Le cave est en apnée Il ne devrait pas sourire à la vue de l'animal Sinistrement majestueux qui s'avance vers lui Et qui lui tend la main Serait-ce un geste amical ? T'as vu ? Autrefois, enfant, tu lisais les comics et Appréciais la créature du marais Balivernes ! Ferme les yeux, te fais pas prier Je m'en vais, te faire visiter mes quartiers en vrai Le Duc de la scène Hip Hop de Marseille s'est posé là J'ai conquis, détruit, construit un palais et y ai mis Des cachots pleins d'emcees maudits On y torture et fouette les poufs qui pètent Il y a même des spectres casqués, masqués, pour le surveiller Des fois j'organise un tournoi de sélection mesquin Prends le gagnant, et faux ! Il en reste encore un Sors Stormbringer pour la bataille et là il réalise Qu'il aurait bien mieux fait de perdre, fils Le Marécage à l'image de Faf La Rage Cash avec les braves, pire avec les lâches Fais le fou dehors mais si tu écoutes ce morceau, poto Si tu es faux, souviens-toi du Duc, de son château du chaos, des cachots pour les blaireaux Dans le Marécage Il arrive très rarement qu'un cave naïf s'échappe en rampant dans la vase Blotti dans les roseaux, il cherche une porte vers la liberté L'espoir fait vivre, garçon Dans mon bastion, tends ton oreille pour comprendre Freeman, fils du soleil Sans oseille, je donne mes rimes, c'est , avec la rage quand je sors du marécage Fils, à ce qui paraît, tu check tes pages Fais gaffe à ton ménage, dans les deux cas c'est moi le veinard Un fêtard de pétards pour fêter ma victoire 23 grillés combattant dans le noir Buvard des textes Faux je peux encore me voir dans un miroir chaque matin Face aux têtards qui pètent Sept rimes suffisent pour provoquer l'invasion des sales mouettes Dehors, dedans, c'est pareil, mon équipe veille, structurée Rien n'est fait au hasard dans ce bazar, le marais Le manimal doit s'affirmer Poser la griffe, donner des gifles sur chaque son Kill pour les bêtes disciplinées Cave, eh, garde la foi, où que tu sois Dis-toi bien qu'on est là à guetter Guetté, une fois rattrapé, le cave est fini Le Marécage est vivement déconseillé, yo</t>
+          <t>Des thèmes trop durs pour l'esprit trop pur, c'est ça dans le lard Un son qui frappe et laisse des blessures, c'est ça dans le lard Ça pouvait pas se passer sans nous, fallait qu'ils voient de quoi on est capables Si fait entend ce rap sans palabre, sifflet comme sirène en temps de guerre Si t'es prêt je le suis aussi autant pas se faire attendre Tant de tympans se tendent autant se faire entendre et tendre L'atmosphère, j'écris sur les nerfs quand le calme a la vie dure Du coup les mains parlent ou tombent comme trop de volonté par balle clouée au mur Un flux de pensée cure un flot de maux, un sombre flow pour une guerre Sans couteaux, censée tirer vers le haut mais en haut On me prête pas une oreille j'insiste et ça me tiens en éveil le sommeil Facilite l'hypnose et sclérose à haute dose et le réveil À la carte vermeil servira à rien ici y'a pas de Saints Pour mon art c'est dans le lard que je taille mon chemin Refrain x2 Hey rho fous le son à fond dans la stéréo C'est La Garde au micro et tu sais que c'est chaud Quand ça rentre dans l'lard c'est parce qu'il le faut Si le son est brut frérot Analyse les nuances un flow qui se danse c'est insensé Ni prudence ni style vont te sauver Danse dessus, c'est ce que je préconise, fils c'est ma shit C'est ma putain de vie Hip Hop ma devise Et je rends hommage à ceux qui ont tenu le coup mec on sait qu'c'est Pas toujours évident de percer, les dents acérées Rho, DJ joue les bons titres que je kiffe Ça a changé mon avenir aujourd'hui je mack Comme un pimp de 7O Funky comme Biz J'ai la rage dans le mic swing les assonances dans la partie Avec speed l'ego trippin' j'ai trop de victimes Fait effet caféine sur le public, c'est l'Enc Et son son de dingue select, next c'est la guerre Dans l'lard mes textes ma tête finit la fête mec Refrain Hey rho fous le son à fond dans la stéréo C'est La Garde au micro et tu sais que c'est chaud Quand ça rentre dans l'lard c'est parce qu'il le faut Si le son est brut frérot La Garde un toast porté à ceux qui l'on cru les bougres Gesticulent entre les dents du temps qui a toujours les crocs Diseur d'images sombres juvre dans l'ombre telle une goutte d'eau Sous des trombes d'encre j'inonde irrigue je remue ceux qui jettent leur ancre Jusqu'au cou mais conscient même battu jusqu'au sang je tiens le coup Mais bon sang dur de rester debout jusqu'au bout Dans l'lard fils c'est comme ça qu'on fait sinon ils t'entendent pas Ils te voient pas ils savent pas qui t'es faut que ça change ça Ça, ça fait une paye qu'on représente et ça change quoi ? Tout quand les potos dans les concerts Jump Jump sur ça Foxafile quand chaque fois je rempile Te biles pas On se lasse pas Shurik'N Faf Larage Dans l'lard c'est La Garde on meurt mais on se rend pas Trop haut le niveau pour les MCs je kiffe pas C'est ça dans l'lard, déblaye le terrain pour les braves Des lyrics qui taillent C'est ça dans l'lard !</t>
         </is>
       </c>
     </row>
@@ -1070,12 +1070,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Dans le viseur</t>
+          <t>Délires en vrac</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Tous les jours tu te lèves et c'est reparti Chaque fois la même course le même circuit Chaque jour le même guichet la même file Et chaque fois la même phrase faudra rev'nir Tous les jours le même sitcom à la télé Des politiques gravement atteints de cécité Et tous les jours le même scénar' à peine modifié Celui qui t'rappelle qu'à la fin c'est toi qui va chialer Et tous les jours le même spectacle aux infos Guerres sanglantes, confusions et hausses des impôts Tous les jours le même loup dans ton rétro Parce que la vie y'a bien longtemps qu'elle ne fait plus de cadeau Et tous les jours les même craintes et les même souhaits Trouver des sous et tenir le coup jusqu'au jour d'après Tous les jours les même crèvent et les même piqués Les même polices les même tasers toujours les même gazés Et tous les jours tu chutes et on te dit que tout va bien On te fait voir qu'y'a pire qu'ailleurs pour que tu te sentes bien Tous les jours la misère du monde est servie aux repas Ton frigo vide c'est sur pendant c'temps là tu penses pas Tous les jours les même regards les même soupçons Les même idées à la con les même fantômes à l'horizon Tous les jours y'a un poids de plus dans ton sac à dos Et pas l'temps de l'arrêt sur une aire de repos x2 Pour payer leurs conneries t'es dans le viseur Besoin de consommateurs t'es aussi dans le viseur Le bouc émissaire le parfait coupable dans le viseur Taffer plus pour gagner moins t'es encore dans le viseur Derrière la fenêtre tu regardes dehors Appréhende quand tu sors pour affronter la mort Les temps sont hard et la chance qui s'fait la malle Tiser tout l'week-end amorti le mal Le cash flotte au bout des bronzes sur des Yacht homie Des biatchs en Gucci sur Youtube elles font même plus envie Tu te maintiens dans la course par automatisme Ce maudit chien qui vient et pisse sur le tapis La pub te séduit la télé te l'dit Un PV pour la nuit un CV pour l'ennui L'hypnose est telle que leurs lois passent haut la main fils Tes pokémons s'en branlent du lendemain fils Un funambule entre deux fossés riche et pauvre tu trembles tu risques fort de finir dans le trou des ombres Alors la majorité sur le fil voudrait Sort de la routine et la famille peut se briser Faut assumer le danger, être refait à la régulière sans coup de pouce tous les jours le genoux à terre Tous les mois les compteurs à zéro, figer la progression trop minime à l'heure où les verrous doivent sauter Dites aux kids que les comptes de fée sont killés La survie parasite en paradis oublié Khouya la mécanique est rouillée les héros de déçus sont blasés tous les jours fauchés par un train de vie au pied des sommets x2 Pour payer leurs conneries t'es dans le viseur Besoin de consommateurs t'es aussi dans le viseur Le bouc émissaire le parfait coupable dans le viseur Taffer plus pour gagner moins t'es encore dans le viseur</t>
+          <t>OK mec c'est quoi tes ambitions? On s'en cogne! Avoir du fric pour le dépenser chez ceux qui te contrôlent On est des bufs cherche pas On peut pas refaire le monde C'est pas notre destinée, on n'est pas fait pour ça Alors c'est quoi? Payer des factures, galérer dans la rue Se prendre la tête sur nos sorts, c'qu'on endure J'ai pas les couilles de m'investir si au bout y a pas de profit 68 c'est fini, 9-8 ce qui prime... L'économie, l'ère des comptes en banque arrive On te l'intègre chaque jour dans ta tête fils Tu marches ou tu crèves, 9-9 des courbes exponentielles Pour commenter la merde et les séquelles C'est toujours les mêmes qui raquent Toujours les mêmes qui crachent Toujours les mêmes qui font en sorte que tu restes en bas Des fois on sort la tête de l'eau et tant mieux Moi j'ai ma musique, si on m'l'enlève je suis une merde sérieux Mais l'flouze revient au même endroit, fils t'as rien à toi Regarde ta vie faite de crédits et de prêts si t'as d'la chance On croit s'en être sorti Tellement que les mecs qui font la manche on les dégage avec le sourire C'est pas qu'on les hait mais c'est trop proche de c'qu'on peut devenir Ça rassure de voir qu'y a pire, alors vaut mieux en rire J'aurais aimé être un leader, illusions Les vrais leaders ils s'font tous buter à la fin, fils c'est pas bon Toute façon j'ai envie de suivre personne, mais Si j'me bats aujourd'hui, c'est clair c'est pas moi qui vais en profiter La vie c'est le vier, j'essaie de m'raccrocher à quelques principes Style vieux jeu sans m'faire bouffer Trop cool? On t'bouffe! Trop con? On t'bouffe! Trop gentil? Trop fier? On t'bouffe! Alors... Délires en vrac Délires en vrac Délires... Délires en vrac Peace Love on en rigole, c'est dire s'ils nous ont eus J'suis pas fou, je veux ma part de rêve, on m'donne du fil à retordre Casse tout, fout l'souk, et pour qu'on s'intéresse à nous On braque le type du dessous C'est pas la solution, mais on s'en fout pauv' con Pas vu pas pris Pour survivre faut des fonds Y a des gens pas nets, des gens honnêtes Des gens même qui s'prennent la tête, des gens bêtes Et faut faire avec Y a des gosses qui tirent pour le délire, c'est chaud En taule ils s'rendent compte que c'est pas rigolo Et c'est pas rigolo, non c'est pas rigolo Quand quelqu'un se prend une balle ça n'a rien de réglo Symptômes de la misère? Mal de vivre? On n'est pas en guerre, si, mais faut pas s'tromper de cible Si on s'livre, si on abandonne ils auront gagné Mais qui? Ceux qui tiennent les rênes que tu vois jamais On nous laisse croire que le remède c'est l'boulot Mais la plupart des chômeurs jouent tous au Loto, vrai ou faux? C'est n'importe quoi Mais quand on voit les projets foireux de l'Etat Putain du fric y en a Y a pas d'fauteuil pour deux T'façon j'ai pas envie de partager l'mien avec un bourge fier et péteux Hors jeu, pas question de vendre mon cul pour être accepté Pas question y a trop de cons qui l'font et c'est Normal quand tu l'ouvres on te noie À cause de cela y a plus personne qui se bat Le sexe, un des rares moments Où tu déconnectes vraiment C'est simplement humain et encore j'reste sceptique Y a trop d'maniaques, trop d'pourris Trop de merdes qui viennent te gâcher ça aussi On devient méfiant, égoïste, individualiste Tout est programmé fils C'est comme ça qu'ils nous fixent Pose la question, le bout d'tout ça c'est pas net Est-ce qu'on est là pour engraisser 5 d'la planète? Tout le monde veut sa part du gâteau, à part tes scrupules Ton âme, qu'est ce que t'as à perdre poto? À quoi bon philosopher, y en a qui prévoient l'apocalypse Je veux accomplir ma tâche avant le sinistre</t>
         </is>
       </c>
     </row>
@@ -1087,12 +1087,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Dans l’lard</t>
+          <t>Demande Pardon</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Des thèmes trop durs pour l'esprit trop pur, c'est ça dans le lard Un son qui frappe et laisse des blessures, c'est ça dans le lard Ça pouvait pas se passer sans nous, fallait qu'ils voient de quoi on est capables Si fait entend ce rap sans palabre, sifflet comme sirène en temps de guerre Si t'es prêt je le suis aussi autant pas se faire attendre Tant de tympans se tendent autant se faire entendre et tendre L'atmosphère, j'écris sur les nerfs quand le calme a la vie dure Du coup les mains parlent ou tombent comme trop de volonté par balle clouée au mur Un flux de pensée cure un flot de maux, un sombre flow pour une guerre Sans couteaux, censée tirer vers le haut mais en haut On me prête pas une oreille j'insiste et ça me tiens en éveil le sommeil Facilite l'hypnose et sclérose à haute dose et le réveil À la carte vermeil servira à rien ici y'a pas de Saints Pour mon art c'est dans le lard que je taille mon chemin Refrain x2 Hey rho fous le son à fond dans la stéréo C'est La Garde au micro et tu sais que c'est chaud Quand ça rentre dans l'lard c'est parce qu'il le faut Si le son est brut frérot Analyse les nuances un flow qui se danse c'est insensé Ni prudence ni style vont te sauver Danse dessus, c'est ce que je préconise, fils c'est ma shit C'est ma putain de vie Hip Hop ma devise Et je rends hommage à ceux qui ont tenu le coup mec on sait qu'c'est Pas toujours évident de percer, les dents acérées Rho, DJ joue les bons titres que je kiffe Ça a changé mon avenir aujourd'hui je mack Comme un pimp de 7O Funky comme Biz J'ai la rage dans le mic swing les assonances dans la partie Avec speed l'ego trippin' j'ai trop de victimes Fait effet caféine sur le public, c'est l'Enc Et son son de dingue select, next c'est la guerre Dans l'lard mes textes ma tête finit la fête mec Refrain Hey rho fous le son à fond dans la stéréo C'est La Garde au micro et tu sais que c'est chaud Quand ça rentre dans l'lard c'est parce qu'il le faut Si le son est brut frérot La Garde un toast porté à ceux qui l'on cru les bougres Gesticulent entre les dents du temps qui a toujours les crocs Diseur d'images sombres juvre dans l'ombre telle une goutte d'eau Sous des trombes d'encre j'inonde irrigue je remue ceux qui jettent leur ancre Jusqu'au cou mais conscient même battu jusqu'au sang je tiens le coup Mais bon sang dur de rester debout jusqu'au bout Dans l'lard fils c'est comme ça qu'on fait sinon ils t'entendent pas Ils te voient pas ils savent pas qui t'es faut que ça change ça Ça, ça fait une paye qu'on représente et ça change quoi ? Tout quand les potos dans les concerts Jump Jump sur ça Foxafile quand chaque fois je rempile Te biles pas On se lasse pas Shurik'N Faf Larage Dans l'lard c'est La Garde on meurt mais on se rend pas Trop haut le niveau pour les MCs je kiffe pas C'est ça dans l'lard, déblaye le terrain pour les braves Des lyrics qui taillent C'est ça dans l'lard !</t>
+          <t>Dans ces chemins où on se perd, où beaucoup sont à la traîne On en oublie lessentiel sur cette Terre, demande pardon Y a plus la place pour penser aux autres Alors qui sera là pour les nôtres ? En 2007 les gens ont peur, les gens ont froid, en ont marre de la merde Celle même que l'on continue à générer même Si ça nous coûte, nous bouffe, y a plus de limites On l'élève à un rang où revenir en arrière devient impossible Le danger c'est l'homme et ses excès de conduite Jen suis un alors ma conscience guide ma zik Je demande pardon pour tout ce que jai fait de mauvais Ce que jai pas fait quand il le fallait Des notes non publiées et dans les cahiers de nos vies Trop de ratures ont sévi, de larmes inassouvies Je te connais pas, mais arrête, je sais qu'au fond de toi c'est pareil Depuis l'enfance on apprend tous à vivre avec nos faiblesses De l'autre côté du globe on se blesse Nous on laisse, pardon pour ces gosses qui vivent le stress La liberté au bout du canon, et pas question de sagesse Au loin, le sang bout plus que de raison Je te demande pardon sérieux pour les fois Où devant mon écran je t'ai vu souffrir sans le son Où dans la rue parmi les klaxons sans un rond C'est nous qui devrions avoir honte pour de bon x2 Dans ces chemins où on se perd, où beaucoup sont à la traîne On en oublie lessentiel sur cette Terre, demande pardon Y'a plus la place pour penser aux autres Alors qui sera là pour les nôtres ? Il faut que tu nous excuses de n'être que des humains Des machines paradoxales avec beaucoup de craintes Je demande pardon pour nos curs de pierre Quand la colère ronge le cerveau, prêt à faire mal, quitte à frôler l'Enfer Quand les lames et les revolvers opèrent Parce que dans la tête y a plus rien qui espère Pour la misère de nos pères et nos mères Dire si on les aime avant de quitter cette Terre Pour les mauvais choix, les paroles en l'air L'air de rien quand on méprise sans en avoir l'air Tu le sais, j'ai pas le pouvoir de tout changer Je fais pas la course au vote mais je suis en quête de vérité Et pour ce que mon pays t'a fait, tu sais j'étais pas né On en paye tous les conséquences, on va pas esquiver Je te demande pardon pour leurs promesses Pour leur commerce qu'ils t'infligent en mon nom Ici on est trop occupés à se bouffer Ils nous foutent dans la merde avec succès pour oublier Pardon pour être là à regarder sans bouger, pire t'écraser pour exister x2 Dans ces chemins où on se perd, où beaucoup sont à la traîne On en oublie lessentiel sur cette Terre, demande pardon Y'a plus la place pour penser aux autres Alors qui sera là pour les nôtres ?</t>
         </is>
       </c>
     </row>
@@ -1104,12 +1104,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Délires en vrac</t>
+          <t>Déterminé</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>OK mec c'est quoi tes ambitions? On s'en cogne! Avoir du fric pour le dépenser chez ceux qui te contrôlent On est des bufs cherche pas On peut pas refaire le monde C'est pas notre destinée, on n'est pas fait pour ça Alors c'est quoi? Payer des factures, galérer dans la rue Se prendre la tête sur nos sorts, c'qu'on endure J'ai pas les couilles de m'investir si au bout y a pas de profit 68 c'est fini, 9-8 ce qui prime... L'économie, l'ère des comptes en banque arrive On te l'intègre chaque jour dans ta tête fils Tu marches ou tu crèves, 9-9 des courbes exponentielles Pour commenter la merde et les séquelles C'est toujours les mêmes qui raquent Toujours les mêmes qui crachent Toujours les mêmes qui font en sorte que tu restes en bas Des fois on sort la tête de l'eau et tant mieux Moi j'ai ma musique, si on m'l'enlève je suis une merde sérieux Mais l'flouze revient au même endroit, fils t'as rien à toi Regarde ta vie faite de crédits et de prêts si t'as d'la chance On croit s'en être sorti Tellement que les mecs qui font la manche on les dégage avec le sourire C'est pas qu'on les hait mais c'est trop proche de c'qu'on peut devenir Ça rassure de voir qu'y a pire, alors vaut mieux en rire J'aurais aimé être un leader, illusions Les vrais leaders ils s'font tous buter à la fin, fils c'est pas bon Toute façon j'ai envie de suivre personne, mais Si j'me bats aujourd'hui, c'est clair c'est pas moi qui vais en profiter La vie c'est le vier, j'essaie de m'raccrocher à quelques principes Style vieux jeu sans m'faire bouffer Trop cool? On t'bouffe! Trop con? On t'bouffe! Trop gentil? Trop fier? On t'bouffe! Alors... Délires en vrac Délires en vrac Délires... Délires en vrac Peace Love on en rigole, c'est dire s'ils nous ont eus J'suis pas fou, je veux ma part de rêve, on m'donne du fil à retordre Casse tout, fout l'souk, et pour qu'on s'intéresse à nous On braque le type du dessous C'est pas la solution, mais on s'en fout pauv' con Pas vu pas pris Pour survivre faut des fonds Y a des gens pas nets, des gens honnêtes Des gens même qui s'prennent la tête, des gens bêtes Et faut faire avec Y a des gosses qui tirent pour le délire, c'est chaud En taule ils s'rendent compte que c'est pas rigolo Et c'est pas rigolo, non c'est pas rigolo Quand quelqu'un se prend une balle ça n'a rien de réglo Symptômes de la misère? Mal de vivre? On n'est pas en guerre, si, mais faut pas s'tromper de cible Si on s'livre, si on abandonne ils auront gagné Mais qui? Ceux qui tiennent les rênes que tu vois jamais On nous laisse croire que le remède c'est l'boulot Mais la plupart des chômeurs jouent tous au Loto, vrai ou faux? C'est n'importe quoi Mais quand on voit les projets foireux de l'Etat Putain du fric y en a Y a pas d'fauteuil pour deux T'façon j'ai pas envie de partager l'mien avec un bourge fier et péteux Hors jeu, pas question de vendre mon cul pour être accepté Pas question y a trop de cons qui l'font et c'est Normal quand tu l'ouvres on te noie À cause de cela y a plus personne qui se bat Le sexe, un des rares moments Où tu déconnectes vraiment C'est simplement humain et encore j'reste sceptique Y a trop d'maniaques, trop d'pourris Trop de merdes qui viennent te gâcher ça aussi On devient méfiant, égoïste, individualiste Tout est programmé fils C'est comme ça qu'ils nous fixent Pose la question, le bout d'tout ça c'est pas net Est-ce qu'on est là pour engraisser 5 d'la planète? Tout le monde veut sa part du gâteau, à part tes scrupules Ton âme, qu'est ce que t'as à perdre poto? À quoi bon philosopher, y en a qui prévoient l'apocalypse Je veux accomplir ma tâche avant le sinistre</t>
+          <t>On va le dire comme ça, à l'ancienne Détermination, j'ai trop besoin d'elle ... Faudrait que tu m'attaches et me baillones, faudrait que tu m'emp ...</t>
         </is>
       </c>
     </row>
@@ -1121,12 +1121,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Demande Pardon</t>
+          <t>Déterminé (intro)</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Dans ces chemins où on se perd, où beaucoup sont à la traîne On en oublie lessentiel sur cette Terre, demande pardon Y a plus la place pour penser aux autres Alors qui sera là pour les nôtres ? En 2007 les gens ont peur, les gens ont froid, en ont marre de la merde Celle même que l'on continue à générer même Si ça nous coûte, nous bouffe, y a plus de limites On l'élève à un rang où revenir en arrière devient impossible Le danger c'est l'homme et ses excès de conduite Jen suis un alors ma conscience guide ma zik Je demande pardon pour tout ce que jai fait de mauvais Ce que jai pas fait quand il le fallait Des notes non publiées et dans les cahiers de nos vies Trop de ratures ont sévi, de larmes inassouvies Je te connais pas, mais arrête, je sais qu'au fond de toi c'est pareil Depuis l'enfance on apprend tous à vivre avec nos faiblesses De l'autre côté du globe on se blesse Nous on laisse, pardon pour ces gosses qui vivent le stress La liberté au bout du canon, et pas question de sagesse Au loin, le sang bout plus que de raison Je te demande pardon sérieux pour les fois Où devant mon écran je t'ai vu souffrir sans le son Où dans la rue parmi les klaxons sans un rond C'est nous qui devrions avoir honte pour de bon x2 Dans ces chemins où on se perd, où beaucoup sont à la traîne On en oublie lessentiel sur cette Terre, demande pardon Y'a plus la place pour penser aux autres Alors qui sera là pour les nôtres ? Il faut que tu nous excuses de n'être que des humains Des machines paradoxales avec beaucoup de craintes Je demande pardon pour nos curs de pierre Quand la colère ronge le cerveau, prêt à faire mal, quitte à frôler l'Enfer Quand les lames et les revolvers opèrent Parce que dans la tête y a plus rien qui espère Pour la misère de nos pères et nos mères Dire si on les aime avant de quitter cette Terre Pour les mauvais choix, les paroles en l'air L'air de rien quand on méprise sans en avoir l'air Tu le sais, j'ai pas le pouvoir de tout changer Je fais pas la course au vote mais je suis en quête de vérité Et pour ce que mon pays t'a fait, tu sais j'étais pas né On en paye tous les conséquences, on va pas esquiver Je te demande pardon pour leurs promesses Pour leur commerce qu'ils t'infligent en mon nom Ici on est trop occupés à se bouffer Ils nous foutent dans la merde avec succès pour oublier Pardon pour être là à regarder sans bouger, pire t'écraser pour exister x2 Dans ces chemins où on se perd, où beaucoup sont à la traîne On en oublie lessentiel sur cette Terre, demande pardon Y'a plus la place pour penser aux autres Alors qui sera là pour les nôtres ?</t>
+          <t>On va l'dire comme ça, à l'ancienne, détermination, j'ai trop b'soin d'elle Grâce au ciel, j'ai des ailes, chaque fois qu'on m'freine, je r'pars de plus belle On va l'dire comme ça, à l'ancienne, détermination, j'ai trop b'soin d'elle Grâce au ciel, j'ai des ailes, chaque fois qu'on m'freine, je r'pars de plus belle On va l'dire comme ça, à l'ancienne, ouais putain, Détermination!</t>
         </is>
       </c>
     </row>
@@ -1138,12 +1138,12 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Démon</t>
+          <t>Dezolation</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ALGÉRIE - Abis - Ademo - ADK - Aketo - Aladin 135 - Ashe 22 - Bakar - Bakyl - Bena - Benab - Bigflo Oli - Bilk - Bilton - Carlito - COR - Deen Burbigo - Demon One - Dioussa - Djadja - Doria - Dwen - El Matador - Espiiem - Freeman - Gambino - Gips - GLK - Grizzly 942 - Gueule dAnge - Haristone - Hayce Lemsi - Heuss l'Enfoiré - Hooss - Hornet La Frappe - Houari - Infinit - Jarod - Jayel - KD - Kofs - Koma - Krilino - La F - La Péee - Lacrim - L'Algérino - LAllemand - LIM - Médine - Mehdi Yz - Mess - Moha - Moha La Squale - Morad Scred Connexion - Mougli - Naps - Nemir - Nini Mess - NOR - N.O.S - RD - Rim'k - Rimkus - RK - Rocé - Rousnam - Sat - Scurl - Sifax - Sinik - Sofiane - Soolking - Soso Maness - Stony Stone - Volts Face - Wit - Worms T - YL - Youssef Swatt's - Zbig - Ziak - Zino ALLEMAGNE - Malty 2BZ - Sch ANDALOUSIE - Josas ANGOLA - Josman - Jova TLZ Clan - Sasuke - Stavo ARGENTINE - Bigflo Oli - Godié - Jazzy Bazz - Lonepsi - Keny Arkana - Rocé ARMÉNIE - Hyacinthe - Lefty - Missak BELGIQUE - Disiz - JeanJass - Stromae BÉNIN - Kohndo - Melopheelo - Ol Kainry - thaHomey - Zoxea BRÉSIL - Cacou - Esteban BURKINA FASO - Cassidy X-Men - Shone BURUNDI - Geeeko CAMBODGE - K.E.R - Malty 2BZ CAMEROUN - Bayass - Beendo Z - Benash - BR aka Block Rider - Brvmsoo - Cahiips - Cashmire - Dinos - Dosseh - Driver - Elh Kmer - Gambi - Ichon - Ill - Katana - K.Point - Lalcko - Lionceau - LMB - Mac Tyer - MC Jean Gab'1 - Mister V - Moyomola - Nakk Mendosa - Osirus Jack - P-dro - Pit Baccardi - Pulkra - Rafleur - Sasuke - Slkrack - T2R - Tayc - Tuerie - Vesti - WaiV - WeRenoi - Yamê - Yseult - Zefor CAP-VERT - Briganté - Bilouki - Jacky Brown - Stomy Bugsy - Zekwé Ramos CENTRAFRIQUE - Dany Dan - Jo Dalton - IPNDEGO - Leys CHILI - Flaco Mundo CHYPRE - Diam's COLOMBIE - Favé - Hippocampe Fou - Rocca - Tortoz COMORES - 100 Blaze - 1pliké140 - 3010 - Alonzo - ALR - Benito - Bné - Bouska - Croma - Elams - Djado Mado - Goulam - Guirri Mafia - HK - Houssein - I.K - Ikbal - Kolo La R - Mapess - Menzo - Mister C - MOH - Mous-k - Nini Mess - Noname - La M - Le Neh - Péké - Rayad - R.E.D.K - Rohff - S.TEBAN - Saf - So La Lune - Soprano - Sultan - Thabiti - Vincenzo - Cobralaz CONGO BRAZZAVILLE - Abd al Malik - Ben-J - Calbo - Doc TMC - Docks - Dry - G-Kill - IDS - Kamini - KLN - Koba LaD - Lino - Naza - Niska - Passi - Ppros - Siboy - Stos CONGO KINSHASA - Al Patch - Arma Jackson - Bazbaz - Bedjik - Beny - Bilouki - Black Brut - Blaz Pit - Bokalossa - Bolémvn - Bosh - Braki - Captaine Roshi - Cash Crime - Cheu-B - Chily - Cinco - Da Uzi - Dadju - Dalsim - Damso - Dasko - David Okit - Davinhor - Despo Rutti - Diddi Trix - Dorseaux - Douma - El9 - Enfantdepauvres - Escobar Macson - Fally Ipupa - Franglish - Frenetik - Fresh La Peufra - Gambino La MG - Gianni - Gradur - Green Montana - Grödash - Guy2Bezbar - IDS - Irvin - ISHA - Jaymax - JNR Slice - John Cruipy - Josman - HD La Relève - Kaflo - Kalash Criminel - Kaza - KeBlack - Kellzer - KLN - Kobo - Kodes - Kozi - Krisy - La Fève - LAFINANCIERE - Landy - Le Motif - Le Risque - Lee Boma - Leust - Leto - Leys - Maître Gims - Makala - MIG - Moka Boka - Nahir - Naza - Ninho - Noah Lunsi - Poison - Prototype - Rizno - Rozzy - Shay - Skodri - Stavo - S-Pi - Theodora - Tiakola - Tito Prince - Udeyfa - Uzi - Varnish La Piscine - Youssoupha - Zed - Zola CORÉE DU SUD - JOON Corse - Ademo - Furax Barbarossa - Jul - Makizar - N.O.S - Sat - PLK CÔTE D'IVOIRE - Abou Debeing - Ash Kidd - Bayass - Black Kent - Bolémvn - Brvbus - Cacahouète - Cacou - Cheu-B - D4R - Dave - Dehmo - Esteban - Fababy - Gaulois - Gouap - H Magnum - Hache-P - Jok'Air - Junior Bvndo - JSX - Kaaris - KT Gorique - Lala ce - Landy - Laylow - Le Juiice - Liim's - L.I.O - Mini - S-Pion - Sese Kepler - Tisco - Vegedream - Zefor ÉCOSSE - Nekfeu ÉGYPTE - Deen Burbigo - Houssbad ESPAGNE - A2H - Ateyaba - Caballero - Falcko - Le Rat Luciano - Tortoz GABON - Benjamin Epps - Juicy P - Vicky R GHANA - Take A Mic GRÈCE - Nekfeu - Youri Guadeloupe - Admiral T - AP 113 - Barack Adama - Brasco - Bridjahting - Doc Gynéco - Georgio - HVmanyy - JSX - Kodes - Laskiiz - Lybro - Malty 2BZ - Melopheelo - Salif - Timal - Veerus - Zoxea GUINÉE CONAKRY - 2V La KTL - Alpha Wann - Black M - Gazo - Guizmo - Doomams - Dr Beriz - Ibrak - Luv Resval - MHD - Nixon - Savage Toddy - Shotas - Slim C GUYANE - Hatik - Zikxo HAÏTI - Alibi Montana - Beeby - Gato - Kery James - Luidji - Mac Kregor - Noma - Obia le Chef - O'Rosko Raricim - Lawid - Shyno IRAN - Pejmaxx ITALIE - Akhenaton - Anton Serra - Ash Kidd - Freeze Corleone - Furax Barbarossa - Gambi - Gueule dAnge - Jazzy Bazz - Jeff le Nerf - Jolly - Ladea - Lomepal - Lonepsi - Lucio Bukowski - Michel - Nakry - Rozzy - Seth Gueko - Swift Guad JAPON - Beamer KOSOVO - GRËJ LANGUEDOC - Maska LIBAN - Abdallah - B.B Jacques - Cheu-B - Jeff le Nerf - Sese Kepler MADAGASCAR - A2H - Chilla - Faf Larage - Gazy MP - Guizmo - Kay The Prodigy - Oboy - Shurik'n - Tsew The Kid MALI - 13or - Amy - Couli B - Dabs - D.Ace - Dinero - Djeffi Jack - Douma Kalash - Doums - Dr Beriz - Elloco - Fresh La Douille - Jackmaboy - JR O Chrome - Kennedy - L'Skadrille - Mala - Mamso - Mokobe - Oxmo Puccino - Pispa - Salif - Saamou Skuu - SenSey - Sianna - Six Coups MC - Slimka - Still Fresh - Zeguerre - Guizmo - Yaro - Yuz Boy MAROC - Aladin 135 - ALI - Alrima - ATIK - Biwai - Canardo - CEZ - Demi Portion - Dibson - Djalito - Doria - Gros Mo - Hamza - Hi-Tekk La Caution - Houssbad - JeanJass - Jolly - Kamelanc - Kamikaz - Kekra - Khali - La Fouine - La M - Larry - Lartiste - Lazer MMZ - L.E.C.K - Leonis - Le S - Leso - Maes - Mister You - Moha MMZ - Mougli - Nessbeal - Niaks - Nikkfurie - Niro - OMR - Osirus Jack - Sasso - Sneazzy - Walid - YS - Zalmad - Zamdane - Zifou - ZKR Martinique - Bushi - Busta Flex - Casey - Fabe - Flaco Mundo - JoeyStarr - Kalash - Le Rat Luciano - OldPee - Meryl - Noname - Nubi - Tiitof - Youv Dee - Zesau NIGERIA - Mac Tyer - Take A Mic PALESTINE - Wit POLOGNE - 7 Jaws - Jarod - Jazzy Bazz - PLK - Shay - Wojtek PORTUGAL - Kool Shen Réunion La - 2V La KTL - Azur - Blacko - Bushi - Faf Larage - Mussy - Shurik'n - Ziak ROUMANIE - Gemen RUSSIE - Davodka - Rocé - Ruskov - Sadek - Seth Gueko - Tovaritch - Youri RWANDA - Gaël Faye - Mussy - Stromae - Swing SÉNÉGAL - Abou Tal - Aelpéachal - Alivor - Alpha 5.20 - Barack Adama - Bassirou - Bena - Booba - Captaine Roshi - Cifack - D.Ace - Dadinho - Disiz - Freeze Corleone - Graya - Guizmo - Ixzo - Joe Lucazz - JSX - La Rvfleuze - Lefa - Madrane - MC Solaar - MHD - Mortalla - Nanass - Norsacce Berlusconi - Ormaz - Prince Waly - Sam's - Sefyu - Slimka - S.Pri Noir - Tiers Monde - Youssoupha - Youv Dee - Zuukou Mayzie SERBIE - Swift Guad SEYCHELLES - A2H TCHAD - MC Solaar TOGO - Ateyaba - Dosseh - Franglish - Kossi - Samy - Sasso TUNISIE - 2zer - Aero - Adès - Alkpote - Badjer - Bilel - Bilk - Brulux - Dinaz - Farage - Gambino - Haroun - ISK - Kacem Wapalek - Kalash l'Afro - Mokless - Nakry - Tunisiano - Sadek - Selim du 9.4 - Sneazzy TURQUIE - Kvra - MRC - Oby One VIETNAM - Mademoiselle Lou YOUGOSLAVIE - Swift Guad9</t>
+          <t>On bloque tard le soir les yeux mi-clos Les poches vides, à rêver de kilos, entourés de minots La rue me berce au rythme des sirènes affolées Samu et Police sont de sortie pour le ballet File moi une latte enfoiré ! Ces putains de gosses avec qui je traine auront vite fait de mal tourner Je connais le film enfermé dans le cycle Ce putain de shit rend lucide à perdre la bille À 40 piges qu'est-ce que je fous au milieu des kids ? Coincés dans la tise, nos futurs, le trottoir c'est le Ritz ! Alimentation glauque, le spot, dealer entre potes Histoires de meurtres et de coke J'ai brassé les billets, côtoyé les piliers, vécu le crime sans me soucier Mais ma roue a mal tournée Les petits m'écoutent et se voient au sommet Derrière l'écran de fumée, la vérité, je suis toujours là à glander. Et ouais On a érigé en stars des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, désir d'évasion Cloué au sol planté, mauvaises relations On a érigé en star des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, besoin d'élévation Personne ne décolle de ce terminal Posté au coin de la rue, là où les chiffes s'échouent Où glissent mes shoes, évite les shoot Dévisse les coudes, ceux qui brisent les couilles t'entends ? Et la Police déboule, les bandes rivales se toisent et mobilisent les troupes Pendant que les voisins de palier économisent des couches Les revers du sort renversent la coupe Quand les tordus la relèvent c'est que le Démon y sert sa soupe On y connait les escaliers, les coins, les porches Pas les hommes, maintenant c'est la règle, on s'en bat des autres Je ne peux pas être de ce que les mômes encensent Et finir éteint, en sang, comme les étoiles de mon enfance Faire du mal aux autres, escroqué les potes Sans surprise un gars te mettra une lame aux côtes Le balai de la vie donne son pire gala Ce n'est pas sans danger quand on veut voir le nirvana On a érigé en stars des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, désir d'évasion Cloué au sol planté, mauvaises relations On a érigé en star des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, besoin d'élévation Personne ne décolle de ce terminal Posté au coin de rue, là où tout se passe, parmi les couche-tard Et les faux amis les mains salies par les coups de crasse Lunettes noires et nuit blanche Genre, les types souhaitent bonne chance puis sorte un carré d'as en trichant Instinctif à 15-20 piges tu te fais des films T'imagines plein plein de fric Et ça t'inspire tout à grande vitesse Première classe, tu veux ton billet pour ce train de vie Tu vois des liasses épaisses comme des rouleaux de P.Q Mais parle pas de retraite ou d'numéro de sécu C'est la démerde, trop étourdi par les drogues Ébloui par les chromes sur la B.M T'oublies les anciens qui regrettent leurs choix Au départ ils ont fait le même rêve Ils vivent le même cauchemar, toujours en bas de l'échelle Habités par la fatalité, écrasés par le poids de l'échec On a érigé en stars des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, désir d'évasion Cloué au sol planté, mauvaises relations On a érigé en star des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, besoin d'élévation Personne ne décolle de ce terminal</t>
         </is>
       </c>
     </row>
@@ -1155,12 +1155,12 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Déterminé</t>
+          <t>En Este Mismo Instante (en la Ciudad)</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>On va le dire comme ça, à l'ancienne Détermination, j'ai trop besoin d'elle ... Faudrait que tu m'attaches et me baillones, faudrait que tu m'emp ...</t>
+          <t>duplicidad Heiko A. Oberman. duplicidad Lutero Un hombre entre Dios y el diablo. Versión española de José Luis Gil Aristu Capítulo 1 UN ACONTECIMIENTO ALEMAN. 1. El príncipe elector Federico el Enigmático Estos alemanes son increíbles, opinaba el embajador de Venecia en la Dieta de Augsburgo en su informe del verano de 1518 a la Se ñoría. En ella pelean príncipes y diplomáticos a la búsqueda de un compromiso entre el Emperador y los señores territoriales en beneficio del bien común, pero la olla de rumores entre pasillos perturba estos esfuerzos y siembra la desconfianza por razones nimias la excusa es una disputa teológica en torno a las bulas. El embajador no habla de oídas ni de manera imprecisa puede citar incluso nombres los implicados son un monje llamado Lutero y un profesor de Ingolstadt, de nombre Johannes Eck. Resulta ridículo desviarse de la realidad por un asunto de bulas. Y, enseguida, el informe vuelve otra vez a la política. La república de Venecia, una potencia financiera, mercantil y marítima, que vive del libre acceso a todos los puntos del Mediterráneo, ve en juego intereses vitales. En el orden del día de la Dieta imperial aparece el penique de las cruzadas, el impuesto general del Imperio para la guerra santa, que ha de ser recaudado en los territorios alemanes y, sobre todo, en las florecientes ciudades, para que Occidente pueda defenderse por fin de forma decisiva y hacer frente con eficacia al peligro procedente del Este. Constantinopla, la antigua potencia en la vanguardia de la lucha contra los turcos, había caído medio siglo antes, en 1453, de manera que las tradicionales zonas de comercio de Venecia, Grecia y el Levante, estaban insuficientemente protegidas contra los asaltos del poder otomano. Por otra parte, Venecia se hallaba dentro del espacio vital de los estados de la Iglesia, agresivamente expansivos, y estaba por tanto ardientemente interesada en distraer la atención del Papa de Italia y contenerlo mediante una guerra en el Este. Un Emperador y un Papa ocupados en una cruzada contra los turcos serían los mejores protectores de la independencia de la República. El 28 de agosto de 1518, el emperador Maximiliano I firmó en Augsburgo un armisticio que debía poner un fin provisional a su enconada lucha contra Venecia. De ese modo tendría las espaldas cubiertas para llevar a cabo una cruzada contra el sultán. Pero el punto decisivo estaba en saber si los estamentos del Imperio otorgarían los impuestos necesarios para una guerra, pues Maximiliano se hallaba endeudado hasta el límite de la bancarrota estatal. De todos modos, en el asunto del penique contra los turcos el Emperador podía contar con el total apoyo de Roma. El papa León X había enviado como legados suyos a la Dieta imperial a dos miembros de alto rango del colegio cardenalicio uno era Mattháus Lang, hijo de una familia burguesa de Augsburgo y confidente de la casa habsburguesa el otro legado, Cayetano, llamado así por su lugar de nacimiento, Gaeta, procedía de Italia, y su principal cometido era el de ayudar a superar la oposición claramente perfilada en contra del impuesto de la Cruzada. El italiano no llegaba con las manos vacías. El 1 de agosto de 1518 entregó en Augsburgo al joven príncipe elector Alberto de Brandeburgo, arzobispo de Maguncia, solemnemente y gratis las enseñas del cardenalato. También se tuvo en cuenta a Mattháus Lang. Cayetano le confirmó por encargo del Papa la candidatura a la sede de Salzburgo, uno de los más importantes arzobispados alemanes. Finalmente, en la tarde de este festivo primero de agosto, también el Emperador se vio altamente honrado y comprometido. Cayetano le entregó el sombrero y la espada benditas, símbolos del caballero cruzado cristiano. Sin embargo, cuando el 5 de agosto el cardenal abordó en un discurso en latín el meollo de la cuestión y abogó por la cruzada contra los turcos, se había esfumado cualquier rastro de la eficacia de estos distintivos papales. Los representantes del Imperio ni siquiera se mostraron corteses, sino que presentaron con vehemencia los antiguos gravamina y expusieron las quejas de la nación alemana, sobre todo en lo referente a la política impositiva de la Iglesia, contra las intromisiones de Roma en los derechos de los estamentos soberanos y contra el interminable trapicheo practicado por la curia con los beneficios de la iglesia alemana no había carrera cuyos caminos no pasaran por Roma! Federico el Prudente, señor territorial del electorado de Sajonia, aparece en vanguardia cada vez que se trata de la liberación de las pretensiones del poder espiritual. Entre ellas no se cuenta sólo la lucha contra las constantes intromisiones en los derechos soberanos de los príncipes por parte de la curia también se deberá poner coto al gobierno de los obispos locales, en competencia con el de los señores territoriales. Los príncipes tenían aún que combatir por aquello que muchas ciudades imperiales libres ya habían logrado la independencia respecto a los derechos de soberanía secular de la Iglesia. En 1518 el asunto de Lutero, apenas tenido en cuenta fuera de Alemania, fue en Augsburgo uno más entre muchos otros puntos conflictivos en el marco de estos enfrentamientos en torno al gobierno de la Iglesia en los territorios alemanes. A Cayetano, el legado cardenalicio romano, se le encomendó la tarea de encontrar una solución para el caso Lutero , que salvaguardara los derechos de Roma en el punto central de la soberanía de la Iglesia, sin provocar al príncipe elector de Sajonia. De ese modo, entre el 12 y el 15 de octubre de 1518 tras la conclusión de la Dieta imperial tuvo lugar en la casa de los Fugger en Augsburgo el primer y último interrogatorio al que se habría de someter Martín Lutero. Cayetano había dicho anteriormente al príncipe elector que se comportaría como un padre y no como un juez. Pero todos sus esfuerzos fueron vanos y las artes de convicción tuvieron tan poco efecto como las palabras duras. Al final, el legado no tuvo más remedio que constatar que el fraile debía ser tratado como hereje, pues no estaba dispuesto a doblegarse ante la Iglesia y retractarse. Con esto Cayetano dio por concluido el asunto. De acuerdo con su promesa, no había hecho apresar al monje de Wittenberg, a pesar de su terquedad, y, tal como había aconsejado el Papa, emitió una sentencia cuya ejecución se solicitaba insistentemente de Federico Exhorto y ruego a vuestra Alteza que atienda a su honor y a su con- ciencia y ordene al hermano Martín acudir a Roma o lo expulse de sus dominios. Vuestra Alteza no debería permitir que, por culpa tan sólo de un frailecillo propter unum fraterculum , cayera semejante infamia sobre el honor de su familia l. El embajador de Venecia y el legado del Papa estaban extrañados por igual de que una Dieta imperial alemana se dejara influir por tales asuntos sin importancia y que el ridículo parloteo de los monjes distrajera a un príncipe elector hasta el punto de perder de vista las necesidades de la política. Típicamente alemán impensable en otras partes! Típicamente romano así expresaba la parte contraria su malestar. Ya tenemos otra vez a los astutos güelfos dispuestos a servirse de nosotros, los tontos alemanes, para sus intereses. El conjunto de toda una Dieta imperial, al igual que un elector particular, se debía a los intereses políticos de Alemania y no a los de Roma. Desde el punto de vista de los estamentos imperiales, la emancipación de la curia era una de las exigencias nacionales irrenunciables que se debía imponer de una vez por todas. Los príncipes territoriales, sobre todo Federico, entendían la política en un sentido más amplio que hoy. La política no tiene que ver sólo con el bien común secular, sino también con los requisitos y condiciones para la salud eterna de los habitantes de las ciudades y del campo. Esa fue la razón de que Lutero pudiera dirigirse en agosto de 1520 con su escrito político más famoso A la nobleza cristiana de la nación alemana . Las autoridades de este mundo encontraron en él el fundamento bí blico para su responsabilidad en el cuidado de su territorio y su iglesia territorial, practicada de antiguo quien, fiel a Roma, abandone el bienestar de la Iglesia en manos de las cortesanas , de los hombres de la curia, lesiona sus deberes de príncipe cristiano. Federico el Prudente y su hermano Juan el Constante, príncipes electores de Sajonia Cayetano no demostró demasiada habilidad al apelar a los antepasados de Federico, pues, ya antes de la división de los territorios de Sajonia en 1485, la casa soberana de los Wettin había intervenido abiertamente contra las pretensiones jurisdiccionales de la jerarquía eclesiástica. Antes de que Lutero atacara de forma aparentemente revolucionaria los derechos del Papado en sus tesis sobre las indulgen cias de octubre de 1517, el elector de Sajonia, Federico II, había limitado sensiblemente los derechos del Papa a la distribución de indulgencias. Cuando en 1458 el papa Calixto III promulgó indulgencias contra los turcos, Federico II pasó al ataque. El legado romano debió declarar su conformidad con la transferencia de la mitad de los ingresos a las arcas del elector. Las medidas de control destinadas a asegurar un reparto justo de los cobros entre el Papa y el Estado demuestran la escasa confianza del señor territorial en el legado pontificio. Todo el dinero se guardaba en grandes cajas penitenciales , provistas cada una de ellas de dos cerraduras que sólo podían abrirse con la llave de los consejeros municipales encargados de tal función. Para que todo el dinero llegara efectivamente a estos depósitos de los ingresos por indulgencias, el príncipe asignaba al legado papal un controlador, cuyos informes solían confirmar plenamente la desconfianza del soberano 2. A comienzos del siglo, cuando Sajonia llevaba ya diecisiete años dividida, los señores territoriales, el elector Federico el Prudente por un lado y el duque Jorge el Barbudo, por el otro, supieron defender de diversas maneras sus intereses en la cuestión de las indulgencias. Así, en 1502 se promulgó nuevamente una bula con indulgencias contra los turcos ambos soberanos ordenaron la total incautación de los ingresos al comprobarse que, una vez más, la campaña contra los turcos se quedaba en nada. Este tipo de incidentes explica que el frailecillo no desapareciera de la escena alemana sin decir ni pío. Sin embargo, por qué el prudente Federico tomó partido por Lutero de forma semejante? Su no a Cayetano vinculó sus tierras con la Reforma para las duras y las maduras en los siguientes años, hasta el punto de que, al final, su nieto Juan Federico acabó perdiendo la dignidad de elector al tener que firmar el 19 de mayo de 1547 la capitulación Wittenberg, tras su aniquiladora derrota contra el Emperador en las guerras de religión. Iglesia del castillo de Wittenberg, en cuya puerta fueron clavadas las tesis el 31 de octubre de 1517 Portada del libro Wittenberger Heiltumsbuch, catalogo de la colección de reliquias reunida por Federico y Juan en la iglesia del castillo de Wittemberg impulsados por la preocupación por la salvación de sus súbditos. En él se recogen datos precisos sobre las indulgencias que allí podían ganarse. La obra fue ilustrada por Lucas Cranach el Viejo, Wittemberg, 1509. Ninguna respuesta puede pasar por alto el hecho de que Federico actuó como un príncipe territorial cristiano. Las convicciones religiosas señalan los límites de su capacidad de compromiso y se muestran como factores de su política de Estado. No se ha de olvidar que estos factores, que hicieron posible al principio la reforma del electorado de Sajonia, fueron también causa de la catástrofe militar. El 24 de abril de 1547, el príncipe elector fue sorprendido en Mühlberg por las tropas imperiales porque éstas habían logrado avanzar hasta las orillas del Elba sin ser observadas, pues Juan Federico había dado preferencia al servicio divino sobre el militar, ordenando retirar todos los puestos de vigilancia que podrían haberle informado de los movimientos del Emperador. La imagen del príncipe orante, convencido de que él y su ejército están protegidos por Dios, tiene su modelo en la conformidad de Federico el Prudente durante la guerra de los campesinos Si Dios lo quiere así, el hombre común acabará gobernando. Pero si no es su voluntad y no está previsto de esa manera en alabanza suya, pronto cambiarán las cosas 3. Así se lo hace saber el anciano príncipe elector a su impaciente hermano, el duque Juan, el 14 de abril de 1525, a menos de un mes de su muerte, que ocurriría el 5 de mayo. La confianza en la providencia está en contradicción con la fe reformista. Los duros escritos del reformador en contra de los campesinos, junto con las condenas por el derramamiento de sangre por las hordas de éstos, constituyen al mismo tiempo una fuerte crítica dirigida a los príncipes que no actúan con confianza sino con abandono. Contar con que Dios dirige la historia y con su juicio condenatorio es un asunto que pertenece al ámbito de la fe y no exonera al señor territorial del deber de cumplir con las tareas propias de su función de príncipe y prestar fielmente sus servicios por el breve plazo concedido hasta el momento final de los mismos en este mundo. Donde quiera que se manifiestan con claridad las creencias de Federico, resulta perceptible su distanciamiento de la Reforma, y Lutero las combatió abiertamente. Muy poco después del estallido del conflicto por las indulgencias, éste abrió un frente contra cierto tipo de culto a los santos falso, poi egoísta 4 con ataques claros contra la colección de reliquias de la iglesia del palacio de Wittenberg, que eran el orgullo de Federico. En el año 1523, al concluir su esbozo de nueva liturgia, la Formula Missae, Lutero puso en evidencia y provocó a su señor territorial ante todo el mundo, al hablar de los malditos intereses financieros del príncipe, quien con su colección de reliquias había degradado su iglesia palaciega, llamada de Todos los Santos, o, mejor, de todos los demonios 5, hasta convertirla en una fuente de dinero. Semejante afirmación no hacía justicia a Federico. Es extraño que Federico, atacado siempre tan duramente, asegurara y garantizara a Lutero su libertad de de acción, a pesar de todas las tormentas provocadas por su controvertido profesor universitario y de su desagrado ante más de un defensor radical de la Reforma. Al final de sus días, en el lecho de muerte, dio testimonio público de su alejamiento de la antigua fe al hacerse ofrecer en el sacramento de la cena pan y vino, en contra de la doctrina papal, siguiendo la institución de Cristo según las enseñanzas de Lutero. Seguramente no fue en contra de la última voluntad del fallecido el que se llamara al hereje desterrado para que modificase la liturgia funeral de acuerdo con ios principios de su nueva organización de os servicios divinos y pronunciase el discurso fúnebre. De ese modo, Federico el Prudente fue llevado a la tumba el 11 de mayo de 1525 con más innovaciones de las que estuvo dispuesto a aceptar en vida. Este príncipe ha sido considerado tan enigmático por la posteridad como por sus contemporáneos. Reservado y tímido, vacilante en su acciones hasta la incapacidad para tomar una decisión, nada dispuesto a imponerse y mucho menos a dejarse imponer, pero que en el momento de su muerte marcó un hito del que ya no habría posibilidad de retroceder. Quién fue este hombre? Aparece como una figura que oculta sus rasgos en lo individual y personal el historiador ha de apoyarse en la imagen que el príncipe había cuidado con esmero y utilizado como medio en sus enfrentamientos políticos. Fue un príncipe territorial alemán medieval y no un soberano ni, por supuesto, un gobernante absolutista sin embargo, estuvo tan convencido de su propio mundo de valores y fue tan consciente de sus obligaciones que no permitió que nadie le discutiera su responsabilidad por el bien temporal y la salvación eterna de sus súbditos, ni la curia de Roma, ni la corte imperial ni tan siquiera aquel doctor Lutero. Constantemente insiste en que, como lego en la materia, no entra en juicios sobre la rectitud de la teología de Lutero, pero al mismo tiempo deja bien claro que la excomunión papal no le demuestra la culpa del doctor. En la lucha partidista Federico fue un perfecto príncipe cristiano, interesado por el bienestar y la felicidad de sus vasallos. El gobierno señorial de la Iglesia no es el resultado de la Reforma, sino que ya apadrinó sus inicios. 2. La situación en el Imperio Lutero describió a Federico como el gran vacilante por otra parte, esta imagen es el producto de una visión tardía y surge siempre por comparación con el apoyo que le prestaron los sucesores de Federico, Juan el Constante y, sobre todo, Juan Federico el Magná nimo. El electorado de Sajonia debió agradecer precisamente a las vacilaciones de Federico el Prudente el poder superar los difíciles años de la amenaza de su aislamiento en el Imperio y el que la Reforma lograra sobrevivir incluso sin el apoyo de los estamentos alemanes. Juan Federico el Magnánimo, príncipe elector de Sajonia, generoso patrocinador de Lutero. En 1547 perdería su electorado a causa de su adhesión a la Reforma. Xilograbado de Lucas Cranach el Viejo, c. 1533. Sin la intervención de Federico y sus consejeros, el mismo interrogatorio de Lutero por parte del cardenal Cayetano no habría tenido lugar en suelo alemán, en Augsburgo, sino en Roma. Sin la tenacidad del elector, el movimiento evangélico habría concluido en el año 1518 y se habría visto relegado, como mucho, al distante recuerdo de un capítulo de la historia de la teología. No habrían existido la figura genial ni el reformador que fue Lutero, sino sólo un hereje que había conseguido que se hablara de él por un tiempo cuando, de manera similar al bohemio Juan Hus y al florentino Jeró nimo Savonarola, llamó la atención sobre la secularización de la Iglesia. El fenómeno de Lutero habría sido de tan escasa repercusión que la complaciente curia romana podría haber planteado con toda tranquilidad la revisión de su proceso. Pero no fue así. La corte sajona desconfió desde el primer momento de la condena de Lutero por cortesanos y mendicantes romanos y no consideró en absoluto probado que el profesor de teología de la universidad de Wittenberg hubiera enseñado doctrinas heréticas. Por otro lado, cualquier intento de solucionar la cuestión luterana fuera de Alemania, en Roma, pasaba por ser una intromisión en la soberanía jurisdiccional de los señores territoriales. El mismo Lutero vio los peligros que comportaba semejante política para el país y planteó al elector la propuesta, bien acogida en un primer momento, de abandonar Sajonia para no comprometerlo y devolver a su polí tica la libertad de acción. El 1 de diciembre de 1518 estaba tan pró xima la hora del exilio que sus amigos de Wittenberg se reunieron para la despedida. En ese momento, mientras Lutero se hallaba con sus invitados despidiéndose de buen humor , llegó la notificación contraria Si el doctor está aún aquí, no debe abandonar en ningún caso el país, el príncipe elector tiene que tratar con él un asunto importante 6. Lutero se había convertido en objeto de la política de Estado. La cancillería del elector podía replegarse a las posiciones de neutralidad, sin necesidad de prolijas declaraciones de principio. El juramento doctoral de Wittenberg, prestado también por Martín Lutero el 19 de octubre de 1512, contenía, junto con la prohibición de difundir doctrinas heréticas, el deber de mantener las libertades y privilegios de la facultad de teología. Estas incluían expresamente el derecho a disputar libremente y sin trabas sobre cuestiones de interpretación de las Escrituras. En su informe de diciembre de 1518, la universidad de Wittenberg había confirmado que tal derecho se adecuaba exactamente a las noventa y cinco tesis de Lutero 7. Cuando en el verano de 1519 se debatió en Leipzig ya no en el territorio electoral, sino en el ducal de la Sajonia dividida el delicado problema de la autoridad del Papa, Lutero estuvo plenamente de acuerdo con su contrincante Johannes Eck, su primer opositor ale- mán, que lo seguiría siendo durante toda su vida, sobre el principio de la libertad de disputa. El señor territorial, el duque Jorge, pudo llevar adelante esta disputa con el apoyo unánime de ambos partidos, tanto contra el voto negativo del obispo titular como contra los temores de la facultad de teología de Leipzig. El príncipe elector Federico trató desde el principio la cuestión de Lutero como el caso Lutero y evitó todo cuanto pudiera presentarse como favoritismo. Nunca se entrevistó personalmente con éste y jamás hizo declaraciones sobre los contenidos de la nueva teología. Hasta el momento del edicto de Worms 26 de mayo de 1521, con el destierro de Lutero por parte del Emperador, Federico logró mantenerse en esta posición de no tomar partido. Una toma de partido no habría conseguido proteger con más eficacia al profesor de Wittenberg. Con la misma efectividad reaccionó el vacilante Federico al juicio papal sobre Lutero. El 15 de junio de 1520, el papa León X firmó la bula Exsurge Domine, donde se le amenazaba con la excomunión. En ella se presentaban cuarenta y una frases de las obras de Lutero que podían ser tachadas de heréticas, escandalosas y falsas. El teólogo de Wittenberg contaba con sesenta días para someterse al transcurrir el plazo sin retractación, Lutero fue definitivamente excomulgado el 3 de enero de 1521. Con la promulgación de la bula de excomunión Deceí Romanum Pontificem, el caso Lutero había llegado a su fin como todos debían esperar. Se había cerrado el proceso eclesiástico y todo lo demás eran meros apéndices administrativos la entrega al brazo secular y, finalmente, la ejecución. Por qué no se llegó a lo que, según el derecho imperial y eclesiástico, debía habese producido? Desde la Dieta de Augsburgo de 1518 habían sucedido muchas cosas que abogaban en contra del éxito del caso Lutero. En una frase de pasada de su informe sobre la amonestación paternal el cardenal Cayetano había apartado a un lado, por así decirlo, el argumento decisivo del derecho a la libre disputa Aunque fray Martín ha puesto a debate sus ideas en tesis de disputa académica, tales tesis han sido proclamadas por él como resultados concluyentes en sus sermones, incluso, según se me ha comunicado, en lengua alemana 8, llegando a oídos de todos, incluso a los del pueblo necio! Había abusado del derecho de disputa, ha ciéndose indigno de él en el futuro sólo decidiría la valoración del contenido de las tesis de Lutero. Sin embargo, Cayetano se precipitó al exponer los fundamentos de la sentencia. Su exposición resulta dañada por una curiosa duplicidad las tesis de Lutero atenían por un lado contra las enseñanzas de la Santa Sede y, por otro, son heréticas 9. Este doble razonamiento no es extraño sólo desde la perspectiva actual del Papado. Al parecer, Cayetano había adoptado la línea de argumentación del electorado de Sajonia que se remitía a la prueba escrituraria la teología de Lutero se opone a la Escritura y, por tanto, se ha de condenar por herética totalmente al margen de si atenta contra la autoridad papal. El legado de Roma se adentraba de esa manera por caminos que podían haber acabado por ser mortales para Lutero. El príncipe elector replicó en ese escrito al cardenal que en Sajonia había muchos eruditos que no estarían de acuerdo con la sentencia condenatoria contra Lutero. Sólo cuando se demostrara efectivamente que Lutero era hereje, sabría él, su señor territorial, actuar con la ayuda de Dios y sin presiones externas, según su honor y su conciencia 1 Pero qué ocurre si se prueba la herejía de Lutero y resulta ya imposible basarse en el resentimiento alemán antirromano? El escrito del elector es lo más contrario a la adopción de una postura diplomática cauta, que no obligaría a nada y mantendría abiertas todas las salidas. Desde nuestra perspectiva actual, el año 1518 forma parte de la fase temprana de la historia de la Reforma y una decisión como la adoptada por el elector frente a Cayetano parece, por la misma razón, precipitada Sin embargo, los contemporáneos calibraron los acontecimientos de manera diversa para ellos, el interrogatorio de Lutero formaba parte del período tardío del movimiento reformista que mantenía en vida a la Iglesia desde hacía un siglo, desde el Concilio de Constanza 1414-1418, y tenía soliviantada a Alemania. Las decisiones no pueden aplazarse perennemente en la respuesta a Cayetano habla el señor territorial convencido de su autoridad, que conoce lo decisivo del momento en la lucha por la reforma de la Iglesia y actúa, por tanto, como príncipe cristiano en aquello que le compete si se descubre que es un hereje, Martín Lutero será sentenciado pero si es un reformador incómodo para la curia, permanecerá en su cargo y sus honores. Lutero comprendió la importancia de esta respuesta en cuanto su amigo y alumno Georg Spalatin, consejero secreto del príncipe, recibió una copia del escrito para su lectura En su debido momento aprenderá también él que el poder secular proviene igualmente de Dios... Me siento satisfecho de que el príncipe elector haya mostrado en este asunto su paciente y sabia impaciencia n. 3. La victoria electoral del rey Carlos El caso Lutero no se habría convertido en un acontecimiento alemán, sino que habría tenido un final, nada dramático como mero contratiempo sajón, en el verano de 1520, a más tardar, si la influencia del príncipe elector no hubiese aumentado de la noche a la mañana de forma considerable. La muerte del emperador Maximiliano I en las primeras horas del día 12 de enero de 1519 en la localidad austríaca de Wels, no lejos de Linz, alteró fundamentalmente la situación política en el Imperio. En la Dieta de Augsburgo, la última a la que asistió, Maximiliano enfermo ya de gravedad había abogado decididamente por la elección de su nieto Carlos como rey de romanos y alemanes. Su muerte y el juego de intrigas puesto inmediatamente en acción, las luchas diplomáticas y no tan diplomáticas en torno a la sucesión de Maximiliano, no decidida aún en Augsburgo de forma definitiva, intervinieron en el decurso normal del asunto de Lutero. Justo en este momento, en plena batalla electoral, el proceso romano de herejía pasó a ser un asunto alemán. Retrato del emperador Maximiliano I difunto. El Emperador había ordenado que se azotara su cadáver, se le cortara el pelo de la cabeza y se le arrancaran los dientes. Es i el pecador que va a presentarse ante Dios. La respuesta astuta, segura, pero no insolente, de Federico, transmitida de inmediato a Roma junto con la posición de Lutero, fue su última oportunidad de aplazar la cuestión. Una vez dictada sentencia en Roma, no habría podido seguir protegiendo al fraile ni habría querido hacerlo, de acuerdo con sus propios y manifiestos principios, pues entonces contaría con un dictamen de la autoridad eclesial suprema. Sin embargo, la muerte del Emperador modificó las posiciones, también para Roma. El período transcurrido sin Emperador tenía como consecuencia un vacío de poder durante el cual los electores incrementaban su importancia más allá de sus propios territorios. La elección del rey germánico, según lo había determinado la ley imperial de la Bula de Oro de 1360, quedaba en manos de siete príncipes, llamados electores por ese derecho los arzobispos de Maguncia, Co lonia y Tréveris, y los señores seculares de Bohemia, el Palatinado, Brandeburgo y Sajonia. Al finalizar la Dieta imperial de Augsburgo, el 27 de agosto de 1518, Maximiliano había logrado ganar a una mayoría del colegio electoral para la entronización de su nieto. Sólo Tréveris y Sajonia no se hallaban todavía dispuestas a declarar su resolución el arzobispo de Tréveris, por sus estrechas relaciones con Francia el sajón, por el contrario, alegaba una cuestión de derecho, el ordenamiento electoral de la Bula de Oro, y ése debió de haber sido, en efecto, su móvil. Con esto hemos llegado a los límites de lo que históricamente es reconstruible. Naturalmente, la diplomacia secreta iniciada con la muerte del Emperador sólo se ha conservado en documentos parcialmente. Tenemos mucha información sobre los presentes electorales de los candidatos que disputaban la corona, pero varios descubrimiento recientes permiten sospechar que sólo conocemos la punta del iceberg de las maniobras financieras. Sí es seguro que, tras un interés pasajero del rey de Inglaterra, Enrique VIII, y después de un interludio sajón en que el Papa quiso incitar al elector Federico a presentar su candidatura, el enfrentamiento se redujo a dos candidatos serios el rey Francisco I de Francia y Carlos I, duque de Borgoña, rey de España y de Sicilia-Nápoles y, junto con su hermano Fernando, heredero de las tierras de los Habsburgo. Si Carlos resultaba elegido emperador, concentraría bajo su manto una acumulación de poder desconocida hasta entonces. En estas circunstancias, su candidatura no podía menos de resultar provocadora para el Papa y para el rey de Francia y convertirlos en aliados por largo tiempo, más allá del momento de la elección. Las inversiones financieras destinadas a imponer a tal o cual candidato rebasaron cualquier nivel conocido hasta entonces. La casa habsburguesa gastó casi un millón de ducados, financiados de antemano en su mayor parte por la banca de los Fugger. No se conocen las cifras exactas en el caso francés, pero parece ser que los compromisos del rey de Francia fueron considerables. El emperador Maximiliano se había mostrado consternado ya en Augsburgo por lo elevado de la suma de las inversiones francesas destinadas a sobornar a los príncipes electores. También el Papa participó a manos llenas y fue generoso en el ofrecimiento de privilegios eclesiásticos y en la concesión de mitras episcopales y capelos cardenalicios. Cuando en la primavera de 1519 el conflicto electoral amenazaba con quedar en tablas, el gobierno de los Países Bajos de las tierras de los Habsburgo propuso un compromiso que habría abierto a Alemania la entrada a la Edad Moderna con la mayor rapidez, pues tenía en cuenta el proceso iniciado ya en la Baja Edad Media hacia una Europa de las naciones el sucesor de Maximiliano no sería Carlos, sino su hermano el archiduque Fernando, tres años menor. Este, en efecto, habría sido aceptable como rey de germanos para todos los partidos. Pero Carlos rechazó semejante propuesta irritado y encolerizado la defensa de la Cristiandad exigía un Imperio fuerte y universal. No era la sed de poder lo que impulsaba a Carlos a adueñarse de la corona imperial además, mantuvo su promesa de compartir con Fernando el gobierno. Doce años más tarde, mucho antes de su abdicación en el año 1555, hizo que se eligiera rey de romanos a su hermano, el archiduque Fernando, con la protesta del príncipe elector de Sajonia, que no participó en la elección. Los doce años transcurridos hasta la entronización de Fernando fueron decisivos tanto para Alemania como para la Reforma. En enero de 1524 se perfiló una solución alemana para el conflicto provocado por la reforma de la Iglesia. La tercera Dieta de Nuremberg decidió convocar en Espira un concilio nacional para el día de san Martín, 11 de noviembre, de 1524, una asamblea general de la nación alemana 12, a fin de aclarar el caso Lutero. Se comprende fá cilmente que la curia romana se opusiera a esta decisión de la Dieta, pues con tal concilio se reforzaría el peligro de que los alemanes transformaran su iglesia con independencia de Roma. En el caso de Francia, el Papa había conseguido impedir este movimiento de separación de Roma por medio de un generoso concordato con el rey Francisco I. Cuando en 1534, diez años después de la decisión de la Dieta de Nuremberg, el rey Enrique VIII decidió establecer la iglesia de Inglaterra, la curia no estaba ya en condiciones de oponerse decididamente y con éxito a esta subversión. A no ser por el Emperador, la solución de una iglesia nacional habría tenido en Alemania tantas posibilidades reales como las de Inglaterra. La decisión de convocar un concilio nacional respondía a los planes de todos los partidos y fue apoyada por todos los estamentos, y hasta por el mismo archiduque Fernando, consiguiendo unir a partidarios y adversarios de la nueva doctrina, además de los duques de Baviera, tan antiluteranos como antihabsburgueses. Sin embargo, Fernando, soberano de las tierras hereditarias austríacas, no consiguió mucho más que interceder ante su hermano el Emperador en favor del plan de los estamentos del Imperio. Carlos, desde la ciudad espa ñola de Burgos, prohibió el proyectado concilio por medio de una instrucción oficia</t>
         </is>
       </c>
     </row>
@@ -1172,12 +1172,12 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Déterminé (intro)</t>
+          <t>Ennio Morricone</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>On va l'dire comme ça, à l'ancienne, détermination, j'ai trop b'soin d'elle Grâce au ciel, j'ai des ailes, chaque fois qu'on m'freine, je r'pars de plus belle On va l'dire comme ça, à l'ancienne, détermination, j'ai trop b'soin d'elle Grâce au ciel, j'ai des ailes, chaque fois qu'on m'freine, je r'pars de plus belle On va l'dire comme ça, à l'ancienne, ouais putain, Détermination!</t>
+          <t>Yo what's up this is Ski Beatz And right now you're listening to the symphonic symphony sounds of Damiani Larage J'aurais voulu être aux premières loges de plein d'events de la musique Comme ces ambiances studio autrefois magiques Comme en 79 dans les couloirs du Avec Quincy et Michael qui fait sa première take Assister aux enregistrements de Off The Wall L'album, les prémices de la soul-pop au camescope Des choses rares, des fois je m'imagine dans ce stade Dans les gradins en 80 pour ACDC live Le son de la cloche Back in Black 200 000 personnes et moi chantant Bon Scott back ! Et le beat goes on Une choré enterrée avec les Whispers J'kiffe toujours le fonk Les pas de James Brown et les font le son Les samples du hip-hop dans les tuyaux J'serai cool avec le Gang s'ils me jouent la Summer Madness Un cours avec Earth, Wind Fire avant la presse Bob Marley, chantant le Zimbabwe poing levé Un seul splash j'aurai plus de voix pour crier A ses côtés le voir mondialiser le reggae Puis j'irai voir Gainsbourg et les Wailers dans la foulée J'irai verser une larme avec Obama Au centre Kennedy, dans un concert hommage à Bruce Springsteen J'aurais kiffé la Three Six Mafia sur le ring Aux Oscars, à fixer les stars en rampant sur x2 Ramenez moi là-bas, loin des formats Quand la musique s'écoutait pas encore en MP3 Quand les classiques se mesuraient à la qualité J'entends encore le vinyle craquer J'entends encore le vinyle craquer J'irai voir Edith Piaf elle m'expliquerait tout le taff On inviterait Jacques Brel à me parler de la soif De l'art du chant, de la peur de mal faire, il me dirait Faf La rage et l'amour s'expriment avec un public en face On voyage vers des musiciens sur un plateau de tournage La scène est filmée et la BO est live Sergio et Ennio Morricone au firmament A moi les secrets du bon, de la brute et du truand, top du son sur l'image Je l'ai fait ce rêve à Chicago avec Muddy Waters Signer son premier contrat chez Chess Records Son blues allait influencer le rock et la folk des années 40 jusqu'au Rolling Stones J'étais d'attaque pour suivre la route jusqu'à Woodstock J'allais pas rater les Who, Jimmy Hendrix et les autres Enfin un tour à la Motown, l'usine à tubes et Marvin what's going on? Et quoi de neuf à Vegas Full sur le , ce soir j'joue le J'aurais voulu y être à la création de la bande originale de J'aurais porté les cafés à Isaac, rien à battre Ou assister à cette cérémonie des Grammy Fin 90 la première le rap s'est introduit Ou dans ce club de rap jazz à Harlem à la table de Ravel Qui me raconterait les sixtes et les neuvièmes La musique classique et les trésors du XXème Seb Damiani au piano improvisant un thème Il y aurait plein de trucs à faire et plein de trucs à voir Surement plus que ma putain de mémoire tard le soir Tu vois ce que je veux dire? Retour aux sources x22</t>
         </is>
       </c>
     </row>
@@ -1189,12 +1189,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dezolation</t>
+          <t>Esprit anesthésié</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>On bloque tard le soir les yeux mi-clos Les poches vides, à rêver de kilos, entourés de minots La rue me berce au rythme des sirènes affolées Samu et Police sont de sortie pour le ballet File moi une latte enfoiré ! Ces putains de gosses avec qui je traine auront vite fait de mal tourner Je connais le film enfermé dans le cycle Ce putain de shit rend lucide à perdre la bille À 40 piges qu'est-ce que je fous au milieu des kids ? Coincés dans la tise, nos futurs, le trottoir c'est le Ritz ! Alimentation glauque, le spot, dealer entre potes Histoires de meurtres et de coke J'ai brassé les billets, côtoyé les piliers, vécu le crime sans me soucier Mais ma roue a mal tournée Les petits m'écoutent et se voient au sommet Derrière l'écran de fumée, la vérité, je suis toujours là à glander. Et ouais On a érigé en stars des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, désir d'évasion Cloué au sol planté, mauvaises relations On a érigé en star des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, besoin d'élévation Personne ne décolle de ce terminal Posté au coin de la rue, là où les chiffes s'échouent Où glissent mes shoes, évite les shoot Dévisse les coudes, ceux qui brisent les couilles t'entends ? Et la Police déboule, les bandes rivales se toisent et mobilisent les troupes Pendant que les voisins de palier économisent des couches Les revers du sort renversent la coupe Quand les tordus la relèvent c'est que le Démon y sert sa soupe On y connait les escaliers, les coins, les porches Pas les hommes, maintenant c'est la règle, on s'en bat des autres Je ne peux pas être de ce que les mômes encensent Et finir éteint, en sang, comme les étoiles de mon enfance Faire du mal aux autres, escroqué les potes Sans surprise un gars te mettra une lame aux côtes Le balai de la vie donne son pire gala Ce n'est pas sans danger quand on veut voir le nirvana On a érigé en stars des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, désir d'évasion Cloué au sol planté, mauvaises relations On a érigé en star des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, besoin d'élévation Personne ne décolle de ce terminal Posté au coin de rue, là où tout se passe, parmi les couche-tard Et les faux amis les mains salies par les coups de crasse Lunettes noires et nuit blanche Genre, les types souhaitent bonne chance puis sorte un carré d'as en trichant Instinctif à 15-20 piges tu te fais des films T'imagines plein plein de fric Et ça t'inspire tout à grande vitesse Première classe, tu veux ton billet pour ce train de vie Tu vois des liasses épaisses comme des rouleaux de P.Q Mais parle pas de retraite ou d'numéro de sécu C'est la démerde, trop étourdi par les drogues Ébloui par les chromes sur la B.M T'oublies les anciens qui regrettent leurs choix Au départ ils ont fait le même rêve Ils vivent le même cauchemar, toujours en bas de l'échelle Habités par la fatalité, écrasés par le poids de l'échec On a érigé en stars des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, désir d'évasion Cloué au sol planté, mauvaises relations On a érigé en star des modèles minables Les mineurs vont au charbon, mode Germinal Désolation, besoin d'élévation Personne ne décolle de ce terminal</t>
+          <t>Bienvenue dans le dévaste-land, bouteilles cassées Cyclos brûlés, centre social pas vraiment terminé Peinture, façade remaquillée pour masquer la pauvreté Au cas où le touriste ne serait pas prêt Voiture de police, travail absent, embrouille au feu vert Terrasse pleine, un bon resto de poissons face à la mer Galère, le énième contrôle de la semaine Tes papiers fils tu les a pas, on t'amène Surtout si ton nom commence par Ben Mec nerveux au volant T'as un problème ? Quoi ? Descends ! , devant ses enfants Comme un chiffonnier chemise pleine de sang Honte pour un adulte soi-disant civilisé Incapable de tempérer son tempérament Enfermé dans le contexte boulot-maison-prisonnier A cran toute la journée, on finit par agresser Soupape de sécurité, stade de foot plein à craquer Quatre buts, deux-trois jeux télés, esprit anesthésié L'esprit embrumé, anesthésié La pilule est toujours passée, grillés comment on fait ? Aveuglés par le peu de gloire L'espoir de s'en tirer sans empirer pourquoi on voit rien, hey ? L'esprit embrumé, anesthésié Tu paies, tu râles et t'encaisses laisse faire et Oublie jusqu'au prochain jour où tu en chiais Retourne dans le cycle et l'esprit anesthésié Meeting, bande d'excités souvent armés Enragés, fou de joie à l'idée de dégainer Les premiers, sans pitié, la boule est déjà lancée Une quille est tombée mais bon, elle n'est pas blanche, y'a pas de regrets Intolérance poussée à l'extrême, épaulé par la crème Fanatique, aveuglé par la voix aryenne Et qu'à cela ne tienne, de l'autre côté, on a la même Mentalité, les infidèles sont condamnés C'est Hitler contre Staline, Pétain contre Mussolini Un mal contre mal, pas d'extra-balles, fin de partie Sentiment d'insécurité provoqué Par les camions de police garés dans chaque rue et chaque quartier Loi Pasqua proposée, vivement huée, prises d'otages simultanées Camouflage, ta pilule est passée Diversion, un tac-o-tac, 2 morpions, gratter, courir Après le gros paquet, esprit anesthésié L'esprit embrumé, anesthésié La pilule est toujours passée Grillés, comment on fait ? Aveuglés par le peu de gloire L'espoir de s'en tirer Sans empirer Pourquoi on voit rien, hey ? L'esprit embrumé, anesthésié Tu paies, tu râles et t'encaisses Laisse faire et Oublie jusqu'au prochain jour où tu en chiais Retourne dans le cycle et l'esprit anesthésié Société poussée à la consommation Casinos pleins, pour une bouteille de Perrier baston Salaires bas, prix en hausse, toute la journée Comme un forcené, tu bosses pour pouvoir aller bosser Subvention de velcros sur le pognon pour les quartiers pas un rond Mais un jour de retard dans tes impôts sanction Course de l'espace, puits sans fond, on manque d'oxygène Sur terre, de plus en plus de gens dorment sous les ponts Système D gars, shit, jobs non-déclarés Pas l'choix, instinct de survie exacerbé Le déséquilibre est destiné à régner Sur un parc à jouets où les moins chers se cassent les premiers Gauche, droite, même combat pour la monnaie Ceux qui chantaient on a gagné Sont les mêmes qui sortent manifester La révolution sera pas télévisée On y passe des sitcoms de chez AB, esprit anesthésié</t>
         </is>
       </c>
     </row>
@@ -1206,12 +1206,12 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Dj Daz Présente…</t>
+          <t>Euh...</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Janvier - 0101 Columbine - Clubbing for Columbine - 0301 Sam's - Sunday Soundcloud Première saison 0401 Artiste multiples Babali Show rap is not a game vol. 2 - 0501 La Race Canine - Héroïne - 0601 Sanka - Black shaolin - 0801 Black Kent - Morceaux d'un homme - 0801 Freeze Corleone - Vieilles merdes vol. II - 1101 75ème Session - Enter the dojo vol. 2 Diabi - 1501 Alpha Wann - Alph Lauren 2 - 1501 Rim'k - Monster tape 1801 Ninho - I.S.P.A.C 2 - 1801 Scars Volodia - Vitamine R - 2001 Alkpote Butter Bullets - Ténébreuse musique 2101 Lacraps Mani Deïz - 42 grammes - 2201 H Magnum - Gotham city 2301 Godié Swinx - N22 - 2401 Hash24 Sopico - 2075 2501 Artistes multiples - Sismogram - 2501 Euphonik - Inconnu mais reconnu 2501 Taf - Tohu bohu - 2901 Lefa - Monsieur Fall 2901 Bolo Bicrave ou rapper Février 0202 H-Tône - Fistaille made in Toylettes Vol. 1 - 0502 Fixpen Sill - Edelweiss - 0502 Kohndo - Intra-muros - 0502 KSA - VIII 0502 Manny À lhorizon 0502 Oner O 0502 Tarek FastLife Emirates money - 0502 Tortoz - Dans le carré 0702 SLONE - At the boom jazz cafe 0802 Eddy Woogy - Tout Eddy - 0802 Kekra - Free base 2 - 1002 Sango - Flowrilege 1202 Diomay Tchiki O - 1202 Perso - Gratte ciel 1202 Pink Flamingo - Escape - 1702 Peet - PEATE 1902 Bip's - Nocturne pré-régicide 1902 Cadavreski - Sensible 1902 Clem Beatz - Trouble in paradise 1902 Fadah KLM - Le billet de 5 - 1902 Kore - Pattaya Bande Originale 1902 Krom Au Mic Zone franche - 1902 Leeroy - Noir fluo - 1902 Sadek - Roulette Russe - 2102 Inspire - Millenaire II 2502 Timuxx - Super hero 2602 Bazoo - B-Tape - 2602 Brav - Error 404 2602 Dirty Zoo - La Dernière Tribu 2602 Droogz Brigade - Projet Ludovico - 2602 Jazzy Bazz - P-Town 2602 Kamnouze OSNS - 2602 Kool Shen - Sur le fil du rasoir - 2602 Nakk Mendosa - Darksun 2 2602 Numbers - Numbers - 2802 O'boy - OlySide - 2802 Romeo Elvis Le Motel - Morale 2902 Charly Kid Patee Gee - Yacht Club 2902 Vaati - Adventures Mars - 0203 Grems - Green Pisse - 0203 Grems - Freen Pisse - 0303 Biffty - Du sale et du gras Bootleg - 0403 13 Block Violence urbaine émeute 0403 Aris-K Noob saibot - 0403 Jul - My World Réédition - 0403 Lartiste - Maestro - 0403 La Fouine - Nouveau Monde - 0403 Moïse The Dude - Dudelife 0703 Cheeko Blanka - Sont Trop Cools 0803 Skreally Boy - SuperStona1 - 1103 Fababy - Ange Démon 1303 Les 13 Salopards - Own The Spot 1403 Triplego - Eau Max 1503 KSA DJ Weedim - Clochard de luxe - 1703 KT Gorique - Tentative de survie - 1803 DTF - La hass avant le bonheur - 2103 Pesoa - Supra - 2503 Falcko Conte de tess IV 2503 Hugo Délire Kyo Itachi - Grand Delirium - 2503 The Shin Sekaï - Indéfini - 2503 MOH - L'art des Mots 2703 Seven Eli Prod - Double Infini - 3103 Lorenzo - Empereur du sale 3103 Beny, Yacine 1.5, Majdon Co Yazid Z - Reality Show Avril - 0104 Jul - Album Gratuit 2016 - 0104 Ol'Kainry - Superman Noir - 0104 TLF - No Limit - 0404 Juxebox - Naga 0604 Coolax - Black Mathusalem - 0804 Bhati - Abimé 0804 Green Money CDC V 0804 Iris - Magnitude 10 Maxi - 0804 Jehkyl - CVPP Couilles Vides Poches Pleines - 0804 Jorrdee DJ Weedim - Je sais plus - 0804 Les Frères Lumières - À des années lumières - 0804 Lil Taï Z - Lil Taï Z - 0804 Neg' Marrons - Valeur Sûre - 0804 Sultan - Condamné À Régner 1004 Krisy - Parmi vous - 1504 A2H - Libre 1504 Arm TEPR - Psaumes - 1504 Doc Gynéco - Première consultation Edition 20ème Anniversaire - 1504 MHD - MHD - 1504 Artistes multiples - Booska Peufra - Vol. 2 1804 Jiddy - CKDO 2004 Fhat.R Melan - Bornes To Loose - 2204 Big Budha Cheez - L'heure des loups - 2204 Caballero JeanJass - Double Hélice - 2204 MZ - La Dictature 2404 Beeby - Le aigneur Réédition - 2704 Eech - Rosendaal Talk 2904 Artiste multiples - Néochrome présente Microbes saison 1 - 2904 Dr Bériz - 1974 - 2904 Hooss - French Riviera Vol. 2 2904 Loud Lary Ajust - Ondulé - 2904 Tiers Monde - No Future 3004 2spee Gonzales - Ah Souhait Vol. 1 Mai 0205 Brownie Dubz Gang - LE KLVN 0205 I.N.C.H. - Nappage Nocturne - 0305 3010 - Monstre - 0605 Djadja Dinaz - On s'promet - 0605 Jarod - Caméléon - 0605 Kalash Kaos 0605 Paco - Baraka Feat 0605 Rezinsky - Les Hérétiques, Tomes I II - 0605 Mani Deïz, Senamo Seyté - Trois fois rien 1005 Artistes multiples - EOW EP - 1005 Di-Meh - Shine 1205 Jones Cruipy - Rêve européen 1305 Artistes multiples - AMG Hip Hop Présente La France Sous Pression 1305 Coco Tkt Human ex thug 1305 Rochdi - L'Exorciste Cénobite 1305 Specta - Metempsycose - 2005 Alonzo - Avenue de Saint-Antoine - 2005 Dooz Kawa - Bohemian Rap Story - 2005 Ghetto Fabulous Gang - 93 La cité des parias 2005 Houssaw - Play 2005 LK de l'Hotel Moscou - Orient Heights Springbreak 2 - 2005 PSO Thug - Demoniak 2005 Ywill La Jonction - Livre d'or 2005 GLK - Murder 2305 Mani Deïz - Comme les autres - 2505 Ichon - FDP - 2605 Niro - Or Game - 2705 Aero Wonderful - Atmosphère Vol. 2 - 2705 Kekra - Vréel - 2705 Keny Arkana - État d'Urgence 2705 Artistes multiples - Néochrome - Tirs Groupés volume 2 2705 Res Turner - Ouvrez les cages - 2705 Lomepal Stwo - ODSL - 2705 SCH - Anarchie 3105 Hits Alive - Triple 6 Vol. 3 Les Enfants du Diable Juin 0306 Fadah, Kdor Metronom Les sens des maux 0306 Faf Larage Sébastien Damiani - Larage Damiani Extended Play Vol. 2 - 0306 Guizmo - GPG - 0306 Jr O Crom Doomams - Vendetta - 0306 K-LY - Samo - 0306 Lucio Bukowski Oster Lapwass - Oderunt Poetas - 0306 Niska Zifukoro - 0306 Numbers - 77 0306 Rekta - Marche ou Crève 0506 Ockney Chileas Alter ego 2 - 0606 A2H - Studio Files 2015-2016 0606 Funky Armenico Subotaï - Normalus 0606 Ockney Chilea's - Alter Ego 2 1006 Arom - Damien VS Van Helsing - 1206 Salfrom Goune, Stick Bazoo - Godphaseurs - 1306 Josman - Matrix - 1306 Grems The Imposture - P.R.A.F 1506 Jiddy - Training Tape 2 1706 Mac Kregor - Cogito Ergo Sum 1706 Myth Syzer Ikaz Boi - Cerebral EP - 1706 -Crew - Destins Liés - 1906 Panama Bende - Bende Mafia - 2206 Les Tontons Flingueurs - Le démon à 9 queues II 2206 Youno Les Chimistes - Méthylamine - 2406 Alkpote DJ Weedim - Sadisme et perversion - 2406 Bigflo Oli - La cour des grands Réédition 2406 Fizzi Pizzi - C1C2T - 2406 Hamza - Zombie Life - 2406 Jul - Émotions 2406 Zekwé Ramos - FrappMusiq 2606 SOV - Sovaire Ep - 2706 Sopico - MOJO Juillet 0107 Aladoum - Géant Noir - 0107 Les Alchimistes - Cannibales - 0107 Biffty DJ Weedim - Mega Souye Tape 0107 Kahifa - Nueva Luz - 0407 Népal - 444 Nuits - 0807 Damso - Batterie Faible - 0807 Sadek - Nique le casino 1107 Hologram Lo' - Jeep EP 1307 Fencizzle Gsnype - Kramwa'ill - 1807 Lapso Laps - Packman 2107 Les Genero - Parcours du combattant 2707 Nusky - On vit avec - 3107 Despo Rutti - Majster - 3107 Krisy - Menthe à l'eau Août - 0508 O'Trak - Gomorrap - 2608 Maître Gims - À contrecur M.C.A.R. Réédition Septembre - 0209 A2H - Summer Stories Kushtape Volume 2 - 0509 LuXe - LuXemixtape - 0909 13 Block - Ultrap - 0909 Rockin' Squat - Grand Cru Classé 2004-2016 1209 Beeby - 5 Etoiles 1209 K-LY - K-LY Co - 1509 Jul - Album gratuit 2016 Vol. 2 - 1609 PNL - Dans la légende - 1609 Wati B - La Pièce BO du film 1709 A Point Z Matière grise - 2309 Jorrdee - BJOVR IOP! - 2309 Lefa - TMCP - 2309 Volodia - Un Pied sur Terre - 2309 Jayel - Tout Est Dit - 2509 Dinos - Toujours pas Imany mais presque - 2609 Espiiem - Départ 2609 La Connaixion Jeunesse Eternelle - 2609 Tengo John - Près Qu'elle - 3009 Kery James - Mouhammad Alix 3009 LIM - Pirates - 3009 Taïro - Reggae Français Octobre 0710 Elams - Je Suis Elams - 0710 MRC - MRC - 0910 Hakim Sensei - Goldfish 1010 Gys - Vale Tudo 1010 LTA - Echographie 1310 La Prune - La Prune - 1410 Convok - Un jour plus vieux - 1410 Despo Rutti Le Front Kick De Cantona - 1410 Gros Mo - Les de Gros Mo 1410 Lefty All Hayz On Me 1410 JP Manova - 19h07 Réédition - 1410 Soprano - L'Everest 1810 Issaba - À la recherche du temps perdu 2110 Hotel Moscou - L'Opium du Peuple - 2110 Lil Taï Z - Trop Jeune - 2110 Ninho M.I.L.S Maintenant Ils Le Savent - 2110 Naza - Tout pour la street 2110 Skreally Boy - 0352 - 2110 Sneazzy - Dieu bénisse Supersound 2110 Mani Deïz, Nefaste, Ol Zico Pejmaxx Martyrs Modernes 2310 Le 77 - C'est le 77 - 2410 Hamza - New Casanova 2510 2spee Gonzales - Ah Souhait Vol. 2 - 2810 Black M - Eternel Insatisfait - 2810 Casseurs Flowters - Live Tour 2016 2810 Gérard Baste - Le Prince de la Vigne 2810 Jeff Le Nerf Red Album - 2810 Kalash Criminel - R.A.S 2810 Kdor Sales Gosses Incurable 2810 La Méthode - Adrénaline - 2810 L'Algérino - Banderas 2810 Lario Nowhere A Mi-Chemin 2810 Medouze Changer La Donne 2810 Taïpan - P.A.N - 2810 Tortoz - FullG - 3110 T.I.S - L'homme contre le monstre Novembre 0111 Karna - Inconnu mais style reconnu - 0211 Prince Waly Myth Syzer - Junior - 0411 Dosseh - Yuri - 0411 Georgio - Héra - 0411 MMZ - Tout Pour Le Gang 0611 Artistes multiples - Misère Records présente le rap indé ouvre sa gueule - 0611 Lu'cid - Ex-Nihilo 0611 PALA - Acid Rose Garden 0711 Le Bon Son Du Bon Son 3 1111 Artistes multiples - Diamantaire Jee Van Cleef présente Jukebox Vol. 1 1111 Das Raizer - Nathuram Godse - 1111 Kaaris - Okou Gnakouri 1111 Krimo Vis Ta Vie 1511 Mr Kayz - 11 de légende 1611 HIGHMAN - H.I.G.H 1811 Artistes multiples All Stars Industrie - 1811 Mister You - Le Grand Méchant You 1811 Pumpkin Vin'S da Cuero - Chimiq - 1811 Seth Gueko - Barlou 2011 Tengo John - Tortue de Jade 2111 Jorrdee - Wavers 2111 Tonino Entre Temps John-Z Zed Beatz 2111 Dorian - Horizons 2511 Anton Serra Eddy Martin - Les 400 coups - 2511 Gradur - Where is l'album de Gradur 2511 Lacraps - Les Preuves Du Temps - 2511 Lucio Bukowski Milka - Hourvari - 2511 Swift Guad Mani Deiz - Masterpiece - 2711 PLK - Dedans - 2811 Haristone - Bates Motel - 2811 High Five Crew - Silicon Valley 3011 Artistes multiples - Le Gang Des Antillais Bande Originale Du Film De Jean-Claude Barny - 3011 Kekra - FreeBase 3 3011 Sëar-lui-même - À L'arrache, Épisode II Histoires Sans Fin XX11 Néochrome - Générations 88.2 Décembre - 0212 Billy Joe - La petite maison de la tuerie 0212 Chabodo - C'est Le Cha - 0212 Jul - L'ovni - 0212 Nekfeu - Cyborg 0212 Tarek FastLife À Bon Entendeur - 0212 Shay - Jolie Garce - 0212 Shurik'N - Adamant-ium - 0412 So'Clock Negann - Fréquences 0912 Artiste multiples - Booska Pefra Vol. 3 0912 Benito Chacon Chef De Meute 0912 GrandeVille - GrandeVille Records Vol. 1 0912 Lartiste - Clandestino - 0912 Laylow - Mercy 0912 Niro - Les Autres avec Or Game en version physique 0912 Prince Fellaga - Arabesque 0912 Tekilla Le Retour du sombre héros - 0912 Tito Prince - Toti Nation II 1112 Da Nill PubArt - 1112 Luni Sacks - Souterrain Son Vol. 1 - 1212 B-Biface - Fini de pleurer 1212 Hematome Pêle-Mêle 1212 Sauveur Eloheem - Aube 1412 Toy El Mago, Swif Nebaza Rus-Vi Made In 1Dependanz 1612 Artiste multiples - Sauvages, vol. 2 1612 Fayçal - Bords perdus EP 1612 K-Rhyme Le Roi Adrénaline 1612 Melan - Vagabond De La Rime, Vol. 3 - 1812 Rowjay - Carnaval de Finesse 1912 Stick - TricératoX Vol. 2 - 2012 Beny - Pepito deviendra grand 2112 West - Overdose 2212 Seven - 2032 - 2312 Nekfeu - Black Album - 2412 Hamza - Santa Sauce 2512 Grande Instance - 12 ans d'âge 2512 Miklo - Carnal Vol. 1 2512 Sauveur Eloheem - Le Panthéon des Pensées Sombres 2912 GRTZKY - Apex 2912 Sixo Master Flow - JMNDC 3112 G Lamaonthebeat - Dans le noir EP 3112 Jason Voriz - Trap Manstrr Autres - Du 1104 au 1111 Sofiane - Jesuispasséchezso Du 1706 au XXXX Alkpote - Les Marches de l'Empereur, Saison 2 - Du 2307 au 1408 Eskro - Néant 94 Date à confirmer XXXX Treza Ulysse XXXX Minch Né Sous X16</t>
+          <t>Qu'est-ce que j'voulais dire déjà ? Euuuuuh Ah ouais ! On veux du vrai et d'la 'sique Un truc qui t'prend aux tripes Dans l'lard sans artifice Qui fasse pas un buzz dans les articles Mais dans les sonos, les vagos, les boomers, les speakers Viens, j't'explique ma logique Un son qui frappe, faut d'abord une bonne rythmique Puis ensuite, une mélodie envoutante qui tape dans l'système mec, faut qu'ça clippe Énergique, une basse limite, explosion style nitroglycérine Pas d'autre argument que les watts qui déchirent C'est ça qui minspire, les sens de ma XXX Ma clique kiffe le son bad qui baffe Racket les lyrics des bites Les bitches qui pensent qu'aux hits, rien dartistique Tiens rik pe Faut être fier d'une éthique, avoir une sacré équipe de producteurs armés d'kick Pense au public, les mains en l'air eh yo Farah vas-y dit leur qu'ça part en vrille Pour les faire bouger, j'ai la r'cette, Faf c'est le chef, pas b'soin d'traiteur MC, lève tes mains du mic' ça gave, ça rame grave, on veut pas t'voir en live Quand j'rappe, ça taille, c'est la garde, ça calme, aïe, arrache des larmes aux hauts-parleurs Les langues de putes toujours dans l'viseur Elles parlent derrière, et devant te filent le postérieur Allez vous faire mettre ailleurs C'est que des bruits, des on-dit, des aigris qui savent bien que je suis meilleur qu'eux A la Pete Rock, soul survivor, celui qu'ça embarrasse beh j'm'en bat la race Moi j'axe mon taf, moi et mon staff, on a la rage du bon pour la maf' Trace, ici c'est du rap, pas d'strass Enchaine des milliers d'phases Toi reste à la ramasse Faf le coeur, me juge pas, appelle moi Votre Honneur Dope Rhyme Sayer, mon seigneur Ça saigne, reste pas au milieu Eh vise la technique, le style de la clique C'est écrit, Imperial Asiatic Depuis 90, sans venir de l'Amérique Mais droit de cette ville, en face de l'Afrique On chie sur la crise avec une éthique stricte Sur nos feats et nos disques, nos bizz et nos rythmes Sorti du cur d'une MPC et c'est ça, le son est fantastique Ils bavent sur nous quand leurs titres c'est le cirque blablabla Ils font retomber la trique Le niveau des lyrics baigne dans le caniveau et dévalue la réputation de ta street Vite et puisque cet art est magique, l'effet est immédiat et ta sortie elle est tragique haaaaaaa Voici l'avis des fans et du public Sans trafic, attends je t'explique Certains artistes renient la musique et les basiques Font leurs carrières sur de la pipe Ils rendent ce milieu si chiatique Posé sur ce beat, j'vend leurs structures atomiques Comme Nessbeal, c'est ma mélodie des briques En France et de Mars que jécris en italique Ils disent sans arrêt à la télé qu'on est raciste Lâchez-nous un peu, occupez-vous du cul de Brice ooooouh Je suis l'épouvantail chez les fachistes On les stoppe, on les couche, on les tilte, on les vanne, on les pique, on les crache, on les chique, on les mâche, on les chie Parfois on les claque et on les kicke Niveau sapes respecte le standing Jdide comme Silvio assis au Badabing Ce son on le mérite Juste un petit break beat de suite Rafale anthologique ratatata C'est drastique, du classique, on fait péter le plastique Les DJ sont d'accord, ce track doit finir sur le vinyle Ça file, ça vit, ça vibre, ça donne, ça kill Sa place fais pas de sou, mais au top de la pile Dans les postes de tirs qui croisent dans la ville Notre match a cent titres sur l'affiche C'est le talon d'Achille face au talent de Chill</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>En Este Mismo Instante (en la Ciudad)</t>
+          <t>Faf A La Rage</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>duplicidad Heiko A. Oberman. duplicidad Lutero Un hombre entre Dios y el diablo. Versión española de José Luis Gil Aristu Capítulo 1 UN ACONTECIMIENTO ALEMAN. 1. El príncipe elector Federico el Enigmático Estos alemanes son increíbles, opinaba el embajador de Venecia en la Dieta de Augsburgo en su informe del verano de 1518 a la Se ñoría. En ella pelean príncipes y diplomáticos a la búsqueda de un compromiso entre el Emperador y los señores territoriales en beneficio del bien común, pero la olla de rumores entre pasillos perturba estos esfuerzos y siembra la desconfianza por razones nimias la excusa es una disputa teológica en torno a las bulas. El embajador no habla de oídas ni de manera imprecisa puede citar incluso nombres los implicados son un monje llamado Lutero y un profesor de Ingolstadt, de nombre Johannes Eck. Resulta ridículo desviarse de la realidad por un asunto de bulas. Y, enseguida, el informe vuelve otra vez a la política. La república de Venecia, una potencia financiera, mercantil y marítima, que vive del libre acceso a todos los puntos del Mediterráneo, ve en juego intereses vitales. En el orden del día de la Dieta imperial aparece el penique de las cruzadas, el impuesto general del Imperio para la guerra santa, que ha de ser recaudado en los territorios alemanes y, sobre todo, en las florecientes ciudades, para que Occidente pueda defenderse por fin de forma decisiva y hacer frente con eficacia al peligro procedente del Este. Constantinopla, la antigua potencia en la vanguardia de la lucha contra los turcos, había caído medio siglo antes, en 1453, de manera que las tradicionales zonas de comercio de Venecia, Grecia y el Levante, estaban insuficientemente protegidas contra los asaltos del poder otomano. Por otra parte, Venecia se hallaba dentro del espacio vital de los estados de la Iglesia, agresivamente expansivos, y estaba por tanto ardientemente interesada en distraer la atención del Papa de Italia y contenerlo mediante una guerra en el Este. Un Emperador y un Papa ocupados en una cruzada contra los turcos serían los mejores protectores de la independencia de la República. El 28 de agosto de 1518, el emperador Maximiliano I firmó en Augsburgo un armisticio que debía poner un fin provisional a su enconada lucha contra Venecia. De ese modo tendría las espaldas cubiertas para llevar a cabo una cruzada contra el sultán. Pero el punto decisivo estaba en saber si los estamentos del Imperio otorgarían los impuestos necesarios para una guerra, pues Maximiliano se hallaba endeudado hasta el límite de la bancarrota estatal. De todos modos, en el asunto del penique contra los turcos el Emperador podía contar con el total apoyo de Roma. El papa León X había enviado como legados suyos a la Dieta imperial a dos miembros de alto rango del colegio cardenalicio uno era Mattháus Lang, hijo de una familia burguesa de Augsburgo y confidente de la casa habsburguesa el otro legado, Cayetano, llamado así por su lugar de nacimiento, Gaeta, procedía de Italia, y su principal cometido era el de ayudar a superar la oposición claramente perfilada en contra del impuesto de la Cruzada. El italiano no llegaba con las manos vacías. El 1 de agosto de 1518 entregó en Augsburgo al joven príncipe elector Alberto de Brandeburgo, arzobispo de Maguncia, solemnemente y gratis las enseñas del cardenalato. También se tuvo en cuenta a Mattháus Lang. Cayetano le confirmó por encargo del Papa la candidatura a la sede de Salzburgo, uno de los más importantes arzobispados alemanes. Finalmente, en la tarde de este festivo primero de agosto, también el Emperador se vio altamente honrado y comprometido. Cayetano le entregó el sombrero y la espada benditas, símbolos del caballero cruzado cristiano. Sin embargo, cuando el 5 de agosto el cardenal abordó en un discurso en latín el meollo de la cuestión y abogó por la cruzada contra los turcos, se había esfumado cualquier rastro de la eficacia de estos distintivos papales. Los representantes del Imperio ni siquiera se mostraron corteses, sino que presentaron con vehemencia los antiguos gravamina y expusieron las quejas de la nación alemana, sobre todo en lo referente a la política impositiva de la Iglesia, contra las intromisiones de Roma en los derechos de los estamentos soberanos y contra el interminable trapicheo practicado por la curia con los beneficios de la iglesia alemana no había carrera cuyos caminos no pasaran por Roma! Federico el Prudente, señor territorial del electorado de Sajonia, aparece en vanguardia cada vez que se trata de la liberación de las pretensiones del poder espiritual. Entre ellas no se cuenta sólo la lucha contra las constantes intromisiones en los derechos soberanos de los príncipes por parte de la curia también se deberá poner coto al gobierno de los obispos locales, en competencia con el de los señores territoriales. Los príncipes tenían aún que combatir por aquello que muchas ciudades imperiales libres ya habían logrado la independencia respecto a los derechos de soberanía secular de la Iglesia. En 1518 el asunto de Lutero, apenas tenido en cuenta fuera de Alemania, fue en Augsburgo uno más entre muchos otros puntos conflictivos en el marco de estos enfrentamientos en torno al gobierno de la Iglesia en los territorios alemanes. A Cayetano, el legado cardenalicio romano, se le encomendó la tarea de encontrar una solución para el caso Lutero , que salvaguardara los derechos de Roma en el punto central de la soberanía de la Iglesia, sin provocar al príncipe elector de Sajonia. De ese modo, entre el 12 y el 15 de octubre de 1518 tras la conclusión de la Dieta imperial tuvo lugar en la casa de los Fugger en Augsburgo el primer y último interrogatorio al que se habría de someter Martín Lutero. Cayetano había dicho anteriormente al príncipe elector que se comportaría como un padre y no como un juez. Pero todos sus esfuerzos fueron vanos y las artes de convicción tuvieron tan poco efecto como las palabras duras. Al final, el legado no tuvo más remedio que constatar que el fraile debía ser tratado como hereje, pues no estaba dispuesto a doblegarse ante la Iglesia y retractarse. Con esto Cayetano dio por concluido el asunto. De acuerdo con su promesa, no había hecho apresar al monje de Wittenberg, a pesar de su terquedad, y, tal como había aconsejado el Papa, emitió una sentencia cuya ejecución se solicitaba insistentemente de Federico Exhorto y ruego a vuestra Alteza que atienda a su honor y a su con- ciencia y ordene al hermano Martín acudir a Roma o lo expulse de sus dominios. Vuestra Alteza no debería permitir que, por culpa tan sólo de un frailecillo propter unum fraterculum , cayera semejante infamia sobre el honor de su familia l. El embajador de Venecia y el legado del Papa estaban extrañados por igual de que una Dieta imperial alemana se dejara influir por tales asuntos sin importancia y que el ridículo parloteo de los monjes distrajera a un príncipe elector hasta el punto de perder de vista las necesidades de la política. Típicamente alemán impensable en otras partes! Típicamente romano así expresaba la parte contraria su malestar. Ya tenemos otra vez a los astutos güelfos dispuestos a servirse de nosotros, los tontos alemanes, para sus intereses. El conjunto de toda una Dieta imperial, al igual que un elector particular, se debía a los intereses políticos de Alemania y no a los de Roma. Desde el punto de vista de los estamentos imperiales, la emancipación de la curia era una de las exigencias nacionales irrenunciables que se debía imponer de una vez por todas. Los príncipes territoriales, sobre todo Federico, entendían la política en un sentido más amplio que hoy. La política no tiene que ver sólo con el bien común secular, sino también con los requisitos y condiciones para la salud eterna de los habitantes de las ciudades y del campo. Esa fue la razón de que Lutero pudiera dirigirse en agosto de 1520 con su escrito político más famoso A la nobleza cristiana de la nación alemana . Las autoridades de este mundo encontraron en él el fundamento bí blico para su responsabilidad en el cuidado de su territorio y su iglesia territorial, practicada de antiguo quien, fiel a Roma, abandone el bienestar de la Iglesia en manos de las cortesanas , de los hombres de la curia, lesiona sus deberes de príncipe cristiano. Federico el Prudente y su hermano Juan el Constante, príncipes electores de Sajonia Cayetano no demostró demasiada habilidad al apelar a los antepasados de Federico, pues, ya antes de la división de los territorios de Sajonia en 1485, la casa soberana de los Wettin había intervenido abiertamente contra las pretensiones jurisdiccionales de la jerarquía eclesiástica. Antes de que Lutero atacara de forma aparentemente revolucionaria los derechos del Papado en sus tesis sobre las indulgen cias de octubre de 1517, el elector de Sajonia, Federico II, había limitado sensiblemente los derechos del Papa a la distribución de indulgencias. Cuando en 1458 el papa Calixto III promulgó indulgencias contra los turcos, Federico II pasó al ataque. El legado romano debió declarar su conformidad con la transferencia de la mitad de los ingresos a las arcas del elector. Las medidas de control destinadas a asegurar un reparto justo de los cobros entre el Papa y el Estado demuestran la escasa confianza del señor territorial en el legado pontificio. Todo el dinero se guardaba en grandes cajas penitenciales , provistas cada una de ellas de dos cerraduras que sólo podían abrirse con la llave de los consejeros municipales encargados de tal función. Para que todo el dinero llegara efectivamente a estos depósitos de los ingresos por indulgencias, el príncipe asignaba al legado papal un controlador, cuyos informes solían confirmar plenamente la desconfianza del soberano 2. A comienzos del siglo, cuando Sajonia llevaba ya diecisiete años dividida, los señores territoriales, el elector Federico el Prudente por un lado y el duque Jorge el Barbudo, por el otro, supieron defender de diversas maneras sus intereses en la cuestión de las indulgencias. Así, en 1502 se promulgó nuevamente una bula con indulgencias contra los turcos ambos soberanos ordenaron la total incautación de los ingresos al comprobarse que, una vez más, la campaña contra los turcos se quedaba en nada. Este tipo de incidentes explica que el frailecillo no desapareciera de la escena alemana sin decir ni pío. Sin embargo, por qué el prudente Federico tomó partido por Lutero de forma semejante? Su no a Cayetano vinculó sus tierras con la Reforma para las duras y las maduras en los siguientes años, hasta el punto de que, al final, su nieto Juan Federico acabó perdiendo la dignidad de elector al tener que firmar el 19 de mayo de 1547 la capitulación Wittenberg, tras su aniquiladora derrota contra el Emperador en las guerras de religión. Iglesia del castillo de Wittenberg, en cuya puerta fueron clavadas las tesis el 31 de octubre de 1517 Portada del libro Wittenberger Heiltumsbuch, catalogo de la colección de reliquias reunida por Federico y Juan en la iglesia del castillo de Wittemberg impulsados por la preocupación por la salvación de sus súbditos. En él se recogen datos precisos sobre las indulgencias que allí podían ganarse. La obra fue ilustrada por Lucas Cranach el Viejo, Wittemberg, 1509. Ninguna respuesta puede pasar por alto el hecho de que Federico actuó como un príncipe territorial cristiano. Las convicciones religiosas señalan los límites de su capacidad de compromiso y se muestran como factores de su política de Estado. No se ha de olvidar que estos factores, que hicieron posible al principio la reforma del electorado de Sajonia, fueron también causa de la catástrofe militar. El 24 de abril de 1547, el príncipe elector fue sorprendido en Mühlberg por las tropas imperiales porque éstas habían logrado avanzar hasta las orillas del Elba sin ser observadas, pues Juan Federico había dado preferencia al servicio divino sobre el militar, ordenando retirar todos los puestos de vigilancia que podrían haberle informado de los movimientos del Emperador. La imagen del príncipe orante, convencido de que él y su ejército están protegidos por Dios, tiene su modelo en la conformidad de Federico el Prudente durante la guerra de los campesinos Si Dios lo quiere así, el hombre común acabará gobernando. Pero si no es su voluntad y no está previsto de esa manera en alabanza suya, pronto cambiarán las cosas 3. Así se lo hace saber el anciano príncipe elector a su impaciente hermano, el duque Juan, el 14 de abril de 1525, a menos de un mes de su muerte, que ocurriría el 5 de mayo. La confianza en la providencia está en contradicción con la fe reformista. Los duros escritos del reformador en contra de los campesinos, junto con las condenas por el derramamiento de sangre por las hordas de éstos, constituyen al mismo tiempo una fuerte crítica dirigida a los príncipes que no actúan con confianza sino con abandono. Contar con que Dios dirige la historia y con su juicio condenatorio es un asunto que pertenece al ámbito de la fe y no exonera al señor territorial del deber de cumplir con las tareas propias de su función de príncipe y prestar fielmente sus servicios por el breve plazo concedido hasta el momento final de los mismos en este mundo. Donde quiera que se manifiestan con claridad las creencias de Federico, resulta perceptible su distanciamiento de la Reforma, y Lutero las combatió abiertamente. Muy poco después del estallido del conflicto por las indulgencias, éste abrió un frente contra cierto tipo de culto a los santos falso, poi egoísta 4 con ataques claros contra la colección de reliquias de la iglesia del palacio de Wittenberg, que eran el orgullo de Federico. En el año 1523, al concluir su esbozo de nueva liturgia, la Formula Missae, Lutero puso en evidencia y provocó a su señor territorial ante todo el mundo, al hablar de los malditos intereses financieros del príncipe, quien con su colección de reliquias había degradado su iglesia palaciega, llamada de Todos los Santos, o, mejor, de todos los demonios 5, hasta convertirla en una fuente de dinero. Semejante afirmación no hacía justicia a Federico. Es extraño que Federico, atacado siempre tan duramente, asegurara y garantizara a Lutero su libertad de de acción, a pesar de todas las tormentas provocadas por su controvertido profesor universitario y de su desagrado ante más de un defensor radical de la Reforma. Al final de sus días, en el lecho de muerte, dio testimonio público de su alejamiento de la antigua fe al hacerse ofrecer en el sacramento de la cena pan y vino, en contra de la doctrina papal, siguiendo la institución de Cristo según las enseñanzas de Lutero. Seguramente no fue en contra de la última voluntad del fallecido el que se llamara al hereje desterrado para que modificase la liturgia funeral de acuerdo con ios principios de su nueva organización de os servicios divinos y pronunciase el discurso fúnebre. De ese modo, Federico el Prudente fue llevado a la tumba el 11 de mayo de 1525 con más innovaciones de las que estuvo dispuesto a aceptar en vida. Este príncipe ha sido considerado tan enigmático por la posteridad como por sus contemporáneos. Reservado y tímido, vacilante en su acciones hasta la incapacidad para tomar una decisión, nada dispuesto a imponerse y mucho menos a dejarse imponer, pero que en el momento de su muerte marcó un hito del que ya no habría posibilidad de retroceder. Quién fue este hombre? Aparece como una figura que oculta sus rasgos en lo individual y personal el historiador ha de apoyarse en la imagen que el príncipe había cuidado con esmero y utilizado como medio en sus enfrentamientos políticos. Fue un príncipe territorial alemán medieval y no un soberano ni, por supuesto, un gobernante absolutista sin embargo, estuvo tan convencido de su propio mundo de valores y fue tan consciente de sus obligaciones que no permitió que nadie le discutiera su responsabilidad por el bien temporal y la salvación eterna de sus súbditos, ni la curia de Roma, ni la corte imperial ni tan siquiera aquel doctor Lutero. Constantemente insiste en que, como lego en la materia, no entra en juicios sobre la rectitud de la teología de Lutero, pero al mismo tiempo deja bien claro que la excomunión papal no le demuestra la culpa del doctor. En la lucha partidista Federico fue un perfecto príncipe cristiano, interesado por el bienestar y la felicidad de sus vasallos. El gobierno señorial de la Iglesia no es el resultado de la Reforma, sino que ya apadrinó sus inicios. 2. La situación en el Imperio Lutero describió a Federico como el gran vacilante por otra parte, esta imagen es el producto de una visión tardía y surge siempre por comparación con el apoyo que le prestaron los sucesores de Federico, Juan el Constante y, sobre todo, Juan Federico el Magná nimo. El electorado de Sajonia debió agradecer precisamente a las vacilaciones de Federico el Prudente el poder superar los difíciles años de la amenaza de su aislamiento en el Imperio y el que la Reforma lograra sobrevivir incluso sin el apoyo de los estamentos alemanes. Juan Federico el Magnánimo, príncipe elector de Sajonia, generoso patrocinador de Lutero. En 1547 perdería su electorado a causa de su adhesión a la Reforma. Xilograbado de Lucas Cranach el Viejo, c. 1533. Sin la intervención de Federico y sus consejeros, el mismo interrogatorio de Lutero por parte del cardenal Cayetano no habría tenido lugar en suelo alemán, en Augsburgo, sino en Roma. Sin la tenacidad del elector, el movimiento evangélico habría concluido en el año 1518 y se habría visto relegado, como mucho, al distante recuerdo de un capítulo de la historia de la teología. No habrían existido la figura genial ni el reformador que fue Lutero, sino sólo un hereje que había conseguido que se hablara de él por un tiempo cuando, de manera similar al bohemio Juan Hus y al florentino Jeró nimo Savonarola, llamó la atención sobre la secularización de la Iglesia. El fenómeno de Lutero habría sido de tan escasa repercusión que la complaciente curia romana podría haber planteado con toda tranquilidad la revisión de su proceso. Pero no fue así. La corte sajona desconfió desde el primer momento de la condena de Lutero por cortesanos y mendicantes romanos y no consideró en absoluto probado que el profesor de teología de la universidad de Wittenberg hubiera enseñado doctrinas heréticas. Por otro lado, cualquier intento de solucionar la cuestión luterana fuera de Alemania, en Roma, pasaba por ser una intromisión en la soberanía jurisdiccional de los señores territoriales. El mismo Lutero vio los peligros que comportaba semejante política para el país y planteó al elector la propuesta, bien acogida en un primer momento, de abandonar Sajonia para no comprometerlo y devolver a su polí tica la libertad de acción. El 1 de diciembre de 1518 estaba tan pró xima la hora del exilio que sus amigos de Wittenberg se reunieron para la despedida. En ese momento, mientras Lutero se hallaba con sus invitados despidiéndose de buen humor , llegó la notificación contraria Si el doctor está aún aquí, no debe abandonar en ningún caso el país, el príncipe elector tiene que tratar con él un asunto importante 6. Lutero se había convertido en objeto de la política de Estado. La cancillería del elector podía replegarse a las posiciones de neutralidad, sin necesidad de prolijas declaraciones de principio. El juramento doctoral de Wittenberg, prestado también por Martín Lutero el 19 de octubre de 1512, contenía, junto con la prohibición de difundir doctrinas heréticas, el deber de mantener las libertades y privilegios de la facultad de teología. Estas incluían expresamente el derecho a disputar libremente y sin trabas sobre cuestiones de interpretación de las Escrituras. En su informe de diciembre de 1518, la universidad de Wittenberg había confirmado que tal derecho se adecuaba exactamente a las noventa y cinco tesis de Lutero 7. Cuando en el verano de 1519 se debatió en Leipzig ya no en el territorio electoral, sino en el ducal de la Sajonia dividida el delicado problema de la autoridad del Papa, Lutero estuvo plenamente de acuerdo con su contrincante Johannes Eck, su primer opositor ale- mán, que lo seguiría siendo durante toda su vida, sobre el principio de la libertad de disputa. El señor territorial, el duque Jorge, pudo llevar adelante esta disputa con el apoyo unánime de ambos partidos, tanto contra el voto negativo del obispo titular como contra los temores de la facultad de teología de Leipzig. El príncipe elector Federico trató desde el principio la cuestión de Lutero como el caso Lutero y evitó todo cuanto pudiera presentarse como favoritismo. Nunca se entrevistó personalmente con éste y jamás hizo declaraciones sobre los contenidos de la nueva teología. Hasta el momento del edicto de Worms 26 de mayo de 1521, con el destierro de Lutero por parte del Emperador, Federico logró mantenerse en esta posición de no tomar partido. Una toma de partido no habría conseguido proteger con más eficacia al profesor de Wittenberg. Con la misma efectividad reaccionó el vacilante Federico al juicio papal sobre Lutero. El 15 de junio de 1520, el papa León X firmó la bula Exsurge Domine, donde se le amenazaba con la excomunión. En ella se presentaban cuarenta y una frases de las obras de Lutero que podían ser tachadas de heréticas, escandalosas y falsas. El teólogo de Wittenberg contaba con sesenta días para someterse al transcurrir el plazo sin retractación, Lutero fue definitivamente excomulgado el 3 de enero de 1521. Con la promulgación de la bula de excomunión Deceí Romanum Pontificem, el caso Lutero había llegado a su fin como todos debían esperar. Se había cerrado el proceso eclesiástico y todo lo demás eran meros apéndices administrativos la entrega al brazo secular y, finalmente, la ejecución. Por qué no se llegó a lo que, según el derecho imperial y eclesiástico, debía habese producido? Desde la Dieta de Augsburgo de 1518 habían sucedido muchas cosas que abogaban en contra del éxito del caso Lutero. En una frase de pasada de su informe sobre la amonestación paternal el cardenal Cayetano había apartado a un lado, por así decirlo, el argumento decisivo del derecho a la libre disputa Aunque fray Martín ha puesto a debate sus ideas en tesis de disputa académica, tales tesis han sido proclamadas por él como resultados concluyentes en sus sermones, incluso, según se me ha comunicado, en lengua alemana 8, llegando a oídos de todos, incluso a los del pueblo necio! Había abusado del derecho de disputa, ha ciéndose indigno de él en el futuro sólo decidiría la valoración del contenido de las tesis de Lutero. Sin embargo, Cayetano se precipitó al exponer los fundamentos de la sentencia. Su exposición resulta dañada por una curiosa duplicidad las tesis de Lutero atenían por un lado contra las enseñanzas de la Santa Sede y, por otro, son heréticas 9. Este doble razonamiento no es extraño sólo desde la perspectiva actual del Papado. Al parecer, Cayetano había adoptado la línea de argumentación del electorado de Sajonia que se remitía a la prueba escrituraria la teología de Lutero se opone a la Escritura y, por tanto, se ha de condenar por herética totalmente al margen de si atenta contra la autoridad papal. El legado de Roma se adentraba de esa manera por caminos que podían haber acabado por ser mortales para Lutero. El príncipe elector replicó en ese escrito al cardenal que en Sajonia había muchos eruditos que no estarían de acuerdo con la sentencia condenatoria contra Lutero. Sólo cuando se demostrara efectivamente que Lutero era hereje, sabría él, su señor territorial, actuar con la ayuda de Dios y sin presiones externas, según su honor y su conciencia 1 Pero qué ocurre si se prueba la herejía de Lutero y resulta ya imposible basarse en el resentimiento alemán antirromano? El escrito del elector es lo más contrario a la adopción de una postura diplomática cauta, que no obligaría a nada y mantendría abiertas todas las salidas. Desde nuestra perspectiva actual, el año 1518 forma parte de la fase temprana de la historia de la Reforma y una decisión como la adoptada por el elector frente a Cayetano parece, por la misma razón, precipitada Sin embargo, los contemporáneos calibraron los acontecimientos de manera diversa para ellos, el interrogatorio de Lutero formaba parte del período tardío del movimiento reformista que mantenía en vida a la Iglesia desde hacía un siglo, desde el Concilio de Constanza 1414-1418, y tenía soliviantada a Alemania. Las decisiones no pueden aplazarse perennemente en la respuesta a Cayetano habla el señor territorial convencido de su autoridad, que conoce lo decisivo del momento en la lucha por la reforma de la Iglesia y actúa, por tanto, como príncipe cristiano en aquello que le compete si se descubre que es un hereje, Martín Lutero será sentenciado pero si es un reformador incómodo para la curia, permanecerá en su cargo y sus honores. Lutero comprendió la importancia de esta respuesta en cuanto su amigo y alumno Georg Spalatin, consejero secreto del príncipe, recibió una copia del escrito para su lectura En su debido momento aprenderá también él que el poder secular proviene igualmente de Dios... Me siento satisfecho de que el príncipe elector haya mostrado en este asunto su paciente y sabia impaciencia n. 3. La victoria electoral del rey Carlos El caso Lutero no se habría convertido en un acontecimiento alemán, sino que habría tenido un final, nada dramático como mero contratiempo sajón, en el verano de 1520, a más tardar, si la influencia del príncipe elector no hubiese aumentado de la noche a la mañana de forma considerable. La muerte del emperador Maximiliano I en las primeras horas del día 12 de enero de 1519 en la localidad austríaca de Wels, no lejos de Linz, alteró fundamentalmente la situación política en el Imperio. En la Dieta de Augsburgo, la última a la que asistió, Maximiliano enfermo ya de gravedad había abogado decididamente por la elección de su nieto Carlos como rey de romanos y alemanes. Su muerte y el juego de intrigas puesto inmediatamente en acción, las luchas diplomáticas y no tan diplomáticas en torno a la sucesión de Maximiliano, no decidida aún en Augsburgo de forma definitiva, intervinieron en el decurso normal del asunto de Lutero. Justo en este momento, en plena batalla electoral, el proceso romano de herejía pasó a ser un asunto alemán. Retrato del emperador Maximiliano I difunto. El Emperador había ordenado que se azotara su cadáver, se le cortara el pelo de la cabeza y se le arrancaran los dientes. Es i el pecador que va a presentarse ante Dios. La respuesta astuta, segura, pero no insolente, de Federico, transmitida de inmediato a Roma junto con la posición de Lutero, fue su última oportunidad de aplazar la cuestión. Una vez dictada sentencia en Roma, no habría podido seguir protegiendo al fraile ni habría querido hacerlo, de acuerdo con sus propios y manifiestos principios, pues entonces contaría con un dictamen de la autoridad eclesial suprema. Sin embargo, la muerte del Emperador modificó las posiciones, también para Roma. El período transcurrido sin Emperador tenía como consecuencia un vacío de poder durante el cual los electores incrementaban su importancia más allá de sus propios territorios. La elección del rey germánico, según lo había determinado la ley imperial de la Bula de Oro de 1360, quedaba en manos de siete príncipes, llamados electores por ese derecho los arzobispos de Maguncia, Co lonia y Tréveris, y los señores seculares de Bohemia, el Palatinado, Brandeburgo y Sajonia. Al finalizar la Dieta imperial de Augsburgo, el 27 de agosto de 1518, Maximiliano había logrado ganar a una mayoría del colegio electoral para la entronización de su nieto. Sólo Tréveris y Sajonia no se hallaban todavía dispuestas a declarar su resolución el arzobispo de Tréveris, por sus estrechas relaciones con Francia el sajón, por el contrario, alegaba una cuestión de derecho, el ordenamiento electoral de la Bula de Oro, y ése debió de haber sido, en efecto, su móvil. Con esto hemos llegado a los límites de lo que históricamente es reconstruible. Naturalmente, la diplomacia secreta iniciada con la muerte del Emperador sólo se ha conservado en documentos parcialmente. Tenemos mucha información sobre los presentes electorales de los candidatos que disputaban la corona, pero varios descubrimiento recientes permiten sospechar que sólo conocemos la punta del iceberg de las maniobras financieras. Sí es seguro que, tras un interés pasajero del rey de Inglaterra, Enrique VIII, y después de un interludio sajón en que el Papa quiso incitar al elector Federico a presentar su candidatura, el enfrentamiento se redujo a dos candidatos serios el rey Francisco I de Francia y Carlos I, duque de Borgoña, rey de España y de Sicilia-Nápoles y, junto con su hermano Fernando, heredero de las tierras de los Habsburgo. Si Carlos resultaba elegido emperador, concentraría bajo su manto una acumulación de poder desconocida hasta entonces. En estas circunstancias, su candidatura no podía menos de resultar provocadora para el Papa y para el rey de Francia y convertirlos en aliados por largo tiempo, más allá del momento de la elección. Las inversiones financieras destinadas a imponer a tal o cual candidato rebasaron cualquier nivel conocido hasta entonces. La casa habsburguesa gastó casi un millón de ducados, financiados de antemano en su mayor parte por la banca de los Fugger. No se conocen las cifras exactas en el caso francés, pero parece ser que los compromisos del rey de Francia fueron considerables. El emperador Maximiliano se había mostrado consternado ya en Augsburgo por lo elevado de la suma de las inversiones francesas destinadas a sobornar a los príncipes electores. También el Papa participó a manos llenas y fue generoso en el ofrecimiento de privilegios eclesiásticos y en la concesión de mitras episcopales y capelos cardenalicios. Cuando en la primavera de 1519 el conflicto electoral amenazaba con quedar en tablas, el gobierno de los Países Bajos de las tierras de los Habsburgo propuso un compromiso que habría abierto a Alemania la entrada a la Edad Moderna con la mayor rapidez, pues tenía en cuenta el proceso iniciado ya en la Baja Edad Media hacia una Europa de las naciones el sucesor de Maximiliano no sería Carlos, sino su hermano el archiduque Fernando, tres años menor. Este, en efecto, habría sido aceptable como rey de germanos para todos los partidos. Pero Carlos rechazó semejante propuesta irritado y encolerizado la defensa de la Cristiandad exigía un Imperio fuerte y universal. No era la sed de poder lo que impulsaba a Carlos a adueñarse de la corona imperial además, mantuvo su promesa de compartir con Fernando el gobierno. Doce años más tarde, mucho antes de su abdicación en el año 1555, hizo que se eligiera rey de romanos a su hermano, el archiduque Fernando, con la protesta del príncipe elector de Sajonia, que no participó en la elección. Los doce años transcurridos hasta la entronización de Fernando fueron decisivos tanto para Alemania como para la Reforma. En enero de 1524 se perfiló una solución alemana para el conflicto provocado por la reforma de la Iglesia. La tercera Dieta de Nuremberg decidió convocar en Espira un concilio nacional para el día de san Martín, 11 de noviembre, de 1524, una asamblea general de la nación alemana 12, a fin de aclarar el caso Lutero. Se comprende fá cilmente que la curia romana se opusiera a esta decisión de la Dieta, pues con tal concilio se reforzaría el peligro de que los alemanes transformaran su iglesia con independencia de Roma. En el caso de Francia, el Papa había conseguido impedir este movimiento de separación de Roma por medio de un generoso concordato con el rey Francisco I. Cuando en 1534, diez años después de la decisión de la Dieta de Nuremberg, el rey Enrique VIII decidió establecer la iglesia de Inglaterra, la curia no estaba ya en condiciones de oponerse decididamente y con éxito a esta subversión. A no ser por el Emperador, la solución de una iglesia nacional habría tenido en Alemania tantas posibilidades reales como las de Inglaterra. La decisión de convocar un concilio nacional respondía a los planes de todos los partidos y fue apoyada por todos los estamentos, y hasta por el mismo archiduque Fernando, consiguiendo unir a partidarios y adversarios de la nueva doctrina, además de los duques de Baviera, tan antiluteranos como antihabsburgueses. Sin embargo, Fernando, soberano de las tierras hereditarias austríacas, no consiguió mucho más que interceder ante su hermano el Emperador en favor del plan de los estamentos del Imperio. Carlos, desde la ciudad espa ñola de Burgos, prohibió el proyectado concilio por medio de una instrucción oficia</t>
+          <t>98, l'apogée des cons et ça suffit Je pose ma B.A. artistique au rempart, la garde avec moi J'écris en vrac, qu'importe, avec le cur Pour l'honneur, pour les miens, mon clan c'est comme ça Pas l'choix fils, crois-moi, le Sud c'est chaud Trente pourcents d'enculés veulent notre peau c'est beaucoup trop J'm'étais dit, c'morceau, je vais être original et concis non C'est fou y a rien à faire, sur ce coup j'ai trop la rage, si On vit à l'époque où le rap connaît un succès non-stop Paradoxalement le FN aussi Y a des années, cinq pourcents voire six Aujourd'hui les chiffres ont doublé, qu'est-ce tu fais Fils, faut voter contre De la cité à la campagne ou aux centres-villes, pour les tiens Faut voter, même si les autres ne font pas l'affaire C'est bête mais on n'peut tout d'même pas laisser les racistes aux manettes Que les choses soient claires, ils veulent ma peau et j'veux les leurs Leur programme de merde, c'est un leurre Qu'est-ce que tu crois, 2039, non, j'attendrai pas Si ça s'amplifie, tu devras faire un choix Alors qu'ils ne parlent surtout pas de République, enfoirés Putain d'nazis ils vont pas nous bluffer Grâce à la merde, ils recrutent dans la cour des cons Pour des idées de fils de pute, aucun pardon Alors, tu vois à qui on a affaire fais ton devoir, fils De mairie en conseils régionaux, ils s'pavanent Arrivent à jouer à jouer les arbitres aux élections Et c'est l'drame psychologique, la guerre est là, tu sais Rempart ou pas, la liberté en péril Et un parti prônant la haine d'autrui prend des villes Et si tu y assistes sans rien dire, c'est qu't'es avec lui T'as rien compris, ils feront la loi, décideront des aides, qui y a droit Français ou pas, sans carte du parti, un gros doigt Demande aux gens de Vitrolles, Toulon, de Marignane qui sont contre Ce qu'ils vivent, la tension qui monte Pour l'instant c'est subtil, de l'extérieur on voit rien Des coupes administratives, dans les cités plus d'moyens Et la culture, est-ce nécessaire de l'préciser Musique de jeunes, tu peux oublier, le rap en premier Des bouquins, mais les fachos n'ont pas envie qu'tu réfléchisses Eh les médias, au lieu d'attiser, vous serez la première cible Putain, y a qu'à regarder en arrière et s'y référer Trois pays autour de nous sont déjà tombés Si on est trop naïfs, on va s'le prendre en pleine gueule On pourra plus faire machine arrière c'est maintenant qu'ça s'décide Malgré l'Histoire, les procès, les gens à présent Ont oublié qu'Hitler a été élu démocratiquement Scandale, un gros porc veut nous faire la même 'culé Puis virer les Noirs et les Arabes, tous qui les gênent Fermer les frontières, fermer leur gueule à ceux qui pensent différemment Fermer les établissements qu'ils n'contrôlent pas totalement Première étape du programme du FN Je garantis sur ma vie, on va pas s'laisser faire Que les choses soient claires, ils veulent ma peau et j'veux les leurs Leur programme de merde, c'est un leurre Qu'est-ce que tu crois, 2039, non, j'attendrai pas Si ça s'amplifie, tu devras faire un choix Alors qu'ils ne parlent surtout pas de République, enfoirés Putain d'nazis ils vont pas nous bluffer Grâce à la merde, ils recrutent dans la cour des cons Pour des idées de fils de pute, aucun pardon En plus ici on est à Marseille On n'est pas concernés Ceux qui votent pour, à Marseille, on n'les voit pas 50 d'hypocrites au moins dans l'tas Je m'explique, pour certains vivant en ville sans problème Une caisse crame dans une cité aux infos et ils ont la haine La crème du hip-hop, voudraient qu'on disparaisse On représente tout c'qui les gêne, tout c'qui les blesse Fils tu sais, on existe et ça les emmerde Putain d'racistes allez vous faire mettre Marseille, j'y suis né et j'y reste Je l'aime pour ses mélanges, ses cultures, ses ethnies et leurs fêtes C'est un fait, l'étranger, c'est celui qu'ils n'acceptent pas Et beaucoup sont d'origine étrangère, tu le crois? R.A.P, retour au pays, sur les affiches, comme ils disent dans leur jeunesse de merde Ha, j'me marre, les cons, les blaireaux Leurs parents devraient être pris à coups d'pompe dans l'cul pour avoir entretenu de tels cerveaux Trêve de plaisanterie, le temps des baraquements pourris Les pauvres zoufris qui bossaient pour rien c'est fini Manipulés, depuis y a des enfants, pas d'chance Génération ouvrière née ici qui dérange Tu voudrais refaire la France et t'y peux rien XXX Frapper ta fille si elle sort avec un négro connard XXX t'as rien compris, merde J'veux surtout pas essayer d'te convaincre non J'oublie pas le jeune Ibrahim Ali, souvenez-vous Une balle dans l'dos par un colleur d'affiche un fou Ce qu'il lui faut, pas d'doute, la perpétuité Tu vois l'genre d'esprit qui voudrait nous gouverner Alors ceux qui votent parce qu'ils sont soi-disant déçus, perdus Y a pas d'excuse ni d'demi-mesure, faux-culs Aux urnes, j'irai, essaierai de contrer Cette saloperie pour éviter la guerre civile, ouais tu l'sais</t>
         </is>
       </c>
     </row>
@@ -1240,12 +1240,12 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Ennio Morricone</t>
+          <t>Fait Tourner Que Je Fasse Ma Tune</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Yo what's up this is Ski Beatz And right now you're listening to the symphonic symphony sounds of Damiani Larage J'aurais voulu être aux premières loges de plein d'events de la musique Comme ces ambiances studio autrefois magiques Comme en 79 dans les couloirs du Avec Quincy et Michael qui fait sa première take Assister aux enregistrements de Off The Wall L'album, les prémices de la soul-pop au camescope Des choses rares, des fois je m'imagine dans ce stade Dans les gradins en 80 pour ACDC live Le son de la cloche Back in Black 200 000 personnes et moi chantant Bon Scott back ! Et le beat goes on Une choré enterrée avec les Whispers J'kiffe toujours le fonk Les pas de James Brown et les font le son Les samples du hip-hop dans les tuyaux J'serai cool avec le Gang s'ils me jouent la Summer Madness Un cours avec Earth, Wind Fire avant la presse Bob Marley, chantant le Zimbabwe poing levé Un seul splash j'aurai plus de voix pour crier A ses côtés le voir mondialiser le reggae Puis j'irai voir Gainsbourg et les Wailers dans la foulée J'irai verser une larme avec Obama Au centre Kennedy, dans un concert hommage à Bruce Springsteen J'aurais kiffé la Three Six Mafia sur le ring Aux Oscars, à fixer les stars en rampant sur x2 Ramenez moi là-bas, loin des formats Quand la musique s'écoutait pas encore en MP3 Quand les classiques se mesuraient à la qualité J'entends encore le vinyle craquer J'entends encore le vinyle craquer J'irai voir Edith Piaf elle m'expliquerait tout le taff On inviterait Jacques Brel à me parler de la soif De l'art du chant, de la peur de mal faire, il me dirait Faf La rage et l'amour s'expriment avec un public en face On voyage vers des musiciens sur un plateau de tournage La scène est filmée et la BO est live Sergio et Ennio Morricone au firmament A moi les secrets du bon, de la brute et du truand, top du son sur l'image Je l'ai fait ce rêve à Chicago avec Muddy Waters Signer son premier contrat chez Chess Records Son blues allait influencer le rock et la folk des années 40 jusqu'au Rolling Stones J'étais d'attaque pour suivre la route jusqu'à Woodstock J'allais pas rater les Who, Jimmy Hendrix et les autres Enfin un tour à la Motown, l'usine à tubes et Marvin what's going on? Et quoi de neuf à Vegas Full sur le , ce soir j'joue le J'aurais voulu y être à la création de la bande originale de J'aurais porté les cafés à Isaac, rien à battre Ou assister à cette cérémonie des Grammy Fin 90 la première le rap s'est introduit Ou dans ce club de rap jazz à Harlem à la table de Ravel Qui me raconterait les sixtes et les neuvièmes La musique classique et les trésors du XXème Seb Damiani au piano improvisant un thème Il y aurait plein de trucs à faire et plein de trucs à voir Surement plus que ma putain de mémoire tard le soir Tu vois ce que je veux dire? Retour aux sources x22</t>
+          <t>Come on man First we get the cash Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume J'assume d'être chaud, un pow possédé ce son Soul Swing, Marseille, je le place d'entrée Les types qui ont un problème avec ça peuvent crever Les flipes, les mauviettes, fils j'en n'ai rien à carrer Je fais c'qu'il faut, faut pas l'oublier, tu le sais Néanmoins j'ai pas beaucoup d'efforts à fournir La fournaise sur scène, témoin le public Quand j'me la joue ziz' ça passe pas j'en ai rien à foutre Mais c'est d'l'art, Faf Larage moi et ma saga Plus long que Dallas, des emmerdes, des crasses mais je suis encore là Pour un show, viens nous Voir là si t'as le temps Néglige pas les cotons-tiges si tu veux un son clean Que le funk reste funk, que le rap reste vrai Le vrai hip hop n'amasse pas de blé Ainsi des groupes fusent, tous pour la tune J'en veux à personne tant qu'on fait la différence Les tendances ne m'atteignent pas, je suis à l'heure East Coast Et fait le compromis avec les Bouches-du-Rhône Ça finira par payer, on fera les comptes dans quelques années Fils, mes disques continueront de tourner, ouais Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume Attaquer les Fnac et les Mégastore de France Les bacs, les disquaires de mon expérience Soul Swing, des types, la frime égo-trip De la Gangst-shit de hip-hop fanatics 96, le groupe se saigne, se gère lui-même, s'endurcit depuis tant XXX Billes, école, je rigole, comment les choses évoluent Pas une merde en radio nous vaut ma place dans la rue Ecoute-moi et capte mon job comme il est Ne lui met pas de forme, laisse-le dans sa norme Revoit l'histoire du rap ici quand tu parles de moi Fait tourner ma sauce que j'XXX pour toi Et tu le sais, forcer les portes qui s'ouvrent mal Ferme la bouche à ceux qui n'y croyaient pas, qui s'avalent Mes chèques, mes ventes, si il faut j'déballe Pour un spécial coulisse de Soul Swing dans Capital Vas-y crédite, si moi j'débite, sors les sous Reste un ami et nos morceaux tu les joues dans les bonnes radios et les méchantes soirées Ouais fait tourner que je fasse mon blé x2 Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume J'aimais entamer un taxe après une relaxation Mais à présent je prend les devants, garant de mon propre nom Épaulé par mon poto Def avec qui il faut compter Si il te viens l'idée d'affronter Soul Swing, gaffe j'ai K-Rhyme Le Roi de l'autre côté plus rebel et Majestic Mes DJ, tu vois on est plein de pitié Si tu souhaites être épargner, exaucer ton vu me coute On te traitera comme Slick Rick like a prostitute Désormais, fini de plaisanter Tu connais la qualité et ça n'va pas changer Les mecs veulent des nouveaux morceaux, je donne des nouveaux morceaux Et fait un hold up sur toutes les émissions radio Hip-hop sûr et si tu discutes, vois qui est le mac en place Et acceptes que je fasse ma tune, faut pas faire chier quand je place mon blé Mon blé c'est ma voix, ma tech et mes productions, du bon son selon mon humeur Fais tourner l'instru DJ n'hésite pas Scratch par-ci par-là que le beat ne s'arrête pas XXX 96, XXX Freestyle XXX quand je stoppe ma phrase, les pédales tendent de faire de même Mon rap est XXX, faire danser, réfléchir sur des textes qui tiennent à cur et à mon portefeuilles Fais tourner DJ l'instru que je fasse ma tune Faire du XXX pour continuer Le rap dans le son, suis mon job comme un exercice C'est taffé , ça traine depuis trop de temps De temps en temps, j'ai laissé faire, XXX je représente Écoute de voir comment en auto-prod je rends Je me XXX l'argent pour d'autres projets plus grands Autant de hargne que mon équipe, je XXX Le sud dans l'esprit, mon crew ne fait qu'un Les vieux briscards de Marseille de remettent à l'heure Et tu pleures ta mère quand tu penses qu'hier je me lâchais sur RapLine M6 bon pour l'époque Depuis 88 on gonfle le stock, c'est le XXX dans les têtes La consécration dans la mienne Marseille on connait l'histoire, c'est la même Que celles de tout les bad boys du rap en France Et pour que ça commence par le début, l'acharnement en fait traduit ça frappe cette fois Une fois, une seule, pour se retomber du EP Lache ta tune que je fasse la mienne, mon gars, ouais fais tourner que je la fasse mon vié Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume</t>
         </is>
       </c>
     </row>
@@ -1257,12 +1257,12 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Esprit anesthésié</t>
+          <t>Faut que j’renaisse</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Bienvenue dans le dévaste-land, bouteilles cassées Cyclos brûlés, centre social pas vraiment terminé Peinture, façade remaquillée pour masquer la pauvreté Au cas où le touriste ne serait pas prêt Voiture de police, travail absent, embrouille au feu vert Terrasse pleine, un bon resto de poissons face à la mer Galère, le énième contrôle de la semaine Tes papiers fils tu les a pas, on t'amène Surtout si ton nom commence par Ben Mec nerveux au volant T'as un problème ? Quoi ? Descends ! , devant ses enfants Comme un chiffonnier chemise pleine de sang Honte pour un adulte soi-disant civilisé Incapable de tempérer son tempérament Enfermé dans le contexte boulot-maison-prisonnier A cran toute la journée, on finit par agresser Soupape de sécurité, stade de foot plein à craquer Quatre buts, deux-trois jeux télés, esprit anesthésié L'esprit embrumé, anesthésié La pilule est toujours passée, grillés comment on fait ? Aveuglés par le peu de gloire L'espoir de s'en tirer sans empirer pourquoi on voit rien, hey ? L'esprit embrumé, anesthésié Tu paies, tu râles et t'encaisses laisse faire et Oublie jusqu'au prochain jour où tu en chiais Retourne dans le cycle et l'esprit anesthésié Meeting, bande d'excités souvent armés Enragés, fou de joie à l'idée de dégainer Les premiers, sans pitié, la boule est déjà lancée Une quille est tombée mais bon, elle n'est pas blanche, y'a pas de regrets Intolérance poussée à l'extrême, épaulé par la crème Fanatique, aveuglé par la voix aryenne Et qu'à cela ne tienne, de l'autre côté, on a la même Mentalité, les infidèles sont condamnés C'est Hitler contre Staline, Pétain contre Mussolini Un mal contre mal, pas d'extra-balles, fin de partie Sentiment d'insécurité provoqué Par les camions de police garés dans chaque rue et chaque quartier Loi Pasqua proposée, vivement huée, prises d'otages simultanées Camouflage, ta pilule est passée Diversion, un tac-o-tac, 2 morpions, gratter, courir Après le gros paquet, esprit anesthésié L'esprit embrumé, anesthésié La pilule est toujours passée Grillés, comment on fait ? Aveuglés par le peu de gloire L'espoir de s'en tirer Sans empirer Pourquoi on voit rien, hey ? L'esprit embrumé, anesthésié Tu paies, tu râles et t'encaisses Laisse faire et Oublie jusqu'au prochain jour où tu en chiais Retourne dans le cycle et l'esprit anesthésié Société poussée à la consommation Casinos pleins, pour une bouteille de Perrier baston Salaires bas, prix en hausse, toute la journée Comme un forcené, tu bosses pour pouvoir aller bosser Subvention de velcros sur le pognon pour les quartiers pas un rond Mais un jour de retard dans tes impôts sanction Course de l'espace, puits sans fond, on manque d'oxygène Sur terre, de plus en plus de gens dorment sous les ponts Système D gars, shit, jobs non-déclarés Pas l'choix, instinct de survie exacerbé Le déséquilibre est destiné à régner Sur un parc à jouets où les moins chers se cassent les premiers Gauche, droite, même combat pour la monnaie Ceux qui chantaient on a gagné Sont les mêmes qui sortent manifester La révolution sera pas télévisée On y passe des sitcoms de chez AB, esprit anesthésié</t>
+          <t>Faut que j'renaisse fissa avant qu'on m'enterre trop vite je sais que ça Va se faire de toute façon j'espère ne pas mordre à l'hameçon d'ici là Même dans mon élément j'ouvre l'oeil prêt à l'action Sinon je me retrouve sans cervelle la tête sous le cul du gazon Je dois renaître à chaque page elles sont ma raison D'être comme l'éveil pour le sage atomiser ma cage tel un songe Libérer la rage en toile de fond pour pas le toucher trop vite Je nage à contresens d'instinct esquive les naïfs dans le pétrin Tel un Phoenix, renaître, pas que les cendres pourrissent Rejeter les dés sans crainte de se mouiller Lardé de problèmes en tout genre et au quotidien et Personne ne voit rien, faut faire avec Ta famille à dos ou ton boulot qui suit pas La tune qui manque un handicap là pour les faibles Seuls les fous ou les forts en réchappent et la chance Se défile comme par hasard quand t'as le plus besoin d'aide Attendre de toucher le fond ? Jeter l'éponge ? Nan Faut se retourner le cerveau, combien ici sont indemne ? Pas finir stupide, marcher dans le vide sans rien pour me guider Même quand la route est risquée pas question de se planter Faut que j'renaisse, faut faut que j'renaisse A chaque hourra, chaque coup bas, chaque fois, chaque combat Chaque seconde vécu jusqu'au trépas Faut que j'renaisse, faut faut que j'renaisse Je dois renaître à chaque feuille comme le soleil chaque matin N'est pas Phoenix qui veut les téméraires y laisseront leurs gains Heureux les saints que se remanient sans se ménager Malins qui se démarquent des esprits enragés saccagés sur le côté! Je dois renaître à chaque feuille comme le soleil chaque matin N'est pas Phoenix qui veut les téméraires y laisseront leurs gains Heureux les saints que se remanient sans se ménager Malins qui se démarquent des esprits enragés saccagés sur le côté Ouais alors s'il le faut faire un bout de chemin à ses côtés soit Le doute ? Si on le maîtrise on le matte Par l'acte, agir avant de faire le constat De ses rides qu'on aurait pu faire ceci ou cela Faut faut qu'je renaisse à chaque texte, à chaque pas et Faut faut qu'je renaisse toute façon j'ai pas le choix et! Ouais comme le Phoenix quoi! et oui au moins tu apprécies la journée et pas de regrets à la fin! Sûr cest ce que je voudrais un soleil sous ma fenêtre Un ciel sans tâches, inspiré, mon cahier Retranscrit mes joies sur les pages tu le sais Fuck les haineux aujourd'hui j'en chie pas pourquoi j'aurai pas Le droit de dresser un flow sans failles sur un jour faste Un jour sans facteur sans contrôle sans prise de tête où rien n'empiète sur l'humeur Un jour sans rancoeur un jour sans rage au coeur Un jour sans pressions un jour où tu sais que tu vas faire du bon son Et parler de jours dont on ne parle pas assez les bons C'est vrai rien ne va mieux mais quand y en a un j'en profite Trop précieux pour passer à côté mec je suis pas stupide Des jours comme ça, ouais j'veux des jours comme ça C'est vrai rien ne va mieux Trop précieux pour passer à côté mec Des jours comme ça, ouais j'veux des jours comme ça Seuls les fous n'en veulent pas de ses jours Où tu te lèves en sachant que tu regretteras pas le détour Moi ça me va et si j'ai pas autre chose à faire que ce que j'aime Un privilège trop rare pour qu'on le laisse à la traîne A l'agachon je guette ces jours et je me jette sans faire le difficile Son, sofa, ma femme moi et là faut que tu te lèves tôt pour me faire bouger d'un cil Rho docile la pression reste à l'écart C'est le pied et j'entends bien le prendre à bras le corps Un de ces jours laxistes, où l'orage se limite aux gimmicks Insipides, au lyriciste que je suis c'est comme si on M'inciterait à me retrouver, à oublier, à chérir le moment C'est comme un sourire de M'man, un regard fier de P'pa Un repas en famille où la bonne humeur va de soit Avec Dalou dans la place, les conflits inexistants dans ces journées-là Comme quand je vois ma Charlotte heureuse ça Me réchauffe le coeur, genre le soleil rouge à huit heure du soir Tu sais qu'on y a droit, maudit soit celui ou celle qui va Me l'arracher, putain tu le sais c'est rare ces sensations Quand j'écris et quand je rapperais ce texte je voudrais Des claps et des sourires sincères frère Que ces journées aient des reflets sur scène</t>
         </is>
       </c>
     </row>
@@ -1274,12 +1274,12 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Euh...</t>
+          <t>Faut Savoir Anticiper</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Qu'est-ce que j'voulais dire déjà ? Euuuuuh Ah ouais ! On veux du vrai et d'la 'sique Un truc qui t'prend aux tripes Dans l'lard sans artifice Qui fasse pas un buzz dans les articles Mais dans les sonos, les vagos, les boomers, les speakers Viens, j't'explique ma logique Un son qui frappe, faut d'abord une bonne rythmique Puis ensuite, une mélodie envoutante qui tape dans l'système mec, faut qu'ça clippe Énergique, une basse limite, explosion style nitroglycérine Pas d'autre argument que les watts qui déchirent C'est ça qui minspire, les sens de ma XXX Ma clique kiffe le son bad qui baffe Racket les lyrics des bites Les bitches qui pensent qu'aux hits, rien dartistique Tiens rik pe Faut être fier d'une éthique, avoir une sacré équipe de producteurs armés d'kick Pense au public, les mains en l'air eh yo Farah vas-y dit leur qu'ça part en vrille Pour les faire bouger, j'ai la r'cette, Faf c'est le chef, pas b'soin d'traiteur MC, lève tes mains du mic' ça gave, ça rame grave, on veut pas t'voir en live Quand j'rappe, ça taille, c'est la garde, ça calme, aïe, arrache des larmes aux hauts-parleurs Les langues de putes toujours dans l'viseur Elles parlent derrière, et devant te filent le postérieur Allez vous faire mettre ailleurs C'est que des bruits, des on-dit, des aigris qui savent bien que je suis meilleur qu'eux A la Pete Rock, soul survivor, celui qu'ça embarrasse beh j'm'en bat la race Moi j'axe mon taf, moi et mon staff, on a la rage du bon pour la maf' Trace, ici c'est du rap, pas d'strass Enchaine des milliers d'phases Toi reste à la ramasse Faf le coeur, me juge pas, appelle moi Votre Honneur Dope Rhyme Sayer, mon seigneur Ça saigne, reste pas au milieu Eh vise la technique, le style de la clique C'est écrit, Imperial Asiatic Depuis 90, sans venir de l'Amérique Mais droit de cette ville, en face de l'Afrique On chie sur la crise avec une éthique stricte Sur nos feats et nos disques, nos bizz et nos rythmes Sorti du cur d'une MPC et c'est ça, le son est fantastique Ils bavent sur nous quand leurs titres c'est le cirque blablabla Ils font retomber la trique Le niveau des lyrics baigne dans le caniveau et dévalue la réputation de ta street Vite et puisque cet art est magique, l'effet est immédiat et ta sortie elle est tragique haaaaaaa Voici l'avis des fans et du public Sans trafic, attends je t'explique Certains artistes renient la musique et les basiques Font leurs carrières sur de la pipe Ils rendent ce milieu si chiatique Posé sur ce beat, j'vend leurs structures atomiques Comme Nessbeal, c'est ma mélodie des briques En France et de Mars que jécris en italique Ils disent sans arrêt à la télé qu'on est raciste Lâchez-nous un peu, occupez-vous du cul de Brice ooooouh Je suis l'épouvantail chez les fachistes On les stoppe, on les couche, on les tilte, on les vanne, on les pique, on les crache, on les chique, on les mâche, on les chie Parfois on les claque et on les kicke Niveau sapes respecte le standing Jdide comme Silvio assis au Badabing Ce son on le mérite Juste un petit break beat de suite Rafale anthologique ratatata C'est drastique, du classique, on fait péter le plastique Les DJ sont d'accord, ce track doit finir sur le vinyle Ça file, ça vit, ça vibre, ça donne, ça kill Sa place fais pas de sou, mais au top de la pile Dans les postes de tirs qui croisent dans la ville Notre match a cent titres sur l'affiche C'est le talon d'Achille face au talent de Chill</t>
+          <t>Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai pas attendu qu'on m'dise quand je tchatche avec Faf De mettre la gouache Que les autres MC en face prennent des baffes Fumer l'instru comme quand sur ton spliff Tu tires une taffe, honorer l'invitation du Kif Kif staff J'ai pas attendu qu'on me dise Fils fais du rap Rien à foutre des enculés qui croient pas en moi Eh, le temps n'attend pas on est pressé, t'as les foies ? On sait que ce sont les premiers qui foncent qui ramassent le tas J'm'en ouf, ils m'disent que je suis vulgaire Il changera pas ! C'est ma nature, mon caractère Qu'est-ce que tu peux faire ? Arrogant, nègre et fier Ils aiment pas ça Dans leur système, je gêne, j'ai bouffé leur muselière J'ai pas attendu qu'on me montre Le mauvais du doigt Des influences pour réfléchir me dire dans la vie, avancer C'est un choix, responsable envers mes actes J'ponds ça, laisse tomber on bouffe ça Pas besoin qu'on me dise que ça pue, pour voir qu'ici c'est la merde La vie, un jeu d'échec, protège ton roi pour ne pas perdre Toujours surprendre l'ennemi comme les attaques du Raid Seul dans ce labyrinthe mais je n'ai besoin d'aucune aide À l'aide, c'est la baise personne ne se lève Y'a qu'une minorité de gens le cur sur la main Alors on crève, on sait quoi faire, Pit Baccardi, Neg'Marrons La rage, c'est la même Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai appris à rester seul au milieu de tous Parfois penser pour tous et même être seul contre tous Je fus, je suis, serais fils du vent J'tisse ma toile exauce mes vux Le vent souffle, faut que j'avance vers Dieu, perdu Une cause, mon but, la force ma détermination Seul guidé par ma conscience j'avance dans une direction Qui mène à ce destin que j'aimerais être le mien Mais qui nécessite que je manifeste une rage, une colère Que j'agisse sans limites J'ai pas attendu la sécheresse Pour savoir que je peux mourir de soif D'avoir le poison dans ma soupe et en conclure que Mon tueur est près de moi et veut ma mort Que le monde soit en couille plus besoin d'être pédé Pour se faire enculer merde, j't'ai pas attendu Pour être ce que je suis, un mec fier qui est ce que tu n'es pas Qui fait ce qu'il peut que toi tu ne fais pas Seul contre tous, je n'attendrai pas l'apocalypse Pour croquer la vie à pleine dent, enragé comme un clebs J'en bave, mais je pourrai surmonter cette épreuve Faire face à cette chienne de vie Qui a le pouvoir de briser mes rêves Laisse j'attends pas qu'elle m'attends au tournant J'suis mal vu mais pour l'instant je la baise avant de me rendre au suivant Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent Progresse, fils, t'as vu ça on y croit parce qu'on marche comme ça Y'a pas le quart de ce qu'on peut faire dans ce titre C'est pas le clan des loosers Ni des suiveurs, la vie, c'est pas un truc de causeurs Nés pour le pire et le meilleur La vie, faut que je la nique, toujours donner le meilleur de moi Pas rester statique on prend des risques dans la musique Pour l'amour du disque c'est pour ça que j'y mets tout mon cur À chaque fois que je kick Jacky Brown au micro Neg'Marrons est mon éthique N'est-ce pas mon haleine pourrie derrière ce mic ? Ne naissent-ils pas de ma semence Ces textes crus que je veux poésie ? Les pros ici sont prêts à ça À l'affront, avec comme seul soutien la prophétie On a peu de temps pour réfléchir mais encore moins pour agir On ne cesse de le dire d'où se manifeste la force d'écrire Des choses qui poussent, incitent les jeunes à réagir vite De façon claire et explicite Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent</t>
         </is>
       </c>
     </row>
@@ -1291,12 +1291,12 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Faf A La Rage</t>
+          <t>Feuille blanche</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>98, l'apogée des cons et ça suffit Je pose ma B.A. artistique au rempart, la garde avec moi J'écris en vrac, qu'importe, avec le cur Pour l'honneur, pour les miens, mon clan c'est comme ça Pas l'choix fils, crois-moi, le Sud c'est chaud Trente pourcents d'enculés veulent notre peau c'est beaucoup trop J'm'étais dit, c'morceau, je vais être original et concis non C'est fou y a rien à faire, sur ce coup j'ai trop la rage, si On vit à l'époque où le rap connaît un succès non-stop Paradoxalement le FN aussi Y a des années, cinq pourcents voire six Aujourd'hui les chiffres ont doublé, qu'est-ce tu fais Fils, faut voter contre De la cité à la campagne ou aux centres-villes, pour les tiens Faut voter, même si les autres ne font pas l'affaire C'est bête mais on n'peut tout d'même pas laisser les racistes aux manettes Que les choses soient claires, ils veulent ma peau et j'veux les leurs Leur programme de merde, c'est un leurre Qu'est-ce que tu crois, 2039, non, j'attendrai pas Si ça s'amplifie, tu devras faire un choix Alors qu'ils ne parlent surtout pas de République, enfoirés Putain d'nazis ils vont pas nous bluffer Grâce à la merde, ils recrutent dans la cour des cons Pour des idées de fils de pute, aucun pardon Alors, tu vois à qui on a affaire fais ton devoir, fils De mairie en conseils régionaux, ils s'pavanent Arrivent à jouer à jouer les arbitres aux élections Et c'est l'drame psychologique, la guerre est là, tu sais Rempart ou pas, la liberté en péril Et un parti prônant la haine d'autrui prend des villes Et si tu y assistes sans rien dire, c'est qu't'es avec lui T'as rien compris, ils feront la loi, décideront des aides, qui y a droit Français ou pas, sans carte du parti, un gros doigt Demande aux gens de Vitrolles, Toulon, de Marignane qui sont contre Ce qu'ils vivent, la tension qui monte Pour l'instant c'est subtil, de l'extérieur on voit rien Des coupes administratives, dans les cités plus d'moyens Et la culture, est-ce nécessaire de l'préciser Musique de jeunes, tu peux oublier, le rap en premier Des bouquins, mais les fachos n'ont pas envie qu'tu réfléchisses Eh les médias, au lieu d'attiser, vous serez la première cible Putain, y a qu'à regarder en arrière et s'y référer Trois pays autour de nous sont déjà tombés Si on est trop naïfs, on va s'le prendre en pleine gueule On pourra plus faire machine arrière c'est maintenant qu'ça s'décide Malgré l'Histoire, les procès, les gens à présent Ont oublié qu'Hitler a été élu démocratiquement Scandale, un gros porc veut nous faire la même 'culé Puis virer les Noirs et les Arabes, tous qui les gênent Fermer les frontières, fermer leur gueule à ceux qui pensent différemment Fermer les établissements qu'ils n'contrôlent pas totalement Première étape du programme du FN Je garantis sur ma vie, on va pas s'laisser faire Que les choses soient claires, ils veulent ma peau et j'veux les leurs Leur programme de merde, c'est un leurre Qu'est-ce que tu crois, 2039, non, j'attendrai pas Si ça s'amplifie, tu devras faire un choix Alors qu'ils ne parlent surtout pas de République, enfoirés Putain d'nazis ils vont pas nous bluffer Grâce à la merde, ils recrutent dans la cour des cons Pour des idées de fils de pute, aucun pardon En plus ici on est à Marseille On n'est pas concernés Ceux qui votent pour, à Marseille, on n'les voit pas 50 d'hypocrites au moins dans l'tas Je m'explique, pour certains vivant en ville sans problème Une caisse crame dans une cité aux infos et ils ont la haine La crème du hip-hop, voudraient qu'on disparaisse On représente tout c'qui les gêne, tout c'qui les blesse Fils tu sais, on existe et ça les emmerde Putain d'racistes allez vous faire mettre Marseille, j'y suis né et j'y reste Je l'aime pour ses mélanges, ses cultures, ses ethnies et leurs fêtes C'est un fait, l'étranger, c'est celui qu'ils n'acceptent pas Et beaucoup sont d'origine étrangère, tu le crois? R.A.P, retour au pays, sur les affiches, comme ils disent dans leur jeunesse de merde Ha, j'me marre, les cons, les blaireaux Leurs parents devraient être pris à coups d'pompe dans l'cul pour avoir entretenu de tels cerveaux Trêve de plaisanterie, le temps des baraquements pourris Les pauvres zoufris qui bossaient pour rien c'est fini Manipulés, depuis y a des enfants, pas d'chance Génération ouvrière née ici qui dérange Tu voudrais refaire la France et t'y peux rien XXX Frapper ta fille si elle sort avec un négro connard XXX t'as rien compris, merde J'veux surtout pas essayer d'te convaincre non J'oublie pas le jeune Ibrahim Ali, souvenez-vous Une balle dans l'dos par un colleur d'affiche un fou Ce qu'il lui faut, pas d'doute, la perpétuité Tu vois l'genre d'esprit qui voudrait nous gouverner Alors ceux qui votent parce qu'ils sont soi-disant déçus, perdus Y a pas d'excuse ni d'demi-mesure, faux-culs Aux urnes, j'irai, essaierai de contrer Cette saloperie pour éviter la guerre civile, ouais tu l'sais</t>
+          <t>Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche Ma garantie de n'pas écrire de conneries Avant d'écrire ces quelques mots plein de vie On cherche le pour et le contre, on veut qu'ce soit terrible sans la pression On sait qu'ça va rester sur on s'applique on prend son temps On veut pas d'erreurs on se concentre là sur la feuille on Constate complique comment on fait on Se questionne pour obtenir le meilleur du son En réussissant en foirant on a pas trop le choix on Fait façon relâche au pire la haine parle Suivant les sujets ça marche ou pas En tous cas je m'dois en tant qu'auteur d'investir dans la course Pas seulement si j'veux qu'mes rimes soient cotées en bourse C'est pour l'amour de l'art me prendre la tête ça je sais l'faire Stylo dans la main le lien entre ma feuille et moi c'est clair L'atmosphère se disloque le temps un élément oublié Connexion papier mine cerveau tout y est La création pour commencer se fraie un chemin dans les lignes L'inspiration fait que ce moment soit des plus intimes Sorti d'là tu n'es plus qu'un étranger Un mystère sous tes yeux que tu cherches à élucider Tu l'sais Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche La garantie de n'pas écrire de conneries Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche La garantie de n'pas écrire de conneries Un style unique utile en vogue pour les freestyles Pur comme du cristal, arrache comme du Mezcal J'tente de faire des assonances du style quand j'y pense Mets au point une diction qui m'met en transe quand j'me lance et Stop j'arrête peur de faire un flop Conscient qu'je vais barrer au prochain mot j'prends une clope et j'attends Observe mon cahier donc cette fois j'ai repoussé les mauvaises idées noté ça j'en ai Tu le sais toi mon carnet je t'en ai fait voir crispé J'arracherai tirerai tes feuilles un fou dans mon délire et J'pars en vrille j'parle du papier Un bloc inerte mais si il vivait il me comprendrait pour la hantise et la rigueur du service Et la qualité de rap cherche que tu t'infliges Aussi si tes écrits sont intelligents Je serai fier de les garder précieusement dans mes rangs C'est ridicule de penser ça mais en fait on est complices Je sais ce qu'il me dirais, me donnerais comme indices N'écrit pas d'conneries trouves des sujets propices Traite les avec malice des textes responsables fils Refuserai les combines si je veux achever une phrase avec des rimes pas trop fines Y'a tellement de choses à dire à partir du moment où ça finit sur un disque il faut que tu mesures les risques Les rangs on s'en fiche quand tu crées pour évoluer C'est la dernière question que tu dois t'poser Autant d'conseils à mon esprit devant une feuille blanche Autant de textes à chier qui dorment car je flanche Je vais pas te faire mes louanges j'suis pas Michel-Ange De la plume et mes notes sont toujours là pour me le rappeler Ne confonds pas egotrip et réalité dans le premier cas j'suis au sommet et dans le deux je tente d'y accéder Comme un obsédé jamais satisfait même si je passe des heures devant un carreau vide J'essaye de ne pas succomber au supplice de la facilité pour un public qui ne veut plus de paroles factices Avant qu'ma voix n'diffuse quoi qu'ce soit si il n'y a pas d'inspiration je ne force pas et je laisse ma feuille blanche Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche La garantie de n'pas écrire de conneries</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Fait Tourner Que Je Fasse Ma Tune</t>
+          <t>Fiers</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Come on man First we get the cash Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume J'assume d'être chaud, un pow possédé ce son Soul Swing, Marseille, je le place d'entrée Les types qui ont un problème avec ça peuvent crever Les flipes, les mauviettes, fils j'en n'ai rien à carrer Je fais c'qu'il faut, faut pas l'oublier, tu le sais Néanmoins j'ai pas beaucoup d'efforts à fournir La fournaise sur scène, témoin le public Quand j'me la joue ziz' ça passe pas j'en ai rien à foutre Mais c'est d'l'art, Faf Larage moi et ma saga Plus long que Dallas, des emmerdes, des crasses mais je suis encore là Pour un show, viens nous Voir là si t'as le temps Néglige pas les cotons-tiges si tu veux un son clean Que le funk reste funk, que le rap reste vrai Le vrai hip hop n'amasse pas de blé Ainsi des groupes fusent, tous pour la tune J'en veux à personne tant qu'on fait la différence Les tendances ne m'atteignent pas, je suis à l'heure East Coast Et fait le compromis avec les Bouches-du-Rhône Ça finira par payer, on fera les comptes dans quelques années Fils, mes disques continueront de tourner, ouais Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume Attaquer les Fnac et les Mégastore de France Les bacs, les disquaires de mon expérience Soul Swing, des types, la frime égo-trip De la Gangst-shit de hip-hop fanatics 96, le groupe se saigne, se gère lui-même, s'endurcit depuis tant XXX Billes, école, je rigole, comment les choses évoluent Pas une merde en radio nous vaut ma place dans la rue Ecoute-moi et capte mon job comme il est Ne lui met pas de forme, laisse-le dans sa norme Revoit l'histoire du rap ici quand tu parles de moi Fait tourner ma sauce que j'XXX pour toi Et tu le sais, forcer les portes qui s'ouvrent mal Ferme la bouche à ceux qui n'y croyaient pas, qui s'avalent Mes chèques, mes ventes, si il faut j'déballe Pour un spécial coulisse de Soul Swing dans Capital Vas-y crédite, si moi j'débite, sors les sous Reste un ami et nos morceaux tu les joues dans les bonnes radios et les méchantes soirées Ouais fait tourner que je fasse mon blé x2 Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume J'aimais entamer un taxe après une relaxation Mais à présent je prend les devants, garant de mon propre nom Épaulé par mon poto Def avec qui il faut compter Si il te viens l'idée d'affronter Soul Swing, gaffe j'ai K-Rhyme Le Roi de l'autre côté plus rebel et Majestic Mes DJ, tu vois on est plein de pitié Si tu souhaites être épargner, exaucer ton vu me coute On te traitera comme Slick Rick like a prostitute Désormais, fini de plaisanter Tu connais la qualité et ça n'va pas changer Les mecs veulent des nouveaux morceaux, je donne des nouveaux morceaux Et fait un hold up sur toutes les émissions radio Hip-hop sûr et si tu discutes, vois qui est le mac en place Et acceptes que je fasse ma tune, faut pas faire chier quand je place mon blé Mon blé c'est ma voix, ma tech et mes productions, du bon son selon mon humeur Fais tourner l'instru DJ n'hésite pas Scratch par-ci par-là que le beat ne s'arrête pas XXX 96, XXX Freestyle XXX quand je stoppe ma phrase, les pédales tendent de faire de même Mon rap est XXX, faire danser, réfléchir sur des textes qui tiennent à cur et à mon portefeuilles Fais tourner DJ l'instru que je fasse ma tune Faire du XXX pour continuer Le rap dans le son, suis mon job comme un exercice C'est taffé , ça traine depuis trop de temps De temps en temps, j'ai laissé faire, XXX je représente Écoute de voir comment en auto-prod je rends Je me XXX l'argent pour d'autres projets plus grands Autant de hargne que mon équipe, je XXX Le sud dans l'esprit, mon crew ne fait qu'un Les vieux briscards de Marseille de remettent à l'heure Et tu pleures ta mère quand tu penses qu'hier je me lâchais sur RapLine M6 bon pour l'époque Depuis 88 on gonfle le stock, c'est le XXX dans les têtes La consécration dans la mienne Marseille on connait l'histoire, c'est la même Que celles de tout les bad boys du rap en France Et pour que ça commence par le début, l'acharnement en fait traduit ça frappe cette fois Une fois, une seule, pour se retomber du EP Lache ta tune que je fasse la mienne, mon gars, ouais fais tourner que je la fasse mon vié Fait tourner que je fasse ma tune, fils Fait tourner que je fasse ma tune, DJ Fait tourner que je fasse ma tune Et si ça passe pas t'inquiètes pas j'assume</t>
+          <t>On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers Tu reconnais la voix jai tout le 1.3 dans le larynx Du petit séminaire, au carré dor en passant par Arenc Et les communes périphériques dans ton oreillette Entend quon croit plus en Clochette chez nous les faits sont réels À cause des cerveaux qui satrophient mais via ce gros feat Vois quil y a plus d1000 profils qui puent le profit Jmarche les yeux cernés marquer par le manque de sommeil mais lmenton pointé vers le ciel comme si je narguais le soleil Je peux me targuer davoir eu un Master 2 en survêt de chelsea On aime pas faire miskine car éduqués à la dure Homme ou femme, joie ou drame ,on se doit d'être fier Marseille ça s'arrête pas, pas de limites, pas de frontières ça parle fort, ça parle vite en vrai,ca vit sur les nerfs ca exagère parfois peut-être ça se calme au bord de la mer L'encre coule le sang se répand ohlalala Il faut être digne de ses lignes elles ont marqué les gens je rêvais d'être feignant je rêvais de Testa rossa Je rêvais que j'avais pas le temps Marseille ça s'arrête pas Ma ville est grande dans la légende c'est Marseille en vrai à la bien lâche rien c'est Marseille en vrai Je représente le décor c'est pour le frérot Relo C'est l'enfant du Vieux-Port normal que j'ai du flow Ils m'ont dit la vie d'artiste mec non je ne signerai pas 30 ans après ayé les my way Sinatra Et voila parti en balade ne visant que les cimes Le soleil et les rues pourries furent l'écrin de mes rimes C'est peut-être pour ça que je pique dans mes propos quand je kick c'est du loco, pur jus produit local J'ai le feu dans la Bocca, les forces de Mars soufflent le cur nourri aux flammes, j'ai la fierté de mes souches couz Marre On cause dès que le son tourne pas avant, et y'a pas de paravents, t'es pas préparé pars avant c'est shu Jusqu'à la moelle enragé, dealer d'images engagées les pages défilent et volent sans jamais se plier On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers Fier de ce qu'on est, on se contente de ce qu'on a Rien a été volé pour en arriver là Dignité ne s'achète pas, chacun choisit sa voie Faire le bien autour de soi éviter les faux pas Essayer de garder la foi, fier, fort, digne, et droit Malgré les coup bas que la vie nous réserve des fois Élever mes fils, les serrer dans mes bras, chaque matin dans le miroir ils se reconnaîtront bûche 10 fois plus pour sortir de l'engrenage de ces halls Il te mettront sur le grill, testerons ta résistance, la force de tes épaules Le verbe fort formé pour choquer les hautes sphères Sincères Punchliner la dalle au peuple sa mère Ici Ma couleur a ses droits devant le holster Quadriller le terrain tant qu'il peut En parallèle mon clan ma cause on fait le job homy Regarde aujourdhui comment on salit la prod Nos strophes autour du globe untel au microphone fuck les xénophobes Nos vraies valeurs donnent Cador et pléthore de Vador les rues du sud signent Un coeur en or perforé par le sort digne La jungle et ses animaux qui sera le le mâle alpha La rue cest dangerous tu plonges et tu taffoles Fier comme un baye fall, digne comme mes Comocos Ne tretourne pas face à poulet alloco Allo allo, bienvenu chez les hommes ca kick dure mon salaud Juste pour la forme Honneur, fierté, dignité dans le azzi éternel insatisfait éternel incompris On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers</t>
         </is>
       </c>
     </row>
@@ -1325,12 +1325,12 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Faut que j’renaisse</t>
+          <t>Fin des illusions</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Faut que j'renaisse fissa avant qu'on m'enterre trop vite je sais que ça Va se faire de toute façon j'espère ne pas mordre à l'hameçon d'ici là Même dans mon élément j'ouvre l'oeil prêt à l'action Sinon je me retrouve sans cervelle la tête sous le cul du gazon Je dois renaître à chaque page elles sont ma raison D'être comme l'éveil pour le sage atomiser ma cage tel un songe Libérer la rage en toile de fond pour pas le toucher trop vite Je nage à contresens d'instinct esquive les naïfs dans le pétrin Tel un Phoenix, renaître, pas que les cendres pourrissent Rejeter les dés sans crainte de se mouiller Lardé de problèmes en tout genre et au quotidien et Personne ne voit rien, faut faire avec Ta famille à dos ou ton boulot qui suit pas La tune qui manque un handicap là pour les faibles Seuls les fous ou les forts en réchappent et la chance Se défile comme par hasard quand t'as le plus besoin d'aide Attendre de toucher le fond ? Jeter l'éponge ? Nan Faut se retourner le cerveau, combien ici sont indemne ? Pas finir stupide, marcher dans le vide sans rien pour me guider Même quand la route est risquée pas question de se planter Faut que j'renaisse, faut faut que j'renaisse A chaque hourra, chaque coup bas, chaque fois, chaque combat Chaque seconde vécu jusqu'au trépas Faut que j'renaisse, faut faut que j'renaisse Je dois renaître à chaque feuille comme le soleil chaque matin N'est pas Phoenix qui veut les téméraires y laisseront leurs gains Heureux les saints que se remanient sans se ménager Malins qui se démarquent des esprits enragés saccagés sur le côté! Je dois renaître à chaque feuille comme le soleil chaque matin N'est pas Phoenix qui veut les téméraires y laisseront leurs gains Heureux les saints que se remanient sans se ménager Malins qui se démarquent des esprits enragés saccagés sur le côté Ouais alors s'il le faut faire un bout de chemin à ses côtés soit Le doute ? Si on le maîtrise on le matte Par l'acte, agir avant de faire le constat De ses rides qu'on aurait pu faire ceci ou cela Faut faut qu'je renaisse à chaque texte, à chaque pas et Faut faut qu'je renaisse toute façon j'ai pas le choix et! Ouais comme le Phoenix quoi! et oui au moins tu apprécies la journée et pas de regrets à la fin! Sûr cest ce que je voudrais un soleil sous ma fenêtre Un ciel sans tâches, inspiré, mon cahier Retranscrit mes joies sur les pages tu le sais Fuck les haineux aujourd'hui j'en chie pas pourquoi j'aurai pas Le droit de dresser un flow sans failles sur un jour faste Un jour sans facteur sans contrôle sans prise de tête où rien n'empiète sur l'humeur Un jour sans rancoeur un jour sans rage au coeur Un jour sans pressions un jour où tu sais que tu vas faire du bon son Et parler de jours dont on ne parle pas assez les bons C'est vrai rien ne va mieux mais quand y en a un j'en profite Trop précieux pour passer à côté mec je suis pas stupide Des jours comme ça, ouais j'veux des jours comme ça C'est vrai rien ne va mieux Trop précieux pour passer à côté mec Des jours comme ça, ouais j'veux des jours comme ça Seuls les fous n'en veulent pas de ses jours Où tu te lèves en sachant que tu regretteras pas le détour Moi ça me va et si j'ai pas autre chose à faire que ce que j'aime Un privilège trop rare pour qu'on le laisse à la traîne A l'agachon je guette ces jours et je me jette sans faire le difficile Son, sofa, ma femme moi et là faut que tu te lèves tôt pour me faire bouger d'un cil Rho docile la pression reste à l'écart C'est le pied et j'entends bien le prendre à bras le corps Un de ces jours laxistes, où l'orage se limite aux gimmicks Insipides, au lyriciste que je suis c'est comme si on M'inciterait à me retrouver, à oublier, à chérir le moment C'est comme un sourire de M'man, un regard fier de P'pa Un repas en famille où la bonne humeur va de soit Avec Dalou dans la place, les conflits inexistants dans ces journées-là Comme quand je vois ma Charlotte heureuse ça Me réchauffe le coeur, genre le soleil rouge à huit heure du soir Tu sais qu'on y a droit, maudit soit celui ou celle qui va Me l'arracher, putain tu le sais c'est rare ces sensations Quand j'écris et quand je rapperais ce texte je voudrais Des claps et des sourires sincères frère Que ces journées aient des reflets sur scène</t>
+          <t>Evanouis comme des illusions Jai mixé mon passé, présent, futur et jen ai fait des sons Jserai toujours trop nouveau, trop ancien ou pas assez récent Faite de chance, de soleil, de violence, ma ville a ses raisons En France la police tue, la justice dit rien dintéressant Ceux qui prennent le risque de m'test subissent un supplice Les médias savent bien que pour faire peur, suffit dun suffixe Jsors dun chemin hors-norme, jrenvoie la balle au rap La concurrence au diable, lesprit hip-hop au crématorium A.K. ne fait pas du rap, ni du chant, il fait d'la science J'leur chanterai Youssou N'Dour pendant leur minute de silence Cest pire aujourdhui, petit frère préfère bibi au tcheks speed Armé pour de vrai, tire, laisse la bibliothèque vide Lavenir menvoie des sextos, jte ldis texto Que leur major me donne leur expo, jdeviens un ex-pauvre On a de lambition mais lespérance de vie dun mégot Jveux de largent, vu que largent compte plus que la vie dun negro Je rec', toujours sans pitié tfaçon plus rien à prouver Pas trop souvent sur les réseaux, ils splaignent de pas my retrouver Mais jpourrai jamais perdre la main en flow jai jamais foiré Bien sûr, yaura toujours des langues de putes pour nier les faits Je le leur dis façon Biggie dans It Was All A Dream Téma frérot, je rime et ton jean nest plus clean Génération leatherface, chainsaw cest le style Reviens sans cesse hanter le screen comme une lame à Halloween Aloha, cest pas la devise, au centre-ville tout sécroule A lheure ou les fachos dEurope sunissent pour baiser les foules On est tous pistés sur écoute, ou cest moi qui part en couille ? Tfaçon la planète dérouille, la désillusion métouffe Je juge plus, regarde Nipsey on va tous mourir Quand les rappeurs font du zouk pour pas bibi toute une vie Certains sattribuent le crime de leur crew pour faire les virils La vérité sur Youtube ne rapporte que peu de vues Jsuis la depuis les flinstones, depuis Ericsson et les ringtones Envoie la cryptomonnaie, tu vois bien que le beat cogne Tu me parles de rien, tu mparles de cash, tout a coup jtécoute Jviens réanimer la rue, jlui fait du bouche à bouche dégout Tas la meilleure dope, ouais cest ça Ferme ta gueule, essaie ça Si tu veux être livré avec IAM On fera le nécessaire La trap, tu las accentuée mais tu rapes sans tuer On sgave comme Gargantua, de la table, absent tu es Trop de talla dans leurs speechs, trop de tabac dans leurs sbires Jme dis que la nature est bien faite quand ils font les canards devant leurs biches Zin, jles avale quand jinspire, ou jles rafales quand jexpire Aucun détritus dans lécriture je travaille comme Shakespeare Zin, on a la génétique Pour survivre a la scène de tir et tenir jusquau générique Javoue que jsuis un gros mytho quand jmets un pied chez les flics Destruction dans ma vision Zin, si jtai doublé, cest que la réalité dépasse la fiction C'rap cest un appart, cest tout un art de laménager Des concierges de toutes parts, au moindre écart, on sent le danger 300 rue des Barbares, trop de cafards voudraient y loger Beaucoup ne pensent quà le ronger, quà le singer, quà le figer Que tous braquent leurs satellites, des tuiles jusquau plancher Comme ça ils pourront voir que ctéquipe là na rien à cacher Le jour on cherche nos mines pour que le crime soit presque parfait Et le soir on traque le rythme afin que nos hymnes aient pu te dévorer Aucune demi-mesure, soit tu te couches, soit tu fais all in On a fait le choix, depuis trop de snipers visent nos poitrines Les propos corrosifs placent nos têtes au centre de la cible Mais le regard lointain, on garde quand même un pied sur nos racines, eh Bienvenue dans léquipe ou limpossible devient possible, c'est Un pack de fauves qui pète les portes jusquau premier essai Conjurer le sort, changer le décor, redoubler defforts on lfait On créer nos sons dans le secret donc tattends pas à trop sucrer J'parle des coins français comme ceux de là-bas au pays Quand jrappe y a tout Mars derrière moi comme sur le selfie de Balotelli Vulgaire envers l'élu d'ma ville, l'Etat, pour être honnête Quand jcause du maire tas limpression que jsuis atteint de Gilles de La Tourette Marre de voir un futur anxieux jalonner les rues d'mon coin Comment ambitionner davoir mieux quand on ne craint plus que davoir moins ? On a le choix entre se révolter, fermer les yeux et s'laisser faire ? Si un homme a plus que ce quil ne faut cest que dautres manquent du nécessaire Bercé par le désespoir cest triste quand la douleur s'réveille Cest lhistoire dune lame de rasoir qui joue la funambule sur une veine Moi je suis entre le gars nia qui hait la haine my man Et le gars qui aime imiter le Mia sur l'album de IAM Rare de voir un de tes zinc neutre Dans les impairs y'a 1 3 5 7 9 ou un 3.5.7 neuf Aie de l'estime envers ces vers, même si le fond en perd ses formes Si Dugarry critique ces versets frères, j'suis sûr de percer fort Nous voilà vingt dans la barque au bas mots à défiler yes we can Vois le mic, prends le mic, tue ce rap à coup de all you can Canailleries, railleries, joailleries, taillent le mythe Il a dit quelle a dit quon a dit ont noyé le rythme On a bu au caniveau, gratté au casino, ouais minot Rivés au camino, affiné la weed aux haribos Variés, arrivés, vanillés, mariés au Barrio Fatigués de montrer que Luigi nest pas Mario J'suis le bon canasson, vlà le son tas pigé mon garçon ? Valider tes idées ? sorry non, jen fais mon paillasson Jvends du rêve, tas les restes, M.R.S. cest la maison Drafté par les NYC Knicks du rap, cest ma saison Fait par nous, fait pour nous, fais tourner, shooté à lunisson Pleurent seuls, uvrent seuls, meurent seuls, de vrais Manu Micron Petits chefs, petit plans, pour rêves moribonds Corrigeons la visée, convergeons et touchons l'horizon Jeunesse a lagonie, je ne sens plus son pouls, shit et alcool dans les veines Comme dhab une histoire à dormir debout, encore une mère se noie dans ses peines Que faire quand le berger est du côté des loups ? Et prétends tenir les rênes Quotidien est à gerber, je vomis le tout, tout en encaissant les coups que la vie assène Du mal à compter ceux qui sont sous écrous, ont serré ou purgent des peines On a déjà du mal à joindre les deux bouts, rester debout comment voir le bout du tunnel ? Mauvaise réputation, traînés dans la boue, de bout en bout du coup la coupe est pleine Beaucoup voudront jamais tendre la joue, la main sur le joujou, craquent et braquent et dégainent Toujours lucide jvois les descentes des larmes en rivières et des plaies Les jours se suivent et se ressemblent, on regarde la misère en replay Le diable les appâte puis les acclame, quel vacarme Ils visent tout ce qui brille, vivent que dans le speed vide et sans états dâmes Fidèle à mon art, à ma voix je débite, je n'écoute pas ceux qui parlent et débitent Et me tape beaucoup de barres mais rattrape mon retard, poto je démarre au quart Mets les gaz et vais vite, pavé dans la mare, je casse les mythes, débit barbare et regarde les rimes Je suis dans le délire à part, je me démène et mène ma barque, rape, frappe et jamais n'hésite Crâne blanc sur les corps dessiné Ça sent l'hymne à la punition Haro sur les figures déguisées Dès que sonne la fin des illusions Crâne blanc sur les corps dessiné Ça sent l'hymne à la punition Haro sur les figures déguisées Dès que sonne la fin des illusions Dès que sonne la fin des illusions La fin des illusions Dès que sonne la fin des illusions La fin des illusions AK Larage REDK Relo Veust lyricist I.A.M I.A.M I.A.M I.A.M I.A.M</t>
         </is>
       </c>
     </row>
@@ -1342,12 +1342,12 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Faut Savoir Anticiper</t>
+          <t>Freestyle Flow</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai pas attendu qu'on m'dise quand je tchatche avec Faf De mettre la gouache Que les autres MC en face prennent des baffes Fumer l'instru comme quand sur ton spliff Tu tires une taffe, honorer l'invitation du Kif Kif staff J'ai pas attendu qu'on me dise Fils fais du rap Rien à foutre des enculés qui croient pas en moi Eh, le temps n'attend pas on est pressé, t'as les foies ? On sait que ce sont les premiers qui foncent qui ramassent le tas J'm'en ouf, ils m'disent que je suis vulgaire Il changera pas ! C'est ma nature, mon caractère Qu'est-ce que tu peux faire ? Arrogant, nègre et fier Ils aiment pas ça Dans leur système, je gêne, j'ai bouffé leur muselière J'ai pas attendu qu'on me montre Le mauvais du doigt Des influences pour réfléchir me dire dans la vie, avancer C'est un choix, responsable envers mes actes J'ponds ça, laisse tomber on bouffe ça Pas besoin qu'on me dise que ça pue, pour voir qu'ici c'est la merde La vie, un jeu d'échec, protège ton roi pour ne pas perdre Toujours surprendre l'ennemi comme les attaques du Raid Seul dans ce labyrinthe mais je n'ai besoin d'aucune aide À l'aide, c'est la baise personne ne se lève Y'a qu'une minorité de gens le cur sur la main Alors on crève, on sait quoi faire, Pit Baccardi, Neg'Marrons La rage, c'est la même Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent J'ai appris à rester seul au milieu de tous Parfois penser pour tous et même être seul contre tous Je fus, je suis, serais fils du vent J'tisse ma toile exauce mes vux Le vent souffle, faut que j'avance vers Dieu, perdu Une cause, mon but, la force ma détermination Seul guidé par ma conscience j'avance dans une direction Qui mène à ce destin que j'aimerais être le mien Mais qui nécessite que je manifeste une rage, une colère Que j'agisse sans limites J'ai pas attendu la sécheresse Pour savoir que je peux mourir de soif D'avoir le poison dans ma soupe et en conclure que Mon tueur est près de moi et veut ma mort Que le monde soit en couille plus besoin d'être pédé Pour se faire enculer merde, j't'ai pas attendu Pour être ce que je suis, un mec fier qui est ce que tu n'es pas Qui fait ce qu'il peut que toi tu ne fais pas Seul contre tous, je n'attendrai pas l'apocalypse Pour croquer la vie à pleine dent, enragé comme un clebs J'en bave, mais je pourrai surmonter cette épreuve Faire face à cette chienne de vie Qui a le pouvoir de briser mes rêves Laisse j'attends pas qu'elle m'attends au tournant J'suis mal vu mais pour l'instant je la baise avant de me rendre au suivant Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent Progresse, fils, t'as vu ça on y croit parce qu'on marche comme ça Y'a pas le quart de ce qu'on peut faire dans ce titre C'est pas le clan des loosers Ni des suiveurs, la vie, c'est pas un truc de causeurs Nés pour le pire et le meilleur La vie, faut que je la nique, toujours donner le meilleur de moi Pas rester statique on prend des risques dans la musique Pour l'amour du disque c'est pour ça que j'y mets tout mon cur À chaque fois que je kick Jacky Brown au micro Neg'Marrons est mon éthique N'est-ce pas mon haleine pourrie derrière ce mic ? Ne naissent-ils pas de ma semence Ces textes crus que je veux poésie ? Les pros ici sont prêts à ça À l'affront, avec comme seul soutien la prophétie On a peu de temps pour réfléchir mais encore moins pour agir On ne cesse de le dire d'où se manifeste la force d'écrire Des choses qui poussent, incitent les jeunes à réagir vite De façon claire et explicite Faut savoir anticiper, ne pas rester figé On n'attend pas Que le destin nous prenne de vitesse J'compte sur personne pour avancer Pas s'laisser diriger comme ça On s'organise pour que les choses progressent</t>
+          <t>Faf Larage micro redoutable Mec ne tergiverse pas Technique lyricale évolutive et inattaquable Lis mon score Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux La rage fuse on fout le boxon on m'répond en salle On prend l'air le public à fond c'est trop bon c'est donc Pour eux j'acère mes coups d'crayons Sublime ils sont subtils ils sont d'folie en s'unissant Pique bien plus qu'un hérisson si j'monte le temps et les mecs se disent on va arrêter d'rapper derrière c'type on S'plit en laisse tomber on a l'air con Des bidons histoires de films de fiction Disparition j'use pas d'faux noms Quand j'rappe on m'interrompt non j'fais carton J'ai pas d'Python 357 ni d'pompes ni d'rimes errant Que ça t'plaise ou non freestyle pour l'fun pour l'kiff pour l'son pour les bons Explose comme un flacon d'nitroglycérine les MCs s'lachent on r'présente tous la même discipline On va au charbon dégomme le bouffon fait en sorte que ces cons ils aient des frissons Moulant sur les faux moulant sur les types qui pensent que faire d'la merde sur c'créneau c'est cool on Veut pas d'blaireaux non À quoi ça correspond à l'esprit du hip-hop C'est pas faire d'la soupe pour des biftons Eh fiston ils écriront pu d'rimes Tu vois un MC pourri passer après ça c'est la honte Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Roi d'l'orage le chaos me craint j'tourne la page Cloué et je reviens pour troubler le bal Les faux MC ouais la fête est finie il est temps de foutre le camp de prendre ses jambes à son cou et vlan Qu'est-ce t'attend qu'on t'rentre dedans speed devant File devant fuis devant monsieur Le type au flow percutant le type que t'as pris en grippe parce que tu trip quand il rentres sur un beat méchant Le type qui te ridiculise devant les types à qui tu dis qu't'es un gagnant et qui t'vantes devant eux Si tu t'plantes devant eux t'as l'air d'un con et y a un type qui va t'le faire comprendre à tous dépends la honte devant eux Comme un bleu un texte ou deux et tu tchatches Mais si y'a pas d'talent pas la peine de frimer quand tu marches devant eux Eh le blaireau faut c'qui faut fixe la barre haut pour le rap Il y a trop d'poufs à ses basques D'où le d'où on menace d'où on s'lache d'où on s'fache D'où on clash les bidons Les laisses en suspens les surprend les réduits en bouillie c'est exaltant Plus agressifs qu'une troupe de flics en manif en reconduction à la frontière de pauvres gens Fuck met les bouchés doubles sème le doute dans la tête des mecs qui pensent être fixer le trouble 9-7 ce fut la foudre tombe en 9-8 avec mon frère le serval c'est En octobre 9-8 d'vant ma feuille noire de textes À tous les vrais MCs j'donne un respect Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow Sort des tripes et dictions Les potos du Hip-hop veulent du son s'comprend c'est bon quand c'est à fond Sort des tripes et dictions Les potos du Hip-hop veulent du son s'comprend c'est bon quand c'est à fond Sort des tripes et dictions Ouais Marseille, tu l'sais, dans l'lard</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Feuille blanche</t>
+          <t>FSAFA</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche Ma garantie de n'pas écrire de conneries Avant d'écrire ces quelques mots plein de vie On cherche le pour et le contre, on veut qu'ce soit terrible sans la pression On sait qu'ça va rester sur on s'applique on prend son temps On veut pas d'erreurs on se concentre là sur la feuille on Constate complique comment on fait on Se questionne pour obtenir le meilleur du son En réussissant en foirant on a pas trop le choix on Fait façon relâche au pire la haine parle Suivant les sujets ça marche ou pas En tous cas je m'dois en tant qu'auteur d'investir dans la course Pas seulement si j'veux qu'mes rimes soient cotées en bourse C'est pour l'amour de l'art me prendre la tête ça je sais l'faire Stylo dans la main le lien entre ma feuille et moi c'est clair L'atmosphère se disloque le temps un élément oublié Connexion papier mine cerveau tout y est La création pour commencer se fraie un chemin dans les lignes L'inspiration fait que ce moment soit des plus intimes Sorti d'là tu n'es plus qu'un étranger Un mystère sous tes yeux que tu cherches à élucider Tu l'sais Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche La garantie de n'pas écrire de conneries Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche La garantie de n'pas écrire de conneries Un style unique utile en vogue pour les freestyles Pur comme du cristal, arrache comme du Mezcal J'tente de faire des assonances du style quand j'y pense Mets au point une diction qui m'met en transe quand j'me lance et Stop j'arrête peur de faire un flop Conscient qu'je vais barrer au prochain mot j'prends une clope et j'attends Observe mon cahier donc cette fois j'ai repoussé les mauvaises idées noté ça j'en ai Tu le sais toi mon carnet je t'en ai fait voir crispé J'arracherai tirerai tes feuilles un fou dans mon délire et J'pars en vrille j'parle du papier Un bloc inerte mais si il vivait il me comprendrait pour la hantise et la rigueur du service Et la qualité de rap cherche que tu t'infliges Aussi si tes écrits sont intelligents Je serai fier de les garder précieusement dans mes rangs C'est ridicule de penser ça mais en fait on est complices Je sais ce qu'il me dirais, me donnerais comme indices N'écrit pas d'conneries trouves des sujets propices Traite les avec malice des textes responsables fils Refuserai les combines si je veux achever une phrase avec des rimes pas trop fines Y'a tellement de choses à dire à partir du moment où ça finit sur un disque il faut que tu mesures les risques Les rangs on s'en fiche quand tu crées pour évoluer C'est la dernière question que tu dois t'poser Autant d'conseils à mon esprit devant une feuille blanche Autant de textes à chier qui dorment car je flanche Je vais pas te faire mes louanges j'suis pas Michel-Ange De la plume et mes notes sont toujours là pour me le rappeler Ne confonds pas egotrip et réalité dans le premier cas j'suis au sommet et dans le deux je tente d'y accéder Comme un obsédé jamais satisfait même si je passe des heures devant un carreau vide J'essaye de ne pas succomber au supplice de la facilité pour un public qui ne veut plus de paroles factices Avant qu'ma voix n'diffuse quoi qu'ce soit si il n'y a pas d'inspiration je ne force pas et je laisse ma feuille blanche Feuille blanche devant le choix de raconter des choses qui dérangent Mais si j'ai rien à dire alors je laisse ma feuille blanche La garantie de n'pas écrire de conneries</t>
+          <t>, SFGS , - - , ,</t>
         </is>
       </c>
     </row>
@@ -1376,12 +1376,12 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Fiers</t>
+          <t>Hip hop Marseillais</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers Tu reconnais la voix jai tout le 1.3 dans le larynx Du petit séminaire, au carré dor en passant par Arenc Et les communes périphériques dans ton oreillette Entend quon croit plus en Clochette chez nous les faits sont réels À cause des cerveaux qui satrophient mais via ce gros feat Vois quil y a plus d1000 profils qui puent le profit Jmarche les yeux cernés marquer par le manque de sommeil mais lmenton pointé vers le ciel comme si je narguais le soleil Je peux me targuer davoir eu un Master 2 en survêt de chelsea On aime pas faire miskine car éduqués à la dure Homme ou femme, joie ou drame ,on se doit d'être fier Marseille ça s'arrête pas, pas de limites, pas de frontières ça parle fort, ça parle vite en vrai,ca vit sur les nerfs ca exagère parfois peut-être ça se calme au bord de la mer L'encre coule le sang se répand ohlalala Il faut être digne de ses lignes elles ont marqué les gens je rêvais d'être feignant je rêvais de Testa rossa Je rêvais que j'avais pas le temps Marseille ça s'arrête pas Ma ville est grande dans la légende c'est Marseille en vrai à la bien lâche rien c'est Marseille en vrai Je représente le décor c'est pour le frérot Relo C'est l'enfant du Vieux-Port normal que j'ai du flow Ils m'ont dit la vie d'artiste mec non je ne signerai pas 30 ans après ayé les my way Sinatra Et voila parti en balade ne visant que les cimes Le soleil et les rues pourries furent l'écrin de mes rimes C'est peut-être pour ça que je pique dans mes propos quand je kick c'est du loco, pur jus produit local J'ai le feu dans la Bocca, les forces de Mars soufflent le cur nourri aux flammes, j'ai la fierté de mes souches couz Marre On cause dès que le son tourne pas avant, et y'a pas de paravents, t'es pas préparé pars avant c'est shu Jusqu'à la moelle enragé, dealer d'images engagées les pages défilent et volent sans jamais se plier On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers Fier de ce qu'on est, on se contente de ce qu'on a Rien a été volé pour en arriver là Dignité ne s'achète pas, chacun choisit sa voie Faire le bien autour de soi éviter les faux pas Essayer de garder la foi, fier, fort, digne, et droit Malgré les coup bas que la vie nous réserve des fois Élever mes fils, les serrer dans mes bras, chaque matin dans le miroir ils se reconnaîtront bûche 10 fois plus pour sortir de l'engrenage de ces halls Il te mettront sur le grill, testerons ta résistance, la force de tes épaules Le verbe fort formé pour choquer les hautes sphères Sincères Punchliner la dalle au peuple sa mère Ici Ma couleur a ses droits devant le holster Quadriller le terrain tant qu'il peut En parallèle mon clan ma cause on fait le job homy Regarde aujourdhui comment on salit la prod Nos strophes autour du globe untel au microphone fuck les xénophobes Nos vraies valeurs donnent Cador et pléthore de Vador les rues du sud signent Un coeur en or perforé par le sort digne La jungle et ses animaux qui sera le le mâle alpha La rue cest dangerous tu plonges et tu taffoles Fier comme un baye fall, digne comme mes Comocos Ne tretourne pas face à poulet alloco Allo allo, bienvenu chez les hommes ca kick dure mon salaud Juste pour la forme Honneur, fierté, dignité dans le azzi éternel insatisfait éternel incompris On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers On croit en nos chances en nos gens Pas là pour faire genre pas le temps Regarde dans les yeux parle franc On est fiers, on est fiers, on est fiers</t>
+          <t>Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Tu le sais mon hip-hop est comme ça Sec de Marseille, impulsif comme Cantona Si tu cherches après moi, pour rien J'écrirai sur toi comme un chien Te descendrai en rimes Un stylo dans chaque main Mon son fou à fond J'ai bon fond pourtant j'suis à fond Groupe par groupe mec Satan ou bidon fils je suis là Et si je fais le con dans le Mia C'est pas pour qu'il ne te reste que ça sur moi, écoute Tout ce que je fais est voulu A choisir qu'on porte un avis critique et objectif dessus Mais dès que ça vire je flaire vite si on veut jouer Joue sans moi, si tu fais que ça fils t'es coulé Plus méfiant qu'avant, on n'est plus naïf non plus Je sais vite à qui j'ai à faire, sans être payé j'suis ouvert Je reste dur avec les mecs qui parlent trop qui parlent trop Juste pour être clair et réglo S'il faut représenter par la technique on est là Avec le son sourd ou pas, un truc qui est sûr on traine pas Plus simple que d'aller en duo, solo aujourd'hui Hip hop Marseillais pour la vie x2 Hip hop Marseillais, Hip hop Faf Larage avec le Hip hop Marseillais, Hip hop Def Bond pour le Hip hop Marseillais, Hip hop Si tu veux du bon, du Hip hop Marseillais, Hip hop Fils ne bouge pas Mec je vais parler hip hop Marseillais Et comme ça tu vois ce que c'est, plus besoin de critiquer C'est fait, c'est passé Marseille depuis a retrouvé ses forces Bosse, s'organise non-stop tu le sais Conséquence fils, la ville ne dort plus non Du Centre à Saint Marcel, concerts,soirées sur mesures Des magasins de fringues et des disquaires, fournis En pur son, hip-hop d'ici pour tes technics Du vinyle pour les DJ qui mixent, faut encore prendre des risques C'est pas New-York mais on fixe, la barre haut hey Tout le monde fait ce qu'il faut S'intéresse à la production du coin, ça bouge trop EH YO! sur la planète, de plus en plus de groupes avec un niveau honnête Se pendront en live, check Les émissions speed, les disques en vrac Grades nouveautés qui claquent DJ scratche sur ma voix Faf Larage en nage Représente sa famille, sa vie, son rang mec Tu le sais, d'où je viens, ce que je fais Un gage de qualité hip hop Marseillais x2 Hip hop Marseillais, Hip hop Faf Larage avec le Hip hop Marseillais, Hip hop Def Bond pour le Hip hop Marseillais, Hip hop Si tu veux du bon, du Hip hop Marseillais, Hip hop Fils ne bouge pas F-A-F Larage, D-E-F Bond A-K-A ex Soul Swing Estampillé millésime 97 Lâche les mots comme des serveurs internet Mec, si je booste la tchatche c'est pour une histoire ou l'ego J'suis pas né dans la rue, pas dans le superflu non plus Compte ici que je ne vis pas, c'est exclus Comme un steak cru saignant je deviens dur si on me chauffe Présent au travers du mic comme dans ta vie comme une voix off, bof Complète c'est pas ça, les potes m'en parlent mieux que toi C'est pas le Club Med youkoulélés, y a le soleil les fadas Des ennuis, les nanas cherchent la caillasse peu importe d'où elle vient Pour ce qui est de plonger Mais c'est vrai, demain c'est loin loin J'ai jamais choisi mes relations J'ai pris ceux que j'ai croisés pour seule sélection La simplicité en premier, je peux être ami avec tout le monde, crevards inclus Tu peux venir de n'importe où mais jamais trahir la rue Pour l'équilibre spécifié dans les textes Tous les jours se remettre en place Passer du temps la vérité en face Choisir tes instrus taillées dans la masse Par respect rester vrai Pour le hip hop Marseillais Tu le sais Ouais, pour IAM Sad Hill tu le sais La Fonky Family, le 3 il fils K.Rhyme Le Roi, Le Freeman Sad Hill, Kif Kif, La Cosca Tanto Productions et le Côté Obscur Et Prodijnamore fils et Squat dans le slip, Sista Micky Et il y a encore trop de groupes, trop de monde qui représentent fils Trop de pression, tu le sais, Hip hop Marseillais A tous ces membres actifs, tu le sais Hey Blondin</t>
         </is>
       </c>
     </row>
@@ -1393,12 +1393,12 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Fin des illusions</t>
+          <t>Hip Hop Protagonist</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Evanouis comme des illusions Jai mixé mon passé, présent, futur et jen ai fait des sons Jserai toujours trop nouveau, trop ancien ou pas assez récent Faite de chance, de soleil, de violence, ma ville a ses raisons En France la police tue, la justice dit rien dintéressant Ceux qui prennent le risque de m'test subissent un supplice Les médias savent bien que pour faire peur, suffit dun suffixe Jsors dun chemin hors-norme, jrenvoie la balle au rap La concurrence au diable, lesprit hip-hop au crématorium A.K. ne fait pas du rap, ni du chant, il fait d'la science J'leur chanterai Youssou N'Dour pendant leur minute de silence Cest pire aujourdhui, petit frère préfère bibi au tcheks speed Armé pour de vrai, tire, laisse la bibliothèque vide Lavenir menvoie des sextos, jte ldis texto Que leur major me donne leur expo, jdeviens un ex-pauvre On a de lambition mais lespérance de vie dun mégot Jveux de largent, vu que largent compte plus que la vie dun negro Je rec', toujours sans pitié tfaçon plus rien à prouver Pas trop souvent sur les réseaux, ils splaignent de pas my retrouver Mais jpourrai jamais perdre la main en flow jai jamais foiré Bien sûr, yaura toujours des langues de putes pour nier les faits Je le leur dis façon Biggie dans It Was All A Dream Téma frérot, je rime et ton jean nest plus clean Génération leatherface, chainsaw cest le style Reviens sans cesse hanter le screen comme une lame à Halloween Aloha, cest pas la devise, au centre-ville tout sécroule A lheure ou les fachos dEurope sunissent pour baiser les foules On est tous pistés sur écoute, ou cest moi qui part en couille ? Tfaçon la planète dérouille, la désillusion métouffe Je juge plus, regarde Nipsey on va tous mourir Quand les rappeurs font du zouk pour pas bibi toute une vie Certains sattribuent le crime de leur crew pour faire les virils La vérité sur Youtube ne rapporte que peu de vues Jsuis la depuis les flinstones, depuis Ericsson et les ringtones Envoie la cryptomonnaie, tu vois bien que le beat cogne Tu me parles de rien, tu mparles de cash, tout a coup jtécoute Jviens réanimer la rue, jlui fait du bouche à bouche dégout Tas la meilleure dope, ouais cest ça Ferme ta gueule, essaie ça Si tu veux être livré avec IAM On fera le nécessaire La trap, tu las accentuée mais tu rapes sans tuer On sgave comme Gargantua, de la table, absent tu es Trop de talla dans leurs speechs, trop de tabac dans leurs sbires Jme dis que la nature est bien faite quand ils font les canards devant leurs biches Zin, jles avale quand jinspire, ou jles rafales quand jexpire Aucun détritus dans lécriture je travaille comme Shakespeare Zin, on a la génétique Pour survivre a la scène de tir et tenir jusquau générique Javoue que jsuis un gros mytho quand jmets un pied chez les flics Destruction dans ma vision Zin, si jtai doublé, cest que la réalité dépasse la fiction C'rap cest un appart, cest tout un art de laménager Des concierges de toutes parts, au moindre écart, on sent le danger 300 rue des Barbares, trop de cafards voudraient y loger Beaucoup ne pensent quà le ronger, quà le singer, quà le figer Que tous braquent leurs satellites, des tuiles jusquau plancher Comme ça ils pourront voir que ctéquipe là na rien à cacher Le jour on cherche nos mines pour que le crime soit presque parfait Et le soir on traque le rythme afin que nos hymnes aient pu te dévorer Aucune demi-mesure, soit tu te couches, soit tu fais all in On a fait le choix, depuis trop de snipers visent nos poitrines Les propos corrosifs placent nos têtes au centre de la cible Mais le regard lointain, on garde quand même un pied sur nos racines, eh Bienvenue dans léquipe ou limpossible devient possible, c'est Un pack de fauves qui pète les portes jusquau premier essai Conjurer le sort, changer le décor, redoubler defforts on lfait On créer nos sons dans le secret donc tattends pas à trop sucrer J'parle des coins français comme ceux de là-bas au pays Quand jrappe y a tout Mars derrière moi comme sur le selfie de Balotelli Vulgaire envers l'élu d'ma ville, l'Etat, pour être honnête Quand jcause du maire tas limpression que jsuis atteint de Gilles de La Tourette Marre de voir un futur anxieux jalonner les rues d'mon coin Comment ambitionner davoir mieux quand on ne craint plus que davoir moins ? On a le choix entre se révolter, fermer les yeux et s'laisser faire ? Si un homme a plus que ce quil ne faut cest que dautres manquent du nécessaire Bercé par le désespoir cest triste quand la douleur s'réveille Cest lhistoire dune lame de rasoir qui joue la funambule sur une veine Moi je suis entre le gars nia qui hait la haine my man Et le gars qui aime imiter le Mia sur l'album de IAM Rare de voir un de tes zinc neutre Dans les impairs y'a 1 3 5 7 9 ou un 3.5.7 neuf Aie de l'estime envers ces vers, même si le fond en perd ses formes Si Dugarry critique ces versets frères, j'suis sûr de percer fort Nous voilà vingt dans la barque au bas mots à défiler yes we can Vois le mic, prends le mic, tue ce rap à coup de all you can Canailleries, railleries, joailleries, taillent le mythe Il a dit quelle a dit quon a dit ont noyé le rythme On a bu au caniveau, gratté au casino, ouais minot Rivés au camino, affiné la weed aux haribos Variés, arrivés, vanillés, mariés au Barrio Fatigués de montrer que Luigi nest pas Mario J'suis le bon canasson, vlà le son tas pigé mon garçon ? Valider tes idées ? sorry non, jen fais mon paillasson Jvends du rêve, tas les restes, M.R.S. cest la maison Drafté par les NYC Knicks du rap, cest ma saison Fait par nous, fait pour nous, fais tourner, shooté à lunisson Pleurent seuls, uvrent seuls, meurent seuls, de vrais Manu Micron Petits chefs, petit plans, pour rêves moribonds Corrigeons la visée, convergeons et touchons l'horizon Jeunesse a lagonie, je ne sens plus son pouls, shit et alcool dans les veines Comme dhab une histoire à dormir debout, encore une mère se noie dans ses peines Que faire quand le berger est du côté des loups ? Et prétends tenir les rênes Quotidien est à gerber, je vomis le tout, tout en encaissant les coups que la vie assène Du mal à compter ceux qui sont sous écrous, ont serré ou purgent des peines On a déjà du mal à joindre les deux bouts, rester debout comment voir le bout du tunnel ? Mauvaise réputation, traînés dans la boue, de bout en bout du coup la coupe est pleine Beaucoup voudront jamais tendre la joue, la main sur le joujou, craquent et braquent et dégainent Toujours lucide jvois les descentes des larmes en rivières et des plaies Les jours se suivent et se ressemblent, on regarde la misère en replay Le diable les appâte puis les acclame, quel vacarme Ils visent tout ce qui brille, vivent que dans le speed vide et sans états dâmes Fidèle à mon art, à ma voix je débite, je n'écoute pas ceux qui parlent et débitent Et me tape beaucoup de barres mais rattrape mon retard, poto je démarre au quart Mets les gaz et vais vite, pavé dans la mare, je casse les mythes, débit barbare et regarde les rimes Je suis dans le délire à part, je me démène et mène ma barque, rape, frappe et jamais n'hésite Crâne blanc sur les corps dessiné Ça sent l'hymne à la punition Haro sur les figures déguisées Dès que sonne la fin des illusions Crâne blanc sur les corps dessiné Ça sent l'hymne à la punition Haro sur les figures déguisées Dès que sonne la fin des illusions Dès que sonne la fin des illusions La fin des illusions Dès que sonne la fin des illusions La fin des illusions AK Larage REDK Relo Veust lyricist I.A.M I.A.M I.A.M I.A.M I.A.M</t>
+          <t>Un Hip Hop Protagonist, un freestyle spécialiste Un fan, un Microphone Fiend, speed quand la zique se glisse Peace avant que j'aie commencé, tu le sais Fils, bénis mes ennemis avant de les achever Un Faf Larage en forme précédé de Stormbringa Les normes ornent mes stickers Pas de portables et pas de beepers Pas trop de thunes pour faire ce que je veux Et cependant j'ai l'honneur, le bonheur de vivre comme j'aime Bien et même si je suis dans la merde Poto rien à faire j'ai pas la flemme Glander quand il s'agit de rapper ? Balivernes Si un Alien voudrait me souffler le Happy End Je l'explose en mille morceaux comme un pot en porcelaine Je gaze et t'as la haine mais tu te freines, j'ai trop la crème Le lyrical spécimen te remue jusqu'à l'abdomen Fait pleurer les hyènes et réputé jusqu'au Yémen Yeah men Faf Larage original braquage Si je suis de passage, les langues de putes s'écrasent Je taxe gras et y'a en fond des fous qui balisent Réalisent que si ils font les macs ici ils subissent Agir en bouffon c'est se punir T'es naze si tu penses qu'être soi-même c'est s'trahir Et quand je pose le micro je vire et vais applaudir Quitte à ce que je sois Ie seul si le MC suivant déchire Eh fils tu vois ce que je veux dire Faut ce qui faut pour assainir le Hip Hop Encourager les bons et dégager les pires S'ils pètent je supporte pas ces mecs Ici on a des règles et faut les respecter Sinon c'est la prise de tête La prise de bec, Hip Hop dans ta tête Fils tu comprends en 97 on peut pas s'le permettre C'est évident on s'préserve et y a des différends cependant Le jeu en vaut la chandelle si on reste indépendant Prend le fric là où il est Mais n'oublie jamais en studio quelle est la culture qui t'a bercé On est fin novembre dans l'ombre de la file d'attente lorsque L'occaz se présente je reviens en force Kif kif l'album ? Pff mec c'est même pas la peine Un projet fait avec les tripes, la rage et la haine, fils ! Marseille Mec, je suis pas là pour les ronds Je monte le ton si on me cherche Avec des textes sans concession Pour des gens qui veulent du son bon et Tu connais la qualité et ça ne va pas changer Je tiens à en poser une pour le public Big Up à tous ceux qui ont déliré sur nos vinyls Fils t'inquiète pas pour ça on a la recette Et y aura encore des maxis conformes aux Normes Marseillaises Matériellement tu le sais c'est pas ce qui me fait vivre Mais moralement j'en ai besoin pour évoluer, exténué La remise en question est instantanée, le morceau consumé Je suis parti sur un autre projet Ou bosse et fait faire, bien dans mes fringues UJS Style et Nouveautés dans la tête et plein d'rêves et D'objectifs, faut pas dormir, le rap c'est un truc qui va trop vite Faut suivre, être à la page et Essayer d'être aussi performant que tu puisses Demande aux mecs des quartiers de Mars, d'Aix ou de Istres Ils ont la rage, bossent à fond et ils ont raison Pas d'ambition pas d'fric, pas d'fric pas de maison Pas de bidons sinon les cons ils nous auront Actionnent les boutons, prennent toutes les décisions Tu marches ou non tes convictions sont saines ou non Des excuses, fils ? Oh non, tu cèdes pour des ronds Malgré des concerts des fois devant un public froid Des jeunes groupes qui y croient et toi tu craches sur ça Connard, moi j'suis passé par là et chaque rap pourri qui marche Elargit le fossé entre les incultes et le bon rap Comprends moi bien blaireau, je suis pas un type aigri Le Hip Hop et ma vie sont liés à jamais, tu le sais Comme le 3ème oeil dévoué, élevé au Rakim, Kool G, EPMD Et je tente de faire des assonances des styles quand j'y pense Je mets au point une diction qui me met en transe Quand je me lance et clean, unique, utile en vogue pour les freestyles Pur comme du cristal, arrache comme du Mesqual Ils regrettent à la fois leurs paroles à la tire occasionnelle On comprend pourquoi ce n'est pas souvent Les plus mauvais qui restent Test sur un texte extraordinairement posé sur une Ampex Si t'es dedans tu piges forcément Si tu l'es pas apprends, si tu veux pas fous le camp Aujourd'hui le 28 9.7 Tu vas entendre ça probablement en 98, te prends pas la tête Je serai parti sur autre chose, tu veux me rattraper, ose Mais laisse faire, c'est ma cause Mec, je suis pas là pour les ronds Je monte le ton si on me cherche Avec des textes sans concession Pour des gens qui veulent du son bon et Tu connais la qualité et ça ne va pas changer</t>
         </is>
       </c>
     </row>
@@ -1410,12 +1410,12 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Freestyle Flow</t>
+          <t>Hola Hola</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Faf Larage micro redoutable Mec ne tergiverse pas Technique lyricale évolutive et inattaquable Lis mon score Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux La rage fuse on fout le boxon on m'répond en salle On prend l'air le public à fond c'est trop bon c'est donc Pour eux j'acère mes coups d'crayons Sublime ils sont subtils ils sont d'folie en s'unissant Pique bien plus qu'un hérisson si j'monte le temps et les mecs se disent on va arrêter d'rapper derrière c'type on S'plit en laisse tomber on a l'air con Des bidons histoires de films de fiction Disparition j'use pas d'faux noms Quand j'rappe on m'interrompt non j'fais carton J'ai pas d'Python 357 ni d'pompes ni d'rimes errant Que ça t'plaise ou non freestyle pour l'fun pour l'kiff pour l'son pour les bons Explose comme un flacon d'nitroglycérine les MCs s'lachent on r'présente tous la même discipline On va au charbon dégomme le bouffon fait en sorte que ces cons ils aient des frissons Moulant sur les faux moulant sur les types qui pensent que faire d'la merde sur c'créneau c'est cool on Veut pas d'blaireaux non À quoi ça correspond à l'esprit du hip-hop C'est pas faire d'la soupe pour des biftons Eh fiston ils écriront pu d'rimes Tu vois un MC pourri passer après ça c'est la honte Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Roi d'l'orage le chaos me craint j'tourne la page Cloué et je reviens pour troubler le bal Les faux MC ouais la fête est finie il est temps de foutre le camp de prendre ses jambes à son cou et vlan Qu'est-ce t'attend qu'on t'rentre dedans speed devant File devant fuis devant monsieur Le type au flow percutant le type que t'as pris en grippe parce que tu trip quand il rentres sur un beat méchant Le type qui te ridiculise devant les types à qui tu dis qu't'es un gagnant et qui t'vantes devant eux Si tu t'plantes devant eux t'as l'air d'un con et y a un type qui va t'le faire comprendre à tous dépends la honte devant eux Comme un bleu un texte ou deux et tu tchatches Mais si y'a pas d'talent pas la peine de frimer quand tu marches devant eux Eh le blaireau faut c'qui faut fixe la barre haut pour le rap Il y a trop d'poufs à ses basques D'où le d'où on menace d'où on s'lache d'où on s'fache D'où on clash les bidons Les laisses en suspens les surprend les réduits en bouillie c'est exaltant Plus agressifs qu'une troupe de flics en manif en reconduction à la frontière de pauvres gens Fuck met les bouchés doubles sème le doute dans la tête des mecs qui pensent être fixer le trouble 9-7 ce fut la foudre tombe en 9-8 avec mon frère le serval c'est En octobre 9-8 d'vant ma feuille noire de textes À tous les vrais MCs j'donne un respect Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow c'est rien qu'des mots mais quand c'est bien foutu c'est chaud on créé des joyaux Freestyle Flow Sort des tripes et dictions Les potos du Hip-hop veulent du son s'comprend c'est bon quand c'est à fond Sort des tripes et dictions Les potos du Hip-hop veulent du son s'comprend c'est bon quand c'est à fond Sort des tripes et dictions Ouais Marseille, tu l'sais, dans l'lard</t>
+          <t>Oh na-na-na-na-na El Cantante del Ghetto Mmm, zaga zau This is the motherfuckin' remix Cocaine, Cocaine Jajajajaja Desde hace tiempo que no te veo, mami Quiero calmar este deseo Dime si tú estás puesta pa' mí Prr! Que los enemigos miran feo Pu-pu-pum-pum Llego a la disco vestido de Jordan Chu-chu-chu Y la baby se me pega con un rico splash Bum Conjunto de Nike y unas Air Force 1 Es rapera como yo y le gusta bailar Ella sabe, si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Después de la disco nos vamos a cu, shh Chu-chu-chu Callaíto', que ninguno se puede enterar Chu, chu, chu, chu Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pum prr La conocí y me la llevé pa' una finca de Medellín Te vas conmigo Me la pasé to'a la noche fumando y bebiendo lean Ajá Aquí se va a formar un motín Tienes el panty enchumba'o Agárrate, que te vo'a partir Perreo y aguardiente Sibiri, woh Pa' que te caliente' Jajajaja Dímelo, Colombia, Ñengo Flow regresó Dile que traiga a las mujere', que la rumba empezó Dice Yo sé que esto te gusta, ah-ah Traigo un flow hijueputa, ah-ah Que no se acabe nunca, ah-ah No me hagan más pregunta', ah-ah Quien te comió, ese fui yo En candela to'a la noche ella conmigo se guilló La demonia salió brava cuando Ñengo la pilló Secreto' que se quedan guardado' entre tú y yo El Chivo la partió, dice Jajajaja Llego a la disco vestido de Jordan Y la baby se me pega con un rico splash Splash Conjunto de Nike y unas Air Force 1 Es rapera como yo y le gusta bailar Ella sabe, si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Chu-chu-chu Después de la disco nos vamos a cu, shh Prr Callaíto', que ninguno se puede enterar Pu-pu-pum-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Me dijo Hola, cómo estás? Hola, vi la bandera en el perfil Le pregunté si es de Medallo, Cali o de Bogotá A ella le gusta provocar Le dije que deje de sonsacar o se lo voy a colocar Y yo llegué full Jordan y la puse a hacer el fly Se la traga como si eso fuera jugo Veryfine Sabe que estamo' haciendo número' en Spotify Ese pantycito se ve a legua' que no e' de tu size Me llama de madrugada, yo veo su llamada Y me alisto porque ya yo me sé la jugada Gritaba mi nombre mientra' le daba La bellaquera yo le elevaba Ella quiere entusiasmarse Si quieres llamo al dealer, qué hubo, parce? Qué hubo? De ninguna va a dejarse Mami, rica, yo por ti cojo la cárcel El Young King, baby jajajaja Llego a la disco vestido de Jordan Y la baby se me pega con un rico splash Splash, splash Conjunto de Nike y unas Air Force 1 Es rapera como yo y le gusta bailar Ella sabe, si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Chu-chu-chu Después de la disco nos vamos a cu, shh Prr Callaíto', que ninguno se puede enterar Pu-pu-pum-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pri-yah pu-pu-pum laramercy gang Acicala'o de la cabeza a los pie' Oh-oh-oh La combi e' blue all y en los pedale' la' Bred Las cubana' en el cuello y en la mano el Role' Me dicen La Mole Farru! Dándole en la madre sin dejarla caer Saludo a lo' que se viraron y se dejaron ver Ahora coronamo' y tenemo' el poder Abran paso, llegó Pablo con to' los del cartel Pum-pum-pum Aquí vamo' pa' la finquita, un par de chimbita' Ponme la guaracha, dale, que el patrón invita Tra, tra Mucho alcohol y musiquita, el tussi e' rosita Me quedo en Medallo, a mí me encanta la tierrita Fa-rru! jajajaja Llego a la disco vestido de Jordan Y la baby se me pega con un rico splash Conjunto de Nike y unas Air Force 1 Es rapera como yo, le gusta fumar Sabe que si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Después de la disco nos vamo' a singar Callaíto', que ninguno se puede enterar Fa-rru! Laramercy gang Ryan Castro, el que los tiene temblando Mere, indica, Ñengo Real G4 Life White Star Los de Bayeta, oíste, cabrón? Desde Colombia para el mundo entero, parce Ñengi Carbon Fiber Music Jan Paul Medallo, PR Pri-pa-pa-pa-pa-pai-pa This is the motherfuckin' remix Real G4 Life, mami Blep! Ey, Colombia Locombia Dime, Ryan Jajajajajaja</t>
         </is>
       </c>
     </row>
@@ -1427,12 +1427,12 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>FSAFA</t>
+          <t>Hong Kong Hero</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>, SFGS , - - , ,</t>
+          <t>Et quand le rideau tombe, que la scène est déserte Cest dans les cieux étincelants que nos pensées se perdent Héros de notre musique où peu de lames percent Champs de ruine, seuls, lépée au poing sous laverse Si la cause est perdue et que la peur sen mêle Le chant du métal aiguisé sifflera quand même Héros de notre musique jetés dans larène Champs de ruine, seuls, épée au poing sous laverse À la faveur de nuits sans lune on a quitté nos jungles Puis déferlés sur les villes et pris les âmes des peuples, tu le crois ? Notre art suspecté de Cabale Mais tout est clair nous sommes des panthères armées de calames Ils ont posté leurs soldats avant dy pénétrer Puis visé notre école et le ciel fut noirci par les traits Sous la pluie de flèches, certains ont perdu la vie Jusquà aujourdhui on perpétue ces calligraphies Habitués transparents dans leur graphique Ils disent que nos rimes se roulent et se plaisent dans les trafics Moi je veux savoir si la solution quils vendent est parfaite Des mômes jouent de larme automatique dans les cafets Alors qui est hostile ? cest leur modèle ou cest le rap ? Si leur mer à lair dun lac on est comme des vagues scélérates Entends les sanglots longs de ces violons cest la BO de nos vies Et de nos parcours qui depuis tout ce temps se prolongent Doù je viens y a pas de place de hasard On court pour la survie mec, ni cheval ni casaque Ce nest pas lécrivain mais les blocs qui évoquent le nom de Balzac On sait où se posent nos pas, droits, sur le basalte Debout sous les volcans on offre nos cahiers au mistral Fleurs de cerisiers les mots senvolent et quitte Amistad Héros de cette musique, amants de ces mélopées On rebâtît les chances que la vie même nous a ôté Et quand le rideau tombe, que la scène est déserte Cest dans les cieux étincelants que nos pensées se perdent Héros de notre musique où peu de lames percent Champs de ruine, seuls, lépée au poing sous laverse Si la cause est perdue et que la peur sen mêle Le chant du métal aiguisé sifflera quand même Héros de notre musique jetés dans larène Champs de ruine, seuls, épée au poing sous laverse À Hong Kong baby je pose un versé dans le vent Et depuis 86 on est accros à ce bounce Héros de notre musique, ils ont tenté de la prendre De la vendre sans penser à nous accorder les crédits Eh Yo, on dit que cest la crise Que les mecs rappent avec des chrysanthèmes Mais sous le ciel de Kowloon nos rimes sont toujours en tête La garde sur le mic veille, les saisons voient jaillir son spectre Les modes passent à nos oreilles mais nos voix toujours excellentes Les concepts surprennent, la vague se brise sur nos textes On ne surfe pas, on créée des thèmes intemporels pour nos frères Il y a ceux qui suivent, ceux qui mènent leur barque dans la tempête Je gère la mienne de NY jusquà la rivière des perles Défie les typhons qui dans le Hip Hop ont fait trop de perte Larage en parallèle rebelle en mic check Les clichés ont frappé, généralisé faits et lettres Ils ont tapé les faibles et arrosé nos rangs de traitres Divisés par le paraître, létendards tachés de sang La foi seule compte quand tes dans la merde Mais dans la boue sous les tirs les héros se révèlent Mon clan reste debout, la foule en redemande sur scène Un chant clair et guerrier là où les lances tombent, on ne cesse de marcher Des pions qui faussent la partie sur léchiquier Maître dans lart de rapper à jamais dans lhistoire Ils vont le nier mais récolteront ce quon a semé Et quand le rideau tombe, que la scène est déserte Cest dans les cieux étincelants que nos pensées se perdent Héros de notre musique où peu de lames percent Champs de ruine, seuls, lépée au poing sous laverse Si la cause est perdue et que la peur sen mêle Le chant du métal aiguisé sifflera quand même Héros de notre musique jetés dans larène Champs de ruine, seuls, épée au poing sous laverse</t>
         </is>
       </c>
     </row>
@@ -1444,12 +1444,12 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Hip hop Marseillais</t>
+          <t>Hôtel commissariat</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Hip hop Marseillais Hip hop Tu le sais mon hip-hop est comme ça Sec de Marseille, impulsif comme Cantona Si tu cherches après moi, pour rien J'écrirai sur toi comme un chien Te descendrai en rimes Un stylo dans chaque main Mon son fou à fond J'ai bon fond pourtant j'suis à fond Groupe par groupe mec Satan ou bidon fils je suis là Et si je fais le con dans le Mia C'est pas pour qu'il ne te reste que ça sur moi, écoute Tout ce que je fais est voulu A choisir qu'on porte un avis critique et objectif dessus Mais dès que ça vire je flaire vite si on veut jouer Joue sans moi, si tu fais que ça fils t'es coulé Plus méfiant qu'avant, on n'est plus naïf non plus Je sais vite à qui j'ai à faire, sans être payé j'suis ouvert Je reste dur avec les mecs qui parlent trop qui parlent trop Juste pour être clair et réglo S'il faut représenter par la technique on est là Avec le son sourd ou pas, un truc qui est sûr on traine pas Plus simple que d'aller en duo, solo aujourd'hui Hip hop Marseillais pour la vie x2 Hip hop Marseillais, Hip hop Faf Larage avec le Hip hop Marseillais, Hip hop Def Bond pour le Hip hop Marseillais, Hip hop Si tu veux du bon, du Hip hop Marseillais, Hip hop Fils ne bouge pas Mec je vais parler hip hop Marseillais Et comme ça tu vois ce que c'est, plus besoin de critiquer C'est fait, c'est passé Marseille depuis a retrouvé ses forces Bosse, s'organise non-stop tu le sais Conséquence fils, la ville ne dort plus non Du Centre à Saint Marcel, concerts,soirées sur mesures Des magasins de fringues et des disquaires, fournis En pur son, hip-hop d'ici pour tes technics Du vinyle pour les DJ qui mixent, faut encore prendre des risques C'est pas New-York mais on fixe, la barre haut hey Tout le monde fait ce qu'il faut S'intéresse à la production du coin, ça bouge trop EH YO! sur la planète, de plus en plus de groupes avec un niveau honnête Se pendront en live, check Les émissions speed, les disques en vrac Grades nouveautés qui claquent DJ scratche sur ma voix Faf Larage en nage Représente sa famille, sa vie, son rang mec Tu le sais, d'où je viens, ce que je fais Un gage de qualité hip hop Marseillais x2 Hip hop Marseillais, Hip hop Faf Larage avec le Hip hop Marseillais, Hip hop Def Bond pour le Hip hop Marseillais, Hip hop Si tu veux du bon, du Hip hop Marseillais, Hip hop Fils ne bouge pas F-A-F Larage, D-E-F Bond A-K-A ex Soul Swing Estampillé millésime 97 Lâche les mots comme des serveurs internet Mec, si je booste la tchatche c'est pour une histoire ou l'ego J'suis pas né dans la rue, pas dans le superflu non plus Compte ici que je ne vis pas, c'est exclus Comme un steak cru saignant je deviens dur si on me chauffe Présent au travers du mic comme dans ta vie comme une voix off, bof Complète c'est pas ça, les potes m'en parlent mieux que toi C'est pas le Club Med youkoulélés, y a le soleil les fadas Des ennuis, les nanas cherchent la caillasse peu importe d'où elle vient Pour ce qui est de plonger Mais c'est vrai, demain c'est loin loin J'ai jamais choisi mes relations J'ai pris ceux que j'ai croisés pour seule sélection La simplicité en premier, je peux être ami avec tout le monde, crevards inclus Tu peux venir de n'importe où mais jamais trahir la rue Pour l'équilibre spécifié dans les textes Tous les jours se remettre en place Passer du temps la vérité en face Choisir tes instrus taillées dans la masse Par respect rester vrai Pour le hip hop Marseillais Tu le sais Ouais, pour IAM Sad Hill tu le sais La Fonky Family, le 3 il fils K.Rhyme Le Roi, Le Freeman Sad Hill, Kif Kif, La Cosca Tanto Productions et le Côté Obscur Et Prodijnamore fils et Squat dans le slip, Sista Micky Et il y a encore trop de groupes, trop de monde qui représentent fils Trop de pression, tu le sais, Hip hop Marseillais A tous ces membres actifs, tu le sais Hey Blondin</t>
+          <t>Mi chiamo Leon, non so leggere né scrivere E sono un professionista pagato per uccidere Sempre pronto a morire, non ho mai imparato a vivere Impossibile dormire per chi ne ha saputo ridere Bevo litri di latte, bianco nella sua essenza E spero lavi le macchie di sangue dalla coscienza Ho lasciato la mia terra in fuga da un omicidio Adesso ogni omicidio mi dà i soldi con cui vivo Son come la mia pianta non parlo e non ho radici Tengo tutti alla larga, non mi servono gli amici La vita qua è bastarda e la tua vale due spicci Qui tocca farsi strada e nuotare in mezzo ai nemici La mia vicina di casa sta andando fuori È solo una ragazzina, ma ha già perso i genitori Trucidati dai mafiosi, faccio spazio al cuore burbero Che non sentiva niente, come avesse sopra il sughero Cercando nel mio cuore non è mai uscito l'amore Ogni tanto passo da Tony per una nuova missione Dannata ragazzina, ha seppellito scuola e diario E per vendicare il fratello le insegno a fare il sicario Gomma sullo spioncino, fingi di essere il vicino Trancia la catena e attenta a non far casino Tienilo sotto tiro, molla la donna e il piccolo Trattieni il respiro e chiudi un altro fascicolo La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta Lei mi si avvicina, sorride, afferra la mano Ubriaca nel ristorante, sussurra un ti amo Il giorno dopo il denaro Sei un sicario, allora vai là fuori Disse lacrimando Vendica i miei genitori Rifiuto l'occasione, non voglio qualche milione Ti ho giurato protezione, 'sta volta interviene il cuore La bimba si commuove, la vita qui non t'aspetta Si decide e si muove e prova la sua vendetta In mano un pranzo italiano al commissariato Sale a cercar lo sbirro, entra in bagno a polso armato Ma lo sbirro è più tagliato dell'ecstasy che ha calato La branca, la disarma e ha il grilletto già puntato Un collega lo interrompe dando l'inizio ai giochi Lo avvisa che sono entrato e che ho già ucciso i suoi soci Devo salvare lei, l'unico vero amore Mi ha insegnato l'alfabeto, mi ha donato il colore A dormire da sdraiato, abbandonare le poltrone Ad amare sì la mia pianta, però anche le persone Ci imboschiamo in hotel, carichi di tensione Posson prendermi la vita e non posson prendermi il cuore In albergo uno squadrone SWAT, pronti all'esecuzione Più di cento persone e una sola che non muore Io Scoppiano le bombe, io cerco l'evacuazione Apro una via di fuga, un ultimo bacio, amore Vai La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta La vendetta più la cerchi e più ti si ripresenta Mi feriscono più volte, non possono farmi niente Riesco a uscire ed imbosco, travestito da agente Qualche metro e sarò libero, lei è fuori che mi aspetta E la vendetta più la cerchi e più si ripresenta Ultimi quattro passi, sento già l'aria più fresca La luce si fa più forte, getto la maschera a terra Ultimo colpo in guerra, dritto nella mia testa Scappa forte amore mio, la mia anima vivrà eterna</t>
         </is>
       </c>
     </row>
@@ -1461,12 +1461,12 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hip Hop Protagonist</t>
+          <t>Ils deviennent ce qu’ils voient</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Un Hip Hop Protagonist, un freestyle spécialiste Un fan, un Microphone Fiend, speed quand la zique se glisse Peace avant que j'aie commencé, tu le sais Fils, bénis mes ennemis avant de les achever Un Faf Larage en forme précédé de Stormbringa Les normes ornent mes stickers Pas de portables et pas de beepers Pas trop de thunes pour faire ce que je veux Et cependant j'ai l'honneur, le bonheur de vivre comme j'aime Bien et même si je suis dans la merde Poto rien à faire j'ai pas la flemme Glander quand il s'agit de rapper ? Balivernes Si un Alien voudrait me souffler le Happy End Je l'explose en mille morceaux comme un pot en porcelaine Je gaze et t'as la haine mais tu te freines, j'ai trop la crème Le lyrical spécimen te remue jusqu'à l'abdomen Fait pleurer les hyènes et réputé jusqu'au Yémen Yeah men Faf Larage original braquage Si je suis de passage, les langues de putes s'écrasent Je taxe gras et y'a en fond des fous qui balisent Réalisent que si ils font les macs ici ils subissent Agir en bouffon c'est se punir T'es naze si tu penses qu'être soi-même c'est s'trahir Et quand je pose le micro je vire et vais applaudir Quitte à ce que je sois Ie seul si le MC suivant déchire Eh fils tu vois ce que je veux dire Faut ce qui faut pour assainir le Hip Hop Encourager les bons et dégager les pires S'ils pètent je supporte pas ces mecs Ici on a des règles et faut les respecter Sinon c'est la prise de tête La prise de bec, Hip Hop dans ta tête Fils tu comprends en 97 on peut pas s'le permettre C'est évident on s'préserve et y a des différends cependant Le jeu en vaut la chandelle si on reste indépendant Prend le fric là où il est Mais n'oublie jamais en studio quelle est la culture qui t'a bercé On est fin novembre dans l'ombre de la file d'attente lorsque L'occaz se présente je reviens en force Kif kif l'album ? Pff mec c'est même pas la peine Un projet fait avec les tripes, la rage et la haine, fils ! Marseille Mec, je suis pas là pour les ronds Je monte le ton si on me cherche Avec des textes sans concession Pour des gens qui veulent du son bon et Tu connais la qualité et ça ne va pas changer Je tiens à en poser une pour le public Big Up à tous ceux qui ont déliré sur nos vinyls Fils t'inquiète pas pour ça on a la recette Et y aura encore des maxis conformes aux Normes Marseillaises Matériellement tu le sais c'est pas ce qui me fait vivre Mais moralement j'en ai besoin pour évoluer, exténué La remise en question est instantanée, le morceau consumé Je suis parti sur un autre projet Ou bosse et fait faire, bien dans mes fringues UJS Style et Nouveautés dans la tête et plein d'rêves et D'objectifs, faut pas dormir, le rap c'est un truc qui va trop vite Faut suivre, être à la page et Essayer d'être aussi performant que tu puisses Demande aux mecs des quartiers de Mars, d'Aix ou de Istres Ils ont la rage, bossent à fond et ils ont raison Pas d'ambition pas d'fric, pas d'fric pas de maison Pas de bidons sinon les cons ils nous auront Actionnent les boutons, prennent toutes les décisions Tu marches ou non tes convictions sont saines ou non Des excuses, fils ? Oh non, tu cèdes pour des ronds Malgré des concerts des fois devant un public froid Des jeunes groupes qui y croient et toi tu craches sur ça Connard, moi j'suis passé par là et chaque rap pourri qui marche Elargit le fossé entre les incultes et le bon rap Comprends moi bien blaireau, je suis pas un type aigri Le Hip Hop et ma vie sont liés à jamais, tu le sais Comme le 3ème oeil dévoué, élevé au Rakim, Kool G, EPMD Et je tente de faire des assonances des styles quand j'y pense Je mets au point une diction qui me met en transe Quand je me lance et clean, unique, utile en vogue pour les freestyles Pur comme du cristal, arrache comme du Mesqual Ils regrettent à la fois leurs paroles à la tire occasionnelle On comprend pourquoi ce n'est pas souvent Les plus mauvais qui restent Test sur un texte extraordinairement posé sur une Ampex Si t'es dedans tu piges forcément Si tu l'es pas apprends, si tu veux pas fous le camp Aujourd'hui le 28 9.7 Tu vas entendre ça probablement en 98, te prends pas la tête Je serai parti sur autre chose, tu veux me rattraper, ose Mais laisse faire, c'est ma cause Mec, je suis pas là pour les ronds Je monte le ton si on me cherche Avec des textes sans concession Pour des gens qui veulent du son bon et Tu connais la qualité et ça ne va pas changer</t>
+          <t>Ils deviennent ce qu'ils voient, et voient ce qu'ils deviennent Qu'est-ce qu'ils deviennent Dans cette chienne de vie ils veulent la tienne S'il y a des blèmes, on s'en fout, on tente quand même Pose-toi la question, après, qui tiendra les rênes? Gaffe au précipice, fils D'en haut on glisse vite Les frères se charcutent, se mutent en bêtes, butent Plus personne se respecte dans ma ville À présent tout a un prix, tout s'achète L'échec, habitué, l'espoir s'échappe, la poisse Plus d'crasse, que des crasses, cèdent pour certains à la coke Pousse, trop d'dettes, la misère pèse Les gosses pèsent, pour le pèze La praise se présente sur trappe Compte, chaque quartier possède un mac qui racle le fond d'la caisse du peuple qui taffe La foule flanche Penche vers la débauche cochée, fauchée Avec le manche la voix résiste Mal enraciné, on t'désiste, la cloche retentit Iota Alpha, braque pour la survie l'ami Où est le juste, le sinistre prime Protège ton anus sur l'bitume, le fric XXX le pouvoir tangue Plisse les yeux garçon, à fond dans l'business XXX gonflés, restes d'un passé noir foncé Graine d'arabica élevée au Coca givré Rien n'est bridé, si tu sais retrouve une idée C'est la vie qui veut ça zin-cou Du coup, on fait nos coups en évitant les balles, la corde fléchit Il suffit d'un rien, réfléchis Blotti sous les préaux, taudis rivaux, 'coute fils La rue la nourrice, dedans on glisse Sans remords, sur vos lois on pisse Pour nos morts, peace Ils deviennent ce qu'ils voient, et voient ce qu'ils deviennent Qu'est-ce qu'ils deviennent Dans cette chienne de vie ils veulent la tienne S'il y a des blèmes, on s'en fout, on tente quand même Pose-toi la question, après, qui tiendra les rênes? Gaffe au précipice, fils D'en haut on glisse vite Ils deviennent ce qu'ils voient, penses-tu, deux mômes Idolâtrant les truands et les plus connus d'la rue Regarde ça, comment ils flambent Putain c'est trop chaud kho, bouger avec ces mecs Les gadji, le blé, du beurre poto Un clan, ils voulaient en être, rien d'autre Cigare au bec à New York, Benz à Naples et Fils, si t'as la maille XXX, fini d'rêver faut agir Ainsi, les voilà, pris dans l'délire En disons deux ans, deux gosses, dix-huit ans à présent Ont vu leur réputation dans le crime de bas étage prendre Une autre dimension La chance du débutant, trop bizarre, trop d'plans foireux et pas d'arrestations Devant tant d'efforts les grands ont cédé Ok, vu le CV, on vous prend avec nous à l'essai Trop doués, deux ans ont passé, les coups se succèdent L'argent rentre, et les jeunes ont pris d'l'assurance Le boss les félicite, confirme leur place au sein du clan Les responsabilise, sous son aile et ça dure quelque temps Mais très court, la fonction étant remplie lors d'un échange Les stups interviennent en flag, aussi Les voici en cellule, séparés Les nerfs à vif la coke trouvée Et un à un on leur expose les faits Deux escrocs manipulés Fils, des chèvres, protégées depuis trois ans et Les flics qui les surveillaient ont laissé faire Magouilles, trafic afin qu'ils montent le marché Disant, tu balances l'organisation Chacun dans sa cellule, larmes aux yeux et qu'à cela ne tienne Plus d'caïd, deux naïfs, vois ce qu'ils deviennent, fils Ils deviennent ce qu'ils voient, et voient ce qu'ils deviennent Qu'est-ce qu'ils deviennent Dans cette chienne de vie ils veulent la tienne S'il y a des blèmes, on s'en fout, on tente quand même Pose-toi la question, après, qui tiendra les rênes? Qui voudrait me tuer Prends un ticket et fais la queue Wesh XXX c'est la dèche, rien n'a changé Les années passent, toujours le même décor, les mêmes cinglés De jour en jour la merde se perpétue Dans la rue les mômes sévissent à l'unisson comme des morpions Pris dans un tourbillon, trouvent refuge dans le chich' Comme Achille, dans la tête plein de bambou Tape des styles du genre, j'm'en bats les Tant qu'je pèse, frère, et fais flipper les Trop laid, trop d'échecs, de jeunes dans le merdier La misère, sans prévenir a fait de nous ses amants Avec le temps mes potes deviennent des as du ouvre et prends pas d'sentiment C'est la jungle, frère, tu comprends Les gosses connaissent tous les vices pour s'en tirer Tous des diabolos, do you speak XXX to you, demande à c'poto Ils prennent exemple sur les aînés Qui même les deux genoux à terre, pas question d'se laisser aller Les dangers font partie du décor Dieu j'implore pour me garder en vie Qu'il m'aide à éviter ces filets dressés pour me dompter Faire de moi un prisonnier À longueur de journée, rien à glander Chômeur à seize ans, à dix-huit ans déjà longue durée Que l'odeur du cash le fait saliver Les touristes deviennent la proie du 143 des chacals Que veux-tu faire quand tu crèves la dalle Où il y a, tu prends, qu'est-ce tu crois c'est normal XXX ils deviennent ce qu'ils voient Ils deviennent ce qu'ils voient, et voient ce qu'ils deviennent dans la rue Ils deviennent ce qu'ils voient, et voient ce qu'ils deviennent dans la rue la rue La merde de jour en jour se perpétue Gaffe au précipice, fils, d'en haut on glisse vite Soigne nos rimes, le respect s'perd et tout s'effrite Je parle du quotidien écoute bien, mes phrases font pas rire</t>
         </is>
       </c>
     </row>
@@ -1478,12 +1478,12 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hola Hola</t>
+          <t>In memory of your...</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Oh na-na-na-na-na El Cantante del Ghetto Mmm, zaga zau This is the motherfuckin' remix Cocaine, Cocaine Jajajajaja Desde hace tiempo que no te veo, mami Quiero calmar este deseo Dime si tú estás puesta pa' mí Prr! Que los enemigos miran feo Pu-pu-pum-pum Llego a la disco vestido de Jordan Chu-chu-chu Y la baby se me pega con un rico splash Bum Conjunto de Nike y unas Air Force 1 Es rapera como yo y le gusta bailar Ella sabe, si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Después de la disco nos vamos a cu, shh Chu-chu-chu Callaíto', que ninguno se puede enterar Chu, chu, chu, chu Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pum prr La conocí y me la llevé pa' una finca de Medellín Te vas conmigo Me la pasé to'a la noche fumando y bebiendo lean Ajá Aquí se va a formar un motín Tienes el panty enchumba'o Agárrate, que te vo'a partir Perreo y aguardiente Sibiri, woh Pa' que te caliente' Jajajaja Dímelo, Colombia, Ñengo Flow regresó Dile que traiga a las mujere', que la rumba empezó Dice Yo sé que esto te gusta, ah-ah Traigo un flow hijueputa, ah-ah Que no se acabe nunca, ah-ah No me hagan más pregunta', ah-ah Quien te comió, ese fui yo En candela to'a la noche ella conmigo se guilló La demonia salió brava cuando Ñengo la pilló Secreto' que se quedan guardado' entre tú y yo El Chivo la partió, dice Jajajaja Llego a la disco vestido de Jordan Y la baby se me pega con un rico splash Splash Conjunto de Nike y unas Air Force 1 Es rapera como yo y le gusta bailar Ella sabe, si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Chu-chu-chu Después de la disco nos vamos a cu, shh Prr Callaíto', que ninguno se puede enterar Pu-pu-pum-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Me dijo Hola, cómo estás? Hola, vi la bandera en el perfil Le pregunté si es de Medallo, Cali o de Bogotá A ella le gusta provocar Le dije que deje de sonsacar o se lo voy a colocar Y yo llegué full Jordan y la puse a hacer el fly Se la traga como si eso fuera jugo Veryfine Sabe que estamo' haciendo número' en Spotify Ese pantycito se ve a legua' que no e' de tu size Me llama de madrugada, yo veo su llamada Y me alisto porque ya yo me sé la jugada Gritaba mi nombre mientra' le daba La bellaquera yo le elevaba Ella quiere entusiasmarse Si quieres llamo al dealer, qué hubo, parce? Qué hubo? De ninguna va a dejarse Mami, rica, yo por ti cojo la cárcel El Young King, baby jajajaja Llego a la disco vestido de Jordan Y la baby se me pega con un rico splash Splash, splash Conjunto de Nike y unas Air Force 1 Es rapera como yo y le gusta bailar Ella sabe, si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Chu-chu-chu Después de la disco nos vamos a cu, shh Prr Callaíto', que ninguno se puede enterar Pu-pu-pum-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pu-pu-pum Tentándome como cuando la conocí Pegaíta' contra la pared Esta noche solo ere' pa' mí Pri-yah pu-pu-pum laramercy gang Acicala'o de la cabeza a los pie' Oh-oh-oh La combi e' blue all y en los pedale' la' Bred Las cubana' en el cuello y en la mano el Role' Me dicen La Mole Farru! Dándole en la madre sin dejarla caer Saludo a lo' que se viraron y se dejaron ver Ahora coronamo' y tenemo' el poder Abran paso, llegó Pablo con to' los del cartel Pum-pum-pum Aquí vamo' pa' la finquita, un par de chimbita' Ponme la guaracha, dale, que el patrón invita Tra, tra Mucho alcohol y musiquita, el tussi e' rosita Me quedo en Medallo, a mí me encanta la tierrita Fa-rru! jajajaja Llego a la disco vestido de Jordan Y la baby se me pega con un rico splash Conjunto de Nike y unas Air Force 1 Es rapera como yo, le gusta fumar Sabe que si la beso, lo que puede pasar El pantycito se le moja y eso no es normal Después de la disco nos vamo' a singar Callaíto', que ninguno se puede enterar Fa-rru! Laramercy gang Ryan Castro, el que los tiene temblando Mere, indica, Ñengo Real G4 Life White Star Los de Bayeta, oíste, cabrón? Desde Colombia para el mundo entero, parce Ñengi Carbon Fiber Music Jan Paul Medallo, PR Pri-pa-pa-pa-pa-pai-pa This is the motherfuckin' remix Real G4 Life, mami Blep! Ey, Colombia Locombia Dime, Ryan Jajajajajaja</t>
+          <t>- Putain ! - C'est pour toi mec ! - Ne va plus jamais rapper putain ! Tu vas nous manquer avec tes rimes pourries On sabre le champagne avec la famille A tous les producteurs qui t'ont pas compris Qui t'ont reproché de pas avoir le sens du rythme Et sur un freestyle, on t'a vu partir T'as lâché le bizz, bousculé par le public T'étais le meilleur dans ta catégorie On va te pleurer comme le p'tit Gregory Rest in peace... Si ton plan c'est pas la folie On fait couler la folie Mémorial de rimes pourries Et si le hip-hop t'a omit On est là pour le homie Mémorial de rimes pourries Dépourvu, tu fais le rookie On allume une bougie Mémorial de rimes pourries Si j'verse une larme, c'est pour les tas de syllabes que t'as choisi dans tes raps, entassées ici, là Toutes ces rimes et phases larguées au hasard Tu t'es vu au Plaza, t'as fini au bazar Et j'te revois au studio balourd, bras ballants Te vautrer sur un beat à la Timbaland T'étais le king et ils t'ont mis au tapin Figé sur la scène, ils t'ont jeté un parpaing Eh Ta poésie ? Un gros bluff à Las Vegas Taillé pour les khalass, aller t'es fallasse Rappelles-toi, en photo, une amie t'a trouvé nice Dix secondes en live, elle a dit Désolée, je me casse ! T'avais un fonky-look, mais à cause de tes photos de plouc Ils t'ont supprimé ton Facebook T'avais la tournée mais ça a mal tourné Tu pétais, tu vidais la salle en moins de deux couplets Puis vint l'époque de l'autotune Tes baby n'ont rien donné pour tes rêves de lot of thune Jeté du bitume, banni de iTunes T'as fait ton buzz avec zéro vue sur YouTube T'as kiffé Miami, t'es mis au Dirty South Mais le Sud souffrait quand t'ouvrais ta dirty mouth Et à New York ? Tu visais le sommet, putain mais Jay Z il aurait pû t'rappeler Si ton plan c'est pas la folie On fait couler la folie Mémorial de rimes pourries Et si le hip-hop t'a omit On est là pour le homie Mémorial de rimes pourries Dépourvu, tu fais le rookie On allume une bougie Mémorial de rimes pourries Et tes problèmes de justice, malaise Pour avoir séduit des p'tites encore au collège Puis t'as sorti ta tape La critique fut méchante, ils n'ont rien compris à ton style XXX représente Tu voulais les plans beuh, les plans pou